--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Macroferia Regional de Talca - Kiwi.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Macroferia Regional de Talca - Kiwi.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T134"/>
+  <dimension ref="A1:T137"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2647,7 +2647,7 @@
         </is>
       </c>
       <c r="D29" s="2" t="n">
-        <v>44308</v>
+        <v>44414</v>
       </c>
       <c r="E29" t="n">
         <v>7</v>
@@ -2680,24 +2680,24 @@
       </c>
       <c r="L29" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M29" t="n">
-        <v>100</v>
+        <v>150</v>
       </c>
       <c r="N29" t="n">
-        <v>14000</v>
+        <v>8000</v>
       </c>
       <c r="O29" t="n">
-        <v>14000</v>
+        <v>8000</v>
       </c>
       <c r="P29" t="n">
-        <v>14000</v>
+        <v>8000</v>
       </c>
       <c r="Q29" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R29" t="inlineStr">
@@ -2706,10 +2706,10 @@
         </is>
       </c>
       <c r="S29" t="n">
-        <v>778</v>
+        <v>800</v>
       </c>
       <c r="T29" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="30">
@@ -2727,7 +2727,7 @@
         </is>
       </c>
       <c r="D30" s="2" t="n">
-        <v>44403</v>
+        <v>44414</v>
       </c>
       <c r="E30" t="n">
         <v>7</v>
@@ -2764,16 +2764,16 @@
         </is>
       </c>
       <c r="M30" t="n">
-        <v>350</v>
+        <v>190</v>
       </c>
       <c r="N30" t="n">
-        <v>9000</v>
+        <v>12000</v>
       </c>
       <c r="O30" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="P30" t="n">
-        <v>9429</v>
+        <v>12000</v>
       </c>
       <c r="Q30" t="inlineStr">
         <is>
@@ -2786,7 +2786,7 @@
         </is>
       </c>
       <c r="S30" t="n">
-        <v>524</v>
+        <v>667</v>
       </c>
       <c r="T30" t="n">
         <v>18</v>
@@ -2807,7 +2807,7 @@
         </is>
       </c>
       <c r="D31" s="2" t="n">
-        <v>44403</v>
+        <v>44414</v>
       </c>
       <c r="E31" t="n">
         <v>7</v>
@@ -2844,16 +2844,16 @@
         </is>
       </c>
       <c r="M31" t="n">
-        <v>250</v>
+        <v>100</v>
       </c>
       <c r="N31" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="O31" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="P31" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="Q31" t="inlineStr">
         <is>
@@ -2866,7 +2866,7 @@
         </is>
       </c>
       <c r="S31" t="n">
-        <v>444</v>
+        <v>556</v>
       </c>
       <c r="T31" t="n">
         <v>18</v>
@@ -2887,7 +2887,7 @@
         </is>
       </c>
       <c r="D32" s="2" t="n">
-        <v>44379</v>
+        <v>44308</v>
       </c>
       <c r="E32" t="n">
         <v>7</v>
@@ -2924,16 +2924,16 @@
         </is>
       </c>
       <c r="M32" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="N32" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="O32" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="P32" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="Q32" t="inlineStr">
         <is>
@@ -2946,7 +2946,7 @@
         </is>
       </c>
       <c r="S32" t="n">
-        <v>667</v>
+        <v>778</v>
       </c>
       <c r="T32" t="n">
         <v>18</v>
@@ -2967,7 +2967,7 @@
         </is>
       </c>
       <c r="D33" s="2" t="n">
-        <v>44379</v>
+        <v>44403</v>
       </c>
       <c r="E33" t="n">
         <v>7</v>
@@ -3004,16 +3004,16 @@
         </is>
       </c>
       <c r="M33" t="n">
-        <v>160</v>
+        <v>350</v>
       </c>
       <c r="N33" t="n">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="O33" t="n">
         <v>10000</v>
       </c>
       <c r="P33" t="n">
-        <v>10000</v>
+        <v>9429</v>
       </c>
       <c r="Q33" t="inlineStr">
         <is>
@@ -3026,7 +3026,7 @@
         </is>
       </c>
       <c r="S33" t="n">
-        <v>556</v>
+        <v>524</v>
       </c>
       <c r="T33" t="n">
         <v>18</v>
@@ -3047,7 +3047,7 @@
         </is>
       </c>
       <c r="D34" s="2" t="n">
-        <v>44306</v>
+        <v>44403</v>
       </c>
       <c r="E34" t="n">
         <v>7</v>
@@ -3080,24 +3080,24 @@
       </c>
       <c r="L34" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M34" t="n">
-        <v>230</v>
+        <v>250</v>
       </c>
       <c r="N34" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="O34" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="P34" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="Q34" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="R34" t="inlineStr">
@@ -3106,10 +3106,10 @@
         </is>
       </c>
       <c r="S34" t="n">
-        <v>1000</v>
+        <v>444</v>
       </c>
       <c r="T34" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
     </row>
     <row r="35">
@@ -3127,7 +3127,7 @@
         </is>
       </c>
       <c r="D35" s="2" t="n">
-        <v>44306</v>
+        <v>44379</v>
       </c>
       <c r="E35" t="n">
         <v>7</v>
@@ -3164,16 +3164,16 @@
         </is>
       </c>
       <c r="M35" t="n">
-        <v>180</v>
+        <v>200</v>
       </c>
       <c r="N35" t="n">
-        <v>13000</v>
+        <v>12000</v>
       </c>
       <c r="O35" t="n">
-        <v>13000</v>
+        <v>12000</v>
       </c>
       <c r="P35" t="n">
-        <v>13000</v>
+        <v>12000</v>
       </c>
       <c r="Q35" t="inlineStr">
         <is>
@@ -3186,7 +3186,7 @@
         </is>
       </c>
       <c r="S35" t="n">
-        <v>722</v>
+        <v>667</v>
       </c>
       <c r="T35" t="n">
         <v>18</v>
@@ -3207,7 +3207,7 @@
         </is>
       </c>
       <c r="D36" s="2" t="n">
-        <v>44306</v>
+        <v>44379</v>
       </c>
       <c r="E36" t="n">
         <v>7</v>
@@ -3244,20 +3244,20 @@
         </is>
       </c>
       <c r="M36" t="n">
-        <v>230</v>
+        <v>160</v>
       </c>
       <c r="N36" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="O36" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="P36" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="Q36" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="R36" t="inlineStr">
@@ -3266,10 +3266,10 @@
         </is>
       </c>
       <c r="S36" t="n">
-        <v>800</v>
+        <v>556</v>
       </c>
       <c r="T36" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
     </row>
     <row r="37">
@@ -3287,7 +3287,7 @@
         </is>
       </c>
       <c r="D37" s="2" t="n">
-        <v>44356</v>
+        <v>44306</v>
       </c>
       <c r="E37" t="n">
         <v>7</v>
@@ -3324,20 +3324,20 @@
         </is>
       </c>
       <c r="M37" t="n">
-        <v>200</v>
+        <v>230</v>
       </c>
       <c r="N37" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="O37" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="P37" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="Q37" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R37" t="inlineStr">
@@ -3346,10 +3346,10 @@
         </is>
       </c>
       <c r="S37" t="n">
-        <v>667</v>
+        <v>1000</v>
       </c>
       <c r="T37" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="38">
@@ -3367,7 +3367,7 @@
         </is>
       </c>
       <c r="D38" s="2" t="n">
-        <v>44356</v>
+        <v>44306</v>
       </c>
       <c r="E38" t="n">
         <v>7</v>
@@ -3400,20 +3400,20 @@
       </c>
       <c r="L38" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M38" t="n">
-        <v>140</v>
+        <v>180</v>
       </c>
       <c r="N38" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="O38" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="P38" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="Q38" t="inlineStr">
         <is>
@@ -3426,7 +3426,7 @@
         </is>
       </c>
       <c r="S38" t="n">
-        <v>556</v>
+        <v>722</v>
       </c>
       <c r="T38" t="n">
         <v>18</v>
@@ -3447,7 +3447,7 @@
         </is>
       </c>
       <c r="D39" s="2" t="n">
-        <v>44356</v>
+        <v>44306</v>
       </c>
       <c r="E39" t="n">
         <v>7</v>
@@ -3480,11 +3480,11 @@
       </c>
       <c r="L39" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M39" t="n">
-        <v>80</v>
+        <v>230</v>
       </c>
       <c r="N39" t="n">
         <v>8000</v>
@@ -3497,7 +3497,7 @@
       </c>
       <c r="Q39" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R39" t="inlineStr">
@@ -3506,10 +3506,10 @@
         </is>
       </c>
       <c r="S39" t="n">
-        <v>444</v>
+        <v>800</v>
       </c>
       <c r="T39" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="40">
@@ -3527,7 +3527,7 @@
         </is>
       </c>
       <c r="D40" s="2" t="n">
-        <v>44280</v>
+        <v>44356</v>
       </c>
       <c r="E40" t="n">
         <v>7</v>
@@ -3560,24 +3560,24 @@
       </c>
       <c r="L40" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M40" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="N40" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="O40" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="P40" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="Q40" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="R40" t="inlineStr">
@@ -3586,10 +3586,10 @@
         </is>
       </c>
       <c r="S40" t="n">
-        <v>1000</v>
+        <v>667</v>
       </c>
       <c r="T40" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
     </row>
     <row r="41">
@@ -3607,7 +3607,7 @@
         </is>
       </c>
       <c r="D41" s="2" t="n">
-        <v>44280</v>
+        <v>44356</v>
       </c>
       <c r="E41" t="n">
         <v>7</v>
@@ -3640,24 +3640,24 @@
       </c>
       <c r="L41" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M41" t="n">
-        <v>60</v>
+        <v>140</v>
       </c>
       <c r="N41" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="O41" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="P41" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="Q41" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="R41" t="inlineStr">
@@ -3666,10 +3666,10 @@
         </is>
       </c>
       <c r="S41" t="n">
-        <v>800</v>
+        <v>556</v>
       </c>
       <c r="T41" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
     </row>
     <row r="42">
@@ -3687,7 +3687,7 @@
         </is>
       </c>
       <c r="D42" s="2" t="n">
-        <v>44299</v>
+        <v>44356</v>
       </c>
       <c r="E42" t="n">
         <v>7</v>
@@ -3720,20 +3720,20 @@
       </c>
       <c r="L42" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M42" t="n">
-        <v>200</v>
+        <v>80</v>
       </c>
       <c r="N42" t="n">
-        <v>13000</v>
+        <v>8000</v>
       </c>
       <c r="O42" t="n">
-        <v>13000</v>
+        <v>8000</v>
       </c>
       <c r="P42" t="n">
-        <v>13000</v>
+        <v>8000</v>
       </c>
       <c r="Q42" t="inlineStr">
         <is>
@@ -3746,7 +3746,7 @@
         </is>
       </c>
       <c r="S42" t="n">
-        <v>722</v>
+        <v>444</v>
       </c>
       <c r="T42" t="n">
         <v>18</v>
@@ -3767,7 +3767,7 @@
         </is>
       </c>
       <c r="D43" s="2" t="n">
-        <v>44342</v>
+        <v>44280</v>
       </c>
       <c r="E43" t="n">
         <v>7</v>
@@ -3804,20 +3804,20 @@
         </is>
       </c>
       <c r="M43" t="n">
-        <v>250</v>
+        <v>100</v>
       </c>
       <c r="N43" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="O43" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="P43" t="n">
-        <v>8600</v>
+        <v>10000</v>
       </c>
       <c r="Q43" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="R43" t="inlineStr">
@@ -3826,10 +3826,10 @@
         </is>
       </c>
       <c r="S43" t="n">
-        <v>478</v>
+        <v>1000</v>
       </c>
       <c r="T43" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="44">
@@ -3847,7 +3847,7 @@
         </is>
       </c>
       <c r="D44" s="2" t="n">
-        <v>44384</v>
+        <v>44280</v>
       </c>
       <c r="E44" t="n">
         <v>7</v>
@@ -3880,20 +3880,20 @@
       </c>
       <c r="L44" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M44" t="n">
-        <v>500</v>
+        <v>60</v>
       </c>
       <c r="N44" t="n">
-        <v>6000</v>
+        <v>8000</v>
       </c>
       <c r="O44" t="n">
-        <v>6000</v>
+        <v>8000</v>
       </c>
       <c r="P44" t="n">
-        <v>6000</v>
+        <v>8000</v>
       </c>
       <c r="Q44" t="inlineStr">
         <is>
@@ -3906,7 +3906,7 @@
         </is>
       </c>
       <c r="S44" t="n">
-        <v>600</v>
+        <v>800</v>
       </c>
       <c r="T44" t="n">
         <v>10</v>
@@ -3927,7 +3927,7 @@
         </is>
       </c>
       <c r="D45" s="2" t="n">
-        <v>44323</v>
+        <v>44299</v>
       </c>
       <c r="E45" t="n">
         <v>7</v>
@@ -3960,24 +3960,24 @@
       </c>
       <c r="L45" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M45" t="n">
-        <v>150</v>
+        <v>200</v>
       </c>
       <c r="N45" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="O45" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="P45" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="Q45" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="R45" t="inlineStr">
@@ -3986,10 +3986,10 @@
         </is>
       </c>
       <c r="S45" t="n">
-        <v>1000</v>
+        <v>722</v>
       </c>
       <c r="T45" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
     </row>
     <row r="46">
@@ -4007,7 +4007,7 @@
         </is>
       </c>
       <c r="D46" s="2" t="n">
-        <v>44323</v>
+        <v>44342</v>
       </c>
       <c r="E46" t="n">
         <v>7</v>
@@ -4044,20 +4044,20 @@
         </is>
       </c>
       <c r="M46" t="n">
-        <v>100</v>
+        <v>250</v>
       </c>
       <c r="N46" t="n">
-        <v>9000</v>
+        <v>8000</v>
       </c>
       <c r="O46" t="n">
         <v>9000</v>
       </c>
       <c r="P46" t="n">
-        <v>9000</v>
+        <v>8600</v>
       </c>
       <c r="Q46" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="R46" t="inlineStr">
@@ -4066,10 +4066,10 @@
         </is>
       </c>
       <c r="S46" t="n">
-        <v>900</v>
+        <v>478</v>
       </c>
       <c r="T46" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
     </row>
     <row r="47">
@@ -4087,7 +4087,7 @@
         </is>
       </c>
       <c r="D47" s="2" t="n">
-        <v>44363</v>
+        <v>44384</v>
       </c>
       <c r="E47" t="n">
         <v>7</v>
@@ -4124,32 +4124,32 @@
         </is>
       </c>
       <c r="M47" t="n">
-        <v>280</v>
+        <v>500</v>
       </c>
       <c r="N47" t="n">
-        <v>10000</v>
+        <v>6000</v>
       </c>
       <c r="O47" t="n">
-        <v>10000</v>
+        <v>6000</v>
       </c>
       <c r="P47" t="n">
-        <v>10000</v>
+        <v>6000</v>
       </c>
       <c r="Q47" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="R47" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S47" t="n">
-        <v>556</v>
+        <v>600</v>
       </c>
       <c r="T47" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="48">
@@ -4167,7 +4167,7 @@
         </is>
       </c>
       <c r="D48" s="2" t="n">
-        <v>44363</v>
+        <v>44323</v>
       </c>
       <c r="E48" t="n">
         <v>7</v>
@@ -4200,36 +4200,36 @@
       </c>
       <c r="L48" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M48" t="n">
-        <v>300</v>
+        <v>150</v>
       </c>
       <c r="N48" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="O48" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="P48" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="Q48" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R48" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S48" t="n">
-        <v>444</v>
+        <v>1000</v>
       </c>
       <c r="T48" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="49">
@@ -4247,7 +4247,7 @@
         </is>
       </c>
       <c r="D49" s="2" t="n">
-        <v>44349</v>
+        <v>44323</v>
       </c>
       <c r="E49" t="n">
         <v>7</v>
@@ -4280,24 +4280,24 @@
       </c>
       <c r="L49" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M49" t="n">
-        <v>180</v>
+        <v>100</v>
       </c>
       <c r="N49" t="n">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="O49" t="n">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="P49" t="n">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="Q49" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R49" t="inlineStr">
@@ -4306,10 +4306,10 @@
         </is>
       </c>
       <c r="S49" t="n">
-        <v>556</v>
+        <v>900</v>
       </c>
       <c r="T49" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="50">
@@ -4327,7 +4327,7 @@
         </is>
       </c>
       <c r="D50" s="2" t="n">
-        <v>44349</v>
+        <v>44363</v>
       </c>
       <c r="E50" t="n">
         <v>7</v>
@@ -4364,16 +4364,16 @@
         </is>
       </c>
       <c r="M50" t="n">
-        <v>230</v>
+        <v>280</v>
       </c>
       <c r="N50" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="O50" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="P50" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="Q50" t="inlineStr">
         <is>
@@ -4382,11 +4382,11 @@
       </c>
       <c r="R50" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S50" t="n">
-        <v>444</v>
+        <v>556</v>
       </c>
       <c r="T50" t="n">
         <v>18</v>
@@ -4407,7 +4407,7 @@
         </is>
       </c>
       <c r="D51" s="2" t="n">
-        <v>44385</v>
+        <v>44363</v>
       </c>
       <c r="E51" t="n">
         <v>7</v>
@@ -4440,20 +4440,20 @@
       </c>
       <c r="L51" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M51" t="n">
-        <v>230</v>
+        <v>300</v>
       </c>
       <c r="N51" t="n">
-        <v>11000</v>
+        <v>8000</v>
       </c>
       <c r="O51" t="n">
-        <v>11000</v>
+        <v>8000</v>
       </c>
       <c r="P51" t="n">
-        <v>11000</v>
+        <v>8000</v>
       </c>
       <c r="Q51" t="inlineStr">
         <is>
@@ -4462,11 +4462,11 @@
       </c>
       <c r="R51" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S51" t="n">
-        <v>611</v>
+        <v>444</v>
       </c>
       <c r="T51" t="n">
         <v>18</v>
@@ -4487,7 +4487,7 @@
         </is>
       </c>
       <c r="D52" s="2" t="n">
-        <v>44385</v>
+        <v>44349</v>
       </c>
       <c r="E52" t="n">
         <v>7</v>
@@ -4520,20 +4520,20 @@
       </c>
       <c r="L52" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M52" t="n">
-        <v>200</v>
+        <v>180</v>
       </c>
       <c r="N52" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="O52" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="P52" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="Q52" t="inlineStr">
         <is>
@@ -4546,7 +4546,7 @@
         </is>
       </c>
       <c r="S52" t="n">
-        <v>500</v>
+        <v>556</v>
       </c>
       <c r="T52" t="n">
         <v>18</v>
@@ -4567,7 +4567,7 @@
         </is>
       </c>
       <c r="D53" s="2" t="n">
-        <v>44377</v>
+        <v>44349</v>
       </c>
       <c r="E53" t="n">
         <v>7</v>
@@ -4604,16 +4604,16 @@
         </is>
       </c>
       <c r="M53" t="n">
-        <v>150</v>
+        <v>230</v>
       </c>
       <c r="N53" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="O53" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="P53" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="Q53" t="inlineStr">
         <is>
@@ -4626,7 +4626,7 @@
         </is>
       </c>
       <c r="S53" t="n">
-        <v>556</v>
+        <v>444</v>
       </c>
       <c r="T53" t="n">
         <v>18</v>
@@ -4647,7 +4647,7 @@
         </is>
       </c>
       <c r="D54" s="2" t="n">
-        <v>44377</v>
+        <v>44385</v>
       </c>
       <c r="E54" t="n">
         <v>7</v>
@@ -4680,24 +4680,24 @@
       </c>
       <c r="L54" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M54" t="n">
-        <v>210</v>
+        <v>230</v>
       </c>
       <c r="N54" t="n">
-        <v>6000</v>
+        <v>11000</v>
       </c>
       <c r="O54" t="n">
-        <v>6000</v>
+        <v>11000</v>
       </c>
       <c r="P54" t="n">
-        <v>6000</v>
+        <v>11000</v>
       </c>
       <c r="Q54" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="R54" t="inlineStr">
@@ -4706,10 +4706,10 @@
         </is>
       </c>
       <c r="S54" t="n">
-        <v>600</v>
+        <v>611</v>
       </c>
       <c r="T54" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
     </row>
     <row r="55">
@@ -4727,7 +4727,7 @@
         </is>
       </c>
       <c r="D55" s="2" t="n">
-        <v>44377</v>
+        <v>44385</v>
       </c>
       <c r="E55" t="n">
         <v>7</v>
@@ -4760,20 +4760,20 @@
       </c>
       <c r="L55" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M55" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="N55" t="n">
-        <v>6000</v>
+        <v>9000</v>
       </c>
       <c r="O55" t="n">
-        <v>6000</v>
+        <v>9000</v>
       </c>
       <c r="P55" t="n">
-        <v>6000</v>
+        <v>9000</v>
       </c>
       <c r="Q55" t="inlineStr">
         <is>
@@ -4786,7 +4786,7 @@
         </is>
       </c>
       <c r="S55" t="n">
-        <v>333</v>
+        <v>500</v>
       </c>
       <c r="T55" t="n">
         <v>18</v>
@@ -4807,7 +4807,7 @@
         </is>
       </c>
       <c r="D56" s="2" t="n">
-        <v>44400</v>
+        <v>44377</v>
       </c>
       <c r="E56" t="n">
         <v>7</v>
@@ -4840,20 +4840,20 @@
       </c>
       <c r="L56" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M56" t="n">
-        <v>100</v>
+        <v>150</v>
       </c>
       <c r="N56" t="n">
-        <v>13000</v>
+        <v>10000</v>
       </c>
       <c r="O56" t="n">
-        <v>13000</v>
+        <v>10000</v>
       </c>
       <c r="P56" t="n">
-        <v>13000</v>
+        <v>10000</v>
       </c>
       <c r="Q56" t="inlineStr">
         <is>
@@ -4866,7 +4866,7 @@
         </is>
       </c>
       <c r="S56" t="n">
-        <v>722</v>
+        <v>556</v>
       </c>
       <c r="T56" t="n">
         <v>18</v>
@@ -4887,7 +4887,7 @@
         </is>
       </c>
       <c r="D57" s="2" t="n">
-        <v>44400</v>
+        <v>44377</v>
       </c>
       <c r="E57" t="n">
         <v>7</v>
@@ -4924,20 +4924,20 @@
         </is>
       </c>
       <c r="M57" t="n">
-        <v>180</v>
+        <v>210</v>
       </c>
       <c r="N57" t="n">
-        <v>10000</v>
+        <v>6000</v>
       </c>
       <c r="O57" t="n">
-        <v>10000</v>
+        <v>6000</v>
       </c>
       <c r="P57" t="n">
-        <v>10000</v>
+        <v>6000</v>
       </c>
       <c r="Q57" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="R57" t="inlineStr">
@@ -4946,10 +4946,10 @@
         </is>
       </c>
       <c r="S57" t="n">
-        <v>556</v>
+        <v>600</v>
       </c>
       <c r="T57" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="58">
@@ -4967,7 +4967,7 @@
         </is>
       </c>
       <c r="D58" s="2" t="n">
-        <v>44400</v>
+        <v>44377</v>
       </c>
       <c r="E58" t="n">
         <v>7</v>
@@ -5000,20 +5000,20 @@
       </c>
       <c r="L58" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="M58" t="n">
-        <v>150</v>
+        <v>100</v>
       </c>
       <c r="N58" t="n">
-        <v>8000</v>
+        <v>6000</v>
       </c>
       <c r="O58" t="n">
-        <v>8000</v>
+        <v>6000</v>
       </c>
       <c r="P58" t="n">
-        <v>8000</v>
+        <v>6000</v>
       </c>
       <c r="Q58" t="inlineStr">
         <is>
@@ -5026,7 +5026,7 @@
         </is>
       </c>
       <c r="S58" t="n">
-        <v>444</v>
+        <v>333</v>
       </c>
       <c r="T58" t="n">
         <v>18</v>
@@ -5047,7 +5047,7 @@
         </is>
       </c>
       <c r="D59" s="2" t="n">
-        <v>44295</v>
+        <v>44400</v>
       </c>
       <c r="E59" t="n">
         <v>7</v>
@@ -5080,20 +5080,20 @@
       </c>
       <c r="L59" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M59" t="n">
-        <v>160</v>
+        <v>100</v>
       </c>
       <c r="N59" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="O59" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="P59" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="Q59" t="inlineStr">
         <is>
@@ -5106,7 +5106,7 @@
         </is>
       </c>
       <c r="S59" t="n">
-        <v>556</v>
+        <v>722</v>
       </c>
       <c r="T59" t="n">
         <v>18</v>
@@ -5127,7 +5127,7 @@
         </is>
       </c>
       <c r="D60" s="2" t="n">
-        <v>44390</v>
+        <v>44400</v>
       </c>
       <c r="E60" t="n">
         <v>7</v>
@@ -5164,16 +5164,16 @@
         </is>
       </c>
       <c r="M60" t="n">
-        <v>250</v>
+        <v>180</v>
       </c>
       <c r="N60" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="O60" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="P60" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="Q60" t="inlineStr">
         <is>
@@ -5186,7 +5186,7 @@
         </is>
       </c>
       <c r="S60" t="n">
-        <v>500</v>
+        <v>556</v>
       </c>
       <c r="T60" t="n">
         <v>18</v>
@@ -5207,7 +5207,7 @@
         </is>
       </c>
       <c r="D61" s="2" t="n">
-        <v>44321</v>
+        <v>44400</v>
       </c>
       <c r="E61" t="n">
         <v>7</v>
@@ -5240,20 +5240,20 @@
       </c>
       <c r="L61" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M61" t="n">
-        <v>200</v>
+        <v>150</v>
       </c>
       <c r="N61" t="n">
-        <v>13000</v>
+        <v>8000</v>
       </c>
       <c r="O61" t="n">
-        <v>13000</v>
+        <v>8000</v>
       </c>
       <c r="P61" t="n">
-        <v>13000</v>
+        <v>8000</v>
       </c>
       <c r="Q61" t="inlineStr">
         <is>
@@ -5266,7 +5266,7 @@
         </is>
       </c>
       <c r="S61" t="n">
-        <v>722</v>
+        <v>444</v>
       </c>
       <c r="T61" t="n">
         <v>18</v>
@@ -5287,7 +5287,7 @@
         </is>
       </c>
       <c r="D62" s="2" t="n">
-        <v>44383</v>
+        <v>44295</v>
       </c>
       <c r="E62" t="n">
         <v>7</v>
@@ -5324,16 +5324,16 @@
         </is>
       </c>
       <c r="M62" t="n">
-        <v>210</v>
+        <v>160</v>
       </c>
       <c r="N62" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="O62" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="P62" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="Q62" t="inlineStr">
         <is>
@@ -5346,7 +5346,7 @@
         </is>
       </c>
       <c r="S62" t="n">
-        <v>500</v>
+        <v>556</v>
       </c>
       <c r="T62" t="n">
         <v>18</v>
@@ -5367,7 +5367,7 @@
         </is>
       </c>
       <c r="D63" s="2" t="n">
-        <v>44383</v>
+        <v>44390</v>
       </c>
       <c r="E63" t="n">
         <v>7</v>
@@ -5404,20 +5404,20 @@
         </is>
       </c>
       <c r="M63" t="n">
-        <v>260</v>
+        <v>250</v>
       </c>
       <c r="N63" t="n">
-        <v>6000</v>
+        <v>9000</v>
       </c>
       <c r="O63" t="n">
-        <v>6000</v>
+        <v>9000</v>
       </c>
       <c r="P63" t="n">
-        <v>6000</v>
+        <v>9000</v>
       </c>
       <c r="Q63" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="R63" t="inlineStr">
@@ -5426,10 +5426,10 @@
         </is>
       </c>
       <c r="S63" t="n">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="T63" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
     </row>
     <row r="64">
@@ -5447,7 +5447,7 @@
         </is>
       </c>
       <c r="D64" s="2" t="n">
-        <v>44354</v>
+        <v>44321</v>
       </c>
       <c r="E64" t="n">
         <v>7</v>
@@ -5480,20 +5480,20 @@
       </c>
       <c r="L64" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M64" t="n">
-        <v>180</v>
+        <v>200</v>
       </c>
       <c r="N64" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="O64" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="P64" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="Q64" t="inlineStr">
         <is>
@@ -5502,11 +5502,11 @@
       </c>
       <c r="R64" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S64" t="n">
-        <v>667</v>
+        <v>722</v>
       </c>
       <c r="T64" t="n">
         <v>18</v>
@@ -5527,7 +5527,7 @@
         </is>
       </c>
       <c r="D65" s="2" t="n">
-        <v>44354</v>
+        <v>44383</v>
       </c>
       <c r="E65" t="n">
         <v>7</v>
@@ -5564,16 +5564,16 @@
         </is>
       </c>
       <c r="M65" t="n">
-        <v>100</v>
+        <v>210</v>
       </c>
       <c r="N65" t="n">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="O65" t="n">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="P65" t="n">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="Q65" t="inlineStr">
         <is>
@@ -5582,11 +5582,11 @@
       </c>
       <c r="R65" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S65" t="n">
-        <v>556</v>
+        <v>500</v>
       </c>
       <c r="T65" t="n">
         <v>18</v>
@@ -5607,7 +5607,7 @@
         </is>
       </c>
       <c r="D66" s="2" t="n">
-        <v>44410</v>
+        <v>44383</v>
       </c>
       <c r="E66" t="n">
         <v>7</v>
@@ -5644,20 +5644,20 @@
         </is>
       </c>
       <c r="M66" t="n">
-        <v>230</v>
+        <v>260</v>
       </c>
       <c r="N66" t="n">
-        <v>12000</v>
+        <v>6000</v>
       </c>
       <c r="O66" t="n">
-        <v>12000</v>
+        <v>6000</v>
       </c>
       <c r="P66" t="n">
-        <v>12000</v>
+        <v>6000</v>
       </c>
       <c r="Q66" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="R66" t="inlineStr">
@@ -5666,10 +5666,10 @@
         </is>
       </c>
       <c r="S66" t="n">
-        <v>667</v>
+        <v>600</v>
       </c>
       <c r="T66" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="67">
@@ -5687,7 +5687,7 @@
         </is>
       </c>
       <c r="D67" s="2" t="n">
-        <v>44410</v>
+        <v>44354</v>
       </c>
       <c r="E67" t="n">
         <v>7</v>
@@ -5720,36 +5720,36 @@
       </c>
       <c r="L67" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M67" t="n">
-        <v>230</v>
+        <v>180</v>
       </c>
       <c r="N67" t="n">
-        <v>7000</v>
+        <v>12000</v>
       </c>
       <c r="O67" t="n">
-        <v>7000</v>
+        <v>12000</v>
       </c>
       <c r="P67" t="n">
-        <v>7000</v>
+        <v>12000</v>
       </c>
       <c r="Q67" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="R67" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S67" t="n">
-        <v>700</v>
+        <v>667</v>
       </c>
       <c r="T67" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
     </row>
     <row r="68">
@@ -5767,7 +5767,7 @@
         </is>
       </c>
       <c r="D68" s="2" t="n">
-        <v>44412</v>
+        <v>44354</v>
       </c>
       <c r="E68" t="n">
         <v>7</v>
@@ -5800,20 +5800,20 @@
       </c>
       <c r="L68" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M68" t="n">
-        <v>180</v>
+        <v>100</v>
       </c>
       <c r="N68" t="n">
-        <v>14000</v>
+        <v>10000</v>
       </c>
       <c r="O68" t="n">
-        <v>14000</v>
+        <v>10000</v>
       </c>
       <c r="P68" t="n">
-        <v>14000</v>
+        <v>10000</v>
       </c>
       <c r="Q68" t="inlineStr">
         <is>
@@ -5822,11 +5822,11 @@
       </c>
       <c r="R68" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S68" t="n">
-        <v>778</v>
+        <v>556</v>
       </c>
       <c r="T68" t="n">
         <v>18</v>
@@ -5847,7 +5847,7 @@
         </is>
       </c>
       <c r="D69" s="2" t="n">
-        <v>44412</v>
+        <v>44410</v>
       </c>
       <c r="E69" t="n">
         <v>7</v>
@@ -5927,7 +5927,7 @@
         </is>
       </c>
       <c r="D70" s="2" t="n">
-        <v>44336</v>
+        <v>44410</v>
       </c>
       <c r="E70" t="n">
         <v>7</v>
@@ -5964,16 +5964,16 @@
         </is>
       </c>
       <c r="M70" t="n">
-        <v>250</v>
+        <v>230</v>
       </c>
       <c r="N70" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="O70" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="P70" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="Q70" t="inlineStr">
         <is>
@@ -5986,7 +5986,7 @@
         </is>
       </c>
       <c r="S70" t="n">
-        <v>800</v>
+        <v>700</v>
       </c>
       <c r="T70" t="n">
         <v>10</v>
@@ -6007,7 +6007,7 @@
         </is>
       </c>
       <c r="D71" s="2" t="n">
-        <v>44320</v>
+        <v>44412</v>
       </c>
       <c r="E71" t="n">
         <v>7</v>
@@ -6044,16 +6044,16 @@
         </is>
       </c>
       <c r="M71" t="n">
-        <v>120</v>
+        <v>180</v>
       </c>
       <c r="N71" t="n">
-        <v>13000</v>
+        <v>14000</v>
       </c>
       <c r="O71" t="n">
-        <v>13000</v>
+        <v>14000</v>
       </c>
       <c r="P71" t="n">
-        <v>13000</v>
+        <v>14000</v>
       </c>
       <c r="Q71" t="inlineStr">
         <is>
@@ -6066,7 +6066,7 @@
         </is>
       </c>
       <c r="S71" t="n">
-        <v>722</v>
+        <v>778</v>
       </c>
       <c r="T71" t="n">
         <v>18</v>
@@ -6087,7 +6087,7 @@
         </is>
       </c>
       <c r="D72" s="2" t="n">
-        <v>44320</v>
+        <v>44412</v>
       </c>
       <c r="E72" t="n">
         <v>7</v>
@@ -6120,24 +6120,24 @@
       </c>
       <c r="L72" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M72" t="n">
-        <v>150</v>
+        <v>230</v>
       </c>
       <c r="N72" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="O72" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="P72" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="Q72" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="R72" t="inlineStr">
@@ -6146,10 +6146,10 @@
         </is>
       </c>
       <c r="S72" t="n">
-        <v>1000</v>
+        <v>667</v>
       </c>
       <c r="T72" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
     </row>
     <row r="73">
@@ -6167,7 +6167,7 @@
         </is>
       </c>
       <c r="D73" s="2" t="n">
-        <v>44320</v>
+        <v>44336</v>
       </c>
       <c r="E73" t="n">
         <v>7</v>
@@ -6204,20 +6204,20 @@
         </is>
       </c>
       <c r="M73" t="n">
-        <v>300</v>
+        <v>250</v>
       </c>
       <c r="N73" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="O73" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="P73" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="Q73" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="R73" t="inlineStr">
@@ -6226,7 +6226,7 @@
         </is>
       </c>
       <c r="S73" t="n">
-        <v>1000</v>
+        <v>800</v>
       </c>
       <c r="T73" t="n">
         <v>10</v>
@@ -6280,20 +6280,20 @@
       </c>
       <c r="L74" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M74" t="n">
-        <v>100</v>
+        <v>120</v>
       </c>
       <c r="N74" t="n">
-        <v>11000</v>
+        <v>13000</v>
       </c>
       <c r="O74" t="n">
-        <v>11000</v>
+        <v>13000</v>
       </c>
       <c r="P74" t="n">
-        <v>11000</v>
+        <v>13000</v>
       </c>
       <c r="Q74" t="inlineStr">
         <is>
@@ -6306,7 +6306,7 @@
         </is>
       </c>
       <c r="S74" t="n">
-        <v>611</v>
+        <v>722</v>
       </c>
       <c r="T74" t="n">
         <v>18</v>
@@ -6327,7 +6327,7 @@
         </is>
       </c>
       <c r="D75" s="2" t="n">
-        <v>44314</v>
+        <v>44320</v>
       </c>
       <c r="E75" t="n">
         <v>7</v>
@@ -6367,17 +6367,17 @@
         <v>150</v>
       </c>
       <c r="N75" t="n">
-        <v>11000</v>
+        <v>10000</v>
       </c>
       <c r="O75" t="n">
-        <v>11000</v>
+        <v>10000</v>
       </c>
       <c r="P75" t="n">
-        <v>11000</v>
+        <v>10000</v>
       </c>
       <c r="Q75" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="R75" t="inlineStr">
@@ -6386,7 +6386,7 @@
         </is>
       </c>
       <c r="S75" t="n">
-        <v>1100</v>
+        <v>1000</v>
       </c>
       <c r="T75" t="n">
         <v>10</v>
@@ -6407,7 +6407,7 @@
         </is>
       </c>
       <c r="D76" s="2" t="n">
-        <v>44314</v>
+        <v>44320</v>
       </c>
       <c r="E76" t="n">
         <v>7</v>
@@ -6444,16 +6444,16 @@
         </is>
       </c>
       <c r="M76" t="n">
-        <v>60</v>
+        <v>300</v>
       </c>
       <c r="N76" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="O76" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="P76" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="Q76" t="inlineStr">
         <is>
@@ -6466,7 +6466,7 @@
         </is>
       </c>
       <c r="S76" t="n">
-        <v>900</v>
+        <v>1000</v>
       </c>
       <c r="T76" t="n">
         <v>10</v>
@@ -6487,7 +6487,7 @@
         </is>
       </c>
       <c r="D77" s="2" t="n">
-        <v>44364</v>
+        <v>44320</v>
       </c>
       <c r="E77" t="n">
         <v>7</v>
@@ -6520,20 +6520,20 @@
       </c>
       <c r="L77" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M77" t="n">
-        <v>160</v>
+        <v>100</v>
       </c>
       <c r="N77" t="n">
-        <v>12000</v>
+        <v>11000</v>
       </c>
       <c r="O77" t="n">
-        <v>12000</v>
+        <v>11000</v>
       </c>
       <c r="P77" t="n">
-        <v>12000</v>
+        <v>11000</v>
       </c>
       <c r="Q77" t="inlineStr">
         <is>
@@ -6546,7 +6546,7 @@
         </is>
       </c>
       <c r="S77" t="n">
-        <v>667</v>
+        <v>611</v>
       </c>
       <c r="T77" t="n">
         <v>18</v>
@@ -6567,7 +6567,7 @@
         </is>
       </c>
       <c r="D78" s="2" t="n">
-        <v>44364</v>
+        <v>44314</v>
       </c>
       <c r="E78" t="n">
         <v>7</v>
@@ -6600,24 +6600,24 @@
       </c>
       <c r="L78" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M78" t="n">
-        <v>240</v>
+        <v>150</v>
       </c>
       <c r="N78" t="n">
-        <v>10000</v>
+        <v>11000</v>
       </c>
       <c r="O78" t="n">
-        <v>10000</v>
+        <v>11000</v>
       </c>
       <c r="P78" t="n">
-        <v>10000</v>
+        <v>11000</v>
       </c>
       <c r="Q78" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R78" t="inlineStr">
@@ -6626,10 +6626,10 @@
         </is>
       </c>
       <c r="S78" t="n">
-        <v>556</v>
+        <v>1100</v>
       </c>
       <c r="T78" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="79">
@@ -6647,7 +6647,7 @@
         </is>
       </c>
       <c r="D79" s="2" t="n">
-        <v>44364</v>
+        <v>44314</v>
       </c>
       <c r="E79" t="n">
         <v>7</v>
@@ -6680,24 +6680,24 @@
       </c>
       <c r="L79" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M79" t="n">
-        <v>80</v>
+        <v>60</v>
       </c>
       <c r="N79" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="O79" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="P79" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="Q79" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R79" t="inlineStr">
@@ -6706,10 +6706,10 @@
         </is>
       </c>
       <c r="S79" t="n">
-        <v>444</v>
+        <v>900</v>
       </c>
       <c r="T79" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="80">
@@ -6727,7 +6727,7 @@
         </is>
       </c>
       <c r="D80" s="2" t="n">
-        <v>44327</v>
+        <v>44364</v>
       </c>
       <c r="E80" t="n">
         <v>7</v>
@@ -6760,24 +6760,24 @@
       </c>
       <c r="L80" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M80" t="n">
-        <v>300</v>
+        <v>160</v>
       </c>
       <c r="N80" t="n">
-        <v>9000</v>
+        <v>12000</v>
       </c>
       <c r="O80" t="n">
-        <v>9000</v>
+        <v>12000</v>
       </c>
       <c r="P80" t="n">
-        <v>9000</v>
+        <v>12000</v>
       </c>
       <c r="Q80" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="R80" t="inlineStr">
@@ -6786,10 +6786,10 @@
         </is>
       </c>
       <c r="S80" t="n">
-        <v>900</v>
+        <v>667</v>
       </c>
       <c r="T80" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
     </row>
     <row r="81">
@@ -6807,7 +6807,7 @@
         </is>
       </c>
       <c r="D81" s="2" t="n">
-        <v>44313</v>
+        <v>44364</v>
       </c>
       <c r="E81" t="n">
         <v>7</v>
@@ -6844,20 +6844,20 @@
         </is>
       </c>
       <c r="M81" t="n">
-        <v>350</v>
+        <v>240</v>
       </c>
       <c r="N81" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="O81" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="P81" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="Q81" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="R81" t="inlineStr">
@@ -6866,10 +6866,10 @@
         </is>
       </c>
       <c r="S81" t="n">
-        <v>900</v>
+        <v>556</v>
       </c>
       <c r="T81" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
     </row>
     <row r="82">
@@ -6887,7 +6887,7 @@
         </is>
       </c>
       <c r="D82" s="2" t="n">
-        <v>44313</v>
+        <v>44364</v>
       </c>
       <c r="E82" t="n">
         <v>7</v>
@@ -6920,24 +6920,24 @@
       </c>
       <c r="L82" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M82" t="n">
-        <v>250</v>
+        <v>80</v>
       </c>
       <c r="N82" t="n">
-        <v>6000</v>
+        <v>8000</v>
       </c>
       <c r="O82" t="n">
-        <v>6000</v>
+        <v>8000</v>
       </c>
       <c r="P82" t="n">
-        <v>6000</v>
+        <v>8000</v>
       </c>
       <c r="Q82" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="R82" t="inlineStr">
@@ -6946,10 +6946,10 @@
         </is>
       </c>
       <c r="S82" t="n">
-        <v>600</v>
+        <v>444</v>
       </c>
       <c r="T82" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
     </row>
     <row r="83">
@@ -6967,7 +6967,7 @@
         </is>
       </c>
       <c r="D83" s="2" t="n">
-        <v>44330</v>
+        <v>44327</v>
       </c>
       <c r="E83" t="n">
         <v>7</v>
@@ -7000,24 +7000,24 @@
       </c>
       <c r="L83" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M83" t="n">
         <v>300</v>
       </c>
       <c r="N83" t="n">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="O83" t="n">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="P83" t="n">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="Q83" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="R83" t="inlineStr">
@@ -7026,10 +7026,10 @@
         </is>
       </c>
       <c r="S83" t="n">
-        <v>556</v>
+        <v>900</v>
       </c>
       <c r="T83" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="84">
@@ -7047,7 +7047,7 @@
         </is>
       </c>
       <c r="D84" s="2" t="n">
-        <v>44330</v>
+        <v>44313</v>
       </c>
       <c r="E84" t="n">
         <v>7</v>
@@ -7084,20 +7084,20 @@
         </is>
       </c>
       <c r="M84" t="n">
-        <v>180</v>
+        <v>350</v>
       </c>
       <c r="N84" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="O84" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="P84" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="Q84" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R84" t="inlineStr">
@@ -7106,10 +7106,10 @@
         </is>
       </c>
       <c r="S84" t="n">
-        <v>444</v>
+        <v>900</v>
       </c>
       <c r="T84" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="85">
@@ -7127,7 +7127,7 @@
         </is>
       </c>
       <c r="D85" s="2" t="n">
-        <v>44391</v>
+        <v>44313</v>
       </c>
       <c r="E85" t="n">
         <v>7</v>
@@ -7160,24 +7160,24 @@
       </c>
       <c r="L85" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="M85" t="n">
-        <v>200</v>
+        <v>250</v>
       </c>
       <c r="N85" t="n">
-        <v>11000</v>
+        <v>6000</v>
       </c>
       <c r="O85" t="n">
-        <v>11000</v>
+        <v>6000</v>
       </c>
       <c r="P85" t="n">
-        <v>11000</v>
+        <v>6000</v>
       </c>
       <c r="Q85" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R85" t="inlineStr">
@@ -7186,10 +7186,10 @@
         </is>
       </c>
       <c r="S85" t="n">
-        <v>611</v>
+        <v>600</v>
       </c>
       <c r="T85" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="86">
@@ -7207,7 +7207,7 @@
         </is>
       </c>
       <c r="D86" s="2" t="n">
-        <v>44391</v>
+        <v>44330</v>
       </c>
       <c r="E86" t="n">
         <v>7</v>
@@ -7240,20 +7240,20 @@
       </c>
       <c r="L86" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M86" t="n">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="N86" t="n">
-        <v>9500</v>
+        <v>10000</v>
       </c>
       <c r="O86" t="n">
-        <v>9500</v>
+        <v>10000</v>
       </c>
       <c r="P86" t="n">
-        <v>9500</v>
+        <v>10000</v>
       </c>
       <c r="Q86" t="inlineStr">
         <is>
@@ -7266,7 +7266,7 @@
         </is>
       </c>
       <c r="S86" t="n">
-        <v>528</v>
+        <v>556</v>
       </c>
       <c r="T86" t="n">
         <v>18</v>
@@ -7287,7 +7287,7 @@
         </is>
       </c>
       <c r="D87" s="2" t="n">
-        <v>44351</v>
+        <v>44330</v>
       </c>
       <c r="E87" t="n">
         <v>7</v>
@@ -7320,20 +7320,20 @@
       </c>
       <c r="L87" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M87" t="n">
-        <v>260</v>
+        <v>180</v>
       </c>
       <c r="N87" t="n">
-        <v>11000</v>
+        <v>8000</v>
       </c>
       <c r="O87" t="n">
-        <v>11000</v>
+        <v>8000</v>
       </c>
       <c r="P87" t="n">
-        <v>11000</v>
+        <v>8000</v>
       </c>
       <c r="Q87" t="inlineStr">
         <is>
@@ -7346,7 +7346,7 @@
         </is>
       </c>
       <c r="S87" t="n">
-        <v>611</v>
+        <v>444</v>
       </c>
       <c r="T87" t="n">
         <v>18</v>
@@ -7367,7 +7367,7 @@
         </is>
       </c>
       <c r="D88" s="2" t="n">
-        <v>44351</v>
+        <v>44391</v>
       </c>
       <c r="E88" t="n">
         <v>7</v>
@@ -7400,20 +7400,20 @@
       </c>
       <c r="L88" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M88" t="n">
         <v>200</v>
       </c>
       <c r="N88" t="n">
-        <v>10000</v>
+        <v>11000</v>
       </c>
       <c r="O88" t="n">
-        <v>10000</v>
+        <v>11000</v>
       </c>
       <c r="P88" t="n">
-        <v>10000</v>
+        <v>11000</v>
       </c>
       <c r="Q88" t="inlineStr">
         <is>
@@ -7426,7 +7426,7 @@
         </is>
       </c>
       <c r="S88" t="n">
-        <v>556</v>
+        <v>611</v>
       </c>
       <c r="T88" t="n">
         <v>18</v>
@@ -7447,7 +7447,7 @@
         </is>
       </c>
       <c r="D89" s="2" t="n">
-        <v>44351</v>
+        <v>44391</v>
       </c>
       <c r="E89" t="n">
         <v>7</v>
@@ -7484,32 +7484,32 @@
         </is>
       </c>
       <c r="M89" t="n">
-        <v>230</v>
+        <v>250</v>
       </c>
       <c r="N89" t="n">
-        <v>8000</v>
+        <v>9500</v>
       </c>
       <c r="O89" t="n">
-        <v>8000</v>
+        <v>9500</v>
       </c>
       <c r="P89" t="n">
-        <v>8000</v>
+        <v>9500</v>
       </c>
       <c r="Q89" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="R89" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S89" t="n">
-        <v>800</v>
+        <v>528</v>
       </c>
       <c r="T89" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
     </row>
     <row r="90">
@@ -7527,7 +7527,7 @@
         </is>
       </c>
       <c r="D90" s="2" t="n">
-        <v>44350</v>
+        <v>44351</v>
       </c>
       <c r="E90" t="n">
         <v>7</v>
@@ -7564,7 +7564,7 @@
         </is>
       </c>
       <c r="M90" t="n">
-        <v>130</v>
+        <v>260</v>
       </c>
       <c r="N90" t="n">
         <v>11000</v>
@@ -7577,12 +7577,12 @@
       </c>
       <c r="Q90" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos granel</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="R90" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S90" t="n">
@@ -7607,7 +7607,7 @@
         </is>
       </c>
       <c r="D91" s="2" t="n">
-        <v>44350</v>
+        <v>44351</v>
       </c>
       <c r="E91" t="n">
         <v>7</v>
@@ -7644,20 +7644,20 @@
         </is>
       </c>
       <c r="M91" t="n">
-        <v>360</v>
+        <v>200</v>
       </c>
       <c r="N91" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="O91" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="P91" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="Q91" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos granel</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="R91" t="inlineStr">
@@ -7666,7 +7666,7 @@
         </is>
       </c>
       <c r="S91" t="n">
-        <v>500</v>
+        <v>556</v>
       </c>
       <c r="T91" t="n">
         <v>18</v>
@@ -7687,7 +7687,7 @@
         </is>
       </c>
       <c r="D92" s="2" t="n">
-        <v>44350</v>
+        <v>44351</v>
       </c>
       <c r="E92" t="n">
         <v>7</v>
@@ -7724,32 +7724,32 @@
         </is>
       </c>
       <c r="M92" t="n">
-        <v>100</v>
+        <v>230</v>
       </c>
       <c r="N92" t="n">
-        <v>9000</v>
+        <v>8000</v>
       </c>
       <c r="O92" t="n">
-        <v>9000</v>
+        <v>8000</v>
       </c>
       <c r="P92" t="n">
-        <v>9000</v>
+        <v>8000</v>
       </c>
       <c r="Q92" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos granel</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="R92" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S92" t="n">
-        <v>500</v>
+        <v>800</v>
       </c>
       <c r="T92" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="93">
@@ -7800,33 +7800,33 @@
       </c>
       <c r="L93" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M93" t="n">
-        <v>210</v>
+        <v>130</v>
       </c>
       <c r="N93" t="n">
-        <v>7000</v>
+        <v>11000</v>
       </c>
       <c r="O93" t="n">
-        <v>7000</v>
+        <v>11000</v>
       </c>
       <c r="P93" t="n">
-        <v>7000</v>
+        <v>11000</v>
       </c>
       <c r="Q93" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 18 kilos granel</t>
         </is>
       </c>
       <c r="R93" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S93" t="n">
-        <v>389</v>
+        <v>611</v>
       </c>
       <c r="T93" t="n">
         <v>18</v>
@@ -7880,20 +7880,20 @@
       </c>
       <c r="L94" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M94" t="n">
-        <v>150</v>
+        <v>360</v>
       </c>
       <c r="N94" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="O94" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="P94" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="Q94" t="inlineStr">
         <is>
@@ -7902,11 +7902,11 @@
       </c>
       <c r="R94" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S94" t="n">
-        <v>389</v>
+        <v>500</v>
       </c>
       <c r="T94" t="n">
         <v>18</v>
@@ -7927,7 +7927,7 @@
         </is>
       </c>
       <c r="D95" s="2" t="n">
-        <v>44315</v>
+        <v>44350</v>
       </c>
       <c r="E95" t="n">
         <v>7</v>
@@ -7960,36 +7960,36 @@
       </c>
       <c r="L95" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M95" t="n">
-        <v>140</v>
+        <v>100</v>
       </c>
       <c r="N95" t="n">
-        <v>12000</v>
+        <v>9000</v>
       </c>
       <c r="O95" t="n">
-        <v>12000</v>
+        <v>9000</v>
       </c>
       <c r="P95" t="n">
-        <v>12000</v>
+        <v>9000</v>
       </c>
       <c r="Q95" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/caja 18 kilos granel</t>
         </is>
       </c>
       <c r="R95" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S95" t="n">
-        <v>1200</v>
+        <v>500</v>
       </c>
       <c r="T95" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
     </row>
     <row r="96">
@@ -8007,7 +8007,7 @@
         </is>
       </c>
       <c r="D96" s="2" t="n">
-        <v>44315</v>
+        <v>44350</v>
       </c>
       <c r="E96" t="n">
         <v>7</v>
@@ -8040,24 +8040,24 @@
       </c>
       <c r="L96" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M96" t="n">
-        <v>120</v>
+        <v>210</v>
       </c>
       <c r="N96" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="O96" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="P96" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="Q96" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="R96" t="inlineStr">
@@ -8066,10 +8066,10 @@
         </is>
       </c>
       <c r="S96" t="n">
-        <v>1000</v>
+        <v>389</v>
       </c>
       <c r="T96" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
     </row>
     <row r="97">
@@ -8087,7 +8087,7 @@
         </is>
       </c>
       <c r="D97" s="2" t="n">
-        <v>44315</v>
+        <v>44350</v>
       </c>
       <c r="E97" t="n">
         <v>7</v>
@@ -8124,32 +8124,32 @@
         </is>
       </c>
       <c r="M97" t="n">
-        <v>50</v>
+        <v>150</v>
       </c>
       <c r="N97" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="O97" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="P97" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="Q97" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/caja 18 kilos granel</t>
         </is>
       </c>
       <c r="R97" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S97" t="n">
-        <v>800</v>
+        <v>389</v>
       </c>
       <c r="T97" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
     </row>
     <row r="98">
@@ -8167,7 +8167,7 @@
         </is>
       </c>
       <c r="D98" s="2" t="n">
-        <v>44358</v>
+        <v>44315</v>
       </c>
       <c r="E98" t="n">
         <v>7</v>
@@ -8204,20 +8204,20 @@
         </is>
       </c>
       <c r="M98" t="n">
-        <v>230</v>
+        <v>140</v>
       </c>
       <c r="N98" t="n">
-        <v>13000</v>
+        <v>12000</v>
       </c>
       <c r="O98" t="n">
-        <v>13000</v>
+        <v>12000</v>
       </c>
       <c r="P98" t="n">
-        <v>13000</v>
+        <v>12000</v>
       </c>
       <c r="Q98" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="R98" t="inlineStr">
@@ -8226,10 +8226,10 @@
         </is>
       </c>
       <c r="S98" t="n">
-        <v>722</v>
+        <v>1200</v>
       </c>
       <c r="T98" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="99">
@@ -8247,7 +8247,7 @@
         </is>
       </c>
       <c r="D99" s="2" t="n">
-        <v>44358</v>
+        <v>44315</v>
       </c>
       <c r="E99" t="n">
         <v>7</v>
@@ -8280,20 +8280,20 @@
       </c>
       <c r="L99" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M99" t="n">
-        <v>250</v>
+        <v>120</v>
       </c>
       <c r="N99" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="O99" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="P99" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="Q99" t="inlineStr">
         <is>
@@ -8306,7 +8306,7 @@
         </is>
       </c>
       <c r="S99" t="n">
-        <v>900</v>
+        <v>1000</v>
       </c>
       <c r="T99" t="n">
         <v>10</v>
@@ -8327,7 +8327,7 @@
         </is>
       </c>
       <c r="D100" s="2" t="n">
-        <v>44358</v>
+        <v>44315</v>
       </c>
       <c r="E100" t="n">
         <v>7</v>
@@ -8360,24 +8360,24 @@
       </c>
       <c r="L100" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M100" t="n">
-        <v>210</v>
+        <v>50</v>
       </c>
       <c r="N100" t="n">
-        <v>11000</v>
+        <v>8000</v>
       </c>
       <c r="O100" t="n">
-        <v>11000</v>
+        <v>8000</v>
       </c>
       <c r="P100" t="n">
-        <v>11000</v>
+        <v>8000</v>
       </c>
       <c r="Q100" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="R100" t="inlineStr">
@@ -8386,10 +8386,10 @@
         </is>
       </c>
       <c r="S100" t="n">
-        <v>611</v>
+        <v>800</v>
       </c>
       <c r="T100" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="101">
@@ -8440,24 +8440,24 @@
       </c>
       <c r="L101" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M101" t="n">
-        <v>200</v>
+        <v>230</v>
       </c>
       <c r="N101" t="n">
-        <v>7000</v>
+        <v>13000</v>
       </c>
       <c r="O101" t="n">
-        <v>7000</v>
+        <v>13000</v>
       </c>
       <c r="P101" t="n">
-        <v>7000</v>
+        <v>13000</v>
       </c>
       <c r="Q101" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="R101" t="inlineStr">
@@ -8466,10 +8466,10 @@
         </is>
       </c>
       <c r="S101" t="n">
-        <v>700</v>
+        <v>722</v>
       </c>
       <c r="T101" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
     </row>
     <row r="102">
@@ -8520,11 +8520,11 @@
       </c>
       <c r="L102" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M102" t="n">
-        <v>190</v>
+        <v>250</v>
       </c>
       <c r="N102" t="n">
         <v>9000</v>
@@ -8537,7 +8537,7 @@
       </c>
       <c r="Q102" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="R102" t="inlineStr">
@@ -8546,10 +8546,10 @@
         </is>
       </c>
       <c r="S102" t="n">
-        <v>500</v>
+        <v>900</v>
       </c>
       <c r="T102" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="103">
@@ -8567,7 +8567,7 @@
         </is>
       </c>
       <c r="D103" s="2" t="n">
-        <v>44389</v>
+        <v>44358</v>
       </c>
       <c r="E103" t="n">
         <v>7</v>
@@ -8604,20 +8604,20 @@
         </is>
       </c>
       <c r="M103" t="n">
-        <v>300</v>
+        <v>210</v>
       </c>
       <c r="N103" t="n">
-        <v>6000</v>
+        <v>11000</v>
       </c>
       <c r="O103" t="n">
-        <v>6000</v>
+        <v>11000</v>
       </c>
       <c r="P103" t="n">
-        <v>6000</v>
+        <v>11000</v>
       </c>
       <c r="Q103" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="R103" t="inlineStr">
@@ -8626,10 +8626,10 @@
         </is>
       </c>
       <c r="S103" t="n">
-        <v>600</v>
+        <v>611</v>
       </c>
       <c r="T103" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
     </row>
     <row r="104">
@@ -8647,7 +8647,7 @@
         </is>
       </c>
       <c r="D104" s="2" t="n">
-        <v>44399</v>
+        <v>44358</v>
       </c>
       <c r="E104" t="n">
         <v>7</v>
@@ -8684,20 +8684,20 @@
         </is>
       </c>
       <c r="M104" t="n">
-        <v>260</v>
+        <v>200</v>
       </c>
       <c r="N104" t="n">
-        <v>5000</v>
+        <v>7000</v>
       </c>
       <c r="O104" t="n">
-        <v>5000</v>
+        <v>7000</v>
       </c>
       <c r="P104" t="n">
-        <v>5000</v>
+        <v>7000</v>
       </c>
       <c r="Q104" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="R104" t="inlineStr">
@@ -8706,7 +8706,7 @@
         </is>
       </c>
       <c r="S104" t="n">
-        <v>500</v>
+        <v>700</v>
       </c>
       <c r="T104" t="n">
         <v>10</v>
@@ -8727,7 +8727,7 @@
         </is>
       </c>
       <c r="D105" s="2" t="n">
-        <v>44399</v>
+        <v>44358</v>
       </c>
       <c r="E105" t="n">
         <v>7</v>
@@ -8760,24 +8760,24 @@
       </c>
       <c r="L105" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M105" t="n">
-        <v>260</v>
+        <v>190</v>
       </c>
       <c r="N105" t="n">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="O105" t="n">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="P105" t="n">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="Q105" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos granel</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="R105" t="inlineStr">
@@ -8786,7 +8786,7 @@
         </is>
       </c>
       <c r="S105" t="n">
-        <v>556</v>
+        <v>500</v>
       </c>
       <c r="T105" t="n">
         <v>18</v>
@@ -8807,7 +8807,7 @@
         </is>
       </c>
       <c r="D106" s="2" t="n">
-        <v>44369</v>
+        <v>44389</v>
       </c>
       <c r="E106" t="n">
         <v>7</v>
@@ -8840,24 +8840,24 @@
       </c>
       <c r="L106" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M106" t="n">
-        <v>230</v>
+        <v>300</v>
       </c>
       <c r="N106" t="n">
-        <v>8000</v>
+        <v>6000</v>
       </c>
       <c r="O106" t="n">
-        <v>8000</v>
+        <v>6000</v>
       </c>
       <c r="P106" t="n">
-        <v>8000</v>
+        <v>6000</v>
       </c>
       <c r="Q106" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="R106" t="inlineStr">
@@ -8866,7 +8866,7 @@
         </is>
       </c>
       <c r="S106" t="n">
-        <v>800</v>
+        <v>600</v>
       </c>
       <c r="T106" t="n">
         <v>10</v>
@@ -8887,7 +8887,7 @@
         </is>
       </c>
       <c r="D107" s="2" t="n">
-        <v>44369</v>
+        <v>44399</v>
       </c>
       <c r="E107" t="n">
         <v>7</v>
@@ -8920,24 +8920,24 @@
       </c>
       <c r="L107" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M107" t="n">
-        <v>100</v>
+        <v>260</v>
       </c>
       <c r="N107" t="n">
-        <v>12000</v>
+        <v>5000</v>
       </c>
       <c r="O107" t="n">
-        <v>12000</v>
+        <v>5000</v>
       </c>
       <c r="P107" t="n">
-        <v>12000</v>
+        <v>5000</v>
       </c>
       <c r="Q107" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R107" t="inlineStr">
@@ -8946,10 +8946,10 @@
         </is>
       </c>
       <c r="S107" t="n">
-        <v>667</v>
+        <v>500</v>
       </c>
       <c r="T107" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="108">
@@ -8967,7 +8967,7 @@
         </is>
       </c>
       <c r="D108" s="2" t="n">
-        <v>44369</v>
+        <v>44399</v>
       </c>
       <c r="E108" t="n">
         <v>7</v>
@@ -9004,20 +9004,20 @@
         </is>
       </c>
       <c r="M108" t="n">
-        <v>200</v>
+        <v>260</v>
       </c>
       <c r="N108" t="n">
-        <v>6000</v>
+        <v>10000</v>
       </c>
       <c r="O108" t="n">
-        <v>6000</v>
+        <v>10000</v>
       </c>
       <c r="P108" t="n">
-        <v>6000</v>
+        <v>10000</v>
       </c>
       <c r="Q108" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/caja 18 kilos granel</t>
         </is>
       </c>
       <c r="R108" t="inlineStr">
@@ -9026,10 +9026,10 @@
         </is>
       </c>
       <c r="S108" t="n">
-        <v>600</v>
+        <v>556</v>
       </c>
       <c r="T108" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
     </row>
     <row r="109">
@@ -9080,24 +9080,24 @@
       </c>
       <c r="L109" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M109" t="n">
-        <v>180</v>
+        <v>230</v>
       </c>
       <c r="N109" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="O109" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="P109" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="Q109" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R109" t="inlineStr">
@@ -9106,10 +9106,10 @@
         </is>
       </c>
       <c r="S109" t="n">
-        <v>556</v>
+        <v>800</v>
       </c>
       <c r="T109" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="110">
@@ -9127,7 +9127,7 @@
         </is>
       </c>
       <c r="D110" s="2" t="n">
-        <v>44333</v>
+        <v>44369</v>
       </c>
       <c r="E110" t="n">
         <v>7</v>
@@ -9164,7 +9164,7 @@
         </is>
       </c>
       <c r="M110" t="n">
-        <v>150</v>
+        <v>100</v>
       </c>
       <c r="N110" t="n">
         <v>12000</v>
@@ -9182,7 +9182,7 @@
       </c>
       <c r="R110" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S110" t="n">
@@ -9207,7 +9207,7 @@
         </is>
       </c>
       <c r="D111" s="2" t="n">
-        <v>44333</v>
+        <v>44369</v>
       </c>
       <c r="E111" t="n">
         <v>7</v>
@@ -9244,32 +9244,32 @@
         </is>
       </c>
       <c r="M111" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="N111" t="n">
-        <v>10000</v>
+        <v>6000</v>
       </c>
       <c r="O111" t="n">
-        <v>10000</v>
+        <v>6000</v>
       </c>
       <c r="P111" t="n">
-        <v>10000</v>
+        <v>6000</v>
       </c>
       <c r="Q111" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R111" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S111" t="n">
-        <v>556</v>
+        <v>600</v>
       </c>
       <c r="T111" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="112">
@@ -9287,7 +9287,7 @@
         </is>
       </c>
       <c r="D112" s="2" t="n">
-        <v>44309</v>
+        <v>44369</v>
       </c>
       <c r="E112" t="n">
         <v>7</v>
@@ -9320,20 +9320,20 @@
       </c>
       <c r="L112" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M112" t="n">
-        <v>160</v>
+        <v>180</v>
       </c>
       <c r="N112" t="n">
-        <v>14000</v>
+        <v>10000</v>
       </c>
       <c r="O112" t="n">
-        <v>14000</v>
+        <v>10000</v>
       </c>
       <c r="P112" t="n">
-        <v>14000</v>
+        <v>10000</v>
       </c>
       <c r="Q112" t="inlineStr">
         <is>
@@ -9346,7 +9346,7 @@
         </is>
       </c>
       <c r="S112" t="n">
-        <v>778</v>
+        <v>556</v>
       </c>
       <c r="T112" t="n">
         <v>18</v>
@@ -9367,7 +9367,7 @@
         </is>
       </c>
       <c r="D113" s="2" t="n">
-        <v>44309</v>
+        <v>44333</v>
       </c>
       <c r="E113" t="n">
         <v>7</v>
@@ -9400,36 +9400,36 @@
       </c>
       <c r="L113" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M113" t="n">
-        <v>250</v>
+        <v>150</v>
       </c>
       <c r="N113" t="n">
-        <v>8000</v>
+        <v>12000</v>
       </c>
       <c r="O113" t="n">
-        <v>9000</v>
+        <v>12000</v>
       </c>
       <c r="P113" t="n">
-        <v>8600</v>
+        <v>12000</v>
       </c>
       <c r="Q113" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="R113" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="S113" t="n">
-        <v>860</v>
+        <v>667</v>
       </c>
       <c r="T113" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
     </row>
     <row r="114">
@@ -9447,7 +9447,7 @@
         </is>
       </c>
       <c r="D114" s="2" t="n">
-        <v>44309</v>
+        <v>44333</v>
       </c>
       <c r="E114" t="n">
         <v>7</v>
@@ -9487,13 +9487,13 @@
         <v>100</v>
       </c>
       <c r="N114" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="O114" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="P114" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="Q114" t="inlineStr">
         <is>
@@ -9502,11 +9502,11 @@
       </c>
       <c r="R114" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="S114" t="n">
-        <v>667</v>
+        <v>556</v>
       </c>
       <c r="T114" t="n">
         <v>18</v>
@@ -9527,7 +9527,7 @@
         </is>
       </c>
       <c r="D115" s="2" t="n">
-        <v>44316</v>
+        <v>44309</v>
       </c>
       <c r="E115" t="n">
         <v>7</v>
@@ -9567,17 +9567,17 @@
         <v>160</v>
       </c>
       <c r="N115" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="O115" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="P115" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="Q115" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="R115" t="inlineStr">
@@ -9586,10 +9586,10 @@
         </is>
       </c>
       <c r="S115" t="n">
-        <v>1200</v>
+        <v>778</v>
       </c>
       <c r="T115" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
     </row>
     <row r="116">
@@ -9607,7 +9607,7 @@
         </is>
       </c>
       <c r="D116" s="2" t="n">
-        <v>44316</v>
+        <v>44309</v>
       </c>
       <c r="E116" t="n">
         <v>7</v>
@@ -9644,16 +9644,16 @@
         </is>
       </c>
       <c r="M116" t="n">
-        <v>200</v>
+        <v>250</v>
       </c>
       <c r="N116" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="O116" t="n">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="P116" t="n">
-        <v>10000</v>
+        <v>8600</v>
       </c>
       <c r="Q116" t="inlineStr">
         <is>
@@ -9666,7 +9666,7 @@
         </is>
       </c>
       <c r="S116" t="n">
-        <v>1000</v>
+        <v>860</v>
       </c>
       <c r="T116" t="n">
         <v>10</v>
@@ -9687,7 +9687,7 @@
         </is>
       </c>
       <c r="D117" s="2" t="n">
-        <v>44316</v>
+        <v>44309</v>
       </c>
       <c r="E117" t="n">
         <v>7</v>
@@ -9724,20 +9724,20 @@
         </is>
       </c>
       <c r="M117" t="n">
-        <v>190</v>
+        <v>100</v>
       </c>
       <c r="N117" t="n">
-        <v>13000</v>
+        <v>12000</v>
       </c>
       <c r="O117" t="n">
-        <v>13000</v>
+        <v>12000</v>
       </c>
       <c r="P117" t="n">
-        <v>13000</v>
+        <v>12000</v>
       </c>
       <c r="Q117" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="R117" t="inlineStr">
@@ -9746,7 +9746,7 @@
         </is>
       </c>
       <c r="S117" t="n">
-        <v>722</v>
+        <v>667</v>
       </c>
       <c r="T117" t="n">
         <v>18</v>
@@ -9767,7 +9767,7 @@
         </is>
       </c>
       <c r="D118" s="2" t="n">
-        <v>44281</v>
+        <v>44316</v>
       </c>
       <c r="E118" t="n">
         <v>7</v>
@@ -9800,20 +9800,20 @@
       </c>
       <c r="L118" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M118" t="n">
-        <v>210</v>
+        <v>160</v>
       </c>
       <c r="N118" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="O118" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="P118" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="Q118" t="inlineStr">
         <is>
@@ -9826,7 +9826,7 @@
         </is>
       </c>
       <c r="S118" t="n">
-        <v>1000</v>
+        <v>1200</v>
       </c>
       <c r="T118" t="n">
         <v>10</v>
@@ -9847,7 +9847,7 @@
         </is>
       </c>
       <c r="D119" s="2" t="n">
-        <v>44370</v>
+        <v>44316</v>
       </c>
       <c r="E119" t="n">
         <v>7</v>
@@ -9880,24 +9880,24 @@
       </c>
       <c r="L119" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M119" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="N119" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="O119" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="P119" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="Q119" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R119" t="inlineStr">
@@ -9906,10 +9906,10 @@
         </is>
       </c>
       <c r="S119" t="n">
-        <v>667</v>
+        <v>1000</v>
       </c>
       <c r="T119" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="120">
@@ -9927,7 +9927,7 @@
         </is>
       </c>
       <c r="D120" s="2" t="n">
-        <v>44370</v>
+        <v>44316</v>
       </c>
       <c r="E120" t="n">
         <v>7</v>
@@ -9964,20 +9964,20 @@
         </is>
       </c>
       <c r="M120" t="n">
-        <v>120</v>
+        <v>190</v>
       </c>
       <c r="N120" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="O120" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="P120" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="Q120" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="R120" t="inlineStr">
@@ -9986,7 +9986,7 @@
         </is>
       </c>
       <c r="S120" t="n">
-        <v>556</v>
+        <v>722</v>
       </c>
       <c r="T120" t="n">
         <v>18</v>
@@ -10007,7 +10007,7 @@
         </is>
       </c>
       <c r="D121" s="2" t="n">
-        <v>44370</v>
+        <v>44281</v>
       </c>
       <c r="E121" t="n">
         <v>7</v>
@@ -10040,24 +10040,24 @@
       </c>
       <c r="L121" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M121" t="n">
-        <v>60</v>
+        <v>210</v>
       </c>
       <c r="N121" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="O121" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="P121" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="Q121" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R121" t="inlineStr">
@@ -10066,10 +10066,10 @@
         </is>
       </c>
       <c r="S121" t="n">
-        <v>444</v>
+        <v>1000</v>
       </c>
       <c r="T121" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="122">
@@ -10087,7 +10087,7 @@
         </is>
       </c>
       <c r="D122" s="2" t="n">
-        <v>44326</v>
+        <v>44370</v>
       </c>
       <c r="E122" t="n">
         <v>7</v>
@@ -10124,16 +10124,16 @@
         </is>
       </c>
       <c r="M122" t="n">
-        <v>130</v>
+        <v>100</v>
       </c>
       <c r="N122" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="O122" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="P122" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="Q122" t="inlineStr">
         <is>
@@ -10146,7 +10146,7 @@
         </is>
       </c>
       <c r="S122" t="n">
-        <v>778</v>
+        <v>667</v>
       </c>
       <c r="T122" t="n">
         <v>18</v>
@@ -10167,7 +10167,7 @@
         </is>
       </c>
       <c r="D123" s="2" t="n">
-        <v>44326</v>
+        <v>44370</v>
       </c>
       <c r="E123" t="n">
         <v>7</v>
@@ -10204,16 +10204,16 @@
         </is>
       </c>
       <c r="M123" t="n">
-        <v>100</v>
+        <v>120</v>
       </c>
       <c r="N123" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="O123" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="P123" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="Q123" t="inlineStr">
         <is>
@@ -10226,7 +10226,7 @@
         </is>
       </c>
       <c r="S123" t="n">
-        <v>667</v>
+        <v>556</v>
       </c>
       <c r="T123" t="n">
         <v>18</v>
@@ -10247,7 +10247,7 @@
         </is>
       </c>
       <c r="D124" s="2" t="n">
-        <v>44382</v>
+        <v>44370</v>
       </c>
       <c r="E124" t="n">
         <v>7</v>
@@ -10280,20 +10280,20 @@
       </c>
       <c r="L124" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M124" t="n">
-        <v>150</v>
+        <v>60</v>
       </c>
       <c r="N124" t="n">
-        <v>12000</v>
+        <v>8000</v>
       </c>
       <c r="O124" t="n">
-        <v>12000</v>
+        <v>8000</v>
       </c>
       <c r="P124" t="n">
-        <v>12000</v>
+        <v>8000</v>
       </c>
       <c r="Q124" t="inlineStr">
         <is>
@@ -10306,7 +10306,7 @@
         </is>
       </c>
       <c r="S124" t="n">
-        <v>667</v>
+        <v>444</v>
       </c>
       <c r="T124" t="n">
         <v>18</v>
@@ -10327,7 +10327,7 @@
         </is>
       </c>
       <c r="D125" s="2" t="n">
-        <v>44382</v>
+        <v>44326</v>
       </c>
       <c r="E125" t="n">
         <v>7</v>
@@ -10360,20 +10360,20 @@
       </c>
       <c r="L125" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M125" t="n">
-        <v>200</v>
+        <v>130</v>
       </c>
       <c r="N125" t="n">
-        <v>10000</v>
+        <v>14000</v>
       </c>
       <c r="O125" t="n">
-        <v>10000</v>
+        <v>14000</v>
       </c>
       <c r="P125" t="n">
-        <v>10000</v>
+        <v>14000</v>
       </c>
       <c r="Q125" t="inlineStr">
         <is>
@@ -10386,7 +10386,7 @@
         </is>
       </c>
       <c r="S125" t="n">
-        <v>556</v>
+        <v>778</v>
       </c>
       <c r="T125" t="n">
         <v>18</v>
@@ -10407,7 +10407,7 @@
         </is>
       </c>
       <c r="D126" s="2" t="n">
-        <v>44398</v>
+        <v>44326</v>
       </c>
       <c r="E126" t="n">
         <v>7</v>
@@ -10440,20 +10440,20 @@
       </c>
       <c r="L126" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M126" t="n">
-        <v>150</v>
+        <v>100</v>
       </c>
       <c r="N126" t="n">
-        <v>13000</v>
+        <v>12000</v>
       </c>
       <c r="O126" t="n">
-        <v>13000</v>
+        <v>12000</v>
       </c>
       <c r="P126" t="n">
-        <v>13000</v>
+        <v>12000</v>
       </c>
       <c r="Q126" t="inlineStr">
         <is>
@@ -10466,7 +10466,7 @@
         </is>
       </c>
       <c r="S126" t="n">
-        <v>722</v>
+        <v>667</v>
       </c>
       <c r="T126" t="n">
         <v>18</v>
@@ -10487,7 +10487,7 @@
         </is>
       </c>
       <c r="D127" s="2" t="n">
-        <v>44398</v>
+        <v>44382</v>
       </c>
       <c r="E127" t="n">
         <v>7</v>
@@ -10524,16 +10524,16 @@
         </is>
       </c>
       <c r="M127" t="n">
-        <v>180</v>
+        <v>150</v>
       </c>
       <c r="N127" t="n">
-        <v>13000</v>
+        <v>12000</v>
       </c>
       <c r="O127" t="n">
-        <v>13000</v>
+        <v>12000</v>
       </c>
       <c r="P127" t="n">
-        <v>13000</v>
+        <v>12000</v>
       </c>
       <c r="Q127" t="inlineStr">
         <is>
@@ -10542,11 +10542,11 @@
       </c>
       <c r="R127" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S127" t="n">
-        <v>722</v>
+        <v>667</v>
       </c>
       <c r="T127" t="n">
         <v>18</v>
@@ -10567,7 +10567,7 @@
         </is>
       </c>
       <c r="D128" s="2" t="n">
-        <v>44398</v>
+        <v>44382</v>
       </c>
       <c r="E128" t="n">
         <v>7</v>
@@ -10604,7 +10604,7 @@
         </is>
       </c>
       <c r="M128" t="n">
-        <v>260</v>
+        <v>200</v>
       </c>
       <c r="N128" t="n">
         <v>10000</v>
@@ -10680,20 +10680,20 @@
       </c>
       <c r="L129" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M129" t="n">
-        <v>220</v>
+        <v>150</v>
       </c>
       <c r="N129" t="n">
-        <v>9000</v>
+        <v>13000</v>
       </c>
       <c r="O129" t="n">
-        <v>9000</v>
+        <v>13000</v>
       </c>
       <c r="P129" t="n">
-        <v>9000</v>
+        <v>13000</v>
       </c>
       <c r="Q129" t="inlineStr">
         <is>
@@ -10702,11 +10702,11 @@
       </c>
       <c r="R129" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S129" t="n">
-        <v>500</v>
+        <v>722</v>
       </c>
       <c r="T129" t="n">
         <v>18</v>
@@ -10727,7 +10727,7 @@
         </is>
       </c>
       <c r="D130" s="2" t="n">
-        <v>44355</v>
+        <v>44398</v>
       </c>
       <c r="E130" t="n">
         <v>7</v>
@@ -10760,36 +10760,36 @@
       </c>
       <c r="L130" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M130" t="n">
-        <v>300</v>
+        <v>180</v>
       </c>
       <c r="N130" t="n">
-        <v>6000</v>
+        <v>13000</v>
       </c>
       <c r="O130" t="n">
-        <v>6000</v>
+        <v>13000</v>
       </c>
       <c r="P130" t="n">
-        <v>6000</v>
+        <v>13000</v>
       </c>
       <c r="Q130" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="R130" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S130" t="n">
-        <v>600</v>
+        <v>722</v>
       </c>
       <c r="T130" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
     </row>
     <row r="131">
@@ -10807,7 +10807,7 @@
         </is>
       </c>
       <c r="D131" s="2" t="n">
-        <v>44343</v>
+        <v>44398</v>
       </c>
       <c r="E131" t="n">
         <v>7</v>
@@ -10840,11 +10840,11 @@
       </c>
       <c r="L131" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M131" t="n">
-        <v>120</v>
+        <v>260</v>
       </c>
       <c r="N131" t="n">
         <v>10000</v>
@@ -10887,7 +10887,7 @@
         </is>
       </c>
       <c r="D132" s="2" t="n">
-        <v>44343</v>
+        <v>44398</v>
       </c>
       <c r="E132" t="n">
         <v>7</v>
@@ -10924,7 +10924,7 @@
         </is>
       </c>
       <c r="M132" t="n">
-        <v>160</v>
+        <v>220</v>
       </c>
       <c r="N132" t="n">
         <v>9000</v>
@@ -10942,7 +10942,7 @@
       </c>
       <c r="R132" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S132" t="n">
@@ -10967,7 +10967,7 @@
         </is>
       </c>
       <c r="D133" s="2" t="n">
-        <v>44376</v>
+        <v>44355</v>
       </c>
       <c r="E133" t="n">
         <v>7</v>
@@ -11000,24 +11000,24 @@
       </c>
       <c r="L133" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M133" t="n">
-        <v>260</v>
+        <v>300</v>
       </c>
       <c r="N133" t="n">
-        <v>9000</v>
+        <v>6000</v>
       </c>
       <c r="O133" t="n">
-        <v>9000</v>
+        <v>6000</v>
       </c>
       <c r="P133" t="n">
-        <v>9000</v>
+        <v>6000</v>
       </c>
       <c r="Q133" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R133" t="inlineStr">
@@ -11026,10 +11026,10 @@
         </is>
       </c>
       <c r="S133" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="T133" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="134">
@@ -11047,68 +11047,308 @@
         </is>
       </c>
       <c r="D134" s="2" t="n">
+        <v>44343</v>
+      </c>
+      <c r="E134" t="n">
+        <v>7</v>
+      </c>
+      <c r="F134" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G134" t="n">
+        <v>100101</v>
+      </c>
+      <c r="H134" t="inlineStr">
+        <is>
+          <t>Berries</t>
+        </is>
+      </c>
+      <c r="I134" t="n">
+        <v>100101007</v>
+      </c>
+      <c r="J134" t="inlineStr">
+        <is>
+          <t>Kiwi</t>
+        </is>
+      </c>
+      <c r="K134" t="inlineStr">
+        <is>
+          <t>Hayward</t>
+        </is>
+      </c>
+      <c r="L134" t="inlineStr">
+        <is>
+          <t>Especial</t>
+        </is>
+      </c>
+      <c r="M134" t="n">
+        <v>120</v>
+      </c>
+      <c r="N134" t="n">
+        <v>10000</v>
+      </c>
+      <c r="O134" t="n">
+        <v>10000</v>
+      </c>
+      <c r="P134" t="n">
+        <v>10000</v>
+      </c>
+      <c r="Q134" t="inlineStr">
+        <is>
+          <t>$/bandeja 18 kilos</t>
+        </is>
+      </c>
+      <c r="R134" t="inlineStr">
+        <is>
+          <t>Provincia de Curicó</t>
+        </is>
+      </c>
+      <c r="S134" t="n">
+        <v>556</v>
+      </c>
+      <c r="T134" t="n">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" t="n">
+        <v>5</v>
+      </c>
+      <c r="B135" t="inlineStr">
+        <is>
+          <t>Macroferia Regional de Talca</t>
+        </is>
+      </c>
+      <c r="C135" t="inlineStr">
+        <is>
+          <t>Maule</t>
+        </is>
+      </c>
+      <c r="D135" s="2" t="n">
+        <v>44343</v>
+      </c>
+      <c r="E135" t="n">
+        <v>7</v>
+      </c>
+      <c r="F135" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G135" t="n">
+        <v>100101</v>
+      </c>
+      <c r="H135" t="inlineStr">
+        <is>
+          <t>Berries</t>
+        </is>
+      </c>
+      <c r="I135" t="n">
+        <v>100101007</v>
+      </c>
+      <c r="J135" t="inlineStr">
+        <is>
+          <t>Kiwi</t>
+        </is>
+      </c>
+      <c r="K135" t="inlineStr">
+        <is>
+          <t>Hayward</t>
+        </is>
+      </c>
+      <c r="L135" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="M135" t="n">
+        <v>160</v>
+      </c>
+      <c r="N135" t="n">
+        <v>9000</v>
+      </c>
+      <c r="O135" t="n">
+        <v>9000</v>
+      </c>
+      <c r="P135" t="n">
+        <v>9000</v>
+      </c>
+      <c r="Q135" t="inlineStr">
+        <is>
+          <t>$/bandeja 18 kilos</t>
+        </is>
+      </c>
+      <c r="R135" t="inlineStr">
+        <is>
+          <t>Provincia de Curicó</t>
+        </is>
+      </c>
+      <c r="S135" t="n">
+        <v>500</v>
+      </c>
+      <c r="T135" t="n">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" t="n">
+        <v>5</v>
+      </c>
+      <c r="B136" t="inlineStr">
+        <is>
+          <t>Macroferia Regional de Talca</t>
+        </is>
+      </c>
+      <c r="C136" t="inlineStr">
+        <is>
+          <t>Maule</t>
+        </is>
+      </c>
+      <c r="D136" s="2" t="n">
+        <v>44376</v>
+      </c>
+      <c r="E136" t="n">
+        <v>7</v>
+      </c>
+      <c r="F136" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G136" t="n">
+        <v>100101</v>
+      </c>
+      <c r="H136" t="inlineStr">
+        <is>
+          <t>Berries</t>
+        </is>
+      </c>
+      <c r="I136" t="n">
+        <v>100101007</v>
+      </c>
+      <c r="J136" t="inlineStr">
+        <is>
+          <t>Kiwi</t>
+        </is>
+      </c>
+      <c r="K136" t="inlineStr">
+        <is>
+          <t>Hayward</t>
+        </is>
+      </c>
+      <c r="L136" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="M136" t="n">
+        <v>260</v>
+      </c>
+      <c r="N136" t="n">
+        <v>9000</v>
+      </c>
+      <c r="O136" t="n">
+        <v>9000</v>
+      </c>
+      <c r="P136" t="n">
+        <v>9000</v>
+      </c>
+      <c r="Q136" t="inlineStr">
+        <is>
+          <t>$/bandeja 18 kilos</t>
+        </is>
+      </c>
+      <c r="R136" t="inlineStr">
+        <is>
+          <t>Provincia de Curicó</t>
+        </is>
+      </c>
+      <c r="S136" t="n">
+        <v>500</v>
+      </c>
+      <c r="T136" t="n">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" t="n">
+        <v>5</v>
+      </c>
+      <c r="B137" t="inlineStr">
+        <is>
+          <t>Macroferia Regional de Talca</t>
+        </is>
+      </c>
+      <c r="C137" t="inlineStr">
+        <is>
+          <t>Maule</t>
+        </is>
+      </c>
+      <c r="D137" s="2" t="n">
         <v>44284</v>
       </c>
-      <c r="E134" t="n">
-        <v>7</v>
-      </c>
-      <c r="F134" t="inlineStr">
-        <is>
-          <t>Fruta</t>
-        </is>
-      </c>
-      <c r="G134" t="n">
-        <v>100101</v>
-      </c>
-      <c r="H134" t="inlineStr">
-        <is>
-          <t>Berries</t>
-        </is>
-      </c>
-      <c r="I134" t="n">
-        <v>100101007</v>
-      </c>
-      <c r="J134" t="inlineStr">
-        <is>
-          <t>Kiwi</t>
-        </is>
-      </c>
-      <c r="K134" t="inlineStr">
-        <is>
-          <t>Hayward</t>
-        </is>
-      </c>
-      <c r="L134" t="inlineStr">
+      <c r="E137" t="n">
+        <v>7</v>
+      </c>
+      <c r="F137" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G137" t="n">
+        <v>100101</v>
+      </c>
+      <c r="H137" t="inlineStr">
+        <is>
+          <t>Berries</t>
+        </is>
+      </c>
+      <c r="I137" t="n">
+        <v>100101007</v>
+      </c>
+      <c r="J137" t="inlineStr">
+        <is>
+          <t>Kiwi</t>
+        </is>
+      </c>
+      <c r="K137" t="inlineStr">
+        <is>
+          <t>Hayward</t>
+        </is>
+      </c>
+      <c r="L137" t="inlineStr">
         <is>
           <t>Segunda</t>
         </is>
       </c>
-      <c r="M134" t="n">
+      <c r="M137" t="n">
         <v>200</v>
       </c>
-      <c r="N134" t="n">
+      <c r="N137" t="n">
         <v>7000</v>
       </c>
-      <c r="O134" t="n">
+      <c r="O137" t="n">
         <v>7000</v>
       </c>
-      <c r="P134" t="n">
+      <c r="P137" t="n">
         <v>7000</v>
       </c>
-      <c r="Q134" t="inlineStr">
+      <c r="Q137" t="inlineStr">
         <is>
           <t>$/bandeja 18 kilos</t>
         </is>
       </c>
-      <c r="R134" t="inlineStr">
-        <is>
-          <t>Provincia de Curicó</t>
-        </is>
-      </c>
-      <c r="S134" t="n">
+      <c r="R137" t="inlineStr">
+        <is>
+          <t>Provincia de Curicó</t>
+        </is>
+      </c>
+      <c r="S137" t="n">
         <v>389</v>
       </c>
-      <c r="T134" t="n">
+      <c r="T137" t="n">
         <v>18</v>
       </c>
     </row>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Macroferia Regional de Talca - Kiwi.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Macroferia Regional de Talca - Kiwi.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T137"/>
+  <dimension ref="A1:T145"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2087,7 +2087,7 @@
         </is>
       </c>
       <c r="D22" s="2" t="n">
-        <v>44392</v>
+        <v>44425</v>
       </c>
       <c r="E22" t="n">
         <v>7</v>
@@ -2120,20 +2120,20 @@
       </c>
       <c r="L22" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M22" t="n">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="N22" t="n">
-        <v>11000</v>
+        <v>8000</v>
       </c>
       <c r="O22" t="n">
-        <v>11000</v>
+        <v>8000</v>
       </c>
       <c r="P22" t="n">
-        <v>11000</v>
+        <v>8000</v>
       </c>
       <c r="Q22" t="inlineStr">
         <is>
@@ -2146,7 +2146,7 @@
         </is>
       </c>
       <c r="S22" t="n">
-        <v>611</v>
+        <v>444</v>
       </c>
       <c r="T22" t="n">
         <v>18</v>
@@ -2200,20 +2200,20 @@
       </c>
       <c r="L23" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M23" t="n">
-        <v>400</v>
+        <v>200</v>
       </c>
       <c r="N23" t="n">
-        <v>9000</v>
+        <v>11000</v>
       </c>
       <c r="O23" t="n">
-        <v>9000</v>
+        <v>11000</v>
       </c>
       <c r="P23" t="n">
-        <v>9000</v>
+        <v>11000</v>
       </c>
       <c r="Q23" t="inlineStr">
         <is>
@@ -2226,7 +2226,7 @@
         </is>
       </c>
       <c r="S23" t="n">
-        <v>500</v>
+        <v>611</v>
       </c>
       <c r="T23" t="n">
         <v>18</v>
@@ -2247,7 +2247,7 @@
         </is>
       </c>
       <c r="D24" s="2" t="n">
-        <v>44329</v>
+        <v>44392</v>
       </c>
       <c r="E24" t="n">
         <v>7</v>
@@ -2284,20 +2284,20 @@
         </is>
       </c>
       <c r="M24" t="n">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="N24" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="O24" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="P24" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="Q24" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="R24" t="inlineStr">
@@ -2306,10 +2306,10 @@
         </is>
       </c>
       <c r="S24" t="n">
-        <v>800</v>
+        <v>500</v>
       </c>
       <c r="T24" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
     </row>
     <row r="25">
@@ -2327,7 +2327,7 @@
         </is>
       </c>
       <c r="D25" s="2" t="n">
-        <v>44322</v>
+        <v>44329</v>
       </c>
       <c r="E25" t="n">
         <v>7</v>
@@ -2364,20 +2364,20 @@
         </is>
       </c>
       <c r="M25" t="n">
-        <v>210</v>
+        <v>300</v>
       </c>
       <c r="N25" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="O25" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="P25" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="Q25" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="R25" t="inlineStr">
@@ -2386,7 +2386,7 @@
         </is>
       </c>
       <c r="S25" t="n">
-        <v>1000</v>
+        <v>800</v>
       </c>
       <c r="T25" t="n">
         <v>10</v>
@@ -2407,7 +2407,7 @@
         </is>
       </c>
       <c r="D26" s="2" t="n">
-        <v>44407</v>
+        <v>44322</v>
       </c>
       <c r="E26" t="n">
         <v>7</v>
@@ -2440,24 +2440,24 @@
       </c>
       <c r="L26" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M26" t="n">
-        <v>60</v>
+        <v>210</v>
       </c>
       <c r="N26" t="n">
-        <v>13000</v>
+        <v>10000</v>
       </c>
       <c r="O26" t="n">
-        <v>13000</v>
+        <v>10000</v>
       </c>
       <c r="P26" t="n">
-        <v>13000</v>
+        <v>10000</v>
       </c>
       <c r="Q26" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R26" t="inlineStr">
@@ -2466,10 +2466,10 @@
         </is>
       </c>
       <c r="S26" t="n">
-        <v>722</v>
+        <v>1000</v>
       </c>
       <c r="T26" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="27">
@@ -2520,20 +2520,20 @@
       </c>
       <c r="L27" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M27" t="n">
-        <v>150</v>
+        <v>60</v>
       </c>
       <c r="N27" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="O27" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="P27" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="Q27" t="inlineStr">
         <is>
@@ -2546,7 +2546,7 @@
         </is>
       </c>
       <c r="S27" t="n">
-        <v>556</v>
+        <v>722</v>
       </c>
       <c r="T27" t="n">
         <v>18</v>
@@ -2600,20 +2600,20 @@
       </c>
       <c r="L28" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M28" t="n">
-        <v>100</v>
+        <v>150</v>
       </c>
       <c r="N28" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="O28" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="P28" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="Q28" t="inlineStr">
         <is>
@@ -2626,7 +2626,7 @@
         </is>
       </c>
       <c r="S28" t="n">
-        <v>444</v>
+        <v>556</v>
       </c>
       <c r="T28" t="n">
         <v>18</v>
@@ -2647,7 +2647,7 @@
         </is>
       </c>
       <c r="D29" s="2" t="n">
-        <v>44414</v>
+        <v>44407</v>
       </c>
       <c r="E29" t="n">
         <v>7</v>
@@ -2680,11 +2680,11 @@
       </c>
       <c r="L29" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M29" t="n">
-        <v>150</v>
+        <v>100</v>
       </c>
       <c r="N29" t="n">
         <v>8000</v>
@@ -2697,7 +2697,7 @@
       </c>
       <c r="Q29" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="R29" t="inlineStr">
@@ -2706,10 +2706,10 @@
         </is>
       </c>
       <c r="S29" t="n">
-        <v>800</v>
+        <v>444</v>
       </c>
       <c r="T29" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
     </row>
     <row r="30">
@@ -2764,20 +2764,20 @@
         </is>
       </c>
       <c r="M30" t="n">
-        <v>190</v>
+        <v>150</v>
       </c>
       <c r="N30" t="n">
-        <v>12000</v>
+        <v>8000</v>
       </c>
       <c r="O30" t="n">
-        <v>12000</v>
+        <v>8000</v>
       </c>
       <c r="P30" t="n">
-        <v>12000</v>
+        <v>8000</v>
       </c>
       <c r="Q30" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R30" t="inlineStr">
@@ -2786,10 +2786,10 @@
         </is>
       </c>
       <c r="S30" t="n">
-        <v>667</v>
+        <v>800</v>
       </c>
       <c r="T30" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="31">
@@ -2840,20 +2840,20 @@
       </c>
       <c r="L31" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M31" t="n">
-        <v>100</v>
+        <v>190</v>
       </c>
       <c r="N31" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="O31" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="P31" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="Q31" t="inlineStr">
         <is>
@@ -2866,7 +2866,7 @@
         </is>
       </c>
       <c r="S31" t="n">
-        <v>556</v>
+        <v>667</v>
       </c>
       <c r="T31" t="n">
         <v>18</v>
@@ -2887,7 +2887,7 @@
         </is>
       </c>
       <c r="D32" s="2" t="n">
-        <v>44308</v>
+        <v>44414</v>
       </c>
       <c r="E32" t="n">
         <v>7</v>
@@ -2920,20 +2920,20 @@
       </c>
       <c r="L32" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M32" t="n">
         <v>100</v>
       </c>
       <c r="N32" t="n">
-        <v>14000</v>
+        <v>10000</v>
       </c>
       <c r="O32" t="n">
-        <v>14000</v>
+        <v>10000</v>
       </c>
       <c r="P32" t="n">
-        <v>14000</v>
+        <v>10000</v>
       </c>
       <c r="Q32" t="inlineStr">
         <is>
@@ -2946,7 +2946,7 @@
         </is>
       </c>
       <c r="S32" t="n">
-        <v>778</v>
+        <v>556</v>
       </c>
       <c r="T32" t="n">
         <v>18</v>
@@ -2967,7 +2967,7 @@
         </is>
       </c>
       <c r="D33" s="2" t="n">
-        <v>44403</v>
+        <v>44308</v>
       </c>
       <c r="E33" t="n">
         <v>7</v>
@@ -3000,20 +3000,20 @@
       </c>
       <c r="L33" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M33" t="n">
-        <v>350</v>
+        <v>100</v>
       </c>
       <c r="N33" t="n">
-        <v>9000</v>
+        <v>14000</v>
       </c>
       <c r="O33" t="n">
-        <v>10000</v>
+        <v>14000</v>
       </c>
       <c r="P33" t="n">
-        <v>9429</v>
+        <v>14000</v>
       </c>
       <c r="Q33" t="inlineStr">
         <is>
@@ -3026,7 +3026,7 @@
         </is>
       </c>
       <c r="S33" t="n">
-        <v>524</v>
+        <v>778</v>
       </c>
       <c r="T33" t="n">
         <v>18</v>
@@ -3080,20 +3080,20 @@
       </c>
       <c r="L34" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M34" t="n">
-        <v>250</v>
+        <v>350</v>
       </c>
       <c r="N34" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="O34" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="P34" t="n">
-        <v>8000</v>
+        <v>9429</v>
       </c>
       <c r="Q34" t="inlineStr">
         <is>
@@ -3106,7 +3106,7 @@
         </is>
       </c>
       <c r="S34" t="n">
-        <v>444</v>
+        <v>524</v>
       </c>
       <c r="T34" t="n">
         <v>18</v>
@@ -3127,7 +3127,7 @@
         </is>
       </c>
       <c r="D35" s="2" t="n">
-        <v>44379</v>
+        <v>44403</v>
       </c>
       <c r="E35" t="n">
         <v>7</v>
@@ -3160,20 +3160,20 @@
       </c>
       <c r="L35" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M35" t="n">
-        <v>200</v>
+        <v>250</v>
       </c>
       <c r="N35" t="n">
-        <v>12000</v>
+        <v>8000</v>
       </c>
       <c r="O35" t="n">
-        <v>12000</v>
+        <v>8000</v>
       </c>
       <c r="P35" t="n">
-        <v>12000</v>
+        <v>8000</v>
       </c>
       <c r="Q35" t="inlineStr">
         <is>
@@ -3186,7 +3186,7 @@
         </is>
       </c>
       <c r="S35" t="n">
-        <v>667</v>
+        <v>444</v>
       </c>
       <c r="T35" t="n">
         <v>18</v>
@@ -3240,20 +3240,20 @@
       </c>
       <c r="L36" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M36" t="n">
-        <v>160</v>
+        <v>200</v>
       </c>
       <c r="N36" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="O36" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="P36" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="Q36" t="inlineStr">
         <is>
@@ -3266,7 +3266,7 @@
         </is>
       </c>
       <c r="S36" t="n">
-        <v>556</v>
+        <v>667</v>
       </c>
       <c r="T36" t="n">
         <v>18</v>
@@ -3287,7 +3287,7 @@
         </is>
       </c>
       <c r="D37" s="2" t="n">
-        <v>44306</v>
+        <v>44379</v>
       </c>
       <c r="E37" t="n">
         <v>7</v>
@@ -3320,11 +3320,11 @@
       </c>
       <c r="L37" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M37" t="n">
-        <v>230</v>
+        <v>160</v>
       </c>
       <c r="N37" t="n">
         <v>10000</v>
@@ -3337,7 +3337,7 @@
       </c>
       <c r="Q37" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="R37" t="inlineStr">
@@ -3346,10 +3346,10 @@
         </is>
       </c>
       <c r="S37" t="n">
-        <v>1000</v>
+        <v>556</v>
       </c>
       <c r="T37" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
     </row>
     <row r="38">
@@ -3404,20 +3404,20 @@
         </is>
       </c>
       <c r="M38" t="n">
-        <v>180</v>
+        <v>230</v>
       </c>
       <c r="N38" t="n">
-        <v>13000</v>
+        <v>10000</v>
       </c>
       <c r="O38" t="n">
-        <v>13000</v>
+        <v>10000</v>
       </c>
       <c r="P38" t="n">
-        <v>13000</v>
+        <v>10000</v>
       </c>
       <c r="Q38" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R38" t="inlineStr">
@@ -3426,10 +3426,10 @@
         </is>
       </c>
       <c r="S38" t="n">
-        <v>722</v>
+        <v>1000</v>
       </c>
       <c r="T38" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="39">
@@ -3480,24 +3480,24 @@
       </c>
       <c r="L39" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M39" t="n">
-        <v>230</v>
+        <v>180</v>
       </c>
       <c r="N39" t="n">
-        <v>8000</v>
+        <v>13000</v>
       </c>
       <c r="O39" t="n">
-        <v>8000</v>
+        <v>13000</v>
       </c>
       <c r="P39" t="n">
-        <v>8000</v>
+        <v>13000</v>
       </c>
       <c r="Q39" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="R39" t="inlineStr">
@@ -3506,10 +3506,10 @@
         </is>
       </c>
       <c r="S39" t="n">
-        <v>800</v>
+        <v>722</v>
       </c>
       <c r="T39" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
     </row>
     <row r="40">
@@ -3527,7 +3527,7 @@
         </is>
       </c>
       <c r="D40" s="2" t="n">
-        <v>44356</v>
+        <v>44306</v>
       </c>
       <c r="E40" t="n">
         <v>7</v>
@@ -3560,24 +3560,24 @@
       </c>
       <c r="L40" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M40" t="n">
-        <v>200</v>
+        <v>230</v>
       </c>
       <c r="N40" t="n">
-        <v>12000</v>
+        <v>8000</v>
       </c>
       <c r="O40" t="n">
-        <v>12000</v>
+        <v>8000</v>
       </c>
       <c r="P40" t="n">
-        <v>12000</v>
+        <v>8000</v>
       </c>
       <c r="Q40" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R40" t="inlineStr">
@@ -3586,10 +3586,10 @@
         </is>
       </c>
       <c r="S40" t="n">
-        <v>667</v>
+        <v>800</v>
       </c>
       <c r="T40" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="41">
@@ -3640,20 +3640,20 @@
       </c>
       <c r="L41" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M41" t="n">
-        <v>140</v>
+        <v>200</v>
       </c>
       <c r="N41" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="O41" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="P41" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="Q41" t="inlineStr">
         <is>
@@ -3666,7 +3666,7 @@
         </is>
       </c>
       <c r="S41" t="n">
-        <v>556</v>
+        <v>667</v>
       </c>
       <c r="T41" t="n">
         <v>18</v>
@@ -3720,20 +3720,20 @@
       </c>
       <c r="L42" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M42" t="n">
-        <v>80</v>
+        <v>140</v>
       </c>
       <c r="N42" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="O42" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="P42" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="Q42" t="inlineStr">
         <is>
@@ -3746,7 +3746,7 @@
         </is>
       </c>
       <c r="S42" t="n">
-        <v>444</v>
+        <v>556</v>
       </c>
       <c r="T42" t="n">
         <v>18</v>
@@ -3767,7 +3767,7 @@
         </is>
       </c>
       <c r="D43" s="2" t="n">
-        <v>44280</v>
+        <v>44356</v>
       </c>
       <c r="E43" t="n">
         <v>7</v>
@@ -3800,24 +3800,24 @@
       </c>
       <c r="L43" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M43" t="n">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="N43" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="O43" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="P43" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="Q43" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="R43" t="inlineStr">
@@ -3826,10 +3826,10 @@
         </is>
       </c>
       <c r="S43" t="n">
-        <v>1000</v>
+        <v>444</v>
       </c>
       <c r="T43" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
     </row>
     <row r="44">
@@ -3880,20 +3880,20 @@
       </c>
       <c r="L44" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M44" t="n">
-        <v>60</v>
+        <v>100</v>
       </c>
       <c r="N44" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="O44" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="P44" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="Q44" t="inlineStr">
         <is>
@@ -3906,7 +3906,7 @@
         </is>
       </c>
       <c r="S44" t="n">
-        <v>800</v>
+        <v>1000</v>
       </c>
       <c r="T44" t="n">
         <v>10</v>
@@ -3927,7 +3927,7 @@
         </is>
       </c>
       <c r="D45" s="2" t="n">
-        <v>44299</v>
+        <v>44280</v>
       </c>
       <c r="E45" t="n">
         <v>7</v>
@@ -3960,24 +3960,24 @@
       </c>
       <c r="L45" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M45" t="n">
-        <v>200</v>
+        <v>60</v>
       </c>
       <c r="N45" t="n">
-        <v>13000</v>
+        <v>8000</v>
       </c>
       <c r="O45" t="n">
-        <v>13000</v>
+        <v>8000</v>
       </c>
       <c r="P45" t="n">
-        <v>13000</v>
+        <v>8000</v>
       </c>
       <c r="Q45" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="R45" t="inlineStr">
@@ -3986,10 +3986,10 @@
         </is>
       </c>
       <c r="S45" t="n">
-        <v>722</v>
+        <v>800</v>
       </c>
       <c r="T45" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="46">
@@ -4007,7 +4007,7 @@
         </is>
       </c>
       <c r="D46" s="2" t="n">
-        <v>44342</v>
+        <v>44299</v>
       </c>
       <c r="E46" t="n">
         <v>7</v>
@@ -4044,16 +4044,16 @@
         </is>
       </c>
       <c r="M46" t="n">
-        <v>250</v>
+        <v>200</v>
       </c>
       <c r="N46" t="n">
-        <v>8000</v>
+        <v>13000</v>
       </c>
       <c r="O46" t="n">
-        <v>9000</v>
+        <v>13000</v>
       </c>
       <c r="P46" t="n">
-        <v>8600</v>
+        <v>13000</v>
       </c>
       <c r="Q46" t="inlineStr">
         <is>
@@ -4066,7 +4066,7 @@
         </is>
       </c>
       <c r="S46" t="n">
-        <v>478</v>
+        <v>722</v>
       </c>
       <c r="T46" t="n">
         <v>18</v>
@@ -4087,7 +4087,7 @@
         </is>
       </c>
       <c r="D47" s="2" t="n">
-        <v>44384</v>
+        <v>44342</v>
       </c>
       <c r="E47" t="n">
         <v>7</v>
@@ -4124,20 +4124,20 @@
         </is>
       </c>
       <c r="M47" t="n">
-        <v>500</v>
+        <v>250</v>
       </c>
       <c r="N47" t="n">
-        <v>6000</v>
+        <v>8000</v>
       </c>
       <c r="O47" t="n">
-        <v>6000</v>
+        <v>9000</v>
       </c>
       <c r="P47" t="n">
-        <v>6000</v>
+        <v>8600</v>
       </c>
       <c r="Q47" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="R47" t="inlineStr">
@@ -4146,10 +4146,10 @@
         </is>
       </c>
       <c r="S47" t="n">
-        <v>600</v>
+        <v>478</v>
       </c>
       <c r="T47" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
     </row>
     <row r="48">
@@ -4167,7 +4167,7 @@
         </is>
       </c>
       <c r="D48" s="2" t="n">
-        <v>44323</v>
+        <v>44384</v>
       </c>
       <c r="E48" t="n">
         <v>7</v>
@@ -4200,24 +4200,24 @@
       </c>
       <c r="L48" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M48" t="n">
-        <v>150</v>
+        <v>500</v>
       </c>
       <c r="N48" t="n">
-        <v>10000</v>
+        <v>6000</v>
       </c>
       <c r="O48" t="n">
-        <v>10000</v>
+        <v>6000</v>
       </c>
       <c r="P48" t="n">
-        <v>10000</v>
+        <v>6000</v>
       </c>
       <c r="Q48" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="R48" t="inlineStr">
@@ -4226,7 +4226,7 @@
         </is>
       </c>
       <c r="S48" t="n">
-        <v>1000</v>
+        <v>600</v>
       </c>
       <c r="T48" t="n">
         <v>10</v>
@@ -4280,20 +4280,20 @@
       </c>
       <c r="L49" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M49" t="n">
-        <v>100</v>
+        <v>150</v>
       </c>
       <c r="N49" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="O49" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="P49" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="Q49" t="inlineStr">
         <is>
@@ -4306,7 +4306,7 @@
         </is>
       </c>
       <c r="S49" t="n">
-        <v>900</v>
+        <v>1000</v>
       </c>
       <c r="T49" t="n">
         <v>10</v>
@@ -4327,7 +4327,7 @@
         </is>
       </c>
       <c r="D50" s="2" t="n">
-        <v>44363</v>
+        <v>44323</v>
       </c>
       <c r="E50" t="n">
         <v>7</v>
@@ -4364,32 +4364,32 @@
         </is>
       </c>
       <c r="M50" t="n">
-        <v>280</v>
+        <v>100</v>
       </c>
       <c r="N50" t="n">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="O50" t="n">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="P50" t="n">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="Q50" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R50" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S50" t="n">
-        <v>556</v>
+        <v>900</v>
       </c>
       <c r="T50" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="51">
@@ -4440,20 +4440,20 @@
       </c>
       <c r="L51" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M51" t="n">
-        <v>300</v>
+        <v>280</v>
       </c>
       <c r="N51" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="O51" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="P51" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="Q51" t="inlineStr">
         <is>
@@ -4466,7 +4466,7 @@
         </is>
       </c>
       <c r="S51" t="n">
-        <v>444</v>
+        <v>556</v>
       </c>
       <c r="T51" t="n">
         <v>18</v>
@@ -4487,7 +4487,7 @@
         </is>
       </c>
       <c r="D52" s="2" t="n">
-        <v>44349</v>
+        <v>44363</v>
       </c>
       <c r="E52" t="n">
         <v>7</v>
@@ -4520,20 +4520,20 @@
       </c>
       <c r="L52" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M52" t="n">
-        <v>180</v>
+        <v>300</v>
       </c>
       <c r="N52" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="O52" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="P52" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="Q52" t="inlineStr">
         <is>
@@ -4542,11 +4542,11 @@
       </c>
       <c r="R52" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S52" t="n">
-        <v>556</v>
+        <v>444</v>
       </c>
       <c r="T52" t="n">
         <v>18</v>
@@ -4600,20 +4600,20 @@
       </c>
       <c r="L53" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M53" t="n">
-        <v>230</v>
+        <v>180</v>
       </c>
       <c r="N53" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="O53" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="P53" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="Q53" t="inlineStr">
         <is>
@@ -4626,7 +4626,7 @@
         </is>
       </c>
       <c r="S53" t="n">
-        <v>444</v>
+        <v>556</v>
       </c>
       <c r="T53" t="n">
         <v>18</v>
@@ -4647,7 +4647,7 @@
         </is>
       </c>
       <c r="D54" s="2" t="n">
-        <v>44385</v>
+        <v>44349</v>
       </c>
       <c r="E54" t="n">
         <v>7</v>
@@ -4680,20 +4680,20 @@
       </c>
       <c r="L54" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M54" t="n">
         <v>230</v>
       </c>
       <c r="N54" t="n">
-        <v>11000</v>
+        <v>8000</v>
       </c>
       <c r="O54" t="n">
-        <v>11000</v>
+        <v>8000</v>
       </c>
       <c r="P54" t="n">
-        <v>11000</v>
+        <v>8000</v>
       </c>
       <c r="Q54" t="inlineStr">
         <is>
@@ -4706,7 +4706,7 @@
         </is>
       </c>
       <c r="S54" t="n">
-        <v>611</v>
+        <v>444</v>
       </c>
       <c r="T54" t="n">
         <v>18</v>
@@ -4760,20 +4760,20 @@
       </c>
       <c r="L55" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M55" t="n">
-        <v>200</v>
+        <v>230</v>
       </c>
       <c r="N55" t="n">
-        <v>9000</v>
+        <v>11000</v>
       </c>
       <c r="O55" t="n">
-        <v>9000</v>
+        <v>11000</v>
       </c>
       <c r="P55" t="n">
-        <v>9000</v>
+        <v>11000</v>
       </c>
       <c r="Q55" t="inlineStr">
         <is>
@@ -4786,7 +4786,7 @@
         </is>
       </c>
       <c r="S55" t="n">
-        <v>500</v>
+        <v>611</v>
       </c>
       <c r="T55" t="n">
         <v>18</v>
@@ -4807,7 +4807,7 @@
         </is>
       </c>
       <c r="D56" s="2" t="n">
-        <v>44377</v>
+        <v>44385</v>
       </c>
       <c r="E56" t="n">
         <v>7</v>
@@ -4844,16 +4844,16 @@
         </is>
       </c>
       <c r="M56" t="n">
-        <v>150</v>
+        <v>200</v>
       </c>
       <c r="N56" t="n">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="O56" t="n">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="P56" t="n">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="Q56" t="inlineStr">
         <is>
@@ -4866,7 +4866,7 @@
         </is>
       </c>
       <c r="S56" t="n">
-        <v>556</v>
+        <v>500</v>
       </c>
       <c r="T56" t="n">
         <v>18</v>
@@ -4924,20 +4924,20 @@
         </is>
       </c>
       <c r="M57" t="n">
-        <v>210</v>
+        <v>150</v>
       </c>
       <c r="N57" t="n">
-        <v>6000</v>
+        <v>10000</v>
       </c>
       <c r="O57" t="n">
-        <v>6000</v>
+        <v>10000</v>
       </c>
       <c r="P57" t="n">
-        <v>6000</v>
+        <v>10000</v>
       </c>
       <c r="Q57" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="R57" t="inlineStr">
@@ -4946,10 +4946,10 @@
         </is>
       </c>
       <c r="S57" t="n">
-        <v>600</v>
+        <v>556</v>
       </c>
       <c r="T57" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
     </row>
     <row r="58">
@@ -5000,11 +5000,11 @@
       </c>
       <c r="L58" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M58" t="n">
-        <v>100</v>
+        <v>210</v>
       </c>
       <c r="N58" t="n">
         <v>6000</v>
@@ -5017,7 +5017,7 @@
       </c>
       <c r="Q58" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="R58" t="inlineStr">
@@ -5026,10 +5026,10 @@
         </is>
       </c>
       <c r="S58" t="n">
-        <v>333</v>
+        <v>600</v>
       </c>
       <c r="T58" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="59">
@@ -5047,7 +5047,7 @@
         </is>
       </c>
       <c r="D59" s="2" t="n">
-        <v>44400</v>
+        <v>44377</v>
       </c>
       <c r="E59" t="n">
         <v>7</v>
@@ -5080,20 +5080,20 @@
       </c>
       <c r="L59" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="M59" t="n">
         <v>100</v>
       </c>
       <c r="N59" t="n">
-        <v>13000</v>
+        <v>6000</v>
       </c>
       <c r="O59" t="n">
-        <v>13000</v>
+        <v>6000</v>
       </c>
       <c r="P59" t="n">
-        <v>13000</v>
+        <v>6000</v>
       </c>
       <c r="Q59" t="inlineStr">
         <is>
@@ -5106,7 +5106,7 @@
         </is>
       </c>
       <c r="S59" t="n">
-        <v>722</v>
+        <v>333</v>
       </c>
       <c r="T59" t="n">
         <v>18</v>
@@ -5160,20 +5160,20 @@
       </c>
       <c r="L60" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M60" t="n">
-        <v>180</v>
+        <v>100</v>
       </c>
       <c r="N60" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="O60" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="P60" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="Q60" t="inlineStr">
         <is>
@@ -5186,7 +5186,7 @@
         </is>
       </c>
       <c r="S60" t="n">
-        <v>556</v>
+        <v>722</v>
       </c>
       <c r="T60" t="n">
         <v>18</v>
@@ -5240,20 +5240,20 @@
       </c>
       <c r="L61" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M61" t="n">
-        <v>150</v>
+        <v>180</v>
       </c>
       <c r="N61" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="O61" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="P61" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="Q61" t="inlineStr">
         <is>
@@ -5266,7 +5266,7 @@
         </is>
       </c>
       <c r="S61" t="n">
-        <v>444</v>
+        <v>556</v>
       </c>
       <c r="T61" t="n">
         <v>18</v>
@@ -5287,7 +5287,7 @@
         </is>
       </c>
       <c r="D62" s="2" t="n">
-        <v>44295</v>
+        <v>44400</v>
       </c>
       <c r="E62" t="n">
         <v>7</v>
@@ -5320,20 +5320,20 @@
       </c>
       <c r="L62" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M62" t="n">
-        <v>160</v>
+        <v>150</v>
       </c>
       <c r="N62" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="O62" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="P62" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="Q62" t="inlineStr">
         <is>
@@ -5346,7 +5346,7 @@
         </is>
       </c>
       <c r="S62" t="n">
-        <v>556</v>
+        <v>444</v>
       </c>
       <c r="T62" t="n">
         <v>18</v>
@@ -5367,7 +5367,7 @@
         </is>
       </c>
       <c r="D63" s="2" t="n">
-        <v>44390</v>
+        <v>44426</v>
       </c>
       <c r="E63" t="n">
         <v>7</v>
@@ -5400,24 +5400,24 @@
       </c>
       <c r="L63" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M63" t="n">
-        <v>250</v>
+        <v>100</v>
       </c>
       <c r="N63" t="n">
-        <v>9000</v>
+        <v>12000</v>
       </c>
       <c r="O63" t="n">
-        <v>9000</v>
+        <v>12000</v>
       </c>
       <c r="P63" t="n">
-        <v>9000</v>
+        <v>12000</v>
       </c>
       <c r="Q63" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="R63" t="inlineStr">
@@ -5426,7 +5426,7 @@
         </is>
       </c>
       <c r="S63" t="n">
-        <v>500</v>
+        <v>667</v>
       </c>
       <c r="T63" t="n">
         <v>18</v>
@@ -5447,7 +5447,7 @@
         </is>
       </c>
       <c r="D64" s="2" t="n">
-        <v>44321</v>
+        <v>44426</v>
       </c>
       <c r="E64" t="n">
         <v>7</v>
@@ -5484,20 +5484,20 @@
         </is>
       </c>
       <c r="M64" t="n">
-        <v>200</v>
+        <v>120</v>
       </c>
       <c r="N64" t="n">
-        <v>13000</v>
+        <v>10000</v>
       </c>
       <c r="O64" t="n">
-        <v>13000</v>
+        <v>10000</v>
       </c>
       <c r="P64" t="n">
-        <v>13000</v>
+        <v>10000</v>
       </c>
       <c r="Q64" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="R64" t="inlineStr">
@@ -5506,7 +5506,7 @@
         </is>
       </c>
       <c r="S64" t="n">
-        <v>722</v>
+        <v>556</v>
       </c>
       <c r="T64" t="n">
         <v>18</v>
@@ -5527,7 +5527,7 @@
         </is>
       </c>
       <c r="D65" s="2" t="n">
-        <v>44383</v>
+        <v>44295</v>
       </c>
       <c r="E65" t="n">
         <v>7</v>
@@ -5564,16 +5564,16 @@
         </is>
       </c>
       <c r="M65" t="n">
-        <v>210</v>
+        <v>160</v>
       </c>
       <c r="N65" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="O65" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="P65" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="Q65" t="inlineStr">
         <is>
@@ -5586,7 +5586,7 @@
         </is>
       </c>
       <c r="S65" t="n">
-        <v>500</v>
+        <v>556</v>
       </c>
       <c r="T65" t="n">
         <v>18</v>
@@ -5607,7 +5607,7 @@
         </is>
       </c>
       <c r="D66" s="2" t="n">
-        <v>44383</v>
+        <v>44390</v>
       </c>
       <c r="E66" t="n">
         <v>7</v>
@@ -5644,20 +5644,20 @@
         </is>
       </c>
       <c r="M66" t="n">
-        <v>260</v>
+        <v>250</v>
       </c>
       <c r="N66" t="n">
-        <v>6000</v>
+        <v>9000</v>
       </c>
       <c r="O66" t="n">
-        <v>6000</v>
+        <v>9000</v>
       </c>
       <c r="P66" t="n">
-        <v>6000</v>
+        <v>9000</v>
       </c>
       <c r="Q66" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="R66" t="inlineStr">
@@ -5666,10 +5666,10 @@
         </is>
       </c>
       <c r="S66" t="n">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="T66" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
     </row>
     <row r="67">
@@ -5687,7 +5687,7 @@
         </is>
       </c>
       <c r="D67" s="2" t="n">
-        <v>44354</v>
+        <v>44321</v>
       </c>
       <c r="E67" t="n">
         <v>7</v>
@@ -5720,20 +5720,20 @@
       </c>
       <c r="L67" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M67" t="n">
-        <v>180</v>
+        <v>200</v>
       </c>
       <c r="N67" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="O67" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="P67" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="Q67" t="inlineStr">
         <is>
@@ -5742,11 +5742,11 @@
       </c>
       <c r="R67" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S67" t="n">
-        <v>667</v>
+        <v>722</v>
       </c>
       <c r="T67" t="n">
         <v>18</v>
@@ -5767,7 +5767,7 @@
         </is>
       </c>
       <c r="D68" s="2" t="n">
-        <v>44354</v>
+        <v>44383</v>
       </c>
       <c r="E68" t="n">
         <v>7</v>
@@ -5804,16 +5804,16 @@
         </is>
       </c>
       <c r="M68" t="n">
-        <v>100</v>
+        <v>210</v>
       </c>
       <c r="N68" t="n">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="O68" t="n">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="P68" t="n">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="Q68" t="inlineStr">
         <is>
@@ -5822,11 +5822,11 @@
       </c>
       <c r="R68" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S68" t="n">
-        <v>556</v>
+        <v>500</v>
       </c>
       <c r="T68" t="n">
         <v>18</v>
@@ -5847,7 +5847,7 @@
         </is>
       </c>
       <c r="D69" s="2" t="n">
-        <v>44410</v>
+        <v>44383</v>
       </c>
       <c r="E69" t="n">
         <v>7</v>
@@ -5884,20 +5884,20 @@
         </is>
       </c>
       <c r="M69" t="n">
-        <v>230</v>
+        <v>260</v>
       </c>
       <c r="N69" t="n">
-        <v>12000</v>
+        <v>6000</v>
       </c>
       <c r="O69" t="n">
-        <v>12000</v>
+        <v>6000</v>
       </c>
       <c r="P69" t="n">
-        <v>12000</v>
+        <v>6000</v>
       </c>
       <c r="Q69" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="R69" t="inlineStr">
@@ -5906,10 +5906,10 @@
         </is>
       </c>
       <c r="S69" t="n">
-        <v>667</v>
+        <v>600</v>
       </c>
       <c r="T69" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="70">
@@ -5927,7 +5927,7 @@
         </is>
       </c>
       <c r="D70" s="2" t="n">
-        <v>44410</v>
+        <v>44354</v>
       </c>
       <c r="E70" t="n">
         <v>7</v>
@@ -5960,36 +5960,36 @@
       </c>
       <c r="L70" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M70" t="n">
-        <v>230</v>
+        <v>180</v>
       </c>
       <c r="N70" t="n">
-        <v>7000</v>
+        <v>12000</v>
       </c>
       <c r="O70" t="n">
-        <v>7000</v>
+        <v>12000</v>
       </c>
       <c r="P70" t="n">
-        <v>7000</v>
+        <v>12000</v>
       </c>
       <c r="Q70" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="R70" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S70" t="n">
-        <v>700</v>
+        <v>667</v>
       </c>
       <c r="T70" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
     </row>
     <row r="71">
@@ -6007,7 +6007,7 @@
         </is>
       </c>
       <c r="D71" s="2" t="n">
-        <v>44412</v>
+        <v>44354</v>
       </c>
       <c r="E71" t="n">
         <v>7</v>
@@ -6040,20 +6040,20 @@
       </c>
       <c r="L71" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M71" t="n">
-        <v>180</v>
+        <v>100</v>
       </c>
       <c r="N71" t="n">
-        <v>14000</v>
+        <v>10000</v>
       </c>
       <c r="O71" t="n">
-        <v>14000</v>
+        <v>10000</v>
       </c>
       <c r="P71" t="n">
-        <v>14000</v>
+        <v>10000</v>
       </c>
       <c r="Q71" t="inlineStr">
         <is>
@@ -6062,11 +6062,11 @@
       </c>
       <c r="R71" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S71" t="n">
-        <v>778</v>
+        <v>556</v>
       </c>
       <c r="T71" t="n">
         <v>18</v>
@@ -6087,7 +6087,7 @@
         </is>
       </c>
       <c r="D72" s="2" t="n">
-        <v>44412</v>
+        <v>44410</v>
       </c>
       <c r="E72" t="n">
         <v>7</v>
@@ -6167,7 +6167,7 @@
         </is>
       </c>
       <c r="D73" s="2" t="n">
-        <v>44336</v>
+        <v>44410</v>
       </c>
       <c r="E73" t="n">
         <v>7</v>
@@ -6204,16 +6204,16 @@
         </is>
       </c>
       <c r="M73" t="n">
-        <v>250</v>
+        <v>230</v>
       </c>
       <c r="N73" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="O73" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="P73" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="Q73" t="inlineStr">
         <is>
@@ -6226,7 +6226,7 @@
         </is>
       </c>
       <c r="S73" t="n">
-        <v>800</v>
+        <v>700</v>
       </c>
       <c r="T73" t="n">
         <v>10</v>
@@ -6247,7 +6247,7 @@
         </is>
       </c>
       <c r="D74" s="2" t="n">
-        <v>44320</v>
+        <v>44412</v>
       </c>
       <c r="E74" t="n">
         <v>7</v>
@@ -6284,16 +6284,16 @@
         </is>
       </c>
       <c r="M74" t="n">
-        <v>120</v>
+        <v>180</v>
       </c>
       <c r="N74" t="n">
-        <v>13000</v>
+        <v>14000</v>
       </c>
       <c r="O74" t="n">
-        <v>13000</v>
+        <v>14000</v>
       </c>
       <c r="P74" t="n">
-        <v>13000</v>
+        <v>14000</v>
       </c>
       <c r="Q74" t="inlineStr">
         <is>
@@ -6306,7 +6306,7 @@
         </is>
       </c>
       <c r="S74" t="n">
-        <v>722</v>
+        <v>778</v>
       </c>
       <c r="T74" t="n">
         <v>18</v>
@@ -6327,7 +6327,7 @@
         </is>
       </c>
       <c r="D75" s="2" t="n">
-        <v>44320</v>
+        <v>44412</v>
       </c>
       <c r="E75" t="n">
         <v>7</v>
@@ -6360,24 +6360,24 @@
       </c>
       <c r="L75" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M75" t="n">
-        <v>150</v>
+        <v>230</v>
       </c>
       <c r="N75" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="O75" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="P75" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="Q75" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="R75" t="inlineStr">
@@ -6386,10 +6386,10 @@
         </is>
       </c>
       <c r="S75" t="n">
-        <v>1000</v>
+        <v>667</v>
       </c>
       <c r="T75" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
     </row>
     <row r="76">
@@ -6407,7 +6407,7 @@
         </is>
       </c>
       <c r="D76" s="2" t="n">
-        <v>44320</v>
+        <v>44336</v>
       </c>
       <c r="E76" t="n">
         <v>7</v>
@@ -6444,20 +6444,20 @@
         </is>
       </c>
       <c r="M76" t="n">
-        <v>300</v>
+        <v>250</v>
       </c>
       <c r="N76" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="O76" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="P76" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="Q76" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="R76" t="inlineStr">
@@ -6466,7 +6466,7 @@
         </is>
       </c>
       <c r="S76" t="n">
-        <v>1000</v>
+        <v>800</v>
       </c>
       <c r="T76" t="n">
         <v>10</v>
@@ -6520,20 +6520,20 @@
       </c>
       <c r="L77" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M77" t="n">
-        <v>100</v>
+        <v>120</v>
       </c>
       <c r="N77" t="n">
-        <v>11000</v>
+        <v>13000</v>
       </c>
       <c r="O77" t="n">
-        <v>11000</v>
+        <v>13000</v>
       </c>
       <c r="P77" t="n">
-        <v>11000</v>
+        <v>13000</v>
       </c>
       <c r="Q77" t="inlineStr">
         <is>
@@ -6546,7 +6546,7 @@
         </is>
       </c>
       <c r="S77" t="n">
-        <v>611</v>
+        <v>722</v>
       </c>
       <c r="T77" t="n">
         <v>18</v>
@@ -6567,7 +6567,7 @@
         </is>
       </c>
       <c r="D78" s="2" t="n">
-        <v>44314</v>
+        <v>44320</v>
       </c>
       <c r="E78" t="n">
         <v>7</v>
@@ -6607,17 +6607,17 @@
         <v>150</v>
       </c>
       <c r="N78" t="n">
-        <v>11000</v>
+        <v>10000</v>
       </c>
       <c r="O78" t="n">
-        <v>11000</v>
+        <v>10000</v>
       </c>
       <c r="P78" t="n">
-        <v>11000</v>
+        <v>10000</v>
       </c>
       <c r="Q78" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="R78" t="inlineStr">
@@ -6626,7 +6626,7 @@
         </is>
       </c>
       <c r="S78" t="n">
-        <v>1100</v>
+        <v>1000</v>
       </c>
       <c r="T78" t="n">
         <v>10</v>
@@ -6647,7 +6647,7 @@
         </is>
       </c>
       <c r="D79" s="2" t="n">
-        <v>44314</v>
+        <v>44320</v>
       </c>
       <c r="E79" t="n">
         <v>7</v>
@@ -6684,16 +6684,16 @@
         </is>
       </c>
       <c r="M79" t="n">
-        <v>60</v>
+        <v>300</v>
       </c>
       <c r="N79" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="O79" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="P79" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="Q79" t="inlineStr">
         <is>
@@ -6706,7 +6706,7 @@
         </is>
       </c>
       <c r="S79" t="n">
-        <v>900</v>
+        <v>1000</v>
       </c>
       <c r="T79" t="n">
         <v>10</v>
@@ -6727,7 +6727,7 @@
         </is>
       </c>
       <c r="D80" s="2" t="n">
-        <v>44364</v>
+        <v>44320</v>
       </c>
       <c r="E80" t="n">
         <v>7</v>
@@ -6760,20 +6760,20 @@
       </c>
       <c r="L80" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M80" t="n">
-        <v>160</v>
+        <v>100</v>
       </c>
       <c r="N80" t="n">
-        <v>12000</v>
+        <v>11000</v>
       </c>
       <c r="O80" t="n">
-        <v>12000</v>
+        <v>11000</v>
       </c>
       <c r="P80" t="n">
-        <v>12000</v>
+        <v>11000</v>
       </c>
       <c r="Q80" t="inlineStr">
         <is>
@@ -6786,7 +6786,7 @@
         </is>
       </c>
       <c r="S80" t="n">
-        <v>667</v>
+        <v>611</v>
       </c>
       <c r="T80" t="n">
         <v>18</v>
@@ -6807,7 +6807,7 @@
         </is>
       </c>
       <c r="D81" s="2" t="n">
-        <v>44364</v>
+        <v>44314</v>
       </c>
       <c r="E81" t="n">
         <v>7</v>
@@ -6840,24 +6840,24 @@
       </c>
       <c r="L81" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M81" t="n">
-        <v>240</v>
+        <v>150</v>
       </c>
       <c r="N81" t="n">
-        <v>10000</v>
+        <v>11000</v>
       </c>
       <c r="O81" t="n">
-        <v>10000</v>
+        <v>11000</v>
       </c>
       <c r="P81" t="n">
-        <v>10000</v>
+        <v>11000</v>
       </c>
       <c r="Q81" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R81" t="inlineStr">
@@ -6866,10 +6866,10 @@
         </is>
       </c>
       <c r="S81" t="n">
-        <v>556</v>
+        <v>1100</v>
       </c>
       <c r="T81" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="82">
@@ -6887,7 +6887,7 @@
         </is>
       </c>
       <c r="D82" s="2" t="n">
-        <v>44364</v>
+        <v>44314</v>
       </c>
       <c r="E82" t="n">
         <v>7</v>
@@ -6920,24 +6920,24 @@
       </c>
       <c r="L82" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M82" t="n">
-        <v>80</v>
+        <v>60</v>
       </c>
       <c r="N82" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="O82" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="P82" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="Q82" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R82" t="inlineStr">
@@ -6946,10 +6946,10 @@
         </is>
       </c>
       <c r="S82" t="n">
-        <v>444</v>
+        <v>900</v>
       </c>
       <c r="T82" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="83">
@@ -6967,7 +6967,7 @@
         </is>
       </c>
       <c r="D83" s="2" t="n">
-        <v>44327</v>
+        <v>44364</v>
       </c>
       <c r="E83" t="n">
         <v>7</v>
@@ -7000,24 +7000,24 @@
       </c>
       <c r="L83" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M83" t="n">
-        <v>300</v>
+        <v>160</v>
       </c>
       <c r="N83" t="n">
-        <v>9000</v>
+        <v>12000</v>
       </c>
       <c r="O83" t="n">
-        <v>9000</v>
+        <v>12000</v>
       </c>
       <c r="P83" t="n">
-        <v>9000</v>
+        <v>12000</v>
       </c>
       <c r="Q83" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="R83" t="inlineStr">
@@ -7026,10 +7026,10 @@
         </is>
       </c>
       <c r="S83" t="n">
-        <v>900</v>
+        <v>667</v>
       </c>
       <c r="T83" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
     </row>
     <row r="84">
@@ -7047,7 +7047,7 @@
         </is>
       </c>
       <c r="D84" s="2" t="n">
-        <v>44313</v>
+        <v>44364</v>
       </c>
       <c r="E84" t="n">
         <v>7</v>
@@ -7084,20 +7084,20 @@
         </is>
       </c>
       <c r="M84" t="n">
-        <v>350</v>
+        <v>240</v>
       </c>
       <c r="N84" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="O84" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="P84" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="Q84" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="R84" t="inlineStr">
@@ -7106,10 +7106,10 @@
         </is>
       </c>
       <c r="S84" t="n">
-        <v>900</v>
+        <v>556</v>
       </c>
       <c r="T84" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
     </row>
     <row r="85">
@@ -7127,7 +7127,7 @@
         </is>
       </c>
       <c r="D85" s="2" t="n">
-        <v>44313</v>
+        <v>44364</v>
       </c>
       <c r="E85" t="n">
         <v>7</v>
@@ -7160,24 +7160,24 @@
       </c>
       <c r="L85" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M85" t="n">
-        <v>250</v>
+        <v>80</v>
       </c>
       <c r="N85" t="n">
-        <v>6000</v>
+        <v>8000</v>
       </c>
       <c r="O85" t="n">
-        <v>6000</v>
+        <v>8000</v>
       </c>
       <c r="P85" t="n">
-        <v>6000</v>
+        <v>8000</v>
       </c>
       <c r="Q85" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="R85" t="inlineStr">
@@ -7186,10 +7186,10 @@
         </is>
       </c>
       <c r="S85" t="n">
-        <v>600</v>
+        <v>444</v>
       </c>
       <c r="T85" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
     </row>
     <row r="86">
@@ -7207,7 +7207,7 @@
         </is>
       </c>
       <c r="D86" s="2" t="n">
-        <v>44330</v>
+        <v>44327</v>
       </c>
       <c r="E86" t="n">
         <v>7</v>
@@ -7240,24 +7240,24 @@
       </c>
       <c r="L86" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M86" t="n">
         <v>300</v>
       </c>
       <c r="N86" t="n">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="O86" t="n">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="P86" t="n">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="Q86" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="R86" t="inlineStr">
@@ -7266,10 +7266,10 @@
         </is>
       </c>
       <c r="S86" t="n">
-        <v>556</v>
+        <v>900</v>
       </c>
       <c r="T86" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="87">
@@ -7287,7 +7287,7 @@
         </is>
       </c>
       <c r="D87" s="2" t="n">
-        <v>44330</v>
+        <v>44313</v>
       </c>
       <c r="E87" t="n">
         <v>7</v>
@@ -7324,20 +7324,20 @@
         </is>
       </c>
       <c r="M87" t="n">
-        <v>180</v>
+        <v>350</v>
       </c>
       <c r="N87" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="O87" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="P87" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="Q87" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R87" t="inlineStr">
@@ -7346,10 +7346,10 @@
         </is>
       </c>
       <c r="S87" t="n">
-        <v>444</v>
+        <v>900</v>
       </c>
       <c r="T87" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="88">
@@ -7367,7 +7367,7 @@
         </is>
       </c>
       <c r="D88" s="2" t="n">
-        <v>44391</v>
+        <v>44313</v>
       </c>
       <c r="E88" t="n">
         <v>7</v>
@@ -7400,24 +7400,24 @@
       </c>
       <c r="L88" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="M88" t="n">
-        <v>200</v>
+        <v>250</v>
       </c>
       <c r="N88" t="n">
-        <v>11000</v>
+        <v>6000</v>
       </c>
       <c r="O88" t="n">
-        <v>11000</v>
+        <v>6000</v>
       </c>
       <c r="P88" t="n">
-        <v>11000</v>
+        <v>6000</v>
       </c>
       <c r="Q88" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R88" t="inlineStr">
@@ -7426,10 +7426,10 @@
         </is>
       </c>
       <c r="S88" t="n">
-        <v>611</v>
+        <v>600</v>
       </c>
       <c r="T88" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="89">
@@ -7447,7 +7447,7 @@
         </is>
       </c>
       <c r="D89" s="2" t="n">
-        <v>44391</v>
+        <v>44330</v>
       </c>
       <c r="E89" t="n">
         <v>7</v>
@@ -7480,20 +7480,20 @@
       </c>
       <c r="L89" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M89" t="n">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="N89" t="n">
-        <v>9500</v>
+        <v>10000</v>
       </c>
       <c r="O89" t="n">
-        <v>9500</v>
+        <v>10000</v>
       </c>
       <c r="P89" t="n">
-        <v>9500</v>
+        <v>10000</v>
       </c>
       <c r="Q89" t="inlineStr">
         <is>
@@ -7506,7 +7506,7 @@
         </is>
       </c>
       <c r="S89" t="n">
-        <v>528</v>
+        <v>556</v>
       </c>
       <c r="T89" t="n">
         <v>18</v>
@@ -7527,7 +7527,7 @@
         </is>
       </c>
       <c r="D90" s="2" t="n">
-        <v>44351</v>
+        <v>44330</v>
       </c>
       <c r="E90" t="n">
         <v>7</v>
@@ -7560,20 +7560,20 @@
       </c>
       <c r="L90" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M90" t="n">
-        <v>260</v>
+        <v>180</v>
       </c>
       <c r="N90" t="n">
-        <v>11000</v>
+        <v>8000</v>
       </c>
       <c r="O90" t="n">
-        <v>11000</v>
+        <v>8000</v>
       </c>
       <c r="P90" t="n">
-        <v>11000</v>
+        <v>8000</v>
       </c>
       <c r="Q90" t="inlineStr">
         <is>
@@ -7586,7 +7586,7 @@
         </is>
       </c>
       <c r="S90" t="n">
-        <v>611</v>
+        <v>444</v>
       </c>
       <c r="T90" t="n">
         <v>18</v>
@@ -7607,7 +7607,7 @@
         </is>
       </c>
       <c r="D91" s="2" t="n">
-        <v>44351</v>
+        <v>44391</v>
       </c>
       <c r="E91" t="n">
         <v>7</v>
@@ -7640,20 +7640,20 @@
       </c>
       <c r="L91" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M91" t="n">
         <v>200</v>
       </c>
       <c r="N91" t="n">
-        <v>10000</v>
+        <v>11000</v>
       </c>
       <c r="O91" t="n">
-        <v>10000</v>
+        <v>11000</v>
       </c>
       <c r="P91" t="n">
-        <v>10000</v>
+        <v>11000</v>
       </c>
       <c r="Q91" t="inlineStr">
         <is>
@@ -7666,7 +7666,7 @@
         </is>
       </c>
       <c r="S91" t="n">
-        <v>556</v>
+        <v>611</v>
       </c>
       <c r="T91" t="n">
         <v>18</v>
@@ -7687,7 +7687,7 @@
         </is>
       </c>
       <c r="D92" s="2" t="n">
-        <v>44351</v>
+        <v>44391</v>
       </c>
       <c r="E92" t="n">
         <v>7</v>
@@ -7724,32 +7724,32 @@
         </is>
       </c>
       <c r="M92" t="n">
-        <v>230</v>
+        <v>250</v>
       </c>
       <c r="N92" t="n">
-        <v>8000</v>
+        <v>9500</v>
       </c>
       <c r="O92" t="n">
-        <v>8000</v>
+        <v>9500</v>
       </c>
       <c r="P92" t="n">
-        <v>8000</v>
+        <v>9500</v>
       </c>
       <c r="Q92" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="R92" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S92" t="n">
-        <v>800</v>
+        <v>528</v>
       </c>
       <c r="T92" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
     </row>
     <row r="93">
@@ -7767,7 +7767,7 @@
         </is>
       </c>
       <c r="D93" s="2" t="n">
-        <v>44350</v>
+        <v>44351</v>
       </c>
       <c r="E93" t="n">
         <v>7</v>
@@ -7804,7 +7804,7 @@
         </is>
       </c>
       <c r="M93" t="n">
-        <v>130</v>
+        <v>260</v>
       </c>
       <c r="N93" t="n">
         <v>11000</v>
@@ -7817,12 +7817,12 @@
       </c>
       <c r="Q93" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos granel</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="R93" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S93" t="n">
@@ -7847,7 +7847,7 @@
         </is>
       </c>
       <c r="D94" s="2" t="n">
-        <v>44350</v>
+        <v>44351</v>
       </c>
       <c r="E94" t="n">
         <v>7</v>
@@ -7884,20 +7884,20 @@
         </is>
       </c>
       <c r="M94" t="n">
-        <v>360</v>
+        <v>200</v>
       </c>
       <c r="N94" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="O94" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="P94" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="Q94" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos granel</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="R94" t="inlineStr">
@@ -7906,7 +7906,7 @@
         </is>
       </c>
       <c r="S94" t="n">
-        <v>500</v>
+        <v>556</v>
       </c>
       <c r="T94" t="n">
         <v>18</v>
@@ -7927,7 +7927,7 @@
         </is>
       </c>
       <c r="D95" s="2" t="n">
-        <v>44350</v>
+        <v>44351</v>
       </c>
       <c r="E95" t="n">
         <v>7</v>
@@ -7964,32 +7964,32 @@
         </is>
       </c>
       <c r="M95" t="n">
-        <v>100</v>
+        <v>230</v>
       </c>
       <c r="N95" t="n">
-        <v>9000</v>
+        <v>8000</v>
       </c>
       <c r="O95" t="n">
-        <v>9000</v>
+        <v>8000</v>
       </c>
       <c r="P95" t="n">
-        <v>9000</v>
+        <v>8000</v>
       </c>
       <c r="Q95" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos granel</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="R95" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S95" t="n">
-        <v>500</v>
+        <v>800</v>
       </c>
       <c r="T95" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="96">
@@ -8040,33 +8040,33 @@
       </c>
       <c r="L96" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M96" t="n">
-        <v>210</v>
+        <v>130</v>
       </c>
       <c r="N96" t="n">
-        <v>7000</v>
+        <v>11000</v>
       </c>
       <c r="O96" t="n">
-        <v>7000</v>
+        <v>11000</v>
       </c>
       <c r="P96" t="n">
-        <v>7000</v>
+        <v>11000</v>
       </c>
       <c r="Q96" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 18 kilos granel</t>
         </is>
       </c>
       <c r="R96" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S96" t="n">
-        <v>389</v>
+        <v>611</v>
       </c>
       <c r="T96" t="n">
         <v>18</v>
@@ -8120,20 +8120,20 @@
       </c>
       <c r="L97" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M97" t="n">
-        <v>150</v>
+        <v>360</v>
       </c>
       <c r="N97" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="O97" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="P97" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="Q97" t="inlineStr">
         <is>
@@ -8142,11 +8142,11 @@
       </c>
       <c r="R97" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S97" t="n">
-        <v>389</v>
+        <v>500</v>
       </c>
       <c r="T97" t="n">
         <v>18</v>
@@ -8167,7 +8167,7 @@
         </is>
       </c>
       <c r="D98" s="2" t="n">
-        <v>44315</v>
+        <v>44350</v>
       </c>
       <c r="E98" t="n">
         <v>7</v>
@@ -8200,36 +8200,36 @@
       </c>
       <c r="L98" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M98" t="n">
-        <v>140</v>
+        <v>100</v>
       </c>
       <c r="N98" t="n">
-        <v>12000</v>
+        <v>9000</v>
       </c>
       <c r="O98" t="n">
-        <v>12000</v>
+        <v>9000</v>
       </c>
       <c r="P98" t="n">
-        <v>12000</v>
+        <v>9000</v>
       </c>
       <c r="Q98" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/caja 18 kilos granel</t>
         </is>
       </c>
       <c r="R98" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S98" t="n">
-        <v>1200</v>
+        <v>500</v>
       </c>
       <c r="T98" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
     </row>
     <row r="99">
@@ -8247,7 +8247,7 @@
         </is>
       </c>
       <c r="D99" s="2" t="n">
-        <v>44315</v>
+        <v>44350</v>
       </c>
       <c r="E99" t="n">
         <v>7</v>
@@ -8280,24 +8280,24 @@
       </c>
       <c r="L99" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M99" t="n">
-        <v>120</v>
+        <v>210</v>
       </c>
       <c r="N99" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="O99" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="P99" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="Q99" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="R99" t="inlineStr">
@@ -8306,10 +8306,10 @@
         </is>
       </c>
       <c r="S99" t="n">
-        <v>1000</v>
+        <v>389</v>
       </c>
       <c r="T99" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
     </row>
     <row r="100">
@@ -8327,7 +8327,7 @@
         </is>
       </c>
       <c r="D100" s="2" t="n">
-        <v>44315</v>
+        <v>44350</v>
       </c>
       <c r="E100" t="n">
         <v>7</v>
@@ -8364,32 +8364,32 @@
         </is>
       </c>
       <c r="M100" t="n">
-        <v>50</v>
+        <v>150</v>
       </c>
       <c r="N100" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="O100" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="P100" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="Q100" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/caja 18 kilos granel</t>
         </is>
       </c>
       <c r="R100" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S100" t="n">
-        <v>800</v>
+        <v>389</v>
       </c>
       <c r="T100" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
     </row>
     <row r="101">
@@ -8407,7 +8407,7 @@
         </is>
       </c>
       <c r="D101" s="2" t="n">
-        <v>44358</v>
+        <v>44315</v>
       </c>
       <c r="E101" t="n">
         <v>7</v>
@@ -8444,20 +8444,20 @@
         </is>
       </c>
       <c r="M101" t="n">
-        <v>230</v>
+        <v>140</v>
       </c>
       <c r="N101" t="n">
-        <v>13000</v>
+        <v>12000</v>
       </c>
       <c r="O101" t="n">
-        <v>13000</v>
+        <v>12000</v>
       </c>
       <c r="P101" t="n">
-        <v>13000</v>
+        <v>12000</v>
       </c>
       <c r="Q101" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="R101" t="inlineStr">
@@ -8466,10 +8466,10 @@
         </is>
       </c>
       <c r="S101" t="n">
-        <v>722</v>
+        <v>1200</v>
       </c>
       <c r="T101" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="102">
@@ -8487,7 +8487,7 @@
         </is>
       </c>
       <c r="D102" s="2" t="n">
-        <v>44358</v>
+        <v>44315</v>
       </c>
       <c r="E102" t="n">
         <v>7</v>
@@ -8520,20 +8520,20 @@
       </c>
       <c r="L102" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M102" t="n">
-        <v>250</v>
+        <v>120</v>
       </c>
       <c r="N102" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="O102" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="P102" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="Q102" t="inlineStr">
         <is>
@@ -8546,7 +8546,7 @@
         </is>
       </c>
       <c r="S102" t="n">
-        <v>900</v>
+        <v>1000</v>
       </c>
       <c r="T102" t="n">
         <v>10</v>
@@ -8567,7 +8567,7 @@
         </is>
       </c>
       <c r="D103" s="2" t="n">
-        <v>44358</v>
+        <v>44315</v>
       </c>
       <c r="E103" t="n">
         <v>7</v>
@@ -8600,24 +8600,24 @@
       </c>
       <c r="L103" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M103" t="n">
-        <v>210</v>
+        <v>50</v>
       </c>
       <c r="N103" t="n">
-        <v>11000</v>
+        <v>8000</v>
       </c>
       <c r="O103" t="n">
-        <v>11000</v>
+        <v>8000</v>
       </c>
       <c r="P103" t="n">
-        <v>11000</v>
+        <v>8000</v>
       </c>
       <c r="Q103" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="R103" t="inlineStr">
@@ -8626,10 +8626,10 @@
         </is>
       </c>
       <c r="S103" t="n">
-        <v>611</v>
+        <v>800</v>
       </c>
       <c r="T103" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="104">
@@ -8680,24 +8680,24 @@
       </c>
       <c r="L104" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M104" t="n">
-        <v>200</v>
+        <v>230</v>
       </c>
       <c r="N104" t="n">
-        <v>7000</v>
+        <v>13000</v>
       </c>
       <c r="O104" t="n">
-        <v>7000</v>
+        <v>13000</v>
       </c>
       <c r="P104" t="n">
-        <v>7000</v>
+        <v>13000</v>
       </c>
       <c r="Q104" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="R104" t="inlineStr">
@@ -8706,10 +8706,10 @@
         </is>
       </c>
       <c r="S104" t="n">
-        <v>700</v>
+        <v>722</v>
       </c>
       <c r="T104" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
     </row>
     <row r="105">
@@ -8760,11 +8760,11 @@
       </c>
       <c r="L105" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M105" t="n">
-        <v>190</v>
+        <v>250</v>
       </c>
       <c r="N105" t="n">
         <v>9000</v>
@@ -8777,7 +8777,7 @@
       </c>
       <c r="Q105" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="R105" t="inlineStr">
@@ -8786,10 +8786,10 @@
         </is>
       </c>
       <c r="S105" t="n">
-        <v>500</v>
+        <v>900</v>
       </c>
       <c r="T105" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="106">
@@ -8807,7 +8807,7 @@
         </is>
       </c>
       <c r="D106" s="2" t="n">
-        <v>44389</v>
+        <v>44358</v>
       </c>
       <c r="E106" t="n">
         <v>7</v>
@@ -8844,20 +8844,20 @@
         </is>
       </c>
       <c r="M106" t="n">
-        <v>300</v>
+        <v>210</v>
       </c>
       <c r="N106" t="n">
-        <v>6000</v>
+        <v>11000</v>
       </c>
       <c r="O106" t="n">
-        <v>6000</v>
+        <v>11000</v>
       </c>
       <c r="P106" t="n">
-        <v>6000</v>
+        <v>11000</v>
       </c>
       <c r="Q106" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="R106" t="inlineStr">
@@ -8866,10 +8866,10 @@
         </is>
       </c>
       <c r="S106" t="n">
-        <v>600</v>
+        <v>611</v>
       </c>
       <c r="T106" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
     </row>
     <row r="107">
@@ -8887,7 +8887,7 @@
         </is>
       </c>
       <c r="D107" s="2" t="n">
-        <v>44399</v>
+        <v>44358</v>
       </c>
       <c r="E107" t="n">
         <v>7</v>
@@ -8924,20 +8924,20 @@
         </is>
       </c>
       <c r="M107" t="n">
-        <v>260</v>
+        <v>200</v>
       </c>
       <c r="N107" t="n">
-        <v>5000</v>
+        <v>7000</v>
       </c>
       <c r="O107" t="n">
-        <v>5000</v>
+        <v>7000</v>
       </c>
       <c r="P107" t="n">
-        <v>5000</v>
+        <v>7000</v>
       </c>
       <c r="Q107" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="R107" t="inlineStr">
@@ -8946,7 +8946,7 @@
         </is>
       </c>
       <c r="S107" t="n">
-        <v>500</v>
+        <v>700</v>
       </c>
       <c r="T107" t="n">
         <v>10</v>
@@ -8967,7 +8967,7 @@
         </is>
       </c>
       <c r="D108" s="2" t="n">
-        <v>44399</v>
+        <v>44358</v>
       </c>
       <c r="E108" t="n">
         <v>7</v>
@@ -9000,24 +9000,24 @@
       </c>
       <c r="L108" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M108" t="n">
-        <v>260</v>
+        <v>190</v>
       </c>
       <c r="N108" t="n">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="O108" t="n">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="P108" t="n">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="Q108" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos granel</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="R108" t="inlineStr">
@@ -9026,7 +9026,7 @@
         </is>
       </c>
       <c r="S108" t="n">
-        <v>556</v>
+        <v>500</v>
       </c>
       <c r="T108" t="n">
         <v>18</v>
@@ -9047,7 +9047,7 @@
         </is>
       </c>
       <c r="D109" s="2" t="n">
-        <v>44369</v>
+        <v>44389</v>
       </c>
       <c r="E109" t="n">
         <v>7</v>
@@ -9080,24 +9080,24 @@
       </c>
       <c r="L109" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M109" t="n">
-        <v>230</v>
+        <v>300</v>
       </c>
       <c r="N109" t="n">
-        <v>8000</v>
+        <v>6000</v>
       </c>
       <c r="O109" t="n">
-        <v>8000</v>
+        <v>6000</v>
       </c>
       <c r="P109" t="n">
-        <v>8000</v>
+        <v>6000</v>
       </c>
       <c r="Q109" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="R109" t="inlineStr">
@@ -9106,7 +9106,7 @@
         </is>
       </c>
       <c r="S109" t="n">
-        <v>800</v>
+        <v>600</v>
       </c>
       <c r="T109" t="n">
         <v>10</v>
@@ -9127,7 +9127,7 @@
         </is>
       </c>
       <c r="D110" s="2" t="n">
-        <v>44369</v>
+        <v>44399</v>
       </c>
       <c r="E110" t="n">
         <v>7</v>
@@ -9160,24 +9160,24 @@
       </c>
       <c r="L110" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M110" t="n">
-        <v>100</v>
+        <v>260</v>
       </c>
       <c r="N110" t="n">
-        <v>12000</v>
+        <v>5000</v>
       </c>
       <c r="O110" t="n">
-        <v>12000</v>
+        <v>5000</v>
       </c>
       <c r="P110" t="n">
-        <v>12000</v>
+        <v>5000</v>
       </c>
       <c r="Q110" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R110" t="inlineStr">
@@ -9186,10 +9186,10 @@
         </is>
       </c>
       <c r="S110" t="n">
-        <v>667</v>
+        <v>500</v>
       </c>
       <c r="T110" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="111">
@@ -9207,7 +9207,7 @@
         </is>
       </c>
       <c r="D111" s="2" t="n">
-        <v>44369</v>
+        <v>44399</v>
       </c>
       <c r="E111" t="n">
         <v>7</v>
@@ -9244,20 +9244,20 @@
         </is>
       </c>
       <c r="M111" t="n">
-        <v>200</v>
+        <v>260</v>
       </c>
       <c r="N111" t="n">
-        <v>6000</v>
+        <v>10000</v>
       </c>
       <c r="O111" t="n">
-        <v>6000</v>
+        <v>10000</v>
       </c>
       <c r="P111" t="n">
-        <v>6000</v>
+        <v>10000</v>
       </c>
       <c r="Q111" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/caja 18 kilos granel</t>
         </is>
       </c>
       <c r="R111" t="inlineStr">
@@ -9266,10 +9266,10 @@
         </is>
       </c>
       <c r="S111" t="n">
-        <v>600</v>
+        <v>556</v>
       </c>
       <c r="T111" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
     </row>
     <row r="112">
@@ -9287,7 +9287,7 @@
         </is>
       </c>
       <c r="D112" s="2" t="n">
-        <v>44369</v>
+        <v>44420</v>
       </c>
       <c r="E112" t="n">
         <v>7</v>
@@ -9320,24 +9320,24 @@
       </c>
       <c r="L112" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M112" t="n">
-        <v>180</v>
+        <v>120</v>
       </c>
       <c r="N112" t="n">
-        <v>10000</v>
+        <v>14000</v>
       </c>
       <c r="O112" t="n">
-        <v>10000</v>
+        <v>14000</v>
       </c>
       <c r="P112" t="n">
-        <v>10000</v>
+        <v>14000</v>
       </c>
       <c r="Q112" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="R112" t="inlineStr">
@@ -9346,7 +9346,7 @@
         </is>
       </c>
       <c r="S112" t="n">
-        <v>556</v>
+        <v>778</v>
       </c>
       <c r="T112" t="n">
         <v>18</v>
@@ -9367,7 +9367,7 @@
         </is>
       </c>
       <c r="D113" s="2" t="n">
-        <v>44333</v>
+        <v>44420</v>
       </c>
       <c r="E113" t="n">
         <v>7</v>
@@ -9400,11 +9400,11 @@
       </c>
       <c r="L113" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M113" t="n">
-        <v>150</v>
+        <v>200</v>
       </c>
       <c r="N113" t="n">
         <v>12000</v>
@@ -9417,12 +9417,12 @@
       </c>
       <c r="Q113" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="R113" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S113" t="n">
@@ -9447,7 +9447,7 @@
         </is>
       </c>
       <c r="D114" s="2" t="n">
-        <v>44333</v>
+        <v>44369</v>
       </c>
       <c r="E114" t="n">
         <v>7</v>
@@ -9480,36 +9480,36 @@
       </c>
       <c r="L114" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M114" t="n">
-        <v>100</v>
+        <v>230</v>
       </c>
       <c r="N114" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="O114" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="P114" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="Q114" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R114" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S114" t="n">
-        <v>556</v>
+        <v>800</v>
       </c>
       <c r="T114" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="115">
@@ -9527,7 +9527,7 @@
         </is>
       </c>
       <c r="D115" s="2" t="n">
-        <v>44309</v>
+        <v>44369</v>
       </c>
       <c r="E115" t="n">
         <v>7</v>
@@ -9564,16 +9564,16 @@
         </is>
       </c>
       <c r="M115" t="n">
-        <v>160</v>
+        <v>100</v>
       </c>
       <c r="N115" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="O115" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="P115" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="Q115" t="inlineStr">
         <is>
@@ -9586,7 +9586,7 @@
         </is>
       </c>
       <c r="S115" t="n">
-        <v>778</v>
+        <v>667</v>
       </c>
       <c r="T115" t="n">
         <v>18</v>
@@ -9607,7 +9607,7 @@
         </is>
       </c>
       <c r="D116" s="2" t="n">
-        <v>44309</v>
+        <v>44369</v>
       </c>
       <c r="E116" t="n">
         <v>7</v>
@@ -9644,16 +9644,16 @@
         </is>
       </c>
       <c r="M116" t="n">
-        <v>250</v>
+        <v>200</v>
       </c>
       <c r="N116" t="n">
-        <v>8000</v>
+        <v>6000</v>
       </c>
       <c r="O116" t="n">
-        <v>9000</v>
+        <v>6000</v>
       </c>
       <c r="P116" t="n">
-        <v>8600</v>
+        <v>6000</v>
       </c>
       <c r="Q116" t="inlineStr">
         <is>
@@ -9666,7 +9666,7 @@
         </is>
       </c>
       <c r="S116" t="n">
-        <v>860</v>
+        <v>600</v>
       </c>
       <c r="T116" t="n">
         <v>10</v>
@@ -9687,7 +9687,7 @@
         </is>
       </c>
       <c r="D117" s="2" t="n">
-        <v>44309</v>
+        <v>44369</v>
       </c>
       <c r="E117" t="n">
         <v>7</v>
@@ -9724,16 +9724,16 @@
         </is>
       </c>
       <c r="M117" t="n">
-        <v>100</v>
+        <v>180</v>
       </c>
       <c r="N117" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="O117" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="P117" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="Q117" t="inlineStr">
         <is>
@@ -9746,7 +9746,7 @@
         </is>
       </c>
       <c r="S117" t="n">
-        <v>667</v>
+        <v>556</v>
       </c>
       <c r="T117" t="n">
         <v>18</v>
@@ -9767,7 +9767,7 @@
         </is>
       </c>
       <c r="D118" s="2" t="n">
-        <v>44316</v>
+        <v>44333</v>
       </c>
       <c r="E118" t="n">
         <v>7</v>
@@ -9804,7 +9804,7 @@
         </is>
       </c>
       <c r="M118" t="n">
-        <v>160</v>
+        <v>150</v>
       </c>
       <c r="N118" t="n">
         <v>12000</v>
@@ -9817,19 +9817,19 @@
       </c>
       <c r="Q118" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="R118" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="S118" t="n">
-        <v>1200</v>
+        <v>667</v>
       </c>
       <c r="T118" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
     </row>
     <row r="119">
@@ -9847,7 +9847,7 @@
         </is>
       </c>
       <c r="D119" s="2" t="n">
-        <v>44316</v>
+        <v>44333</v>
       </c>
       <c r="E119" t="n">
         <v>7</v>
@@ -9884,7 +9884,7 @@
         </is>
       </c>
       <c r="M119" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="N119" t="n">
         <v>10000</v>
@@ -9897,19 +9897,19 @@
       </c>
       <c r="Q119" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="R119" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="S119" t="n">
-        <v>1000</v>
+        <v>556</v>
       </c>
       <c r="T119" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
     </row>
     <row r="120">
@@ -9927,7 +9927,7 @@
         </is>
       </c>
       <c r="D120" s="2" t="n">
-        <v>44316</v>
+        <v>44309</v>
       </c>
       <c r="E120" t="n">
         <v>7</v>
@@ -9960,24 +9960,24 @@
       </c>
       <c r="L120" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M120" t="n">
-        <v>190</v>
+        <v>160</v>
       </c>
       <c r="N120" t="n">
-        <v>13000</v>
+        <v>14000</v>
       </c>
       <c r="O120" t="n">
-        <v>13000</v>
+        <v>14000</v>
       </c>
       <c r="P120" t="n">
-        <v>13000</v>
+        <v>14000</v>
       </c>
       <c r="Q120" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="R120" t="inlineStr">
@@ -9986,7 +9986,7 @@
         </is>
       </c>
       <c r="S120" t="n">
-        <v>722</v>
+        <v>778</v>
       </c>
       <c r="T120" t="n">
         <v>18</v>
@@ -10007,7 +10007,7 @@
         </is>
       </c>
       <c r="D121" s="2" t="n">
-        <v>44281</v>
+        <v>44309</v>
       </c>
       <c r="E121" t="n">
         <v>7</v>
@@ -10044,16 +10044,16 @@
         </is>
       </c>
       <c r="M121" t="n">
-        <v>210</v>
+        <v>250</v>
       </c>
       <c r="N121" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="O121" t="n">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="P121" t="n">
-        <v>10000</v>
+        <v>8600</v>
       </c>
       <c r="Q121" t="inlineStr">
         <is>
@@ -10066,7 +10066,7 @@
         </is>
       </c>
       <c r="S121" t="n">
-        <v>1000</v>
+        <v>860</v>
       </c>
       <c r="T121" t="n">
         <v>10</v>
@@ -10087,7 +10087,7 @@
         </is>
       </c>
       <c r="D122" s="2" t="n">
-        <v>44370</v>
+        <v>44309</v>
       </c>
       <c r="E122" t="n">
         <v>7</v>
@@ -10120,7 +10120,7 @@
       </c>
       <c r="L122" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M122" t="n">
@@ -10167,7 +10167,7 @@
         </is>
       </c>
       <c r="D123" s="2" t="n">
-        <v>44370</v>
+        <v>44316</v>
       </c>
       <c r="E123" t="n">
         <v>7</v>
@@ -10200,24 +10200,24 @@
       </c>
       <c r="L123" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M123" t="n">
-        <v>120</v>
+        <v>160</v>
       </c>
       <c r="N123" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="O123" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="P123" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="Q123" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R123" t="inlineStr">
@@ -10226,10 +10226,10 @@
         </is>
       </c>
       <c r="S123" t="n">
-        <v>556</v>
+        <v>1200</v>
       </c>
       <c r="T123" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="124">
@@ -10247,7 +10247,7 @@
         </is>
       </c>
       <c r="D124" s="2" t="n">
-        <v>44370</v>
+        <v>44316</v>
       </c>
       <c r="E124" t="n">
         <v>7</v>
@@ -10280,24 +10280,24 @@
       </c>
       <c r="L124" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M124" t="n">
-        <v>60</v>
+        <v>200</v>
       </c>
       <c r="N124" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="O124" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="P124" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="Q124" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R124" t="inlineStr">
@@ -10306,10 +10306,10 @@
         </is>
       </c>
       <c r="S124" t="n">
-        <v>444</v>
+        <v>1000</v>
       </c>
       <c r="T124" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="125">
@@ -10327,7 +10327,7 @@
         </is>
       </c>
       <c r="D125" s="2" t="n">
-        <v>44326</v>
+        <v>44316</v>
       </c>
       <c r="E125" t="n">
         <v>7</v>
@@ -10360,24 +10360,24 @@
       </c>
       <c r="L125" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M125" t="n">
-        <v>130</v>
+        <v>190</v>
       </c>
       <c r="N125" t="n">
-        <v>14000</v>
+        <v>13000</v>
       </c>
       <c r="O125" t="n">
-        <v>14000</v>
+        <v>13000</v>
       </c>
       <c r="P125" t="n">
-        <v>14000</v>
+        <v>13000</v>
       </c>
       <c r="Q125" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="R125" t="inlineStr">
@@ -10386,7 +10386,7 @@
         </is>
       </c>
       <c r="S125" t="n">
-        <v>778</v>
+        <v>722</v>
       </c>
       <c r="T125" t="n">
         <v>18</v>
@@ -10407,7 +10407,7 @@
         </is>
       </c>
       <c r="D126" s="2" t="n">
-        <v>44326</v>
+        <v>44281</v>
       </c>
       <c r="E126" t="n">
         <v>7</v>
@@ -10444,20 +10444,20 @@
         </is>
       </c>
       <c r="M126" t="n">
-        <v>100</v>
+        <v>210</v>
       </c>
       <c r="N126" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="O126" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="P126" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="Q126" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R126" t="inlineStr">
@@ -10466,10 +10466,10 @@
         </is>
       </c>
       <c r="S126" t="n">
-        <v>667</v>
+        <v>1000</v>
       </c>
       <c r="T126" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="127">
@@ -10487,7 +10487,7 @@
         </is>
       </c>
       <c r="D127" s="2" t="n">
-        <v>44382</v>
+        <v>44370</v>
       </c>
       <c r="E127" t="n">
         <v>7</v>
@@ -10524,7 +10524,7 @@
         </is>
       </c>
       <c r="M127" t="n">
-        <v>150</v>
+        <v>100</v>
       </c>
       <c r="N127" t="n">
         <v>12000</v>
@@ -10567,7 +10567,7 @@
         </is>
       </c>
       <c r="D128" s="2" t="n">
-        <v>44382</v>
+        <v>44370</v>
       </c>
       <c r="E128" t="n">
         <v>7</v>
@@ -10604,7 +10604,7 @@
         </is>
       </c>
       <c r="M128" t="n">
-        <v>200</v>
+        <v>120</v>
       </c>
       <c r="N128" t="n">
         <v>10000</v>
@@ -10647,7 +10647,7 @@
         </is>
       </c>
       <c r="D129" s="2" t="n">
-        <v>44398</v>
+        <v>44370</v>
       </c>
       <c r="E129" t="n">
         <v>7</v>
@@ -10680,20 +10680,20 @@
       </c>
       <c r="L129" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M129" t="n">
-        <v>150</v>
+        <v>60</v>
       </c>
       <c r="N129" t="n">
-        <v>13000</v>
+        <v>8000</v>
       </c>
       <c r="O129" t="n">
-        <v>13000</v>
+        <v>8000</v>
       </c>
       <c r="P129" t="n">
-        <v>13000</v>
+        <v>8000</v>
       </c>
       <c r="Q129" t="inlineStr">
         <is>
@@ -10706,7 +10706,7 @@
         </is>
       </c>
       <c r="S129" t="n">
-        <v>722</v>
+        <v>444</v>
       </c>
       <c r="T129" t="n">
         <v>18</v>
@@ -10727,7 +10727,7 @@
         </is>
       </c>
       <c r="D130" s="2" t="n">
-        <v>44398</v>
+        <v>44326</v>
       </c>
       <c r="E130" t="n">
         <v>7</v>
@@ -10764,16 +10764,16 @@
         </is>
       </c>
       <c r="M130" t="n">
-        <v>180</v>
+        <v>130</v>
       </c>
       <c r="N130" t="n">
-        <v>13000</v>
+        <v>14000</v>
       </c>
       <c r="O130" t="n">
-        <v>13000</v>
+        <v>14000</v>
       </c>
       <c r="P130" t="n">
-        <v>13000</v>
+        <v>14000</v>
       </c>
       <c r="Q130" t="inlineStr">
         <is>
@@ -10782,11 +10782,11 @@
       </c>
       <c r="R130" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S130" t="n">
-        <v>722</v>
+        <v>778</v>
       </c>
       <c r="T130" t="n">
         <v>18</v>
@@ -10807,7 +10807,7 @@
         </is>
       </c>
       <c r="D131" s="2" t="n">
-        <v>44398</v>
+        <v>44326</v>
       </c>
       <c r="E131" t="n">
         <v>7</v>
@@ -10844,16 +10844,16 @@
         </is>
       </c>
       <c r="M131" t="n">
-        <v>260</v>
+        <v>100</v>
       </c>
       <c r="N131" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="O131" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="P131" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="Q131" t="inlineStr">
         <is>
@@ -10866,7 +10866,7 @@
         </is>
       </c>
       <c r="S131" t="n">
-        <v>556</v>
+        <v>667</v>
       </c>
       <c r="T131" t="n">
         <v>18</v>
@@ -10887,7 +10887,7 @@
         </is>
       </c>
       <c r="D132" s="2" t="n">
-        <v>44398</v>
+        <v>44382</v>
       </c>
       <c r="E132" t="n">
         <v>7</v>
@@ -10920,20 +10920,20 @@
       </c>
       <c r="L132" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M132" t="n">
-        <v>220</v>
+        <v>150</v>
       </c>
       <c r="N132" t="n">
-        <v>9000</v>
+        <v>12000</v>
       </c>
       <c r="O132" t="n">
-        <v>9000</v>
+        <v>12000</v>
       </c>
       <c r="P132" t="n">
-        <v>9000</v>
+        <v>12000</v>
       </c>
       <c r="Q132" t="inlineStr">
         <is>
@@ -10942,11 +10942,11 @@
       </c>
       <c r="R132" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S132" t="n">
-        <v>500</v>
+        <v>667</v>
       </c>
       <c r="T132" t="n">
         <v>18</v>
@@ -10967,7 +10967,7 @@
         </is>
       </c>
       <c r="D133" s="2" t="n">
-        <v>44355</v>
+        <v>44382</v>
       </c>
       <c r="E133" t="n">
         <v>7</v>
@@ -11000,24 +11000,24 @@
       </c>
       <c r="L133" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M133" t="n">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="N133" t="n">
-        <v>6000</v>
+        <v>10000</v>
       </c>
       <c r="O133" t="n">
-        <v>6000</v>
+        <v>10000</v>
       </c>
       <c r="P133" t="n">
-        <v>6000</v>
+        <v>10000</v>
       </c>
       <c r="Q133" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="R133" t="inlineStr">
@@ -11026,10 +11026,10 @@
         </is>
       </c>
       <c r="S133" t="n">
-        <v>600</v>
+        <v>556</v>
       </c>
       <c r="T133" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
     </row>
     <row r="134">
@@ -11047,7 +11047,7 @@
         </is>
       </c>
       <c r="D134" s="2" t="n">
-        <v>44343</v>
+        <v>44398</v>
       </c>
       <c r="E134" t="n">
         <v>7</v>
@@ -11084,16 +11084,16 @@
         </is>
       </c>
       <c r="M134" t="n">
-        <v>120</v>
+        <v>150</v>
       </c>
       <c r="N134" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="O134" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="P134" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="Q134" t="inlineStr">
         <is>
@@ -11106,7 +11106,7 @@
         </is>
       </c>
       <c r="S134" t="n">
-        <v>556</v>
+        <v>722</v>
       </c>
       <c r="T134" t="n">
         <v>18</v>
@@ -11127,7 +11127,7 @@
         </is>
       </c>
       <c r="D135" s="2" t="n">
-        <v>44343</v>
+        <v>44398</v>
       </c>
       <c r="E135" t="n">
         <v>7</v>
@@ -11160,20 +11160,20 @@
       </c>
       <c r="L135" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M135" t="n">
-        <v>160</v>
+        <v>180</v>
       </c>
       <c r="N135" t="n">
-        <v>9000</v>
+        <v>13000</v>
       </c>
       <c r="O135" t="n">
-        <v>9000</v>
+        <v>13000</v>
       </c>
       <c r="P135" t="n">
-        <v>9000</v>
+        <v>13000</v>
       </c>
       <c r="Q135" t="inlineStr">
         <is>
@@ -11182,11 +11182,11 @@
       </c>
       <c r="R135" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S135" t="n">
-        <v>500</v>
+        <v>722</v>
       </c>
       <c r="T135" t="n">
         <v>18</v>
@@ -11207,7 +11207,7 @@
         </is>
       </c>
       <c r="D136" s="2" t="n">
-        <v>44376</v>
+        <v>44398</v>
       </c>
       <c r="E136" t="n">
         <v>7</v>
@@ -11247,13 +11247,13 @@
         <v>260</v>
       </c>
       <c r="N136" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="O136" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="P136" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="Q136" t="inlineStr">
         <is>
@@ -11266,7 +11266,7 @@
         </is>
       </c>
       <c r="S136" t="n">
-        <v>500</v>
+        <v>556</v>
       </c>
       <c r="T136" t="n">
         <v>18</v>
@@ -11287,68 +11287,708 @@
         </is>
       </c>
       <c r="D137" s="2" t="n">
+        <v>44398</v>
+      </c>
+      <c r="E137" t="n">
+        <v>7</v>
+      </c>
+      <c r="F137" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G137" t="n">
+        <v>100101</v>
+      </c>
+      <c r="H137" t="inlineStr">
+        <is>
+          <t>Berries</t>
+        </is>
+      </c>
+      <c r="I137" t="n">
+        <v>100101007</v>
+      </c>
+      <c r="J137" t="inlineStr">
+        <is>
+          <t>Kiwi</t>
+        </is>
+      </c>
+      <c r="K137" t="inlineStr">
+        <is>
+          <t>Hayward</t>
+        </is>
+      </c>
+      <c r="L137" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="M137" t="n">
+        <v>220</v>
+      </c>
+      <c r="N137" t="n">
+        <v>9000</v>
+      </c>
+      <c r="O137" t="n">
+        <v>9000</v>
+      </c>
+      <c r="P137" t="n">
+        <v>9000</v>
+      </c>
+      <c r="Q137" t="inlineStr">
+        <is>
+          <t>$/bandeja 18 kilos</t>
+        </is>
+      </c>
+      <c r="R137" t="inlineStr">
+        <is>
+          <t>Región de O'Higgins</t>
+        </is>
+      </c>
+      <c r="S137" t="n">
+        <v>500</v>
+      </c>
+      <c r="T137" t="n">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" t="n">
+        <v>5</v>
+      </c>
+      <c r="B138" t="inlineStr">
+        <is>
+          <t>Macroferia Regional de Talca</t>
+        </is>
+      </c>
+      <c r="C138" t="inlineStr">
+        <is>
+          <t>Maule</t>
+        </is>
+      </c>
+      <c r="D138" s="2" t="n">
+        <v>44355</v>
+      </c>
+      <c r="E138" t="n">
+        <v>7</v>
+      </c>
+      <c r="F138" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G138" t="n">
+        <v>100101</v>
+      </c>
+      <c r="H138" t="inlineStr">
+        <is>
+          <t>Berries</t>
+        </is>
+      </c>
+      <c r="I138" t="n">
+        <v>100101007</v>
+      </c>
+      <c r="J138" t="inlineStr">
+        <is>
+          <t>Kiwi</t>
+        </is>
+      </c>
+      <c r="K138" t="inlineStr">
+        <is>
+          <t>Hayward</t>
+        </is>
+      </c>
+      <c r="L138" t="inlineStr">
+        <is>
+          <t>Segunda</t>
+        </is>
+      </c>
+      <c r="M138" t="n">
+        <v>300</v>
+      </c>
+      <c r="N138" t="n">
+        <v>6000</v>
+      </c>
+      <c r="O138" t="n">
+        <v>6000</v>
+      </c>
+      <c r="P138" t="n">
+        <v>6000</v>
+      </c>
+      <c r="Q138" t="inlineStr">
+        <is>
+          <t>$/bandeja 10 kilos</t>
+        </is>
+      </c>
+      <c r="R138" t="inlineStr">
+        <is>
+          <t>Provincia de Curicó</t>
+        </is>
+      </c>
+      <c r="S138" t="n">
+        <v>600</v>
+      </c>
+      <c r="T138" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" t="n">
+        <v>5</v>
+      </c>
+      <c r="B139" t="inlineStr">
+        <is>
+          <t>Macroferia Regional de Talca</t>
+        </is>
+      </c>
+      <c r="C139" t="inlineStr">
+        <is>
+          <t>Maule</t>
+        </is>
+      </c>
+      <c r="D139" s="2" t="n">
+        <v>44343</v>
+      </c>
+      <c r="E139" t="n">
+        <v>7</v>
+      </c>
+      <c r="F139" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G139" t="n">
+        <v>100101</v>
+      </c>
+      <c r="H139" t="inlineStr">
+        <is>
+          <t>Berries</t>
+        </is>
+      </c>
+      <c r="I139" t="n">
+        <v>100101007</v>
+      </c>
+      <c r="J139" t="inlineStr">
+        <is>
+          <t>Kiwi</t>
+        </is>
+      </c>
+      <c r="K139" t="inlineStr">
+        <is>
+          <t>Hayward</t>
+        </is>
+      </c>
+      <c r="L139" t="inlineStr">
+        <is>
+          <t>Especial</t>
+        </is>
+      </c>
+      <c r="M139" t="n">
+        <v>120</v>
+      </c>
+      <c r="N139" t="n">
+        <v>10000</v>
+      </c>
+      <c r="O139" t="n">
+        <v>10000</v>
+      </c>
+      <c r="P139" t="n">
+        <v>10000</v>
+      </c>
+      <c r="Q139" t="inlineStr">
+        <is>
+          <t>$/bandeja 18 kilos</t>
+        </is>
+      </c>
+      <c r="R139" t="inlineStr">
+        <is>
+          <t>Provincia de Curicó</t>
+        </is>
+      </c>
+      <c r="S139" t="n">
+        <v>556</v>
+      </c>
+      <c r="T139" t="n">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" t="n">
+        <v>5</v>
+      </c>
+      <c r="B140" t="inlineStr">
+        <is>
+          <t>Macroferia Regional de Talca</t>
+        </is>
+      </c>
+      <c r="C140" t="inlineStr">
+        <is>
+          <t>Maule</t>
+        </is>
+      </c>
+      <c r="D140" s="2" t="n">
+        <v>44343</v>
+      </c>
+      <c r="E140" t="n">
+        <v>7</v>
+      </c>
+      <c r="F140" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G140" t="n">
+        <v>100101</v>
+      </c>
+      <c r="H140" t="inlineStr">
+        <is>
+          <t>Berries</t>
+        </is>
+      </c>
+      <c r="I140" t="n">
+        <v>100101007</v>
+      </c>
+      <c r="J140" t="inlineStr">
+        <is>
+          <t>Kiwi</t>
+        </is>
+      </c>
+      <c r="K140" t="inlineStr">
+        <is>
+          <t>Hayward</t>
+        </is>
+      </c>
+      <c r="L140" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="M140" t="n">
+        <v>160</v>
+      </c>
+      <c r="N140" t="n">
+        <v>9000</v>
+      </c>
+      <c r="O140" t="n">
+        <v>9000</v>
+      </c>
+      <c r="P140" t="n">
+        <v>9000</v>
+      </c>
+      <c r="Q140" t="inlineStr">
+        <is>
+          <t>$/bandeja 18 kilos</t>
+        </is>
+      </c>
+      <c r="R140" t="inlineStr">
+        <is>
+          <t>Provincia de Curicó</t>
+        </is>
+      </c>
+      <c r="S140" t="n">
+        <v>500</v>
+      </c>
+      <c r="T140" t="n">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" t="n">
+        <v>5</v>
+      </c>
+      <c r="B141" t="inlineStr">
+        <is>
+          <t>Macroferia Regional de Talca</t>
+        </is>
+      </c>
+      <c r="C141" t="inlineStr">
+        <is>
+          <t>Maule</t>
+        </is>
+      </c>
+      <c r="D141" s="2" t="n">
+        <v>44376</v>
+      </c>
+      <c r="E141" t="n">
+        <v>7</v>
+      </c>
+      <c r="F141" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G141" t="n">
+        <v>100101</v>
+      </c>
+      <c r="H141" t="inlineStr">
+        <is>
+          <t>Berries</t>
+        </is>
+      </c>
+      <c r="I141" t="n">
+        <v>100101007</v>
+      </c>
+      <c r="J141" t="inlineStr">
+        <is>
+          <t>Kiwi</t>
+        </is>
+      </c>
+      <c r="K141" t="inlineStr">
+        <is>
+          <t>Hayward</t>
+        </is>
+      </c>
+      <c r="L141" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="M141" t="n">
+        <v>260</v>
+      </c>
+      <c r="N141" t="n">
+        <v>9000</v>
+      </c>
+      <c r="O141" t="n">
+        <v>9000</v>
+      </c>
+      <c r="P141" t="n">
+        <v>9000</v>
+      </c>
+      <c r="Q141" t="inlineStr">
+        <is>
+          <t>$/bandeja 18 kilos</t>
+        </is>
+      </c>
+      <c r="R141" t="inlineStr">
+        <is>
+          <t>Provincia de Curicó</t>
+        </is>
+      </c>
+      <c r="S141" t="n">
+        <v>500</v>
+      </c>
+      <c r="T141" t="n">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" t="n">
+        <v>5</v>
+      </c>
+      <c r="B142" t="inlineStr">
+        <is>
+          <t>Macroferia Regional de Talca</t>
+        </is>
+      </c>
+      <c r="C142" t="inlineStr">
+        <is>
+          <t>Maule</t>
+        </is>
+      </c>
+      <c r="D142" s="2" t="n">
         <v>44284</v>
       </c>
-      <c r="E137" t="n">
-        <v>7</v>
-      </c>
-      <c r="F137" t="inlineStr">
-        <is>
-          <t>Fruta</t>
-        </is>
-      </c>
-      <c r="G137" t="n">
-        <v>100101</v>
-      </c>
-      <c r="H137" t="inlineStr">
-        <is>
-          <t>Berries</t>
-        </is>
-      </c>
-      <c r="I137" t="n">
-        <v>100101007</v>
-      </c>
-      <c r="J137" t="inlineStr">
-        <is>
-          <t>Kiwi</t>
-        </is>
-      </c>
-      <c r="K137" t="inlineStr">
-        <is>
-          <t>Hayward</t>
-        </is>
-      </c>
-      <c r="L137" t="inlineStr">
+      <c r="E142" t="n">
+        <v>7</v>
+      </c>
+      <c r="F142" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G142" t="n">
+        <v>100101</v>
+      </c>
+      <c r="H142" t="inlineStr">
+        <is>
+          <t>Berries</t>
+        </is>
+      </c>
+      <c r="I142" t="n">
+        <v>100101007</v>
+      </c>
+      <c r="J142" t="inlineStr">
+        <is>
+          <t>Kiwi</t>
+        </is>
+      </c>
+      <c r="K142" t="inlineStr">
+        <is>
+          <t>Hayward</t>
+        </is>
+      </c>
+      <c r="L142" t="inlineStr">
         <is>
           <t>Segunda</t>
         </is>
       </c>
-      <c r="M137" t="n">
+      <c r="M142" t="n">
         <v>200</v>
       </c>
-      <c r="N137" t="n">
+      <c r="N142" t="n">
         <v>7000</v>
       </c>
-      <c r="O137" t="n">
+      <c r="O142" t="n">
         <v>7000</v>
       </c>
-      <c r="P137" t="n">
+      <c r="P142" t="n">
         <v>7000</v>
       </c>
-      <c r="Q137" t="inlineStr">
+      <c r="Q142" t="inlineStr">
         <is>
           <t>$/bandeja 18 kilos</t>
         </is>
       </c>
-      <c r="R137" t="inlineStr">
-        <is>
-          <t>Provincia de Curicó</t>
-        </is>
-      </c>
-      <c r="S137" t="n">
+      <c r="R142" t="inlineStr">
+        <is>
+          <t>Provincia de Curicó</t>
+        </is>
+      </c>
+      <c r="S142" t="n">
         <v>389</v>
       </c>
-      <c r="T137" t="n">
+      <c r="T142" t="n">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" t="n">
+        <v>5</v>
+      </c>
+      <c r="B143" t="inlineStr">
+        <is>
+          <t>Macroferia Regional de Talca</t>
+        </is>
+      </c>
+      <c r="C143" t="inlineStr">
+        <is>
+          <t>Maule</t>
+        </is>
+      </c>
+      <c r="D143" s="2" t="n">
+        <v>44418</v>
+      </c>
+      <c r="E143" t="n">
+        <v>7</v>
+      </c>
+      <c r="F143" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G143" t="n">
+        <v>100101</v>
+      </c>
+      <c r="H143" t="inlineStr">
+        <is>
+          <t>Berries</t>
+        </is>
+      </c>
+      <c r="I143" t="n">
+        <v>100101007</v>
+      </c>
+      <c r="J143" t="inlineStr">
+        <is>
+          <t>Kiwi</t>
+        </is>
+      </c>
+      <c r="K143" t="inlineStr">
+        <is>
+          <t>Hayward</t>
+        </is>
+      </c>
+      <c r="L143" t="inlineStr">
+        <is>
+          <t>Especial</t>
+        </is>
+      </c>
+      <c r="M143" t="n">
+        <v>100</v>
+      </c>
+      <c r="N143" t="n">
+        <v>14000</v>
+      </c>
+      <c r="O143" t="n">
+        <v>14000</v>
+      </c>
+      <c r="P143" t="n">
+        <v>14000</v>
+      </c>
+      <c r="Q143" t="inlineStr">
+        <is>
+          <t>$/bandeja 18 kilos</t>
+        </is>
+      </c>
+      <c r="R143" t="inlineStr">
+        <is>
+          <t>Provincia de Curicó</t>
+        </is>
+      </c>
+      <c r="S143" t="n">
+        <v>778</v>
+      </c>
+      <c r="T143" t="n">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" t="n">
+        <v>5</v>
+      </c>
+      <c r="B144" t="inlineStr">
+        <is>
+          <t>Macroferia Regional de Talca</t>
+        </is>
+      </c>
+      <c r="C144" t="inlineStr">
+        <is>
+          <t>Maule</t>
+        </is>
+      </c>
+      <c r="D144" s="2" t="n">
+        <v>44418</v>
+      </c>
+      <c r="E144" t="n">
+        <v>7</v>
+      </c>
+      <c r="F144" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G144" t="n">
+        <v>100101</v>
+      </c>
+      <c r="H144" t="inlineStr">
+        <is>
+          <t>Berries</t>
+        </is>
+      </c>
+      <c r="I144" t="n">
+        <v>100101007</v>
+      </c>
+      <c r="J144" t="inlineStr">
+        <is>
+          <t>Kiwi</t>
+        </is>
+      </c>
+      <c r="K144" t="inlineStr">
+        <is>
+          <t>Hayward</t>
+        </is>
+      </c>
+      <c r="L144" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="M144" t="n">
+        <v>200</v>
+      </c>
+      <c r="N144" t="n">
+        <v>12000</v>
+      </c>
+      <c r="O144" t="n">
+        <v>12000</v>
+      </c>
+      <c r="P144" t="n">
+        <v>12000</v>
+      </c>
+      <c r="Q144" t="inlineStr">
+        <is>
+          <t>$/bandeja 18 kilos</t>
+        </is>
+      </c>
+      <c r="R144" t="inlineStr">
+        <is>
+          <t>Provincia de Curicó</t>
+        </is>
+      </c>
+      <c r="S144" t="n">
+        <v>667</v>
+      </c>
+      <c r="T144" t="n">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" t="n">
+        <v>5</v>
+      </c>
+      <c r="B145" t="inlineStr">
+        <is>
+          <t>Macroferia Regional de Talca</t>
+        </is>
+      </c>
+      <c r="C145" t="inlineStr">
+        <is>
+          <t>Maule</t>
+        </is>
+      </c>
+      <c r="D145" s="2" t="n">
+        <v>44418</v>
+      </c>
+      <c r="E145" t="n">
+        <v>7</v>
+      </c>
+      <c r="F145" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G145" t="n">
+        <v>100101</v>
+      </c>
+      <c r="H145" t="inlineStr">
+        <is>
+          <t>Berries</t>
+        </is>
+      </c>
+      <c r="I145" t="n">
+        <v>100101007</v>
+      </c>
+      <c r="J145" t="inlineStr">
+        <is>
+          <t>Kiwi</t>
+        </is>
+      </c>
+      <c r="K145" t="inlineStr">
+        <is>
+          <t>Hayward</t>
+        </is>
+      </c>
+      <c r="L145" t="inlineStr">
+        <is>
+          <t>Segunda</t>
+        </is>
+      </c>
+      <c r="M145" t="n">
+        <v>90</v>
+      </c>
+      <c r="N145" t="n">
+        <v>10000</v>
+      </c>
+      <c r="O145" t="n">
+        <v>10000</v>
+      </c>
+      <c r="P145" t="n">
+        <v>10000</v>
+      </c>
+      <c r="Q145" t="inlineStr">
+        <is>
+          <t>$/bandeja 18 kilos</t>
+        </is>
+      </c>
+      <c r="R145" t="inlineStr">
+        <is>
+          <t>Provincia de Curicó</t>
+        </is>
+      </c>
+      <c r="S145" t="n">
+        <v>556</v>
+      </c>
+      <c r="T145" t="n">
         <v>18</v>
       </c>
     </row>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Macroferia Regional de Talca - Kiwi.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Macroferia Regional de Talca - Kiwi.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T145"/>
+  <dimension ref="A1:T163"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3847,7 +3847,7 @@
         </is>
       </c>
       <c r="D44" s="2" t="n">
-        <v>44280</v>
+        <v>44434</v>
       </c>
       <c r="E44" t="n">
         <v>7</v>
@@ -3880,24 +3880,24 @@
       </c>
       <c r="L44" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M44" t="n">
-        <v>100</v>
+        <v>230</v>
       </c>
       <c r="N44" t="n">
-        <v>10000</v>
+        <v>14000</v>
       </c>
       <c r="O44" t="n">
-        <v>10000</v>
+        <v>14000</v>
       </c>
       <c r="P44" t="n">
-        <v>10000</v>
+        <v>14000</v>
       </c>
       <c r="Q44" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="R44" t="inlineStr">
@@ -3906,10 +3906,10 @@
         </is>
       </c>
       <c r="S44" t="n">
-        <v>1000</v>
+        <v>778</v>
       </c>
       <c r="T44" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
     </row>
     <row r="45">
@@ -3927,7 +3927,7 @@
         </is>
       </c>
       <c r="D45" s="2" t="n">
-        <v>44280</v>
+        <v>44434</v>
       </c>
       <c r="E45" t="n">
         <v>7</v>
@@ -3960,11 +3960,11 @@
       </c>
       <c r="L45" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M45" t="n">
-        <v>60</v>
+        <v>160</v>
       </c>
       <c r="N45" t="n">
         <v>8000</v>
@@ -4007,7 +4007,7 @@
         </is>
       </c>
       <c r="D46" s="2" t="n">
-        <v>44299</v>
+        <v>44434</v>
       </c>
       <c r="E46" t="n">
         <v>7</v>
@@ -4044,16 +4044,16 @@
         </is>
       </c>
       <c r="M46" t="n">
-        <v>200</v>
+        <v>150</v>
       </c>
       <c r="N46" t="n">
-        <v>13000</v>
+        <v>12000</v>
       </c>
       <c r="O46" t="n">
-        <v>13000</v>
+        <v>12000</v>
       </c>
       <c r="P46" t="n">
-        <v>13000</v>
+        <v>12000</v>
       </c>
       <c r="Q46" t="inlineStr">
         <is>
@@ -4066,7 +4066,7 @@
         </is>
       </c>
       <c r="S46" t="n">
-        <v>722</v>
+        <v>667</v>
       </c>
       <c r="T46" t="n">
         <v>18</v>
@@ -4087,7 +4087,7 @@
         </is>
       </c>
       <c r="D47" s="2" t="n">
-        <v>44342</v>
+        <v>44434</v>
       </c>
       <c r="E47" t="n">
         <v>7</v>
@@ -4124,20 +4124,20 @@
         </is>
       </c>
       <c r="M47" t="n">
-        <v>250</v>
+        <v>230</v>
       </c>
       <c r="N47" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="O47" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="P47" t="n">
-        <v>8600</v>
+        <v>7000</v>
       </c>
       <c r="Q47" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="R47" t="inlineStr">
@@ -4146,10 +4146,10 @@
         </is>
       </c>
       <c r="S47" t="n">
-        <v>478</v>
+        <v>700</v>
       </c>
       <c r="T47" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="48">
@@ -4167,7 +4167,7 @@
         </is>
       </c>
       <c r="D48" s="2" t="n">
-        <v>44384</v>
+        <v>44434</v>
       </c>
       <c r="E48" t="n">
         <v>7</v>
@@ -4200,24 +4200,24 @@
       </c>
       <c r="L48" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M48" t="n">
-        <v>500</v>
+        <v>120</v>
       </c>
       <c r="N48" t="n">
-        <v>6000</v>
+        <v>10000</v>
       </c>
       <c r="O48" t="n">
-        <v>6000</v>
+        <v>10000</v>
       </c>
       <c r="P48" t="n">
-        <v>6000</v>
+        <v>10000</v>
       </c>
       <c r="Q48" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="R48" t="inlineStr">
@@ -4226,10 +4226,10 @@
         </is>
       </c>
       <c r="S48" t="n">
-        <v>600</v>
+        <v>556</v>
       </c>
       <c r="T48" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
     </row>
     <row r="49">
@@ -4247,7 +4247,7 @@
         </is>
       </c>
       <c r="D49" s="2" t="n">
-        <v>44323</v>
+        <v>44280</v>
       </c>
       <c r="E49" t="n">
         <v>7</v>
@@ -4280,11 +4280,11 @@
       </c>
       <c r="L49" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M49" t="n">
-        <v>150</v>
+        <v>100</v>
       </c>
       <c r="N49" t="n">
         <v>10000</v>
@@ -4297,7 +4297,7 @@
       </c>
       <c r="Q49" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="R49" t="inlineStr">
@@ -4327,7 +4327,7 @@
         </is>
       </c>
       <c r="D50" s="2" t="n">
-        <v>44323</v>
+        <v>44280</v>
       </c>
       <c r="E50" t="n">
         <v>7</v>
@@ -4360,24 +4360,24 @@
       </c>
       <c r="L50" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M50" t="n">
-        <v>100</v>
+        <v>60</v>
       </c>
       <c r="N50" t="n">
-        <v>9000</v>
+        <v>8000</v>
       </c>
       <c r="O50" t="n">
-        <v>9000</v>
+        <v>8000</v>
       </c>
       <c r="P50" t="n">
-        <v>9000</v>
+        <v>8000</v>
       </c>
       <c r="Q50" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="R50" t="inlineStr">
@@ -4386,7 +4386,7 @@
         </is>
       </c>
       <c r="S50" t="n">
-        <v>900</v>
+        <v>800</v>
       </c>
       <c r="T50" t="n">
         <v>10</v>
@@ -4407,7 +4407,7 @@
         </is>
       </c>
       <c r="D51" s="2" t="n">
-        <v>44363</v>
+        <v>44299</v>
       </c>
       <c r="E51" t="n">
         <v>7</v>
@@ -4444,16 +4444,16 @@
         </is>
       </c>
       <c r="M51" t="n">
-        <v>280</v>
+        <v>200</v>
       </c>
       <c r="N51" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="O51" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="P51" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="Q51" t="inlineStr">
         <is>
@@ -4462,11 +4462,11 @@
       </c>
       <c r="R51" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S51" t="n">
-        <v>556</v>
+        <v>722</v>
       </c>
       <c r="T51" t="n">
         <v>18</v>
@@ -4487,7 +4487,7 @@
         </is>
       </c>
       <c r="D52" s="2" t="n">
-        <v>44363</v>
+        <v>44428</v>
       </c>
       <c r="E52" t="n">
         <v>7</v>
@@ -4520,20 +4520,20 @@
       </c>
       <c r="L52" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M52" t="n">
-        <v>300</v>
+        <v>230</v>
       </c>
       <c r="N52" t="n">
-        <v>8000</v>
+        <v>14000</v>
       </c>
       <c r="O52" t="n">
-        <v>8000</v>
+        <v>14000</v>
       </c>
       <c r="P52" t="n">
-        <v>8000</v>
+        <v>14000</v>
       </c>
       <c r="Q52" t="inlineStr">
         <is>
@@ -4542,11 +4542,11 @@
       </c>
       <c r="R52" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S52" t="n">
-        <v>444</v>
+        <v>778</v>
       </c>
       <c r="T52" t="n">
         <v>18</v>
@@ -4567,7 +4567,7 @@
         </is>
       </c>
       <c r="D53" s="2" t="n">
-        <v>44349</v>
+        <v>44428</v>
       </c>
       <c r="E53" t="n">
         <v>7</v>
@@ -4600,20 +4600,20 @@
       </c>
       <c r="L53" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M53" t="n">
-        <v>180</v>
+        <v>200</v>
       </c>
       <c r="N53" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="O53" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="P53" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="Q53" t="inlineStr">
         <is>
@@ -4626,7 +4626,7 @@
         </is>
       </c>
       <c r="S53" t="n">
-        <v>556</v>
+        <v>667</v>
       </c>
       <c r="T53" t="n">
         <v>18</v>
@@ -4647,7 +4647,7 @@
         </is>
       </c>
       <c r="D54" s="2" t="n">
-        <v>44349</v>
+        <v>44428</v>
       </c>
       <c r="E54" t="n">
         <v>7</v>
@@ -4680,11 +4680,11 @@
       </c>
       <c r="L54" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M54" t="n">
-        <v>230</v>
+        <v>120</v>
       </c>
       <c r="N54" t="n">
         <v>8000</v>
@@ -4697,7 +4697,7 @@
       </c>
       <c r="Q54" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="R54" t="inlineStr">
@@ -4727,7 +4727,7 @@
         </is>
       </c>
       <c r="D55" s="2" t="n">
-        <v>44385</v>
+        <v>44342</v>
       </c>
       <c r="E55" t="n">
         <v>7</v>
@@ -4760,20 +4760,20 @@
       </c>
       <c r="L55" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M55" t="n">
-        <v>230</v>
+        <v>250</v>
       </c>
       <c r="N55" t="n">
-        <v>11000</v>
+        <v>8000</v>
       </c>
       <c r="O55" t="n">
-        <v>11000</v>
+        <v>9000</v>
       </c>
       <c r="P55" t="n">
-        <v>11000</v>
+        <v>8600</v>
       </c>
       <c r="Q55" t="inlineStr">
         <is>
@@ -4786,7 +4786,7 @@
         </is>
       </c>
       <c r="S55" t="n">
-        <v>611</v>
+        <v>478</v>
       </c>
       <c r="T55" t="n">
         <v>18</v>
@@ -4807,7 +4807,7 @@
         </is>
       </c>
       <c r="D56" s="2" t="n">
-        <v>44385</v>
+        <v>44384</v>
       </c>
       <c r="E56" t="n">
         <v>7</v>
@@ -4844,20 +4844,20 @@
         </is>
       </c>
       <c r="M56" t="n">
-        <v>200</v>
+        <v>500</v>
       </c>
       <c r="N56" t="n">
-        <v>9000</v>
+        <v>6000</v>
       </c>
       <c r="O56" t="n">
-        <v>9000</v>
+        <v>6000</v>
       </c>
       <c r="P56" t="n">
-        <v>9000</v>
+        <v>6000</v>
       </c>
       <c r="Q56" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="R56" t="inlineStr">
@@ -4866,10 +4866,10 @@
         </is>
       </c>
       <c r="S56" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="T56" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="57">
@@ -4887,7 +4887,7 @@
         </is>
       </c>
       <c r="D57" s="2" t="n">
-        <v>44377</v>
+        <v>44323</v>
       </c>
       <c r="E57" t="n">
         <v>7</v>
@@ -4920,7 +4920,7 @@
       </c>
       <c r="L57" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M57" t="n">
@@ -4937,7 +4937,7 @@
       </c>
       <c r="Q57" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R57" t="inlineStr">
@@ -4946,10 +4946,10 @@
         </is>
       </c>
       <c r="S57" t="n">
-        <v>556</v>
+        <v>1000</v>
       </c>
       <c r="T57" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="58">
@@ -4967,7 +4967,7 @@
         </is>
       </c>
       <c r="D58" s="2" t="n">
-        <v>44377</v>
+        <v>44323</v>
       </c>
       <c r="E58" t="n">
         <v>7</v>
@@ -5004,20 +5004,20 @@
         </is>
       </c>
       <c r="M58" t="n">
-        <v>210</v>
+        <v>100</v>
       </c>
       <c r="N58" t="n">
-        <v>6000</v>
+        <v>9000</v>
       </c>
       <c r="O58" t="n">
-        <v>6000</v>
+        <v>9000</v>
       </c>
       <c r="P58" t="n">
-        <v>6000</v>
+        <v>9000</v>
       </c>
       <c r="Q58" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R58" t="inlineStr">
@@ -5026,7 +5026,7 @@
         </is>
       </c>
       <c r="S58" t="n">
-        <v>600</v>
+        <v>900</v>
       </c>
       <c r="T58" t="n">
         <v>10</v>
@@ -5047,7 +5047,7 @@
         </is>
       </c>
       <c r="D59" s="2" t="n">
-        <v>44377</v>
+        <v>44363</v>
       </c>
       <c r="E59" t="n">
         <v>7</v>
@@ -5080,20 +5080,20 @@
       </c>
       <c r="L59" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M59" t="n">
-        <v>100</v>
+        <v>280</v>
       </c>
       <c r="N59" t="n">
-        <v>6000</v>
+        <v>10000</v>
       </c>
       <c r="O59" t="n">
-        <v>6000</v>
+        <v>10000</v>
       </c>
       <c r="P59" t="n">
-        <v>6000</v>
+        <v>10000</v>
       </c>
       <c r="Q59" t="inlineStr">
         <is>
@@ -5102,11 +5102,11 @@
       </c>
       <c r="R59" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S59" t="n">
-        <v>333</v>
+        <v>556</v>
       </c>
       <c r="T59" t="n">
         <v>18</v>
@@ -5127,7 +5127,7 @@
         </is>
       </c>
       <c r="D60" s="2" t="n">
-        <v>44400</v>
+        <v>44363</v>
       </c>
       <c r="E60" t="n">
         <v>7</v>
@@ -5160,20 +5160,20 @@
       </c>
       <c r="L60" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M60" t="n">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="N60" t="n">
-        <v>13000</v>
+        <v>8000</v>
       </c>
       <c r="O60" t="n">
-        <v>13000</v>
+        <v>8000</v>
       </c>
       <c r="P60" t="n">
-        <v>13000</v>
+        <v>8000</v>
       </c>
       <c r="Q60" t="inlineStr">
         <is>
@@ -5182,11 +5182,11 @@
       </c>
       <c r="R60" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S60" t="n">
-        <v>722</v>
+        <v>444</v>
       </c>
       <c r="T60" t="n">
         <v>18</v>
@@ -5207,7 +5207,7 @@
         </is>
       </c>
       <c r="D61" s="2" t="n">
-        <v>44400</v>
+        <v>44349</v>
       </c>
       <c r="E61" t="n">
         <v>7</v>
@@ -5240,7 +5240,7 @@
       </c>
       <c r="L61" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M61" t="n">
@@ -5287,7 +5287,7 @@
         </is>
       </c>
       <c r="D62" s="2" t="n">
-        <v>44400</v>
+        <v>44349</v>
       </c>
       <c r="E62" t="n">
         <v>7</v>
@@ -5320,11 +5320,11 @@
       </c>
       <c r="L62" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M62" t="n">
-        <v>150</v>
+        <v>230</v>
       </c>
       <c r="N62" t="n">
         <v>8000</v>
@@ -5367,7 +5367,7 @@
         </is>
       </c>
       <c r="D63" s="2" t="n">
-        <v>44426</v>
+        <v>44385</v>
       </c>
       <c r="E63" t="n">
         <v>7</v>
@@ -5404,20 +5404,20 @@
         </is>
       </c>
       <c r="M63" t="n">
-        <v>100</v>
+        <v>230</v>
       </c>
       <c r="N63" t="n">
-        <v>12000</v>
+        <v>11000</v>
       </c>
       <c r="O63" t="n">
-        <v>12000</v>
+        <v>11000</v>
       </c>
       <c r="P63" t="n">
-        <v>12000</v>
+        <v>11000</v>
       </c>
       <c r="Q63" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="R63" t="inlineStr">
@@ -5426,7 +5426,7 @@
         </is>
       </c>
       <c r="S63" t="n">
-        <v>667</v>
+        <v>611</v>
       </c>
       <c r="T63" t="n">
         <v>18</v>
@@ -5447,7 +5447,7 @@
         </is>
       </c>
       <c r="D64" s="2" t="n">
-        <v>44426</v>
+        <v>44385</v>
       </c>
       <c r="E64" t="n">
         <v>7</v>
@@ -5484,20 +5484,20 @@
         </is>
       </c>
       <c r="M64" t="n">
-        <v>120</v>
+        <v>200</v>
       </c>
       <c r="N64" t="n">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="O64" t="n">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="P64" t="n">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="Q64" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="R64" t="inlineStr">
@@ -5506,7 +5506,7 @@
         </is>
       </c>
       <c r="S64" t="n">
-        <v>556</v>
+        <v>500</v>
       </c>
       <c r="T64" t="n">
         <v>18</v>
@@ -5527,7 +5527,7 @@
         </is>
       </c>
       <c r="D65" s="2" t="n">
-        <v>44295</v>
+        <v>44377</v>
       </c>
       <c r="E65" t="n">
         <v>7</v>
@@ -5564,7 +5564,7 @@
         </is>
       </c>
       <c r="M65" t="n">
-        <v>160</v>
+        <v>150</v>
       </c>
       <c r="N65" t="n">
         <v>10000</v>
@@ -5607,7 +5607,7 @@
         </is>
       </c>
       <c r="D66" s="2" t="n">
-        <v>44390</v>
+        <v>44377</v>
       </c>
       <c r="E66" t="n">
         <v>7</v>
@@ -5644,20 +5644,20 @@
         </is>
       </c>
       <c r="M66" t="n">
-        <v>250</v>
+        <v>210</v>
       </c>
       <c r="N66" t="n">
-        <v>9000</v>
+        <v>6000</v>
       </c>
       <c r="O66" t="n">
-        <v>9000</v>
+        <v>6000</v>
       </c>
       <c r="P66" t="n">
-        <v>9000</v>
+        <v>6000</v>
       </c>
       <c r="Q66" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="R66" t="inlineStr">
@@ -5666,10 +5666,10 @@
         </is>
       </c>
       <c r="S66" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="T66" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="67">
@@ -5687,7 +5687,7 @@
         </is>
       </c>
       <c r="D67" s="2" t="n">
-        <v>44321</v>
+        <v>44377</v>
       </c>
       <c r="E67" t="n">
         <v>7</v>
@@ -5720,20 +5720,20 @@
       </c>
       <c r="L67" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="M67" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="N67" t="n">
-        <v>13000</v>
+        <v>6000</v>
       </c>
       <c r="O67" t="n">
-        <v>13000</v>
+        <v>6000</v>
       </c>
       <c r="P67" t="n">
-        <v>13000</v>
+        <v>6000</v>
       </c>
       <c r="Q67" t="inlineStr">
         <is>
@@ -5746,7 +5746,7 @@
         </is>
       </c>
       <c r="S67" t="n">
-        <v>722</v>
+        <v>333</v>
       </c>
       <c r="T67" t="n">
         <v>18</v>
@@ -5767,7 +5767,7 @@
         </is>
       </c>
       <c r="D68" s="2" t="n">
-        <v>44383</v>
+        <v>44400</v>
       </c>
       <c r="E68" t="n">
         <v>7</v>
@@ -5800,20 +5800,20 @@
       </c>
       <c r="L68" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M68" t="n">
-        <v>210</v>
+        <v>100</v>
       </c>
       <c r="N68" t="n">
-        <v>9000</v>
+        <v>13000</v>
       </c>
       <c r="O68" t="n">
-        <v>9000</v>
+        <v>13000</v>
       </c>
       <c r="P68" t="n">
-        <v>9000</v>
+        <v>13000</v>
       </c>
       <c r="Q68" t="inlineStr">
         <is>
@@ -5826,7 +5826,7 @@
         </is>
       </c>
       <c r="S68" t="n">
-        <v>500</v>
+        <v>722</v>
       </c>
       <c r="T68" t="n">
         <v>18</v>
@@ -5847,7 +5847,7 @@
         </is>
       </c>
       <c r="D69" s="2" t="n">
-        <v>44383</v>
+        <v>44400</v>
       </c>
       <c r="E69" t="n">
         <v>7</v>
@@ -5884,20 +5884,20 @@
         </is>
       </c>
       <c r="M69" t="n">
-        <v>260</v>
+        <v>180</v>
       </c>
       <c r="N69" t="n">
-        <v>6000</v>
+        <v>10000</v>
       </c>
       <c r="O69" t="n">
-        <v>6000</v>
+        <v>10000</v>
       </c>
       <c r="P69" t="n">
-        <v>6000</v>
+        <v>10000</v>
       </c>
       <c r="Q69" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="R69" t="inlineStr">
@@ -5906,10 +5906,10 @@
         </is>
       </c>
       <c r="S69" t="n">
-        <v>600</v>
+        <v>556</v>
       </c>
       <c r="T69" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
     </row>
     <row r="70">
@@ -5927,7 +5927,7 @@
         </is>
       </c>
       <c r="D70" s="2" t="n">
-        <v>44354</v>
+        <v>44400</v>
       </c>
       <c r="E70" t="n">
         <v>7</v>
@@ -5960,20 +5960,20 @@
       </c>
       <c r="L70" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M70" t="n">
-        <v>180</v>
+        <v>150</v>
       </c>
       <c r="N70" t="n">
-        <v>12000</v>
+        <v>8000</v>
       </c>
       <c r="O70" t="n">
-        <v>12000</v>
+        <v>8000</v>
       </c>
       <c r="P70" t="n">
-        <v>12000</v>
+        <v>8000</v>
       </c>
       <c r="Q70" t="inlineStr">
         <is>
@@ -5982,11 +5982,11 @@
       </c>
       <c r="R70" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S70" t="n">
-        <v>667</v>
+        <v>444</v>
       </c>
       <c r="T70" t="n">
         <v>18</v>
@@ -6007,7 +6007,7 @@
         </is>
       </c>
       <c r="D71" s="2" t="n">
-        <v>44354</v>
+        <v>44426</v>
       </c>
       <c r="E71" t="n">
         <v>7</v>
@@ -6040,33 +6040,33 @@
       </c>
       <c r="L71" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M71" t="n">
         <v>100</v>
       </c>
       <c r="N71" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="O71" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="P71" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="Q71" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="R71" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S71" t="n">
-        <v>556</v>
+        <v>667</v>
       </c>
       <c r="T71" t="n">
         <v>18</v>
@@ -6087,7 +6087,7 @@
         </is>
       </c>
       <c r="D72" s="2" t="n">
-        <v>44410</v>
+        <v>44426</v>
       </c>
       <c r="E72" t="n">
         <v>7</v>
@@ -6124,20 +6124,20 @@
         </is>
       </c>
       <c r="M72" t="n">
-        <v>230</v>
+        <v>120</v>
       </c>
       <c r="N72" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="O72" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="P72" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="Q72" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="R72" t="inlineStr">
@@ -6146,7 +6146,7 @@
         </is>
       </c>
       <c r="S72" t="n">
-        <v>667</v>
+        <v>556</v>
       </c>
       <c r="T72" t="n">
         <v>18</v>
@@ -6167,7 +6167,7 @@
         </is>
       </c>
       <c r="D73" s="2" t="n">
-        <v>44410</v>
+        <v>44295</v>
       </c>
       <c r="E73" t="n">
         <v>7</v>
@@ -6204,20 +6204,20 @@
         </is>
       </c>
       <c r="M73" t="n">
-        <v>230</v>
+        <v>160</v>
       </c>
       <c r="N73" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="O73" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="P73" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="Q73" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="R73" t="inlineStr">
@@ -6226,10 +6226,10 @@
         </is>
       </c>
       <c r="S73" t="n">
-        <v>700</v>
+        <v>556</v>
       </c>
       <c r="T73" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
     </row>
     <row r="74">
@@ -6247,7 +6247,7 @@
         </is>
       </c>
       <c r="D74" s="2" t="n">
-        <v>44412</v>
+        <v>44390</v>
       </c>
       <c r="E74" t="n">
         <v>7</v>
@@ -6280,20 +6280,20 @@
       </c>
       <c r="L74" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M74" t="n">
-        <v>180</v>
+        <v>250</v>
       </c>
       <c r="N74" t="n">
-        <v>14000</v>
+        <v>9000</v>
       </c>
       <c r="O74" t="n">
-        <v>14000</v>
+        <v>9000</v>
       </c>
       <c r="P74" t="n">
-        <v>14000</v>
+        <v>9000</v>
       </c>
       <c r="Q74" t="inlineStr">
         <is>
@@ -6306,7 +6306,7 @@
         </is>
       </c>
       <c r="S74" t="n">
-        <v>778</v>
+        <v>500</v>
       </c>
       <c r="T74" t="n">
         <v>18</v>
@@ -6327,7 +6327,7 @@
         </is>
       </c>
       <c r="D75" s="2" t="n">
-        <v>44412</v>
+        <v>44321</v>
       </c>
       <c r="E75" t="n">
         <v>7</v>
@@ -6364,16 +6364,16 @@
         </is>
       </c>
       <c r="M75" t="n">
-        <v>230</v>
+        <v>200</v>
       </c>
       <c r="N75" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="O75" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="P75" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="Q75" t="inlineStr">
         <is>
@@ -6386,7 +6386,7 @@
         </is>
       </c>
       <c r="S75" t="n">
-        <v>667</v>
+        <v>722</v>
       </c>
       <c r="T75" t="n">
         <v>18</v>
@@ -6407,7 +6407,7 @@
         </is>
       </c>
       <c r="D76" s="2" t="n">
-        <v>44336</v>
+        <v>44383</v>
       </c>
       <c r="E76" t="n">
         <v>7</v>
@@ -6444,20 +6444,20 @@
         </is>
       </c>
       <c r="M76" t="n">
-        <v>250</v>
+        <v>210</v>
       </c>
       <c r="N76" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="O76" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="P76" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="Q76" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="R76" t="inlineStr">
@@ -6466,10 +6466,10 @@
         </is>
       </c>
       <c r="S76" t="n">
-        <v>800</v>
+        <v>500</v>
       </c>
       <c r="T76" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
     </row>
     <row r="77">
@@ -6487,7 +6487,7 @@
         </is>
       </c>
       <c r="D77" s="2" t="n">
-        <v>44320</v>
+        <v>44383</v>
       </c>
       <c r="E77" t="n">
         <v>7</v>
@@ -6520,24 +6520,24 @@
       </c>
       <c r="L77" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M77" t="n">
-        <v>120</v>
+        <v>260</v>
       </c>
       <c r="N77" t="n">
-        <v>13000</v>
+        <v>6000</v>
       </c>
       <c r="O77" t="n">
-        <v>13000</v>
+        <v>6000</v>
       </c>
       <c r="P77" t="n">
-        <v>13000</v>
+        <v>6000</v>
       </c>
       <c r="Q77" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="R77" t="inlineStr">
@@ -6546,10 +6546,10 @@
         </is>
       </c>
       <c r="S77" t="n">
-        <v>722</v>
+        <v>600</v>
       </c>
       <c r="T77" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="78">
@@ -6567,7 +6567,7 @@
         </is>
       </c>
       <c r="D78" s="2" t="n">
-        <v>44320</v>
+        <v>44354</v>
       </c>
       <c r="E78" t="n">
         <v>7</v>
@@ -6604,32 +6604,32 @@
         </is>
       </c>
       <c r="M78" t="n">
-        <v>150</v>
+        <v>180</v>
       </c>
       <c r="N78" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="O78" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="P78" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="Q78" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="R78" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S78" t="n">
-        <v>1000</v>
+        <v>667</v>
       </c>
       <c r="T78" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
     </row>
     <row r="79">
@@ -6647,7 +6647,7 @@
         </is>
       </c>
       <c r="D79" s="2" t="n">
-        <v>44320</v>
+        <v>44354</v>
       </c>
       <c r="E79" t="n">
         <v>7</v>
@@ -6684,7 +6684,7 @@
         </is>
       </c>
       <c r="M79" t="n">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="N79" t="n">
         <v>10000</v>
@@ -6697,19 +6697,19 @@
       </c>
       <c r="Q79" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="R79" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S79" t="n">
-        <v>1000</v>
+        <v>556</v>
       </c>
       <c r="T79" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
     </row>
     <row r="80">
@@ -6727,7 +6727,7 @@
         </is>
       </c>
       <c r="D80" s="2" t="n">
-        <v>44320</v>
+        <v>44410</v>
       </c>
       <c r="E80" t="n">
         <v>7</v>
@@ -6764,16 +6764,16 @@
         </is>
       </c>
       <c r="M80" t="n">
-        <v>100</v>
+        <v>230</v>
       </c>
       <c r="N80" t="n">
-        <v>11000</v>
+        <v>12000</v>
       </c>
       <c r="O80" t="n">
-        <v>11000</v>
+        <v>12000</v>
       </c>
       <c r="P80" t="n">
-        <v>11000</v>
+        <v>12000</v>
       </c>
       <c r="Q80" t="inlineStr">
         <is>
@@ -6786,7 +6786,7 @@
         </is>
       </c>
       <c r="S80" t="n">
-        <v>611</v>
+        <v>667</v>
       </c>
       <c r="T80" t="n">
         <v>18</v>
@@ -6807,7 +6807,7 @@
         </is>
       </c>
       <c r="D81" s="2" t="n">
-        <v>44314</v>
+        <v>44410</v>
       </c>
       <c r="E81" t="n">
         <v>7</v>
@@ -6840,24 +6840,24 @@
       </c>
       <c r="L81" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M81" t="n">
-        <v>150</v>
+        <v>230</v>
       </c>
       <c r="N81" t="n">
-        <v>11000</v>
+        <v>7000</v>
       </c>
       <c r="O81" t="n">
-        <v>11000</v>
+        <v>7000</v>
       </c>
       <c r="P81" t="n">
-        <v>11000</v>
+        <v>7000</v>
       </c>
       <c r="Q81" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="R81" t="inlineStr">
@@ -6866,7 +6866,7 @@
         </is>
       </c>
       <c r="S81" t="n">
-        <v>1100</v>
+        <v>700</v>
       </c>
       <c r="T81" t="n">
         <v>10</v>
@@ -6887,7 +6887,7 @@
         </is>
       </c>
       <c r="D82" s="2" t="n">
-        <v>44314</v>
+        <v>44412</v>
       </c>
       <c r="E82" t="n">
         <v>7</v>
@@ -6920,24 +6920,24 @@
       </c>
       <c r="L82" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M82" t="n">
-        <v>60</v>
+        <v>180</v>
       </c>
       <c r="N82" t="n">
-        <v>9000</v>
+        <v>14000</v>
       </c>
       <c r="O82" t="n">
-        <v>9000</v>
+        <v>14000</v>
       </c>
       <c r="P82" t="n">
-        <v>9000</v>
+        <v>14000</v>
       </c>
       <c r="Q82" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="R82" t="inlineStr">
@@ -6946,10 +6946,10 @@
         </is>
       </c>
       <c r="S82" t="n">
-        <v>900</v>
+        <v>778</v>
       </c>
       <c r="T82" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
     </row>
     <row r="83">
@@ -6967,7 +6967,7 @@
         </is>
       </c>
       <c r="D83" s="2" t="n">
-        <v>44364</v>
+        <v>44412</v>
       </c>
       <c r="E83" t="n">
         <v>7</v>
@@ -7000,11 +7000,11 @@
       </c>
       <c r="L83" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M83" t="n">
-        <v>160</v>
+        <v>230</v>
       </c>
       <c r="N83" t="n">
         <v>12000</v>
@@ -7047,7 +7047,7 @@
         </is>
       </c>
       <c r="D84" s="2" t="n">
-        <v>44364</v>
+        <v>44336</v>
       </c>
       <c r="E84" t="n">
         <v>7</v>
@@ -7084,20 +7084,20 @@
         </is>
       </c>
       <c r="M84" t="n">
-        <v>240</v>
+        <v>250</v>
       </c>
       <c r="N84" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="O84" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="P84" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="Q84" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="R84" t="inlineStr">
@@ -7106,10 +7106,10 @@
         </is>
       </c>
       <c r="S84" t="n">
-        <v>556</v>
+        <v>800</v>
       </c>
       <c r="T84" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="85">
@@ -7127,7 +7127,7 @@
         </is>
       </c>
       <c r="D85" s="2" t="n">
-        <v>44364</v>
+        <v>44320</v>
       </c>
       <c r="E85" t="n">
         <v>7</v>
@@ -7160,20 +7160,20 @@
       </c>
       <c r="L85" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M85" t="n">
-        <v>80</v>
+        <v>120</v>
       </c>
       <c r="N85" t="n">
-        <v>8000</v>
+        <v>13000</v>
       </c>
       <c r="O85" t="n">
-        <v>8000</v>
+        <v>13000</v>
       </c>
       <c r="P85" t="n">
-        <v>8000</v>
+        <v>13000</v>
       </c>
       <c r="Q85" t="inlineStr">
         <is>
@@ -7186,7 +7186,7 @@
         </is>
       </c>
       <c r="S85" t="n">
-        <v>444</v>
+        <v>722</v>
       </c>
       <c r="T85" t="n">
         <v>18</v>
@@ -7207,7 +7207,7 @@
         </is>
       </c>
       <c r="D86" s="2" t="n">
-        <v>44327</v>
+        <v>44320</v>
       </c>
       <c r="E86" t="n">
         <v>7</v>
@@ -7240,20 +7240,20 @@
       </c>
       <c r="L86" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M86" t="n">
-        <v>300</v>
+        <v>150</v>
       </c>
       <c r="N86" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="O86" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="P86" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="Q86" t="inlineStr">
         <is>
@@ -7266,7 +7266,7 @@
         </is>
       </c>
       <c r="S86" t="n">
-        <v>900</v>
+        <v>1000</v>
       </c>
       <c r="T86" t="n">
         <v>10</v>
@@ -7287,7 +7287,7 @@
         </is>
       </c>
       <c r="D87" s="2" t="n">
-        <v>44313</v>
+        <v>44320</v>
       </c>
       <c r="E87" t="n">
         <v>7</v>
@@ -7324,16 +7324,16 @@
         </is>
       </c>
       <c r="M87" t="n">
-        <v>350</v>
+        <v>300</v>
       </c>
       <c r="N87" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="O87" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="P87" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="Q87" t="inlineStr">
         <is>
@@ -7346,7 +7346,7 @@
         </is>
       </c>
       <c r="S87" t="n">
-        <v>900</v>
+        <v>1000</v>
       </c>
       <c r="T87" t="n">
         <v>10</v>
@@ -7367,7 +7367,7 @@
         </is>
       </c>
       <c r="D88" s="2" t="n">
-        <v>44313</v>
+        <v>44320</v>
       </c>
       <c r="E88" t="n">
         <v>7</v>
@@ -7400,24 +7400,24 @@
       </c>
       <c r="L88" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M88" t="n">
-        <v>250</v>
+        <v>100</v>
       </c>
       <c r="N88" t="n">
-        <v>6000</v>
+        <v>11000</v>
       </c>
       <c r="O88" t="n">
-        <v>6000</v>
+        <v>11000</v>
       </c>
       <c r="P88" t="n">
-        <v>6000</v>
+        <v>11000</v>
       </c>
       <c r="Q88" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="R88" t="inlineStr">
@@ -7426,10 +7426,10 @@
         </is>
       </c>
       <c r="S88" t="n">
-        <v>600</v>
+        <v>611</v>
       </c>
       <c r="T88" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
     </row>
     <row r="89">
@@ -7447,7 +7447,7 @@
         </is>
       </c>
       <c r="D89" s="2" t="n">
-        <v>44330</v>
+        <v>44314</v>
       </c>
       <c r="E89" t="n">
         <v>7</v>
@@ -7484,20 +7484,20 @@
         </is>
       </c>
       <c r="M89" t="n">
-        <v>300</v>
+        <v>150</v>
       </c>
       <c r="N89" t="n">
-        <v>10000</v>
+        <v>11000</v>
       </c>
       <c r="O89" t="n">
-        <v>10000</v>
+        <v>11000</v>
       </c>
       <c r="P89" t="n">
-        <v>10000</v>
+        <v>11000</v>
       </c>
       <c r="Q89" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R89" t="inlineStr">
@@ -7506,10 +7506,10 @@
         </is>
       </c>
       <c r="S89" t="n">
-        <v>556</v>
+        <v>1100</v>
       </c>
       <c r="T89" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="90">
@@ -7527,7 +7527,7 @@
         </is>
       </c>
       <c r="D90" s="2" t="n">
-        <v>44330</v>
+        <v>44314</v>
       </c>
       <c r="E90" t="n">
         <v>7</v>
@@ -7564,20 +7564,20 @@
         </is>
       </c>
       <c r="M90" t="n">
-        <v>180</v>
+        <v>60</v>
       </c>
       <c r="N90" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="O90" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="P90" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="Q90" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R90" t="inlineStr">
@@ -7586,10 +7586,10 @@
         </is>
       </c>
       <c r="S90" t="n">
-        <v>444</v>
+        <v>900</v>
       </c>
       <c r="T90" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="91">
@@ -7607,7 +7607,7 @@
         </is>
       </c>
       <c r="D91" s="2" t="n">
-        <v>44391</v>
+        <v>44364</v>
       </c>
       <c r="E91" t="n">
         <v>7</v>
@@ -7644,16 +7644,16 @@
         </is>
       </c>
       <c r="M91" t="n">
-        <v>200</v>
+        <v>160</v>
       </c>
       <c r="N91" t="n">
-        <v>11000</v>
+        <v>12000</v>
       </c>
       <c r="O91" t="n">
-        <v>11000</v>
+        <v>12000</v>
       </c>
       <c r="P91" t="n">
-        <v>11000</v>
+        <v>12000</v>
       </c>
       <c r="Q91" t="inlineStr">
         <is>
@@ -7666,7 +7666,7 @@
         </is>
       </c>
       <c r="S91" t="n">
-        <v>611</v>
+        <v>667</v>
       </c>
       <c r="T91" t="n">
         <v>18</v>
@@ -7687,7 +7687,7 @@
         </is>
       </c>
       <c r="D92" s="2" t="n">
-        <v>44391</v>
+        <v>44364</v>
       </c>
       <c r="E92" t="n">
         <v>7</v>
@@ -7724,16 +7724,16 @@
         </is>
       </c>
       <c r="M92" t="n">
-        <v>250</v>
+        <v>240</v>
       </c>
       <c r="N92" t="n">
-        <v>9500</v>
+        <v>10000</v>
       </c>
       <c r="O92" t="n">
-        <v>9500</v>
+        <v>10000</v>
       </c>
       <c r="P92" t="n">
-        <v>9500</v>
+        <v>10000</v>
       </c>
       <c r="Q92" t="inlineStr">
         <is>
@@ -7746,7 +7746,7 @@
         </is>
       </c>
       <c r="S92" t="n">
-        <v>528</v>
+        <v>556</v>
       </c>
       <c r="T92" t="n">
         <v>18</v>
@@ -7767,7 +7767,7 @@
         </is>
       </c>
       <c r="D93" s="2" t="n">
-        <v>44351</v>
+        <v>44364</v>
       </c>
       <c r="E93" t="n">
         <v>7</v>
@@ -7800,20 +7800,20 @@
       </c>
       <c r="L93" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M93" t="n">
-        <v>260</v>
+        <v>80</v>
       </c>
       <c r="N93" t="n">
-        <v>11000</v>
+        <v>8000</v>
       </c>
       <c r="O93" t="n">
-        <v>11000</v>
+        <v>8000</v>
       </c>
       <c r="P93" t="n">
-        <v>11000</v>
+        <v>8000</v>
       </c>
       <c r="Q93" t="inlineStr">
         <is>
@@ -7826,7 +7826,7 @@
         </is>
       </c>
       <c r="S93" t="n">
-        <v>611</v>
+        <v>444</v>
       </c>
       <c r="T93" t="n">
         <v>18</v>
@@ -7847,7 +7847,7 @@
         </is>
       </c>
       <c r="D94" s="2" t="n">
-        <v>44351</v>
+        <v>44435</v>
       </c>
       <c r="E94" t="n">
         <v>7</v>
@@ -7880,20 +7880,20 @@
       </c>
       <c r="L94" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M94" t="n">
-        <v>200</v>
+        <v>390</v>
       </c>
       <c r="N94" t="n">
-        <v>10000</v>
+        <v>14000</v>
       </c>
       <c r="O94" t="n">
-        <v>10000</v>
+        <v>14000</v>
       </c>
       <c r="P94" t="n">
-        <v>10000</v>
+        <v>14000</v>
       </c>
       <c r="Q94" t="inlineStr">
         <is>
@@ -7906,7 +7906,7 @@
         </is>
       </c>
       <c r="S94" t="n">
-        <v>556</v>
+        <v>778</v>
       </c>
       <c r="T94" t="n">
         <v>18</v>
@@ -7927,7 +7927,7 @@
         </is>
       </c>
       <c r="D95" s="2" t="n">
-        <v>44351</v>
+        <v>44435</v>
       </c>
       <c r="E95" t="n">
         <v>7</v>
@@ -7960,11 +7960,11 @@
       </c>
       <c r="L95" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M95" t="n">
-        <v>230</v>
+        <v>160</v>
       </c>
       <c r="N95" t="n">
         <v>8000</v>
@@ -7982,7 +7982,7 @@
       </c>
       <c r="R95" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S95" t="n">
@@ -8007,7 +8007,7 @@
         </is>
       </c>
       <c r="D96" s="2" t="n">
-        <v>44350</v>
+        <v>44435</v>
       </c>
       <c r="E96" t="n">
         <v>7</v>
@@ -8044,29 +8044,29 @@
         </is>
       </c>
       <c r="M96" t="n">
-        <v>130</v>
+        <v>330</v>
       </c>
       <c r="N96" t="n">
-        <v>11000</v>
+        <v>14000</v>
       </c>
       <c r="O96" t="n">
-        <v>11000</v>
+        <v>14000</v>
       </c>
       <c r="P96" t="n">
-        <v>11000</v>
+        <v>14000</v>
       </c>
       <c r="Q96" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos granel</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="R96" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S96" t="n">
-        <v>611</v>
+        <v>778</v>
       </c>
       <c r="T96" t="n">
         <v>18</v>
@@ -8087,7 +8087,7 @@
         </is>
       </c>
       <c r="D97" s="2" t="n">
-        <v>44350</v>
+        <v>44435</v>
       </c>
       <c r="E97" t="n">
         <v>7</v>
@@ -8124,20 +8124,20 @@
         </is>
       </c>
       <c r="M97" t="n">
-        <v>360</v>
+        <v>250</v>
       </c>
       <c r="N97" t="n">
-        <v>9000</v>
+        <v>12000</v>
       </c>
       <c r="O97" t="n">
-        <v>9000</v>
+        <v>12000</v>
       </c>
       <c r="P97" t="n">
-        <v>9000</v>
+        <v>12000</v>
       </c>
       <c r="Q97" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos granel</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="R97" t="inlineStr">
@@ -8146,7 +8146,7 @@
         </is>
       </c>
       <c r="S97" t="n">
-        <v>500</v>
+        <v>667</v>
       </c>
       <c r="T97" t="n">
         <v>18</v>
@@ -8167,7 +8167,7 @@
         </is>
       </c>
       <c r="D98" s="2" t="n">
-        <v>44350</v>
+        <v>44435</v>
       </c>
       <c r="E98" t="n">
         <v>7</v>
@@ -8204,32 +8204,32 @@
         </is>
       </c>
       <c r="M98" t="n">
-        <v>100</v>
+        <v>230</v>
       </c>
       <c r="N98" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="O98" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="P98" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="Q98" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos granel</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="R98" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S98" t="n">
-        <v>500</v>
+        <v>700</v>
       </c>
       <c r="T98" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="99">
@@ -8247,7 +8247,7 @@
         </is>
       </c>
       <c r="D99" s="2" t="n">
-        <v>44350</v>
+        <v>44435</v>
       </c>
       <c r="E99" t="n">
         <v>7</v>
@@ -8280,24 +8280,24 @@
       </c>
       <c r="L99" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M99" t="n">
-        <v>210</v>
+        <v>180</v>
       </c>
       <c r="N99" t="n">
-        <v>7000</v>
+        <v>12000</v>
       </c>
       <c r="O99" t="n">
-        <v>7000</v>
+        <v>12000</v>
       </c>
       <c r="P99" t="n">
-        <v>7000</v>
+        <v>12000</v>
       </c>
       <c r="Q99" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="R99" t="inlineStr">
@@ -8306,7 +8306,7 @@
         </is>
       </c>
       <c r="S99" t="n">
-        <v>389</v>
+        <v>667</v>
       </c>
       <c r="T99" t="n">
         <v>18</v>
@@ -8327,7 +8327,7 @@
         </is>
       </c>
       <c r="D100" s="2" t="n">
-        <v>44350</v>
+        <v>44435</v>
       </c>
       <c r="E100" t="n">
         <v>7</v>
@@ -8364,29 +8364,29 @@
         </is>
       </c>
       <c r="M100" t="n">
-        <v>150</v>
+        <v>240</v>
       </c>
       <c r="N100" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="O100" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="P100" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="Q100" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos granel</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="R100" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S100" t="n">
-        <v>389</v>
+        <v>556</v>
       </c>
       <c r="T100" t="n">
         <v>18</v>
@@ -8407,7 +8407,7 @@
         </is>
       </c>
       <c r="D101" s="2" t="n">
-        <v>44315</v>
+        <v>44327</v>
       </c>
       <c r="E101" t="n">
         <v>7</v>
@@ -8440,20 +8440,20 @@
       </c>
       <c r="L101" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M101" t="n">
-        <v>140</v>
+        <v>300</v>
       </c>
       <c r="N101" t="n">
-        <v>12000</v>
+        <v>9000</v>
       </c>
       <c r="O101" t="n">
-        <v>12000</v>
+        <v>9000</v>
       </c>
       <c r="P101" t="n">
-        <v>12000</v>
+        <v>9000</v>
       </c>
       <c r="Q101" t="inlineStr">
         <is>
@@ -8466,7 +8466,7 @@
         </is>
       </c>
       <c r="S101" t="n">
-        <v>1200</v>
+        <v>900</v>
       </c>
       <c r="T101" t="n">
         <v>10</v>
@@ -8487,7 +8487,7 @@
         </is>
       </c>
       <c r="D102" s="2" t="n">
-        <v>44315</v>
+        <v>44313</v>
       </c>
       <c r="E102" t="n">
         <v>7</v>
@@ -8524,20 +8524,20 @@
         </is>
       </c>
       <c r="M102" t="n">
-        <v>120</v>
+        <v>350</v>
       </c>
       <c r="N102" t="n">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="O102" t="n">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="P102" t="n">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="Q102" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R102" t="inlineStr">
@@ -8546,7 +8546,7 @@
         </is>
       </c>
       <c r="S102" t="n">
-        <v>1000</v>
+        <v>900</v>
       </c>
       <c r="T102" t="n">
         <v>10</v>
@@ -8567,7 +8567,7 @@
         </is>
       </c>
       <c r="D103" s="2" t="n">
-        <v>44315</v>
+        <v>44313</v>
       </c>
       <c r="E103" t="n">
         <v>7</v>
@@ -8600,24 +8600,24 @@
       </c>
       <c r="L103" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="M103" t="n">
-        <v>50</v>
+        <v>250</v>
       </c>
       <c r="N103" t="n">
-        <v>8000</v>
+        <v>6000</v>
       </c>
       <c r="O103" t="n">
-        <v>8000</v>
+        <v>6000</v>
       </c>
       <c r="P103" t="n">
-        <v>8000</v>
+        <v>6000</v>
       </c>
       <c r="Q103" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R103" t="inlineStr">
@@ -8626,7 +8626,7 @@
         </is>
       </c>
       <c r="S103" t="n">
-        <v>800</v>
+        <v>600</v>
       </c>
       <c r="T103" t="n">
         <v>10</v>
@@ -8647,7 +8647,7 @@
         </is>
       </c>
       <c r="D104" s="2" t="n">
-        <v>44358</v>
+        <v>44330</v>
       </c>
       <c r="E104" t="n">
         <v>7</v>
@@ -8684,16 +8684,16 @@
         </is>
       </c>
       <c r="M104" t="n">
-        <v>230</v>
+        <v>300</v>
       </c>
       <c r="N104" t="n">
-        <v>13000</v>
+        <v>10000</v>
       </c>
       <c r="O104" t="n">
-        <v>13000</v>
+        <v>10000</v>
       </c>
       <c r="P104" t="n">
-        <v>13000</v>
+        <v>10000</v>
       </c>
       <c r="Q104" t="inlineStr">
         <is>
@@ -8706,7 +8706,7 @@
         </is>
       </c>
       <c r="S104" t="n">
-        <v>722</v>
+        <v>556</v>
       </c>
       <c r="T104" t="n">
         <v>18</v>
@@ -8727,7 +8727,7 @@
         </is>
       </c>
       <c r="D105" s="2" t="n">
-        <v>44358</v>
+        <v>44330</v>
       </c>
       <c r="E105" t="n">
         <v>7</v>
@@ -8760,24 +8760,24 @@
       </c>
       <c r="L105" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M105" t="n">
-        <v>250</v>
+        <v>180</v>
       </c>
       <c r="N105" t="n">
-        <v>9000</v>
+        <v>8000</v>
       </c>
       <c r="O105" t="n">
-        <v>9000</v>
+        <v>8000</v>
       </c>
       <c r="P105" t="n">
-        <v>9000</v>
+        <v>8000</v>
       </c>
       <c r="Q105" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="R105" t="inlineStr">
@@ -8786,10 +8786,10 @@
         </is>
       </c>
       <c r="S105" t="n">
-        <v>900</v>
+        <v>444</v>
       </c>
       <c r="T105" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
     </row>
     <row r="106">
@@ -8807,7 +8807,7 @@
         </is>
       </c>
       <c r="D106" s="2" t="n">
-        <v>44358</v>
+        <v>44391</v>
       </c>
       <c r="E106" t="n">
         <v>7</v>
@@ -8840,11 +8840,11 @@
       </c>
       <c r="L106" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M106" t="n">
-        <v>210</v>
+        <v>200</v>
       </c>
       <c r="N106" t="n">
         <v>11000</v>
@@ -8887,7 +8887,7 @@
         </is>
       </c>
       <c r="D107" s="2" t="n">
-        <v>44358</v>
+        <v>44391</v>
       </c>
       <c r="E107" t="n">
         <v>7</v>
@@ -8924,20 +8924,20 @@
         </is>
       </c>
       <c r="M107" t="n">
-        <v>200</v>
+        <v>250</v>
       </c>
       <c r="N107" t="n">
-        <v>7000</v>
+        <v>9500</v>
       </c>
       <c r="O107" t="n">
-        <v>7000</v>
+        <v>9500</v>
       </c>
       <c r="P107" t="n">
-        <v>7000</v>
+        <v>9500</v>
       </c>
       <c r="Q107" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="R107" t="inlineStr">
@@ -8946,10 +8946,10 @@
         </is>
       </c>
       <c r="S107" t="n">
-        <v>700</v>
+        <v>528</v>
       </c>
       <c r="T107" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
     </row>
     <row r="108">
@@ -8967,7 +8967,7 @@
         </is>
       </c>
       <c r="D108" s="2" t="n">
-        <v>44358</v>
+        <v>44351</v>
       </c>
       <c r="E108" t="n">
         <v>7</v>
@@ -9000,20 +9000,20 @@
       </c>
       <c r="L108" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M108" t="n">
-        <v>190</v>
+        <v>260</v>
       </c>
       <c r="N108" t="n">
-        <v>9000</v>
+        <v>11000</v>
       </c>
       <c r="O108" t="n">
-        <v>9000</v>
+        <v>11000</v>
       </c>
       <c r="P108" t="n">
-        <v>9000</v>
+        <v>11000</v>
       </c>
       <c r="Q108" t="inlineStr">
         <is>
@@ -9026,7 +9026,7 @@
         </is>
       </c>
       <c r="S108" t="n">
-        <v>500</v>
+        <v>611</v>
       </c>
       <c r="T108" t="n">
         <v>18</v>
@@ -9047,7 +9047,7 @@
         </is>
       </c>
       <c r="D109" s="2" t="n">
-        <v>44389</v>
+        <v>44351</v>
       </c>
       <c r="E109" t="n">
         <v>7</v>
@@ -9084,20 +9084,20 @@
         </is>
       </c>
       <c r="M109" t="n">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="N109" t="n">
-        <v>6000</v>
+        <v>10000</v>
       </c>
       <c r="O109" t="n">
-        <v>6000</v>
+        <v>10000</v>
       </c>
       <c r="P109" t="n">
-        <v>6000</v>
+        <v>10000</v>
       </c>
       <c r="Q109" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="R109" t="inlineStr">
@@ -9106,10 +9106,10 @@
         </is>
       </c>
       <c r="S109" t="n">
-        <v>600</v>
+        <v>556</v>
       </c>
       <c r="T109" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
     </row>
     <row r="110">
@@ -9127,7 +9127,7 @@
         </is>
       </c>
       <c r="D110" s="2" t="n">
-        <v>44399</v>
+        <v>44351</v>
       </c>
       <c r="E110" t="n">
         <v>7</v>
@@ -9164,29 +9164,29 @@
         </is>
       </c>
       <c r="M110" t="n">
-        <v>260</v>
+        <v>230</v>
       </c>
       <c r="N110" t="n">
-        <v>5000</v>
+        <v>8000</v>
       </c>
       <c r="O110" t="n">
-        <v>5000</v>
+        <v>8000</v>
       </c>
       <c r="P110" t="n">
-        <v>5000</v>
+        <v>8000</v>
       </c>
       <c r="Q110" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="R110" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S110" t="n">
-        <v>500</v>
+        <v>800</v>
       </c>
       <c r="T110" t="n">
         <v>10</v>
@@ -9207,7 +9207,7 @@
         </is>
       </c>
       <c r="D111" s="2" t="n">
-        <v>44399</v>
+        <v>44350</v>
       </c>
       <c r="E111" t="n">
         <v>7</v>
@@ -9240,20 +9240,20 @@
       </c>
       <c r="L111" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M111" t="n">
-        <v>260</v>
+        <v>130</v>
       </c>
       <c r="N111" t="n">
-        <v>10000</v>
+        <v>11000</v>
       </c>
       <c r="O111" t="n">
-        <v>10000</v>
+        <v>11000</v>
       </c>
       <c r="P111" t="n">
-        <v>10000</v>
+        <v>11000</v>
       </c>
       <c r="Q111" t="inlineStr">
         <is>
@@ -9262,11 +9262,11 @@
       </c>
       <c r="R111" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S111" t="n">
-        <v>556</v>
+        <v>611</v>
       </c>
       <c r="T111" t="n">
         <v>18</v>
@@ -9287,7 +9287,7 @@
         </is>
       </c>
       <c r="D112" s="2" t="n">
-        <v>44420</v>
+        <v>44350</v>
       </c>
       <c r="E112" t="n">
         <v>7</v>
@@ -9320,24 +9320,24 @@
       </c>
       <c r="L112" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M112" t="n">
-        <v>120</v>
+        <v>360</v>
       </c>
       <c r="N112" t="n">
-        <v>14000</v>
+        <v>9000</v>
       </c>
       <c r="O112" t="n">
-        <v>14000</v>
+        <v>9000</v>
       </c>
       <c r="P112" t="n">
-        <v>14000</v>
+        <v>9000</v>
       </c>
       <c r="Q112" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/caja 18 kilos granel</t>
         </is>
       </c>
       <c r="R112" t="inlineStr">
@@ -9346,7 +9346,7 @@
         </is>
       </c>
       <c r="S112" t="n">
-        <v>778</v>
+        <v>500</v>
       </c>
       <c r="T112" t="n">
         <v>18</v>
@@ -9367,7 +9367,7 @@
         </is>
       </c>
       <c r="D113" s="2" t="n">
-        <v>44420</v>
+        <v>44350</v>
       </c>
       <c r="E113" t="n">
         <v>7</v>
@@ -9404,29 +9404,29 @@
         </is>
       </c>
       <c r="M113" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="N113" t="n">
-        <v>12000</v>
+        <v>9000</v>
       </c>
       <c r="O113" t="n">
-        <v>12000</v>
+        <v>9000</v>
       </c>
       <c r="P113" t="n">
-        <v>12000</v>
+        <v>9000</v>
       </c>
       <c r="Q113" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/caja 18 kilos granel</t>
         </is>
       </c>
       <c r="R113" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S113" t="n">
-        <v>667</v>
+        <v>500</v>
       </c>
       <c r="T113" t="n">
         <v>18</v>
@@ -9447,7 +9447,7 @@
         </is>
       </c>
       <c r="D114" s="2" t="n">
-        <v>44369</v>
+        <v>44350</v>
       </c>
       <c r="E114" t="n">
         <v>7</v>
@@ -9480,24 +9480,24 @@
       </c>
       <c r="L114" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M114" t="n">
-        <v>230</v>
+        <v>210</v>
       </c>
       <c r="N114" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="O114" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="P114" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="Q114" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="R114" t="inlineStr">
@@ -9506,10 +9506,10 @@
         </is>
       </c>
       <c r="S114" t="n">
-        <v>800</v>
+        <v>389</v>
       </c>
       <c r="T114" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
     </row>
     <row r="115">
@@ -9527,7 +9527,7 @@
         </is>
       </c>
       <c r="D115" s="2" t="n">
-        <v>44369</v>
+        <v>44350</v>
       </c>
       <c r="E115" t="n">
         <v>7</v>
@@ -9560,33 +9560,33 @@
       </c>
       <c r="L115" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M115" t="n">
-        <v>100</v>
+        <v>150</v>
       </c>
       <c r="N115" t="n">
-        <v>12000</v>
+        <v>7000</v>
       </c>
       <c r="O115" t="n">
-        <v>12000</v>
+        <v>7000</v>
       </c>
       <c r="P115" t="n">
-        <v>12000</v>
+        <v>7000</v>
       </c>
       <c r="Q115" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 18 kilos granel</t>
         </is>
       </c>
       <c r="R115" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S115" t="n">
-        <v>667</v>
+        <v>389</v>
       </c>
       <c r="T115" t="n">
         <v>18</v>
@@ -9607,7 +9607,7 @@
         </is>
       </c>
       <c r="D116" s="2" t="n">
-        <v>44369</v>
+        <v>44315</v>
       </c>
       <c r="E116" t="n">
         <v>7</v>
@@ -9640,24 +9640,24 @@
       </c>
       <c r="L116" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M116" t="n">
-        <v>200</v>
+        <v>140</v>
       </c>
       <c r="N116" t="n">
-        <v>6000</v>
+        <v>12000</v>
       </c>
       <c r="O116" t="n">
-        <v>6000</v>
+        <v>12000</v>
       </c>
       <c r="P116" t="n">
-        <v>6000</v>
+        <v>12000</v>
       </c>
       <c r="Q116" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="R116" t="inlineStr">
@@ -9666,7 +9666,7 @@
         </is>
       </c>
       <c r="S116" t="n">
-        <v>600</v>
+        <v>1200</v>
       </c>
       <c r="T116" t="n">
         <v>10</v>
@@ -9687,7 +9687,7 @@
         </is>
       </c>
       <c r="D117" s="2" t="n">
-        <v>44369</v>
+        <v>44315</v>
       </c>
       <c r="E117" t="n">
         <v>7</v>
@@ -9724,7 +9724,7 @@
         </is>
       </c>
       <c r="M117" t="n">
-        <v>180</v>
+        <v>120</v>
       </c>
       <c r="N117" t="n">
         <v>10000</v>
@@ -9737,7 +9737,7 @@
       </c>
       <c r="Q117" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="R117" t="inlineStr">
@@ -9746,10 +9746,10 @@
         </is>
       </c>
       <c r="S117" t="n">
-        <v>556</v>
+        <v>1000</v>
       </c>
       <c r="T117" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="118">
@@ -9767,7 +9767,7 @@
         </is>
       </c>
       <c r="D118" s="2" t="n">
-        <v>44333</v>
+        <v>44315</v>
       </c>
       <c r="E118" t="n">
         <v>7</v>
@@ -9800,36 +9800,36 @@
       </c>
       <c r="L118" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M118" t="n">
-        <v>150</v>
+        <v>50</v>
       </c>
       <c r="N118" t="n">
-        <v>12000</v>
+        <v>8000</v>
       </c>
       <c r="O118" t="n">
-        <v>12000</v>
+        <v>8000</v>
       </c>
       <c r="P118" t="n">
-        <v>12000</v>
+        <v>8000</v>
       </c>
       <c r="Q118" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="R118" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S118" t="n">
-        <v>667</v>
+        <v>800</v>
       </c>
       <c r="T118" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="119">
@@ -9847,7 +9847,7 @@
         </is>
       </c>
       <c r="D119" s="2" t="n">
-        <v>44333</v>
+        <v>44358</v>
       </c>
       <c r="E119" t="n">
         <v>7</v>
@@ -9880,20 +9880,20 @@
       </c>
       <c r="L119" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M119" t="n">
-        <v>100</v>
+        <v>230</v>
       </c>
       <c r="N119" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="O119" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="P119" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="Q119" t="inlineStr">
         <is>
@@ -9902,11 +9902,11 @@
       </c>
       <c r="R119" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S119" t="n">
-        <v>556</v>
+        <v>722</v>
       </c>
       <c r="T119" t="n">
         <v>18</v>
@@ -9927,7 +9927,7 @@
         </is>
       </c>
       <c r="D120" s="2" t="n">
-        <v>44309</v>
+        <v>44358</v>
       </c>
       <c r="E120" t="n">
         <v>7</v>
@@ -9964,20 +9964,20 @@
         </is>
       </c>
       <c r="M120" t="n">
-        <v>160</v>
+        <v>250</v>
       </c>
       <c r="N120" t="n">
-        <v>14000</v>
+        <v>9000</v>
       </c>
       <c r="O120" t="n">
-        <v>14000</v>
+        <v>9000</v>
       </c>
       <c r="P120" t="n">
-        <v>14000</v>
+        <v>9000</v>
       </c>
       <c r="Q120" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="R120" t="inlineStr">
@@ -9986,10 +9986,10 @@
         </is>
       </c>
       <c r="S120" t="n">
-        <v>778</v>
+        <v>900</v>
       </c>
       <c r="T120" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="121">
@@ -10007,7 +10007,7 @@
         </is>
       </c>
       <c r="D121" s="2" t="n">
-        <v>44309</v>
+        <v>44358</v>
       </c>
       <c r="E121" t="n">
         <v>7</v>
@@ -10044,20 +10044,20 @@
         </is>
       </c>
       <c r="M121" t="n">
-        <v>250</v>
+        <v>210</v>
       </c>
       <c r="N121" t="n">
-        <v>8000</v>
+        <v>11000</v>
       </c>
       <c r="O121" t="n">
-        <v>9000</v>
+        <v>11000</v>
       </c>
       <c r="P121" t="n">
-        <v>8600</v>
+        <v>11000</v>
       </c>
       <c r="Q121" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="R121" t="inlineStr">
@@ -10066,10 +10066,10 @@
         </is>
       </c>
       <c r="S121" t="n">
-        <v>860</v>
+        <v>611</v>
       </c>
       <c r="T121" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
     </row>
     <row r="122">
@@ -10087,7 +10087,7 @@
         </is>
       </c>
       <c r="D122" s="2" t="n">
-        <v>44309</v>
+        <v>44358</v>
       </c>
       <c r="E122" t="n">
         <v>7</v>
@@ -10124,20 +10124,20 @@
         </is>
       </c>
       <c r="M122" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="N122" t="n">
-        <v>12000</v>
+        <v>7000</v>
       </c>
       <c r="O122" t="n">
-        <v>12000</v>
+        <v>7000</v>
       </c>
       <c r="P122" t="n">
-        <v>12000</v>
+        <v>7000</v>
       </c>
       <c r="Q122" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="R122" t="inlineStr">
@@ -10146,10 +10146,10 @@
         </is>
       </c>
       <c r="S122" t="n">
-        <v>667</v>
+        <v>700</v>
       </c>
       <c r="T122" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="123">
@@ -10167,7 +10167,7 @@
         </is>
       </c>
       <c r="D123" s="2" t="n">
-        <v>44316</v>
+        <v>44358</v>
       </c>
       <c r="E123" t="n">
         <v>7</v>
@@ -10200,24 +10200,24 @@
       </c>
       <c r="L123" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M123" t="n">
-        <v>160</v>
+        <v>190</v>
       </c>
       <c r="N123" t="n">
-        <v>12000</v>
+        <v>9000</v>
       </c>
       <c r="O123" t="n">
-        <v>12000</v>
+        <v>9000</v>
       </c>
       <c r="P123" t="n">
-        <v>12000</v>
+        <v>9000</v>
       </c>
       <c r="Q123" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="R123" t="inlineStr">
@@ -10226,10 +10226,10 @@
         </is>
       </c>
       <c r="S123" t="n">
-        <v>1200</v>
+        <v>500</v>
       </c>
       <c r="T123" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
     </row>
     <row r="124">
@@ -10247,7 +10247,7 @@
         </is>
       </c>
       <c r="D124" s="2" t="n">
-        <v>44316</v>
+        <v>44389</v>
       </c>
       <c r="E124" t="n">
         <v>7</v>
@@ -10284,20 +10284,20 @@
         </is>
       </c>
       <c r="M124" t="n">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="N124" t="n">
-        <v>10000</v>
+        <v>6000</v>
       </c>
       <c r="O124" t="n">
-        <v>10000</v>
+        <v>6000</v>
       </c>
       <c r="P124" t="n">
-        <v>10000</v>
+        <v>6000</v>
       </c>
       <c r="Q124" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="R124" t="inlineStr">
@@ -10306,7 +10306,7 @@
         </is>
       </c>
       <c r="S124" t="n">
-        <v>1000</v>
+        <v>600</v>
       </c>
       <c r="T124" t="n">
         <v>10</v>
@@ -10327,7 +10327,7 @@
         </is>
       </c>
       <c r="D125" s="2" t="n">
-        <v>44316</v>
+        <v>44399</v>
       </c>
       <c r="E125" t="n">
         <v>7</v>
@@ -10364,20 +10364,20 @@
         </is>
       </c>
       <c r="M125" t="n">
-        <v>190</v>
+        <v>260</v>
       </c>
       <c r="N125" t="n">
-        <v>13000</v>
+        <v>5000</v>
       </c>
       <c r="O125" t="n">
-        <v>13000</v>
+        <v>5000</v>
       </c>
       <c r="P125" t="n">
-        <v>13000</v>
+        <v>5000</v>
       </c>
       <c r="Q125" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R125" t="inlineStr">
@@ -10386,10 +10386,10 @@
         </is>
       </c>
       <c r="S125" t="n">
-        <v>722</v>
+        <v>500</v>
       </c>
       <c r="T125" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="126">
@@ -10407,7 +10407,7 @@
         </is>
       </c>
       <c r="D126" s="2" t="n">
-        <v>44281</v>
+        <v>44399</v>
       </c>
       <c r="E126" t="n">
         <v>7</v>
@@ -10444,7 +10444,7 @@
         </is>
       </c>
       <c r="M126" t="n">
-        <v>210</v>
+        <v>260</v>
       </c>
       <c r="N126" t="n">
         <v>10000</v>
@@ -10457,7 +10457,7 @@
       </c>
       <c r="Q126" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/caja 18 kilos granel</t>
         </is>
       </c>
       <c r="R126" t="inlineStr">
@@ -10466,10 +10466,10 @@
         </is>
       </c>
       <c r="S126" t="n">
-        <v>1000</v>
+        <v>556</v>
       </c>
       <c r="T126" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
     </row>
     <row r="127">
@@ -10487,7 +10487,7 @@
         </is>
       </c>
       <c r="D127" s="2" t="n">
-        <v>44370</v>
+        <v>44420</v>
       </c>
       <c r="E127" t="n">
         <v>7</v>
@@ -10524,20 +10524,20 @@
         </is>
       </c>
       <c r="M127" t="n">
-        <v>100</v>
+        <v>120</v>
       </c>
       <c r="N127" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="O127" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="P127" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="Q127" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="R127" t="inlineStr">
@@ -10546,7 +10546,7 @@
         </is>
       </c>
       <c r="S127" t="n">
-        <v>667</v>
+        <v>778</v>
       </c>
       <c r="T127" t="n">
         <v>18</v>
@@ -10567,7 +10567,7 @@
         </is>
       </c>
       <c r="D128" s="2" t="n">
-        <v>44370</v>
+        <v>44420</v>
       </c>
       <c r="E128" t="n">
         <v>7</v>
@@ -10604,20 +10604,20 @@
         </is>
       </c>
       <c r="M128" t="n">
-        <v>120</v>
+        <v>200</v>
       </c>
       <c r="N128" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="O128" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="P128" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="Q128" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="R128" t="inlineStr">
@@ -10626,7 +10626,7 @@
         </is>
       </c>
       <c r="S128" t="n">
-        <v>556</v>
+        <v>667</v>
       </c>
       <c r="T128" t="n">
         <v>18</v>
@@ -10647,7 +10647,7 @@
         </is>
       </c>
       <c r="D129" s="2" t="n">
-        <v>44370</v>
+        <v>44369</v>
       </c>
       <c r="E129" t="n">
         <v>7</v>
@@ -10680,11 +10680,11 @@
       </c>
       <c r="L129" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M129" t="n">
-        <v>60</v>
+        <v>230</v>
       </c>
       <c r="N129" t="n">
         <v>8000</v>
@@ -10697,7 +10697,7 @@
       </c>
       <c r="Q129" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R129" t="inlineStr">
@@ -10706,10 +10706,10 @@
         </is>
       </c>
       <c r="S129" t="n">
-        <v>444</v>
+        <v>800</v>
       </c>
       <c r="T129" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="130">
@@ -10727,7 +10727,7 @@
         </is>
       </c>
       <c r="D130" s="2" t="n">
-        <v>44326</v>
+        <v>44369</v>
       </c>
       <c r="E130" t="n">
         <v>7</v>
@@ -10764,16 +10764,16 @@
         </is>
       </c>
       <c r="M130" t="n">
-        <v>130</v>
+        <v>100</v>
       </c>
       <c r="N130" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="O130" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="P130" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="Q130" t="inlineStr">
         <is>
@@ -10786,7 +10786,7 @@
         </is>
       </c>
       <c r="S130" t="n">
-        <v>778</v>
+        <v>667</v>
       </c>
       <c r="T130" t="n">
         <v>18</v>
@@ -10807,7 +10807,7 @@
         </is>
       </c>
       <c r="D131" s="2" t="n">
-        <v>44326</v>
+        <v>44369</v>
       </c>
       <c r="E131" t="n">
         <v>7</v>
@@ -10844,20 +10844,20 @@
         </is>
       </c>
       <c r="M131" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="N131" t="n">
-        <v>12000</v>
+        <v>6000</v>
       </c>
       <c r="O131" t="n">
-        <v>12000</v>
+        <v>6000</v>
       </c>
       <c r="P131" t="n">
-        <v>12000</v>
+        <v>6000</v>
       </c>
       <c r="Q131" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R131" t="inlineStr">
@@ -10866,10 +10866,10 @@
         </is>
       </c>
       <c r="S131" t="n">
-        <v>667</v>
+        <v>600</v>
       </c>
       <c r="T131" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="132">
@@ -10887,7 +10887,7 @@
         </is>
       </c>
       <c r="D132" s="2" t="n">
-        <v>44382</v>
+        <v>44369</v>
       </c>
       <c r="E132" t="n">
         <v>7</v>
@@ -10920,20 +10920,20 @@
       </c>
       <c r="L132" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M132" t="n">
-        <v>150</v>
+        <v>180</v>
       </c>
       <c r="N132" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="O132" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="P132" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="Q132" t="inlineStr">
         <is>
@@ -10946,7 +10946,7 @@
         </is>
       </c>
       <c r="S132" t="n">
-        <v>667</v>
+        <v>556</v>
       </c>
       <c r="T132" t="n">
         <v>18</v>
@@ -10967,7 +10967,7 @@
         </is>
       </c>
       <c r="D133" s="2" t="n">
-        <v>44382</v>
+        <v>44333</v>
       </c>
       <c r="E133" t="n">
         <v>7</v>
@@ -11000,20 +11000,20 @@
       </c>
       <c r="L133" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M133" t="n">
-        <v>200</v>
+        <v>150</v>
       </c>
       <c r="N133" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="O133" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="P133" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="Q133" t="inlineStr">
         <is>
@@ -11022,11 +11022,11 @@
       </c>
       <c r="R133" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="S133" t="n">
-        <v>556</v>
+        <v>667</v>
       </c>
       <c r="T133" t="n">
         <v>18</v>
@@ -11047,7 +11047,7 @@
         </is>
       </c>
       <c r="D134" s="2" t="n">
-        <v>44398</v>
+        <v>44333</v>
       </c>
       <c r="E134" t="n">
         <v>7</v>
@@ -11080,20 +11080,20 @@
       </c>
       <c r="L134" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M134" t="n">
-        <v>150</v>
+        <v>100</v>
       </c>
       <c r="N134" t="n">
-        <v>13000</v>
+        <v>10000</v>
       </c>
       <c r="O134" t="n">
-        <v>13000</v>
+        <v>10000</v>
       </c>
       <c r="P134" t="n">
-        <v>13000</v>
+        <v>10000</v>
       </c>
       <c r="Q134" t="inlineStr">
         <is>
@@ -11102,11 +11102,11 @@
       </c>
       <c r="R134" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="S134" t="n">
-        <v>722</v>
+        <v>556</v>
       </c>
       <c r="T134" t="n">
         <v>18</v>
@@ -11127,7 +11127,7 @@
         </is>
       </c>
       <c r="D135" s="2" t="n">
-        <v>44398</v>
+        <v>44433</v>
       </c>
       <c r="E135" t="n">
         <v>7</v>
@@ -11164,29 +11164,29 @@
         </is>
       </c>
       <c r="M135" t="n">
-        <v>180</v>
+        <v>120</v>
       </c>
       <c r="N135" t="n">
-        <v>13000</v>
+        <v>14000</v>
       </c>
       <c r="O135" t="n">
-        <v>13000</v>
+        <v>14000</v>
       </c>
       <c r="P135" t="n">
-        <v>13000</v>
+        <v>14000</v>
       </c>
       <c r="Q135" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="R135" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S135" t="n">
-        <v>722</v>
+        <v>778</v>
       </c>
       <c r="T135" t="n">
         <v>18</v>
@@ -11207,7 +11207,7 @@
         </is>
       </c>
       <c r="D136" s="2" t="n">
-        <v>44398</v>
+        <v>44433</v>
       </c>
       <c r="E136" t="n">
         <v>7</v>
@@ -11244,20 +11244,20 @@
         </is>
       </c>
       <c r="M136" t="n">
-        <v>260</v>
+        <v>180</v>
       </c>
       <c r="N136" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="O136" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="P136" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="Q136" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="R136" t="inlineStr">
@@ -11266,7 +11266,7 @@
         </is>
       </c>
       <c r="S136" t="n">
-        <v>556</v>
+        <v>667</v>
       </c>
       <c r="T136" t="n">
         <v>18</v>
@@ -11287,7 +11287,7 @@
         </is>
       </c>
       <c r="D137" s="2" t="n">
-        <v>44398</v>
+        <v>44309</v>
       </c>
       <c r="E137" t="n">
         <v>7</v>
@@ -11320,20 +11320,20 @@
       </c>
       <c r="L137" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M137" t="n">
-        <v>220</v>
+        <v>160</v>
       </c>
       <c r="N137" t="n">
-        <v>9000</v>
+        <v>14000</v>
       </c>
       <c r="O137" t="n">
-        <v>9000</v>
+        <v>14000</v>
       </c>
       <c r="P137" t="n">
-        <v>9000</v>
+        <v>14000</v>
       </c>
       <c r="Q137" t="inlineStr">
         <is>
@@ -11342,11 +11342,11 @@
       </c>
       <c r="R137" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S137" t="n">
-        <v>500</v>
+        <v>778</v>
       </c>
       <c r="T137" t="n">
         <v>18</v>
@@ -11367,7 +11367,7 @@
         </is>
       </c>
       <c r="D138" s="2" t="n">
-        <v>44355</v>
+        <v>44309</v>
       </c>
       <c r="E138" t="n">
         <v>7</v>
@@ -11400,20 +11400,20 @@
       </c>
       <c r="L138" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M138" t="n">
-        <v>300</v>
+        <v>250</v>
       </c>
       <c r="N138" t="n">
-        <v>6000</v>
+        <v>8000</v>
       </c>
       <c r="O138" t="n">
-        <v>6000</v>
+        <v>9000</v>
       </c>
       <c r="P138" t="n">
-        <v>6000</v>
+        <v>8600</v>
       </c>
       <c r="Q138" t="inlineStr">
         <is>
@@ -11426,7 +11426,7 @@
         </is>
       </c>
       <c r="S138" t="n">
-        <v>600</v>
+        <v>860</v>
       </c>
       <c r="T138" t="n">
         <v>10</v>
@@ -11447,7 +11447,7 @@
         </is>
       </c>
       <c r="D139" s="2" t="n">
-        <v>44343</v>
+        <v>44309</v>
       </c>
       <c r="E139" t="n">
         <v>7</v>
@@ -11480,20 +11480,20 @@
       </c>
       <c r="L139" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M139" t="n">
-        <v>120</v>
+        <v>100</v>
       </c>
       <c r="N139" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="O139" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="P139" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="Q139" t="inlineStr">
         <is>
@@ -11506,7 +11506,7 @@
         </is>
       </c>
       <c r="S139" t="n">
-        <v>556</v>
+        <v>667</v>
       </c>
       <c r="T139" t="n">
         <v>18</v>
@@ -11527,7 +11527,7 @@
         </is>
       </c>
       <c r="D140" s="2" t="n">
-        <v>44343</v>
+        <v>44316</v>
       </c>
       <c r="E140" t="n">
         <v>7</v>
@@ -11560,24 +11560,24 @@
       </c>
       <c r="L140" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M140" t="n">
         <v>160</v>
       </c>
       <c r="N140" t="n">
-        <v>9000</v>
+        <v>12000</v>
       </c>
       <c r="O140" t="n">
-        <v>9000</v>
+        <v>12000</v>
       </c>
       <c r="P140" t="n">
-        <v>9000</v>
+        <v>12000</v>
       </c>
       <c r="Q140" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R140" t="inlineStr">
@@ -11586,10 +11586,10 @@
         </is>
       </c>
       <c r="S140" t="n">
-        <v>500</v>
+        <v>1200</v>
       </c>
       <c r="T140" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="141">
@@ -11607,7 +11607,7 @@
         </is>
       </c>
       <c r="D141" s="2" t="n">
-        <v>44376</v>
+        <v>44316</v>
       </c>
       <c r="E141" t="n">
         <v>7</v>
@@ -11644,20 +11644,20 @@
         </is>
       </c>
       <c r="M141" t="n">
-        <v>260</v>
+        <v>200</v>
       </c>
       <c r="N141" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="O141" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="P141" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="Q141" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R141" t="inlineStr">
@@ -11666,10 +11666,10 @@
         </is>
       </c>
       <c r="S141" t="n">
-        <v>500</v>
+        <v>1000</v>
       </c>
       <c r="T141" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="142">
@@ -11687,7 +11687,7 @@
         </is>
       </c>
       <c r="D142" s="2" t="n">
-        <v>44284</v>
+        <v>44316</v>
       </c>
       <c r="E142" t="n">
         <v>7</v>
@@ -11720,24 +11720,24 @@
       </c>
       <c r="L142" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M142" t="n">
-        <v>200</v>
+        <v>190</v>
       </c>
       <c r="N142" t="n">
-        <v>7000</v>
+        <v>13000</v>
       </c>
       <c r="O142" t="n">
-        <v>7000</v>
+        <v>13000</v>
       </c>
       <c r="P142" t="n">
-        <v>7000</v>
+        <v>13000</v>
       </c>
       <c r="Q142" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="R142" t="inlineStr">
@@ -11746,7 +11746,7 @@
         </is>
       </c>
       <c r="S142" t="n">
-        <v>389</v>
+        <v>722</v>
       </c>
       <c r="T142" t="n">
         <v>18</v>
@@ -11767,7 +11767,7 @@
         </is>
       </c>
       <c r="D143" s="2" t="n">
-        <v>44418</v>
+        <v>44281</v>
       </c>
       <c r="E143" t="n">
         <v>7</v>
@@ -11800,24 +11800,24 @@
       </c>
       <c r="L143" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M143" t="n">
-        <v>100</v>
+        <v>210</v>
       </c>
       <c r="N143" t="n">
-        <v>14000</v>
+        <v>10000</v>
       </c>
       <c r="O143" t="n">
-        <v>14000</v>
+        <v>10000</v>
       </c>
       <c r="P143" t="n">
-        <v>14000</v>
+        <v>10000</v>
       </c>
       <c r="Q143" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R143" t="inlineStr">
@@ -11826,10 +11826,10 @@
         </is>
       </c>
       <c r="S143" t="n">
-        <v>778</v>
+        <v>1000</v>
       </c>
       <c r="T143" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="144">
@@ -11847,7 +11847,7 @@
         </is>
       </c>
       <c r="D144" s="2" t="n">
-        <v>44418</v>
+        <v>44370</v>
       </c>
       <c r="E144" t="n">
         <v>7</v>
@@ -11880,11 +11880,11 @@
       </c>
       <c r="L144" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M144" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="N144" t="n">
         <v>12000</v>
@@ -11927,7 +11927,7 @@
         </is>
       </c>
       <c r="D145" s="2" t="n">
-        <v>44418</v>
+        <v>44370</v>
       </c>
       <c r="E145" t="n">
         <v>7</v>
@@ -11960,11 +11960,11 @@
       </c>
       <c r="L145" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M145" t="n">
-        <v>90</v>
+        <v>120</v>
       </c>
       <c r="N145" t="n">
         <v>10000</v>
@@ -11989,6 +11989,1446 @@
         <v>556</v>
       </c>
       <c r="T145" t="n">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" t="n">
+        <v>5</v>
+      </c>
+      <c r="B146" t="inlineStr">
+        <is>
+          <t>Macroferia Regional de Talca</t>
+        </is>
+      </c>
+      <c r="C146" t="inlineStr">
+        <is>
+          <t>Maule</t>
+        </is>
+      </c>
+      <c r="D146" s="2" t="n">
+        <v>44370</v>
+      </c>
+      <c r="E146" t="n">
+        <v>7</v>
+      </c>
+      <c r="F146" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G146" t="n">
+        <v>100101</v>
+      </c>
+      <c r="H146" t="inlineStr">
+        <is>
+          <t>Berries</t>
+        </is>
+      </c>
+      <c r="I146" t="n">
+        <v>100101007</v>
+      </c>
+      <c r="J146" t="inlineStr">
+        <is>
+          <t>Kiwi</t>
+        </is>
+      </c>
+      <c r="K146" t="inlineStr">
+        <is>
+          <t>Hayward</t>
+        </is>
+      </c>
+      <c r="L146" t="inlineStr">
+        <is>
+          <t>Segunda</t>
+        </is>
+      </c>
+      <c r="M146" t="n">
+        <v>60</v>
+      </c>
+      <c r="N146" t="n">
+        <v>8000</v>
+      </c>
+      <c r="O146" t="n">
+        <v>8000</v>
+      </c>
+      <c r="P146" t="n">
+        <v>8000</v>
+      </c>
+      <c r="Q146" t="inlineStr">
+        <is>
+          <t>$/bandeja 18 kilos</t>
+        </is>
+      </c>
+      <c r="R146" t="inlineStr">
+        <is>
+          <t>Provincia de Curicó</t>
+        </is>
+      </c>
+      <c r="S146" t="n">
+        <v>444</v>
+      </c>
+      <c r="T146" t="n">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" t="n">
+        <v>5</v>
+      </c>
+      <c r="B147" t="inlineStr">
+        <is>
+          <t>Macroferia Regional de Talca</t>
+        </is>
+      </c>
+      <c r="C147" t="inlineStr">
+        <is>
+          <t>Maule</t>
+        </is>
+      </c>
+      <c r="D147" s="2" t="n">
+        <v>44326</v>
+      </c>
+      <c r="E147" t="n">
+        <v>7</v>
+      </c>
+      <c r="F147" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G147" t="n">
+        <v>100101</v>
+      </c>
+      <c r="H147" t="inlineStr">
+        <is>
+          <t>Berries</t>
+        </is>
+      </c>
+      <c r="I147" t="n">
+        <v>100101007</v>
+      </c>
+      <c r="J147" t="inlineStr">
+        <is>
+          <t>Kiwi</t>
+        </is>
+      </c>
+      <c r="K147" t="inlineStr">
+        <is>
+          <t>Hayward</t>
+        </is>
+      </c>
+      <c r="L147" t="inlineStr">
+        <is>
+          <t>Especial</t>
+        </is>
+      </c>
+      <c r="M147" t="n">
+        <v>130</v>
+      </c>
+      <c r="N147" t="n">
+        <v>14000</v>
+      </c>
+      <c r="O147" t="n">
+        <v>14000</v>
+      </c>
+      <c r="P147" t="n">
+        <v>14000</v>
+      </c>
+      <c r="Q147" t="inlineStr">
+        <is>
+          <t>$/bandeja 18 kilos</t>
+        </is>
+      </c>
+      <c r="R147" t="inlineStr">
+        <is>
+          <t>Provincia de Curicó</t>
+        </is>
+      </c>
+      <c r="S147" t="n">
+        <v>778</v>
+      </c>
+      <c r="T147" t="n">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" t="n">
+        <v>5</v>
+      </c>
+      <c r="B148" t="inlineStr">
+        <is>
+          <t>Macroferia Regional de Talca</t>
+        </is>
+      </c>
+      <c r="C148" t="inlineStr">
+        <is>
+          <t>Maule</t>
+        </is>
+      </c>
+      <c r="D148" s="2" t="n">
+        <v>44326</v>
+      </c>
+      <c r="E148" t="n">
+        <v>7</v>
+      </c>
+      <c r="F148" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G148" t="n">
+        <v>100101</v>
+      </c>
+      <c r="H148" t="inlineStr">
+        <is>
+          <t>Berries</t>
+        </is>
+      </c>
+      <c r="I148" t="n">
+        <v>100101007</v>
+      </c>
+      <c r="J148" t="inlineStr">
+        <is>
+          <t>Kiwi</t>
+        </is>
+      </c>
+      <c r="K148" t="inlineStr">
+        <is>
+          <t>Hayward</t>
+        </is>
+      </c>
+      <c r="L148" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="M148" t="n">
+        <v>100</v>
+      </c>
+      <c r="N148" t="n">
+        <v>12000</v>
+      </c>
+      <c r="O148" t="n">
+        <v>12000</v>
+      </c>
+      <c r="P148" t="n">
+        <v>12000</v>
+      </c>
+      <c r="Q148" t="inlineStr">
+        <is>
+          <t>$/bandeja 18 kilos</t>
+        </is>
+      </c>
+      <c r="R148" t="inlineStr">
+        <is>
+          <t>Provincia de Curicó</t>
+        </is>
+      </c>
+      <c r="S148" t="n">
+        <v>667</v>
+      </c>
+      <c r="T148" t="n">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" t="n">
+        <v>5</v>
+      </c>
+      <c r="B149" t="inlineStr">
+        <is>
+          <t>Macroferia Regional de Talca</t>
+        </is>
+      </c>
+      <c r="C149" t="inlineStr">
+        <is>
+          <t>Maule</t>
+        </is>
+      </c>
+      <c r="D149" s="2" t="n">
+        <v>44382</v>
+      </c>
+      <c r="E149" t="n">
+        <v>7</v>
+      </c>
+      <c r="F149" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G149" t="n">
+        <v>100101</v>
+      </c>
+      <c r="H149" t="inlineStr">
+        <is>
+          <t>Berries</t>
+        </is>
+      </c>
+      <c r="I149" t="n">
+        <v>100101007</v>
+      </c>
+      <c r="J149" t="inlineStr">
+        <is>
+          <t>Kiwi</t>
+        </is>
+      </c>
+      <c r="K149" t="inlineStr">
+        <is>
+          <t>Hayward</t>
+        </is>
+      </c>
+      <c r="L149" t="inlineStr">
+        <is>
+          <t>Especial</t>
+        </is>
+      </c>
+      <c r="M149" t="n">
+        <v>150</v>
+      </c>
+      <c r="N149" t="n">
+        <v>12000</v>
+      </c>
+      <c r="O149" t="n">
+        <v>12000</v>
+      </c>
+      <c r="P149" t="n">
+        <v>12000</v>
+      </c>
+      <c r="Q149" t="inlineStr">
+        <is>
+          <t>$/bandeja 18 kilos</t>
+        </is>
+      </c>
+      <c r="R149" t="inlineStr">
+        <is>
+          <t>Provincia de Curicó</t>
+        </is>
+      </c>
+      <c r="S149" t="n">
+        <v>667</v>
+      </c>
+      <c r="T149" t="n">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" t="n">
+        <v>5</v>
+      </c>
+      <c r="B150" t="inlineStr">
+        <is>
+          <t>Macroferia Regional de Talca</t>
+        </is>
+      </c>
+      <c r="C150" t="inlineStr">
+        <is>
+          <t>Maule</t>
+        </is>
+      </c>
+      <c r="D150" s="2" t="n">
+        <v>44382</v>
+      </c>
+      <c r="E150" t="n">
+        <v>7</v>
+      </c>
+      <c r="F150" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G150" t="n">
+        <v>100101</v>
+      </c>
+      <c r="H150" t="inlineStr">
+        <is>
+          <t>Berries</t>
+        </is>
+      </c>
+      <c r="I150" t="n">
+        <v>100101007</v>
+      </c>
+      <c r="J150" t="inlineStr">
+        <is>
+          <t>Kiwi</t>
+        </is>
+      </c>
+      <c r="K150" t="inlineStr">
+        <is>
+          <t>Hayward</t>
+        </is>
+      </c>
+      <c r="L150" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="M150" t="n">
+        <v>200</v>
+      </c>
+      <c r="N150" t="n">
+        <v>10000</v>
+      </c>
+      <c r="O150" t="n">
+        <v>10000</v>
+      </c>
+      <c r="P150" t="n">
+        <v>10000</v>
+      </c>
+      <c r="Q150" t="inlineStr">
+        <is>
+          <t>$/bandeja 18 kilos</t>
+        </is>
+      </c>
+      <c r="R150" t="inlineStr">
+        <is>
+          <t>Provincia de Curicó</t>
+        </is>
+      </c>
+      <c r="S150" t="n">
+        <v>556</v>
+      </c>
+      <c r="T150" t="n">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" t="n">
+        <v>5</v>
+      </c>
+      <c r="B151" t="inlineStr">
+        <is>
+          <t>Macroferia Regional de Talca</t>
+        </is>
+      </c>
+      <c r="C151" t="inlineStr">
+        <is>
+          <t>Maule</t>
+        </is>
+      </c>
+      <c r="D151" s="2" t="n">
+        <v>44398</v>
+      </c>
+      <c r="E151" t="n">
+        <v>7</v>
+      </c>
+      <c r="F151" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G151" t="n">
+        <v>100101</v>
+      </c>
+      <c r="H151" t="inlineStr">
+        <is>
+          <t>Berries</t>
+        </is>
+      </c>
+      <c r="I151" t="n">
+        <v>100101007</v>
+      </c>
+      <c r="J151" t="inlineStr">
+        <is>
+          <t>Kiwi</t>
+        </is>
+      </c>
+      <c r="K151" t="inlineStr">
+        <is>
+          <t>Hayward</t>
+        </is>
+      </c>
+      <c r="L151" t="inlineStr">
+        <is>
+          <t>Especial</t>
+        </is>
+      </c>
+      <c r="M151" t="n">
+        <v>150</v>
+      </c>
+      <c r="N151" t="n">
+        <v>13000</v>
+      </c>
+      <c r="O151" t="n">
+        <v>13000</v>
+      </c>
+      <c r="P151" t="n">
+        <v>13000</v>
+      </c>
+      <c r="Q151" t="inlineStr">
+        <is>
+          <t>$/bandeja 18 kilos</t>
+        </is>
+      </c>
+      <c r="R151" t="inlineStr">
+        <is>
+          <t>Provincia de Curicó</t>
+        </is>
+      </c>
+      <c r="S151" t="n">
+        <v>722</v>
+      </c>
+      <c r="T151" t="n">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" t="n">
+        <v>5</v>
+      </c>
+      <c r="B152" t="inlineStr">
+        <is>
+          <t>Macroferia Regional de Talca</t>
+        </is>
+      </c>
+      <c r="C152" t="inlineStr">
+        <is>
+          <t>Maule</t>
+        </is>
+      </c>
+      <c r="D152" s="2" t="n">
+        <v>44398</v>
+      </c>
+      <c r="E152" t="n">
+        <v>7</v>
+      </c>
+      <c r="F152" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G152" t="n">
+        <v>100101</v>
+      </c>
+      <c r="H152" t="inlineStr">
+        <is>
+          <t>Berries</t>
+        </is>
+      </c>
+      <c r="I152" t="n">
+        <v>100101007</v>
+      </c>
+      <c r="J152" t="inlineStr">
+        <is>
+          <t>Kiwi</t>
+        </is>
+      </c>
+      <c r="K152" t="inlineStr">
+        <is>
+          <t>Hayward</t>
+        </is>
+      </c>
+      <c r="L152" t="inlineStr">
+        <is>
+          <t>Especial</t>
+        </is>
+      </c>
+      <c r="M152" t="n">
+        <v>180</v>
+      </c>
+      <c r="N152" t="n">
+        <v>13000</v>
+      </c>
+      <c r="O152" t="n">
+        <v>13000</v>
+      </c>
+      <c r="P152" t="n">
+        <v>13000</v>
+      </c>
+      <c r="Q152" t="inlineStr">
+        <is>
+          <t>$/bandeja 18 kilos</t>
+        </is>
+      </c>
+      <c r="R152" t="inlineStr">
+        <is>
+          <t>Región de O'Higgins</t>
+        </is>
+      </c>
+      <c r="S152" t="n">
+        <v>722</v>
+      </c>
+      <c r="T152" t="n">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" t="n">
+        <v>5</v>
+      </c>
+      <c r="B153" t="inlineStr">
+        <is>
+          <t>Macroferia Regional de Talca</t>
+        </is>
+      </c>
+      <c r="C153" t="inlineStr">
+        <is>
+          <t>Maule</t>
+        </is>
+      </c>
+      <c r="D153" s="2" t="n">
+        <v>44398</v>
+      </c>
+      <c r="E153" t="n">
+        <v>7</v>
+      </c>
+      <c r="F153" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G153" t="n">
+        <v>100101</v>
+      </c>
+      <c r="H153" t="inlineStr">
+        <is>
+          <t>Berries</t>
+        </is>
+      </c>
+      <c r="I153" t="n">
+        <v>100101007</v>
+      </c>
+      <c r="J153" t="inlineStr">
+        <is>
+          <t>Kiwi</t>
+        </is>
+      </c>
+      <c r="K153" t="inlineStr">
+        <is>
+          <t>Hayward</t>
+        </is>
+      </c>
+      <c r="L153" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="M153" t="n">
+        <v>260</v>
+      </c>
+      <c r="N153" t="n">
+        <v>10000</v>
+      </c>
+      <c r="O153" t="n">
+        <v>10000</v>
+      </c>
+      <c r="P153" t="n">
+        <v>10000</v>
+      </c>
+      <c r="Q153" t="inlineStr">
+        <is>
+          <t>$/bandeja 18 kilos</t>
+        </is>
+      </c>
+      <c r="R153" t="inlineStr">
+        <is>
+          <t>Provincia de Curicó</t>
+        </is>
+      </c>
+      <c r="S153" t="n">
+        <v>556</v>
+      </c>
+      <c r="T153" t="n">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" t="n">
+        <v>5</v>
+      </c>
+      <c r="B154" t="inlineStr">
+        <is>
+          <t>Macroferia Regional de Talca</t>
+        </is>
+      </c>
+      <c r="C154" t="inlineStr">
+        <is>
+          <t>Maule</t>
+        </is>
+      </c>
+      <c r="D154" s="2" t="n">
+        <v>44398</v>
+      </c>
+      <c r="E154" t="n">
+        <v>7</v>
+      </c>
+      <c r="F154" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G154" t="n">
+        <v>100101</v>
+      </c>
+      <c r="H154" t="inlineStr">
+        <is>
+          <t>Berries</t>
+        </is>
+      </c>
+      <c r="I154" t="n">
+        <v>100101007</v>
+      </c>
+      <c r="J154" t="inlineStr">
+        <is>
+          <t>Kiwi</t>
+        </is>
+      </c>
+      <c r="K154" t="inlineStr">
+        <is>
+          <t>Hayward</t>
+        </is>
+      </c>
+      <c r="L154" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="M154" t="n">
+        <v>220</v>
+      </c>
+      <c r="N154" t="n">
+        <v>9000</v>
+      </c>
+      <c r="O154" t="n">
+        <v>9000</v>
+      </c>
+      <c r="P154" t="n">
+        <v>9000</v>
+      </c>
+      <c r="Q154" t="inlineStr">
+        <is>
+          <t>$/bandeja 18 kilos</t>
+        </is>
+      </c>
+      <c r="R154" t="inlineStr">
+        <is>
+          <t>Región de O'Higgins</t>
+        </is>
+      </c>
+      <c r="S154" t="n">
+        <v>500</v>
+      </c>
+      <c r="T154" t="n">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" t="n">
+        <v>5</v>
+      </c>
+      <c r="B155" t="inlineStr">
+        <is>
+          <t>Macroferia Regional de Talca</t>
+        </is>
+      </c>
+      <c r="C155" t="inlineStr">
+        <is>
+          <t>Maule</t>
+        </is>
+      </c>
+      <c r="D155" s="2" t="n">
+        <v>44355</v>
+      </c>
+      <c r="E155" t="n">
+        <v>7</v>
+      </c>
+      <c r="F155" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G155" t="n">
+        <v>100101</v>
+      </c>
+      <c r="H155" t="inlineStr">
+        <is>
+          <t>Berries</t>
+        </is>
+      </c>
+      <c r="I155" t="n">
+        <v>100101007</v>
+      </c>
+      <c r="J155" t="inlineStr">
+        <is>
+          <t>Kiwi</t>
+        </is>
+      </c>
+      <c r="K155" t="inlineStr">
+        <is>
+          <t>Hayward</t>
+        </is>
+      </c>
+      <c r="L155" t="inlineStr">
+        <is>
+          <t>Segunda</t>
+        </is>
+      </c>
+      <c r="M155" t="n">
+        <v>300</v>
+      </c>
+      <c r="N155" t="n">
+        <v>6000</v>
+      </c>
+      <c r="O155" t="n">
+        <v>6000</v>
+      </c>
+      <c r="P155" t="n">
+        <v>6000</v>
+      </c>
+      <c r="Q155" t="inlineStr">
+        <is>
+          <t>$/bandeja 10 kilos</t>
+        </is>
+      </c>
+      <c r="R155" t="inlineStr">
+        <is>
+          <t>Provincia de Curicó</t>
+        </is>
+      </c>
+      <c r="S155" t="n">
+        <v>600</v>
+      </c>
+      <c r="T155" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" t="n">
+        <v>5</v>
+      </c>
+      <c r="B156" t="inlineStr">
+        <is>
+          <t>Macroferia Regional de Talca</t>
+        </is>
+      </c>
+      <c r="C156" t="inlineStr">
+        <is>
+          <t>Maule</t>
+        </is>
+      </c>
+      <c r="D156" s="2" t="n">
+        <v>44343</v>
+      </c>
+      <c r="E156" t="n">
+        <v>7</v>
+      </c>
+      <c r="F156" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G156" t="n">
+        <v>100101</v>
+      </c>
+      <c r="H156" t="inlineStr">
+        <is>
+          <t>Berries</t>
+        </is>
+      </c>
+      <c r="I156" t="n">
+        <v>100101007</v>
+      </c>
+      <c r="J156" t="inlineStr">
+        <is>
+          <t>Kiwi</t>
+        </is>
+      </c>
+      <c r="K156" t="inlineStr">
+        <is>
+          <t>Hayward</t>
+        </is>
+      </c>
+      <c r="L156" t="inlineStr">
+        <is>
+          <t>Especial</t>
+        </is>
+      </c>
+      <c r="M156" t="n">
+        <v>120</v>
+      </c>
+      <c r="N156" t="n">
+        <v>10000</v>
+      </c>
+      <c r="O156" t="n">
+        <v>10000</v>
+      </c>
+      <c r="P156" t="n">
+        <v>10000</v>
+      </c>
+      <c r="Q156" t="inlineStr">
+        <is>
+          <t>$/bandeja 18 kilos</t>
+        </is>
+      </c>
+      <c r="R156" t="inlineStr">
+        <is>
+          <t>Provincia de Curicó</t>
+        </is>
+      </c>
+      <c r="S156" t="n">
+        <v>556</v>
+      </c>
+      <c r="T156" t="n">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" t="n">
+        <v>5</v>
+      </c>
+      <c r="B157" t="inlineStr">
+        <is>
+          <t>Macroferia Regional de Talca</t>
+        </is>
+      </c>
+      <c r="C157" t="inlineStr">
+        <is>
+          <t>Maule</t>
+        </is>
+      </c>
+      <c r="D157" s="2" t="n">
+        <v>44343</v>
+      </c>
+      <c r="E157" t="n">
+        <v>7</v>
+      </c>
+      <c r="F157" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G157" t="n">
+        <v>100101</v>
+      </c>
+      <c r="H157" t="inlineStr">
+        <is>
+          <t>Berries</t>
+        </is>
+      </c>
+      <c r="I157" t="n">
+        <v>100101007</v>
+      </c>
+      <c r="J157" t="inlineStr">
+        <is>
+          <t>Kiwi</t>
+        </is>
+      </c>
+      <c r="K157" t="inlineStr">
+        <is>
+          <t>Hayward</t>
+        </is>
+      </c>
+      <c r="L157" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="M157" t="n">
+        <v>160</v>
+      </c>
+      <c r="N157" t="n">
+        <v>9000</v>
+      </c>
+      <c r="O157" t="n">
+        <v>9000</v>
+      </c>
+      <c r="P157" t="n">
+        <v>9000</v>
+      </c>
+      <c r="Q157" t="inlineStr">
+        <is>
+          <t>$/bandeja 18 kilos</t>
+        </is>
+      </c>
+      <c r="R157" t="inlineStr">
+        <is>
+          <t>Provincia de Curicó</t>
+        </is>
+      </c>
+      <c r="S157" t="n">
+        <v>500</v>
+      </c>
+      <c r="T157" t="n">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" t="n">
+        <v>5</v>
+      </c>
+      <c r="B158" t="inlineStr">
+        <is>
+          <t>Macroferia Regional de Talca</t>
+        </is>
+      </c>
+      <c r="C158" t="inlineStr">
+        <is>
+          <t>Maule</t>
+        </is>
+      </c>
+      <c r="D158" s="2" t="n">
+        <v>44376</v>
+      </c>
+      <c r="E158" t="n">
+        <v>7</v>
+      </c>
+      <c r="F158" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G158" t="n">
+        <v>100101</v>
+      </c>
+      <c r="H158" t="inlineStr">
+        <is>
+          <t>Berries</t>
+        </is>
+      </c>
+      <c r="I158" t="n">
+        <v>100101007</v>
+      </c>
+      <c r="J158" t="inlineStr">
+        <is>
+          <t>Kiwi</t>
+        </is>
+      </c>
+      <c r="K158" t="inlineStr">
+        <is>
+          <t>Hayward</t>
+        </is>
+      </c>
+      <c r="L158" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="M158" t="n">
+        <v>260</v>
+      </c>
+      <c r="N158" t="n">
+        <v>9000</v>
+      </c>
+      <c r="O158" t="n">
+        <v>9000</v>
+      </c>
+      <c r="P158" t="n">
+        <v>9000</v>
+      </c>
+      <c r="Q158" t="inlineStr">
+        <is>
+          <t>$/bandeja 18 kilos</t>
+        </is>
+      </c>
+      <c r="R158" t="inlineStr">
+        <is>
+          <t>Provincia de Curicó</t>
+        </is>
+      </c>
+      <c r="S158" t="n">
+        <v>500</v>
+      </c>
+      <c r="T158" t="n">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" t="n">
+        <v>5</v>
+      </c>
+      <c r="B159" t="inlineStr">
+        <is>
+          <t>Macroferia Regional de Talca</t>
+        </is>
+      </c>
+      <c r="C159" t="inlineStr">
+        <is>
+          <t>Maule</t>
+        </is>
+      </c>
+      <c r="D159" s="2" t="n">
+        <v>44284</v>
+      </c>
+      <c r="E159" t="n">
+        <v>7</v>
+      </c>
+      <c r="F159" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G159" t="n">
+        <v>100101</v>
+      </c>
+      <c r="H159" t="inlineStr">
+        <is>
+          <t>Berries</t>
+        </is>
+      </c>
+      <c r="I159" t="n">
+        <v>100101007</v>
+      </c>
+      <c r="J159" t="inlineStr">
+        <is>
+          <t>Kiwi</t>
+        </is>
+      </c>
+      <c r="K159" t="inlineStr">
+        <is>
+          <t>Hayward</t>
+        </is>
+      </c>
+      <c r="L159" t="inlineStr">
+        <is>
+          <t>Segunda</t>
+        </is>
+      </c>
+      <c r="M159" t="n">
+        <v>200</v>
+      </c>
+      <c r="N159" t="n">
+        <v>7000</v>
+      </c>
+      <c r="O159" t="n">
+        <v>7000</v>
+      </c>
+      <c r="P159" t="n">
+        <v>7000</v>
+      </c>
+      <c r="Q159" t="inlineStr">
+        <is>
+          <t>$/bandeja 18 kilos</t>
+        </is>
+      </c>
+      <c r="R159" t="inlineStr">
+        <is>
+          <t>Provincia de Curicó</t>
+        </is>
+      </c>
+      <c r="S159" t="n">
+        <v>389</v>
+      </c>
+      <c r="T159" t="n">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" t="n">
+        <v>5</v>
+      </c>
+      <c r="B160" t="inlineStr">
+        <is>
+          <t>Macroferia Regional de Talca</t>
+        </is>
+      </c>
+      <c r="C160" t="inlineStr">
+        <is>
+          <t>Maule</t>
+        </is>
+      </c>
+      <c r="D160" s="2" t="n">
+        <v>44418</v>
+      </c>
+      <c r="E160" t="n">
+        <v>7</v>
+      </c>
+      <c r="F160" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G160" t="n">
+        <v>100101</v>
+      </c>
+      <c r="H160" t="inlineStr">
+        <is>
+          <t>Berries</t>
+        </is>
+      </c>
+      <c r="I160" t="n">
+        <v>100101007</v>
+      </c>
+      <c r="J160" t="inlineStr">
+        <is>
+          <t>Kiwi</t>
+        </is>
+      </c>
+      <c r="K160" t="inlineStr">
+        <is>
+          <t>Hayward</t>
+        </is>
+      </c>
+      <c r="L160" t="inlineStr">
+        <is>
+          <t>Especial</t>
+        </is>
+      </c>
+      <c r="M160" t="n">
+        <v>100</v>
+      </c>
+      <c r="N160" t="n">
+        <v>14000</v>
+      </c>
+      <c r="O160" t="n">
+        <v>14000</v>
+      </c>
+      <c r="P160" t="n">
+        <v>14000</v>
+      </c>
+      <c r="Q160" t="inlineStr">
+        <is>
+          <t>$/bandeja 18 kilos</t>
+        </is>
+      </c>
+      <c r="R160" t="inlineStr">
+        <is>
+          <t>Provincia de Curicó</t>
+        </is>
+      </c>
+      <c r="S160" t="n">
+        <v>778</v>
+      </c>
+      <c r="T160" t="n">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" t="n">
+        <v>5</v>
+      </c>
+      <c r="B161" t="inlineStr">
+        <is>
+          <t>Macroferia Regional de Talca</t>
+        </is>
+      </c>
+      <c r="C161" t="inlineStr">
+        <is>
+          <t>Maule</t>
+        </is>
+      </c>
+      <c r="D161" s="2" t="n">
+        <v>44418</v>
+      </c>
+      <c r="E161" t="n">
+        <v>7</v>
+      </c>
+      <c r="F161" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G161" t="n">
+        <v>100101</v>
+      </c>
+      <c r="H161" t="inlineStr">
+        <is>
+          <t>Berries</t>
+        </is>
+      </c>
+      <c r="I161" t="n">
+        <v>100101007</v>
+      </c>
+      <c r="J161" t="inlineStr">
+        <is>
+          <t>Kiwi</t>
+        </is>
+      </c>
+      <c r="K161" t="inlineStr">
+        <is>
+          <t>Hayward</t>
+        </is>
+      </c>
+      <c r="L161" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="M161" t="n">
+        <v>200</v>
+      </c>
+      <c r="N161" t="n">
+        <v>12000</v>
+      </c>
+      <c r="O161" t="n">
+        <v>12000</v>
+      </c>
+      <c r="P161" t="n">
+        <v>12000</v>
+      </c>
+      <c r="Q161" t="inlineStr">
+        <is>
+          <t>$/bandeja 18 kilos</t>
+        </is>
+      </c>
+      <c r="R161" t="inlineStr">
+        <is>
+          <t>Provincia de Curicó</t>
+        </is>
+      </c>
+      <c r="S161" t="n">
+        <v>667</v>
+      </c>
+      <c r="T161" t="n">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" t="n">
+        <v>5</v>
+      </c>
+      <c r="B162" t="inlineStr">
+        <is>
+          <t>Macroferia Regional de Talca</t>
+        </is>
+      </c>
+      <c r="C162" t="inlineStr">
+        <is>
+          <t>Maule</t>
+        </is>
+      </c>
+      <c r="D162" s="2" t="n">
+        <v>44418</v>
+      </c>
+      <c r="E162" t="n">
+        <v>7</v>
+      </c>
+      <c r="F162" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G162" t="n">
+        <v>100101</v>
+      </c>
+      <c r="H162" t="inlineStr">
+        <is>
+          <t>Berries</t>
+        </is>
+      </c>
+      <c r="I162" t="n">
+        <v>100101007</v>
+      </c>
+      <c r="J162" t="inlineStr">
+        <is>
+          <t>Kiwi</t>
+        </is>
+      </c>
+      <c r="K162" t="inlineStr">
+        <is>
+          <t>Hayward</t>
+        </is>
+      </c>
+      <c r="L162" t="inlineStr">
+        <is>
+          <t>Segunda</t>
+        </is>
+      </c>
+      <c r="M162" t="n">
+        <v>90</v>
+      </c>
+      <c r="N162" t="n">
+        <v>10000</v>
+      </c>
+      <c r="O162" t="n">
+        <v>10000</v>
+      </c>
+      <c r="P162" t="n">
+        <v>10000</v>
+      </c>
+      <c r="Q162" t="inlineStr">
+        <is>
+          <t>$/bandeja 18 kilos</t>
+        </is>
+      </c>
+      <c r="R162" t="inlineStr">
+        <is>
+          <t>Provincia de Curicó</t>
+        </is>
+      </c>
+      <c r="S162" t="n">
+        <v>556</v>
+      </c>
+      <c r="T162" t="n">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" t="n">
+        <v>5</v>
+      </c>
+      <c r="B163" t="inlineStr">
+        <is>
+          <t>Macroferia Regional de Talca</t>
+        </is>
+      </c>
+      <c r="C163" t="inlineStr">
+        <is>
+          <t>Maule</t>
+        </is>
+      </c>
+      <c r="D163" s="2" t="n">
+        <v>44432</v>
+      </c>
+      <c r="E163" t="n">
+        <v>7</v>
+      </c>
+      <c r="F163" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G163" t="n">
+        <v>100101</v>
+      </c>
+      <c r="H163" t="inlineStr">
+        <is>
+          <t>Berries</t>
+        </is>
+      </c>
+      <c r="I163" t="n">
+        <v>100101007</v>
+      </c>
+      <c r="J163" t="inlineStr">
+        <is>
+          <t>Kiwi</t>
+        </is>
+      </c>
+      <c r="K163" t="inlineStr">
+        <is>
+          <t>Hayward</t>
+        </is>
+      </c>
+      <c r="L163" t="inlineStr">
+        <is>
+          <t>Especial</t>
+        </is>
+      </c>
+      <c r="M163" t="n">
+        <v>210</v>
+      </c>
+      <c r="N163" t="n">
+        <v>14000</v>
+      </c>
+      <c r="O163" t="n">
+        <v>14000</v>
+      </c>
+      <c r="P163" t="n">
+        <v>14000</v>
+      </c>
+      <c r="Q163" t="inlineStr">
+        <is>
+          <t>$/caja 18 kilos</t>
+        </is>
+      </c>
+      <c r="R163" t="inlineStr">
+        <is>
+          <t>Provincia de Curicó</t>
+        </is>
+      </c>
+      <c r="S163" t="n">
+        <v>778</v>
+      </c>
+      <c r="T163" t="n">
         <v>18</v>
       </c>
     </row>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Macroferia Regional de Talca - Kiwi.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Macroferia Regional de Talca - Kiwi.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T163"/>
+  <dimension ref="A1:T165"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -8407,7 +8407,7 @@
         </is>
       </c>
       <c r="D101" s="2" t="n">
-        <v>44327</v>
+        <v>44438</v>
       </c>
       <c r="E101" t="n">
         <v>7</v>
@@ -8440,24 +8440,24 @@
       </c>
       <c r="L101" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M101" t="n">
-        <v>300</v>
+        <v>230</v>
       </c>
       <c r="N101" t="n">
-        <v>9000</v>
+        <v>13000</v>
       </c>
       <c r="O101" t="n">
-        <v>9000</v>
+        <v>13000</v>
       </c>
       <c r="P101" t="n">
-        <v>9000</v>
+        <v>13000</v>
       </c>
       <c r="Q101" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="R101" t="inlineStr">
@@ -8466,10 +8466,10 @@
         </is>
       </c>
       <c r="S101" t="n">
-        <v>900</v>
+        <v>722</v>
       </c>
       <c r="T101" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
     </row>
     <row r="102">
@@ -8487,7 +8487,7 @@
         </is>
       </c>
       <c r="D102" s="2" t="n">
-        <v>44313</v>
+        <v>44438</v>
       </c>
       <c r="E102" t="n">
         <v>7</v>
@@ -8524,20 +8524,20 @@
         </is>
       </c>
       <c r="M102" t="n">
-        <v>350</v>
+        <v>300</v>
       </c>
       <c r="N102" t="n">
-        <v>9000</v>
+        <v>11000</v>
       </c>
       <c r="O102" t="n">
-        <v>9000</v>
+        <v>11000</v>
       </c>
       <c r="P102" t="n">
-        <v>9000</v>
+        <v>11000</v>
       </c>
       <c r="Q102" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="R102" t="inlineStr">
@@ -8546,10 +8546,10 @@
         </is>
       </c>
       <c r="S102" t="n">
-        <v>900</v>
+        <v>611</v>
       </c>
       <c r="T102" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
     </row>
     <row r="103">
@@ -8567,7 +8567,7 @@
         </is>
       </c>
       <c r="D103" s="2" t="n">
-        <v>44313</v>
+        <v>44327</v>
       </c>
       <c r="E103" t="n">
         <v>7</v>
@@ -8600,24 +8600,24 @@
       </c>
       <c r="L103" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M103" t="n">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="N103" t="n">
-        <v>6000</v>
+        <v>9000</v>
       </c>
       <c r="O103" t="n">
-        <v>6000</v>
+        <v>9000</v>
       </c>
       <c r="P103" t="n">
-        <v>6000</v>
+        <v>9000</v>
       </c>
       <c r="Q103" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="R103" t="inlineStr">
@@ -8626,7 +8626,7 @@
         </is>
       </c>
       <c r="S103" t="n">
-        <v>600</v>
+        <v>900</v>
       </c>
       <c r="T103" t="n">
         <v>10</v>
@@ -8647,7 +8647,7 @@
         </is>
       </c>
       <c r="D104" s="2" t="n">
-        <v>44330</v>
+        <v>44313</v>
       </c>
       <c r="E104" t="n">
         <v>7</v>
@@ -8680,24 +8680,24 @@
       </c>
       <c r="L104" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M104" t="n">
-        <v>300</v>
+        <v>350</v>
       </c>
       <c r="N104" t="n">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="O104" t="n">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="P104" t="n">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="Q104" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R104" t="inlineStr">
@@ -8706,10 +8706,10 @@
         </is>
       </c>
       <c r="S104" t="n">
-        <v>556</v>
+        <v>900</v>
       </c>
       <c r="T104" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="105">
@@ -8727,7 +8727,7 @@
         </is>
       </c>
       <c r="D105" s="2" t="n">
-        <v>44330</v>
+        <v>44313</v>
       </c>
       <c r="E105" t="n">
         <v>7</v>
@@ -8760,24 +8760,24 @@
       </c>
       <c r="L105" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="M105" t="n">
-        <v>180</v>
+        <v>250</v>
       </c>
       <c r="N105" t="n">
-        <v>8000</v>
+        <v>6000</v>
       </c>
       <c r="O105" t="n">
-        <v>8000</v>
+        <v>6000</v>
       </c>
       <c r="P105" t="n">
-        <v>8000</v>
+        <v>6000</v>
       </c>
       <c r="Q105" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R105" t="inlineStr">
@@ -8786,10 +8786,10 @@
         </is>
       </c>
       <c r="S105" t="n">
-        <v>444</v>
+        <v>600</v>
       </c>
       <c r="T105" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="106">
@@ -8807,7 +8807,7 @@
         </is>
       </c>
       <c r="D106" s="2" t="n">
-        <v>44391</v>
+        <v>44330</v>
       </c>
       <c r="E106" t="n">
         <v>7</v>
@@ -8844,16 +8844,16 @@
         </is>
       </c>
       <c r="M106" t="n">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="N106" t="n">
-        <v>11000</v>
+        <v>10000</v>
       </c>
       <c r="O106" t="n">
-        <v>11000</v>
+        <v>10000</v>
       </c>
       <c r="P106" t="n">
-        <v>11000</v>
+        <v>10000</v>
       </c>
       <c r="Q106" t="inlineStr">
         <is>
@@ -8866,7 +8866,7 @@
         </is>
       </c>
       <c r="S106" t="n">
-        <v>611</v>
+        <v>556</v>
       </c>
       <c r="T106" t="n">
         <v>18</v>
@@ -8887,7 +8887,7 @@
         </is>
       </c>
       <c r="D107" s="2" t="n">
-        <v>44391</v>
+        <v>44330</v>
       </c>
       <c r="E107" t="n">
         <v>7</v>
@@ -8924,16 +8924,16 @@
         </is>
       </c>
       <c r="M107" t="n">
-        <v>250</v>
+        <v>180</v>
       </c>
       <c r="N107" t="n">
-        <v>9500</v>
+        <v>8000</v>
       </c>
       <c r="O107" t="n">
-        <v>9500</v>
+        <v>8000</v>
       </c>
       <c r="P107" t="n">
-        <v>9500</v>
+        <v>8000</v>
       </c>
       <c r="Q107" t="inlineStr">
         <is>
@@ -8946,7 +8946,7 @@
         </is>
       </c>
       <c r="S107" t="n">
-        <v>528</v>
+        <v>444</v>
       </c>
       <c r="T107" t="n">
         <v>18</v>
@@ -8967,7 +8967,7 @@
         </is>
       </c>
       <c r="D108" s="2" t="n">
-        <v>44351</v>
+        <v>44391</v>
       </c>
       <c r="E108" t="n">
         <v>7</v>
@@ -9004,7 +9004,7 @@
         </is>
       </c>
       <c r="M108" t="n">
-        <v>260</v>
+        <v>200</v>
       </c>
       <c r="N108" t="n">
         <v>11000</v>
@@ -9047,7 +9047,7 @@
         </is>
       </c>
       <c r="D109" s="2" t="n">
-        <v>44351</v>
+        <v>44391</v>
       </c>
       <c r="E109" t="n">
         <v>7</v>
@@ -9084,16 +9084,16 @@
         </is>
       </c>
       <c r="M109" t="n">
-        <v>200</v>
+        <v>250</v>
       </c>
       <c r="N109" t="n">
-        <v>10000</v>
+        <v>9500</v>
       </c>
       <c r="O109" t="n">
-        <v>10000</v>
+        <v>9500</v>
       </c>
       <c r="P109" t="n">
-        <v>10000</v>
+        <v>9500</v>
       </c>
       <c r="Q109" t="inlineStr">
         <is>
@@ -9106,7 +9106,7 @@
         </is>
       </c>
       <c r="S109" t="n">
-        <v>556</v>
+        <v>528</v>
       </c>
       <c r="T109" t="n">
         <v>18</v>
@@ -9160,36 +9160,36 @@
       </c>
       <c r="L110" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M110" t="n">
-        <v>230</v>
+        <v>260</v>
       </c>
       <c r="N110" t="n">
-        <v>8000</v>
+        <v>11000</v>
       </c>
       <c r="O110" t="n">
-        <v>8000</v>
+        <v>11000</v>
       </c>
       <c r="P110" t="n">
-        <v>8000</v>
+        <v>11000</v>
       </c>
       <c r="Q110" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="R110" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S110" t="n">
-        <v>800</v>
+        <v>611</v>
       </c>
       <c r="T110" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
     </row>
     <row r="111">
@@ -9207,7 +9207,7 @@
         </is>
       </c>
       <c r="D111" s="2" t="n">
-        <v>44350</v>
+        <v>44351</v>
       </c>
       <c r="E111" t="n">
         <v>7</v>
@@ -9240,33 +9240,33 @@
       </c>
       <c r="L111" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M111" t="n">
-        <v>130</v>
+        <v>200</v>
       </c>
       <c r="N111" t="n">
-        <v>11000</v>
+        <v>10000</v>
       </c>
       <c r="O111" t="n">
-        <v>11000</v>
+        <v>10000</v>
       </c>
       <c r="P111" t="n">
-        <v>11000</v>
+        <v>10000</v>
       </c>
       <c r="Q111" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos granel</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="R111" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S111" t="n">
-        <v>611</v>
+        <v>556</v>
       </c>
       <c r="T111" t="n">
         <v>18</v>
@@ -9287,7 +9287,7 @@
         </is>
       </c>
       <c r="D112" s="2" t="n">
-        <v>44350</v>
+        <v>44351</v>
       </c>
       <c r="E112" t="n">
         <v>7</v>
@@ -9324,32 +9324,32 @@
         </is>
       </c>
       <c r="M112" t="n">
-        <v>360</v>
+        <v>230</v>
       </c>
       <c r="N112" t="n">
-        <v>9000</v>
+        <v>8000</v>
       </c>
       <c r="O112" t="n">
-        <v>9000</v>
+        <v>8000</v>
       </c>
       <c r="P112" t="n">
-        <v>9000</v>
+        <v>8000</v>
       </c>
       <c r="Q112" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos granel</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="R112" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S112" t="n">
-        <v>500</v>
+        <v>800</v>
       </c>
       <c r="T112" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="113">
@@ -9400,20 +9400,20 @@
       </c>
       <c r="L113" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M113" t="n">
-        <v>100</v>
+        <v>130</v>
       </c>
       <c r="N113" t="n">
-        <v>9000</v>
+        <v>11000</v>
       </c>
       <c r="O113" t="n">
-        <v>9000</v>
+        <v>11000</v>
       </c>
       <c r="P113" t="n">
-        <v>9000</v>
+        <v>11000</v>
       </c>
       <c r="Q113" t="inlineStr">
         <is>
@@ -9426,7 +9426,7 @@
         </is>
       </c>
       <c r="S113" t="n">
-        <v>500</v>
+        <v>611</v>
       </c>
       <c r="T113" t="n">
         <v>18</v>
@@ -9480,24 +9480,24 @@
       </c>
       <c r="L114" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M114" t="n">
-        <v>210</v>
+        <v>360</v>
       </c>
       <c r="N114" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="O114" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="P114" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="Q114" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 18 kilos granel</t>
         </is>
       </c>
       <c r="R114" t="inlineStr">
@@ -9506,7 +9506,7 @@
         </is>
       </c>
       <c r="S114" t="n">
-        <v>389</v>
+        <v>500</v>
       </c>
       <c r="T114" t="n">
         <v>18</v>
@@ -9560,20 +9560,20 @@
       </c>
       <c r="L115" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M115" t="n">
-        <v>150</v>
+        <v>100</v>
       </c>
       <c r="N115" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="O115" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="P115" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="Q115" t="inlineStr">
         <is>
@@ -9586,7 +9586,7 @@
         </is>
       </c>
       <c r="S115" t="n">
-        <v>389</v>
+        <v>500</v>
       </c>
       <c r="T115" t="n">
         <v>18</v>
@@ -9607,7 +9607,7 @@
         </is>
       </c>
       <c r="D116" s="2" t="n">
-        <v>44315</v>
+        <v>44350</v>
       </c>
       <c r="E116" t="n">
         <v>7</v>
@@ -9640,24 +9640,24 @@
       </c>
       <c r="L116" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M116" t="n">
-        <v>140</v>
+        <v>210</v>
       </c>
       <c r="N116" t="n">
-        <v>12000</v>
+        <v>7000</v>
       </c>
       <c r="O116" t="n">
-        <v>12000</v>
+        <v>7000</v>
       </c>
       <c r="P116" t="n">
-        <v>12000</v>
+        <v>7000</v>
       </c>
       <c r="Q116" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="R116" t="inlineStr">
@@ -9666,10 +9666,10 @@
         </is>
       </c>
       <c r="S116" t="n">
-        <v>1200</v>
+        <v>389</v>
       </c>
       <c r="T116" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
     </row>
     <row r="117">
@@ -9687,7 +9687,7 @@
         </is>
       </c>
       <c r="D117" s="2" t="n">
-        <v>44315</v>
+        <v>44350</v>
       </c>
       <c r="E117" t="n">
         <v>7</v>
@@ -9720,36 +9720,36 @@
       </c>
       <c r="L117" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M117" t="n">
-        <v>120</v>
+        <v>150</v>
       </c>
       <c r="N117" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="O117" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="P117" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="Q117" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/caja 18 kilos granel</t>
         </is>
       </c>
       <c r="R117" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S117" t="n">
-        <v>1000</v>
+        <v>389</v>
       </c>
       <c r="T117" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
     </row>
     <row r="118">
@@ -9800,20 +9800,20 @@
       </c>
       <c r="L118" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M118" t="n">
-        <v>50</v>
+        <v>140</v>
       </c>
       <c r="N118" t="n">
-        <v>8000</v>
+        <v>12000</v>
       </c>
       <c r="O118" t="n">
-        <v>8000</v>
+        <v>12000</v>
       </c>
       <c r="P118" t="n">
-        <v>8000</v>
+        <v>12000</v>
       </c>
       <c r="Q118" t="inlineStr">
         <is>
@@ -9826,7 +9826,7 @@
         </is>
       </c>
       <c r="S118" t="n">
-        <v>800</v>
+        <v>1200</v>
       </c>
       <c r="T118" t="n">
         <v>10</v>
@@ -9847,7 +9847,7 @@
         </is>
       </c>
       <c r="D119" s="2" t="n">
-        <v>44358</v>
+        <v>44315</v>
       </c>
       <c r="E119" t="n">
         <v>7</v>
@@ -9880,24 +9880,24 @@
       </c>
       <c r="L119" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M119" t="n">
-        <v>230</v>
+        <v>120</v>
       </c>
       <c r="N119" t="n">
-        <v>13000</v>
+        <v>10000</v>
       </c>
       <c r="O119" t="n">
-        <v>13000</v>
+        <v>10000</v>
       </c>
       <c r="P119" t="n">
-        <v>13000</v>
+        <v>10000</v>
       </c>
       <c r="Q119" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="R119" t="inlineStr">
@@ -9906,10 +9906,10 @@
         </is>
       </c>
       <c r="S119" t="n">
-        <v>722</v>
+        <v>1000</v>
       </c>
       <c r="T119" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="120">
@@ -9927,7 +9927,7 @@
         </is>
       </c>
       <c r="D120" s="2" t="n">
-        <v>44358</v>
+        <v>44315</v>
       </c>
       <c r="E120" t="n">
         <v>7</v>
@@ -9960,20 +9960,20 @@
       </c>
       <c r="L120" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M120" t="n">
-        <v>250</v>
+        <v>50</v>
       </c>
       <c r="N120" t="n">
-        <v>9000</v>
+        <v>8000</v>
       </c>
       <c r="O120" t="n">
-        <v>9000</v>
+        <v>8000</v>
       </c>
       <c r="P120" t="n">
-        <v>9000</v>
+        <v>8000</v>
       </c>
       <c r="Q120" t="inlineStr">
         <is>
@@ -9986,7 +9986,7 @@
         </is>
       </c>
       <c r="S120" t="n">
-        <v>900</v>
+        <v>800</v>
       </c>
       <c r="T120" t="n">
         <v>10</v>
@@ -10040,20 +10040,20 @@
       </c>
       <c r="L121" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M121" t="n">
-        <v>210</v>
+        <v>230</v>
       </c>
       <c r="N121" t="n">
-        <v>11000</v>
+        <v>13000</v>
       </c>
       <c r="O121" t="n">
-        <v>11000</v>
+        <v>13000</v>
       </c>
       <c r="P121" t="n">
-        <v>11000</v>
+        <v>13000</v>
       </c>
       <c r="Q121" t="inlineStr">
         <is>
@@ -10066,7 +10066,7 @@
         </is>
       </c>
       <c r="S121" t="n">
-        <v>611</v>
+        <v>722</v>
       </c>
       <c r="T121" t="n">
         <v>18</v>
@@ -10120,20 +10120,20 @@
       </c>
       <c r="L122" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M122" t="n">
-        <v>200</v>
+        <v>250</v>
       </c>
       <c r="N122" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="O122" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="P122" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="Q122" t="inlineStr">
         <is>
@@ -10146,7 +10146,7 @@
         </is>
       </c>
       <c r="S122" t="n">
-        <v>700</v>
+        <v>900</v>
       </c>
       <c r="T122" t="n">
         <v>10</v>
@@ -10200,20 +10200,20 @@
       </c>
       <c r="L123" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M123" t="n">
-        <v>190</v>
+        <v>210</v>
       </c>
       <c r="N123" t="n">
-        <v>9000</v>
+        <v>11000</v>
       </c>
       <c r="O123" t="n">
-        <v>9000</v>
+        <v>11000</v>
       </c>
       <c r="P123" t="n">
-        <v>9000</v>
+        <v>11000</v>
       </c>
       <c r="Q123" t="inlineStr">
         <is>
@@ -10226,7 +10226,7 @@
         </is>
       </c>
       <c r="S123" t="n">
-        <v>500</v>
+        <v>611</v>
       </c>
       <c r="T123" t="n">
         <v>18</v>
@@ -10247,7 +10247,7 @@
         </is>
       </c>
       <c r="D124" s="2" t="n">
-        <v>44389</v>
+        <v>44358</v>
       </c>
       <c r="E124" t="n">
         <v>7</v>
@@ -10284,16 +10284,16 @@
         </is>
       </c>
       <c r="M124" t="n">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="N124" t="n">
-        <v>6000</v>
+        <v>7000</v>
       </c>
       <c r="O124" t="n">
-        <v>6000</v>
+        <v>7000</v>
       </c>
       <c r="P124" t="n">
-        <v>6000</v>
+        <v>7000</v>
       </c>
       <c r="Q124" t="inlineStr">
         <is>
@@ -10306,7 +10306,7 @@
         </is>
       </c>
       <c r="S124" t="n">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="T124" t="n">
         <v>10</v>
@@ -10327,7 +10327,7 @@
         </is>
       </c>
       <c r="D125" s="2" t="n">
-        <v>44399</v>
+        <v>44358</v>
       </c>
       <c r="E125" t="n">
         <v>7</v>
@@ -10360,24 +10360,24 @@
       </c>
       <c r="L125" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M125" t="n">
-        <v>260</v>
+        <v>190</v>
       </c>
       <c r="N125" t="n">
-        <v>5000</v>
+        <v>9000</v>
       </c>
       <c r="O125" t="n">
-        <v>5000</v>
+        <v>9000</v>
       </c>
       <c r="P125" t="n">
-        <v>5000</v>
+        <v>9000</v>
       </c>
       <c r="Q125" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="R125" t="inlineStr">
@@ -10389,7 +10389,7 @@
         <v>500</v>
       </c>
       <c r="T125" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
     </row>
     <row r="126">
@@ -10407,7 +10407,7 @@
         </is>
       </c>
       <c r="D126" s="2" t="n">
-        <v>44399</v>
+        <v>44389</v>
       </c>
       <c r="E126" t="n">
         <v>7</v>
@@ -10444,20 +10444,20 @@
         </is>
       </c>
       <c r="M126" t="n">
-        <v>260</v>
+        <v>300</v>
       </c>
       <c r="N126" t="n">
-        <v>10000</v>
+        <v>6000</v>
       </c>
       <c r="O126" t="n">
-        <v>10000</v>
+        <v>6000</v>
       </c>
       <c r="P126" t="n">
-        <v>10000</v>
+        <v>6000</v>
       </c>
       <c r="Q126" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos granel</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="R126" t="inlineStr">
@@ -10466,10 +10466,10 @@
         </is>
       </c>
       <c r="S126" t="n">
-        <v>556</v>
+        <v>600</v>
       </c>
       <c r="T126" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="127">
@@ -10487,7 +10487,7 @@
         </is>
       </c>
       <c r="D127" s="2" t="n">
-        <v>44420</v>
+        <v>44399</v>
       </c>
       <c r="E127" t="n">
         <v>7</v>
@@ -10520,24 +10520,24 @@
       </c>
       <c r="L127" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M127" t="n">
-        <v>120</v>
+        <v>260</v>
       </c>
       <c r="N127" t="n">
-        <v>14000</v>
+        <v>5000</v>
       </c>
       <c r="O127" t="n">
-        <v>14000</v>
+        <v>5000</v>
       </c>
       <c r="P127" t="n">
-        <v>14000</v>
+        <v>5000</v>
       </c>
       <c r="Q127" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R127" t="inlineStr">
@@ -10546,10 +10546,10 @@
         </is>
       </c>
       <c r="S127" t="n">
-        <v>778</v>
+        <v>500</v>
       </c>
       <c r="T127" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="128">
@@ -10567,7 +10567,7 @@
         </is>
       </c>
       <c r="D128" s="2" t="n">
-        <v>44420</v>
+        <v>44399</v>
       </c>
       <c r="E128" t="n">
         <v>7</v>
@@ -10604,20 +10604,20 @@
         </is>
       </c>
       <c r="M128" t="n">
-        <v>200</v>
+        <v>260</v>
       </c>
       <c r="N128" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="O128" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="P128" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="Q128" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/caja 18 kilos granel</t>
         </is>
       </c>
       <c r="R128" t="inlineStr">
@@ -10626,7 +10626,7 @@
         </is>
       </c>
       <c r="S128" t="n">
-        <v>667</v>
+        <v>556</v>
       </c>
       <c r="T128" t="n">
         <v>18</v>
@@ -10647,7 +10647,7 @@
         </is>
       </c>
       <c r="D129" s="2" t="n">
-        <v>44369</v>
+        <v>44420</v>
       </c>
       <c r="E129" t="n">
         <v>7</v>
@@ -10684,20 +10684,20 @@
         </is>
       </c>
       <c r="M129" t="n">
-        <v>230</v>
+        <v>120</v>
       </c>
       <c r="N129" t="n">
-        <v>8000</v>
+        <v>14000</v>
       </c>
       <c r="O129" t="n">
-        <v>8000</v>
+        <v>14000</v>
       </c>
       <c r="P129" t="n">
-        <v>8000</v>
+        <v>14000</v>
       </c>
       <c r="Q129" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="R129" t="inlineStr">
@@ -10706,10 +10706,10 @@
         </is>
       </c>
       <c r="S129" t="n">
-        <v>800</v>
+        <v>778</v>
       </c>
       <c r="T129" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
     </row>
     <row r="130">
@@ -10727,7 +10727,7 @@
         </is>
       </c>
       <c r="D130" s="2" t="n">
-        <v>44369</v>
+        <v>44420</v>
       </c>
       <c r="E130" t="n">
         <v>7</v>
@@ -10760,11 +10760,11 @@
       </c>
       <c r="L130" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M130" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="N130" t="n">
         <v>12000</v>
@@ -10777,7 +10777,7 @@
       </c>
       <c r="Q130" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="R130" t="inlineStr">
@@ -10840,20 +10840,20 @@
       </c>
       <c r="L131" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M131" t="n">
-        <v>200</v>
+        <v>230</v>
       </c>
       <c r="N131" t="n">
-        <v>6000</v>
+        <v>8000</v>
       </c>
       <c r="O131" t="n">
-        <v>6000</v>
+        <v>8000</v>
       </c>
       <c r="P131" t="n">
-        <v>6000</v>
+        <v>8000</v>
       </c>
       <c r="Q131" t="inlineStr">
         <is>
@@ -10866,7 +10866,7 @@
         </is>
       </c>
       <c r="S131" t="n">
-        <v>600</v>
+        <v>800</v>
       </c>
       <c r="T131" t="n">
         <v>10</v>
@@ -10920,20 +10920,20 @@
       </c>
       <c r="L132" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M132" t="n">
-        <v>180</v>
+        <v>100</v>
       </c>
       <c r="N132" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="O132" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="P132" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="Q132" t="inlineStr">
         <is>
@@ -10946,7 +10946,7 @@
         </is>
       </c>
       <c r="S132" t="n">
-        <v>556</v>
+        <v>667</v>
       </c>
       <c r="T132" t="n">
         <v>18</v>
@@ -10967,7 +10967,7 @@
         </is>
       </c>
       <c r="D133" s="2" t="n">
-        <v>44333</v>
+        <v>44369</v>
       </c>
       <c r="E133" t="n">
         <v>7</v>
@@ -11000,36 +11000,36 @@
       </c>
       <c r="L133" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M133" t="n">
-        <v>150</v>
+        <v>200</v>
       </c>
       <c r="N133" t="n">
-        <v>12000</v>
+        <v>6000</v>
       </c>
       <c r="O133" t="n">
-        <v>12000</v>
+        <v>6000</v>
       </c>
       <c r="P133" t="n">
-        <v>12000</v>
+        <v>6000</v>
       </c>
       <c r="Q133" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R133" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S133" t="n">
-        <v>667</v>
+        <v>600</v>
       </c>
       <c r="T133" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="134">
@@ -11047,7 +11047,7 @@
         </is>
       </c>
       <c r="D134" s="2" t="n">
-        <v>44333</v>
+        <v>44369</v>
       </c>
       <c r="E134" t="n">
         <v>7</v>
@@ -11084,7 +11084,7 @@
         </is>
       </c>
       <c r="M134" t="n">
-        <v>100</v>
+        <v>180</v>
       </c>
       <c r="N134" t="n">
         <v>10000</v>
@@ -11102,7 +11102,7 @@
       </c>
       <c r="R134" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S134" t="n">
@@ -11127,7 +11127,7 @@
         </is>
       </c>
       <c r="D135" s="2" t="n">
-        <v>44433</v>
+        <v>44333</v>
       </c>
       <c r="E135" t="n">
         <v>7</v>
@@ -11164,29 +11164,29 @@
         </is>
       </c>
       <c r="M135" t="n">
-        <v>120</v>
+        <v>150</v>
       </c>
       <c r="N135" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="O135" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="P135" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="Q135" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="R135" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="S135" t="n">
-        <v>778</v>
+        <v>667</v>
       </c>
       <c r="T135" t="n">
         <v>18</v>
@@ -11207,7 +11207,7 @@
         </is>
       </c>
       <c r="D136" s="2" t="n">
-        <v>44433</v>
+        <v>44333</v>
       </c>
       <c r="E136" t="n">
         <v>7</v>
@@ -11244,29 +11244,29 @@
         </is>
       </c>
       <c r="M136" t="n">
-        <v>180</v>
+        <v>100</v>
       </c>
       <c r="N136" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="O136" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="P136" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="Q136" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="R136" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="S136" t="n">
-        <v>667</v>
+        <v>556</v>
       </c>
       <c r="T136" t="n">
         <v>18</v>
@@ -11287,7 +11287,7 @@
         </is>
       </c>
       <c r="D137" s="2" t="n">
-        <v>44309</v>
+        <v>44433</v>
       </c>
       <c r="E137" t="n">
         <v>7</v>
@@ -11324,7 +11324,7 @@
         </is>
       </c>
       <c r="M137" t="n">
-        <v>160</v>
+        <v>120</v>
       </c>
       <c r="N137" t="n">
         <v>14000</v>
@@ -11337,7 +11337,7 @@
       </c>
       <c r="Q137" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="R137" t="inlineStr">
@@ -11367,7 +11367,7 @@
         </is>
       </c>
       <c r="D138" s="2" t="n">
-        <v>44309</v>
+        <v>44433</v>
       </c>
       <c r="E138" t="n">
         <v>7</v>
@@ -11404,20 +11404,20 @@
         </is>
       </c>
       <c r="M138" t="n">
-        <v>250</v>
+        <v>180</v>
       </c>
       <c r="N138" t="n">
-        <v>8000</v>
+        <v>12000</v>
       </c>
       <c r="O138" t="n">
-        <v>9000</v>
+        <v>12000</v>
       </c>
       <c r="P138" t="n">
-        <v>8600</v>
+        <v>12000</v>
       </c>
       <c r="Q138" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="R138" t="inlineStr">
@@ -11426,10 +11426,10 @@
         </is>
       </c>
       <c r="S138" t="n">
-        <v>860</v>
+        <v>667</v>
       </c>
       <c r="T138" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
     </row>
     <row r="139">
@@ -11480,20 +11480,20 @@
       </c>
       <c r="L139" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M139" t="n">
-        <v>100</v>
+        <v>160</v>
       </c>
       <c r="N139" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="O139" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="P139" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="Q139" t="inlineStr">
         <is>
@@ -11506,7 +11506,7 @@
         </is>
       </c>
       <c r="S139" t="n">
-        <v>667</v>
+        <v>778</v>
       </c>
       <c r="T139" t="n">
         <v>18</v>
@@ -11527,7 +11527,7 @@
         </is>
       </c>
       <c r="D140" s="2" t="n">
-        <v>44316</v>
+        <v>44309</v>
       </c>
       <c r="E140" t="n">
         <v>7</v>
@@ -11560,20 +11560,20 @@
       </c>
       <c r="L140" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M140" t="n">
-        <v>160</v>
+        <v>250</v>
       </c>
       <c r="N140" t="n">
-        <v>12000</v>
+        <v>8000</v>
       </c>
       <c r="O140" t="n">
-        <v>12000</v>
+        <v>9000</v>
       </c>
       <c r="P140" t="n">
-        <v>12000</v>
+        <v>8600</v>
       </c>
       <c r="Q140" t="inlineStr">
         <is>
@@ -11586,7 +11586,7 @@
         </is>
       </c>
       <c r="S140" t="n">
-        <v>1200</v>
+        <v>860</v>
       </c>
       <c r="T140" t="n">
         <v>10</v>
@@ -11607,7 +11607,7 @@
         </is>
       </c>
       <c r="D141" s="2" t="n">
-        <v>44316</v>
+        <v>44309</v>
       </c>
       <c r="E141" t="n">
         <v>7</v>
@@ -11644,20 +11644,20 @@
         </is>
       </c>
       <c r="M141" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="N141" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="O141" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="P141" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="Q141" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="R141" t="inlineStr">
@@ -11666,10 +11666,10 @@
         </is>
       </c>
       <c r="S141" t="n">
-        <v>1000</v>
+        <v>667</v>
       </c>
       <c r="T141" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
     </row>
     <row r="142">
@@ -11720,24 +11720,24 @@
       </c>
       <c r="L142" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M142" t="n">
-        <v>190</v>
+        <v>160</v>
       </c>
       <c r="N142" t="n">
-        <v>13000</v>
+        <v>12000</v>
       </c>
       <c r="O142" t="n">
-        <v>13000</v>
+        <v>12000</v>
       </c>
       <c r="P142" t="n">
-        <v>13000</v>
+        <v>12000</v>
       </c>
       <c r="Q142" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R142" t="inlineStr">
@@ -11746,10 +11746,10 @@
         </is>
       </c>
       <c r="S142" t="n">
-        <v>722</v>
+        <v>1200</v>
       </c>
       <c r="T142" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="143">
@@ -11767,7 +11767,7 @@
         </is>
       </c>
       <c r="D143" s="2" t="n">
-        <v>44281</v>
+        <v>44316</v>
       </c>
       <c r="E143" t="n">
         <v>7</v>
@@ -11804,7 +11804,7 @@
         </is>
       </c>
       <c r="M143" t="n">
-        <v>210</v>
+        <v>200</v>
       </c>
       <c r="N143" t="n">
         <v>10000</v>
@@ -11847,7 +11847,7 @@
         </is>
       </c>
       <c r="D144" s="2" t="n">
-        <v>44370</v>
+        <v>44316</v>
       </c>
       <c r="E144" t="n">
         <v>7</v>
@@ -11880,24 +11880,24 @@
       </c>
       <c r="L144" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M144" t="n">
-        <v>100</v>
+        <v>190</v>
       </c>
       <c r="N144" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="O144" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="P144" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="Q144" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="R144" t="inlineStr">
@@ -11906,7 +11906,7 @@
         </is>
       </c>
       <c r="S144" t="n">
-        <v>667</v>
+        <v>722</v>
       </c>
       <c r="T144" t="n">
         <v>18</v>
@@ -11927,7 +11927,7 @@
         </is>
       </c>
       <c r="D145" s="2" t="n">
-        <v>44370</v>
+        <v>44281</v>
       </c>
       <c r="E145" t="n">
         <v>7</v>
@@ -11964,7 +11964,7 @@
         </is>
       </c>
       <c r="M145" t="n">
-        <v>120</v>
+        <v>210</v>
       </c>
       <c r="N145" t="n">
         <v>10000</v>
@@ -11977,7 +11977,7 @@
       </c>
       <c r="Q145" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R145" t="inlineStr">
@@ -11986,10 +11986,10 @@
         </is>
       </c>
       <c r="S145" t="n">
-        <v>556</v>
+        <v>1000</v>
       </c>
       <c r="T145" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="146">
@@ -12040,20 +12040,20 @@
       </c>
       <c r="L146" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M146" t="n">
-        <v>60</v>
+        <v>100</v>
       </c>
       <c r="N146" t="n">
-        <v>8000</v>
+        <v>12000</v>
       </c>
       <c r="O146" t="n">
-        <v>8000</v>
+        <v>12000</v>
       </c>
       <c r="P146" t="n">
-        <v>8000</v>
+        <v>12000</v>
       </c>
       <c r="Q146" t="inlineStr">
         <is>
@@ -12066,7 +12066,7 @@
         </is>
       </c>
       <c r="S146" t="n">
-        <v>444</v>
+        <v>667</v>
       </c>
       <c r="T146" t="n">
         <v>18</v>
@@ -12087,7 +12087,7 @@
         </is>
       </c>
       <c r="D147" s="2" t="n">
-        <v>44326</v>
+        <v>44370</v>
       </c>
       <c r="E147" t="n">
         <v>7</v>
@@ -12120,20 +12120,20 @@
       </c>
       <c r="L147" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M147" t="n">
-        <v>130</v>
+        <v>120</v>
       </c>
       <c r="N147" t="n">
-        <v>14000</v>
+        <v>10000</v>
       </c>
       <c r="O147" t="n">
-        <v>14000</v>
+        <v>10000</v>
       </c>
       <c r="P147" t="n">
-        <v>14000</v>
+        <v>10000</v>
       </c>
       <c r="Q147" t="inlineStr">
         <is>
@@ -12146,7 +12146,7 @@
         </is>
       </c>
       <c r="S147" t="n">
-        <v>778</v>
+        <v>556</v>
       </c>
       <c r="T147" t="n">
         <v>18</v>
@@ -12167,7 +12167,7 @@
         </is>
       </c>
       <c r="D148" s="2" t="n">
-        <v>44326</v>
+        <v>44370</v>
       </c>
       <c r="E148" t="n">
         <v>7</v>
@@ -12200,20 +12200,20 @@
       </c>
       <c r="L148" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M148" t="n">
-        <v>100</v>
+        <v>60</v>
       </c>
       <c r="N148" t="n">
-        <v>12000</v>
+        <v>8000</v>
       </c>
       <c r="O148" t="n">
-        <v>12000</v>
+        <v>8000</v>
       </c>
       <c r="P148" t="n">
-        <v>12000</v>
+        <v>8000</v>
       </c>
       <c r="Q148" t="inlineStr">
         <is>
@@ -12226,7 +12226,7 @@
         </is>
       </c>
       <c r="S148" t="n">
-        <v>667</v>
+        <v>444</v>
       </c>
       <c r="T148" t="n">
         <v>18</v>
@@ -12247,7 +12247,7 @@
         </is>
       </c>
       <c r="D149" s="2" t="n">
-        <v>44382</v>
+        <v>44326</v>
       </c>
       <c r="E149" t="n">
         <v>7</v>
@@ -12284,16 +12284,16 @@
         </is>
       </c>
       <c r="M149" t="n">
-        <v>150</v>
+        <v>130</v>
       </c>
       <c r="N149" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="O149" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="P149" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="Q149" t="inlineStr">
         <is>
@@ -12306,7 +12306,7 @@
         </is>
       </c>
       <c r="S149" t="n">
-        <v>667</v>
+        <v>778</v>
       </c>
       <c r="T149" t="n">
         <v>18</v>
@@ -12327,7 +12327,7 @@
         </is>
       </c>
       <c r="D150" s="2" t="n">
-        <v>44382</v>
+        <v>44326</v>
       </c>
       <c r="E150" t="n">
         <v>7</v>
@@ -12364,16 +12364,16 @@
         </is>
       </c>
       <c r="M150" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="N150" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="O150" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="P150" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="Q150" t="inlineStr">
         <is>
@@ -12386,7 +12386,7 @@
         </is>
       </c>
       <c r="S150" t="n">
-        <v>556</v>
+        <v>667</v>
       </c>
       <c r="T150" t="n">
         <v>18</v>
@@ -12407,7 +12407,7 @@
         </is>
       </c>
       <c r="D151" s="2" t="n">
-        <v>44398</v>
+        <v>44382</v>
       </c>
       <c r="E151" t="n">
         <v>7</v>
@@ -12447,13 +12447,13 @@
         <v>150</v>
       </c>
       <c r="N151" t="n">
-        <v>13000</v>
+        <v>12000</v>
       </c>
       <c r="O151" t="n">
-        <v>13000</v>
+        <v>12000</v>
       </c>
       <c r="P151" t="n">
-        <v>13000</v>
+        <v>12000</v>
       </c>
       <c r="Q151" t="inlineStr">
         <is>
@@ -12466,7 +12466,7 @@
         </is>
       </c>
       <c r="S151" t="n">
-        <v>722</v>
+        <v>667</v>
       </c>
       <c r="T151" t="n">
         <v>18</v>
@@ -12487,7 +12487,7 @@
         </is>
       </c>
       <c r="D152" s="2" t="n">
-        <v>44398</v>
+        <v>44382</v>
       </c>
       <c r="E152" t="n">
         <v>7</v>
@@ -12520,20 +12520,20 @@
       </c>
       <c r="L152" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M152" t="n">
-        <v>180</v>
+        <v>200</v>
       </c>
       <c r="N152" t="n">
-        <v>13000</v>
+        <v>10000</v>
       </c>
       <c r="O152" t="n">
-        <v>13000</v>
+        <v>10000</v>
       </c>
       <c r="P152" t="n">
-        <v>13000</v>
+        <v>10000</v>
       </c>
       <c r="Q152" t="inlineStr">
         <is>
@@ -12542,11 +12542,11 @@
       </c>
       <c r="R152" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S152" t="n">
-        <v>722</v>
+        <v>556</v>
       </c>
       <c r="T152" t="n">
         <v>18</v>
@@ -12600,20 +12600,20 @@
       </c>
       <c r="L153" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M153" t="n">
-        <v>260</v>
+        <v>150</v>
       </c>
       <c r="N153" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="O153" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="P153" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="Q153" t="inlineStr">
         <is>
@@ -12626,7 +12626,7 @@
         </is>
       </c>
       <c r="S153" t="n">
-        <v>556</v>
+        <v>722</v>
       </c>
       <c r="T153" t="n">
         <v>18</v>
@@ -12680,20 +12680,20 @@
       </c>
       <c r="L154" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M154" t="n">
-        <v>220</v>
+        <v>180</v>
       </c>
       <c r="N154" t="n">
-        <v>9000</v>
+        <v>13000</v>
       </c>
       <c r="O154" t="n">
-        <v>9000</v>
+        <v>13000</v>
       </c>
       <c r="P154" t="n">
-        <v>9000</v>
+        <v>13000</v>
       </c>
       <c r="Q154" t="inlineStr">
         <is>
@@ -12706,7 +12706,7 @@
         </is>
       </c>
       <c r="S154" t="n">
-        <v>500</v>
+        <v>722</v>
       </c>
       <c r="T154" t="n">
         <v>18</v>
@@ -12727,7 +12727,7 @@
         </is>
       </c>
       <c r="D155" s="2" t="n">
-        <v>44355</v>
+        <v>44398</v>
       </c>
       <c r="E155" t="n">
         <v>7</v>
@@ -12760,24 +12760,24 @@
       </c>
       <c r="L155" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M155" t="n">
-        <v>300</v>
+        <v>260</v>
       </c>
       <c r="N155" t="n">
-        <v>6000</v>
+        <v>10000</v>
       </c>
       <c r="O155" t="n">
-        <v>6000</v>
+        <v>10000</v>
       </c>
       <c r="P155" t="n">
-        <v>6000</v>
+        <v>10000</v>
       </c>
       <c r="Q155" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="R155" t="inlineStr">
@@ -12786,10 +12786,10 @@
         </is>
       </c>
       <c r="S155" t="n">
-        <v>600</v>
+        <v>556</v>
       </c>
       <c r="T155" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
     </row>
     <row r="156">
@@ -12807,7 +12807,7 @@
         </is>
       </c>
       <c r="D156" s="2" t="n">
-        <v>44343</v>
+        <v>44398</v>
       </c>
       <c r="E156" t="n">
         <v>7</v>
@@ -12840,20 +12840,20 @@
       </c>
       <c r="L156" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M156" t="n">
-        <v>120</v>
+        <v>220</v>
       </c>
       <c r="N156" t="n">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="O156" t="n">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="P156" t="n">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="Q156" t="inlineStr">
         <is>
@@ -12862,11 +12862,11 @@
       </c>
       <c r="R156" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S156" t="n">
-        <v>556</v>
+        <v>500</v>
       </c>
       <c r="T156" t="n">
         <v>18</v>
@@ -12887,7 +12887,7 @@
         </is>
       </c>
       <c r="D157" s="2" t="n">
-        <v>44343</v>
+        <v>44355</v>
       </c>
       <c r="E157" t="n">
         <v>7</v>
@@ -12920,24 +12920,24 @@
       </c>
       <c r="L157" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M157" t="n">
-        <v>160</v>
+        <v>300</v>
       </c>
       <c r="N157" t="n">
-        <v>9000</v>
+        <v>6000</v>
       </c>
       <c r="O157" t="n">
-        <v>9000</v>
+        <v>6000</v>
       </c>
       <c r="P157" t="n">
-        <v>9000</v>
+        <v>6000</v>
       </c>
       <c r="Q157" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R157" t="inlineStr">
@@ -12946,10 +12946,10 @@
         </is>
       </c>
       <c r="S157" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="T157" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="158">
@@ -12967,7 +12967,7 @@
         </is>
       </c>
       <c r="D158" s="2" t="n">
-        <v>44376</v>
+        <v>44343</v>
       </c>
       <c r="E158" t="n">
         <v>7</v>
@@ -13000,20 +13000,20 @@
       </c>
       <c r="L158" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M158" t="n">
-        <v>260</v>
+        <v>120</v>
       </c>
       <c r="N158" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="O158" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="P158" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="Q158" t="inlineStr">
         <is>
@@ -13026,7 +13026,7 @@
         </is>
       </c>
       <c r="S158" t="n">
-        <v>500</v>
+        <v>556</v>
       </c>
       <c r="T158" t="n">
         <v>18</v>
@@ -13047,7 +13047,7 @@
         </is>
       </c>
       <c r="D159" s="2" t="n">
-        <v>44284</v>
+        <v>44343</v>
       </c>
       <c r="E159" t="n">
         <v>7</v>
@@ -13080,20 +13080,20 @@
       </c>
       <c r="L159" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M159" t="n">
-        <v>200</v>
+        <v>160</v>
       </c>
       <c r="N159" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="O159" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="P159" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="Q159" t="inlineStr">
         <is>
@@ -13106,7 +13106,7 @@
         </is>
       </c>
       <c r="S159" t="n">
-        <v>389</v>
+        <v>500</v>
       </c>
       <c r="T159" t="n">
         <v>18</v>
@@ -13127,7 +13127,7 @@
         </is>
       </c>
       <c r="D160" s="2" t="n">
-        <v>44418</v>
+        <v>44376</v>
       </c>
       <c r="E160" t="n">
         <v>7</v>
@@ -13160,20 +13160,20 @@
       </c>
       <c r="L160" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M160" t="n">
-        <v>100</v>
+        <v>260</v>
       </c>
       <c r="N160" t="n">
-        <v>14000</v>
+        <v>9000</v>
       </c>
       <c r="O160" t="n">
-        <v>14000</v>
+        <v>9000</v>
       </c>
       <c r="P160" t="n">
-        <v>14000</v>
+        <v>9000</v>
       </c>
       <c r="Q160" t="inlineStr">
         <is>
@@ -13186,7 +13186,7 @@
         </is>
       </c>
       <c r="S160" t="n">
-        <v>778</v>
+        <v>500</v>
       </c>
       <c r="T160" t="n">
         <v>18</v>
@@ -13207,7 +13207,7 @@
         </is>
       </c>
       <c r="D161" s="2" t="n">
-        <v>44418</v>
+        <v>44284</v>
       </c>
       <c r="E161" t="n">
         <v>7</v>
@@ -13240,20 +13240,20 @@
       </c>
       <c r="L161" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M161" t="n">
         <v>200</v>
       </c>
       <c r="N161" t="n">
-        <v>12000</v>
+        <v>7000</v>
       </c>
       <c r="O161" t="n">
-        <v>12000</v>
+        <v>7000</v>
       </c>
       <c r="P161" t="n">
-        <v>12000</v>
+        <v>7000</v>
       </c>
       <c r="Q161" t="inlineStr">
         <is>
@@ -13266,7 +13266,7 @@
         </is>
       </c>
       <c r="S161" t="n">
-        <v>667</v>
+        <v>389</v>
       </c>
       <c r="T161" t="n">
         <v>18</v>
@@ -13320,20 +13320,20 @@
       </c>
       <c r="L162" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M162" t="n">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="N162" t="n">
-        <v>10000</v>
+        <v>14000</v>
       </c>
       <c r="O162" t="n">
-        <v>10000</v>
+        <v>14000</v>
       </c>
       <c r="P162" t="n">
-        <v>10000</v>
+        <v>14000</v>
       </c>
       <c r="Q162" t="inlineStr">
         <is>
@@ -13346,7 +13346,7 @@
         </is>
       </c>
       <c r="S162" t="n">
-        <v>556</v>
+        <v>778</v>
       </c>
       <c r="T162" t="n">
         <v>18</v>
@@ -13367,68 +13367,228 @@
         </is>
       </c>
       <c r="D163" s="2" t="n">
+        <v>44418</v>
+      </c>
+      <c r="E163" t="n">
+        <v>7</v>
+      </c>
+      <c r="F163" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G163" t="n">
+        <v>100101</v>
+      </c>
+      <c r="H163" t="inlineStr">
+        <is>
+          <t>Berries</t>
+        </is>
+      </c>
+      <c r="I163" t="n">
+        <v>100101007</v>
+      </c>
+      <c r="J163" t="inlineStr">
+        <is>
+          <t>Kiwi</t>
+        </is>
+      </c>
+      <c r="K163" t="inlineStr">
+        <is>
+          <t>Hayward</t>
+        </is>
+      </c>
+      <c r="L163" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="M163" t="n">
+        <v>200</v>
+      </c>
+      <c r="N163" t="n">
+        <v>12000</v>
+      </c>
+      <c r="O163" t="n">
+        <v>12000</v>
+      </c>
+      <c r="P163" t="n">
+        <v>12000</v>
+      </c>
+      <c r="Q163" t="inlineStr">
+        <is>
+          <t>$/bandeja 18 kilos</t>
+        </is>
+      </c>
+      <c r="R163" t="inlineStr">
+        <is>
+          <t>Provincia de Curicó</t>
+        </is>
+      </c>
+      <c r="S163" t="n">
+        <v>667</v>
+      </c>
+      <c r="T163" t="n">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" t="n">
+        <v>5</v>
+      </c>
+      <c r="B164" t="inlineStr">
+        <is>
+          <t>Macroferia Regional de Talca</t>
+        </is>
+      </c>
+      <c r="C164" t="inlineStr">
+        <is>
+          <t>Maule</t>
+        </is>
+      </c>
+      <c r="D164" s="2" t="n">
+        <v>44418</v>
+      </c>
+      <c r="E164" t="n">
+        <v>7</v>
+      </c>
+      <c r="F164" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G164" t="n">
+        <v>100101</v>
+      </c>
+      <c r="H164" t="inlineStr">
+        <is>
+          <t>Berries</t>
+        </is>
+      </c>
+      <c r="I164" t="n">
+        <v>100101007</v>
+      </c>
+      <c r="J164" t="inlineStr">
+        <is>
+          <t>Kiwi</t>
+        </is>
+      </c>
+      <c r="K164" t="inlineStr">
+        <is>
+          <t>Hayward</t>
+        </is>
+      </c>
+      <c r="L164" t="inlineStr">
+        <is>
+          <t>Segunda</t>
+        </is>
+      </c>
+      <c r="M164" t="n">
+        <v>90</v>
+      </c>
+      <c r="N164" t="n">
+        <v>10000</v>
+      </c>
+      <c r="O164" t="n">
+        <v>10000</v>
+      </c>
+      <c r="P164" t="n">
+        <v>10000</v>
+      </c>
+      <c r="Q164" t="inlineStr">
+        <is>
+          <t>$/bandeja 18 kilos</t>
+        </is>
+      </c>
+      <c r="R164" t="inlineStr">
+        <is>
+          <t>Provincia de Curicó</t>
+        </is>
+      </c>
+      <c r="S164" t="n">
+        <v>556</v>
+      </c>
+      <c r="T164" t="n">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" t="n">
+        <v>5</v>
+      </c>
+      <c r="B165" t="inlineStr">
+        <is>
+          <t>Macroferia Regional de Talca</t>
+        </is>
+      </c>
+      <c r="C165" t="inlineStr">
+        <is>
+          <t>Maule</t>
+        </is>
+      </c>
+      <c r="D165" s="2" t="n">
         <v>44432</v>
       </c>
-      <c r="E163" t="n">
-        <v>7</v>
-      </c>
-      <c r="F163" t="inlineStr">
-        <is>
-          <t>Fruta</t>
-        </is>
-      </c>
-      <c r="G163" t="n">
-        <v>100101</v>
-      </c>
-      <c r="H163" t="inlineStr">
-        <is>
-          <t>Berries</t>
-        </is>
-      </c>
-      <c r="I163" t="n">
-        <v>100101007</v>
-      </c>
-      <c r="J163" t="inlineStr">
-        <is>
-          <t>Kiwi</t>
-        </is>
-      </c>
-      <c r="K163" t="inlineStr">
-        <is>
-          <t>Hayward</t>
-        </is>
-      </c>
-      <c r="L163" t="inlineStr">
+      <c r="E165" t="n">
+        <v>7</v>
+      </c>
+      <c r="F165" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G165" t="n">
+        <v>100101</v>
+      </c>
+      <c r="H165" t="inlineStr">
+        <is>
+          <t>Berries</t>
+        </is>
+      </c>
+      <c r="I165" t="n">
+        <v>100101007</v>
+      </c>
+      <c r="J165" t="inlineStr">
+        <is>
+          <t>Kiwi</t>
+        </is>
+      </c>
+      <c r="K165" t="inlineStr">
+        <is>
+          <t>Hayward</t>
+        </is>
+      </c>
+      <c r="L165" t="inlineStr">
         <is>
           <t>Especial</t>
         </is>
       </c>
-      <c r="M163" t="n">
+      <c r="M165" t="n">
         <v>210</v>
       </c>
-      <c r="N163" t="n">
+      <c r="N165" t="n">
         <v>14000</v>
       </c>
-      <c r="O163" t="n">
+      <c r="O165" t="n">
         <v>14000</v>
       </c>
-      <c r="P163" t="n">
+      <c r="P165" t="n">
         <v>14000</v>
       </c>
-      <c r="Q163" t="inlineStr">
+      <c r="Q165" t="inlineStr">
         <is>
           <t>$/caja 18 kilos</t>
         </is>
       </c>
-      <c r="R163" t="inlineStr">
-        <is>
-          <t>Provincia de Curicó</t>
-        </is>
-      </c>
-      <c r="S163" t="n">
+      <c r="R165" t="inlineStr">
+        <is>
+          <t>Provincia de Curicó</t>
+        </is>
+      </c>
+      <c r="S165" t="n">
         <v>778</v>
       </c>
-      <c r="T163" t="n">
+      <c r="T165" t="n">
         <v>18</v>
       </c>
     </row>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Macroferia Regional de Talca - Kiwi.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Macroferia Regional de Talca - Kiwi.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T165"/>
+  <dimension ref="A1:T174"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -487,7 +487,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44285</v>
+        <v>44357</v>
       </c>
       <c r="E2" t="n">
         <v>7</v>
@@ -520,36 +520,36 @@
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M2" t="n">
-        <v>300</v>
+        <v>130</v>
       </c>
       <c r="N2" t="n">
-        <v>9000</v>
+        <v>13000</v>
       </c>
       <c r="O2" t="n">
-        <v>9000</v>
+        <v>13000</v>
       </c>
       <c r="P2" t="n">
-        <v>9000</v>
+        <v>13000</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="R2" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S2" t="n">
-        <v>900</v>
+        <v>722</v>
       </c>
       <c r="T2" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
     </row>
     <row r="3">
@@ -567,7 +567,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44285</v>
+        <v>44357</v>
       </c>
       <c r="E3" t="n">
         <v>7</v>
@@ -600,36 +600,36 @@
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M3" t="n">
-        <v>150</v>
+        <v>190</v>
       </c>
       <c r="N3" t="n">
-        <v>7000</v>
+        <v>11000</v>
       </c>
       <c r="O3" t="n">
-        <v>7000</v>
+        <v>11000</v>
       </c>
       <c r="P3" t="n">
-        <v>7000</v>
+        <v>11000</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="R3" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S3" t="n">
-        <v>700</v>
+        <v>611</v>
       </c>
       <c r="T3" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
     </row>
     <row r="4">
@@ -647,7 +647,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44348</v>
+        <v>44377</v>
       </c>
       <c r="E4" t="n">
         <v>7</v>
@@ -684,7 +684,7 @@
         </is>
       </c>
       <c r="M4" t="n">
-        <v>230</v>
+        <v>150</v>
       </c>
       <c r="N4" t="n">
         <v>10000</v>
@@ -727,7 +727,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44348</v>
+        <v>44377</v>
       </c>
       <c r="E5" t="n">
         <v>7</v>
@@ -760,24 +760,24 @@
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M5" t="n">
-        <v>190</v>
+        <v>210</v>
       </c>
       <c r="N5" t="n">
-        <v>8000</v>
+        <v>6000</v>
       </c>
       <c r="O5" t="n">
-        <v>8000</v>
+        <v>6000</v>
       </c>
       <c r="P5" t="n">
-        <v>8000</v>
+        <v>6000</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="R5" t="inlineStr">
@@ -786,10 +786,10 @@
         </is>
       </c>
       <c r="S5" t="n">
-        <v>444</v>
+        <v>600</v>
       </c>
       <c r="T5" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="6">
@@ -807,7 +807,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>44365</v>
+        <v>44377</v>
       </c>
       <c r="E6" t="n">
         <v>7</v>
@@ -840,20 +840,20 @@
       </c>
       <c r="L6" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="M6" t="n">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="N6" t="n">
-        <v>11000</v>
+        <v>6000</v>
       </c>
       <c r="O6" t="n">
-        <v>11000</v>
+        <v>6000</v>
       </c>
       <c r="P6" t="n">
-        <v>11000</v>
+        <v>6000</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
@@ -866,7 +866,7 @@
         </is>
       </c>
       <c r="S6" t="n">
-        <v>611</v>
+        <v>333</v>
       </c>
       <c r="T6" t="n">
         <v>18</v>
@@ -887,7 +887,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>44365</v>
+        <v>44350</v>
       </c>
       <c r="E7" t="n">
         <v>7</v>
@@ -920,33 +920,33 @@
       </c>
       <c r="L7" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M7" t="n">
-        <v>200</v>
+        <v>130</v>
       </c>
       <c r="N7" t="n">
-        <v>9000</v>
+        <v>11000</v>
       </c>
       <c r="O7" t="n">
-        <v>9000</v>
+        <v>11000</v>
       </c>
       <c r="P7" t="n">
-        <v>9000</v>
+        <v>11000</v>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 18 kilos granel</t>
         </is>
       </c>
       <c r="R7" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S7" t="n">
-        <v>500</v>
+        <v>611</v>
       </c>
       <c r="T7" t="n">
         <v>18</v>
@@ -967,7 +967,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>44365</v>
+        <v>44350</v>
       </c>
       <c r="E8" t="n">
         <v>7</v>
@@ -1000,24 +1000,24 @@
       </c>
       <c r="L8" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M8" t="n">
-        <v>150</v>
+        <v>360</v>
       </c>
       <c r="N8" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="O8" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="P8" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 18 kilos granel</t>
         </is>
       </c>
       <c r="R8" t="inlineStr">
@@ -1026,7 +1026,7 @@
         </is>
       </c>
       <c r="S8" t="n">
-        <v>389</v>
+        <v>500</v>
       </c>
       <c r="T8" t="n">
         <v>18</v>
@@ -1047,7 +1047,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>44372</v>
+        <v>44350</v>
       </c>
       <c r="E9" t="n">
         <v>7</v>
@@ -1080,33 +1080,33 @@
       </c>
       <c r="L9" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M9" t="n">
-        <v>130</v>
+        <v>100</v>
       </c>
       <c r="N9" t="n">
-        <v>11000</v>
+        <v>9000</v>
       </c>
       <c r="O9" t="n">
-        <v>11000</v>
+        <v>9000</v>
       </c>
       <c r="P9" t="n">
-        <v>11000</v>
+        <v>9000</v>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 18 kilos granel</t>
         </is>
       </c>
       <c r="R9" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S9" t="n">
-        <v>611</v>
+        <v>500</v>
       </c>
       <c r="T9" t="n">
         <v>18</v>
@@ -1127,7 +1127,7 @@
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>44372</v>
+        <v>44350</v>
       </c>
       <c r="E10" t="n">
         <v>7</v>
@@ -1160,20 +1160,20 @@
       </c>
       <c r="L10" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M10" t="n">
-        <v>120</v>
+        <v>210</v>
       </c>
       <c r="N10" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="O10" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="P10" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
@@ -1186,7 +1186,7 @@
         </is>
       </c>
       <c r="S10" t="n">
-        <v>500</v>
+        <v>389</v>
       </c>
       <c r="T10" t="n">
         <v>18</v>
@@ -1207,7 +1207,7 @@
         </is>
       </c>
       <c r="D11" s="2" t="n">
-        <v>44372</v>
+        <v>44350</v>
       </c>
       <c r="E11" t="n">
         <v>7</v>
@@ -1244,7 +1244,7 @@
         </is>
       </c>
       <c r="M11" t="n">
-        <v>100</v>
+        <v>150</v>
       </c>
       <c r="N11" t="n">
         <v>7000</v>
@@ -1257,12 +1257,12 @@
       </c>
       <c r="Q11" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 18 kilos granel</t>
         </is>
       </c>
       <c r="R11" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S11" t="n">
@@ -1287,7 +1287,7 @@
         </is>
       </c>
       <c r="D12" s="2" t="n">
-        <v>44263</v>
+        <v>44356</v>
       </c>
       <c r="E12" t="n">
         <v>7</v>
@@ -1320,11 +1320,11 @@
       </c>
       <c r="L12" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M12" t="n">
-        <v>180</v>
+        <v>200</v>
       </c>
       <c r="N12" t="n">
         <v>12000</v>
@@ -1337,19 +1337,19 @@
       </c>
       <c r="Q12" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="R12" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S12" t="n">
-        <v>1200</v>
+        <v>667</v>
       </c>
       <c r="T12" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
     </row>
     <row r="13">
@@ -1367,7 +1367,7 @@
         </is>
       </c>
       <c r="D13" s="2" t="n">
-        <v>44357</v>
+        <v>44356</v>
       </c>
       <c r="E13" t="n">
         <v>7</v>
@@ -1400,20 +1400,20 @@
       </c>
       <c r="L13" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M13" t="n">
-        <v>130</v>
+        <v>140</v>
       </c>
       <c r="N13" t="n">
-        <v>13000</v>
+        <v>10000</v>
       </c>
       <c r="O13" t="n">
-        <v>13000</v>
+        <v>10000</v>
       </c>
       <c r="P13" t="n">
-        <v>13000</v>
+        <v>10000</v>
       </c>
       <c r="Q13" t="inlineStr">
         <is>
@@ -1426,7 +1426,7 @@
         </is>
       </c>
       <c r="S13" t="n">
-        <v>722</v>
+        <v>556</v>
       </c>
       <c r="T13" t="n">
         <v>18</v>
@@ -1447,7 +1447,7 @@
         </is>
       </c>
       <c r="D14" s="2" t="n">
-        <v>44357</v>
+        <v>44356</v>
       </c>
       <c r="E14" t="n">
         <v>7</v>
@@ -1480,20 +1480,20 @@
       </c>
       <c r="L14" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M14" t="n">
-        <v>190</v>
+        <v>80</v>
       </c>
       <c r="N14" t="n">
-        <v>11000</v>
+        <v>8000</v>
       </c>
       <c r="O14" t="n">
-        <v>11000</v>
+        <v>8000</v>
       </c>
       <c r="P14" t="n">
-        <v>11000</v>
+        <v>8000</v>
       </c>
       <c r="Q14" t="inlineStr">
         <is>
@@ -1506,7 +1506,7 @@
         </is>
       </c>
       <c r="S14" t="n">
-        <v>611</v>
+        <v>444</v>
       </c>
       <c r="T14" t="n">
         <v>18</v>
@@ -1527,7 +1527,7 @@
         </is>
       </c>
       <c r="D15" s="2" t="n">
-        <v>44266</v>
+        <v>44326</v>
       </c>
       <c r="E15" t="n">
         <v>7</v>
@@ -1560,20 +1560,20 @@
       </c>
       <c r="L15" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M15" t="n">
-        <v>210</v>
+        <v>130</v>
       </c>
       <c r="N15" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="O15" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="P15" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="Q15" t="inlineStr">
         <is>
@@ -1586,7 +1586,7 @@
         </is>
       </c>
       <c r="S15" t="n">
-        <v>667</v>
+        <v>778</v>
       </c>
       <c r="T15" t="n">
         <v>18</v>
@@ -1607,7 +1607,7 @@
         </is>
       </c>
       <c r="D16" s="2" t="n">
-        <v>44341</v>
+        <v>44326</v>
       </c>
       <c r="E16" t="n">
         <v>7</v>
@@ -1640,20 +1640,20 @@
       </c>
       <c r="L16" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M16" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="N16" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="O16" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="P16" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="Q16" t="inlineStr">
         <is>
@@ -1666,7 +1666,7 @@
         </is>
       </c>
       <c r="S16" t="n">
-        <v>556</v>
+        <v>667</v>
       </c>
       <c r="T16" t="n">
         <v>18</v>
@@ -1687,7 +1687,7 @@
         </is>
       </c>
       <c r="D17" s="2" t="n">
-        <v>44341</v>
+        <v>44349</v>
       </c>
       <c r="E17" t="n">
         <v>7</v>
@@ -1720,20 +1720,20 @@
       </c>
       <c r="L17" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M17" t="n">
-        <v>210</v>
+        <v>180</v>
       </c>
       <c r="N17" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="O17" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="P17" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="Q17" t="inlineStr">
         <is>
@@ -1746,7 +1746,7 @@
         </is>
       </c>
       <c r="S17" t="n">
-        <v>500</v>
+        <v>556</v>
       </c>
       <c r="T17" t="n">
         <v>18</v>
@@ -1767,7 +1767,7 @@
         </is>
       </c>
       <c r="D18" s="2" t="n">
-        <v>44397</v>
+        <v>44349</v>
       </c>
       <c r="E18" t="n">
         <v>7</v>
@@ -1800,20 +1800,20 @@
       </c>
       <c r="L18" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M18" t="n">
-        <v>190</v>
+        <v>230</v>
       </c>
       <c r="N18" t="n">
-        <v>14000</v>
+        <v>8000</v>
       </c>
       <c r="O18" t="n">
-        <v>14000</v>
+        <v>8000</v>
       </c>
       <c r="P18" t="n">
-        <v>14000</v>
+        <v>8000</v>
       </c>
       <c r="Q18" t="inlineStr">
         <is>
@@ -1826,7 +1826,7 @@
         </is>
       </c>
       <c r="S18" t="n">
-        <v>778</v>
+        <v>444</v>
       </c>
       <c r="T18" t="n">
         <v>18</v>
@@ -1847,7 +1847,7 @@
         </is>
       </c>
       <c r="D19" s="2" t="n">
-        <v>44397</v>
+        <v>44327</v>
       </c>
       <c r="E19" t="n">
         <v>7</v>
@@ -1880,36 +1880,36 @@
       </c>
       <c r="L19" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M19" t="n">
-        <v>150</v>
+        <v>300</v>
       </c>
       <c r="N19" t="n">
-        <v>13000</v>
+        <v>9000</v>
       </c>
       <c r="O19" t="n">
-        <v>13000</v>
+        <v>9000</v>
       </c>
       <c r="P19" t="n">
-        <v>13000</v>
+        <v>9000</v>
       </c>
       <c r="Q19" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="R19" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S19" t="n">
-        <v>722</v>
+        <v>900</v>
       </c>
       <c r="T19" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="20">
@@ -1927,7 +1927,7 @@
         </is>
       </c>
       <c r="D20" s="2" t="n">
-        <v>44397</v>
+        <v>44280</v>
       </c>
       <c r="E20" t="n">
         <v>7</v>
@@ -1964,20 +1964,20 @@
         </is>
       </c>
       <c r="M20" t="n">
-        <v>480</v>
+        <v>100</v>
       </c>
       <c r="N20" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="O20" t="n">
         <v>10000</v>
       </c>
       <c r="P20" t="n">
-        <v>9479</v>
+        <v>10000</v>
       </c>
       <c r="Q20" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="R20" t="inlineStr">
@@ -1986,10 +1986,10 @@
         </is>
       </c>
       <c r="S20" t="n">
-        <v>527</v>
+        <v>1000</v>
       </c>
       <c r="T20" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="21">
@@ -2007,7 +2007,7 @@
         </is>
       </c>
       <c r="D21" s="2" t="n">
-        <v>44386</v>
+        <v>44280</v>
       </c>
       <c r="E21" t="n">
         <v>7</v>
@@ -2040,20 +2040,20 @@
       </c>
       <c r="L21" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M21" t="n">
-        <v>300</v>
+        <v>60</v>
       </c>
       <c r="N21" t="n">
-        <v>6000</v>
+        <v>8000</v>
       </c>
       <c r="O21" t="n">
-        <v>6000</v>
+        <v>8000</v>
       </c>
       <c r="P21" t="n">
-        <v>6000</v>
+        <v>8000</v>
       </c>
       <c r="Q21" t="inlineStr">
         <is>
@@ -2066,7 +2066,7 @@
         </is>
       </c>
       <c r="S21" t="n">
-        <v>600</v>
+        <v>800</v>
       </c>
       <c r="T21" t="n">
         <v>10</v>
@@ -2087,7 +2087,7 @@
         </is>
       </c>
       <c r="D22" s="2" t="n">
-        <v>44425</v>
+        <v>44383</v>
       </c>
       <c r="E22" t="n">
         <v>7</v>
@@ -2120,20 +2120,20 @@
       </c>
       <c r="L22" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M22" t="n">
-        <v>300</v>
+        <v>210</v>
       </c>
       <c r="N22" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="O22" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="P22" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="Q22" t="inlineStr">
         <is>
@@ -2146,7 +2146,7 @@
         </is>
       </c>
       <c r="S22" t="n">
-        <v>444</v>
+        <v>500</v>
       </c>
       <c r="T22" t="n">
         <v>18</v>
@@ -2167,7 +2167,7 @@
         </is>
       </c>
       <c r="D23" s="2" t="n">
-        <v>44392</v>
+        <v>44383</v>
       </c>
       <c r="E23" t="n">
         <v>7</v>
@@ -2200,24 +2200,24 @@
       </c>
       <c r="L23" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M23" t="n">
-        <v>200</v>
+        <v>260</v>
       </c>
       <c r="N23" t="n">
-        <v>11000</v>
+        <v>6000</v>
       </c>
       <c r="O23" t="n">
-        <v>11000</v>
+        <v>6000</v>
       </c>
       <c r="P23" t="n">
-        <v>11000</v>
+        <v>6000</v>
       </c>
       <c r="Q23" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="R23" t="inlineStr">
@@ -2226,10 +2226,10 @@
         </is>
       </c>
       <c r="S23" t="n">
-        <v>611</v>
+        <v>600</v>
       </c>
       <c r="T23" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="24">
@@ -2247,7 +2247,7 @@
         </is>
       </c>
       <c r="D24" s="2" t="n">
-        <v>44392</v>
+        <v>44364</v>
       </c>
       <c r="E24" t="n">
         <v>7</v>
@@ -2280,20 +2280,20 @@
       </c>
       <c r="L24" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M24" t="n">
-        <v>400</v>
+        <v>160</v>
       </c>
       <c r="N24" t="n">
-        <v>9000</v>
+        <v>12000</v>
       </c>
       <c r="O24" t="n">
-        <v>9000</v>
+        <v>12000</v>
       </c>
       <c r="P24" t="n">
-        <v>9000</v>
+        <v>12000</v>
       </c>
       <c r="Q24" t="inlineStr">
         <is>
@@ -2306,7 +2306,7 @@
         </is>
       </c>
       <c r="S24" t="n">
-        <v>500</v>
+        <v>667</v>
       </c>
       <c r="T24" t="n">
         <v>18</v>
@@ -2327,7 +2327,7 @@
         </is>
       </c>
       <c r="D25" s="2" t="n">
-        <v>44329</v>
+        <v>44364</v>
       </c>
       <c r="E25" t="n">
         <v>7</v>
@@ -2364,20 +2364,20 @@
         </is>
       </c>
       <c r="M25" t="n">
-        <v>300</v>
+        <v>240</v>
       </c>
       <c r="N25" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="O25" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="P25" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="Q25" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="R25" t="inlineStr">
@@ -2386,10 +2386,10 @@
         </is>
       </c>
       <c r="S25" t="n">
-        <v>800</v>
+        <v>556</v>
       </c>
       <c r="T25" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
     </row>
     <row r="26">
@@ -2407,7 +2407,7 @@
         </is>
       </c>
       <c r="D26" s="2" t="n">
-        <v>44322</v>
+        <v>44364</v>
       </c>
       <c r="E26" t="n">
         <v>7</v>
@@ -2440,24 +2440,24 @@
       </c>
       <c r="L26" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M26" t="n">
-        <v>210</v>
+        <v>80</v>
       </c>
       <c r="N26" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="O26" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="P26" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="Q26" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="R26" t="inlineStr">
@@ -2466,10 +2466,10 @@
         </is>
       </c>
       <c r="S26" t="n">
-        <v>1000</v>
+        <v>444</v>
       </c>
       <c r="T26" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
     </row>
     <row r="27">
@@ -2487,7 +2487,7 @@
         </is>
       </c>
       <c r="D27" s="2" t="n">
-        <v>44407</v>
+        <v>44336</v>
       </c>
       <c r="E27" t="n">
         <v>7</v>
@@ -2520,24 +2520,24 @@
       </c>
       <c r="L27" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M27" t="n">
-        <v>60</v>
+        <v>250</v>
       </c>
       <c r="N27" t="n">
-        <v>13000</v>
+        <v>8000</v>
       </c>
       <c r="O27" t="n">
-        <v>13000</v>
+        <v>8000</v>
       </c>
       <c r="P27" t="n">
-        <v>13000</v>
+        <v>8000</v>
       </c>
       <c r="Q27" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="R27" t="inlineStr">
@@ -2546,10 +2546,10 @@
         </is>
       </c>
       <c r="S27" t="n">
-        <v>722</v>
+        <v>800</v>
       </c>
       <c r="T27" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="28">
@@ -2567,7 +2567,7 @@
         </is>
       </c>
       <c r="D28" s="2" t="n">
-        <v>44407</v>
+        <v>44389</v>
       </c>
       <c r="E28" t="n">
         <v>7</v>
@@ -2604,20 +2604,20 @@
         </is>
       </c>
       <c r="M28" t="n">
-        <v>150</v>
+        <v>300</v>
       </c>
       <c r="N28" t="n">
-        <v>10000</v>
+        <v>6000</v>
       </c>
       <c r="O28" t="n">
-        <v>10000</v>
+        <v>6000</v>
       </c>
       <c r="P28" t="n">
-        <v>10000</v>
+        <v>6000</v>
       </c>
       <c r="Q28" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="R28" t="inlineStr">
@@ -2626,10 +2626,10 @@
         </is>
       </c>
       <c r="S28" t="n">
-        <v>556</v>
+        <v>600</v>
       </c>
       <c r="T28" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="29">
@@ -2647,7 +2647,7 @@
         </is>
       </c>
       <c r="D29" s="2" t="n">
-        <v>44407</v>
+        <v>44382</v>
       </c>
       <c r="E29" t="n">
         <v>7</v>
@@ -2680,20 +2680,20 @@
       </c>
       <c r="L29" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M29" t="n">
-        <v>100</v>
+        <v>150</v>
       </c>
       <c r="N29" t="n">
-        <v>8000</v>
+        <v>12000</v>
       </c>
       <c r="O29" t="n">
-        <v>8000</v>
+        <v>12000</v>
       </c>
       <c r="P29" t="n">
-        <v>8000</v>
+        <v>12000</v>
       </c>
       <c r="Q29" t="inlineStr">
         <is>
@@ -2706,7 +2706,7 @@
         </is>
       </c>
       <c r="S29" t="n">
-        <v>444</v>
+        <v>667</v>
       </c>
       <c r="T29" t="n">
         <v>18</v>
@@ -2727,7 +2727,7 @@
         </is>
       </c>
       <c r="D30" s="2" t="n">
-        <v>44414</v>
+        <v>44382</v>
       </c>
       <c r="E30" t="n">
         <v>7</v>
@@ -2764,20 +2764,20 @@
         </is>
       </c>
       <c r="M30" t="n">
-        <v>150</v>
+        <v>200</v>
       </c>
       <c r="N30" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="O30" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="P30" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="Q30" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="R30" t="inlineStr">
@@ -2786,10 +2786,10 @@
         </is>
       </c>
       <c r="S30" t="n">
-        <v>800</v>
+        <v>556</v>
       </c>
       <c r="T30" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
     </row>
     <row r="31">
@@ -2807,7 +2807,7 @@
         </is>
       </c>
       <c r="D31" s="2" t="n">
-        <v>44414</v>
+        <v>44306</v>
       </c>
       <c r="E31" t="n">
         <v>7</v>
@@ -2840,24 +2840,24 @@
       </c>
       <c r="L31" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M31" t="n">
-        <v>190</v>
+        <v>230</v>
       </c>
       <c r="N31" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="O31" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="P31" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="Q31" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R31" t="inlineStr">
@@ -2866,10 +2866,10 @@
         </is>
       </c>
       <c r="S31" t="n">
-        <v>667</v>
+        <v>1000</v>
       </c>
       <c r="T31" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="32">
@@ -2887,7 +2887,7 @@
         </is>
       </c>
       <c r="D32" s="2" t="n">
-        <v>44414</v>
+        <v>44306</v>
       </c>
       <c r="E32" t="n">
         <v>7</v>
@@ -2920,20 +2920,20 @@
       </c>
       <c r="L32" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M32" t="n">
-        <v>100</v>
+        <v>180</v>
       </c>
       <c r="N32" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="O32" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="P32" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="Q32" t="inlineStr">
         <is>
@@ -2946,7 +2946,7 @@
         </is>
       </c>
       <c r="S32" t="n">
-        <v>556</v>
+        <v>722</v>
       </c>
       <c r="T32" t="n">
         <v>18</v>
@@ -2967,7 +2967,7 @@
         </is>
       </c>
       <c r="D33" s="2" t="n">
-        <v>44308</v>
+        <v>44306</v>
       </c>
       <c r="E33" t="n">
         <v>7</v>
@@ -3000,24 +3000,24 @@
       </c>
       <c r="L33" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M33" t="n">
-        <v>100</v>
+        <v>230</v>
       </c>
       <c r="N33" t="n">
-        <v>14000</v>
+        <v>8000</v>
       </c>
       <c r="O33" t="n">
-        <v>14000</v>
+        <v>8000</v>
       </c>
       <c r="P33" t="n">
-        <v>14000</v>
+        <v>8000</v>
       </c>
       <c r="Q33" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R33" t="inlineStr">
@@ -3026,10 +3026,10 @@
         </is>
       </c>
       <c r="S33" t="n">
-        <v>778</v>
+        <v>800</v>
       </c>
       <c r="T33" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="34">
@@ -3047,7 +3047,7 @@
         </is>
       </c>
       <c r="D34" s="2" t="n">
-        <v>44403</v>
+        <v>44285</v>
       </c>
       <c r="E34" t="n">
         <v>7</v>
@@ -3084,32 +3084,32 @@
         </is>
       </c>
       <c r="M34" t="n">
-        <v>350</v>
+        <v>300</v>
       </c>
       <c r="N34" t="n">
         <v>9000</v>
       </c>
       <c r="O34" t="n">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="P34" t="n">
-        <v>9429</v>
+        <v>9000</v>
       </c>
       <c r="Q34" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R34" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="S34" t="n">
-        <v>524</v>
+        <v>900</v>
       </c>
       <c r="T34" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="35">
@@ -3127,7 +3127,7 @@
         </is>
       </c>
       <c r="D35" s="2" t="n">
-        <v>44403</v>
+        <v>44285</v>
       </c>
       <c r="E35" t="n">
         <v>7</v>
@@ -3164,32 +3164,32 @@
         </is>
       </c>
       <c r="M35" t="n">
-        <v>250</v>
+        <v>150</v>
       </c>
       <c r="N35" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="O35" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="P35" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="Q35" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R35" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="S35" t="n">
-        <v>444</v>
+        <v>700</v>
       </c>
       <c r="T35" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="36">
@@ -3207,7 +3207,7 @@
         </is>
       </c>
       <c r="D36" s="2" t="n">
-        <v>44379</v>
+        <v>44390</v>
       </c>
       <c r="E36" t="n">
         <v>7</v>
@@ -3240,20 +3240,20 @@
       </c>
       <c r="L36" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M36" t="n">
-        <v>200</v>
+        <v>250</v>
       </c>
       <c r="N36" t="n">
-        <v>12000</v>
+        <v>9000</v>
       </c>
       <c r="O36" t="n">
-        <v>12000</v>
+        <v>9000</v>
       </c>
       <c r="P36" t="n">
-        <v>12000</v>
+        <v>9000</v>
       </c>
       <c r="Q36" t="inlineStr">
         <is>
@@ -3266,7 +3266,7 @@
         </is>
       </c>
       <c r="S36" t="n">
-        <v>667</v>
+        <v>500</v>
       </c>
       <c r="T36" t="n">
         <v>18</v>
@@ -3287,7 +3287,7 @@
         </is>
       </c>
       <c r="D37" s="2" t="n">
-        <v>44379</v>
+        <v>44445</v>
       </c>
       <c r="E37" t="n">
         <v>7</v>
@@ -3324,16 +3324,16 @@
         </is>
       </c>
       <c r="M37" t="n">
-        <v>160</v>
+        <v>200</v>
       </c>
       <c r="N37" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="O37" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="P37" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="Q37" t="inlineStr">
         <is>
@@ -3346,7 +3346,7 @@
         </is>
       </c>
       <c r="S37" t="n">
-        <v>556</v>
+        <v>667</v>
       </c>
       <c r="T37" t="n">
         <v>18</v>
@@ -3367,7 +3367,7 @@
         </is>
       </c>
       <c r="D38" s="2" t="n">
-        <v>44306</v>
+        <v>44425</v>
       </c>
       <c r="E38" t="n">
         <v>7</v>
@@ -3400,24 +3400,24 @@
       </c>
       <c r="L38" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M38" t="n">
-        <v>230</v>
+        <v>300</v>
       </c>
       <c r="N38" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="O38" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="P38" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="Q38" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="R38" t="inlineStr">
@@ -3426,10 +3426,10 @@
         </is>
       </c>
       <c r="S38" t="n">
-        <v>1000</v>
+        <v>444</v>
       </c>
       <c r="T38" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
     </row>
     <row r="39">
@@ -3447,7 +3447,7 @@
         </is>
       </c>
       <c r="D39" s="2" t="n">
-        <v>44306</v>
+        <v>44386</v>
       </c>
       <c r="E39" t="n">
         <v>7</v>
@@ -3480,24 +3480,24 @@
       </c>
       <c r="L39" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M39" t="n">
-        <v>180</v>
+        <v>300</v>
       </c>
       <c r="N39" t="n">
-        <v>13000</v>
+        <v>6000</v>
       </c>
       <c r="O39" t="n">
-        <v>13000</v>
+        <v>6000</v>
       </c>
       <c r="P39" t="n">
-        <v>13000</v>
+        <v>6000</v>
       </c>
       <c r="Q39" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="R39" t="inlineStr">
@@ -3506,10 +3506,10 @@
         </is>
       </c>
       <c r="S39" t="n">
-        <v>722</v>
+        <v>600</v>
       </c>
       <c r="T39" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="40">
@@ -3527,7 +3527,7 @@
         </is>
       </c>
       <c r="D40" s="2" t="n">
-        <v>44306</v>
+        <v>44403</v>
       </c>
       <c r="E40" t="n">
         <v>7</v>
@@ -3564,20 +3564,20 @@
         </is>
       </c>
       <c r="M40" t="n">
-        <v>230</v>
+        <v>350</v>
       </c>
       <c r="N40" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="O40" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="P40" t="n">
-        <v>8000</v>
+        <v>9429</v>
       </c>
       <c r="Q40" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="R40" t="inlineStr">
@@ -3586,10 +3586,10 @@
         </is>
       </c>
       <c r="S40" t="n">
-        <v>800</v>
+        <v>524</v>
       </c>
       <c r="T40" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
     </row>
     <row r="41">
@@ -3607,7 +3607,7 @@
         </is>
       </c>
       <c r="D41" s="2" t="n">
-        <v>44356</v>
+        <v>44403</v>
       </c>
       <c r="E41" t="n">
         <v>7</v>
@@ -3640,20 +3640,20 @@
       </c>
       <c r="L41" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M41" t="n">
-        <v>200</v>
+        <v>250</v>
       </c>
       <c r="N41" t="n">
-        <v>12000</v>
+        <v>8000</v>
       </c>
       <c r="O41" t="n">
-        <v>12000</v>
+        <v>8000</v>
       </c>
       <c r="P41" t="n">
-        <v>12000</v>
+        <v>8000</v>
       </c>
       <c r="Q41" t="inlineStr">
         <is>
@@ -3666,7 +3666,7 @@
         </is>
       </c>
       <c r="S41" t="n">
-        <v>667</v>
+        <v>444</v>
       </c>
       <c r="T41" t="n">
         <v>18</v>
@@ -3687,7 +3687,7 @@
         </is>
       </c>
       <c r="D42" s="2" t="n">
-        <v>44356</v>
+        <v>44266</v>
       </c>
       <c r="E42" t="n">
         <v>7</v>
@@ -3724,16 +3724,16 @@
         </is>
       </c>
       <c r="M42" t="n">
-        <v>140</v>
+        <v>210</v>
       </c>
       <c r="N42" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="O42" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="P42" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="Q42" t="inlineStr">
         <is>
@@ -3746,7 +3746,7 @@
         </is>
       </c>
       <c r="S42" t="n">
-        <v>556</v>
+        <v>667</v>
       </c>
       <c r="T42" t="n">
         <v>18</v>
@@ -3767,7 +3767,7 @@
         </is>
       </c>
       <c r="D43" s="2" t="n">
-        <v>44356</v>
+        <v>44354</v>
       </c>
       <c r="E43" t="n">
         <v>7</v>
@@ -3800,20 +3800,20 @@
       </c>
       <c r="L43" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M43" t="n">
-        <v>80</v>
+        <v>180</v>
       </c>
       <c r="N43" t="n">
-        <v>8000</v>
+        <v>12000</v>
       </c>
       <c r="O43" t="n">
-        <v>8000</v>
+        <v>12000</v>
       </c>
       <c r="P43" t="n">
-        <v>8000</v>
+        <v>12000</v>
       </c>
       <c r="Q43" t="inlineStr">
         <is>
@@ -3822,11 +3822,11 @@
       </c>
       <c r="R43" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S43" t="n">
-        <v>444</v>
+        <v>667</v>
       </c>
       <c r="T43" t="n">
         <v>18</v>
@@ -3847,7 +3847,7 @@
         </is>
       </c>
       <c r="D44" s="2" t="n">
-        <v>44434</v>
+        <v>44354</v>
       </c>
       <c r="E44" t="n">
         <v>7</v>
@@ -3880,20 +3880,20 @@
       </c>
       <c r="L44" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M44" t="n">
-        <v>230</v>
+        <v>100</v>
       </c>
       <c r="N44" t="n">
-        <v>14000</v>
+        <v>10000</v>
       </c>
       <c r="O44" t="n">
-        <v>14000</v>
+        <v>10000</v>
       </c>
       <c r="P44" t="n">
-        <v>14000</v>
+        <v>10000</v>
       </c>
       <c r="Q44" t="inlineStr">
         <is>
@@ -3902,11 +3902,11 @@
       </c>
       <c r="R44" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S44" t="n">
-        <v>778</v>
+        <v>556</v>
       </c>
       <c r="T44" t="n">
         <v>18</v>
@@ -3927,7 +3927,7 @@
         </is>
       </c>
       <c r="D45" s="2" t="n">
-        <v>44434</v>
+        <v>44333</v>
       </c>
       <c r="E45" t="n">
         <v>7</v>
@@ -3964,32 +3964,32 @@
         </is>
       </c>
       <c r="M45" t="n">
-        <v>160</v>
+        <v>150</v>
       </c>
       <c r="N45" t="n">
-        <v>8000</v>
+        <v>12000</v>
       </c>
       <c r="O45" t="n">
-        <v>8000</v>
+        <v>12000</v>
       </c>
       <c r="P45" t="n">
-        <v>8000</v>
+        <v>12000</v>
       </c>
       <c r="Q45" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="R45" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="S45" t="n">
-        <v>800</v>
+        <v>667</v>
       </c>
       <c r="T45" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
     </row>
     <row r="46">
@@ -4007,7 +4007,7 @@
         </is>
       </c>
       <c r="D46" s="2" t="n">
-        <v>44434</v>
+        <v>44333</v>
       </c>
       <c r="E46" t="n">
         <v>7</v>
@@ -4044,16 +4044,16 @@
         </is>
       </c>
       <c r="M46" t="n">
-        <v>150</v>
+        <v>100</v>
       </c>
       <c r="N46" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="O46" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="P46" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="Q46" t="inlineStr">
         <is>
@@ -4062,11 +4062,11 @@
       </c>
       <c r="R46" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="S46" t="n">
-        <v>667</v>
+        <v>556</v>
       </c>
       <c r="T46" t="n">
         <v>18</v>
@@ -4087,7 +4087,7 @@
         </is>
       </c>
       <c r="D47" s="2" t="n">
-        <v>44434</v>
+        <v>44323</v>
       </c>
       <c r="E47" t="n">
         <v>7</v>
@@ -4120,24 +4120,24 @@
       </c>
       <c r="L47" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M47" t="n">
-        <v>230</v>
+        <v>150</v>
       </c>
       <c r="N47" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="O47" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="P47" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="Q47" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R47" t="inlineStr">
@@ -4146,7 +4146,7 @@
         </is>
       </c>
       <c r="S47" t="n">
-        <v>700</v>
+        <v>1000</v>
       </c>
       <c r="T47" t="n">
         <v>10</v>
@@ -4167,7 +4167,7 @@
         </is>
       </c>
       <c r="D48" s="2" t="n">
-        <v>44434</v>
+        <v>44323</v>
       </c>
       <c r="E48" t="n">
         <v>7</v>
@@ -4200,24 +4200,24 @@
       </c>
       <c r="L48" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M48" t="n">
-        <v>120</v>
+        <v>100</v>
       </c>
       <c r="N48" t="n">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="O48" t="n">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="P48" t="n">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="Q48" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R48" t="inlineStr">
@@ -4226,10 +4226,10 @@
         </is>
       </c>
       <c r="S48" t="n">
-        <v>556</v>
+        <v>900</v>
       </c>
       <c r="T48" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="49">
@@ -4247,7 +4247,7 @@
         </is>
       </c>
       <c r="D49" s="2" t="n">
-        <v>44280</v>
+        <v>44281</v>
       </c>
       <c r="E49" t="n">
         <v>7</v>
@@ -4284,7 +4284,7 @@
         </is>
       </c>
       <c r="M49" t="n">
-        <v>100</v>
+        <v>210</v>
       </c>
       <c r="N49" t="n">
         <v>10000</v>
@@ -4297,7 +4297,7 @@
       </c>
       <c r="Q49" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R49" t="inlineStr">
@@ -4327,7 +4327,7 @@
         </is>
       </c>
       <c r="D50" s="2" t="n">
-        <v>44280</v>
+        <v>44308</v>
       </c>
       <c r="E50" t="n">
         <v>7</v>
@@ -4360,24 +4360,24 @@
       </c>
       <c r="L50" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M50" t="n">
-        <v>60</v>
+        <v>100</v>
       </c>
       <c r="N50" t="n">
-        <v>8000</v>
+        <v>14000</v>
       </c>
       <c r="O50" t="n">
-        <v>8000</v>
+        <v>14000</v>
       </c>
       <c r="P50" t="n">
-        <v>8000</v>
+        <v>14000</v>
       </c>
       <c r="Q50" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="R50" t="inlineStr">
@@ -4386,10 +4386,10 @@
         </is>
       </c>
       <c r="S50" t="n">
-        <v>800</v>
+        <v>778</v>
       </c>
       <c r="T50" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
     </row>
     <row r="51">
@@ -4407,7 +4407,7 @@
         </is>
       </c>
       <c r="D51" s="2" t="n">
-        <v>44299</v>
+        <v>44363</v>
       </c>
       <c r="E51" t="n">
         <v>7</v>
@@ -4444,16 +4444,16 @@
         </is>
       </c>
       <c r="M51" t="n">
-        <v>200</v>
+        <v>280</v>
       </c>
       <c r="N51" t="n">
-        <v>13000</v>
+        <v>10000</v>
       </c>
       <c r="O51" t="n">
-        <v>13000</v>
+        <v>10000</v>
       </c>
       <c r="P51" t="n">
-        <v>13000</v>
+        <v>10000</v>
       </c>
       <c r="Q51" t="inlineStr">
         <is>
@@ -4462,11 +4462,11 @@
       </c>
       <c r="R51" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S51" t="n">
-        <v>722</v>
+        <v>556</v>
       </c>
       <c r="T51" t="n">
         <v>18</v>
@@ -4487,7 +4487,7 @@
         </is>
       </c>
       <c r="D52" s="2" t="n">
-        <v>44428</v>
+        <v>44363</v>
       </c>
       <c r="E52" t="n">
         <v>7</v>
@@ -4520,20 +4520,20 @@
       </c>
       <c r="L52" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M52" t="n">
-        <v>230</v>
+        <v>300</v>
       </c>
       <c r="N52" t="n">
-        <v>14000</v>
+        <v>8000</v>
       </c>
       <c r="O52" t="n">
-        <v>14000</v>
+        <v>8000</v>
       </c>
       <c r="P52" t="n">
-        <v>14000</v>
+        <v>8000</v>
       </c>
       <c r="Q52" t="inlineStr">
         <is>
@@ -4542,11 +4542,11 @@
       </c>
       <c r="R52" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S52" t="n">
-        <v>778</v>
+        <v>444</v>
       </c>
       <c r="T52" t="n">
         <v>18</v>
@@ -4567,7 +4567,7 @@
         </is>
       </c>
       <c r="D53" s="2" t="n">
-        <v>44428</v>
+        <v>44355</v>
       </c>
       <c r="E53" t="n">
         <v>7</v>
@@ -4600,24 +4600,24 @@
       </c>
       <c r="L53" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M53" t="n">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="N53" t="n">
-        <v>12000</v>
+        <v>6000</v>
       </c>
       <c r="O53" t="n">
-        <v>12000</v>
+        <v>6000</v>
       </c>
       <c r="P53" t="n">
-        <v>12000</v>
+        <v>6000</v>
       </c>
       <c r="Q53" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R53" t="inlineStr">
@@ -4626,10 +4626,10 @@
         </is>
       </c>
       <c r="S53" t="n">
-        <v>667</v>
+        <v>600</v>
       </c>
       <c r="T53" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="54">
@@ -4647,7 +4647,7 @@
         </is>
       </c>
       <c r="D54" s="2" t="n">
-        <v>44428</v>
+        <v>44372</v>
       </c>
       <c r="E54" t="n">
         <v>7</v>
@@ -4680,24 +4680,24 @@
       </c>
       <c r="L54" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M54" t="n">
-        <v>120</v>
+        <v>130</v>
       </c>
       <c r="N54" t="n">
-        <v>8000</v>
+        <v>11000</v>
       </c>
       <c r="O54" t="n">
-        <v>8000</v>
+        <v>11000</v>
       </c>
       <c r="P54" t="n">
-        <v>8000</v>
+        <v>11000</v>
       </c>
       <c r="Q54" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="R54" t="inlineStr">
@@ -4706,7 +4706,7 @@
         </is>
       </c>
       <c r="S54" t="n">
-        <v>444</v>
+        <v>611</v>
       </c>
       <c r="T54" t="n">
         <v>18</v>
@@ -4727,7 +4727,7 @@
         </is>
       </c>
       <c r="D55" s="2" t="n">
-        <v>44342</v>
+        <v>44372</v>
       </c>
       <c r="E55" t="n">
         <v>7</v>
@@ -4764,16 +4764,16 @@
         </is>
       </c>
       <c r="M55" t="n">
-        <v>250</v>
+        <v>120</v>
       </c>
       <c r="N55" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="O55" t="n">
         <v>9000</v>
       </c>
       <c r="P55" t="n">
-        <v>8600</v>
+        <v>9000</v>
       </c>
       <c r="Q55" t="inlineStr">
         <is>
@@ -4786,7 +4786,7 @@
         </is>
       </c>
       <c r="S55" t="n">
-        <v>478</v>
+        <v>500</v>
       </c>
       <c r="T55" t="n">
         <v>18</v>
@@ -4807,7 +4807,7 @@
         </is>
       </c>
       <c r="D56" s="2" t="n">
-        <v>44384</v>
+        <v>44372</v>
       </c>
       <c r="E56" t="n">
         <v>7</v>
@@ -4840,24 +4840,24 @@
       </c>
       <c r="L56" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M56" t="n">
-        <v>500</v>
+        <v>100</v>
       </c>
       <c r="N56" t="n">
-        <v>6000</v>
+        <v>7000</v>
       </c>
       <c r="O56" t="n">
-        <v>6000</v>
+        <v>7000</v>
       </c>
       <c r="P56" t="n">
-        <v>6000</v>
+        <v>7000</v>
       </c>
       <c r="Q56" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="R56" t="inlineStr">
@@ -4866,10 +4866,10 @@
         </is>
       </c>
       <c r="S56" t="n">
-        <v>600</v>
+        <v>389</v>
       </c>
       <c r="T56" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
     </row>
     <row r="57">
@@ -4887,7 +4887,7 @@
         </is>
       </c>
       <c r="D57" s="2" t="n">
-        <v>44323</v>
+        <v>44418</v>
       </c>
       <c r="E57" t="n">
         <v>7</v>
@@ -4924,20 +4924,20 @@
         </is>
       </c>
       <c r="M57" t="n">
-        <v>150</v>
+        <v>100</v>
       </c>
       <c r="N57" t="n">
-        <v>10000</v>
+        <v>14000</v>
       </c>
       <c r="O57" t="n">
-        <v>10000</v>
+        <v>14000</v>
       </c>
       <c r="P57" t="n">
-        <v>10000</v>
+        <v>14000</v>
       </c>
       <c r="Q57" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="R57" t="inlineStr">
@@ -4946,10 +4946,10 @@
         </is>
       </c>
       <c r="S57" t="n">
-        <v>1000</v>
+        <v>778</v>
       </c>
       <c r="T57" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
     </row>
     <row r="58">
@@ -4967,7 +4967,7 @@
         </is>
       </c>
       <c r="D58" s="2" t="n">
-        <v>44323</v>
+        <v>44418</v>
       </c>
       <c r="E58" t="n">
         <v>7</v>
@@ -5004,20 +5004,20 @@
         </is>
       </c>
       <c r="M58" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="N58" t="n">
-        <v>9000</v>
+        <v>12000</v>
       </c>
       <c r="O58" t="n">
-        <v>9000</v>
+        <v>12000</v>
       </c>
       <c r="P58" t="n">
-        <v>9000</v>
+        <v>12000</v>
       </c>
       <c r="Q58" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="R58" t="inlineStr">
@@ -5026,10 +5026,10 @@
         </is>
       </c>
       <c r="S58" t="n">
-        <v>900</v>
+        <v>667</v>
       </c>
       <c r="T58" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
     </row>
     <row r="59">
@@ -5047,7 +5047,7 @@
         </is>
       </c>
       <c r="D59" s="2" t="n">
-        <v>44363</v>
+        <v>44418</v>
       </c>
       <c r="E59" t="n">
         <v>7</v>
@@ -5080,11 +5080,11 @@
       </c>
       <c r="L59" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M59" t="n">
-        <v>280</v>
+        <v>90</v>
       </c>
       <c r="N59" t="n">
         <v>10000</v>
@@ -5102,7 +5102,7 @@
       </c>
       <c r="R59" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S59" t="n">
@@ -5127,7 +5127,7 @@
         </is>
       </c>
       <c r="D60" s="2" t="n">
-        <v>44363</v>
+        <v>44407</v>
       </c>
       <c r="E60" t="n">
         <v>7</v>
@@ -5160,20 +5160,20 @@
       </c>
       <c r="L60" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M60" t="n">
-        <v>300</v>
+        <v>60</v>
       </c>
       <c r="N60" t="n">
-        <v>8000</v>
+        <v>13000</v>
       </c>
       <c r="O60" t="n">
-        <v>8000</v>
+        <v>13000</v>
       </c>
       <c r="P60" t="n">
-        <v>8000</v>
+        <v>13000</v>
       </c>
       <c r="Q60" t="inlineStr">
         <is>
@@ -5182,11 +5182,11 @@
       </c>
       <c r="R60" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S60" t="n">
-        <v>444</v>
+        <v>722</v>
       </c>
       <c r="T60" t="n">
         <v>18</v>
@@ -5207,7 +5207,7 @@
         </is>
       </c>
       <c r="D61" s="2" t="n">
-        <v>44349</v>
+        <v>44407</v>
       </c>
       <c r="E61" t="n">
         <v>7</v>
@@ -5240,11 +5240,11 @@
       </c>
       <c r="L61" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M61" t="n">
-        <v>180</v>
+        <v>150</v>
       </c>
       <c r="N61" t="n">
         <v>10000</v>
@@ -5287,7 +5287,7 @@
         </is>
       </c>
       <c r="D62" s="2" t="n">
-        <v>44349</v>
+        <v>44407</v>
       </c>
       <c r="E62" t="n">
         <v>7</v>
@@ -5320,11 +5320,11 @@
       </c>
       <c r="L62" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M62" t="n">
-        <v>230</v>
+        <v>100</v>
       </c>
       <c r="N62" t="n">
         <v>8000</v>
@@ -5367,7 +5367,7 @@
         </is>
       </c>
       <c r="D63" s="2" t="n">
-        <v>44385</v>
+        <v>44410</v>
       </c>
       <c r="E63" t="n">
         <v>7</v>
@@ -5400,20 +5400,20 @@
       </c>
       <c r="L63" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M63" t="n">
         <v>230</v>
       </c>
       <c r="N63" t="n">
-        <v>11000</v>
+        <v>12000</v>
       </c>
       <c r="O63" t="n">
-        <v>11000</v>
+        <v>12000</v>
       </c>
       <c r="P63" t="n">
-        <v>11000</v>
+        <v>12000</v>
       </c>
       <c r="Q63" t="inlineStr">
         <is>
@@ -5426,7 +5426,7 @@
         </is>
       </c>
       <c r="S63" t="n">
-        <v>611</v>
+        <v>667</v>
       </c>
       <c r="T63" t="n">
         <v>18</v>
@@ -5447,7 +5447,7 @@
         </is>
       </c>
       <c r="D64" s="2" t="n">
-        <v>44385</v>
+        <v>44410</v>
       </c>
       <c r="E64" t="n">
         <v>7</v>
@@ -5484,20 +5484,20 @@
         </is>
       </c>
       <c r="M64" t="n">
-        <v>200</v>
+        <v>230</v>
       </c>
       <c r="N64" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="O64" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="P64" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="Q64" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="R64" t="inlineStr">
@@ -5506,10 +5506,10 @@
         </is>
       </c>
       <c r="S64" t="n">
-        <v>500</v>
+        <v>700</v>
       </c>
       <c r="T64" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="65">
@@ -5527,7 +5527,7 @@
         </is>
       </c>
       <c r="D65" s="2" t="n">
-        <v>44377</v>
+        <v>44284</v>
       </c>
       <c r="E65" t="n">
         <v>7</v>
@@ -5560,20 +5560,20 @@
       </c>
       <c r="L65" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M65" t="n">
-        <v>150</v>
+        <v>200</v>
       </c>
       <c r="N65" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="O65" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="P65" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="Q65" t="inlineStr">
         <is>
@@ -5586,7 +5586,7 @@
         </is>
       </c>
       <c r="S65" t="n">
-        <v>556</v>
+        <v>389</v>
       </c>
       <c r="T65" t="n">
         <v>18</v>
@@ -5607,7 +5607,7 @@
         </is>
       </c>
       <c r="D66" s="2" t="n">
-        <v>44377</v>
+        <v>44330</v>
       </c>
       <c r="E66" t="n">
         <v>7</v>
@@ -5640,24 +5640,24 @@
       </c>
       <c r="L66" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M66" t="n">
-        <v>210</v>
+        <v>300</v>
       </c>
       <c r="N66" t="n">
-        <v>6000</v>
+        <v>10000</v>
       </c>
       <c r="O66" t="n">
-        <v>6000</v>
+        <v>10000</v>
       </c>
       <c r="P66" t="n">
-        <v>6000</v>
+        <v>10000</v>
       </c>
       <c r="Q66" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="R66" t="inlineStr">
@@ -5666,10 +5666,10 @@
         </is>
       </c>
       <c r="S66" t="n">
-        <v>600</v>
+        <v>556</v>
       </c>
       <c r="T66" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
     </row>
     <row r="67">
@@ -5687,7 +5687,7 @@
         </is>
       </c>
       <c r="D67" s="2" t="n">
-        <v>44377</v>
+        <v>44330</v>
       </c>
       <c r="E67" t="n">
         <v>7</v>
@@ -5720,20 +5720,20 @@
       </c>
       <c r="L67" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M67" t="n">
-        <v>100</v>
+        <v>180</v>
       </c>
       <c r="N67" t="n">
-        <v>6000</v>
+        <v>8000</v>
       </c>
       <c r="O67" t="n">
-        <v>6000</v>
+        <v>8000</v>
       </c>
       <c r="P67" t="n">
-        <v>6000</v>
+        <v>8000</v>
       </c>
       <c r="Q67" t="inlineStr">
         <is>
@@ -5746,7 +5746,7 @@
         </is>
       </c>
       <c r="S67" t="n">
-        <v>333</v>
+        <v>444</v>
       </c>
       <c r="T67" t="n">
         <v>18</v>
@@ -5767,7 +5767,7 @@
         </is>
       </c>
       <c r="D68" s="2" t="n">
-        <v>44400</v>
+        <v>44343</v>
       </c>
       <c r="E68" t="n">
         <v>7</v>
@@ -5804,16 +5804,16 @@
         </is>
       </c>
       <c r="M68" t="n">
-        <v>100</v>
+        <v>120</v>
       </c>
       <c r="N68" t="n">
-        <v>13000</v>
+        <v>10000</v>
       </c>
       <c r="O68" t="n">
-        <v>13000</v>
+        <v>10000</v>
       </c>
       <c r="P68" t="n">
-        <v>13000</v>
+        <v>10000</v>
       </c>
       <c r="Q68" t="inlineStr">
         <is>
@@ -5826,7 +5826,7 @@
         </is>
       </c>
       <c r="S68" t="n">
-        <v>722</v>
+        <v>556</v>
       </c>
       <c r="T68" t="n">
         <v>18</v>
@@ -5847,7 +5847,7 @@
         </is>
       </c>
       <c r="D69" s="2" t="n">
-        <v>44400</v>
+        <v>44343</v>
       </c>
       <c r="E69" t="n">
         <v>7</v>
@@ -5884,16 +5884,16 @@
         </is>
       </c>
       <c r="M69" t="n">
-        <v>180</v>
+        <v>160</v>
       </c>
       <c r="N69" t="n">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="O69" t="n">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="P69" t="n">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="Q69" t="inlineStr">
         <is>
@@ -5906,7 +5906,7 @@
         </is>
       </c>
       <c r="S69" t="n">
-        <v>556</v>
+        <v>500</v>
       </c>
       <c r="T69" t="n">
         <v>18</v>
@@ -5927,7 +5927,7 @@
         </is>
       </c>
       <c r="D70" s="2" t="n">
-        <v>44400</v>
+        <v>44320</v>
       </c>
       <c r="E70" t="n">
         <v>7</v>
@@ -5960,20 +5960,20 @@
       </c>
       <c r="L70" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M70" t="n">
-        <v>150</v>
+        <v>120</v>
       </c>
       <c r="N70" t="n">
-        <v>8000</v>
+        <v>13000</v>
       </c>
       <c r="O70" t="n">
-        <v>8000</v>
+        <v>13000</v>
       </c>
       <c r="P70" t="n">
-        <v>8000</v>
+        <v>13000</v>
       </c>
       <c r="Q70" t="inlineStr">
         <is>
@@ -5986,7 +5986,7 @@
         </is>
       </c>
       <c r="S70" t="n">
-        <v>444</v>
+        <v>722</v>
       </c>
       <c r="T70" t="n">
         <v>18</v>
@@ -6007,7 +6007,7 @@
         </is>
       </c>
       <c r="D71" s="2" t="n">
-        <v>44426</v>
+        <v>44320</v>
       </c>
       <c r="E71" t="n">
         <v>7</v>
@@ -6044,20 +6044,20 @@
         </is>
       </c>
       <c r="M71" t="n">
-        <v>100</v>
+        <v>150</v>
       </c>
       <c r="N71" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="O71" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="P71" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="Q71" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="R71" t="inlineStr">
@@ -6066,10 +6066,10 @@
         </is>
       </c>
       <c r="S71" t="n">
-        <v>667</v>
+        <v>1000</v>
       </c>
       <c r="T71" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="72">
@@ -6087,7 +6087,7 @@
         </is>
       </c>
       <c r="D72" s="2" t="n">
-        <v>44426</v>
+        <v>44320</v>
       </c>
       <c r="E72" t="n">
         <v>7</v>
@@ -6124,7 +6124,7 @@
         </is>
       </c>
       <c r="M72" t="n">
-        <v>120</v>
+        <v>300</v>
       </c>
       <c r="N72" t="n">
         <v>10000</v>
@@ -6137,7 +6137,7 @@
       </c>
       <c r="Q72" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R72" t="inlineStr">
@@ -6146,10 +6146,10 @@
         </is>
       </c>
       <c r="S72" t="n">
-        <v>556</v>
+        <v>1000</v>
       </c>
       <c r="T72" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="73">
@@ -6167,7 +6167,7 @@
         </is>
       </c>
       <c r="D73" s="2" t="n">
-        <v>44295</v>
+        <v>44320</v>
       </c>
       <c r="E73" t="n">
         <v>7</v>
@@ -6204,16 +6204,16 @@
         </is>
       </c>
       <c r="M73" t="n">
-        <v>160</v>
+        <v>100</v>
       </c>
       <c r="N73" t="n">
-        <v>10000</v>
+        <v>11000</v>
       </c>
       <c r="O73" t="n">
-        <v>10000</v>
+        <v>11000</v>
       </c>
       <c r="P73" t="n">
-        <v>10000</v>
+        <v>11000</v>
       </c>
       <c r="Q73" t="inlineStr">
         <is>
@@ -6226,7 +6226,7 @@
         </is>
       </c>
       <c r="S73" t="n">
-        <v>556</v>
+        <v>611</v>
       </c>
       <c r="T73" t="n">
         <v>18</v>
@@ -6247,7 +6247,7 @@
         </is>
       </c>
       <c r="D74" s="2" t="n">
-        <v>44390</v>
+        <v>44385</v>
       </c>
       <c r="E74" t="n">
         <v>7</v>
@@ -6280,20 +6280,20 @@
       </c>
       <c r="L74" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M74" t="n">
-        <v>250</v>
+        <v>230</v>
       </c>
       <c r="N74" t="n">
-        <v>9000</v>
+        <v>11000</v>
       </c>
       <c r="O74" t="n">
-        <v>9000</v>
+        <v>11000</v>
       </c>
       <c r="P74" t="n">
-        <v>9000</v>
+        <v>11000</v>
       </c>
       <c r="Q74" t="inlineStr">
         <is>
@@ -6306,7 +6306,7 @@
         </is>
       </c>
       <c r="S74" t="n">
-        <v>500</v>
+        <v>611</v>
       </c>
       <c r="T74" t="n">
         <v>18</v>
@@ -6327,7 +6327,7 @@
         </is>
       </c>
       <c r="D75" s="2" t="n">
-        <v>44321</v>
+        <v>44385</v>
       </c>
       <c r="E75" t="n">
         <v>7</v>
@@ -6367,13 +6367,13 @@
         <v>200</v>
       </c>
       <c r="N75" t="n">
-        <v>13000</v>
+        <v>9000</v>
       </c>
       <c r="O75" t="n">
-        <v>13000</v>
+        <v>9000</v>
       </c>
       <c r="P75" t="n">
-        <v>13000</v>
+        <v>9000</v>
       </c>
       <c r="Q75" t="inlineStr">
         <is>
@@ -6386,7 +6386,7 @@
         </is>
       </c>
       <c r="S75" t="n">
-        <v>722</v>
+        <v>500</v>
       </c>
       <c r="T75" t="n">
         <v>18</v>
@@ -6407,7 +6407,7 @@
         </is>
       </c>
       <c r="D76" s="2" t="n">
-        <v>44383</v>
+        <v>44299</v>
       </c>
       <c r="E76" t="n">
         <v>7</v>
@@ -6444,16 +6444,16 @@
         </is>
       </c>
       <c r="M76" t="n">
-        <v>210</v>
+        <v>200</v>
       </c>
       <c r="N76" t="n">
-        <v>9000</v>
+        <v>13000</v>
       </c>
       <c r="O76" t="n">
-        <v>9000</v>
+        <v>13000</v>
       </c>
       <c r="P76" t="n">
-        <v>9000</v>
+        <v>13000</v>
       </c>
       <c r="Q76" t="inlineStr">
         <is>
@@ -6466,7 +6466,7 @@
         </is>
       </c>
       <c r="S76" t="n">
-        <v>500</v>
+        <v>722</v>
       </c>
       <c r="T76" t="n">
         <v>18</v>
@@ -6487,7 +6487,7 @@
         </is>
       </c>
       <c r="D77" s="2" t="n">
-        <v>44383</v>
+        <v>44370</v>
       </c>
       <c r="E77" t="n">
         <v>7</v>
@@ -6520,24 +6520,24 @@
       </c>
       <c r="L77" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M77" t="n">
-        <v>260</v>
+        <v>100</v>
       </c>
       <c r="N77" t="n">
-        <v>6000</v>
+        <v>12000</v>
       </c>
       <c r="O77" t="n">
-        <v>6000</v>
+        <v>12000</v>
       </c>
       <c r="P77" t="n">
-        <v>6000</v>
+        <v>12000</v>
       </c>
       <c r="Q77" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="R77" t="inlineStr">
@@ -6546,10 +6546,10 @@
         </is>
       </c>
       <c r="S77" t="n">
-        <v>600</v>
+        <v>667</v>
       </c>
       <c r="T77" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
     </row>
     <row r="78">
@@ -6567,7 +6567,7 @@
         </is>
       </c>
       <c r="D78" s="2" t="n">
-        <v>44354</v>
+        <v>44370</v>
       </c>
       <c r="E78" t="n">
         <v>7</v>
@@ -6600,20 +6600,20 @@
       </c>
       <c r="L78" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M78" t="n">
-        <v>180</v>
+        <v>120</v>
       </c>
       <c r="N78" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="O78" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="P78" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="Q78" t="inlineStr">
         <is>
@@ -6622,11 +6622,11 @@
       </c>
       <c r="R78" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S78" t="n">
-        <v>667</v>
+        <v>556</v>
       </c>
       <c r="T78" t="n">
         <v>18</v>
@@ -6647,7 +6647,7 @@
         </is>
       </c>
       <c r="D79" s="2" t="n">
-        <v>44354</v>
+        <v>44370</v>
       </c>
       <c r="E79" t="n">
         <v>7</v>
@@ -6680,20 +6680,20 @@
       </c>
       <c r="L79" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M79" t="n">
-        <v>100</v>
+        <v>60</v>
       </c>
       <c r="N79" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="O79" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="P79" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="Q79" t="inlineStr">
         <is>
@@ -6702,11 +6702,11 @@
       </c>
       <c r="R79" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S79" t="n">
-        <v>556</v>
+        <v>444</v>
       </c>
       <c r="T79" t="n">
         <v>18</v>
@@ -6727,7 +6727,7 @@
         </is>
       </c>
       <c r="D80" s="2" t="n">
-        <v>44410</v>
+        <v>44392</v>
       </c>
       <c r="E80" t="n">
         <v>7</v>
@@ -6760,20 +6760,20 @@
       </c>
       <c r="L80" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M80" t="n">
-        <v>230</v>
+        <v>200</v>
       </c>
       <c r="N80" t="n">
-        <v>12000</v>
+        <v>11000</v>
       </c>
       <c r="O80" t="n">
-        <v>12000</v>
+        <v>11000</v>
       </c>
       <c r="P80" t="n">
-        <v>12000</v>
+        <v>11000</v>
       </c>
       <c r="Q80" t="inlineStr">
         <is>
@@ -6786,7 +6786,7 @@
         </is>
       </c>
       <c r="S80" t="n">
-        <v>667</v>
+        <v>611</v>
       </c>
       <c r="T80" t="n">
         <v>18</v>
@@ -6807,7 +6807,7 @@
         </is>
       </c>
       <c r="D81" s="2" t="n">
-        <v>44410</v>
+        <v>44392</v>
       </c>
       <c r="E81" t="n">
         <v>7</v>
@@ -6844,20 +6844,20 @@
         </is>
       </c>
       <c r="M81" t="n">
-        <v>230</v>
+        <v>400</v>
       </c>
       <c r="N81" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="O81" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="P81" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="Q81" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="R81" t="inlineStr">
@@ -6866,10 +6866,10 @@
         </is>
       </c>
       <c r="S81" t="n">
-        <v>700</v>
+        <v>500</v>
       </c>
       <c r="T81" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
     </row>
     <row r="82">
@@ -6887,7 +6887,7 @@
         </is>
       </c>
       <c r="D82" s="2" t="n">
-        <v>44412</v>
+        <v>44295</v>
       </c>
       <c r="E82" t="n">
         <v>7</v>
@@ -6920,20 +6920,20 @@
       </c>
       <c r="L82" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M82" t="n">
-        <v>180</v>
+        <v>160</v>
       </c>
       <c r="N82" t="n">
-        <v>14000</v>
+        <v>10000</v>
       </c>
       <c r="O82" t="n">
-        <v>14000</v>
+        <v>10000</v>
       </c>
       <c r="P82" t="n">
-        <v>14000</v>
+        <v>10000</v>
       </c>
       <c r="Q82" t="inlineStr">
         <is>
@@ -6946,7 +6946,7 @@
         </is>
       </c>
       <c r="S82" t="n">
-        <v>778</v>
+        <v>556</v>
       </c>
       <c r="T82" t="n">
         <v>18</v>
@@ -6967,7 +6967,7 @@
         </is>
       </c>
       <c r="D83" s="2" t="n">
-        <v>44412</v>
+        <v>44309</v>
       </c>
       <c r="E83" t="n">
         <v>7</v>
@@ -7000,20 +7000,20 @@
       </c>
       <c r="L83" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M83" t="n">
-        <v>230</v>
+        <v>160</v>
       </c>
       <c r="N83" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="O83" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="P83" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="Q83" t="inlineStr">
         <is>
@@ -7026,7 +7026,7 @@
         </is>
       </c>
       <c r="S83" t="n">
-        <v>667</v>
+        <v>778</v>
       </c>
       <c r="T83" t="n">
         <v>18</v>
@@ -7047,7 +7047,7 @@
         </is>
       </c>
       <c r="D84" s="2" t="n">
-        <v>44336</v>
+        <v>44309</v>
       </c>
       <c r="E84" t="n">
         <v>7</v>
@@ -7090,14 +7090,14 @@
         <v>8000</v>
       </c>
       <c r="O84" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="P84" t="n">
-        <v>8000</v>
+        <v>8600</v>
       </c>
       <c r="Q84" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R84" t="inlineStr">
@@ -7106,7 +7106,7 @@
         </is>
       </c>
       <c r="S84" t="n">
-        <v>800</v>
+        <v>860</v>
       </c>
       <c r="T84" t="n">
         <v>10</v>
@@ -7127,7 +7127,7 @@
         </is>
       </c>
       <c r="D85" s="2" t="n">
-        <v>44320</v>
+        <v>44309</v>
       </c>
       <c r="E85" t="n">
         <v>7</v>
@@ -7160,20 +7160,20 @@
       </c>
       <c r="L85" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M85" t="n">
-        <v>120</v>
+        <v>100</v>
       </c>
       <c r="N85" t="n">
-        <v>13000</v>
+        <v>12000</v>
       </c>
       <c r="O85" t="n">
-        <v>13000</v>
+        <v>12000</v>
       </c>
       <c r="P85" t="n">
-        <v>13000</v>
+        <v>12000</v>
       </c>
       <c r="Q85" t="inlineStr">
         <is>
@@ -7186,7 +7186,7 @@
         </is>
       </c>
       <c r="S85" t="n">
-        <v>722</v>
+        <v>667</v>
       </c>
       <c r="T85" t="n">
         <v>18</v>
@@ -7207,7 +7207,7 @@
         </is>
       </c>
       <c r="D86" s="2" t="n">
-        <v>44320</v>
+        <v>44384</v>
       </c>
       <c r="E86" t="n">
         <v>7</v>
@@ -7240,20 +7240,20 @@
       </c>
       <c r="L86" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M86" t="n">
-        <v>150</v>
+        <v>500</v>
       </c>
       <c r="N86" t="n">
-        <v>10000</v>
+        <v>6000</v>
       </c>
       <c r="O86" t="n">
-        <v>10000</v>
+        <v>6000</v>
       </c>
       <c r="P86" t="n">
-        <v>10000</v>
+        <v>6000</v>
       </c>
       <c r="Q86" t="inlineStr">
         <is>
@@ -7266,7 +7266,7 @@
         </is>
       </c>
       <c r="S86" t="n">
-        <v>1000</v>
+        <v>600</v>
       </c>
       <c r="T86" t="n">
         <v>10</v>
@@ -7287,7 +7287,7 @@
         </is>
       </c>
       <c r="D87" s="2" t="n">
-        <v>44320</v>
+        <v>44322</v>
       </c>
       <c r="E87" t="n">
         <v>7</v>
@@ -7324,7 +7324,7 @@
         </is>
       </c>
       <c r="M87" t="n">
-        <v>300</v>
+        <v>210</v>
       </c>
       <c r="N87" t="n">
         <v>10000</v>
@@ -7367,7 +7367,7 @@
         </is>
       </c>
       <c r="D88" s="2" t="n">
-        <v>44320</v>
+        <v>44365</v>
       </c>
       <c r="E88" t="n">
         <v>7</v>
@@ -7400,11 +7400,11 @@
       </c>
       <c r="L88" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M88" t="n">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="N88" t="n">
         <v>11000</v>
@@ -7447,7 +7447,7 @@
         </is>
       </c>
       <c r="D89" s="2" t="n">
-        <v>44314</v>
+        <v>44365</v>
       </c>
       <c r="E89" t="n">
         <v>7</v>
@@ -7480,24 +7480,24 @@
       </c>
       <c r="L89" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M89" t="n">
-        <v>150</v>
+        <v>200</v>
       </c>
       <c r="N89" t="n">
-        <v>11000</v>
+        <v>9000</v>
       </c>
       <c r="O89" t="n">
-        <v>11000</v>
+        <v>9000</v>
       </c>
       <c r="P89" t="n">
-        <v>11000</v>
+        <v>9000</v>
       </c>
       <c r="Q89" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="R89" t="inlineStr">
@@ -7506,10 +7506,10 @@
         </is>
       </c>
       <c r="S89" t="n">
-        <v>1100</v>
+        <v>500</v>
       </c>
       <c r="T89" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
     </row>
     <row r="90">
@@ -7527,7 +7527,7 @@
         </is>
       </c>
       <c r="D90" s="2" t="n">
-        <v>44314</v>
+        <v>44365</v>
       </c>
       <c r="E90" t="n">
         <v>7</v>
@@ -7560,24 +7560,24 @@
       </c>
       <c r="L90" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M90" t="n">
-        <v>60</v>
+        <v>150</v>
       </c>
       <c r="N90" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="O90" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="P90" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="Q90" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="R90" t="inlineStr">
@@ -7586,10 +7586,10 @@
         </is>
       </c>
       <c r="S90" t="n">
-        <v>900</v>
+        <v>389</v>
       </c>
       <c r="T90" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
     </row>
     <row r="91">
@@ -7607,7 +7607,7 @@
         </is>
       </c>
       <c r="D91" s="2" t="n">
-        <v>44364</v>
+        <v>44358</v>
       </c>
       <c r="E91" t="n">
         <v>7</v>
@@ -7644,16 +7644,16 @@
         </is>
       </c>
       <c r="M91" t="n">
-        <v>160</v>
+        <v>230</v>
       </c>
       <c r="N91" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="O91" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="P91" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="Q91" t="inlineStr">
         <is>
@@ -7666,7 +7666,7 @@
         </is>
       </c>
       <c r="S91" t="n">
-        <v>667</v>
+        <v>722</v>
       </c>
       <c r="T91" t="n">
         <v>18</v>
@@ -7687,7 +7687,7 @@
         </is>
       </c>
       <c r="D92" s="2" t="n">
-        <v>44364</v>
+        <v>44358</v>
       </c>
       <c r="E92" t="n">
         <v>7</v>
@@ -7720,24 +7720,24 @@
       </c>
       <c r="L92" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M92" t="n">
-        <v>240</v>
+        <v>250</v>
       </c>
       <c r="N92" t="n">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="O92" t="n">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="P92" t="n">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="Q92" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="R92" t="inlineStr">
@@ -7746,10 +7746,10 @@
         </is>
       </c>
       <c r="S92" t="n">
-        <v>556</v>
+        <v>900</v>
       </c>
       <c r="T92" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="93">
@@ -7767,7 +7767,7 @@
         </is>
       </c>
       <c r="D93" s="2" t="n">
-        <v>44364</v>
+        <v>44358</v>
       </c>
       <c r="E93" t="n">
         <v>7</v>
@@ -7800,20 +7800,20 @@
       </c>
       <c r="L93" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M93" t="n">
-        <v>80</v>
+        <v>210</v>
       </c>
       <c r="N93" t="n">
-        <v>8000</v>
+        <v>11000</v>
       </c>
       <c r="O93" t="n">
-        <v>8000</v>
+        <v>11000</v>
       </c>
       <c r="P93" t="n">
-        <v>8000</v>
+        <v>11000</v>
       </c>
       <c r="Q93" t="inlineStr">
         <is>
@@ -7826,7 +7826,7 @@
         </is>
       </c>
       <c r="S93" t="n">
-        <v>444</v>
+        <v>611</v>
       </c>
       <c r="T93" t="n">
         <v>18</v>
@@ -7847,7 +7847,7 @@
         </is>
       </c>
       <c r="D94" s="2" t="n">
-        <v>44435</v>
+        <v>44358</v>
       </c>
       <c r="E94" t="n">
         <v>7</v>
@@ -7880,24 +7880,24 @@
       </c>
       <c r="L94" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M94" t="n">
-        <v>390</v>
+        <v>200</v>
       </c>
       <c r="N94" t="n">
-        <v>14000</v>
+        <v>7000</v>
       </c>
       <c r="O94" t="n">
-        <v>14000</v>
+        <v>7000</v>
       </c>
       <c r="P94" t="n">
-        <v>14000</v>
+        <v>7000</v>
       </c>
       <c r="Q94" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="R94" t="inlineStr">
@@ -7906,10 +7906,10 @@
         </is>
       </c>
       <c r="S94" t="n">
-        <v>778</v>
+        <v>700</v>
       </c>
       <c r="T94" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="95">
@@ -7927,7 +7927,7 @@
         </is>
       </c>
       <c r="D95" s="2" t="n">
-        <v>44435</v>
+        <v>44358</v>
       </c>
       <c r="E95" t="n">
         <v>7</v>
@@ -7960,24 +7960,24 @@
       </c>
       <c r="L95" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M95" t="n">
-        <v>160</v>
+        <v>190</v>
       </c>
       <c r="N95" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="O95" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="P95" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="Q95" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="R95" t="inlineStr">
@@ -7986,10 +7986,10 @@
         </is>
       </c>
       <c r="S95" t="n">
-        <v>800</v>
+        <v>500</v>
       </c>
       <c r="T95" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
     </row>
     <row r="96">
@@ -8007,7 +8007,7 @@
         </is>
       </c>
       <c r="D96" s="2" t="n">
-        <v>44435</v>
+        <v>44433</v>
       </c>
       <c r="E96" t="n">
         <v>7</v>
@@ -8044,7 +8044,7 @@
         </is>
       </c>
       <c r="M96" t="n">
-        <v>330</v>
+        <v>120</v>
       </c>
       <c r="N96" t="n">
         <v>14000</v>
@@ -8087,7 +8087,7 @@
         </is>
       </c>
       <c r="D97" s="2" t="n">
-        <v>44435</v>
+        <v>44433</v>
       </c>
       <c r="E97" t="n">
         <v>7</v>
@@ -8124,7 +8124,7 @@
         </is>
       </c>
       <c r="M97" t="n">
-        <v>250</v>
+        <v>180</v>
       </c>
       <c r="N97" t="n">
         <v>12000</v>
@@ -8137,7 +8137,7 @@
       </c>
       <c r="Q97" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="R97" t="inlineStr">
@@ -8167,7 +8167,7 @@
         </is>
       </c>
       <c r="D98" s="2" t="n">
-        <v>44435</v>
+        <v>44397</v>
       </c>
       <c r="E98" t="n">
         <v>7</v>
@@ -8200,24 +8200,24 @@
       </c>
       <c r="L98" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M98" t="n">
-        <v>230</v>
+        <v>190</v>
       </c>
       <c r="N98" t="n">
-        <v>7000</v>
+        <v>14000</v>
       </c>
       <c r="O98" t="n">
-        <v>7000</v>
+        <v>14000</v>
       </c>
       <c r="P98" t="n">
-        <v>7000</v>
+        <v>14000</v>
       </c>
       <c r="Q98" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="R98" t="inlineStr">
@@ -8226,10 +8226,10 @@
         </is>
       </c>
       <c r="S98" t="n">
-        <v>700</v>
+        <v>778</v>
       </c>
       <c r="T98" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
     </row>
     <row r="99">
@@ -8247,7 +8247,7 @@
         </is>
       </c>
       <c r="D99" s="2" t="n">
-        <v>44435</v>
+        <v>44397</v>
       </c>
       <c r="E99" t="n">
         <v>7</v>
@@ -8280,33 +8280,33 @@
       </c>
       <c r="L99" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M99" t="n">
-        <v>180</v>
+        <v>150</v>
       </c>
       <c r="N99" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="O99" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="P99" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="Q99" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="R99" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S99" t="n">
-        <v>667</v>
+        <v>722</v>
       </c>
       <c r="T99" t="n">
         <v>18</v>
@@ -8327,7 +8327,7 @@
         </is>
       </c>
       <c r="D100" s="2" t="n">
-        <v>44435</v>
+        <v>44397</v>
       </c>
       <c r="E100" t="n">
         <v>7</v>
@@ -8360,20 +8360,20 @@
       </c>
       <c r="L100" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M100" t="n">
-        <v>240</v>
+        <v>480</v>
       </c>
       <c r="N100" t="n">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="O100" t="n">
         <v>10000</v>
       </c>
       <c r="P100" t="n">
-        <v>10000</v>
+        <v>9479</v>
       </c>
       <c r="Q100" t="inlineStr">
         <is>
@@ -8386,7 +8386,7 @@
         </is>
       </c>
       <c r="S100" t="n">
-        <v>556</v>
+        <v>527</v>
       </c>
       <c r="T100" t="n">
         <v>18</v>
@@ -8407,7 +8407,7 @@
         </is>
       </c>
       <c r="D101" s="2" t="n">
-        <v>44438</v>
+        <v>44321</v>
       </c>
       <c r="E101" t="n">
         <v>7</v>
@@ -8440,11 +8440,11 @@
       </c>
       <c r="L101" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M101" t="n">
-        <v>230</v>
+        <v>200</v>
       </c>
       <c r="N101" t="n">
         <v>13000</v>
@@ -8487,7 +8487,7 @@
         </is>
       </c>
       <c r="D102" s="2" t="n">
-        <v>44438</v>
+        <v>44426</v>
       </c>
       <c r="E102" t="n">
         <v>7</v>
@@ -8520,24 +8520,24 @@
       </c>
       <c r="L102" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M102" t="n">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="N102" t="n">
-        <v>11000</v>
+        <v>12000</v>
       </c>
       <c r="O102" t="n">
-        <v>11000</v>
+        <v>12000</v>
       </c>
       <c r="P102" t="n">
-        <v>11000</v>
+        <v>12000</v>
       </c>
       <c r="Q102" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="R102" t="inlineStr">
@@ -8546,7 +8546,7 @@
         </is>
       </c>
       <c r="S102" t="n">
-        <v>611</v>
+        <v>667</v>
       </c>
       <c r="T102" t="n">
         <v>18</v>
@@ -8567,7 +8567,7 @@
         </is>
       </c>
       <c r="D103" s="2" t="n">
-        <v>44327</v>
+        <v>44426</v>
       </c>
       <c r="E103" t="n">
         <v>7</v>
@@ -8604,20 +8604,20 @@
         </is>
       </c>
       <c r="M103" t="n">
-        <v>300</v>
+        <v>120</v>
       </c>
       <c r="N103" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="O103" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="P103" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="Q103" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="R103" t="inlineStr">
@@ -8626,10 +8626,10 @@
         </is>
       </c>
       <c r="S103" t="n">
-        <v>900</v>
+        <v>556</v>
       </c>
       <c r="T103" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
     </row>
     <row r="104">
@@ -8647,7 +8647,7 @@
         </is>
       </c>
       <c r="D104" s="2" t="n">
-        <v>44313</v>
+        <v>44434</v>
       </c>
       <c r="E104" t="n">
         <v>7</v>
@@ -8680,24 +8680,24 @@
       </c>
       <c r="L104" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M104" t="n">
-        <v>350</v>
+        <v>230</v>
       </c>
       <c r="N104" t="n">
-        <v>9000</v>
+        <v>14000</v>
       </c>
       <c r="O104" t="n">
-        <v>9000</v>
+        <v>14000</v>
       </c>
       <c r="P104" t="n">
-        <v>9000</v>
+        <v>14000</v>
       </c>
       <c r="Q104" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="R104" t="inlineStr">
@@ -8706,10 +8706,10 @@
         </is>
       </c>
       <c r="S104" t="n">
-        <v>900</v>
+        <v>778</v>
       </c>
       <c r="T104" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
     </row>
     <row r="105">
@@ -8727,7 +8727,7 @@
         </is>
       </c>
       <c r="D105" s="2" t="n">
-        <v>44313</v>
+        <v>44434</v>
       </c>
       <c r="E105" t="n">
         <v>7</v>
@@ -8760,24 +8760,24 @@
       </c>
       <c r="L105" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M105" t="n">
-        <v>250</v>
+        <v>160</v>
       </c>
       <c r="N105" t="n">
-        <v>6000</v>
+        <v>8000</v>
       </c>
       <c r="O105" t="n">
-        <v>6000</v>
+        <v>8000</v>
       </c>
       <c r="P105" t="n">
-        <v>6000</v>
+        <v>8000</v>
       </c>
       <c r="Q105" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="R105" t="inlineStr">
@@ -8786,7 +8786,7 @@
         </is>
       </c>
       <c r="S105" t="n">
-        <v>600</v>
+        <v>800</v>
       </c>
       <c r="T105" t="n">
         <v>10</v>
@@ -8807,7 +8807,7 @@
         </is>
       </c>
       <c r="D106" s="2" t="n">
-        <v>44330</v>
+        <v>44434</v>
       </c>
       <c r="E106" t="n">
         <v>7</v>
@@ -8840,20 +8840,20 @@
       </c>
       <c r="L106" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M106" t="n">
-        <v>300</v>
+        <v>150</v>
       </c>
       <c r="N106" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="O106" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="P106" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="Q106" t="inlineStr">
         <is>
@@ -8866,7 +8866,7 @@
         </is>
       </c>
       <c r="S106" t="n">
-        <v>556</v>
+        <v>667</v>
       </c>
       <c r="T106" t="n">
         <v>18</v>
@@ -8887,7 +8887,7 @@
         </is>
       </c>
       <c r="D107" s="2" t="n">
-        <v>44330</v>
+        <v>44434</v>
       </c>
       <c r="E107" t="n">
         <v>7</v>
@@ -8924,20 +8924,20 @@
         </is>
       </c>
       <c r="M107" t="n">
-        <v>180</v>
+        <v>230</v>
       </c>
       <c r="N107" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="O107" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="P107" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="Q107" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="R107" t="inlineStr">
@@ -8946,10 +8946,10 @@
         </is>
       </c>
       <c r="S107" t="n">
-        <v>444</v>
+        <v>700</v>
       </c>
       <c r="T107" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="108">
@@ -8967,7 +8967,7 @@
         </is>
       </c>
       <c r="D108" s="2" t="n">
-        <v>44391</v>
+        <v>44434</v>
       </c>
       <c r="E108" t="n">
         <v>7</v>
@@ -9000,20 +9000,20 @@
       </c>
       <c r="L108" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M108" t="n">
-        <v>200</v>
+        <v>120</v>
       </c>
       <c r="N108" t="n">
-        <v>11000</v>
+        <v>10000</v>
       </c>
       <c r="O108" t="n">
-        <v>11000</v>
+        <v>10000</v>
       </c>
       <c r="P108" t="n">
-        <v>11000</v>
+        <v>10000</v>
       </c>
       <c r="Q108" t="inlineStr">
         <is>
@@ -9026,7 +9026,7 @@
         </is>
       </c>
       <c r="S108" t="n">
-        <v>611</v>
+        <v>556</v>
       </c>
       <c r="T108" t="n">
         <v>18</v>
@@ -9047,7 +9047,7 @@
         </is>
       </c>
       <c r="D109" s="2" t="n">
-        <v>44391</v>
+        <v>44398</v>
       </c>
       <c r="E109" t="n">
         <v>7</v>
@@ -9080,20 +9080,20 @@
       </c>
       <c r="L109" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M109" t="n">
-        <v>250</v>
+        <v>150</v>
       </c>
       <c r="N109" t="n">
-        <v>9500</v>
+        <v>13000</v>
       </c>
       <c r="O109" t="n">
-        <v>9500</v>
+        <v>13000</v>
       </c>
       <c r="P109" t="n">
-        <v>9500</v>
+        <v>13000</v>
       </c>
       <c r="Q109" t="inlineStr">
         <is>
@@ -9106,7 +9106,7 @@
         </is>
       </c>
       <c r="S109" t="n">
-        <v>528</v>
+        <v>722</v>
       </c>
       <c r="T109" t="n">
         <v>18</v>
@@ -9127,7 +9127,7 @@
         </is>
       </c>
       <c r="D110" s="2" t="n">
-        <v>44351</v>
+        <v>44398</v>
       </c>
       <c r="E110" t="n">
         <v>7</v>
@@ -9164,16 +9164,16 @@
         </is>
       </c>
       <c r="M110" t="n">
-        <v>260</v>
+        <v>180</v>
       </c>
       <c r="N110" t="n">
-        <v>11000</v>
+        <v>13000</v>
       </c>
       <c r="O110" t="n">
-        <v>11000</v>
+        <v>13000</v>
       </c>
       <c r="P110" t="n">
-        <v>11000</v>
+        <v>13000</v>
       </c>
       <c r="Q110" t="inlineStr">
         <is>
@@ -9182,11 +9182,11 @@
       </c>
       <c r="R110" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S110" t="n">
-        <v>611</v>
+        <v>722</v>
       </c>
       <c r="T110" t="n">
         <v>18</v>
@@ -9207,7 +9207,7 @@
         </is>
       </c>
       <c r="D111" s="2" t="n">
-        <v>44351</v>
+        <v>44398</v>
       </c>
       <c r="E111" t="n">
         <v>7</v>
@@ -9244,7 +9244,7 @@
         </is>
       </c>
       <c r="M111" t="n">
-        <v>200</v>
+        <v>260</v>
       </c>
       <c r="N111" t="n">
         <v>10000</v>
@@ -9287,7 +9287,7 @@
         </is>
       </c>
       <c r="D112" s="2" t="n">
-        <v>44351</v>
+        <v>44398</v>
       </c>
       <c r="E112" t="n">
         <v>7</v>
@@ -9324,32 +9324,32 @@
         </is>
       </c>
       <c r="M112" t="n">
-        <v>230</v>
+        <v>220</v>
       </c>
       <c r="N112" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="O112" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="P112" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="Q112" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="R112" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S112" t="n">
-        <v>800</v>
+        <v>500</v>
       </c>
       <c r="T112" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
     </row>
     <row r="113">
@@ -9367,7 +9367,7 @@
         </is>
       </c>
       <c r="D113" s="2" t="n">
-        <v>44350</v>
+        <v>44420</v>
       </c>
       <c r="E113" t="n">
         <v>7</v>
@@ -9404,29 +9404,29 @@
         </is>
       </c>
       <c r="M113" t="n">
-        <v>130</v>
+        <v>120</v>
       </c>
       <c r="N113" t="n">
-        <v>11000</v>
+        <v>14000</v>
       </c>
       <c r="O113" t="n">
-        <v>11000</v>
+        <v>14000</v>
       </c>
       <c r="P113" t="n">
-        <v>11000</v>
+        <v>14000</v>
       </c>
       <c r="Q113" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos granel</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="R113" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S113" t="n">
-        <v>611</v>
+        <v>778</v>
       </c>
       <c r="T113" t="n">
         <v>18</v>
@@ -9447,7 +9447,7 @@
         </is>
       </c>
       <c r="D114" s="2" t="n">
-        <v>44350</v>
+        <v>44420</v>
       </c>
       <c r="E114" t="n">
         <v>7</v>
@@ -9484,20 +9484,20 @@
         </is>
       </c>
       <c r="M114" t="n">
-        <v>360</v>
+        <v>200</v>
       </c>
       <c r="N114" t="n">
-        <v>9000</v>
+        <v>12000</v>
       </c>
       <c r="O114" t="n">
-        <v>9000</v>
+        <v>12000</v>
       </c>
       <c r="P114" t="n">
-        <v>9000</v>
+        <v>12000</v>
       </c>
       <c r="Q114" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos granel</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="R114" t="inlineStr">
@@ -9506,7 +9506,7 @@
         </is>
       </c>
       <c r="S114" t="n">
-        <v>500</v>
+        <v>667</v>
       </c>
       <c r="T114" t="n">
         <v>18</v>
@@ -9527,7 +9527,7 @@
         </is>
       </c>
       <c r="D115" s="2" t="n">
-        <v>44350</v>
+        <v>44348</v>
       </c>
       <c r="E115" t="n">
         <v>7</v>
@@ -9564,29 +9564,29 @@
         </is>
       </c>
       <c r="M115" t="n">
-        <v>100</v>
+        <v>230</v>
       </c>
       <c r="N115" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="O115" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="P115" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="Q115" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos granel</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="R115" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S115" t="n">
-        <v>500</v>
+        <v>556</v>
       </c>
       <c r="T115" t="n">
         <v>18</v>
@@ -9607,7 +9607,7 @@
         </is>
       </c>
       <c r="D116" s="2" t="n">
-        <v>44350</v>
+        <v>44348</v>
       </c>
       <c r="E116" t="n">
         <v>7</v>
@@ -9644,16 +9644,16 @@
         </is>
       </c>
       <c r="M116" t="n">
-        <v>210</v>
+        <v>190</v>
       </c>
       <c r="N116" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="O116" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="P116" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="Q116" t="inlineStr">
         <is>
@@ -9666,7 +9666,7 @@
         </is>
       </c>
       <c r="S116" t="n">
-        <v>389</v>
+        <v>444</v>
       </c>
       <c r="T116" t="n">
         <v>18</v>
@@ -9687,7 +9687,7 @@
         </is>
       </c>
       <c r="D117" s="2" t="n">
-        <v>44350</v>
+        <v>44263</v>
       </c>
       <c r="E117" t="n">
         <v>7</v>
@@ -9720,24 +9720,24 @@
       </c>
       <c r="L117" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M117" t="n">
-        <v>150</v>
+        <v>180</v>
       </c>
       <c r="N117" t="n">
-        <v>7000</v>
+        <v>12000</v>
       </c>
       <c r="O117" t="n">
-        <v>7000</v>
+        <v>12000</v>
       </c>
       <c r="P117" t="n">
-        <v>7000</v>
+        <v>12000</v>
       </c>
       <c r="Q117" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos granel</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R117" t="inlineStr">
@@ -9746,10 +9746,10 @@
         </is>
       </c>
       <c r="S117" t="n">
-        <v>389</v>
+        <v>1200</v>
       </c>
       <c r="T117" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="118">
@@ -9767,7 +9767,7 @@
         </is>
       </c>
       <c r="D118" s="2" t="n">
-        <v>44315</v>
+        <v>44316</v>
       </c>
       <c r="E118" t="n">
         <v>7</v>
@@ -9804,7 +9804,7 @@
         </is>
       </c>
       <c r="M118" t="n">
-        <v>140</v>
+        <v>160</v>
       </c>
       <c r="N118" t="n">
         <v>12000</v>
@@ -9817,7 +9817,7 @@
       </c>
       <c r="Q118" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R118" t="inlineStr">
@@ -9847,7 +9847,7 @@
         </is>
       </c>
       <c r="D119" s="2" t="n">
-        <v>44315</v>
+        <v>44316</v>
       </c>
       <c r="E119" t="n">
         <v>7</v>
@@ -9884,7 +9884,7 @@
         </is>
       </c>
       <c r="M119" t="n">
-        <v>120</v>
+        <v>200</v>
       </c>
       <c r="N119" t="n">
         <v>10000</v>
@@ -9897,7 +9897,7 @@
       </c>
       <c r="Q119" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R119" t="inlineStr">
@@ -9927,7 +9927,7 @@
         </is>
       </c>
       <c r="D120" s="2" t="n">
-        <v>44315</v>
+        <v>44316</v>
       </c>
       <c r="E120" t="n">
         <v>7</v>
@@ -9960,24 +9960,24 @@
       </c>
       <c r="L120" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M120" t="n">
-        <v>50</v>
+        <v>190</v>
       </c>
       <c r="N120" t="n">
-        <v>8000</v>
+        <v>13000</v>
       </c>
       <c r="O120" t="n">
-        <v>8000</v>
+        <v>13000</v>
       </c>
       <c r="P120" t="n">
-        <v>8000</v>
+        <v>13000</v>
       </c>
       <c r="Q120" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="R120" t="inlineStr">
@@ -9986,10 +9986,10 @@
         </is>
       </c>
       <c r="S120" t="n">
-        <v>800</v>
+        <v>722</v>
       </c>
       <c r="T120" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
     </row>
     <row r="121">
@@ -10007,7 +10007,7 @@
         </is>
       </c>
       <c r="D121" s="2" t="n">
-        <v>44358</v>
+        <v>44341</v>
       </c>
       <c r="E121" t="n">
         <v>7</v>
@@ -10044,16 +10044,16 @@
         </is>
       </c>
       <c r="M121" t="n">
-        <v>230</v>
+        <v>200</v>
       </c>
       <c r="N121" t="n">
-        <v>13000</v>
+        <v>10000</v>
       </c>
       <c r="O121" t="n">
-        <v>13000</v>
+        <v>10000</v>
       </c>
       <c r="P121" t="n">
-        <v>13000</v>
+        <v>10000</v>
       </c>
       <c r="Q121" t="inlineStr">
         <is>
@@ -10066,7 +10066,7 @@
         </is>
       </c>
       <c r="S121" t="n">
-        <v>722</v>
+        <v>556</v>
       </c>
       <c r="T121" t="n">
         <v>18</v>
@@ -10087,7 +10087,7 @@
         </is>
       </c>
       <c r="D122" s="2" t="n">
-        <v>44358</v>
+        <v>44341</v>
       </c>
       <c r="E122" t="n">
         <v>7</v>
@@ -10120,11 +10120,11 @@
       </c>
       <c r="L122" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M122" t="n">
-        <v>250</v>
+        <v>210</v>
       </c>
       <c r="N122" t="n">
         <v>9000</v>
@@ -10137,7 +10137,7 @@
       </c>
       <c r="Q122" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="R122" t="inlineStr">
@@ -10146,10 +10146,10 @@
         </is>
       </c>
       <c r="S122" t="n">
-        <v>900</v>
+        <v>500</v>
       </c>
       <c r="T122" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
     </row>
     <row r="123">
@@ -10167,7 +10167,7 @@
         </is>
       </c>
       <c r="D123" s="2" t="n">
-        <v>44358</v>
+        <v>44414</v>
       </c>
       <c r="E123" t="n">
         <v>7</v>
@@ -10204,20 +10204,20 @@
         </is>
       </c>
       <c r="M123" t="n">
-        <v>210</v>
+        <v>150</v>
       </c>
       <c r="N123" t="n">
-        <v>11000</v>
+        <v>8000</v>
       </c>
       <c r="O123" t="n">
-        <v>11000</v>
+        <v>8000</v>
       </c>
       <c r="P123" t="n">
-        <v>11000</v>
+        <v>8000</v>
       </c>
       <c r="Q123" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R123" t="inlineStr">
@@ -10226,10 +10226,10 @@
         </is>
       </c>
       <c r="S123" t="n">
-        <v>611</v>
+        <v>800</v>
       </c>
       <c r="T123" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="124">
@@ -10247,7 +10247,7 @@
         </is>
       </c>
       <c r="D124" s="2" t="n">
-        <v>44358</v>
+        <v>44414</v>
       </c>
       <c r="E124" t="n">
         <v>7</v>
@@ -10284,20 +10284,20 @@
         </is>
       </c>
       <c r="M124" t="n">
-        <v>200</v>
+        <v>190</v>
       </c>
       <c r="N124" t="n">
-        <v>7000</v>
+        <v>12000</v>
       </c>
       <c r="O124" t="n">
-        <v>7000</v>
+        <v>12000</v>
       </c>
       <c r="P124" t="n">
-        <v>7000</v>
+        <v>12000</v>
       </c>
       <c r="Q124" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="R124" t="inlineStr">
@@ -10306,10 +10306,10 @@
         </is>
       </c>
       <c r="S124" t="n">
-        <v>700</v>
+        <v>667</v>
       </c>
       <c r="T124" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
     </row>
     <row r="125">
@@ -10327,7 +10327,7 @@
         </is>
       </c>
       <c r="D125" s="2" t="n">
-        <v>44358</v>
+        <v>44414</v>
       </c>
       <c r="E125" t="n">
         <v>7</v>
@@ -10364,16 +10364,16 @@
         </is>
       </c>
       <c r="M125" t="n">
-        <v>190</v>
+        <v>100</v>
       </c>
       <c r="N125" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="O125" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="P125" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="Q125" t="inlineStr">
         <is>
@@ -10386,7 +10386,7 @@
         </is>
       </c>
       <c r="S125" t="n">
-        <v>500</v>
+        <v>556</v>
       </c>
       <c r="T125" t="n">
         <v>18</v>
@@ -10407,7 +10407,7 @@
         </is>
       </c>
       <c r="D126" s="2" t="n">
-        <v>44389</v>
+        <v>44432</v>
       </c>
       <c r="E126" t="n">
         <v>7</v>
@@ -10440,24 +10440,24 @@
       </c>
       <c r="L126" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M126" t="n">
-        <v>300</v>
+        <v>210</v>
       </c>
       <c r="N126" t="n">
-        <v>6000</v>
+        <v>14000</v>
       </c>
       <c r="O126" t="n">
-        <v>6000</v>
+        <v>14000</v>
       </c>
       <c r="P126" t="n">
-        <v>6000</v>
+        <v>14000</v>
       </c>
       <c r="Q126" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="R126" t="inlineStr">
@@ -10466,10 +10466,10 @@
         </is>
       </c>
       <c r="S126" t="n">
-        <v>600</v>
+        <v>778</v>
       </c>
       <c r="T126" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
     </row>
     <row r="127">
@@ -10487,7 +10487,7 @@
         </is>
       </c>
       <c r="D127" s="2" t="n">
-        <v>44399</v>
+        <v>44351</v>
       </c>
       <c r="E127" t="n">
         <v>7</v>
@@ -10520,24 +10520,24 @@
       </c>
       <c r="L127" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M127" t="n">
         <v>260</v>
       </c>
       <c r="N127" t="n">
-        <v>5000</v>
+        <v>11000</v>
       </c>
       <c r="O127" t="n">
-        <v>5000</v>
+        <v>11000</v>
       </c>
       <c r="P127" t="n">
-        <v>5000</v>
+        <v>11000</v>
       </c>
       <c r="Q127" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="R127" t="inlineStr">
@@ -10546,10 +10546,10 @@
         </is>
       </c>
       <c r="S127" t="n">
-        <v>500</v>
+        <v>611</v>
       </c>
       <c r="T127" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
     </row>
     <row r="128">
@@ -10567,7 +10567,7 @@
         </is>
       </c>
       <c r="D128" s="2" t="n">
-        <v>44399</v>
+        <v>44351</v>
       </c>
       <c r="E128" t="n">
         <v>7</v>
@@ -10604,7 +10604,7 @@
         </is>
       </c>
       <c r="M128" t="n">
-        <v>260</v>
+        <v>200</v>
       </c>
       <c r="N128" t="n">
         <v>10000</v>
@@ -10617,7 +10617,7 @@
       </c>
       <c r="Q128" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos granel</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="R128" t="inlineStr">
@@ -10647,7 +10647,7 @@
         </is>
       </c>
       <c r="D129" s="2" t="n">
-        <v>44420</v>
+        <v>44351</v>
       </c>
       <c r="E129" t="n">
         <v>7</v>
@@ -10680,36 +10680,36 @@
       </c>
       <c r="L129" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M129" t="n">
-        <v>120</v>
+        <v>230</v>
       </c>
       <c r="N129" t="n">
-        <v>14000</v>
+        <v>8000</v>
       </c>
       <c r="O129" t="n">
-        <v>14000</v>
+        <v>8000</v>
       </c>
       <c r="P129" t="n">
-        <v>14000</v>
+        <v>8000</v>
       </c>
       <c r="Q129" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="R129" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S129" t="n">
-        <v>778</v>
+        <v>800</v>
       </c>
       <c r="T129" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="130">
@@ -10727,7 +10727,7 @@
         </is>
       </c>
       <c r="D130" s="2" t="n">
-        <v>44420</v>
+        <v>44369</v>
       </c>
       <c r="E130" t="n">
         <v>7</v>
@@ -10760,24 +10760,24 @@
       </c>
       <c r="L130" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M130" t="n">
-        <v>200</v>
+        <v>230</v>
       </c>
       <c r="N130" t="n">
-        <v>12000</v>
+        <v>8000</v>
       </c>
       <c r="O130" t="n">
-        <v>12000</v>
+        <v>8000</v>
       </c>
       <c r="P130" t="n">
-        <v>12000</v>
+        <v>8000</v>
       </c>
       <c r="Q130" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R130" t="inlineStr">
@@ -10786,10 +10786,10 @@
         </is>
       </c>
       <c r="S130" t="n">
-        <v>667</v>
+        <v>800</v>
       </c>
       <c r="T130" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="131">
@@ -10844,20 +10844,20 @@
         </is>
       </c>
       <c r="M131" t="n">
-        <v>230</v>
+        <v>100</v>
       </c>
       <c r="N131" t="n">
-        <v>8000</v>
+        <v>12000</v>
       </c>
       <c r="O131" t="n">
-        <v>8000</v>
+        <v>12000</v>
       </c>
       <c r="P131" t="n">
-        <v>8000</v>
+        <v>12000</v>
       </c>
       <c r="Q131" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="R131" t="inlineStr">
@@ -10866,10 +10866,10 @@
         </is>
       </c>
       <c r="S131" t="n">
-        <v>800</v>
+        <v>667</v>
       </c>
       <c r="T131" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
     </row>
     <row r="132">
@@ -10920,24 +10920,24 @@
       </c>
       <c r="L132" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M132" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="N132" t="n">
-        <v>12000</v>
+        <v>6000</v>
       </c>
       <c r="O132" t="n">
-        <v>12000</v>
+        <v>6000</v>
       </c>
       <c r="P132" t="n">
-        <v>12000</v>
+        <v>6000</v>
       </c>
       <c r="Q132" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R132" t="inlineStr">
@@ -10946,10 +10946,10 @@
         </is>
       </c>
       <c r="S132" t="n">
-        <v>667</v>
+        <v>600</v>
       </c>
       <c r="T132" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="133">
@@ -11004,20 +11004,20 @@
         </is>
       </c>
       <c r="M133" t="n">
-        <v>200</v>
+        <v>180</v>
       </c>
       <c r="N133" t="n">
-        <v>6000</v>
+        <v>10000</v>
       </c>
       <c r="O133" t="n">
-        <v>6000</v>
+        <v>10000</v>
       </c>
       <c r="P133" t="n">
-        <v>6000</v>
+        <v>10000</v>
       </c>
       <c r="Q133" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="R133" t="inlineStr">
@@ -11026,10 +11026,10 @@
         </is>
       </c>
       <c r="S133" t="n">
-        <v>600</v>
+        <v>556</v>
       </c>
       <c r="T133" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
     </row>
     <row r="134">
@@ -11047,7 +11047,7 @@
         </is>
       </c>
       <c r="D134" s="2" t="n">
-        <v>44369</v>
+        <v>44342</v>
       </c>
       <c r="E134" t="n">
         <v>7</v>
@@ -11084,16 +11084,16 @@
         </is>
       </c>
       <c r="M134" t="n">
-        <v>180</v>
+        <v>250</v>
       </c>
       <c r="N134" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="O134" t="n">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="P134" t="n">
-        <v>10000</v>
+        <v>8600</v>
       </c>
       <c r="Q134" t="inlineStr">
         <is>
@@ -11106,7 +11106,7 @@
         </is>
       </c>
       <c r="S134" t="n">
-        <v>556</v>
+        <v>478</v>
       </c>
       <c r="T134" t="n">
         <v>18</v>
@@ -11127,7 +11127,7 @@
         </is>
       </c>
       <c r="D135" s="2" t="n">
-        <v>44333</v>
+        <v>44379</v>
       </c>
       <c r="E135" t="n">
         <v>7</v>
@@ -11164,7 +11164,7 @@
         </is>
       </c>
       <c r="M135" t="n">
-        <v>150</v>
+        <v>200</v>
       </c>
       <c r="N135" t="n">
         <v>12000</v>
@@ -11182,7 +11182,7 @@
       </c>
       <c r="R135" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S135" t="n">
@@ -11207,7 +11207,7 @@
         </is>
       </c>
       <c r="D136" s="2" t="n">
-        <v>44333</v>
+        <v>44379</v>
       </c>
       <c r="E136" t="n">
         <v>7</v>
@@ -11244,7 +11244,7 @@
         </is>
       </c>
       <c r="M136" t="n">
-        <v>100</v>
+        <v>160</v>
       </c>
       <c r="N136" t="n">
         <v>10000</v>
@@ -11262,7 +11262,7 @@
       </c>
       <c r="R136" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S136" t="n">
@@ -11287,7 +11287,7 @@
         </is>
       </c>
       <c r="D137" s="2" t="n">
-        <v>44433</v>
+        <v>44315</v>
       </c>
       <c r="E137" t="n">
         <v>7</v>
@@ -11324,20 +11324,20 @@
         </is>
       </c>
       <c r="M137" t="n">
-        <v>120</v>
+        <v>140</v>
       </c>
       <c r="N137" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="O137" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="P137" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="Q137" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="R137" t="inlineStr">
@@ -11346,10 +11346,10 @@
         </is>
       </c>
       <c r="S137" t="n">
-        <v>778</v>
+        <v>1200</v>
       </c>
       <c r="T137" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="138">
@@ -11367,7 +11367,7 @@
         </is>
       </c>
       <c r="D138" s="2" t="n">
-        <v>44433</v>
+        <v>44315</v>
       </c>
       <c r="E138" t="n">
         <v>7</v>
@@ -11404,20 +11404,20 @@
         </is>
       </c>
       <c r="M138" t="n">
-        <v>180</v>
+        <v>120</v>
       </c>
       <c r="N138" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="O138" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="P138" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="Q138" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="R138" t="inlineStr">
@@ -11426,10 +11426,10 @@
         </is>
       </c>
       <c r="S138" t="n">
-        <v>667</v>
+        <v>1000</v>
       </c>
       <c r="T138" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="139">
@@ -11447,7 +11447,7 @@
         </is>
       </c>
       <c r="D139" s="2" t="n">
-        <v>44309</v>
+        <v>44315</v>
       </c>
       <c r="E139" t="n">
         <v>7</v>
@@ -11480,24 +11480,24 @@
       </c>
       <c r="L139" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M139" t="n">
-        <v>160</v>
+        <v>50</v>
       </c>
       <c r="N139" t="n">
-        <v>14000</v>
+        <v>8000</v>
       </c>
       <c r="O139" t="n">
-        <v>14000</v>
+        <v>8000</v>
       </c>
       <c r="P139" t="n">
-        <v>14000</v>
+        <v>8000</v>
       </c>
       <c r="Q139" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="R139" t="inlineStr">
@@ -11506,10 +11506,10 @@
         </is>
       </c>
       <c r="S139" t="n">
-        <v>778</v>
+        <v>800</v>
       </c>
       <c r="T139" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="140">
@@ -11527,7 +11527,7 @@
         </is>
       </c>
       <c r="D140" s="2" t="n">
-        <v>44309</v>
+        <v>44391</v>
       </c>
       <c r="E140" t="n">
         <v>7</v>
@@ -11560,24 +11560,24 @@
       </c>
       <c r="L140" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M140" t="n">
-        <v>250</v>
+        <v>200</v>
       </c>
       <c r="N140" t="n">
-        <v>8000</v>
+        <v>11000</v>
       </c>
       <c r="O140" t="n">
-        <v>9000</v>
+        <v>11000</v>
       </c>
       <c r="P140" t="n">
-        <v>8600</v>
+        <v>11000</v>
       </c>
       <c r="Q140" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="R140" t="inlineStr">
@@ -11586,10 +11586,10 @@
         </is>
       </c>
       <c r="S140" t="n">
-        <v>860</v>
+        <v>611</v>
       </c>
       <c r="T140" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
     </row>
     <row r="141">
@@ -11607,7 +11607,7 @@
         </is>
       </c>
       <c r="D141" s="2" t="n">
-        <v>44309</v>
+        <v>44391</v>
       </c>
       <c r="E141" t="n">
         <v>7</v>
@@ -11644,16 +11644,16 @@
         </is>
       </c>
       <c r="M141" t="n">
-        <v>100</v>
+        <v>250</v>
       </c>
       <c r="N141" t="n">
-        <v>12000</v>
+        <v>9500</v>
       </c>
       <c r="O141" t="n">
-        <v>12000</v>
+        <v>9500</v>
       </c>
       <c r="P141" t="n">
-        <v>12000</v>
+        <v>9500</v>
       </c>
       <c r="Q141" t="inlineStr">
         <is>
@@ -11666,7 +11666,7 @@
         </is>
       </c>
       <c r="S141" t="n">
-        <v>667</v>
+        <v>528</v>
       </c>
       <c r="T141" t="n">
         <v>18</v>
@@ -11687,7 +11687,7 @@
         </is>
       </c>
       <c r="D142" s="2" t="n">
-        <v>44316</v>
+        <v>44446</v>
       </c>
       <c r="E142" t="n">
         <v>7</v>
@@ -11724,20 +11724,20 @@
         </is>
       </c>
       <c r="M142" t="n">
-        <v>160</v>
+        <v>180</v>
       </c>
       <c r="N142" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="O142" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="P142" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="Q142" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="R142" t="inlineStr">
@@ -11746,10 +11746,10 @@
         </is>
       </c>
       <c r="S142" t="n">
-        <v>1200</v>
+        <v>778</v>
       </c>
       <c r="T142" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
     </row>
     <row r="143">
@@ -11767,7 +11767,7 @@
         </is>
       </c>
       <c r="D143" s="2" t="n">
-        <v>44316</v>
+        <v>44446</v>
       </c>
       <c r="E143" t="n">
         <v>7</v>
@@ -11804,20 +11804,20 @@
         </is>
       </c>
       <c r="M143" t="n">
-        <v>200</v>
+        <v>230</v>
       </c>
       <c r="N143" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="O143" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="P143" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="Q143" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="R143" t="inlineStr">
@@ -11826,10 +11826,10 @@
         </is>
       </c>
       <c r="S143" t="n">
-        <v>1000</v>
+        <v>667</v>
       </c>
       <c r="T143" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
     </row>
     <row r="144">
@@ -11847,7 +11847,7 @@
         </is>
       </c>
       <c r="D144" s="2" t="n">
-        <v>44316</v>
+        <v>44446</v>
       </c>
       <c r="E144" t="n">
         <v>7</v>
@@ -11880,24 +11880,24 @@
       </c>
       <c r="L144" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M144" t="n">
-        <v>190</v>
+        <v>150</v>
       </c>
       <c r="N144" t="n">
-        <v>13000</v>
+        <v>10000</v>
       </c>
       <c r="O144" t="n">
-        <v>13000</v>
+        <v>10000</v>
       </c>
       <c r="P144" t="n">
-        <v>13000</v>
+        <v>10000</v>
       </c>
       <c r="Q144" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="R144" t="inlineStr">
@@ -11906,7 +11906,7 @@
         </is>
       </c>
       <c r="S144" t="n">
-        <v>722</v>
+        <v>556</v>
       </c>
       <c r="T144" t="n">
         <v>18</v>
@@ -11927,7 +11927,7 @@
         </is>
       </c>
       <c r="D145" s="2" t="n">
-        <v>44281</v>
+        <v>44313</v>
       </c>
       <c r="E145" t="n">
         <v>7</v>
@@ -11964,16 +11964,16 @@
         </is>
       </c>
       <c r="M145" t="n">
-        <v>210</v>
+        <v>350</v>
       </c>
       <c r="N145" t="n">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="O145" t="n">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="P145" t="n">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="Q145" t="inlineStr">
         <is>
@@ -11986,7 +11986,7 @@
         </is>
       </c>
       <c r="S145" t="n">
-        <v>1000</v>
+        <v>900</v>
       </c>
       <c r="T145" t="n">
         <v>10</v>
@@ -12007,7 +12007,7 @@
         </is>
       </c>
       <c r="D146" s="2" t="n">
-        <v>44370</v>
+        <v>44313</v>
       </c>
       <c r="E146" t="n">
         <v>7</v>
@@ -12040,24 +12040,24 @@
       </c>
       <c r="L146" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="M146" t="n">
-        <v>100</v>
+        <v>250</v>
       </c>
       <c r="N146" t="n">
-        <v>12000</v>
+        <v>6000</v>
       </c>
       <c r="O146" t="n">
-        <v>12000</v>
+        <v>6000</v>
       </c>
       <c r="P146" t="n">
-        <v>12000</v>
+        <v>6000</v>
       </c>
       <c r="Q146" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R146" t="inlineStr">
@@ -12066,10 +12066,10 @@
         </is>
       </c>
       <c r="S146" t="n">
-        <v>667</v>
+        <v>600</v>
       </c>
       <c r="T146" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="147">
@@ -12087,7 +12087,7 @@
         </is>
       </c>
       <c r="D147" s="2" t="n">
-        <v>44370</v>
+        <v>44329</v>
       </c>
       <c r="E147" t="n">
         <v>7</v>
@@ -12124,20 +12124,20 @@
         </is>
       </c>
       <c r="M147" t="n">
-        <v>120</v>
+        <v>300</v>
       </c>
       <c r="N147" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="O147" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="P147" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="Q147" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="R147" t="inlineStr">
@@ -12146,10 +12146,10 @@
         </is>
       </c>
       <c r="S147" t="n">
-        <v>556</v>
+        <v>800</v>
       </c>
       <c r="T147" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="148">
@@ -12167,7 +12167,7 @@
         </is>
       </c>
       <c r="D148" s="2" t="n">
-        <v>44370</v>
+        <v>44438</v>
       </c>
       <c r="E148" t="n">
         <v>7</v>
@@ -12200,20 +12200,20 @@
       </c>
       <c r="L148" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M148" t="n">
-        <v>60</v>
+        <v>230</v>
       </c>
       <c r="N148" t="n">
-        <v>8000</v>
+        <v>13000</v>
       </c>
       <c r="O148" t="n">
-        <v>8000</v>
+        <v>13000</v>
       </c>
       <c r="P148" t="n">
-        <v>8000</v>
+        <v>13000</v>
       </c>
       <c r="Q148" t="inlineStr">
         <is>
@@ -12226,7 +12226,7 @@
         </is>
       </c>
       <c r="S148" t="n">
-        <v>444</v>
+        <v>722</v>
       </c>
       <c r="T148" t="n">
         <v>18</v>
@@ -12247,7 +12247,7 @@
         </is>
       </c>
       <c r="D149" s="2" t="n">
-        <v>44326</v>
+        <v>44438</v>
       </c>
       <c r="E149" t="n">
         <v>7</v>
@@ -12280,20 +12280,20 @@
       </c>
       <c r="L149" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M149" t="n">
-        <v>130</v>
+        <v>300</v>
       </c>
       <c r="N149" t="n">
-        <v>14000</v>
+        <v>11000</v>
       </c>
       <c r="O149" t="n">
-        <v>14000</v>
+        <v>11000</v>
       </c>
       <c r="P149" t="n">
-        <v>14000</v>
+        <v>11000</v>
       </c>
       <c r="Q149" t="inlineStr">
         <is>
@@ -12306,7 +12306,7 @@
         </is>
       </c>
       <c r="S149" t="n">
-        <v>778</v>
+        <v>611</v>
       </c>
       <c r="T149" t="n">
         <v>18</v>
@@ -12327,7 +12327,7 @@
         </is>
       </c>
       <c r="D150" s="2" t="n">
-        <v>44326</v>
+        <v>44428</v>
       </c>
       <c r="E150" t="n">
         <v>7</v>
@@ -12360,20 +12360,20 @@
       </c>
       <c r="L150" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M150" t="n">
-        <v>100</v>
+        <v>230</v>
       </c>
       <c r="N150" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="O150" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="P150" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="Q150" t="inlineStr">
         <is>
@@ -12386,7 +12386,7 @@
         </is>
       </c>
       <c r="S150" t="n">
-        <v>667</v>
+        <v>778</v>
       </c>
       <c r="T150" t="n">
         <v>18</v>
@@ -12407,7 +12407,7 @@
         </is>
       </c>
       <c r="D151" s="2" t="n">
-        <v>44382</v>
+        <v>44428</v>
       </c>
       <c r="E151" t="n">
         <v>7</v>
@@ -12440,11 +12440,11 @@
       </c>
       <c r="L151" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M151" t="n">
-        <v>150</v>
+        <v>200</v>
       </c>
       <c r="N151" t="n">
         <v>12000</v>
@@ -12487,7 +12487,7 @@
         </is>
       </c>
       <c r="D152" s="2" t="n">
-        <v>44382</v>
+        <v>44428</v>
       </c>
       <c r="E152" t="n">
         <v>7</v>
@@ -12520,24 +12520,24 @@
       </c>
       <c r="L152" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M152" t="n">
-        <v>200</v>
+        <v>120</v>
       </c>
       <c r="N152" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="O152" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="P152" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="Q152" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="R152" t="inlineStr">
@@ -12546,7 +12546,7 @@
         </is>
       </c>
       <c r="S152" t="n">
-        <v>556</v>
+        <v>444</v>
       </c>
       <c r="T152" t="n">
         <v>18</v>
@@ -12567,7 +12567,7 @@
         </is>
       </c>
       <c r="D153" s="2" t="n">
-        <v>44398</v>
+        <v>44442</v>
       </c>
       <c r="E153" t="n">
         <v>7</v>
@@ -12604,16 +12604,16 @@
         </is>
       </c>
       <c r="M153" t="n">
-        <v>150</v>
+        <v>180</v>
       </c>
       <c r="N153" t="n">
-        <v>13000</v>
+        <v>14000</v>
       </c>
       <c r="O153" t="n">
-        <v>13000</v>
+        <v>14000</v>
       </c>
       <c r="P153" t="n">
-        <v>13000</v>
+        <v>14000</v>
       </c>
       <c r="Q153" t="inlineStr">
         <is>
@@ -12626,7 +12626,7 @@
         </is>
       </c>
       <c r="S153" t="n">
-        <v>722</v>
+        <v>778</v>
       </c>
       <c r="T153" t="n">
         <v>18</v>
@@ -12647,7 +12647,7 @@
         </is>
       </c>
       <c r="D154" s="2" t="n">
-        <v>44398</v>
+        <v>44442</v>
       </c>
       <c r="E154" t="n">
         <v>7</v>
@@ -12680,20 +12680,20 @@
       </c>
       <c r="L154" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M154" t="n">
-        <v>180</v>
+        <v>230</v>
       </c>
       <c r="N154" t="n">
-        <v>13000</v>
+        <v>12000</v>
       </c>
       <c r="O154" t="n">
-        <v>13000</v>
+        <v>12000</v>
       </c>
       <c r="P154" t="n">
-        <v>13000</v>
+        <v>12000</v>
       </c>
       <c r="Q154" t="inlineStr">
         <is>
@@ -12702,11 +12702,11 @@
       </c>
       <c r="R154" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S154" t="n">
-        <v>722</v>
+        <v>667</v>
       </c>
       <c r="T154" t="n">
         <v>18</v>
@@ -12727,7 +12727,7 @@
         </is>
       </c>
       <c r="D155" s="2" t="n">
-        <v>44398</v>
+        <v>44442</v>
       </c>
       <c r="E155" t="n">
         <v>7</v>
@@ -12764,7 +12764,7 @@
         </is>
       </c>
       <c r="M155" t="n">
-        <v>260</v>
+        <v>250</v>
       </c>
       <c r="N155" t="n">
         <v>10000</v>
@@ -12782,7 +12782,7 @@
       </c>
       <c r="R155" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S155" t="n">
@@ -12807,7 +12807,7 @@
         </is>
       </c>
       <c r="D156" s="2" t="n">
-        <v>44398</v>
+        <v>44442</v>
       </c>
       <c r="E156" t="n">
         <v>7</v>
@@ -12840,20 +12840,20 @@
       </c>
       <c r="L156" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M156" t="n">
-        <v>220</v>
+        <v>200</v>
       </c>
       <c r="N156" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="O156" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="P156" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="Q156" t="inlineStr">
         <is>
@@ -12862,11 +12862,11 @@
       </c>
       <c r="R156" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S156" t="n">
-        <v>500</v>
+        <v>556</v>
       </c>
       <c r="T156" t="n">
         <v>18</v>
@@ -12887,7 +12887,7 @@
         </is>
       </c>
       <c r="D157" s="2" t="n">
-        <v>44355</v>
+        <v>44442</v>
       </c>
       <c r="E157" t="n">
         <v>7</v>
@@ -12924,32 +12924,32 @@
         </is>
       </c>
       <c r="M157" t="n">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="N157" t="n">
-        <v>6000</v>
+        <v>8000</v>
       </c>
       <c r="O157" t="n">
-        <v>6000</v>
+        <v>8000</v>
       </c>
       <c r="P157" t="n">
-        <v>6000</v>
+        <v>8000</v>
       </c>
       <c r="Q157" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="R157" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S157" t="n">
-        <v>600</v>
+        <v>444</v>
       </c>
       <c r="T157" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
     </row>
     <row r="158">
@@ -12967,7 +12967,7 @@
         </is>
       </c>
       <c r="D158" s="2" t="n">
-        <v>44343</v>
+        <v>44435</v>
       </c>
       <c r="E158" t="n">
         <v>7</v>
@@ -13004,16 +13004,16 @@
         </is>
       </c>
       <c r="M158" t="n">
-        <v>120</v>
+        <v>390</v>
       </c>
       <c r="N158" t="n">
-        <v>10000</v>
+        <v>14000</v>
       </c>
       <c r="O158" t="n">
-        <v>10000</v>
+        <v>14000</v>
       </c>
       <c r="P158" t="n">
-        <v>10000</v>
+        <v>14000</v>
       </c>
       <c r="Q158" t="inlineStr">
         <is>
@@ -13026,7 +13026,7 @@
         </is>
       </c>
       <c r="S158" t="n">
-        <v>556</v>
+        <v>778</v>
       </c>
       <c r="T158" t="n">
         <v>18</v>
@@ -13047,7 +13047,7 @@
         </is>
       </c>
       <c r="D159" s="2" t="n">
-        <v>44343</v>
+        <v>44435</v>
       </c>
       <c r="E159" t="n">
         <v>7</v>
@@ -13080,24 +13080,24 @@
       </c>
       <c r="L159" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M159" t="n">
         <v>160</v>
       </c>
       <c r="N159" t="n">
-        <v>9000</v>
+        <v>8000</v>
       </c>
       <c r="O159" t="n">
-        <v>9000</v>
+        <v>8000</v>
       </c>
       <c r="P159" t="n">
-        <v>9000</v>
+        <v>8000</v>
       </c>
       <c r="Q159" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="R159" t="inlineStr">
@@ -13106,10 +13106,10 @@
         </is>
       </c>
       <c r="S159" t="n">
-        <v>500</v>
+        <v>800</v>
       </c>
       <c r="T159" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="160">
@@ -13127,7 +13127,7 @@
         </is>
       </c>
       <c r="D160" s="2" t="n">
-        <v>44376</v>
+        <v>44435</v>
       </c>
       <c r="E160" t="n">
         <v>7</v>
@@ -13160,24 +13160,24 @@
       </c>
       <c r="L160" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M160" t="n">
-        <v>260</v>
+        <v>330</v>
       </c>
       <c r="N160" t="n">
-        <v>9000</v>
+        <v>14000</v>
       </c>
       <c r="O160" t="n">
-        <v>9000</v>
+        <v>14000</v>
       </c>
       <c r="P160" t="n">
-        <v>9000</v>
+        <v>14000</v>
       </c>
       <c r="Q160" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="R160" t="inlineStr">
@@ -13186,7 +13186,7 @@
         </is>
       </c>
       <c r="S160" t="n">
-        <v>500</v>
+        <v>778</v>
       </c>
       <c r="T160" t="n">
         <v>18</v>
@@ -13207,7 +13207,7 @@
         </is>
       </c>
       <c r="D161" s="2" t="n">
-        <v>44284</v>
+        <v>44435</v>
       </c>
       <c r="E161" t="n">
         <v>7</v>
@@ -13240,20 +13240,20 @@
       </c>
       <c r="L161" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M161" t="n">
-        <v>200</v>
+        <v>250</v>
       </c>
       <c r="N161" t="n">
-        <v>7000</v>
+        <v>12000</v>
       </c>
       <c r="O161" t="n">
-        <v>7000</v>
+        <v>12000</v>
       </c>
       <c r="P161" t="n">
-        <v>7000</v>
+        <v>12000</v>
       </c>
       <c r="Q161" t="inlineStr">
         <is>
@@ -13266,7 +13266,7 @@
         </is>
       </c>
       <c r="S161" t="n">
-        <v>389</v>
+        <v>667</v>
       </c>
       <c r="T161" t="n">
         <v>18</v>
@@ -13287,7 +13287,7 @@
         </is>
       </c>
       <c r="D162" s="2" t="n">
-        <v>44418</v>
+        <v>44435</v>
       </c>
       <c r="E162" t="n">
         <v>7</v>
@@ -13320,24 +13320,24 @@
       </c>
       <c r="L162" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M162" t="n">
-        <v>100</v>
+        <v>230</v>
       </c>
       <c r="N162" t="n">
-        <v>14000</v>
+        <v>7000</v>
       </c>
       <c r="O162" t="n">
-        <v>14000</v>
+        <v>7000</v>
       </c>
       <c r="P162" t="n">
-        <v>14000</v>
+        <v>7000</v>
       </c>
       <c r="Q162" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="R162" t="inlineStr">
@@ -13346,10 +13346,10 @@
         </is>
       </c>
       <c r="S162" t="n">
-        <v>778</v>
+        <v>700</v>
       </c>
       <c r="T162" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="163">
@@ -13367,7 +13367,7 @@
         </is>
       </c>
       <c r="D163" s="2" t="n">
-        <v>44418</v>
+        <v>44435</v>
       </c>
       <c r="E163" t="n">
         <v>7</v>
@@ -13404,7 +13404,7 @@
         </is>
       </c>
       <c r="M163" t="n">
-        <v>200</v>
+        <v>180</v>
       </c>
       <c r="N163" t="n">
         <v>12000</v>
@@ -13417,7 +13417,7 @@
       </c>
       <c r="Q163" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="R163" t="inlineStr">
@@ -13447,7 +13447,7 @@
         </is>
       </c>
       <c r="D164" s="2" t="n">
-        <v>44418</v>
+        <v>44435</v>
       </c>
       <c r="E164" t="n">
         <v>7</v>
@@ -13484,7 +13484,7 @@
         </is>
       </c>
       <c r="M164" t="n">
-        <v>90</v>
+        <v>240</v>
       </c>
       <c r="N164" t="n">
         <v>10000</v>
@@ -13527,7 +13527,7 @@
         </is>
       </c>
       <c r="D165" s="2" t="n">
-        <v>44432</v>
+        <v>44376</v>
       </c>
       <c r="E165" t="n">
         <v>7</v>
@@ -13560,35 +13560,755 @@
       </c>
       <c r="L165" t="inlineStr">
         <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="M165" t="n">
+        <v>260</v>
+      </c>
+      <c r="N165" t="n">
+        <v>9000</v>
+      </c>
+      <c r="O165" t="n">
+        <v>9000</v>
+      </c>
+      <c r="P165" t="n">
+        <v>9000</v>
+      </c>
+      <c r="Q165" t="inlineStr">
+        <is>
+          <t>$/bandeja 18 kilos</t>
+        </is>
+      </c>
+      <c r="R165" t="inlineStr">
+        <is>
+          <t>Provincia de Curicó</t>
+        </is>
+      </c>
+      <c r="S165" t="n">
+        <v>500</v>
+      </c>
+      <c r="T165" t="n">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" t="n">
+        <v>5</v>
+      </c>
+      <c r="B166" t="inlineStr">
+        <is>
+          <t>Macroferia Regional de Talca</t>
+        </is>
+      </c>
+      <c r="C166" t="inlineStr">
+        <is>
+          <t>Maule</t>
+        </is>
+      </c>
+      <c r="D166" s="2" t="n">
+        <v>44412</v>
+      </c>
+      <c r="E166" t="n">
+        <v>7</v>
+      </c>
+      <c r="F166" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G166" t="n">
+        <v>100101</v>
+      </c>
+      <c r="H166" t="inlineStr">
+        <is>
+          <t>Berries</t>
+        </is>
+      </c>
+      <c r="I166" t="n">
+        <v>100101007</v>
+      </c>
+      <c r="J166" t="inlineStr">
+        <is>
+          <t>Kiwi</t>
+        </is>
+      </c>
+      <c r="K166" t="inlineStr">
+        <is>
+          <t>Hayward</t>
+        </is>
+      </c>
+      <c r="L166" t="inlineStr">
+        <is>
           <t>Especial</t>
         </is>
       </c>
-      <c r="M165" t="n">
-        <v>210</v>
-      </c>
-      <c r="N165" t="n">
+      <c r="M166" t="n">
+        <v>180</v>
+      </c>
+      <c r="N166" t="n">
         <v>14000</v>
       </c>
-      <c r="O165" t="n">
+      <c r="O166" t="n">
         <v>14000</v>
       </c>
-      <c r="P165" t="n">
+      <c r="P166" t="n">
         <v>14000</v>
       </c>
-      <c r="Q165" t="inlineStr">
-        <is>
-          <t>$/caja 18 kilos</t>
-        </is>
-      </c>
-      <c r="R165" t="inlineStr">
-        <is>
-          <t>Provincia de Curicó</t>
-        </is>
-      </c>
-      <c r="S165" t="n">
+      <c r="Q166" t="inlineStr">
+        <is>
+          <t>$/bandeja 18 kilos</t>
+        </is>
+      </c>
+      <c r="R166" t="inlineStr">
+        <is>
+          <t>Provincia de Curicó</t>
+        </is>
+      </c>
+      <c r="S166" t="n">
         <v>778</v>
       </c>
-      <c r="T165" t="n">
+      <c r="T166" t="n">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" t="n">
+        <v>5</v>
+      </c>
+      <c r="B167" t="inlineStr">
+        <is>
+          <t>Macroferia Regional de Talca</t>
+        </is>
+      </c>
+      <c r="C167" t="inlineStr">
+        <is>
+          <t>Maule</t>
+        </is>
+      </c>
+      <c r="D167" s="2" t="n">
+        <v>44412</v>
+      </c>
+      <c r="E167" t="n">
+        <v>7</v>
+      </c>
+      <c r="F167" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G167" t="n">
+        <v>100101</v>
+      </c>
+      <c r="H167" t="inlineStr">
+        <is>
+          <t>Berries</t>
+        </is>
+      </c>
+      <c r="I167" t="n">
+        <v>100101007</v>
+      </c>
+      <c r="J167" t="inlineStr">
+        <is>
+          <t>Kiwi</t>
+        </is>
+      </c>
+      <c r="K167" t="inlineStr">
+        <is>
+          <t>Hayward</t>
+        </is>
+      </c>
+      <c r="L167" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="M167" t="n">
+        <v>230</v>
+      </c>
+      <c r="N167" t="n">
+        <v>12000</v>
+      </c>
+      <c r="O167" t="n">
+        <v>12000</v>
+      </c>
+      <c r="P167" t="n">
+        <v>12000</v>
+      </c>
+      <c r="Q167" t="inlineStr">
+        <is>
+          <t>$/bandeja 18 kilos</t>
+        </is>
+      </c>
+      <c r="R167" t="inlineStr">
+        <is>
+          <t>Provincia de Curicó</t>
+        </is>
+      </c>
+      <c r="S167" t="n">
+        <v>667</v>
+      </c>
+      <c r="T167" t="n">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" t="n">
+        <v>5</v>
+      </c>
+      <c r="B168" t="inlineStr">
+        <is>
+          <t>Macroferia Regional de Talca</t>
+        </is>
+      </c>
+      <c r="C168" t="inlineStr">
+        <is>
+          <t>Maule</t>
+        </is>
+      </c>
+      <c r="D168" s="2" t="n">
+        <v>44314</v>
+      </c>
+      <c r="E168" t="n">
+        <v>7</v>
+      </c>
+      <c r="F168" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G168" t="n">
+        <v>100101</v>
+      </c>
+      <c r="H168" t="inlineStr">
+        <is>
+          <t>Berries</t>
+        </is>
+      </c>
+      <c r="I168" t="n">
+        <v>100101007</v>
+      </c>
+      <c r="J168" t="inlineStr">
+        <is>
+          <t>Kiwi</t>
+        </is>
+      </c>
+      <c r="K168" t="inlineStr">
+        <is>
+          <t>Hayward</t>
+        </is>
+      </c>
+      <c r="L168" t="inlineStr">
+        <is>
+          <t>Especial</t>
+        </is>
+      </c>
+      <c r="M168" t="n">
+        <v>150</v>
+      </c>
+      <c r="N168" t="n">
+        <v>11000</v>
+      </c>
+      <c r="O168" t="n">
+        <v>11000</v>
+      </c>
+      <c r="P168" t="n">
+        <v>11000</v>
+      </c>
+      <c r="Q168" t="inlineStr">
+        <is>
+          <t>$/bandeja 10 kilos</t>
+        </is>
+      </c>
+      <c r="R168" t="inlineStr">
+        <is>
+          <t>Provincia de Curicó</t>
+        </is>
+      </c>
+      <c r="S168" t="n">
+        <v>1100</v>
+      </c>
+      <c r="T168" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" t="n">
+        <v>5</v>
+      </c>
+      <c r="B169" t="inlineStr">
+        <is>
+          <t>Macroferia Regional de Talca</t>
+        </is>
+      </c>
+      <c r="C169" t="inlineStr">
+        <is>
+          <t>Maule</t>
+        </is>
+      </c>
+      <c r="D169" s="2" t="n">
+        <v>44314</v>
+      </c>
+      <c r="E169" t="n">
+        <v>7</v>
+      </c>
+      <c r="F169" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G169" t="n">
+        <v>100101</v>
+      </c>
+      <c r="H169" t="inlineStr">
+        <is>
+          <t>Berries</t>
+        </is>
+      </c>
+      <c r="I169" t="n">
+        <v>100101007</v>
+      </c>
+      <c r="J169" t="inlineStr">
+        <is>
+          <t>Kiwi</t>
+        </is>
+      </c>
+      <c r="K169" t="inlineStr">
+        <is>
+          <t>Hayward</t>
+        </is>
+      </c>
+      <c r="L169" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="M169" t="n">
+        <v>60</v>
+      </c>
+      <c r="N169" t="n">
+        <v>9000</v>
+      </c>
+      <c r="O169" t="n">
+        <v>9000</v>
+      </c>
+      <c r="P169" t="n">
+        <v>9000</v>
+      </c>
+      <c r="Q169" t="inlineStr">
+        <is>
+          <t>$/bandeja 10 kilos</t>
+        </is>
+      </c>
+      <c r="R169" t="inlineStr">
+        <is>
+          <t>Provincia de Curicó</t>
+        </is>
+      </c>
+      <c r="S169" t="n">
+        <v>900</v>
+      </c>
+      <c r="T169" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" t="n">
+        <v>5</v>
+      </c>
+      <c r="B170" t="inlineStr">
+        <is>
+          <t>Macroferia Regional de Talca</t>
+        </is>
+      </c>
+      <c r="C170" t="inlineStr">
+        <is>
+          <t>Maule</t>
+        </is>
+      </c>
+      <c r="D170" s="2" t="n">
+        <v>44399</v>
+      </c>
+      <c r="E170" t="n">
+        <v>7</v>
+      </c>
+      <c r="F170" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G170" t="n">
+        <v>100101</v>
+      </c>
+      <c r="H170" t="inlineStr">
+        <is>
+          <t>Berries</t>
+        </is>
+      </c>
+      <c r="I170" t="n">
+        <v>100101007</v>
+      </c>
+      <c r="J170" t="inlineStr">
+        <is>
+          <t>Kiwi</t>
+        </is>
+      </c>
+      <c r="K170" t="inlineStr">
+        <is>
+          <t>Hayward</t>
+        </is>
+      </c>
+      <c r="L170" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="M170" t="n">
+        <v>260</v>
+      </c>
+      <c r="N170" t="n">
+        <v>5000</v>
+      </c>
+      <c r="O170" t="n">
+        <v>5000</v>
+      </c>
+      <c r="P170" t="n">
+        <v>5000</v>
+      </c>
+      <c r="Q170" t="inlineStr">
+        <is>
+          <t>$/bandeja 10 kilos</t>
+        </is>
+      </c>
+      <c r="R170" t="inlineStr">
+        <is>
+          <t>Provincia de Curicó</t>
+        </is>
+      </c>
+      <c r="S170" t="n">
+        <v>500</v>
+      </c>
+      <c r="T170" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" t="n">
+        <v>5</v>
+      </c>
+      <c r="B171" t="inlineStr">
+        <is>
+          <t>Macroferia Regional de Talca</t>
+        </is>
+      </c>
+      <c r="C171" t="inlineStr">
+        <is>
+          <t>Maule</t>
+        </is>
+      </c>
+      <c r="D171" s="2" t="n">
+        <v>44399</v>
+      </c>
+      <c r="E171" t="n">
+        <v>7</v>
+      </c>
+      <c r="F171" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G171" t="n">
+        <v>100101</v>
+      </c>
+      <c r="H171" t="inlineStr">
+        <is>
+          <t>Berries</t>
+        </is>
+      </c>
+      <c r="I171" t="n">
+        <v>100101007</v>
+      </c>
+      <c r="J171" t="inlineStr">
+        <is>
+          <t>Kiwi</t>
+        </is>
+      </c>
+      <c r="K171" t="inlineStr">
+        <is>
+          <t>Hayward</t>
+        </is>
+      </c>
+      <c r="L171" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="M171" t="n">
+        <v>260</v>
+      </c>
+      <c r="N171" t="n">
+        <v>10000</v>
+      </c>
+      <c r="O171" t="n">
+        <v>10000</v>
+      </c>
+      <c r="P171" t="n">
+        <v>10000</v>
+      </c>
+      <c r="Q171" t="inlineStr">
+        <is>
+          <t>$/caja 18 kilos granel</t>
+        </is>
+      </c>
+      <c r="R171" t="inlineStr">
+        <is>
+          <t>Provincia de Curicó</t>
+        </is>
+      </c>
+      <c r="S171" t="n">
+        <v>556</v>
+      </c>
+      <c r="T171" t="n">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" t="n">
+        <v>5</v>
+      </c>
+      <c r="B172" t="inlineStr">
+        <is>
+          <t>Macroferia Regional de Talca</t>
+        </is>
+      </c>
+      <c r="C172" t="inlineStr">
+        <is>
+          <t>Maule</t>
+        </is>
+      </c>
+      <c r="D172" s="2" t="n">
+        <v>44400</v>
+      </c>
+      <c r="E172" t="n">
+        <v>7</v>
+      </c>
+      <c r="F172" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G172" t="n">
+        <v>100101</v>
+      </c>
+      <c r="H172" t="inlineStr">
+        <is>
+          <t>Berries</t>
+        </is>
+      </c>
+      <c r="I172" t="n">
+        <v>100101007</v>
+      </c>
+      <c r="J172" t="inlineStr">
+        <is>
+          <t>Kiwi</t>
+        </is>
+      </c>
+      <c r="K172" t="inlineStr">
+        <is>
+          <t>Hayward</t>
+        </is>
+      </c>
+      <c r="L172" t="inlineStr">
+        <is>
+          <t>Especial</t>
+        </is>
+      </c>
+      <c r="M172" t="n">
+        <v>100</v>
+      </c>
+      <c r="N172" t="n">
+        <v>13000</v>
+      </c>
+      <c r="O172" t="n">
+        <v>13000</v>
+      </c>
+      <c r="P172" t="n">
+        <v>13000</v>
+      </c>
+      <c r="Q172" t="inlineStr">
+        <is>
+          <t>$/bandeja 18 kilos</t>
+        </is>
+      </c>
+      <c r="R172" t="inlineStr">
+        <is>
+          <t>Provincia de Curicó</t>
+        </is>
+      </c>
+      <c r="S172" t="n">
+        <v>722</v>
+      </c>
+      <c r="T172" t="n">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" t="n">
+        <v>5</v>
+      </c>
+      <c r="B173" t="inlineStr">
+        <is>
+          <t>Macroferia Regional de Talca</t>
+        </is>
+      </c>
+      <c r="C173" t="inlineStr">
+        <is>
+          <t>Maule</t>
+        </is>
+      </c>
+      <c r="D173" s="2" t="n">
+        <v>44400</v>
+      </c>
+      <c r="E173" t="n">
+        <v>7</v>
+      </c>
+      <c r="F173" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G173" t="n">
+        <v>100101</v>
+      </c>
+      <c r="H173" t="inlineStr">
+        <is>
+          <t>Berries</t>
+        </is>
+      </c>
+      <c r="I173" t="n">
+        <v>100101007</v>
+      </c>
+      <c r="J173" t="inlineStr">
+        <is>
+          <t>Kiwi</t>
+        </is>
+      </c>
+      <c r="K173" t="inlineStr">
+        <is>
+          <t>Hayward</t>
+        </is>
+      </c>
+      <c r="L173" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="M173" t="n">
+        <v>180</v>
+      </c>
+      <c r="N173" t="n">
+        <v>10000</v>
+      </c>
+      <c r="O173" t="n">
+        <v>10000</v>
+      </c>
+      <c r="P173" t="n">
+        <v>10000</v>
+      </c>
+      <c r="Q173" t="inlineStr">
+        <is>
+          <t>$/bandeja 18 kilos</t>
+        </is>
+      </c>
+      <c r="R173" t="inlineStr">
+        <is>
+          <t>Provincia de Curicó</t>
+        </is>
+      </c>
+      <c r="S173" t="n">
+        <v>556</v>
+      </c>
+      <c r="T173" t="n">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" t="n">
+        <v>5</v>
+      </c>
+      <c r="B174" t="inlineStr">
+        <is>
+          <t>Macroferia Regional de Talca</t>
+        </is>
+      </c>
+      <c r="C174" t="inlineStr">
+        <is>
+          <t>Maule</t>
+        </is>
+      </c>
+      <c r="D174" s="2" t="n">
+        <v>44400</v>
+      </c>
+      <c r="E174" t="n">
+        <v>7</v>
+      </c>
+      <c r="F174" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G174" t="n">
+        <v>100101</v>
+      </c>
+      <c r="H174" t="inlineStr">
+        <is>
+          <t>Berries</t>
+        </is>
+      </c>
+      <c r="I174" t="n">
+        <v>100101007</v>
+      </c>
+      <c r="J174" t="inlineStr">
+        <is>
+          <t>Kiwi</t>
+        </is>
+      </c>
+      <c r="K174" t="inlineStr">
+        <is>
+          <t>Hayward</t>
+        </is>
+      </c>
+      <c r="L174" t="inlineStr">
+        <is>
+          <t>Segunda</t>
+        </is>
+      </c>
+      <c r="M174" t="n">
+        <v>150</v>
+      </c>
+      <c r="N174" t="n">
+        <v>8000</v>
+      </c>
+      <c r="O174" t="n">
+        <v>8000</v>
+      </c>
+      <c r="P174" t="n">
+        <v>8000</v>
+      </c>
+      <c r="Q174" t="inlineStr">
+        <is>
+          <t>$/bandeja 18 kilos</t>
+        </is>
+      </c>
+      <c r="R174" t="inlineStr">
+        <is>
+          <t>Provincia de Curicó</t>
+        </is>
+      </c>
+      <c r="S174" t="n">
+        <v>444</v>
+      </c>
+      <c r="T174" t="n">
         <v>18</v>
       </c>
     </row>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Macroferia Regional de Talca - Kiwi.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Macroferia Regional de Talca - Kiwi.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T174"/>
+  <dimension ref="A1:T176"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -13927,7 +13927,7 @@
         </is>
       </c>
       <c r="D170" s="2" t="n">
-        <v>44399</v>
+        <v>44448</v>
       </c>
       <c r="E170" t="n">
         <v>7</v>
@@ -13960,24 +13960,24 @@
       </c>
       <c r="L170" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M170" t="n">
-        <v>260</v>
+        <v>180</v>
       </c>
       <c r="N170" t="n">
-        <v>5000</v>
+        <v>13000</v>
       </c>
       <c r="O170" t="n">
-        <v>5000</v>
+        <v>13000</v>
       </c>
       <c r="P170" t="n">
-        <v>5000</v>
+        <v>13000</v>
       </c>
       <c r="Q170" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="R170" t="inlineStr">
@@ -13986,10 +13986,10 @@
         </is>
       </c>
       <c r="S170" t="n">
-        <v>500</v>
+        <v>722</v>
       </c>
       <c r="T170" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
     </row>
     <row r="171">
@@ -14007,7 +14007,7 @@
         </is>
       </c>
       <c r="D171" s="2" t="n">
-        <v>44399</v>
+        <v>44448</v>
       </c>
       <c r="E171" t="n">
         <v>7</v>
@@ -14044,20 +14044,20 @@
         </is>
       </c>
       <c r="M171" t="n">
-        <v>260</v>
+        <v>230</v>
       </c>
       <c r="N171" t="n">
-        <v>10000</v>
+        <v>11000</v>
       </c>
       <c r="O171" t="n">
-        <v>10000</v>
+        <v>11000</v>
       </c>
       <c r="P171" t="n">
-        <v>10000</v>
+        <v>11000</v>
       </c>
       <c r="Q171" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos granel</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="R171" t="inlineStr">
@@ -14066,7 +14066,7 @@
         </is>
       </c>
       <c r="S171" t="n">
-        <v>556</v>
+        <v>611</v>
       </c>
       <c r="T171" t="n">
         <v>18</v>
@@ -14087,7 +14087,7 @@
         </is>
       </c>
       <c r="D172" s="2" t="n">
-        <v>44400</v>
+        <v>44399</v>
       </c>
       <c r="E172" t="n">
         <v>7</v>
@@ -14120,24 +14120,24 @@
       </c>
       <c r="L172" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M172" t="n">
-        <v>100</v>
+        <v>260</v>
       </c>
       <c r="N172" t="n">
-        <v>13000</v>
+        <v>5000</v>
       </c>
       <c r="O172" t="n">
-        <v>13000</v>
+        <v>5000</v>
       </c>
       <c r="P172" t="n">
-        <v>13000</v>
+        <v>5000</v>
       </c>
       <c r="Q172" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R172" t="inlineStr">
@@ -14146,10 +14146,10 @@
         </is>
       </c>
       <c r="S172" t="n">
-        <v>722</v>
+        <v>500</v>
       </c>
       <c r="T172" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="173">
@@ -14167,7 +14167,7 @@
         </is>
       </c>
       <c r="D173" s="2" t="n">
-        <v>44400</v>
+        <v>44399</v>
       </c>
       <c r="E173" t="n">
         <v>7</v>
@@ -14204,7 +14204,7 @@
         </is>
       </c>
       <c r="M173" t="n">
-        <v>180</v>
+        <v>260</v>
       </c>
       <c r="N173" t="n">
         <v>10000</v>
@@ -14217,7 +14217,7 @@
       </c>
       <c r="Q173" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 18 kilos granel</t>
         </is>
       </c>
       <c r="R173" t="inlineStr">
@@ -14280,35 +14280,195 @@
       </c>
       <c r="L174" t="inlineStr">
         <is>
+          <t>Especial</t>
+        </is>
+      </c>
+      <c r="M174" t="n">
+        <v>100</v>
+      </c>
+      <c r="N174" t="n">
+        <v>13000</v>
+      </c>
+      <c r="O174" t="n">
+        <v>13000</v>
+      </c>
+      <c r="P174" t="n">
+        <v>13000</v>
+      </c>
+      <c r="Q174" t="inlineStr">
+        <is>
+          <t>$/bandeja 18 kilos</t>
+        </is>
+      </c>
+      <c r="R174" t="inlineStr">
+        <is>
+          <t>Provincia de Curicó</t>
+        </is>
+      </c>
+      <c r="S174" t="n">
+        <v>722</v>
+      </c>
+      <c r="T174" t="n">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" t="n">
+        <v>5</v>
+      </c>
+      <c r="B175" t="inlineStr">
+        <is>
+          <t>Macroferia Regional de Talca</t>
+        </is>
+      </c>
+      <c r="C175" t="inlineStr">
+        <is>
+          <t>Maule</t>
+        </is>
+      </c>
+      <c r="D175" s="2" t="n">
+        <v>44400</v>
+      </c>
+      <c r="E175" t="n">
+        <v>7</v>
+      </c>
+      <c r="F175" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G175" t="n">
+        <v>100101</v>
+      </c>
+      <c r="H175" t="inlineStr">
+        <is>
+          <t>Berries</t>
+        </is>
+      </c>
+      <c r="I175" t="n">
+        <v>100101007</v>
+      </c>
+      <c r="J175" t="inlineStr">
+        <is>
+          <t>Kiwi</t>
+        </is>
+      </c>
+      <c r="K175" t="inlineStr">
+        <is>
+          <t>Hayward</t>
+        </is>
+      </c>
+      <c r="L175" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="M175" t="n">
+        <v>180</v>
+      </c>
+      <c r="N175" t="n">
+        <v>10000</v>
+      </c>
+      <c r="O175" t="n">
+        <v>10000</v>
+      </c>
+      <c r="P175" t="n">
+        <v>10000</v>
+      </c>
+      <c r="Q175" t="inlineStr">
+        <is>
+          <t>$/bandeja 18 kilos</t>
+        </is>
+      </c>
+      <c r="R175" t="inlineStr">
+        <is>
+          <t>Provincia de Curicó</t>
+        </is>
+      </c>
+      <c r="S175" t="n">
+        <v>556</v>
+      </c>
+      <c r="T175" t="n">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" t="n">
+        <v>5</v>
+      </c>
+      <c r="B176" t="inlineStr">
+        <is>
+          <t>Macroferia Regional de Talca</t>
+        </is>
+      </c>
+      <c r="C176" t="inlineStr">
+        <is>
+          <t>Maule</t>
+        </is>
+      </c>
+      <c r="D176" s="2" t="n">
+        <v>44400</v>
+      </c>
+      <c r="E176" t="n">
+        <v>7</v>
+      </c>
+      <c r="F176" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G176" t="n">
+        <v>100101</v>
+      </c>
+      <c r="H176" t="inlineStr">
+        <is>
+          <t>Berries</t>
+        </is>
+      </c>
+      <c r="I176" t="n">
+        <v>100101007</v>
+      </c>
+      <c r="J176" t="inlineStr">
+        <is>
+          <t>Kiwi</t>
+        </is>
+      </c>
+      <c r="K176" t="inlineStr">
+        <is>
+          <t>Hayward</t>
+        </is>
+      </c>
+      <c r="L176" t="inlineStr">
+        <is>
           <t>Segunda</t>
         </is>
       </c>
-      <c r="M174" t="n">
+      <c r="M176" t="n">
         <v>150</v>
       </c>
-      <c r="N174" t="n">
+      <c r="N176" t="n">
         <v>8000</v>
       </c>
-      <c r="O174" t="n">
+      <c r="O176" t="n">
         <v>8000</v>
       </c>
-      <c r="P174" t="n">
+      <c r="P176" t="n">
         <v>8000</v>
       </c>
-      <c r="Q174" t="inlineStr">
+      <c r="Q176" t="inlineStr">
         <is>
           <t>$/bandeja 18 kilos</t>
         </is>
       </c>
-      <c r="R174" t="inlineStr">
-        <is>
-          <t>Provincia de Curicó</t>
-        </is>
-      </c>
-      <c r="S174" t="n">
+      <c r="R176" t="inlineStr">
+        <is>
+          <t>Provincia de Curicó</t>
+        </is>
+      </c>
+      <c r="S176" t="n">
         <v>444</v>
       </c>
-      <c r="T174" t="n">
+      <c r="T176" t="n">
         <v>18</v>
       </c>
     </row>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Macroferia Regional de Talca - Kiwi.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Macroferia Regional de Talca - Kiwi.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T176"/>
+  <dimension ref="A1:T177"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -12167,7 +12167,7 @@
         </is>
       </c>
       <c r="D148" s="2" t="n">
-        <v>44438</v>
+        <v>44449</v>
       </c>
       <c r="E148" t="n">
         <v>7</v>
@@ -12200,20 +12200,20 @@
       </c>
       <c r="L148" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M148" t="n">
-        <v>230</v>
+        <v>300</v>
       </c>
       <c r="N148" t="n">
-        <v>13000</v>
+        <v>12000</v>
       </c>
       <c r="O148" t="n">
-        <v>13000</v>
+        <v>12000</v>
       </c>
       <c r="P148" t="n">
-        <v>13000</v>
+        <v>12000</v>
       </c>
       <c r="Q148" t="inlineStr">
         <is>
@@ -12226,7 +12226,7 @@
         </is>
       </c>
       <c r="S148" t="n">
-        <v>722</v>
+        <v>667</v>
       </c>
       <c r="T148" t="n">
         <v>18</v>
@@ -12280,20 +12280,20 @@
       </c>
       <c r="L149" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M149" t="n">
-        <v>300</v>
+        <v>230</v>
       </c>
       <c r="N149" t="n">
-        <v>11000</v>
+        <v>13000</v>
       </c>
       <c r="O149" t="n">
-        <v>11000</v>
+        <v>13000</v>
       </c>
       <c r="P149" t="n">
-        <v>11000</v>
+        <v>13000</v>
       </c>
       <c r="Q149" t="inlineStr">
         <is>
@@ -12306,7 +12306,7 @@
         </is>
       </c>
       <c r="S149" t="n">
-        <v>611</v>
+        <v>722</v>
       </c>
       <c r="T149" t="n">
         <v>18</v>
@@ -12327,7 +12327,7 @@
         </is>
       </c>
       <c r="D150" s="2" t="n">
-        <v>44428</v>
+        <v>44438</v>
       </c>
       <c r="E150" t="n">
         <v>7</v>
@@ -12360,20 +12360,20 @@
       </c>
       <c r="L150" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M150" t="n">
-        <v>230</v>
+        <v>300</v>
       </c>
       <c r="N150" t="n">
-        <v>14000</v>
+        <v>11000</v>
       </c>
       <c r="O150" t="n">
-        <v>14000</v>
+        <v>11000</v>
       </c>
       <c r="P150" t="n">
-        <v>14000</v>
+        <v>11000</v>
       </c>
       <c r="Q150" t="inlineStr">
         <is>
@@ -12386,7 +12386,7 @@
         </is>
       </c>
       <c r="S150" t="n">
-        <v>778</v>
+        <v>611</v>
       </c>
       <c r="T150" t="n">
         <v>18</v>
@@ -12440,20 +12440,20 @@
       </c>
       <c r="L151" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M151" t="n">
-        <v>200</v>
+        <v>230</v>
       </c>
       <c r="N151" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="O151" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="P151" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="Q151" t="inlineStr">
         <is>
@@ -12466,7 +12466,7 @@
         </is>
       </c>
       <c r="S151" t="n">
-        <v>667</v>
+        <v>778</v>
       </c>
       <c r="T151" t="n">
         <v>18</v>
@@ -12520,24 +12520,24 @@
       </c>
       <c r="L152" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M152" t="n">
-        <v>120</v>
+        <v>200</v>
       </c>
       <c r="N152" t="n">
-        <v>8000</v>
+        <v>12000</v>
       </c>
       <c r="O152" t="n">
-        <v>8000</v>
+        <v>12000</v>
       </c>
       <c r="P152" t="n">
-        <v>8000</v>
+        <v>12000</v>
       </c>
       <c r="Q152" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="R152" t="inlineStr">
@@ -12546,7 +12546,7 @@
         </is>
       </c>
       <c r="S152" t="n">
-        <v>444</v>
+        <v>667</v>
       </c>
       <c r="T152" t="n">
         <v>18</v>
@@ -12567,7 +12567,7 @@
         </is>
       </c>
       <c r="D153" s="2" t="n">
-        <v>44442</v>
+        <v>44428</v>
       </c>
       <c r="E153" t="n">
         <v>7</v>
@@ -12600,24 +12600,24 @@
       </c>
       <c r="L153" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M153" t="n">
-        <v>180</v>
+        <v>120</v>
       </c>
       <c r="N153" t="n">
-        <v>14000</v>
+        <v>8000</v>
       </c>
       <c r="O153" t="n">
-        <v>14000</v>
+        <v>8000</v>
       </c>
       <c r="P153" t="n">
-        <v>14000</v>
+        <v>8000</v>
       </c>
       <c r="Q153" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="R153" t="inlineStr">
@@ -12626,7 +12626,7 @@
         </is>
       </c>
       <c r="S153" t="n">
-        <v>778</v>
+        <v>444</v>
       </c>
       <c r="T153" t="n">
         <v>18</v>
@@ -12680,20 +12680,20 @@
       </c>
       <c r="L154" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M154" t="n">
-        <v>230</v>
+        <v>180</v>
       </c>
       <c r="N154" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="O154" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="P154" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="Q154" t="inlineStr">
         <is>
@@ -12706,7 +12706,7 @@
         </is>
       </c>
       <c r="S154" t="n">
-        <v>667</v>
+        <v>778</v>
       </c>
       <c r="T154" t="n">
         <v>18</v>
@@ -12764,16 +12764,16 @@
         </is>
       </c>
       <c r="M155" t="n">
-        <v>250</v>
+        <v>230</v>
       </c>
       <c r="N155" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="O155" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="P155" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="Q155" t="inlineStr">
         <is>
@@ -12782,11 +12782,11 @@
       </c>
       <c r="R155" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S155" t="n">
-        <v>556</v>
+        <v>667</v>
       </c>
       <c r="T155" t="n">
         <v>18</v>
@@ -12840,11 +12840,11 @@
       </c>
       <c r="L156" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M156" t="n">
-        <v>200</v>
+        <v>250</v>
       </c>
       <c r="N156" t="n">
         <v>10000</v>
@@ -12862,7 +12862,7 @@
       </c>
       <c r="R156" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S156" t="n">
@@ -12927,13 +12927,13 @@
         <v>200</v>
       </c>
       <c r="N157" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="O157" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="P157" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="Q157" t="inlineStr">
         <is>
@@ -12942,11 +12942,11 @@
       </c>
       <c r="R157" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S157" t="n">
-        <v>444</v>
+        <v>556</v>
       </c>
       <c r="T157" t="n">
         <v>18</v>
@@ -12967,7 +12967,7 @@
         </is>
       </c>
       <c r="D158" s="2" t="n">
-        <v>44435</v>
+        <v>44442</v>
       </c>
       <c r="E158" t="n">
         <v>7</v>
@@ -13000,20 +13000,20 @@
       </c>
       <c r="L158" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M158" t="n">
-        <v>390</v>
+        <v>200</v>
       </c>
       <c r="N158" t="n">
-        <v>14000</v>
+        <v>8000</v>
       </c>
       <c r="O158" t="n">
-        <v>14000</v>
+        <v>8000</v>
       </c>
       <c r="P158" t="n">
-        <v>14000</v>
+        <v>8000</v>
       </c>
       <c r="Q158" t="inlineStr">
         <is>
@@ -13022,11 +13022,11 @@
       </c>
       <c r="R158" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S158" t="n">
-        <v>778</v>
+        <v>444</v>
       </c>
       <c r="T158" t="n">
         <v>18</v>
@@ -13084,20 +13084,20 @@
         </is>
       </c>
       <c r="M159" t="n">
-        <v>160</v>
+        <v>390</v>
       </c>
       <c r="N159" t="n">
-        <v>8000</v>
+        <v>14000</v>
       </c>
       <c r="O159" t="n">
-        <v>8000</v>
+        <v>14000</v>
       </c>
       <c r="P159" t="n">
-        <v>8000</v>
+        <v>14000</v>
       </c>
       <c r="Q159" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="R159" t="inlineStr">
@@ -13106,10 +13106,10 @@
         </is>
       </c>
       <c r="S159" t="n">
-        <v>800</v>
+        <v>778</v>
       </c>
       <c r="T159" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
     </row>
     <row r="160">
@@ -13164,20 +13164,20 @@
         </is>
       </c>
       <c r="M160" t="n">
-        <v>330</v>
+        <v>160</v>
       </c>
       <c r="N160" t="n">
-        <v>14000</v>
+        <v>8000</v>
       </c>
       <c r="O160" t="n">
-        <v>14000</v>
+        <v>8000</v>
       </c>
       <c r="P160" t="n">
-        <v>14000</v>
+        <v>8000</v>
       </c>
       <c r="Q160" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="R160" t="inlineStr">
@@ -13186,10 +13186,10 @@
         </is>
       </c>
       <c r="S160" t="n">
-        <v>778</v>
+        <v>800</v>
       </c>
       <c r="T160" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="161">
@@ -13240,24 +13240,24 @@
       </c>
       <c r="L161" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M161" t="n">
-        <v>250</v>
+        <v>330</v>
       </c>
       <c r="N161" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="O161" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="P161" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="Q161" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="R161" t="inlineStr">
@@ -13266,7 +13266,7 @@
         </is>
       </c>
       <c r="S161" t="n">
-        <v>667</v>
+        <v>778</v>
       </c>
       <c r="T161" t="n">
         <v>18</v>
@@ -13324,20 +13324,20 @@
         </is>
       </c>
       <c r="M162" t="n">
-        <v>230</v>
+        <v>250</v>
       </c>
       <c r="N162" t="n">
-        <v>7000</v>
+        <v>12000</v>
       </c>
       <c r="O162" t="n">
-        <v>7000</v>
+        <v>12000</v>
       </c>
       <c r="P162" t="n">
-        <v>7000</v>
+        <v>12000</v>
       </c>
       <c r="Q162" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="R162" t="inlineStr">
@@ -13346,10 +13346,10 @@
         </is>
       </c>
       <c r="S162" t="n">
-        <v>700</v>
+        <v>667</v>
       </c>
       <c r="T162" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
     </row>
     <row r="163">
@@ -13404,20 +13404,20 @@
         </is>
       </c>
       <c r="M163" t="n">
-        <v>180</v>
+        <v>230</v>
       </c>
       <c r="N163" t="n">
-        <v>12000</v>
+        <v>7000</v>
       </c>
       <c r="O163" t="n">
-        <v>12000</v>
+        <v>7000</v>
       </c>
       <c r="P163" t="n">
-        <v>12000</v>
+        <v>7000</v>
       </c>
       <c r="Q163" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="R163" t="inlineStr">
@@ -13426,10 +13426,10 @@
         </is>
       </c>
       <c r="S163" t="n">
-        <v>667</v>
+        <v>700</v>
       </c>
       <c r="T163" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="164">
@@ -13480,24 +13480,24 @@
       </c>
       <c r="L164" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M164" t="n">
-        <v>240</v>
+        <v>180</v>
       </c>
       <c r="N164" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="O164" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="P164" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="Q164" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="R164" t="inlineStr">
@@ -13506,7 +13506,7 @@
         </is>
       </c>
       <c r="S164" t="n">
-        <v>556</v>
+        <v>667</v>
       </c>
       <c r="T164" t="n">
         <v>18</v>
@@ -13527,7 +13527,7 @@
         </is>
       </c>
       <c r="D165" s="2" t="n">
-        <v>44376</v>
+        <v>44435</v>
       </c>
       <c r="E165" t="n">
         <v>7</v>
@@ -13560,20 +13560,20 @@
       </c>
       <c r="L165" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M165" t="n">
-        <v>260</v>
+        <v>240</v>
       </c>
       <c r="N165" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="O165" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="P165" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="Q165" t="inlineStr">
         <is>
@@ -13586,7 +13586,7 @@
         </is>
       </c>
       <c r="S165" t="n">
-        <v>500</v>
+        <v>556</v>
       </c>
       <c r="T165" t="n">
         <v>18</v>
@@ -13607,7 +13607,7 @@
         </is>
       </c>
       <c r="D166" s="2" t="n">
-        <v>44412</v>
+        <v>44376</v>
       </c>
       <c r="E166" t="n">
         <v>7</v>
@@ -13640,20 +13640,20 @@
       </c>
       <c r="L166" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M166" t="n">
-        <v>180</v>
+        <v>260</v>
       </c>
       <c r="N166" t="n">
-        <v>14000</v>
+        <v>9000</v>
       </c>
       <c r="O166" t="n">
-        <v>14000</v>
+        <v>9000</v>
       </c>
       <c r="P166" t="n">
-        <v>14000</v>
+        <v>9000</v>
       </c>
       <c r="Q166" t="inlineStr">
         <is>
@@ -13666,7 +13666,7 @@
         </is>
       </c>
       <c r="S166" t="n">
-        <v>778</v>
+        <v>500</v>
       </c>
       <c r="T166" t="n">
         <v>18</v>
@@ -13720,20 +13720,20 @@
       </c>
       <c r="L167" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M167" t="n">
-        <v>230</v>
+        <v>180</v>
       </c>
       <c r="N167" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="O167" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="P167" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="Q167" t="inlineStr">
         <is>
@@ -13746,7 +13746,7 @@
         </is>
       </c>
       <c r="S167" t="n">
-        <v>667</v>
+        <v>778</v>
       </c>
       <c r="T167" t="n">
         <v>18</v>
@@ -13767,7 +13767,7 @@
         </is>
       </c>
       <c r="D168" s="2" t="n">
-        <v>44314</v>
+        <v>44412</v>
       </c>
       <c r="E168" t="n">
         <v>7</v>
@@ -13800,24 +13800,24 @@
       </c>
       <c r="L168" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M168" t="n">
-        <v>150</v>
+        <v>230</v>
       </c>
       <c r="N168" t="n">
-        <v>11000</v>
+        <v>12000</v>
       </c>
       <c r="O168" t="n">
-        <v>11000</v>
+        <v>12000</v>
       </c>
       <c r="P168" t="n">
-        <v>11000</v>
+        <v>12000</v>
       </c>
       <c r="Q168" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="R168" t="inlineStr">
@@ -13826,10 +13826,10 @@
         </is>
       </c>
       <c r="S168" t="n">
-        <v>1100</v>
+        <v>667</v>
       </c>
       <c r="T168" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
     </row>
     <row r="169">
@@ -13880,20 +13880,20 @@
       </c>
       <c r="L169" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M169" t="n">
-        <v>60</v>
+        <v>150</v>
       </c>
       <c r="N169" t="n">
-        <v>9000</v>
+        <v>11000</v>
       </c>
       <c r="O169" t="n">
-        <v>9000</v>
+        <v>11000</v>
       </c>
       <c r="P169" t="n">
-        <v>9000</v>
+        <v>11000</v>
       </c>
       <c r="Q169" t="inlineStr">
         <is>
@@ -13906,7 +13906,7 @@
         </is>
       </c>
       <c r="S169" t="n">
-        <v>900</v>
+        <v>1100</v>
       </c>
       <c r="T169" t="n">
         <v>10</v>
@@ -13927,7 +13927,7 @@
         </is>
       </c>
       <c r="D170" s="2" t="n">
-        <v>44448</v>
+        <v>44314</v>
       </c>
       <c r="E170" t="n">
         <v>7</v>
@@ -13960,24 +13960,24 @@
       </c>
       <c r="L170" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M170" t="n">
-        <v>180</v>
+        <v>60</v>
       </c>
       <c r="N170" t="n">
-        <v>13000</v>
+        <v>9000</v>
       </c>
       <c r="O170" t="n">
-        <v>13000</v>
+        <v>9000</v>
       </c>
       <c r="P170" t="n">
-        <v>13000</v>
+        <v>9000</v>
       </c>
       <c r="Q170" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R170" t="inlineStr">
@@ -13986,10 +13986,10 @@
         </is>
       </c>
       <c r="S170" t="n">
-        <v>722</v>
+        <v>900</v>
       </c>
       <c r="T170" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="171">
@@ -14040,20 +14040,20 @@
       </c>
       <c r="L171" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M171" t="n">
-        <v>230</v>
+        <v>180</v>
       </c>
       <c r="N171" t="n">
-        <v>11000</v>
+        <v>13000</v>
       </c>
       <c r="O171" t="n">
-        <v>11000</v>
+        <v>13000</v>
       </c>
       <c r="P171" t="n">
-        <v>11000</v>
+        <v>13000</v>
       </c>
       <c r="Q171" t="inlineStr">
         <is>
@@ -14066,7 +14066,7 @@
         </is>
       </c>
       <c r="S171" t="n">
-        <v>611</v>
+        <v>722</v>
       </c>
       <c r="T171" t="n">
         <v>18</v>
@@ -14087,7 +14087,7 @@
         </is>
       </c>
       <c r="D172" s="2" t="n">
-        <v>44399</v>
+        <v>44448</v>
       </c>
       <c r="E172" t="n">
         <v>7</v>
@@ -14124,20 +14124,20 @@
         </is>
       </c>
       <c r="M172" t="n">
-        <v>260</v>
+        <v>230</v>
       </c>
       <c r="N172" t="n">
-        <v>5000</v>
+        <v>11000</v>
       </c>
       <c r="O172" t="n">
-        <v>5000</v>
+        <v>11000</v>
       </c>
       <c r="P172" t="n">
-        <v>5000</v>
+        <v>11000</v>
       </c>
       <c r="Q172" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="R172" t="inlineStr">
@@ -14146,10 +14146,10 @@
         </is>
       </c>
       <c r="S172" t="n">
-        <v>500</v>
+        <v>611</v>
       </c>
       <c r="T172" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
     </row>
     <row r="173">
@@ -14207,17 +14207,17 @@
         <v>260</v>
       </c>
       <c r="N173" t="n">
-        <v>10000</v>
+        <v>5000</v>
       </c>
       <c r="O173" t="n">
-        <v>10000</v>
+        <v>5000</v>
       </c>
       <c r="P173" t="n">
-        <v>10000</v>
+        <v>5000</v>
       </c>
       <c r="Q173" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos granel</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R173" t="inlineStr">
@@ -14226,10 +14226,10 @@
         </is>
       </c>
       <c r="S173" t="n">
-        <v>556</v>
+        <v>500</v>
       </c>
       <c r="T173" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="174">
@@ -14247,7 +14247,7 @@
         </is>
       </c>
       <c r="D174" s="2" t="n">
-        <v>44400</v>
+        <v>44399</v>
       </c>
       <c r="E174" t="n">
         <v>7</v>
@@ -14280,24 +14280,24 @@
       </c>
       <c r="L174" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M174" t="n">
-        <v>100</v>
+        <v>260</v>
       </c>
       <c r="N174" t="n">
-        <v>13000</v>
+        <v>10000</v>
       </c>
       <c r="O174" t="n">
-        <v>13000</v>
+        <v>10000</v>
       </c>
       <c r="P174" t="n">
-        <v>13000</v>
+        <v>10000</v>
       </c>
       <c r="Q174" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 18 kilos granel</t>
         </is>
       </c>
       <c r="R174" t="inlineStr">
@@ -14306,7 +14306,7 @@
         </is>
       </c>
       <c r="S174" t="n">
-        <v>722</v>
+        <v>556</v>
       </c>
       <c r="T174" t="n">
         <v>18</v>
@@ -14360,20 +14360,20 @@
       </c>
       <c r="L175" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M175" t="n">
-        <v>180</v>
+        <v>100</v>
       </c>
       <c r="N175" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="O175" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="P175" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="Q175" t="inlineStr">
         <is>
@@ -14386,7 +14386,7 @@
         </is>
       </c>
       <c r="S175" t="n">
-        <v>556</v>
+        <v>722</v>
       </c>
       <c r="T175" t="n">
         <v>18</v>
@@ -14440,35 +14440,115 @@
       </c>
       <c r="L176" t="inlineStr">
         <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="M176" t="n">
+        <v>180</v>
+      </c>
+      <c r="N176" t="n">
+        <v>10000</v>
+      </c>
+      <c r="O176" t="n">
+        <v>10000</v>
+      </c>
+      <c r="P176" t="n">
+        <v>10000</v>
+      </c>
+      <c r="Q176" t="inlineStr">
+        <is>
+          <t>$/bandeja 18 kilos</t>
+        </is>
+      </c>
+      <c r="R176" t="inlineStr">
+        <is>
+          <t>Provincia de Curicó</t>
+        </is>
+      </c>
+      <c r="S176" t="n">
+        <v>556</v>
+      </c>
+      <c r="T176" t="n">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" t="n">
+        <v>5</v>
+      </c>
+      <c r="B177" t="inlineStr">
+        <is>
+          <t>Macroferia Regional de Talca</t>
+        </is>
+      </c>
+      <c r="C177" t="inlineStr">
+        <is>
+          <t>Maule</t>
+        </is>
+      </c>
+      <c r="D177" s="2" t="n">
+        <v>44400</v>
+      </c>
+      <c r="E177" t="n">
+        <v>7</v>
+      </c>
+      <c r="F177" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G177" t="n">
+        <v>100101</v>
+      </c>
+      <c r="H177" t="inlineStr">
+        <is>
+          <t>Berries</t>
+        </is>
+      </c>
+      <c r="I177" t="n">
+        <v>100101007</v>
+      </c>
+      <c r="J177" t="inlineStr">
+        <is>
+          <t>Kiwi</t>
+        </is>
+      </c>
+      <c r="K177" t="inlineStr">
+        <is>
+          <t>Hayward</t>
+        </is>
+      </c>
+      <c r="L177" t="inlineStr">
+        <is>
           <t>Segunda</t>
         </is>
       </c>
-      <c r="M176" t="n">
+      <c r="M177" t="n">
         <v>150</v>
       </c>
-      <c r="N176" t="n">
+      <c r="N177" t="n">
         <v>8000</v>
       </c>
-      <c r="O176" t="n">
+      <c r="O177" t="n">
         <v>8000</v>
       </c>
-      <c r="P176" t="n">
+      <c r="P177" t="n">
         <v>8000</v>
       </c>
-      <c r="Q176" t="inlineStr">
+      <c r="Q177" t="inlineStr">
         <is>
           <t>$/bandeja 18 kilos</t>
         </is>
       </c>
-      <c r="R176" t="inlineStr">
-        <is>
-          <t>Provincia de Curicó</t>
-        </is>
-      </c>
-      <c r="S176" t="n">
+      <c r="R177" t="inlineStr">
+        <is>
+          <t>Provincia de Curicó</t>
+        </is>
+      </c>
+      <c r="S177" t="n">
         <v>444</v>
       </c>
-      <c r="T176" t="n">
+      <c r="T177" t="n">
         <v>18</v>
       </c>
     </row>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Macroferia Regional de Talca - Kiwi.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Macroferia Regional de Talca - Kiwi.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T177"/>
+  <dimension ref="A1:T178"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7607,7 +7607,7 @@
         </is>
       </c>
       <c r="D91" s="2" t="n">
-        <v>44358</v>
+        <v>44452</v>
       </c>
       <c r="E91" t="n">
         <v>7</v>
@@ -7640,20 +7640,20 @@
       </c>
       <c r="L91" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M91" t="n">
-        <v>230</v>
+        <v>300</v>
       </c>
       <c r="N91" t="n">
-        <v>13000</v>
+        <v>12000</v>
       </c>
       <c r="O91" t="n">
-        <v>13000</v>
+        <v>12000</v>
       </c>
       <c r="P91" t="n">
-        <v>13000</v>
+        <v>12000</v>
       </c>
       <c r="Q91" t="inlineStr">
         <is>
@@ -7666,7 +7666,7 @@
         </is>
       </c>
       <c r="S91" t="n">
-        <v>722</v>
+        <v>667</v>
       </c>
       <c r="T91" t="n">
         <v>18</v>
@@ -7724,20 +7724,20 @@
         </is>
       </c>
       <c r="M92" t="n">
-        <v>250</v>
+        <v>230</v>
       </c>
       <c r="N92" t="n">
-        <v>9000</v>
+        <v>13000</v>
       </c>
       <c r="O92" t="n">
-        <v>9000</v>
+        <v>13000</v>
       </c>
       <c r="P92" t="n">
-        <v>9000</v>
+        <v>13000</v>
       </c>
       <c r="Q92" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="R92" t="inlineStr">
@@ -7746,10 +7746,10 @@
         </is>
       </c>
       <c r="S92" t="n">
-        <v>900</v>
+        <v>722</v>
       </c>
       <c r="T92" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
     </row>
     <row r="93">
@@ -7800,24 +7800,24 @@
       </c>
       <c r="L93" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M93" t="n">
-        <v>210</v>
+        <v>250</v>
       </c>
       <c r="N93" t="n">
-        <v>11000</v>
+        <v>9000</v>
       </c>
       <c r="O93" t="n">
-        <v>11000</v>
+        <v>9000</v>
       </c>
       <c r="P93" t="n">
-        <v>11000</v>
+        <v>9000</v>
       </c>
       <c r="Q93" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="R93" t="inlineStr">
@@ -7826,10 +7826,10 @@
         </is>
       </c>
       <c r="S93" t="n">
-        <v>611</v>
+        <v>900</v>
       </c>
       <c r="T93" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="94">
@@ -7884,20 +7884,20 @@
         </is>
       </c>
       <c r="M94" t="n">
-        <v>200</v>
+        <v>210</v>
       </c>
       <c r="N94" t="n">
-        <v>7000</v>
+        <v>11000</v>
       </c>
       <c r="O94" t="n">
-        <v>7000</v>
+        <v>11000</v>
       </c>
       <c r="P94" t="n">
-        <v>7000</v>
+        <v>11000</v>
       </c>
       <c r="Q94" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="R94" t="inlineStr">
@@ -7906,10 +7906,10 @@
         </is>
       </c>
       <c r="S94" t="n">
-        <v>700</v>
+        <v>611</v>
       </c>
       <c r="T94" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
     </row>
     <row r="95">
@@ -7960,24 +7960,24 @@
       </c>
       <c r="L95" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M95" t="n">
-        <v>190</v>
+        <v>200</v>
       </c>
       <c r="N95" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="O95" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="P95" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="Q95" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="R95" t="inlineStr">
@@ -7986,10 +7986,10 @@
         </is>
       </c>
       <c r="S95" t="n">
-        <v>500</v>
+        <v>700</v>
       </c>
       <c r="T95" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="96">
@@ -8007,7 +8007,7 @@
         </is>
       </c>
       <c r="D96" s="2" t="n">
-        <v>44433</v>
+        <v>44358</v>
       </c>
       <c r="E96" t="n">
         <v>7</v>
@@ -8040,24 +8040,24 @@
       </c>
       <c r="L96" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M96" t="n">
-        <v>120</v>
+        <v>190</v>
       </c>
       <c r="N96" t="n">
-        <v>14000</v>
+        <v>9000</v>
       </c>
       <c r="O96" t="n">
-        <v>14000</v>
+        <v>9000</v>
       </c>
       <c r="P96" t="n">
-        <v>14000</v>
+        <v>9000</v>
       </c>
       <c r="Q96" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="R96" t="inlineStr">
@@ -8066,7 +8066,7 @@
         </is>
       </c>
       <c r="S96" t="n">
-        <v>778</v>
+        <v>500</v>
       </c>
       <c r="T96" t="n">
         <v>18</v>
@@ -8120,20 +8120,20 @@
       </c>
       <c r="L97" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M97" t="n">
-        <v>180</v>
+        <v>120</v>
       </c>
       <c r="N97" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="O97" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="P97" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="Q97" t="inlineStr">
         <is>
@@ -8146,7 +8146,7 @@
         </is>
       </c>
       <c r="S97" t="n">
-        <v>667</v>
+        <v>778</v>
       </c>
       <c r="T97" t="n">
         <v>18</v>
@@ -8167,7 +8167,7 @@
         </is>
       </c>
       <c r="D98" s="2" t="n">
-        <v>44397</v>
+        <v>44433</v>
       </c>
       <c r="E98" t="n">
         <v>7</v>
@@ -8200,24 +8200,24 @@
       </c>
       <c r="L98" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M98" t="n">
-        <v>190</v>
+        <v>180</v>
       </c>
       <c r="N98" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="O98" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="P98" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="Q98" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="R98" t="inlineStr">
@@ -8226,7 +8226,7 @@
         </is>
       </c>
       <c r="S98" t="n">
-        <v>778</v>
+        <v>667</v>
       </c>
       <c r="T98" t="n">
         <v>18</v>
@@ -8284,16 +8284,16 @@
         </is>
       </c>
       <c r="M99" t="n">
-        <v>150</v>
+        <v>190</v>
       </c>
       <c r="N99" t="n">
-        <v>13000</v>
+        <v>14000</v>
       </c>
       <c r="O99" t="n">
-        <v>13000</v>
+        <v>14000</v>
       </c>
       <c r="P99" t="n">
-        <v>13000</v>
+        <v>14000</v>
       </c>
       <c r="Q99" t="inlineStr">
         <is>
@@ -8302,11 +8302,11 @@
       </c>
       <c r="R99" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S99" t="n">
-        <v>722</v>
+        <v>778</v>
       </c>
       <c r="T99" t="n">
         <v>18</v>
@@ -8360,20 +8360,20 @@
       </c>
       <c r="L100" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M100" t="n">
-        <v>480</v>
+        <v>150</v>
       </c>
       <c r="N100" t="n">
-        <v>9000</v>
+        <v>13000</v>
       </c>
       <c r="O100" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="P100" t="n">
-        <v>9479</v>
+        <v>13000</v>
       </c>
       <c r="Q100" t="inlineStr">
         <is>
@@ -8382,11 +8382,11 @@
       </c>
       <c r="R100" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S100" t="n">
-        <v>527</v>
+        <v>722</v>
       </c>
       <c r="T100" t="n">
         <v>18</v>
@@ -8407,7 +8407,7 @@
         </is>
       </c>
       <c r="D101" s="2" t="n">
-        <v>44321</v>
+        <v>44397</v>
       </c>
       <c r="E101" t="n">
         <v>7</v>
@@ -8444,16 +8444,16 @@
         </is>
       </c>
       <c r="M101" t="n">
-        <v>200</v>
+        <v>480</v>
       </c>
       <c r="N101" t="n">
-        <v>13000</v>
+        <v>9000</v>
       </c>
       <c r="O101" t="n">
-        <v>13000</v>
+        <v>10000</v>
       </c>
       <c r="P101" t="n">
-        <v>13000</v>
+        <v>9479</v>
       </c>
       <c r="Q101" t="inlineStr">
         <is>
@@ -8466,7 +8466,7 @@
         </is>
       </c>
       <c r="S101" t="n">
-        <v>722</v>
+        <v>527</v>
       </c>
       <c r="T101" t="n">
         <v>18</v>
@@ -8487,7 +8487,7 @@
         </is>
       </c>
       <c r="D102" s="2" t="n">
-        <v>44426</v>
+        <v>44321</v>
       </c>
       <c r="E102" t="n">
         <v>7</v>
@@ -8520,24 +8520,24 @@
       </c>
       <c r="L102" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M102" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="N102" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="O102" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="P102" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="Q102" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="R102" t="inlineStr">
@@ -8546,7 +8546,7 @@
         </is>
       </c>
       <c r="S102" t="n">
-        <v>667</v>
+        <v>722</v>
       </c>
       <c r="T102" t="n">
         <v>18</v>
@@ -8600,20 +8600,20 @@
       </c>
       <c r="L103" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M103" t="n">
-        <v>120</v>
+        <v>100</v>
       </c>
       <c r="N103" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="O103" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="P103" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="Q103" t="inlineStr">
         <is>
@@ -8626,7 +8626,7 @@
         </is>
       </c>
       <c r="S103" t="n">
-        <v>556</v>
+        <v>667</v>
       </c>
       <c r="T103" t="n">
         <v>18</v>
@@ -8647,7 +8647,7 @@
         </is>
       </c>
       <c r="D104" s="2" t="n">
-        <v>44434</v>
+        <v>44426</v>
       </c>
       <c r="E104" t="n">
         <v>7</v>
@@ -8680,24 +8680,24 @@
       </c>
       <c r="L104" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M104" t="n">
-        <v>230</v>
+        <v>120</v>
       </c>
       <c r="N104" t="n">
-        <v>14000</v>
+        <v>10000</v>
       </c>
       <c r="O104" t="n">
-        <v>14000</v>
+        <v>10000</v>
       </c>
       <c r="P104" t="n">
-        <v>14000</v>
+        <v>10000</v>
       </c>
       <c r="Q104" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="R104" t="inlineStr">
@@ -8706,7 +8706,7 @@
         </is>
       </c>
       <c r="S104" t="n">
-        <v>778</v>
+        <v>556</v>
       </c>
       <c r="T104" t="n">
         <v>18</v>
@@ -8764,20 +8764,20 @@
         </is>
       </c>
       <c r="M105" t="n">
-        <v>160</v>
+        <v>230</v>
       </c>
       <c r="N105" t="n">
-        <v>8000</v>
+        <v>14000</v>
       </c>
       <c r="O105" t="n">
-        <v>8000</v>
+        <v>14000</v>
       </c>
       <c r="P105" t="n">
-        <v>8000</v>
+        <v>14000</v>
       </c>
       <c r="Q105" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="R105" t="inlineStr">
@@ -8786,10 +8786,10 @@
         </is>
       </c>
       <c r="S105" t="n">
-        <v>800</v>
+        <v>778</v>
       </c>
       <c r="T105" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
     </row>
     <row r="106">
@@ -8840,24 +8840,24 @@
       </c>
       <c r="L106" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M106" t="n">
-        <v>150</v>
+        <v>160</v>
       </c>
       <c r="N106" t="n">
-        <v>12000</v>
+        <v>8000</v>
       </c>
       <c r="O106" t="n">
-        <v>12000</v>
+        <v>8000</v>
       </c>
       <c r="P106" t="n">
-        <v>12000</v>
+        <v>8000</v>
       </c>
       <c r="Q106" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="R106" t="inlineStr">
@@ -8866,10 +8866,10 @@
         </is>
       </c>
       <c r="S106" t="n">
-        <v>667</v>
+        <v>800</v>
       </c>
       <c r="T106" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="107">
@@ -8924,20 +8924,20 @@
         </is>
       </c>
       <c r="M107" t="n">
-        <v>230</v>
+        <v>150</v>
       </c>
       <c r="N107" t="n">
-        <v>7000</v>
+        <v>12000</v>
       </c>
       <c r="O107" t="n">
-        <v>7000</v>
+        <v>12000</v>
       </c>
       <c r="P107" t="n">
-        <v>7000</v>
+        <v>12000</v>
       </c>
       <c r="Q107" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="R107" t="inlineStr">
@@ -8946,10 +8946,10 @@
         </is>
       </c>
       <c r="S107" t="n">
-        <v>700</v>
+        <v>667</v>
       </c>
       <c r="T107" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
     </row>
     <row r="108">
@@ -9000,24 +9000,24 @@
       </c>
       <c r="L108" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M108" t="n">
-        <v>120</v>
+        <v>230</v>
       </c>
       <c r="N108" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="O108" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="P108" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="Q108" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="R108" t="inlineStr">
@@ -9026,10 +9026,10 @@
         </is>
       </c>
       <c r="S108" t="n">
-        <v>556</v>
+        <v>700</v>
       </c>
       <c r="T108" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="109">
@@ -9047,7 +9047,7 @@
         </is>
       </c>
       <c r="D109" s="2" t="n">
-        <v>44398</v>
+        <v>44434</v>
       </c>
       <c r="E109" t="n">
         <v>7</v>
@@ -9080,20 +9080,20 @@
       </c>
       <c r="L109" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M109" t="n">
-        <v>150</v>
+        <v>120</v>
       </c>
       <c r="N109" t="n">
-        <v>13000</v>
+        <v>10000</v>
       </c>
       <c r="O109" t="n">
-        <v>13000</v>
+        <v>10000</v>
       </c>
       <c r="P109" t="n">
-        <v>13000</v>
+        <v>10000</v>
       </c>
       <c r="Q109" t="inlineStr">
         <is>
@@ -9106,7 +9106,7 @@
         </is>
       </c>
       <c r="S109" t="n">
-        <v>722</v>
+        <v>556</v>
       </c>
       <c r="T109" t="n">
         <v>18</v>
@@ -9164,7 +9164,7 @@
         </is>
       </c>
       <c r="M110" t="n">
-        <v>180</v>
+        <v>150</v>
       </c>
       <c r="N110" t="n">
         <v>13000</v>
@@ -9182,7 +9182,7 @@
       </c>
       <c r="R110" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S110" t="n">
@@ -9240,20 +9240,20 @@
       </c>
       <c r="L111" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M111" t="n">
-        <v>260</v>
+        <v>180</v>
       </c>
       <c r="N111" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="O111" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="P111" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="Q111" t="inlineStr">
         <is>
@@ -9262,11 +9262,11 @@
       </c>
       <c r="R111" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S111" t="n">
-        <v>556</v>
+        <v>722</v>
       </c>
       <c r="T111" t="n">
         <v>18</v>
@@ -9324,16 +9324,16 @@
         </is>
       </c>
       <c r="M112" t="n">
-        <v>220</v>
+        <v>260</v>
       </c>
       <c r="N112" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="O112" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="P112" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="Q112" t="inlineStr">
         <is>
@@ -9342,11 +9342,11 @@
       </c>
       <c r="R112" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S112" t="n">
-        <v>500</v>
+        <v>556</v>
       </c>
       <c r="T112" t="n">
         <v>18</v>
@@ -9367,7 +9367,7 @@
         </is>
       </c>
       <c r="D113" s="2" t="n">
-        <v>44420</v>
+        <v>44398</v>
       </c>
       <c r="E113" t="n">
         <v>7</v>
@@ -9400,33 +9400,33 @@
       </c>
       <c r="L113" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M113" t="n">
-        <v>120</v>
+        <v>220</v>
       </c>
       <c r="N113" t="n">
-        <v>14000</v>
+        <v>9000</v>
       </c>
       <c r="O113" t="n">
-        <v>14000</v>
+        <v>9000</v>
       </c>
       <c r="P113" t="n">
-        <v>14000</v>
+        <v>9000</v>
       </c>
       <c r="Q113" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="R113" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S113" t="n">
-        <v>778</v>
+        <v>500</v>
       </c>
       <c r="T113" t="n">
         <v>18</v>
@@ -9480,20 +9480,20 @@
       </c>
       <c r="L114" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M114" t="n">
-        <v>200</v>
+        <v>120</v>
       </c>
       <c r="N114" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="O114" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="P114" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="Q114" t="inlineStr">
         <is>
@@ -9506,7 +9506,7 @@
         </is>
       </c>
       <c r="S114" t="n">
-        <v>667</v>
+        <v>778</v>
       </c>
       <c r="T114" t="n">
         <v>18</v>
@@ -9527,7 +9527,7 @@
         </is>
       </c>
       <c r="D115" s="2" t="n">
-        <v>44348</v>
+        <v>44420</v>
       </c>
       <c r="E115" t="n">
         <v>7</v>
@@ -9564,20 +9564,20 @@
         </is>
       </c>
       <c r="M115" t="n">
-        <v>230</v>
+        <v>200</v>
       </c>
       <c r="N115" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="O115" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="P115" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="Q115" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="R115" t="inlineStr">
@@ -9586,7 +9586,7 @@
         </is>
       </c>
       <c r="S115" t="n">
-        <v>556</v>
+        <v>667</v>
       </c>
       <c r="T115" t="n">
         <v>18</v>
@@ -9640,20 +9640,20 @@
       </c>
       <c r="L116" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M116" t="n">
-        <v>190</v>
+        <v>230</v>
       </c>
       <c r="N116" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="O116" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="P116" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="Q116" t="inlineStr">
         <is>
@@ -9666,7 +9666,7 @@
         </is>
       </c>
       <c r="S116" t="n">
-        <v>444</v>
+        <v>556</v>
       </c>
       <c r="T116" t="n">
         <v>18</v>
@@ -9687,7 +9687,7 @@
         </is>
       </c>
       <c r="D117" s="2" t="n">
-        <v>44263</v>
+        <v>44348</v>
       </c>
       <c r="E117" t="n">
         <v>7</v>
@@ -9720,36 +9720,36 @@
       </c>
       <c r="L117" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M117" t="n">
-        <v>180</v>
+        <v>190</v>
       </c>
       <c r="N117" t="n">
-        <v>12000</v>
+        <v>8000</v>
       </c>
       <c r="O117" t="n">
-        <v>12000</v>
+        <v>8000</v>
       </c>
       <c r="P117" t="n">
-        <v>12000</v>
+        <v>8000</v>
       </c>
       <c r="Q117" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="R117" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S117" t="n">
-        <v>1200</v>
+        <v>444</v>
       </c>
       <c r="T117" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
     </row>
     <row r="118">
@@ -9767,7 +9767,7 @@
         </is>
       </c>
       <c r="D118" s="2" t="n">
-        <v>44316</v>
+        <v>44263</v>
       </c>
       <c r="E118" t="n">
         <v>7</v>
@@ -9800,11 +9800,11 @@
       </c>
       <c r="L118" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M118" t="n">
-        <v>160</v>
+        <v>180</v>
       </c>
       <c r="N118" t="n">
         <v>12000</v>
@@ -9822,7 +9822,7 @@
       </c>
       <c r="R118" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S118" t="n">
@@ -9880,20 +9880,20 @@
       </c>
       <c r="L119" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M119" t="n">
-        <v>200</v>
+        <v>160</v>
       </c>
       <c r="N119" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="O119" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="P119" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="Q119" t="inlineStr">
         <is>
@@ -9906,7 +9906,7 @@
         </is>
       </c>
       <c r="S119" t="n">
-        <v>1000</v>
+        <v>1200</v>
       </c>
       <c r="T119" t="n">
         <v>10</v>
@@ -9964,20 +9964,20 @@
         </is>
       </c>
       <c r="M120" t="n">
-        <v>190</v>
+        <v>200</v>
       </c>
       <c r="N120" t="n">
-        <v>13000</v>
+        <v>10000</v>
       </c>
       <c r="O120" t="n">
-        <v>13000</v>
+        <v>10000</v>
       </c>
       <c r="P120" t="n">
-        <v>13000</v>
+        <v>10000</v>
       </c>
       <c r="Q120" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R120" t="inlineStr">
@@ -9986,10 +9986,10 @@
         </is>
       </c>
       <c r="S120" t="n">
-        <v>722</v>
+        <v>1000</v>
       </c>
       <c r="T120" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="121">
@@ -10007,7 +10007,7 @@
         </is>
       </c>
       <c r="D121" s="2" t="n">
-        <v>44341</v>
+        <v>44316</v>
       </c>
       <c r="E121" t="n">
         <v>7</v>
@@ -10040,24 +10040,24 @@
       </c>
       <c r="L121" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M121" t="n">
-        <v>200</v>
+        <v>190</v>
       </c>
       <c r="N121" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="O121" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="P121" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="Q121" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="R121" t="inlineStr">
@@ -10066,7 +10066,7 @@
         </is>
       </c>
       <c r="S121" t="n">
-        <v>556</v>
+        <v>722</v>
       </c>
       <c r="T121" t="n">
         <v>18</v>
@@ -10120,20 +10120,20 @@
       </c>
       <c r="L122" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M122" t="n">
-        <v>210</v>
+        <v>200</v>
       </c>
       <c r="N122" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="O122" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="P122" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="Q122" t="inlineStr">
         <is>
@@ -10146,7 +10146,7 @@
         </is>
       </c>
       <c r="S122" t="n">
-        <v>500</v>
+        <v>556</v>
       </c>
       <c r="T122" t="n">
         <v>18</v>
@@ -10167,7 +10167,7 @@
         </is>
       </c>
       <c r="D123" s="2" t="n">
-        <v>44414</v>
+        <v>44341</v>
       </c>
       <c r="E123" t="n">
         <v>7</v>
@@ -10204,20 +10204,20 @@
         </is>
       </c>
       <c r="M123" t="n">
-        <v>150</v>
+        <v>210</v>
       </c>
       <c r="N123" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="O123" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="P123" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="Q123" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="R123" t="inlineStr">
@@ -10226,10 +10226,10 @@
         </is>
       </c>
       <c r="S123" t="n">
-        <v>800</v>
+        <v>500</v>
       </c>
       <c r="T123" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
     </row>
     <row r="124">
@@ -10284,20 +10284,20 @@
         </is>
       </c>
       <c r="M124" t="n">
-        <v>190</v>
+        <v>150</v>
       </c>
       <c r="N124" t="n">
-        <v>12000</v>
+        <v>8000</v>
       </c>
       <c r="O124" t="n">
-        <v>12000</v>
+        <v>8000</v>
       </c>
       <c r="P124" t="n">
-        <v>12000</v>
+        <v>8000</v>
       </c>
       <c r="Q124" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R124" t="inlineStr">
@@ -10306,10 +10306,10 @@
         </is>
       </c>
       <c r="S124" t="n">
-        <v>667</v>
+        <v>800</v>
       </c>
       <c r="T124" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="125">
@@ -10360,20 +10360,20 @@
       </c>
       <c r="L125" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M125" t="n">
-        <v>100</v>
+        <v>190</v>
       </c>
       <c r="N125" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="O125" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="P125" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="Q125" t="inlineStr">
         <is>
@@ -10386,7 +10386,7 @@
         </is>
       </c>
       <c r="S125" t="n">
-        <v>556</v>
+        <v>667</v>
       </c>
       <c r="T125" t="n">
         <v>18</v>
@@ -10407,7 +10407,7 @@
         </is>
       </c>
       <c r="D126" s="2" t="n">
-        <v>44432</v>
+        <v>44414</v>
       </c>
       <c r="E126" t="n">
         <v>7</v>
@@ -10440,24 +10440,24 @@
       </c>
       <c r="L126" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M126" t="n">
-        <v>210</v>
+        <v>100</v>
       </c>
       <c r="N126" t="n">
-        <v>14000</v>
+        <v>10000</v>
       </c>
       <c r="O126" t="n">
-        <v>14000</v>
+        <v>10000</v>
       </c>
       <c r="P126" t="n">
-        <v>14000</v>
+        <v>10000</v>
       </c>
       <c r="Q126" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="R126" t="inlineStr">
@@ -10466,7 +10466,7 @@
         </is>
       </c>
       <c r="S126" t="n">
-        <v>778</v>
+        <v>556</v>
       </c>
       <c r="T126" t="n">
         <v>18</v>
@@ -10487,7 +10487,7 @@
         </is>
       </c>
       <c r="D127" s="2" t="n">
-        <v>44351</v>
+        <v>44432</v>
       </c>
       <c r="E127" t="n">
         <v>7</v>
@@ -10524,20 +10524,20 @@
         </is>
       </c>
       <c r="M127" t="n">
-        <v>260</v>
+        <v>210</v>
       </c>
       <c r="N127" t="n">
-        <v>11000</v>
+        <v>14000</v>
       </c>
       <c r="O127" t="n">
-        <v>11000</v>
+        <v>14000</v>
       </c>
       <c r="P127" t="n">
-        <v>11000</v>
+        <v>14000</v>
       </c>
       <c r="Q127" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="R127" t="inlineStr">
@@ -10546,7 +10546,7 @@
         </is>
       </c>
       <c r="S127" t="n">
-        <v>611</v>
+        <v>778</v>
       </c>
       <c r="T127" t="n">
         <v>18</v>
@@ -10600,20 +10600,20 @@
       </c>
       <c r="L128" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M128" t="n">
-        <v>200</v>
+        <v>260</v>
       </c>
       <c r="N128" t="n">
-        <v>10000</v>
+        <v>11000</v>
       </c>
       <c r="O128" t="n">
-        <v>10000</v>
+        <v>11000</v>
       </c>
       <c r="P128" t="n">
-        <v>10000</v>
+        <v>11000</v>
       </c>
       <c r="Q128" t="inlineStr">
         <is>
@@ -10626,7 +10626,7 @@
         </is>
       </c>
       <c r="S128" t="n">
-        <v>556</v>
+        <v>611</v>
       </c>
       <c r="T128" t="n">
         <v>18</v>
@@ -10684,32 +10684,32 @@
         </is>
       </c>
       <c r="M129" t="n">
-        <v>230</v>
+        <v>200</v>
       </c>
       <c r="N129" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="O129" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="P129" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="Q129" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="R129" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S129" t="n">
-        <v>800</v>
+        <v>556</v>
       </c>
       <c r="T129" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
     </row>
     <row r="130">
@@ -10727,7 +10727,7 @@
         </is>
       </c>
       <c r="D130" s="2" t="n">
-        <v>44369</v>
+        <v>44351</v>
       </c>
       <c r="E130" t="n">
         <v>7</v>
@@ -10760,7 +10760,7 @@
       </c>
       <c r="L130" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M130" t="n">
@@ -10777,12 +10777,12 @@
       </c>
       <c r="Q130" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="R130" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S130" t="n">
@@ -10844,20 +10844,20 @@
         </is>
       </c>
       <c r="M131" t="n">
-        <v>100</v>
+        <v>230</v>
       </c>
       <c r="N131" t="n">
-        <v>12000</v>
+        <v>8000</v>
       </c>
       <c r="O131" t="n">
-        <v>12000</v>
+        <v>8000</v>
       </c>
       <c r="P131" t="n">
-        <v>12000</v>
+        <v>8000</v>
       </c>
       <c r="Q131" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R131" t="inlineStr">
@@ -10866,10 +10866,10 @@
         </is>
       </c>
       <c r="S131" t="n">
-        <v>667</v>
+        <v>800</v>
       </c>
       <c r="T131" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="132">
@@ -10920,24 +10920,24 @@
       </c>
       <c r="L132" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M132" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="N132" t="n">
-        <v>6000</v>
+        <v>12000</v>
       </c>
       <c r="O132" t="n">
-        <v>6000</v>
+        <v>12000</v>
       </c>
       <c r="P132" t="n">
-        <v>6000</v>
+        <v>12000</v>
       </c>
       <c r="Q132" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="R132" t="inlineStr">
@@ -10946,10 +10946,10 @@
         </is>
       </c>
       <c r="S132" t="n">
-        <v>600</v>
+        <v>667</v>
       </c>
       <c r="T132" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
     </row>
     <row r="133">
@@ -11004,20 +11004,20 @@
         </is>
       </c>
       <c r="M133" t="n">
-        <v>180</v>
+        <v>200</v>
       </c>
       <c r="N133" t="n">
-        <v>10000</v>
+        <v>6000</v>
       </c>
       <c r="O133" t="n">
-        <v>10000</v>
+        <v>6000</v>
       </c>
       <c r="P133" t="n">
-        <v>10000</v>
+        <v>6000</v>
       </c>
       <c r="Q133" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R133" t="inlineStr">
@@ -11026,10 +11026,10 @@
         </is>
       </c>
       <c r="S133" t="n">
-        <v>556</v>
+        <v>600</v>
       </c>
       <c r="T133" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="134">
@@ -11047,7 +11047,7 @@
         </is>
       </c>
       <c r="D134" s="2" t="n">
-        <v>44342</v>
+        <v>44369</v>
       </c>
       <c r="E134" t="n">
         <v>7</v>
@@ -11084,16 +11084,16 @@
         </is>
       </c>
       <c r="M134" t="n">
-        <v>250</v>
+        <v>180</v>
       </c>
       <c r="N134" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="O134" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="P134" t="n">
-        <v>8600</v>
+        <v>10000</v>
       </c>
       <c r="Q134" t="inlineStr">
         <is>
@@ -11106,7 +11106,7 @@
         </is>
       </c>
       <c r="S134" t="n">
-        <v>478</v>
+        <v>556</v>
       </c>
       <c r="T134" t="n">
         <v>18</v>
@@ -11127,7 +11127,7 @@
         </is>
       </c>
       <c r="D135" s="2" t="n">
-        <v>44379</v>
+        <v>44342</v>
       </c>
       <c r="E135" t="n">
         <v>7</v>
@@ -11160,20 +11160,20 @@
       </c>
       <c r="L135" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M135" t="n">
-        <v>200</v>
+        <v>250</v>
       </c>
       <c r="N135" t="n">
-        <v>12000</v>
+        <v>8000</v>
       </c>
       <c r="O135" t="n">
-        <v>12000</v>
+        <v>9000</v>
       </c>
       <c r="P135" t="n">
-        <v>12000</v>
+        <v>8600</v>
       </c>
       <c r="Q135" t="inlineStr">
         <is>
@@ -11186,7 +11186,7 @@
         </is>
       </c>
       <c r="S135" t="n">
-        <v>667</v>
+        <v>478</v>
       </c>
       <c r="T135" t="n">
         <v>18</v>
@@ -11240,20 +11240,20 @@
       </c>
       <c r="L136" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M136" t="n">
-        <v>160</v>
+        <v>200</v>
       </c>
       <c r="N136" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="O136" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="P136" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="Q136" t="inlineStr">
         <is>
@@ -11266,7 +11266,7 @@
         </is>
       </c>
       <c r="S136" t="n">
-        <v>556</v>
+        <v>667</v>
       </c>
       <c r="T136" t="n">
         <v>18</v>
@@ -11287,7 +11287,7 @@
         </is>
       </c>
       <c r="D137" s="2" t="n">
-        <v>44315</v>
+        <v>44379</v>
       </c>
       <c r="E137" t="n">
         <v>7</v>
@@ -11320,24 +11320,24 @@
       </c>
       <c r="L137" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M137" t="n">
-        <v>140</v>
+        <v>160</v>
       </c>
       <c r="N137" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="O137" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="P137" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="Q137" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="R137" t="inlineStr">
@@ -11346,10 +11346,10 @@
         </is>
       </c>
       <c r="S137" t="n">
-        <v>1200</v>
+        <v>556</v>
       </c>
       <c r="T137" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
     </row>
     <row r="138">
@@ -11400,20 +11400,20 @@
       </c>
       <c r="L138" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M138" t="n">
-        <v>120</v>
+        <v>140</v>
       </c>
       <c r="N138" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="O138" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="P138" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="Q138" t="inlineStr">
         <is>
@@ -11426,7 +11426,7 @@
         </is>
       </c>
       <c r="S138" t="n">
-        <v>1000</v>
+        <v>1200</v>
       </c>
       <c r="T138" t="n">
         <v>10</v>
@@ -11480,20 +11480,20 @@
       </c>
       <c r="L139" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M139" t="n">
-        <v>50</v>
+        <v>120</v>
       </c>
       <c r="N139" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="O139" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="P139" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="Q139" t="inlineStr">
         <is>
@@ -11506,7 +11506,7 @@
         </is>
       </c>
       <c r="S139" t="n">
-        <v>800</v>
+        <v>1000</v>
       </c>
       <c r="T139" t="n">
         <v>10</v>
@@ -11527,7 +11527,7 @@
         </is>
       </c>
       <c r="D140" s="2" t="n">
-        <v>44391</v>
+        <v>44315</v>
       </c>
       <c r="E140" t="n">
         <v>7</v>
@@ -11560,24 +11560,24 @@
       </c>
       <c r="L140" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M140" t="n">
-        <v>200</v>
+        <v>50</v>
       </c>
       <c r="N140" t="n">
-        <v>11000</v>
+        <v>8000</v>
       </c>
       <c r="O140" t="n">
-        <v>11000</v>
+        <v>8000</v>
       </c>
       <c r="P140" t="n">
-        <v>11000</v>
+        <v>8000</v>
       </c>
       <c r="Q140" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="R140" t="inlineStr">
@@ -11586,10 +11586,10 @@
         </is>
       </c>
       <c r="S140" t="n">
-        <v>611</v>
+        <v>800</v>
       </c>
       <c r="T140" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="141">
@@ -11640,20 +11640,20 @@
       </c>
       <c r="L141" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M141" t="n">
-        <v>250</v>
+        <v>200</v>
       </c>
       <c r="N141" t="n">
-        <v>9500</v>
+        <v>11000</v>
       </c>
       <c r="O141" t="n">
-        <v>9500</v>
+        <v>11000</v>
       </c>
       <c r="P141" t="n">
-        <v>9500</v>
+        <v>11000</v>
       </c>
       <c r="Q141" t="inlineStr">
         <is>
@@ -11666,7 +11666,7 @@
         </is>
       </c>
       <c r="S141" t="n">
-        <v>528</v>
+        <v>611</v>
       </c>
       <c r="T141" t="n">
         <v>18</v>
@@ -11687,7 +11687,7 @@
         </is>
       </c>
       <c r="D142" s="2" t="n">
-        <v>44446</v>
+        <v>44391</v>
       </c>
       <c r="E142" t="n">
         <v>7</v>
@@ -11720,20 +11720,20 @@
       </c>
       <c r="L142" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M142" t="n">
-        <v>180</v>
+        <v>250</v>
       </c>
       <c r="N142" t="n">
-        <v>14000</v>
+        <v>9500</v>
       </c>
       <c r="O142" t="n">
-        <v>14000</v>
+        <v>9500</v>
       </c>
       <c r="P142" t="n">
-        <v>14000</v>
+        <v>9500</v>
       </c>
       <c r="Q142" t="inlineStr">
         <is>
@@ -11746,7 +11746,7 @@
         </is>
       </c>
       <c r="S142" t="n">
-        <v>778</v>
+        <v>528</v>
       </c>
       <c r="T142" t="n">
         <v>18</v>
@@ -11800,20 +11800,20 @@
       </c>
       <c r="L143" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M143" t="n">
-        <v>230</v>
+        <v>180</v>
       </c>
       <c r="N143" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="O143" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="P143" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="Q143" t="inlineStr">
         <is>
@@ -11826,7 +11826,7 @@
         </is>
       </c>
       <c r="S143" t="n">
-        <v>667</v>
+        <v>778</v>
       </c>
       <c r="T143" t="n">
         <v>18</v>
@@ -11880,20 +11880,20 @@
       </c>
       <c r="L144" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M144" t="n">
-        <v>150</v>
+        <v>230</v>
       </c>
       <c r="N144" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="O144" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="P144" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="Q144" t="inlineStr">
         <is>
@@ -11906,7 +11906,7 @@
         </is>
       </c>
       <c r="S144" t="n">
-        <v>556</v>
+        <v>667</v>
       </c>
       <c r="T144" t="n">
         <v>18</v>
@@ -11927,7 +11927,7 @@
         </is>
       </c>
       <c r="D145" s="2" t="n">
-        <v>44313</v>
+        <v>44446</v>
       </c>
       <c r="E145" t="n">
         <v>7</v>
@@ -11960,24 +11960,24 @@
       </c>
       <c r="L145" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M145" t="n">
-        <v>350</v>
+        <v>150</v>
       </c>
       <c r="N145" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="O145" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="P145" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="Q145" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="R145" t="inlineStr">
@@ -11986,10 +11986,10 @@
         </is>
       </c>
       <c r="S145" t="n">
-        <v>900</v>
+        <v>556</v>
       </c>
       <c r="T145" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
     </row>
     <row r="146">
@@ -12040,20 +12040,20 @@
       </c>
       <c r="L146" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M146" t="n">
-        <v>250</v>
+        <v>350</v>
       </c>
       <c r="N146" t="n">
-        <v>6000</v>
+        <v>9000</v>
       </c>
       <c r="O146" t="n">
-        <v>6000</v>
+        <v>9000</v>
       </c>
       <c r="P146" t="n">
-        <v>6000</v>
+        <v>9000</v>
       </c>
       <c r="Q146" t="inlineStr">
         <is>
@@ -12066,7 +12066,7 @@
         </is>
       </c>
       <c r="S146" t="n">
-        <v>600</v>
+        <v>900</v>
       </c>
       <c r="T146" t="n">
         <v>10</v>
@@ -12087,7 +12087,7 @@
         </is>
       </c>
       <c r="D147" s="2" t="n">
-        <v>44329</v>
+        <v>44313</v>
       </c>
       <c r="E147" t="n">
         <v>7</v>
@@ -12120,24 +12120,24 @@
       </c>
       <c r="L147" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="M147" t="n">
-        <v>300</v>
+        <v>250</v>
       </c>
       <c r="N147" t="n">
-        <v>8000</v>
+        <v>6000</v>
       </c>
       <c r="O147" t="n">
-        <v>8000</v>
+        <v>6000</v>
       </c>
       <c r="P147" t="n">
-        <v>8000</v>
+        <v>6000</v>
       </c>
       <c r="Q147" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R147" t="inlineStr">
@@ -12146,7 +12146,7 @@
         </is>
       </c>
       <c r="S147" t="n">
-        <v>800</v>
+        <v>600</v>
       </c>
       <c r="T147" t="n">
         <v>10</v>
@@ -12167,7 +12167,7 @@
         </is>
       </c>
       <c r="D148" s="2" t="n">
-        <v>44449</v>
+        <v>44329</v>
       </c>
       <c r="E148" t="n">
         <v>7</v>
@@ -12207,17 +12207,17 @@
         <v>300</v>
       </c>
       <c r="N148" t="n">
-        <v>12000</v>
+        <v>8000</v>
       </c>
       <c r="O148" t="n">
-        <v>12000</v>
+        <v>8000</v>
       </c>
       <c r="P148" t="n">
-        <v>12000</v>
+        <v>8000</v>
       </c>
       <c r="Q148" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="R148" t="inlineStr">
@@ -12226,10 +12226,10 @@
         </is>
       </c>
       <c r="S148" t="n">
-        <v>667</v>
+        <v>800</v>
       </c>
       <c r="T148" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="149">
@@ -12247,7 +12247,7 @@
         </is>
       </c>
       <c r="D149" s="2" t="n">
-        <v>44438</v>
+        <v>44449</v>
       </c>
       <c r="E149" t="n">
         <v>7</v>
@@ -12280,20 +12280,20 @@
       </c>
       <c r="L149" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M149" t="n">
-        <v>230</v>
+        <v>300</v>
       </c>
       <c r="N149" t="n">
-        <v>13000</v>
+        <v>12000</v>
       </c>
       <c r="O149" t="n">
-        <v>13000</v>
+        <v>12000</v>
       </c>
       <c r="P149" t="n">
-        <v>13000</v>
+        <v>12000</v>
       </c>
       <c r="Q149" t="inlineStr">
         <is>
@@ -12306,7 +12306,7 @@
         </is>
       </c>
       <c r="S149" t="n">
-        <v>722</v>
+        <v>667</v>
       </c>
       <c r="T149" t="n">
         <v>18</v>
@@ -12360,20 +12360,20 @@
       </c>
       <c r="L150" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M150" t="n">
-        <v>300</v>
+        <v>230</v>
       </c>
       <c r="N150" t="n">
-        <v>11000</v>
+        <v>13000</v>
       </c>
       <c r="O150" t="n">
-        <v>11000</v>
+        <v>13000</v>
       </c>
       <c r="P150" t="n">
-        <v>11000</v>
+        <v>13000</v>
       </c>
       <c r="Q150" t="inlineStr">
         <is>
@@ -12386,7 +12386,7 @@
         </is>
       </c>
       <c r="S150" t="n">
-        <v>611</v>
+        <v>722</v>
       </c>
       <c r="T150" t="n">
         <v>18</v>
@@ -12407,7 +12407,7 @@
         </is>
       </c>
       <c r="D151" s="2" t="n">
-        <v>44428</v>
+        <v>44438</v>
       </c>
       <c r="E151" t="n">
         <v>7</v>
@@ -12440,20 +12440,20 @@
       </c>
       <c r="L151" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M151" t="n">
-        <v>230</v>
+        <v>300</v>
       </c>
       <c r="N151" t="n">
-        <v>14000</v>
+        <v>11000</v>
       </c>
       <c r="O151" t="n">
-        <v>14000</v>
+        <v>11000</v>
       </c>
       <c r="P151" t="n">
-        <v>14000</v>
+        <v>11000</v>
       </c>
       <c r="Q151" t="inlineStr">
         <is>
@@ -12466,7 +12466,7 @@
         </is>
       </c>
       <c r="S151" t="n">
-        <v>778</v>
+        <v>611</v>
       </c>
       <c r="T151" t="n">
         <v>18</v>
@@ -12520,20 +12520,20 @@
       </c>
       <c r="L152" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M152" t="n">
-        <v>200</v>
+        <v>230</v>
       </c>
       <c r="N152" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="O152" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="P152" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="Q152" t="inlineStr">
         <is>
@@ -12546,7 +12546,7 @@
         </is>
       </c>
       <c r="S152" t="n">
-        <v>667</v>
+        <v>778</v>
       </c>
       <c r="T152" t="n">
         <v>18</v>
@@ -12600,24 +12600,24 @@
       </c>
       <c r="L153" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M153" t="n">
-        <v>120</v>
+        <v>200</v>
       </c>
       <c r="N153" t="n">
-        <v>8000</v>
+        <v>12000</v>
       </c>
       <c r="O153" t="n">
-        <v>8000</v>
+        <v>12000</v>
       </c>
       <c r="P153" t="n">
-        <v>8000</v>
+        <v>12000</v>
       </c>
       <c r="Q153" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="R153" t="inlineStr">
@@ -12626,7 +12626,7 @@
         </is>
       </c>
       <c r="S153" t="n">
-        <v>444</v>
+        <v>667</v>
       </c>
       <c r="T153" t="n">
         <v>18</v>
@@ -12647,7 +12647,7 @@
         </is>
       </c>
       <c r="D154" s="2" t="n">
-        <v>44442</v>
+        <v>44428</v>
       </c>
       <c r="E154" t="n">
         <v>7</v>
@@ -12680,24 +12680,24 @@
       </c>
       <c r="L154" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M154" t="n">
-        <v>180</v>
+        <v>120</v>
       </c>
       <c r="N154" t="n">
-        <v>14000</v>
+        <v>8000</v>
       </c>
       <c r="O154" t="n">
-        <v>14000</v>
+        <v>8000</v>
       </c>
       <c r="P154" t="n">
-        <v>14000</v>
+        <v>8000</v>
       </c>
       <c r="Q154" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="R154" t="inlineStr">
@@ -12706,7 +12706,7 @@
         </is>
       </c>
       <c r="S154" t="n">
-        <v>778</v>
+        <v>444</v>
       </c>
       <c r="T154" t="n">
         <v>18</v>
@@ -12760,20 +12760,20 @@
       </c>
       <c r="L155" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M155" t="n">
-        <v>230</v>
+        <v>180</v>
       </c>
       <c r="N155" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="O155" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="P155" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="Q155" t="inlineStr">
         <is>
@@ -12786,7 +12786,7 @@
         </is>
       </c>
       <c r="S155" t="n">
-        <v>667</v>
+        <v>778</v>
       </c>
       <c r="T155" t="n">
         <v>18</v>
@@ -12844,16 +12844,16 @@
         </is>
       </c>
       <c r="M156" t="n">
-        <v>250</v>
+        <v>230</v>
       </c>
       <c r="N156" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="O156" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="P156" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="Q156" t="inlineStr">
         <is>
@@ -12862,11 +12862,11 @@
       </c>
       <c r="R156" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S156" t="n">
-        <v>556</v>
+        <v>667</v>
       </c>
       <c r="T156" t="n">
         <v>18</v>
@@ -12920,11 +12920,11 @@
       </c>
       <c r="L157" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M157" t="n">
-        <v>200</v>
+        <v>250</v>
       </c>
       <c r="N157" t="n">
         <v>10000</v>
@@ -12942,7 +12942,7 @@
       </c>
       <c r="R157" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S157" t="n">
@@ -13007,13 +13007,13 @@
         <v>200</v>
       </c>
       <c r="N158" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="O158" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="P158" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="Q158" t="inlineStr">
         <is>
@@ -13022,11 +13022,11 @@
       </c>
       <c r="R158" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S158" t="n">
-        <v>444</v>
+        <v>556</v>
       </c>
       <c r="T158" t="n">
         <v>18</v>
@@ -13047,7 +13047,7 @@
         </is>
       </c>
       <c r="D159" s="2" t="n">
-        <v>44435</v>
+        <v>44442</v>
       </c>
       <c r="E159" t="n">
         <v>7</v>
@@ -13080,20 +13080,20 @@
       </c>
       <c r="L159" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M159" t="n">
-        <v>390</v>
+        <v>200</v>
       </c>
       <c r="N159" t="n">
-        <v>14000</v>
+        <v>8000</v>
       </c>
       <c r="O159" t="n">
-        <v>14000</v>
+        <v>8000</v>
       </c>
       <c r="P159" t="n">
-        <v>14000</v>
+        <v>8000</v>
       </c>
       <c r="Q159" t="inlineStr">
         <is>
@@ -13102,11 +13102,11 @@
       </c>
       <c r="R159" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S159" t="n">
-        <v>778</v>
+        <v>444</v>
       </c>
       <c r="T159" t="n">
         <v>18</v>
@@ -13164,20 +13164,20 @@
         </is>
       </c>
       <c r="M160" t="n">
-        <v>160</v>
+        <v>390</v>
       </c>
       <c r="N160" t="n">
-        <v>8000</v>
+        <v>14000</v>
       </c>
       <c r="O160" t="n">
-        <v>8000</v>
+        <v>14000</v>
       </c>
       <c r="P160" t="n">
-        <v>8000</v>
+        <v>14000</v>
       </c>
       <c r="Q160" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="R160" t="inlineStr">
@@ -13186,10 +13186,10 @@
         </is>
       </c>
       <c r="S160" t="n">
-        <v>800</v>
+        <v>778</v>
       </c>
       <c r="T160" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
     </row>
     <row r="161">
@@ -13244,20 +13244,20 @@
         </is>
       </c>
       <c r="M161" t="n">
-        <v>330</v>
+        <v>160</v>
       </c>
       <c r="N161" t="n">
-        <v>14000</v>
+        <v>8000</v>
       </c>
       <c r="O161" t="n">
-        <v>14000</v>
+        <v>8000</v>
       </c>
       <c r="P161" t="n">
-        <v>14000</v>
+        <v>8000</v>
       </c>
       <c r="Q161" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="R161" t="inlineStr">
@@ -13266,10 +13266,10 @@
         </is>
       </c>
       <c r="S161" t="n">
-        <v>778</v>
+        <v>800</v>
       </c>
       <c r="T161" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="162">
@@ -13320,24 +13320,24 @@
       </c>
       <c r="L162" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M162" t="n">
-        <v>250</v>
+        <v>330</v>
       </c>
       <c r="N162" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="O162" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="P162" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="Q162" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="R162" t="inlineStr">
@@ -13346,7 +13346,7 @@
         </is>
       </c>
       <c r="S162" t="n">
-        <v>667</v>
+        <v>778</v>
       </c>
       <c r="T162" t="n">
         <v>18</v>
@@ -13404,20 +13404,20 @@
         </is>
       </c>
       <c r="M163" t="n">
-        <v>230</v>
+        <v>250</v>
       </c>
       <c r="N163" t="n">
-        <v>7000</v>
+        <v>12000</v>
       </c>
       <c r="O163" t="n">
-        <v>7000</v>
+        <v>12000</v>
       </c>
       <c r="P163" t="n">
-        <v>7000</v>
+        <v>12000</v>
       </c>
       <c r="Q163" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="R163" t="inlineStr">
@@ -13426,10 +13426,10 @@
         </is>
       </c>
       <c r="S163" t="n">
-        <v>700</v>
+        <v>667</v>
       </c>
       <c r="T163" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
     </row>
     <row r="164">
@@ -13484,20 +13484,20 @@
         </is>
       </c>
       <c r="M164" t="n">
-        <v>180</v>
+        <v>230</v>
       </c>
       <c r="N164" t="n">
-        <v>12000</v>
+        <v>7000</v>
       </c>
       <c r="O164" t="n">
-        <v>12000</v>
+        <v>7000</v>
       </c>
       <c r="P164" t="n">
-        <v>12000</v>
+        <v>7000</v>
       </c>
       <c r="Q164" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="R164" t="inlineStr">
@@ -13506,10 +13506,10 @@
         </is>
       </c>
       <c r="S164" t="n">
-        <v>667</v>
+        <v>700</v>
       </c>
       <c r="T164" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="165">
@@ -13560,24 +13560,24 @@
       </c>
       <c r="L165" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M165" t="n">
-        <v>240</v>
+        <v>180</v>
       </c>
       <c r="N165" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="O165" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="P165" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="Q165" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="R165" t="inlineStr">
@@ -13586,7 +13586,7 @@
         </is>
       </c>
       <c r="S165" t="n">
-        <v>556</v>
+        <v>667</v>
       </c>
       <c r="T165" t="n">
         <v>18</v>
@@ -13607,7 +13607,7 @@
         </is>
       </c>
       <c r="D166" s="2" t="n">
-        <v>44376</v>
+        <v>44435</v>
       </c>
       <c r="E166" t="n">
         <v>7</v>
@@ -13640,20 +13640,20 @@
       </c>
       <c r="L166" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M166" t="n">
-        <v>260</v>
+        <v>240</v>
       </c>
       <c r="N166" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="O166" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="P166" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="Q166" t="inlineStr">
         <is>
@@ -13666,7 +13666,7 @@
         </is>
       </c>
       <c r="S166" t="n">
-        <v>500</v>
+        <v>556</v>
       </c>
       <c r="T166" t="n">
         <v>18</v>
@@ -13687,7 +13687,7 @@
         </is>
       </c>
       <c r="D167" s="2" t="n">
-        <v>44412</v>
+        <v>44376</v>
       </c>
       <c r="E167" t="n">
         <v>7</v>
@@ -13720,20 +13720,20 @@
       </c>
       <c r="L167" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M167" t="n">
-        <v>180</v>
+        <v>260</v>
       </c>
       <c r="N167" t="n">
-        <v>14000</v>
+        <v>9000</v>
       </c>
       <c r="O167" t="n">
-        <v>14000</v>
+        <v>9000</v>
       </c>
       <c r="P167" t="n">
-        <v>14000</v>
+        <v>9000</v>
       </c>
       <c r="Q167" t="inlineStr">
         <is>
@@ -13746,7 +13746,7 @@
         </is>
       </c>
       <c r="S167" t="n">
-        <v>778</v>
+        <v>500</v>
       </c>
       <c r="T167" t="n">
         <v>18</v>
@@ -13800,20 +13800,20 @@
       </c>
       <c r="L168" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M168" t="n">
-        <v>230</v>
+        <v>180</v>
       </c>
       <c r="N168" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="O168" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="P168" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="Q168" t="inlineStr">
         <is>
@@ -13826,7 +13826,7 @@
         </is>
       </c>
       <c r="S168" t="n">
-        <v>667</v>
+        <v>778</v>
       </c>
       <c r="T168" t="n">
         <v>18</v>
@@ -13847,7 +13847,7 @@
         </is>
       </c>
       <c r="D169" s="2" t="n">
-        <v>44314</v>
+        <v>44412</v>
       </c>
       <c r="E169" t="n">
         <v>7</v>
@@ -13880,24 +13880,24 @@
       </c>
       <c r="L169" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M169" t="n">
-        <v>150</v>
+        <v>230</v>
       </c>
       <c r="N169" t="n">
-        <v>11000</v>
+        <v>12000</v>
       </c>
       <c r="O169" t="n">
-        <v>11000</v>
+        <v>12000</v>
       </c>
       <c r="P169" t="n">
-        <v>11000</v>
+        <v>12000</v>
       </c>
       <c r="Q169" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="R169" t="inlineStr">
@@ -13906,10 +13906,10 @@
         </is>
       </c>
       <c r="S169" t="n">
-        <v>1100</v>
+        <v>667</v>
       </c>
       <c r="T169" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
     </row>
     <row r="170">
@@ -13960,20 +13960,20 @@
       </c>
       <c r="L170" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M170" t="n">
-        <v>60</v>
+        <v>150</v>
       </c>
       <c r="N170" t="n">
-        <v>9000</v>
+        <v>11000</v>
       </c>
       <c r="O170" t="n">
-        <v>9000</v>
+        <v>11000</v>
       </c>
       <c r="P170" t="n">
-        <v>9000</v>
+        <v>11000</v>
       </c>
       <c r="Q170" t="inlineStr">
         <is>
@@ -13986,7 +13986,7 @@
         </is>
       </c>
       <c r="S170" t="n">
-        <v>900</v>
+        <v>1100</v>
       </c>
       <c r="T170" t="n">
         <v>10</v>
@@ -14007,7 +14007,7 @@
         </is>
       </c>
       <c r="D171" s="2" t="n">
-        <v>44448</v>
+        <v>44314</v>
       </c>
       <c r="E171" t="n">
         <v>7</v>
@@ -14040,24 +14040,24 @@
       </c>
       <c r="L171" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M171" t="n">
-        <v>180</v>
+        <v>60</v>
       </c>
       <c r="N171" t="n">
-        <v>13000</v>
+        <v>9000</v>
       </c>
       <c r="O171" t="n">
-        <v>13000</v>
+        <v>9000</v>
       </c>
       <c r="P171" t="n">
-        <v>13000</v>
+        <v>9000</v>
       </c>
       <c r="Q171" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R171" t="inlineStr">
@@ -14066,10 +14066,10 @@
         </is>
       </c>
       <c r="S171" t="n">
-        <v>722</v>
+        <v>900</v>
       </c>
       <c r="T171" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="172">
@@ -14120,20 +14120,20 @@
       </c>
       <c r="L172" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M172" t="n">
-        <v>230</v>
+        <v>180</v>
       </c>
       <c r="N172" t="n">
-        <v>11000</v>
+        <v>13000</v>
       </c>
       <c r="O172" t="n">
-        <v>11000</v>
+        <v>13000</v>
       </c>
       <c r="P172" t="n">
-        <v>11000</v>
+        <v>13000</v>
       </c>
       <c r="Q172" t="inlineStr">
         <is>
@@ -14146,7 +14146,7 @@
         </is>
       </c>
       <c r="S172" t="n">
-        <v>611</v>
+        <v>722</v>
       </c>
       <c r="T172" t="n">
         <v>18</v>
@@ -14167,7 +14167,7 @@
         </is>
       </c>
       <c r="D173" s="2" t="n">
-        <v>44399</v>
+        <v>44448</v>
       </c>
       <c r="E173" t="n">
         <v>7</v>
@@ -14204,20 +14204,20 @@
         </is>
       </c>
       <c r="M173" t="n">
-        <v>260</v>
+        <v>230</v>
       </c>
       <c r="N173" t="n">
-        <v>5000</v>
+        <v>11000</v>
       </c>
       <c r="O173" t="n">
-        <v>5000</v>
+        <v>11000</v>
       </c>
       <c r="P173" t="n">
-        <v>5000</v>
+        <v>11000</v>
       </c>
       <c r="Q173" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="R173" t="inlineStr">
@@ -14226,10 +14226,10 @@
         </is>
       </c>
       <c r="S173" t="n">
-        <v>500</v>
+        <v>611</v>
       </c>
       <c r="T173" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
     </row>
     <row r="174">
@@ -14287,17 +14287,17 @@
         <v>260</v>
       </c>
       <c r="N174" t="n">
-        <v>10000</v>
+        <v>5000</v>
       </c>
       <c r="O174" t="n">
-        <v>10000</v>
+        <v>5000</v>
       </c>
       <c r="P174" t="n">
-        <v>10000</v>
+        <v>5000</v>
       </c>
       <c r="Q174" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos granel</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R174" t="inlineStr">
@@ -14306,10 +14306,10 @@
         </is>
       </c>
       <c r="S174" t="n">
-        <v>556</v>
+        <v>500</v>
       </c>
       <c r="T174" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="175">
@@ -14327,7 +14327,7 @@
         </is>
       </c>
       <c r="D175" s="2" t="n">
-        <v>44400</v>
+        <v>44399</v>
       </c>
       <c r="E175" t="n">
         <v>7</v>
@@ -14360,24 +14360,24 @@
       </c>
       <c r="L175" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M175" t="n">
-        <v>100</v>
+        <v>260</v>
       </c>
       <c r="N175" t="n">
-        <v>13000</v>
+        <v>10000</v>
       </c>
       <c r="O175" t="n">
-        <v>13000</v>
+        <v>10000</v>
       </c>
       <c r="P175" t="n">
-        <v>13000</v>
+        <v>10000</v>
       </c>
       <c r="Q175" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 18 kilos granel</t>
         </is>
       </c>
       <c r="R175" t="inlineStr">
@@ -14386,7 +14386,7 @@
         </is>
       </c>
       <c r="S175" t="n">
-        <v>722</v>
+        <v>556</v>
       </c>
       <c r="T175" t="n">
         <v>18</v>
@@ -14440,20 +14440,20 @@
       </c>
       <c r="L176" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M176" t="n">
-        <v>180</v>
+        <v>100</v>
       </c>
       <c r="N176" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="O176" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="P176" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="Q176" t="inlineStr">
         <is>
@@ -14466,7 +14466,7 @@
         </is>
       </c>
       <c r="S176" t="n">
-        <v>556</v>
+        <v>722</v>
       </c>
       <c r="T176" t="n">
         <v>18</v>
@@ -14520,35 +14520,115 @@
       </c>
       <c r="L177" t="inlineStr">
         <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="M177" t="n">
+        <v>180</v>
+      </c>
+      <c r="N177" t="n">
+        <v>10000</v>
+      </c>
+      <c r="O177" t="n">
+        <v>10000</v>
+      </c>
+      <c r="P177" t="n">
+        <v>10000</v>
+      </c>
+      <c r="Q177" t="inlineStr">
+        <is>
+          <t>$/bandeja 18 kilos</t>
+        </is>
+      </c>
+      <c r="R177" t="inlineStr">
+        <is>
+          <t>Provincia de Curicó</t>
+        </is>
+      </c>
+      <c r="S177" t="n">
+        <v>556</v>
+      </c>
+      <c r="T177" t="n">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" t="n">
+        <v>5</v>
+      </c>
+      <c r="B178" t="inlineStr">
+        <is>
+          <t>Macroferia Regional de Talca</t>
+        </is>
+      </c>
+      <c r="C178" t="inlineStr">
+        <is>
+          <t>Maule</t>
+        </is>
+      </c>
+      <c r="D178" s="2" t="n">
+        <v>44400</v>
+      </c>
+      <c r="E178" t="n">
+        <v>7</v>
+      </c>
+      <c r="F178" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G178" t="n">
+        <v>100101</v>
+      </c>
+      <c r="H178" t="inlineStr">
+        <is>
+          <t>Berries</t>
+        </is>
+      </c>
+      <c r="I178" t="n">
+        <v>100101007</v>
+      </c>
+      <c r="J178" t="inlineStr">
+        <is>
+          <t>Kiwi</t>
+        </is>
+      </c>
+      <c r="K178" t="inlineStr">
+        <is>
+          <t>Hayward</t>
+        </is>
+      </c>
+      <c r="L178" t="inlineStr">
+        <is>
           <t>Segunda</t>
         </is>
       </c>
-      <c r="M177" t="n">
+      <c r="M178" t="n">
         <v>150</v>
       </c>
-      <c r="N177" t="n">
+      <c r="N178" t="n">
         <v>8000</v>
       </c>
-      <c r="O177" t="n">
+      <c r="O178" t="n">
         <v>8000</v>
       </c>
-      <c r="P177" t="n">
+      <c r="P178" t="n">
         <v>8000</v>
       </c>
-      <c r="Q177" t="inlineStr">
+      <c r="Q178" t="inlineStr">
         <is>
           <t>$/bandeja 18 kilos</t>
         </is>
       </c>
-      <c r="R177" t="inlineStr">
-        <is>
-          <t>Provincia de Curicó</t>
-        </is>
-      </c>
-      <c r="S177" t="n">
+      <c r="R178" t="inlineStr">
+        <is>
+          <t>Provincia de Curicó</t>
+        </is>
+      </c>
+      <c r="S178" t="n">
         <v>444</v>
       </c>
-      <c r="T177" t="n">
+      <c r="T178" t="n">
         <v>18</v>
       </c>
     </row>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Macroferia Regional de Talca - Kiwi.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Macroferia Regional de Talca - Kiwi.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T178"/>
+  <dimension ref="A1:T179"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4087,7 +4087,7 @@
         </is>
       </c>
       <c r="D47" s="2" t="n">
-        <v>44323</v>
+        <v>44453</v>
       </c>
       <c r="E47" t="n">
         <v>7</v>
@@ -4120,20 +4120,20 @@
       </c>
       <c r="L47" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M47" t="n">
-        <v>150</v>
+        <v>250</v>
       </c>
       <c r="N47" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="O47" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="P47" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="Q47" t="inlineStr">
         <is>
@@ -4146,7 +4146,7 @@
         </is>
       </c>
       <c r="S47" t="n">
-        <v>1000</v>
+        <v>1200</v>
       </c>
       <c r="T47" t="n">
         <v>10</v>
@@ -4200,20 +4200,20 @@
       </c>
       <c r="L48" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M48" t="n">
-        <v>100</v>
+        <v>150</v>
       </c>
       <c r="N48" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="O48" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="P48" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="Q48" t="inlineStr">
         <is>
@@ -4226,7 +4226,7 @@
         </is>
       </c>
       <c r="S48" t="n">
-        <v>900</v>
+        <v>1000</v>
       </c>
       <c r="T48" t="n">
         <v>10</v>
@@ -4247,7 +4247,7 @@
         </is>
       </c>
       <c r="D49" s="2" t="n">
-        <v>44281</v>
+        <v>44323</v>
       </c>
       <c r="E49" t="n">
         <v>7</v>
@@ -4284,16 +4284,16 @@
         </is>
       </c>
       <c r="M49" t="n">
-        <v>210</v>
+        <v>100</v>
       </c>
       <c r="N49" t="n">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="O49" t="n">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="P49" t="n">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="Q49" t="inlineStr">
         <is>
@@ -4306,7 +4306,7 @@
         </is>
       </c>
       <c r="S49" t="n">
-        <v>1000</v>
+        <v>900</v>
       </c>
       <c r="T49" t="n">
         <v>10</v>
@@ -4327,7 +4327,7 @@
         </is>
       </c>
       <c r="D50" s="2" t="n">
-        <v>44308</v>
+        <v>44281</v>
       </c>
       <c r="E50" t="n">
         <v>7</v>
@@ -4360,24 +4360,24 @@
       </c>
       <c r="L50" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M50" t="n">
-        <v>100</v>
+        <v>210</v>
       </c>
       <c r="N50" t="n">
-        <v>14000</v>
+        <v>10000</v>
       </c>
       <c r="O50" t="n">
-        <v>14000</v>
+        <v>10000</v>
       </c>
       <c r="P50" t="n">
-        <v>14000</v>
+        <v>10000</v>
       </c>
       <c r="Q50" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R50" t="inlineStr">
@@ -4386,10 +4386,10 @@
         </is>
       </c>
       <c r="S50" t="n">
-        <v>778</v>
+        <v>1000</v>
       </c>
       <c r="T50" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="51">
@@ -4407,7 +4407,7 @@
         </is>
       </c>
       <c r="D51" s="2" t="n">
-        <v>44363</v>
+        <v>44308</v>
       </c>
       <c r="E51" t="n">
         <v>7</v>
@@ -4440,20 +4440,20 @@
       </c>
       <c r="L51" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M51" t="n">
-        <v>280</v>
+        <v>100</v>
       </c>
       <c r="N51" t="n">
-        <v>10000</v>
+        <v>14000</v>
       </c>
       <c r="O51" t="n">
-        <v>10000</v>
+        <v>14000</v>
       </c>
       <c r="P51" t="n">
-        <v>10000</v>
+        <v>14000</v>
       </c>
       <c r="Q51" t="inlineStr">
         <is>
@@ -4462,11 +4462,11 @@
       </c>
       <c r="R51" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S51" t="n">
-        <v>556</v>
+        <v>778</v>
       </c>
       <c r="T51" t="n">
         <v>18</v>
@@ -4520,20 +4520,20 @@
       </c>
       <c r="L52" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M52" t="n">
-        <v>300</v>
+        <v>280</v>
       </c>
       <c r="N52" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="O52" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="P52" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="Q52" t="inlineStr">
         <is>
@@ -4546,7 +4546,7 @@
         </is>
       </c>
       <c r="S52" t="n">
-        <v>444</v>
+        <v>556</v>
       </c>
       <c r="T52" t="n">
         <v>18</v>
@@ -4567,7 +4567,7 @@
         </is>
       </c>
       <c r="D53" s="2" t="n">
-        <v>44355</v>
+        <v>44363</v>
       </c>
       <c r="E53" t="n">
         <v>7</v>
@@ -4607,29 +4607,29 @@
         <v>300</v>
       </c>
       <c r="N53" t="n">
-        <v>6000</v>
+        <v>8000</v>
       </c>
       <c r="O53" t="n">
-        <v>6000</v>
+        <v>8000</v>
       </c>
       <c r="P53" t="n">
-        <v>6000</v>
+        <v>8000</v>
       </c>
       <c r="Q53" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="R53" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S53" t="n">
-        <v>600</v>
+        <v>444</v>
       </c>
       <c r="T53" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
     </row>
     <row r="54">
@@ -4647,7 +4647,7 @@
         </is>
       </c>
       <c r="D54" s="2" t="n">
-        <v>44372</v>
+        <v>44355</v>
       </c>
       <c r="E54" t="n">
         <v>7</v>
@@ -4680,24 +4680,24 @@
       </c>
       <c r="L54" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M54" t="n">
-        <v>130</v>
+        <v>300</v>
       </c>
       <c r="N54" t="n">
-        <v>11000</v>
+        <v>6000</v>
       </c>
       <c r="O54" t="n">
-        <v>11000</v>
+        <v>6000</v>
       </c>
       <c r="P54" t="n">
-        <v>11000</v>
+        <v>6000</v>
       </c>
       <c r="Q54" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R54" t="inlineStr">
@@ -4706,10 +4706,10 @@
         </is>
       </c>
       <c r="S54" t="n">
-        <v>611</v>
+        <v>600</v>
       </c>
       <c r="T54" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="55">
@@ -4760,20 +4760,20 @@
       </c>
       <c r="L55" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M55" t="n">
-        <v>120</v>
+        <v>130</v>
       </c>
       <c r="N55" t="n">
-        <v>9000</v>
+        <v>11000</v>
       </c>
       <c r="O55" t="n">
-        <v>9000</v>
+        <v>11000</v>
       </c>
       <c r="P55" t="n">
-        <v>9000</v>
+        <v>11000</v>
       </c>
       <c r="Q55" t="inlineStr">
         <is>
@@ -4786,7 +4786,7 @@
         </is>
       </c>
       <c r="S55" t="n">
-        <v>500</v>
+        <v>611</v>
       </c>
       <c r="T55" t="n">
         <v>18</v>
@@ -4840,20 +4840,20 @@
       </c>
       <c r="L56" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M56" t="n">
-        <v>100</v>
+        <v>120</v>
       </c>
       <c r="N56" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="O56" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="P56" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="Q56" t="inlineStr">
         <is>
@@ -4866,7 +4866,7 @@
         </is>
       </c>
       <c r="S56" t="n">
-        <v>389</v>
+        <v>500</v>
       </c>
       <c r="T56" t="n">
         <v>18</v>
@@ -4887,7 +4887,7 @@
         </is>
       </c>
       <c r="D57" s="2" t="n">
-        <v>44418</v>
+        <v>44372</v>
       </c>
       <c r="E57" t="n">
         <v>7</v>
@@ -4920,20 +4920,20 @@
       </c>
       <c r="L57" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M57" t="n">
         <v>100</v>
       </c>
       <c r="N57" t="n">
-        <v>14000</v>
+        <v>7000</v>
       </c>
       <c r="O57" t="n">
-        <v>14000</v>
+        <v>7000</v>
       </c>
       <c r="P57" t="n">
-        <v>14000</v>
+        <v>7000</v>
       </c>
       <c r="Q57" t="inlineStr">
         <is>
@@ -4946,7 +4946,7 @@
         </is>
       </c>
       <c r="S57" t="n">
-        <v>778</v>
+        <v>389</v>
       </c>
       <c r="T57" t="n">
         <v>18</v>
@@ -5000,20 +5000,20 @@
       </c>
       <c r="L58" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M58" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="N58" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="O58" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="P58" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="Q58" t="inlineStr">
         <is>
@@ -5026,7 +5026,7 @@
         </is>
       </c>
       <c r="S58" t="n">
-        <v>667</v>
+        <v>778</v>
       </c>
       <c r="T58" t="n">
         <v>18</v>
@@ -5080,20 +5080,20 @@
       </c>
       <c r="L59" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M59" t="n">
-        <v>90</v>
+        <v>200</v>
       </c>
       <c r="N59" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="O59" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="P59" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="Q59" t="inlineStr">
         <is>
@@ -5106,7 +5106,7 @@
         </is>
       </c>
       <c r="S59" t="n">
-        <v>556</v>
+        <v>667</v>
       </c>
       <c r="T59" t="n">
         <v>18</v>
@@ -5127,7 +5127,7 @@
         </is>
       </c>
       <c r="D60" s="2" t="n">
-        <v>44407</v>
+        <v>44418</v>
       </c>
       <c r="E60" t="n">
         <v>7</v>
@@ -5160,20 +5160,20 @@
       </c>
       <c r="L60" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M60" t="n">
-        <v>60</v>
+        <v>90</v>
       </c>
       <c r="N60" t="n">
-        <v>13000</v>
+        <v>10000</v>
       </c>
       <c r="O60" t="n">
-        <v>13000</v>
+        <v>10000</v>
       </c>
       <c r="P60" t="n">
-        <v>13000</v>
+        <v>10000</v>
       </c>
       <c r="Q60" t="inlineStr">
         <is>
@@ -5186,7 +5186,7 @@
         </is>
       </c>
       <c r="S60" t="n">
-        <v>722</v>
+        <v>556</v>
       </c>
       <c r="T60" t="n">
         <v>18</v>
@@ -5240,20 +5240,20 @@
       </c>
       <c r="L61" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M61" t="n">
-        <v>150</v>
+        <v>60</v>
       </c>
       <c r="N61" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="O61" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="P61" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="Q61" t="inlineStr">
         <is>
@@ -5266,7 +5266,7 @@
         </is>
       </c>
       <c r="S61" t="n">
-        <v>556</v>
+        <v>722</v>
       </c>
       <c r="T61" t="n">
         <v>18</v>
@@ -5320,20 +5320,20 @@
       </c>
       <c r="L62" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M62" t="n">
-        <v>100</v>
+        <v>150</v>
       </c>
       <c r="N62" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="O62" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="P62" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="Q62" t="inlineStr">
         <is>
@@ -5346,7 +5346,7 @@
         </is>
       </c>
       <c r="S62" t="n">
-        <v>444</v>
+        <v>556</v>
       </c>
       <c r="T62" t="n">
         <v>18</v>
@@ -5367,7 +5367,7 @@
         </is>
       </c>
       <c r="D63" s="2" t="n">
-        <v>44410</v>
+        <v>44407</v>
       </c>
       <c r="E63" t="n">
         <v>7</v>
@@ -5400,20 +5400,20 @@
       </c>
       <c r="L63" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M63" t="n">
-        <v>230</v>
+        <v>100</v>
       </c>
       <c r="N63" t="n">
-        <v>12000</v>
+        <v>8000</v>
       </c>
       <c r="O63" t="n">
-        <v>12000</v>
+        <v>8000</v>
       </c>
       <c r="P63" t="n">
-        <v>12000</v>
+        <v>8000</v>
       </c>
       <c r="Q63" t="inlineStr">
         <is>
@@ -5426,7 +5426,7 @@
         </is>
       </c>
       <c r="S63" t="n">
-        <v>667</v>
+        <v>444</v>
       </c>
       <c r="T63" t="n">
         <v>18</v>
@@ -5487,17 +5487,17 @@
         <v>230</v>
       </c>
       <c r="N64" t="n">
-        <v>7000</v>
+        <v>12000</v>
       </c>
       <c r="O64" t="n">
-        <v>7000</v>
+        <v>12000</v>
       </c>
       <c r="P64" t="n">
-        <v>7000</v>
+        <v>12000</v>
       </c>
       <c r="Q64" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="R64" t="inlineStr">
@@ -5506,10 +5506,10 @@
         </is>
       </c>
       <c r="S64" t="n">
-        <v>700</v>
+        <v>667</v>
       </c>
       <c r="T64" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
     </row>
     <row r="65">
@@ -5527,7 +5527,7 @@
         </is>
       </c>
       <c r="D65" s="2" t="n">
-        <v>44284</v>
+        <v>44410</v>
       </c>
       <c r="E65" t="n">
         <v>7</v>
@@ -5560,11 +5560,11 @@
       </c>
       <c r="L65" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M65" t="n">
-        <v>200</v>
+        <v>230</v>
       </c>
       <c r="N65" t="n">
         <v>7000</v>
@@ -5577,7 +5577,7 @@
       </c>
       <c r="Q65" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="R65" t="inlineStr">
@@ -5586,10 +5586,10 @@
         </is>
       </c>
       <c r="S65" t="n">
-        <v>389</v>
+        <v>700</v>
       </c>
       <c r="T65" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="66">
@@ -5607,7 +5607,7 @@
         </is>
       </c>
       <c r="D66" s="2" t="n">
-        <v>44330</v>
+        <v>44284</v>
       </c>
       <c r="E66" t="n">
         <v>7</v>
@@ -5640,20 +5640,20 @@
       </c>
       <c r="L66" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M66" t="n">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="N66" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="O66" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="P66" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="Q66" t="inlineStr">
         <is>
@@ -5666,7 +5666,7 @@
         </is>
       </c>
       <c r="S66" t="n">
-        <v>556</v>
+        <v>389</v>
       </c>
       <c r="T66" t="n">
         <v>18</v>
@@ -5720,20 +5720,20 @@
       </c>
       <c r="L67" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M67" t="n">
-        <v>180</v>
+        <v>300</v>
       </c>
       <c r="N67" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="O67" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="P67" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="Q67" t="inlineStr">
         <is>
@@ -5746,7 +5746,7 @@
         </is>
       </c>
       <c r="S67" t="n">
-        <v>444</v>
+        <v>556</v>
       </c>
       <c r="T67" t="n">
         <v>18</v>
@@ -5767,7 +5767,7 @@
         </is>
       </c>
       <c r="D68" s="2" t="n">
-        <v>44343</v>
+        <v>44330</v>
       </c>
       <c r="E68" t="n">
         <v>7</v>
@@ -5800,20 +5800,20 @@
       </c>
       <c r="L68" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M68" t="n">
-        <v>120</v>
+        <v>180</v>
       </c>
       <c r="N68" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="O68" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="P68" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="Q68" t="inlineStr">
         <is>
@@ -5826,7 +5826,7 @@
         </is>
       </c>
       <c r="S68" t="n">
-        <v>556</v>
+        <v>444</v>
       </c>
       <c r="T68" t="n">
         <v>18</v>
@@ -5880,20 +5880,20 @@
       </c>
       <c r="L69" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M69" t="n">
-        <v>160</v>
+        <v>120</v>
       </c>
       <c r="N69" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="O69" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="P69" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="Q69" t="inlineStr">
         <is>
@@ -5906,7 +5906,7 @@
         </is>
       </c>
       <c r="S69" t="n">
-        <v>500</v>
+        <v>556</v>
       </c>
       <c r="T69" t="n">
         <v>18</v>
@@ -5927,7 +5927,7 @@
         </is>
       </c>
       <c r="D70" s="2" t="n">
-        <v>44320</v>
+        <v>44343</v>
       </c>
       <c r="E70" t="n">
         <v>7</v>
@@ -5960,20 +5960,20 @@
       </c>
       <c r="L70" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M70" t="n">
-        <v>120</v>
+        <v>160</v>
       </c>
       <c r="N70" t="n">
-        <v>13000</v>
+        <v>9000</v>
       </c>
       <c r="O70" t="n">
-        <v>13000</v>
+        <v>9000</v>
       </c>
       <c r="P70" t="n">
-        <v>13000</v>
+        <v>9000</v>
       </c>
       <c r="Q70" t="inlineStr">
         <is>
@@ -5986,7 +5986,7 @@
         </is>
       </c>
       <c r="S70" t="n">
-        <v>722</v>
+        <v>500</v>
       </c>
       <c r="T70" t="n">
         <v>18</v>
@@ -6044,20 +6044,20 @@
         </is>
       </c>
       <c r="M71" t="n">
-        <v>150</v>
+        <v>120</v>
       </c>
       <c r="N71" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="O71" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="P71" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="Q71" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="R71" t="inlineStr">
@@ -6066,10 +6066,10 @@
         </is>
       </c>
       <c r="S71" t="n">
-        <v>1000</v>
+        <v>722</v>
       </c>
       <c r="T71" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
     </row>
     <row r="72">
@@ -6120,11 +6120,11 @@
       </c>
       <c r="L72" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M72" t="n">
-        <v>300</v>
+        <v>150</v>
       </c>
       <c r="N72" t="n">
         <v>10000</v>
@@ -6137,7 +6137,7 @@
       </c>
       <c r="Q72" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="R72" t="inlineStr">
@@ -6204,20 +6204,20 @@
         </is>
       </c>
       <c r="M73" t="n">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="N73" t="n">
-        <v>11000</v>
+        <v>10000</v>
       </c>
       <c r="O73" t="n">
-        <v>11000</v>
+        <v>10000</v>
       </c>
       <c r="P73" t="n">
-        <v>11000</v>
+        <v>10000</v>
       </c>
       <c r="Q73" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R73" t="inlineStr">
@@ -6226,10 +6226,10 @@
         </is>
       </c>
       <c r="S73" t="n">
-        <v>611</v>
+        <v>1000</v>
       </c>
       <c r="T73" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="74">
@@ -6247,7 +6247,7 @@
         </is>
       </c>
       <c r="D74" s="2" t="n">
-        <v>44385</v>
+        <v>44320</v>
       </c>
       <c r="E74" t="n">
         <v>7</v>
@@ -6280,11 +6280,11 @@
       </c>
       <c r="L74" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M74" t="n">
-        <v>230</v>
+        <v>100</v>
       </c>
       <c r="N74" t="n">
         <v>11000</v>
@@ -6360,20 +6360,20 @@
       </c>
       <c r="L75" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M75" t="n">
-        <v>200</v>
+        <v>230</v>
       </c>
       <c r="N75" t="n">
-        <v>9000</v>
+        <v>11000</v>
       </c>
       <c r="O75" t="n">
-        <v>9000</v>
+        <v>11000</v>
       </c>
       <c r="P75" t="n">
-        <v>9000</v>
+        <v>11000</v>
       </c>
       <c r="Q75" t="inlineStr">
         <is>
@@ -6386,7 +6386,7 @@
         </is>
       </c>
       <c r="S75" t="n">
-        <v>500</v>
+        <v>611</v>
       </c>
       <c r="T75" t="n">
         <v>18</v>
@@ -6407,7 +6407,7 @@
         </is>
       </c>
       <c r="D76" s="2" t="n">
-        <v>44299</v>
+        <v>44385</v>
       </c>
       <c r="E76" t="n">
         <v>7</v>
@@ -6447,13 +6447,13 @@
         <v>200</v>
       </c>
       <c r="N76" t="n">
-        <v>13000</v>
+        <v>9000</v>
       </c>
       <c r="O76" t="n">
-        <v>13000</v>
+        <v>9000</v>
       </c>
       <c r="P76" t="n">
-        <v>13000</v>
+        <v>9000</v>
       </c>
       <c r="Q76" t="inlineStr">
         <is>
@@ -6466,7 +6466,7 @@
         </is>
       </c>
       <c r="S76" t="n">
-        <v>722</v>
+        <v>500</v>
       </c>
       <c r="T76" t="n">
         <v>18</v>
@@ -6487,7 +6487,7 @@
         </is>
       </c>
       <c r="D77" s="2" t="n">
-        <v>44370</v>
+        <v>44299</v>
       </c>
       <c r="E77" t="n">
         <v>7</v>
@@ -6520,20 +6520,20 @@
       </c>
       <c r="L77" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M77" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="N77" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="O77" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="P77" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="Q77" t="inlineStr">
         <is>
@@ -6546,7 +6546,7 @@
         </is>
       </c>
       <c r="S77" t="n">
-        <v>667</v>
+        <v>722</v>
       </c>
       <c r="T77" t="n">
         <v>18</v>
@@ -6600,20 +6600,20 @@
       </c>
       <c r="L78" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M78" t="n">
-        <v>120</v>
+        <v>100</v>
       </c>
       <c r="N78" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="O78" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="P78" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="Q78" t="inlineStr">
         <is>
@@ -6626,7 +6626,7 @@
         </is>
       </c>
       <c r="S78" t="n">
-        <v>556</v>
+        <v>667</v>
       </c>
       <c r="T78" t="n">
         <v>18</v>
@@ -6680,20 +6680,20 @@
       </c>
       <c r="L79" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M79" t="n">
-        <v>60</v>
+        <v>120</v>
       </c>
       <c r="N79" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="O79" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="P79" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="Q79" t="inlineStr">
         <is>
@@ -6706,7 +6706,7 @@
         </is>
       </c>
       <c r="S79" t="n">
-        <v>444</v>
+        <v>556</v>
       </c>
       <c r="T79" t="n">
         <v>18</v>
@@ -6727,7 +6727,7 @@
         </is>
       </c>
       <c r="D80" s="2" t="n">
-        <v>44392</v>
+        <v>44370</v>
       </c>
       <c r="E80" t="n">
         <v>7</v>
@@ -6760,20 +6760,20 @@
       </c>
       <c r="L80" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M80" t="n">
-        <v>200</v>
+        <v>60</v>
       </c>
       <c r="N80" t="n">
-        <v>11000</v>
+        <v>8000</v>
       </c>
       <c r="O80" t="n">
-        <v>11000</v>
+        <v>8000</v>
       </c>
       <c r="P80" t="n">
-        <v>11000</v>
+        <v>8000</v>
       </c>
       <c r="Q80" t="inlineStr">
         <is>
@@ -6786,7 +6786,7 @@
         </is>
       </c>
       <c r="S80" t="n">
-        <v>611</v>
+        <v>444</v>
       </c>
       <c r="T80" t="n">
         <v>18</v>
@@ -6840,20 +6840,20 @@
       </c>
       <c r="L81" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M81" t="n">
-        <v>400</v>
+        <v>200</v>
       </c>
       <c r="N81" t="n">
-        <v>9000</v>
+        <v>11000</v>
       </c>
       <c r="O81" t="n">
-        <v>9000</v>
+        <v>11000</v>
       </c>
       <c r="P81" t="n">
-        <v>9000</v>
+        <v>11000</v>
       </c>
       <c r="Q81" t="inlineStr">
         <is>
@@ -6866,7 +6866,7 @@
         </is>
       </c>
       <c r="S81" t="n">
-        <v>500</v>
+        <v>611</v>
       </c>
       <c r="T81" t="n">
         <v>18</v>
@@ -6887,7 +6887,7 @@
         </is>
       </c>
       <c r="D82" s="2" t="n">
-        <v>44295</v>
+        <v>44392</v>
       </c>
       <c r="E82" t="n">
         <v>7</v>
@@ -6924,16 +6924,16 @@
         </is>
       </c>
       <c r="M82" t="n">
-        <v>160</v>
+        <v>400</v>
       </c>
       <c r="N82" t="n">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="O82" t="n">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="P82" t="n">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="Q82" t="inlineStr">
         <is>
@@ -6946,7 +6946,7 @@
         </is>
       </c>
       <c r="S82" t="n">
-        <v>556</v>
+        <v>500</v>
       </c>
       <c r="T82" t="n">
         <v>18</v>
@@ -6967,7 +6967,7 @@
         </is>
       </c>
       <c r="D83" s="2" t="n">
-        <v>44309</v>
+        <v>44295</v>
       </c>
       <c r="E83" t="n">
         <v>7</v>
@@ -7000,20 +7000,20 @@
       </c>
       <c r="L83" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M83" t="n">
         <v>160</v>
       </c>
       <c r="N83" t="n">
-        <v>14000</v>
+        <v>10000</v>
       </c>
       <c r="O83" t="n">
-        <v>14000</v>
+        <v>10000</v>
       </c>
       <c r="P83" t="n">
-        <v>14000</v>
+        <v>10000</v>
       </c>
       <c r="Q83" t="inlineStr">
         <is>
@@ -7026,7 +7026,7 @@
         </is>
       </c>
       <c r="S83" t="n">
-        <v>778</v>
+        <v>556</v>
       </c>
       <c r="T83" t="n">
         <v>18</v>
@@ -7080,24 +7080,24 @@
       </c>
       <c r="L84" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M84" t="n">
-        <v>250</v>
+        <v>160</v>
       </c>
       <c r="N84" t="n">
-        <v>8000</v>
+        <v>14000</v>
       </c>
       <c r="O84" t="n">
-        <v>9000</v>
+        <v>14000</v>
       </c>
       <c r="P84" t="n">
-        <v>8600</v>
+        <v>14000</v>
       </c>
       <c r="Q84" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="R84" t="inlineStr">
@@ -7106,10 +7106,10 @@
         </is>
       </c>
       <c r="S84" t="n">
-        <v>860</v>
+        <v>778</v>
       </c>
       <c r="T84" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
     </row>
     <row r="85">
@@ -7164,20 +7164,20 @@
         </is>
       </c>
       <c r="M85" t="n">
-        <v>100</v>
+        <v>250</v>
       </c>
       <c r="N85" t="n">
-        <v>12000</v>
+        <v>8000</v>
       </c>
       <c r="O85" t="n">
-        <v>12000</v>
+        <v>9000</v>
       </c>
       <c r="P85" t="n">
-        <v>12000</v>
+        <v>8600</v>
       </c>
       <c r="Q85" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R85" t="inlineStr">
@@ -7186,10 +7186,10 @@
         </is>
       </c>
       <c r="S85" t="n">
-        <v>667</v>
+        <v>860</v>
       </c>
       <c r="T85" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="86">
@@ -7207,7 +7207,7 @@
         </is>
       </c>
       <c r="D86" s="2" t="n">
-        <v>44384</v>
+        <v>44309</v>
       </c>
       <c r="E86" t="n">
         <v>7</v>
@@ -7244,20 +7244,20 @@
         </is>
       </c>
       <c r="M86" t="n">
-        <v>500</v>
+        <v>100</v>
       </c>
       <c r="N86" t="n">
-        <v>6000</v>
+        <v>12000</v>
       </c>
       <c r="O86" t="n">
-        <v>6000</v>
+        <v>12000</v>
       </c>
       <c r="P86" t="n">
-        <v>6000</v>
+        <v>12000</v>
       </c>
       <c r="Q86" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="R86" t="inlineStr">
@@ -7266,10 +7266,10 @@
         </is>
       </c>
       <c r="S86" t="n">
-        <v>600</v>
+        <v>667</v>
       </c>
       <c r="T86" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
     </row>
     <row r="87">
@@ -7287,7 +7287,7 @@
         </is>
       </c>
       <c r="D87" s="2" t="n">
-        <v>44322</v>
+        <v>44384</v>
       </c>
       <c r="E87" t="n">
         <v>7</v>
@@ -7324,20 +7324,20 @@
         </is>
       </c>
       <c r="M87" t="n">
-        <v>210</v>
+        <v>500</v>
       </c>
       <c r="N87" t="n">
-        <v>10000</v>
+        <v>6000</v>
       </c>
       <c r="O87" t="n">
-        <v>10000</v>
+        <v>6000</v>
       </c>
       <c r="P87" t="n">
-        <v>10000</v>
+        <v>6000</v>
       </c>
       <c r="Q87" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="R87" t="inlineStr">
@@ -7346,7 +7346,7 @@
         </is>
       </c>
       <c r="S87" t="n">
-        <v>1000</v>
+        <v>600</v>
       </c>
       <c r="T87" t="n">
         <v>10</v>
@@ -7367,7 +7367,7 @@
         </is>
       </c>
       <c r="D88" s="2" t="n">
-        <v>44365</v>
+        <v>44322</v>
       </c>
       <c r="E88" t="n">
         <v>7</v>
@@ -7400,24 +7400,24 @@
       </c>
       <c r="L88" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M88" t="n">
-        <v>90</v>
+        <v>210</v>
       </c>
       <c r="N88" t="n">
-        <v>11000</v>
+        <v>10000</v>
       </c>
       <c r="O88" t="n">
-        <v>11000</v>
+        <v>10000</v>
       </c>
       <c r="P88" t="n">
-        <v>11000</v>
+        <v>10000</v>
       </c>
       <c r="Q88" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R88" t="inlineStr">
@@ -7426,10 +7426,10 @@
         </is>
       </c>
       <c r="S88" t="n">
-        <v>611</v>
+        <v>1000</v>
       </c>
       <c r="T88" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="89">
@@ -7480,20 +7480,20 @@
       </c>
       <c r="L89" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M89" t="n">
-        <v>200</v>
+        <v>90</v>
       </c>
       <c r="N89" t="n">
-        <v>9000</v>
+        <v>11000</v>
       </c>
       <c r="O89" t="n">
-        <v>9000</v>
+        <v>11000</v>
       </c>
       <c r="P89" t="n">
-        <v>9000</v>
+        <v>11000</v>
       </c>
       <c r="Q89" t="inlineStr">
         <is>
@@ -7506,7 +7506,7 @@
         </is>
       </c>
       <c r="S89" t="n">
-        <v>500</v>
+        <v>611</v>
       </c>
       <c r="T89" t="n">
         <v>18</v>
@@ -7560,20 +7560,20 @@
       </c>
       <c r="L90" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M90" t="n">
-        <v>150</v>
+        <v>200</v>
       </c>
       <c r="N90" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="O90" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="P90" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="Q90" t="inlineStr">
         <is>
@@ -7586,7 +7586,7 @@
         </is>
       </c>
       <c r="S90" t="n">
-        <v>389</v>
+        <v>500</v>
       </c>
       <c r="T90" t="n">
         <v>18</v>
@@ -7607,7 +7607,7 @@
         </is>
       </c>
       <c r="D91" s="2" t="n">
-        <v>44452</v>
+        <v>44365</v>
       </c>
       <c r="E91" t="n">
         <v>7</v>
@@ -7640,20 +7640,20 @@
       </c>
       <c r="L91" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M91" t="n">
-        <v>300</v>
+        <v>150</v>
       </c>
       <c r="N91" t="n">
-        <v>12000</v>
+        <v>7000</v>
       </c>
       <c r="O91" t="n">
-        <v>12000</v>
+        <v>7000</v>
       </c>
       <c r="P91" t="n">
-        <v>12000</v>
+        <v>7000</v>
       </c>
       <c r="Q91" t="inlineStr">
         <is>
@@ -7666,7 +7666,7 @@
         </is>
       </c>
       <c r="S91" t="n">
-        <v>667</v>
+        <v>389</v>
       </c>
       <c r="T91" t="n">
         <v>18</v>
@@ -7687,7 +7687,7 @@
         </is>
       </c>
       <c r="D92" s="2" t="n">
-        <v>44358</v>
+        <v>44452</v>
       </c>
       <c r="E92" t="n">
         <v>7</v>
@@ -7720,20 +7720,20 @@
       </c>
       <c r="L92" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M92" t="n">
-        <v>230</v>
+        <v>300</v>
       </c>
       <c r="N92" t="n">
-        <v>13000</v>
+        <v>12000</v>
       </c>
       <c r="O92" t="n">
-        <v>13000</v>
+        <v>12000</v>
       </c>
       <c r="P92" t="n">
-        <v>13000</v>
+        <v>12000</v>
       </c>
       <c r="Q92" t="inlineStr">
         <is>
@@ -7746,7 +7746,7 @@
         </is>
       </c>
       <c r="S92" t="n">
-        <v>722</v>
+        <v>667</v>
       </c>
       <c r="T92" t="n">
         <v>18</v>
@@ -7804,20 +7804,20 @@
         </is>
       </c>
       <c r="M93" t="n">
-        <v>250</v>
+        <v>230</v>
       </c>
       <c r="N93" t="n">
-        <v>9000</v>
+        <v>13000</v>
       </c>
       <c r="O93" t="n">
-        <v>9000</v>
+        <v>13000</v>
       </c>
       <c r="P93" t="n">
-        <v>9000</v>
+        <v>13000</v>
       </c>
       <c r="Q93" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="R93" t="inlineStr">
@@ -7826,10 +7826,10 @@
         </is>
       </c>
       <c r="S93" t="n">
-        <v>900</v>
+        <v>722</v>
       </c>
       <c r="T93" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
     </row>
     <row r="94">
@@ -7880,24 +7880,24 @@
       </c>
       <c r="L94" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M94" t="n">
-        <v>210</v>
+        <v>250</v>
       </c>
       <c r="N94" t="n">
-        <v>11000</v>
+        <v>9000</v>
       </c>
       <c r="O94" t="n">
-        <v>11000</v>
+        <v>9000</v>
       </c>
       <c r="P94" t="n">
-        <v>11000</v>
+        <v>9000</v>
       </c>
       <c r="Q94" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="R94" t="inlineStr">
@@ -7906,10 +7906,10 @@
         </is>
       </c>
       <c r="S94" t="n">
-        <v>611</v>
+        <v>900</v>
       </c>
       <c r="T94" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="95">
@@ -7964,20 +7964,20 @@
         </is>
       </c>
       <c r="M95" t="n">
-        <v>200</v>
+        <v>210</v>
       </c>
       <c r="N95" t="n">
-        <v>7000</v>
+        <v>11000</v>
       </c>
       <c r="O95" t="n">
-        <v>7000</v>
+        <v>11000</v>
       </c>
       <c r="P95" t="n">
-        <v>7000</v>
+        <v>11000</v>
       </c>
       <c r="Q95" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="R95" t="inlineStr">
@@ -7986,10 +7986,10 @@
         </is>
       </c>
       <c r="S95" t="n">
-        <v>700</v>
+        <v>611</v>
       </c>
       <c r="T95" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
     </row>
     <row r="96">
@@ -8040,24 +8040,24 @@
       </c>
       <c r="L96" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M96" t="n">
-        <v>190</v>
+        <v>200</v>
       </c>
       <c r="N96" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="O96" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="P96" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="Q96" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="R96" t="inlineStr">
@@ -8066,10 +8066,10 @@
         </is>
       </c>
       <c r="S96" t="n">
-        <v>500</v>
+        <v>700</v>
       </c>
       <c r="T96" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="97">
@@ -8087,7 +8087,7 @@
         </is>
       </c>
       <c r="D97" s="2" t="n">
-        <v>44433</v>
+        <v>44358</v>
       </c>
       <c r="E97" t="n">
         <v>7</v>
@@ -8120,24 +8120,24 @@
       </c>
       <c r="L97" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M97" t="n">
-        <v>120</v>
+        <v>190</v>
       </c>
       <c r="N97" t="n">
-        <v>14000</v>
+        <v>9000</v>
       </c>
       <c r="O97" t="n">
-        <v>14000</v>
+        <v>9000</v>
       </c>
       <c r="P97" t="n">
-        <v>14000</v>
+        <v>9000</v>
       </c>
       <c r="Q97" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="R97" t="inlineStr">
@@ -8146,7 +8146,7 @@
         </is>
       </c>
       <c r="S97" t="n">
-        <v>778</v>
+        <v>500</v>
       </c>
       <c r="T97" t="n">
         <v>18</v>
@@ -8200,20 +8200,20 @@
       </c>
       <c r="L98" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M98" t="n">
-        <v>180</v>
+        <v>120</v>
       </c>
       <c r="N98" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="O98" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="P98" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="Q98" t="inlineStr">
         <is>
@@ -8226,7 +8226,7 @@
         </is>
       </c>
       <c r="S98" t="n">
-        <v>667</v>
+        <v>778</v>
       </c>
       <c r="T98" t="n">
         <v>18</v>
@@ -8247,7 +8247,7 @@
         </is>
       </c>
       <c r="D99" s="2" t="n">
-        <v>44397</v>
+        <v>44433</v>
       </c>
       <c r="E99" t="n">
         <v>7</v>
@@ -8280,24 +8280,24 @@
       </c>
       <c r="L99" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M99" t="n">
-        <v>190</v>
+        <v>180</v>
       </c>
       <c r="N99" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="O99" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="P99" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="Q99" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="R99" t="inlineStr">
@@ -8306,7 +8306,7 @@
         </is>
       </c>
       <c r="S99" t="n">
-        <v>778</v>
+        <v>667</v>
       </c>
       <c r="T99" t="n">
         <v>18</v>
@@ -8364,16 +8364,16 @@
         </is>
       </c>
       <c r="M100" t="n">
-        <v>150</v>
+        <v>190</v>
       </c>
       <c r="N100" t="n">
-        <v>13000</v>
+        <v>14000</v>
       </c>
       <c r="O100" t="n">
-        <v>13000</v>
+        <v>14000</v>
       </c>
       <c r="P100" t="n">
-        <v>13000</v>
+        <v>14000</v>
       </c>
       <c r="Q100" t="inlineStr">
         <is>
@@ -8382,11 +8382,11 @@
       </c>
       <c r="R100" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S100" t="n">
-        <v>722</v>
+        <v>778</v>
       </c>
       <c r="T100" t="n">
         <v>18</v>
@@ -8440,20 +8440,20 @@
       </c>
       <c r="L101" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M101" t="n">
-        <v>480</v>
+        <v>150</v>
       </c>
       <c r="N101" t="n">
-        <v>9000</v>
+        <v>13000</v>
       </c>
       <c r="O101" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="P101" t="n">
-        <v>9479</v>
+        <v>13000</v>
       </c>
       <c r="Q101" t="inlineStr">
         <is>
@@ -8462,11 +8462,11 @@
       </c>
       <c r="R101" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S101" t="n">
-        <v>527</v>
+        <v>722</v>
       </c>
       <c r="T101" t="n">
         <v>18</v>
@@ -8487,7 +8487,7 @@
         </is>
       </c>
       <c r="D102" s="2" t="n">
-        <v>44321</v>
+        <v>44397</v>
       </c>
       <c r="E102" t="n">
         <v>7</v>
@@ -8524,16 +8524,16 @@
         </is>
       </c>
       <c r="M102" t="n">
-        <v>200</v>
+        <v>480</v>
       </c>
       <c r="N102" t="n">
-        <v>13000</v>
+        <v>9000</v>
       </c>
       <c r="O102" t="n">
-        <v>13000</v>
+        <v>10000</v>
       </c>
       <c r="P102" t="n">
-        <v>13000</v>
+        <v>9479</v>
       </c>
       <c r="Q102" t="inlineStr">
         <is>
@@ -8546,7 +8546,7 @@
         </is>
       </c>
       <c r="S102" t="n">
-        <v>722</v>
+        <v>527</v>
       </c>
       <c r="T102" t="n">
         <v>18</v>
@@ -8567,7 +8567,7 @@
         </is>
       </c>
       <c r="D103" s="2" t="n">
-        <v>44426</v>
+        <v>44321</v>
       </c>
       <c r="E103" t="n">
         <v>7</v>
@@ -8600,24 +8600,24 @@
       </c>
       <c r="L103" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M103" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="N103" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="O103" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="P103" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="Q103" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="R103" t="inlineStr">
@@ -8626,7 +8626,7 @@
         </is>
       </c>
       <c r="S103" t="n">
-        <v>667</v>
+        <v>722</v>
       </c>
       <c r="T103" t="n">
         <v>18</v>
@@ -8680,20 +8680,20 @@
       </c>
       <c r="L104" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M104" t="n">
-        <v>120</v>
+        <v>100</v>
       </c>
       <c r="N104" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="O104" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="P104" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="Q104" t="inlineStr">
         <is>
@@ -8706,7 +8706,7 @@
         </is>
       </c>
       <c r="S104" t="n">
-        <v>556</v>
+        <v>667</v>
       </c>
       <c r="T104" t="n">
         <v>18</v>
@@ -8727,7 +8727,7 @@
         </is>
       </c>
       <c r="D105" s="2" t="n">
-        <v>44434</v>
+        <v>44426</v>
       </c>
       <c r="E105" t="n">
         <v>7</v>
@@ -8760,24 +8760,24 @@
       </c>
       <c r="L105" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M105" t="n">
-        <v>230</v>
+        <v>120</v>
       </c>
       <c r="N105" t="n">
-        <v>14000</v>
+        <v>10000</v>
       </c>
       <c r="O105" t="n">
-        <v>14000</v>
+        <v>10000</v>
       </c>
       <c r="P105" t="n">
-        <v>14000</v>
+        <v>10000</v>
       </c>
       <c r="Q105" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="R105" t="inlineStr">
@@ -8786,7 +8786,7 @@
         </is>
       </c>
       <c r="S105" t="n">
-        <v>778</v>
+        <v>556</v>
       </c>
       <c r="T105" t="n">
         <v>18</v>
@@ -8844,20 +8844,20 @@
         </is>
       </c>
       <c r="M106" t="n">
-        <v>160</v>
+        <v>230</v>
       </c>
       <c r="N106" t="n">
-        <v>8000</v>
+        <v>14000</v>
       </c>
       <c r="O106" t="n">
-        <v>8000</v>
+        <v>14000</v>
       </c>
       <c r="P106" t="n">
-        <v>8000</v>
+        <v>14000</v>
       </c>
       <c r="Q106" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="R106" t="inlineStr">
@@ -8866,10 +8866,10 @@
         </is>
       </c>
       <c r="S106" t="n">
-        <v>800</v>
+        <v>778</v>
       </c>
       <c r="T106" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
     </row>
     <row r="107">
@@ -8920,24 +8920,24 @@
       </c>
       <c r="L107" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M107" t="n">
-        <v>150</v>
+        <v>160</v>
       </c>
       <c r="N107" t="n">
-        <v>12000</v>
+        <v>8000</v>
       </c>
       <c r="O107" t="n">
-        <v>12000</v>
+        <v>8000</v>
       </c>
       <c r="P107" t="n">
-        <v>12000</v>
+        <v>8000</v>
       </c>
       <c r="Q107" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="R107" t="inlineStr">
@@ -8946,10 +8946,10 @@
         </is>
       </c>
       <c r="S107" t="n">
-        <v>667</v>
+        <v>800</v>
       </c>
       <c r="T107" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="108">
@@ -9004,20 +9004,20 @@
         </is>
       </c>
       <c r="M108" t="n">
-        <v>230</v>
+        <v>150</v>
       </c>
       <c r="N108" t="n">
-        <v>7000</v>
+        <v>12000</v>
       </c>
       <c r="O108" t="n">
-        <v>7000</v>
+        <v>12000</v>
       </c>
       <c r="P108" t="n">
-        <v>7000</v>
+        <v>12000</v>
       </c>
       <c r="Q108" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="R108" t="inlineStr">
@@ -9026,10 +9026,10 @@
         </is>
       </c>
       <c r="S108" t="n">
-        <v>700</v>
+        <v>667</v>
       </c>
       <c r="T108" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
     </row>
     <row r="109">
@@ -9080,24 +9080,24 @@
       </c>
       <c r="L109" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M109" t="n">
-        <v>120</v>
+        <v>230</v>
       </c>
       <c r="N109" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="O109" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="P109" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="Q109" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="R109" t="inlineStr">
@@ -9106,10 +9106,10 @@
         </is>
       </c>
       <c r="S109" t="n">
-        <v>556</v>
+        <v>700</v>
       </c>
       <c r="T109" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="110">
@@ -9127,7 +9127,7 @@
         </is>
       </c>
       <c r="D110" s="2" t="n">
-        <v>44398</v>
+        <v>44434</v>
       </c>
       <c r="E110" t="n">
         <v>7</v>
@@ -9160,20 +9160,20 @@
       </c>
       <c r="L110" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M110" t="n">
-        <v>150</v>
+        <v>120</v>
       </c>
       <c r="N110" t="n">
-        <v>13000</v>
+        <v>10000</v>
       </c>
       <c r="O110" t="n">
-        <v>13000</v>
+        <v>10000</v>
       </c>
       <c r="P110" t="n">
-        <v>13000</v>
+        <v>10000</v>
       </c>
       <c r="Q110" t="inlineStr">
         <is>
@@ -9186,7 +9186,7 @@
         </is>
       </c>
       <c r="S110" t="n">
-        <v>722</v>
+        <v>556</v>
       </c>
       <c r="T110" t="n">
         <v>18</v>
@@ -9244,7 +9244,7 @@
         </is>
       </c>
       <c r="M111" t="n">
-        <v>180</v>
+        <v>150</v>
       </c>
       <c r="N111" t="n">
         <v>13000</v>
@@ -9262,7 +9262,7 @@
       </c>
       <c r="R111" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S111" t="n">
@@ -9320,20 +9320,20 @@
       </c>
       <c r="L112" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M112" t="n">
-        <v>260</v>
+        <v>180</v>
       </c>
       <c r="N112" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="O112" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="P112" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="Q112" t="inlineStr">
         <is>
@@ -9342,11 +9342,11 @@
       </c>
       <c r="R112" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S112" t="n">
-        <v>556</v>
+        <v>722</v>
       </c>
       <c r="T112" t="n">
         <v>18</v>
@@ -9404,16 +9404,16 @@
         </is>
       </c>
       <c r="M113" t="n">
-        <v>220</v>
+        <v>260</v>
       </c>
       <c r="N113" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="O113" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="P113" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="Q113" t="inlineStr">
         <is>
@@ -9422,11 +9422,11 @@
       </c>
       <c r="R113" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S113" t="n">
-        <v>500</v>
+        <v>556</v>
       </c>
       <c r="T113" t="n">
         <v>18</v>
@@ -9447,7 +9447,7 @@
         </is>
       </c>
       <c r="D114" s="2" t="n">
-        <v>44420</v>
+        <v>44398</v>
       </c>
       <c r="E114" t="n">
         <v>7</v>
@@ -9480,33 +9480,33 @@
       </c>
       <c r="L114" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M114" t="n">
-        <v>120</v>
+        <v>220</v>
       </c>
       <c r="N114" t="n">
-        <v>14000</v>
+        <v>9000</v>
       </c>
       <c r="O114" t="n">
-        <v>14000</v>
+        <v>9000</v>
       </c>
       <c r="P114" t="n">
-        <v>14000</v>
+        <v>9000</v>
       </c>
       <c r="Q114" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="R114" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S114" t="n">
-        <v>778</v>
+        <v>500</v>
       </c>
       <c r="T114" t="n">
         <v>18</v>
@@ -9560,20 +9560,20 @@
       </c>
       <c r="L115" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M115" t="n">
-        <v>200</v>
+        <v>120</v>
       </c>
       <c r="N115" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="O115" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="P115" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="Q115" t="inlineStr">
         <is>
@@ -9586,7 +9586,7 @@
         </is>
       </c>
       <c r="S115" t="n">
-        <v>667</v>
+        <v>778</v>
       </c>
       <c r="T115" t="n">
         <v>18</v>
@@ -9607,7 +9607,7 @@
         </is>
       </c>
       <c r="D116" s="2" t="n">
-        <v>44348</v>
+        <v>44420</v>
       </c>
       <c r="E116" t="n">
         <v>7</v>
@@ -9644,20 +9644,20 @@
         </is>
       </c>
       <c r="M116" t="n">
-        <v>230</v>
+        <v>200</v>
       </c>
       <c r="N116" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="O116" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="P116" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="Q116" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="R116" t="inlineStr">
@@ -9666,7 +9666,7 @@
         </is>
       </c>
       <c r="S116" t="n">
-        <v>556</v>
+        <v>667</v>
       </c>
       <c r="T116" t="n">
         <v>18</v>
@@ -9720,20 +9720,20 @@
       </c>
       <c r="L117" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M117" t="n">
-        <v>190</v>
+        <v>230</v>
       </c>
       <c r="N117" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="O117" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="P117" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="Q117" t="inlineStr">
         <is>
@@ -9746,7 +9746,7 @@
         </is>
       </c>
       <c r="S117" t="n">
-        <v>444</v>
+        <v>556</v>
       </c>
       <c r="T117" t="n">
         <v>18</v>
@@ -9767,7 +9767,7 @@
         </is>
       </c>
       <c r="D118" s="2" t="n">
-        <v>44263</v>
+        <v>44348</v>
       </c>
       <c r="E118" t="n">
         <v>7</v>
@@ -9800,36 +9800,36 @@
       </c>
       <c r="L118" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M118" t="n">
-        <v>180</v>
+        <v>190</v>
       </c>
       <c r="N118" t="n">
-        <v>12000</v>
+        <v>8000</v>
       </c>
       <c r="O118" t="n">
-        <v>12000</v>
+        <v>8000</v>
       </c>
       <c r="P118" t="n">
-        <v>12000</v>
+        <v>8000</v>
       </c>
       <c r="Q118" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="R118" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S118" t="n">
-        <v>1200</v>
+        <v>444</v>
       </c>
       <c r="T118" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
     </row>
     <row r="119">
@@ -9847,7 +9847,7 @@
         </is>
       </c>
       <c r="D119" s="2" t="n">
-        <v>44316</v>
+        <v>44263</v>
       </c>
       <c r="E119" t="n">
         <v>7</v>
@@ -9880,11 +9880,11 @@
       </c>
       <c r="L119" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M119" t="n">
-        <v>160</v>
+        <v>180</v>
       </c>
       <c r="N119" t="n">
         <v>12000</v>
@@ -9902,7 +9902,7 @@
       </c>
       <c r="R119" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S119" t="n">
@@ -9960,20 +9960,20 @@
       </c>
       <c r="L120" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M120" t="n">
-        <v>200</v>
+        <v>160</v>
       </c>
       <c r="N120" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="O120" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="P120" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="Q120" t="inlineStr">
         <is>
@@ -9986,7 +9986,7 @@
         </is>
       </c>
       <c r="S120" t="n">
-        <v>1000</v>
+        <v>1200</v>
       </c>
       <c r="T120" t="n">
         <v>10</v>
@@ -10044,20 +10044,20 @@
         </is>
       </c>
       <c r="M121" t="n">
-        <v>190</v>
+        <v>200</v>
       </c>
       <c r="N121" t="n">
-        <v>13000</v>
+        <v>10000</v>
       </c>
       <c r="O121" t="n">
-        <v>13000</v>
+        <v>10000</v>
       </c>
       <c r="P121" t="n">
-        <v>13000</v>
+        <v>10000</v>
       </c>
       <c r="Q121" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R121" t="inlineStr">
@@ -10066,10 +10066,10 @@
         </is>
       </c>
       <c r="S121" t="n">
-        <v>722</v>
+        <v>1000</v>
       </c>
       <c r="T121" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="122">
@@ -10087,7 +10087,7 @@
         </is>
       </c>
       <c r="D122" s="2" t="n">
-        <v>44341</v>
+        <v>44316</v>
       </c>
       <c r="E122" t="n">
         <v>7</v>
@@ -10120,24 +10120,24 @@
       </c>
       <c r="L122" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M122" t="n">
-        <v>200</v>
+        <v>190</v>
       </c>
       <c r="N122" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="O122" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="P122" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="Q122" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="R122" t="inlineStr">
@@ -10146,7 +10146,7 @@
         </is>
       </c>
       <c r="S122" t="n">
-        <v>556</v>
+        <v>722</v>
       </c>
       <c r="T122" t="n">
         <v>18</v>
@@ -10200,20 +10200,20 @@
       </c>
       <c r="L123" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M123" t="n">
-        <v>210</v>
+        <v>200</v>
       </c>
       <c r="N123" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="O123" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="P123" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="Q123" t="inlineStr">
         <is>
@@ -10226,7 +10226,7 @@
         </is>
       </c>
       <c r="S123" t="n">
-        <v>500</v>
+        <v>556</v>
       </c>
       <c r="T123" t="n">
         <v>18</v>
@@ -10247,7 +10247,7 @@
         </is>
       </c>
       <c r="D124" s="2" t="n">
-        <v>44414</v>
+        <v>44341</v>
       </c>
       <c r="E124" t="n">
         <v>7</v>
@@ -10284,20 +10284,20 @@
         </is>
       </c>
       <c r="M124" t="n">
-        <v>150</v>
+        <v>210</v>
       </c>
       <c r="N124" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="O124" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="P124" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="Q124" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="R124" t="inlineStr">
@@ -10306,10 +10306,10 @@
         </is>
       </c>
       <c r="S124" t="n">
-        <v>800</v>
+        <v>500</v>
       </c>
       <c r="T124" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
     </row>
     <row r="125">
@@ -10364,20 +10364,20 @@
         </is>
       </c>
       <c r="M125" t="n">
-        <v>190</v>
+        <v>150</v>
       </c>
       <c r="N125" t="n">
-        <v>12000</v>
+        <v>8000</v>
       </c>
       <c r="O125" t="n">
-        <v>12000</v>
+        <v>8000</v>
       </c>
       <c r="P125" t="n">
-        <v>12000</v>
+        <v>8000</v>
       </c>
       <c r="Q125" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R125" t="inlineStr">
@@ -10386,10 +10386,10 @@
         </is>
       </c>
       <c r="S125" t="n">
-        <v>667</v>
+        <v>800</v>
       </c>
       <c r="T125" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="126">
@@ -10440,20 +10440,20 @@
       </c>
       <c r="L126" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M126" t="n">
-        <v>100</v>
+        <v>190</v>
       </c>
       <c r="N126" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="O126" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="P126" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="Q126" t="inlineStr">
         <is>
@@ -10466,7 +10466,7 @@
         </is>
       </c>
       <c r="S126" t="n">
-        <v>556</v>
+        <v>667</v>
       </c>
       <c r="T126" t="n">
         <v>18</v>
@@ -10487,7 +10487,7 @@
         </is>
       </c>
       <c r="D127" s="2" t="n">
-        <v>44432</v>
+        <v>44414</v>
       </c>
       <c r="E127" t="n">
         <v>7</v>
@@ -10520,24 +10520,24 @@
       </c>
       <c r="L127" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M127" t="n">
-        <v>210</v>
+        <v>100</v>
       </c>
       <c r="N127" t="n">
-        <v>14000</v>
+        <v>10000</v>
       </c>
       <c r="O127" t="n">
-        <v>14000</v>
+        <v>10000</v>
       </c>
       <c r="P127" t="n">
-        <v>14000</v>
+        <v>10000</v>
       </c>
       <c r="Q127" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="R127" t="inlineStr">
@@ -10546,7 +10546,7 @@
         </is>
       </c>
       <c r="S127" t="n">
-        <v>778</v>
+        <v>556</v>
       </c>
       <c r="T127" t="n">
         <v>18</v>
@@ -10567,7 +10567,7 @@
         </is>
       </c>
       <c r="D128" s="2" t="n">
-        <v>44351</v>
+        <v>44432</v>
       </c>
       <c r="E128" t="n">
         <v>7</v>
@@ -10604,20 +10604,20 @@
         </is>
       </c>
       <c r="M128" t="n">
-        <v>260</v>
+        <v>210</v>
       </c>
       <c r="N128" t="n">
-        <v>11000</v>
+        <v>14000</v>
       </c>
       <c r="O128" t="n">
-        <v>11000</v>
+        <v>14000</v>
       </c>
       <c r="P128" t="n">
-        <v>11000</v>
+        <v>14000</v>
       </c>
       <c r="Q128" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="R128" t="inlineStr">
@@ -10626,7 +10626,7 @@
         </is>
       </c>
       <c r="S128" t="n">
-        <v>611</v>
+        <v>778</v>
       </c>
       <c r="T128" t="n">
         <v>18</v>
@@ -10680,20 +10680,20 @@
       </c>
       <c r="L129" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M129" t="n">
-        <v>200</v>
+        <v>260</v>
       </c>
       <c r="N129" t="n">
-        <v>10000</v>
+        <v>11000</v>
       </c>
       <c r="O129" t="n">
-        <v>10000</v>
+        <v>11000</v>
       </c>
       <c r="P129" t="n">
-        <v>10000</v>
+        <v>11000</v>
       </c>
       <c r="Q129" t="inlineStr">
         <is>
@@ -10706,7 +10706,7 @@
         </is>
       </c>
       <c r="S129" t="n">
-        <v>556</v>
+        <v>611</v>
       </c>
       <c r="T129" t="n">
         <v>18</v>
@@ -10764,32 +10764,32 @@
         </is>
       </c>
       <c r="M130" t="n">
-        <v>230</v>
+        <v>200</v>
       </c>
       <c r="N130" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="O130" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="P130" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="Q130" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="R130" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S130" t="n">
-        <v>800</v>
+        <v>556</v>
       </c>
       <c r="T130" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
     </row>
     <row r="131">
@@ -10807,7 +10807,7 @@
         </is>
       </c>
       <c r="D131" s="2" t="n">
-        <v>44369</v>
+        <v>44351</v>
       </c>
       <c r="E131" t="n">
         <v>7</v>
@@ -10840,7 +10840,7 @@
       </c>
       <c r="L131" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M131" t="n">
@@ -10857,12 +10857,12 @@
       </c>
       <c r="Q131" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="R131" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S131" t="n">
@@ -10924,20 +10924,20 @@
         </is>
       </c>
       <c r="M132" t="n">
-        <v>100</v>
+        <v>230</v>
       </c>
       <c r="N132" t="n">
-        <v>12000</v>
+        <v>8000</v>
       </c>
       <c r="O132" t="n">
-        <v>12000</v>
+        <v>8000</v>
       </c>
       <c r="P132" t="n">
-        <v>12000</v>
+        <v>8000</v>
       </c>
       <c r="Q132" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R132" t="inlineStr">
@@ -10946,10 +10946,10 @@
         </is>
       </c>
       <c r="S132" t="n">
-        <v>667</v>
+        <v>800</v>
       </c>
       <c r="T132" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="133">
@@ -11000,24 +11000,24 @@
       </c>
       <c r="L133" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M133" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="N133" t="n">
-        <v>6000</v>
+        <v>12000</v>
       </c>
       <c r="O133" t="n">
-        <v>6000</v>
+        <v>12000</v>
       </c>
       <c r="P133" t="n">
-        <v>6000</v>
+        <v>12000</v>
       </c>
       <c r="Q133" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="R133" t="inlineStr">
@@ -11026,10 +11026,10 @@
         </is>
       </c>
       <c r="S133" t="n">
-        <v>600</v>
+        <v>667</v>
       </c>
       <c r="T133" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
     </row>
     <row r="134">
@@ -11084,20 +11084,20 @@
         </is>
       </c>
       <c r="M134" t="n">
-        <v>180</v>
+        <v>200</v>
       </c>
       <c r="N134" t="n">
-        <v>10000</v>
+        <v>6000</v>
       </c>
       <c r="O134" t="n">
-        <v>10000</v>
+        <v>6000</v>
       </c>
       <c r="P134" t="n">
-        <v>10000</v>
+        <v>6000</v>
       </c>
       <c r="Q134" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R134" t="inlineStr">
@@ -11106,10 +11106,10 @@
         </is>
       </c>
       <c r="S134" t="n">
-        <v>556</v>
+        <v>600</v>
       </c>
       <c r="T134" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="135">
@@ -11127,7 +11127,7 @@
         </is>
       </c>
       <c r="D135" s="2" t="n">
-        <v>44342</v>
+        <v>44369</v>
       </c>
       <c r="E135" t="n">
         <v>7</v>
@@ -11164,16 +11164,16 @@
         </is>
       </c>
       <c r="M135" t="n">
-        <v>250</v>
+        <v>180</v>
       </c>
       <c r="N135" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="O135" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="P135" t="n">
-        <v>8600</v>
+        <v>10000</v>
       </c>
       <c r="Q135" t="inlineStr">
         <is>
@@ -11186,7 +11186,7 @@
         </is>
       </c>
       <c r="S135" t="n">
-        <v>478</v>
+        <v>556</v>
       </c>
       <c r="T135" t="n">
         <v>18</v>
@@ -11207,7 +11207,7 @@
         </is>
       </c>
       <c r="D136" s="2" t="n">
-        <v>44379</v>
+        <v>44342</v>
       </c>
       <c r="E136" t="n">
         <v>7</v>
@@ -11240,20 +11240,20 @@
       </c>
       <c r="L136" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M136" t="n">
-        <v>200</v>
+        <v>250</v>
       </c>
       <c r="N136" t="n">
-        <v>12000</v>
+        <v>8000</v>
       </c>
       <c r="O136" t="n">
-        <v>12000</v>
+        <v>9000</v>
       </c>
       <c r="P136" t="n">
-        <v>12000</v>
+        <v>8600</v>
       </c>
       <c r="Q136" t="inlineStr">
         <is>
@@ -11266,7 +11266,7 @@
         </is>
       </c>
       <c r="S136" t="n">
-        <v>667</v>
+        <v>478</v>
       </c>
       <c r="T136" t="n">
         <v>18</v>
@@ -11320,20 +11320,20 @@
       </c>
       <c r="L137" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M137" t="n">
-        <v>160</v>
+        <v>200</v>
       </c>
       <c r="N137" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="O137" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="P137" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="Q137" t="inlineStr">
         <is>
@@ -11346,7 +11346,7 @@
         </is>
       </c>
       <c r="S137" t="n">
-        <v>556</v>
+        <v>667</v>
       </c>
       <c r="T137" t="n">
         <v>18</v>
@@ -11367,7 +11367,7 @@
         </is>
       </c>
       <c r="D138" s="2" t="n">
-        <v>44315</v>
+        <v>44379</v>
       </c>
       <c r="E138" t="n">
         <v>7</v>
@@ -11400,24 +11400,24 @@
       </c>
       <c r="L138" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M138" t="n">
-        <v>140</v>
+        <v>160</v>
       </c>
       <c r="N138" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="O138" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="P138" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="Q138" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="R138" t="inlineStr">
@@ -11426,10 +11426,10 @@
         </is>
       </c>
       <c r="S138" t="n">
-        <v>1200</v>
+        <v>556</v>
       </c>
       <c r="T138" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
     </row>
     <row r="139">
@@ -11480,20 +11480,20 @@
       </c>
       <c r="L139" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M139" t="n">
-        <v>120</v>
+        <v>140</v>
       </c>
       <c r="N139" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="O139" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="P139" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="Q139" t="inlineStr">
         <is>
@@ -11506,7 +11506,7 @@
         </is>
       </c>
       <c r="S139" t="n">
-        <v>1000</v>
+        <v>1200</v>
       </c>
       <c r="T139" t="n">
         <v>10</v>
@@ -11560,20 +11560,20 @@
       </c>
       <c r="L140" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M140" t="n">
-        <v>50</v>
+        <v>120</v>
       </c>
       <c r="N140" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="O140" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="P140" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="Q140" t="inlineStr">
         <is>
@@ -11586,7 +11586,7 @@
         </is>
       </c>
       <c r="S140" t="n">
-        <v>800</v>
+        <v>1000</v>
       </c>
       <c r="T140" t="n">
         <v>10</v>
@@ -11607,7 +11607,7 @@
         </is>
       </c>
       <c r="D141" s="2" t="n">
-        <v>44391</v>
+        <v>44315</v>
       </c>
       <c r="E141" t="n">
         <v>7</v>
@@ -11640,24 +11640,24 @@
       </c>
       <c r="L141" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M141" t="n">
-        <v>200</v>
+        <v>50</v>
       </c>
       <c r="N141" t="n">
-        <v>11000</v>
+        <v>8000</v>
       </c>
       <c r="O141" t="n">
-        <v>11000</v>
+        <v>8000</v>
       </c>
       <c r="P141" t="n">
-        <v>11000</v>
+        <v>8000</v>
       </c>
       <c r="Q141" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="R141" t="inlineStr">
@@ -11666,10 +11666,10 @@
         </is>
       </c>
       <c r="S141" t="n">
-        <v>611</v>
+        <v>800</v>
       </c>
       <c r="T141" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="142">
@@ -11720,20 +11720,20 @@
       </c>
       <c r="L142" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M142" t="n">
-        <v>250</v>
+        <v>200</v>
       </c>
       <c r="N142" t="n">
-        <v>9500</v>
+        <v>11000</v>
       </c>
       <c r="O142" t="n">
-        <v>9500</v>
+        <v>11000</v>
       </c>
       <c r="P142" t="n">
-        <v>9500</v>
+        <v>11000</v>
       </c>
       <c r="Q142" t="inlineStr">
         <is>
@@ -11746,7 +11746,7 @@
         </is>
       </c>
       <c r="S142" t="n">
-        <v>528</v>
+        <v>611</v>
       </c>
       <c r="T142" t="n">
         <v>18</v>
@@ -11767,7 +11767,7 @@
         </is>
       </c>
       <c r="D143" s="2" t="n">
-        <v>44446</v>
+        <v>44391</v>
       </c>
       <c r="E143" t="n">
         <v>7</v>
@@ -11800,20 +11800,20 @@
       </c>
       <c r="L143" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M143" t="n">
-        <v>180</v>
+        <v>250</v>
       </c>
       <c r="N143" t="n">
-        <v>14000</v>
+        <v>9500</v>
       </c>
       <c r="O143" t="n">
-        <v>14000</v>
+        <v>9500</v>
       </c>
       <c r="P143" t="n">
-        <v>14000</v>
+        <v>9500</v>
       </c>
       <c r="Q143" t="inlineStr">
         <is>
@@ -11826,7 +11826,7 @@
         </is>
       </c>
       <c r="S143" t="n">
-        <v>778</v>
+        <v>528</v>
       </c>
       <c r="T143" t="n">
         <v>18</v>
@@ -11880,20 +11880,20 @@
       </c>
       <c r="L144" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M144" t="n">
-        <v>230</v>
+        <v>180</v>
       </c>
       <c r="N144" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="O144" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="P144" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="Q144" t="inlineStr">
         <is>
@@ -11906,7 +11906,7 @@
         </is>
       </c>
       <c r="S144" t="n">
-        <v>667</v>
+        <v>778</v>
       </c>
       <c r="T144" t="n">
         <v>18</v>
@@ -11960,20 +11960,20 @@
       </c>
       <c r="L145" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M145" t="n">
-        <v>150</v>
+        <v>230</v>
       </c>
       <c r="N145" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="O145" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="P145" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="Q145" t="inlineStr">
         <is>
@@ -11986,7 +11986,7 @@
         </is>
       </c>
       <c r="S145" t="n">
-        <v>556</v>
+        <v>667</v>
       </c>
       <c r="T145" t="n">
         <v>18</v>
@@ -12007,7 +12007,7 @@
         </is>
       </c>
       <c r="D146" s="2" t="n">
-        <v>44313</v>
+        <v>44446</v>
       </c>
       <c r="E146" t="n">
         <v>7</v>
@@ -12040,24 +12040,24 @@
       </c>
       <c r="L146" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M146" t="n">
-        <v>350</v>
+        <v>150</v>
       </c>
       <c r="N146" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="O146" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="P146" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="Q146" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="R146" t="inlineStr">
@@ -12066,10 +12066,10 @@
         </is>
       </c>
       <c r="S146" t="n">
-        <v>900</v>
+        <v>556</v>
       </c>
       <c r="T146" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
     </row>
     <row r="147">
@@ -12120,20 +12120,20 @@
       </c>
       <c r="L147" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M147" t="n">
-        <v>250</v>
+        <v>350</v>
       </c>
       <c r="N147" t="n">
-        <v>6000</v>
+        <v>9000</v>
       </c>
       <c r="O147" t="n">
-        <v>6000</v>
+        <v>9000</v>
       </c>
       <c r="P147" t="n">
-        <v>6000</v>
+        <v>9000</v>
       </c>
       <c r="Q147" t="inlineStr">
         <is>
@@ -12146,7 +12146,7 @@
         </is>
       </c>
       <c r="S147" t="n">
-        <v>600</v>
+        <v>900</v>
       </c>
       <c r="T147" t="n">
         <v>10</v>
@@ -12167,7 +12167,7 @@
         </is>
       </c>
       <c r="D148" s="2" t="n">
-        <v>44329</v>
+        <v>44313</v>
       </c>
       <c r="E148" t="n">
         <v>7</v>
@@ -12200,24 +12200,24 @@
       </c>
       <c r="L148" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="M148" t="n">
-        <v>300</v>
+        <v>250</v>
       </c>
       <c r="N148" t="n">
-        <v>8000</v>
+        <v>6000</v>
       </c>
       <c r="O148" t="n">
-        <v>8000</v>
+        <v>6000</v>
       </c>
       <c r="P148" t="n">
-        <v>8000</v>
+        <v>6000</v>
       </c>
       <c r="Q148" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R148" t="inlineStr">
@@ -12226,7 +12226,7 @@
         </is>
       </c>
       <c r="S148" t="n">
-        <v>800</v>
+        <v>600</v>
       </c>
       <c r="T148" t="n">
         <v>10</v>
@@ -12247,7 +12247,7 @@
         </is>
       </c>
       <c r="D149" s="2" t="n">
-        <v>44449</v>
+        <v>44329</v>
       </c>
       <c r="E149" t="n">
         <v>7</v>
@@ -12287,17 +12287,17 @@
         <v>300</v>
       </c>
       <c r="N149" t="n">
-        <v>12000</v>
+        <v>8000</v>
       </c>
       <c r="O149" t="n">
-        <v>12000</v>
+        <v>8000</v>
       </c>
       <c r="P149" t="n">
-        <v>12000</v>
+        <v>8000</v>
       </c>
       <c r="Q149" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="R149" t="inlineStr">
@@ -12306,10 +12306,10 @@
         </is>
       </c>
       <c r="S149" t="n">
-        <v>667</v>
+        <v>800</v>
       </c>
       <c r="T149" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="150">
@@ -12327,7 +12327,7 @@
         </is>
       </c>
       <c r="D150" s="2" t="n">
-        <v>44438</v>
+        <v>44449</v>
       </c>
       <c r="E150" t="n">
         <v>7</v>
@@ -12360,20 +12360,20 @@
       </c>
       <c r="L150" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M150" t="n">
-        <v>230</v>
+        <v>300</v>
       </c>
       <c r="N150" t="n">
-        <v>13000</v>
+        <v>12000</v>
       </c>
       <c r="O150" t="n">
-        <v>13000</v>
+        <v>12000</v>
       </c>
       <c r="P150" t="n">
-        <v>13000</v>
+        <v>12000</v>
       </c>
       <c r="Q150" t="inlineStr">
         <is>
@@ -12386,7 +12386,7 @@
         </is>
       </c>
       <c r="S150" t="n">
-        <v>722</v>
+        <v>667</v>
       </c>
       <c r="T150" t="n">
         <v>18</v>
@@ -12440,20 +12440,20 @@
       </c>
       <c r="L151" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M151" t="n">
-        <v>300</v>
+        <v>230</v>
       </c>
       <c r="N151" t="n">
-        <v>11000</v>
+        <v>13000</v>
       </c>
       <c r="O151" t="n">
-        <v>11000</v>
+        <v>13000</v>
       </c>
       <c r="P151" t="n">
-        <v>11000</v>
+        <v>13000</v>
       </c>
       <c r="Q151" t="inlineStr">
         <is>
@@ -12466,7 +12466,7 @@
         </is>
       </c>
       <c r="S151" t="n">
-        <v>611</v>
+        <v>722</v>
       </c>
       <c r="T151" t="n">
         <v>18</v>
@@ -12487,7 +12487,7 @@
         </is>
       </c>
       <c r="D152" s="2" t="n">
-        <v>44428</v>
+        <v>44438</v>
       </c>
       <c r="E152" t="n">
         <v>7</v>
@@ -12520,20 +12520,20 @@
       </c>
       <c r="L152" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M152" t="n">
-        <v>230</v>
+        <v>300</v>
       </c>
       <c r="N152" t="n">
-        <v>14000</v>
+        <v>11000</v>
       </c>
       <c r="O152" t="n">
-        <v>14000</v>
+        <v>11000</v>
       </c>
       <c r="P152" t="n">
-        <v>14000</v>
+        <v>11000</v>
       </c>
       <c r="Q152" t="inlineStr">
         <is>
@@ -12546,7 +12546,7 @@
         </is>
       </c>
       <c r="S152" t="n">
-        <v>778</v>
+        <v>611</v>
       </c>
       <c r="T152" t="n">
         <v>18</v>
@@ -12600,20 +12600,20 @@
       </c>
       <c r="L153" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M153" t="n">
-        <v>200</v>
+        <v>230</v>
       </c>
       <c r="N153" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="O153" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="P153" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="Q153" t="inlineStr">
         <is>
@@ -12626,7 +12626,7 @@
         </is>
       </c>
       <c r="S153" t="n">
-        <v>667</v>
+        <v>778</v>
       </c>
       <c r="T153" t="n">
         <v>18</v>
@@ -12680,24 +12680,24 @@
       </c>
       <c r="L154" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M154" t="n">
-        <v>120</v>
+        <v>200</v>
       </c>
       <c r="N154" t="n">
-        <v>8000</v>
+        <v>12000</v>
       </c>
       <c r="O154" t="n">
-        <v>8000</v>
+        <v>12000</v>
       </c>
       <c r="P154" t="n">
-        <v>8000</v>
+        <v>12000</v>
       </c>
       <c r="Q154" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="R154" t="inlineStr">
@@ -12706,7 +12706,7 @@
         </is>
       </c>
       <c r="S154" t="n">
-        <v>444</v>
+        <v>667</v>
       </c>
       <c r="T154" t="n">
         <v>18</v>
@@ -12727,7 +12727,7 @@
         </is>
       </c>
       <c r="D155" s="2" t="n">
-        <v>44442</v>
+        <v>44428</v>
       </c>
       <c r="E155" t="n">
         <v>7</v>
@@ -12760,24 +12760,24 @@
       </c>
       <c r="L155" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M155" t="n">
-        <v>180</v>
+        <v>120</v>
       </c>
       <c r="N155" t="n">
-        <v>14000</v>
+        <v>8000</v>
       </c>
       <c r="O155" t="n">
-        <v>14000</v>
+        <v>8000</v>
       </c>
       <c r="P155" t="n">
-        <v>14000</v>
+        <v>8000</v>
       </c>
       <c r="Q155" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="R155" t="inlineStr">
@@ -12786,7 +12786,7 @@
         </is>
       </c>
       <c r="S155" t="n">
-        <v>778</v>
+        <v>444</v>
       </c>
       <c r="T155" t="n">
         <v>18</v>
@@ -12840,20 +12840,20 @@
       </c>
       <c r="L156" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M156" t="n">
-        <v>230</v>
+        <v>180</v>
       </c>
       <c r="N156" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="O156" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="P156" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="Q156" t="inlineStr">
         <is>
@@ -12866,7 +12866,7 @@
         </is>
       </c>
       <c r="S156" t="n">
-        <v>667</v>
+        <v>778</v>
       </c>
       <c r="T156" t="n">
         <v>18</v>
@@ -12924,16 +12924,16 @@
         </is>
       </c>
       <c r="M157" t="n">
-        <v>250</v>
+        <v>230</v>
       </c>
       <c r="N157" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="O157" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="P157" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="Q157" t="inlineStr">
         <is>
@@ -12942,11 +12942,11 @@
       </c>
       <c r="R157" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S157" t="n">
-        <v>556</v>
+        <v>667</v>
       </c>
       <c r="T157" t="n">
         <v>18</v>
@@ -13000,11 +13000,11 @@
       </c>
       <c r="L158" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M158" t="n">
-        <v>200</v>
+        <v>250</v>
       </c>
       <c r="N158" t="n">
         <v>10000</v>
@@ -13022,7 +13022,7 @@
       </c>
       <c r="R158" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S158" t="n">
@@ -13087,13 +13087,13 @@
         <v>200</v>
       </c>
       <c r="N159" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="O159" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="P159" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="Q159" t="inlineStr">
         <is>
@@ -13102,11 +13102,11 @@
       </c>
       <c r="R159" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S159" t="n">
-        <v>444</v>
+        <v>556</v>
       </c>
       <c r="T159" t="n">
         <v>18</v>
@@ -13127,7 +13127,7 @@
         </is>
       </c>
       <c r="D160" s="2" t="n">
-        <v>44435</v>
+        <v>44442</v>
       </c>
       <c r="E160" t="n">
         <v>7</v>
@@ -13160,20 +13160,20 @@
       </c>
       <c r="L160" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M160" t="n">
-        <v>390</v>
+        <v>200</v>
       </c>
       <c r="N160" t="n">
-        <v>14000</v>
+        <v>8000</v>
       </c>
       <c r="O160" t="n">
-        <v>14000</v>
+        <v>8000</v>
       </c>
       <c r="P160" t="n">
-        <v>14000</v>
+        <v>8000</v>
       </c>
       <c r="Q160" t="inlineStr">
         <is>
@@ -13182,11 +13182,11 @@
       </c>
       <c r="R160" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S160" t="n">
-        <v>778</v>
+        <v>444</v>
       </c>
       <c r="T160" t="n">
         <v>18</v>
@@ -13244,20 +13244,20 @@
         </is>
       </c>
       <c r="M161" t="n">
-        <v>160</v>
+        <v>390</v>
       </c>
       <c r="N161" t="n">
-        <v>8000</v>
+        <v>14000</v>
       </c>
       <c r="O161" t="n">
-        <v>8000</v>
+        <v>14000</v>
       </c>
       <c r="P161" t="n">
-        <v>8000</v>
+        <v>14000</v>
       </c>
       <c r="Q161" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="R161" t="inlineStr">
@@ -13266,10 +13266,10 @@
         </is>
       </c>
       <c r="S161" t="n">
-        <v>800</v>
+        <v>778</v>
       </c>
       <c r="T161" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
     </row>
     <row r="162">
@@ -13324,20 +13324,20 @@
         </is>
       </c>
       <c r="M162" t="n">
-        <v>330</v>
+        <v>160</v>
       </c>
       <c r="N162" t="n">
-        <v>14000</v>
+        <v>8000</v>
       </c>
       <c r="O162" t="n">
-        <v>14000</v>
+        <v>8000</v>
       </c>
       <c r="P162" t="n">
-        <v>14000</v>
+        <v>8000</v>
       </c>
       <c r="Q162" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="R162" t="inlineStr">
@@ -13346,10 +13346,10 @@
         </is>
       </c>
       <c r="S162" t="n">
-        <v>778</v>
+        <v>800</v>
       </c>
       <c r="T162" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="163">
@@ -13400,24 +13400,24 @@
       </c>
       <c r="L163" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M163" t="n">
-        <v>250</v>
+        <v>330</v>
       </c>
       <c r="N163" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="O163" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="P163" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="Q163" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="R163" t="inlineStr">
@@ -13426,7 +13426,7 @@
         </is>
       </c>
       <c r="S163" t="n">
-        <v>667</v>
+        <v>778</v>
       </c>
       <c r="T163" t="n">
         <v>18</v>
@@ -13484,20 +13484,20 @@
         </is>
       </c>
       <c r="M164" t="n">
-        <v>230</v>
+        <v>250</v>
       </c>
       <c r="N164" t="n">
-        <v>7000</v>
+        <v>12000</v>
       </c>
       <c r="O164" t="n">
-        <v>7000</v>
+        <v>12000</v>
       </c>
       <c r="P164" t="n">
-        <v>7000</v>
+        <v>12000</v>
       </c>
       <c r="Q164" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="R164" t="inlineStr">
@@ -13506,10 +13506,10 @@
         </is>
       </c>
       <c r="S164" t="n">
-        <v>700</v>
+        <v>667</v>
       </c>
       <c r="T164" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
     </row>
     <row r="165">
@@ -13564,20 +13564,20 @@
         </is>
       </c>
       <c r="M165" t="n">
-        <v>180</v>
+        <v>230</v>
       </c>
       <c r="N165" t="n">
-        <v>12000</v>
+        <v>7000</v>
       </c>
       <c r="O165" t="n">
-        <v>12000</v>
+        <v>7000</v>
       </c>
       <c r="P165" t="n">
-        <v>12000</v>
+        <v>7000</v>
       </c>
       <c r="Q165" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="R165" t="inlineStr">
@@ -13586,10 +13586,10 @@
         </is>
       </c>
       <c r="S165" t="n">
-        <v>667</v>
+        <v>700</v>
       </c>
       <c r="T165" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="166">
@@ -13640,24 +13640,24 @@
       </c>
       <c r="L166" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M166" t="n">
-        <v>240</v>
+        <v>180</v>
       </c>
       <c r="N166" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="O166" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="P166" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="Q166" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="R166" t="inlineStr">
@@ -13666,7 +13666,7 @@
         </is>
       </c>
       <c r="S166" t="n">
-        <v>556</v>
+        <v>667</v>
       </c>
       <c r="T166" t="n">
         <v>18</v>
@@ -13687,7 +13687,7 @@
         </is>
       </c>
       <c r="D167" s="2" t="n">
-        <v>44376</v>
+        <v>44435</v>
       </c>
       <c r="E167" t="n">
         <v>7</v>
@@ -13720,20 +13720,20 @@
       </c>
       <c r="L167" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M167" t="n">
-        <v>260</v>
+        <v>240</v>
       </c>
       <c r="N167" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="O167" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="P167" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="Q167" t="inlineStr">
         <is>
@@ -13746,7 +13746,7 @@
         </is>
       </c>
       <c r="S167" t="n">
-        <v>500</v>
+        <v>556</v>
       </c>
       <c r="T167" t="n">
         <v>18</v>
@@ -13767,7 +13767,7 @@
         </is>
       </c>
       <c r="D168" s="2" t="n">
-        <v>44412</v>
+        <v>44376</v>
       </c>
       <c r="E168" t="n">
         <v>7</v>
@@ -13800,20 +13800,20 @@
       </c>
       <c r="L168" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M168" t="n">
-        <v>180</v>
+        <v>260</v>
       </c>
       <c r="N168" t="n">
-        <v>14000</v>
+        <v>9000</v>
       </c>
       <c r="O168" t="n">
-        <v>14000</v>
+        <v>9000</v>
       </c>
       <c r="P168" t="n">
-        <v>14000</v>
+        <v>9000</v>
       </c>
       <c r="Q168" t="inlineStr">
         <is>
@@ -13826,7 +13826,7 @@
         </is>
       </c>
       <c r="S168" t="n">
-        <v>778</v>
+        <v>500</v>
       </c>
       <c r="T168" t="n">
         <v>18</v>
@@ -13880,20 +13880,20 @@
       </c>
       <c r="L169" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M169" t="n">
-        <v>230</v>
+        <v>180</v>
       </c>
       <c r="N169" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="O169" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="P169" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="Q169" t="inlineStr">
         <is>
@@ -13906,7 +13906,7 @@
         </is>
       </c>
       <c r="S169" t="n">
-        <v>667</v>
+        <v>778</v>
       </c>
       <c r="T169" t="n">
         <v>18</v>
@@ -13927,7 +13927,7 @@
         </is>
       </c>
       <c r="D170" s="2" t="n">
-        <v>44314</v>
+        <v>44412</v>
       </c>
       <c r="E170" t="n">
         <v>7</v>
@@ -13960,24 +13960,24 @@
       </c>
       <c r="L170" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M170" t="n">
-        <v>150</v>
+        <v>230</v>
       </c>
       <c r="N170" t="n">
-        <v>11000</v>
+        <v>12000</v>
       </c>
       <c r="O170" t="n">
-        <v>11000</v>
+        <v>12000</v>
       </c>
       <c r="P170" t="n">
-        <v>11000</v>
+        <v>12000</v>
       </c>
       <c r="Q170" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="R170" t="inlineStr">
@@ -13986,10 +13986,10 @@
         </is>
       </c>
       <c r="S170" t="n">
-        <v>1100</v>
+        <v>667</v>
       </c>
       <c r="T170" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
     </row>
     <row r="171">
@@ -14040,20 +14040,20 @@
       </c>
       <c r="L171" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M171" t="n">
-        <v>60</v>
+        <v>150</v>
       </c>
       <c r="N171" t="n">
-        <v>9000</v>
+        <v>11000</v>
       </c>
       <c r="O171" t="n">
-        <v>9000</v>
+        <v>11000</v>
       </c>
       <c r="P171" t="n">
-        <v>9000</v>
+        <v>11000</v>
       </c>
       <c r="Q171" t="inlineStr">
         <is>
@@ -14066,7 +14066,7 @@
         </is>
       </c>
       <c r="S171" t="n">
-        <v>900</v>
+        <v>1100</v>
       </c>
       <c r="T171" t="n">
         <v>10</v>
@@ -14087,7 +14087,7 @@
         </is>
       </c>
       <c r="D172" s="2" t="n">
-        <v>44448</v>
+        <v>44314</v>
       </c>
       <c r="E172" t="n">
         <v>7</v>
@@ -14120,24 +14120,24 @@
       </c>
       <c r="L172" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M172" t="n">
-        <v>180</v>
+        <v>60</v>
       </c>
       <c r="N172" t="n">
-        <v>13000</v>
+        <v>9000</v>
       </c>
       <c r="O172" t="n">
-        <v>13000</v>
+        <v>9000</v>
       </c>
       <c r="P172" t="n">
-        <v>13000</v>
+        <v>9000</v>
       </c>
       <c r="Q172" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R172" t="inlineStr">
@@ -14146,10 +14146,10 @@
         </is>
       </c>
       <c r="S172" t="n">
-        <v>722</v>
+        <v>900</v>
       </c>
       <c r="T172" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="173">
@@ -14200,20 +14200,20 @@
       </c>
       <c r="L173" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M173" t="n">
-        <v>230</v>
+        <v>180</v>
       </c>
       <c r="N173" t="n">
-        <v>11000</v>
+        <v>13000</v>
       </c>
       <c r="O173" t="n">
-        <v>11000</v>
+        <v>13000</v>
       </c>
       <c r="P173" t="n">
-        <v>11000</v>
+        <v>13000</v>
       </c>
       <c r="Q173" t="inlineStr">
         <is>
@@ -14226,7 +14226,7 @@
         </is>
       </c>
       <c r="S173" t="n">
-        <v>611</v>
+        <v>722</v>
       </c>
       <c r="T173" t="n">
         <v>18</v>
@@ -14247,7 +14247,7 @@
         </is>
       </c>
       <c r="D174" s="2" t="n">
-        <v>44399</v>
+        <v>44448</v>
       </c>
       <c r="E174" t="n">
         <v>7</v>
@@ -14284,20 +14284,20 @@
         </is>
       </c>
       <c r="M174" t="n">
-        <v>260</v>
+        <v>230</v>
       </c>
       <c r="N174" t="n">
-        <v>5000</v>
+        <v>11000</v>
       </c>
       <c r="O174" t="n">
-        <v>5000</v>
+        <v>11000</v>
       </c>
       <c r="P174" t="n">
-        <v>5000</v>
+        <v>11000</v>
       </c>
       <c r="Q174" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="R174" t="inlineStr">
@@ -14306,10 +14306,10 @@
         </is>
       </c>
       <c r="S174" t="n">
-        <v>500</v>
+        <v>611</v>
       </c>
       <c r="T174" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
     </row>
     <row r="175">
@@ -14367,17 +14367,17 @@
         <v>260</v>
       </c>
       <c r="N175" t="n">
-        <v>10000</v>
+        <v>5000</v>
       </c>
       <c r="O175" t="n">
-        <v>10000</v>
+        <v>5000</v>
       </c>
       <c r="P175" t="n">
-        <v>10000</v>
+        <v>5000</v>
       </c>
       <c r="Q175" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos granel</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R175" t="inlineStr">
@@ -14386,10 +14386,10 @@
         </is>
       </c>
       <c r="S175" t="n">
-        <v>556</v>
+        <v>500</v>
       </c>
       <c r="T175" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="176">
@@ -14407,7 +14407,7 @@
         </is>
       </c>
       <c r="D176" s="2" t="n">
-        <v>44400</v>
+        <v>44399</v>
       </c>
       <c r="E176" t="n">
         <v>7</v>
@@ -14440,24 +14440,24 @@
       </c>
       <c r="L176" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M176" t="n">
-        <v>100</v>
+        <v>260</v>
       </c>
       <c r="N176" t="n">
-        <v>13000</v>
+        <v>10000</v>
       </c>
       <c r="O176" t="n">
-        <v>13000</v>
+        <v>10000</v>
       </c>
       <c r="P176" t="n">
-        <v>13000</v>
+        <v>10000</v>
       </c>
       <c r="Q176" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 18 kilos granel</t>
         </is>
       </c>
       <c r="R176" t="inlineStr">
@@ -14466,7 +14466,7 @@
         </is>
       </c>
       <c r="S176" t="n">
-        <v>722</v>
+        <v>556</v>
       </c>
       <c r="T176" t="n">
         <v>18</v>
@@ -14520,20 +14520,20 @@
       </c>
       <c r="L177" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M177" t="n">
-        <v>180</v>
+        <v>100</v>
       </c>
       <c r="N177" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="O177" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="P177" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="Q177" t="inlineStr">
         <is>
@@ -14546,7 +14546,7 @@
         </is>
       </c>
       <c r="S177" t="n">
-        <v>556</v>
+        <v>722</v>
       </c>
       <c r="T177" t="n">
         <v>18</v>
@@ -14600,35 +14600,115 @@
       </c>
       <c r="L178" t="inlineStr">
         <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="M178" t="n">
+        <v>180</v>
+      </c>
+      <c r="N178" t="n">
+        <v>10000</v>
+      </c>
+      <c r="O178" t="n">
+        <v>10000</v>
+      </c>
+      <c r="P178" t="n">
+        <v>10000</v>
+      </c>
+      <c r="Q178" t="inlineStr">
+        <is>
+          <t>$/bandeja 18 kilos</t>
+        </is>
+      </c>
+      <c r="R178" t="inlineStr">
+        <is>
+          <t>Provincia de Curicó</t>
+        </is>
+      </c>
+      <c r="S178" t="n">
+        <v>556</v>
+      </c>
+      <c r="T178" t="n">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" t="n">
+        <v>5</v>
+      </c>
+      <c r="B179" t="inlineStr">
+        <is>
+          <t>Macroferia Regional de Talca</t>
+        </is>
+      </c>
+      <c r="C179" t="inlineStr">
+        <is>
+          <t>Maule</t>
+        </is>
+      </c>
+      <c r="D179" s="2" t="n">
+        <v>44400</v>
+      </c>
+      <c r="E179" t="n">
+        <v>7</v>
+      </c>
+      <c r="F179" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G179" t="n">
+        <v>100101</v>
+      </c>
+      <c r="H179" t="inlineStr">
+        <is>
+          <t>Berries</t>
+        </is>
+      </c>
+      <c r="I179" t="n">
+        <v>100101007</v>
+      </c>
+      <c r="J179" t="inlineStr">
+        <is>
+          <t>Kiwi</t>
+        </is>
+      </c>
+      <c r="K179" t="inlineStr">
+        <is>
+          <t>Hayward</t>
+        </is>
+      </c>
+      <c r="L179" t="inlineStr">
+        <is>
           <t>Segunda</t>
         </is>
       </c>
-      <c r="M178" t="n">
+      <c r="M179" t="n">
         <v>150</v>
       </c>
-      <c r="N178" t="n">
+      <c r="N179" t="n">
         <v>8000</v>
       </c>
-      <c r="O178" t="n">
+      <c r="O179" t="n">
         <v>8000</v>
       </c>
-      <c r="P178" t="n">
+      <c r="P179" t="n">
         <v>8000</v>
       </c>
-      <c r="Q178" t="inlineStr">
+      <c r="Q179" t="inlineStr">
         <is>
           <t>$/bandeja 18 kilos</t>
         </is>
       </c>
-      <c r="R178" t="inlineStr">
-        <is>
-          <t>Provincia de Curicó</t>
-        </is>
-      </c>
-      <c r="S178" t="n">
+      <c r="R179" t="inlineStr">
+        <is>
+          <t>Provincia de Curicó</t>
+        </is>
+      </c>
+      <c r="S179" t="n">
         <v>444</v>
       </c>
-      <c r="T178" t="n">
+      <c r="T179" t="n">
         <v>18</v>
       </c>
     </row>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Macroferia Regional de Talca - Kiwi.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Macroferia Regional de Talca - Kiwi.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T179"/>
+  <dimension ref="A1:T181"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -487,7 +487,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44357</v>
+        <v>44295</v>
       </c>
       <c r="E2" t="n">
         <v>7</v>
@@ -520,20 +520,20 @@
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M2" t="n">
-        <v>130</v>
+        <v>160</v>
       </c>
       <c r="N2" t="n">
-        <v>13000</v>
+        <v>10000</v>
       </c>
       <c r="O2" t="n">
-        <v>13000</v>
+        <v>10000</v>
       </c>
       <c r="P2" t="n">
-        <v>13000</v>
+        <v>10000</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
@@ -546,7 +546,7 @@
         </is>
       </c>
       <c r="S2" t="n">
-        <v>722</v>
+        <v>556</v>
       </c>
       <c r="T2" t="n">
         <v>18</v>
@@ -567,7 +567,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44357</v>
+        <v>44382</v>
       </c>
       <c r="E3" t="n">
         <v>7</v>
@@ -600,20 +600,20 @@
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M3" t="n">
-        <v>190</v>
+        <v>150</v>
       </c>
       <c r="N3" t="n">
-        <v>11000</v>
+        <v>12000</v>
       </c>
       <c r="O3" t="n">
-        <v>11000</v>
+        <v>12000</v>
       </c>
       <c r="P3" t="n">
-        <v>11000</v>
+        <v>12000</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
@@ -626,7 +626,7 @@
         </is>
       </c>
       <c r="S3" t="n">
-        <v>611</v>
+        <v>667</v>
       </c>
       <c r="T3" t="n">
         <v>18</v>
@@ -647,7 +647,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44377</v>
+        <v>44382</v>
       </c>
       <c r="E4" t="n">
         <v>7</v>
@@ -684,7 +684,7 @@
         </is>
       </c>
       <c r="M4" t="n">
-        <v>150</v>
+        <v>200</v>
       </c>
       <c r="N4" t="n">
         <v>10000</v>
@@ -727,7 +727,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44377</v>
+        <v>44432</v>
       </c>
       <c r="E5" t="n">
         <v>7</v>
@@ -760,24 +760,24 @@
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M5" t="n">
         <v>210</v>
       </c>
       <c r="N5" t="n">
-        <v>6000</v>
+        <v>14000</v>
       </c>
       <c r="O5" t="n">
-        <v>6000</v>
+        <v>14000</v>
       </c>
       <c r="P5" t="n">
-        <v>6000</v>
+        <v>14000</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="R5" t="inlineStr">
@@ -786,10 +786,10 @@
         </is>
       </c>
       <c r="S5" t="n">
-        <v>600</v>
+        <v>778</v>
       </c>
       <c r="T5" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
     </row>
     <row r="6">
@@ -807,7 +807,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>44377</v>
+        <v>44315</v>
       </c>
       <c r="E6" t="n">
         <v>7</v>
@@ -840,24 +840,24 @@
       </c>
       <c r="L6" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M6" t="n">
-        <v>100</v>
+        <v>140</v>
       </c>
       <c r="N6" t="n">
-        <v>6000</v>
+        <v>12000</v>
       </c>
       <c r="O6" t="n">
-        <v>6000</v>
+        <v>12000</v>
       </c>
       <c r="P6" t="n">
-        <v>6000</v>
+        <v>12000</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="R6" t="inlineStr">
@@ -866,10 +866,10 @@
         </is>
       </c>
       <c r="S6" t="n">
-        <v>333</v>
+        <v>1200</v>
       </c>
       <c r="T6" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="7">
@@ -887,7 +887,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>44350</v>
+        <v>44315</v>
       </c>
       <c r="E7" t="n">
         <v>7</v>
@@ -920,36 +920,36 @@
       </c>
       <c r="L7" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M7" t="n">
-        <v>130</v>
+        <v>120</v>
       </c>
       <c r="N7" t="n">
-        <v>11000</v>
+        <v>10000</v>
       </c>
       <c r="O7" t="n">
-        <v>11000</v>
+        <v>10000</v>
       </c>
       <c r="P7" t="n">
-        <v>11000</v>
+        <v>10000</v>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos granel</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="R7" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S7" t="n">
-        <v>611</v>
+        <v>1000</v>
       </c>
       <c r="T7" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="8">
@@ -967,7 +967,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>44350</v>
+        <v>44315</v>
       </c>
       <c r="E8" t="n">
         <v>7</v>
@@ -1000,24 +1000,24 @@
       </c>
       <c r="L8" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M8" t="n">
-        <v>360</v>
+        <v>50</v>
       </c>
       <c r="N8" t="n">
-        <v>9000</v>
+        <v>8000</v>
       </c>
       <c r="O8" t="n">
-        <v>9000</v>
+        <v>8000</v>
       </c>
       <c r="P8" t="n">
-        <v>9000</v>
+        <v>8000</v>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos granel</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="R8" t="inlineStr">
@@ -1026,10 +1026,10 @@
         </is>
       </c>
       <c r="S8" t="n">
-        <v>500</v>
+        <v>800</v>
       </c>
       <c r="T8" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="9">
@@ -1047,7 +1047,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>44350</v>
+        <v>44403</v>
       </c>
       <c r="E9" t="n">
         <v>7</v>
@@ -1084,29 +1084,29 @@
         </is>
       </c>
       <c r="M9" t="n">
-        <v>100</v>
+        <v>350</v>
       </c>
       <c r="N9" t="n">
         <v>9000</v>
       </c>
       <c r="O9" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="P9" t="n">
-        <v>9000</v>
+        <v>9429</v>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos granel</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="R9" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S9" t="n">
-        <v>500</v>
+        <v>524</v>
       </c>
       <c r="T9" t="n">
         <v>18</v>
@@ -1127,7 +1127,7 @@
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>44350</v>
+        <v>44403</v>
       </c>
       <c r="E10" t="n">
         <v>7</v>
@@ -1164,16 +1164,16 @@
         </is>
       </c>
       <c r="M10" t="n">
-        <v>210</v>
+        <v>250</v>
       </c>
       <c r="N10" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="O10" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="P10" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
@@ -1186,7 +1186,7 @@
         </is>
       </c>
       <c r="S10" t="n">
-        <v>389</v>
+        <v>444</v>
       </c>
       <c r="T10" t="n">
         <v>18</v>
@@ -1207,7 +1207,7 @@
         </is>
       </c>
       <c r="D11" s="2" t="n">
-        <v>44350</v>
+        <v>44326</v>
       </c>
       <c r="E11" t="n">
         <v>7</v>
@@ -1240,33 +1240,33 @@
       </c>
       <c r="L11" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M11" t="n">
-        <v>150</v>
+        <v>130</v>
       </c>
       <c r="N11" t="n">
-        <v>7000</v>
+        <v>14000</v>
       </c>
       <c r="O11" t="n">
-        <v>7000</v>
+        <v>14000</v>
       </c>
       <c r="P11" t="n">
-        <v>7000</v>
+        <v>14000</v>
       </c>
       <c r="Q11" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos granel</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="R11" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S11" t="n">
-        <v>389</v>
+        <v>778</v>
       </c>
       <c r="T11" t="n">
         <v>18</v>
@@ -1287,7 +1287,7 @@
         </is>
       </c>
       <c r="D12" s="2" t="n">
-        <v>44356</v>
+        <v>44326</v>
       </c>
       <c r="E12" t="n">
         <v>7</v>
@@ -1320,11 +1320,11 @@
       </c>
       <c r="L12" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M12" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="N12" t="n">
         <v>12000</v>
@@ -1367,7 +1367,7 @@
         </is>
       </c>
       <c r="D13" s="2" t="n">
-        <v>44356</v>
+        <v>44428</v>
       </c>
       <c r="E13" t="n">
         <v>7</v>
@@ -1400,20 +1400,20 @@
       </c>
       <c r="L13" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M13" t="n">
-        <v>140</v>
+        <v>230</v>
       </c>
       <c r="N13" t="n">
-        <v>10000</v>
+        <v>14000</v>
       </c>
       <c r="O13" t="n">
-        <v>10000</v>
+        <v>14000</v>
       </c>
       <c r="P13" t="n">
-        <v>10000</v>
+        <v>14000</v>
       </c>
       <c r="Q13" t="inlineStr">
         <is>
@@ -1426,7 +1426,7 @@
         </is>
       </c>
       <c r="S13" t="n">
-        <v>556</v>
+        <v>778</v>
       </c>
       <c r="T13" t="n">
         <v>18</v>
@@ -1447,7 +1447,7 @@
         </is>
       </c>
       <c r="D14" s="2" t="n">
-        <v>44356</v>
+        <v>44428</v>
       </c>
       <c r="E14" t="n">
         <v>7</v>
@@ -1480,20 +1480,20 @@
       </c>
       <c r="L14" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M14" t="n">
-        <v>80</v>
+        <v>200</v>
       </c>
       <c r="N14" t="n">
-        <v>8000</v>
+        <v>12000</v>
       </c>
       <c r="O14" t="n">
-        <v>8000</v>
+        <v>12000</v>
       </c>
       <c r="P14" t="n">
-        <v>8000</v>
+        <v>12000</v>
       </c>
       <c r="Q14" t="inlineStr">
         <is>
@@ -1506,7 +1506,7 @@
         </is>
       </c>
       <c r="S14" t="n">
-        <v>444</v>
+        <v>667</v>
       </c>
       <c r="T14" t="n">
         <v>18</v>
@@ -1527,7 +1527,7 @@
         </is>
       </c>
       <c r="D15" s="2" t="n">
-        <v>44326</v>
+        <v>44428</v>
       </c>
       <c r="E15" t="n">
         <v>7</v>
@@ -1560,24 +1560,24 @@
       </c>
       <c r="L15" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M15" t="n">
-        <v>130</v>
+        <v>120</v>
       </c>
       <c r="N15" t="n">
-        <v>14000</v>
+        <v>8000</v>
       </c>
       <c r="O15" t="n">
-        <v>14000</v>
+        <v>8000</v>
       </c>
       <c r="P15" t="n">
-        <v>14000</v>
+        <v>8000</v>
       </c>
       <c r="Q15" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="R15" t="inlineStr">
@@ -1586,7 +1586,7 @@
         </is>
       </c>
       <c r="S15" t="n">
-        <v>778</v>
+        <v>444</v>
       </c>
       <c r="T15" t="n">
         <v>18</v>
@@ -1607,7 +1607,7 @@
         </is>
       </c>
       <c r="D16" s="2" t="n">
-        <v>44326</v>
+        <v>44454</v>
       </c>
       <c r="E16" t="n">
         <v>7</v>
@@ -1687,7 +1687,7 @@
         </is>
       </c>
       <c r="D17" s="2" t="n">
-        <v>44349</v>
+        <v>44454</v>
       </c>
       <c r="E17" t="n">
         <v>7</v>
@@ -1720,11 +1720,11 @@
       </c>
       <c r="L17" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M17" t="n">
-        <v>180</v>
+        <v>80</v>
       </c>
       <c r="N17" t="n">
         <v>10000</v>
@@ -1767,7 +1767,7 @@
         </is>
       </c>
       <c r="D18" s="2" t="n">
-        <v>44349</v>
+        <v>44398</v>
       </c>
       <c r="E18" t="n">
         <v>7</v>
@@ -1800,20 +1800,20 @@
       </c>
       <c r="L18" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M18" t="n">
-        <v>230</v>
+        <v>150</v>
       </c>
       <c r="N18" t="n">
-        <v>8000</v>
+        <v>13000</v>
       </c>
       <c r="O18" t="n">
-        <v>8000</v>
+        <v>13000</v>
       </c>
       <c r="P18" t="n">
-        <v>8000</v>
+        <v>13000</v>
       </c>
       <c r="Q18" t="inlineStr">
         <is>
@@ -1826,7 +1826,7 @@
         </is>
       </c>
       <c r="S18" t="n">
-        <v>444</v>
+        <v>722</v>
       </c>
       <c r="T18" t="n">
         <v>18</v>
@@ -1847,7 +1847,7 @@
         </is>
       </c>
       <c r="D19" s="2" t="n">
-        <v>44327</v>
+        <v>44398</v>
       </c>
       <c r="E19" t="n">
         <v>7</v>
@@ -1880,36 +1880,36 @@
       </c>
       <c r="L19" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M19" t="n">
-        <v>300</v>
+        <v>180</v>
       </c>
       <c r="N19" t="n">
-        <v>9000</v>
+        <v>13000</v>
       </c>
       <c r="O19" t="n">
-        <v>9000</v>
+        <v>13000</v>
       </c>
       <c r="P19" t="n">
-        <v>9000</v>
+        <v>13000</v>
       </c>
       <c r="Q19" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="R19" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S19" t="n">
-        <v>900</v>
+        <v>722</v>
       </c>
       <c r="T19" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
     </row>
     <row r="20">
@@ -1927,7 +1927,7 @@
         </is>
       </c>
       <c r="D20" s="2" t="n">
-        <v>44280</v>
+        <v>44398</v>
       </c>
       <c r="E20" t="n">
         <v>7</v>
@@ -1964,7 +1964,7 @@
         </is>
       </c>
       <c r="M20" t="n">
-        <v>100</v>
+        <v>260</v>
       </c>
       <c r="N20" t="n">
         <v>10000</v>
@@ -1977,7 +1977,7 @@
       </c>
       <c r="Q20" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="R20" t="inlineStr">
@@ -1986,10 +1986,10 @@
         </is>
       </c>
       <c r="S20" t="n">
-        <v>1000</v>
+        <v>556</v>
       </c>
       <c r="T20" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
     </row>
     <row r="21">
@@ -2007,7 +2007,7 @@
         </is>
       </c>
       <c r="D21" s="2" t="n">
-        <v>44280</v>
+        <v>44398</v>
       </c>
       <c r="E21" t="n">
         <v>7</v>
@@ -2040,36 +2040,36 @@
       </c>
       <c r="L21" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M21" t="n">
-        <v>60</v>
+        <v>220</v>
       </c>
       <c r="N21" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="O21" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="P21" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="Q21" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="R21" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S21" t="n">
-        <v>800</v>
+        <v>500</v>
       </c>
       <c r="T21" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
     </row>
     <row r="22">
@@ -2087,7 +2087,7 @@
         </is>
       </c>
       <c r="D22" s="2" t="n">
-        <v>44383</v>
+        <v>44379</v>
       </c>
       <c r="E22" t="n">
         <v>7</v>
@@ -2120,20 +2120,20 @@
       </c>
       <c r="L22" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M22" t="n">
-        <v>210</v>
+        <v>200</v>
       </c>
       <c r="N22" t="n">
-        <v>9000</v>
+        <v>12000</v>
       </c>
       <c r="O22" t="n">
-        <v>9000</v>
+        <v>12000</v>
       </c>
       <c r="P22" t="n">
-        <v>9000</v>
+        <v>12000</v>
       </c>
       <c r="Q22" t="inlineStr">
         <is>
@@ -2146,7 +2146,7 @@
         </is>
       </c>
       <c r="S22" t="n">
-        <v>500</v>
+        <v>667</v>
       </c>
       <c r="T22" t="n">
         <v>18</v>
@@ -2167,7 +2167,7 @@
         </is>
       </c>
       <c r="D23" s="2" t="n">
-        <v>44383</v>
+        <v>44379</v>
       </c>
       <c r="E23" t="n">
         <v>7</v>
@@ -2204,20 +2204,20 @@
         </is>
       </c>
       <c r="M23" t="n">
-        <v>260</v>
+        <v>160</v>
       </c>
       <c r="N23" t="n">
-        <v>6000</v>
+        <v>10000</v>
       </c>
       <c r="O23" t="n">
-        <v>6000</v>
+        <v>10000</v>
       </c>
       <c r="P23" t="n">
-        <v>6000</v>
+        <v>10000</v>
       </c>
       <c r="Q23" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="R23" t="inlineStr">
@@ -2226,10 +2226,10 @@
         </is>
       </c>
       <c r="S23" t="n">
-        <v>600</v>
+        <v>556</v>
       </c>
       <c r="T23" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
     </row>
     <row r="24">
@@ -2247,7 +2247,7 @@
         </is>
       </c>
       <c r="D24" s="2" t="n">
-        <v>44364</v>
+        <v>44384</v>
       </c>
       <c r="E24" t="n">
         <v>7</v>
@@ -2280,24 +2280,24 @@
       </c>
       <c r="L24" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M24" t="n">
-        <v>160</v>
+        <v>500</v>
       </c>
       <c r="N24" t="n">
-        <v>12000</v>
+        <v>6000</v>
       </c>
       <c r="O24" t="n">
-        <v>12000</v>
+        <v>6000</v>
       </c>
       <c r="P24" t="n">
-        <v>12000</v>
+        <v>6000</v>
       </c>
       <c r="Q24" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="R24" t="inlineStr">
@@ -2306,10 +2306,10 @@
         </is>
       </c>
       <c r="S24" t="n">
-        <v>667</v>
+        <v>600</v>
       </c>
       <c r="T24" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="25">
@@ -2327,7 +2327,7 @@
         </is>
       </c>
       <c r="D25" s="2" t="n">
-        <v>44364</v>
+        <v>44314</v>
       </c>
       <c r="E25" t="n">
         <v>7</v>
@@ -2360,24 +2360,24 @@
       </c>
       <c r="L25" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M25" t="n">
-        <v>240</v>
+        <v>150</v>
       </c>
       <c r="N25" t="n">
-        <v>10000</v>
+        <v>11000</v>
       </c>
       <c r="O25" t="n">
-        <v>10000</v>
+        <v>11000</v>
       </c>
       <c r="P25" t="n">
-        <v>10000</v>
+        <v>11000</v>
       </c>
       <c r="Q25" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R25" t="inlineStr">
@@ -2386,10 +2386,10 @@
         </is>
       </c>
       <c r="S25" t="n">
-        <v>556</v>
+        <v>1100</v>
       </c>
       <c r="T25" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="26">
@@ -2407,7 +2407,7 @@
         </is>
       </c>
       <c r="D26" s="2" t="n">
-        <v>44364</v>
+        <v>44314</v>
       </c>
       <c r="E26" t="n">
         <v>7</v>
@@ -2440,24 +2440,24 @@
       </c>
       <c r="L26" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M26" t="n">
-        <v>80</v>
+        <v>60</v>
       </c>
       <c r="N26" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="O26" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="P26" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="Q26" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R26" t="inlineStr">
@@ -2466,10 +2466,10 @@
         </is>
       </c>
       <c r="S26" t="n">
-        <v>444</v>
+        <v>900</v>
       </c>
       <c r="T26" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="27">
@@ -2487,7 +2487,7 @@
         </is>
       </c>
       <c r="D27" s="2" t="n">
-        <v>44336</v>
+        <v>44349</v>
       </c>
       <c r="E27" t="n">
         <v>7</v>
@@ -2520,24 +2520,24 @@
       </c>
       <c r="L27" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M27" t="n">
-        <v>250</v>
+        <v>180</v>
       </c>
       <c r="N27" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="O27" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="P27" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="Q27" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="R27" t="inlineStr">
@@ -2546,10 +2546,10 @@
         </is>
       </c>
       <c r="S27" t="n">
-        <v>800</v>
+        <v>556</v>
       </c>
       <c r="T27" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
     </row>
     <row r="28">
@@ -2567,7 +2567,7 @@
         </is>
       </c>
       <c r="D28" s="2" t="n">
-        <v>44389</v>
+        <v>44349</v>
       </c>
       <c r="E28" t="n">
         <v>7</v>
@@ -2604,20 +2604,20 @@
         </is>
       </c>
       <c r="M28" t="n">
-        <v>300</v>
+        <v>230</v>
       </c>
       <c r="N28" t="n">
-        <v>6000</v>
+        <v>8000</v>
       </c>
       <c r="O28" t="n">
-        <v>6000</v>
+        <v>8000</v>
       </c>
       <c r="P28" t="n">
-        <v>6000</v>
+        <v>8000</v>
       </c>
       <c r="Q28" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="R28" t="inlineStr">
@@ -2626,10 +2626,10 @@
         </is>
       </c>
       <c r="S28" t="n">
-        <v>600</v>
+        <v>444</v>
       </c>
       <c r="T28" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
     </row>
     <row r="29">
@@ -2647,7 +2647,7 @@
         </is>
       </c>
       <c r="D29" s="2" t="n">
-        <v>44382</v>
+        <v>44412</v>
       </c>
       <c r="E29" t="n">
         <v>7</v>
@@ -2684,16 +2684,16 @@
         </is>
       </c>
       <c r="M29" t="n">
-        <v>150</v>
+        <v>180</v>
       </c>
       <c r="N29" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="O29" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="P29" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="Q29" t="inlineStr">
         <is>
@@ -2706,7 +2706,7 @@
         </is>
       </c>
       <c r="S29" t="n">
-        <v>667</v>
+        <v>778</v>
       </c>
       <c r="T29" t="n">
         <v>18</v>
@@ -2727,7 +2727,7 @@
         </is>
       </c>
       <c r="D30" s="2" t="n">
-        <v>44382</v>
+        <v>44412</v>
       </c>
       <c r="E30" t="n">
         <v>7</v>
@@ -2764,16 +2764,16 @@
         </is>
       </c>
       <c r="M30" t="n">
-        <v>200</v>
+        <v>230</v>
       </c>
       <c r="N30" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="O30" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="P30" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="Q30" t="inlineStr">
         <is>
@@ -2786,7 +2786,7 @@
         </is>
       </c>
       <c r="S30" t="n">
-        <v>556</v>
+        <v>667</v>
       </c>
       <c r="T30" t="n">
         <v>18</v>
@@ -2807,7 +2807,7 @@
         </is>
       </c>
       <c r="D31" s="2" t="n">
-        <v>44306</v>
+        <v>44329</v>
       </c>
       <c r="E31" t="n">
         <v>7</v>
@@ -2840,24 +2840,24 @@
       </c>
       <c r="L31" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M31" t="n">
-        <v>230</v>
+        <v>300</v>
       </c>
       <c r="N31" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="O31" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="P31" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="Q31" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="R31" t="inlineStr">
@@ -2866,7 +2866,7 @@
         </is>
       </c>
       <c r="S31" t="n">
-        <v>1000</v>
+        <v>800</v>
       </c>
       <c r="T31" t="n">
         <v>10</v>
@@ -2887,7 +2887,7 @@
         </is>
       </c>
       <c r="D32" s="2" t="n">
-        <v>44306</v>
+        <v>44364</v>
       </c>
       <c r="E32" t="n">
         <v>7</v>
@@ -2924,16 +2924,16 @@
         </is>
       </c>
       <c r="M32" t="n">
-        <v>180</v>
+        <v>160</v>
       </c>
       <c r="N32" t="n">
-        <v>13000</v>
+        <v>12000</v>
       </c>
       <c r="O32" t="n">
-        <v>13000</v>
+        <v>12000</v>
       </c>
       <c r="P32" t="n">
-        <v>13000</v>
+        <v>12000</v>
       </c>
       <c r="Q32" t="inlineStr">
         <is>
@@ -2946,7 +2946,7 @@
         </is>
       </c>
       <c r="S32" t="n">
-        <v>722</v>
+        <v>667</v>
       </c>
       <c r="T32" t="n">
         <v>18</v>
@@ -2967,7 +2967,7 @@
         </is>
       </c>
       <c r="D33" s="2" t="n">
-        <v>44306</v>
+        <v>44364</v>
       </c>
       <c r="E33" t="n">
         <v>7</v>
@@ -3004,20 +3004,20 @@
         </is>
       </c>
       <c r="M33" t="n">
-        <v>230</v>
+        <v>240</v>
       </c>
       <c r="N33" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="O33" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="P33" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="Q33" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="R33" t="inlineStr">
@@ -3026,10 +3026,10 @@
         </is>
       </c>
       <c r="S33" t="n">
-        <v>800</v>
+        <v>556</v>
       </c>
       <c r="T33" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
     </row>
     <row r="34">
@@ -3047,7 +3047,7 @@
         </is>
       </c>
       <c r="D34" s="2" t="n">
-        <v>44285</v>
+        <v>44364</v>
       </c>
       <c r="E34" t="n">
         <v>7</v>
@@ -3080,36 +3080,36 @@
       </c>
       <c r="L34" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M34" t="n">
-        <v>300</v>
+        <v>80</v>
       </c>
       <c r="N34" t="n">
-        <v>9000</v>
+        <v>8000</v>
       </c>
       <c r="O34" t="n">
-        <v>9000</v>
+        <v>8000</v>
       </c>
       <c r="P34" t="n">
-        <v>9000</v>
+        <v>8000</v>
       </c>
       <c r="Q34" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="R34" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S34" t="n">
-        <v>900</v>
+        <v>444</v>
       </c>
       <c r="T34" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
     </row>
     <row r="35">
@@ -3127,7 +3127,7 @@
         </is>
       </c>
       <c r="D35" s="2" t="n">
-        <v>44285</v>
+        <v>44330</v>
       </c>
       <c r="E35" t="n">
         <v>7</v>
@@ -3160,36 +3160,36 @@
       </c>
       <c r="L35" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M35" t="n">
-        <v>150</v>
+        <v>300</v>
       </c>
       <c r="N35" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="O35" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="P35" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="Q35" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="R35" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S35" t="n">
-        <v>700</v>
+        <v>556</v>
       </c>
       <c r="T35" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
     </row>
     <row r="36">
@@ -3207,7 +3207,7 @@
         </is>
       </c>
       <c r="D36" s="2" t="n">
-        <v>44390</v>
+        <v>44330</v>
       </c>
       <c r="E36" t="n">
         <v>7</v>
@@ -3244,16 +3244,16 @@
         </is>
       </c>
       <c r="M36" t="n">
-        <v>250</v>
+        <v>180</v>
       </c>
       <c r="N36" t="n">
-        <v>9000</v>
+        <v>8000</v>
       </c>
       <c r="O36" t="n">
-        <v>9000</v>
+        <v>8000</v>
       </c>
       <c r="P36" t="n">
-        <v>9000</v>
+        <v>8000</v>
       </c>
       <c r="Q36" t="inlineStr">
         <is>
@@ -3266,7 +3266,7 @@
         </is>
       </c>
       <c r="S36" t="n">
-        <v>500</v>
+        <v>444</v>
       </c>
       <c r="T36" t="n">
         <v>18</v>
@@ -3287,7 +3287,7 @@
         </is>
       </c>
       <c r="D37" s="2" t="n">
-        <v>44445</v>
+        <v>44377</v>
       </c>
       <c r="E37" t="n">
         <v>7</v>
@@ -3324,16 +3324,16 @@
         </is>
       </c>
       <c r="M37" t="n">
-        <v>200</v>
+        <v>150</v>
       </c>
       <c r="N37" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="O37" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="P37" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="Q37" t="inlineStr">
         <is>
@@ -3346,7 +3346,7 @@
         </is>
       </c>
       <c r="S37" t="n">
-        <v>667</v>
+        <v>556</v>
       </c>
       <c r="T37" t="n">
         <v>18</v>
@@ -3367,7 +3367,7 @@
         </is>
       </c>
       <c r="D38" s="2" t="n">
-        <v>44425</v>
+        <v>44377</v>
       </c>
       <c r="E38" t="n">
         <v>7</v>
@@ -3400,24 +3400,24 @@
       </c>
       <c r="L38" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M38" t="n">
-        <v>300</v>
+        <v>210</v>
       </c>
       <c r="N38" t="n">
-        <v>8000</v>
+        <v>6000</v>
       </c>
       <c r="O38" t="n">
-        <v>8000</v>
+        <v>6000</v>
       </c>
       <c r="P38" t="n">
-        <v>8000</v>
+        <v>6000</v>
       </c>
       <c r="Q38" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="R38" t="inlineStr">
@@ -3426,10 +3426,10 @@
         </is>
       </c>
       <c r="S38" t="n">
-        <v>444</v>
+        <v>600</v>
       </c>
       <c r="T38" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="39">
@@ -3447,7 +3447,7 @@
         </is>
       </c>
       <c r="D39" s="2" t="n">
-        <v>44386</v>
+        <v>44377</v>
       </c>
       <c r="E39" t="n">
         <v>7</v>
@@ -3480,11 +3480,11 @@
       </c>
       <c r="L39" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="M39" t="n">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="N39" t="n">
         <v>6000</v>
@@ -3497,7 +3497,7 @@
       </c>
       <c r="Q39" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="R39" t="inlineStr">
@@ -3506,10 +3506,10 @@
         </is>
       </c>
       <c r="S39" t="n">
-        <v>600</v>
+        <v>333</v>
       </c>
       <c r="T39" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
     </row>
     <row r="40">
@@ -3527,7 +3527,7 @@
         </is>
       </c>
       <c r="D40" s="2" t="n">
-        <v>44403</v>
+        <v>44348</v>
       </c>
       <c r="E40" t="n">
         <v>7</v>
@@ -3564,16 +3564,16 @@
         </is>
       </c>
       <c r="M40" t="n">
-        <v>350</v>
+        <v>230</v>
       </c>
       <c r="N40" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="O40" t="n">
         <v>10000</v>
       </c>
       <c r="P40" t="n">
-        <v>9429</v>
+        <v>10000</v>
       </c>
       <c r="Q40" t="inlineStr">
         <is>
@@ -3586,7 +3586,7 @@
         </is>
       </c>
       <c r="S40" t="n">
-        <v>524</v>
+        <v>556</v>
       </c>
       <c r="T40" t="n">
         <v>18</v>
@@ -3607,7 +3607,7 @@
         </is>
       </c>
       <c r="D41" s="2" t="n">
-        <v>44403</v>
+        <v>44348</v>
       </c>
       <c r="E41" t="n">
         <v>7</v>
@@ -3644,7 +3644,7 @@
         </is>
       </c>
       <c r="M41" t="n">
-        <v>250</v>
+        <v>190</v>
       </c>
       <c r="N41" t="n">
         <v>8000</v>
@@ -3687,7 +3687,7 @@
         </is>
       </c>
       <c r="D42" s="2" t="n">
-        <v>44266</v>
+        <v>44435</v>
       </c>
       <c r="E42" t="n">
         <v>7</v>
@@ -3720,20 +3720,20 @@
       </c>
       <c r="L42" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M42" t="n">
-        <v>210</v>
+        <v>390</v>
       </c>
       <c r="N42" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="O42" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="P42" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="Q42" t="inlineStr">
         <is>
@@ -3746,7 +3746,7 @@
         </is>
       </c>
       <c r="S42" t="n">
-        <v>667</v>
+        <v>778</v>
       </c>
       <c r="T42" t="n">
         <v>18</v>
@@ -3767,7 +3767,7 @@
         </is>
       </c>
       <c r="D43" s="2" t="n">
-        <v>44354</v>
+        <v>44435</v>
       </c>
       <c r="E43" t="n">
         <v>7</v>
@@ -3804,32 +3804,32 @@
         </is>
       </c>
       <c r="M43" t="n">
-        <v>180</v>
+        <v>160</v>
       </c>
       <c r="N43" t="n">
-        <v>12000</v>
+        <v>8000</v>
       </c>
       <c r="O43" t="n">
-        <v>12000</v>
+        <v>8000</v>
       </c>
       <c r="P43" t="n">
-        <v>12000</v>
+        <v>8000</v>
       </c>
       <c r="Q43" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="R43" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S43" t="n">
-        <v>667</v>
+        <v>800</v>
       </c>
       <c r="T43" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="44">
@@ -3847,7 +3847,7 @@
         </is>
       </c>
       <c r="D44" s="2" t="n">
-        <v>44354</v>
+        <v>44435</v>
       </c>
       <c r="E44" t="n">
         <v>7</v>
@@ -3880,33 +3880,33 @@
       </c>
       <c r="L44" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M44" t="n">
-        <v>100</v>
+        <v>330</v>
       </c>
       <c r="N44" t="n">
-        <v>10000</v>
+        <v>14000</v>
       </c>
       <c r="O44" t="n">
-        <v>10000</v>
+        <v>14000</v>
       </c>
       <c r="P44" t="n">
-        <v>10000</v>
+        <v>14000</v>
       </c>
       <c r="Q44" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="R44" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S44" t="n">
-        <v>556</v>
+        <v>778</v>
       </c>
       <c r="T44" t="n">
         <v>18</v>
@@ -3927,7 +3927,7 @@
         </is>
       </c>
       <c r="D45" s="2" t="n">
-        <v>44333</v>
+        <v>44435</v>
       </c>
       <c r="E45" t="n">
         <v>7</v>
@@ -3960,11 +3960,11 @@
       </c>
       <c r="L45" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M45" t="n">
-        <v>150</v>
+        <v>250</v>
       </c>
       <c r="N45" t="n">
         <v>12000</v>
@@ -3982,7 +3982,7 @@
       </c>
       <c r="R45" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S45" t="n">
@@ -4007,7 +4007,7 @@
         </is>
       </c>
       <c r="D46" s="2" t="n">
-        <v>44333</v>
+        <v>44435</v>
       </c>
       <c r="E46" t="n">
         <v>7</v>
@@ -4044,32 +4044,32 @@
         </is>
       </c>
       <c r="M46" t="n">
-        <v>100</v>
+        <v>230</v>
       </c>
       <c r="N46" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="O46" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="P46" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="Q46" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="R46" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S46" t="n">
-        <v>556</v>
+        <v>700</v>
       </c>
       <c r="T46" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="47">
@@ -4087,7 +4087,7 @@
         </is>
       </c>
       <c r="D47" s="2" t="n">
-        <v>44453</v>
+        <v>44435</v>
       </c>
       <c r="E47" t="n">
         <v>7</v>
@@ -4124,7 +4124,7 @@
         </is>
       </c>
       <c r="M47" t="n">
-        <v>250</v>
+        <v>180</v>
       </c>
       <c r="N47" t="n">
         <v>12000</v>
@@ -4137,7 +4137,7 @@
       </c>
       <c r="Q47" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="R47" t="inlineStr">
@@ -4146,10 +4146,10 @@
         </is>
       </c>
       <c r="S47" t="n">
-        <v>1200</v>
+        <v>667</v>
       </c>
       <c r="T47" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
     </row>
     <row r="48">
@@ -4167,7 +4167,7 @@
         </is>
       </c>
       <c r="D48" s="2" t="n">
-        <v>44323</v>
+        <v>44435</v>
       </c>
       <c r="E48" t="n">
         <v>7</v>
@@ -4200,11 +4200,11 @@
       </c>
       <c r="L48" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M48" t="n">
-        <v>150</v>
+        <v>240</v>
       </c>
       <c r="N48" t="n">
         <v>10000</v>
@@ -4217,7 +4217,7 @@
       </c>
       <c r="Q48" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="R48" t="inlineStr">
@@ -4226,10 +4226,10 @@
         </is>
       </c>
       <c r="S48" t="n">
-        <v>1000</v>
+        <v>556</v>
       </c>
       <c r="T48" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
     </row>
     <row r="49">
@@ -4247,7 +4247,7 @@
         </is>
       </c>
       <c r="D49" s="2" t="n">
-        <v>44323</v>
+        <v>44313</v>
       </c>
       <c r="E49" t="n">
         <v>7</v>
@@ -4284,7 +4284,7 @@
         </is>
       </c>
       <c r="M49" t="n">
-        <v>100</v>
+        <v>350</v>
       </c>
       <c r="N49" t="n">
         <v>9000</v>
@@ -4327,7 +4327,7 @@
         </is>
       </c>
       <c r="D50" s="2" t="n">
-        <v>44281</v>
+        <v>44313</v>
       </c>
       <c r="E50" t="n">
         <v>7</v>
@@ -4360,20 +4360,20 @@
       </c>
       <c r="L50" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="M50" t="n">
-        <v>210</v>
+        <v>250</v>
       </c>
       <c r="N50" t="n">
-        <v>10000</v>
+        <v>6000</v>
       </c>
       <c r="O50" t="n">
-        <v>10000</v>
+        <v>6000</v>
       </c>
       <c r="P50" t="n">
-        <v>10000</v>
+        <v>6000</v>
       </c>
       <c r="Q50" t="inlineStr">
         <is>
@@ -4386,7 +4386,7 @@
         </is>
       </c>
       <c r="S50" t="n">
-        <v>1000</v>
+        <v>600</v>
       </c>
       <c r="T50" t="n">
         <v>10</v>
@@ -4407,7 +4407,7 @@
         </is>
       </c>
       <c r="D51" s="2" t="n">
-        <v>44308</v>
+        <v>44445</v>
       </c>
       <c r="E51" t="n">
         <v>7</v>
@@ -4440,20 +4440,20 @@
       </c>
       <c r="L51" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M51" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="N51" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="O51" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="P51" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="Q51" t="inlineStr">
         <is>
@@ -4466,7 +4466,7 @@
         </is>
       </c>
       <c r="S51" t="n">
-        <v>778</v>
+        <v>667</v>
       </c>
       <c r="T51" t="n">
         <v>18</v>
@@ -4487,7 +4487,7 @@
         </is>
       </c>
       <c r="D52" s="2" t="n">
-        <v>44363</v>
+        <v>44263</v>
       </c>
       <c r="E52" t="n">
         <v>7</v>
@@ -4524,20 +4524,20 @@
         </is>
       </c>
       <c r="M52" t="n">
-        <v>280</v>
+        <v>180</v>
       </c>
       <c r="N52" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="O52" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="P52" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="Q52" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R52" t="inlineStr">
@@ -4546,10 +4546,10 @@
         </is>
       </c>
       <c r="S52" t="n">
-        <v>556</v>
+        <v>1200</v>
       </c>
       <c r="T52" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="53">
@@ -4567,7 +4567,7 @@
         </is>
       </c>
       <c r="D53" s="2" t="n">
-        <v>44363</v>
+        <v>44449</v>
       </c>
       <c r="E53" t="n">
         <v>7</v>
@@ -4600,20 +4600,20 @@
       </c>
       <c r="L53" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M53" t="n">
         <v>300</v>
       </c>
       <c r="N53" t="n">
-        <v>8000</v>
+        <v>12000</v>
       </c>
       <c r="O53" t="n">
-        <v>8000</v>
+        <v>12000</v>
       </c>
       <c r="P53" t="n">
-        <v>8000</v>
+        <v>12000</v>
       </c>
       <c r="Q53" t="inlineStr">
         <is>
@@ -4622,11 +4622,11 @@
       </c>
       <c r="R53" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S53" t="n">
-        <v>444</v>
+        <v>667</v>
       </c>
       <c r="T53" t="n">
         <v>18</v>
@@ -4647,7 +4647,7 @@
         </is>
       </c>
       <c r="D54" s="2" t="n">
-        <v>44355</v>
+        <v>44322</v>
       </c>
       <c r="E54" t="n">
         <v>7</v>
@@ -4680,20 +4680,20 @@
       </c>
       <c r="L54" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M54" t="n">
-        <v>300</v>
+        <v>210</v>
       </c>
       <c r="N54" t="n">
-        <v>6000</v>
+        <v>10000</v>
       </c>
       <c r="O54" t="n">
-        <v>6000</v>
+        <v>10000</v>
       </c>
       <c r="P54" t="n">
-        <v>6000</v>
+        <v>10000</v>
       </c>
       <c r="Q54" t="inlineStr">
         <is>
@@ -4706,7 +4706,7 @@
         </is>
       </c>
       <c r="S54" t="n">
-        <v>600</v>
+        <v>1000</v>
       </c>
       <c r="T54" t="n">
         <v>10</v>
@@ -4727,7 +4727,7 @@
         </is>
       </c>
       <c r="D55" s="2" t="n">
-        <v>44372</v>
+        <v>44333</v>
       </c>
       <c r="E55" t="n">
         <v>7</v>
@@ -4764,16 +4764,16 @@
         </is>
       </c>
       <c r="M55" t="n">
-        <v>130</v>
+        <v>150</v>
       </c>
       <c r="N55" t="n">
-        <v>11000</v>
+        <v>12000</v>
       </c>
       <c r="O55" t="n">
-        <v>11000</v>
+        <v>12000</v>
       </c>
       <c r="P55" t="n">
-        <v>11000</v>
+        <v>12000</v>
       </c>
       <c r="Q55" t="inlineStr">
         <is>
@@ -4782,11 +4782,11 @@
       </c>
       <c r="R55" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="S55" t="n">
-        <v>611</v>
+        <v>667</v>
       </c>
       <c r="T55" t="n">
         <v>18</v>
@@ -4807,7 +4807,7 @@
         </is>
       </c>
       <c r="D56" s="2" t="n">
-        <v>44372</v>
+        <v>44333</v>
       </c>
       <c r="E56" t="n">
         <v>7</v>
@@ -4844,16 +4844,16 @@
         </is>
       </c>
       <c r="M56" t="n">
-        <v>120</v>
+        <v>100</v>
       </c>
       <c r="N56" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="O56" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="P56" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="Q56" t="inlineStr">
         <is>
@@ -4862,11 +4862,11 @@
       </c>
       <c r="R56" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="S56" t="n">
-        <v>500</v>
+        <v>556</v>
       </c>
       <c r="T56" t="n">
         <v>18</v>
@@ -4887,7 +4887,7 @@
         </is>
       </c>
       <c r="D57" s="2" t="n">
-        <v>44372</v>
+        <v>44355</v>
       </c>
       <c r="E57" t="n">
         <v>7</v>
@@ -4924,20 +4924,20 @@
         </is>
       </c>
       <c r="M57" t="n">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="N57" t="n">
-        <v>7000</v>
+        <v>6000</v>
       </c>
       <c r="O57" t="n">
-        <v>7000</v>
+        <v>6000</v>
       </c>
       <c r="P57" t="n">
-        <v>7000</v>
+        <v>6000</v>
       </c>
       <c r="Q57" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R57" t="inlineStr">
@@ -4946,10 +4946,10 @@
         </is>
       </c>
       <c r="S57" t="n">
-        <v>389</v>
+        <v>600</v>
       </c>
       <c r="T57" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="58">
@@ -4967,7 +4967,7 @@
         </is>
       </c>
       <c r="D58" s="2" t="n">
-        <v>44418</v>
+        <v>44446</v>
       </c>
       <c r="E58" t="n">
         <v>7</v>
@@ -5004,7 +5004,7 @@
         </is>
       </c>
       <c r="M58" t="n">
-        <v>100</v>
+        <v>180</v>
       </c>
       <c r="N58" t="n">
         <v>14000</v>
@@ -5047,7 +5047,7 @@
         </is>
       </c>
       <c r="D59" s="2" t="n">
-        <v>44418</v>
+        <v>44446</v>
       </c>
       <c r="E59" t="n">
         <v>7</v>
@@ -5084,7 +5084,7 @@
         </is>
       </c>
       <c r="M59" t="n">
-        <v>200</v>
+        <v>230</v>
       </c>
       <c r="N59" t="n">
         <v>12000</v>
@@ -5127,7 +5127,7 @@
         </is>
       </c>
       <c r="D60" s="2" t="n">
-        <v>44418</v>
+        <v>44446</v>
       </c>
       <c r="E60" t="n">
         <v>7</v>
@@ -5164,7 +5164,7 @@
         </is>
       </c>
       <c r="M60" t="n">
-        <v>90</v>
+        <v>150</v>
       </c>
       <c r="N60" t="n">
         <v>10000</v>
@@ -5207,7 +5207,7 @@
         </is>
       </c>
       <c r="D61" s="2" t="n">
-        <v>44407</v>
+        <v>44299</v>
       </c>
       <c r="E61" t="n">
         <v>7</v>
@@ -5240,11 +5240,11 @@
       </c>
       <c r="L61" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M61" t="n">
-        <v>60</v>
+        <v>200</v>
       </c>
       <c r="N61" t="n">
         <v>13000</v>
@@ -5287,7 +5287,7 @@
         </is>
       </c>
       <c r="D62" s="2" t="n">
-        <v>44407</v>
+        <v>44320</v>
       </c>
       <c r="E62" t="n">
         <v>7</v>
@@ -5320,20 +5320,20 @@
       </c>
       <c r="L62" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M62" t="n">
-        <v>150</v>
+        <v>120</v>
       </c>
       <c r="N62" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="O62" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="P62" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="Q62" t="inlineStr">
         <is>
@@ -5346,7 +5346,7 @@
         </is>
       </c>
       <c r="S62" t="n">
-        <v>556</v>
+        <v>722</v>
       </c>
       <c r="T62" t="n">
         <v>18</v>
@@ -5367,7 +5367,7 @@
         </is>
       </c>
       <c r="D63" s="2" t="n">
-        <v>44407</v>
+        <v>44320</v>
       </c>
       <c r="E63" t="n">
         <v>7</v>
@@ -5400,24 +5400,24 @@
       </c>
       <c r="L63" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M63" t="n">
-        <v>100</v>
+        <v>150</v>
       </c>
       <c r="N63" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="O63" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="P63" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="Q63" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="R63" t="inlineStr">
@@ -5426,10 +5426,10 @@
         </is>
       </c>
       <c r="S63" t="n">
-        <v>444</v>
+        <v>1000</v>
       </c>
       <c r="T63" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="64">
@@ -5447,7 +5447,7 @@
         </is>
       </c>
       <c r="D64" s="2" t="n">
-        <v>44410</v>
+        <v>44320</v>
       </c>
       <c r="E64" t="n">
         <v>7</v>
@@ -5484,20 +5484,20 @@
         </is>
       </c>
       <c r="M64" t="n">
-        <v>230</v>
+        <v>300</v>
       </c>
       <c r="N64" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="O64" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="P64" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="Q64" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R64" t="inlineStr">
@@ -5506,10 +5506,10 @@
         </is>
       </c>
       <c r="S64" t="n">
-        <v>667</v>
+        <v>1000</v>
       </c>
       <c r="T64" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="65">
@@ -5527,7 +5527,7 @@
         </is>
       </c>
       <c r="D65" s="2" t="n">
-        <v>44410</v>
+        <v>44320</v>
       </c>
       <c r="E65" t="n">
         <v>7</v>
@@ -5564,20 +5564,20 @@
         </is>
       </c>
       <c r="M65" t="n">
-        <v>230</v>
+        <v>100</v>
       </c>
       <c r="N65" t="n">
-        <v>7000</v>
+        <v>11000</v>
       </c>
       <c r="O65" t="n">
-        <v>7000</v>
+        <v>11000</v>
       </c>
       <c r="P65" t="n">
-        <v>7000</v>
+        <v>11000</v>
       </c>
       <c r="Q65" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="R65" t="inlineStr">
@@ -5586,10 +5586,10 @@
         </is>
       </c>
       <c r="S65" t="n">
-        <v>700</v>
+        <v>611</v>
       </c>
       <c r="T65" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
     </row>
     <row r="66">
@@ -5607,7 +5607,7 @@
         </is>
       </c>
       <c r="D66" s="2" t="n">
-        <v>44284</v>
+        <v>44385</v>
       </c>
       <c r="E66" t="n">
         <v>7</v>
@@ -5640,20 +5640,20 @@
       </c>
       <c r="L66" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M66" t="n">
-        <v>200</v>
+        <v>230</v>
       </c>
       <c r="N66" t="n">
-        <v>7000</v>
+        <v>11000</v>
       </c>
       <c r="O66" t="n">
-        <v>7000</v>
+        <v>11000</v>
       </c>
       <c r="P66" t="n">
-        <v>7000</v>
+        <v>11000</v>
       </c>
       <c r="Q66" t="inlineStr">
         <is>
@@ -5666,7 +5666,7 @@
         </is>
       </c>
       <c r="S66" t="n">
-        <v>389</v>
+        <v>611</v>
       </c>
       <c r="T66" t="n">
         <v>18</v>
@@ -5687,7 +5687,7 @@
         </is>
       </c>
       <c r="D67" s="2" t="n">
-        <v>44330</v>
+        <v>44385</v>
       </c>
       <c r="E67" t="n">
         <v>7</v>
@@ -5720,20 +5720,20 @@
       </c>
       <c r="L67" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M67" t="n">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="N67" t="n">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="O67" t="n">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="P67" t="n">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="Q67" t="inlineStr">
         <is>
@@ -5746,7 +5746,7 @@
         </is>
       </c>
       <c r="S67" t="n">
-        <v>556</v>
+        <v>500</v>
       </c>
       <c r="T67" t="n">
         <v>18</v>
@@ -5767,7 +5767,7 @@
         </is>
       </c>
       <c r="D68" s="2" t="n">
-        <v>44330</v>
+        <v>44284</v>
       </c>
       <c r="E68" t="n">
         <v>7</v>
@@ -5800,20 +5800,20 @@
       </c>
       <c r="L68" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M68" t="n">
-        <v>180</v>
+        <v>200</v>
       </c>
       <c r="N68" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="O68" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="P68" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="Q68" t="inlineStr">
         <is>
@@ -5826,7 +5826,7 @@
         </is>
       </c>
       <c r="S68" t="n">
-        <v>444</v>
+        <v>389</v>
       </c>
       <c r="T68" t="n">
         <v>18</v>
@@ -5847,7 +5847,7 @@
         </is>
       </c>
       <c r="D69" s="2" t="n">
-        <v>44343</v>
+        <v>44391</v>
       </c>
       <c r="E69" t="n">
         <v>7</v>
@@ -5884,16 +5884,16 @@
         </is>
       </c>
       <c r="M69" t="n">
-        <v>120</v>
+        <v>200</v>
       </c>
       <c r="N69" t="n">
-        <v>10000</v>
+        <v>11000</v>
       </c>
       <c r="O69" t="n">
-        <v>10000</v>
+        <v>11000</v>
       </c>
       <c r="P69" t="n">
-        <v>10000</v>
+        <v>11000</v>
       </c>
       <c r="Q69" t="inlineStr">
         <is>
@@ -5906,7 +5906,7 @@
         </is>
       </c>
       <c r="S69" t="n">
-        <v>556</v>
+        <v>611</v>
       </c>
       <c r="T69" t="n">
         <v>18</v>
@@ -5927,7 +5927,7 @@
         </is>
       </c>
       <c r="D70" s="2" t="n">
-        <v>44343</v>
+        <v>44391</v>
       </c>
       <c r="E70" t="n">
         <v>7</v>
@@ -5964,16 +5964,16 @@
         </is>
       </c>
       <c r="M70" t="n">
-        <v>160</v>
+        <v>250</v>
       </c>
       <c r="N70" t="n">
-        <v>9000</v>
+        <v>9500</v>
       </c>
       <c r="O70" t="n">
-        <v>9000</v>
+        <v>9500</v>
       </c>
       <c r="P70" t="n">
-        <v>9000</v>
+        <v>9500</v>
       </c>
       <c r="Q70" t="inlineStr">
         <is>
@@ -5986,7 +5986,7 @@
         </is>
       </c>
       <c r="S70" t="n">
-        <v>500</v>
+        <v>528</v>
       </c>
       <c r="T70" t="n">
         <v>18</v>
@@ -6007,7 +6007,7 @@
         </is>
       </c>
       <c r="D71" s="2" t="n">
-        <v>44320</v>
+        <v>44281</v>
       </c>
       <c r="E71" t="n">
         <v>7</v>
@@ -6040,24 +6040,24 @@
       </c>
       <c r="L71" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M71" t="n">
-        <v>120</v>
+        <v>210</v>
       </c>
       <c r="N71" t="n">
-        <v>13000</v>
+        <v>10000</v>
       </c>
       <c r="O71" t="n">
-        <v>13000</v>
+        <v>10000</v>
       </c>
       <c r="P71" t="n">
-        <v>13000</v>
+        <v>10000</v>
       </c>
       <c r="Q71" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R71" t="inlineStr">
@@ -6066,10 +6066,10 @@
         </is>
       </c>
       <c r="S71" t="n">
-        <v>722</v>
+        <v>1000</v>
       </c>
       <c r="T71" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="72">
@@ -6087,7 +6087,7 @@
         </is>
       </c>
       <c r="D72" s="2" t="n">
-        <v>44320</v>
+        <v>44342</v>
       </c>
       <c r="E72" t="n">
         <v>7</v>
@@ -6120,24 +6120,24 @@
       </c>
       <c r="L72" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M72" t="n">
-        <v>150</v>
+        <v>250</v>
       </c>
       <c r="N72" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="O72" t="n">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="P72" t="n">
-        <v>10000</v>
+        <v>8600</v>
       </c>
       <c r="Q72" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="R72" t="inlineStr">
@@ -6146,10 +6146,10 @@
         </is>
       </c>
       <c r="S72" t="n">
-        <v>1000</v>
+        <v>478</v>
       </c>
       <c r="T72" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
     </row>
     <row r="73">
@@ -6167,7 +6167,7 @@
         </is>
       </c>
       <c r="D73" s="2" t="n">
-        <v>44320</v>
+        <v>44434</v>
       </c>
       <c r="E73" t="n">
         <v>7</v>
@@ -6200,24 +6200,24 @@
       </c>
       <c r="L73" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M73" t="n">
-        <v>300</v>
+        <v>230</v>
       </c>
       <c r="N73" t="n">
-        <v>10000</v>
+        <v>14000</v>
       </c>
       <c r="O73" t="n">
-        <v>10000</v>
+        <v>14000</v>
       </c>
       <c r="P73" t="n">
-        <v>10000</v>
+        <v>14000</v>
       </c>
       <c r="Q73" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="R73" t="inlineStr">
@@ -6226,10 +6226,10 @@
         </is>
       </c>
       <c r="S73" t="n">
-        <v>1000</v>
+        <v>778</v>
       </c>
       <c r="T73" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
     </row>
     <row r="74">
@@ -6247,7 +6247,7 @@
         </is>
       </c>
       <c r="D74" s="2" t="n">
-        <v>44320</v>
+        <v>44434</v>
       </c>
       <c r="E74" t="n">
         <v>7</v>
@@ -6280,24 +6280,24 @@
       </c>
       <c r="L74" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M74" t="n">
-        <v>100</v>
+        <v>160</v>
       </c>
       <c r="N74" t="n">
-        <v>11000</v>
+        <v>8000</v>
       </c>
       <c r="O74" t="n">
-        <v>11000</v>
+        <v>8000</v>
       </c>
       <c r="P74" t="n">
-        <v>11000</v>
+        <v>8000</v>
       </c>
       <c r="Q74" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="R74" t="inlineStr">
@@ -6306,10 +6306,10 @@
         </is>
       </c>
       <c r="S74" t="n">
-        <v>611</v>
+        <v>800</v>
       </c>
       <c r="T74" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="75">
@@ -6327,7 +6327,7 @@
         </is>
       </c>
       <c r="D75" s="2" t="n">
-        <v>44385</v>
+        <v>44434</v>
       </c>
       <c r="E75" t="n">
         <v>7</v>
@@ -6360,20 +6360,20 @@
       </c>
       <c r="L75" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M75" t="n">
-        <v>230</v>
+        <v>150</v>
       </c>
       <c r="N75" t="n">
-        <v>11000</v>
+        <v>12000</v>
       </c>
       <c r="O75" t="n">
-        <v>11000</v>
+        <v>12000</v>
       </c>
       <c r="P75" t="n">
-        <v>11000</v>
+        <v>12000</v>
       </c>
       <c r="Q75" t="inlineStr">
         <is>
@@ -6386,7 +6386,7 @@
         </is>
       </c>
       <c r="S75" t="n">
-        <v>611</v>
+        <v>667</v>
       </c>
       <c r="T75" t="n">
         <v>18</v>
@@ -6407,7 +6407,7 @@
         </is>
       </c>
       <c r="D76" s="2" t="n">
-        <v>44385</v>
+        <v>44434</v>
       </c>
       <c r="E76" t="n">
         <v>7</v>
@@ -6444,20 +6444,20 @@
         </is>
       </c>
       <c r="M76" t="n">
-        <v>200</v>
+        <v>230</v>
       </c>
       <c r="N76" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="O76" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="P76" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="Q76" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="R76" t="inlineStr">
@@ -6466,10 +6466,10 @@
         </is>
       </c>
       <c r="S76" t="n">
-        <v>500</v>
+        <v>700</v>
       </c>
       <c r="T76" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="77">
@@ -6487,7 +6487,7 @@
         </is>
       </c>
       <c r="D77" s="2" t="n">
-        <v>44299</v>
+        <v>44434</v>
       </c>
       <c r="E77" t="n">
         <v>7</v>
@@ -6520,20 +6520,20 @@
       </c>
       <c r="L77" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M77" t="n">
-        <v>200</v>
+        <v>120</v>
       </c>
       <c r="N77" t="n">
-        <v>13000</v>
+        <v>10000</v>
       </c>
       <c r="O77" t="n">
-        <v>13000</v>
+        <v>10000</v>
       </c>
       <c r="P77" t="n">
-        <v>13000</v>
+        <v>10000</v>
       </c>
       <c r="Q77" t="inlineStr">
         <is>
@@ -6546,7 +6546,7 @@
         </is>
       </c>
       <c r="S77" t="n">
-        <v>722</v>
+        <v>556</v>
       </c>
       <c r="T77" t="n">
         <v>18</v>
@@ -6567,7 +6567,7 @@
         </is>
       </c>
       <c r="D78" s="2" t="n">
-        <v>44370</v>
+        <v>44327</v>
       </c>
       <c r="E78" t="n">
         <v>7</v>
@@ -6600,24 +6600,24 @@
       </c>
       <c r="L78" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M78" t="n">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="N78" t="n">
-        <v>12000</v>
+        <v>9000</v>
       </c>
       <c r="O78" t="n">
-        <v>12000</v>
+        <v>9000</v>
       </c>
       <c r="P78" t="n">
-        <v>12000</v>
+        <v>9000</v>
       </c>
       <c r="Q78" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="R78" t="inlineStr">
@@ -6626,10 +6626,10 @@
         </is>
       </c>
       <c r="S78" t="n">
-        <v>667</v>
+        <v>900</v>
       </c>
       <c r="T78" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="79">
@@ -6647,7 +6647,7 @@
         </is>
       </c>
       <c r="D79" s="2" t="n">
-        <v>44370</v>
+        <v>44321</v>
       </c>
       <c r="E79" t="n">
         <v>7</v>
@@ -6684,16 +6684,16 @@
         </is>
       </c>
       <c r="M79" t="n">
-        <v>120</v>
+        <v>200</v>
       </c>
       <c r="N79" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="O79" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="P79" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="Q79" t="inlineStr">
         <is>
@@ -6706,7 +6706,7 @@
         </is>
       </c>
       <c r="S79" t="n">
-        <v>556</v>
+        <v>722</v>
       </c>
       <c r="T79" t="n">
         <v>18</v>
@@ -6727,7 +6727,7 @@
         </is>
       </c>
       <c r="D80" s="2" t="n">
-        <v>44370</v>
+        <v>44399</v>
       </c>
       <c r="E80" t="n">
         <v>7</v>
@@ -6760,24 +6760,24 @@
       </c>
       <c r="L80" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M80" t="n">
-        <v>60</v>
+        <v>260</v>
       </c>
       <c r="N80" t="n">
-        <v>8000</v>
+        <v>5000</v>
       </c>
       <c r="O80" t="n">
-        <v>8000</v>
+        <v>5000</v>
       </c>
       <c r="P80" t="n">
-        <v>8000</v>
+        <v>5000</v>
       </c>
       <c r="Q80" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R80" t="inlineStr">
@@ -6786,10 +6786,10 @@
         </is>
       </c>
       <c r="S80" t="n">
-        <v>444</v>
+        <v>500</v>
       </c>
       <c r="T80" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="81">
@@ -6807,7 +6807,7 @@
         </is>
       </c>
       <c r="D81" s="2" t="n">
-        <v>44392</v>
+        <v>44399</v>
       </c>
       <c r="E81" t="n">
         <v>7</v>
@@ -6840,24 +6840,24 @@
       </c>
       <c r="L81" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M81" t="n">
-        <v>200</v>
+        <v>260</v>
       </c>
       <c r="N81" t="n">
-        <v>11000</v>
+        <v>10000</v>
       </c>
       <c r="O81" t="n">
-        <v>11000</v>
+        <v>10000</v>
       </c>
       <c r="P81" t="n">
-        <v>11000</v>
+        <v>10000</v>
       </c>
       <c r="Q81" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 18 kilos granel</t>
         </is>
       </c>
       <c r="R81" t="inlineStr">
@@ -6866,7 +6866,7 @@
         </is>
       </c>
       <c r="S81" t="n">
-        <v>611</v>
+        <v>556</v>
       </c>
       <c r="T81" t="n">
         <v>18</v>
@@ -6887,7 +6887,7 @@
         </is>
       </c>
       <c r="D82" s="2" t="n">
-        <v>44392</v>
+        <v>44452</v>
       </c>
       <c r="E82" t="n">
         <v>7</v>
@@ -6924,16 +6924,16 @@
         </is>
       </c>
       <c r="M82" t="n">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="N82" t="n">
-        <v>9000</v>
+        <v>12000</v>
       </c>
       <c r="O82" t="n">
-        <v>9000</v>
+        <v>12000</v>
       </c>
       <c r="P82" t="n">
-        <v>9000</v>
+        <v>12000</v>
       </c>
       <c r="Q82" t="inlineStr">
         <is>
@@ -6946,7 +6946,7 @@
         </is>
       </c>
       <c r="S82" t="n">
-        <v>500</v>
+        <v>667</v>
       </c>
       <c r="T82" t="n">
         <v>18</v>
@@ -6967,7 +6967,7 @@
         </is>
       </c>
       <c r="D83" s="2" t="n">
-        <v>44295</v>
+        <v>44383</v>
       </c>
       <c r="E83" t="n">
         <v>7</v>
@@ -7004,16 +7004,16 @@
         </is>
       </c>
       <c r="M83" t="n">
-        <v>160</v>
+        <v>210</v>
       </c>
       <c r="N83" t="n">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="O83" t="n">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="P83" t="n">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="Q83" t="inlineStr">
         <is>
@@ -7026,7 +7026,7 @@
         </is>
       </c>
       <c r="S83" t="n">
-        <v>556</v>
+        <v>500</v>
       </c>
       <c r="T83" t="n">
         <v>18</v>
@@ -7047,7 +7047,7 @@
         </is>
       </c>
       <c r="D84" s="2" t="n">
-        <v>44309</v>
+        <v>44383</v>
       </c>
       <c r="E84" t="n">
         <v>7</v>
@@ -7080,24 +7080,24 @@
       </c>
       <c r="L84" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M84" t="n">
-        <v>160</v>
+        <v>260</v>
       </c>
       <c r="N84" t="n">
-        <v>14000</v>
+        <v>6000</v>
       </c>
       <c r="O84" t="n">
-        <v>14000</v>
+        <v>6000</v>
       </c>
       <c r="P84" t="n">
-        <v>14000</v>
+        <v>6000</v>
       </c>
       <c r="Q84" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="R84" t="inlineStr">
@@ -7106,10 +7106,10 @@
         </is>
       </c>
       <c r="S84" t="n">
-        <v>778</v>
+        <v>600</v>
       </c>
       <c r="T84" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="85">
@@ -7127,7 +7127,7 @@
         </is>
       </c>
       <c r="D85" s="2" t="n">
-        <v>44309</v>
+        <v>44407</v>
       </c>
       <c r="E85" t="n">
         <v>7</v>
@@ -7160,24 +7160,24 @@
       </c>
       <c r="L85" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M85" t="n">
-        <v>250</v>
+        <v>60</v>
       </c>
       <c r="N85" t="n">
-        <v>8000</v>
+        <v>13000</v>
       </c>
       <c r="O85" t="n">
-        <v>9000</v>
+        <v>13000</v>
       </c>
       <c r="P85" t="n">
-        <v>8600</v>
+        <v>13000</v>
       </c>
       <c r="Q85" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="R85" t="inlineStr">
@@ -7186,10 +7186,10 @@
         </is>
       </c>
       <c r="S85" t="n">
-        <v>860</v>
+        <v>722</v>
       </c>
       <c r="T85" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
     </row>
     <row r="86">
@@ -7207,7 +7207,7 @@
         </is>
       </c>
       <c r="D86" s="2" t="n">
-        <v>44309</v>
+        <v>44407</v>
       </c>
       <c r="E86" t="n">
         <v>7</v>
@@ -7244,16 +7244,16 @@
         </is>
       </c>
       <c r="M86" t="n">
-        <v>100</v>
+        <v>150</v>
       </c>
       <c r="N86" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="O86" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="P86" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="Q86" t="inlineStr">
         <is>
@@ -7266,7 +7266,7 @@
         </is>
       </c>
       <c r="S86" t="n">
-        <v>667</v>
+        <v>556</v>
       </c>
       <c r="T86" t="n">
         <v>18</v>
@@ -7287,7 +7287,7 @@
         </is>
       </c>
       <c r="D87" s="2" t="n">
-        <v>44384</v>
+        <v>44407</v>
       </c>
       <c r="E87" t="n">
         <v>7</v>
@@ -7320,24 +7320,24 @@
       </c>
       <c r="L87" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M87" t="n">
-        <v>500</v>
+        <v>100</v>
       </c>
       <c r="N87" t="n">
-        <v>6000</v>
+        <v>8000</v>
       </c>
       <c r="O87" t="n">
-        <v>6000</v>
+        <v>8000</v>
       </c>
       <c r="P87" t="n">
-        <v>6000</v>
+        <v>8000</v>
       </c>
       <c r="Q87" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="R87" t="inlineStr">
@@ -7346,10 +7346,10 @@
         </is>
       </c>
       <c r="S87" t="n">
-        <v>600</v>
+        <v>444</v>
       </c>
       <c r="T87" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
     </row>
     <row r="88">
@@ -7367,7 +7367,7 @@
         </is>
       </c>
       <c r="D88" s="2" t="n">
-        <v>44322</v>
+        <v>44336</v>
       </c>
       <c r="E88" t="n">
         <v>7</v>
@@ -7404,20 +7404,20 @@
         </is>
       </c>
       <c r="M88" t="n">
-        <v>210</v>
+        <v>250</v>
       </c>
       <c r="N88" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="O88" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="P88" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="Q88" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="R88" t="inlineStr">
@@ -7426,7 +7426,7 @@
         </is>
       </c>
       <c r="S88" t="n">
-        <v>1000</v>
+        <v>800</v>
       </c>
       <c r="T88" t="n">
         <v>10</v>
@@ -7447,7 +7447,7 @@
         </is>
       </c>
       <c r="D89" s="2" t="n">
-        <v>44365</v>
+        <v>44341</v>
       </c>
       <c r="E89" t="n">
         <v>7</v>
@@ -7484,16 +7484,16 @@
         </is>
       </c>
       <c r="M89" t="n">
-        <v>90</v>
+        <v>200</v>
       </c>
       <c r="N89" t="n">
-        <v>11000</v>
+        <v>10000</v>
       </c>
       <c r="O89" t="n">
-        <v>11000</v>
+        <v>10000</v>
       </c>
       <c r="P89" t="n">
-        <v>11000</v>
+        <v>10000</v>
       </c>
       <c r="Q89" t="inlineStr">
         <is>
@@ -7506,7 +7506,7 @@
         </is>
       </c>
       <c r="S89" t="n">
-        <v>611</v>
+        <v>556</v>
       </c>
       <c r="T89" t="n">
         <v>18</v>
@@ -7527,7 +7527,7 @@
         </is>
       </c>
       <c r="D90" s="2" t="n">
-        <v>44365</v>
+        <v>44341</v>
       </c>
       <c r="E90" t="n">
         <v>7</v>
@@ -7564,7 +7564,7 @@
         </is>
       </c>
       <c r="M90" t="n">
-        <v>200</v>
+        <v>210</v>
       </c>
       <c r="N90" t="n">
         <v>9000</v>
@@ -7607,7 +7607,7 @@
         </is>
       </c>
       <c r="D91" s="2" t="n">
-        <v>44365</v>
+        <v>44426</v>
       </c>
       <c r="E91" t="n">
         <v>7</v>
@@ -7640,24 +7640,24 @@
       </c>
       <c r="L91" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M91" t="n">
-        <v>150</v>
+        <v>100</v>
       </c>
       <c r="N91" t="n">
-        <v>7000</v>
+        <v>12000</v>
       </c>
       <c r="O91" t="n">
-        <v>7000</v>
+        <v>12000</v>
       </c>
       <c r="P91" t="n">
-        <v>7000</v>
+        <v>12000</v>
       </c>
       <c r="Q91" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="R91" t="inlineStr">
@@ -7666,7 +7666,7 @@
         </is>
       </c>
       <c r="S91" t="n">
-        <v>389</v>
+        <v>667</v>
       </c>
       <c r="T91" t="n">
         <v>18</v>
@@ -7687,7 +7687,7 @@
         </is>
       </c>
       <c r="D92" s="2" t="n">
-        <v>44452</v>
+        <v>44426</v>
       </c>
       <c r="E92" t="n">
         <v>7</v>
@@ -7724,20 +7724,20 @@
         </is>
       </c>
       <c r="M92" t="n">
-        <v>300</v>
+        <v>120</v>
       </c>
       <c r="N92" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="O92" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="P92" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="Q92" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="R92" t="inlineStr">
@@ -7746,7 +7746,7 @@
         </is>
       </c>
       <c r="S92" t="n">
-        <v>667</v>
+        <v>556</v>
       </c>
       <c r="T92" t="n">
         <v>18</v>
@@ -7767,7 +7767,7 @@
         </is>
       </c>
       <c r="D93" s="2" t="n">
-        <v>44358</v>
+        <v>44400</v>
       </c>
       <c r="E93" t="n">
         <v>7</v>
@@ -7804,7 +7804,7 @@
         </is>
       </c>
       <c r="M93" t="n">
-        <v>230</v>
+        <v>100</v>
       </c>
       <c r="N93" t="n">
         <v>13000</v>
@@ -7847,7 +7847,7 @@
         </is>
       </c>
       <c r="D94" s="2" t="n">
-        <v>44358</v>
+        <v>44400</v>
       </c>
       <c r="E94" t="n">
         <v>7</v>
@@ -7880,24 +7880,24 @@
       </c>
       <c r="L94" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M94" t="n">
-        <v>250</v>
+        <v>180</v>
       </c>
       <c r="N94" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="O94" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="P94" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="Q94" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="R94" t="inlineStr">
@@ -7906,10 +7906,10 @@
         </is>
       </c>
       <c r="S94" t="n">
-        <v>900</v>
+        <v>556</v>
       </c>
       <c r="T94" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
     </row>
     <row r="95">
@@ -7927,7 +7927,7 @@
         </is>
       </c>
       <c r="D95" s="2" t="n">
-        <v>44358</v>
+        <v>44400</v>
       </c>
       <c r="E95" t="n">
         <v>7</v>
@@ -7960,20 +7960,20 @@
       </c>
       <c r="L95" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M95" t="n">
-        <v>210</v>
+        <v>150</v>
       </c>
       <c r="N95" t="n">
-        <v>11000</v>
+        <v>8000</v>
       </c>
       <c r="O95" t="n">
-        <v>11000</v>
+        <v>8000</v>
       </c>
       <c r="P95" t="n">
-        <v>11000</v>
+        <v>8000</v>
       </c>
       <c r="Q95" t="inlineStr">
         <is>
@@ -7986,7 +7986,7 @@
         </is>
       </c>
       <c r="S95" t="n">
-        <v>611</v>
+        <v>444</v>
       </c>
       <c r="T95" t="n">
         <v>18</v>
@@ -8007,7 +8007,7 @@
         </is>
       </c>
       <c r="D96" s="2" t="n">
-        <v>44358</v>
+        <v>44392</v>
       </c>
       <c r="E96" t="n">
         <v>7</v>
@@ -8040,24 +8040,24 @@
       </c>
       <c r="L96" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M96" t="n">
         <v>200</v>
       </c>
       <c r="N96" t="n">
-        <v>7000</v>
+        <v>11000</v>
       </c>
       <c r="O96" t="n">
-        <v>7000</v>
+        <v>11000</v>
       </c>
       <c r="P96" t="n">
-        <v>7000</v>
+        <v>11000</v>
       </c>
       <c r="Q96" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="R96" t="inlineStr">
@@ -8066,10 +8066,10 @@
         </is>
       </c>
       <c r="S96" t="n">
-        <v>700</v>
+        <v>611</v>
       </c>
       <c r="T96" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
     </row>
     <row r="97">
@@ -8087,7 +8087,7 @@
         </is>
       </c>
       <c r="D97" s="2" t="n">
-        <v>44358</v>
+        <v>44392</v>
       </c>
       <c r="E97" t="n">
         <v>7</v>
@@ -8120,11 +8120,11 @@
       </c>
       <c r="L97" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M97" t="n">
-        <v>190</v>
+        <v>400</v>
       </c>
       <c r="N97" t="n">
         <v>9000</v>
@@ -8167,7 +8167,7 @@
         </is>
       </c>
       <c r="D98" s="2" t="n">
-        <v>44433</v>
+        <v>44442</v>
       </c>
       <c r="E98" t="n">
         <v>7</v>
@@ -8204,7 +8204,7 @@
         </is>
       </c>
       <c r="M98" t="n">
-        <v>120</v>
+        <v>180</v>
       </c>
       <c r="N98" t="n">
         <v>14000</v>
@@ -8217,7 +8217,7 @@
       </c>
       <c r="Q98" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="R98" t="inlineStr">
@@ -8247,7 +8247,7 @@
         </is>
       </c>
       <c r="D99" s="2" t="n">
-        <v>44433</v>
+        <v>44442</v>
       </c>
       <c r="E99" t="n">
         <v>7</v>
@@ -8284,7 +8284,7 @@
         </is>
       </c>
       <c r="M99" t="n">
-        <v>180</v>
+        <v>230</v>
       </c>
       <c r="N99" t="n">
         <v>12000</v>
@@ -8297,7 +8297,7 @@
       </c>
       <c r="Q99" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="R99" t="inlineStr">
@@ -8327,7 +8327,7 @@
         </is>
       </c>
       <c r="D100" s="2" t="n">
-        <v>44397</v>
+        <v>44442</v>
       </c>
       <c r="E100" t="n">
         <v>7</v>
@@ -8360,20 +8360,20 @@
       </c>
       <c r="L100" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M100" t="n">
-        <v>190</v>
+        <v>250</v>
       </c>
       <c r="N100" t="n">
-        <v>14000</v>
+        <v>10000</v>
       </c>
       <c r="O100" t="n">
-        <v>14000</v>
+        <v>10000</v>
       </c>
       <c r="P100" t="n">
-        <v>14000</v>
+        <v>10000</v>
       </c>
       <c r="Q100" t="inlineStr">
         <is>
@@ -8382,11 +8382,11 @@
       </c>
       <c r="R100" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S100" t="n">
-        <v>778</v>
+        <v>556</v>
       </c>
       <c r="T100" t="n">
         <v>18</v>
@@ -8407,7 +8407,7 @@
         </is>
       </c>
       <c r="D101" s="2" t="n">
-        <v>44397</v>
+        <v>44442</v>
       </c>
       <c r="E101" t="n">
         <v>7</v>
@@ -8440,20 +8440,20 @@
       </c>
       <c r="L101" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M101" t="n">
-        <v>150</v>
+        <v>200</v>
       </c>
       <c r="N101" t="n">
-        <v>13000</v>
+        <v>10000</v>
       </c>
       <c r="O101" t="n">
-        <v>13000</v>
+        <v>10000</v>
       </c>
       <c r="P101" t="n">
-        <v>13000</v>
+        <v>10000</v>
       </c>
       <c r="Q101" t="inlineStr">
         <is>
@@ -8462,11 +8462,11 @@
       </c>
       <c r="R101" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S101" t="n">
-        <v>722</v>
+        <v>556</v>
       </c>
       <c r="T101" t="n">
         <v>18</v>
@@ -8487,7 +8487,7 @@
         </is>
       </c>
       <c r="D102" s="2" t="n">
-        <v>44397</v>
+        <v>44442</v>
       </c>
       <c r="E102" t="n">
         <v>7</v>
@@ -8520,20 +8520,20 @@
       </c>
       <c r="L102" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M102" t="n">
-        <v>480</v>
+        <v>200</v>
       </c>
       <c r="N102" t="n">
-        <v>9000</v>
+        <v>8000</v>
       </c>
       <c r="O102" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="P102" t="n">
-        <v>9479</v>
+        <v>8000</v>
       </c>
       <c r="Q102" t="inlineStr">
         <is>
@@ -8542,11 +8542,11 @@
       </c>
       <c r="R102" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S102" t="n">
-        <v>527</v>
+        <v>444</v>
       </c>
       <c r="T102" t="n">
         <v>18</v>
@@ -8567,7 +8567,7 @@
         </is>
       </c>
       <c r="D103" s="2" t="n">
-        <v>44321</v>
+        <v>44453</v>
       </c>
       <c r="E103" t="n">
         <v>7</v>
@@ -8604,20 +8604,20 @@
         </is>
       </c>
       <c r="M103" t="n">
-        <v>200</v>
+        <v>250</v>
       </c>
       <c r="N103" t="n">
-        <v>13000</v>
+        <v>12000</v>
       </c>
       <c r="O103" t="n">
-        <v>13000</v>
+        <v>12000</v>
       </c>
       <c r="P103" t="n">
-        <v>13000</v>
+        <v>12000</v>
       </c>
       <c r="Q103" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R103" t="inlineStr">
@@ -8626,10 +8626,10 @@
         </is>
       </c>
       <c r="S103" t="n">
-        <v>722</v>
+        <v>1200</v>
       </c>
       <c r="T103" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="104">
@@ -8647,7 +8647,7 @@
         </is>
       </c>
       <c r="D104" s="2" t="n">
-        <v>44426</v>
+        <v>44309</v>
       </c>
       <c r="E104" t="n">
         <v>7</v>
@@ -8684,20 +8684,20 @@
         </is>
       </c>
       <c r="M104" t="n">
-        <v>100</v>
+        <v>160</v>
       </c>
       <c r="N104" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="O104" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="P104" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="Q104" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="R104" t="inlineStr">
@@ -8706,7 +8706,7 @@
         </is>
       </c>
       <c r="S104" t="n">
-        <v>667</v>
+        <v>778</v>
       </c>
       <c r="T104" t="n">
         <v>18</v>
@@ -8727,7 +8727,7 @@
         </is>
       </c>
       <c r="D105" s="2" t="n">
-        <v>44426</v>
+        <v>44309</v>
       </c>
       <c r="E105" t="n">
         <v>7</v>
@@ -8764,20 +8764,20 @@
         </is>
       </c>
       <c r="M105" t="n">
-        <v>120</v>
+        <v>250</v>
       </c>
       <c r="N105" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="O105" t="n">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="P105" t="n">
-        <v>10000</v>
+        <v>8600</v>
       </c>
       <c r="Q105" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R105" t="inlineStr">
@@ -8786,10 +8786,10 @@
         </is>
       </c>
       <c r="S105" t="n">
-        <v>556</v>
+        <v>860</v>
       </c>
       <c r="T105" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="106">
@@ -8807,7 +8807,7 @@
         </is>
       </c>
       <c r="D106" s="2" t="n">
-        <v>44434</v>
+        <v>44309</v>
       </c>
       <c r="E106" t="n">
         <v>7</v>
@@ -8840,20 +8840,20 @@
       </c>
       <c r="L106" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M106" t="n">
-        <v>230</v>
+        <v>100</v>
       </c>
       <c r="N106" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="O106" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="P106" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="Q106" t="inlineStr">
         <is>
@@ -8866,7 +8866,7 @@
         </is>
       </c>
       <c r="S106" t="n">
-        <v>778</v>
+        <v>667</v>
       </c>
       <c r="T106" t="n">
         <v>18</v>
@@ -8887,7 +8887,7 @@
         </is>
       </c>
       <c r="D107" s="2" t="n">
-        <v>44434</v>
+        <v>44448</v>
       </c>
       <c r="E107" t="n">
         <v>7</v>
@@ -8924,20 +8924,20 @@
         </is>
       </c>
       <c r="M107" t="n">
-        <v>160</v>
+        <v>180</v>
       </c>
       <c r="N107" t="n">
-        <v>8000</v>
+        <v>13000</v>
       </c>
       <c r="O107" t="n">
-        <v>8000</v>
+        <v>13000</v>
       </c>
       <c r="P107" t="n">
-        <v>8000</v>
+        <v>13000</v>
       </c>
       <c r="Q107" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="R107" t="inlineStr">
@@ -8946,10 +8946,10 @@
         </is>
       </c>
       <c r="S107" t="n">
-        <v>800</v>
+        <v>722</v>
       </c>
       <c r="T107" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
     </row>
     <row r="108">
@@ -8967,7 +8967,7 @@
         </is>
       </c>
       <c r="D108" s="2" t="n">
-        <v>44434</v>
+        <v>44448</v>
       </c>
       <c r="E108" t="n">
         <v>7</v>
@@ -9004,20 +9004,20 @@
         </is>
       </c>
       <c r="M108" t="n">
-        <v>150</v>
+        <v>230</v>
       </c>
       <c r="N108" t="n">
-        <v>12000</v>
+        <v>11000</v>
       </c>
       <c r="O108" t="n">
-        <v>12000</v>
+        <v>11000</v>
       </c>
       <c r="P108" t="n">
-        <v>12000</v>
+        <v>11000</v>
       </c>
       <c r="Q108" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="R108" t="inlineStr">
@@ -9026,7 +9026,7 @@
         </is>
       </c>
       <c r="S108" t="n">
-        <v>667</v>
+        <v>611</v>
       </c>
       <c r="T108" t="n">
         <v>18</v>
@@ -9047,7 +9047,7 @@
         </is>
       </c>
       <c r="D109" s="2" t="n">
-        <v>44434</v>
+        <v>44354</v>
       </c>
       <c r="E109" t="n">
         <v>7</v>
@@ -9080,36 +9080,36 @@
       </c>
       <c r="L109" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M109" t="n">
-        <v>230</v>
+        <v>180</v>
       </c>
       <c r="N109" t="n">
-        <v>7000</v>
+        <v>12000</v>
       </c>
       <c r="O109" t="n">
-        <v>7000</v>
+        <v>12000</v>
       </c>
       <c r="P109" t="n">
-        <v>7000</v>
+        <v>12000</v>
       </c>
       <c r="Q109" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="R109" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S109" t="n">
-        <v>700</v>
+        <v>667</v>
       </c>
       <c r="T109" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
     </row>
     <row r="110">
@@ -9127,7 +9127,7 @@
         </is>
       </c>
       <c r="D110" s="2" t="n">
-        <v>44434</v>
+        <v>44354</v>
       </c>
       <c r="E110" t="n">
         <v>7</v>
@@ -9160,11 +9160,11 @@
       </c>
       <c r="L110" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M110" t="n">
-        <v>120</v>
+        <v>100</v>
       </c>
       <c r="N110" t="n">
         <v>10000</v>
@@ -9182,7 +9182,7 @@
       </c>
       <c r="R110" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S110" t="n">
@@ -9207,7 +9207,7 @@
         </is>
       </c>
       <c r="D111" s="2" t="n">
-        <v>44398</v>
+        <v>44420</v>
       </c>
       <c r="E111" t="n">
         <v>7</v>
@@ -9244,20 +9244,20 @@
         </is>
       </c>
       <c r="M111" t="n">
-        <v>150</v>
+        <v>120</v>
       </c>
       <c r="N111" t="n">
-        <v>13000</v>
+        <v>14000</v>
       </c>
       <c r="O111" t="n">
-        <v>13000</v>
+        <v>14000</v>
       </c>
       <c r="P111" t="n">
-        <v>13000</v>
+        <v>14000</v>
       </c>
       <c r="Q111" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="R111" t="inlineStr">
@@ -9266,7 +9266,7 @@
         </is>
       </c>
       <c r="S111" t="n">
-        <v>722</v>
+        <v>778</v>
       </c>
       <c r="T111" t="n">
         <v>18</v>
@@ -9287,7 +9287,7 @@
         </is>
       </c>
       <c r="D112" s="2" t="n">
-        <v>44398</v>
+        <v>44420</v>
       </c>
       <c r="E112" t="n">
         <v>7</v>
@@ -9320,33 +9320,33 @@
       </c>
       <c r="L112" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M112" t="n">
-        <v>180</v>
+        <v>200</v>
       </c>
       <c r="N112" t="n">
-        <v>13000</v>
+        <v>12000</v>
       </c>
       <c r="O112" t="n">
-        <v>13000</v>
+        <v>12000</v>
       </c>
       <c r="P112" t="n">
-        <v>13000</v>
+        <v>12000</v>
       </c>
       <c r="Q112" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="R112" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S112" t="n">
-        <v>722</v>
+        <v>667</v>
       </c>
       <c r="T112" t="n">
         <v>18</v>
@@ -9367,7 +9367,7 @@
         </is>
       </c>
       <c r="D113" s="2" t="n">
-        <v>44398</v>
+        <v>44370</v>
       </c>
       <c r="E113" t="n">
         <v>7</v>
@@ -9400,20 +9400,20 @@
       </c>
       <c r="L113" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M113" t="n">
-        <v>260</v>
+        <v>100</v>
       </c>
       <c r="N113" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="O113" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="P113" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="Q113" t="inlineStr">
         <is>
@@ -9426,7 +9426,7 @@
         </is>
       </c>
       <c r="S113" t="n">
-        <v>556</v>
+        <v>667</v>
       </c>
       <c r="T113" t="n">
         <v>18</v>
@@ -9447,7 +9447,7 @@
         </is>
       </c>
       <c r="D114" s="2" t="n">
-        <v>44398</v>
+        <v>44370</v>
       </c>
       <c r="E114" t="n">
         <v>7</v>
@@ -9484,16 +9484,16 @@
         </is>
       </c>
       <c r="M114" t="n">
-        <v>220</v>
+        <v>120</v>
       </c>
       <c r="N114" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="O114" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="P114" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="Q114" t="inlineStr">
         <is>
@@ -9502,11 +9502,11 @@
       </c>
       <c r="R114" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S114" t="n">
-        <v>500</v>
+        <v>556</v>
       </c>
       <c r="T114" t="n">
         <v>18</v>
@@ -9527,7 +9527,7 @@
         </is>
       </c>
       <c r="D115" s="2" t="n">
-        <v>44420</v>
+        <v>44370</v>
       </c>
       <c r="E115" t="n">
         <v>7</v>
@@ -9560,24 +9560,24 @@
       </c>
       <c r="L115" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M115" t="n">
-        <v>120</v>
+        <v>60</v>
       </c>
       <c r="N115" t="n">
-        <v>14000</v>
+        <v>8000</v>
       </c>
       <c r="O115" t="n">
-        <v>14000</v>
+        <v>8000</v>
       </c>
       <c r="P115" t="n">
-        <v>14000</v>
+        <v>8000</v>
       </c>
       <c r="Q115" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="R115" t="inlineStr">
@@ -9586,7 +9586,7 @@
         </is>
       </c>
       <c r="S115" t="n">
-        <v>778</v>
+        <v>444</v>
       </c>
       <c r="T115" t="n">
         <v>18</v>
@@ -9607,7 +9607,7 @@
         </is>
       </c>
       <c r="D116" s="2" t="n">
-        <v>44420</v>
+        <v>44285</v>
       </c>
       <c r="E116" t="n">
         <v>7</v>
@@ -9644,32 +9644,32 @@
         </is>
       </c>
       <c r="M116" t="n">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="N116" t="n">
-        <v>12000</v>
+        <v>9000</v>
       </c>
       <c r="O116" t="n">
-        <v>12000</v>
+        <v>9000</v>
       </c>
       <c r="P116" t="n">
-        <v>12000</v>
+        <v>9000</v>
       </c>
       <c r="Q116" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R116" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="S116" t="n">
-        <v>667</v>
+        <v>900</v>
       </c>
       <c r="T116" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="117">
@@ -9687,7 +9687,7 @@
         </is>
       </c>
       <c r="D117" s="2" t="n">
-        <v>44348</v>
+        <v>44285</v>
       </c>
       <c r="E117" t="n">
         <v>7</v>
@@ -9720,36 +9720,36 @@
       </c>
       <c r="L117" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M117" t="n">
-        <v>230</v>
+        <v>150</v>
       </c>
       <c r="N117" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="O117" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="P117" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="Q117" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R117" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="S117" t="n">
-        <v>556</v>
+        <v>700</v>
       </c>
       <c r="T117" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="118">
@@ -9767,7 +9767,7 @@
         </is>
       </c>
       <c r="D118" s="2" t="n">
-        <v>44348</v>
+        <v>44266</v>
       </c>
       <c r="E118" t="n">
         <v>7</v>
@@ -9800,20 +9800,20 @@
       </c>
       <c r="L118" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M118" t="n">
-        <v>190</v>
+        <v>210</v>
       </c>
       <c r="N118" t="n">
-        <v>8000</v>
+        <v>12000</v>
       </c>
       <c r="O118" t="n">
-        <v>8000</v>
+        <v>12000</v>
       </c>
       <c r="P118" t="n">
-        <v>8000</v>
+        <v>12000</v>
       </c>
       <c r="Q118" t="inlineStr">
         <is>
@@ -9826,7 +9826,7 @@
         </is>
       </c>
       <c r="S118" t="n">
-        <v>444</v>
+        <v>667</v>
       </c>
       <c r="T118" t="n">
         <v>18</v>
@@ -9847,7 +9847,7 @@
         </is>
       </c>
       <c r="D119" s="2" t="n">
-        <v>44263</v>
+        <v>44350</v>
       </c>
       <c r="E119" t="n">
         <v>7</v>
@@ -9880,24 +9880,24 @@
       </c>
       <c r="L119" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M119" t="n">
-        <v>180</v>
+        <v>130</v>
       </c>
       <c r="N119" t="n">
-        <v>12000</v>
+        <v>11000</v>
       </c>
       <c r="O119" t="n">
-        <v>12000</v>
+        <v>11000</v>
       </c>
       <c r="P119" t="n">
-        <v>12000</v>
+        <v>11000</v>
       </c>
       <c r="Q119" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/caja 18 kilos granel</t>
         </is>
       </c>
       <c r="R119" t="inlineStr">
@@ -9906,10 +9906,10 @@
         </is>
       </c>
       <c r="S119" t="n">
-        <v>1200</v>
+        <v>611</v>
       </c>
       <c r="T119" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
     </row>
     <row r="120">
@@ -9927,7 +9927,7 @@
         </is>
       </c>
       <c r="D120" s="2" t="n">
-        <v>44316</v>
+        <v>44350</v>
       </c>
       <c r="E120" t="n">
         <v>7</v>
@@ -9960,24 +9960,24 @@
       </c>
       <c r="L120" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M120" t="n">
-        <v>160</v>
+        <v>360</v>
       </c>
       <c r="N120" t="n">
-        <v>12000</v>
+        <v>9000</v>
       </c>
       <c r="O120" t="n">
-        <v>12000</v>
+        <v>9000</v>
       </c>
       <c r="P120" t="n">
-        <v>12000</v>
+        <v>9000</v>
       </c>
       <c r="Q120" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/caja 18 kilos granel</t>
         </is>
       </c>
       <c r="R120" t="inlineStr">
@@ -9986,10 +9986,10 @@
         </is>
       </c>
       <c r="S120" t="n">
-        <v>1200</v>
+        <v>500</v>
       </c>
       <c r="T120" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
     </row>
     <row r="121">
@@ -10007,7 +10007,7 @@
         </is>
       </c>
       <c r="D121" s="2" t="n">
-        <v>44316</v>
+        <v>44350</v>
       </c>
       <c r="E121" t="n">
         <v>7</v>
@@ -10044,32 +10044,32 @@
         </is>
       </c>
       <c r="M121" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="N121" t="n">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="O121" t="n">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="P121" t="n">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="Q121" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/caja 18 kilos granel</t>
         </is>
       </c>
       <c r="R121" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S121" t="n">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="T121" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
     </row>
     <row r="122">
@@ -10087,7 +10087,7 @@
         </is>
       </c>
       <c r="D122" s="2" t="n">
-        <v>44316</v>
+        <v>44350</v>
       </c>
       <c r="E122" t="n">
         <v>7</v>
@@ -10120,24 +10120,24 @@
       </c>
       <c r="L122" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M122" t="n">
-        <v>190</v>
+        <v>210</v>
       </c>
       <c r="N122" t="n">
-        <v>13000</v>
+        <v>7000</v>
       </c>
       <c r="O122" t="n">
-        <v>13000</v>
+        <v>7000</v>
       </c>
       <c r="P122" t="n">
-        <v>13000</v>
+        <v>7000</v>
       </c>
       <c r="Q122" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="R122" t="inlineStr">
@@ -10146,7 +10146,7 @@
         </is>
       </c>
       <c r="S122" t="n">
-        <v>722</v>
+        <v>389</v>
       </c>
       <c r="T122" t="n">
         <v>18</v>
@@ -10167,7 +10167,7 @@
         </is>
       </c>
       <c r="D123" s="2" t="n">
-        <v>44341</v>
+        <v>44350</v>
       </c>
       <c r="E123" t="n">
         <v>7</v>
@@ -10200,33 +10200,33 @@
       </c>
       <c r="L123" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M123" t="n">
-        <v>200</v>
+        <v>150</v>
       </c>
       <c r="N123" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="O123" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="P123" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="Q123" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 18 kilos granel</t>
         </is>
       </c>
       <c r="R123" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S123" t="n">
-        <v>556</v>
+        <v>389</v>
       </c>
       <c r="T123" t="n">
         <v>18</v>
@@ -10247,7 +10247,7 @@
         </is>
       </c>
       <c r="D124" s="2" t="n">
-        <v>44341</v>
+        <v>44418</v>
       </c>
       <c r="E124" t="n">
         <v>7</v>
@@ -10280,20 +10280,20 @@
       </c>
       <c r="L124" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M124" t="n">
-        <v>210</v>
+        <v>100</v>
       </c>
       <c r="N124" t="n">
-        <v>9000</v>
+        <v>14000</v>
       </c>
       <c r="O124" t="n">
-        <v>9000</v>
+        <v>14000</v>
       </c>
       <c r="P124" t="n">
-        <v>9000</v>
+        <v>14000</v>
       </c>
       <c r="Q124" t="inlineStr">
         <is>
@@ -10306,7 +10306,7 @@
         </is>
       </c>
       <c r="S124" t="n">
-        <v>500</v>
+        <v>778</v>
       </c>
       <c r="T124" t="n">
         <v>18</v>
@@ -10327,7 +10327,7 @@
         </is>
       </c>
       <c r="D125" s="2" t="n">
-        <v>44414</v>
+        <v>44418</v>
       </c>
       <c r="E125" t="n">
         <v>7</v>
@@ -10364,20 +10364,20 @@
         </is>
       </c>
       <c r="M125" t="n">
-        <v>150</v>
+        <v>200</v>
       </c>
       <c r="N125" t="n">
-        <v>8000</v>
+        <v>12000</v>
       </c>
       <c r="O125" t="n">
-        <v>8000</v>
+        <v>12000</v>
       </c>
       <c r="P125" t="n">
-        <v>8000</v>
+        <v>12000</v>
       </c>
       <c r="Q125" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="R125" t="inlineStr">
@@ -10386,10 +10386,10 @@
         </is>
       </c>
       <c r="S125" t="n">
-        <v>800</v>
+        <v>667</v>
       </c>
       <c r="T125" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
     </row>
     <row r="126">
@@ -10407,7 +10407,7 @@
         </is>
       </c>
       <c r="D126" s="2" t="n">
-        <v>44414</v>
+        <v>44418</v>
       </c>
       <c r="E126" t="n">
         <v>7</v>
@@ -10440,20 +10440,20 @@
       </c>
       <c r="L126" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M126" t="n">
-        <v>190</v>
+        <v>90</v>
       </c>
       <c r="N126" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="O126" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="P126" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="Q126" t="inlineStr">
         <is>
@@ -10466,7 +10466,7 @@
         </is>
       </c>
       <c r="S126" t="n">
-        <v>667</v>
+        <v>556</v>
       </c>
       <c r="T126" t="n">
         <v>18</v>
@@ -10520,24 +10520,24 @@
       </c>
       <c r="L127" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M127" t="n">
-        <v>100</v>
+        <v>150</v>
       </c>
       <c r="N127" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="O127" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="P127" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="Q127" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R127" t="inlineStr">
@@ -10546,10 +10546,10 @@
         </is>
       </c>
       <c r="S127" t="n">
-        <v>556</v>
+        <v>800</v>
       </c>
       <c r="T127" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="128">
@@ -10567,7 +10567,7 @@
         </is>
       </c>
       <c r="D128" s="2" t="n">
-        <v>44432</v>
+        <v>44414</v>
       </c>
       <c r="E128" t="n">
         <v>7</v>
@@ -10600,24 +10600,24 @@
       </c>
       <c r="L128" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M128" t="n">
-        <v>210</v>
+        <v>190</v>
       </c>
       <c r="N128" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="O128" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="P128" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="Q128" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="R128" t="inlineStr">
@@ -10626,7 +10626,7 @@
         </is>
       </c>
       <c r="S128" t="n">
-        <v>778</v>
+        <v>667</v>
       </c>
       <c r="T128" t="n">
         <v>18</v>
@@ -10647,7 +10647,7 @@
         </is>
       </c>
       <c r="D129" s="2" t="n">
-        <v>44351</v>
+        <v>44414</v>
       </c>
       <c r="E129" t="n">
         <v>7</v>
@@ -10680,20 +10680,20 @@
       </c>
       <c r="L129" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M129" t="n">
-        <v>260</v>
+        <v>100</v>
       </c>
       <c r="N129" t="n">
-        <v>11000</v>
+        <v>10000</v>
       </c>
       <c r="O129" t="n">
-        <v>11000</v>
+        <v>10000</v>
       </c>
       <c r="P129" t="n">
-        <v>11000</v>
+        <v>10000</v>
       </c>
       <c r="Q129" t="inlineStr">
         <is>
@@ -10706,7 +10706,7 @@
         </is>
       </c>
       <c r="S129" t="n">
-        <v>611</v>
+        <v>556</v>
       </c>
       <c r="T129" t="n">
         <v>18</v>
@@ -10727,7 +10727,7 @@
         </is>
       </c>
       <c r="D130" s="2" t="n">
-        <v>44351</v>
+        <v>44389</v>
       </c>
       <c r="E130" t="n">
         <v>7</v>
@@ -10764,20 +10764,20 @@
         </is>
       </c>
       <c r="M130" t="n">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="N130" t="n">
-        <v>10000</v>
+        <v>6000</v>
       </c>
       <c r="O130" t="n">
-        <v>10000</v>
+        <v>6000</v>
       </c>
       <c r="P130" t="n">
-        <v>10000</v>
+        <v>6000</v>
       </c>
       <c r="Q130" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="R130" t="inlineStr">
@@ -10786,10 +10786,10 @@
         </is>
       </c>
       <c r="S130" t="n">
-        <v>556</v>
+        <v>600</v>
       </c>
       <c r="T130" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="131">
@@ -10807,7 +10807,7 @@
         </is>
       </c>
       <c r="D131" s="2" t="n">
-        <v>44351</v>
+        <v>44343</v>
       </c>
       <c r="E131" t="n">
         <v>7</v>
@@ -10840,36 +10840,36 @@
       </c>
       <c r="L131" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M131" t="n">
-        <v>230</v>
+        <v>120</v>
       </c>
       <c r="N131" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="O131" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="P131" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="Q131" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="R131" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S131" t="n">
-        <v>800</v>
+        <v>556</v>
       </c>
       <c r="T131" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
     </row>
     <row r="132">
@@ -10887,7 +10887,7 @@
         </is>
       </c>
       <c r="D132" s="2" t="n">
-        <v>44369</v>
+        <v>44343</v>
       </c>
       <c r="E132" t="n">
         <v>7</v>
@@ -10920,24 +10920,24 @@
       </c>
       <c r="L132" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M132" t="n">
-        <v>230</v>
+        <v>160</v>
       </c>
       <c r="N132" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="O132" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="P132" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="Q132" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="R132" t="inlineStr">
@@ -10946,10 +10946,10 @@
         </is>
       </c>
       <c r="S132" t="n">
-        <v>800</v>
+        <v>500</v>
       </c>
       <c r="T132" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
     </row>
     <row r="133">
@@ -10967,7 +10967,7 @@
         </is>
       </c>
       <c r="D133" s="2" t="n">
-        <v>44369</v>
+        <v>44280</v>
       </c>
       <c r="E133" t="n">
         <v>7</v>
@@ -11000,24 +11000,24 @@
       </c>
       <c r="L133" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M133" t="n">
         <v>100</v>
       </c>
       <c r="N133" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="O133" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="P133" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="Q133" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="R133" t="inlineStr">
@@ -11026,10 +11026,10 @@
         </is>
       </c>
       <c r="S133" t="n">
-        <v>667</v>
+        <v>1000</v>
       </c>
       <c r="T133" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="134">
@@ -11047,7 +11047,7 @@
         </is>
       </c>
       <c r="D134" s="2" t="n">
-        <v>44369</v>
+        <v>44280</v>
       </c>
       <c r="E134" t="n">
         <v>7</v>
@@ -11080,24 +11080,24 @@
       </c>
       <c r="L134" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M134" t="n">
-        <v>200</v>
+        <v>60</v>
       </c>
       <c r="N134" t="n">
-        <v>6000</v>
+        <v>8000</v>
       </c>
       <c r="O134" t="n">
-        <v>6000</v>
+        <v>8000</v>
       </c>
       <c r="P134" t="n">
-        <v>6000</v>
+        <v>8000</v>
       </c>
       <c r="Q134" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="R134" t="inlineStr">
@@ -11106,7 +11106,7 @@
         </is>
       </c>
       <c r="S134" t="n">
-        <v>600</v>
+        <v>800</v>
       </c>
       <c r="T134" t="n">
         <v>10</v>
@@ -11127,7 +11127,7 @@
         </is>
       </c>
       <c r="D135" s="2" t="n">
-        <v>44369</v>
+        <v>44390</v>
       </c>
       <c r="E135" t="n">
         <v>7</v>
@@ -11164,16 +11164,16 @@
         </is>
       </c>
       <c r="M135" t="n">
-        <v>180</v>
+        <v>250</v>
       </c>
       <c r="N135" t="n">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="O135" t="n">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="P135" t="n">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="Q135" t="inlineStr">
         <is>
@@ -11186,7 +11186,7 @@
         </is>
       </c>
       <c r="S135" t="n">
-        <v>556</v>
+        <v>500</v>
       </c>
       <c r="T135" t="n">
         <v>18</v>
@@ -11207,7 +11207,7 @@
         </is>
       </c>
       <c r="D136" s="2" t="n">
-        <v>44342</v>
+        <v>44386</v>
       </c>
       <c r="E136" t="n">
         <v>7</v>
@@ -11244,20 +11244,20 @@
         </is>
       </c>
       <c r="M136" t="n">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="N136" t="n">
-        <v>8000</v>
+        <v>6000</v>
       </c>
       <c r="O136" t="n">
-        <v>9000</v>
+        <v>6000</v>
       </c>
       <c r="P136" t="n">
-        <v>8600</v>
+        <v>6000</v>
       </c>
       <c r="Q136" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="R136" t="inlineStr">
@@ -11266,10 +11266,10 @@
         </is>
       </c>
       <c r="S136" t="n">
-        <v>478</v>
+        <v>600</v>
       </c>
       <c r="T136" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="137">
@@ -11287,7 +11287,7 @@
         </is>
       </c>
       <c r="D137" s="2" t="n">
-        <v>44379</v>
+        <v>44308</v>
       </c>
       <c r="E137" t="n">
         <v>7</v>
@@ -11324,16 +11324,16 @@
         </is>
       </c>
       <c r="M137" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="N137" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="O137" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="P137" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="Q137" t="inlineStr">
         <is>
@@ -11346,7 +11346,7 @@
         </is>
       </c>
       <c r="S137" t="n">
-        <v>667</v>
+        <v>778</v>
       </c>
       <c r="T137" t="n">
         <v>18</v>
@@ -11367,7 +11367,7 @@
         </is>
       </c>
       <c r="D138" s="2" t="n">
-        <v>44379</v>
+        <v>44369</v>
       </c>
       <c r="E138" t="n">
         <v>7</v>
@@ -11400,24 +11400,24 @@
       </c>
       <c r="L138" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M138" t="n">
-        <v>160</v>
+        <v>230</v>
       </c>
       <c r="N138" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="O138" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="P138" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="Q138" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R138" t="inlineStr">
@@ -11426,10 +11426,10 @@
         </is>
       </c>
       <c r="S138" t="n">
-        <v>556</v>
+        <v>800</v>
       </c>
       <c r="T138" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="139">
@@ -11447,7 +11447,7 @@
         </is>
       </c>
       <c r="D139" s="2" t="n">
-        <v>44315</v>
+        <v>44369</v>
       </c>
       <c r="E139" t="n">
         <v>7</v>
@@ -11484,7 +11484,7 @@
         </is>
       </c>
       <c r="M139" t="n">
-        <v>140</v>
+        <v>100</v>
       </c>
       <c r="N139" t="n">
         <v>12000</v>
@@ -11497,7 +11497,7 @@
       </c>
       <c r="Q139" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="R139" t="inlineStr">
@@ -11506,10 +11506,10 @@
         </is>
       </c>
       <c r="S139" t="n">
-        <v>1200</v>
+        <v>667</v>
       </c>
       <c r="T139" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
     </row>
     <row r="140">
@@ -11527,7 +11527,7 @@
         </is>
       </c>
       <c r="D140" s="2" t="n">
-        <v>44315</v>
+        <v>44369</v>
       </c>
       <c r="E140" t="n">
         <v>7</v>
@@ -11564,20 +11564,20 @@
         </is>
       </c>
       <c r="M140" t="n">
-        <v>120</v>
+        <v>200</v>
       </c>
       <c r="N140" t="n">
-        <v>10000</v>
+        <v>6000</v>
       </c>
       <c r="O140" t="n">
-        <v>10000</v>
+        <v>6000</v>
       </c>
       <c r="P140" t="n">
-        <v>10000</v>
+        <v>6000</v>
       </c>
       <c r="Q140" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R140" t="inlineStr">
@@ -11586,7 +11586,7 @@
         </is>
       </c>
       <c r="S140" t="n">
-        <v>1000</v>
+        <v>600</v>
       </c>
       <c r="T140" t="n">
         <v>10</v>
@@ -11607,7 +11607,7 @@
         </is>
       </c>
       <c r="D141" s="2" t="n">
-        <v>44315</v>
+        <v>44369</v>
       </c>
       <c r="E141" t="n">
         <v>7</v>
@@ -11640,24 +11640,24 @@
       </c>
       <c r="L141" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M141" t="n">
-        <v>50</v>
+        <v>180</v>
       </c>
       <c r="N141" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="O141" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="P141" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="Q141" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="R141" t="inlineStr">
@@ -11666,10 +11666,10 @@
         </is>
       </c>
       <c r="S141" t="n">
-        <v>800</v>
+        <v>556</v>
       </c>
       <c r="T141" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
     </row>
     <row r="142">
@@ -11687,7 +11687,7 @@
         </is>
       </c>
       <c r="D142" s="2" t="n">
-        <v>44391</v>
+        <v>44433</v>
       </c>
       <c r="E142" t="n">
         <v>7</v>
@@ -11724,20 +11724,20 @@
         </is>
       </c>
       <c r="M142" t="n">
-        <v>200</v>
+        <v>120</v>
       </c>
       <c r="N142" t="n">
-        <v>11000</v>
+        <v>14000</v>
       </c>
       <c r="O142" t="n">
-        <v>11000</v>
+        <v>14000</v>
       </c>
       <c r="P142" t="n">
-        <v>11000</v>
+        <v>14000</v>
       </c>
       <c r="Q142" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="R142" t="inlineStr">
@@ -11746,7 +11746,7 @@
         </is>
       </c>
       <c r="S142" t="n">
-        <v>611</v>
+        <v>778</v>
       </c>
       <c r="T142" t="n">
         <v>18</v>
@@ -11767,7 +11767,7 @@
         </is>
       </c>
       <c r="D143" s="2" t="n">
-        <v>44391</v>
+        <v>44433</v>
       </c>
       <c r="E143" t="n">
         <v>7</v>
@@ -11804,20 +11804,20 @@
         </is>
       </c>
       <c r="M143" t="n">
-        <v>250</v>
+        <v>180</v>
       </c>
       <c r="N143" t="n">
-        <v>9500</v>
+        <v>12000</v>
       </c>
       <c r="O143" t="n">
-        <v>9500</v>
+        <v>12000</v>
       </c>
       <c r="P143" t="n">
-        <v>9500</v>
+        <v>12000</v>
       </c>
       <c r="Q143" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="R143" t="inlineStr">
@@ -11826,7 +11826,7 @@
         </is>
       </c>
       <c r="S143" t="n">
-        <v>528</v>
+        <v>667</v>
       </c>
       <c r="T143" t="n">
         <v>18</v>
@@ -11847,7 +11847,7 @@
         </is>
       </c>
       <c r="D144" s="2" t="n">
-        <v>44446</v>
+        <v>44316</v>
       </c>
       <c r="E144" t="n">
         <v>7</v>
@@ -11884,20 +11884,20 @@
         </is>
       </c>
       <c r="M144" t="n">
-        <v>180</v>
+        <v>160</v>
       </c>
       <c r="N144" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="O144" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="P144" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="Q144" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R144" t="inlineStr">
@@ -11906,10 +11906,10 @@
         </is>
       </c>
       <c r="S144" t="n">
-        <v>778</v>
+        <v>1200</v>
       </c>
       <c r="T144" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="145">
@@ -11927,7 +11927,7 @@
         </is>
       </c>
       <c r="D145" s="2" t="n">
-        <v>44446</v>
+        <v>44316</v>
       </c>
       <c r="E145" t="n">
         <v>7</v>
@@ -11964,20 +11964,20 @@
         </is>
       </c>
       <c r="M145" t="n">
-        <v>230</v>
+        <v>200</v>
       </c>
       <c r="N145" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="O145" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="P145" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="Q145" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R145" t="inlineStr">
@@ -11986,10 +11986,10 @@
         </is>
       </c>
       <c r="S145" t="n">
-        <v>667</v>
+        <v>1000</v>
       </c>
       <c r="T145" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="146">
@@ -12007,7 +12007,7 @@
         </is>
       </c>
       <c r="D146" s="2" t="n">
-        <v>44446</v>
+        <v>44316</v>
       </c>
       <c r="E146" t="n">
         <v>7</v>
@@ -12040,24 +12040,24 @@
       </c>
       <c r="L146" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M146" t="n">
-        <v>150</v>
+        <v>190</v>
       </c>
       <c r="N146" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="O146" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="P146" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="Q146" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="R146" t="inlineStr">
@@ -12066,7 +12066,7 @@
         </is>
       </c>
       <c r="S146" t="n">
-        <v>556</v>
+        <v>722</v>
       </c>
       <c r="T146" t="n">
         <v>18</v>
@@ -12087,7 +12087,7 @@
         </is>
       </c>
       <c r="D147" s="2" t="n">
-        <v>44313</v>
+        <v>44397</v>
       </c>
       <c r="E147" t="n">
         <v>7</v>
@@ -12120,24 +12120,24 @@
       </c>
       <c r="L147" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M147" t="n">
-        <v>350</v>
+        <v>190</v>
       </c>
       <c r="N147" t="n">
-        <v>9000</v>
+        <v>14000</v>
       </c>
       <c r="O147" t="n">
-        <v>9000</v>
+        <v>14000</v>
       </c>
       <c r="P147" t="n">
-        <v>9000</v>
+        <v>14000</v>
       </c>
       <c r="Q147" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="R147" t="inlineStr">
@@ -12146,10 +12146,10 @@
         </is>
       </c>
       <c r="S147" t="n">
-        <v>900</v>
+        <v>778</v>
       </c>
       <c r="T147" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
     </row>
     <row r="148">
@@ -12167,7 +12167,7 @@
         </is>
       </c>
       <c r="D148" s="2" t="n">
-        <v>44313</v>
+        <v>44397</v>
       </c>
       <c r="E148" t="n">
         <v>7</v>
@@ -12200,36 +12200,36 @@
       </c>
       <c r="L148" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M148" t="n">
-        <v>250</v>
+        <v>150</v>
       </c>
       <c r="N148" t="n">
-        <v>6000</v>
+        <v>13000</v>
       </c>
       <c r="O148" t="n">
-        <v>6000</v>
+        <v>13000</v>
       </c>
       <c r="P148" t="n">
-        <v>6000</v>
+        <v>13000</v>
       </c>
       <c r="Q148" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="R148" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S148" t="n">
-        <v>600</v>
+        <v>722</v>
       </c>
       <c r="T148" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
     </row>
     <row r="149">
@@ -12247,7 +12247,7 @@
         </is>
       </c>
       <c r="D149" s="2" t="n">
-        <v>44329</v>
+        <v>44397</v>
       </c>
       <c r="E149" t="n">
         <v>7</v>
@@ -12284,20 +12284,20 @@
         </is>
       </c>
       <c r="M149" t="n">
-        <v>300</v>
+        <v>480</v>
       </c>
       <c r="N149" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="O149" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="P149" t="n">
-        <v>8000</v>
+        <v>9479</v>
       </c>
       <c r="Q149" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="R149" t="inlineStr">
@@ -12306,10 +12306,10 @@
         </is>
       </c>
       <c r="S149" t="n">
-        <v>800</v>
+        <v>527</v>
       </c>
       <c r="T149" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
     </row>
     <row r="150">
@@ -12327,7 +12327,7 @@
         </is>
       </c>
       <c r="D150" s="2" t="n">
-        <v>44449</v>
+        <v>44363</v>
       </c>
       <c r="E150" t="n">
         <v>7</v>
@@ -12364,16 +12364,16 @@
         </is>
       </c>
       <c r="M150" t="n">
-        <v>300</v>
+        <v>280</v>
       </c>
       <c r="N150" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="O150" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="P150" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="Q150" t="inlineStr">
         <is>
@@ -12382,11 +12382,11 @@
       </c>
       <c r="R150" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S150" t="n">
-        <v>667</v>
+        <v>556</v>
       </c>
       <c r="T150" t="n">
         <v>18</v>
@@ -12407,7 +12407,7 @@
         </is>
       </c>
       <c r="D151" s="2" t="n">
-        <v>44438</v>
+        <v>44363</v>
       </c>
       <c r="E151" t="n">
         <v>7</v>
@@ -12440,20 +12440,20 @@
       </c>
       <c r="L151" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M151" t="n">
-        <v>230</v>
+        <v>300</v>
       </c>
       <c r="N151" t="n">
-        <v>13000</v>
+        <v>8000</v>
       </c>
       <c r="O151" t="n">
-        <v>13000</v>
+        <v>8000</v>
       </c>
       <c r="P151" t="n">
-        <v>13000</v>
+        <v>8000</v>
       </c>
       <c r="Q151" t="inlineStr">
         <is>
@@ -12462,11 +12462,11 @@
       </c>
       <c r="R151" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S151" t="n">
-        <v>722</v>
+        <v>444</v>
       </c>
       <c r="T151" t="n">
         <v>18</v>
@@ -12520,20 +12520,20 @@
       </c>
       <c r="L152" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M152" t="n">
-        <v>300</v>
+        <v>230</v>
       </c>
       <c r="N152" t="n">
-        <v>11000</v>
+        <v>13000</v>
       </c>
       <c r="O152" t="n">
-        <v>11000</v>
+        <v>13000</v>
       </c>
       <c r="P152" t="n">
-        <v>11000</v>
+        <v>13000</v>
       </c>
       <c r="Q152" t="inlineStr">
         <is>
@@ -12546,7 +12546,7 @@
         </is>
       </c>
       <c r="S152" t="n">
-        <v>611</v>
+        <v>722</v>
       </c>
       <c r="T152" t="n">
         <v>18</v>
@@ -12567,7 +12567,7 @@
         </is>
       </c>
       <c r="D153" s="2" t="n">
-        <v>44428</v>
+        <v>44438</v>
       </c>
       <c r="E153" t="n">
         <v>7</v>
@@ -12600,20 +12600,20 @@
       </c>
       <c r="L153" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M153" t="n">
-        <v>230</v>
+        <v>300</v>
       </c>
       <c r="N153" t="n">
-        <v>14000</v>
+        <v>11000</v>
       </c>
       <c r="O153" t="n">
-        <v>14000</v>
+        <v>11000</v>
       </c>
       <c r="P153" t="n">
-        <v>14000</v>
+        <v>11000</v>
       </c>
       <c r="Q153" t="inlineStr">
         <is>
@@ -12626,7 +12626,7 @@
         </is>
       </c>
       <c r="S153" t="n">
-        <v>778</v>
+        <v>611</v>
       </c>
       <c r="T153" t="n">
         <v>18</v>
@@ -12647,7 +12647,7 @@
         </is>
       </c>
       <c r="D154" s="2" t="n">
-        <v>44428</v>
+        <v>44372</v>
       </c>
       <c r="E154" t="n">
         <v>7</v>
@@ -12680,20 +12680,20 @@
       </c>
       <c r="L154" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M154" t="n">
-        <v>200</v>
+        <v>130</v>
       </c>
       <c r="N154" t="n">
-        <v>12000</v>
+        <v>11000</v>
       </c>
       <c r="O154" t="n">
-        <v>12000</v>
+        <v>11000</v>
       </c>
       <c r="P154" t="n">
-        <v>12000</v>
+        <v>11000</v>
       </c>
       <c r="Q154" t="inlineStr">
         <is>
@@ -12706,7 +12706,7 @@
         </is>
       </c>
       <c r="S154" t="n">
-        <v>667</v>
+        <v>611</v>
       </c>
       <c r="T154" t="n">
         <v>18</v>
@@ -12727,7 +12727,7 @@
         </is>
       </c>
       <c r="D155" s="2" t="n">
-        <v>44428</v>
+        <v>44372</v>
       </c>
       <c r="E155" t="n">
         <v>7</v>
@@ -12760,24 +12760,24 @@
       </c>
       <c r="L155" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M155" t="n">
         <v>120</v>
       </c>
       <c r="N155" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="O155" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="P155" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="Q155" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="R155" t="inlineStr">
@@ -12786,7 +12786,7 @@
         </is>
       </c>
       <c r="S155" t="n">
-        <v>444</v>
+        <v>500</v>
       </c>
       <c r="T155" t="n">
         <v>18</v>
@@ -12807,7 +12807,7 @@
         </is>
       </c>
       <c r="D156" s="2" t="n">
-        <v>44442</v>
+        <v>44372</v>
       </c>
       <c r="E156" t="n">
         <v>7</v>
@@ -12840,20 +12840,20 @@
       </c>
       <c r="L156" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M156" t="n">
-        <v>180</v>
+        <v>100</v>
       </c>
       <c r="N156" t="n">
-        <v>14000</v>
+        <v>7000</v>
       </c>
       <c r="O156" t="n">
-        <v>14000</v>
+        <v>7000</v>
       </c>
       <c r="P156" t="n">
-        <v>14000</v>
+        <v>7000</v>
       </c>
       <c r="Q156" t="inlineStr">
         <is>
@@ -12866,7 +12866,7 @@
         </is>
       </c>
       <c r="S156" t="n">
-        <v>778</v>
+        <v>389</v>
       </c>
       <c r="T156" t="n">
         <v>18</v>
@@ -12887,7 +12887,7 @@
         </is>
       </c>
       <c r="D157" s="2" t="n">
-        <v>44442</v>
+        <v>44356</v>
       </c>
       <c r="E157" t="n">
         <v>7</v>
@@ -12920,11 +12920,11 @@
       </c>
       <c r="L157" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M157" t="n">
-        <v>230</v>
+        <v>200</v>
       </c>
       <c r="N157" t="n">
         <v>12000</v>
@@ -12967,7 +12967,7 @@
         </is>
       </c>
       <c r="D158" s="2" t="n">
-        <v>44442</v>
+        <v>44356</v>
       </c>
       <c r="E158" t="n">
         <v>7</v>
@@ -13004,7 +13004,7 @@
         </is>
       </c>
       <c r="M158" t="n">
-        <v>250</v>
+        <v>140</v>
       </c>
       <c r="N158" t="n">
         <v>10000</v>
@@ -13022,7 +13022,7 @@
       </c>
       <c r="R158" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S158" t="n">
@@ -13047,7 +13047,7 @@
         </is>
       </c>
       <c r="D159" s="2" t="n">
-        <v>44442</v>
+        <v>44356</v>
       </c>
       <c r="E159" t="n">
         <v>7</v>
@@ -13084,16 +13084,16 @@
         </is>
       </c>
       <c r="M159" t="n">
-        <v>200</v>
+        <v>80</v>
       </c>
       <c r="N159" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="O159" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="P159" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="Q159" t="inlineStr">
         <is>
@@ -13106,7 +13106,7 @@
         </is>
       </c>
       <c r="S159" t="n">
-        <v>556</v>
+        <v>444</v>
       </c>
       <c r="T159" t="n">
         <v>18</v>
@@ -13127,7 +13127,7 @@
         </is>
       </c>
       <c r="D160" s="2" t="n">
-        <v>44442</v>
+        <v>44351</v>
       </c>
       <c r="E160" t="n">
         <v>7</v>
@@ -13160,20 +13160,20 @@
       </c>
       <c r="L160" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M160" t="n">
-        <v>200</v>
+        <v>260</v>
       </c>
       <c r="N160" t="n">
-        <v>8000</v>
+        <v>11000</v>
       </c>
       <c r="O160" t="n">
-        <v>8000</v>
+        <v>11000</v>
       </c>
       <c r="P160" t="n">
-        <v>8000</v>
+        <v>11000</v>
       </c>
       <c r="Q160" t="inlineStr">
         <is>
@@ -13182,11 +13182,11 @@
       </c>
       <c r="R160" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S160" t="n">
-        <v>444</v>
+        <v>611</v>
       </c>
       <c r="T160" t="n">
         <v>18</v>
@@ -13207,7 +13207,7 @@
         </is>
       </c>
       <c r="D161" s="2" t="n">
-        <v>44435</v>
+        <v>44351</v>
       </c>
       <c r="E161" t="n">
         <v>7</v>
@@ -13240,20 +13240,20 @@
       </c>
       <c r="L161" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M161" t="n">
-        <v>390</v>
+        <v>200</v>
       </c>
       <c r="N161" t="n">
-        <v>14000</v>
+        <v>10000</v>
       </c>
       <c r="O161" t="n">
-        <v>14000</v>
+        <v>10000</v>
       </c>
       <c r="P161" t="n">
-        <v>14000</v>
+        <v>10000</v>
       </c>
       <c r="Q161" t="inlineStr">
         <is>
@@ -13266,7 +13266,7 @@
         </is>
       </c>
       <c r="S161" t="n">
-        <v>778</v>
+        <v>556</v>
       </c>
       <c r="T161" t="n">
         <v>18</v>
@@ -13287,7 +13287,7 @@
         </is>
       </c>
       <c r="D162" s="2" t="n">
-        <v>44435</v>
+        <v>44351</v>
       </c>
       <c r="E162" t="n">
         <v>7</v>
@@ -13320,11 +13320,11 @@
       </c>
       <c r="L162" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M162" t="n">
-        <v>160</v>
+        <v>230</v>
       </c>
       <c r="N162" t="n">
         <v>8000</v>
@@ -13342,7 +13342,7 @@
       </c>
       <c r="R162" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S162" t="n">
@@ -13367,7 +13367,7 @@
         </is>
       </c>
       <c r="D163" s="2" t="n">
-        <v>44435</v>
+        <v>44365</v>
       </c>
       <c r="E163" t="n">
         <v>7</v>
@@ -13404,20 +13404,20 @@
         </is>
       </c>
       <c r="M163" t="n">
-        <v>330</v>
+        <v>90</v>
       </c>
       <c r="N163" t="n">
-        <v>14000</v>
+        <v>11000</v>
       </c>
       <c r="O163" t="n">
-        <v>14000</v>
+        <v>11000</v>
       </c>
       <c r="P163" t="n">
-        <v>14000</v>
+        <v>11000</v>
       </c>
       <c r="Q163" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="R163" t="inlineStr">
@@ -13426,7 +13426,7 @@
         </is>
       </c>
       <c r="S163" t="n">
-        <v>778</v>
+        <v>611</v>
       </c>
       <c r="T163" t="n">
         <v>18</v>
@@ -13447,7 +13447,7 @@
         </is>
       </c>
       <c r="D164" s="2" t="n">
-        <v>44435</v>
+        <v>44365</v>
       </c>
       <c r="E164" t="n">
         <v>7</v>
@@ -13484,16 +13484,16 @@
         </is>
       </c>
       <c r="M164" t="n">
-        <v>250</v>
+        <v>200</v>
       </c>
       <c r="N164" t="n">
-        <v>12000</v>
+        <v>9000</v>
       </c>
       <c r="O164" t="n">
-        <v>12000</v>
+        <v>9000</v>
       </c>
       <c r="P164" t="n">
-        <v>12000</v>
+        <v>9000</v>
       </c>
       <c r="Q164" t="inlineStr">
         <is>
@@ -13506,7 +13506,7 @@
         </is>
       </c>
       <c r="S164" t="n">
-        <v>667</v>
+        <v>500</v>
       </c>
       <c r="T164" t="n">
         <v>18</v>
@@ -13527,7 +13527,7 @@
         </is>
       </c>
       <c r="D165" s="2" t="n">
-        <v>44435</v>
+        <v>44365</v>
       </c>
       <c r="E165" t="n">
         <v>7</v>
@@ -13560,11 +13560,11 @@
       </c>
       <c r="L165" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M165" t="n">
-        <v>230</v>
+        <v>150</v>
       </c>
       <c r="N165" t="n">
         <v>7000</v>
@@ -13577,7 +13577,7 @@
       </c>
       <c r="Q165" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="R165" t="inlineStr">
@@ -13586,10 +13586,10 @@
         </is>
       </c>
       <c r="S165" t="n">
-        <v>700</v>
+        <v>389</v>
       </c>
       <c r="T165" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
     </row>
     <row r="166">
@@ -13607,7 +13607,7 @@
         </is>
       </c>
       <c r="D166" s="2" t="n">
-        <v>44435</v>
+        <v>44306</v>
       </c>
       <c r="E166" t="n">
         <v>7</v>
@@ -13640,24 +13640,24 @@
       </c>
       <c r="L166" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M166" t="n">
-        <v>180</v>
+        <v>230</v>
       </c>
       <c r="N166" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="O166" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="P166" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="Q166" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R166" t="inlineStr">
@@ -13666,10 +13666,10 @@
         </is>
       </c>
       <c r="S166" t="n">
-        <v>667</v>
+        <v>1000</v>
       </c>
       <c r="T166" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="167">
@@ -13687,7 +13687,7 @@
         </is>
       </c>
       <c r="D167" s="2" t="n">
-        <v>44435</v>
+        <v>44306</v>
       </c>
       <c r="E167" t="n">
         <v>7</v>
@@ -13720,20 +13720,20 @@
       </c>
       <c r="L167" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M167" t="n">
-        <v>240</v>
+        <v>180</v>
       </c>
       <c r="N167" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="O167" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="P167" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="Q167" t="inlineStr">
         <is>
@@ -13746,7 +13746,7 @@
         </is>
       </c>
       <c r="S167" t="n">
-        <v>556</v>
+        <v>722</v>
       </c>
       <c r="T167" t="n">
         <v>18</v>
@@ -13767,7 +13767,7 @@
         </is>
       </c>
       <c r="D168" s="2" t="n">
-        <v>44376</v>
+        <v>44306</v>
       </c>
       <c r="E168" t="n">
         <v>7</v>
@@ -13804,20 +13804,20 @@
         </is>
       </c>
       <c r="M168" t="n">
-        <v>260</v>
+        <v>230</v>
       </c>
       <c r="N168" t="n">
-        <v>9000</v>
+        <v>8000</v>
       </c>
       <c r="O168" t="n">
-        <v>9000</v>
+        <v>8000</v>
       </c>
       <c r="P168" t="n">
-        <v>9000</v>
+        <v>8000</v>
       </c>
       <c r="Q168" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R168" t="inlineStr">
@@ -13826,10 +13826,10 @@
         </is>
       </c>
       <c r="S168" t="n">
-        <v>500</v>
+        <v>800</v>
       </c>
       <c r="T168" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="169">
@@ -13847,7 +13847,7 @@
         </is>
       </c>
       <c r="D169" s="2" t="n">
-        <v>44412</v>
+        <v>44357</v>
       </c>
       <c r="E169" t="n">
         <v>7</v>
@@ -13884,16 +13884,16 @@
         </is>
       </c>
       <c r="M169" t="n">
-        <v>180</v>
+        <v>130</v>
       </c>
       <c r="N169" t="n">
-        <v>14000</v>
+        <v>13000</v>
       </c>
       <c r="O169" t="n">
-        <v>14000</v>
+        <v>13000</v>
       </c>
       <c r="P169" t="n">
-        <v>14000</v>
+        <v>13000</v>
       </c>
       <c r="Q169" t="inlineStr">
         <is>
@@ -13906,7 +13906,7 @@
         </is>
       </c>
       <c r="S169" t="n">
-        <v>778</v>
+        <v>722</v>
       </c>
       <c r="T169" t="n">
         <v>18</v>
@@ -13927,7 +13927,7 @@
         </is>
       </c>
       <c r="D170" s="2" t="n">
-        <v>44412</v>
+        <v>44357</v>
       </c>
       <c r="E170" t="n">
         <v>7</v>
@@ -13964,16 +13964,16 @@
         </is>
       </c>
       <c r="M170" t="n">
-        <v>230</v>
+        <v>190</v>
       </c>
       <c r="N170" t="n">
-        <v>12000</v>
+        <v>11000</v>
       </c>
       <c r="O170" t="n">
-        <v>12000</v>
+        <v>11000</v>
       </c>
       <c r="P170" t="n">
-        <v>12000</v>
+        <v>11000</v>
       </c>
       <c r="Q170" t="inlineStr">
         <is>
@@ -13986,7 +13986,7 @@
         </is>
       </c>
       <c r="S170" t="n">
-        <v>667</v>
+        <v>611</v>
       </c>
       <c r="T170" t="n">
         <v>18</v>
@@ -14007,7 +14007,7 @@
         </is>
       </c>
       <c r="D171" s="2" t="n">
-        <v>44314</v>
+        <v>44410</v>
       </c>
       <c r="E171" t="n">
         <v>7</v>
@@ -14040,24 +14040,24 @@
       </c>
       <c r="L171" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M171" t="n">
-        <v>150</v>
+        <v>230</v>
       </c>
       <c r="N171" t="n">
-        <v>11000</v>
+        <v>12000</v>
       </c>
       <c r="O171" t="n">
-        <v>11000</v>
+        <v>12000</v>
       </c>
       <c r="P171" t="n">
-        <v>11000</v>
+        <v>12000</v>
       </c>
       <c r="Q171" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="R171" t="inlineStr">
@@ -14066,10 +14066,10 @@
         </is>
       </c>
       <c r="S171" t="n">
-        <v>1100</v>
+        <v>667</v>
       </c>
       <c r="T171" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
     </row>
     <row r="172">
@@ -14087,7 +14087,7 @@
         </is>
       </c>
       <c r="D172" s="2" t="n">
-        <v>44314</v>
+        <v>44410</v>
       </c>
       <c r="E172" t="n">
         <v>7</v>
@@ -14124,20 +14124,20 @@
         </is>
       </c>
       <c r="M172" t="n">
-        <v>60</v>
+        <v>230</v>
       </c>
       <c r="N172" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="O172" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="P172" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="Q172" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="R172" t="inlineStr">
@@ -14146,7 +14146,7 @@
         </is>
       </c>
       <c r="S172" t="n">
-        <v>900</v>
+        <v>700</v>
       </c>
       <c r="T172" t="n">
         <v>10</v>
@@ -14167,7 +14167,7 @@
         </is>
       </c>
       <c r="D173" s="2" t="n">
-        <v>44448</v>
+        <v>44376</v>
       </c>
       <c r="E173" t="n">
         <v>7</v>
@@ -14200,24 +14200,24 @@
       </c>
       <c r="L173" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M173" t="n">
-        <v>180</v>
+        <v>260</v>
       </c>
       <c r="N173" t="n">
-        <v>13000</v>
+        <v>9000</v>
       </c>
       <c r="O173" t="n">
-        <v>13000</v>
+        <v>9000</v>
       </c>
       <c r="P173" t="n">
-        <v>13000</v>
+        <v>9000</v>
       </c>
       <c r="Q173" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="R173" t="inlineStr">
@@ -14226,7 +14226,7 @@
         </is>
       </c>
       <c r="S173" t="n">
-        <v>722</v>
+        <v>500</v>
       </c>
       <c r="T173" t="n">
         <v>18</v>
@@ -14247,7 +14247,7 @@
         </is>
       </c>
       <c r="D174" s="2" t="n">
-        <v>44448</v>
+        <v>44358</v>
       </c>
       <c r="E174" t="n">
         <v>7</v>
@@ -14280,24 +14280,24 @@
       </c>
       <c r="L174" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M174" t="n">
         <v>230</v>
       </c>
       <c r="N174" t="n">
-        <v>11000</v>
+        <v>13000</v>
       </c>
       <c r="O174" t="n">
-        <v>11000</v>
+        <v>13000</v>
       </c>
       <c r="P174" t="n">
-        <v>11000</v>
+        <v>13000</v>
       </c>
       <c r="Q174" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="R174" t="inlineStr">
@@ -14306,7 +14306,7 @@
         </is>
       </c>
       <c r="S174" t="n">
-        <v>611</v>
+        <v>722</v>
       </c>
       <c r="T174" t="n">
         <v>18</v>
@@ -14327,7 +14327,7 @@
         </is>
       </c>
       <c r="D175" s="2" t="n">
-        <v>44399</v>
+        <v>44358</v>
       </c>
       <c r="E175" t="n">
         <v>7</v>
@@ -14360,24 +14360,24 @@
       </c>
       <c r="L175" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M175" t="n">
-        <v>260</v>
+        <v>250</v>
       </c>
       <c r="N175" t="n">
-        <v>5000</v>
+        <v>9000</v>
       </c>
       <c r="O175" t="n">
-        <v>5000</v>
+        <v>9000</v>
       </c>
       <c r="P175" t="n">
-        <v>5000</v>
+        <v>9000</v>
       </c>
       <c r="Q175" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="R175" t="inlineStr">
@@ -14386,7 +14386,7 @@
         </is>
       </c>
       <c r="S175" t="n">
-        <v>500</v>
+        <v>900</v>
       </c>
       <c r="T175" t="n">
         <v>10</v>
@@ -14407,7 +14407,7 @@
         </is>
       </c>
       <c r="D176" s="2" t="n">
-        <v>44399</v>
+        <v>44358</v>
       </c>
       <c r="E176" t="n">
         <v>7</v>
@@ -14444,20 +14444,20 @@
         </is>
       </c>
       <c r="M176" t="n">
-        <v>260</v>
+        <v>210</v>
       </c>
       <c r="N176" t="n">
-        <v>10000</v>
+        <v>11000</v>
       </c>
       <c r="O176" t="n">
-        <v>10000</v>
+        <v>11000</v>
       </c>
       <c r="P176" t="n">
-        <v>10000</v>
+        <v>11000</v>
       </c>
       <c r="Q176" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos granel</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="R176" t="inlineStr">
@@ -14466,7 +14466,7 @@
         </is>
       </c>
       <c r="S176" t="n">
-        <v>556</v>
+        <v>611</v>
       </c>
       <c r="T176" t="n">
         <v>18</v>
@@ -14487,7 +14487,7 @@
         </is>
       </c>
       <c r="D177" s="2" t="n">
-        <v>44400</v>
+        <v>44358</v>
       </c>
       <c r="E177" t="n">
         <v>7</v>
@@ -14520,24 +14520,24 @@
       </c>
       <c r="L177" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M177" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="N177" t="n">
-        <v>13000</v>
+        <v>7000</v>
       </c>
       <c r="O177" t="n">
-        <v>13000</v>
+        <v>7000</v>
       </c>
       <c r="P177" t="n">
-        <v>13000</v>
+        <v>7000</v>
       </c>
       <c r="Q177" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="R177" t="inlineStr">
@@ -14546,10 +14546,10 @@
         </is>
       </c>
       <c r="S177" t="n">
-        <v>722</v>
+        <v>700</v>
       </c>
       <c r="T177" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="178">
@@ -14567,7 +14567,7 @@
         </is>
       </c>
       <c r="D178" s="2" t="n">
-        <v>44400</v>
+        <v>44358</v>
       </c>
       <c r="E178" t="n">
         <v>7</v>
@@ -14600,20 +14600,20 @@
       </c>
       <c r="L178" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M178" t="n">
-        <v>180</v>
+        <v>190</v>
       </c>
       <c r="N178" t="n">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="O178" t="n">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="P178" t="n">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="Q178" t="inlineStr">
         <is>
@@ -14626,7 +14626,7 @@
         </is>
       </c>
       <c r="S178" t="n">
-        <v>556</v>
+        <v>500</v>
       </c>
       <c r="T178" t="n">
         <v>18</v>
@@ -14647,7 +14647,7 @@
         </is>
       </c>
       <c r="D179" s="2" t="n">
-        <v>44400</v>
+        <v>44425</v>
       </c>
       <c r="E179" t="n">
         <v>7</v>
@@ -14684,7 +14684,7 @@
         </is>
       </c>
       <c r="M179" t="n">
-        <v>150</v>
+        <v>300</v>
       </c>
       <c r="N179" t="n">
         <v>8000</v>
@@ -14710,6 +14710,166 @@
       </c>
       <c r="T179" t="n">
         <v>18</v>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" t="n">
+        <v>5</v>
+      </c>
+      <c r="B180" t="inlineStr">
+        <is>
+          <t>Macroferia Regional de Talca</t>
+        </is>
+      </c>
+      <c r="C180" t="inlineStr">
+        <is>
+          <t>Maule</t>
+        </is>
+      </c>
+      <c r="D180" s="2" t="n">
+        <v>44323</v>
+      </c>
+      <c r="E180" t="n">
+        <v>7</v>
+      </c>
+      <c r="F180" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G180" t="n">
+        <v>100101</v>
+      </c>
+      <c r="H180" t="inlineStr">
+        <is>
+          <t>Berries</t>
+        </is>
+      </c>
+      <c r="I180" t="n">
+        <v>100101007</v>
+      </c>
+      <c r="J180" t="inlineStr">
+        <is>
+          <t>Kiwi</t>
+        </is>
+      </c>
+      <c r="K180" t="inlineStr">
+        <is>
+          <t>Hayward</t>
+        </is>
+      </c>
+      <c r="L180" t="inlineStr">
+        <is>
+          <t>Especial</t>
+        </is>
+      </c>
+      <c r="M180" t="n">
+        <v>150</v>
+      </c>
+      <c r="N180" t="n">
+        <v>10000</v>
+      </c>
+      <c r="O180" t="n">
+        <v>10000</v>
+      </c>
+      <c r="P180" t="n">
+        <v>10000</v>
+      </c>
+      <c r="Q180" t="inlineStr">
+        <is>
+          <t>$/bandeja 10 kilos</t>
+        </is>
+      </c>
+      <c r="R180" t="inlineStr">
+        <is>
+          <t>Provincia de Curicó</t>
+        </is>
+      </c>
+      <c r="S180" t="n">
+        <v>1000</v>
+      </c>
+      <c r="T180" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" t="n">
+        <v>5</v>
+      </c>
+      <c r="B181" t="inlineStr">
+        <is>
+          <t>Macroferia Regional de Talca</t>
+        </is>
+      </c>
+      <c r="C181" t="inlineStr">
+        <is>
+          <t>Maule</t>
+        </is>
+      </c>
+      <c r="D181" s="2" t="n">
+        <v>44323</v>
+      </c>
+      <c r="E181" t="n">
+        <v>7</v>
+      </c>
+      <c r="F181" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G181" t="n">
+        <v>100101</v>
+      </c>
+      <c r="H181" t="inlineStr">
+        <is>
+          <t>Berries</t>
+        </is>
+      </c>
+      <c r="I181" t="n">
+        <v>100101007</v>
+      </c>
+      <c r="J181" t="inlineStr">
+        <is>
+          <t>Kiwi</t>
+        </is>
+      </c>
+      <c r="K181" t="inlineStr">
+        <is>
+          <t>Hayward</t>
+        </is>
+      </c>
+      <c r="L181" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="M181" t="n">
+        <v>100</v>
+      </c>
+      <c r="N181" t="n">
+        <v>9000</v>
+      </c>
+      <c r="O181" t="n">
+        <v>9000</v>
+      </c>
+      <c r="P181" t="n">
+        <v>9000</v>
+      </c>
+      <c r="Q181" t="inlineStr">
+        <is>
+          <t>$/bandeja 10 kilos</t>
+        </is>
+      </c>
+      <c r="R181" t="inlineStr">
+        <is>
+          <t>Provincia de Curicó</t>
+        </is>
+      </c>
+      <c r="S181" t="n">
+        <v>900</v>
+      </c>
+      <c r="T181" t="n">
+        <v>10</v>
       </c>
     </row>
   </sheetData>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Macroferia Regional de Talca - Kiwi.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Macroferia Regional de Talca - Kiwi.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T181"/>
+  <dimension ref="A1:T183"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -10247,7 +10247,7 @@
         </is>
       </c>
       <c r="D124" s="2" t="n">
-        <v>44418</v>
+        <v>44455</v>
       </c>
       <c r="E124" t="n">
         <v>7</v>
@@ -10280,20 +10280,20 @@
       </c>
       <c r="L124" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M124" t="n">
-        <v>100</v>
+        <v>150</v>
       </c>
       <c r="N124" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="O124" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="P124" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="Q124" t="inlineStr">
         <is>
@@ -10306,7 +10306,7 @@
         </is>
       </c>
       <c r="S124" t="n">
-        <v>778</v>
+        <v>667</v>
       </c>
       <c r="T124" t="n">
         <v>18</v>
@@ -10327,7 +10327,7 @@
         </is>
       </c>
       <c r="D125" s="2" t="n">
-        <v>44418</v>
+        <v>44455</v>
       </c>
       <c r="E125" t="n">
         <v>7</v>
@@ -10360,20 +10360,20 @@
       </c>
       <c r="L125" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M125" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="N125" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="O125" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="P125" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="Q125" t="inlineStr">
         <is>
@@ -10386,7 +10386,7 @@
         </is>
       </c>
       <c r="S125" t="n">
-        <v>667</v>
+        <v>556</v>
       </c>
       <c r="T125" t="n">
         <v>18</v>
@@ -10440,20 +10440,20 @@
       </c>
       <c r="L126" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M126" t="n">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="N126" t="n">
-        <v>10000</v>
+        <v>14000</v>
       </c>
       <c r="O126" t="n">
-        <v>10000</v>
+        <v>14000</v>
       </c>
       <c r="P126" t="n">
-        <v>10000</v>
+        <v>14000</v>
       </c>
       <c r="Q126" t="inlineStr">
         <is>
@@ -10466,7 +10466,7 @@
         </is>
       </c>
       <c r="S126" t="n">
-        <v>556</v>
+        <v>778</v>
       </c>
       <c r="T126" t="n">
         <v>18</v>
@@ -10487,7 +10487,7 @@
         </is>
       </c>
       <c r="D127" s="2" t="n">
-        <v>44414</v>
+        <v>44418</v>
       </c>
       <c r="E127" t="n">
         <v>7</v>
@@ -10524,20 +10524,20 @@
         </is>
       </c>
       <c r="M127" t="n">
-        <v>150</v>
+        <v>200</v>
       </c>
       <c r="N127" t="n">
-        <v>8000</v>
+        <v>12000</v>
       </c>
       <c r="O127" t="n">
-        <v>8000</v>
+        <v>12000</v>
       </c>
       <c r="P127" t="n">
-        <v>8000</v>
+        <v>12000</v>
       </c>
       <c r="Q127" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="R127" t="inlineStr">
@@ -10546,10 +10546,10 @@
         </is>
       </c>
       <c r="S127" t="n">
-        <v>800</v>
+        <v>667</v>
       </c>
       <c r="T127" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
     </row>
     <row r="128">
@@ -10567,7 +10567,7 @@
         </is>
       </c>
       <c r="D128" s="2" t="n">
-        <v>44414</v>
+        <v>44418</v>
       </c>
       <c r="E128" t="n">
         <v>7</v>
@@ -10600,20 +10600,20 @@
       </c>
       <c r="L128" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M128" t="n">
-        <v>190</v>
+        <v>90</v>
       </c>
       <c r="N128" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="O128" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="P128" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="Q128" t="inlineStr">
         <is>
@@ -10626,7 +10626,7 @@
         </is>
       </c>
       <c r="S128" t="n">
-        <v>667</v>
+        <v>556</v>
       </c>
       <c r="T128" t="n">
         <v>18</v>
@@ -10680,24 +10680,24 @@
       </c>
       <c r="L129" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M129" t="n">
-        <v>100</v>
+        <v>150</v>
       </c>
       <c r="N129" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="O129" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="P129" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="Q129" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R129" t="inlineStr">
@@ -10706,10 +10706,10 @@
         </is>
       </c>
       <c r="S129" t="n">
-        <v>556</v>
+        <v>800</v>
       </c>
       <c r="T129" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="130">
@@ -10727,7 +10727,7 @@
         </is>
       </c>
       <c r="D130" s="2" t="n">
-        <v>44389</v>
+        <v>44414</v>
       </c>
       <c r="E130" t="n">
         <v>7</v>
@@ -10764,20 +10764,20 @@
         </is>
       </c>
       <c r="M130" t="n">
-        <v>300</v>
+        <v>190</v>
       </c>
       <c r="N130" t="n">
-        <v>6000</v>
+        <v>12000</v>
       </c>
       <c r="O130" t="n">
-        <v>6000</v>
+        <v>12000</v>
       </c>
       <c r="P130" t="n">
-        <v>6000</v>
+        <v>12000</v>
       </c>
       <c r="Q130" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="R130" t="inlineStr">
@@ -10786,10 +10786,10 @@
         </is>
       </c>
       <c r="S130" t="n">
-        <v>600</v>
+        <v>667</v>
       </c>
       <c r="T130" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
     </row>
     <row r="131">
@@ -10807,7 +10807,7 @@
         </is>
       </c>
       <c r="D131" s="2" t="n">
-        <v>44343</v>
+        <v>44414</v>
       </c>
       <c r="E131" t="n">
         <v>7</v>
@@ -10840,11 +10840,11 @@
       </c>
       <c r="L131" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M131" t="n">
-        <v>120</v>
+        <v>100</v>
       </c>
       <c r="N131" t="n">
         <v>10000</v>
@@ -10887,7 +10887,7 @@
         </is>
       </c>
       <c r="D132" s="2" t="n">
-        <v>44343</v>
+        <v>44389</v>
       </c>
       <c r="E132" t="n">
         <v>7</v>
@@ -10924,20 +10924,20 @@
         </is>
       </c>
       <c r="M132" t="n">
-        <v>160</v>
+        <v>300</v>
       </c>
       <c r="N132" t="n">
-        <v>9000</v>
+        <v>6000</v>
       </c>
       <c r="O132" t="n">
-        <v>9000</v>
+        <v>6000</v>
       </c>
       <c r="P132" t="n">
-        <v>9000</v>
+        <v>6000</v>
       </c>
       <c r="Q132" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="R132" t="inlineStr">
@@ -10946,10 +10946,10 @@
         </is>
       </c>
       <c r="S132" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="T132" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="133">
@@ -10967,7 +10967,7 @@
         </is>
       </c>
       <c r="D133" s="2" t="n">
-        <v>44280</v>
+        <v>44343</v>
       </c>
       <c r="E133" t="n">
         <v>7</v>
@@ -11000,11 +11000,11 @@
       </c>
       <c r="L133" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M133" t="n">
-        <v>100</v>
+        <v>120</v>
       </c>
       <c r="N133" t="n">
         <v>10000</v>
@@ -11017,7 +11017,7 @@
       </c>
       <c r="Q133" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="R133" t="inlineStr">
@@ -11026,10 +11026,10 @@
         </is>
       </c>
       <c r="S133" t="n">
-        <v>1000</v>
+        <v>556</v>
       </c>
       <c r="T133" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
     </row>
     <row r="134">
@@ -11047,7 +11047,7 @@
         </is>
       </c>
       <c r="D134" s="2" t="n">
-        <v>44280</v>
+        <v>44343</v>
       </c>
       <c r="E134" t="n">
         <v>7</v>
@@ -11080,24 +11080,24 @@
       </c>
       <c r="L134" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M134" t="n">
-        <v>60</v>
+        <v>160</v>
       </c>
       <c r="N134" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="O134" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="P134" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="Q134" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="R134" t="inlineStr">
@@ -11106,10 +11106,10 @@
         </is>
       </c>
       <c r="S134" t="n">
-        <v>800</v>
+        <v>500</v>
       </c>
       <c r="T134" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
     </row>
     <row r="135">
@@ -11127,7 +11127,7 @@
         </is>
       </c>
       <c r="D135" s="2" t="n">
-        <v>44390</v>
+        <v>44280</v>
       </c>
       <c r="E135" t="n">
         <v>7</v>
@@ -11164,20 +11164,20 @@
         </is>
       </c>
       <c r="M135" t="n">
-        <v>250</v>
+        <v>100</v>
       </c>
       <c r="N135" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="O135" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="P135" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="Q135" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="R135" t="inlineStr">
@@ -11186,10 +11186,10 @@
         </is>
       </c>
       <c r="S135" t="n">
-        <v>500</v>
+        <v>1000</v>
       </c>
       <c r="T135" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="136">
@@ -11207,7 +11207,7 @@
         </is>
       </c>
       <c r="D136" s="2" t="n">
-        <v>44386</v>
+        <v>44280</v>
       </c>
       <c r="E136" t="n">
         <v>7</v>
@@ -11240,20 +11240,20 @@
       </c>
       <c r="L136" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M136" t="n">
-        <v>300</v>
+        <v>60</v>
       </c>
       <c r="N136" t="n">
-        <v>6000</v>
+        <v>8000</v>
       </c>
       <c r="O136" t="n">
-        <v>6000</v>
+        <v>8000</v>
       </c>
       <c r="P136" t="n">
-        <v>6000</v>
+        <v>8000</v>
       </c>
       <c r="Q136" t="inlineStr">
         <is>
@@ -11266,7 +11266,7 @@
         </is>
       </c>
       <c r="S136" t="n">
-        <v>600</v>
+        <v>800</v>
       </c>
       <c r="T136" t="n">
         <v>10</v>
@@ -11287,7 +11287,7 @@
         </is>
       </c>
       <c r="D137" s="2" t="n">
-        <v>44308</v>
+        <v>44390</v>
       </c>
       <c r="E137" t="n">
         <v>7</v>
@@ -11320,20 +11320,20 @@
       </c>
       <c r="L137" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M137" t="n">
-        <v>100</v>
+        <v>250</v>
       </c>
       <c r="N137" t="n">
-        <v>14000</v>
+        <v>9000</v>
       </c>
       <c r="O137" t="n">
-        <v>14000</v>
+        <v>9000</v>
       </c>
       <c r="P137" t="n">
-        <v>14000</v>
+        <v>9000</v>
       </c>
       <c r="Q137" t="inlineStr">
         <is>
@@ -11346,7 +11346,7 @@
         </is>
       </c>
       <c r="S137" t="n">
-        <v>778</v>
+        <v>500</v>
       </c>
       <c r="T137" t="n">
         <v>18</v>
@@ -11367,7 +11367,7 @@
         </is>
       </c>
       <c r="D138" s="2" t="n">
-        <v>44369</v>
+        <v>44386</v>
       </c>
       <c r="E138" t="n">
         <v>7</v>
@@ -11400,24 +11400,24 @@
       </c>
       <c r="L138" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M138" t="n">
-        <v>230</v>
+        <v>300</v>
       </c>
       <c r="N138" t="n">
-        <v>8000</v>
+        <v>6000</v>
       </c>
       <c r="O138" t="n">
-        <v>8000</v>
+        <v>6000</v>
       </c>
       <c r="P138" t="n">
-        <v>8000</v>
+        <v>6000</v>
       </c>
       <c r="Q138" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="R138" t="inlineStr">
@@ -11426,7 +11426,7 @@
         </is>
       </c>
       <c r="S138" t="n">
-        <v>800</v>
+        <v>600</v>
       </c>
       <c r="T138" t="n">
         <v>10</v>
@@ -11447,7 +11447,7 @@
         </is>
       </c>
       <c r="D139" s="2" t="n">
-        <v>44369</v>
+        <v>44308</v>
       </c>
       <c r="E139" t="n">
         <v>7</v>
@@ -11487,13 +11487,13 @@
         <v>100</v>
       </c>
       <c r="N139" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="O139" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="P139" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="Q139" t="inlineStr">
         <is>
@@ -11506,7 +11506,7 @@
         </is>
       </c>
       <c r="S139" t="n">
-        <v>667</v>
+        <v>778</v>
       </c>
       <c r="T139" t="n">
         <v>18</v>
@@ -11560,20 +11560,20 @@
       </c>
       <c r="L140" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M140" t="n">
-        <v>200</v>
+        <v>230</v>
       </c>
       <c r="N140" t="n">
-        <v>6000</v>
+        <v>8000</v>
       </c>
       <c r="O140" t="n">
-        <v>6000</v>
+        <v>8000</v>
       </c>
       <c r="P140" t="n">
-        <v>6000</v>
+        <v>8000</v>
       </c>
       <c r="Q140" t="inlineStr">
         <is>
@@ -11586,7 +11586,7 @@
         </is>
       </c>
       <c r="S140" t="n">
-        <v>600</v>
+        <v>800</v>
       </c>
       <c r="T140" t="n">
         <v>10</v>
@@ -11640,20 +11640,20 @@
       </c>
       <c r="L141" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M141" t="n">
-        <v>180</v>
+        <v>100</v>
       </c>
       <c r="N141" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="O141" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="P141" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="Q141" t="inlineStr">
         <is>
@@ -11666,7 +11666,7 @@
         </is>
       </c>
       <c r="S141" t="n">
-        <v>556</v>
+        <v>667</v>
       </c>
       <c r="T141" t="n">
         <v>18</v>
@@ -11687,7 +11687,7 @@
         </is>
       </c>
       <c r="D142" s="2" t="n">
-        <v>44433</v>
+        <v>44369</v>
       </c>
       <c r="E142" t="n">
         <v>7</v>
@@ -11720,24 +11720,24 @@
       </c>
       <c r="L142" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M142" t="n">
-        <v>120</v>
+        <v>200</v>
       </c>
       <c r="N142" t="n">
-        <v>14000</v>
+        <v>6000</v>
       </c>
       <c r="O142" t="n">
-        <v>14000</v>
+        <v>6000</v>
       </c>
       <c r="P142" t="n">
-        <v>14000</v>
+        <v>6000</v>
       </c>
       <c r="Q142" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R142" t="inlineStr">
@@ -11746,10 +11746,10 @@
         </is>
       </c>
       <c r="S142" t="n">
-        <v>778</v>
+        <v>600</v>
       </c>
       <c r="T142" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="143">
@@ -11767,7 +11767,7 @@
         </is>
       </c>
       <c r="D143" s="2" t="n">
-        <v>44433</v>
+        <v>44369</v>
       </c>
       <c r="E143" t="n">
         <v>7</v>
@@ -11807,17 +11807,17 @@
         <v>180</v>
       </c>
       <c r="N143" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="O143" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="P143" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="Q143" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="R143" t="inlineStr">
@@ -11826,7 +11826,7 @@
         </is>
       </c>
       <c r="S143" t="n">
-        <v>667</v>
+        <v>556</v>
       </c>
       <c r="T143" t="n">
         <v>18</v>
@@ -11847,7 +11847,7 @@
         </is>
       </c>
       <c r="D144" s="2" t="n">
-        <v>44316</v>
+        <v>44433</v>
       </c>
       <c r="E144" t="n">
         <v>7</v>
@@ -11884,20 +11884,20 @@
         </is>
       </c>
       <c r="M144" t="n">
-        <v>160</v>
+        <v>120</v>
       </c>
       <c r="N144" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="O144" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="P144" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="Q144" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="R144" t="inlineStr">
@@ -11906,10 +11906,10 @@
         </is>
       </c>
       <c r="S144" t="n">
-        <v>1200</v>
+        <v>778</v>
       </c>
       <c r="T144" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
     </row>
     <row r="145">
@@ -11927,7 +11927,7 @@
         </is>
       </c>
       <c r="D145" s="2" t="n">
-        <v>44316</v>
+        <v>44433</v>
       </c>
       <c r="E145" t="n">
         <v>7</v>
@@ -11964,20 +11964,20 @@
         </is>
       </c>
       <c r="M145" t="n">
-        <v>200</v>
+        <v>180</v>
       </c>
       <c r="N145" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="O145" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="P145" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="Q145" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="R145" t="inlineStr">
@@ -11986,10 +11986,10 @@
         </is>
       </c>
       <c r="S145" t="n">
-        <v>1000</v>
+        <v>667</v>
       </c>
       <c r="T145" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
     </row>
     <row r="146">
@@ -12040,24 +12040,24 @@
       </c>
       <c r="L146" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M146" t="n">
-        <v>190</v>
+        <v>160</v>
       </c>
       <c r="N146" t="n">
-        <v>13000</v>
+        <v>12000</v>
       </c>
       <c r="O146" t="n">
-        <v>13000</v>
+        <v>12000</v>
       </c>
       <c r="P146" t="n">
-        <v>13000</v>
+        <v>12000</v>
       </c>
       <c r="Q146" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R146" t="inlineStr">
@@ -12066,10 +12066,10 @@
         </is>
       </c>
       <c r="S146" t="n">
-        <v>722</v>
+        <v>1200</v>
       </c>
       <c r="T146" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="147">
@@ -12087,7 +12087,7 @@
         </is>
       </c>
       <c r="D147" s="2" t="n">
-        <v>44397</v>
+        <v>44316</v>
       </c>
       <c r="E147" t="n">
         <v>7</v>
@@ -12120,24 +12120,24 @@
       </c>
       <c r="L147" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M147" t="n">
-        <v>190</v>
+        <v>200</v>
       </c>
       <c r="N147" t="n">
-        <v>14000</v>
+        <v>10000</v>
       </c>
       <c r="O147" t="n">
-        <v>14000</v>
+        <v>10000</v>
       </c>
       <c r="P147" t="n">
-        <v>14000</v>
+        <v>10000</v>
       </c>
       <c r="Q147" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R147" t="inlineStr">
@@ -12146,10 +12146,10 @@
         </is>
       </c>
       <c r="S147" t="n">
-        <v>778</v>
+        <v>1000</v>
       </c>
       <c r="T147" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="148">
@@ -12167,7 +12167,7 @@
         </is>
       </c>
       <c r="D148" s="2" t="n">
-        <v>44397</v>
+        <v>44316</v>
       </c>
       <c r="E148" t="n">
         <v>7</v>
@@ -12200,11 +12200,11 @@
       </c>
       <c r="L148" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M148" t="n">
-        <v>150</v>
+        <v>190</v>
       </c>
       <c r="N148" t="n">
         <v>13000</v>
@@ -12217,12 +12217,12 @@
       </c>
       <c r="Q148" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="R148" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S148" t="n">
@@ -12280,20 +12280,20 @@
       </c>
       <c r="L149" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M149" t="n">
-        <v>480</v>
+        <v>190</v>
       </c>
       <c r="N149" t="n">
-        <v>9000</v>
+        <v>14000</v>
       </c>
       <c r="O149" t="n">
-        <v>10000</v>
+        <v>14000</v>
       </c>
       <c r="P149" t="n">
-        <v>9479</v>
+        <v>14000</v>
       </c>
       <c r="Q149" t="inlineStr">
         <is>
@@ -12306,7 +12306,7 @@
         </is>
       </c>
       <c r="S149" t="n">
-        <v>527</v>
+        <v>778</v>
       </c>
       <c r="T149" t="n">
         <v>18</v>
@@ -12327,7 +12327,7 @@
         </is>
       </c>
       <c r="D150" s="2" t="n">
-        <v>44363</v>
+        <v>44397</v>
       </c>
       <c r="E150" t="n">
         <v>7</v>
@@ -12360,20 +12360,20 @@
       </c>
       <c r="L150" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M150" t="n">
-        <v>280</v>
+        <v>150</v>
       </c>
       <c r="N150" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="O150" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="P150" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="Q150" t="inlineStr">
         <is>
@@ -12386,7 +12386,7 @@
         </is>
       </c>
       <c r="S150" t="n">
-        <v>556</v>
+        <v>722</v>
       </c>
       <c r="T150" t="n">
         <v>18</v>
@@ -12407,7 +12407,7 @@
         </is>
       </c>
       <c r="D151" s="2" t="n">
-        <v>44363</v>
+        <v>44397</v>
       </c>
       <c r="E151" t="n">
         <v>7</v>
@@ -12440,20 +12440,20 @@
       </c>
       <c r="L151" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M151" t="n">
-        <v>300</v>
+        <v>480</v>
       </c>
       <c r="N151" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="O151" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="P151" t="n">
-        <v>8000</v>
+        <v>9479</v>
       </c>
       <c r="Q151" t="inlineStr">
         <is>
@@ -12462,11 +12462,11 @@
       </c>
       <c r="R151" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S151" t="n">
-        <v>444</v>
+        <v>527</v>
       </c>
       <c r="T151" t="n">
         <v>18</v>
@@ -12487,7 +12487,7 @@
         </is>
       </c>
       <c r="D152" s="2" t="n">
-        <v>44438</v>
+        <v>44363</v>
       </c>
       <c r="E152" t="n">
         <v>7</v>
@@ -12520,20 +12520,20 @@
       </c>
       <c r="L152" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M152" t="n">
-        <v>230</v>
+        <v>280</v>
       </c>
       <c r="N152" t="n">
-        <v>13000</v>
+        <v>10000</v>
       </c>
       <c r="O152" t="n">
-        <v>13000</v>
+        <v>10000</v>
       </c>
       <c r="P152" t="n">
-        <v>13000</v>
+        <v>10000</v>
       </c>
       <c r="Q152" t="inlineStr">
         <is>
@@ -12542,11 +12542,11 @@
       </c>
       <c r="R152" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S152" t="n">
-        <v>722</v>
+        <v>556</v>
       </c>
       <c r="T152" t="n">
         <v>18</v>
@@ -12567,7 +12567,7 @@
         </is>
       </c>
       <c r="D153" s="2" t="n">
-        <v>44438</v>
+        <v>44363</v>
       </c>
       <c r="E153" t="n">
         <v>7</v>
@@ -12600,20 +12600,20 @@
       </c>
       <c r="L153" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M153" t="n">
         <v>300</v>
       </c>
       <c r="N153" t="n">
-        <v>11000</v>
+        <v>8000</v>
       </c>
       <c r="O153" t="n">
-        <v>11000</v>
+        <v>8000</v>
       </c>
       <c r="P153" t="n">
-        <v>11000</v>
+        <v>8000</v>
       </c>
       <c r="Q153" t="inlineStr">
         <is>
@@ -12622,11 +12622,11 @@
       </c>
       <c r="R153" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S153" t="n">
-        <v>611</v>
+        <v>444</v>
       </c>
       <c r="T153" t="n">
         <v>18</v>
@@ -12647,7 +12647,7 @@
         </is>
       </c>
       <c r="D154" s="2" t="n">
-        <v>44372</v>
+        <v>44438</v>
       </c>
       <c r="E154" t="n">
         <v>7</v>
@@ -12684,16 +12684,16 @@
         </is>
       </c>
       <c r="M154" t="n">
-        <v>130</v>
+        <v>230</v>
       </c>
       <c r="N154" t="n">
-        <v>11000</v>
+        <v>13000</v>
       </c>
       <c r="O154" t="n">
-        <v>11000</v>
+        <v>13000</v>
       </c>
       <c r="P154" t="n">
-        <v>11000</v>
+        <v>13000</v>
       </c>
       <c r="Q154" t="inlineStr">
         <is>
@@ -12706,7 +12706,7 @@
         </is>
       </c>
       <c r="S154" t="n">
-        <v>611</v>
+        <v>722</v>
       </c>
       <c r="T154" t="n">
         <v>18</v>
@@ -12727,7 +12727,7 @@
         </is>
       </c>
       <c r="D155" s="2" t="n">
-        <v>44372</v>
+        <v>44438</v>
       </c>
       <c r="E155" t="n">
         <v>7</v>
@@ -12764,16 +12764,16 @@
         </is>
       </c>
       <c r="M155" t="n">
-        <v>120</v>
+        <v>300</v>
       </c>
       <c r="N155" t="n">
-        <v>9000</v>
+        <v>11000</v>
       </c>
       <c r="O155" t="n">
-        <v>9000</v>
+        <v>11000</v>
       </c>
       <c r="P155" t="n">
-        <v>9000</v>
+        <v>11000</v>
       </c>
       <c r="Q155" t="inlineStr">
         <is>
@@ -12786,7 +12786,7 @@
         </is>
       </c>
       <c r="S155" t="n">
-        <v>500</v>
+        <v>611</v>
       </c>
       <c r="T155" t="n">
         <v>18</v>
@@ -12840,20 +12840,20 @@
       </c>
       <c r="L156" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M156" t="n">
-        <v>100</v>
+        <v>130</v>
       </c>
       <c r="N156" t="n">
-        <v>7000</v>
+        <v>11000</v>
       </c>
       <c r="O156" t="n">
-        <v>7000</v>
+        <v>11000</v>
       </c>
       <c r="P156" t="n">
-        <v>7000</v>
+        <v>11000</v>
       </c>
       <c r="Q156" t="inlineStr">
         <is>
@@ -12866,7 +12866,7 @@
         </is>
       </c>
       <c r="S156" t="n">
-        <v>389</v>
+        <v>611</v>
       </c>
       <c r="T156" t="n">
         <v>18</v>
@@ -12887,7 +12887,7 @@
         </is>
       </c>
       <c r="D157" s="2" t="n">
-        <v>44356</v>
+        <v>44372</v>
       </c>
       <c r="E157" t="n">
         <v>7</v>
@@ -12920,20 +12920,20 @@
       </c>
       <c r="L157" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M157" t="n">
-        <v>200</v>
+        <v>120</v>
       </c>
       <c r="N157" t="n">
-        <v>12000</v>
+        <v>9000</v>
       </c>
       <c r="O157" t="n">
-        <v>12000</v>
+        <v>9000</v>
       </c>
       <c r="P157" t="n">
-        <v>12000</v>
+        <v>9000</v>
       </c>
       <c r="Q157" t="inlineStr">
         <is>
@@ -12946,7 +12946,7 @@
         </is>
       </c>
       <c r="S157" t="n">
-        <v>667</v>
+        <v>500</v>
       </c>
       <c r="T157" t="n">
         <v>18</v>
@@ -12967,7 +12967,7 @@
         </is>
       </c>
       <c r="D158" s="2" t="n">
-        <v>44356</v>
+        <v>44372</v>
       </c>
       <c r="E158" t="n">
         <v>7</v>
@@ -13000,20 +13000,20 @@
       </c>
       <c r="L158" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M158" t="n">
-        <v>140</v>
+        <v>100</v>
       </c>
       <c r="N158" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="O158" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="P158" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="Q158" t="inlineStr">
         <is>
@@ -13026,7 +13026,7 @@
         </is>
       </c>
       <c r="S158" t="n">
-        <v>556</v>
+        <v>389</v>
       </c>
       <c r="T158" t="n">
         <v>18</v>
@@ -13080,20 +13080,20 @@
       </c>
       <c r="L159" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M159" t="n">
-        <v>80</v>
+        <v>200</v>
       </c>
       <c r="N159" t="n">
-        <v>8000</v>
+        <v>12000</v>
       </c>
       <c r="O159" t="n">
-        <v>8000</v>
+        <v>12000</v>
       </c>
       <c r="P159" t="n">
-        <v>8000</v>
+        <v>12000</v>
       </c>
       <c r="Q159" t="inlineStr">
         <is>
@@ -13106,7 +13106,7 @@
         </is>
       </c>
       <c r="S159" t="n">
-        <v>444</v>
+        <v>667</v>
       </c>
       <c r="T159" t="n">
         <v>18</v>
@@ -13127,7 +13127,7 @@
         </is>
       </c>
       <c r="D160" s="2" t="n">
-        <v>44351</v>
+        <v>44356</v>
       </c>
       <c r="E160" t="n">
         <v>7</v>
@@ -13160,20 +13160,20 @@
       </c>
       <c r="L160" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M160" t="n">
-        <v>260</v>
+        <v>140</v>
       </c>
       <c r="N160" t="n">
-        <v>11000</v>
+        <v>10000</v>
       </c>
       <c r="O160" t="n">
-        <v>11000</v>
+        <v>10000</v>
       </c>
       <c r="P160" t="n">
-        <v>11000</v>
+        <v>10000</v>
       </c>
       <c r="Q160" t="inlineStr">
         <is>
@@ -13186,7 +13186,7 @@
         </is>
       </c>
       <c r="S160" t="n">
-        <v>611</v>
+        <v>556</v>
       </c>
       <c r="T160" t="n">
         <v>18</v>
@@ -13207,7 +13207,7 @@
         </is>
       </c>
       <c r="D161" s="2" t="n">
-        <v>44351</v>
+        <v>44356</v>
       </c>
       <c r="E161" t="n">
         <v>7</v>
@@ -13240,20 +13240,20 @@
       </c>
       <c r="L161" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M161" t="n">
-        <v>200</v>
+        <v>80</v>
       </c>
       <c r="N161" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="O161" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="P161" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="Q161" t="inlineStr">
         <is>
@@ -13266,7 +13266,7 @@
         </is>
       </c>
       <c r="S161" t="n">
-        <v>556</v>
+        <v>444</v>
       </c>
       <c r="T161" t="n">
         <v>18</v>
@@ -13320,36 +13320,36 @@
       </c>
       <c r="L162" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M162" t="n">
-        <v>230</v>
+        <v>260</v>
       </c>
       <c r="N162" t="n">
-        <v>8000</v>
+        <v>11000</v>
       </c>
       <c r="O162" t="n">
-        <v>8000</v>
+        <v>11000</v>
       </c>
       <c r="P162" t="n">
-        <v>8000</v>
+        <v>11000</v>
       </c>
       <c r="Q162" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="R162" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S162" t="n">
-        <v>800</v>
+        <v>611</v>
       </c>
       <c r="T162" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
     </row>
     <row r="163">
@@ -13367,7 +13367,7 @@
         </is>
       </c>
       <c r="D163" s="2" t="n">
-        <v>44365</v>
+        <v>44351</v>
       </c>
       <c r="E163" t="n">
         <v>7</v>
@@ -13400,20 +13400,20 @@
       </c>
       <c r="L163" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M163" t="n">
-        <v>90</v>
+        <v>200</v>
       </c>
       <c r="N163" t="n">
-        <v>11000</v>
+        <v>10000</v>
       </c>
       <c r="O163" t="n">
-        <v>11000</v>
+        <v>10000</v>
       </c>
       <c r="P163" t="n">
-        <v>11000</v>
+        <v>10000</v>
       </c>
       <c r="Q163" t="inlineStr">
         <is>
@@ -13426,7 +13426,7 @@
         </is>
       </c>
       <c r="S163" t="n">
-        <v>611</v>
+        <v>556</v>
       </c>
       <c r="T163" t="n">
         <v>18</v>
@@ -13447,7 +13447,7 @@
         </is>
       </c>
       <c r="D164" s="2" t="n">
-        <v>44365</v>
+        <v>44351</v>
       </c>
       <c r="E164" t="n">
         <v>7</v>
@@ -13484,32 +13484,32 @@
         </is>
       </c>
       <c r="M164" t="n">
-        <v>200</v>
+        <v>230</v>
       </c>
       <c r="N164" t="n">
-        <v>9000</v>
+        <v>8000</v>
       </c>
       <c r="O164" t="n">
-        <v>9000</v>
+        <v>8000</v>
       </c>
       <c r="P164" t="n">
-        <v>9000</v>
+        <v>8000</v>
       </c>
       <c r="Q164" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="R164" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S164" t="n">
-        <v>500</v>
+        <v>800</v>
       </c>
       <c r="T164" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="165">
@@ -13560,20 +13560,20 @@
       </c>
       <c r="L165" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M165" t="n">
-        <v>150</v>
+        <v>90</v>
       </c>
       <c r="N165" t="n">
-        <v>7000</v>
+        <v>11000</v>
       </c>
       <c r="O165" t="n">
-        <v>7000</v>
+        <v>11000</v>
       </c>
       <c r="P165" t="n">
-        <v>7000</v>
+        <v>11000</v>
       </c>
       <c r="Q165" t="inlineStr">
         <is>
@@ -13586,7 +13586,7 @@
         </is>
       </c>
       <c r="S165" t="n">
-        <v>389</v>
+        <v>611</v>
       </c>
       <c r="T165" t="n">
         <v>18</v>
@@ -13607,7 +13607,7 @@
         </is>
       </c>
       <c r="D166" s="2" t="n">
-        <v>44306</v>
+        <v>44365</v>
       </c>
       <c r="E166" t="n">
         <v>7</v>
@@ -13640,24 +13640,24 @@
       </c>
       <c r="L166" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M166" t="n">
-        <v>230</v>
+        <v>200</v>
       </c>
       <c r="N166" t="n">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="O166" t="n">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="P166" t="n">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="Q166" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="R166" t="inlineStr">
@@ -13666,10 +13666,10 @@
         </is>
       </c>
       <c r="S166" t="n">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="T166" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
     </row>
     <row r="167">
@@ -13687,7 +13687,7 @@
         </is>
       </c>
       <c r="D167" s="2" t="n">
-        <v>44306</v>
+        <v>44365</v>
       </c>
       <c r="E167" t="n">
         <v>7</v>
@@ -13720,20 +13720,20 @@
       </c>
       <c r="L167" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M167" t="n">
-        <v>180</v>
+        <v>150</v>
       </c>
       <c r="N167" t="n">
-        <v>13000</v>
+        <v>7000</v>
       </c>
       <c r="O167" t="n">
-        <v>13000</v>
+        <v>7000</v>
       </c>
       <c r="P167" t="n">
-        <v>13000</v>
+        <v>7000</v>
       </c>
       <c r="Q167" t="inlineStr">
         <is>
@@ -13746,7 +13746,7 @@
         </is>
       </c>
       <c r="S167" t="n">
-        <v>722</v>
+        <v>389</v>
       </c>
       <c r="T167" t="n">
         <v>18</v>
@@ -13800,20 +13800,20 @@
       </c>
       <c r="L168" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M168" t="n">
         <v>230</v>
       </c>
       <c r="N168" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="O168" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="P168" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="Q168" t="inlineStr">
         <is>
@@ -13826,7 +13826,7 @@
         </is>
       </c>
       <c r="S168" t="n">
-        <v>800</v>
+        <v>1000</v>
       </c>
       <c r="T168" t="n">
         <v>10</v>
@@ -13847,7 +13847,7 @@
         </is>
       </c>
       <c r="D169" s="2" t="n">
-        <v>44357</v>
+        <v>44306</v>
       </c>
       <c r="E169" t="n">
         <v>7</v>
@@ -13884,7 +13884,7 @@
         </is>
       </c>
       <c r="M169" t="n">
-        <v>130</v>
+        <v>180</v>
       </c>
       <c r="N169" t="n">
         <v>13000</v>
@@ -13927,7 +13927,7 @@
         </is>
       </c>
       <c r="D170" s="2" t="n">
-        <v>44357</v>
+        <v>44306</v>
       </c>
       <c r="E170" t="n">
         <v>7</v>
@@ -13964,20 +13964,20 @@
         </is>
       </c>
       <c r="M170" t="n">
-        <v>190</v>
+        <v>230</v>
       </c>
       <c r="N170" t="n">
-        <v>11000</v>
+        <v>8000</v>
       </c>
       <c r="O170" t="n">
-        <v>11000</v>
+        <v>8000</v>
       </c>
       <c r="P170" t="n">
-        <v>11000</v>
+        <v>8000</v>
       </c>
       <c r="Q170" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R170" t="inlineStr">
@@ -13986,10 +13986,10 @@
         </is>
       </c>
       <c r="S170" t="n">
-        <v>611</v>
+        <v>800</v>
       </c>
       <c r="T170" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="171">
@@ -14007,7 +14007,7 @@
         </is>
       </c>
       <c r="D171" s="2" t="n">
-        <v>44410</v>
+        <v>44357</v>
       </c>
       <c r="E171" t="n">
         <v>7</v>
@@ -14040,20 +14040,20 @@
       </c>
       <c r="L171" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M171" t="n">
-        <v>230</v>
+        <v>130</v>
       </c>
       <c r="N171" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="O171" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="P171" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="Q171" t="inlineStr">
         <is>
@@ -14066,7 +14066,7 @@
         </is>
       </c>
       <c r="S171" t="n">
-        <v>667</v>
+        <v>722</v>
       </c>
       <c r="T171" t="n">
         <v>18</v>
@@ -14087,7 +14087,7 @@
         </is>
       </c>
       <c r="D172" s="2" t="n">
-        <v>44410</v>
+        <v>44357</v>
       </c>
       <c r="E172" t="n">
         <v>7</v>
@@ -14124,20 +14124,20 @@
         </is>
       </c>
       <c r="M172" t="n">
-        <v>230</v>
+        <v>190</v>
       </c>
       <c r="N172" t="n">
-        <v>7000</v>
+        <v>11000</v>
       </c>
       <c r="O172" t="n">
-        <v>7000</v>
+        <v>11000</v>
       </c>
       <c r="P172" t="n">
-        <v>7000</v>
+        <v>11000</v>
       </c>
       <c r="Q172" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="R172" t="inlineStr">
@@ -14146,10 +14146,10 @@
         </is>
       </c>
       <c r="S172" t="n">
-        <v>700</v>
+        <v>611</v>
       </c>
       <c r="T172" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
     </row>
     <row r="173">
@@ -14167,7 +14167,7 @@
         </is>
       </c>
       <c r="D173" s="2" t="n">
-        <v>44376</v>
+        <v>44410</v>
       </c>
       <c r="E173" t="n">
         <v>7</v>
@@ -14204,16 +14204,16 @@
         </is>
       </c>
       <c r="M173" t="n">
-        <v>260</v>
+        <v>230</v>
       </c>
       <c r="N173" t="n">
-        <v>9000</v>
+        <v>12000</v>
       </c>
       <c r="O173" t="n">
-        <v>9000</v>
+        <v>12000</v>
       </c>
       <c r="P173" t="n">
-        <v>9000</v>
+        <v>12000</v>
       </c>
       <c r="Q173" t="inlineStr">
         <is>
@@ -14226,7 +14226,7 @@
         </is>
       </c>
       <c r="S173" t="n">
-        <v>500</v>
+        <v>667</v>
       </c>
       <c r="T173" t="n">
         <v>18</v>
@@ -14247,7 +14247,7 @@
         </is>
       </c>
       <c r="D174" s="2" t="n">
-        <v>44358</v>
+        <v>44410</v>
       </c>
       <c r="E174" t="n">
         <v>7</v>
@@ -14280,24 +14280,24 @@
       </c>
       <c r="L174" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M174" t="n">
         <v>230</v>
       </c>
       <c r="N174" t="n">
-        <v>13000</v>
+        <v>7000</v>
       </c>
       <c r="O174" t="n">
-        <v>13000</v>
+        <v>7000</v>
       </c>
       <c r="P174" t="n">
-        <v>13000</v>
+        <v>7000</v>
       </c>
       <c r="Q174" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="R174" t="inlineStr">
@@ -14306,10 +14306,10 @@
         </is>
       </c>
       <c r="S174" t="n">
-        <v>722</v>
+        <v>700</v>
       </c>
       <c r="T174" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="175">
@@ -14327,7 +14327,7 @@
         </is>
       </c>
       <c r="D175" s="2" t="n">
-        <v>44358</v>
+        <v>44376</v>
       </c>
       <c r="E175" t="n">
         <v>7</v>
@@ -14360,11 +14360,11 @@
       </c>
       <c r="L175" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M175" t="n">
-        <v>250</v>
+        <v>260</v>
       </c>
       <c r="N175" t="n">
         <v>9000</v>
@@ -14377,7 +14377,7 @@
       </c>
       <c r="Q175" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="R175" t="inlineStr">
@@ -14386,10 +14386,10 @@
         </is>
       </c>
       <c r="S175" t="n">
-        <v>900</v>
+        <v>500</v>
       </c>
       <c r="T175" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
     </row>
     <row r="176">
@@ -14440,20 +14440,20 @@
       </c>
       <c r="L176" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M176" t="n">
-        <v>210</v>
+        <v>230</v>
       </c>
       <c r="N176" t="n">
-        <v>11000</v>
+        <v>13000</v>
       </c>
       <c r="O176" t="n">
-        <v>11000</v>
+        <v>13000</v>
       </c>
       <c r="P176" t="n">
-        <v>11000</v>
+        <v>13000</v>
       </c>
       <c r="Q176" t="inlineStr">
         <is>
@@ -14466,7 +14466,7 @@
         </is>
       </c>
       <c r="S176" t="n">
-        <v>611</v>
+        <v>722</v>
       </c>
       <c r="T176" t="n">
         <v>18</v>
@@ -14520,20 +14520,20 @@
       </c>
       <c r="L177" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M177" t="n">
-        <v>200</v>
+        <v>250</v>
       </c>
       <c r="N177" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="O177" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="P177" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="Q177" t="inlineStr">
         <is>
@@ -14546,7 +14546,7 @@
         </is>
       </c>
       <c r="S177" t="n">
-        <v>700</v>
+        <v>900</v>
       </c>
       <c r="T177" t="n">
         <v>10</v>
@@ -14600,20 +14600,20 @@
       </c>
       <c r="L178" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M178" t="n">
-        <v>190</v>
+        <v>210</v>
       </c>
       <c r="N178" t="n">
-        <v>9000</v>
+        <v>11000</v>
       </c>
       <c r="O178" t="n">
-        <v>9000</v>
+        <v>11000</v>
       </c>
       <c r="P178" t="n">
-        <v>9000</v>
+        <v>11000</v>
       </c>
       <c r="Q178" t="inlineStr">
         <is>
@@ -14626,7 +14626,7 @@
         </is>
       </c>
       <c r="S178" t="n">
-        <v>500</v>
+        <v>611</v>
       </c>
       <c r="T178" t="n">
         <v>18</v>
@@ -14647,7 +14647,7 @@
         </is>
       </c>
       <c r="D179" s="2" t="n">
-        <v>44425</v>
+        <v>44358</v>
       </c>
       <c r="E179" t="n">
         <v>7</v>
@@ -14680,24 +14680,24 @@
       </c>
       <c r="L179" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M179" t="n">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="N179" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="O179" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="P179" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="Q179" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="R179" t="inlineStr">
@@ -14706,10 +14706,10 @@
         </is>
       </c>
       <c r="S179" t="n">
-        <v>444</v>
+        <v>700</v>
       </c>
       <c r="T179" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="180">
@@ -14727,7 +14727,7 @@
         </is>
       </c>
       <c r="D180" s="2" t="n">
-        <v>44323</v>
+        <v>44358</v>
       </c>
       <c r="E180" t="n">
         <v>7</v>
@@ -14760,24 +14760,24 @@
       </c>
       <c r="L180" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M180" t="n">
-        <v>150</v>
+        <v>190</v>
       </c>
       <c r="N180" t="n">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="O180" t="n">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="P180" t="n">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="Q180" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="R180" t="inlineStr">
@@ -14786,10 +14786,10 @@
         </is>
       </c>
       <c r="S180" t="n">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="T180" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
     </row>
     <row r="181">
@@ -14807,68 +14807,228 @@
         </is>
       </c>
       <c r="D181" s="2" t="n">
+        <v>44425</v>
+      </c>
+      <c r="E181" t="n">
+        <v>7</v>
+      </c>
+      <c r="F181" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G181" t="n">
+        <v>100101</v>
+      </c>
+      <c r="H181" t="inlineStr">
+        <is>
+          <t>Berries</t>
+        </is>
+      </c>
+      <c r="I181" t="n">
+        <v>100101007</v>
+      </c>
+      <c r="J181" t="inlineStr">
+        <is>
+          <t>Kiwi</t>
+        </is>
+      </c>
+      <c r="K181" t="inlineStr">
+        <is>
+          <t>Hayward</t>
+        </is>
+      </c>
+      <c r="L181" t="inlineStr">
+        <is>
+          <t>Segunda</t>
+        </is>
+      </c>
+      <c r="M181" t="n">
+        <v>300</v>
+      </c>
+      <c r="N181" t="n">
+        <v>8000</v>
+      </c>
+      <c r="O181" t="n">
+        <v>8000</v>
+      </c>
+      <c r="P181" t="n">
+        <v>8000</v>
+      </c>
+      <c r="Q181" t="inlineStr">
+        <is>
+          <t>$/bandeja 18 kilos</t>
+        </is>
+      </c>
+      <c r="R181" t="inlineStr">
+        <is>
+          <t>Provincia de Curicó</t>
+        </is>
+      </c>
+      <c r="S181" t="n">
+        <v>444</v>
+      </c>
+      <c r="T181" t="n">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" t="n">
+        <v>5</v>
+      </c>
+      <c r="B182" t="inlineStr">
+        <is>
+          <t>Macroferia Regional de Talca</t>
+        </is>
+      </c>
+      <c r="C182" t="inlineStr">
+        <is>
+          <t>Maule</t>
+        </is>
+      </c>
+      <c r="D182" s="2" t="n">
         <v>44323</v>
       </c>
-      <c r="E181" t="n">
-        <v>7</v>
-      </c>
-      <c r="F181" t="inlineStr">
-        <is>
-          <t>Fruta</t>
-        </is>
-      </c>
-      <c r="G181" t="n">
-        <v>100101</v>
-      </c>
-      <c r="H181" t="inlineStr">
-        <is>
-          <t>Berries</t>
-        </is>
-      </c>
-      <c r="I181" t="n">
-        <v>100101007</v>
-      </c>
-      <c r="J181" t="inlineStr">
-        <is>
-          <t>Kiwi</t>
-        </is>
-      </c>
-      <c r="K181" t="inlineStr">
-        <is>
-          <t>Hayward</t>
-        </is>
-      </c>
-      <c r="L181" t="inlineStr">
+      <c r="E182" t="n">
+        <v>7</v>
+      </c>
+      <c r="F182" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G182" t="n">
+        <v>100101</v>
+      </c>
+      <c r="H182" t="inlineStr">
+        <is>
+          <t>Berries</t>
+        </is>
+      </c>
+      <c r="I182" t="n">
+        <v>100101007</v>
+      </c>
+      <c r="J182" t="inlineStr">
+        <is>
+          <t>Kiwi</t>
+        </is>
+      </c>
+      <c r="K182" t="inlineStr">
+        <is>
+          <t>Hayward</t>
+        </is>
+      </c>
+      <c r="L182" t="inlineStr">
+        <is>
+          <t>Especial</t>
+        </is>
+      </c>
+      <c r="M182" t="n">
+        <v>150</v>
+      </c>
+      <c r="N182" t="n">
+        <v>10000</v>
+      </c>
+      <c r="O182" t="n">
+        <v>10000</v>
+      </c>
+      <c r="P182" t="n">
+        <v>10000</v>
+      </c>
+      <c r="Q182" t="inlineStr">
+        <is>
+          <t>$/bandeja 10 kilos</t>
+        </is>
+      </c>
+      <c r="R182" t="inlineStr">
+        <is>
+          <t>Provincia de Curicó</t>
+        </is>
+      </c>
+      <c r="S182" t="n">
+        <v>1000</v>
+      </c>
+      <c r="T182" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" t="n">
+        <v>5</v>
+      </c>
+      <c r="B183" t="inlineStr">
+        <is>
+          <t>Macroferia Regional de Talca</t>
+        </is>
+      </c>
+      <c r="C183" t="inlineStr">
+        <is>
+          <t>Maule</t>
+        </is>
+      </c>
+      <c r="D183" s="2" t="n">
+        <v>44323</v>
+      </c>
+      <c r="E183" t="n">
+        <v>7</v>
+      </c>
+      <c r="F183" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G183" t="n">
+        <v>100101</v>
+      </c>
+      <c r="H183" t="inlineStr">
+        <is>
+          <t>Berries</t>
+        </is>
+      </c>
+      <c r="I183" t="n">
+        <v>100101007</v>
+      </c>
+      <c r="J183" t="inlineStr">
+        <is>
+          <t>Kiwi</t>
+        </is>
+      </c>
+      <c r="K183" t="inlineStr">
+        <is>
+          <t>Hayward</t>
+        </is>
+      </c>
+      <c r="L183" t="inlineStr">
         <is>
           <t>Primera</t>
         </is>
       </c>
-      <c r="M181" t="n">
+      <c r="M183" t="n">
         <v>100</v>
       </c>
-      <c r="N181" t="n">
+      <c r="N183" t="n">
         <v>9000</v>
       </c>
-      <c r="O181" t="n">
+      <c r="O183" t="n">
         <v>9000</v>
       </c>
-      <c r="P181" t="n">
+      <c r="P183" t="n">
         <v>9000</v>
       </c>
-      <c r="Q181" t="inlineStr">
+      <c r="Q183" t="inlineStr">
         <is>
           <t>$/bandeja 10 kilos</t>
         </is>
       </c>
-      <c r="R181" t="inlineStr">
-        <is>
-          <t>Provincia de Curicó</t>
-        </is>
-      </c>
-      <c r="S181" t="n">
+      <c r="R183" t="inlineStr">
+        <is>
+          <t>Provincia de Curicó</t>
+        </is>
+      </c>
+      <c r="S183" t="n">
         <v>900</v>
       </c>
-      <c r="T181" t="n">
+      <c r="T183" t="n">
         <v>10</v>
       </c>
     </row>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Macroferia Regional de Talca - Kiwi.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Macroferia Regional de Talca - Kiwi.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T183"/>
+  <dimension ref="A1:T185"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3527,7 +3527,7 @@
         </is>
       </c>
       <c r="D40" s="2" t="n">
-        <v>44348</v>
+        <v>44459</v>
       </c>
       <c r="E40" t="n">
         <v>7</v>
@@ -3564,16 +3564,16 @@
         </is>
       </c>
       <c r="M40" t="n">
-        <v>230</v>
+        <v>150</v>
       </c>
       <c r="N40" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="O40" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="P40" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="Q40" t="inlineStr">
         <is>
@@ -3582,11 +3582,11 @@
       </c>
       <c r="R40" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S40" t="n">
-        <v>556</v>
+        <v>667</v>
       </c>
       <c r="T40" t="n">
         <v>18</v>
@@ -3607,7 +3607,7 @@
         </is>
       </c>
       <c r="D41" s="2" t="n">
-        <v>44348</v>
+        <v>44459</v>
       </c>
       <c r="E41" t="n">
         <v>7</v>
@@ -3644,16 +3644,16 @@
         </is>
       </c>
       <c r="M41" t="n">
-        <v>190</v>
+        <v>100</v>
       </c>
       <c r="N41" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="O41" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="P41" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="Q41" t="inlineStr">
         <is>
@@ -3662,11 +3662,11 @@
       </c>
       <c r="R41" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S41" t="n">
-        <v>444</v>
+        <v>556</v>
       </c>
       <c r="T41" t="n">
         <v>18</v>
@@ -3687,7 +3687,7 @@
         </is>
       </c>
       <c r="D42" s="2" t="n">
-        <v>44435</v>
+        <v>44348</v>
       </c>
       <c r="E42" t="n">
         <v>7</v>
@@ -3720,20 +3720,20 @@
       </c>
       <c r="L42" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M42" t="n">
-        <v>390</v>
+        <v>230</v>
       </c>
       <c r="N42" t="n">
-        <v>14000</v>
+        <v>10000</v>
       </c>
       <c r="O42" t="n">
-        <v>14000</v>
+        <v>10000</v>
       </c>
       <c r="P42" t="n">
-        <v>14000</v>
+        <v>10000</v>
       </c>
       <c r="Q42" t="inlineStr">
         <is>
@@ -3746,7 +3746,7 @@
         </is>
       </c>
       <c r="S42" t="n">
-        <v>778</v>
+        <v>556</v>
       </c>
       <c r="T42" t="n">
         <v>18</v>
@@ -3767,7 +3767,7 @@
         </is>
       </c>
       <c r="D43" s="2" t="n">
-        <v>44435</v>
+        <v>44348</v>
       </c>
       <c r="E43" t="n">
         <v>7</v>
@@ -3800,11 +3800,11 @@
       </c>
       <c r="L43" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M43" t="n">
-        <v>160</v>
+        <v>190</v>
       </c>
       <c r="N43" t="n">
         <v>8000</v>
@@ -3817,7 +3817,7 @@
       </c>
       <c r="Q43" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="R43" t="inlineStr">
@@ -3826,10 +3826,10 @@
         </is>
       </c>
       <c r="S43" t="n">
-        <v>800</v>
+        <v>444</v>
       </c>
       <c r="T43" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
     </row>
     <row r="44">
@@ -3884,7 +3884,7 @@
         </is>
       </c>
       <c r="M44" t="n">
-        <v>330</v>
+        <v>390</v>
       </c>
       <c r="N44" t="n">
         <v>14000</v>
@@ -3897,7 +3897,7 @@
       </c>
       <c r="Q44" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="R44" t="inlineStr">
@@ -3960,24 +3960,24 @@
       </c>
       <c r="L45" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M45" t="n">
-        <v>250</v>
+        <v>160</v>
       </c>
       <c r="N45" t="n">
-        <v>12000</v>
+        <v>8000</v>
       </c>
       <c r="O45" t="n">
-        <v>12000</v>
+        <v>8000</v>
       </c>
       <c r="P45" t="n">
-        <v>12000</v>
+        <v>8000</v>
       </c>
       <c r="Q45" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="R45" t="inlineStr">
@@ -3986,10 +3986,10 @@
         </is>
       </c>
       <c r="S45" t="n">
-        <v>667</v>
+        <v>800</v>
       </c>
       <c r="T45" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="46">
@@ -4040,24 +4040,24 @@
       </c>
       <c r="L46" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M46" t="n">
-        <v>230</v>
+        <v>330</v>
       </c>
       <c r="N46" t="n">
-        <v>7000</v>
+        <v>14000</v>
       </c>
       <c r="O46" t="n">
-        <v>7000</v>
+        <v>14000</v>
       </c>
       <c r="P46" t="n">
-        <v>7000</v>
+        <v>14000</v>
       </c>
       <c r="Q46" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="R46" t="inlineStr">
@@ -4066,10 +4066,10 @@
         </is>
       </c>
       <c r="S46" t="n">
-        <v>700</v>
+        <v>778</v>
       </c>
       <c r="T46" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
     </row>
     <row r="47">
@@ -4124,7 +4124,7 @@
         </is>
       </c>
       <c r="M47" t="n">
-        <v>180</v>
+        <v>250</v>
       </c>
       <c r="N47" t="n">
         <v>12000</v>
@@ -4137,7 +4137,7 @@
       </c>
       <c r="Q47" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="R47" t="inlineStr">
@@ -4200,24 +4200,24 @@
       </c>
       <c r="L48" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M48" t="n">
-        <v>240</v>
+        <v>230</v>
       </c>
       <c r="N48" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="O48" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="P48" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="Q48" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="R48" t="inlineStr">
@@ -4226,10 +4226,10 @@
         </is>
       </c>
       <c r="S48" t="n">
-        <v>556</v>
+        <v>700</v>
       </c>
       <c r="T48" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="49">
@@ -4247,7 +4247,7 @@
         </is>
       </c>
       <c r="D49" s="2" t="n">
-        <v>44313</v>
+        <v>44435</v>
       </c>
       <c r="E49" t="n">
         <v>7</v>
@@ -4284,20 +4284,20 @@
         </is>
       </c>
       <c r="M49" t="n">
-        <v>350</v>
+        <v>180</v>
       </c>
       <c r="N49" t="n">
-        <v>9000</v>
+        <v>12000</v>
       </c>
       <c r="O49" t="n">
-        <v>9000</v>
+        <v>12000</v>
       </c>
       <c r="P49" t="n">
-        <v>9000</v>
+        <v>12000</v>
       </c>
       <c r="Q49" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="R49" t="inlineStr">
@@ -4306,10 +4306,10 @@
         </is>
       </c>
       <c r="S49" t="n">
-        <v>900</v>
+        <v>667</v>
       </c>
       <c r="T49" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
     </row>
     <row r="50">
@@ -4327,7 +4327,7 @@
         </is>
       </c>
       <c r="D50" s="2" t="n">
-        <v>44313</v>
+        <v>44435</v>
       </c>
       <c r="E50" t="n">
         <v>7</v>
@@ -4360,24 +4360,24 @@
       </c>
       <c r="L50" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M50" t="n">
-        <v>250</v>
+        <v>240</v>
       </c>
       <c r="N50" t="n">
-        <v>6000</v>
+        <v>10000</v>
       </c>
       <c r="O50" t="n">
-        <v>6000</v>
+        <v>10000</v>
       </c>
       <c r="P50" t="n">
-        <v>6000</v>
+        <v>10000</v>
       </c>
       <c r="Q50" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="R50" t="inlineStr">
@@ -4386,10 +4386,10 @@
         </is>
       </c>
       <c r="S50" t="n">
-        <v>600</v>
+        <v>556</v>
       </c>
       <c r="T50" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
     </row>
     <row r="51">
@@ -4407,7 +4407,7 @@
         </is>
       </c>
       <c r="D51" s="2" t="n">
-        <v>44445</v>
+        <v>44313</v>
       </c>
       <c r="E51" t="n">
         <v>7</v>
@@ -4444,20 +4444,20 @@
         </is>
       </c>
       <c r="M51" t="n">
-        <v>200</v>
+        <v>350</v>
       </c>
       <c r="N51" t="n">
-        <v>12000</v>
+        <v>9000</v>
       </c>
       <c r="O51" t="n">
-        <v>12000</v>
+        <v>9000</v>
       </c>
       <c r="P51" t="n">
-        <v>12000</v>
+        <v>9000</v>
       </c>
       <c r="Q51" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R51" t="inlineStr">
@@ -4466,10 +4466,10 @@
         </is>
       </c>
       <c r="S51" t="n">
-        <v>667</v>
+        <v>900</v>
       </c>
       <c r="T51" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="52">
@@ -4487,7 +4487,7 @@
         </is>
       </c>
       <c r="D52" s="2" t="n">
-        <v>44263</v>
+        <v>44313</v>
       </c>
       <c r="E52" t="n">
         <v>7</v>
@@ -4520,20 +4520,20 @@
       </c>
       <c r="L52" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="M52" t="n">
-        <v>180</v>
+        <v>250</v>
       </c>
       <c r="N52" t="n">
-        <v>12000</v>
+        <v>6000</v>
       </c>
       <c r="O52" t="n">
-        <v>12000</v>
+        <v>6000</v>
       </c>
       <c r="P52" t="n">
-        <v>12000</v>
+        <v>6000</v>
       </c>
       <c r="Q52" t="inlineStr">
         <is>
@@ -4542,11 +4542,11 @@
       </c>
       <c r="R52" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S52" t="n">
-        <v>1200</v>
+        <v>600</v>
       </c>
       <c r="T52" t="n">
         <v>10</v>
@@ -4567,7 +4567,7 @@
         </is>
       </c>
       <c r="D53" s="2" t="n">
-        <v>44449</v>
+        <v>44445</v>
       </c>
       <c r="E53" t="n">
         <v>7</v>
@@ -4604,7 +4604,7 @@
         </is>
       </c>
       <c r="M53" t="n">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="N53" t="n">
         <v>12000</v>
@@ -4647,7 +4647,7 @@
         </is>
       </c>
       <c r="D54" s="2" t="n">
-        <v>44322</v>
+        <v>44263</v>
       </c>
       <c r="E54" t="n">
         <v>7</v>
@@ -4684,16 +4684,16 @@
         </is>
       </c>
       <c r="M54" t="n">
-        <v>210</v>
+        <v>180</v>
       </c>
       <c r="N54" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="O54" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="P54" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="Q54" t="inlineStr">
         <is>
@@ -4702,11 +4702,11 @@
       </c>
       <c r="R54" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S54" t="n">
-        <v>1000</v>
+        <v>1200</v>
       </c>
       <c r="T54" t="n">
         <v>10</v>
@@ -4727,7 +4727,7 @@
         </is>
       </c>
       <c r="D55" s="2" t="n">
-        <v>44333</v>
+        <v>44449</v>
       </c>
       <c r="E55" t="n">
         <v>7</v>
@@ -4760,11 +4760,11 @@
       </c>
       <c r="L55" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M55" t="n">
-        <v>150</v>
+        <v>300</v>
       </c>
       <c r="N55" t="n">
         <v>12000</v>
@@ -4782,7 +4782,7 @@
       </c>
       <c r="R55" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S55" t="n">
@@ -4807,7 +4807,7 @@
         </is>
       </c>
       <c r="D56" s="2" t="n">
-        <v>44333</v>
+        <v>44322</v>
       </c>
       <c r="E56" t="n">
         <v>7</v>
@@ -4844,7 +4844,7 @@
         </is>
       </c>
       <c r="M56" t="n">
-        <v>100</v>
+        <v>210</v>
       </c>
       <c r="N56" t="n">
         <v>10000</v>
@@ -4857,19 +4857,19 @@
       </c>
       <c r="Q56" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R56" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S56" t="n">
-        <v>556</v>
+        <v>1000</v>
       </c>
       <c r="T56" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="57">
@@ -4887,7 +4887,7 @@
         </is>
       </c>
       <c r="D57" s="2" t="n">
-        <v>44355</v>
+        <v>44333</v>
       </c>
       <c r="E57" t="n">
         <v>7</v>
@@ -4920,36 +4920,36 @@
       </c>
       <c r="L57" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M57" t="n">
-        <v>300</v>
+        <v>150</v>
       </c>
       <c r="N57" t="n">
-        <v>6000</v>
+        <v>12000</v>
       </c>
       <c r="O57" t="n">
-        <v>6000</v>
+        <v>12000</v>
       </c>
       <c r="P57" t="n">
-        <v>6000</v>
+        <v>12000</v>
       </c>
       <c r="Q57" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="R57" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="S57" t="n">
-        <v>600</v>
+        <v>667</v>
       </c>
       <c r="T57" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
     </row>
     <row r="58">
@@ -4967,7 +4967,7 @@
         </is>
       </c>
       <c r="D58" s="2" t="n">
-        <v>44446</v>
+        <v>44333</v>
       </c>
       <c r="E58" t="n">
         <v>7</v>
@@ -5000,20 +5000,20 @@
       </c>
       <c r="L58" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M58" t="n">
-        <v>180</v>
+        <v>100</v>
       </c>
       <c r="N58" t="n">
-        <v>14000</v>
+        <v>10000</v>
       </c>
       <c r="O58" t="n">
-        <v>14000</v>
+        <v>10000</v>
       </c>
       <c r="P58" t="n">
-        <v>14000</v>
+        <v>10000</v>
       </c>
       <c r="Q58" t="inlineStr">
         <is>
@@ -5022,11 +5022,11 @@
       </c>
       <c r="R58" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="S58" t="n">
-        <v>778</v>
+        <v>556</v>
       </c>
       <c r="T58" t="n">
         <v>18</v>
@@ -5047,7 +5047,7 @@
         </is>
       </c>
       <c r="D59" s="2" t="n">
-        <v>44446</v>
+        <v>44355</v>
       </c>
       <c r="E59" t="n">
         <v>7</v>
@@ -5080,24 +5080,24 @@
       </c>
       <c r="L59" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M59" t="n">
-        <v>230</v>
+        <v>300</v>
       </c>
       <c r="N59" t="n">
-        <v>12000</v>
+        <v>6000</v>
       </c>
       <c r="O59" t="n">
-        <v>12000</v>
+        <v>6000</v>
       </c>
       <c r="P59" t="n">
-        <v>12000</v>
+        <v>6000</v>
       </c>
       <c r="Q59" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R59" t="inlineStr">
@@ -5106,10 +5106,10 @@
         </is>
       </c>
       <c r="S59" t="n">
-        <v>667</v>
+        <v>600</v>
       </c>
       <c r="T59" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="60">
@@ -5160,20 +5160,20 @@
       </c>
       <c r="L60" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M60" t="n">
-        <v>150</v>
+        <v>180</v>
       </c>
       <c r="N60" t="n">
-        <v>10000</v>
+        <v>14000</v>
       </c>
       <c r="O60" t="n">
-        <v>10000</v>
+        <v>14000</v>
       </c>
       <c r="P60" t="n">
-        <v>10000</v>
+        <v>14000</v>
       </c>
       <c r="Q60" t="inlineStr">
         <is>
@@ -5186,7 +5186,7 @@
         </is>
       </c>
       <c r="S60" t="n">
-        <v>556</v>
+        <v>778</v>
       </c>
       <c r="T60" t="n">
         <v>18</v>
@@ -5207,7 +5207,7 @@
         </is>
       </c>
       <c r="D61" s="2" t="n">
-        <v>44299</v>
+        <v>44446</v>
       </c>
       <c r="E61" t="n">
         <v>7</v>
@@ -5244,16 +5244,16 @@
         </is>
       </c>
       <c r="M61" t="n">
-        <v>200</v>
+        <v>230</v>
       </c>
       <c r="N61" t="n">
-        <v>13000</v>
+        <v>12000</v>
       </c>
       <c r="O61" t="n">
-        <v>13000</v>
+        <v>12000</v>
       </c>
       <c r="P61" t="n">
-        <v>13000</v>
+        <v>12000</v>
       </c>
       <c r="Q61" t="inlineStr">
         <is>
@@ -5266,7 +5266,7 @@
         </is>
       </c>
       <c r="S61" t="n">
-        <v>722</v>
+        <v>667</v>
       </c>
       <c r="T61" t="n">
         <v>18</v>
@@ -5287,7 +5287,7 @@
         </is>
       </c>
       <c r="D62" s="2" t="n">
-        <v>44320</v>
+        <v>44446</v>
       </c>
       <c r="E62" t="n">
         <v>7</v>
@@ -5320,20 +5320,20 @@
       </c>
       <c r="L62" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M62" t="n">
-        <v>120</v>
+        <v>150</v>
       </c>
       <c r="N62" t="n">
-        <v>13000</v>
+        <v>10000</v>
       </c>
       <c r="O62" t="n">
-        <v>13000</v>
+        <v>10000</v>
       </c>
       <c r="P62" t="n">
-        <v>13000</v>
+        <v>10000</v>
       </c>
       <c r="Q62" t="inlineStr">
         <is>
@@ -5346,7 +5346,7 @@
         </is>
       </c>
       <c r="S62" t="n">
-        <v>722</v>
+        <v>556</v>
       </c>
       <c r="T62" t="n">
         <v>18</v>
@@ -5367,7 +5367,7 @@
         </is>
       </c>
       <c r="D63" s="2" t="n">
-        <v>44320</v>
+        <v>44299</v>
       </c>
       <c r="E63" t="n">
         <v>7</v>
@@ -5400,24 +5400,24 @@
       </c>
       <c r="L63" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M63" t="n">
-        <v>150</v>
+        <v>200</v>
       </c>
       <c r="N63" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="O63" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="P63" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="Q63" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="R63" t="inlineStr">
@@ -5426,10 +5426,10 @@
         </is>
       </c>
       <c r="S63" t="n">
-        <v>1000</v>
+        <v>722</v>
       </c>
       <c r="T63" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
     </row>
     <row r="64">
@@ -5480,24 +5480,24 @@
       </c>
       <c r="L64" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M64" t="n">
-        <v>300</v>
+        <v>120</v>
       </c>
       <c r="N64" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="O64" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="P64" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="Q64" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="R64" t="inlineStr">
@@ -5506,10 +5506,10 @@
         </is>
       </c>
       <c r="S64" t="n">
-        <v>1000</v>
+        <v>722</v>
       </c>
       <c r="T64" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
     </row>
     <row r="65">
@@ -5560,24 +5560,24 @@
       </c>
       <c r="L65" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M65" t="n">
-        <v>100</v>
+        <v>150</v>
       </c>
       <c r="N65" t="n">
-        <v>11000</v>
+        <v>10000</v>
       </c>
       <c r="O65" t="n">
-        <v>11000</v>
+        <v>10000</v>
       </c>
       <c r="P65" t="n">
-        <v>11000</v>
+        <v>10000</v>
       </c>
       <c r="Q65" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="R65" t="inlineStr">
@@ -5586,10 +5586,10 @@
         </is>
       </c>
       <c r="S65" t="n">
-        <v>611</v>
+        <v>1000</v>
       </c>
       <c r="T65" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="66">
@@ -5607,7 +5607,7 @@
         </is>
       </c>
       <c r="D66" s="2" t="n">
-        <v>44385</v>
+        <v>44320</v>
       </c>
       <c r="E66" t="n">
         <v>7</v>
@@ -5640,24 +5640,24 @@
       </c>
       <c r="L66" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M66" t="n">
-        <v>230</v>
+        <v>300</v>
       </c>
       <c r="N66" t="n">
-        <v>11000</v>
+        <v>10000</v>
       </c>
       <c r="O66" t="n">
-        <v>11000</v>
+        <v>10000</v>
       </c>
       <c r="P66" t="n">
-        <v>11000</v>
+        <v>10000</v>
       </c>
       <c r="Q66" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R66" t="inlineStr">
@@ -5666,10 +5666,10 @@
         </is>
       </c>
       <c r="S66" t="n">
-        <v>611</v>
+        <v>1000</v>
       </c>
       <c r="T66" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="67">
@@ -5687,7 +5687,7 @@
         </is>
       </c>
       <c r="D67" s="2" t="n">
-        <v>44385</v>
+        <v>44320</v>
       </c>
       <c r="E67" t="n">
         <v>7</v>
@@ -5724,16 +5724,16 @@
         </is>
       </c>
       <c r="M67" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="N67" t="n">
-        <v>9000</v>
+        <v>11000</v>
       </c>
       <c r="O67" t="n">
-        <v>9000</v>
+        <v>11000</v>
       </c>
       <c r="P67" t="n">
-        <v>9000</v>
+        <v>11000</v>
       </c>
       <c r="Q67" t="inlineStr">
         <is>
@@ -5746,7 +5746,7 @@
         </is>
       </c>
       <c r="S67" t="n">
-        <v>500</v>
+        <v>611</v>
       </c>
       <c r="T67" t="n">
         <v>18</v>
@@ -5767,7 +5767,7 @@
         </is>
       </c>
       <c r="D68" s="2" t="n">
-        <v>44284</v>
+        <v>44385</v>
       </c>
       <c r="E68" t="n">
         <v>7</v>
@@ -5800,20 +5800,20 @@
       </c>
       <c r="L68" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M68" t="n">
-        <v>200</v>
+        <v>230</v>
       </c>
       <c r="N68" t="n">
-        <v>7000</v>
+        <v>11000</v>
       </c>
       <c r="O68" t="n">
-        <v>7000</v>
+        <v>11000</v>
       </c>
       <c r="P68" t="n">
-        <v>7000</v>
+        <v>11000</v>
       </c>
       <c r="Q68" t="inlineStr">
         <is>
@@ -5826,7 +5826,7 @@
         </is>
       </c>
       <c r="S68" t="n">
-        <v>389</v>
+        <v>611</v>
       </c>
       <c r="T68" t="n">
         <v>18</v>
@@ -5847,7 +5847,7 @@
         </is>
       </c>
       <c r="D69" s="2" t="n">
-        <v>44391</v>
+        <v>44385</v>
       </c>
       <c r="E69" t="n">
         <v>7</v>
@@ -5880,20 +5880,20 @@
       </c>
       <c r="L69" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M69" t="n">
         <v>200</v>
       </c>
       <c r="N69" t="n">
-        <v>11000</v>
+        <v>9000</v>
       </c>
       <c r="O69" t="n">
-        <v>11000</v>
+        <v>9000</v>
       </c>
       <c r="P69" t="n">
-        <v>11000</v>
+        <v>9000</v>
       </c>
       <c r="Q69" t="inlineStr">
         <is>
@@ -5906,7 +5906,7 @@
         </is>
       </c>
       <c r="S69" t="n">
-        <v>611</v>
+        <v>500</v>
       </c>
       <c r="T69" t="n">
         <v>18</v>
@@ -5927,7 +5927,7 @@
         </is>
       </c>
       <c r="D70" s="2" t="n">
-        <v>44391</v>
+        <v>44284</v>
       </c>
       <c r="E70" t="n">
         <v>7</v>
@@ -5960,20 +5960,20 @@
       </c>
       <c r="L70" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M70" t="n">
-        <v>250</v>
+        <v>200</v>
       </c>
       <c r="N70" t="n">
-        <v>9500</v>
+        <v>7000</v>
       </c>
       <c r="O70" t="n">
-        <v>9500</v>
+        <v>7000</v>
       </c>
       <c r="P70" t="n">
-        <v>9500</v>
+        <v>7000</v>
       </c>
       <c r="Q70" t="inlineStr">
         <is>
@@ -5986,7 +5986,7 @@
         </is>
       </c>
       <c r="S70" t="n">
-        <v>528</v>
+        <v>389</v>
       </c>
       <c r="T70" t="n">
         <v>18</v>
@@ -6007,7 +6007,7 @@
         </is>
       </c>
       <c r="D71" s="2" t="n">
-        <v>44281</v>
+        <v>44391</v>
       </c>
       <c r="E71" t="n">
         <v>7</v>
@@ -6040,24 +6040,24 @@
       </c>
       <c r="L71" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M71" t="n">
-        <v>210</v>
+        <v>200</v>
       </c>
       <c r="N71" t="n">
-        <v>10000</v>
+        <v>11000</v>
       </c>
       <c r="O71" t="n">
-        <v>10000</v>
+        <v>11000</v>
       </c>
       <c r="P71" t="n">
-        <v>10000</v>
+        <v>11000</v>
       </c>
       <c r="Q71" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="R71" t="inlineStr">
@@ -6066,10 +6066,10 @@
         </is>
       </c>
       <c r="S71" t="n">
-        <v>1000</v>
+        <v>611</v>
       </c>
       <c r="T71" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
     </row>
     <row r="72">
@@ -6087,7 +6087,7 @@
         </is>
       </c>
       <c r="D72" s="2" t="n">
-        <v>44342</v>
+        <v>44391</v>
       </c>
       <c r="E72" t="n">
         <v>7</v>
@@ -6127,13 +6127,13 @@
         <v>250</v>
       </c>
       <c r="N72" t="n">
-        <v>8000</v>
+        <v>9500</v>
       </c>
       <c r="O72" t="n">
-        <v>9000</v>
+        <v>9500</v>
       </c>
       <c r="P72" t="n">
-        <v>8600</v>
+        <v>9500</v>
       </c>
       <c r="Q72" t="inlineStr">
         <is>
@@ -6146,7 +6146,7 @@
         </is>
       </c>
       <c r="S72" t="n">
-        <v>478</v>
+        <v>528</v>
       </c>
       <c r="T72" t="n">
         <v>18</v>
@@ -6167,7 +6167,7 @@
         </is>
       </c>
       <c r="D73" s="2" t="n">
-        <v>44434</v>
+        <v>44281</v>
       </c>
       <c r="E73" t="n">
         <v>7</v>
@@ -6200,24 +6200,24 @@
       </c>
       <c r="L73" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M73" t="n">
-        <v>230</v>
+        <v>210</v>
       </c>
       <c r="N73" t="n">
-        <v>14000</v>
+        <v>10000</v>
       </c>
       <c r="O73" t="n">
-        <v>14000</v>
+        <v>10000</v>
       </c>
       <c r="P73" t="n">
-        <v>14000</v>
+        <v>10000</v>
       </c>
       <c r="Q73" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R73" t="inlineStr">
@@ -6226,10 +6226,10 @@
         </is>
       </c>
       <c r="S73" t="n">
-        <v>778</v>
+        <v>1000</v>
       </c>
       <c r="T73" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="74">
@@ -6247,7 +6247,7 @@
         </is>
       </c>
       <c r="D74" s="2" t="n">
-        <v>44434</v>
+        <v>44342</v>
       </c>
       <c r="E74" t="n">
         <v>7</v>
@@ -6280,24 +6280,24 @@
       </c>
       <c r="L74" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M74" t="n">
-        <v>160</v>
+        <v>250</v>
       </c>
       <c r="N74" t="n">
         <v>8000</v>
       </c>
       <c r="O74" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="P74" t="n">
-        <v>8000</v>
+        <v>8600</v>
       </c>
       <c r="Q74" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="R74" t="inlineStr">
@@ -6306,10 +6306,10 @@
         </is>
       </c>
       <c r="S74" t="n">
-        <v>800</v>
+        <v>478</v>
       </c>
       <c r="T74" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
     </row>
     <row r="75">
@@ -6360,20 +6360,20 @@
       </c>
       <c r="L75" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M75" t="n">
-        <v>150</v>
+        <v>230</v>
       </c>
       <c r="N75" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="O75" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="P75" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="Q75" t="inlineStr">
         <is>
@@ -6386,7 +6386,7 @@
         </is>
       </c>
       <c r="S75" t="n">
-        <v>667</v>
+        <v>778</v>
       </c>
       <c r="T75" t="n">
         <v>18</v>
@@ -6440,20 +6440,20 @@
       </c>
       <c r="L76" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M76" t="n">
-        <v>230</v>
+        <v>160</v>
       </c>
       <c r="N76" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="O76" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="P76" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="Q76" t="inlineStr">
         <is>
@@ -6466,7 +6466,7 @@
         </is>
       </c>
       <c r="S76" t="n">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="T76" t="n">
         <v>10</v>
@@ -6520,20 +6520,20 @@
       </c>
       <c r="L77" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M77" t="n">
-        <v>120</v>
+        <v>150</v>
       </c>
       <c r="N77" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="O77" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="P77" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="Q77" t="inlineStr">
         <is>
@@ -6546,7 +6546,7 @@
         </is>
       </c>
       <c r="S77" t="n">
-        <v>556</v>
+        <v>667</v>
       </c>
       <c r="T77" t="n">
         <v>18</v>
@@ -6567,7 +6567,7 @@
         </is>
       </c>
       <c r="D78" s="2" t="n">
-        <v>44327</v>
+        <v>44434</v>
       </c>
       <c r="E78" t="n">
         <v>7</v>
@@ -6604,16 +6604,16 @@
         </is>
       </c>
       <c r="M78" t="n">
-        <v>300</v>
+        <v>230</v>
       </c>
       <c r="N78" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="O78" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="P78" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="Q78" t="inlineStr">
         <is>
@@ -6626,7 +6626,7 @@
         </is>
       </c>
       <c r="S78" t="n">
-        <v>900</v>
+        <v>700</v>
       </c>
       <c r="T78" t="n">
         <v>10</v>
@@ -6647,7 +6647,7 @@
         </is>
       </c>
       <c r="D79" s="2" t="n">
-        <v>44321</v>
+        <v>44434</v>
       </c>
       <c r="E79" t="n">
         <v>7</v>
@@ -6680,20 +6680,20 @@
       </c>
       <c r="L79" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M79" t="n">
-        <v>200</v>
+        <v>120</v>
       </c>
       <c r="N79" t="n">
-        <v>13000</v>
+        <v>10000</v>
       </c>
       <c r="O79" t="n">
-        <v>13000</v>
+        <v>10000</v>
       </c>
       <c r="P79" t="n">
-        <v>13000</v>
+        <v>10000</v>
       </c>
       <c r="Q79" t="inlineStr">
         <is>
@@ -6706,7 +6706,7 @@
         </is>
       </c>
       <c r="S79" t="n">
-        <v>722</v>
+        <v>556</v>
       </c>
       <c r="T79" t="n">
         <v>18</v>
@@ -6727,7 +6727,7 @@
         </is>
       </c>
       <c r="D80" s="2" t="n">
-        <v>44399</v>
+        <v>44327</v>
       </c>
       <c r="E80" t="n">
         <v>7</v>
@@ -6764,20 +6764,20 @@
         </is>
       </c>
       <c r="M80" t="n">
-        <v>260</v>
+        <v>300</v>
       </c>
       <c r="N80" t="n">
-        <v>5000</v>
+        <v>9000</v>
       </c>
       <c r="O80" t="n">
-        <v>5000</v>
+        <v>9000</v>
       </c>
       <c r="P80" t="n">
-        <v>5000</v>
+        <v>9000</v>
       </c>
       <c r="Q80" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="R80" t="inlineStr">
@@ -6786,7 +6786,7 @@
         </is>
       </c>
       <c r="S80" t="n">
-        <v>500</v>
+        <v>900</v>
       </c>
       <c r="T80" t="n">
         <v>10</v>
@@ -6807,7 +6807,7 @@
         </is>
       </c>
       <c r="D81" s="2" t="n">
-        <v>44399</v>
+        <v>44321</v>
       </c>
       <c r="E81" t="n">
         <v>7</v>
@@ -6844,20 +6844,20 @@
         </is>
       </c>
       <c r="M81" t="n">
-        <v>260</v>
+        <v>200</v>
       </c>
       <c r="N81" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="O81" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="P81" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="Q81" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos granel</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="R81" t="inlineStr">
@@ -6866,7 +6866,7 @@
         </is>
       </c>
       <c r="S81" t="n">
-        <v>556</v>
+        <v>722</v>
       </c>
       <c r="T81" t="n">
         <v>18</v>
@@ -6887,7 +6887,7 @@
         </is>
       </c>
       <c r="D82" s="2" t="n">
-        <v>44452</v>
+        <v>44399</v>
       </c>
       <c r="E82" t="n">
         <v>7</v>
@@ -6924,20 +6924,20 @@
         </is>
       </c>
       <c r="M82" t="n">
-        <v>300</v>
+        <v>260</v>
       </c>
       <c r="N82" t="n">
-        <v>12000</v>
+        <v>5000</v>
       </c>
       <c r="O82" t="n">
-        <v>12000</v>
+        <v>5000</v>
       </c>
       <c r="P82" t="n">
-        <v>12000</v>
+        <v>5000</v>
       </c>
       <c r="Q82" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R82" t="inlineStr">
@@ -6946,10 +6946,10 @@
         </is>
       </c>
       <c r="S82" t="n">
-        <v>667</v>
+        <v>500</v>
       </c>
       <c r="T82" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="83">
@@ -6967,7 +6967,7 @@
         </is>
       </c>
       <c r="D83" s="2" t="n">
-        <v>44383</v>
+        <v>44399</v>
       </c>
       <c r="E83" t="n">
         <v>7</v>
@@ -7004,20 +7004,20 @@
         </is>
       </c>
       <c r="M83" t="n">
-        <v>210</v>
+        <v>260</v>
       </c>
       <c r="N83" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="O83" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="P83" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="Q83" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 18 kilos granel</t>
         </is>
       </c>
       <c r="R83" t="inlineStr">
@@ -7026,7 +7026,7 @@
         </is>
       </c>
       <c r="S83" t="n">
-        <v>500</v>
+        <v>556</v>
       </c>
       <c r="T83" t="n">
         <v>18</v>
@@ -7047,7 +7047,7 @@
         </is>
       </c>
       <c r="D84" s="2" t="n">
-        <v>44383</v>
+        <v>44452</v>
       </c>
       <c r="E84" t="n">
         <v>7</v>
@@ -7084,20 +7084,20 @@
         </is>
       </c>
       <c r="M84" t="n">
-        <v>260</v>
+        <v>300</v>
       </c>
       <c r="N84" t="n">
-        <v>6000</v>
+        <v>12000</v>
       </c>
       <c r="O84" t="n">
-        <v>6000</v>
+        <v>12000</v>
       </c>
       <c r="P84" t="n">
-        <v>6000</v>
+        <v>12000</v>
       </c>
       <c r="Q84" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="R84" t="inlineStr">
@@ -7106,10 +7106,10 @@
         </is>
       </c>
       <c r="S84" t="n">
-        <v>600</v>
+        <v>667</v>
       </c>
       <c r="T84" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
     </row>
     <row r="85">
@@ -7127,7 +7127,7 @@
         </is>
       </c>
       <c r="D85" s="2" t="n">
-        <v>44407</v>
+        <v>44383</v>
       </c>
       <c r="E85" t="n">
         <v>7</v>
@@ -7160,20 +7160,20 @@
       </c>
       <c r="L85" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M85" t="n">
-        <v>60</v>
+        <v>210</v>
       </c>
       <c r="N85" t="n">
-        <v>13000</v>
+        <v>9000</v>
       </c>
       <c r="O85" t="n">
-        <v>13000</v>
+        <v>9000</v>
       </c>
       <c r="P85" t="n">
-        <v>13000</v>
+        <v>9000</v>
       </c>
       <c r="Q85" t="inlineStr">
         <is>
@@ -7186,7 +7186,7 @@
         </is>
       </c>
       <c r="S85" t="n">
-        <v>722</v>
+        <v>500</v>
       </c>
       <c r="T85" t="n">
         <v>18</v>
@@ -7207,7 +7207,7 @@
         </is>
       </c>
       <c r="D86" s="2" t="n">
-        <v>44407</v>
+        <v>44383</v>
       </c>
       <c r="E86" t="n">
         <v>7</v>
@@ -7244,20 +7244,20 @@
         </is>
       </c>
       <c r="M86" t="n">
-        <v>150</v>
+        <v>260</v>
       </c>
       <c r="N86" t="n">
-        <v>10000</v>
+        <v>6000</v>
       </c>
       <c r="O86" t="n">
-        <v>10000</v>
+        <v>6000</v>
       </c>
       <c r="P86" t="n">
-        <v>10000</v>
+        <v>6000</v>
       </c>
       <c r="Q86" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="R86" t="inlineStr">
@@ -7266,10 +7266,10 @@
         </is>
       </c>
       <c r="S86" t="n">
-        <v>556</v>
+        <v>600</v>
       </c>
       <c r="T86" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="87">
@@ -7320,20 +7320,20 @@
       </c>
       <c r="L87" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M87" t="n">
-        <v>100</v>
+        <v>60</v>
       </c>
       <c r="N87" t="n">
-        <v>8000</v>
+        <v>13000</v>
       </c>
       <c r="O87" t="n">
-        <v>8000</v>
+        <v>13000</v>
       </c>
       <c r="P87" t="n">
-        <v>8000</v>
+        <v>13000</v>
       </c>
       <c r="Q87" t="inlineStr">
         <is>
@@ -7346,7 +7346,7 @@
         </is>
       </c>
       <c r="S87" t="n">
-        <v>444</v>
+        <v>722</v>
       </c>
       <c r="T87" t="n">
         <v>18</v>
@@ -7367,7 +7367,7 @@
         </is>
       </c>
       <c r="D88" s="2" t="n">
-        <v>44336</v>
+        <v>44407</v>
       </c>
       <c r="E88" t="n">
         <v>7</v>
@@ -7404,20 +7404,20 @@
         </is>
       </c>
       <c r="M88" t="n">
-        <v>250</v>
+        <v>150</v>
       </c>
       <c r="N88" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="O88" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="P88" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="Q88" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="R88" t="inlineStr">
@@ -7426,10 +7426,10 @@
         </is>
       </c>
       <c r="S88" t="n">
-        <v>800</v>
+        <v>556</v>
       </c>
       <c r="T88" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
     </row>
     <row r="89">
@@ -7447,7 +7447,7 @@
         </is>
       </c>
       <c r="D89" s="2" t="n">
-        <v>44341</v>
+        <v>44407</v>
       </c>
       <c r="E89" t="n">
         <v>7</v>
@@ -7480,20 +7480,20 @@
       </c>
       <c r="L89" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M89" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="N89" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="O89" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="P89" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="Q89" t="inlineStr">
         <is>
@@ -7506,7 +7506,7 @@
         </is>
       </c>
       <c r="S89" t="n">
-        <v>556</v>
+        <v>444</v>
       </c>
       <c r="T89" t="n">
         <v>18</v>
@@ -7527,7 +7527,7 @@
         </is>
       </c>
       <c r="D90" s="2" t="n">
-        <v>44341</v>
+        <v>44336</v>
       </c>
       <c r="E90" t="n">
         <v>7</v>
@@ -7564,20 +7564,20 @@
         </is>
       </c>
       <c r="M90" t="n">
-        <v>210</v>
+        <v>250</v>
       </c>
       <c r="N90" t="n">
-        <v>9000</v>
+        <v>8000</v>
       </c>
       <c r="O90" t="n">
-        <v>9000</v>
+        <v>8000</v>
       </c>
       <c r="P90" t="n">
-        <v>9000</v>
+        <v>8000</v>
       </c>
       <c r="Q90" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="R90" t="inlineStr">
@@ -7586,10 +7586,10 @@
         </is>
       </c>
       <c r="S90" t="n">
-        <v>500</v>
+        <v>800</v>
       </c>
       <c r="T90" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="91">
@@ -7607,7 +7607,7 @@
         </is>
       </c>
       <c r="D91" s="2" t="n">
-        <v>44426</v>
+        <v>44341</v>
       </c>
       <c r="E91" t="n">
         <v>7</v>
@@ -7644,20 +7644,20 @@
         </is>
       </c>
       <c r="M91" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="N91" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="O91" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="P91" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="Q91" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="R91" t="inlineStr">
@@ -7666,7 +7666,7 @@
         </is>
       </c>
       <c r="S91" t="n">
-        <v>667</v>
+        <v>556</v>
       </c>
       <c r="T91" t="n">
         <v>18</v>
@@ -7687,7 +7687,7 @@
         </is>
       </c>
       <c r="D92" s="2" t="n">
-        <v>44426</v>
+        <v>44341</v>
       </c>
       <c r="E92" t="n">
         <v>7</v>
@@ -7724,20 +7724,20 @@
         </is>
       </c>
       <c r="M92" t="n">
-        <v>120</v>
+        <v>210</v>
       </c>
       <c r="N92" t="n">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="O92" t="n">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="P92" t="n">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="Q92" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="R92" t="inlineStr">
@@ -7746,7 +7746,7 @@
         </is>
       </c>
       <c r="S92" t="n">
-        <v>556</v>
+        <v>500</v>
       </c>
       <c r="T92" t="n">
         <v>18</v>
@@ -7767,7 +7767,7 @@
         </is>
       </c>
       <c r="D93" s="2" t="n">
-        <v>44400</v>
+        <v>44426</v>
       </c>
       <c r="E93" t="n">
         <v>7</v>
@@ -7807,17 +7807,17 @@
         <v>100</v>
       </c>
       <c r="N93" t="n">
-        <v>13000</v>
+        <v>12000</v>
       </c>
       <c r="O93" t="n">
-        <v>13000</v>
+        <v>12000</v>
       </c>
       <c r="P93" t="n">
-        <v>13000</v>
+        <v>12000</v>
       </c>
       <c r="Q93" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="R93" t="inlineStr">
@@ -7826,7 +7826,7 @@
         </is>
       </c>
       <c r="S93" t="n">
-        <v>722</v>
+        <v>667</v>
       </c>
       <c r="T93" t="n">
         <v>18</v>
@@ -7847,7 +7847,7 @@
         </is>
       </c>
       <c r="D94" s="2" t="n">
-        <v>44400</v>
+        <v>44426</v>
       </c>
       <c r="E94" t="n">
         <v>7</v>
@@ -7884,7 +7884,7 @@
         </is>
       </c>
       <c r="M94" t="n">
-        <v>180</v>
+        <v>120</v>
       </c>
       <c r="N94" t="n">
         <v>10000</v>
@@ -7897,7 +7897,7 @@
       </c>
       <c r="Q94" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="R94" t="inlineStr">
@@ -7960,20 +7960,20 @@
       </c>
       <c r="L95" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M95" t="n">
-        <v>150</v>
+        <v>100</v>
       </c>
       <c r="N95" t="n">
-        <v>8000</v>
+        <v>13000</v>
       </c>
       <c r="O95" t="n">
-        <v>8000</v>
+        <v>13000</v>
       </c>
       <c r="P95" t="n">
-        <v>8000</v>
+        <v>13000</v>
       </c>
       <c r="Q95" t="inlineStr">
         <is>
@@ -7986,7 +7986,7 @@
         </is>
       </c>
       <c r="S95" t="n">
-        <v>444</v>
+        <v>722</v>
       </c>
       <c r="T95" t="n">
         <v>18</v>
@@ -8007,7 +8007,7 @@
         </is>
       </c>
       <c r="D96" s="2" t="n">
-        <v>44392</v>
+        <v>44400</v>
       </c>
       <c r="E96" t="n">
         <v>7</v>
@@ -8040,20 +8040,20 @@
       </c>
       <c r="L96" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M96" t="n">
-        <v>200</v>
+        <v>180</v>
       </c>
       <c r="N96" t="n">
-        <v>11000</v>
+        <v>10000</v>
       </c>
       <c r="O96" t="n">
-        <v>11000</v>
+        <v>10000</v>
       </c>
       <c r="P96" t="n">
-        <v>11000</v>
+        <v>10000</v>
       </c>
       <c r="Q96" t="inlineStr">
         <is>
@@ -8066,7 +8066,7 @@
         </is>
       </c>
       <c r="S96" t="n">
-        <v>611</v>
+        <v>556</v>
       </c>
       <c r="T96" t="n">
         <v>18</v>
@@ -8087,7 +8087,7 @@
         </is>
       </c>
       <c r="D97" s="2" t="n">
-        <v>44392</v>
+        <v>44400</v>
       </c>
       <c r="E97" t="n">
         <v>7</v>
@@ -8120,20 +8120,20 @@
       </c>
       <c r="L97" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M97" t="n">
-        <v>400</v>
+        <v>150</v>
       </c>
       <c r="N97" t="n">
-        <v>9000</v>
+        <v>8000</v>
       </c>
       <c r="O97" t="n">
-        <v>9000</v>
+        <v>8000</v>
       </c>
       <c r="P97" t="n">
-        <v>9000</v>
+        <v>8000</v>
       </c>
       <c r="Q97" t="inlineStr">
         <is>
@@ -8146,7 +8146,7 @@
         </is>
       </c>
       <c r="S97" t="n">
-        <v>500</v>
+        <v>444</v>
       </c>
       <c r="T97" t="n">
         <v>18</v>
@@ -8167,7 +8167,7 @@
         </is>
       </c>
       <c r="D98" s="2" t="n">
-        <v>44442</v>
+        <v>44392</v>
       </c>
       <c r="E98" t="n">
         <v>7</v>
@@ -8204,16 +8204,16 @@
         </is>
       </c>
       <c r="M98" t="n">
-        <v>180</v>
+        <v>200</v>
       </c>
       <c r="N98" t="n">
-        <v>14000</v>
+        <v>11000</v>
       </c>
       <c r="O98" t="n">
-        <v>14000</v>
+        <v>11000</v>
       </c>
       <c r="P98" t="n">
-        <v>14000</v>
+        <v>11000</v>
       </c>
       <c r="Q98" t="inlineStr">
         <is>
@@ -8226,7 +8226,7 @@
         </is>
       </c>
       <c r="S98" t="n">
-        <v>778</v>
+        <v>611</v>
       </c>
       <c r="T98" t="n">
         <v>18</v>
@@ -8247,7 +8247,7 @@
         </is>
       </c>
       <c r="D99" s="2" t="n">
-        <v>44442</v>
+        <v>44392</v>
       </c>
       <c r="E99" t="n">
         <v>7</v>
@@ -8284,16 +8284,16 @@
         </is>
       </c>
       <c r="M99" t="n">
-        <v>230</v>
+        <v>400</v>
       </c>
       <c r="N99" t="n">
-        <v>12000</v>
+        <v>9000</v>
       </c>
       <c r="O99" t="n">
-        <v>12000</v>
+        <v>9000</v>
       </c>
       <c r="P99" t="n">
-        <v>12000</v>
+        <v>9000</v>
       </c>
       <c r="Q99" t="inlineStr">
         <is>
@@ -8306,7 +8306,7 @@
         </is>
       </c>
       <c r="S99" t="n">
-        <v>667</v>
+        <v>500</v>
       </c>
       <c r="T99" t="n">
         <v>18</v>
@@ -8360,20 +8360,20 @@
       </c>
       <c r="L100" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M100" t="n">
-        <v>250</v>
+        <v>180</v>
       </c>
       <c r="N100" t="n">
-        <v>10000</v>
+        <v>14000</v>
       </c>
       <c r="O100" t="n">
-        <v>10000</v>
+        <v>14000</v>
       </c>
       <c r="P100" t="n">
-        <v>10000</v>
+        <v>14000</v>
       </c>
       <c r="Q100" t="inlineStr">
         <is>
@@ -8382,11 +8382,11 @@
       </c>
       <c r="R100" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S100" t="n">
-        <v>556</v>
+        <v>778</v>
       </c>
       <c r="T100" t="n">
         <v>18</v>
@@ -8440,20 +8440,20 @@
       </c>
       <c r="L101" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M101" t="n">
-        <v>200</v>
+        <v>230</v>
       </c>
       <c r="N101" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="O101" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="P101" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="Q101" t="inlineStr">
         <is>
@@ -8466,7 +8466,7 @@
         </is>
       </c>
       <c r="S101" t="n">
-        <v>556</v>
+        <v>667</v>
       </c>
       <c r="T101" t="n">
         <v>18</v>
@@ -8520,20 +8520,20 @@
       </c>
       <c r="L102" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M102" t="n">
-        <v>200</v>
+        <v>250</v>
       </c>
       <c r="N102" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="O102" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="P102" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="Q102" t="inlineStr">
         <is>
@@ -8546,7 +8546,7 @@
         </is>
       </c>
       <c r="S102" t="n">
-        <v>444</v>
+        <v>556</v>
       </c>
       <c r="T102" t="n">
         <v>18</v>
@@ -8567,7 +8567,7 @@
         </is>
       </c>
       <c r="D103" s="2" t="n">
-        <v>44453</v>
+        <v>44442</v>
       </c>
       <c r="E103" t="n">
         <v>7</v>
@@ -8600,24 +8600,24 @@
       </c>
       <c r="L103" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M103" t="n">
-        <v>250</v>
+        <v>200</v>
       </c>
       <c r="N103" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="O103" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="P103" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="Q103" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="R103" t="inlineStr">
@@ -8626,10 +8626,10 @@
         </is>
       </c>
       <c r="S103" t="n">
-        <v>1200</v>
+        <v>556</v>
       </c>
       <c r="T103" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
     </row>
     <row r="104">
@@ -8647,7 +8647,7 @@
         </is>
       </c>
       <c r="D104" s="2" t="n">
-        <v>44309</v>
+        <v>44442</v>
       </c>
       <c r="E104" t="n">
         <v>7</v>
@@ -8680,20 +8680,20 @@
       </c>
       <c r="L104" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M104" t="n">
-        <v>160</v>
+        <v>200</v>
       </c>
       <c r="N104" t="n">
-        <v>14000</v>
+        <v>8000</v>
       </c>
       <c r="O104" t="n">
-        <v>14000</v>
+        <v>8000</v>
       </c>
       <c r="P104" t="n">
-        <v>14000</v>
+        <v>8000</v>
       </c>
       <c r="Q104" t="inlineStr">
         <is>
@@ -8702,11 +8702,11 @@
       </c>
       <c r="R104" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S104" t="n">
-        <v>778</v>
+        <v>444</v>
       </c>
       <c r="T104" t="n">
         <v>18</v>
@@ -8727,7 +8727,7 @@
         </is>
       </c>
       <c r="D105" s="2" t="n">
-        <v>44309</v>
+        <v>44453</v>
       </c>
       <c r="E105" t="n">
         <v>7</v>
@@ -8767,13 +8767,13 @@
         <v>250</v>
       </c>
       <c r="N105" t="n">
-        <v>8000</v>
+        <v>12000</v>
       </c>
       <c r="O105" t="n">
-        <v>9000</v>
+        <v>12000</v>
       </c>
       <c r="P105" t="n">
-        <v>8600</v>
+        <v>12000</v>
       </c>
       <c r="Q105" t="inlineStr">
         <is>
@@ -8786,7 +8786,7 @@
         </is>
       </c>
       <c r="S105" t="n">
-        <v>860</v>
+        <v>1200</v>
       </c>
       <c r="T105" t="n">
         <v>10</v>
@@ -8840,20 +8840,20 @@
       </c>
       <c r="L106" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M106" t="n">
-        <v>100</v>
+        <v>160</v>
       </c>
       <c r="N106" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="O106" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="P106" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="Q106" t="inlineStr">
         <is>
@@ -8866,7 +8866,7 @@
         </is>
       </c>
       <c r="S106" t="n">
-        <v>667</v>
+        <v>778</v>
       </c>
       <c r="T106" t="n">
         <v>18</v>
@@ -8887,7 +8887,7 @@
         </is>
       </c>
       <c r="D107" s="2" t="n">
-        <v>44448</v>
+        <v>44309</v>
       </c>
       <c r="E107" t="n">
         <v>7</v>
@@ -8920,24 +8920,24 @@
       </c>
       <c r="L107" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M107" t="n">
-        <v>180</v>
+        <v>250</v>
       </c>
       <c r="N107" t="n">
-        <v>13000</v>
+        <v>8000</v>
       </c>
       <c r="O107" t="n">
-        <v>13000</v>
+        <v>9000</v>
       </c>
       <c r="P107" t="n">
-        <v>13000</v>
+        <v>8600</v>
       </c>
       <c r="Q107" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R107" t="inlineStr">
@@ -8946,10 +8946,10 @@
         </is>
       </c>
       <c r="S107" t="n">
-        <v>722</v>
+        <v>860</v>
       </c>
       <c r="T107" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="108">
@@ -8967,7 +8967,7 @@
         </is>
       </c>
       <c r="D108" s="2" t="n">
-        <v>44448</v>
+        <v>44309</v>
       </c>
       <c r="E108" t="n">
         <v>7</v>
@@ -9004,20 +9004,20 @@
         </is>
       </c>
       <c r="M108" t="n">
-        <v>230</v>
+        <v>100</v>
       </c>
       <c r="N108" t="n">
-        <v>11000</v>
+        <v>12000</v>
       </c>
       <c r="O108" t="n">
-        <v>11000</v>
+        <v>12000</v>
       </c>
       <c r="P108" t="n">
-        <v>11000</v>
+        <v>12000</v>
       </c>
       <c r="Q108" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="R108" t="inlineStr">
@@ -9026,7 +9026,7 @@
         </is>
       </c>
       <c r="S108" t="n">
-        <v>611</v>
+        <v>667</v>
       </c>
       <c r="T108" t="n">
         <v>18</v>
@@ -9047,7 +9047,7 @@
         </is>
       </c>
       <c r="D109" s="2" t="n">
-        <v>44354</v>
+        <v>44448</v>
       </c>
       <c r="E109" t="n">
         <v>7</v>
@@ -9087,26 +9087,26 @@
         <v>180</v>
       </c>
       <c r="N109" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="O109" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="P109" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="Q109" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="R109" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S109" t="n">
-        <v>667</v>
+        <v>722</v>
       </c>
       <c r="T109" t="n">
         <v>18</v>
@@ -9127,7 +9127,7 @@
         </is>
       </c>
       <c r="D110" s="2" t="n">
-        <v>44354</v>
+        <v>44448</v>
       </c>
       <c r="E110" t="n">
         <v>7</v>
@@ -9164,29 +9164,29 @@
         </is>
       </c>
       <c r="M110" t="n">
-        <v>100</v>
+        <v>230</v>
       </c>
       <c r="N110" t="n">
-        <v>10000</v>
+        <v>11000</v>
       </c>
       <c r="O110" t="n">
-        <v>10000</v>
+        <v>11000</v>
       </c>
       <c r="P110" t="n">
-        <v>10000</v>
+        <v>11000</v>
       </c>
       <c r="Q110" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="R110" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S110" t="n">
-        <v>556</v>
+        <v>611</v>
       </c>
       <c r="T110" t="n">
         <v>18</v>
@@ -9207,7 +9207,7 @@
         </is>
       </c>
       <c r="D111" s="2" t="n">
-        <v>44420</v>
+        <v>44354</v>
       </c>
       <c r="E111" t="n">
         <v>7</v>
@@ -9244,29 +9244,29 @@
         </is>
       </c>
       <c r="M111" t="n">
-        <v>120</v>
+        <v>180</v>
       </c>
       <c r="N111" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="O111" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="P111" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="Q111" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="R111" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S111" t="n">
-        <v>778</v>
+        <v>667</v>
       </c>
       <c r="T111" t="n">
         <v>18</v>
@@ -9287,7 +9287,7 @@
         </is>
       </c>
       <c r="D112" s="2" t="n">
-        <v>44420</v>
+        <v>44354</v>
       </c>
       <c r="E112" t="n">
         <v>7</v>
@@ -9324,29 +9324,29 @@
         </is>
       </c>
       <c r="M112" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="N112" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="O112" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="P112" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="Q112" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="R112" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S112" t="n">
-        <v>667</v>
+        <v>556</v>
       </c>
       <c r="T112" t="n">
         <v>18</v>
@@ -9367,7 +9367,7 @@
         </is>
       </c>
       <c r="D113" s="2" t="n">
-        <v>44370</v>
+        <v>44420</v>
       </c>
       <c r="E113" t="n">
         <v>7</v>
@@ -9404,20 +9404,20 @@
         </is>
       </c>
       <c r="M113" t="n">
-        <v>100</v>
+        <v>120</v>
       </c>
       <c r="N113" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="O113" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="P113" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="Q113" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="R113" t="inlineStr">
@@ -9426,7 +9426,7 @@
         </is>
       </c>
       <c r="S113" t="n">
-        <v>667</v>
+        <v>778</v>
       </c>
       <c r="T113" t="n">
         <v>18</v>
@@ -9447,7 +9447,7 @@
         </is>
       </c>
       <c r="D114" s="2" t="n">
-        <v>44370</v>
+        <v>44420</v>
       </c>
       <c r="E114" t="n">
         <v>7</v>
@@ -9484,20 +9484,20 @@
         </is>
       </c>
       <c r="M114" t="n">
-        <v>120</v>
+        <v>200</v>
       </c>
       <c r="N114" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="O114" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="P114" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="Q114" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="R114" t="inlineStr">
@@ -9506,7 +9506,7 @@
         </is>
       </c>
       <c r="S114" t="n">
-        <v>556</v>
+        <v>667</v>
       </c>
       <c r="T114" t="n">
         <v>18</v>
@@ -9560,20 +9560,20 @@
       </c>
       <c r="L115" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M115" t="n">
-        <v>60</v>
+        <v>100</v>
       </c>
       <c r="N115" t="n">
-        <v>8000</v>
+        <v>12000</v>
       </c>
       <c r="O115" t="n">
-        <v>8000</v>
+        <v>12000</v>
       </c>
       <c r="P115" t="n">
-        <v>8000</v>
+        <v>12000</v>
       </c>
       <c r="Q115" t="inlineStr">
         <is>
@@ -9586,7 +9586,7 @@
         </is>
       </c>
       <c r="S115" t="n">
-        <v>444</v>
+        <v>667</v>
       </c>
       <c r="T115" t="n">
         <v>18</v>
@@ -9607,7 +9607,7 @@
         </is>
       </c>
       <c r="D116" s="2" t="n">
-        <v>44285</v>
+        <v>44370</v>
       </c>
       <c r="E116" t="n">
         <v>7</v>
@@ -9644,32 +9644,32 @@
         </is>
       </c>
       <c r="M116" t="n">
-        <v>300</v>
+        <v>120</v>
       </c>
       <c r="N116" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="O116" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="P116" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="Q116" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="R116" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S116" t="n">
-        <v>900</v>
+        <v>556</v>
       </c>
       <c r="T116" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
     </row>
     <row r="117">
@@ -9687,7 +9687,7 @@
         </is>
       </c>
       <c r="D117" s="2" t="n">
-        <v>44285</v>
+        <v>44370</v>
       </c>
       <c r="E117" t="n">
         <v>7</v>
@@ -9724,32 +9724,32 @@
         </is>
       </c>
       <c r="M117" t="n">
-        <v>150</v>
+        <v>60</v>
       </c>
       <c r="N117" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="O117" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="P117" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="Q117" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="R117" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S117" t="n">
-        <v>700</v>
+        <v>444</v>
       </c>
       <c r="T117" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
     </row>
     <row r="118">
@@ -9767,7 +9767,7 @@
         </is>
       </c>
       <c r="D118" s="2" t="n">
-        <v>44266</v>
+        <v>44285</v>
       </c>
       <c r="E118" t="n">
         <v>7</v>
@@ -9804,32 +9804,32 @@
         </is>
       </c>
       <c r="M118" t="n">
-        <v>210</v>
+        <v>300</v>
       </c>
       <c r="N118" t="n">
-        <v>12000</v>
+        <v>9000</v>
       </c>
       <c r="O118" t="n">
-        <v>12000</v>
+        <v>9000</v>
       </c>
       <c r="P118" t="n">
-        <v>12000</v>
+        <v>9000</v>
       </c>
       <c r="Q118" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R118" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="S118" t="n">
-        <v>667</v>
+        <v>900</v>
       </c>
       <c r="T118" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="119">
@@ -9847,7 +9847,7 @@
         </is>
       </c>
       <c r="D119" s="2" t="n">
-        <v>44350</v>
+        <v>44285</v>
       </c>
       <c r="E119" t="n">
         <v>7</v>
@@ -9880,36 +9880,36 @@
       </c>
       <c r="L119" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M119" t="n">
-        <v>130</v>
+        <v>150</v>
       </c>
       <c r="N119" t="n">
-        <v>11000</v>
+        <v>7000</v>
       </c>
       <c r="O119" t="n">
-        <v>11000</v>
+        <v>7000</v>
       </c>
       <c r="P119" t="n">
-        <v>11000</v>
+        <v>7000</v>
       </c>
       <c r="Q119" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos granel</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R119" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="S119" t="n">
-        <v>611</v>
+        <v>700</v>
       </c>
       <c r="T119" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="120">
@@ -9927,7 +9927,7 @@
         </is>
       </c>
       <c r="D120" s="2" t="n">
-        <v>44350</v>
+        <v>44266</v>
       </c>
       <c r="E120" t="n">
         <v>7</v>
@@ -9964,20 +9964,20 @@
         </is>
       </c>
       <c r="M120" t="n">
-        <v>360</v>
+        <v>210</v>
       </c>
       <c r="N120" t="n">
-        <v>9000</v>
+        <v>12000</v>
       </c>
       <c r="O120" t="n">
-        <v>9000</v>
+        <v>12000</v>
       </c>
       <c r="P120" t="n">
-        <v>9000</v>
+        <v>12000</v>
       </c>
       <c r="Q120" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos granel</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="R120" t="inlineStr">
@@ -9986,7 +9986,7 @@
         </is>
       </c>
       <c r="S120" t="n">
-        <v>500</v>
+        <v>667</v>
       </c>
       <c r="T120" t="n">
         <v>18</v>
@@ -10040,20 +10040,20 @@
       </c>
       <c r="L121" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M121" t="n">
-        <v>100</v>
+        <v>130</v>
       </c>
       <c r="N121" t="n">
-        <v>9000</v>
+        <v>11000</v>
       </c>
       <c r="O121" t="n">
-        <v>9000</v>
+        <v>11000</v>
       </c>
       <c r="P121" t="n">
-        <v>9000</v>
+        <v>11000</v>
       </c>
       <c r="Q121" t="inlineStr">
         <is>
@@ -10066,7 +10066,7 @@
         </is>
       </c>
       <c r="S121" t="n">
-        <v>500</v>
+        <v>611</v>
       </c>
       <c r="T121" t="n">
         <v>18</v>
@@ -10120,24 +10120,24 @@
       </c>
       <c r="L122" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M122" t="n">
-        <v>210</v>
+        <v>360</v>
       </c>
       <c r="N122" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="O122" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="P122" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="Q122" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 18 kilos granel</t>
         </is>
       </c>
       <c r="R122" t="inlineStr">
@@ -10146,7 +10146,7 @@
         </is>
       </c>
       <c r="S122" t="n">
-        <v>389</v>
+        <v>500</v>
       </c>
       <c r="T122" t="n">
         <v>18</v>
@@ -10200,20 +10200,20 @@
       </c>
       <c r="L123" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M123" t="n">
-        <v>150</v>
+        <v>100</v>
       </c>
       <c r="N123" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="O123" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="P123" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="Q123" t="inlineStr">
         <is>
@@ -10226,7 +10226,7 @@
         </is>
       </c>
       <c r="S123" t="n">
-        <v>389</v>
+        <v>500</v>
       </c>
       <c r="T123" t="n">
         <v>18</v>
@@ -10247,7 +10247,7 @@
         </is>
       </c>
       <c r="D124" s="2" t="n">
-        <v>44455</v>
+        <v>44350</v>
       </c>
       <c r="E124" t="n">
         <v>7</v>
@@ -10280,20 +10280,20 @@
       </c>
       <c r="L124" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M124" t="n">
-        <v>150</v>
+        <v>210</v>
       </c>
       <c r="N124" t="n">
-        <v>12000</v>
+        <v>7000</v>
       </c>
       <c r="O124" t="n">
-        <v>12000</v>
+        <v>7000</v>
       </c>
       <c r="P124" t="n">
-        <v>12000</v>
+        <v>7000</v>
       </c>
       <c r="Q124" t="inlineStr">
         <is>
@@ -10306,7 +10306,7 @@
         </is>
       </c>
       <c r="S124" t="n">
-        <v>667</v>
+        <v>389</v>
       </c>
       <c r="T124" t="n">
         <v>18</v>
@@ -10327,7 +10327,7 @@
         </is>
       </c>
       <c r="D125" s="2" t="n">
-        <v>44455</v>
+        <v>44350</v>
       </c>
       <c r="E125" t="n">
         <v>7</v>
@@ -10364,29 +10364,29 @@
         </is>
       </c>
       <c r="M125" t="n">
-        <v>100</v>
+        <v>150</v>
       </c>
       <c r="N125" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="O125" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="P125" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="Q125" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 18 kilos granel</t>
         </is>
       </c>
       <c r="R125" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S125" t="n">
-        <v>556</v>
+        <v>389</v>
       </c>
       <c r="T125" t="n">
         <v>18</v>
@@ -10407,7 +10407,7 @@
         </is>
       </c>
       <c r="D126" s="2" t="n">
-        <v>44418</v>
+        <v>44455</v>
       </c>
       <c r="E126" t="n">
         <v>7</v>
@@ -10440,20 +10440,20 @@
       </c>
       <c r="L126" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M126" t="n">
-        <v>100</v>
+        <v>150</v>
       </c>
       <c r="N126" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="O126" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="P126" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="Q126" t="inlineStr">
         <is>
@@ -10466,7 +10466,7 @@
         </is>
       </c>
       <c r="S126" t="n">
-        <v>778</v>
+        <v>667</v>
       </c>
       <c r="T126" t="n">
         <v>18</v>
@@ -10487,7 +10487,7 @@
         </is>
       </c>
       <c r="D127" s="2" t="n">
-        <v>44418</v>
+        <v>44455</v>
       </c>
       <c r="E127" t="n">
         <v>7</v>
@@ -10520,20 +10520,20 @@
       </c>
       <c r="L127" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M127" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="N127" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="O127" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="P127" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="Q127" t="inlineStr">
         <is>
@@ -10546,7 +10546,7 @@
         </is>
       </c>
       <c r="S127" t="n">
-        <v>667</v>
+        <v>556</v>
       </c>
       <c r="T127" t="n">
         <v>18</v>
@@ -10600,20 +10600,20 @@
       </c>
       <c r="L128" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M128" t="n">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="N128" t="n">
-        <v>10000</v>
+        <v>14000</v>
       </c>
       <c r="O128" t="n">
-        <v>10000</v>
+        <v>14000</v>
       </c>
       <c r="P128" t="n">
-        <v>10000</v>
+        <v>14000</v>
       </c>
       <c r="Q128" t="inlineStr">
         <is>
@@ -10626,7 +10626,7 @@
         </is>
       </c>
       <c r="S128" t="n">
-        <v>556</v>
+        <v>778</v>
       </c>
       <c r="T128" t="n">
         <v>18</v>
@@ -10647,7 +10647,7 @@
         </is>
       </c>
       <c r="D129" s="2" t="n">
-        <v>44414</v>
+        <v>44418</v>
       </c>
       <c r="E129" t="n">
         <v>7</v>
@@ -10684,20 +10684,20 @@
         </is>
       </c>
       <c r="M129" t="n">
-        <v>150</v>
+        <v>200</v>
       </c>
       <c r="N129" t="n">
-        <v>8000</v>
+        <v>12000</v>
       </c>
       <c r="O129" t="n">
-        <v>8000</v>
+        <v>12000</v>
       </c>
       <c r="P129" t="n">
-        <v>8000</v>
+        <v>12000</v>
       </c>
       <c r="Q129" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="R129" t="inlineStr">
@@ -10706,10 +10706,10 @@
         </is>
       </c>
       <c r="S129" t="n">
-        <v>800</v>
+        <v>667</v>
       </c>
       <c r="T129" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
     </row>
     <row r="130">
@@ -10727,7 +10727,7 @@
         </is>
       </c>
       <c r="D130" s="2" t="n">
-        <v>44414</v>
+        <v>44418</v>
       </c>
       <c r="E130" t="n">
         <v>7</v>
@@ -10760,20 +10760,20 @@
       </c>
       <c r="L130" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M130" t="n">
-        <v>190</v>
+        <v>90</v>
       </c>
       <c r="N130" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="O130" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="P130" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="Q130" t="inlineStr">
         <is>
@@ -10786,7 +10786,7 @@
         </is>
       </c>
       <c r="S130" t="n">
-        <v>667</v>
+        <v>556</v>
       </c>
       <c r="T130" t="n">
         <v>18</v>
@@ -10840,24 +10840,24 @@
       </c>
       <c r="L131" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M131" t="n">
-        <v>100</v>
+        <v>150</v>
       </c>
       <c r="N131" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="O131" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="P131" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="Q131" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R131" t="inlineStr">
@@ -10866,10 +10866,10 @@
         </is>
       </c>
       <c r="S131" t="n">
-        <v>556</v>
+        <v>800</v>
       </c>
       <c r="T131" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="132">
@@ -10887,7 +10887,7 @@
         </is>
       </c>
       <c r="D132" s="2" t="n">
-        <v>44389</v>
+        <v>44414</v>
       </c>
       <c r="E132" t="n">
         <v>7</v>
@@ -10924,20 +10924,20 @@
         </is>
       </c>
       <c r="M132" t="n">
-        <v>300</v>
+        <v>190</v>
       </c>
       <c r="N132" t="n">
-        <v>6000</v>
+        <v>12000</v>
       </c>
       <c r="O132" t="n">
-        <v>6000</v>
+        <v>12000</v>
       </c>
       <c r="P132" t="n">
-        <v>6000</v>
+        <v>12000</v>
       </c>
       <c r="Q132" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="R132" t="inlineStr">
@@ -10946,10 +10946,10 @@
         </is>
       </c>
       <c r="S132" t="n">
-        <v>600</v>
+        <v>667</v>
       </c>
       <c r="T132" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
     </row>
     <row r="133">
@@ -10967,7 +10967,7 @@
         </is>
       </c>
       <c r="D133" s="2" t="n">
-        <v>44343</v>
+        <v>44414</v>
       </c>
       <c r="E133" t="n">
         <v>7</v>
@@ -11000,11 +11000,11 @@
       </c>
       <c r="L133" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M133" t="n">
-        <v>120</v>
+        <v>100</v>
       </c>
       <c r="N133" t="n">
         <v>10000</v>
@@ -11047,7 +11047,7 @@
         </is>
       </c>
       <c r="D134" s="2" t="n">
-        <v>44343</v>
+        <v>44389</v>
       </c>
       <c r="E134" t="n">
         <v>7</v>
@@ -11084,20 +11084,20 @@
         </is>
       </c>
       <c r="M134" t="n">
-        <v>160</v>
+        <v>300</v>
       </c>
       <c r="N134" t="n">
-        <v>9000</v>
+        <v>6000</v>
       </c>
       <c r="O134" t="n">
-        <v>9000</v>
+        <v>6000</v>
       </c>
       <c r="P134" t="n">
-        <v>9000</v>
+        <v>6000</v>
       </c>
       <c r="Q134" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="R134" t="inlineStr">
@@ -11106,10 +11106,10 @@
         </is>
       </c>
       <c r="S134" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="T134" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="135">
@@ -11127,7 +11127,7 @@
         </is>
       </c>
       <c r="D135" s="2" t="n">
-        <v>44280</v>
+        <v>44343</v>
       </c>
       <c r="E135" t="n">
         <v>7</v>
@@ -11160,11 +11160,11 @@
       </c>
       <c r="L135" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M135" t="n">
-        <v>100</v>
+        <v>120</v>
       </c>
       <c r="N135" t="n">
         <v>10000</v>
@@ -11177,7 +11177,7 @@
       </c>
       <c r="Q135" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="R135" t="inlineStr">
@@ -11186,10 +11186,10 @@
         </is>
       </c>
       <c r="S135" t="n">
-        <v>1000</v>
+        <v>556</v>
       </c>
       <c r="T135" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
     </row>
     <row r="136">
@@ -11207,7 +11207,7 @@
         </is>
       </c>
       <c r="D136" s="2" t="n">
-        <v>44280</v>
+        <v>44343</v>
       </c>
       <c r="E136" t="n">
         <v>7</v>
@@ -11240,24 +11240,24 @@
       </c>
       <c r="L136" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M136" t="n">
-        <v>60</v>
+        <v>160</v>
       </c>
       <c r="N136" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="O136" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="P136" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="Q136" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="R136" t="inlineStr">
@@ -11266,10 +11266,10 @@
         </is>
       </c>
       <c r="S136" t="n">
-        <v>800</v>
+        <v>500</v>
       </c>
       <c r="T136" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
     </row>
     <row r="137">
@@ -11287,7 +11287,7 @@
         </is>
       </c>
       <c r="D137" s="2" t="n">
-        <v>44390</v>
+        <v>44280</v>
       </c>
       <c r="E137" t="n">
         <v>7</v>
@@ -11324,20 +11324,20 @@
         </is>
       </c>
       <c r="M137" t="n">
-        <v>250</v>
+        <v>100</v>
       </c>
       <c r="N137" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="O137" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="P137" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="Q137" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="R137" t="inlineStr">
@@ -11346,10 +11346,10 @@
         </is>
       </c>
       <c r="S137" t="n">
-        <v>500</v>
+        <v>1000</v>
       </c>
       <c r="T137" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="138">
@@ -11367,7 +11367,7 @@
         </is>
       </c>
       <c r="D138" s="2" t="n">
-        <v>44386</v>
+        <v>44280</v>
       </c>
       <c r="E138" t="n">
         <v>7</v>
@@ -11400,20 +11400,20 @@
       </c>
       <c r="L138" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M138" t="n">
-        <v>300</v>
+        <v>60</v>
       </c>
       <c r="N138" t="n">
-        <v>6000</v>
+        <v>8000</v>
       </c>
       <c r="O138" t="n">
-        <v>6000</v>
+        <v>8000</v>
       </c>
       <c r="P138" t="n">
-        <v>6000</v>
+        <v>8000</v>
       </c>
       <c r="Q138" t="inlineStr">
         <is>
@@ -11426,7 +11426,7 @@
         </is>
       </c>
       <c r="S138" t="n">
-        <v>600</v>
+        <v>800</v>
       </c>
       <c r="T138" t="n">
         <v>10</v>
@@ -11447,7 +11447,7 @@
         </is>
       </c>
       <c r="D139" s="2" t="n">
-        <v>44308</v>
+        <v>44390</v>
       </c>
       <c r="E139" t="n">
         <v>7</v>
@@ -11480,20 +11480,20 @@
       </c>
       <c r="L139" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M139" t="n">
-        <v>100</v>
+        <v>250</v>
       </c>
       <c r="N139" t="n">
-        <v>14000</v>
+        <v>9000</v>
       </c>
       <c r="O139" t="n">
-        <v>14000</v>
+        <v>9000</v>
       </c>
       <c r="P139" t="n">
-        <v>14000</v>
+        <v>9000</v>
       </c>
       <c r="Q139" t="inlineStr">
         <is>
@@ -11506,7 +11506,7 @@
         </is>
       </c>
       <c r="S139" t="n">
-        <v>778</v>
+        <v>500</v>
       </c>
       <c r="T139" t="n">
         <v>18</v>
@@ -11527,7 +11527,7 @@
         </is>
       </c>
       <c r="D140" s="2" t="n">
-        <v>44369</v>
+        <v>44386</v>
       </c>
       <c r="E140" t="n">
         <v>7</v>
@@ -11560,24 +11560,24 @@
       </c>
       <c r="L140" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M140" t="n">
-        <v>230</v>
+        <v>300</v>
       </c>
       <c r="N140" t="n">
-        <v>8000</v>
+        <v>6000</v>
       </c>
       <c r="O140" t="n">
-        <v>8000</v>
+        <v>6000</v>
       </c>
       <c r="P140" t="n">
-        <v>8000</v>
+        <v>6000</v>
       </c>
       <c r="Q140" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="R140" t="inlineStr">
@@ -11586,7 +11586,7 @@
         </is>
       </c>
       <c r="S140" t="n">
-        <v>800</v>
+        <v>600</v>
       </c>
       <c r="T140" t="n">
         <v>10</v>
@@ -11607,7 +11607,7 @@
         </is>
       </c>
       <c r="D141" s="2" t="n">
-        <v>44369</v>
+        <v>44308</v>
       </c>
       <c r="E141" t="n">
         <v>7</v>
@@ -11647,13 +11647,13 @@
         <v>100</v>
       </c>
       <c r="N141" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="O141" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="P141" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="Q141" t="inlineStr">
         <is>
@@ -11666,7 +11666,7 @@
         </is>
       </c>
       <c r="S141" t="n">
-        <v>667</v>
+        <v>778</v>
       </c>
       <c r="T141" t="n">
         <v>18</v>
@@ -11720,20 +11720,20 @@
       </c>
       <c r="L142" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M142" t="n">
-        <v>200</v>
+        <v>230</v>
       </c>
       <c r="N142" t="n">
-        <v>6000</v>
+        <v>8000</v>
       </c>
       <c r="O142" t="n">
-        <v>6000</v>
+        <v>8000</v>
       </c>
       <c r="P142" t="n">
-        <v>6000</v>
+        <v>8000</v>
       </c>
       <c r="Q142" t="inlineStr">
         <is>
@@ -11746,7 +11746,7 @@
         </is>
       </c>
       <c r="S142" t="n">
-        <v>600</v>
+        <v>800</v>
       </c>
       <c r="T142" t="n">
         <v>10</v>
@@ -11800,20 +11800,20 @@
       </c>
       <c r="L143" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M143" t="n">
-        <v>180</v>
+        <v>100</v>
       </c>
       <c r="N143" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="O143" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="P143" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="Q143" t="inlineStr">
         <is>
@@ -11826,7 +11826,7 @@
         </is>
       </c>
       <c r="S143" t="n">
-        <v>556</v>
+        <v>667</v>
       </c>
       <c r="T143" t="n">
         <v>18</v>
@@ -11847,7 +11847,7 @@
         </is>
       </c>
       <c r="D144" s="2" t="n">
-        <v>44433</v>
+        <v>44369</v>
       </c>
       <c r="E144" t="n">
         <v>7</v>
@@ -11880,24 +11880,24 @@
       </c>
       <c r="L144" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M144" t="n">
-        <v>120</v>
+        <v>200</v>
       </c>
       <c r="N144" t="n">
-        <v>14000</v>
+        <v>6000</v>
       </c>
       <c r="O144" t="n">
-        <v>14000</v>
+        <v>6000</v>
       </c>
       <c r="P144" t="n">
-        <v>14000</v>
+        <v>6000</v>
       </c>
       <c r="Q144" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R144" t="inlineStr">
@@ -11906,10 +11906,10 @@
         </is>
       </c>
       <c r="S144" t="n">
-        <v>778</v>
+        <v>600</v>
       </c>
       <c r="T144" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="145">
@@ -11927,7 +11927,7 @@
         </is>
       </c>
       <c r="D145" s="2" t="n">
-        <v>44433</v>
+        <v>44369</v>
       </c>
       <c r="E145" t="n">
         <v>7</v>
@@ -11967,17 +11967,17 @@
         <v>180</v>
       </c>
       <c r="N145" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="O145" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="P145" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="Q145" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="R145" t="inlineStr">
@@ -11986,7 +11986,7 @@
         </is>
       </c>
       <c r="S145" t="n">
-        <v>667</v>
+        <v>556</v>
       </c>
       <c r="T145" t="n">
         <v>18</v>
@@ -12007,7 +12007,7 @@
         </is>
       </c>
       <c r="D146" s="2" t="n">
-        <v>44316</v>
+        <v>44433</v>
       </c>
       <c r="E146" t="n">
         <v>7</v>
@@ -12044,20 +12044,20 @@
         </is>
       </c>
       <c r="M146" t="n">
-        <v>160</v>
+        <v>120</v>
       </c>
       <c r="N146" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="O146" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="P146" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="Q146" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="R146" t="inlineStr">
@@ -12066,10 +12066,10 @@
         </is>
       </c>
       <c r="S146" t="n">
-        <v>1200</v>
+        <v>778</v>
       </c>
       <c r="T146" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
     </row>
     <row r="147">
@@ -12087,7 +12087,7 @@
         </is>
       </c>
       <c r="D147" s="2" t="n">
-        <v>44316</v>
+        <v>44433</v>
       </c>
       <c r="E147" t="n">
         <v>7</v>
@@ -12124,20 +12124,20 @@
         </is>
       </c>
       <c r="M147" t="n">
-        <v>200</v>
+        <v>180</v>
       </c>
       <c r="N147" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="O147" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="P147" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="Q147" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="R147" t="inlineStr">
@@ -12146,10 +12146,10 @@
         </is>
       </c>
       <c r="S147" t="n">
-        <v>1000</v>
+        <v>667</v>
       </c>
       <c r="T147" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
     </row>
     <row r="148">
@@ -12200,24 +12200,24 @@
       </c>
       <c r="L148" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M148" t="n">
-        <v>190</v>
+        <v>160</v>
       </c>
       <c r="N148" t="n">
-        <v>13000</v>
+        <v>12000</v>
       </c>
       <c r="O148" t="n">
-        <v>13000</v>
+        <v>12000</v>
       </c>
       <c r="P148" t="n">
-        <v>13000</v>
+        <v>12000</v>
       </c>
       <c r="Q148" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R148" t="inlineStr">
@@ -12226,10 +12226,10 @@
         </is>
       </c>
       <c r="S148" t="n">
-        <v>722</v>
+        <v>1200</v>
       </c>
       <c r="T148" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="149">
@@ -12247,7 +12247,7 @@
         </is>
       </c>
       <c r="D149" s="2" t="n">
-        <v>44397</v>
+        <v>44316</v>
       </c>
       <c r="E149" t="n">
         <v>7</v>
@@ -12280,24 +12280,24 @@
       </c>
       <c r="L149" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M149" t="n">
-        <v>190</v>
+        <v>200</v>
       </c>
       <c r="N149" t="n">
-        <v>14000</v>
+        <v>10000</v>
       </c>
       <c r="O149" t="n">
-        <v>14000</v>
+        <v>10000</v>
       </c>
       <c r="P149" t="n">
-        <v>14000</v>
+        <v>10000</v>
       </c>
       <c r="Q149" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R149" t="inlineStr">
@@ -12306,10 +12306,10 @@
         </is>
       </c>
       <c r="S149" t="n">
-        <v>778</v>
+        <v>1000</v>
       </c>
       <c r="T149" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="150">
@@ -12327,7 +12327,7 @@
         </is>
       </c>
       <c r="D150" s="2" t="n">
-        <v>44397</v>
+        <v>44316</v>
       </c>
       <c r="E150" t="n">
         <v>7</v>
@@ -12360,11 +12360,11 @@
       </c>
       <c r="L150" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M150" t="n">
-        <v>150</v>
+        <v>190</v>
       </c>
       <c r="N150" t="n">
         <v>13000</v>
@@ -12377,12 +12377,12 @@
       </c>
       <c r="Q150" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="R150" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S150" t="n">
@@ -12440,20 +12440,20 @@
       </c>
       <c r="L151" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M151" t="n">
-        <v>480</v>
+        <v>190</v>
       </c>
       <c r="N151" t="n">
-        <v>9000</v>
+        <v>14000</v>
       </c>
       <c r="O151" t="n">
-        <v>10000</v>
+        <v>14000</v>
       </c>
       <c r="P151" t="n">
-        <v>9479</v>
+        <v>14000</v>
       </c>
       <c r="Q151" t="inlineStr">
         <is>
@@ -12466,7 +12466,7 @@
         </is>
       </c>
       <c r="S151" t="n">
-        <v>527</v>
+        <v>778</v>
       </c>
       <c r="T151" t="n">
         <v>18</v>
@@ -12487,7 +12487,7 @@
         </is>
       </c>
       <c r="D152" s="2" t="n">
-        <v>44363</v>
+        <v>44397</v>
       </c>
       <c r="E152" t="n">
         <v>7</v>
@@ -12520,20 +12520,20 @@
       </c>
       <c r="L152" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M152" t="n">
-        <v>280</v>
+        <v>150</v>
       </c>
       <c r="N152" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="O152" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="P152" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="Q152" t="inlineStr">
         <is>
@@ -12546,7 +12546,7 @@
         </is>
       </c>
       <c r="S152" t="n">
-        <v>556</v>
+        <v>722</v>
       </c>
       <c r="T152" t="n">
         <v>18</v>
@@ -12567,7 +12567,7 @@
         </is>
       </c>
       <c r="D153" s="2" t="n">
-        <v>44363</v>
+        <v>44397</v>
       </c>
       <c r="E153" t="n">
         <v>7</v>
@@ -12600,20 +12600,20 @@
       </c>
       <c r="L153" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M153" t="n">
-        <v>300</v>
+        <v>480</v>
       </c>
       <c r="N153" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="O153" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="P153" t="n">
-        <v>8000</v>
+        <v>9479</v>
       </c>
       <c r="Q153" t="inlineStr">
         <is>
@@ -12622,11 +12622,11 @@
       </c>
       <c r="R153" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S153" t="n">
-        <v>444</v>
+        <v>527</v>
       </c>
       <c r="T153" t="n">
         <v>18</v>
@@ -12647,7 +12647,7 @@
         </is>
       </c>
       <c r="D154" s="2" t="n">
-        <v>44438</v>
+        <v>44363</v>
       </c>
       <c r="E154" t="n">
         <v>7</v>
@@ -12680,20 +12680,20 @@
       </c>
       <c r="L154" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M154" t="n">
-        <v>230</v>
+        <v>280</v>
       </c>
       <c r="N154" t="n">
-        <v>13000</v>
+        <v>10000</v>
       </c>
       <c r="O154" t="n">
-        <v>13000</v>
+        <v>10000</v>
       </c>
       <c r="P154" t="n">
-        <v>13000</v>
+        <v>10000</v>
       </c>
       <c r="Q154" t="inlineStr">
         <is>
@@ -12702,11 +12702,11 @@
       </c>
       <c r="R154" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S154" t="n">
-        <v>722</v>
+        <v>556</v>
       </c>
       <c r="T154" t="n">
         <v>18</v>
@@ -12727,7 +12727,7 @@
         </is>
       </c>
       <c r="D155" s="2" t="n">
-        <v>44438</v>
+        <v>44363</v>
       </c>
       <c r="E155" t="n">
         <v>7</v>
@@ -12760,20 +12760,20 @@
       </c>
       <c r="L155" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M155" t="n">
         <v>300</v>
       </c>
       <c r="N155" t="n">
-        <v>11000</v>
+        <v>8000</v>
       </c>
       <c r="O155" t="n">
-        <v>11000</v>
+        <v>8000</v>
       </c>
       <c r="P155" t="n">
-        <v>11000</v>
+        <v>8000</v>
       </c>
       <c r="Q155" t="inlineStr">
         <is>
@@ -12782,11 +12782,11 @@
       </c>
       <c r="R155" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S155" t="n">
-        <v>611</v>
+        <v>444</v>
       </c>
       <c r="T155" t="n">
         <v>18</v>
@@ -12807,7 +12807,7 @@
         </is>
       </c>
       <c r="D156" s="2" t="n">
-        <v>44372</v>
+        <v>44438</v>
       </c>
       <c r="E156" t="n">
         <v>7</v>
@@ -12844,16 +12844,16 @@
         </is>
       </c>
       <c r="M156" t="n">
-        <v>130</v>
+        <v>230</v>
       </c>
       <c r="N156" t="n">
-        <v>11000</v>
+        <v>13000</v>
       </c>
       <c r="O156" t="n">
-        <v>11000</v>
+        <v>13000</v>
       </c>
       <c r="P156" t="n">
-        <v>11000</v>
+        <v>13000</v>
       </c>
       <c r="Q156" t="inlineStr">
         <is>
@@ -12866,7 +12866,7 @@
         </is>
       </c>
       <c r="S156" t="n">
-        <v>611</v>
+        <v>722</v>
       </c>
       <c r="T156" t="n">
         <v>18</v>
@@ -12887,7 +12887,7 @@
         </is>
       </c>
       <c r="D157" s="2" t="n">
-        <v>44372</v>
+        <v>44438</v>
       </c>
       <c r="E157" t="n">
         <v>7</v>
@@ -12924,16 +12924,16 @@
         </is>
       </c>
       <c r="M157" t="n">
-        <v>120</v>
+        <v>300</v>
       </c>
       <c r="N157" t="n">
-        <v>9000</v>
+        <v>11000</v>
       </c>
       <c r="O157" t="n">
-        <v>9000</v>
+        <v>11000</v>
       </c>
       <c r="P157" t="n">
-        <v>9000</v>
+        <v>11000</v>
       </c>
       <c r="Q157" t="inlineStr">
         <is>
@@ -12946,7 +12946,7 @@
         </is>
       </c>
       <c r="S157" t="n">
-        <v>500</v>
+        <v>611</v>
       </c>
       <c r="T157" t="n">
         <v>18</v>
@@ -13000,20 +13000,20 @@
       </c>
       <c r="L158" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M158" t="n">
-        <v>100</v>
+        <v>130</v>
       </c>
       <c r="N158" t="n">
-        <v>7000</v>
+        <v>11000</v>
       </c>
       <c r="O158" t="n">
-        <v>7000</v>
+        <v>11000</v>
       </c>
       <c r="P158" t="n">
-        <v>7000</v>
+        <v>11000</v>
       </c>
       <c r="Q158" t="inlineStr">
         <is>
@@ -13026,7 +13026,7 @@
         </is>
       </c>
       <c r="S158" t="n">
-        <v>389</v>
+        <v>611</v>
       </c>
       <c r="T158" t="n">
         <v>18</v>
@@ -13047,7 +13047,7 @@
         </is>
       </c>
       <c r="D159" s="2" t="n">
-        <v>44356</v>
+        <v>44372</v>
       </c>
       <c r="E159" t="n">
         <v>7</v>
@@ -13080,20 +13080,20 @@
       </c>
       <c r="L159" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M159" t="n">
-        <v>200</v>
+        <v>120</v>
       </c>
       <c r="N159" t="n">
-        <v>12000</v>
+        <v>9000</v>
       </c>
       <c r="O159" t="n">
-        <v>12000</v>
+        <v>9000</v>
       </c>
       <c r="P159" t="n">
-        <v>12000</v>
+        <v>9000</v>
       </c>
       <c r="Q159" t="inlineStr">
         <is>
@@ -13106,7 +13106,7 @@
         </is>
       </c>
       <c r="S159" t="n">
-        <v>667</v>
+        <v>500</v>
       </c>
       <c r="T159" t="n">
         <v>18</v>
@@ -13127,7 +13127,7 @@
         </is>
       </c>
       <c r="D160" s="2" t="n">
-        <v>44356</v>
+        <v>44372</v>
       </c>
       <c r="E160" t="n">
         <v>7</v>
@@ -13160,20 +13160,20 @@
       </c>
       <c r="L160" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M160" t="n">
-        <v>140</v>
+        <v>100</v>
       </c>
       <c r="N160" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="O160" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="P160" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="Q160" t="inlineStr">
         <is>
@@ -13186,7 +13186,7 @@
         </is>
       </c>
       <c r="S160" t="n">
-        <v>556</v>
+        <v>389</v>
       </c>
       <c r="T160" t="n">
         <v>18</v>
@@ -13240,20 +13240,20 @@
       </c>
       <c r="L161" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M161" t="n">
-        <v>80</v>
+        <v>200</v>
       </c>
       <c r="N161" t="n">
-        <v>8000</v>
+        <v>12000</v>
       </c>
       <c r="O161" t="n">
-        <v>8000</v>
+        <v>12000</v>
       </c>
       <c r="P161" t="n">
-        <v>8000</v>
+        <v>12000</v>
       </c>
       <c r="Q161" t="inlineStr">
         <is>
@@ -13266,7 +13266,7 @@
         </is>
       </c>
       <c r="S161" t="n">
-        <v>444</v>
+        <v>667</v>
       </c>
       <c r="T161" t="n">
         <v>18</v>
@@ -13287,7 +13287,7 @@
         </is>
       </c>
       <c r="D162" s="2" t="n">
-        <v>44351</v>
+        <v>44356</v>
       </c>
       <c r="E162" t="n">
         <v>7</v>
@@ -13320,20 +13320,20 @@
       </c>
       <c r="L162" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M162" t="n">
-        <v>260</v>
+        <v>140</v>
       </c>
       <c r="N162" t="n">
-        <v>11000</v>
+        <v>10000</v>
       </c>
       <c r="O162" t="n">
-        <v>11000</v>
+        <v>10000</v>
       </c>
       <c r="P162" t="n">
-        <v>11000</v>
+        <v>10000</v>
       </c>
       <c r="Q162" t="inlineStr">
         <is>
@@ -13346,7 +13346,7 @@
         </is>
       </c>
       <c r="S162" t="n">
-        <v>611</v>
+        <v>556</v>
       </c>
       <c r="T162" t="n">
         <v>18</v>
@@ -13367,7 +13367,7 @@
         </is>
       </c>
       <c r="D163" s="2" t="n">
-        <v>44351</v>
+        <v>44356</v>
       </c>
       <c r="E163" t="n">
         <v>7</v>
@@ -13400,20 +13400,20 @@
       </c>
       <c r="L163" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M163" t="n">
-        <v>200</v>
+        <v>80</v>
       </c>
       <c r="N163" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="O163" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="P163" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="Q163" t="inlineStr">
         <is>
@@ -13426,7 +13426,7 @@
         </is>
       </c>
       <c r="S163" t="n">
-        <v>556</v>
+        <v>444</v>
       </c>
       <c r="T163" t="n">
         <v>18</v>
@@ -13480,36 +13480,36 @@
       </c>
       <c r="L164" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M164" t="n">
-        <v>230</v>
+        <v>260</v>
       </c>
       <c r="N164" t="n">
-        <v>8000</v>
+        <v>11000</v>
       </c>
       <c r="O164" t="n">
-        <v>8000</v>
+        <v>11000</v>
       </c>
       <c r="P164" t="n">
-        <v>8000</v>
+        <v>11000</v>
       </c>
       <c r="Q164" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="R164" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S164" t="n">
-        <v>800</v>
+        <v>611</v>
       </c>
       <c r="T164" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
     </row>
     <row r="165">
@@ -13527,7 +13527,7 @@
         </is>
       </c>
       <c r="D165" s="2" t="n">
-        <v>44365</v>
+        <v>44351</v>
       </c>
       <c r="E165" t="n">
         <v>7</v>
@@ -13560,20 +13560,20 @@
       </c>
       <c r="L165" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M165" t="n">
-        <v>90</v>
+        <v>200</v>
       </c>
       <c r="N165" t="n">
-        <v>11000</v>
+        <v>10000</v>
       </c>
       <c r="O165" t="n">
-        <v>11000</v>
+        <v>10000</v>
       </c>
       <c r="P165" t="n">
-        <v>11000</v>
+        <v>10000</v>
       </c>
       <c r="Q165" t="inlineStr">
         <is>
@@ -13586,7 +13586,7 @@
         </is>
       </c>
       <c r="S165" t="n">
-        <v>611</v>
+        <v>556</v>
       </c>
       <c r="T165" t="n">
         <v>18</v>
@@ -13607,7 +13607,7 @@
         </is>
       </c>
       <c r="D166" s="2" t="n">
-        <v>44365</v>
+        <v>44351</v>
       </c>
       <c r="E166" t="n">
         <v>7</v>
@@ -13644,32 +13644,32 @@
         </is>
       </c>
       <c r="M166" t="n">
-        <v>200</v>
+        <v>230</v>
       </c>
       <c r="N166" t="n">
-        <v>9000</v>
+        <v>8000</v>
       </c>
       <c r="O166" t="n">
-        <v>9000</v>
+        <v>8000</v>
       </c>
       <c r="P166" t="n">
-        <v>9000</v>
+        <v>8000</v>
       </c>
       <c r="Q166" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="R166" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S166" t="n">
-        <v>500</v>
+        <v>800</v>
       </c>
       <c r="T166" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="167">
@@ -13720,20 +13720,20 @@
       </c>
       <c r="L167" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M167" t="n">
-        <v>150</v>
+        <v>90</v>
       </c>
       <c r="N167" t="n">
-        <v>7000</v>
+        <v>11000</v>
       </c>
       <c r="O167" t="n">
-        <v>7000</v>
+        <v>11000</v>
       </c>
       <c r="P167" t="n">
-        <v>7000</v>
+        <v>11000</v>
       </c>
       <c r="Q167" t="inlineStr">
         <is>
@@ -13746,7 +13746,7 @@
         </is>
       </c>
       <c r="S167" t="n">
-        <v>389</v>
+        <v>611</v>
       </c>
       <c r="T167" t="n">
         <v>18</v>
@@ -13767,7 +13767,7 @@
         </is>
       </c>
       <c r="D168" s="2" t="n">
-        <v>44306</v>
+        <v>44365</v>
       </c>
       <c r="E168" t="n">
         <v>7</v>
@@ -13800,24 +13800,24 @@
       </c>
       <c r="L168" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M168" t="n">
-        <v>230</v>
+        <v>200</v>
       </c>
       <c r="N168" t="n">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="O168" t="n">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="P168" t="n">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="Q168" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="R168" t="inlineStr">
@@ -13826,10 +13826,10 @@
         </is>
       </c>
       <c r="S168" t="n">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="T168" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
     </row>
     <row r="169">
@@ -13847,7 +13847,7 @@
         </is>
       </c>
       <c r="D169" s="2" t="n">
-        <v>44306</v>
+        <v>44365</v>
       </c>
       <c r="E169" t="n">
         <v>7</v>
@@ -13880,20 +13880,20 @@
       </c>
       <c r="L169" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M169" t="n">
-        <v>180</v>
+        <v>150</v>
       </c>
       <c r="N169" t="n">
-        <v>13000</v>
+        <v>7000</v>
       </c>
       <c r="O169" t="n">
-        <v>13000</v>
+        <v>7000</v>
       </c>
       <c r="P169" t="n">
-        <v>13000</v>
+        <v>7000</v>
       </c>
       <c r="Q169" t="inlineStr">
         <is>
@@ -13906,7 +13906,7 @@
         </is>
       </c>
       <c r="S169" t="n">
-        <v>722</v>
+        <v>389</v>
       </c>
       <c r="T169" t="n">
         <v>18</v>
@@ -13960,20 +13960,20 @@
       </c>
       <c r="L170" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M170" t="n">
         <v>230</v>
       </c>
       <c r="N170" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="O170" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="P170" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="Q170" t="inlineStr">
         <is>
@@ -13986,7 +13986,7 @@
         </is>
       </c>
       <c r="S170" t="n">
-        <v>800</v>
+        <v>1000</v>
       </c>
       <c r="T170" t="n">
         <v>10</v>
@@ -14007,7 +14007,7 @@
         </is>
       </c>
       <c r="D171" s="2" t="n">
-        <v>44357</v>
+        <v>44306</v>
       </c>
       <c r="E171" t="n">
         <v>7</v>
@@ -14044,7 +14044,7 @@
         </is>
       </c>
       <c r="M171" t="n">
-        <v>130</v>
+        <v>180</v>
       </c>
       <c r="N171" t="n">
         <v>13000</v>
@@ -14087,7 +14087,7 @@
         </is>
       </c>
       <c r="D172" s="2" t="n">
-        <v>44357</v>
+        <v>44306</v>
       </c>
       <c r="E172" t="n">
         <v>7</v>
@@ -14124,20 +14124,20 @@
         </is>
       </c>
       <c r="M172" t="n">
-        <v>190</v>
+        <v>230</v>
       </c>
       <c r="N172" t="n">
-        <v>11000</v>
+        <v>8000</v>
       </c>
       <c r="O172" t="n">
-        <v>11000</v>
+        <v>8000</v>
       </c>
       <c r="P172" t="n">
-        <v>11000</v>
+        <v>8000</v>
       </c>
       <c r="Q172" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R172" t="inlineStr">
@@ -14146,10 +14146,10 @@
         </is>
       </c>
       <c r="S172" t="n">
-        <v>611</v>
+        <v>800</v>
       </c>
       <c r="T172" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="173">
@@ -14167,7 +14167,7 @@
         </is>
       </c>
       <c r="D173" s="2" t="n">
-        <v>44410</v>
+        <v>44357</v>
       </c>
       <c r="E173" t="n">
         <v>7</v>
@@ -14200,20 +14200,20 @@
       </c>
       <c r="L173" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M173" t="n">
-        <v>230</v>
+        <v>130</v>
       </c>
       <c r="N173" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="O173" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="P173" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="Q173" t="inlineStr">
         <is>
@@ -14226,7 +14226,7 @@
         </is>
       </c>
       <c r="S173" t="n">
-        <v>667</v>
+        <v>722</v>
       </c>
       <c r="T173" t="n">
         <v>18</v>
@@ -14247,7 +14247,7 @@
         </is>
       </c>
       <c r="D174" s="2" t="n">
-        <v>44410</v>
+        <v>44357</v>
       </c>
       <c r="E174" t="n">
         <v>7</v>
@@ -14284,20 +14284,20 @@
         </is>
       </c>
       <c r="M174" t="n">
-        <v>230</v>
+        <v>190</v>
       </c>
       <c r="N174" t="n">
-        <v>7000</v>
+        <v>11000</v>
       </c>
       <c r="O174" t="n">
-        <v>7000</v>
+        <v>11000</v>
       </c>
       <c r="P174" t="n">
-        <v>7000</v>
+        <v>11000</v>
       </c>
       <c r="Q174" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="R174" t="inlineStr">
@@ -14306,10 +14306,10 @@
         </is>
       </c>
       <c r="S174" t="n">
-        <v>700</v>
+        <v>611</v>
       </c>
       <c r="T174" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
     </row>
     <row r="175">
@@ -14327,7 +14327,7 @@
         </is>
       </c>
       <c r="D175" s="2" t="n">
-        <v>44376</v>
+        <v>44410</v>
       </c>
       <c r="E175" t="n">
         <v>7</v>
@@ -14364,16 +14364,16 @@
         </is>
       </c>
       <c r="M175" t="n">
-        <v>260</v>
+        <v>230</v>
       </c>
       <c r="N175" t="n">
-        <v>9000</v>
+        <v>12000</v>
       </c>
       <c r="O175" t="n">
-        <v>9000</v>
+        <v>12000</v>
       </c>
       <c r="P175" t="n">
-        <v>9000</v>
+        <v>12000</v>
       </c>
       <c r="Q175" t="inlineStr">
         <is>
@@ -14386,7 +14386,7 @@
         </is>
       </c>
       <c r="S175" t="n">
-        <v>500</v>
+        <v>667</v>
       </c>
       <c r="T175" t="n">
         <v>18</v>
@@ -14407,7 +14407,7 @@
         </is>
       </c>
       <c r="D176" s="2" t="n">
-        <v>44358</v>
+        <v>44410</v>
       </c>
       <c r="E176" t="n">
         <v>7</v>
@@ -14440,24 +14440,24 @@
       </c>
       <c r="L176" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M176" t="n">
         <v>230</v>
       </c>
       <c r="N176" t="n">
-        <v>13000</v>
+        <v>7000</v>
       </c>
       <c r="O176" t="n">
-        <v>13000</v>
+        <v>7000</v>
       </c>
       <c r="P176" t="n">
-        <v>13000</v>
+        <v>7000</v>
       </c>
       <c r="Q176" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="R176" t="inlineStr">
@@ -14466,10 +14466,10 @@
         </is>
       </c>
       <c r="S176" t="n">
-        <v>722</v>
+        <v>700</v>
       </c>
       <c r="T176" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="177">
@@ -14487,7 +14487,7 @@
         </is>
       </c>
       <c r="D177" s="2" t="n">
-        <v>44358</v>
+        <v>44376</v>
       </c>
       <c r="E177" t="n">
         <v>7</v>
@@ -14520,11 +14520,11 @@
       </c>
       <c r="L177" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M177" t="n">
-        <v>250</v>
+        <v>260</v>
       </c>
       <c r="N177" t="n">
         <v>9000</v>
@@ -14537,7 +14537,7 @@
       </c>
       <c r="Q177" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="R177" t="inlineStr">
@@ -14546,10 +14546,10 @@
         </is>
       </c>
       <c r="S177" t="n">
-        <v>900</v>
+        <v>500</v>
       </c>
       <c r="T177" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
     </row>
     <row r="178">
@@ -14600,20 +14600,20 @@
       </c>
       <c r="L178" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M178" t="n">
-        <v>210</v>
+        <v>230</v>
       </c>
       <c r="N178" t="n">
-        <v>11000</v>
+        <v>13000</v>
       </c>
       <c r="O178" t="n">
-        <v>11000</v>
+        <v>13000</v>
       </c>
       <c r="P178" t="n">
-        <v>11000</v>
+        <v>13000</v>
       </c>
       <c r="Q178" t="inlineStr">
         <is>
@@ -14626,7 +14626,7 @@
         </is>
       </c>
       <c r="S178" t="n">
-        <v>611</v>
+        <v>722</v>
       </c>
       <c r="T178" t="n">
         <v>18</v>
@@ -14680,20 +14680,20 @@
       </c>
       <c r="L179" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M179" t="n">
-        <v>200</v>
+        <v>250</v>
       </c>
       <c r="N179" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="O179" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="P179" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="Q179" t="inlineStr">
         <is>
@@ -14706,7 +14706,7 @@
         </is>
       </c>
       <c r="S179" t="n">
-        <v>700</v>
+        <v>900</v>
       </c>
       <c r="T179" t="n">
         <v>10</v>
@@ -14760,20 +14760,20 @@
       </c>
       <c r="L180" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M180" t="n">
-        <v>190</v>
+        <v>210</v>
       </c>
       <c r="N180" t="n">
-        <v>9000</v>
+        <v>11000</v>
       </c>
       <c r="O180" t="n">
-        <v>9000</v>
+        <v>11000</v>
       </c>
       <c r="P180" t="n">
-        <v>9000</v>
+        <v>11000</v>
       </c>
       <c r="Q180" t="inlineStr">
         <is>
@@ -14786,7 +14786,7 @@
         </is>
       </c>
       <c r="S180" t="n">
-        <v>500</v>
+        <v>611</v>
       </c>
       <c r="T180" t="n">
         <v>18</v>
@@ -14807,7 +14807,7 @@
         </is>
       </c>
       <c r="D181" s="2" t="n">
-        <v>44425</v>
+        <v>44358</v>
       </c>
       <c r="E181" t="n">
         <v>7</v>
@@ -14840,24 +14840,24 @@
       </c>
       <c r="L181" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M181" t="n">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="N181" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="O181" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="P181" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="Q181" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="R181" t="inlineStr">
@@ -14866,10 +14866,10 @@
         </is>
       </c>
       <c r="S181" t="n">
-        <v>444</v>
+        <v>700</v>
       </c>
       <c r="T181" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="182">
@@ -14887,7 +14887,7 @@
         </is>
       </c>
       <c r="D182" s="2" t="n">
-        <v>44323</v>
+        <v>44358</v>
       </c>
       <c r="E182" t="n">
         <v>7</v>
@@ -14920,24 +14920,24 @@
       </c>
       <c r="L182" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M182" t="n">
-        <v>150</v>
+        <v>190</v>
       </c>
       <c r="N182" t="n">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="O182" t="n">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="P182" t="n">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="Q182" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="R182" t="inlineStr">
@@ -14946,10 +14946,10 @@
         </is>
       </c>
       <c r="S182" t="n">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="T182" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
     </row>
     <row r="183">
@@ -14967,68 +14967,228 @@
         </is>
       </c>
       <c r="D183" s="2" t="n">
+        <v>44425</v>
+      </c>
+      <c r="E183" t="n">
+        <v>7</v>
+      </c>
+      <c r="F183" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G183" t="n">
+        <v>100101</v>
+      </c>
+      <c r="H183" t="inlineStr">
+        <is>
+          <t>Berries</t>
+        </is>
+      </c>
+      <c r="I183" t="n">
+        <v>100101007</v>
+      </c>
+      <c r="J183" t="inlineStr">
+        <is>
+          <t>Kiwi</t>
+        </is>
+      </c>
+      <c r="K183" t="inlineStr">
+        <is>
+          <t>Hayward</t>
+        </is>
+      </c>
+      <c r="L183" t="inlineStr">
+        <is>
+          <t>Segunda</t>
+        </is>
+      </c>
+      <c r="M183" t="n">
+        <v>300</v>
+      </c>
+      <c r="N183" t="n">
+        <v>8000</v>
+      </c>
+      <c r="O183" t="n">
+        <v>8000</v>
+      </c>
+      <c r="P183" t="n">
+        <v>8000</v>
+      </c>
+      <c r="Q183" t="inlineStr">
+        <is>
+          <t>$/bandeja 18 kilos</t>
+        </is>
+      </c>
+      <c r="R183" t="inlineStr">
+        <is>
+          <t>Provincia de Curicó</t>
+        </is>
+      </c>
+      <c r="S183" t="n">
+        <v>444</v>
+      </c>
+      <c r="T183" t="n">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" t="n">
+        <v>5</v>
+      </c>
+      <c r="B184" t="inlineStr">
+        <is>
+          <t>Macroferia Regional de Talca</t>
+        </is>
+      </c>
+      <c r="C184" t="inlineStr">
+        <is>
+          <t>Maule</t>
+        </is>
+      </c>
+      <c r="D184" s="2" t="n">
         <v>44323</v>
       </c>
-      <c r="E183" t="n">
-        <v>7</v>
-      </c>
-      <c r="F183" t="inlineStr">
-        <is>
-          <t>Fruta</t>
-        </is>
-      </c>
-      <c r="G183" t="n">
-        <v>100101</v>
-      </c>
-      <c r="H183" t="inlineStr">
-        <is>
-          <t>Berries</t>
-        </is>
-      </c>
-      <c r="I183" t="n">
-        <v>100101007</v>
-      </c>
-      <c r="J183" t="inlineStr">
-        <is>
-          <t>Kiwi</t>
-        </is>
-      </c>
-      <c r="K183" t="inlineStr">
-        <is>
-          <t>Hayward</t>
-        </is>
-      </c>
-      <c r="L183" t="inlineStr">
+      <c r="E184" t="n">
+        <v>7</v>
+      </c>
+      <c r="F184" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G184" t="n">
+        <v>100101</v>
+      </c>
+      <c r="H184" t="inlineStr">
+        <is>
+          <t>Berries</t>
+        </is>
+      </c>
+      <c r="I184" t="n">
+        <v>100101007</v>
+      </c>
+      <c r="J184" t="inlineStr">
+        <is>
+          <t>Kiwi</t>
+        </is>
+      </c>
+      <c r="K184" t="inlineStr">
+        <is>
+          <t>Hayward</t>
+        </is>
+      </c>
+      <c r="L184" t="inlineStr">
+        <is>
+          <t>Especial</t>
+        </is>
+      </c>
+      <c r="M184" t="n">
+        <v>150</v>
+      </c>
+      <c r="N184" t="n">
+        <v>10000</v>
+      </c>
+      <c r="O184" t="n">
+        <v>10000</v>
+      </c>
+      <c r="P184" t="n">
+        <v>10000</v>
+      </c>
+      <c r="Q184" t="inlineStr">
+        <is>
+          <t>$/bandeja 10 kilos</t>
+        </is>
+      </c>
+      <c r="R184" t="inlineStr">
+        <is>
+          <t>Provincia de Curicó</t>
+        </is>
+      </c>
+      <c r="S184" t="n">
+        <v>1000</v>
+      </c>
+      <c r="T184" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" t="n">
+        <v>5</v>
+      </c>
+      <c r="B185" t="inlineStr">
+        <is>
+          <t>Macroferia Regional de Talca</t>
+        </is>
+      </c>
+      <c r="C185" t="inlineStr">
+        <is>
+          <t>Maule</t>
+        </is>
+      </c>
+      <c r="D185" s="2" t="n">
+        <v>44323</v>
+      </c>
+      <c r="E185" t="n">
+        <v>7</v>
+      </c>
+      <c r="F185" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G185" t="n">
+        <v>100101</v>
+      </c>
+      <c r="H185" t="inlineStr">
+        <is>
+          <t>Berries</t>
+        </is>
+      </c>
+      <c r="I185" t="n">
+        <v>100101007</v>
+      </c>
+      <c r="J185" t="inlineStr">
+        <is>
+          <t>Kiwi</t>
+        </is>
+      </c>
+      <c r="K185" t="inlineStr">
+        <is>
+          <t>Hayward</t>
+        </is>
+      </c>
+      <c r="L185" t="inlineStr">
         <is>
           <t>Primera</t>
         </is>
       </c>
-      <c r="M183" t="n">
+      <c r="M185" t="n">
         <v>100</v>
       </c>
-      <c r="N183" t="n">
+      <c r="N185" t="n">
         <v>9000</v>
       </c>
-      <c r="O183" t="n">
+      <c r="O185" t="n">
         <v>9000</v>
       </c>
-      <c r="P183" t="n">
+      <c r="P185" t="n">
         <v>9000</v>
       </c>
-      <c r="Q183" t="inlineStr">
+      <c r="Q185" t="inlineStr">
         <is>
           <t>$/bandeja 10 kilos</t>
         </is>
       </c>
-      <c r="R183" t="inlineStr">
-        <is>
-          <t>Provincia de Curicó</t>
-        </is>
-      </c>
-      <c r="S183" t="n">
+      <c r="R185" t="inlineStr">
+        <is>
+          <t>Provincia de Curicó</t>
+        </is>
+      </c>
+      <c r="S185" t="n">
         <v>900</v>
       </c>
-      <c r="T183" t="n">
+      <c r="T185" t="n">
         <v>10</v>
       </c>
     </row>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Macroferia Regional de Talca - Kiwi.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Macroferia Regional de Talca - Kiwi.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T185"/>
+  <dimension ref="A1:T187"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -14167,7 +14167,7 @@
         </is>
       </c>
       <c r="D173" s="2" t="n">
-        <v>44357</v>
+        <v>44461</v>
       </c>
       <c r="E173" t="n">
         <v>7</v>
@@ -14204,16 +14204,16 @@
         </is>
       </c>
       <c r="M173" t="n">
-        <v>130</v>
+        <v>200</v>
       </c>
       <c r="N173" t="n">
-        <v>13000</v>
+        <v>12000</v>
       </c>
       <c r="O173" t="n">
-        <v>13000</v>
+        <v>12000</v>
       </c>
       <c r="P173" t="n">
-        <v>13000</v>
+        <v>12000</v>
       </c>
       <c r="Q173" t="inlineStr">
         <is>
@@ -14226,7 +14226,7 @@
         </is>
       </c>
       <c r="S173" t="n">
-        <v>722</v>
+        <v>667</v>
       </c>
       <c r="T173" t="n">
         <v>18</v>
@@ -14247,7 +14247,7 @@
         </is>
       </c>
       <c r="D174" s="2" t="n">
-        <v>44357</v>
+        <v>44461</v>
       </c>
       <c r="E174" t="n">
         <v>7</v>
@@ -14284,16 +14284,16 @@
         </is>
       </c>
       <c r="M174" t="n">
-        <v>190</v>
+        <v>150</v>
       </c>
       <c r="N174" t="n">
-        <v>11000</v>
+        <v>10000</v>
       </c>
       <c r="O174" t="n">
-        <v>11000</v>
+        <v>10000</v>
       </c>
       <c r="P174" t="n">
-        <v>11000</v>
+        <v>10000</v>
       </c>
       <c r="Q174" t="inlineStr">
         <is>
@@ -14306,7 +14306,7 @@
         </is>
       </c>
       <c r="S174" t="n">
-        <v>611</v>
+        <v>556</v>
       </c>
       <c r="T174" t="n">
         <v>18</v>
@@ -14327,7 +14327,7 @@
         </is>
       </c>
       <c r="D175" s="2" t="n">
-        <v>44410</v>
+        <v>44357</v>
       </c>
       <c r="E175" t="n">
         <v>7</v>
@@ -14360,20 +14360,20 @@
       </c>
       <c r="L175" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M175" t="n">
-        <v>230</v>
+        <v>130</v>
       </c>
       <c r="N175" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="O175" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="P175" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="Q175" t="inlineStr">
         <is>
@@ -14386,7 +14386,7 @@
         </is>
       </c>
       <c r="S175" t="n">
-        <v>667</v>
+        <v>722</v>
       </c>
       <c r="T175" t="n">
         <v>18</v>
@@ -14407,7 +14407,7 @@
         </is>
       </c>
       <c r="D176" s="2" t="n">
-        <v>44410</v>
+        <v>44357</v>
       </c>
       <c r="E176" t="n">
         <v>7</v>
@@ -14444,20 +14444,20 @@
         </is>
       </c>
       <c r="M176" t="n">
-        <v>230</v>
+        <v>190</v>
       </c>
       <c r="N176" t="n">
-        <v>7000</v>
+        <v>11000</v>
       </c>
       <c r="O176" t="n">
-        <v>7000</v>
+        <v>11000</v>
       </c>
       <c r="P176" t="n">
-        <v>7000</v>
+        <v>11000</v>
       </c>
       <c r="Q176" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="R176" t="inlineStr">
@@ -14466,10 +14466,10 @@
         </is>
       </c>
       <c r="S176" t="n">
-        <v>700</v>
+        <v>611</v>
       </c>
       <c r="T176" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
     </row>
     <row r="177">
@@ -14487,7 +14487,7 @@
         </is>
       </c>
       <c r="D177" s="2" t="n">
-        <v>44376</v>
+        <v>44410</v>
       </c>
       <c r="E177" t="n">
         <v>7</v>
@@ -14524,16 +14524,16 @@
         </is>
       </c>
       <c r="M177" t="n">
-        <v>260</v>
+        <v>230</v>
       </c>
       <c r="N177" t="n">
-        <v>9000</v>
+        <v>12000</v>
       </c>
       <c r="O177" t="n">
-        <v>9000</v>
+        <v>12000</v>
       </c>
       <c r="P177" t="n">
-        <v>9000</v>
+        <v>12000</v>
       </c>
       <c r="Q177" t="inlineStr">
         <is>
@@ -14546,7 +14546,7 @@
         </is>
       </c>
       <c r="S177" t="n">
-        <v>500</v>
+        <v>667</v>
       </c>
       <c r="T177" t="n">
         <v>18</v>
@@ -14567,7 +14567,7 @@
         </is>
       </c>
       <c r="D178" s="2" t="n">
-        <v>44358</v>
+        <v>44410</v>
       </c>
       <c r="E178" t="n">
         <v>7</v>
@@ -14600,24 +14600,24 @@
       </c>
       <c r="L178" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M178" t="n">
         <v>230</v>
       </c>
       <c r="N178" t="n">
-        <v>13000</v>
+        <v>7000</v>
       </c>
       <c r="O178" t="n">
-        <v>13000</v>
+        <v>7000</v>
       </c>
       <c r="P178" t="n">
-        <v>13000</v>
+        <v>7000</v>
       </c>
       <c r="Q178" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="R178" t="inlineStr">
@@ -14626,10 +14626,10 @@
         </is>
       </c>
       <c r="S178" t="n">
-        <v>722</v>
+        <v>700</v>
       </c>
       <c r="T178" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="179">
@@ -14647,7 +14647,7 @@
         </is>
       </c>
       <c r="D179" s="2" t="n">
-        <v>44358</v>
+        <v>44376</v>
       </c>
       <c r="E179" t="n">
         <v>7</v>
@@ -14680,11 +14680,11 @@
       </c>
       <c r="L179" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M179" t="n">
-        <v>250</v>
+        <v>260</v>
       </c>
       <c r="N179" t="n">
         <v>9000</v>
@@ -14697,7 +14697,7 @@
       </c>
       <c r="Q179" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="R179" t="inlineStr">
@@ -14706,10 +14706,10 @@
         </is>
       </c>
       <c r="S179" t="n">
-        <v>900</v>
+        <v>500</v>
       </c>
       <c r="T179" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
     </row>
     <row r="180">
@@ -14760,20 +14760,20 @@
       </c>
       <c r="L180" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M180" t="n">
-        <v>210</v>
+        <v>230</v>
       </c>
       <c r="N180" t="n">
-        <v>11000</v>
+        <v>13000</v>
       </c>
       <c r="O180" t="n">
-        <v>11000</v>
+        <v>13000</v>
       </c>
       <c r="P180" t="n">
-        <v>11000</v>
+        <v>13000</v>
       </c>
       <c r="Q180" t="inlineStr">
         <is>
@@ -14786,7 +14786,7 @@
         </is>
       </c>
       <c r="S180" t="n">
-        <v>611</v>
+        <v>722</v>
       </c>
       <c r="T180" t="n">
         <v>18</v>
@@ -14840,20 +14840,20 @@
       </c>
       <c r="L181" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M181" t="n">
-        <v>200</v>
+        <v>250</v>
       </c>
       <c r="N181" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="O181" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="P181" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="Q181" t="inlineStr">
         <is>
@@ -14866,7 +14866,7 @@
         </is>
       </c>
       <c r="S181" t="n">
-        <v>700</v>
+        <v>900</v>
       </c>
       <c r="T181" t="n">
         <v>10</v>
@@ -14920,20 +14920,20 @@
       </c>
       <c r="L182" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M182" t="n">
-        <v>190</v>
+        <v>210</v>
       </c>
       <c r="N182" t="n">
-        <v>9000</v>
+        <v>11000</v>
       </c>
       <c r="O182" t="n">
-        <v>9000</v>
+        <v>11000</v>
       </c>
       <c r="P182" t="n">
-        <v>9000</v>
+        <v>11000</v>
       </c>
       <c r="Q182" t="inlineStr">
         <is>
@@ -14946,7 +14946,7 @@
         </is>
       </c>
       <c r="S182" t="n">
-        <v>500</v>
+        <v>611</v>
       </c>
       <c r="T182" t="n">
         <v>18</v>
@@ -14967,7 +14967,7 @@
         </is>
       </c>
       <c r="D183" s="2" t="n">
-        <v>44425</v>
+        <v>44358</v>
       </c>
       <c r="E183" t="n">
         <v>7</v>
@@ -15000,24 +15000,24 @@
       </c>
       <c r="L183" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M183" t="n">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="N183" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="O183" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="P183" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="Q183" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="R183" t="inlineStr">
@@ -15026,10 +15026,10 @@
         </is>
       </c>
       <c r="S183" t="n">
-        <v>444</v>
+        <v>700</v>
       </c>
       <c r="T183" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="184">
@@ -15047,7 +15047,7 @@
         </is>
       </c>
       <c r="D184" s="2" t="n">
-        <v>44323</v>
+        <v>44358</v>
       </c>
       <c r="E184" t="n">
         <v>7</v>
@@ -15080,24 +15080,24 @@
       </c>
       <c r="L184" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M184" t="n">
-        <v>150</v>
+        <v>190</v>
       </c>
       <c r="N184" t="n">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="O184" t="n">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="P184" t="n">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="Q184" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="R184" t="inlineStr">
@@ -15106,10 +15106,10 @@
         </is>
       </c>
       <c r="S184" t="n">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="T184" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
     </row>
     <row r="185">
@@ -15127,68 +15127,228 @@
         </is>
       </c>
       <c r="D185" s="2" t="n">
+        <v>44425</v>
+      </c>
+      <c r="E185" t="n">
+        <v>7</v>
+      </c>
+      <c r="F185" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G185" t="n">
+        <v>100101</v>
+      </c>
+      <c r="H185" t="inlineStr">
+        <is>
+          <t>Berries</t>
+        </is>
+      </c>
+      <c r="I185" t="n">
+        <v>100101007</v>
+      </c>
+      <c r="J185" t="inlineStr">
+        <is>
+          <t>Kiwi</t>
+        </is>
+      </c>
+      <c r="K185" t="inlineStr">
+        <is>
+          <t>Hayward</t>
+        </is>
+      </c>
+      <c r="L185" t="inlineStr">
+        <is>
+          <t>Segunda</t>
+        </is>
+      </c>
+      <c r="M185" t="n">
+        <v>300</v>
+      </c>
+      <c r="N185" t="n">
+        <v>8000</v>
+      </c>
+      <c r="O185" t="n">
+        <v>8000</v>
+      </c>
+      <c r="P185" t="n">
+        <v>8000</v>
+      </c>
+      <c r="Q185" t="inlineStr">
+        <is>
+          <t>$/bandeja 18 kilos</t>
+        </is>
+      </c>
+      <c r="R185" t="inlineStr">
+        <is>
+          <t>Provincia de Curicó</t>
+        </is>
+      </c>
+      <c r="S185" t="n">
+        <v>444</v>
+      </c>
+      <c r="T185" t="n">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" t="n">
+        <v>5</v>
+      </c>
+      <c r="B186" t="inlineStr">
+        <is>
+          <t>Macroferia Regional de Talca</t>
+        </is>
+      </c>
+      <c r="C186" t="inlineStr">
+        <is>
+          <t>Maule</t>
+        </is>
+      </c>
+      <c r="D186" s="2" t="n">
         <v>44323</v>
       </c>
-      <c r="E185" t="n">
-        <v>7</v>
-      </c>
-      <c r="F185" t="inlineStr">
-        <is>
-          <t>Fruta</t>
-        </is>
-      </c>
-      <c r="G185" t="n">
-        <v>100101</v>
-      </c>
-      <c r="H185" t="inlineStr">
-        <is>
-          <t>Berries</t>
-        </is>
-      </c>
-      <c r="I185" t="n">
-        <v>100101007</v>
-      </c>
-      <c r="J185" t="inlineStr">
-        <is>
-          <t>Kiwi</t>
-        </is>
-      </c>
-      <c r="K185" t="inlineStr">
-        <is>
-          <t>Hayward</t>
-        </is>
-      </c>
-      <c r="L185" t="inlineStr">
+      <c r="E186" t="n">
+        <v>7</v>
+      </c>
+      <c r="F186" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G186" t="n">
+        <v>100101</v>
+      </c>
+      <c r="H186" t="inlineStr">
+        <is>
+          <t>Berries</t>
+        </is>
+      </c>
+      <c r="I186" t="n">
+        <v>100101007</v>
+      </c>
+      <c r="J186" t="inlineStr">
+        <is>
+          <t>Kiwi</t>
+        </is>
+      </c>
+      <c r="K186" t="inlineStr">
+        <is>
+          <t>Hayward</t>
+        </is>
+      </c>
+      <c r="L186" t="inlineStr">
+        <is>
+          <t>Especial</t>
+        </is>
+      </c>
+      <c r="M186" t="n">
+        <v>150</v>
+      </c>
+      <c r="N186" t="n">
+        <v>10000</v>
+      </c>
+      <c r="O186" t="n">
+        <v>10000</v>
+      </c>
+      <c r="P186" t="n">
+        <v>10000</v>
+      </c>
+      <c r="Q186" t="inlineStr">
+        <is>
+          <t>$/bandeja 10 kilos</t>
+        </is>
+      </c>
+      <c r="R186" t="inlineStr">
+        <is>
+          <t>Provincia de Curicó</t>
+        </is>
+      </c>
+      <c r="S186" t="n">
+        <v>1000</v>
+      </c>
+      <c r="T186" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" t="n">
+        <v>5</v>
+      </c>
+      <c r="B187" t="inlineStr">
+        <is>
+          <t>Macroferia Regional de Talca</t>
+        </is>
+      </c>
+      <c r="C187" t="inlineStr">
+        <is>
+          <t>Maule</t>
+        </is>
+      </c>
+      <c r="D187" s="2" t="n">
+        <v>44323</v>
+      </c>
+      <c r="E187" t="n">
+        <v>7</v>
+      </c>
+      <c r="F187" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G187" t="n">
+        <v>100101</v>
+      </c>
+      <c r="H187" t="inlineStr">
+        <is>
+          <t>Berries</t>
+        </is>
+      </c>
+      <c r="I187" t="n">
+        <v>100101007</v>
+      </c>
+      <c r="J187" t="inlineStr">
+        <is>
+          <t>Kiwi</t>
+        </is>
+      </c>
+      <c r="K187" t="inlineStr">
+        <is>
+          <t>Hayward</t>
+        </is>
+      </c>
+      <c r="L187" t="inlineStr">
         <is>
           <t>Primera</t>
         </is>
       </c>
-      <c r="M185" t="n">
+      <c r="M187" t="n">
         <v>100</v>
       </c>
-      <c r="N185" t="n">
+      <c r="N187" t="n">
         <v>9000</v>
       </c>
-      <c r="O185" t="n">
+      <c r="O187" t="n">
         <v>9000</v>
       </c>
-      <c r="P185" t="n">
+      <c r="P187" t="n">
         <v>9000</v>
       </c>
-      <c r="Q185" t="inlineStr">
+      <c r="Q187" t="inlineStr">
         <is>
           <t>$/bandeja 10 kilos</t>
         </is>
       </c>
-      <c r="R185" t="inlineStr">
-        <is>
-          <t>Provincia de Curicó</t>
-        </is>
-      </c>
-      <c r="S185" t="n">
+      <c r="R187" t="inlineStr">
+        <is>
+          <t>Provincia de Curicó</t>
+        </is>
+      </c>
+      <c r="S187" t="n">
         <v>900</v>
       </c>
-      <c r="T185" t="n">
+      <c r="T187" t="n">
         <v>10</v>
       </c>
     </row>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Macroferia Regional de Talca - Kiwi.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Macroferia Regional de Talca - Kiwi.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T187"/>
+  <dimension ref="A1:T188"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2087,7 +2087,7 @@
         </is>
       </c>
       <c r="D22" s="2" t="n">
-        <v>44379</v>
+        <v>44462</v>
       </c>
       <c r="E22" t="n">
         <v>7</v>
@@ -2120,20 +2120,20 @@
       </c>
       <c r="L22" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M22" t="n">
         <v>200</v>
       </c>
       <c r="N22" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="O22" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="P22" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="Q22" t="inlineStr">
         <is>
@@ -2146,7 +2146,7 @@
         </is>
       </c>
       <c r="S22" t="n">
-        <v>667</v>
+        <v>556</v>
       </c>
       <c r="T22" t="n">
         <v>18</v>
@@ -2200,20 +2200,20 @@
       </c>
       <c r="L23" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M23" t="n">
-        <v>160</v>
+        <v>200</v>
       </c>
       <c r="N23" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="O23" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="P23" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="Q23" t="inlineStr">
         <is>
@@ -2226,7 +2226,7 @@
         </is>
       </c>
       <c r="S23" t="n">
-        <v>556</v>
+        <v>667</v>
       </c>
       <c r="T23" t="n">
         <v>18</v>
@@ -2247,7 +2247,7 @@
         </is>
       </c>
       <c r="D24" s="2" t="n">
-        <v>44384</v>
+        <v>44379</v>
       </c>
       <c r="E24" t="n">
         <v>7</v>
@@ -2284,20 +2284,20 @@
         </is>
       </c>
       <c r="M24" t="n">
-        <v>500</v>
+        <v>160</v>
       </c>
       <c r="N24" t="n">
-        <v>6000</v>
+        <v>10000</v>
       </c>
       <c r="O24" t="n">
-        <v>6000</v>
+        <v>10000</v>
       </c>
       <c r="P24" t="n">
-        <v>6000</v>
+        <v>10000</v>
       </c>
       <c r="Q24" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="R24" t="inlineStr">
@@ -2306,10 +2306,10 @@
         </is>
       </c>
       <c r="S24" t="n">
-        <v>600</v>
+        <v>556</v>
       </c>
       <c r="T24" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
     </row>
     <row r="25">
@@ -2327,7 +2327,7 @@
         </is>
       </c>
       <c r="D25" s="2" t="n">
-        <v>44314</v>
+        <v>44384</v>
       </c>
       <c r="E25" t="n">
         <v>7</v>
@@ -2360,24 +2360,24 @@
       </c>
       <c r="L25" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M25" t="n">
-        <v>150</v>
+        <v>500</v>
       </c>
       <c r="N25" t="n">
-        <v>11000</v>
+        <v>6000</v>
       </c>
       <c r="O25" t="n">
-        <v>11000</v>
+        <v>6000</v>
       </c>
       <c r="P25" t="n">
-        <v>11000</v>
+        <v>6000</v>
       </c>
       <c r="Q25" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="R25" t="inlineStr">
@@ -2386,7 +2386,7 @@
         </is>
       </c>
       <c r="S25" t="n">
-        <v>1100</v>
+        <v>600</v>
       </c>
       <c r="T25" t="n">
         <v>10</v>
@@ -2440,20 +2440,20 @@
       </c>
       <c r="L26" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M26" t="n">
-        <v>60</v>
+        <v>150</v>
       </c>
       <c r="N26" t="n">
-        <v>9000</v>
+        <v>11000</v>
       </c>
       <c r="O26" t="n">
-        <v>9000</v>
+        <v>11000</v>
       </c>
       <c r="P26" t="n">
-        <v>9000</v>
+        <v>11000</v>
       </c>
       <c r="Q26" t="inlineStr">
         <is>
@@ -2466,7 +2466,7 @@
         </is>
       </c>
       <c r="S26" t="n">
-        <v>900</v>
+        <v>1100</v>
       </c>
       <c r="T26" t="n">
         <v>10</v>
@@ -2487,7 +2487,7 @@
         </is>
       </c>
       <c r="D27" s="2" t="n">
-        <v>44349</v>
+        <v>44314</v>
       </c>
       <c r="E27" t="n">
         <v>7</v>
@@ -2520,24 +2520,24 @@
       </c>
       <c r="L27" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M27" t="n">
-        <v>180</v>
+        <v>60</v>
       </c>
       <c r="N27" t="n">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="O27" t="n">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="P27" t="n">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="Q27" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R27" t="inlineStr">
@@ -2546,10 +2546,10 @@
         </is>
       </c>
       <c r="S27" t="n">
-        <v>556</v>
+        <v>900</v>
       </c>
       <c r="T27" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="28">
@@ -2600,20 +2600,20 @@
       </c>
       <c r="L28" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M28" t="n">
-        <v>230</v>
+        <v>180</v>
       </c>
       <c r="N28" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="O28" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="P28" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="Q28" t="inlineStr">
         <is>
@@ -2626,7 +2626,7 @@
         </is>
       </c>
       <c r="S28" t="n">
-        <v>444</v>
+        <v>556</v>
       </c>
       <c r="T28" t="n">
         <v>18</v>
@@ -2647,7 +2647,7 @@
         </is>
       </c>
       <c r="D29" s="2" t="n">
-        <v>44412</v>
+        <v>44349</v>
       </c>
       <c r="E29" t="n">
         <v>7</v>
@@ -2680,20 +2680,20 @@
       </c>
       <c r="L29" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M29" t="n">
-        <v>180</v>
+        <v>230</v>
       </c>
       <c r="N29" t="n">
-        <v>14000</v>
+        <v>8000</v>
       </c>
       <c r="O29" t="n">
-        <v>14000</v>
+        <v>8000</v>
       </c>
       <c r="P29" t="n">
-        <v>14000</v>
+        <v>8000</v>
       </c>
       <c r="Q29" t="inlineStr">
         <is>
@@ -2706,7 +2706,7 @@
         </is>
       </c>
       <c r="S29" t="n">
-        <v>778</v>
+        <v>444</v>
       </c>
       <c r="T29" t="n">
         <v>18</v>
@@ -2760,20 +2760,20 @@
       </c>
       <c r="L30" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M30" t="n">
-        <v>230</v>
+        <v>180</v>
       </c>
       <c r="N30" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="O30" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="P30" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="Q30" t="inlineStr">
         <is>
@@ -2786,7 +2786,7 @@
         </is>
       </c>
       <c r="S30" t="n">
-        <v>667</v>
+        <v>778</v>
       </c>
       <c r="T30" t="n">
         <v>18</v>
@@ -2807,7 +2807,7 @@
         </is>
       </c>
       <c r="D31" s="2" t="n">
-        <v>44329</v>
+        <v>44412</v>
       </c>
       <c r="E31" t="n">
         <v>7</v>
@@ -2844,20 +2844,20 @@
         </is>
       </c>
       <c r="M31" t="n">
-        <v>300</v>
+        <v>230</v>
       </c>
       <c r="N31" t="n">
-        <v>8000</v>
+        <v>12000</v>
       </c>
       <c r="O31" t="n">
-        <v>8000</v>
+        <v>12000</v>
       </c>
       <c r="P31" t="n">
-        <v>8000</v>
+        <v>12000</v>
       </c>
       <c r="Q31" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="R31" t="inlineStr">
@@ -2866,10 +2866,10 @@
         </is>
       </c>
       <c r="S31" t="n">
-        <v>800</v>
+        <v>667</v>
       </c>
       <c r="T31" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
     </row>
     <row r="32">
@@ -2887,7 +2887,7 @@
         </is>
       </c>
       <c r="D32" s="2" t="n">
-        <v>44364</v>
+        <v>44329</v>
       </c>
       <c r="E32" t="n">
         <v>7</v>
@@ -2920,24 +2920,24 @@
       </c>
       <c r="L32" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M32" t="n">
-        <v>160</v>
+        <v>300</v>
       </c>
       <c r="N32" t="n">
-        <v>12000</v>
+        <v>8000</v>
       </c>
       <c r="O32" t="n">
-        <v>12000</v>
+        <v>8000</v>
       </c>
       <c r="P32" t="n">
-        <v>12000</v>
+        <v>8000</v>
       </c>
       <c r="Q32" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="R32" t="inlineStr">
@@ -2946,10 +2946,10 @@
         </is>
       </c>
       <c r="S32" t="n">
-        <v>667</v>
+        <v>800</v>
       </c>
       <c r="T32" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="33">
@@ -3000,20 +3000,20 @@
       </c>
       <c r="L33" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M33" t="n">
-        <v>240</v>
+        <v>160</v>
       </c>
       <c r="N33" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="O33" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="P33" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="Q33" t="inlineStr">
         <is>
@@ -3026,7 +3026,7 @@
         </is>
       </c>
       <c r="S33" t="n">
-        <v>556</v>
+        <v>667</v>
       </c>
       <c r="T33" t="n">
         <v>18</v>
@@ -3080,20 +3080,20 @@
       </c>
       <c r="L34" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M34" t="n">
-        <v>80</v>
+        <v>240</v>
       </c>
       <c r="N34" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="O34" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="P34" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="Q34" t="inlineStr">
         <is>
@@ -3106,7 +3106,7 @@
         </is>
       </c>
       <c r="S34" t="n">
-        <v>444</v>
+        <v>556</v>
       </c>
       <c r="T34" t="n">
         <v>18</v>
@@ -3127,7 +3127,7 @@
         </is>
       </c>
       <c r="D35" s="2" t="n">
-        <v>44330</v>
+        <v>44364</v>
       </c>
       <c r="E35" t="n">
         <v>7</v>
@@ -3160,20 +3160,20 @@
       </c>
       <c r="L35" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M35" t="n">
-        <v>300</v>
+        <v>80</v>
       </c>
       <c r="N35" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="O35" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="P35" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="Q35" t="inlineStr">
         <is>
@@ -3186,7 +3186,7 @@
         </is>
       </c>
       <c r="S35" t="n">
-        <v>556</v>
+        <v>444</v>
       </c>
       <c r="T35" t="n">
         <v>18</v>
@@ -3240,20 +3240,20 @@
       </c>
       <c r="L36" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M36" t="n">
-        <v>180</v>
+        <v>300</v>
       </c>
       <c r="N36" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="O36" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="P36" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="Q36" t="inlineStr">
         <is>
@@ -3266,7 +3266,7 @@
         </is>
       </c>
       <c r="S36" t="n">
-        <v>444</v>
+        <v>556</v>
       </c>
       <c r="T36" t="n">
         <v>18</v>
@@ -3287,7 +3287,7 @@
         </is>
       </c>
       <c r="D37" s="2" t="n">
-        <v>44377</v>
+        <v>44330</v>
       </c>
       <c r="E37" t="n">
         <v>7</v>
@@ -3324,16 +3324,16 @@
         </is>
       </c>
       <c r="M37" t="n">
-        <v>150</v>
+        <v>180</v>
       </c>
       <c r="N37" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="O37" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="P37" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="Q37" t="inlineStr">
         <is>
@@ -3346,7 +3346,7 @@
         </is>
       </c>
       <c r="S37" t="n">
-        <v>556</v>
+        <v>444</v>
       </c>
       <c r="T37" t="n">
         <v>18</v>
@@ -3404,20 +3404,20 @@
         </is>
       </c>
       <c r="M38" t="n">
-        <v>210</v>
+        <v>150</v>
       </c>
       <c r="N38" t="n">
-        <v>6000</v>
+        <v>10000</v>
       </c>
       <c r="O38" t="n">
-        <v>6000</v>
+        <v>10000</v>
       </c>
       <c r="P38" t="n">
-        <v>6000</v>
+        <v>10000</v>
       </c>
       <c r="Q38" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="R38" t="inlineStr">
@@ -3426,10 +3426,10 @@
         </is>
       </c>
       <c r="S38" t="n">
-        <v>600</v>
+        <v>556</v>
       </c>
       <c r="T38" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
     </row>
     <row r="39">
@@ -3480,11 +3480,11 @@
       </c>
       <c r="L39" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M39" t="n">
-        <v>100</v>
+        <v>210</v>
       </c>
       <c r="N39" t="n">
         <v>6000</v>
@@ -3497,7 +3497,7 @@
       </c>
       <c r="Q39" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="R39" t="inlineStr">
@@ -3506,10 +3506,10 @@
         </is>
       </c>
       <c r="S39" t="n">
-        <v>333</v>
+        <v>600</v>
       </c>
       <c r="T39" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="40">
@@ -3527,7 +3527,7 @@
         </is>
       </c>
       <c r="D40" s="2" t="n">
-        <v>44459</v>
+        <v>44377</v>
       </c>
       <c r="E40" t="n">
         <v>7</v>
@@ -3560,20 +3560,20 @@
       </c>
       <c r="L40" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="M40" t="n">
-        <v>150</v>
+        <v>100</v>
       </c>
       <c r="N40" t="n">
-        <v>12000</v>
+        <v>6000</v>
       </c>
       <c r="O40" t="n">
-        <v>12000</v>
+        <v>6000</v>
       </c>
       <c r="P40" t="n">
-        <v>12000</v>
+        <v>6000</v>
       </c>
       <c r="Q40" t="inlineStr">
         <is>
@@ -3582,11 +3582,11 @@
       </c>
       <c r="R40" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S40" t="n">
-        <v>667</v>
+        <v>333</v>
       </c>
       <c r="T40" t="n">
         <v>18</v>
@@ -3640,20 +3640,20 @@
       </c>
       <c r="L41" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M41" t="n">
-        <v>100</v>
+        <v>150</v>
       </c>
       <c r="N41" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="O41" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="P41" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="Q41" t="inlineStr">
         <is>
@@ -3666,7 +3666,7 @@
         </is>
       </c>
       <c r="S41" t="n">
-        <v>556</v>
+        <v>667</v>
       </c>
       <c r="T41" t="n">
         <v>18</v>
@@ -3687,7 +3687,7 @@
         </is>
       </c>
       <c r="D42" s="2" t="n">
-        <v>44348</v>
+        <v>44459</v>
       </c>
       <c r="E42" t="n">
         <v>7</v>
@@ -3720,11 +3720,11 @@
       </c>
       <c r="L42" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M42" t="n">
-        <v>230</v>
+        <v>100</v>
       </c>
       <c r="N42" t="n">
         <v>10000</v>
@@ -3742,7 +3742,7 @@
       </c>
       <c r="R42" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S42" t="n">
@@ -3800,20 +3800,20 @@
       </c>
       <c r="L43" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M43" t="n">
-        <v>190</v>
+        <v>230</v>
       </c>
       <c r="N43" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="O43" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="P43" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="Q43" t="inlineStr">
         <is>
@@ -3826,7 +3826,7 @@
         </is>
       </c>
       <c r="S43" t="n">
-        <v>444</v>
+        <v>556</v>
       </c>
       <c r="T43" t="n">
         <v>18</v>
@@ -3847,7 +3847,7 @@
         </is>
       </c>
       <c r="D44" s="2" t="n">
-        <v>44435</v>
+        <v>44348</v>
       </c>
       <c r="E44" t="n">
         <v>7</v>
@@ -3880,20 +3880,20 @@
       </c>
       <c r="L44" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M44" t="n">
-        <v>390</v>
+        <v>190</v>
       </c>
       <c r="N44" t="n">
-        <v>14000</v>
+        <v>8000</v>
       </c>
       <c r="O44" t="n">
-        <v>14000</v>
+        <v>8000</v>
       </c>
       <c r="P44" t="n">
-        <v>14000</v>
+        <v>8000</v>
       </c>
       <c r="Q44" t="inlineStr">
         <is>
@@ -3906,7 +3906,7 @@
         </is>
       </c>
       <c r="S44" t="n">
-        <v>778</v>
+        <v>444</v>
       </c>
       <c r="T44" t="n">
         <v>18</v>
@@ -3964,20 +3964,20 @@
         </is>
       </c>
       <c r="M45" t="n">
-        <v>160</v>
+        <v>390</v>
       </c>
       <c r="N45" t="n">
-        <v>8000</v>
+        <v>14000</v>
       </c>
       <c r="O45" t="n">
-        <v>8000</v>
+        <v>14000</v>
       </c>
       <c r="P45" t="n">
-        <v>8000</v>
+        <v>14000</v>
       </c>
       <c r="Q45" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="R45" t="inlineStr">
@@ -3986,10 +3986,10 @@
         </is>
       </c>
       <c r="S45" t="n">
-        <v>800</v>
+        <v>778</v>
       </c>
       <c r="T45" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
     </row>
     <row r="46">
@@ -4044,20 +4044,20 @@
         </is>
       </c>
       <c r="M46" t="n">
-        <v>330</v>
+        <v>160</v>
       </c>
       <c r="N46" t="n">
-        <v>14000</v>
+        <v>8000</v>
       </c>
       <c r="O46" t="n">
-        <v>14000</v>
+        <v>8000</v>
       </c>
       <c r="P46" t="n">
-        <v>14000</v>
+        <v>8000</v>
       </c>
       <c r="Q46" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="R46" t="inlineStr">
@@ -4066,10 +4066,10 @@
         </is>
       </c>
       <c r="S46" t="n">
-        <v>778</v>
+        <v>800</v>
       </c>
       <c r="T46" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="47">
@@ -4120,24 +4120,24 @@
       </c>
       <c r="L47" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M47" t="n">
-        <v>250</v>
+        <v>330</v>
       </c>
       <c r="N47" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="O47" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="P47" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="Q47" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="R47" t="inlineStr">
@@ -4146,7 +4146,7 @@
         </is>
       </c>
       <c r="S47" t="n">
-        <v>667</v>
+        <v>778</v>
       </c>
       <c r="T47" t="n">
         <v>18</v>
@@ -4204,20 +4204,20 @@
         </is>
       </c>
       <c r="M48" t="n">
-        <v>230</v>
+        <v>250</v>
       </c>
       <c r="N48" t="n">
-        <v>7000</v>
+        <v>12000</v>
       </c>
       <c r="O48" t="n">
-        <v>7000</v>
+        <v>12000</v>
       </c>
       <c r="P48" t="n">
-        <v>7000</v>
+        <v>12000</v>
       </c>
       <c r="Q48" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="R48" t="inlineStr">
@@ -4226,10 +4226,10 @@
         </is>
       </c>
       <c r="S48" t="n">
-        <v>700</v>
+        <v>667</v>
       </c>
       <c r="T48" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
     </row>
     <row r="49">
@@ -4284,20 +4284,20 @@
         </is>
       </c>
       <c r="M49" t="n">
-        <v>180</v>
+        <v>230</v>
       </c>
       <c r="N49" t="n">
-        <v>12000</v>
+        <v>7000</v>
       </c>
       <c r="O49" t="n">
-        <v>12000</v>
+        <v>7000</v>
       </c>
       <c r="P49" t="n">
-        <v>12000</v>
+        <v>7000</v>
       </c>
       <c r="Q49" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="R49" t="inlineStr">
@@ -4306,10 +4306,10 @@
         </is>
       </c>
       <c r="S49" t="n">
-        <v>667</v>
+        <v>700</v>
       </c>
       <c r="T49" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="50">
@@ -4360,24 +4360,24 @@
       </c>
       <c r="L50" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M50" t="n">
-        <v>240</v>
+        <v>180</v>
       </c>
       <c r="N50" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="O50" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="P50" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="Q50" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="R50" t="inlineStr">
@@ -4386,7 +4386,7 @@
         </is>
       </c>
       <c r="S50" t="n">
-        <v>556</v>
+        <v>667</v>
       </c>
       <c r="T50" t="n">
         <v>18</v>
@@ -4407,7 +4407,7 @@
         </is>
       </c>
       <c r="D51" s="2" t="n">
-        <v>44313</v>
+        <v>44435</v>
       </c>
       <c r="E51" t="n">
         <v>7</v>
@@ -4440,24 +4440,24 @@
       </c>
       <c r="L51" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M51" t="n">
-        <v>350</v>
+        <v>240</v>
       </c>
       <c r="N51" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="O51" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="P51" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="Q51" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="R51" t="inlineStr">
@@ -4466,10 +4466,10 @@
         </is>
       </c>
       <c r="S51" t="n">
-        <v>900</v>
+        <v>556</v>
       </c>
       <c r="T51" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
     </row>
     <row r="52">
@@ -4520,20 +4520,20 @@
       </c>
       <c r="L52" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M52" t="n">
-        <v>250</v>
+        <v>350</v>
       </c>
       <c r="N52" t="n">
-        <v>6000</v>
+        <v>9000</v>
       </c>
       <c r="O52" t="n">
-        <v>6000</v>
+        <v>9000</v>
       </c>
       <c r="P52" t="n">
-        <v>6000</v>
+        <v>9000</v>
       </c>
       <c r="Q52" t="inlineStr">
         <is>
@@ -4546,7 +4546,7 @@
         </is>
       </c>
       <c r="S52" t="n">
-        <v>600</v>
+        <v>900</v>
       </c>
       <c r="T52" t="n">
         <v>10</v>
@@ -4567,7 +4567,7 @@
         </is>
       </c>
       <c r="D53" s="2" t="n">
-        <v>44445</v>
+        <v>44313</v>
       </c>
       <c r="E53" t="n">
         <v>7</v>
@@ -4600,24 +4600,24 @@
       </c>
       <c r="L53" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="M53" t="n">
-        <v>200</v>
+        <v>250</v>
       </c>
       <c r="N53" t="n">
-        <v>12000</v>
+        <v>6000</v>
       </c>
       <c r="O53" t="n">
-        <v>12000</v>
+        <v>6000</v>
       </c>
       <c r="P53" t="n">
-        <v>12000</v>
+        <v>6000</v>
       </c>
       <c r="Q53" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R53" t="inlineStr">
@@ -4626,10 +4626,10 @@
         </is>
       </c>
       <c r="S53" t="n">
-        <v>667</v>
+        <v>600</v>
       </c>
       <c r="T53" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="54">
@@ -4647,7 +4647,7 @@
         </is>
       </c>
       <c r="D54" s="2" t="n">
-        <v>44263</v>
+        <v>44445</v>
       </c>
       <c r="E54" t="n">
         <v>7</v>
@@ -4684,7 +4684,7 @@
         </is>
       </c>
       <c r="M54" t="n">
-        <v>180</v>
+        <v>200</v>
       </c>
       <c r="N54" t="n">
         <v>12000</v>
@@ -4697,19 +4697,19 @@
       </c>
       <c r="Q54" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="R54" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S54" t="n">
-        <v>1200</v>
+        <v>667</v>
       </c>
       <c r="T54" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
     </row>
     <row r="55">
@@ -4727,7 +4727,7 @@
         </is>
       </c>
       <c r="D55" s="2" t="n">
-        <v>44449</v>
+        <v>44263</v>
       </c>
       <c r="E55" t="n">
         <v>7</v>
@@ -4764,7 +4764,7 @@
         </is>
       </c>
       <c r="M55" t="n">
-        <v>300</v>
+        <v>180</v>
       </c>
       <c r="N55" t="n">
         <v>12000</v>
@@ -4777,19 +4777,19 @@
       </c>
       <c r="Q55" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R55" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S55" t="n">
-        <v>667</v>
+        <v>1200</v>
       </c>
       <c r="T55" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="56">
@@ -4807,7 +4807,7 @@
         </is>
       </c>
       <c r="D56" s="2" t="n">
-        <v>44322</v>
+        <v>44449</v>
       </c>
       <c r="E56" t="n">
         <v>7</v>
@@ -4844,20 +4844,20 @@
         </is>
       </c>
       <c r="M56" t="n">
-        <v>210</v>
+        <v>300</v>
       </c>
       <c r="N56" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="O56" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="P56" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="Q56" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="R56" t="inlineStr">
@@ -4866,10 +4866,10 @@
         </is>
       </c>
       <c r="S56" t="n">
-        <v>1000</v>
+        <v>667</v>
       </c>
       <c r="T56" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
     </row>
     <row r="57">
@@ -4887,7 +4887,7 @@
         </is>
       </c>
       <c r="D57" s="2" t="n">
-        <v>44333</v>
+        <v>44322</v>
       </c>
       <c r="E57" t="n">
         <v>7</v>
@@ -4920,36 +4920,36 @@
       </c>
       <c r="L57" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M57" t="n">
-        <v>150</v>
+        <v>210</v>
       </c>
       <c r="N57" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="O57" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="P57" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="Q57" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R57" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S57" t="n">
-        <v>667</v>
+        <v>1000</v>
       </c>
       <c r="T57" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="58">
@@ -5000,20 +5000,20 @@
       </c>
       <c r="L58" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M58" t="n">
-        <v>100</v>
+        <v>150</v>
       </c>
       <c r="N58" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="O58" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="P58" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="Q58" t="inlineStr">
         <is>
@@ -5026,7 +5026,7 @@
         </is>
       </c>
       <c r="S58" t="n">
-        <v>556</v>
+        <v>667</v>
       </c>
       <c r="T58" t="n">
         <v>18</v>
@@ -5047,7 +5047,7 @@
         </is>
       </c>
       <c r="D59" s="2" t="n">
-        <v>44355</v>
+        <v>44333</v>
       </c>
       <c r="E59" t="n">
         <v>7</v>
@@ -5080,36 +5080,36 @@
       </c>
       <c r="L59" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M59" t="n">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="N59" t="n">
-        <v>6000</v>
+        <v>10000</v>
       </c>
       <c r="O59" t="n">
-        <v>6000</v>
+        <v>10000</v>
       </c>
       <c r="P59" t="n">
-        <v>6000</v>
+        <v>10000</v>
       </c>
       <c r="Q59" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="R59" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="S59" t="n">
-        <v>600</v>
+        <v>556</v>
       </c>
       <c r="T59" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
     </row>
     <row r="60">
@@ -5127,7 +5127,7 @@
         </is>
       </c>
       <c r="D60" s="2" t="n">
-        <v>44446</v>
+        <v>44355</v>
       </c>
       <c r="E60" t="n">
         <v>7</v>
@@ -5160,24 +5160,24 @@
       </c>
       <c r="L60" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M60" t="n">
-        <v>180</v>
+        <v>300</v>
       </c>
       <c r="N60" t="n">
-        <v>14000</v>
+        <v>6000</v>
       </c>
       <c r="O60" t="n">
-        <v>14000</v>
+        <v>6000</v>
       </c>
       <c r="P60" t="n">
-        <v>14000</v>
+        <v>6000</v>
       </c>
       <c r="Q60" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R60" t="inlineStr">
@@ -5186,10 +5186,10 @@
         </is>
       </c>
       <c r="S60" t="n">
-        <v>778</v>
+        <v>600</v>
       </c>
       <c r="T60" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="61">
@@ -5240,20 +5240,20 @@
       </c>
       <c r="L61" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M61" t="n">
-        <v>230</v>
+        <v>180</v>
       </c>
       <c r="N61" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="O61" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="P61" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="Q61" t="inlineStr">
         <is>
@@ -5266,7 +5266,7 @@
         </is>
       </c>
       <c r="S61" t="n">
-        <v>667</v>
+        <v>778</v>
       </c>
       <c r="T61" t="n">
         <v>18</v>
@@ -5320,20 +5320,20 @@
       </c>
       <c r="L62" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M62" t="n">
-        <v>150</v>
+        <v>230</v>
       </c>
       <c r="N62" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="O62" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="P62" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="Q62" t="inlineStr">
         <is>
@@ -5346,7 +5346,7 @@
         </is>
       </c>
       <c r="S62" t="n">
-        <v>556</v>
+        <v>667</v>
       </c>
       <c r="T62" t="n">
         <v>18</v>
@@ -5367,7 +5367,7 @@
         </is>
       </c>
       <c r="D63" s="2" t="n">
-        <v>44299</v>
+        <v>44446</v>
       </c>
       <c r="E63" t="n">
         <v>7</v>
@@ -5400,20 +5400,20 @@
       </c>
       <c r="L63" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M63" t="n">
-        <v>200</v>
+        <v>150</v>
       </c>
       <c r="N63" t="n">
-        <v>13000</v>
+        <v>10000</v>
       </c>
       <c r="O63" t="n">
-        <v>13000</v>
+        <v>10000</v>
       </c>
       <c r="P63" t="n">
-        <v>13000</v>
+        <v>10000</v>
       </c>
       <c r="Q63" t="inlineStr">
         <is>
@@ -5426,7 +5426,7 @@
         </is>
       </c>
       <c r="S63" t="n">
-        <v>722</v>
+        <v>556</v>
       </c>
       <c r="T63" t="n">
         <v>18</v>
@@ -5447,7 +5447,7 @@
         </is>
       </c>
       <c r="D64" s="2" t="n">
-        <v>44320</v>
+        <v>44299</v>
       </c>
       <c r="E64" t="n">
         <v>7</v>
@@ -5480,11 +5480,11 @@
       </c>
       <c r="L64" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M64" t="n">
-        <v>120</v>
+        <v>200</v>
       </c>
       <c r="N64" t="n">
         <v>13000</v>
@@ -5564,20 +5564,20 @@
         </is>
       </c>
       <c r="M65" t="n">
-        <v>150</v>
+        <v>120</v>
       </c>
       <c r="N65" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="O65" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="P65" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="Q65" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="R65" t="inlineStr">
@@ -5586,10 +5586,10 @@
         </is>
       </c>
       <c r="S65" t="n">
-        <v>1000</v>
+        <v>722</v>
       </c>
       <c r="T65" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
     </row>
     <row r="66">
@@ -5640,11 +5640,11 @@
       </c>
       <c r="L66" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M66" t="n">
-        <v>300</v>
+        <v>150</v>
       </c>
       <c r="N66" t="n">
         <v>10000</v>
@@ -5657,7 +5657,7 @@
       </c>
       <c r="Q66" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="R66" t="inlineStr">
@@ -5724,20 +5724,20 @@
         </is>
       </c>
       <c r="M67" t="n">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="N67" t="n">
-        <v>11000</v>
+        <v>10000</v>
       </c>
       <c r="O67" t="n">
-        <v>11000</v>
+        <v>10000</v>
       </c>
       <c r="P67" t="n">
-        <v>11000</v>
+        <v>10000</v>
       </c>
       <c r="Q67" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R67" t="inlineStr">
@@ -5746,10 +5746,10 @@
         </is>
       </c>
       <c r="S67" t="n">
-        <v>611</v>
+        <v>1000</v>
       </c>
       <c r="T67" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="68">
@@ -5767,7 +5767,7 @@
         </is>
       </c>
       <c r="D68" s="2" t="n">
-        <v>44385</v>
+        <v>44320</v>
       </c>
       <c r="E68" t="n">
         <v>7</v>
@@ -5800,11 +5800,11 @@
       </c>
       <c r="L68" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M68" t="n">
-        <v>230</v>
+        <v>100</v>
       </c>
       <c r="N68" t="n">
         <v>11000</v>
@@ -5880,20 +5880,20 @@
       </c>
       <c r="L69" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M69" t="n">
-        <v>200</v>
+        <v>230</v>
       </c>
       <c r="N69" t="n">
-        <v>9000</v>
+        <v>11000</v>
       </c>
       <c r="O69" t="n">
-        <v>9000</v>
+        <v>11000</v>
       </c>
       <c r="P69" t="n">
-        <v>9000</v>
+        <v>11000</v>
       </c>
       <c r="Q69" t="inlineStr">
         <is>
@@ -5906,7 +5906,7 @@
         </is>
       </c>
       <c r="S69" t="n">
-        <v>500</v>
+        <v>611</v>
       </c>
       <c r="T69" t="n">
         <v>18</v>
@@ -5927,7 +5927,7 @@
         </is>
       </c>
       <c r="D70" s="2" t="n">
-        <v>44284</v>
+        <v>44385</v>
       </c>
       <c r="E70" t="n">
         <v>7</v>
@@ -5960,20 +5960,20 @@
       </c>
       <c r="L70" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M70" t="n">
         <v>200</v>
       </c>
       <c r="N70" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="O70" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="P70" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="Q70" t="inlineStr">
         <is>
@@ -5986,7 +5986,7 @@
         </is>
       </c>
       <c r="S70" t="n">
-        <v>389</v>
+        <v>500</v>
       </c>
       <c r="T70" t="n">
         <v>18</v>
@@ -6007,7 +6007,7 @@
         </is>
       </c>
       <c r="D71" s="2" t="n">
-        <v>44391</v>
+        <v>44284</v>
       </c>
       <c r="E71" t="n">
         <v>7</v>
@@ -6040,20 +6040,20 @@
       </c>
       <c r="L71" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M71" t="n">
         <v>200</v>
       </c>
       <c r="N71" t="n">
-        <v>11000</v>
+        <v>7000</v>
       </c>
       <c r="O71" t="n">
-        <v>11000</v>
+        <v>7000</v>
       </c>
       <c r="P71" t="n">
-        <v>11000</v>
+        <v>7000</v>
       </c>
       <c r="Q71" t="inlineStr">
         <is>
@@ -6066,7 +6066,7 @@
         </is>
       </c>
       <c r="S71" t="n">
-        <v>611</v>
+        <v>389</v>
       </c>
       <c r="T71" t="n">
         <v>18</v>
@@ -6120,20 +6120,20 @@
       </c>
       <c r="L72" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M72" t="n">
-        <v>250</v>
+        <v>200</v>
       </c>
       <c r="N72" t="n">
-        <v>9500</v>
+        <v>11000</v>
       </c>
       <c r="O72" t="n">
-        <v>9500</v>
+        <v>11000</v>
       </c>
       <c r="P72" t="n">
-        <v>9500</v>
+        <v>11000</v>
       </c>
       <c r="Q72" t="inlineStr">
         <is>
@@ -6146,7 +6146,7 @@
         </is>
       </c>
       <c r="S72" t="n">
-        <v>528</v>
+        <v>611</v>
       </c>
       <c r="T72" t="n">
         <v>18</v>
@@ -6167,7 +6167,7 @@
         </is>
       </c>
       <c r="D73" s="2" t="n">
-        <v>44281</v>
+        <v>44391</v>
       </c>
       <c r="E73" t="n">
         <v>7</v>
@@ -6204,20 +6204,20 @@
         </is>
       </c>
       <c r="M73" t="n">
-        <v>210</v>
+        <v>250</v>
       </c>
       <c r="N73" t="n">
-        <v>10000</v>
+        <v>9500</v>
       </c>
       <c r="O73" t="n">
-        <v>10000</v>
+        <v>9500</v>
       </c>
       <c r="P73" t="n">
-        <v>10000</v>
+        <v>9500</v>
       </c>
       <c r="Q73" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="R73" t="inlineStr">
@@ -6226,10 +6226,10 @@
         </is>
       </c>
       <c r="S73" t="n">
-        <v>1000</v>
+        <v>528</v>
       </c>
       <c r="T73" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
     </row>
     <row r="74">
@@ -6247,7 +6247,7 @@
         </is>
       </c>
       <c r="D74" s="2" t="n">
-        <v>44342</v>
+        <v>44281</v>
       </c>
       <c r="E74" t="n">
         <v>7</v>
@@ -6284,20 +6284,20 @@
         </is>
       </c>
       <c r="M74" t="n">
-        <v>250</v>
+        <v>210</v>
       </c>
       <c r="N74" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="O74" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="P74" t="n">
-        <v>8600</v>
+        <v>10000</v>
       </c>
       <c r="Q74" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R74" t="inlineStr">
@@ -6306,10 +6306,10 @@
         </is>
       </c>
       <c r="S74" t="n">
-        <v>478</v>
+        <v>1000</v>
       </c>
       <c r="T74" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="75">
@@ -6327,7 +6327,7 @@
         </is>
       </c>
       <c r="D75" s="2" t="n">
-        <v>44434</v>
+        <v>44342</v>
       </c>
       <c r="E75" t="n">
         <v>7</v>
@@ -6360,20 +6360,20 @@
       </c>
       <c r="L75" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M75" t="n">
-        <v>230</v>
+        <v>250</v>
       </c>
       <c r="N75" t="n">
-        <v>14000</v>
+        <v>8000</v>
       </c>
       <c r="O75" t="n">
-        <v>14000</v>
+        <v>9000</v>
       </c>
       <c r="P75" t="n">
-        <v>14000</v>
+        <v>8600</v>
       </c>
       <c r="Q75" t="inlineStr">
         <is>
@@ -6386,7 +6386,7 @@
         </is>
       </c>
       <c r="S75" t="n">
-        <v>778</v>
+        <v>478</v>
       </c>
       <c r="T75" t="n">
         <v>18</v>
@@ -6444,20 +6444,20 @@
         </is>
       </c>
       <c r="M76" t="n">
-        <v>160</v>
+        <v>230</v>
       </c>
       <c r="N76" t="n">
-        <v>8000</v>
+        <v>14000</v>
       </c>
       <c r="O76" t="n">
-        <v>8000</v>
+        <v>14000</v>
       </c>
       <c r="P76" t="n">
-        <v>8000</v>
+        <v>14000</v>
       </c>
       <c r="Q76" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="R76" t="inlineStr">
@@ -6466,10 +6466,10 @@
         </is>
       </c>
       <c r="S76" t="n">
-        <v>800</v>
+        <v>778</v>
       </c>
       <c r="T76" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
     </row>
     <row r="77">
@@ -6520,24 +6520,24 @@
       </c>
       <c r="L77" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M77" t="n">
-        <v>150</v>
+        <v>160</v>
       </c>
       <c r="N77" t="n">
-        <v>12000</v>
+        <v>8000</v>
       </c>
       <c r="O77" t="n">
-        <v>12000</v>
+        <v>8000</v>
       </c>
       <c r="P77" t="n">
-        <v>12000</v>
+        <v>8000</v>
       </c>
       <c r="Q77" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="R77" t="inlineStr">
@@ -6546,10 +6546,10 @@
         </is>
       </c>
       <c r="S77" t="n">
-        <v>667</v>
+        <v>800</v>
       </c>
       <c r="T77" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="78">
@@ -6604,20 +6604,20 @@
         </is>
       </c>
       <c r="M78" t="n">
-        <v>230</v>
+        <v>150</v>
       </c>
       <c r="N78" t="n">
-        <v>7000</v>
+        <v>12000</v>
       </c>
       <c r="O78" t="n">
-        <v>7000</v>
+        <v>12000</v>
       </c>
       <c r="P78" t="n">
-        <v>7000</v>
+        <v>12000</v>
       </c>
       <c r="Q78" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="R78" t="inlineStr">
@@ -6626,10 +6626,10 @@
         </is>
       </c>
       <c r="S78" t="n">
-        <v>700</v>
+        <v>667</v>
       </c>
       <c r="T78" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
     </row>
     <row r="79">
@@ -6680,24 +6680,24 @@
       </c>
       <c r="L79" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M79" t="n">
-        <v>120</v>
+        <v>230</v>
       </c>
       <c r="N79" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="O79" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="P79" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="Q79" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="R79" t="inlineStr">
@@ -6706,10 +6706,10 @@
         </is>
       </c>
       <c r="S79" t="n">
-        <v>556</v>
+        <v>700</v>
       </c>
       <c r="T79" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="80">
@@ -6727,7 +6727,7 @@
         </is>
       </c>
       <c r="D80" s="2" t="n">
-        <v>44327</v>
+        <v>44434</v>
       </c>
       <c r="E80" t="n">
         <v>7</v>
@@ -6760,24 +6760,24 @@
       </c>
       <c r="L80" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M80" t="n">
-        <v>300</v>
+        <v>120</v>
       </c>
       <c r="N80" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="O80" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="P80" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="Q80" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="R80" t="inlineStr">
@@ -6786,10 +6786,10 @@
         </is>
       </c>
       <c r="S80" t="n">
-        <v>900</v>
+        <v>556</v>
       </c>
       <c r="T80" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
     </row>
     <row r="81">
@@ -6807,7 +6807,7 @@
         </is>
       </c>
       <c r="D81" s="2" t="n">
-        <v>44321</v>
+        <v>44327</v>
       </c>
       <c r="E81" t="n">
         <v>7</v>
@@ -6844,20 +6844,20 @@
         </is>
       </c>
       <c r="M81" t="n">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="N81" t="n">
-        <v>13000</v>
+        <v>9000</v>
       </c>
       <c r="O81" t="n">
-        <v>13000</v>
+        <v>9000</v>
       </c>
       <c r="P81" t="n">
-        <v>13000</v>
+        <v>9000</v>
       </c>
       <c r="Q81" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="R81" t="inlineStr">
@@ -6866,10 +6866,10 @@
         </is>
       </c>
       <c r="S81" t="n">
-        <v>722</v>
+        <v>900</v>
       </c>
       <c r="T81" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="82">
@@ -6887,7 +6887,7 @@
         </is>
       </c>
       <c r="D82" s="2" t="n">
-        <v>44399</v>
+        <v>44321</v>
       </c>
       <c r="E82" t="n">
         <v>7</v>
@@ -6924,20 +6924,20 @@
         </is>
       </c>
       <c r="M82" t="n">
-        <v>260</v>
+        <v>200</v>
       </c>
       <c r="N82" t="n">
-        <v>5000</v>
+        <v>13000</v>
       </c>
       <c r="O82" t="n">
-        <v>5000</v>
+        <v>13000</v>
       </c>
       <c r="P82" t="n">
-        <v>5000</v>
+        <v>13000</v>
       </c>
       <c r="Q82" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="R82" t="inlineStr">
@@ -6946,10 +6946,10 @@
         </is>
       </c>
       <c r="S82" t="n">
-        <v>500</v>
+        <v>722</v>
       </c>
       <c r="T82" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
     </row>
     <row r="83">
@@ -7007,17 +7007,17 @@
         <v>260</v>
       </c>
       <c r="N83" t="n">
-        <v>10000</v>
+        <v>5000</v>
       </c>
       <c r="O83" t="n">
-        <v>10000</v>
+        <v>5000</v>
       </c>
       <c r="P83" t="n">
-        <v>10000</v>
+        <v>5000</v>
       </c>
       <c r="Q83" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos granel</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R83" t="inlineStr">
@@ -7026,10 +7026,10 @@
         </is>
       </c>
       <c r="S83" t="n">
-        <v>556</v>
+        <v>500</v>
       </c>
       <c r="T83" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="84">
@@ -7047,7 +7047,7 @@
         </is>
       </c>
       <c r="D84" s="2" t="n">
-        <v>44452</v>
+        <v>44399</v>
       </c>
       <c r="E84" t="n">
         <v>7</v>
@@ -7084,20 +7084,20 @@
         </is>
       </c>
       <c r="M84" t="n">
-        <v>300</v>
+        <v>260</v>
       </c>
       <c r="N84" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="O84" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="P84" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="Q84" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 18 kilos granel</t>
         </is>
       </c>
       <c r="R84" t="inlineStr">
@@ -7106,7 +7106,7 @@
         </is>
       </c>
       <c r="S84" t="n">
-        <v>667</v>
+        <v>556</v>
       </c>
       <c r="T84" t="n">
         <v>18</v>
@@ -7127,7 +7127,7 @@
         </is>
       </c>
       <c r="D85" s="2" t="n">
-        <v>44383</v>
+        <v>44452</v>
       </c>
       <c r="E85" t="n">
         <v>7</v>
@@ -7164,16 +7164,16 @@
         </is>
       </c>
       <c r="M85" t="n">
-        <v>210</v>
+        <v>300</v>
       </c>
       <c r="N85" t="n">
-        <v>9000</v>
+        <v>12000</v>
       </c>
       <c r="O85" t="n">
-        <v>9000</v>
+        <v>12000</v>
       </c>
       <c r="P85" t="n">
-        <v>9000</v>
+        <v>12000</v>
       </c>
       <c r="Q85" t="inlineStr">
         <is>
@@ -7186,7 +7186,7 @@
         </is>
       </c>
       <c r="S85" t="n">
-        <v>500</v>
+        <v>667</v>
       </c>
       <c r="T85" t="n">
         <v>18</v>
@@ -7244,20 +7244,20 @@
         </is>
       </c>
       <c r="M86" t="n">
-        <v>260</v>
+        <v>210</v>
       </c>
       <c r="N86" t="n">
-        <v>6000</v>
+        <v>9000</v>
       </c>
       <c r="O86" t="n">
-        <v>6000</v>
+        <v>9000</v>
       </c>
       <c r="P86" t="n">
-        <v>6000</v>
+        <v>9000</v>
       </c>
       <c r="Q86" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="R86" t="inlineStr">
@@ -7266,10 +7266,10 @@
         </is>
       </c>
       <c r="S86" t="n">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="T86" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
     </row>
     <row r="87">
@@ -7287,7 +7287,7 @@
         </is>
       </c>
       <c r="D87" s="2" t="n">
-        <v>44407</v>
+        <v>44383</v>
       </c>
       <c r="E87" t="n">
         <v>7</v>
@@ -7320,24 +7320,24 @@
       </c>
       <c r="L87" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M87" t="n">
-        <v>60</v>
+        <v>260</v>
       </c>
       <c r="N87" t="n">
-        <v>13000</v>
+        <v>6000</v>
       </c>
       <c r="O87" t="n">
-        <v>13000</v>
+        <v>6000</v>
       </c>
       <c r="P87" t="n">
-        <v>13000</v>
+        <v>6000</v>
       </c>
       <c r="Q87" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="R87" t="inlineStr">
@@ -7346,10 +7346,10 @@
         </is>
       </c>
       <c r="S87" t="n">
-        <v>722</v>
+        <v>600</v>
       </c>
       <c r="T87" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="88">
@@ -7400,20 +7400,20 @@
       </c>
       <c r="L88" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M88" t="n">
-        <v>150</v>
+        <v>60</v>
       </c>
       <c r="N88" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="O88" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="P88" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="Q88" t="inlineStr">
         <is>
@@ -7426,7 +7426,7 @@
         </is>
       </c>
       <c r="S88" t="n">
-        <v>556</v>
+        <v>722</v>
       </c>
       <c r="T88" t="n">
         <v>18</v>
@@ -7480,20 +7480,20 @@
       </c>
       <c r="L89" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M89" t="n">
-        <v>100</v>
+        <v>150</v>
       </c>
       <c r="N89" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="O89" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="P89" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="Q89" t="inlineStr">
         <is>
@@ -7506,7 +7506,7 @@
         </is>
       </c>
       <c r="S89" t="n">
-        <v>444</v>
+        <v>556</v>
       </c>
       <c r="T89" t="n">
         <v>18</v>
@@ -7527,7 +7527,7 @@
         </is>
       </c>
       <c r="D90" s="2" t="n">
-        <v>44336</v>
+        <v>44407</v>
       </c>
       <c r="E90" t="n">
         <v>7</v>
@@ -7560,11 +7560,11 @@
       </c>
       <c r="L90" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M90" t="n">
-        <v>250</v>
+        <v>100</v>
       </c>
       <c r="N90" t="n">
         <v>8000</v>
@@ -7577,7 +7577,7 @@
       </c>
       <c r="Q90" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="R90" t="inlineStr">
@@ -7586,10 +7586,10 @@
         </is>
       </c>
       <c r="S90" t="n">
-        <v>800</v>
+        <v>444</v>
       </c>
       <c r="T90" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
     </row>
     <row r="91">
@@ -7607,7 +7607,7 @@
         </is>
       </c>
       <c r="D91" s="2" t="n">
-        <v>44341</v>
+        <v>44336</v>
       </c>
       <c r="E91" t="n">
         <v>7</v>
@@ -7640,24 +7640,24 @@
       </c>
       <c r="L91" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M91" t="n">
-        <v>200</v>
+        <v>250</v>
       </c>
       <c r="N91" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="O91" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="P91" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="Q91" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="R91" t="inlineStr">
@@ -7666,10 +7666,10 @@
         </is>
       </c>
       <c r="S91" t="n">
-        <v>556</v>
+        <v>800</v>
       </c>
       <c r="T91" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="92">
@@ -7720,20 +7720,20 @@
       </c>
       <c r="L92" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M92" t="n">
-        <v>210</v>
+        <v>200</v>
       </c>
       <c r="N92" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="O92" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="P92" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="Q92" t="inlineStr">
         <is>
@@ -7746,7 +7746,7 @@
         </is>
       </c>
       <c r="S92" t="n">
-        <v>500</v>
+        <v>556</v>
       </c>
       <c r="T92" t="n">
         <v>18</v>
@@ -7767,7 +7767,7 @@
         </is>
       </c>
       <c r="D93" s="2" t="n">
-        <v>44426</v>
+        <v>44341</v>
       </c>
       <c r="E93" t="n">
         <v>7</v>
@@ -7800,24 +7800,24 @@
       </c>
       <c r="L93" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M93" t="n">
-        <v>100</v>
+        <v>210</v>
       </c>
       <c r="N93" t="n">
-        <v>12000</v>
+        <v>9000</v>
       </c>
       <c r="O93" t="n">
-        <v>12000</v>
+        <v>9000</v>
       </c>
       <c r="P93" t="n">
-        <v>12000</v>
+        <v>9000</v>
       </c>
       <c r="Q93" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="R93" t="inlineStr">
@@ -7826,7 +7826,7 @@
         </is>
       </c>
       <c r="S93" t="n">
-        <v>667</v>
+        <v>500</v>
       </c>
       <c r="T93" t="n">
         <v>18</v>
@@ -7880,20 +7880,20 @@
       </c>
       <c r="L94" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M94" t="n">
-        <v>120</v>
+        <v>100</v>
       </c>
       <c r="N94" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="O94" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="P94" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="Q94" t="inlineStr">
         <is>
@@ -7906,7 +7906,7 @@
         </is>
       </c>
       <c r="S94" t="n">
-        <v>556</v>
+        <v>667</v>
       </c>
       <c r="T94" t="n">
         <v>18</v>
@@ -7927,7 +7927,7 @@
         </is>
       </c>
       <c r="D95" s="2" t="n">
-        <v>44400</v>
+        <v>44426</v>
       </c>
       <c r="E95" t="n">
         <v>7</v>
@@ -7960,24 +7960,24 @@
       </c>
       <c r="L95" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M95" t="n">
-        <v>100</v>
+        <v>120</v>
       </c>
       <c r="N95" t="n">
-        <v>13000</v>
+        <v>10000</v>
       </c>
       <c r="O95" t="n">
-        <v>13000</v>
+        <v>10000</v>
       </c>
       <c r="P95" t="n">
-        <v>13000</v>
+        <v>10000</v>
       </c>
       <c r="Q95" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="R95" t="inlineStr">
@@ -7986,7 +7986,7 @@
         </is>
       </c>
       <c r="S95" t="n">
-        <v>722</v>
+        <v>556</v>
       </c>
       <c r="T95" t="n">
         <v>18</v>
@@ -8040,20 +8040,20 @@
       </c>
       <c r="L96" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M96" t="n">
-        <v>180</v>
+        <v>100</v>
       </c>
       <c r="N96" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="O96" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="P96" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="Q96" t="inlineStr">
         <is>
@@ -8066,7 +8066,7 @@
         </is>
       </c>
       <c r="S96" t="n">
-        <v>556</v>
+        <v>722</v>
       </c>
       <c r="T96" t="n">
         <v>18</v>
@@ -8120,20 +8120,20 @@
       </c>
       <c r="L97" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M97" t="n">
-        <v>150</v>
+        <v>180</v>
       </c>
       <c r="N97" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="O97" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="P97" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="Q97" t="inlineStr">
         <is>
@@ -8146,7 +8146,7 @@
         </is>
       </c>
       <c r="S97" t="n">
-        <v>444</v>
+        <v>556</v>
       </c>
       <c r="T97" t="n">
         <v>18</v>
@@ -8167,7 +8167,7 @@
         </is>
       </c>
       <c r="D98" s="2" t="n">
-        <v>44392</v>
+        <v>44400</v>
       </c>
       <c r="E98" t="n">
         <v>7</v>
@@ -8200,20 +8200,20 @@
       </c>
       <c r="L98" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M98" t="n">
-        <v>200</v>
+        <v>150</v>
       </c>
       <c r="N98" t="n">
-        <v>11000</v>
+        <v>8000</v>
       </c>
       <c r="O98" t="n">
-        <v>11000</v>
+        <v>8000</v>
       </c>
       <c r="P98" t="n">
-        <v>11000</v>
+        <v>8000</v>
       </c>
       <c r="Q98" t="inlineStr">
         <is>
@@ -8226,7 +8226,7 @@
         </is>
       </c>
       <c r="S98" t="n">
-        <v>611</v>
+        <v>444</v>
       </c>
       <c r="T98" t="n">
         <v>18</v>
@@ -8280,20 +8280,20 @@
       </c>
       <c r="L99" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M99" t="n">
-        <v>400</v>
+        <v>200</v>
       </c>
       <c r="N99" t="n">
-        <v>9000</v>
+        <v>11000</v>
       </c>
       <c r="O99" t="n">
-        <v>9000</v>
+        <v>11000</v>
       </c>
       <c r="P99" t="n">
-        <v>9000</v>
+        <v>11000</v>
       </c>
       <c r="Q99" t="inlineStr">
         <is>
@@ -8306,7 +8306,7 @@
         </is>
       </c>
       <c r="S99" t="n">
-        <v>500</v>
+        <v>611</v>
       </c>
       <c r="T99" t="n">
         <v>18</v>
@@ -8327,7 +8327,7 @@
         </is>
       </c>
       <c r="D100" s="2" t="n">
-        <v>44442</v>
+        <v>44392</v>
       </c>
       <c r="E100" t="n">
         <v>7</v>
@@ -8360,20 +8360,20 @@
       </c>
       <c r="L100" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M100" t="n">
-        <v>180</v>
+        <v>400</v>
       </c>
       <c r="N100" t="n">
-        <v>14000</v>
+        <v>9000</v>
       </c>
       <c r="O100" t="n">
-        <v>14000</v>
+        <v>9000</v>
       </c>
       <c r="P100" t="n">
-        <v>14000</v>
+        <v>9000</v>
       </c>
       <c r="Q100" t="inlineStr">
         <is>
@@ -8386,7 +8386,7 @@
         </is>
       </c>
       <c r="S100" t="n">
-        <v>778</v>
+        <v>500</v>
       </c>
       <c r="T100" t="n">
         <v>18</v>
@@ -8440,20 +8440,20 @@
       </c>
       <c r="L101" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M101" t="n">
-        <v>230</v>
+        <v>180</v>
       </c>
       <c r="N101" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="O101" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="P101" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="Q101" t="inlineStr">
         <is>
@@ -8466,7 +8466,7 @@
         </is>
       </c>
       <c r="S101" t="n">
-        <v>667</v>
+        <v>778</v>
       </c>
       <c r="T101" t="n">
         <v>18</v>
@@ -8524,16 +8524,16 @@
         </is>
       </c>
       <c r="M102" t="n">
-        <v>250</v>
+        <v>230</v>
       </c>
       <c r="N102" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="O102" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="P102" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="Q102" t="inlineStr">
         <is>
@@ -8542,11 +8542,11 @@
       </c>
       <c r="R102" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S102" t="n">
-        <v>556</v>
+        <v>667</v>
       </c>
       <c r="T102" t="n">
         <v>18</v>
@@ -8600,11 +8600,11 @@
       </c>
       <c r="L103" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M103" t="n">
-        <v>200</v>
+        <v>250</v>
       </c>
       <c r="N103" t="n">
         <v>10000</v>
@@ -8622,7 +8622,7 @@
       </c>
       <c r="R103" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S103" t="n">
@@ -8687,13 +8687,13 @@
         <v>200</v>
       </c>
       <c r="N104" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="O104" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="P104" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="Q104" t="inlineStr">
         <is>
@@ -8702,11 +8702,11 @@
       </c>
       <c r="R104" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S104" t="n">
-        <v>444</v>
+        <v>556</v>
       </c>
       <c r="T104" t="n">
         <v>18</v>
@@ -8727,7 +8727,7 @@
         </is>
       </c>
       <c r="D105" s="2" t="n">
-        <v>44453</v>
+        <v>44442</v>
       </c>
       <c r="E105" t="n">
         <v>7</v>
@@ -8760,36 +8760,36 @@
       </c>
       <c r="L105" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M105" t="n">
-        <v>250</v>
+        <v>200</v>
       </c>
       <c r="N105" t="n">
-        <v>12000</v>
+        <v>8000</v>
       </c>
       <c r="O105" t="n">
-        <v>12000</v>
+        <v>8000</v>
       </c>
       <c r="P105" t="n">
-        <v>12000</v>
+        <v>8000</v>
       </c>
       <c r="Q105" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="R105" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S105" t="n">
-        <v>1200</v>
+        <v>444</v>
       </c>
       <c r="T105" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
     </row>
     <row r="106">
@@ -8807,7 +8807,7 @@
         </is>
       </c>
       <c r="D106" s="2" t="n">
-        <v>44309</v>
+        <v>44453</v>
       </c>
       <c r="E106" t="n">
         <v>7</v>
@@ -8840,24 +8840,24 @@
       </c>
       <c r="L106" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M106" t="n">
-        <v>160</v>
+        <v>250</v>
       </c>
       <c r="N106" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="O106" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="P106" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="Q106" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R106" t="inlineStr">
@@ -8866,10 +8866,10 @@
         </is>
       </c>
       <c r="S106" t="n">
-        <v>778</v>
+        <v>1200</v>
       </c>
       <c r="T106" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="107">
@@ -8920,24 +8920,24 @@
       </c>
       <c r="L107" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M107" t="n">
-        <v>250</v>
+        <v>160</v>
       </c>
       <c r="N107" t="n">
-        <v>8000</v>
+        <v>14000</v>
       </c>
       <c r="O107" t="n">
-        <v>9000</v>
+        <v>14000</v>
       </c>
       <c r="P107" t="n">
-        <v>8600</v>
+        <v>14000</v>
       </c>
       <c r="Q107" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="R107" t="inlineStr">
@@ -8946,10 +8946,10 @@
         </is>
       </c>
       <c r="S107" t="n">
-        <v>860</v>
+        <v>778</v>
       </c>
       <c r="T107" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
     </row>
     <row r="108">
@@ -9004,20 +9004,20 @@
         </is>
       </c>
       <c r="M108" t="n">
-        <v>100</v>
+        <v>250</v>
       </c>
       <c r="N108" t="n">
-        <v>12000</v>
+        <v>8000</v>
       </c>
       <c r="O108" t="n">
-        <v>12000</v>
+        <v>9000</v>
       </c>
       <c r="P108" t="n">
-        <v>12000</v>
+        <v>8600</v>
       </c>
       <c r="Q108" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R108" t="inlineStr">
@@ -9026,10 +9026,10 @@
         </is>
       </c>
       <c r="S108" t="n">
-        <v>667</v>
+        <v>860</v>
       </c>
       <c r="T108" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="109">
@@ -9047,7 +9047,7 @@
         </is>
       </c>
       <c r="D109" s="2" t="n">
-        <v>44448</v>
+        <v>44309</v>
       </c>
       <c r="E109" t="n">
         <v>7</v>
@@ -9080,24 +9080,24 @@
       </c>
       <c r="L109" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M109" t="n">
-        <v>180</v>
+        <v>100</v>
       </c>
       <c r="N109" t="n">
-        <v>13000</v>
+        <v>12000</v>
       </c>
       <c r="O109" t="n">
-        <v>13000</v>
+        <v>12000</v>
       </c>
       <c r="P109" t="n">
-        <v>13000</v>
+        <v>12000</v>
       </c>
       <c r="Q109" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="R109" t="inlineStr">
@@ -9106,7 +9106,7 @@
         </is>
       </c>
       <c r="S109" t="n">
-        <v>722</v>
+        <v>667</v>
       </c>
       <c r="T109" t="n">
         <v>18</v>
@@ -9160,20 +9160,20 @@
       </c>
       <c r="L110" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M110" t="n">
-        <v>230</v>
+        <v>180</v>
       </c>
       <c r="N110" t="n">
-        <v>11000</v>
+        <v>13000</v>
       </c>
       <c r="O110" t="n">
-        <v>11000</v>
+        <v>13000</v>
       </c>
       <c r="P110" t="n">
-        <v>11000</v>
+        <v>13000</v>
       </c>
       <c r="Q110" t="inlineStr">
         <is>
@@ -9186,7 +9186,7 @@
         </is>
       </c>
       <c r="S110" t="n">
-        <v>611</v>
+        <v>722</v>
       </c>
       <c r="T110" t="n">
         <v>18</v>
@@ -9207,7 +9207,7 @@
         </is>
       </c>
       <c r="D111" s="2" t="n">
-        <v>44354</v>
+        <v>44448</v>
       </c>
       <c r="E111" t="n">
         <v>7</v>
@@ -9240,33 +9240,33 @@
       </c>
       <c r="L111" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M111" t="n">
-        <v>180</v>
+        <v>230</v>
       </c>
       <c r="N111" t="n">
-        <v>12000</v>
+        <v>11000</v>
       </c>
       <c r="O111" t="n">
-        <v>12000</v>
+        <v>11000</v>
       </c>
       <c r="P111" t="n">
-        <v>12000</v>
+        <v>11000</v>
       </c>
       <c r="Q111" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="R111" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S111" t="n">
-        <v>667</v>
+        <v>611</v>
       </c>
       <c r="T111" t="n">
         <v>18</v>
@@ -9320,20 +9320,20 @@
       </c>
       <c r="L112" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M112" t="n">
-        <v>100</v>
+        <v>180</v>
       </c>
       <c r="N112" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="O112" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="P112" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="Q112" t="inlineStr">
         <is>
@@ -9346,7 +9346,7 @@
         </is>
       </c>
       <c r="S112" t="n">
-        <v>556</v>
+        <v>667</v>
       </c>
       <c r="T112" t="n">
         <v>18</v>
@@ -9367,7 +9367,7 @@
         </is>
       </c>
       <c r="D113" s="2" t="n">
-        <v>44420</v>
+        <v>44354</v>
       </c>
       <c r="E113" t="n">
         <v>7</v>
@@ -9400,33 +9400,33 @@
       </c>
       <c r="L113" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M113" t="n">
-        <v>120</v>
+        <v>100</v>
       </c>
       <c r="N113" t="n">
-        <v>14000</v>
+        <v>10000</v>
       </c>
       <c r="O113" t="n">
-        <v>14000</v>
+        <v>10000</v>
       </c>
       <c r="P113" t="n">
-        <v>14000</v>
+        <v>10000</v>
       </c>
       <c r="Q113" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="R113" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S113" t="n">
-        <v>778</v>
+        <v>556</v>
       </c>
       <c r="T113" t="n">
         <v>18</v>
@@ -9480,20 +9480,20 @@
       </c>
       <c r="L114" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M114" t="n">
-        <v>200</v>
+        <v>120</v>
       </c>
       <c r="N114" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="O114" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="P114" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="Q114" t="inlineStr">
         <is>
@@ -9506,7 +9506,7 @@
         </is>
       </c>
       <c r="S114" t="n">
-        <v>667</v>
+        <v>778</v>
       </c>
       <c r="T114" t="n">
         <v>18</v>
@@ -9527,7 +9527,7 @@
         </is>
       </c>
       <c r="D115" s="2" t="n">
-        <v>44370</v>
+        <v>44420</v>
       </c>
       <c r="E115" t="n">
         <v>7</v>
@@ -9560,11 +9560,11 @@
       </c>
       <c r="L115" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M115" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="N115" t="n">
         <v>12000</v>
@@ -9577,7 +9577,7 @@
       </c>
       <c r="Q115" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="R115" t="inlineStr">
@@ -9640,20 +9640,20 @@
       </c>
       <c r="L116" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M116" t="n">
-        <v>120</v>
+        <v>100</v>
       </c>
       <c r="N116" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="O116" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="P116" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="Q116" t="inlineStr">
         <is>
@@ -9666,7 +9666,7 @@
         </is>
       </c>
       <c r="S116" t="n">
-        <v>556</v>
+        <v>667</v>
       </c>
       <c r="T116" t="n">
         <v>18</v>
@@ -9720,20 +9720,20 @@
       </c>
       <c r="L117" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M117" t="n">
-        <v>60</v>
+        <v>120</v>
       </c>
       <c r="N117" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="O117" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="P117" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="Q117" t="inlineStr">
         <is>
@@ -9746,7 +9746,7 @@
         </is>
       </c>
       <c r="S117" t="n">
-        <v>444</v>
+        <v>556</v>
       </c>
       <c r="T117" t="n">
         <v>18</v>
@@ -9767,7 +9767,7 @@
         </is>
       </c>
       <c r="D118" s="2" t="n">
-        <v>44285</v>
+        <v>44370</v>
       </c>
       <c r="E118" t="n">
         <v>7</v>
@@ -9800,36 +9800,36 @@
       </c>
       <c r="L118" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M118" t="n">
-        <v>300</v>
+        <v>60</v>
       </c>
       <c r="N118" t="n">
-        <v>9000</v>
+        <v>8000</v>
       </c>
       <c r="O118" t="n">
-        <v>9000</v>
+        <v>8000</v>
       </c>
       <c r="P118" t="n">
-        <v>9000</v>
+        <v>8000</v>
       </c>
       <c r="Q118" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="R118" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S118" t="n">
-        <v>900</v>
+        <v>444</v>
       </c>
       <c r="T118" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
     </row>
     <row r="119">
@@ -9880,20 +9880,20 @@
       </c>
       <c r="L119" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M119" t="n">
-        <v>150</v>
+        <v>300</v>
       </c>
       <c r="N119" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="O119" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="P119" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="Q119" t="inlineStr">
         <is>
@@ -9906,7 +9906,7 @@
         </is>
       </c>
       <c r="S119" t="n">
-        <v>700</v>
+        <v>900</v>
       </c>
       <c r="T119" t="n">
         <v>10</v>
@@ -9927,7 +9927,7 @@
         </is>
       </c>
       <c r="D120" s="2" t="n">
-        <v>44266</v>
+        <v>44285</v>
       </c>
       <c r="E120" t="n">
         <v>7</v>
@@ -9960,36 +9960,36 @@
       </c>
       <c r="L120" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M120" t="n">
-        <v>210</v>
+        <v>150</v>
       </c>
       <c r="N120" t="n">
-        <v>12000</v>
+        <v>7000</v>
       </c>
       <c r="O120" t="n">
-        <v>12000</v>
+        <v>7000</v>
       </c>
       <c r="P120" t="n">
-        <v>12000</v>
+        <v>7000</v>
       </c>
       <c r="Q120" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R120" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="S120" t="n">
-        <v>667</v>
+        <v>700</v>
       </c>
       <c r="T120" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="121">
@@ -10007,7 +10007,7 @@
         </is>
       </c>
       <c r="D121" s="2" t="n">
-        <v>44350</v>
+        <v>44266</v>
       </c>
       <c r="E121" t="n">
         <v>7</v>
@@ -10040,33 +10040,33 @@
       </c>
       <c r="L121" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M121" t="n">
-        <v>130</v>
+        <v>210</v>
       </c>
       <c r="N121" t="n">
-        <v>11000</v>
+        <v>12000</v>
       </c>
       <c r="O121" t="n">
-        <v>11000</v>
+        <v>12000</v>
       </c>
       <c r="P121" t="n">
-        <v>11000</v>
+        <v>12000</v>
       </c>
       <c r="Q121" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos granel</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="R121" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S121" t="n">
-        <v>611</v>
+        <v>667</v>
       </c>
       <c r="T121" t="n">
         <v>18</v>
@@ -10120,20 +10120,20 @@
       </c>
       <c r="L122" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M122" t="n">
-        <v>360</v>
+        <v>130</v>
       </c>
       <c r="N122" t="n">
-        <v>9000</v>
+        <v>11000</v>
       </c>
       <c r="O122" t="n">
-        <v>9000</v>
+        <v>11000</v>
       </c>
       <c r="P122" t="n">
-        <v>9000</v>
+        <v>11000</v>
       </c>
       <c r="Q122" t="inlineStr">
         <is>
@@ -10142,11 +10142,11 @@
       </c>
       <c r="R122" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S122" t="n">
-        <v>500</v>
+        <v>611</v>
       </c>
       <c r="T122" t="n">
         <v>18</v>
@@ -10204,7 +10204,7 @@
         </is>
       </c>
       <c r="M123" t="n">
-        <v>100</v>
+        <v>360</v>
       </c>
       <c r="N123" t="n">
         <v>9000</v>
@@ -10222,7 +10222,7 @@
       </c>
       <c r="R123" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S123" t="n">
@@ -10280,33 +10280,33 @@
       </c>
       <c r="L124" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M124" t="n">
-        <v>210</v>
+        <v>100</v>
       </c>
       <c r="N124" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="O124" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="P124" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="Q124" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 18 kilos granel</t>
         </is>
       </c>
       <c r="R124" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S124" t="n">
-        <v>389</v>
+        <v>500</v>
       </c>
       <c r="T124" t="n">
         <v>18</v>
@@ -10364,7 +10364,7 @@
         </is>
       </c>
       <c r="M125" t="n">
-        <v>150</v>
+        <v>210</v>
       </c>
       <c r="N125" t="n">
         <v>7000</v>
@@ -10377,12 +10377,12 @@
       </c>
       <c r="Q125" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos granel</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="R125" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S125" t="n">
@@ -10407,7 +10407,7 @@
         </is>
       </c>
       <c r="D126" s="2" t="n">
-        <v>44455</v>
+        <v>44350</v>
       </c>
       <c r="E126" t="n">
         <v>7</v>
@@ -10440,33 +10440,33 @@
       </c>
       <c r="L126" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M126" t="n">
         <v>150</v>
       </c>
       <c r="N126" t="n">
-        <v>12000</v>
+        <v>7000</v>
       </c>
       <c r="O126" t="n">
-        <v>12000</v>
+        <v>7000</v>
       </c>
       <c r="P126" t="n">
-        <v>12000</v>
+        <v>7000</v>
       </c>
       <c r="Q126" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 18 kilos granel</t>
         </is>
       </c>
       <c r="R126" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S126" t="n">
-        <v>667</v>
+        <v>389</v>
       </c>
       <c r="T126" t="n">
         <v>18</v>
@@ -10520,20 +10520,20 @@
       </c>
       <c r="L127" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M127" t="n">
-        <v>100</v>
+        <v>150</v>
       </c>
       <c r="N127" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="O127" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="P127" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="Q127" t="inlineStr">
         <is>
@@ -10546,7 +10546,7 @@
         </is>
       </c>
       <c r="S127" t="n">
-        <v>556</v>
+        <v>667</v>
       </c>
       <c r="T127" t="n">
         <v>18</v>
@@ -10567,7 +10567,7 @@
         </is>
       </c>
       <c r="D128" s="2" t="n">
-        <v>44418</v>
+        <v>44455</v>
       </c>
       <c r="E128" t="n">
         <v>7</v>
@@ -10600,20 +10600,20 @@
       </c>
       <c r="L128" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M128" t="n">
         <v>100</v>
       </c>
       <c r="N128" t="n">
-        <v>14000</v>
+        <v>10000</v>
       </c>
       <c r="O128" t="n">
-        <v>14000</v>
+        <v>10000</v>
       </c>
       <c r="P128" t="n">
-        <v>14000</v>
+        <v>10000</v>
       </c>
       <c r="Q128" t="inlineStr">
         <is>
@@ -10626,7 +10626,7 @@
         </is>
       </c>
       <c r="S128" t="n">
-        <v>778</v>
+        <v>556</v>
       </c>
       <c r="T128" t="n">
         <v>18</v>
@@ -10680,20 +10680,20 @@
       </c>
       <c r="L129" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M129" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="N129" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="O129" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="P129" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="Q129" t="inlineStr">
         <is>
@@ -10706,7 +10706,7 @@
         </is>
       </c>
       <c r="S129" t="n">
-        <v>667</v>
+        <v>778</v>
       </c>
       <c r="T129" t="n">
         <v>18</v>
@@ -10760,20 +10760,20 @@
       </c>
       <c r="L130" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M130" t="n">
-        <v>90</v>
+        <v>200</v>
       </c>
       <c r="N130" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="O130" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="P130" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="Q130" t="inlineStr">
         <is>
@@ -10786,7 +10786,7 @@
         </is>
       </c>
       <c r="S130" t="n">
-        <v>556</v>
+        <v>667</v>
       </c>
       <c r="T130" t="n">
         <v>18</v>
@@ -10807,7 +10807,7 @@
         </is>
       </c>
       <c r="D131" s="2" t="n">
-        <v>44414</v>
+        <v>44418</v>
       </c>
       <c r="E131" t="n">
         <v>7</v>
@@ -10840,24 +10840,24 @@
       </c>
       <c r="L131" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M131" t="n">
-        <v>150</v>
+        <v>90</v>
       </c>
       <c r="N131" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="O131" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="P131" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="Q131" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="R131" t="inlineStr">
@@ -10866,10 +10866,10 @@
         </is>
       </c>
       <c r="S131" t="n">
-        <v>800</v>
+        <v>556</v>
       </c>
       <c r="T131" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
     </row>
     <row r="132">
@@ -10924,20 +10924,20 @@
         </is>
       </c>
       <c r="M132" t="n">
-        <v>190</v>
+        <v>150</v>
       </c>
       <c r="N132" t="n">
-        <v>12000</v>
+        <v>8000</v>
       </c>
       <c r="O132" t="n">
-        <v>12000</v>
+        <v>8000</v>
       </c>
       <c r="P132" t="n">
-        <v>12000</v>
+        <v>8000</v>
       </c>
       <c r="Q132" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R132" t="inlineStr">
@@ -10946,10 +10946,10 @@
         </is>
       </c>
       <c r="S132" t="n">
-        <v>667</v>
+        <v>800</v>
       </c>
       <c r="T132" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="133">
@@ -11000,20 +11000,20 @@
       </c>
       <c r="L133" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M133" t="n">
-        <v>100</v>
+        <v>190</v>
       </c>
       <c r="N133" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="O133" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="P133" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="Q133" t="inlineStr">
         <is>
@@ -11026,7 +11026,7 @@
         </is>
       </c>
       <c r="S133" t="n">
-        <v>556</v>
+        <v>667</v>
       </c>
       <c r="T133" t="n">
         <v>18</v>
@@ -11047,7 +11047,7 @@
         </is>
       </c>
       <c r="D134" s="2" t="n">
-        <v>44389</v>
+        <v>44414</v>
       </c>
       <c r="E134" t="n">
         <v>7</v>
@@ -11080,24 +11080,24 @@
       </c>
       <c r="L134" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M134" t="n">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="N134" t="n">
-        <v>6000</v>
+        <v>10000</v>
       </c>
       <c r="O134" t="n">
-        <v>6000</v>
+        <v>10000</v>
       </c>
       <c r="P134" t="n">
-        <v>6000</v>
+        <v>10000</v>
       </c>
       <c r="Q134" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="R134" t="inlineStr">
@@ -11106,10 +11106,10 @@
         </is>
       </c>
       <c r="S134" t="n">
-        <v>600</v>
+        <v>556</v>
       </c>
       <c r="T134" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
     </row>
     <row r="135">
@@ -11127,7 +11127,7 @@
         </is>
       </c>
       <c r="D135" s="2" t="n">
-        <v>44343</v>
+        <v>44389</v>
       </c>
       <c r="E135" t="n">
         <v>7</v>
@@ -11160,24 +11160,24 @@
       </c>
       <c r="L135" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M135" t="n">
-        <v>120</v>
+        <v>300</v>
       </c>
       <c r="N135" t="n">
-        <v>10000</v>
+        <v>6000</v>
       </c>
       <c r="O135" t="n">
-        <v>10000</v>
+        <v>6000</v>
       </c>
       <c r="P135" t="n">
-        <v>10000</v>
+        <v>6000</v>
       </c>
       <c r="Q135" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="R135" t="inlineStr">
@@ -11186,10 +11186,10 @@
         </is>
       </c>
       <c r="S135" t="n">
-        <v>556</v>
+        <v>600</v>
       </c>
       <c r="T135" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="136">
@@ -11240,20 +11240,20 @@
       </c>
       <c r="L136" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M136" t="n">
-        <v>160</v>
+        <v>120</v>
       </c>
       <c r="N136" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="O136" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="P136" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="Q136" t="inlineStr">
         <is>
@@ -11266,7 +11266,7 @@
         </is>
       </c>
       <c r="S136" t="n">
-        <v>500</v>
+        <v>556</v>
       </c>
       <c r="T136" t="n">
         <v>18</v>
@@ -11287,7 +11287,7 @@
         </is>
       </c>
       <c r="D137" s="2" t="n">
-        <v>44280</v>
+        <v>44343</v>
       </c>
       <c r="E137" t="n">
         <v>7</v>
@@ -11324,20 +11324,20 @@
         </is>
       </c>
       <c r="M137" t="n">
-        <v>100</v>
+        <v>160</v>
       </c>
       <c r="N137" t="n">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="O137" t="n">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="P137" t="n">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="Q137" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="R137" t="inlineStr">
@@ -11346,10 +11346,10 @@
         </is>
       </c>
       <c r="S137" t="n">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="T137" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
     </row>
     <row r="138">
@@ -11400,20 +11400,20 @@
       </c>
       <c r="L138" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M138" t="n">
-        <v>60</v>
+        <v>100</v>
       </c>
       <c r="N138" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="O138" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="P138" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="Q138" t="inlineStr">
         <is>
@@ -11426,7 +11426,7 @@
         </is>
       </c>
       <c r="S138" t="n">
-        <v>800</v>
+        <v>1000</v>
       </c>
       <c r="T138" t="n">
         <v>10</v>
@@ -11447,7 +11447,7 @@
         </is>
       </c>
       <c r="D139" s="2" t="n">
-        <v>44390</v>
+        <v>44280</v>
       </c>
       <c r="E139" t="n">
         <v>7</v>
@@ -11480,24 +11480,24 @@
       </c>
       <c r="L139" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M139" t="n">
-        <v>250</v>
+        <v>60</v>
       </c>
       <c r="N139" t="n">
-        <v>9000</v>
+        <v>8000</v>
       </c>
       <c r="O139" t="n">
-        <v>9000</v>
+        <v>8000</v>
       </c>
       <c r="P139" t="n">
-        <v>9000</v>
+        <v>8000</v>
       </c>
       <c r="Q139" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="R139" t="inlineStr">
@@ -11506,10 +11506,10 @@
         </is>
       </c>
       <c r="S139" t="n">
-        <v>500</v>
+        <v>800</v>
       </c>
       <c r="T139" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="140">
@@ -11527,7 +11527,7 @@
         </is>
       </c>
       <c r="D140" s="2" t="n">
-        <v>44386</v>
+        <v>44390</v>
       </c>
       <c r="E140" t="n">
         <v>7</v>
@@ -11564,20 +11564,20 @@
         </is>
       </c>
       <c r="M140" t="n">
-        <v>300</v>
+        <v>250</v>
       </c>
       <c r="N140" t="n">
-        <v>6000</v>
+        <v>9000</v>
       </c>
       <c r="O140" t="n">
-        <v>6000</v>
+        <v>9000</v>
       </c>
       <c r="P140" t="n">
-        <v>6000</v>
+        <v>9000</v>
       </c>
       <c r="Q140" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="R140" t="inlineStr">
@@ -11586,10 +11586,10 @@
         </is>
       </c>
       <c r="S140" t="n">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="T140" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
     </row>
     <row r="141">
@@ -11607,7 +11607,7 @@
         </is>
       </c>
       <c r="D141" s="2" t="n">
-        <v>44308</v>
+        <v>44386</v>
       </c>
       <c r="E141" t="n">
         <v>7</v>
@@ -11640,24 +11640,24 @@
       </c>
       <c r="L141" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M141" t="n">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="N141" t="n">
-        <v>14000</v>
+        <v>6000</v>
       </c>
       <c r="O141" t="n">
-        <v>14000</v>
+        <v>6000</v>
       </c>
       <c r="P141" t="n">
-        <v>14000</v>
+        <v>6000</v>
       </c>
       <c r="Q141" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="R141" t="inlineStr">
@@ -11666,10 +11666,10 @@
         </is>
       </c>
       <c r="S141" t="n">
-        <v>778</v>
+        <v>600</v>
       </c>
       <c r="T141" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="142">
@@ -11687,7 +11687,7 @@
         </is>
       </c>
       <c r="D142" s="2" t="n">
-        <v>44369</v>
+        <v>44308</v>
       </c>
       <c r="E142" t="n">
         <v>7</v>
@@ -11724,20 +11724,20 @@
         </is>
       </c>
       <c r="M142" t="n">
-        <v>230</v>
+        <v>100</v>
       </c>
       <c r="N142" t="n">
-        <v>8000</v>
+        <v>14000</v>
       </c>
       <c r="O142" t="n">
-        <v>8000</v>
+        <v>14000</v>
       </c>
       <c r="P142" t="n">
-        <v>8000</v>
+        <v>14000</v>
       </c>
       <c r="Q142" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="R142" t="inlineStr">
@@ -11746,10 +11746,10 @@
         </is>
       </c>
       <c r="S142" t="n">
-        <v>800</v>
+        <v>778</v>
       </c>
       <c r="T142" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
     </row>
     <row r="143">
@@ -11804,20 +11804,20 @@
         </is>
       </c>
       <c r="M143" t="n">
-        <v>100</v>
+        <v>230</v>
       </c>
       <c r="N143" t="n">
-        <v>12000</v>
+        <v>8000</v>
       </c>
       <c r="O143" t="n">
-        <v>12000</v>
+        <v>8000</v>
       </c>
       <c r="P143" t="n">
-        <v>12000</v>
+        <v>8000</v>
       </c>
       <c r="Q143" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R143" t="inlineStr">
@@ -11826,10 +11826,10 @@
         </is>
       </c>
       <c r="S143" t="n">
-        <v>667</v>
+        <v>800</v>
       </c>
       <c r="T143" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="144">
@@ -11880,24 +11880,24 @@
       </c>
       <c r="L144" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M144" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="N144" t="n">
-        <v>6000</v>
+        <v>12000</v>
       </c>
       <c r="O144" t="n">
-        <v>6000</v>
+        <v>12000</v>
       </c>
       <c r="P144" t="n">
-        <v>6000</v>
+        <v>12000</v>
       </c>
       <c r="Q144" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="R144" t="inlineStr">
@@ -11906,10 +11906,10 @@
         </is>
       </c>
       <c r="S144" t="n">
-        <v>600</v>
+        <v>667</v>
       </c>
       <c r="T144" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
     </row>
     <row r="145">
@@ -11964,20 +11964,20 @@
         </is>
       </c>
       <c r="M145" t="n">
-        <v>180</v>
+        <v>200</v>
       </c>
       <c r="N145" t="n">
-        <v>10000</v>
+        <v>6000</v>
       </c>
       <c r="O145" t="n">
-        <v>10000</v>
+        <v>6000</v>
       </c>
       <c r="P145" t="n">
-        <v>10000</v>
+        <v>6000</v>
       </c>
       <c r="Q145" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R145" t="inlineStr">
@@ -11986,10 +11986,10 @@
         </is>
       </c>
       <c r="S145" t="n">
-        <v>556</v>
+        <v>600</v>
       </c>
       <c r="T145" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="146">
@@ -12007,7 +12007,7 @@
         </is>
       </c>
       <c r="D146" s="2" t="n">
-        <v>44433</v>
+        <v>44369</v>
       </c>
       <c r="E146" t="n">
         <v>7</v>
@@ -12040,24 +12040,24 @@
       </c>
       <c r="L146" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M146" t="n">
-        <v>120</v>
+        <v>180</v>
       </c>
       <c r="N146" t="n">
-        <v>14000</v>
+        <v>10000</v>
       </c>
       <c r="O146" t="n">
-        <v>14000</v>
+        <v>10000</v>
       </c>
       <c r="P146" t="n">
-        <v>14000</v>
+        <v>10000</v>
       </c>
       <c r="Q146" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="R146" t="inlineStr">
@@ -12066,7 +12066,7 @@
         </is>
       </c>
       <c r="S146" t="n">
-        <v>778</v>
+        <v>556</v>
       </c>
       <c r="T146" t="n">
         <v>18</v>
@@ -12120,20 +12120,20 @@
       </c>
       <c r="L147" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M147" t="n">
-        <v>180</v>
+        <v>120</v>
       </c>
       <c r="N147" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="O147" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="P147" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="Q147" t="inlineStr">
         <is>
@@ -12146,7 +12146,7 @@
         </is>
       </c>
       <c r="S147" t="n">
-        <v>667</v>
+        <v>778</v>
       </c>
       <c r="T147" t="n">
         <v>18</v>
@@ -12167,7 +12167,7 @@
         </is>
       </c>
       <c r="D148" s="2" t="n">
-        <v>44316</v>
+        <v>44433</v>
       </c>
       <c r="E148" t="n">
         <v>7</v>
@@ -12200,11 +12200,11 @@
       </c>
       <c r="L148" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M148" t="n">
-        <v>160</v>
+        <v>180</v>
       </c>
       <c r="N148" t="n">
         <v>12000</v>
@@ -12217,7 +12217,7 @@
       </c>
       <c r="Q148" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="R148" t="inlineStr">
@@ -12226,10 +12226,10 @@
         </is>
       </c>
       <c r="S148" t="n">
-        <v>1200</v>
+        <v>667</v>
       </c>
       <c r="T148" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
     </row>
     <row r="149">
@@ -12280,20 +12280,20 @@
       </c>
       <c r="L149" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M149" t="n">
-        <v>200</v>
+        <v>160</v>
       </c>
       <c r="N149" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="O149" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="P149" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="Q149" t="inlineStr">
         <is>
@@ -12306,7 +12306,7 @@
         </is>
       </c>
       <c r="S149" t="n">
-        <v>1000</v>
+        <v>1200</v>
       </c>
       <c r="T149" t="n">
         <v>10</v>
@@ -12364,20 +12364,20 @@
         </is>
       </c>
       <c r="M150" t="n">
-        <v>190</v>
+        <v>200</v>
       </c>
       <c r="N150" t="n">
-        <v>13000</v>
+        <v>10000</v>
       </c>
       <c r="O150" t="n">
-        <v>13000</v>
+        <v>10000</v>
       </c>
       <c r="P150" t="n">
-        <v>13000</v>
+        <v>10000</v>
       </c>
       <c r="Q150" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R150" t="inlineStr">
@@ -12386,10 +12386,10 @@
         </is>
       </c>
       <c r="S150" t="n">
-        <v>722</v>
+        <v>1000</v>
       </c>
       <c r="T150" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="151">
@@ -12407,7 +12407,7 @@
         </is>
       </c>
       <c r="D151" s="2" t="n">
-        <v>44397</v>
+        <v>44316</v>
       </c>
       <c r="E151" t="n">
         <v>7</v>
@@ -12440,24 +12440,24 @@
       </c>
       <c r="L151" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M151" t="n">
         <v>190</v>
       </c>
       <c r="N151" t="n">
-        <v>14000</v>
+        <v>13000</v>
       </c>
       <c r="O151" t="n">
-        <v>14000</v>
+        <v>13000</v>
       </c>
       <c r="P151" t="n">
-        <v>14000</v>
+        <v>13000</v>
       </c>
       <c r="Q151" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="R151" t="inlineStr">
@@ -12466,7 +12466,7 @@
         </is>
       </c>
       <c r="S151" t="n">
-        <v>778</v>
+        <v>722</v>
       </c>
       <c r="T151" t="n">
         <v>18</v>
@@ -12524,16 +12524,16 @@
         </is>
       </c>
       <c r="M152" t="n">
-        <v>150</v>
+        <v>190</v>
       </c>
       <c r="N152" t="n">
-        <v>13000</v>
+        <v>14000</v>
       </c>
       <c r="O152" t="n">
-        <v>13000</v>
+        <v>14000</v>
       </c>
       <c r="P152" t="n">
-        <v>13000</v>
+        <v>14000</v>
       </c>
       <c r="Q152" t="inlineStr">
         <is>
@@ -12542,11 +12542,11 @@
       </c>
       <c r="R152" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S152" t="n">
-        <v>722</v>
+        <v>778</v>
       </c>
       <c r="T152" t="n">
         <v>18</v>
@@ -12600,20 +12600,20 @@
       </c>
       <c r="L153" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M153" t="n">
-        <v>480</v>
+        <v>150</v>
       </c>
       <c r="N153" t="n">
-        <v>9000</v>
+        <v>13000</v>
       </c>
       <c r="O153" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="P153" t="n">
-        <v>9479</v>
+        <v>13000</v>
       </c>
       <c r="Q153" t="inlineStr">
         <is>
@@ -12622,11 +12622,11 @@
       </c>
       <c r="R153" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S153" t="n">
-        <v>527</v>
+        <v>722</v>
       </c>
       <c r="T153" t="n">
         <v>18</v>
@@ -12647,7 +12647,7 @@
         </is>
       </c>
       <c r="D154" s="2" t="n">
-        <v>44363</v>
+        <v>44397</v>
       </c>
       <c r="E154" t="n">
         <v>7</v>
@@ -12684,16 +12684,16 @@
         </is>
       </c>
       <c r="M154" t="n">
-        <v>280</v>
+        <v>480</v>
       </c>
       <c r="N154" t="n">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="O154" t="n">
         <v>10000</v>
       </c>
       <c r="P154" t="n">
-        <v>10000</v>
+        <v>9479</v>
       </c>
       <c r="Q154" t="inlineStr">
         <is>
@@ -12702,11 +12702,11 @@
       </c>
       <c r="R154" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S154" t="n">
-        <v>556</v>
+        <v>527</v>
       </c>
       <c r="T154" t="n">
         <v>18</v>
@@ -12760,20 +12760,20 @@
       </c>
       <c r="L155" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M155" t="n">
-        <v>300</v>
+        <v>280</v>
       </c>
       <c r="N155" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="O155" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="P155" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="Q155" t="inlineStr">
         <is>
@@ -12786,7 +12786,7 @@
         </is>
       </c>
       <c r="S155" t="n">
-        <v>444</v>
+        <v>556</v>
       </c>
       <c r="T155" t="n">
         <v>18</v>
@@ -12807,7 +12807,7 @@
         </is>
       </c>
       <c r="D156" s="2" t="n">
-        <v>44438</v>
+        <v>44363</v>
       </c>
       <c r="E156" t="n">
         <v>7</v>
@@ -12840,20 +12840,20 @@
       </c>
       <c r="L156" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M156" t="n">
-        <v>230</v>
+        <v>300</v>
       </c>
       <c r="N156" t="n">
-        <v>13000</v>
+        <v>8000</v>
       </c>
       <c r="O156" t="n">
-        <v>13000</v>
+        <v>8000</v>
       </c>
       <c r="P156" t="n">
-        <v>13000</v>
+        <v>8000</v>
       </c>
       <c r="Q156" t="inlineStr">
         <is>
@@ -12862,11 +12862,11 @@
       </c>
       <c r="R156" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S156" t="n">
-        <v>722</v>
+        <v>444</v>
       </c>
       <c r="T156" t="n">
         <v>18</v>
@@ -12920,20 +12920,20 @@
       </c>
       <c r="L157" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M157" t="n">
-        <v>300</v>
+        <v>230</v>
       </c>
       <c r="N157" t="n">
-        <v>11000</v>
+        <v>13000</v>
       </c>
       <c r="O157" t="n">
-        <v>11000</v>
+        <v>13000</v>
       </c>
       <c r="P157" t="n">
-        <v>11000</v>
+        <v>13000</v>
       </c>
       <c r="Q157" t="inlineStr">
         <is>
@@ -12946,7 +12946,7 @@
         </is>
       </c>
       <c r="S157" t="n">
-        <v>611</v>
+        <v>722</v>
       </c>
       <c r="T157" t="n">
         <v>18</v>
@@ -12967,7 +12967,7 @@
         </is>
       </c>
       <c r="D158" s="2" t="n">
-        <v>44372</v>
+        <v>44438</v>
       </c>
       <c r="E158" t="n">
         <v>7</v>
@@ -13000,11 +13000,11 @@
       </c>
       <c r="L158" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M158" t="n">
-        <v>130</v>
+        <v>300</v>
       </c>
       <c r="N158" t="n">
         <v>11000</v>
@@ -13080,20 +13080,20 @@
       </c>
       <c r="L159" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M159" t="n">
-        <v>120</v>
+        <v>130</v>
       </c>
       <c r="N159" t="n">
-        <v>9000</v>
+        <v>11000</v>
       </c>
       <c r="O159" t="n">
-        <v>9000</v>
+        <v>11000</v>
       </c>
       <c r="P159" t="n">
-        <v>9000</v>
+        <v>11000</v>
       </c>
       <c r="Q159" t="inlineStr">
         <is>
@@ -13106,7 +13106,7 @@
         </is>
       </c>
       <c r="S159" t="n">
-        <v>500</v>
+        <v>611</v>
       </c>
       <c r="T159" t="n">
         <v>18</v>
@@ -13160,20 +13160,20 @@
       </c>
       <c r="L160" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M160" t="n">
-        <v>100</v>
+        <v>120</v>
       </c>
       <c r="N160" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="O160" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="P160" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="Q160" t="inlineStr">
         <is>
@@ -13186,7 +13186,7 @@
         </is>
       </c>
       <c r="S160" t="n">
-        <v>389</v>
+        <v>500</v>
       </c>
       <c r="T160" t="n">
         <v>18</v>
@@ -13207,7 +13207,7 @@
         </is>
       </c>
       <c r="D161" s="2" t="n">
-        <v>44356</v>
+        <v>44372</v>
       </c>
       <c r="E161" t="n">
         <v>7</v>
@@ -13240,20 +13240,20 @@
       </c>
       <c r="L161" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M161" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="N161" t="n">
-        <v>12000</v>
+        <v>7000</v>
       </c>
       <c r="O161" t="n">
-        <v>12000</v>
+        <v>7000</v>
       </c>
       <c r="P161" t="n">
-        <v>12000</v>
+        <v>7000</v>
       </c>
       <c r="Q161" t="inlineStr">
         <is>
@@ -13266,7 +13266,7 @@
         </is>
       </c>
       <c r="S161" t="n">
-        <v>667</v>
+        <v>389</v>
       </c>
       <c r="T161" t="n">
         <v>18</v>
@@ -13320,20 +13320,20 @@
       </c>
       <c r="L162" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M162" t="n">
-        <v>140</v>
+        <v>200</v>
       </c>
       <c r="N162" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="O162" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="P162" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="Q162" t="inlineStr">
         <is>
@@ -13346,7 +13346,7 @@
         </is>
       </c>
       <c r="S162" t="n">
-        <v>556</v>
+        <v>667</v>
       </c>
       <c r="T162" t="n">
         <v>18</v>
@@ -13400,20 +13400,20 @@
       </c>
       <c r="L163" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M163" t="n">
-        <v>80</v>
+        <v>140</v>
       </c>
       <c r="N163" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="O163" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="P163" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="Q163" t="inlineStr">
         <is>
@@ -13426,7 +13426,7 @@
         </is>
       </c>
       <c r="S163" t="n">
-        <v>444</v>
+        <v>556</v>
       </c>
       <c r="T163" t="n">
         <v>18</v>
@@ -13447,7 +13447,7 @@
         </is>
       </c>
       <c r="D164" s="2" t="n">
-        <v>44351</v>
+        <v>44356</v>
       </c>
       <c r="E164" t="n">
         <v>7</v>
@@ -13480,20 +13480,20 @@
       </c>
       <c r="L164" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M164" t="n">
-        <v>260</v>
+        <v>80</v>
       </c>
       <c r="N164" t="n">
-        <v>11000</v>
+        <v>8000</v>
       </c>
       <c r="O164" t="n">
-        <v>11000</v>
+        <v>8000</v>
       </c>
       <c r="P164" t="n">
-        <v>11000</v>
+        <v>8000</v>
       </c>
       <c r="Q164" t="inlineStr">
         <is>
@@ -13506,7 +13506,7 @@
         </is>
       </c>
       <c r="S164" t="n">
-        <v>611</v>
+        <v>444</v>
       </c>
       <c r="T164" t="n">
         <v>18</v>
@@ -13560,20 +13560,20 @@
       </c>
       <c r="L165" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M165" t="n">
-        <v>200</v>
+        <v>260</v>
       </c>
       <c r="N165" t="n">
-        <v>10000</v>
+        <v>11000</v>
       </c>
       <c r="O165" t="n">
-        <v>10000</v>
+        <v>11000</v>
       </c>
       <c r="P165" t="n">
-        <v>10000</v>
+        <v>11000</v>
       </c>
       <c r="Q165" t="inlineStr">
         <is>
@@ -13586,7 +13586,7 @@
         </is>
       </c>
       <c r="S165" t="n">
-        <v>556</v>
+        <v>611</v>
       </c>
       <c r="T165" t="n">
         <v>18</v>
@@ -13644,32 +13644,32 @@
         </is>
       </c>
       <c r="M166" t="n">
-        <v>230</v>
+        <v>200</v>
       </c>
       <c r="N166" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="O166" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="P166" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="Q166" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="R166" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S166" t="n">
-        <v>800</v>
+        <v>556</v>
       </c>
       <c r="T166" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
     </row>
     <row r="167">
@@ -13687,7 +13687,7 @@
         </is>
       </c>
       <c r="D167" s="2" t="n">
-        <v>44365</v>
+        <v>44351</v>
       </c>
       <c r="E167" t="n">
         <v>7</v>
@@ -13720,36 +13720,36 @@
       </c>
       <c r="L167" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M167" t="n">
-        <v>90</v>
+        <v>230</v>
       </c>
       <c r="N167" t="n">
-        <v>11000</v>
+        <v>8000</v>
       </c>
       <c r="O167" t="n">
-        <v>11000</v>
+        <v>8000</v>
       </c>
       <c r="P167" t="n">
-        <v>11000</v>
+        <v>8000</v>
       </c>
       <c r="Q167" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="R167" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S167" t="n">
-        <v>611</v>
+        <v>800</v>
       </c>
       <c r="T167" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="168">
@@ -13800,20 +13800,20 @@
       </c>
       <c r="L168" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M168" t="n">
-        <v>200</v>
+        <v>90</v>
       </c>
       <c r="N168" t="n">
-        <v>9000</v>
+        <v>11000</v>
       </c>
       <c r="O168" t="n">
-        <v>9000</v>
+        <v>11000</v>
       </c>
       <c r="P168" t="n">
-        <v>9000</v>
+        <v>11000</v>
       </c>
       <c r="Q168" t="inlineStr">
         <is>
@@ -13826,7 +13826,7 @@
         </is>
       </c>
       <c r="S168" t="n">
-        <v>500</v>
+        <v>611</v>
       </c>
       <c r="T168" t="n">
         <v>18</v>
@@ -13880,20 +13880,20 @@
       </c>
       <c r="L169" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M169" t="n">
-        <v>150</v>
+        <v>200</v>
       </c>
       <c r="N169" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="O169" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="P169" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="Q169" t="inlineStr">
         <is>
@@ -13906,7 +13906,7 @@
         </is>
       </c>
       <c r="S169" t="n">
-        <v>389</v>
+        <v>500</v>
       </c>
       <c r="T169" t="n">
         <v>18</v>
@@ -13927,7 +13927,7 @@
         </is>
       </c>
       <c r="D170" s="2" t="n">
-        <v>44306</v>
+        <v>44365</v>
       </c>
       <c r="E170" t="n">
         <v>7</v>
@@ -13960,24 +13960,24 @@
       </c>
       <c r="L170" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M170" t="n">
-        <v>230</v>
+        <v>150</v>
       </c>
       <c r="N170" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="O170" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="P170" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="Q170" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="R170" t="inlineStr">
@@ -13986,10 +13986,10 @@
         </is>
       </c>
       <c r="S170" t="n">
-        <v>1000</v>
+        <v>389</v>
       </c>
       <c r="T170" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
     </row>
     <row r="171">
@@ -14044,20 +14044,20 @@
         </is>
       </c>
       <c r="M171" t="n">
-        <v>180</v>
+        <v>230</v>
       </c>
       <c r="N171" t="n">
-        <v>13000</v>
+        <v>10000</v>
       </c>
       <c r="O171" t="n">
-        <v>13000</v>
+        <v>10000</v>
       </c>
       <c r="P171" t="n">
-        <v>13000</v>
+        <v>10000</v>
       </c>
       <c r="Q171" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R171" t="inlineStr">
@@ -14066,10 +14066,10 @@
         </is>
       </c>
       <c r="S171" t="n">
-        <v>722</v>
+        <v>1000</v>
       </c>
       <c r="T171" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="172">
@@ -14120,24 +14120,24 @@
       </c>
       <c r="L172" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M172" t="n">
-        <v>230</v>
+        <v>180</v>
       </c>
       <c r="N172" t="n">
-        <v>8000</v>
+        <v>13000</v>
       </c>
       <c r="O172" t="n">
-        <v>8000</v>
+        <v>13000</v>
       </c>
       <c r="P172" t="n">
-        <v>8000</v>
+        <v>13000</v>
       </c>
       <c r="Q172" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="R172" t="inlineStr">
@@ -14146,10 +14146,10 @@
         </is>
       </c>
       <c r="S172" t="n">
-        <v>800</v>
+        <v>722</v>
       </c>
       <c r="T172" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
     </row>
     <row r="173">
@@ -14167,7 +14167,7 @@
         </is>
       </c>
       <c r="D173" s="2" t="n">
-        <v>44461</v>
+        <v>44306</v>
       </c>
       <c r="E173" t="n">
         <v>7</v>
@@ -14200,24 +14200,24 @@
       </c>
       <c r="L173" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M173" t="n">
-        <v>200</v>
+        <v>230</v>
       </c>
       <c r="N173" t="n">
-        <v>12000</v>
+        <v>8000</v>
       </c>
       <c r="O173" t="n">
-        <v>12000</v>
+        <v>8000</v>
       </c>
       <c r="P173" t="n">
-        <v>12000</v>
+        <v>8000</v>
       </c>
       <c r="Q173" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R173" t="inlineStr">
@@ -14226,10 +14226,10 @@
         </is>
       </c>
       <c r="S173" t="n">
-        <v>667</v>
+        <v>800</v>
       </c>
       <c r="T173" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="174">
@@ -14280,20 +14280,20 @@
       </c>
       <c r="L174" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M174" t="n">
-        <v>150</v>
+        <v>200</v>
       </c>
       <c r="N174" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="O174" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="P174" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="Q174" t="inlineStr">
         <is>
@@ -14306,7 +14306,7 @@
         </is>
       </c>
       <c r="S174" t="n">
-        <v>556</v>
+        <v>667</v>
       </c>
       <c r="T174" t="n">
         <v>18</v>
@@ -14327,7 +14327,7 @@
         </is>
       </c>
       <c r="D175" s="2" t="n">
-        <v>44357</v>
+        <v>44461</v>
       </c>
       <c r="E175" t="n">
         <v>7</v>
@@ -14360,20 +14360,20 @@
       </c>
       <c r="L175" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M175" t="n">
-        <v>130</v>
+        <v>150</v>
       </c>
       <c r="N175" t="n">
-        <v>13000</v>
+        <v>10000</v>
       </c>
       <c r="O175" t="n">
-        <v>13000</v>
+        <v>10000</v>
       </c>
       <c r="P175" t="n">
-        <v>13000</v>
+        <v>10000</v>
       </c>
       <c r="Q175" t="inlineStr">
         <is>
@@ -14386,7 +14386,7 @@
         </is>
       </c>
       <c r="S175" t="n">
-        <v>722</v>
+        <v>556</v>
       </c>
       <c r="T175" t="n">
         <v>18</v>
@@ -14440,20 +14440,20 @@
       </c>
       <c r="L176" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M176" t="n">
-        <v>190</v>
+        <v>130</v>
       </c>
       <c r="N176" t="n">
-        <v>11000</v>
+        <v>13000</v>
       </c>
       <c r="O176" t="n">
-        <v>11000</v>
+        <v>13000</v>
       </c>
       <c r="P176" t="n">
-        <v>11000</v>
+        <v>13000</v>
       </c>
       <c r="Q176" t="inlineStr">
         <is>
@@ -14466,7 +14466,7 @@
         </is>
       </c>
       <c r="S176" t="n">
-        <v>611</v>
+        <v>722</v>
       </c>
       <c r="T176" t="n">
         <v>18</v>
@@ -14487,7 +14487,7 @@
         </is>
       </c>
       <c r="D177" s="2" t="n">
-        <v>44410</v>
+        <v>44357</v>
       </c>
       <c r="E177" t="n">
         <v>7</v>
@@ -14524,16 +14524,16 @@
         </is>
       </c>
       <c r="M177" t="n">
-        <v>230</v>
+        <v>190</v>
       </c>
       <c r="N177" t="n">
-        <v>12000</v>
+        <v>11000</v>
       </c>
       <c r="O177" t="n">
-        <v>12000</v>
+        <v>11000</v>
       </c>
       <c r="P177" t="n">
-        <v>12000</v>
+        <v>11000</v>
       </c>
       <c r="Q177" t="inlineStr">
         <is>
@@ -14546,7 +14546,7 @@
         </is>
       </c>
       <c r="S177" t="n">
-        <v>667</v>
+        <v>611</v>
       </c>
       <c r="T177" t="n">
         <v>18</v>
@@ -14607,17 +14607,17 @@
         <v>230</v>
       </c>
       <c r="N178" t="n">
-        <v>7000</v>
+        <v>12000</v>
       </c>
       <c r="O178" t="n">
-        <v>7000</v>
+        <v>12000</v>
       </c>
       <c r="P178" t="n">
-        <v>7000</v>
+        <v>12000</v>
       </c>
       <c r="Q178" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="R178" t="inlineStr">
@@ -14626,10 +14626,10 @@
         </is>
       </c>
       <c r="S178" t="n">
-        <v>700</v>
+        <v>667</v>
       </c>
       <c r="T178" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
     </row>
     <row r="179">
@@ -14647,7 +14647,7 @@
         </is>
       </c>
       <c r="D179" s="2" t="n">
-        <v>44376</v>
+        <v>44410</v>
       </c>
       <c r="E179" t="n">
         <v>7</v>
@@ -14684,20 +14684,20 @@
         </is>
       </c>
       <c r="M179" t="n">
-        <v>260</v>
+        <v>230</v>
       </c>
       <c r="N179" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="O179" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="P179" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="Q179" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="R179" t="inlineStr">
@@ -14706,10 +14706,10 @@
         </is>
       </c>
       <c r="S179" t="n">
-        <v>500</v>
+        <v>700</v>
       </c>
       <c r="T179" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="180">
@@ -14727,7 +14727,7 @@
         </is>
       </c>
       <c r="D180" s="2" t="n">
-        <v>44358</v>
+        <v>44376</v>
       </c>
       <c r="E180" t="n">
         <v>7</v>
@@ -14760,20 +14760,20 @@
       </c>
       <c r="L180" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M180" t="n">
-        <v>230</v>
+        <v>260</v>
       </c>
       <c r="N180" t="n">
-        <v>13000</v>
+        <v>9000</v>
       </c>
       <c r="O180" t="n">
-        <v>13000</v>
+        <v>9000</v>
       </c>
       <c r="P180" t="n">
-        <v>13000</v>
+        <v>9000</v>
       </c>
       <c r="Q180" t="inlineStr">
         <is>
@@ -14786,7 +14786,7 @@
         </is>
       </c>
       <c r="S180" t="n">
-        <v>722</v>
+        <v>500</v>
       </c>
       <c r="T180" t="n">
         <v>18</v>
@@ -14844,20 +14844,20 @@
         </is>
       </c>
       <c r="M181" t="n">
-        <v>250</v>
+        <v>230</v>
       </c>
       <c r="N181" t="n">
-        <v>9000</v>
+        <v>13000</v>
       </c>
       <c r="O181" t="n">
-        <v>9000</v>
+        <v>13000</v>
       </c>
       <c r="P181" t="n">
-        <v>9000</v>
+        <v>13000</v>
       </c>
       <c r="Q181" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="R181" t="inlineStr">
@@ -14866,10 +14866,10 @@
         </is>
       </c>
       <c r="S181" t="n">
-        <v>900</v>
+        <v>722</v>
       </c>
       <c r="T181" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
     </row>
     <row r="182">
@@ -14920,24 +14920,24 @@
       </c>
       <c r="L182" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M182" t="n">
-        <v>210</v>
+        <v>250</v>
       </c>
       <c r="N182" t="n">
-        <v>11000</v>
+        <v>9000</v>
       </c>
       <c r="O182" t="n">
-        <v>11000</v>
+        <v>9000</v>
       </c>
       <c r="P182" t="n">
-        <v>11000</v>
+        <v>9000</v>
       </c>
       <c r="Q182" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="R182" t="inlineStr">
@@ -14946,10 +14946,10 @@
         </is>
       </c>
       <c r="S182" t="n">
-        <v>611</v>
+        <v>900</v>
       </c>
       <c r="T182" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="183">
@@ -15004,20 +15004,20 @@
         </is>
       </c>
       <c r="M183" t="n">
-        <v>200</v>
+        <v>210</v>
       </c>
       <c r="N183" t="n">
-        <v>7000</v>
+        <v>11000</v>
       </c>
       <c r="O183" t="n">
-        <v>7000</v>
+        <v>11000</v>
       </c>
       <c r="P183" t="n">
-        <v>7000</v>
+        <v>11000</v>
       </c>
       <c r="Q183" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="R183" t="inlineStr">
@@ -15026,10 +15026,10 @@
         </is>
       </c>
       <c r="S183" t="n">
-        <v>700</v>
+        <v>611</v>
       </c>
       <c r="T183" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
     </row>
     <row r="184">
@@ -15080,24 +15080,24 @@
       </c>
       <c r="L184" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M184" t="n">
-        <v>190</v>
+        <v>200</v>
       </c>
       <c r="N184" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="O184" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="P184" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="Q184" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="R184" t="inlineStr">
@@ -15106,10 +15106,10 @@
         </is>
       </c>
       <c r="S184" t="n">
-        <v>500</v>
+        <v>700</v>
       </c>
       <c r="T184" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="185">
@@ -15127,7 +15127,7 @@
         </is>
       </c>
       <c r="D185" s="2" t="n">
-        <v>44425</v>
+        <v>44358</v>
       </c>
       <c r="E185" t="n">
         <v>7</v>
@@ -15164,16 +15164,16 @@
         </is>
       </c>
       <c r="M185" t="n">
-        <v>300</v>
+        <v>190</v>
       </c>
       <c r="N185" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="O185" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="P185" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="Q185" t="inlineStr">
         <is>
@@ -15186,7 +15186,7 @@
         </is>
       </c>
       <c r="S185" t="n">
-        <v>444</v>
+        <v>500</v>
       </c>
       <c r="T185" t="n">
         <v>18</v>
@@ -15207,7 +15207,7 @@
         </is>
       </c>
       <c r="D186" s="2" t="n">
-        <v>44323</v>
+        <v>44425</v>
       </c>
       <c r="E186" t="n">
         <v>7</v>
@@ -15240,24 +15240,24 @@
       </c>
       <c r="L186" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M186" t="n">
-        <v>150</v>
+        <v>300</v>
       </c>
       <c r="N186" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="O186" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="P186" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="Q186" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="R186" t="inlineStr">
@@ -15266,10 +15266,10 @@
         </is>
       </c>
       <c r="S186" t="n">
-        <v>1000</v>
+        <v>444</v>
       </c>
       <c r="T186" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
     </row>
     <row r="187">
@@ -15320,35 +15320,115 @@
       </c>
       <c r="L187" t="inlineStr">
         <is>
+          <t>Especial</t>
+        </is>
+      </c>
+      <c r="M187" t="n">
+        <v>150</v>
+      </c>
+      <c r="N187" t="n">
+        <v>10000</v>
+      </c>
+      <c r="O187" t="n">
+        <v>10000</v>
+      </c>
+      <c r="P187" t="n">
+        <v>10000</v>
+      </c>
+      <c r="Q187" t="inlineStr">
+        <is>
+          <t>$/bandeja 10 kilos</t>
+        </is>
+      </c>
+      <c r="R187" t="inlineStr">
+        <is>
+          <t>Provincia de Curicó</t>
+        </is>
+      </c>
+      <c r="S187" t="n">
+        <v>1000</v>
+      </c>
+      <c r="T187" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" t="n">
+        <v>5</v>
+      </c>
+      <c r="B188" t="inlineStr">
+        <is>
+          <t>Macroferia Regional de Talca</t>
+        </is>
+      </c>
+      <c r="C188" t="inlineStr">
+        <is>
+          <t>Maule</t>
+        </is>
+      </c>
+      <c r="D188" s="2" t="n">
+        <v>44323</v>
+      </c>
+      <c r="E188" t="n">
+        <v>7</v>
+      </c>
+      <c r="F188" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G188" t="n">
+        <v>100101</v>
+      </c>
+      <c r="H188" t="inlineStr">
+        <is>
+          <t>Berries</t>
+        </is>
+      </c>
+      <c r="I188" t="n">
+        <v>100101007</v>
+      </c>
+      <c r="J188" t="inlineStr">
+        <is>
+          <t>Kiwi</t>
+        </is>
+      </c>
+      <c r="K188" t="inlineStr">
+        <is>
+          <t>Hayward</t>
+        </is>
+      </c>
+      <c r="L188" t="inlineStr">
+        <is>
           <t>Primera</t>
         </is>
       </c>
-      <c r="M187" t="n">
+      <c r="M188" t="n">
         <v>100</v>
       </c>
-      <c r="N187" t="n">
+      <c r="N188" t="n">
         <v>9000</v>
       </c>
-      <c r="O187" t="n">
+      <c r="O188" t="n">
         <v>9000</v>
       </c>
-      <c r="P187" t="n">
+      <c r="P188" t="n">
         <v>9000</v>
       </c>
-      <c r="Q187" t="inlineStr">
+      <c r="Q188" t="inlineStr">
         <is>
           <t>$/bandeja 10 kilos</t>
         </is>
       </c>
-      <c r="R187" t="inlineStr">
-        <is>
-          <t>Provincia de Curicó</t>
-        </is>
-      </c>
-      <c r="S187" t="n">
+      <c r="R188" t="inlineStr">
+        <is>
+          <t>Provincia de Curicó</t>
+        </is>
+      </c>
+      <c r="S188" t="n">
         <v>900</v>
       </c>
-      <c r="T187" t="n">
+      <c r="T188" t="n">
         <v>10</v>
       </c>
     </row>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Macroferia Regional de Talca - Kiwi.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Macroferia Regional de Talca - Kiwi.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T188"/>
+  <dimension ref="A1:T189"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -11127,7 +11127,7 @@
         </is>
       </c>
       <c r="D135" s="2" t="n">
-        <v>44389</v>
+        <v>44466</v>
       </c>
       <c r="E135" t="n">
         <v>7</v>
@@ -11164,20 +11164,20 @@
         </is>
       </c>
       <c r="M135" t="n">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="N135" t="n">
-        <v>6000</v>
+        <v>10000</v>
       </c>
       <c r="O135" t="n">
-        <v>6000</v>
+        <v>10000</v>
       </c>
       <c r="P135" t="n">
-        <v>6000</v>
+        <v>10000</v>
       </c>
       <c r="Q135" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="R135" t="inlineStr">
@@ -11186,10 +11186,10 @@
         </is>
       </c>
       <c r="S135" t="n">
-        <v>600</v>
+        <v>556</v>
       </c>
       <c r="T135" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
     </row>
     <row r="136">
@@ -11207,7 +11207,7 @@
         </is>
       </c>
       <c r="D136" s="2" t="n">
-        <v>44343</v>
+        <v>44389</v>
       </c>
       <c r="E136" t="n">
         <v>7</v>
@@ -11240,24 +11240,24 @@
       </c>
       <c r="L136" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M136" t="n">
-        <v>120</v>
+        <v>300</v>
       </c>
       <c r="N136" t="n">
-        <v>10000</v>
+        <v>6000</v>
       </c>
       <c r="O136" t="n">
-        <v>10000</v>
+        <v>6000</v>
       </c>
       <c r="P136" t="n">
-        <v>10000</v>
+        <v>6000</v>
       </c>
       <c r="Q136" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="R136" t="inlineStr">
@@ -11266,10 +11266,10 @@
         </is>
       </c>
       <c r="S136" t="n">
-        <v>556</v>
+        <v>600</v>
       </c>
       <c r="T136" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="137">
@@ -11320,20 +11320,20 @@
       </c>
       <c r="L137" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M137" t="n">
-        <v>160</v>
+        <v>120</v>
       </c>
       <c r="N137" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="O137" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="P137" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="Q137" t="inlineStr">
         <is>
@@ -11346,7 +11346,7 @@
         </is>
       </c>
       <c r="S137" t="n">
-        <v>500</v>
+        <v>556</v>
       </c>
       <c r="T137" t="n">
         <v>18</v>
@@ -11367,7 +11367,7 @@
         </is>
       </c>
       <c r="D138" s="2" t="n">
-        <v>44280</v>
+        <v>44343</v>
       </c>
       <c r="E138" t="n">
         <v>7</v>
@@ -11404,20 +11404,20 @@
         </is>
       </c>
       <c r="M138" t="n">
-        <v>100</v>
+        <v>160</v>
       </c>
       <c r="N138" t="n">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="O138" t="n">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="P138" t="n">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="Q138" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="R138" t="inlineStr">
@@ -11426,10 +11426,10 @@
         </is>
       </c>
       <c r="S138" t="n">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="T138" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
     </row>
     <row r="139">
@@ -11480,20 +11480,20 @@
       </c>
       <c r="L139" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M139" t="n">
-        <v>60</v>
+        <v>100</v>
       </c>
       <c r="N139" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="O139" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="P139" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="Q139" t="inlineStr">
         <is>
@@ -11506,7 +11506,7 @@
         </is>
       </c>
       <c r="S139" t="n">
-        <v>800</v>
+        <v>1000</v>
       </c>
       <c r="T139" t="n">
         <v>10</v>
@@ -11527,7 +11527,7 @@
         </is>
       </c>
       <c r="D140" s="2" t="n">
-        <v>44390</v>
+        <v>44280</v>
       </c>
       <c r="E140" t="n">
         <v>7</v>
@@ -11560,24 +11560,24 @@
       </c>
       <c r="L140" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M140" t="n">
-        <v>250</v>
+        <v>60</v>
       </c>
       <c r="N140" t="n">
-        <v>9000</v>
+        <v>8000</v>
       </c>
       <c r="O140" t="n">
-        <v>9000</v>
+        <v>8000</v>
       </c>
       <c r="P140" t="n">
-        <v>9000</v>
+        <v>8000</v>
       </c>
       <c r="Q140" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="R140" t="inlineStr">
@@ -11586,10 +11586,10 @@
         </is>
       </c>
       <c r="S140" t="n">
-        <v>500</v>
+        <v>800</v>
       </c>
       <c r="T140" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="141">
@@ -11607,7 +11607,7 @@
         </is>
       </c>
       <c r="D141" s="2" t="n">
-        <v>44386</v>
+        <v>44390</v>
       </c>
       <c r="E141" t="n">
         <v>7</v>
@@ -11644,20 +11644,20 @@
         </is>
       </c>
       <c r="M141" t="n">
-        <v>300</v>
+        <v>250</v>
       </c>
       <c r="N141" t="n">
-        <v>6000</v>
+        <v>9000</v>
       </c>
       <c r="O141" t="n">
-        <v>6000</v>
+        <v>9000</v>
       </c>
       <c r="P141" t="n">
-        <v>6000</v>
+        <v>9000</v>
       </c>
       <c r="Q141" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="R141" t="inlineStr">
@@ -11666,10 +11666,10 @@
         </is>
       </c>
       <c r="S141" t="n">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="T141" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
     </row>
     <row r="142">
@@ -11687,7 +11687,7 @@
         </is>
       </c>
       <c r="D142" s="2" t="n">
-        <v>44308</v>
+        <v>44386</v>
       </c>
       <c r="E142" t="n">
         <v>7</v>
@@ -11720,24 +11720,24 @@
       </c>
       <c r="L142" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M142" t="n">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="N142" t="n">
-        <v>14000</v>
+        <v>6000</v>
       </c>
       <c r="O142" t="n">
-        <v>14000</v>
+        <v>6000</v>
       </c>
       <c r="P142" t="n">
-        <v>14000</v>
+        <v>6000</v>
       </c>
       <c r="Q142" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="R142" t="inlineStr">
@@ -11746,10 +11746,10 @@
         </is>
       </c>
       <c r="S142" t="n">
-        <v>778</v>
+        <v>600</v>
       </c>
       <c r="T142" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="143">
@@ -11767,7 +11767,7 @@
         </is>
       </c>
       <c r="D143" s="2" t="n">
-        <v>44369</v>
+        <v>44308</v>
       </c>
       <c r="E143" t="n">
         <v>7</v>
@@ -11804,20 +11804,20 @@
         </is>
       </c>
       <c r="M143" t="n">
-        <v>230</v>
+        <v>100</v>
       </c>
       <c r="N143" t="n">
-        <v>8000</v>
+        <v>14000</v>
       </c>
       <c r="O143" t="n">
-        <v>8000</v>
+        <v>14000</v>
       </c>
       <c r="P143" t="n">
-        <v>8000</v>
+        <v>14000</v>
       </c>
       <c r="Q143" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="R143" t="inlineStr">
@@ -11826,10 +11826,10 @@
         </is>
       </c>
       <c r="S143" t="n">
-        <v>800</v>
+        <v>778</v>
       </c>
       <c r="T143" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
     </row>
     <row r="144">
@@ -11884,20 +11884,20 @@
         </is>
       </c>
       <c r="M144" t="n">
-        <v>100</v>
+        <v>230</v>
       </c>
       <c r="N144" t="n">
-        <v>12000</v>
+        <v>8000</v>
       </c>
       <c r="O144" t="n">
-        <v>12000</v>
+        <v>8000</v>
       </c>
       <c r="P144" t="n">
-        <v>12000</v>
+        <v>8000</v>
       </c>
       <c r="Q144" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R144" t="inlineStr">
@@ -11906,10 +11906,10 @@
         </is>
       </c>
       <c r="S144" t="n">
-        <v>667</v>
+        <v>800</v>
       </c>
       <c r="T144" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="145">
@@ -11960,24 +11960,24 @@
       </c>
       <c r="L145" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M145" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="N145" t="n">
-        <v>6000</v>
+        <v>12000</v>
       </c>
       <c r="O145" t="n">
-        <v>6000</v>
+        <v>12000</v>
       </c>
       <c r="P145" t="n">
-        <v>6000</v>
+        <v>12000</v>
       </c>
       <c r="Q145" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="R145" t="inlineStr">
@@ -11986,10 +11986,10 @@
         </is>
       </c>
       <c r="S145" t="n">
-        <v>600</v>
+        <v>667</v>
       </c>
       <c r="T145" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
     </row>
     <row r="146">
@@ -12044,20 +12044,20 @@
         </is>
       </c>
       <c r="M146" t="n">
-        <v>180</v>
+        <v>200</v>
       </c>
       <c r="N146" t="n">
-        <v>10000</v>
+        <v>6000</v>
       </c>
       <c r="O146" t="n">
-        <v>10000</v>
+        <v>6000</v>
       </c>
       <c r="P146" t="n">
-        <v>10000</v>
+        <v>6000</v>
       </c>
       <c r="Q146" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R146" t="inlineStr">
@@ -12066,10 +12066,10 @@
         </is>
       </c>
       <c r="S146" t="n">
-        <v>556</v>
+        <v>600</v>
       </c>
       <c r="T146" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="147">
@@ -12087,7 +12087,7 @@
         </is>
       </c>
       <c r="D147" s="2" t="n">
-        <v>44433</v>
+        <v>44369</v>
       </c>
       <c r="E147" t="n">
         <v>7</v>
@@ -12120,24 +12120,24 @@
       </c>
       <c r="L147" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M147" t="n">
-        <v>120</v>
+        <v>180</v>
       </c>
       <c r="N147" t="n">
-        <v>14000</v>
+        <v>10000</v>
       </c>
       <c r="O147" t="n">
-        <v>14000</v>
+        <v>10000</v>
       </c>
       <c r="P147" t="n">
-        <v>14000</v>
+        <v>10000</v>
       </c>
       <c r="Q147" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="R147" t="inlineStr">
@@ -12146,7 +12146,7 @@
         </is>
       </c>
       <c r="S147" t="n">
-        <v>778</v>
+        <v>556</v>
       </c>
       <c r="T147" t="n">
         <v>18</v>
@@ -12200,20 +12200,20 @@
       </c>
       <c r="L148" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M148" t="n">
-        <v>180</v>
+        <v>120</v>
       </c>
       <c r="N148" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="O148" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="P148" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="Q148" t="inlineStr">
         <is>
@@ -12226,7 +12226,7 @@
         </is>
       </c>
       <c r="S148" t="n">
-        <v>667</v>
+        <v>778</v>
       </c>
       <c r="T148" t="n">
         <v>18</v>
@@ -12247,7 +12247,7 @@
         </is>
       </c>
       <c r="D149" s="2" t="n">
-        <v>44316</v>
+        <v>44433</v>
       </c>
       <c r="E149" t="n">
         <v>7</v>
@@ -12280,11 +12280,11 @@
       </c>
       <c r="L149" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M149" t="n">
-        <v>160</v>
+        <v>180</v>
       </c>
       <c r="N149" t="n">
         <v>12000</v>
@@ -12297,7 +12297,7 @@
       </c>
       <c r="Q149" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="R149" t="inlineStr">
@@ -12306,10 +12306,10 @@
         </is>
       </c>
       <c r="S149" t="n">
-        <v>1200</v>
+        <v>667</v>
       </c>
       <c r="T149" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
     </row>
     <row r="150">
@@ -12360,20 +12360,20 @@
       </c>
       <c r="L150" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M150" t="n">
-        <v>200</v>
+        <v>160</v>
       </c>
       <c r="N150" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="O150" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="P150" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="Q150" t="inlineStr">
         <is>
@@ -12386,7 +12386,7 @@
         </is>
       </c>
       <c r="S150" t="n">
-        <v>1000</v>
+        <v>1200</v>
       </c>
       <c r="T150" t="n">
         <v>10</v>
@@ -12444,20 +12444,20 @@
         </is>
       </c>
       <c r="M151" t="n">
-        <v>190</v>
+        <v>200</v>
       </c>
       <c r="N151" t="n">
-        <v>13000</v>
+        <v>10000</v>
       </c>
       <c r="O151" t="n">
-        <v>13000</v>
+        <v>10000</v>
       </c>
       <c r="P151" t="n">
-        <v>13000</v>
+        <v>10000</v>
       </c>
       <c r="Q151" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R151" t="inlineStr">
@@ -12466,10 +12466,10 @@
         </is>
       </c>
       <c r="S151" t="n">
-        <v>722</v>
+        <v>1000</v>
       </c>
       <c r="T151" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="152">
@@ -12487,7 +12487,7 @@
         </is>
       </c>
       <c r="D152" s="2" t="n">
-        <v>44397</v>
+        <v>44316</v>
       </c>
       <c r="E152" t="n">
         <v>7</v>
@@ -12520,24 +12520,24 @@
       </c>
       <c r="L152" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M152" t="n">
         <v>190</v>
       </c>
       <c r="N152" t="n">
-        <v>14000</v>
+        <v>13000</v>
       </c>
       <c r="O152" t="n">
-        <v>14000</v>
+        <v>13000</v>
       </c>
       <c r="P152" t="n">
-        <v>14000</v>
+        <v>13000</v>
       </c>
       <c r="Q152" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="R152" t="inlineStr">
@@ -12546,7 +12546,7 @@
         </is>
       </c>
       <c r="S152" t="n">
-        <v>778</v>
+        <v>722</v>
       </c>
       <c r="T152" t="n">
         <v>18</v>
@@ -12604,16 +12604,16 @@
         </is>
       </c>
       <c r="M153" t="n">
-        <v>150</v>
+        <v>190</v>
       </c>
       <c r="N153" t="n">
-        <v>13000</v>
+        <v>14000</v>
       </c>
       <c r="O153" t="n">
-        <v>13000</v>
+        <v>14000</v>
       </c>
       <c r="P153" t="n">
-        <v>13000</v>
+        <v>14000</v>
       </c>
       <c r="Q153" t="inlineStr">
         <is>
@@ -12622,11 +12622,11 @@
       </c>
       <c r="R153" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S153" t="n">
-        <v>722</v>
+        <v>778</v>
       </c>
       <c r="T153" t="n">
         <v>18</v>
@@ -12680,20 +12680,20 @@
       </c>
       <c r="L154" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M154" t="n">
-        <v>480</v>
+        <v>150</v>
       </c>
       <c r="N154" t="n">
-        <v>9000</v>
+        <v>13000</v>
       </c>
       <c r="O154" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="P154" t="n">
-        <v>9479</v>
+        <v>13000</v>
       </c>
       <c r="Q154" t="inlineStr">
         <is>
@@ -12702,11 +12702,11 @@
       </c>
       <c r="R154" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S154" t="n">
-        <v>527</v>
+        <v>722</v>
       </c>
       <c r="T154" t="n">
         <v>18</v>
@@ -12727,7 +12727,7 @@
         </is>
       </c>
       <c r="D155" s="2" t="n">
-        <v>44363</v>
+        <v>44397</v>
       </c>
       <c r="E155" t="n">
         <v>7</v>
@@ -12764,16 +12764,16 @@
         </is>
       </c>
       <c r="M155" t="n">
-        <v>280</v>
+        <v>480</v>
       </c>
       <c r="N155" t="n">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="O155" t="n">
         <v>10000</v>
       </c>
       <c r="P155" t="n">
-        <v>10000</v>
+        <v>9479</v>
       </c>
       <c r="Q155" t="inlineStr">
         <is>
@@ -12782,11 +12782,11 @@
       </c>
       <c r="R155" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S155" t="n">
-        <v>556</v>
+        <v>527</v>
       </c>
       <c r="T155" t="n">
         <v>18</v>
@@ -12840,20 +12840,20 @@
       </c>
       <c r="L156" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M156" t="n">
-        <v>300</v>
+        <v>280</v>
       </c>
       <c r="N156" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="O156" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="P156" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="Q156" t="inlineStr">
         <is>
@@ -12866,7 +12866,7 @@
         </is>
       </c>
       <c r="S156" t="n">
-        <v>444</v>
+        <v>556</v>
       </c>
       <c r="T156" t="n">
         <v>18</v>
@@ -12887,7 +12887,7 @@
         </is>
       </c>
       <c r="D157" s="2" t="n">
-        <v>44438</v>
+        <v>44363</v>
       </c>
       <c r="E157" t="n">
         <v>7</v>
@@ -12920,20 +12920,20 @@
       </c>
       <c r="L157" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M157" t="n">
-        <v>230</v>
+        <v>300</v>
       </c>
       <c r="N157" t="n">
-        <v>13000</v>
+        <v>8000</v>
       </c>
       <c r="O157" t="n">
-        <v>13000</v>
+        <v>8000</v>
       </c>
       <c r="P157" t="n">
-        <v>13000</v>
+        <v>8000</v>
       </c>
       <c r="Q157" t="inlineStr">
         <is>
@@ -12942,11 +12942,11 @@
       </c>
       <c r="R157" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S157" t="n">
-        <v>722</v>
+        <v>444</v>
       </c>
       <c r="T157" t="n">
         <v>18</v>
@@ -13000,20 +13000,20 @@
       </c>
       <c r="L158" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M158" t="n">
-        <v>300</v>
+        <v>230</v>
       </c>
       <c r="N158" t="n">
-        <v>11000</v>
+        <v>13000</v>
       </c>
       <c r="O158" t="n">
-        <v>11000</v>
+        <v>13000</v>
       </c>
       <c r="P158" t="n">
-        <v>11000</v>
+        <v>13000</v>
       </c>
       <c r="Q158" t="inlineStr">
         <is>
@@ -13026,7 +13026,7 @@
         </is>
       </c>
       <c r="S158" t="n">
-        <v>611</v>
+        <v>722</v>
       </c>
       <c r="T158" t="n">
         <v>18</v>
@@ -13047,7 +13047,7 @@
         </is>
       </c>
       <c r="D159" s="2" t="n">
-        <v>44372</v>
+        <v>44438</v>
       </c>
       <c r="E159" t="n">
         <v>7</v>
@@ -13080,11 +13080,11 @@
       </c>
       <c r="L159" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M159" t="n">
-        <v>130</v>
+        <v>300</v>
       </c>
       <c r="N159" t="n">
         <v>11000</v>
@@ -13160,20 +13160,20 @@
       </c>
       <c r="L160" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M160" t="n">
-        <v>120</v>
+        <v>130</v>
       </c>
       <c r="N160" t="n">
-        <v>9000</v>
+        <v>11000</v>
       </c>
       <c r="O160" t="n">
-        <v>9000</v>
+        <v>11000</v>
       </c>
       <c r="P160" t="n">
-        <v>9000</v>
+        <v>11000</v>
       </c>
       <c r="Q160" t="inlineStr">
         <is>
@@ -13186,7 +13186,7 @@
         </is>
       </c>
       <c r="S160" t="n">
-        <v>500</v>
+        <v>611</v>
       </c>
       <c r="T160" t="n">
         <v>18</v>
@@ -13240,20 +13240,20 @@
       </c>
       <c r="L161" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M161" t="n">
-        <v>100</v>
+        <v>120</v>
       </c>
       <c r="N161" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="O161" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="P161" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="Q161" t="inlineStr">
         <is>
@@ -13266,7 +13266,7 @@
         </is>
       </c>
       <c r="S161" t="n">
-        <v>389</v>
+        <v>500</v>
       </c>
       <c r="T161" t="n">
         <v>18</v>
@@ -13287,7 +13287,7 @@
         </is>
       </c>
       <c r="D162" s="2" t="n">
-        <v>44356</v>
+        <v>44372</v>
       </c>
       <c r="E162" t="n">
         <v>7</v>
@@ -13320,20 +13320,20 @@
       </c>
       <c r="L162" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M162" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="N162" t="n">
-        <v>12000</v>
+        <v>7000</v>
       </c>
       <c r="O162" t="n">
-        <v>12000</v>
+        <v>7000</v>
       </c>
       <c r="P162" t="n">
-        <v>12000</v>
+        <v>7000</v>
       </c>
       <c r="Q162" t="inlineStr">
         <is>
@@ -13346,7 +13346,7 @@
         </is>
       </c>
       <c r="S162" t="n">
-        <v>667</v>
+        <v>389</v>
       </c>
       <c r="T162" t="n">
         <v>18</v>
@@ -13400,20 +13400,20 @@
       </c>
       <c r="L163" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M163" t="n">
-        <v>140</v>
+        <v>200</v>
       </c>
       <c r="N163" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="O163" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="P163" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="Q163" t="inlineStr">
         <is>
@@ -13426,7 +13426,7 @@
         </is>
       </c>
       <c r="S163" t="n">
-        <v>556</v>
+        <v>667</v>
       </c>
       <c r="T163" t="n">
         <v>18</v>
@@ -13480,20 +13480,20 @@
       </c>
       <c r="L164" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M164" t="n">
-        <v>80</v>
+        <v>140</v>
       </c>
       <c r="N164" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="O164" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="P164" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="Q164" t="inlineStr">
         <is>
@@ -13506,7 +13506,7 @@
         </is>
       </c>
       <c r="S164" t="n">
-        <v>444</v>
+        <v>556</v>
       </c>
       <c r="T164" t="n">
         <v>18</v>
@@ -13527,7 +13527,7 @@
         </is>
       </c>
       <c r="D165" s="2" t="n">
-        <v>44351</v>
+        <v>44356</v>
       </c>
       <c r="E165" t="n">
         <v>7</v>
@@ -13560,20 +13560,20 @@
       </c>
       <c r="L165" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M165" t="n">
-        <v>260</v>
+        <v>80</v>
       </c>
       <c r="N165" t="n">
-        <v>11000</v>
+        <v>8000</v>
       </c>
       <c r="O165" t="n">
-        <v>11000</v>
+        <v>8000</v>
       </c>
       <c r="P165" t="n">
-        <v>11000</v>
+        <v>8000</v>
       </c>
       <c r="Q165" t="inlineStr">
         <is>
@@ -13586,7 +13586,7 @@
         </is>
       </c>
       <c r="S165" t="n">
-        <v>611</v>
+        <v>444</v>
       </c>
       <c r="T165" t="n">
         <v>18</v>
@@ -13640,20 +13640,20 @@
       </c>
       <c r="L166" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M166" t="n">
-        <v>200</v>
+        <v>260</v>
       </c>
       <c r="N166" t="n">
-        <v>10000</v>
+        <v>11000</v>
       </c>
       <c r="O166" t="n">
-        <v>10000</v>
+        <v>11000</v>
       </c>
       <c r="P166" t="n">
-        <v>10000</v>
+        <v>11000</v>
       </c>
       <c r="Q166" t="inlineStr">
         <is>
@@ -13666,7 +13666,7 @@
         </is>
       </c>
       <c r="S166" t="n">
-        <v>556</v>
+        <v>611</v>
       </c>
       <c r="T166" t="n">
         <v>18</v>
@@ -13724,32 +13724,32 @@
         </is>
       </c>
       <c r="M167" t="n">
-        <v>230</v>
+        <v>200</v>
       </c>
       <c r="N167" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="O167" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="P167" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="Q167" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="R167" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S167" t="n">
-        <v>800</v>
+        <v>556</v>
       </c>
       <c r="T167" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
     </row>
     <row r="168">
@@ -13767,7 +13767,7 @@
         </is>
       </c>
       <c r="D168" s="2" t="n">
-        <v>44365</v>
+        <v>44351</v>
       </c>
       <c r="E168" t="n">
         <v>7</v>
@@ -13800,36 +13800,36 @@
       </c>
       <c r="L168" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M168" t="n">
-        <v>90</v>
+        <v>230</v>
       </c>
       <c r="N168" t="n">
-        <v>11000</v>
+        <v>8000</v>
       </c>
       <c r="O168" t="n">
-        <v>11000</v>
+        <v>8000</v>
       </c>
       <c r="P168" t="n">
-        <v>11000</v>
+        <v>8000</v>
       </c>
       <c r="Q168" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="R168" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S168" t="n">
-        <v>611</v>
+        <v>800</v>
       </c>
       <c r="T168" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="169">
@@ -13880,20 +13880,20 @@
       </c>
       <c r="L169" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M169" t="n">
-        <v>200</v>
+        <v>90</v>
       </c>
       <c r="N169" t="n">
-        <v>9000</v>
+        <v>11000</v>
       </c>
       <c r="O169" t="n">
-        <v>9000</v>
+        <v>11000</v>
       </c>
       <c r="P169" t="n">
-        <v>9000</v>
+        <v>11000</v>
       </c>
       <c r="Q169" t="inlineStr">
         <is>
@@ -13906,7 +13906,7 @@
         </is>
       </c>
       <c r="S169" t="n">
-        <v>500</v>
+        <v>611</v>
       </c>
       <c r="T169" t="n">
         <v>18</v>
@@ -13960,20 +13960,20 @@
       </c>
       <c r="L170" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M170" t="n">
-        <v>150</v>
+        <v>200</v>
       </c>
       <c r="N170" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="O170" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="P170" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="Q170" t="inlineStr">
         <is>
@@ -13986,7 +13986,7 @@
         </is>
       </c>
       <c r="S170" t="n">
-        <v>389</v>
+        <v>500</v>
       </c>
       <c r="T170" t="n">
         <v>18</v>
@@ -14007,7 +14007,7 @@
         </is>
       </c>
       <c r="D171" s="2" t="n">
-        <v>44306</v>
+        <v>44365</v>
       </c>
       <c r="E171" t="n">
         <v>7</v>
@@ -14040,24 +14040,24 @@
       </c>
       <c r="L171" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M171" t="n">
-        <v>230</v>
+        <v>150</v>
       </c>
       <c r="N171" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="O171" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="P171" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="Q171" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="R171" t="inlineStr">
@@ -14066,10 +14066,10 @@
         </is>
       </c>
       <c r="S171" t="n">
-        <v>1000</v>
+        <v>389</v>
       </c>
       <c r="T171" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
     </row>
     <row r="172">
@@ -14124,20 +14124,20 @@
         </is>
       </c>
       <c r="M172" t="n">
-        <v>180</v>
+        <v>230</v>
       </c>
       <c r="N172" t="n">
-        <v>13000</v>
+        <v>10000</v>
       </c>
       <c r="O172" t="n">
-        <v>13000</v>
+        <v>10000</v>
       </c>
       <c r="P172" t="n">
-        <v>13000</v>
+        <v>10000</v>
       </c>
       <c r="Q172" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R172" t="inlineStr">
@@ -14146,10 +14146,10 @@
         </is>
       </c>
       <c r="S172" t="n">
-        <v>722</v>
+        <v>1000</v>
       </c>
       <c r="T172" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="173">
@@ -14200,24 +14200,24 @@
       </c>
       <c r="L173" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M173" t="n">
-        <v>230</v>
+        <v>180</v>
       </c>
       <c r="N173" t="n">
-        <v>8000</v>
+        <v>13000</v>
       </c>
       <c r="O173" t="n">
-        <v>8000</v>
+        <v>13000</v>
       </c>
       <c r="P173" t="n">
-        <v>8000</v>
+        <v>13000</v>
       </c>
       <c r="Q173" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="R173" t="inlineStr">
@@ -14226,10 +14226,10 @@
         </is>
       </c>
       <c r="S173" t="n">
-        <v>800</v>
+        <v>722</v>
       </c>
       <c r="T173" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
     </row>
     <row r="174">
@@ -14247,7 +14247,7 @@
         </is>
       </c>
       <c r="D174" s="2" t="n">
-        <v>44461</v>
+        <v>44306</v>
       </c>
       <c r="E174" t="n">
         <v>7</v>
@@ -14280,24 +14280,24 @@
       </c>
       <c r="L174" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M174" t="n">
-        <v>200</v>
+        <v>230</v>
       </c>
       <c r="N174" t="n">
-        <v>12000</v>
+        <v>8000</v>
       </c>
       <c r="O174" t="n">
-        <v>12000</v>
+        <v>8000</v>
       </c>
       <c r="P174" t="n">
-        <v>12000</v>
+        <v>8000</v>
       </c>
       <c r="Q174" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R174" t="inlineStr">
@@ -14306,10 +14306,10 @@
         </is>
       </c>
       <c r="S174" t="n">
-        <v>667</v>
+        <v>800</v>
       </c>
       <c r="T174" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="175">
@@ -14360,20 +14360,20 @@
       </c>
       <c r="L175" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M175" t="n">
-        <v>150</v>
+        <v>200</v>
       </c>
       <c r="N175" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="O175" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="P175" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="Q175" t="inlineStr">
         <is>
@@ -14386,7 +14386,7 @@
         </is>
       </c>
       <c r="S175" t="n">
-        <v>556</v>
+        <v>667</v>
       </c>
       <c r="T175" t="n">
         <v>18</v>
@@ -14407,7 +14407,7 @@
         </is>
       </c>
       <c r="D176" s="2" t="n">
-        <v>44357</v>
+        <v>44461</v>
       </c>
       <c r="E176" t="n">
         <v>7</v>
@@ -14440,20 +14440,20 @@
       </c>
       <c r="L176" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M176" t="n">
-        <v>130</v>
+        <v>150</v>
       </c>
       <c r="N176" t="n">
-        <v>13000</v>
+        <v>10000</v>
       </c>
       <c r="O176" t="n">
-        <v>13000</v>
+        <v>10000</v>
       </c>
       <c r="P176" t="n">
-        <v>13000</v>
+        <v>10000</v>
       </c>
       <c r="Q176" t="inlineStr">
         <is>
@@ -14466,7 +14466,7 @@
         </is>
       </c>
       <c r="S176" t="n">
-        <v>722</v>
+        <v>556</v>
       </c>
       <c r="T176" t="n">
         <v>18</v>
@@ -14520,20 +14520,20 @@
       </c>
       <c r="L177" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M177" t="n">
-        <v>190</v>
+        <v>130</v>
       </c>
       <c r="N177" t="n">
-        <v>11000</v>
+        <v>13000</v>
       </c>
       <c r="O177" t="n">
-        <v>11000</v>
+        <v>13000</v>
       </c>
       <c r="P177" t="n">
-        <v>11000</v>
+        <v>13000</v>
       </c>
       <c r="Q177" t="inlineStr">
         <is>
@@ -14546,7 +14546,7 @@
         </is>
       </c>
       <c r="S177" t="n">
-        <v>611</v>
+        <v>722</v>
       </c>
       <c r="T177" t="n">
         <v>18</v>
@@ -14567,7 +14567,7 @@
         </is>
       </c>
       <c r="D178" s="2" t="n">
-        <v>44410</v>
+        <v>44357</v>
       </c>
       <c r="E178" t="n">
         <v>7</v>
@@ -14604,16 +14604,16 @@
         </is>
       </c>
       <c r="M178" t="n">
-        <v>230</v>
+        <v>190</v>
       </c>
       <c r="N178" t="n">
-        <v>12000</v>
+        <v>11000</v>
       </c>
       <c r="O178" t="n">
-        <v>12000</v>
+        <v>11000</v>
       </c>
       <c r="P178" t="n">
-        <v>12000</v>
+        <v>11000</v>
       </c>
       <c r="Q178" t="inlineStr">
         <is>
@@ -14626,7 +14626,7 @@
         </is>
       </c>
       <c r="S178" t="n">
-        <v>667</v>
+        <v>611</v>
       </c>
       <c r="T178" t="n">
         <v>18</v>
@@ -14687,17 +14687,17 @@
         <v>230</v>
       </c>
       <c r="N179" t="n">
-        <v>7000</v>
+        <v>12000</v>
       </c>
       <c r="O179" t="n">
-        <v>7000</v>
+        <v>12000</v>
       </c>
       <c r="P179" t="n">
-        <v>7000</v>
+        <v>12000</v>
       </c>
       <c r="Q179" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="R179" t="inlineStr">
@@ -14706,10 +14706,10 @@
         </is>
       </c>
       <c r="S179" t="n">
-        <v>700</v>
+        <v>667</v>
       </c>
       <c r="T179" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
     </row>
     <row r="180">
@@ -14727,7 +14727,7 @@
         </is>
       </c>
       <c r="D180" s="2" t="n">
-        <v>44376</v>
+        <v>44410</v>
       </c>
       <c r="E180" t="n">
         <v>7</v>
@@ -14764,20 +14764,20 @@
         </is>
       </c>
       <c r="M180" t="n">
-        <v>260</v>
+        <v>230</v>
       </c>
       <c r="N180" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="O180" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="P180" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="Q180" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="R180" t="inlineStr">
@@ -14786,10 +14786,10 @@
         </is>
       </c>
       <c r="S180" t="n">
-        <v>500</v>
+        <v>700</v>
       </c>
       <c r="T180" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="181">
@@ -14807,7 +14807,7 @@
         </is>
       </c>
       <c r="D181" s="2" t="n">
-        <v>44358</v>
+        <v>44376</v>
       </c>
       <c r="E181" t="n">
         <v>7</v>
@@ -14840,20 +14840,20 @@
       </c>
       <c r="L181" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M181" t="n">
-        <v>230</v>
+        <v>260</v>
       </c>
       <c r="N181" t="n">
-        <v>13000</v>
+        <v>9000</v>
       </c>
       <c r="O181" t="n">
-        <v>13000</v>
+        <v>9000</v>
       </c>
       <c r="P181" t="n">
-        <v>13000</v>
+        <v>9000</v>
       </c>
       <c r="Q181" t="inlineStr">
         <is>
@@ -14866,7 +14866,7 @@
         </is>
       </c>
       <c r="S181" t="n">
-        <v>722</v>
+        <v>500</v>
       </c>
       <c r="T181" t="n">
         <v>18</v>
@@ -14924,20 +14924,20 @@
         </is>
       </c>
       <c r="M182" t="n">
-        <v>250</v>
+        <v>230</v>
       </c>
       <c r="N182" t="n">
-        <v>9000</v>
+        <v>13000</v>
       </c>
       <c r="O182" t="n">
-        <v>9000</v>
+        <v>13000</v>
       </c>
       <c r="P182" t="n">
-        <v>9000</v>
+        <v>13000</v>
       </c>
       <c r="Q182" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="R182" t="inlineStr">
@@ -14946,10 +14946,10 @@
         </is>
       </c>
       <c r="S182" t="n">
-        <v>900</v>
+        <v>722</v>
       </c>
       <c r="T182" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
     </row>
     <row r="183">
@@ -15000,24 +15000,24 @@
       </c>
       <c r="L183" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M183" t="n">
-        <v>210</v>
+        <v>250</v>
       </c>
       <c r="N183" t="n">
-        <v>11000</v>
+        <v>9000</v>
       </c>
       <c r="O183" t="n">
-        <v>11000</v>
+        <v>9000</v>
       </c>
       <c r="P183" t="n">
-        <v>11000</v>
+        <v>9000</v>
       </c>
       <c r="Q183" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="R183" t="inlineStr">
@@ -15026,10 +15026,10 @@
         </is>
       </c>
       <c r="S183" t="n">
-        <v>611</v>
+        <v>900</v>
       </c>
       <c r="T183" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="184">
@@ -15084,20 +15084,20 @@
         </is>
       </c>
       <c r="M184" t="n">
-        <v>200</v>
+        <v>210</v>
       </c>
       <c r="N184" t="n">
-        <v>7000</v>
+        <v>11000</v>
       </c>
       <c r="O184" t="n">
-        <v>7000</v>
+        <v>11000</v>
       </c>
       <c r="P184" t="n">
-        <v>7000</v>
+        <v>11000</v>
       </c>
       <c r="Q184" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="R184" t="inlineStr">
@@ -15106,10 +15106,10 @@
         </is>
       </c>
       <c r="S184" t="n">
-        <v>700</v>
+        <v>611</v>
       </c>
       <c r="T184" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
     </row>
     <row r="185">
@@ -15160,24 +15160,24 @@
       </c>
       <c r="L185" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M185" t="n">
-        <v>190</v>
+        <v>200</v>
       </c>
       <c r="N185" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="O185" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="P185" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="Q185" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="R185" t="inlineStr">
@@ -15186,10 +15186,10 @@
         </is>
       </c>
       <c r="S185" t="n">
-        <v>500</v>
+        <v>700</v>
       </c>
       <c r="T185" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="186">
@@ -15207,7 +15207,7 @@
         </is>
       </c>
       <c r="D186" s="2" t="n">
-        <v>44425</v>
+        <v>44358</v>
       </c>
       <c r="E186" t="n">
         <v>7</v>
@@ -15244,16 +15244,16 @@
         </is>
       </c>
       <c r="M186" t="n">
-        <v>300</v>
+        <v>190</v>
       </c>
       <c r="N186" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="O186" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="P186" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="Q186" t="inlineStr">
         <is>
@@ -15266,7 +15266,7 @@
         </is>
       </c>
       <c r="S186" t="n">
-        <v>444</v>
+        <v>500</v>
       </c>
       <c r="T186" t="n">
         <v>18</v>
@@ -15287,7 +15287,7 @@
         </is>
       </c>
       <c r="D187" s="2" t="n">
-        <v>44323</v>
+        <v>44425</v>
       </c>
       <c r="E187" t="n">
         <v>7</v>
@@ -15320,24 +15320,24 @@
       </c>
       <c r="L187" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M187" t="n">
-        <v>150</v>
+        <v>300</v>
       </c>
       <c r="N187" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="O187" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="P187" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="Q187" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="R187" t="inlineStr">
@@ -15346,10 +15346,10 @@
         </is>
       </c>
       <c r="S187" t="n">
-        <v>1000</v>
+        <v>444</v>
       </c>
       <c r="T187" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
     </row>
     <row r="188">
@@ -15400,35 +15400,115 @@
       </c>
       <c r="L188" t="inlineStr">
         <is>
+          <t>Especial</t>
+        </is>
+      </c>
+      <c r="M188" t="n">
+        <v>150</v>
+      </c>
+      <c r="N188" t="n">
+        <v>10000</v>
+      </c>
+      <c r="O188" t="n">
+        <v>10000</v>
+      </c>
+      <c r="P188" t="n">
+        <v>10000</v>
+      </c>
+      <c r="Q188" t="inlineStr">
+        <is>
+          <t>$/bandeja 10 kilos</t>
+        </is>
+      </c>
+      <c r="R188" t="inlineStr">
+        <is>
+          <t>Provincia de Curicó</t>
+        </is>
+      </c>
+      <c r="S188" t="n">
+        <v>1000</v>
+      </c>
+      <c r="T188" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" t="n">
+        <v>5</v>
+      </c>
+      <c r="B189" t="inlineStr">
+        <is>
+          <t>Macroferia Regional de Talca</t>
+        </is>
+      </c>
+      <c r="C189" t="inlineStr">
+        <is>
+          <t>Maule</t>
+        </is>
+      </c>
+      <c r="D189" s="2" t="n">
+        <v>44323</v>
+      </c>
+      <c r="E189" t="n">
+        <v>7</v>
+      </c>
+      <c r="F189" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G189" t="n">
+        <v>100101</v>
+      </c>
+      <c r="H189" t="inlineStr">
+        <is>
+          <t>Berries</t>
+        </is>
+      </c>
+      <c r="I189" t="n">
+        <v>100101007</v>
+      </c>
+      <c r="J189" t="inlineStr">
+        <is>
+          <t>Kiwi</t>
+        </is>
+      </c>
+      <c r="K189" t="inlineStr">
+        <is>
+          <t>Hayward</t>
+        </is>
+      </c>
+      <c r="L189" t="inlineStr">
+        <is>
           <t>Primera</t>
         </is>
       </c>
-      <c r="M188" t="n">
+      <c r="M189" t="n">
         <v>100</v>
       </c>
-      <c r="N188" t="n">
+      <c r="N189" t="n">
         <v>9000</v>
       </c>
-      <c r="O188" t="n">
+      <c r="O189" t="n">
         <v>9000</v>
       </c>
-      <c r="P188" t="n">
+      <c r="P189" t="n">
         <v>9000</v>
       </c>
-      <c r="Q188" t="inlineStr">
+      <c r="Q189" t="inlineStr">
         <is>
           <t>$/bandeja 10 kilos</t>
         </is>
       </c>
-      <c r="R188" t="inlineStr">
-        <is>
-          <t>Provincia de Curicó</t>
-        </is>
-      </c>
-      <c r="S188" t="n">
+      <c r="R189" t="inlineStr">
+        <is>
+          <t>Provincia de Curicó</t>
+        </is>
+      </c>
+      <c r="S189" t="n">
         <v>900</v>
       </c>
-      <c r="T188" t="n">
+      <c r="T189" t="n">
         <v>10</v>
       </c>
     </row>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Macroferia Regional de Talca - Kiwi.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Macroferia Regional de Talca - Kiwi.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T189"/>
+  <dimension ref="A1:T191"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5447,7 +5447,7 @@
         </is>
       </c>
       <c r="D64" s="2" t="n">
-        <v>44299</v>
+        <v>44469</v>
       </c>
       <c r="E64" t="n">
         <v>7</v>
@@ -5480,20 +5480,20 @@
       </c>
       <c r="L64" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M64" t="n">
-        <v>200</v>
+        <v>150</v>
       </c>
       <c r="N64" t="n">
-        <v>13000</v>
+        <v>12000</v>
       </c>
       <c r="O64" t="n">
-        <v>13000</v>
+        <v>12000</v>
       </c>
       <c r="P64" t="n">
-        <v>13000</v>
+        <v>12000</v>
       </c>
       <c r="Q64" t="inlineStr">
         <is>
@@ -5506,7 +5506,7 @@
         </is>
       </c>
       <c r="S64" t="n">
-        <v>722</v>
+        <v>667</v>
       </c>
       <c r="T64" t="n">
         <v>18</v>
@@ -5527,7 +5527,7 @@
         </is>
       </c>
       <c r="D65" s="2" t="n">
-        <v>44320</v>
+        <v>44469</v>
       </c>
       <c r="E65" t="n">
         <v>7</v>
@@ -5560,20 +5560,20 @@
       </c>
       <c r="L65" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M65" t="n">
-        <v>120</v>
+        <v>200</v>
       </c>
       <c r="N65" t="n">
-        <v>13000</v>
+        <v>10000</v>
       </c>
       <c r="O65" t="n">
-        <v>13000</v>
+        <v>10000</v>
       </c>
       <c r="P65" t="n">
-        <v>13000</v>
+        <v>10000</v>
       </c>
       <c r="Q65" t="inlineStr">
         <is>
@@ -5586,7 +5586,7 @@
         </is>
       </c>
       <c r="S65" t="n">
-        <v>722</v>
+        <v>556</v>
       </c>
       <c r="T65" t="n">
         <v>18</v>
@@ -5607,7 +5607,7 @@
         </is>
       </c>
       <c r="D66" s="2" t="n">
-        <v>44320</v>
+        <v>44299</v>
       </c>
       <c r="E66" t="n">
         <v>7</v>
@@ -5640,24 +5640,24 @@
       </c>
       <c r="L66" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M66" t="n">
-        <v>150</v>
+        <v>200</v>
       </c>
       <c r="N66" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="O66" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="P66" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="Q66" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="R66" t="inlineStr">
@@ -5666,10 +5666,10 @@
         </is>
       </c>
       <c r="S66" t="n">
-        <v>1000</v>
+        <v>722</v>
       </c>
       <c r="T66" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
     </row>
     <row r="67">
@@ -5720,24 +5720,24 @@
       </c>
       <c r="L67" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M67" t="n">
-        <v>300</v>
+        <v>120</v>
       </c>
       <c r="N67" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="O67" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="P67" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="Q67" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="R67" t="inlineStr">
@@ -5746,10 +5746,10 @@
         </is>
       </c>
       <c r="S67" t="n">
-        <v>1000</v>
+        <v>722</v>
       </c>
       <c r="T67" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
     </row>
     <row r="68">
@@ -5800,24 +5800,24 @@
       </c>
       <c r="L68" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M68" t="n">
-        <v>100</v>
+        <v>150</v>
       </c>
       <c r="N68" t="n">
-        <v>11000</v>
+        <v>10000</v>
       </c>
       <c r="O68" t="n">
-        <v>11000</v>
+        <v>10000</v>
       </c>
       <c r="P68" t="n">
-        <v>11000</v>
+        <v>10000</v>
       </c>
       <c r="Q68" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="R68" t="inlineStr">
@@ -5826,10 +5826,10 @@
         </is>
       </c>
       <c r="S68" t="n">
-        <v>611</v>
+        <v>1000</v>
       </c>
       <c r="T68" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="69">
@@ -5847,7 +5847,7 @@
         </is>
       </c>
       <c r="D69" s="2" t="n">
-        <v>44385</v>
+        <v>44320</v>
       </c>
       <c r="E69" t="n">
         <v>7</v>
@@ -5880,24 +5880,24 @@
       </c>
       <c r="L69" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M69" t="n">
-        <v>230</v>
+        <v>300</v>
       </c>
       <c r="N69" t="n">
-        <v>11000</v>
+        <v>10000</v>
       </c>
       <c r="O69" t="n">
-        <v>11000</v>
+        <v>10000</v>
       </c>
       <c r="P69" t="n">
-        <v>11000</v>
+        <v>10000</v>
       </c>
       <c r="Q69" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R69" t="inlineStr">
@@ -5906,10 +5906,10 @@
         </is>
       </c>
       <c r="S69" t="n">
-        <v>611</v>
+        <v>1000</v>
       </c>
       <c r="T69" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="70">
@@ -5927,7 +5927,7 @@
         </is>
       </c>
       <c r="D70" s="2" t="n">
-        <v>44385</v>
+        <v>44320</v>
       </c>
       <c r="E70" t="n">
         <v>7</v>
@@ -5964,16 +5964,16 @@
         </is>
       </c>
       <c r="M70" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="N70" t="n">
-        <v>9000</v>
+        <v>11000</v>
       </c>
       <c r="O70" t="n">
-        <v>9000</v>
+        <v>11000</v>
       </c>
       <c r="P70" t="n">
-        <v>9000</v>
+        <v>11000</v>
       </c>
       <c r="Q70" t="inlineStr">
         <is>
@@ -5986,7 +5986,7 @@
         </is>
       </c>
       <c r="S70" t="n">
-        <v>500</v>
+        <v>611</v>
       </c>
       <c r="T70" t="n">
         <v>18</v>
@@ -6007,7 +6007,7 @@
         </is>
       </c>
       <c r="D71" s="2" t="n">
-        <v>44284</v>
+        <v>44385</v>
       </c>
       <c r="E71" t="n">
         <v>7</v>
@@ -6040,20 +6040,20 @@
       </c>
       <c r="L71" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M71" t="n">
-        <v>200</v>
+        <v>230</v>
       </c>
       <c r="N71" t="n">
-        <v>7000</v>
+        <v>11000</v>
       </c>
       <c r="O71" t="n">
-        <v>7000</v>
+        <v>11000</v>
       </c>
       <c r="P71" t="n">
-        <v>7000</v>
+        <v>11000</v>
       </c>
       <c r="Q71" t="inlineStr">
         <is>
@@ -6066,7 +6066,7 @@
         </is>
       </c>
       <c r="S71" t="n">
-        <v>389</v>
+        <v>611</v>
       </c>
       <c r="T71" t="n">
         <v>18</v>
@@ -6087,7 +6087,7 @@
         </is>
       </c>
       <c r="D72" s="2" t="n">
-        <v>44391</v>
+        <v>44385</v>
       </c>
       <c r="E72" t="n">
         <v>7</v>
@@ -6120,20 +6120,20 @@
       </c>
       <c r="L72" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M72" t="n">
         <v>200</v>
       </c>
       <c r="N72" t="n">
-        <v>11000</v>
+        <v>9000</v>
       </c>
       <c r="O72" t="n">
-        <v>11000</v>
+        <v>9000</v>
       </c>
       <c r="P72" t="n">
-        <v>11000</v>
+        <v>9000</v>
       </c>
       <c r="Q72" t="inlineStr">
         <is>
@@ -6146,7 +6146,7 @@
         </is>
       </c>
       <c r="S72" t="n">
-        <v>611</v>
+        <v>500</v>
       </c>
       <c r="T72" t="n">
         <v>18</v>
@@ -6167,7 +6167,7 @@
         </is>
       </c>
       <c r="D73" s="2" t="n">
-        <v>44391</v>
+        <v>44284</v>
       </c>
       <c r="E73" t="n">
         <v>7</v>
@@ -6200,20 +6200,20 @@
       </c>
       <c r="L73" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M73" t="n">
-        <v>250</v>
+        <v>200</v>
       </c>
       <c r="N73" t="n">
-        <v>9500</v>
+        <v>7000</v>
       </c>
       <c r="O73" t="n">
-        <v>9500</v>
+        <v>7000</v>
       </c>
       <c r="P73" t="n">
-        <v>9500</v>
+        <v>7000</v>
       </c>
       <c r="Q73" t="inlineStr">
         <is>
@@ -6226,7 +6226,7 @@
         </is>
       </c>
       <c r="S73" t="n">
-        <v>528</v>
+        <v>389</v>
       </c>
       <c r="T73" t="n">
         <v>18</v>
@@ -6247,7 +6247,7 @@
         </is>
       </c>
       <c r="D74" s="2" t="n">
-        <v>44281</v>
+        <v>44391</v>
       </c>
       <c r="E74" t="n">
         <v>7</v>
@@ -6280,24 +6280,24 @@
       </c>
       <c r="L74" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M74" t="n">
-        <v>210</v>
+        <v>200</v>
       </c>
       <c r="N74" t="n">
-        <v>10000</v>
+        <v>11000</v>
       </c>
       <c r="O74" t="n">
-        <v>10000</v>
+        <v>11000</v>
       </c>
       <c r="P74" t="n">
-        <v>10000</v>
+        <v>11000</v>
       </c>
       <c r="Q74" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="R74" t="inlineStr">
@@ -6306,10 +6306,10 @@
         </is>
       </c>
       <c r="S74" t="n">
-        <v>1000</v>
+        <v>611</v>
       </c>
       <c r="T74" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
     </row>
     <row r="75">
@@ -6327,7 +6327,7 @@
         </is>
       </c>
       <c r="D75" s="2" t="n">
-        <v>44342</v>
+        <v>44391</v>
       </c>
       <c r="E75" t="n">
         <v>7</v>
@@ -6367,13 +6367,13 @@
         <v>250</v>
       </c>
       <c r="N75" t="n">
-        <v>8000</v>
+        <v>9500</v>
       </c>
       <c r="O75" t="n">
-        <v>9000</v>
+        <v>9500</v>
       </c>
       <c r="P75" t="n">
-        <v>8600</v>
+        <v>9500</v>
       </c>
       <c r="Q75" t="inlineStr">
         <is>
@@ -6386,7 +6386,7 @@
         </is>
       </c>
       <c r="S75" t="n">
-        <v>478</v>
+        <v>528</v>
       </c>
       <c r="T75" t="n">
         <v>18</v>
@@ -6407,7 +6407,7 @@
         </is>
       </c>
       <c r="D76" s="2" t="n">
-        <v>44434</v>
+        <v>44281</v>
       </c>
       <c r="E76" t="n">
         <v>7</v>
@@ -6440,24 +6440,24 @@
       </c>
       <c r="L76" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M76" t="n">
-        <v>230</v>
+        <v>210</v>
       </c>
       <c r="N76" t="n">
-        <v>14000</v>
+        <v>10000</v>
       </c>
       <c r="O76" t="n">
-        <v>14000</v>
+        <v>10000</v>
       </c>
       <c r="P76" t="n">
-        <v>14000</v>
+        <v>10000</v>
       </c>
       <c r="Q76" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R76" t="inlineStr">
@@ -6466,10 +6466,10 @@
         </is>
       </c>
       <c r="S76" t="n">
-        <v>778</v>
+        <v>1000</v>
       </c>
       <c r="T76" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="77">
@@ -6487,7 +6487,7 @@
         </is>
       </c>
       <c r="D77" s="2" t="n">
-        <v>44434</v>
+        <v>44342</v>
       </c>
       <c r="E77" t="n">
         <v>7</v>
@@ -6520,24 +6520,24 @@
       </c>
       <c r="L77" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M77" t="n">
-        <v>160</v>
+        <v>250</v>
       </c>
       <c r="N77" t="n">
         <v>8000</v>
       </c>
       <c r="O77" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="P77" t="n">
-        <v>8000</v>
+        <v>8600</v>
       </c>
       <c r="Q77" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="R77" t="inlineStr">
@@ -6546,10 +6546,10 @@
         </is>
       </c>
       <c r="S77" t="n">
-        <v>800</v>
+        <v>478</v>
       </c>
       <c r="T77" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
     </row>
     <row r="78">
@@ -6600,20 +6600,20 @@
       </c>
       <c r="L78" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M78" t="n">
-        <v>150</v>
+        <v>230</v>
       </c>
       <c r="N78" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="O78" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="P78" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="Q78" t="inlineStr">
         <is>
@@ -6626,7 +6626,7 @@
         </is>
       </c>
       <c r="S78" t="n">
-        <v>667</v>
+        <v>778</v>
       </c>
       <c r="T78" t="n">
         <v>18</v>
@@ -6680,20 +6680,20 @@
       </c>
       <c r="L79" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M79" t="n">
-        <v>230</v>
+        <v>160</v>
       </c>
       <c r="N79" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="O79" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="P79" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="Q79" t="inlineStr">
         <is>
@@ -6706,7 +6706,7 @@
         </is>
       </c>
       <c r="S79" t="n">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="T79" t="n">
         <v>10</v>
@@ -6760,20 +6760,20 @@
       </c>
       <c r="L80" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M80" t="n">
-        <v>120</v>
+        <v>150</v>
       </c>
       <c r="N80" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="O80" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="P80" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="Q80" t="inlineStr">
         <is>
@@ -6786,7 +6786,7 @@
         </is>
       </c>
       <c r="S80" t="n">
-        <v>556</v>
+        <v>667</v>
       </c>
       <c r="T80" t="n">
         <v>18</v>
@@ -6807,7 +6807,7 @@
         </is>
       </c>
       <c r="D81" s="2" t="n">
-        <v>44327</v>
+        <v>44434</v>
       </c>
       <c r="E81" t="n">
         <v>7</v>
@@ -6844,16 +6844,16 @@
         </is>
       </c>
       <c r="M81" t="n">
-        <v>300</v>
+        <v>230</v>
       </c>
       <c r="N81" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="O81" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="P81" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="Q81" t="inlineStr">
         <is>
@@ -6866,7 +6866,7 @@
         </is>
       </c>
       <c r="S81" t="n">
-        <v>900</v>
+        <v>700</v>
       </c>
       <c r="T81" t="n">
         <v>10</v>
@@ -6887,7 +6887,7 @@
         </is>
       </c>
       <c r="D82" s="2" t="n">
-        <v>44321</v>
+        <v>44434</v>
       </c>
       <c r="E82" t="n">
         <v>7</v>
@@ -6920,20 +6920,20 @@
       </c>
       <c r="L82" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M82" t="n">
-        <v>200</v>
+        <v>120</v>
       </c>
       <c r="N82" t="n">
-        <v>13000</v>
+        <v>10000</v>
       </c>
       <c r="O82" t="n">
-        <v>13000</v>
+        <v>10000</v>
       </c>
       <c r="P82" t="n">
-        <v>13000</v>
+        <v>10000</v>
       </c>
       <c r="Q82" t="inlineStr">
         <is>
@@ -6946,7 +6946,7 @@
         </is>
       </c>
       <c r="S82" t="n">
-        <v>722</v>
+        <v>556</v>
       </c>
       <c r="T82" t="n">
         <v>18</v>
@@ -6967,7 +6967,7 @@
         </is>
       </c>
       <c r="D83" s="2" t="n">
-        <v>44399</v>
+        <v>44327</v>
       </c>
       <c r="E83" t="n">
         <v>7</v>
@@ -7004,20 +7004,20 @@
         </is>
       </c>
       <c r="M83" t="n">
-        <v>260</v>
+        <v>300</v>
       </c>
       <c r="N83" t="n">
-        <v>5000</v>
+        <v>9000</v>
       </c>
       <c r="O83" t="n">
-        <v>5000</v>
+        <v>9000</v>
       </c>
       <c r="P83" t="n">
-        <v>5000</v>
+        <v>9000</v>
       </c>
       <c r="Q83" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="R83" t="inlineStr">
@@ -7026,7 +7026,7 @@
         </is>
       </c>
       <c r="S83" t="n">
-        <v>500</v>
+        <v>900</v>
       </c>
       <c r="T83" t="n">
         <v>10</v>
@@ -7047,7 +7047,7 @@
         </is>
       </c>
       <c r="D84" s="2" t="n">
-        <v>44399</v>
+        <v>44321</v>
       </c>
       <c r="E84" t="n">
         <v>7</v>
@@ -7084,20 +7084,20 @@
         </is>
       </c>
       <c r="M84" t="n">
-        <v>260</v>
+        <v>200</v>
       </c>
       <c r="N84" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="O84" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="P84" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="Q84" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos granel</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="R84" t="inlineStr">
@@ -7106,7 +7106,7 @@
         </is>
       </c>
       <c r="S84" t="n">
-        <v>556</v>
+        <v>722</v>
       </c>
       <c r="T84" t="n">
         <v>18</v>
@@ -7127,7 +7127,7 @@
         </is>
       </c>
       <c r="D85" s="2" t="n">
-        <v>44452</v>
+        <v>44399</v>
       </c>
       <c r="E85" t="n">
         <v>7</v>
@@ -7164,20 +7164,20 @@
         </is>
       </c>
       <c r="M85" t="n">
-        <v>300</v>
+        <v>260</v>
       </c>
       <c r="N85" t="n">
-        <v>12000</v>
+        <v>5000</v>
       </c>
       <c r="O85" t="n">
-        <v>12000</v>
+        <v>5000</v>
       </c>
       <c r="P85" t="n">
-        <v>12000</v>
+        <v>5000</v>
       </c>
       <c r="Q85" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R85" t="inlineStr">
@@ -7186,10 +7186,10 @@
         </is>
       </c>
       <c r="S85" t="n">
-        <v>667</v>
+        <v>500</v>
       </c>
       <c r="T85" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="86">
@@ -7207,7 +7207,7 @@
         </is>
       </c>
       <c r="D86" s="2" t="n">
-        <v>44383</v>
+        <v>44399</v>
       </c>
       <c r="E86" t="n">
         <v>7</v>
@@ -7244,20 +7244,20 @@
         </is>
       </c>
       <c r="M86" t="n">
-        <v>210</v>
+        <v>260</v>
       </c>
       <c r="N86" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="O86" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="P86" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="Q86" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 18 kilos granel</t>
         </is>
       </c>
       <c r="R86" t="inlineStr">
@@ -7266,7 +7266,7 @@
         </is>
       </c>
       <c r="S86" t="n">
-        <v>500</v>
+        <v>556</v>
       </c>
       <c r="T86" t="n">
         <v>18</v>
@@ -7287,7 +7287,7 @@
         </is>
       </c>
       <c r="D87" s="2" t="n">
-        <v>44383</v>
+        <v>44452</v>
       </c>
       <c r="E87" t="n">
         <v>7</v>
@@ -7324,20 +7324,20 @@
         </is>
       </c>
       <c r="M87" t="n">
-        <v>260</v>
+        <v>300</v>
       </c>
       <c r="N87" t="n">
-        <v>6000</v>
+        <v>12000</v>
       </c>
       <c r="O87" t="n">
-        <v>6000</v>
+        <v>12000</v>
       </c>
       <c r="P87" t="n">
-        <v>6000</v>
+        <v>12000</v>
       </c>
       <c r="Q87" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="R87" t="inlineStr">
@@ -7346,10 +7346,10 @@
         </is>
       </c>
       <c r="S87" t="n">
-        <v>600</v>
+        <v>667</v>
       </c>
       <c r="T87" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
     </row>
     <row r="88">
@@ -7367,7 +7367,7 @@
         </is>
       </c>
       <c r="D88" s="2" t="n">
-        <v>44407</v>
+        <v>44383</v>
       </c>
       <c r="E88" t="n">
         <v>7</v>
@@ -7400,20 +7400,20 @@
       </c>
       <c r="L88" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M88" t="n">
-        <v>60</v>
+        <v>210</v>
       </c>
       <c r="N88" t="n">
-        <v>13000</v>
+        <v>9000</v>
       </c>
       <c r="O88" t="n">
-        <v>13000</v>
+        <v>9000</v>
       </c>
       <c r="P88" t="n">
-        <v>13000</v>
+        <v>9000</v>
       </c>
       <c r="Q88" t="inlineStr">
         <is>
@@ -7426,7 +7426,7 @@
         </is>
       </c>
       <c r="S88" t="n">
-        <v>722</v>
+        <v>500</v>
       </c>
       <c r="T88" t="n">
         <v>18</v>
@@ -7447,7 +7447,7 @@
         </is>
       </c>
       <c r="D89" s="2" t="n">
-        <v>44407</v>
+        <v>44383</v>
       </c>
       <c r="E89" t="n">
         <v>7</v>
@@ -7484,20 +7484,20 @@
         </is>
       </c>
       <c r="M89" t="n">
-        <v>150</v>
+        <v>260</v>
       </c>
       <c r="N89" t="n">
-        <v>10000</v>
+        <v>6000</v>
       </c>
       <c r="O89" t="n">
-        <v>10000</v>
+        <v>6000</v>
       </c>
       <c r="P89" t="n">
-        <v>10000</v>
+        <v>6000</v>
       </c>
       <c r="Q89" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="R89" t="inlineStr">
@@ -7506,10 +7506,10 @@
         </is>
       </c>
       <c r="S89" t="n">
-        <v>556</v>
+        <v>600</v>
       </c>
       <c r="T89" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="90">
@@ -7560,20 +7560,20 @@
       </c>
       <c r="L90" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M90" t="n">
-        <v>100</v>
+        <v>60</v>
       </c>
       <c r="N90" t="n">
-        <v>8000</v>
+        <v>13000</v>
       </c>
       <c r="O90" t="n">
-        <v>8000</v>
+        <v>13000</v>
       </c>
       <c r="P90" t="n">
-        <v>8000</v>
+        <v>13000</v>
       </c>
       <c r="Q90" t="inlineStr">
         <is>
@@ -7586,7 +7586,7 @@
         </is>
       </c>
       <c r="S90" t="n">
-        <v>444</v>
+        <v>722</v>
       </c>
       <c r="T90" t="n">
         <v>18</v>
@@ -7607,7 +7607,7 @@
         </is>
       </c>
       <c r="D91" s="2" t="n">
-        <v>44336</v>
+        <v>44407</v>
       </c>
       <c r="E91" t="n">
         <v>7</v>
@@ -7644,20 +7644,20 @@
         </is>
       </c>
       <c r="M91" t="n">
-        <v>250</v>
+        <v>150</v>
       </c>
       <c r="N91" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="O91" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="P91" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="Q91" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="R91" t="inlineStr">
@@ -7666,10 +7666,10 @@
         </is>
       </c>
       <c r="S91" t="n">
-        <v>800</v>
+        <v>556</v>
       </c>
       <c r="T91" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
     </row>
     <row r="92">
@@ -7687,7 +7687,7 @@
         </is>
       </c>
       <c r="D92" s="2" t="n">
-        <v>44341</v>
+        <v>44407</v>
       </c>
       <c r="E92" t="n">
         <v>7</v>
@@ -7720,20 +7720,20 @@
       </c>
       <c r="L92" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M92" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="N92" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="O92" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="P92" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="Q92" t="inlineStr">
         <is>
@@ -7746,7 +7746,7 @@
         </is>
       </c>
       <c r="S92" t="n">
-        <v>556</v>
+        <v>444</v>
       </c>
       <c r="T92" t="n">
         <v>18</v>
@@ -7767,7 +7767,7 @@
         </is>
       </c>
       <c r="D93" s="2" t="n">
-        <v>44341</v>
+        <v>44336</v>
       </c>
       <c r="E93" t="n">
         <v>7</v>
@@ -7804,20 +7804,20 @@
         </is>
       </c>
       <c r="M93" t="n">
-        <v>210</v>
+        <v>250</v>
       </c>
       <c r="N93" t="n">
-        <v>9000</v>
+        <v>8000</v>
       </c>
       <c r="O93" t="n">
-        <v>9000</v>
+        <v>8000</v>
       </c>
       <c r="P93" t="n">
-        <v>9000</v>
+        <v>8000</v>
       </c>
       <c r="Q93" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="R93" t="inlineStr">
@@ -7826,10 +7826,10 @@
         </is>
       </c>
       <c r="S93" t="n">
-        <v>500</v>
+        <v>800</v>
       </c>
       <c r="T93" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="94">
@@ -7847,7 +7847,7 @@
         </is>
       </c>
       <c r="D94" s="2" t="n">
-        <v>44426</v>
+        <v>44341</v>
       </c>
       <c r="E94" t="n">
         <v>7</v>
@@ -7884,20 +7884,20 @@
         </is>
       </c>
       <c r="M94" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="N94" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="O94" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="P94" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="Q94" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="R94" t="inlineStr">
@@ -7906,7 +7906,7 @@
         </is>
       </c>
       <c r="S94" t="n">
-        <v>667</v>
+        <v>556</v>
       </c>
       <c r="T94" t="n">
         <v>18</v>
@@ -7927,7 +7927,7 @@
         </is>
       </c>
       <c r="D95" s="2" t="n">
-        <v>44426</v>
+        <v>44341</v>
       </c>
       <c r="E95" t="n">
         <v>7</v>
@@ -7964,20 +7964,20 @@
         </is>
       </c>
       <c r="M95" t="n">
-        <v>120</v>
+        <v>210</v>
       </c>
       <c r="N95" t="n">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="O95" t="n">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="P95" t="n">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="Q95" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="R95" t="inlineStr">
@@ -7986,7 +7986,7 @@
         </is>
       </c>
       <c r="S95" t="n">
-        <v>556</v>
+        <v>500</v>
       </c>
       <c r="T95" t="n">
         <v>18</v>
@@ -8007,7 +8007,7 @@
         </is>
       </c>
       <c r="D96" s="2" t="n">
-        <v>44400</v>
+        <v>44426</v>
       </c>
       <c r="E96" t="n">
         <v>7</v>
@@ -8047,17 +8047,17 @@
         <v>100</v>
       </c>
       <c r="N96" t="n">
-        <v>13000</v>
+        <v>12000</v>
       </c>
       <c r="O96" t="n">
-        <v>13000</v>
+        <v>12000</v>
       </c>
       <c r="P96" t="n">
-        <v>13000</v>
+        <v>12000</v>
       </c>
       <c r="Q96" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="R96" t="inlineStr">
@@ -8066,7 +8066,7 @@
         </is>
       </c>
       <c r="S96" t="n">
-        <v>722</v>
+        <v>667</v>
       </c>
       <c r="T96" t="n">
         <v>18</v>
@@ -8087,7 +8087,7 @@
         </is>
       </c>
       <c r="D97" s="2" t="n">
-        <v>44400</v>
+        <v>44426</v>
       </c>
       <c r="E97" t="n">
         <v>7</v>
@@ -8124,7 +8124,7 @@
         </is>
       </c>
       <c r="M97" t="n">
-        <v>180</v>
+        <v>120</v>
       </c>
       <c r="N97" t="n">
         <v>10000</v>
@@ -8137,7 +8137,7 @@
       </c>
       <c r="Q97" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="R97" t="inlineStr">
@@ -8200,20 +8200,20 @@
       </c>
       <c r="L98" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M98" t="n">
-        <v>150</v>
+        <v>100</v>
       </c>
       <c r="N98" t="n">
-        <v>8000</v>
+        <v>13000</v>
       </c>
       <c r="O98" t="n">
-        <v>8000</v>
+        <v>13000</v>
       </c>
       <c r="P98" t="n">
-        <v>8000</v>
+        <v>13000</v>
       </c>
       <c r="Q98" t="inlineStr">
         <is>
@@ -8226,7 +8226,7 @@
         </is>
       </c>
       <c r="S98" t="n">
-        <v>444</v>
+        <v>722</v>
       </c>
       <c r="T98" t="n">
         <v>18</v>
@@ -8247,7 +8247,7 @@
         </is>
       </c>
       <c r="D99" s="2" t="n">
-        <v>44392</v>
+        <v>44400</v>
       </c>
       <c r="E99" t="n">
         <v>7</v>
@@ -8280,20 +8280,20 @@
       </c>
       <c r="L99" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M99" t="n">
-        <v>200</v>
+        <v>180</v>
       </c>
       <c r="N99" t="n">
-        <v>11000</v>
+        <v>10000</v>
       </c>
       <c r="O99" t="n">
-        <v>11000</v>
+        <v>10000</v>
       </c>
       <c r="P99" t="n">
-        <v>11000</v>
+        <v>10000</v>
       </c>
       <c r="Q99" t="inlineStr">
         <is>
@@ -8306,7 +8306,7 @@
         </is>
       </c>
       <c r="S99" t="n">
-        <v>611</v>
+        <v>556</v>
       </c>
       <c r="T99" t="n">
         <v>18</v>
@@ -8327,7 +8327,7 @@
         </is>
       </c>
       <c r="D100" s="2" t="n">
-        <v>44392</v>
+        <v>44400</v>
       </c>
       <c r="E100" t="n">
         <v>7</v>
@@ -8360,20 +8360,20 @@
       </c>
       <c r="L100" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M100" t="n">
-        <v>400</v>
+        <v>150</v>
       </c>
       <c r="N100" t="n">
-        <v>9000</v>
+        <v>8000</v>
       </c>
       <c r="O100" t="n">
-        <v>9000</v>
+        <v>8000</v>
       </c>
       <c r="P100" t="n">
-        <v>9000</v>
+        <v>8000</v>
       </c>
       <c r="Q100" t="inlineStr">
         <is>
@@ -8386,7 +8386,7 @@
         </is>
       </c>
       <c r="S100" t="n">
-        <v>500</v>
+        <v>444</v>
       </c>
       <c r="T100" t="n">
         <v>18</v>
@@ -8407,7 +8407,7 @@
         </is>
       </c>
       <c r="D101" s="2" t="n">
-        <v>44442</v>
+        <v>44392</v>
       </c>
       <c r="E101" t="n">
         <v>7</v>
@@ -8444,16 +8444,16 @@
         </is>
       </c>
       <c r="M101" t="n">
-        <v>180</v>
+        <v>200</v>
       </c>
       <c r="N101" t="n">
-        <v>14000</v>
+        <v>11000</v>
       </c>
       <c r="O101" t="n">
-        <v>14000</v>
+        <v>11000</v>
       </c>
       <c r="P101" t="n">
-        <v>14000</v>
+        <v>11000</v>
       </c>
       <c r="Q101" t="inlineStr">
         <is>
@@ -8466,7 +8466,7 @@
         </is>
       </c>
       <c r="S101" t="n">
-        <v>778</v>
+        <v>611</v>
       </c>
       <c r="T101" t="n">
         <v>18</v>
@@ -8487,7 +8487,7 @@
         </is>
       </c>
       <c r="D102" s="2" t="n">
-        <v>44442</v>
+        <v>44392</v>
       </c>
       <c r="E102" t="n">
         <v>7</v>
@@ -8524,16 +8524,16 @@
         </is>
       </c>
       <c r="M102" t="n">
-        <v>230</v>
+        <v>400</v>
       </c>
       <c r="N102" t="n">
-        <v>12000</v>
+        <v>9000</v>
       </c>
       <c r="O102" t="n">
-        <v>12000</v>
+        <v>9000</v>
       </c>
       <c r="P102" t="n">
-        <v>12000</v>
+        <v>9000</v>
       </c>
       <c r="Q102" t="inlineStr">
         <is>
@@ -8546,7 +8546,7 @@
         </is>
       </c>
       <c r="S102" t="n">
-        <v>667</v>
+        <v>500</v>
       </c>
       <c r="T102" t="n">
         <v>18</v>
@@ -8600,20 +8600,20 @@
       </c>
       <c r="L103" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M103" t="n">
-        <v>250</v>
+        <v>180</v>
       </c>
       <c r="N103" t="n">
-        <v>10000</v>
+        <v>14000</v>
       </c>
       <c r="O103" t="n">
-        <v>10000</v>
+        <v>14000</v>
       </c>
       <c r="P103" t="n">
-        <v>10000</v>
+        <v>14000</v>
       </c>
       <c r="Q103" t="inlineStr">
         <is>
@@ -8622,11 +8622,11 @@
       </c>
       <c r="R103" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S103" t="n">
-        <v>556</v>
+        <v>778</v>
       </c>
       <c r="T103" t="n">
         <v>18</v>
@@ -8680,20 +8680,20 @@
       </c>
       <c r="L104" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M104" t="n">
-        <v>200</v>
+        <v>230</v>
       </c>
       <c r="N104" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="O104" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="P104" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="Q104" t="inlineStr">
         <is>
@@ -8706,7 +8706,7 @@
         </is>
       </c>
       <c r="S104" t="n">
-        <v>556</v>
+        <v>667</v>
       </c>
       <c r="T104" t="n">
         <v>18</v>
@@ -8760,20 +8760,20 @@
       </c>
       <c r="L105" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M105" t="n">
-        <v>200</v>
+        <v>250</v>
       </c>
       <c r="N105" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="O105" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="P105" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="Q105" t="inlineStr">
         <is>
@@ -8786,7 +8786,7 @@
         </is>
       </c>
       <c r="S105" t="n">
-        <v>444</v>
+        <v>556</v>
       </c>
       <c r="T105" t="n">
         <v>18</v>
@@ -8807,7 +8807,7 @@
         </is>
       </c>
       <c r="D106" s="2" t="n">
-        <v>44453</v>
+        <v>44442</v>
       </c>
       <c r="E106" t="n">
         <v>7</v>
@@ -8840,24 +8840,24 @@
       </c>
       <c r="L106" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M106" t="n">
-        <v>250</v>
+        <v>200</v>
       </c>
       <c r="N106" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="O106" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="P106" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="Q106" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="R106" t="inlineStr">
@@ -8866,10 +8866,10 @@
         </is>
       </c>
       <c r="S106" t="n">
-        <v>1200</v>
+        <v>556</v>
       </c>
       <c r="T106" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
     </row>
     <row r="107">
@@ -8887,7 +8887,7 @@
         </is>
       </c>
       <c r="D107" s="2" t="n">
-        <v>44309</v>
+        <v>44442</v>
       </c>
       <c r="E107" t="n">
         <v>7</v>
@@ -8920,20 +8920,20 @@
       </c>
       <c r="L107" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M107" t="n">
-        <v>160</v>
+        <v>200</v>
       </c>
       <c r="N107" t="n">
-        <v>14000</v>
+        <v>8000</v>
       </c>
       <c r="O107" t="n">
-        <v>14000</v>
+        <v>8000</v>
       </c>
       <c r="P107" t="n">
-        <v>14000</v>
+        <v>8000</v>
       </c>
       <c r="Q107" t="inlineStr">
         <is>
@@ -8942,11 +8942,11 @@
       </c>
       <c r="R107" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S107" t="n">
-        <v>778</v>
+        <v>444</v>
       </c>
       <c r="T107" t="n">
         <v>18</v>
@@ -8967,7 +8967,7 @@
         </is>
       </c>
       <c r="D108" s="2" t="n">
-        <v>44309</v>
+        <v>44453</v>
       </c>
       <c r="E108" t="n">
         <v>7</v>
@@ -9007,13 +9007,13 @@
         <v>250</v>
       </c>
       <c r="N108" t="n">
-        <v>8000</v>
+        <v>12000</v>
       </c>
       <c r="O108" t="n">
-        <v>9000</v>
+        <v>12000</v>
       </c>
       <c r="P108" t="n">
-        <v>8600</v>
+        <v>12000</v>
       </c>
       <c r="Q108" t="inlineStr">
         <is>
@@ -9026,7 +9026,7 @@
         </is>
       </c>
       <c r="S108" t="n">
-        <v>860</v>
+        <v>1200</v>
       </c>
       <c r="T108" t="n">
         <v>10</v>
@@ -9080,20 +9080,20 @@
       </c>
       <c r="L109" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M109" t="n">
-        <v>100</v>
+        <v>160</v>
       </c>
       <c r="N109" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="O109" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="P109" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="Q109" t="inlineStr">
         <is>
@@ -9106,7 +9106,7 @@
         </is>
       </c>
       <c r="S109" t="n">
-        <v>667</v>
+        <v>778</v>
       </c>
       <c r="T109" t="n">
         <v>18</v>
@@ -9127,7 +9127,7 @@
         </is>
       </c>
       <c r="D110" s="2" t="n">
-        <v>44448</v>
+        <v>44309</v>
       </c>
       <c r="E110" t="n">
         <v>7</v>
@@ -9160,24 +9160,24 @@
       </c>
       <c r="L110" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M110" t="n">
-        <v>180</v>
+        <v>250</v>
       </c>
       <c r="N110" t="n">
-        <v>13000</v>
+        <v>8000</v>
       </c>
       <c r="O110" t="n">
-        <v>13000</v>
+        <v>9000</v>
       </c>
       <c r="P110" t="n">
-        <v>13000</v>
+        <v>8600</v>
       </c>
       <c r="Q110" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R110" t="inlineStr">
@@ -9186,10 +9186,10 @@
         </is>
       </c>
       <c r="S110" t="n">
-        <v>722</v>
+        <v>860</v>
       </c>
       <c r="T110" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="111">
@@ -9207,7 +9207,7 @@
         </is>
       </c>
       <c r="D111" s="2" t="n">
-        <v>44448</v>
+        <v>44309</v>
       </c>
       <c r="E111" t="n">
         <v>7</v>
@@ -9244,20 +9244,20 @@
         </is>
       </c>
       <c r="M111" t="n">
-        <v>230</v>
+        <v>100</v>
       </c>
       <c r="N111" t="n">
-        <v>11000</v>
+        <v>12000</v>
       </c>
       <c r="O111" t="n">
-        <v>11000</v>
+        <v>12000</v>
       </c>
       <c r="P111" t="n">
-        <v>11000</v>
+        <v>12000</v>
       </c>
       <c r="Q111" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="R111" t="inlineStr">
@@ -9266,7 +9266,7 @@
         </is>
       </c>
       <c r="S111" t="n">
-        <v>611</v>
+        <v>667</v>
       </c>
       <c r="T111" t="n">
         <v>18</v>
@@ -9287,7 +9287,7 @@
         </is>
       </c>
       <c r="D112" s="2" t="n">
-        <v>44354</v>
+        <v>44448</v>
       </c>
       <c r="E112" t="n">
         <v>7</v>
@@ -9327,26 +9327,26 @@
         <v>180</v>
       </c>
       <c r="N112" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="O112" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="P112" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="Q112" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="R112" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S112" t="n">
-        <v>667</v>
+        <v>722</v>
       </c>
       <c r="T112" t="n">
         <v>18</v>
@@ -9367,7 +9367,7 @@
         </is>
       </c>
       <c r="D113" s="2" t="n">
-        <v>44354</v>
+        <v>44448</v>
       </c>
       <c r="E113" t="n">
         <v>7</v>
@@ -9404,29 +9404,29 @@
         </is>
       </c>
       <c r="M113" t="n">
-        <v>100</v>
+        <v>230</v>
       </c>
       <c r="N113" t="n">
-        <v>10000</v>
+        <v>11000</v>
       </c>
       <c r="O113" t="n">
-        <v>10000</v>
+        <v>11000</v>
       </c>
       <c r="P113" t="n">
-        <v>10000</v>
+        <v>11000</v>
       </c>
       <c r="Q113" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="R113" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S113" t="n">
-        <v>556</v>
+        <v>611</v>
       </c>
       <c r="T113" t="n">
         <v>18</v>
@@ -9447,7 +9447,7 @@
         </is>
       </c>
       <c r="D114" s="2" t="n">
-        <v>44420</v>
+        <v>44354</v>
       </c>
       <c r="E114" t="n">
         <v>7</v>
@@ -9484,29 +9484,29 @@
         </is>
       </c>
       <c r="M114" t="n">
-        <v>120</v>
+        <v>180</v>
       </c>
       <c r="N114" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="O114" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="P114" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="Q114" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="R114" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S114" t="n">
-        <v>778</v>
+        <v>667</v>
       </c>
       <c r="T114" t="n">
         <v>18</v>
@@ -9527,7 +9527,7 @@
         </is>
       </c>
       <c r="D115" s="2" t="n">
-        <v>44420</v>
+        <v>44354</v>
       </c>
       <c r="E115" t="n">
         <v>7</v>
@@ -9564,29 +9564,29 @@
         </is>
       </c>
       <c r="M115" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="N115" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="O115" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="P115" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="Q115" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="R115" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S115" t="n">
-        <v>667</v>
+        <v>556</v>
       </c>
       <c r="T115" t="n">
         <v>18</v>
@@ -9607,7 +9607,7 @@
         </is>
       </c>
       <c r="D116" s="2" t="n">
-        <v>44370</v>
+        <v>44420</v>
       </c>
       <c r="E116" t="n">
         <v>7</v>
@@ -9644,20 +9644,20 @@
         </is>
       </c>
       <c r="M116" t="n">
-        <v>100</v>
+        <v>120</v>
       </c>
       <c r="N116" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="O116" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="P116" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="Q116" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="R116" t="inlineStr">
@@ -9666,7 +9666,7 @@
         </is>
       </c>
       <c r="S116" t="n">
-        <v>667</v>
+        <v>778</v>
       </c>
       <c r="T116" t="n">
         <v>18</v>
@@ -9687,7 +9687,7 @@
         </is>
       </c>
       <c r="D117" s="2" t="n">
-        <v>44370</v>
+        <v>44420</v>
       </c>
       <c r="E117" t="n">
         <v>7</v>
@@ -9724,20 +9724,20 @@
         </is>
       </c>
       <c r="M117" t="n">
-        <v>120</v>
+        <v>200</v>
       </c>
       <c r="N117" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="O117" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="P117" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="Q117" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="R117" t="inlineStr">
@@ -9746,7 +9746,7 @@
         </is>
       </c>
       <c r="S117" t="n">
-        <v>556</v>
+        <v>667</v>
       </c>
       <c r="T117" t="n">
         <v>18</v>
@@ -9800,20 +9800,20 @@
       </c>
       <c r="L118" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M118" t="n">
-        <v>60</v>
+        <v>100</v>
       </c>
       <c r="N118" t="n">
-        <v>8000</v>
+        <v>12000</v>
       </c>
       <c r="O118" t="n">
-        <v>8000</v>
+        <v>12000</v>
       </c>
       <c r="P118" t="n">
-        <v>8000</v>
+        <v>12000</v>
       </c>
       <c r="Q118" t="inlineStr">
         <is>
@@ -9826,7 +9826,7 @@
         </is>
       </c>
       <c r="S118" t="n">
-        <v>444</v>
+        <v>667</v>
       </c>
       <c r="T118" t="n">
         <v>18</v>
@@ -9847,7 +9847,7 @@
         </is>
       </c>
       <c r="D119" s="2" t="n">
-        <v>44285</v>
+        <v>44370</v>
       </c>
       <c r="E119" t="n">
         <v>7</v>
@@ -9884,32 +9884,32 @@
         </is>
       </c>
       <c r="M119" t="n">
-        <v>300</v>
+        <v>120</v>
       </c>
       <c r="N119" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="O119" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="P119" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="Q119" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="R119" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S119" t="n">
-        <v>900</v>
+        <v>556</v>
       </c>
       <c r="T119" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
     </row>
     <row r="120">
@@ -9927,7 +9927,7 @@
         </is>
       </c>
       <c r="D120" s="2" t="n">
-        <v>44285</v>
+        <v>44370</v>
       </c>
       <c r="E120" t="n">
         <v>7</v>
@@ -9964,32 +9964,32 @@
         </is>
       </c>
       <c r="M120" t="n">
-        <v>150</v>
+        <v>60</v>
       </c>
       <c r="N120" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="O120" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="P120" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="Q120" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="R120" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S120" t="n">
-        <v>700</v>
+        <v>444</v>
       </c>
       <c r="T120" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
     </row>
     <row r="121">
@@ -10007,7 +10007,7 @@
         </is>
       </c>
       <c r="D121" s="2" t="n">
-        <v>44266</v>
+        <v>44285</v>
       </c>
       <c r="E121" t="n">
         <v>7</v>
@@ -10044,32 +10044,32 @@
         </is>
       </c>
       <c r="M121" t="n">
-        <v>210</v>
+        <v>300</v>
       </c>
       <c r="N121" t="n">
-        <v>12000</v>
+        <v>9000</v>
       </c>
       <c r="O121" t="n">
-        <v>12000</v>
+        <v>9000</v>
       </c>
       <c r="P121" t="n">
-        <v>12000</v>
+        <v>9000</v>
       </c>
       <c r="Q121" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R121" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="S121" t="n">
-        <v>667</v>
+        <v>900</v>
       </c>
       <c r="T121" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="122">
@@ -10087,7 +10087,7 @@
         </is>
       </c>
       <c r="D122" s="2" t="n">
-        <v>44350</v>
+        <v>44285</v>
       </c>
       <c r="E122" t="n">
         <v>7</v>
@@ -10120,36 +10120,36 @@
       </c>
       <c r="L122" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M122" t="n">
-        <v>130</v>
+        <v>150</v>
       </c>
       <c r="N122" t="n">
-        <v>11000</v>
+        <v>7000</v>
       </c>
       <c r="O122" t="n">
-        <v>11000</v>
+        <v>7000</v>
       </c>
       <c r="P122" t="n">
-        <v>11000</v>
+        <v>7000</v>
       </c>
       <c r="Q122" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos granel</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R122" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="S122" t="n">
-        <v>611</v>
+        <v>700</v>
       </c>
       <c r="T122" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="123">
@@ -10167,7 +10167,7 @@
         </is>
       </c>
       <c r="D123" s="2" t="n">
-        <v>44350</v>
+        <v>44266</v>
       </c>
       <c r="E123" t="n">
         <v>7</v>
@@ -10204,20 +10204,20 @@
         </is>
       </c>
       <c r="M123" t="n">
-        <v>360</v>
+        <v>210</v>
       </c>
       <c r="N123" t="n">
-        <v>9000</v>
+        <v>12000</v>
       </c>
       <c r="O123" t="n">
-        <v>9000</v>
+        <v>12000</v>
       </c>
       <c r="P123" t="n">
-        <v>9000</v>
+        <v>12000</v>
       </c>
       <c r="Q123" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos granel</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="R123" t="inlineStr">
@@ -10226,7 +10226,7 @@
         </is>
       </c>
       <c r="S123" t="n">
-        <v>500</v>
+        <v>667</v>
       </c>
       <c r="T123" t="n">
         <v>18</v>
@@ -10280,20 +10280,20 @@
       </c>
       <c r="L124" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M124" t="n">
-        <v>100</v>
+        <v>130</v>
       </c>
       <c r="N124" t="n">
-        <v>9000</v>
+        <v>11000</v>
       </c>
       <c r="O124" t="n">
-        <v>9000</v>
+        <v>11000</v>
       </c>
       <c r="P124" t="n">
-        <v>9000</v>
+        <v>11000</v>
       </c>
       <c r="Q124" t="inlineStr">
         <is>
@@ -10306,7 +10306,7 @@
         </is>
       </c>
       <c r="S124" t="n">
-        <v>500</v>
+        <v>611</v>
       </c>
       <c r="T124" t="n">
         <v>18</v>
@@ -10360,24 +10360,24 @@
       </c>
       <c r="L125" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M125" t="n">
-        <v>210</v>
+        <v>360</v>
       </c>
       <c r="N125" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="O125" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="P125" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="Q125" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 18 kilos granel</t>
         </is>
       </c>
       <c r="R125" t="inlineStr">
@@ -10386,7 +10386,7 @@
         </is>
       </c>
       <c r="S125" t="n">
-        <v>389</v>
+        <v>500</v>
       </c>
       <c r="T125" t="n">
         <v>18</v>
@@ -10440,20 +10440,20 @@
       </c>
       <c r="L126" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M126" t="n">
-        <v>150</v>
+        <v>100</v>
       </c>
       <c r="N126" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="O126" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="P126" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="Q126" t="inlineStr">
         <is>
@@ -10466,7 +10466,7 @@
         </is>
       </c>
       <c r="S126" t="n">
-        <v>389</v>
+        <v>500</v>
       </c>
       <c r="T126" t="n">
         <v>18</v>
@@ -10487,7 +10487,7 @@
         </is>
       </c>
       <c r="D127" s="2" t="n">
-        <v>44455</v>
+        <v>44350</v>
       </c>
       <c r="E127" t="n">
         <v>7</v>
@@ -10520,20 +10520,20 @@
       </c>
       <c r="L127" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M127" t="n">
-        <v>150</v>
+        <v>210</v>
       </c>
       <c r="N127" t="n">
-        <v>12000</v>
+        <v>7000</v>
       </c>
       <c r="O127" t="n">
-        <v>12000</v>
+        <v>7000</v>
       </c>
       <c r="P127" t="n">
-        <v>12000</v>
+        <v>7000</v>
       </c>
       <c r="Q127" t="inlineStr">
         <is>
@@ -10546,7 +10546,7 @@
         </is>
       </c>
       <c r="S127" t="n">
-        <v>667</v>
+        <v>389</v>
       </c>
       <c r="T127" t="n">
         <v>18</v>
@@ -10567,7 +10567,7 @@
         </is>
       </c>
       <c r="D128" s="2" t="n">
-        <v>44455</v>
+        <v>44350</v>
       </c>
       <c r="E128" t="n">
         <v>7</v>
@@ -10604,29 +10604,29 @@
         </is>
       </c>
       <c r="M128" t="n">
-        <v>100</v>
+        <v>150</v>
       </c>
       <c r="N128" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="O128" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="P128" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="Q128" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 18 kilos granel</t>
         </is>
       </c>
       <c r="R128" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S128" t="n">
-        <v>556</v>
+        <v>389</v>
       </c>
       <c r="T128" t="n">
         <v>18</v>
@@ -10647,7 +10647,7 @@
         </is>
       </c>
       <c r="D129" s="2" t="n">
-        <v>44418</v>
+        <v>44455</v>
       </c>
       <c r="E129" t="n">
         <v>7</v>
@@ -10680,20 +10680,20 @@
       </c>
       <c r="L129" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M129" t="n">
-        <v>100</v>
+        <v>150</v>
       </c>
       <c r="N129" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="O129" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="P129" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="Q129" t="inlineStr">
         <is>
@@ -10706,7 +10706,7 @@
         </is>
       </c>
       <c r="S129" t="n">
-        <v>778</v>
+        <v>667</v>
       </c>
       <c r="T129" t="n">
         <v>18</v>
@@ -10727,7 +10727,7 @@
         </is>
       </c>
       <c r="D130" s="2" t="n">
-        <v>44418</v>
+        <v>44455</v>
       </c>
       <c r="E130" t="n">
         <v>7</v>
@@ -10760,20 +10760,20 @@
       </c>
       <c r="L130" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M130" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="N130" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="O130" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="P130" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="Q130" t="inlineStr">
         <is>
@@ -10786,7 +10786,7 @@
         </is>
       </c>
       <c r="S130" t="n">
-        <v>667</v>
+        <v>556</v>
       </c>
       <c r="T130" t="n">
         <v>18</v>
@@ -10840,20 +10840,20 @@
       </c>
       <c r="L131" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M131" t="n">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="N131" t="n">
-        <v>10000</v>
+        <v>14000</v>
       </c>
       <c r="O131" t="n">
-        <v>10000</v>
+        <v>14000</v>
       </c>
       <c r="P131" t="n">
-        <v>10000</v>
+        <v>14000</v>
       </c>
       <c r="Q131" t="inlineStr">
         <is>
@@ -10866,7 +10866,7 @@
         </is>
       </c>
       <c r="S131" t="n">
-        <v>556</v>
+        <v>778</v>
       </c>
       <c r="T131" t="n">
         <v>18</v>
@@ -10887,7 +10887,7 @@
         </is>
       </c>
       <c r="D132" s="2" t="n">
-        <v>44414</v>
+        <v>44418</v>
       </c>
       <c r="E132" t="n">
         <v>7</v>
@@ -10924,20 +10924,20 @@
         </is>
       </c>
       <c r="M132" t="n">
-        <v>150</v>
+        <v>200</v>
       </c>
       <c r="N132" t="n">
-        <v>8000</v>
+        <v>12000</v>
       </c>
       <c r="O132" t="n">
-        <v>8000</v>
+        <v>12000</v>
       </c>
       <c r="P132" t="n">
-        <v>8000</v>
+        <v>12000</v>
       </c>
       <c r="Q132" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="R132" t="inlineStr">
@@ -10946,10 +10946,10 @@
         </is>
       </c>
       <c r="S132" t="n">
-        <v>800</v>
+        <v>667</v>
       </c>
       <c r="T132" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
     </row>
     <row r="133">
@@ -10967,7 +10967,7 @@
         </is>
       </c>
       <c r="D133" s="2" t="n">
-        <v>44414</v>
+        <v>44418</v>
       </c>
       <c r="E133" t="n">
         <v>7</v>
@@ -11000,20 +11000,20 @@
       </c>
       <c r="L133" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M133" t="n">
-        <v>190</v>
+        <v>90</v>
       </c>
       <c r="N133" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="O133" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="P133" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="Q133" t="inlineStr">
         <is>
@@ -11026,7 +11026,7 @@
         </is>
       </c>
       <c r="S133" t="n">
-        <v>667</v>
+        <v>556</v>
       </c>
       <c r="T133" t="n">
         <v>18</v>
@@ -11080,24 +11080,24 @@
       </c>
       <c r="L134" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M134" t="n">
-        <v>100</v>
+        <v>150</v>
       </c>
       <c r="N134" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="O134" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="P134" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="Q134" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R134" t="inlineStr">
@@ -11106,10 +11106,10 @@
         </is>
       </c>
       <c r="S134" t="n">
-        <v>556</v>
+        <v>800</v>
       </c>
       <c r="T134" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="135">
@@ -11127,7 +11127,7 @@
         </is>
       </c>
       <c r="D135" s="2" t="n">
-        <v>44466</v>
+        <v>44414</v>
       </c>
       <c r="E135" t="n">
         <v>7</v>
@@ -11164,16 +11164,16 @@
         </is>
       </c>
       <c r="M135" t="n">
-        <v>200</v>
+        <v>190</v>
       </c>
       <c r="N135" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="O135" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="P135" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="Q135" t="inlineStr">
         <is>
@@ -11186,7 +11186,7 @@
         </is>
       </c>
       <c r="S135" t="n">
-        <v>556</v>
+        <v>667</v>
       </c>
       <c r="T135" t="n">
         <v>18</v>
@@ -11207,7 +11207,7 @@
         </is>
       </c>
       <c r="D136" s="2" t="n">
-        <v>44389</v>
+        <v>44414</v>
       </c>
       <c r="E136" t="n">
         <v>7</v>
@@ -11240,24 +11240,24 @@
       </c>
       <c r="L136" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M136" t="n">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="N136" t="n">
-        <v>6000</v>
+        <v>10000</v>
       </c>
       <c r="O136" t="n">
-        <v>6000</v>
+        <v>10000</v>
       </c>
       <c r="P136" t="n">
-        <v>6000</v>
+        <v>10000</v>
       </c>
       <c r="Q136" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="R136" t="inlineStr">
@@ -11266,10 +11266,10 @@
         </is>
       </c>
       <c r="S136" t="n">
-        <v>600</v>
+        <v>556</v>
       </c>
       <c r="T136" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
     </row>
     <row r="137">
@@ -11287,7 +11287,7 @@
         </is>
       </c>
       <c r="D137" s="2" t="n">
-        <v>44343</v>
+        <v>44466</v>
       </c>
       <c r="E137" t="n">
         <v>7</v>
@@ -11320,11 +11320,11 @@
       </c>
       <c r="L137" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M137" t="n">
-        <v>120</v>
+        <v>200</v>
       </c>
       <c r="N137" t="n">
         <v>10000</v>
@@ -11367,7 +11367,7 @@
         </is>
       </c>
       <c r="D138" s="2" t="n">
-        <v>44343</v>
+        <v>44389</v>
       </c>
       <c r="E138" t="n">
         <v>7</v>
@@ -11404,20 +11404,20 @@
         </is>
       </c>
       <c r="M138" t="n">
-        <v>160</v>
+        <v>300</v>
       </c>
       <c r="N138" t="n">
-        <v>9000</v>
+        <v>6000</v>
       </c>
       <c r="O138" t="n">
-        <v>9000</v>
+        <v>6000</v>
       </c>
       <c r="P138" t="n">
-        <v>9000</v>
+        <v>6000</v>
       </c>
       <c r="Q138" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="R138" t="inlineStr">
@@ -11426,10 +11426,10 @@
         </is>
       </c>
       <c r="S138" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="T138" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="139">
@@ -11447,7 +11447,7 @@
         </is>
       </c>
       <c r="D139" s="2" t="n">
-        <v>44280</v>
+        <v>44343</v>
       </c>
       <c r="E139" t="n">
         <v>7</v>
@@ -11480,11 +11480,11 @@
       </c>
       <c r="L139" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M139" t="n">
-        <v>100</v>
+        <v>120</v>
       </c>
       <c r="N139" t="n">
         <v>10000</v>
@@ -11497,7 +11497,7 @@
       </c>
       <c r="Q139" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="R139" t="inlineStr">
@@ -11506,10 +11506,10 @@
         </is>
       </c>
       <c r="S139" t="n">
-        <v>1000</v>
+        <v>556</v>
       </c>
       <c r="T139" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
     </row>
     <row r="140">
@@ -11527,7 +11527,7 @@
         </is>
       </c>
       <c r="D140" s="2" t="n">
-        <v>44280</v>
+        <v>44343</v>
       </c>
       <c r="E140" t="n">
         <v>7</v>
@@ -11560,24 +11560,24 @@
       </c>
       <c r="L140" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M140" t="n">
-        <v>60</v>
+        <v>160</v>
       </c>
       <c r="N140" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="O140" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="P140" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="Q140" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="R140" t="inlineStr">
@@ -11586,10 +11586,10 @@
         </is>
       </c>
       <c r="S140" t="n">
-        <v>800</v>
+        <v>500</v>
       </c>
       <c r="T140" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
     </row>
     <row r="141">
@@ -11607,7 +11607,7 @@
         </is>
       </c>
       <c r="D141" s="2" t="n">
-        <v>44390</v>
+        <v>44280</v>
       </c>
       <c r="E141" t="n">
         <v>7</v>
@@ -11644,20 +11644,20 @@
         </is>
       </c>
       <c r="M141" t="n">
-        <v>250</v>
+        <v>100</v>
       </c>
       <c r="N141" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="O141" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="P141" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="Q141" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="R141" t="inlineStr">
@@ -11666,10 +11666,10 @@
         </is>
       </c>
       <c r="S141" t="n">
-        <v>500</v>
+        <v>1000</v>
       </c>
       <c r="T141" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="142">
@@ -11687,7 +11687,7 @@
         </is>
       </c>
       <c r="D142" s="2" t="n">
-        <v>44386</v>
+        <v>44280</v>
       </c>
       <c r="E142" t="n">
         <v>7</v>
@@ -11720,20 +11720,20 @@
       </c>
       <c r="L142" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M142" t="n">
-        <v>300</v>
+        <v>60</v>
       </c>
       <c r="N142" t="n">
-        <v>6000</v>
+        <v>8000</v>
       </c>
       <c r="O142" t="n">
-        <v>6000</v>
+        <v>8000</v>
       </c>
       <c r="P142" t="n">
-        <v>6000</v>
+        <v>8000</v>
       </c>
       <c r="Q142" t="inlineStr">
         <is>
@@ -11746,7 +11746,7 @@
         </is>
       </c>
       <c r="S142" t="n">
-        <v>600</v>
+        <v>800</v>
       </c>
       <c r="T142" t="n">
         <v>10</v>
@@ -11767,7 +11767,7 @@
         </is>
       </c>
       <c r="D143" s="2" t="n">
-        <v>44308</v>
+        <v>44390</v>
       </c>
       <c r="E143" t="n">
         <v>7</v>
@@ -11800,20 +11800,20 @@
       </c>
       <c r="L143" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M143" t="n">
-        <v>100</v>
+        <v>250</v>
       </c>
       <c r="N143" t="n">
-        <v>14000</v>
+        <v>9000</v>
       </c>
       <c r="O143" t="n">
-        <v>14000</v>
+        <v>9000</v>
       </c>
       <c r="P143" t="n">
-        <v>14000</v>
+        <v>9000</v>
       </c>
       <c r="Q143" t="inlineStr">
         <is>
@@ -11826,7 +11826,7 @@
         </is>
       </c>
       <c r="S143" t="n">
-        <v>778</v>
+        <v>500</v>
       </c>
       <c r="T143" t="n">
         <v>18</v>
@@ -11847,7 +11847,7 @@
         </is>
       </c>
       <c r="D144" s="2" t="n">
-        <v>44369</v>
+        <v>44386</v>
       </c>
       <c r="E144" t="n">
         <v>7</v>
@@ -11880,24 +11880,24 @@
       </c>
       <c r="L144" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M144" t="n">
-        <v>230</v>
+        <v>300</v>
       </c>
       <c r="N144" t="n">
-        <v>8000</v>
+        <v>6000</v>
       </c>
       <c r="O144" t="n">
-        <v>8000</v>
+        <v>6000</v>
       </c>
       <c r="P144" t="n">
-        <v>8000</v>
+        <v>6000</v>
       </c>
       <c r="Q144" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="R144" t="inlineStr">
@@ -11906,7 +11906,7 @@
         </is>
       </c>
       <c r="S144" t="n">
-        <v>800</v>
+        <v>600</v>
       </c>
       <c r="T144" t="n">
         <v>10</v>
@@ -11927,7 +11927,7 @@
         </is>
       </c>
       <c r="D145" s="2" t="n">
-        <v>44369</v>
+        <v>44308</v>
       </c>
       <c r="E145" t="n">
         <v>7</v>
@@ -11967,13 +11967,13 @@
         <v>100</v>
       </c>
       <c r="N145" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="O145" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="P145" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="Q145" t="inlineStr">
         <is>
@@ -11986,7 +11986,7 @@
         </is>
       </c>
       <c r="S145" t="n">
-        <v>667</v>
+        <v>778</v>
       </c>
       <c r="T145" t="n">
         <v>18</v>
@@ -12040,20 +12040,20 @@
       </c>
       <c r="L146" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M146" t="n">
-        <v>200</v>
+        <v>230</v>
       </c>
       <c r="N146" t="n">
-        <v>6000</v>
+        <v>8000</v>
       </c>
       <c r="O146" t="n">
-        <v>6000</v>
+        <v>8000</v>
       </c>
       <c r="P146" t="n">
-        <v>6000</v>
+        <v>8000</v>
       </c>
       <c r="Q146" t="inlineStr">
         <is>
@@ -12066,7 +12066,7 @@
         </is>
       </c>
       <c r="S146" t="n">
-        <v>600</v>
+        <v>800</v>
       </c>
       <c r="T146" t="n">
         <v>10</v>
@@ -12120,20 +12120,20 @@
       </c>
       <c r="L147" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M147" t="n">
-        <v>180</v>
+        <v>100</v>
       </c>
       <c r="N147" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="O147" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="P147" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="Q147" t="inlineStr">
         <is>
@@ -12146,7 +12146,7 @@
         </is>
       </c>
       <c r="S147" t="n">
-        <v>556</v>
+        <v>667</v>
       </c>
       <c r="T147" t="n">
         <v>18</v>
@@ -12167,7 +12167,7 @@
         </is>
       </c>
       <c r="D148" s="2" t="n">
-        <v>44433</v>
+        <v>44369</v>
       </c>
       <c r="E148" t="n">
         <v>7</v>
@@ -12200,24 +12200,24 @@
       </c>
       <c r="L148" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M148" t="n">
-        <v>120</v>
+        <v>200</v>
       </c>
       <c r="N148" t="n">
-        <v>14000</v>
+        <v>6000</v>
       </c>
       <c r="O148" t="n">
-        <v>14000</v>
+        <v>6000</v>
       </c>
       <c r="P148" t="n">
-        <v>14000</v>
+        <v>6000</v>
       </c>
       <c r="Q148" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R148" t="inlineStr">
@@ -12226,10 +12226,10 @@
         </is>
       </c>
       <c r="S148" t="n">
-        <v>778</v>
+        <v>600</v>
       </c>
       <c r="T148" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="149">
@@ -12247,7 +12247,7 @@
         </is>
       </c>
       <c r="D149" s="2" t="n">
-        <v>44433</v>
+        <v>44369</v>
       </c>
       <c r="E149" t="n">
         <v>7</v>
@@ -12287,17 +12287,17 @@
         <v>180</v>
       </c>
       <c r="N149" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="O149" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="P149" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="Q149" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="R149" t="inlineStr">
@@ -12306,7 +12306,7 @@
         </is>
       </c>
       <c r="S149" t="n">
-        <v>667</v>
+        <v>556</v>
       </c>
       <c r="T149" t="n">
         <v>18</v>
@@ -12327,7 +12327,7 @@
         </is>
       </c>
       <c r="D150" s="2" t="n">
-        <v>44316</v>
+        <v>44433</v>
       </c>
       <c r="E150" t="n">
         <v>7</v>
@@ -12364,20 +12364,20 @@
         </is>
       </c>
       <c r="M150" t="n">
-        <v>160</v>
+        <v>120</v>
       </c>
       <c r="N150" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="O150" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="P150" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="Q150" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="R150" t="inlineStr">
@@ -12386,10 +12386,10 @@
         </is>
       </c>
       <c r="S150" t="n">
-        <v>1200</v>
+        <v>778</v>
       </c>
       <c r="T150" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
     </row>
     <row r="151">
@@ -12407,7 +12407,7 @@
         </is>
       </c>
       <c r="D151" s="2" t="n">
-        <v>44316</v>
+        <v>44433</v>
       </c>
       <c r="E151" t="n">
         <v>7</v>
@@ -12444,20 +12444,20 @@
         </is>
       </c>
       <c r="M151" t="n">
-        <v>200</v>
+        <v>180</v>
       </c>
       <c r="N151" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="O151" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="P151" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="Q151" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="R151" t="inlineStr">
@@ -12466,10 +12466,10 @@
         </is>
       </c>
       <c r="S151" t="n">
-        <v>1000</v>
+        <v>667</v>
       </c>
       <c r="T151" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
     </row>
     <row r="152">
@@ -12520,24 +12520,24 @@
       </c>
       <c r="L152" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M152" t="n">
-        <v>190</v>
+        <v>160</v>
       </c>
       <c r="N152" t="n">
-        <v>13000</v>
+        <v>12000</v>
       </c>
       <c r="O152" t="n">
-        <v>13000</v>
+        <v>12000</v>
       </c>
       <c r="P152" t="n">
-        <v>13000</v>
+        <v>12000</v>
       </c>
       <c r="Q152" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R152" t="inlineStr">
@@ -12546,10 +12546,10 @@
         </is>
       </c>
       <c r="S152" t="n">
-        <v>722</v>
+        <v>1200</v>
       </c>
       <c r="T152" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="153">
@@ -12567,7 +12567,7 @@
         </is>
       </c>
       <c r="D153" s="2" t="n">
-        <v>44397</v>
+        <v>44316</v>
       </c>
       <c r="E153" t="n">
         <v>7</v>
@@ -12600,24 +12600,24 @@
       </c>
       <c r="L153" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M153" t="n">
-        <v>190</v>
+        <v>200</v>
       </c>
       <c r="N153" t="n">
-        <v>14000</v>
+        <v>10000</v>
       </c>
       <c r="O153" t="n">
-        <v>14000</v>
+        <v>10000</v>
       </c>
       <c r="P153" t="n">
-        <v>14000</v>
+        <v>10000</v>
       </c>
       <c r="Q153" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R153" t="inlineStr">
@@ -12626,10 +12626,10 @@
         </is>
       </c>
       <c r="S153" t="n">
-        <v>778</v>
+        <v>1000</v>
       </c>
       <c r="T153" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="154">
@@ -12647,7 +12647,7 @@
         </is>
       </c>
       <c r="D154" s="2" t="n">
-        <v>44397</v>
+        <v>44316</v>
       </c>
       <c r="E154" t="n">
         <v>7</v>
@@ -12680,11 +12680,11 @@
       </c>
       <c r="L154" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M154" t="n">
-        <v>150</v>
+        <v>190</v>
       </c>
       <c r="N154" t="n">
         <v>13000</v>
@@ -12697,12 +12697,12 @@
       </c>
       <c r="Q154" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="R154" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S154" t="n">
@@ -12760,20 +12760,20 @@
       </c>
       <c r="L155" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M155" t="n">
-        <v>480</v>
+        <v>190</v>
       </c>
       <c r="N155" t="n">
-        <v>9000</v>
+        <v>14000</v>
       </c>
       <c r="O155" t="n">
-        <v>10000</v>
+        <v>14000</v>
       </c>
       <c r="P155" t="n">
-        <v>9479</v>
+        <v>14000</v>
       </c>
       <c r="Q155" t="inlineStr">
         <is>
@@ -12786,7 +12786,7 @@
         </is>
       </c>
       <c r="S155" t="n">
-        <v>527</v>
+        <v>778</v>
       </c>
       <c r="T155" t="n">
         <v>18</v>
@@ -12807,7 +12807,7 @@
         </is>
       </c>
       <c r="D156" s="2" t="n">
-        <v>44363</v>
+        <v>44397</v>
       </c>
       <c r="E156" t="n">
         <v>7</v>
@@ -12840,20 +12840,20 @@
       </c>
       <c r="L156" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M156" t="n">
-        <v>280</v>
+        <v>150</v>
       </c>
       <c r="N156" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="O156" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="P156" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="Q156" t="inlineStr">
         <is>
@@ -12866,7 +12866,7 @@
         </is>
       </c>
       <c r="S156" t="n">
-        <v>556</v>
+        <v>722</v>
       </c>
       <c r="T156" t="n">
         <v>18</v>
@@ -12887,7 +12887,7 @@
         </is>
       </c>
       <c r="D157" s="2" t="n">
-        <v>44363</v>
+        <v>44397</v>
       </c>
       <c r="E157" t="n">
         <v>7</v>
@@ -12920,20 +12920,20 @@
       </c>
       <c r="L157" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M157" t="n">
-        <v>300</v>
+        <v>480</v>
       </c>
       <c r="N157" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="O157" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="P157" t="n">
-        <v>8000</v>
+        <v>9479</v>
       </c>
       <c r="Q157" t="inlineStr">
         <is>
@@ -12942,11 +12942,11 @@
       </c>
       <c r="R157" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S157" t="n">
-        <v>444</v>
+        <v>527</v>
       </c>
       <c r="T157" t="n">
         <v>18</v>
@@ -12967,7 +12967,7 @@
         </is>
       </c>
       <c r="D158" s="2" t="n">
-        <v>44438</v>
+        <v>44363</v>
       </c>
       <c r="E158" t="n">
         <v>7</v>
@@ -13000,20 +13000,20 @@
       </c>
       <c r="L158" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M158" t="n">
-        <v>230</v>
+        <v>280</v>
       </c>
       <c r="N158" t="n">
-        <v>13000</v>
+        <v>10000</v>
       </c>
       <c r="O158" t="n">
-        <v>13000</v>
+        <v>10000</v>
       </c>
       <c r="P158" t="n">
-        <v>13000</v>
+        <v>10000</v>
       </c>
       <c r="Q158" t="inlineStr">
         <is>
@@ -13022,11 +13022,11 @@
       </c>
       <c r="R158" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S158" t="n">
-        <v>722</v>
+        <v>556</v>
       </c>
       <c r="T158" t="n">
         <v>18</v>
@@ -13047,7 +13047,7 @@
         </is>
       </c>
       <c r="D159" s="2" t="n">
-        <v>44438</v>
+        <v>44363</v>
       </c>
       <c r="E159" t="n">
         <v>7</v>
@@ -13080,20 +13080,20 @@
       </c>
       <c r="L159" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M159" t="n">
         <v>300</v>
       </c>
       <c r="N159" t="n">
-        <v>11000</v>
+        <v>8000</v>
       </c>
       <c r="O159" t="n">
-        <v>11000</v>
+        <v>8000</v>
       </c>
       <c r="P159" t="n">
-        <v>11000</v>
+        <v>8000</v>
       </c>
       <c r="Q159" t="inlineStr">
         <is>
@@ -13102,11 +13102,11 @@
       </c>
       <c r="R159" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S159" t="n">
-        <v>611</v>
+        <v>444</v>
       </c>
       <c r="T159" t="n">
         <v>18</v>
@@ -13127,7 +13127,7 @@
         </is>
       </c>
       <c r="D160" s="2" t="n">
-        <v>44372</v>
+        <v>44438</v>
       </c>
       <c r="E160" t="n">
         <v>7</v>
@@ -13164,16 +13164,16 @@
         </is>
       </c>
       <c r="M160" t="n">
-        <v>130</v>
+        <v>230</v>
       </c>
       <c r="N160" t="n">
-        <v>11000</v>
+        <v>13000</v>
       </c>
       <c r="O160" t="n">
-        <v>11000</v>
+        <v>13000</v>
       </c>
       <c r="P160" t="n">
-        <v>11000</v>
+        <v>13000</v>
       </c>
       <c r="Q160" t="inlineStr">
         <is>
@@ -13186,7 +13186,7 @@
         </is>
       </c>
       <c r="S160" t="n">
-        <v>611</v>
+        <v>722</v>
       </c>
       <c r="T160" t="n">
         <v>18</v>
@@ -13207,7 +13207,7 @@
         </is>
       </c>
       <c r="D161" s="2" t="n">
-        <v>44372</v>
+        <v>44438</v>
       </c>
       <c r="E161" t="n">
         <v>7</v>
@@ -13244,16 +13244,16 @@
         </is>
       </c>
       <c r="M161" t="n">
-        <v>120</v>
+        <v>300</v>
       </c>
       <c r="N161" t="n">
-        <v>9000</v>
+        <v>11000</v>
       </c>
       <c r="O161" t="n">
-        <v>9000</v>
+        <v>11000</v>
       </c>
       <c r="P161" t="n">
-        <v>9000</v>
+        <v>11000</v>
       </c>
       <c r="Q161" t="inlineStr">
         <is>
@@ -13266,7 +13266,7 @@
         </is>
       </c>
       <c r="S161" t="n">
-        <v>500</v>
+        <v>611</v>
       </c>
       <c r="T161" t="n">
         <v>18</v>
@@ -13320,20 +13320,20 @@
       </c>
       <c r="L162" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M162" t="n">
-        <v>100</v>
+        <v>130</v>
       </c>
       <c r="N162" t="n">
-        <v>7000</v>
+        <v>11000</v>
       </c>
       <c r="O162" t="n">
-        <v>7000</v>
+        <v>11000</v>
       </c>
       <c r="P162" t="n">
-        <v>7000</v>
+        <v>11000</v>
       </c>
       <c r="Q162" t="inlineStr">
         <is>
@@ -13346,7 +13346,7 @@
         </is>
       </c>
       <c r="S162" t="n">
-        <v>389</v>
+        <v>611</v>
       </c>
       <c r="T162" t="n">
         <v>18</v>
@@ -13367,7 +13367,7 @@
         </is>
       </c>
       <c r="D163" s="2" t="n">
-        <v>44356</v>
+        <v>44372</v>
       </c>
       <c r="E163" t="n">
         <v>7</v>
@@ -13400,20 +13400,20 @@
       </c>
       <c r="L163" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M163" t="n">
-        <v>200</v>
+        <v>120</v>
       </c>
       <c r="N163" t="n">
-        <v>12000</v>
+        <v>9000</v>
       </c>
       <c r="O163" t="n">
-        <v>12000</v>
+        <v>9000</v>
       </c>
       <c r="P163" t="n">
-        <v>12000</v>
+        <v>9000</v>
       </c>
       <c r="Q163" t="inlineStr">
         <is>
@@ -13426,7 +13426,7 @@
         </is>
       </c>
       <c r="S163" t="n">
-        <v>667</v>
+        <v>500</v>
       </c>
       <c r="T163" t="n">
         <v>18</v>
@@ -13447,7 +13447,7 @@
         </is>
       </c>
       <c r="D164" s="2" t="n">
-        <v>44356</v>
+        <v>44372</v>
       </c>
       <c r="E164" t="n">
         <v>7</v>
@@ -13480,20 +13480,20 @@
       </c>
       <c r="L164" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M164" t="n">
-        <v>140</v>
+        <v>100</v>
       </c>
       <c r="N164" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="O164" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="P164" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="Q164" t="inlineStr">
         <is>
@@ -13506,7 +13506,7 @@
         </is>
       </c>
       <c r="S164" t="n">
-        <v>556</v>
+        <v>389</v>
       </c>
       <c r="T164" t="n">
         <v>18</v>
@@ -13560,20 +13560,20 @@
       </c>
       <c r="L165" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M165" t="n">
-        <v>80</v>
+        <v>200</v>
       </c>
       <c r="N165" t="n">
-        <v>8000</v>
+        <v>12000</v>
       </c>
       <c r="O165" t="n">
-        <v>8000</v>
+        <v>12000</v>
       </c>
       <c r="P165" t="n">
-        <v>8000</v>
+        <v>12000</v>
       </c>
       <c r="Q165" t="inlineStr">
         <is>
@@ -13586,7 +13586,7 @@
         </is>
       </c>
       <c r="S165" t="n">
-        <v>444</v>
+        <v>667</v>
       </c>
       <c r="T165" t="n">
         <v>18</v>
@@ -13607,7 +13607,7 @@
         </is>
       </c>
       <c r="D166" s="2" t="n">
-        <v>44351</v>
+        <v>44356</v>
       </c>
       <c r="E166" t="n">
         <v>7</v>
@@ -13640,20 +13640,20 @@
       </c>
       <c r="L166" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M166" t="n">
-        <v>260</v>
+        <v>140</v>
       </c>
       <c r="N166" t="n">
-        <v>11000</v>
+        <v>10000</v>
       </c>
       <c r="O166" t="n">
-        <v>11000</v>
+        <v>10000</v>
       </c>
       <c r="P166" t="n">
-        <v>11000</v>
+        <v>10000</v>
       </c>
       <c r="Q166" t="inlineStr">
         <is>
@@ -13666,7 +13666,7 @@
         </is>
       </c>
       <c r="S166" t="n">
-        <v>611</v>
+        <v>556</v>
       </c>
       <c r="T166" t="n">
         <v>18</v>
@@ -13687,7 +13687,7 @@
         </is>
       </c>
       <c r="D167" s="2" t="n">
-        <v>44351</v>
+        <v>44356</v>
       </c>
       <c r="E167" t="n">
         <v>7</v>
@@ -13720,20 +13720,20 @@
       </c>
       <c r="L167" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M167" t="n">
-        <v>200</v>
+        <v>80</v>
       </c>
       <c r="N167" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="O167" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="P167" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="Q167" t="inlineStr">
         <is>
@@ -13746,7 +13746,7 @@
         </is>
       </c>
       <c r="S167" t="n">
-        <v>556</v>
+        <v>444</v>
       </c>
       <c r="T167" t="n">
         <v>18</v>
@@ -13800,36 +13800,36 @@
       </c>
       <c r="L168" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M168" t="n">
-        <v>230</v>
+        <v>260</v>
       </c>
       <c r="N168" t="n">
-        <v>8000</v>
+        <v>11000</v>
       </c>
       <c r="O168" t="n">
-        <v>8000</v>
+        <v>11000</v>
       </c>
       <c r="P168" t="n">
-        <v>8000</v>
+        <v>11000</v>
       </c>
       <c r="Q168" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="R168" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S168" t="n">
-        <v>800</v>
+        <v>611</v>
       </c>
       <c r="T168" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
     </row>
     <row r="169">
@@ -13847,7 +13847,7 @@
         </is>
       </c>
       <c r="D169" s="2" t="n">
-        <v>44365</v>
+        <v>44351</v>
       </c>
       <c r="E169" t="n">
         <v>7</v>
@@ -13880,20 +13880,20 @@
       </c>
       <c r="L169" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M169" t="n">
-        <v>90</v>
+        <v>200</v>
       </c>
       <c r="N169" t="n">
-        <v>11000</v>
+        <v>10000</v>
       </c>
       <c r="O169" t="n">
-        <v>11000</v>
+        <v>10000</v>
       </c>
       <c r="P169" t="n">
-        <v>11000</v>
+        <v>10000</v>
       </c>
       <c r="Q169" t="inlineStr">
         <is>
@@ -13906,7 +13906,7 @@
         </is>
       </c>
       <c r="S169" t="n">
-        <v>611</v>
+        <v>556</v>
       </c>
       <c r="T169" t="n">
         <v>18</v>
@@ -13927,7 +13927,7 @@
         </is>
       </c>
       <c r="D170" s="2" t="n">
-        <v>44365</v>
+        <v>44351</v>
       </c>
       <c r="E170" t="n">
         <v>7</v>
@@ -13964,32 +13964,32 @@
         </is>
       </c>
       <c r="M170" t="n">
-        <v>200</v>
+        <v>230</v>
       </c>
       <c r="N170" t="n">
-        <v>9000</v>
+        <v>8000</v>
       </c>
       <c r="O170" t="n">
-        <v>9000</v>
+        <v>8000</v>
       </c>
       <c r="P170" t="n">
-        <v>9000</v>
+        <v>8000</v>
       </c>
       <c r="Q170" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="R170" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S170" t="n">
-        <v>500</v>
+        <v>800</v>
       </c>
       <c r="T170" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="171">
@@ -14040,20 +14040,20 @@
       </c>
       <c r="L171" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M171" t="n">
-        <v>150</v>
+        <v>90</v>
       </c>
       <c r="N171" t="n">
-        <v>7000</v>
+        <v>11000</v>
       </c>
       <c r="O171" t="n">
-        <v>7000</v>
+        <v>11000</v>
       </c>
       <c r="P171" t="n">
-        <v>7000</v>
+        <v>11000</v>
       </c>
       <c r="Q171" t="inlineStr">
         <is>
@@ -14066,7 +14066,7 @@
         </is>
       </c>
       <c r="S171" t="n">
-        <v>389</v>
+        <v>611</v>
       </c>
       <c r="T171" t="n">
         <v>18</v>
@@ -14087,7 +14087,7 @@
         </is>
       </c>
       <c r="D172" s="2" t="n">
-        <v>44306</v>
+        <v>44365</v>
       </c>
       <c r="E172" t="n">
         <v>7</v>
@@ -14120,24 +14120,24 @@
       </c>
       <c r="L172" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M172" t="n">
-        <v>230</v>
+        <v>200</v>
       </c>
       <c r="N172" t="n">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="O172" t="n">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="P172" t="n">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="Q172" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="R172" t="inlineStr">
@@ -14146,10 +14146,10 @@
         </is>
       </c>
       <c r="S172" t="n">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="T172" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
     </row>
     <row r="173">
@@ -14167,7 +14167,7 @@
         </is>
       </c>
       <c r="D173" s="2" t="n">
-        <v>44306</v>
+        <v>44365</v>
       </c>
       <c r="E173" t="n">
         <v>7</v>
@@ -14200,20 +14200,20 @@
       </c>
       <c r="L173" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M173" t="n">
-        <v>180</v>
+        <v>150</v>
       </c>
       <c r="N173" t="n">
-        <v>13000</v>
+        <v>7000</v>
       </c>
       <c r="O173" t="n">
-        <v>13000</v>
+        <v>7000</v>
       </c>
       <c r="P173" t="n">
-        <v>13000</v>
+        <v>7000</v>
       </c>
       <c r="Q173" t="inlineStr">
         <is>
@@ -14226,7 +14226,7 @@
         </is>
       </c>
       <c r="S173" t="n">
-        <v>722</v>
+        <v>389</v>
       </c>
       <c r="T173" t="n">
         <v>18</v>
@@ -14280,20 +14280,20 @@
       </c>
       <c r="L174" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M174" t="n">
         <v>230</v>
       </c>
       <c r="N174" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="O174" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="P174" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="Q174" t="inlineStr">
         <is>
@@ -14306,7 +14306,7 @@
         </is>
       </c>
       <c r="S174" t="n">
-        <v>800</v>
+        <v>1000</v>
       </c>
       <c r="T174" t="n">
         <v>10</v>
@@ -14327,7 +14327,7 @@
         </is>
       </c>
       <c r="D175" s="2" t="n">
-        <v>44461</v>
+        <v>44306</v>
       </c>
       <c r="E175" t="n">
         <v>7</v>
@@ -14364,16 +14364,16 @@
         </is>
       </c>
       <c r="M175" t="n">
-        <v>200</v>
+        <v>180</v>
       </c>
       <c r="N175" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="O175" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="P175" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="Q175" t="inlineStr">
         <is>
@@ -14386,7 +14386,7 @@
         </is>
       </c>
       <c r="S175" t="n">
-        <v>667</v>
+        <v>722</v>
       </c>
       <c r="T175" t="n">
         <v>18</v>
@@ -14407,7 +14407,7 @@
         </is>
       </c>
       <c r="D176" s="2" t="n">
-        <v>44461</v>
+        <v>44306</v>
       </c>
       <c r="E176" t="n">
         <v>7</v>
@@ -14444,20 +14444,20 @@
         </is>
       </c>
       <c r="M176" t="n">
-        <v>150</v>
+        <v>230</v>
       </c>
       <c r="N176" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="O176" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="P176" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="Q176" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R176" t="inlineStr">
@@ -14466,10 +14466,10 @@
         </is>
       </c>
       <c r="S176" t="n">
-        <v>556</v>
+        <v>800</v>
       </c>
       <c r="T176" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="177">
@@ -14487,7 +14487,7 @@
         </is>
       </c>
       <c r="D177" s="2" t="n">
-        <v>44357</v>
+        <v>44461</v>
       </c>
       <c r="E177" t="n">
         <v>7</v>
@@ -14524,16 +14524,16 @@
         </is>
       </c>
       <c r="M177" t="n">
-        <v>130</v>
+        <v>200</v>
       </c>
       <c r="N177" t="n">
-        <v>13000</v>
+        <v>12000</v>
       </c>
       <c r="O177" t="n">
-        <v>13000</v>
+        <v>12000</v>
       </c>
       <c r="P177" t="n">
-        <v>13000</v>
+        <v>12000</v>
       </c>
       <c r="Q177" t="inlineStr">
         <is>
@@ -14546,7 +14546,7 @@
         </is>
       </c>
       <c r="S177" t="n">
-        <v>722</v>
+        <v>667</v>
       </c>
       <c r="T177" t="n">
         <v>18</v>
@@ -14567,7 +14567,7 @@
         </is>
       </c>
       <c r="D178" s="2" t="n">
-        <v>44357</v>
+        <v>44461</v>
       </c>
       <c r="E178" t="n">
         <v>7</v>
@@ -14604,16 +14604,16 @@
         </is>
       </c>
       <c r="M178" t="n">
-        <v>190</v>
+        <v>150</v>
       </c>
       <c r="N178" t="n">
-        <v>11000</v>
+        <v>10000</v>
       </c>
       <c r="O178" t="n">
-        <v>11000</v>
+        <v>10000</v>
       </c>
       <c r="P178" t="n">
-        <v>11000</v>
+        <v>10000</v>
       </c>
       <c r="Q178" t="inlineStr">
         <is>
@@ -14626,7 +14626,7 @@
         </is>
       </c>
       <c r="S178" t="n">
-        <v>611</v>
+        <v>556</v>
       </c>
       <c r="T178" t="n">
         <v>18</v>
@@ -14647,7 +14647,7 @@
         </is>
       </c>
       <c r="D179" s="2" t="n">
-        <v>44410</v>
+        <v>44357</v>
       </c>
       <c r="E179" t="n">
         <v>7</v>
@@ -14680,20 +14680,20 @@
       </c>
       <c r="L179" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M179" t="n">
-        <v>230</v>
+        <v>130</v>
       </c>
       <c r="N179" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="O179" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="P179" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="Q179" t="inlineStr">
         <is>
@@ -14706,7 +14706,7 @@
         </is>
       </c>
       <c r="S179" t="n">
-        <v>667</v>
+        <v>722</v>
       </c>
       <c r="T179" t="n">
         <v>18</v>
@@ -14727,7 +14727,7 @@
         </is>
       </c>
       <c r="D180" s="2" t="n">
-        <v>44410</v>
+        <v>44357</v>
       </c>
       <c r="E180" t="n">
         <v>7</v>
@@ -14764,20 +14764,20 @@
         </is>
       </c>
       <c r="M180" t="n">
-        <v>230</v>
+        <v>190</v>
       </c>
       <c r="N180" t="n">
-        <v>7000</v>
+        <v>11000</v>
       </c>
       <c r="O180" t="n">
-        <v>7000</v>
+        <v>11000</v>
       </c>
       <c r="P180" t="n">
-        <v>7000</v>
+        <v>11000</v>
       </c>
       <c r="Q180" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="R180" t="inlineStr">
@@ -14786,10 +14786,10 @@
         </is>
       </c>
       <c r="S180" t="n">
-        <v>700</v>
+        <v>611</v>
       </c>
       <c r="T180" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
     </row>
     <row r="181">
@@ -14807,7 +14807,7 @@
         </is>
       </c>
       <c r="D181" s="2" t="n">
-        <v>44376</v>
+        <v>44410</v>
       </c>
       <c r="E181" t="n">
         <v>7</v>
@@ -14844,16 +14844,16 @@
         </is>
       </c>
       <c r="M181" t="n">
-        <v>260</v>
+        <v>230</v>
       </c>
       <c r="N181" t="n">
-        <v>9000</v>
+        <v>12000</v>
       </c>
       <c r="O181" t="n">
-        <v>9000</v>
+        <v>12000</v>
       </c>
       <c r="P181" t="n">
-        <v>9000</v>
+        <v>12000</v>
       </c>
       <c r="Q181" t="inlineStr">
         <is>
@@ -14866,7 +14866,7 @@
         </is>
       </c>
       <c r="S181" t="n">
-        <v>500</v>
+        <v>667</v>
       </c>
       <c r="T181" t="n">
         <v>18</v>
@@ -14887,7 +14887,7 @@
         </is>
       </c>
       <c r="D182" s="2" t="n">
-        <v>44358</v>
+        <v>44410</v>
       </c>
       <c r="E182" t="n">
         <v>7</v>
@@ -14920,24 +14920,24 @@
       </c>
       <c r="L182" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M182" t="n">
         <v>230</v>
       </c>
       <c r="N182" t="n">
-        <v>13000</v>
+        <v>7000</v>
       </c>
       <c r="O182" t="n">
-        <v>13000</v>
+        <v>7000</v>
       </c>
       <c r="P182" t="n">
-        <v>13000</v>
+        <v>7000</v>
       </c>
       <c r="Q182" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="R182" t="inlineStr">
@@ -14946,10 +14946,10 @@
         </is>
       </c>
       <c r="S182" t="n">
-        <v>722</v>
+        <v>700</v>
       </c>
       <c r="T182" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="183">
@@ -14967,7 +14967,7 @@
         </is>
       </c>
       <c r="D183" s="2" t="n">
-        <v>44358</v>
+        <v>44376</v>
       </c>
       <c r="E183" t="n">
         <v>7</v>
@@ -15000,11 +15000,11 @@
       </c>
       <c r="L183" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M183" t="n">
-        <v>250</v>
+        <v>260</v>
       </c>
       <c r="N183" t="n">
         <v>9000</v>
@@ -15017,7 +15017,7 @@
       </c>
       <c r="Q183" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="R183" t="inlineStr">
@@ -15026,10 +15026,10 @@
         </is>
       </c>
       <c r="S183" t="n">
-        <v>900</v>
+        <v>500</v>
       </c>
       <c r="T183" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
     </row>
     <row r="184">
@@ -15080,20 +15080,20 @@
       </c>
       <c r="L184" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M184" t="n">
-        <v>210</v>
+        <v>230</v>
       </c>
       <c r="N184" t="n">
-        <v>11000</v>
+        <v>13000</v>
       </c>
       <c r="O184" t="n">
-        <v>11000</v>
+        <v>13000</v>
       </c>
       <c r="P184" t="n">
-        <v>11000</v>
+        <v>13000</v>
       </c>
       <c r="Q184" t="inlineStr">
         <is>
@@ -15106,7 +15106,7 @@
         </is>
       </c>
       <c r="S184" t="n">
-        <v>611</v>
+        <v>722</v>
       </c>
       <c r="T184" t="n">
         <v>18</v>
@@ -15160,20 +15160,20 @@
       </c>
       <c r="L185" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M185" t="n">
-        <v>200</v>
+        <v>250</v>
       </c>
       <c r="N185" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="O185" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="P185" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="Q185" t="inlineStr">
         <is>
@@ -15186,7 +15186,7 @@
         </is>
       </c>
       <c r="S185" t="n">
-        <v>700</v>
+        <v>900</v>
       </c>
       <c r="T185" t="n">
         <v>10</v>
@@ -15240,20 +15240,20 @@
       </c>
       <c r="L186" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M186" t="n">
-        <v>190</v>
+        <v>210</v>
       </c>
       <c r="N186" t="n">
-        <v>9000</v>
+        <v>11000</v>
       </c>
       <c r="O186" t="n">
-        <v>9000</v>
+        <v>11000</v>
       </c>
       <c r="P186" t="n">
-        <v>9000</v>
+        <v>11000</v>
       </c>
       <c r="Q186" t="inlineStr">
         <is>
@@ -15266,7 +15266,7 @@
         </is>
       </c>
       <c r="S186" t="n">
-        <v>500</v>
+        <v>611</v>
       </c>
       <c r="T186" t="n">
         <v>18</v>
@@ -15287,7 +15287,7 @@
         </is>
       </c>
       <c r="D187" s="2" t="n">
-        <v>44425</v>
+        <v>44358</v>
       </c>
       <c r="E187" t="n">
         <v>7</v>
@@ -15320,24 +15320,24 @@
       </c>
       <c r="L187" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M187" t="n">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="N187" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="O187" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="P187" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="Q187" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="R187" t="inlineStr">
@@ -15346,10 +15346,10 @@
         </is>
       </c>
       <c r="S187" t="n">
-        <v>444</v>
+        <v>700</v>
       </c>
       <c r="T187" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="188">
@@ -15367,7 +15367,7 @@
         </is>
       </c>
       <c r="D188" s="2" t="n">
-        <v>44323</v>
+        <v>44358</v>
       </c>
       <c r="E188" t="n">
         <v>7</v>
@@ -15400,24 +15400,24 @@
       </c>
       <c r="L188" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M188" t="n">
-        <v>150</v>
+        <v>190</v>
       </c>
       <c r="N188" t="n">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="O188" t="n">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="P188" t="n">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="Q188" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="R188" t="inlineStr">
@@ -15426,10 +15426,10 @@
         </is>
       </c>
       <c r="S188" t="n">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="T188" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
     </row>
     <row r="189">
@@ -15447,68 +15447,228 @@
         </is>
       </c>
       <c r="D189" s="2" t="n">
+        <v>44425</v>
+      </c>
+      <c r="E189" t="n">
+        <v>7</v>
+      </c>
+      <c r="F189" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G189" t="n">
+        <v>100101</v>
+      </c>
+      <c r="H189" t="inlineStr">
+        <is>
+          <t>Berries</t>
+        </is>
+      </c>
+      <c r="I189" t="n">
+        <v>100101007</v>
+      </c>
+      <c r="J189" t="inlineStr">
+        <is>
+          <t>Kiwi</t>
+        </is>
+      </c>
+      <c r="K189" t="inlineStr">
+        <is>
+          <t>Hayward</t>
+        </is>
+      </c>
+      <c r="L189" t="inlineStr">
+        <is>
+          <t>Segunda</t>
+        </is>
+      </c>
+      <c r="M189" t="n">
+        <v>300</v>
+      </c>
+      <c r="N189" t="n">
+        <v>8000</v>
+      </c>
+      <c r="O189" t="n">
+        <v>8000</v>
+      </c>
+      <c r="P189" t="n">
+        <v>8000</v>
+      </c>
+      <c r="Q189" t="inlineStr">
+        <is>
+          <t>$/bandeja 18 kilos</t>
+        </is>
+      </c>
+      <c r="R189" t="inlineStr">
+        <is>
+          <t>Provincia de Curicó</t>
+        </is>
+      </c>
+      <c r="S189" t="n">
+        <v>444</v>
+      </c>
+      <c r="T189" t="n">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" t="n">
+        <v>5</v>
+      </c>
+      <c r="B190" t="inlineStr">
+        <is>
+          <t>Macroferia Regional de Talca</t>
+        </is>
+      </c>
+      <c r="C190" t="inlineStr">
+        <is>
+          <t>Maule</t>
+        </is>
+      </c>
+      <c r="D190" s="2" t="n">
         <v>44323</v>
       </c>
-      <c r="E189" t="n">
-        <v>7</v>
-      </c>
-      <c r="F189" t="inlineStr">
-        <is>
-          <t>Fruta</t>
-        </is>
-      </c>
-      <c r="G189" t="n">
-        <v>100101</v>
-      </c>
-      <c r="H189" t="inlineStr">
-        <is>
-          <t>Berries</t>
-        </is>
-      </c>
-      <c r="I189" t="n">
-        <v>100101007</v>
-      </c>
-      <c r="J189" t="inlineStr">
-        <is>
-          <t>Kiwi</t>
-        </is>
-      </c>
-      <c r="K189" t="inlineStr">
-        <is>
-          <t>Hayward</t>
-        </is>
-      </c>
-      <c r="L189" t="inlineStr">
+      <c r="E190" t="n">
+        <v>7</v>
+      </c>
+      <c r="F190" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G190" t="n">
+        <v>100101</v>
+      </c>
+      <c r="H190" t="inlineStr">
+        <is>
+          <t>Berries</t>
+        </is>
+      </c>
+      <c r="I190" t="n">
+        <v>100101007</v>
+      </c>
+      <c r="J190" t="inlineStr">
+        <is>
+          <t>Kiwi</t>
+        </is>
+      </c>
+      <c r="K190" t="inlineStr">
+        <is>
+          <t>Hayward</t>
+        </is>
+      </c>
+      <c r="L190" t="inlineStr">
+        <is>
+          <t>Especial</t>
+        </is>
+      </c>
+      <c r="M190" t="n">
+        <v>150</v>
+      </c>
+      <c r="N190" t="n">
+        <v>10000</v>
+      </c>
+      <c r="O190" t="n">
+        <v>10000</v>
+      </c>
+      <c r="P190" t="n">
+        <v>10000</v>
+      </c>
+      <c r="Q190" t="inlineStr">
+        <is>
+          <t>$/bandeja 10 kilos</t>
+        </is>
+      </c>
+      <c r="R190" t="inlineStr">
+        <is>
+          <t>Provincia de Curicó</t>
+        </is>
+      </c>
+      <c r="S190" t="n">
+        <v>1000</v>
+      </c>
+      <c r="T190" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" t="n">
+        <v>5</v>
+      </c>
+      <c r="B191" t="inlineStr">
+        <is>
+          <t>Macroferia Regional de Talca</t>
+        </is>
+      </c>
+      <c r="C191" t="inlineStr">
+        <is>
+          <t>Maule</t>
+        </is>
+      </c>
+      <c r="D191" s="2" t="n">
+        <v>44323</v>
+      </c>
+      <c r="E191" t="n">
+        <v>7</v>
+      </c>
+      <c r="F191" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G191" t="n">
+        <v>100101</v>
+      </c>
+      <c r="H191" t="inlineStr">
+        <is>
+          <t>Berries</t>
+        </is>
+      </c>
+      <c r="I191" t="n">
+        <v>100101007</v>
+      </c>
+      <c r="J191" t="inlineStr">
+        <is>
+          <t>Kiwi</t>
+        </is>
+      </c>
+      <c r="K191" t="inlineStr">
+        <is>
+          <t>Hayward</t>
+        </is>
+      </c>
+      <c r="L191" t="inlineStr">
         <is>
           <t>Primera</t>
         </is>
       </c>
-      <c r="M189" t="n">
+      <c r="M191" t="n">
         <v>100</v>
       </c>
-      <c r="N189" t="n">
+      <c r="N191" t="n">
         <v>9000</v>
       </c>
-      <c r="O189" t="n">
+      <c r="O191" t="n">
         <v>9000</v>
       </c>
-      <c r="P189" t="n">
+      <c r="P191" t="n">
         <v>9000</v>
       </c>
-      <c r="Q189" t="inlineStr">
+      <c r="Q191" t="inlineStr">
         <is>
           <t>$/bandeja 10 kilos</t>
         </is>
       </c>
-      <c r="R189" t="inlineStr">
-        <is>
-          <t>Provincia de Curicó</t>
-        </is>
-      </c>
-      <c r="S189" t="n">
+      <c r="R191" t="inlineStr">
+        <is>
+          <t>Provincia de Curicó</t>
+        </is>
+      </c>
+      <c r="S191" t="n">
         <v>900</v>
       </c>
-      <c r="T189" t="n">
+      <c r="T191" t="n">
         <v>10</v>
       </c>
     </row>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Macroferia Regional de Talca - Kiwi.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Macroferia Regional de Talca - Kiwi.xlsx
@@ -487,7 +487,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44295</v>
+        <v>44400</v>
       </c>
       <c r="E2" t="n">
         <v>7</v>
@@ -520,20 +520,20 @@
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M2" t="n">
-        <v>160</v>
+        <v>100</v>
       </c>
       <c r="N2" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="O2" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="P2" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
@@ -546,7 +546,7 @@
         </is>
       </c>
       <c r="S2" t="n">
-        <v>556</v>
+        <v>722</v>
       </c>
       <c r="T2" t="n">
         <v>18</v>
@@ -567,7 +567,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44382</v>
+        <v>44400</v>
       </c>
       <c r="E3" t="n">
         <v>7</v>
@@ -600,20 +600,20 @@
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M3" t="n">
-        <v>150</v>
+        <v>180</v>
       </c>
       <c r="N3" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="O3" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="P3" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
@@ -626,7 +626,7 @@
         </is>
       </c>
       <c r="S3" t="n">
-        <v>667</v>
+        <v>556</v>
       </c>
       <c r="T3" t="n">
         <v>18</v>
@@ -647,7 +647,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44382</v>
+        <v>44400</v>
       </c>
       <c r="E4" t="n">
         <v>7</v>
@@ -680,20 +680,20 @@
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M4" t="n">
-        <v>200</v>
+        <v>150</v>
       </c>
       <c r="N4" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="O4" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="P4" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
@@ -706,7 +706,7 @@
         </is>
       </c>
       <c r="S4" t="n">
-        <v>556</v>
+        <v>444</v>
       </c>
       <c r="T4" t="n">
         <v>18</v>
@@ -727,7 +727,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44432</v>
+        <v>44281</v>
       </c>
       <c r="E5" t="n">
         <v>7</v>
@@ -760,24 +760,24 @@
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M5" t="n">
         <v>210</v>
       </c>
       <c r="N5" t="n">
-        <v>14000</v>
+        <v>10000</v>
       </c>
       <c r="O5" t="n">
-        <v>14000</v>
+        <v>10000</v>
       </c>
       <c r="P5" t="n">
-        <v>14000</v>
+        <v>10000</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R5" t="inlineStr">
@@ -786,10 +786,10 @@
         </is>
       </c>
       <c r="S5" t="n">
-        <v>778</v>
+        <v>1000</v>
       </c>
       <c r="T5" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="6">
@@ -807,7 +807,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>44315</v>
+        <v>44348</v>
       </c>
       <c r="E6" t="n">
         <v>7</v>
@@ -840,24 +840,24 @@
       </c>
       <c r="L6" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M6" t="n">
-        <v>140</v>
+        <v>230</v>
       </c>
       <c r="N6" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="O6" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="P6" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="R6" t="inlineStr">
@@ -866,10 +866,10 @@
         </is>
       </c>
       <c r="S6" t="n">
-        <v>1200</v>
+        <v>556</v>
       </c>
       <c r="T6" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
     </row>
     <row r="7">
@@ -887,7 +887,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>44315</v>
+        <v>44348</v>
       </c>
       <c r="E7" t="n">
         <v>7</v>
@@ -920,24 +920,24 @@
       </c>
       <c r="L7" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M7" t="n">
-        <v>120</v>
+        <v>190</v>
       </c>
       <c r="N7" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="O7" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="P7" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="R7" t="inlineStr">
@@ -946,10 +946,10 @@
         </is>
       </c>
       <c r="S7" t="n">
-        <v>1000</v>
+        <v>444</v>
       </c>
       <c r="T7" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
     </row>
     <row r="8">
@@ -967,7 +967,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>44315</v>
+        <v>44285</v>
       </c>
       <c r="E8" t="n">
         <v>7</v>
@@ -1000,33 +1000,33 @@
       </c>
       <c r="L8" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M8" t="n">
-        <v>50</v>
+        <v>300</v>
       </c>
       <c r="N8" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="O8" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="P8" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R8" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="S8" t="n">
-        <v>800</v>
+        <v>900</v>
       </c>
       <c r="T8" t="n">
         <v>10</v>
@@ -1047,7 +1047,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>44403</v>
+        <v>44285</v>
       </c>
       <c r="E9" t="n">
         <v>7</v>
@@ -1080,36 +1080,36 @@
       </c>
       <c r="L9" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M9" t="n">
-        <v>350</v>
+        <v>150</v>
       </c>
       <c r="N9" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="O9" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="P9" t="n">
-        <v>9429</v>
+        <v>7000</v>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R9" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="S9" t="n">
-        <v>524</v>
+        <v>700</v>
       </c>
       <c r="T9" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="10">
@@ -1127,7 +1127,7 @@
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>44403</v>
+        <v>44329</v>
       </c>
       <c r="E10" t="n">
         <v>7</v>
@@ -1160,11 +1160,11 @@
       </c>
       <c r="L10" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M10" t="n">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="N10" t="n">
         <v>8000</v>
@@ -1177,7 +1177,7 @@
       </c>
       <c r="Q10" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="R10" t="inlineStr">
@@ -1186,10 +1186,10 @@
         </is>
       </c>
       <c r="S10" t="n">
-        <v>444</v>
+        <v>800</v>
       </c>
       <c r="T10" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="11">
@@ -1207,7 +1207,7 @@
         </is>
       </c>
       <c r="D11" s="2" t="n">
-        <v>44326</v>
+        <v>44313</v>
       </c>
       <c r="E11" t="n">
         <v>7</v>
@@ -1240,24 +1240,24 @@
       </c>
       <c r="L11" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M11" t="n">
-        <v>130</v>
+        <v>350</v>
       </c>
       <c r="N11" t="n">
-        <v>14000</v>
+        <v>9000</v>
       </c>
       <c r="O11" t="n">
-        <v>14000</v>
+        <v>9000</v>
       </c>
       <c r="P11" t="n">
-        <v>14000</v>
+        <v>9000</v>
       </c>
       <c r="Q11" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R11" t="inlineStr">
@@ -1266,10 +1266,10 @@
         </is>
       </c>
       <c r="S11" t="n">
-        <v>778</v>
+        <v>900</v>
       </c>
       <c r="T11" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="12">
@@ -1287,7 +1287,7 @@
         </is>
       </c>
       <c r="D12" s="2" t="n">
-        <v>44326</v>
+        <v>44313</v>
       </c>
       <c r="E12" t="n">
         <v>7</v>
@@ -1320,24 +1320,24 @@
       </c>
       <c r="L12" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="M12" t="n">
-        <v>100</v>
+        <v>250</v>
       </c>
       <c r="N12" t="n">
-        <v>12000</v>
+        <v>6000</v>
       </c>
       <c r="O12" t="n">
-        <v>12000</v>
+        <v>6000</v>
       </c>
       <c r="P12" t="n">
-        <v>12000</v>
+        <v>6000</v>
       </c>
       <c r="Q12" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R12" t="inlineStr">
@@ -1346,10 +1346,10 @@
         </is>
       </c>
       <c r="S12" t="n">
-        <v>667</v>
+        <v>600</v>
       </c>
       <c r="T12" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="13">
@@ -1367,7 +1367,7 @@
         </is>
       </c>
       <c r="D13" s="2" t="n">
-        <v>44428</v>
+        <v>44455</v>
       </c>
       <c r="E13" t="n">
         <v>7</v>
@@ -1400,20 +1400,20 @@
       </c>
       <c r="L13" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M13" t="n">
-        <v>230</v>
+        <v>150</v>
       </c>
       <c r="N13" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="O13" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="P13" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="Q13" t="inlineStr">
         <is>
@@ -1426,7 +1426,7 @@
         </is>
       </c>
       <c r="S13" t="n">
-        <v>778</v>
+        <v>667</v>
       </c>
       <c r="T13" t="n">
         <v>18</v>
@@ -1447,7 +1447,7 @@
         </is>
       </c>
       <c r="D14" s="2" t="n">
-        <v>44428</v>
+        <v>44455</v>
       </c>
       <c r="E14" t="n">
         <v>7</v>
@@ -1480,20 +1480,20 @@
       </c>
       <c r="L14" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M14" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="N14" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="O14" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="P14" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="Q14" t="inlineStr">
         <is>
@@ -1506,7 +1506,7 @@
         </is>
       </c>
       <c r="S14" t="n">
-        <v>667</v>
+        <v>556</v>
       </c>
       <c r="T14" t="n">
         <v>18</v>
@@ -1527,7 +1527,7 @@
         </is>
       </c>
       <c r="D15" s="2" t="n">
-        <v>44428</v>
+        <v>44266</v>
       </c>
       <c r="E15" t="n">
         <v>7</v>
@@ -1560,24 +1560,24 @@
       </c>
       <c r="L15" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M15" t="n">
-        <v>120</v>
+        <v>210</v>
       </c>
       <c r="N15" t="n">
-        <v>8000</v>
+        <v>12000</v>
       </c>
       <c r="O15" t="n">
-        <v>8000</v>
+        <v>12000</v>
       </c>
       <c r="P15" t="n">
-        <v>8000</v>
+        <v>12000</v>
       </c>
       <c r="Q15" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="R15" t="inlineStr">
@@ -1586,7 +1586,7 @@
         </is>
       </c>
       <c r="S15" t="n">
-        <v>444</v>
+        <v>667</v>
       </c>
       <c r="T15" t="n">
         <v>18</v>
@@ -1607,7 +1607,7 @@
         </is>
       </c>
       <c r="D16" s="2" t="n">
-        <v>44454</v>
+        <v>44383</v>
       </c>
       <c r="E16" t="n">
         <v>7</v>
@@ -1644,16 +1644,16 @@
         </is>
       </c>
       <c r="M16" t="n">
-        <v>100</v>
+        <v>210</v>
       </c>
       <c r="N16" t="n">
-        <v>12000</v>
+        <v>9000</v>
       </c>
       <c r="O16" t="n">
-        <v>12000</v>
+        <v>9000</v>
       </c>
       <c r="P16" t="n">
-        <v>12000</v>
+        <v>9000</v>
       </c>
       <c r="Q16" t="inlineStr">
         <is>
@@ -1666,7 +1666,7 @@
         </is>
       </c>
       <c r="S16" t="n">
-        <v>667</v>
+        <v>500</v>
       </c>
       <c r="T16" t="n">
         <v>18</v>
@@ -1687,7 +1687,7 @@
         </is>
       </c>
       <c r="D17" s="2" t="n">
-        <v>44454</v>
+        <v>44383</v>
       </c>
       <c r="E17" t="n">
         <v>7</v>
@@ -1720,24 +1720,24 @@
       </c>
       <c r="L17" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M17" t="n">
-        <v>80</v>
+        <v>260</v>
       </c>
       <c r="N17" t="n">
-        <v>10000</v>
+        <v>6000</v>
       </c>
       <c r="O17" t="n">
-        <v>10000</v>
+        <v>6000</v>
       </c>
       <c r="P17" t="n">
-        <v>10000</v>
+        <v>6000</v>
       </c>
       <c r="Q17" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="R17" t="inlineStr">
@@ -1746,10 +1746,10 @@
         </is>
       </c>
       <c r="S17" t="n">
-        <v>556</v>
+        <v>600</v>
       </c>
       <c r="T17" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="18">
@@ -1767,7 +1767,7 @@
         </is>
       </c>
       <c r="D18" s="2" t="n">
-        <v>44398</v>
+        <v>44442</v>
       </c>
       <c r="E18" t="n">
         <v>7</v>
@@ -1804,16 +1804,16 @@
         </is>
       </c>
       <c r="M18" t="n">
-        <v>150</v>
+        <v>180</v>
       </c>
       <c r="N18" t="n">
-        <v>13000</v>
+        <v>14000</v>
       </c>
       <c r="O18" t="n">
-        <v>13000</v>
+        <v>14000</v>
       </c>
       <c r="P18" t="n">
-        <v>13000</v>
+        <v>14000</v>
       </c>
       <c r="Q18" t="inlineStr">
         <is>
@@ -1826,7 +1826,7 @@
         </is>
       </c>
       <c r="S18" t="n">
-        <v>722</v>
+        <v>778</v>
       </c>
       <c r="T18" t="n">
         <v>18</v>
@@ -1847,7 +1847,7 @@
         </is>
       </c>
       <c r="D19" s="2" t="n">
-        <v>44398</v>
+        <v>44442</v>
       </c>
       <c r="E19" t="n">
         <v>7</v>
@@ -1880,20 +1880,20 @@
       </c>
       <c r="L19" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M19" t="n">
-        <v>180</v>
+        <v>230</v>
       </c>
       <c r="N19" t="n">
-        <v>13000</v>
+        <v>12000</v>
       </c>
       <c r="O19" t="n">
-        <v>13000</v>
+        <v>12000</v>
       </c>
       <c r="P19" t="n">
-        <v>13000</v>
+        <v>12000</v>
       </c>
       <c r="Q19" t="inlineStr">
         <is>
@@ -1902,11 +1902,11 @@
       </c>
       <c r="R19" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S19" t="n">
-        <v>722</v>
+        <v>667</v>
       </c>
       <c r="T19" t="n">
         <v>18</v>
@@ -1927,7 +1927,7 @@
         </is>
       </c>
       <c r="D20" s="2" t="n">
-        <v>44398</v>
+        <v>44442</v>
       </c>
       <c r="E20" t="n">
         <v>7</v>
@@ -1964,7 +1964,7 @@
         </is>
       </c>
       <c r="M20" t="n">
-        <v>260</v>
+        <v>250</v>
       </c>
       <c r="N20" t="n">
         <v>10000</v>
@@ -1982,7 +1982,7 @@
       </c>
       <c r="R20" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S20" t="n">
@@ -2007,7 +2007,7 @@
         </is>
       </c>
       <c r="D21" s="2" t="n">
-        <v>44398</v>
+        <v>44442</v>
       </c>
       <c r="E21" t="n">
         <v>7</v>
@@ -2040,20 +2040,20 @@
       </c>
       <c r="L21" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M21" t="n">
-        <v>220</v>
+        <v>200</v>
       </c>
       <c r="N21" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="O21" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="P21" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="Q21" t="inlineStr">
         <is>
@@ -2062,11 +2062,11 @@
       </c>
       <c r="R21" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S21" t="n">
-        <v>500</v>
+        <v>556</v>
       </c>
       <c r="T21" t="n">
         <v>18</v>
@@ -2087,7 +2087,7 @@
         </is>
       </c>
       <c r="D22" s="2" t="n">
-        <v>44462</v>
+        <v>44442</v>
       </c>
       <c r="E22" t="n">
         <v>7</v>
@@ -2120,20 +2120,20 @@
       </c>
       <c r="L22" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M22" t="n">
         <v>200</v>
       </c>
       <c r="N22" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="O22" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="P22" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="Q22" t="inlineStr">
         <is>
@@ -2142,11 +2142,11 @@
       </c>
       <c r="R22" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S22" t="n">
-        <v>556</v>
+        <v>444</v>
       </c>
       <c r="T22" t="n">
         <v>18</v>
@@ -2167,7 +2167,7 @@
         </is>
       </c>
       <c r="D23" s="2" t="n">
-        <v>44379</v>
+        <v>44354</v>
       </c>
       <c r="E23" t="n">
         <v>7</v>
@@ -2204,7 +2204,7 @@
         </is>
       </c>
       <c r="M23" t="n">
-        <v>200</v>
+        <v>180</v>
       </c>
       <c r="N23" t="n">
         <v>12000</v>
@@ -2222,7 +2222,7 @@
       </c>
       <c r="R23" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S23" t="n">
@@ -2247,7 +2247,7 @@
         </is>
       </c>
       <c r="D24" s="2" t="n">
-        <v>44379</v>
+        <v>44354</v>
       </c>
       <c r="E24" t="n">
         <v>7</v>
@@ -2284,7 +2284,7 @@
         </is>
       </c>
       <c r="M24" t="n">
-        <v>160</v>
+        <v>100</v>
       </c>
       <c r="N24" t="n">
         <v>10000</v>
@@ -2302,7 +2302,7 @@
       </c>
       <c r="R24" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S24" t="n">
@@ -2327,7 +2327,7 @@
         </is>
       </c>
       <c r="D25" s="2" t="n">
-        <v>44384</v>
+        <v>44398</v>
       </c>
       <c r="E25" t="n">
         <v>7</v>
@@ -2360,24 +2360,24 @@
       </c>
       <c r="L25" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M25" t="n">
-        <v>500</v>
+        <v>150</v>
       </c>
       <c r="N25" t="n">
-        <v>6000</v>
+        <v>13000</v>
       </c>
       <c r="O25" t="n">
-        <v>6000</v>
+        <v>13000</v>
       </c>
       <c r="P25" t="n">
-        <v>6000</v>
+        <v>13000</v>
       </c>
       <c r="Q25" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="R25" t="inlineStr">
@@ -2386,10 +2386,10 @@
         </is>
       </c>
       <c r="S25" t="n">
-        <v>600</v>
+        <v>722</v>
       </c>
       <c r="T25" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
     </row>
     <row r="26">
@@ -2407,7 +2407,7 @@
         </is>
       </c>
       <c r="D26" s="2" t="n">
-        <v>44314</v>
+        <v>44398</v>
       </c>
       <c r="E26" t="n">
         <v>7</v>
@@ -2444,32 +2444,32 @@
         </is>
       </c>
       <c r="M26" t="n">
-        <v>150</v>
+        <v>180</v>
       </c>
       <c r="N26" t="n">
-        <v>11000</v>
+        <v>13000</v>
       </c>
       <c r="O26" t="n">
-        <v>11000</v>
+        <v>13000</v>
       </c>
       <c r="P26" t="n">
-        <v>11000</v>
+        <v>13000</v>
       </c>
       <c r="Q26" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="R26" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S26" t="n">
-        <v>1100</v>
+        <v>722</v>
       </c>
       <c r="T26" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
     </row>
     <row r="27">
@@ -2487,7 +2487,7 @@
         </is>
       </c>
       <c r="D27" s="2" t="n">
-        <v>44314</v>
+        <v>44398</v>
       </c>
       <c r="E27" t="n">
         <v>7</v>
@@ -2524,20 +2524,20 @@
         </is>
       </c>
       <c r="M27" t="n">
-        <v>60</v>
+        <v>260</v>
       </c>
       <c r="N27" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="O27" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="P27" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="Q27" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="R27" t="inlineStr">
@@ -2546,10 +2546,10 @@
         </is>
       </c>
       <c r="S27" t="n">
-        <v>900</v>
+        <v>556</v>
       </c>
       <c r="T27" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
     </row>
     <row r="28">
@@ -2567,7 +2567,7 @@
         </is>
       </c>
       <c r="D28" s="2" t="n">
-        <v>44349</v>
+        <v>44398</v>
       </c>
       <c r="E28" t="n">
         <v>7</v>
@@ -2600,20 +2600,20 @@
       </c>
       <c r="L28" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M28" t="n">
-        <v>180</v>
+        <v>220</v>
       </c>
       <c r="N28" t="n">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="O28" t="n">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="P28" t="n">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="Q28" t="inlineStr">
         <is>
@@ -2622,11 +2622,11 @@
       </c>
       <c r="R28" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S28" t="n">
-        <v>556</v>
+        <v>500</v>
       </c>
       <c r="T28" t="n">
         <v>18</v>
@@ -2647,7 +2647,7 @@
         </is>
       </c>
       <c r="D29" s="2" t="n">
-        <v>44349</v>
+        <v>44309</v>
       </c>
       <c r="E29" t="n">
         <v>7</v>
@@ -2680,20 +2680,20 @@
       </c>
       <c r="L29" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M29" t="n">
-        <v>230</v>
+        <v>160</v>
       </c>
       <c r="N29" t="n">
-        <v>8000</v>
+        <v>14000</v>
       </c>
       <c r="O29" t="n">
-        <v>8000</v>
+        <v>14000</v>
       </c>
       <c r="P29" t="n">
-        <v>8000</v>
+        <v>14000</v>
       </c>
       <c r="Q29" t="inlineStr">
         <is>
@@ -2706,7 +2706,7 @@
         </is>
       </c>
       <c r="S29" t="n">
-        <v>444</v>
+        <v>778</v>
       </c>
       <c r="T29" t="n">
         <v>18</v>
@@ -2727,7 +2727,7 @@
         </is>
       </c>
       <c r="D30" s="2" t="n">
-        <v>44412</v>
+        <v>44309</v>
       </c>
       <c r="E30" t="n">
         <v>7</v>
@@ -2760,24 +2760,24 @@
       </c>
       <c r="L30" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M30" t="n">
-        <v>180</v>
+        <v>250</v>
       </c>
       <c r="N30" t="n">
-        <v>14000</v>
+        <v>8000</v>
       </c>
       <c r="O30" t="n">
-        <v>14000</v>
+        <v>9000</v>
       </c>
       <c r="P30" t="n">
-        <v>14000</v>
+        <v>8600</v>
       </c>
       <c r="Q30" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R30" t="inlineStr">
@@ -2786,10 +2786,10 @@
         </is>
       </c>
       <c r="S30" t="n">
-        <v>778</v>
+        <v>860</v>
       </c>
       <c r="T30" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="31">
@@ -2807,7 +2807,7 @@
         </is>
       </c>
       <c r="D31" s="2" t="n">
-        <v>44412</v>
+        <v>44309</v>
       </c>
       <c r="E31" t="n">
         <v>7</v>
@@ -2844,7 +2844,7 @@
         </is>
       </c>
       <c r="M31" t="n">
-        <v>230</v>
+        <v>100</v>
       </c>
       <c r="N31" t="n">
         <v>12000</v>
@@ -2887,7 +2887,7 @@
         </is>
       </c>
       <c r="D32" s="2" t="n">
-        <v>44329</v>
+        <v>44459</v>
       </c>
       <c r="E32" t="n">
         <v>7</v>
@@ -2924,32 +2924,32 @@
         </is>
       </c>
       <c r="M32" t="n">
-        <v>300</v>
+        <v>150</v>
       </c>
       <c r="N32" t="n">
-        <v>8000</v>
+        <v>12000</v>
       </c>
       <c r="O32" t="n">
-        <v>8000</v>
+        <v>12000</v>
       </c>
       <c r="P32" t="n">
-        <v>8000</v>
+        <v>12000</v>
       </c>
       <c r="Q32" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="R32" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S32" t="n">
-        <v>800</v>
+        <v>667</v>
       </c>
       <c r="T32" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
     </row>
     <row r="33">
@@ -2967,7 +2967,7 @@
         </is>
       </c>
       <c r="D33" s="2" t="n">
-        <v>44364</v>
+        <v>44459</v>
       </c>
       <c r="E33" t="n">
         <v>7</v>
@@ -3000,20 +3000,20 @@
       </c>
       <c r="L33" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M33" t="n">
-        <v>160</v>
+        <v>100</v>
       </c>
       <c r="N33" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="O33" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="P33" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="Q33" t="inlineStr">
         <is>
@@ -3022,11 +3022,11 @@
       </c>
       <c r="R33" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S33" t="n">
-        <v>667</v>
+        <v>556</v>
       </c>
       <c r="T33" t="n">
         <v>18</v>
@@ -3047,7 +3047,7 @@
         </is>
       </c>
       <c r="D34" s="2" t="n">
-        <v>44364</v>
+        <v>44420</v>
       </c>
       <c r="E34" t="n">
         <v>7</v>
@@ -3080,24 +3080,24 @@
       </c>
       <c r="L34" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M34" t="n">
-        <v>240</v>
+        <v>120</v>
       </c>
       <c r="N34" t="n">
-        <v>10000</v>
+        <v>14000</v>
       </c>
       <c r="O34" t="n">
-        <v>10000</v>
+        <v>14000</v>
       </c>
       <c r="P34" t="n">
-        <v>10000</v>
+        <v>14000</v>
       </c>
       <c r="Q34" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="R34" t="inlineStr">
@@ -3106,7 +3106,7 @@
         </is>
       </c>
       <c r="S34" t="n">
-        <v>556</v>
+        <v>778</v>
       </c>
       <c r="T34" t="n">
         <v>18</v>
@@ -3127,7 +3127,7 @@
         </is>
       </c>
       <c r="D35" s="2" t="n">
-        <v>44364</v>
+        <v>44420</v>
       </c>
       <c r="E35" t="n">
         <v>7</v>
@@ -3160,24 +3160,24 @@
       </c>
       <c r="L35" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M35" t="n">
-        <v>80</v>
+        <v>200</v>
       </c>
       <c r="N35" t="n">
-        <v>8000</v>
+        <v>12000</v>
       </c>
       <c r="O35" t="n">
-        <v>8000</v>
+        <v>12000</v>
       </c>
       <c r="P35" t="n">
-        <v>8000</v>
+        <v>12000</v>
       </c>
       <c r="Q35" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="R35" t="inlineStr">
@@ -3186,7 +3186,7 @@
         </is>
       </c>
       <c r="S35" t="n">
-        <v>444</v>
+        <v>667</v>
       </c>
       <c r="T35" t="n">
         <v>18</v>
@@ -3207,7 +3207,7 @@
         </is>
       </c>
       <c r="D36" s="2" t="n">
-        <v>44330</v>
+        <v>44323</v>
       </c>
       <c r="E36" t="n">
         <v>7</v>
@@ -3244,7 +3244,7 @@
         </is>
       </c>
       <c r="M36" t="n">
-        <v>300</v>
+        <v>150</v>
       </c>
       <c r="N36" t="n">
         <v>10000</v>
@@ -3257,7 +3257,7 @@
       </c>
       <c r="Q36" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R36" t="inlineStr">
@@ -3266,10 +3266,10 @@
         </is>
       </c>
       <c r="S36" t="n">
-        <v>556</v>
+        <v>1000</v>
       </c>
       <c r="T36" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="37">
@@ -3287,7 +3287,7 @@
         </is>
       </c>
       <c r="D37" s="2" t="n">
-        <v>44330</v>
+        <v>44323</v>
       </c>
       <c r="E37" t="n">
         <v>7</v>
@@ -3324,20 +3324,20 @@
         </is>
       </c>
       <c r="M37" t="n">
-        <v>180</v>
+        <v>100</v>
       </c>
       <c r="N37" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="O37" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="P37" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="Q37" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R37" t="inlineStr">
@@ -3346,10 +3346,10 @@
         </is>
       </c>
       <c r="S37" t="n">
-        <v>444</v>
+        <v>900</v>
       </c>
       <c r="T37" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="38">
@@ -3367,7 +3367,7 @@
         </is>
       </c>
       <c r="D38" s="2" t="n">
-        <v>44377</v>
+        <v>44462</v>
       </c>
       <c r="E38" t="n">
         <v>7</v>
@@ -3404,7 +3404,7 @@
         </is>
       </c>
       <c r="M38" t="n">
-        <v>150</v>
+        <v>200</v>
       </c>
       <c r="N38" t="n">
         <v>10000</v>
@@ -3447,7 +3447,7 @@
         </is>
       </c>
       <c r="D39" s="2" t="n">
-        <v>44377</v>
+        <v>44342</v>
       </c>
       <c r="E39" t="n">
         <v>7</v>
@@ -3484,20 +3484,20 @@
         </is>
       </c>
       <c r="M39" t="n">
-        <v>210</v>
+        <v>250</v>
       </c>
       <c r="N39" t="n">
-        <v>6000</v>
+        <v>8000</v>
       </c>
       <c r="O39" t="n">
-        <v>6000</v>
+        <v>9000</v>
       </c>
       <c r="P39" t="n">
-        <v>6000</v>
+        <v>8600</v>
       </c>
       <c r="Q39" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="R39" t="inlineStr">
@@ -3506,10 +3506,10 @@
         </is>
       </c>
       <c r="S39" t="n">
-        <v>600</v>
+        <v>478</v>
       </c>
       <c r="T39" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
     </row>
     <row r="40">
@@ -3527,7 +3527,7 @@
         </is>
       </c>
       <c r="D40" s="2" t="n">
-        <v>44377</v>
+        <v>44341</v>
       </c>
       <c r="E40" t="n">
         <v>7</v>
@@ -3560,20 +3560,20 @@
       </c>
       <c r="L40" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M40" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="N40" t="n">
-        <v>6000</v>
+        <v>10000</v>
       </c>
       <c r="O40" t="n">
-        <v>6000</v>
+        <v>10000</v>
       </c>
       <c r="P40" t="n">
-        <v>6000</v>
+        <v>10000</v>
       </c>
       <c r="Q40" t="inlineStr">
         <is>
@@ -3586,7 +3586,7 @@
         </is>
       </c>
       <c r="S40" t="n">
-        <v>333</v>
+        <v>556</v>
       </c>
       <c r="T40" t="n">
         <v>18</v>
@@ -3607,7 +3607,7 @@
         </is>
       </c>
       <c r="D41" s="2" t="n">
-        <v>44459</v>
+        <v>44341</v>
       </c>
       <c r="E41" t="n">
         <v>7</v>
@@ -3644,16 +3644,16 @@
         </is>
       </c>
       <c r="M41" t="n">
-        <v>150</v>
+        <v>210</v>
       </c>
       <c r="N41" t="n">
-        <v>12000</v>
+        <v>9000</v>
       </c>
       <c r="O41" t="n">
-        <v>12000</v>
+        <v>9000</v>
       </c>
       <c r="P41" t="n">
-        <v>12000</v>
+        <v>9000</v>
       </c>
       <c r="Q41" t="inlineStr">
         <is>
@@ -3662,11 +3662,11 @@
       </c>
       <c r="R41" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S41" t="n">
-        <v>667</v>
+        <v>500</v>
       </c>
       <c r="T41" t="n">
         <v>18</v>
@@ -3687,7 +3687,7 @@
         </is>
       </c>
       <c r="D42" s="2" t="n">
-        <v>44459</v>
+        <v>44299</v>
       </c>
       <c r="E42" t="n">
         <v>7</v>
@@ -3720,20 +3720,20 @@
       </c>
       <c r="L42" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M42" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="N42" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="O42" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="P42" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="Q42" t="inlineStr">
         <is>
@@ -3742,11 +3742,11 @@
       </c>
       <c r="R42" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S42" t="n">
-        <v>556</v>
+        <v>722</v>
       </c>
       <c r="T42" t="n">
         <v>18</v>
@@ -3767,7 +3767,7 @@
         </is>
       </c>
       <c r="D43" s="2" t="n">
-        <v>44348</v>
+        <v>44365</v>
       </c>
       <c r="E43" t="n">
         <v>7</v>
@@ -3800,20 +3800,20 @@
       </c>
       <c r="L43" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M43" t="n">
-        <v>230</v>
+        <v>90</v>
       </c>
       <c r="N43" t="n">
-        <v>10000</v>
+        <v>11000</v>
       </c>
       <c r="O43" t="n">
-        <v>10000</v>
+        <v>11000</v>
       </c>
       <c r="P43" t="n">
-        <v>10000</v>
+        <v>11000</v>
       </c>
       <c r="Q43" t="inlineStr">
         <is>
@@ -3826,7 +3826,7 @@
         </is>
       </c>
       <c r="S43" t="n">
-        <v>556</v>
+        <v>611</v>
       </c>
       <c r="T43" t="n">
         <v>18</v>
@@ -3847,7 +3847,7 @@
         </is>
       </c>
       <c r="D44" s="2" t="n">
-        <v>44348</v>
+        <v>44365</v>
       </c>
       <c r="E44" t="n">
         <v>7</v>
@@ -3880,20 +3880,20 @@
       </c>
       <c r="L44" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M44" t="n">
-        <v>190</v>
+        <v>200</v>
       </c>
       <c r="N44" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="O44" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="P44" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="Q44" t="inlineStr">
         <is>
@@ -3906,7 +3906,7 @@
         </is>
       </c>
       <c r="S44" t="n">
-        <v>444</v>
+        <v>500</v>
       </c>
       <c r="T44" t="n">
         <v>18</v>
@@ -3927,7 +3927,7 @@
         </is>
       </c>
       <c r="D45" s="2" t="n">
-        <v>44435</v>
+        <v>44365</v>
       </c>
       <c r="E45" t="n">
         <v>7</v>
@@ -3960,20 +3960,20 @@
       </c>
       <c r="L45" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M45" t="n">
-        <v>390</v>
+        <v>150</v>
       </c>
       <c r="N45" t="n">
-        <v>14000</v>
+        <v>7000</v>
       </c>
       <c r="O45" t="n">
-        <v>14000</v>
+        <v>7000</v>
       </c>
       <c r="P45" t="n">
-        <v>14000</v>
+        <v>7000</v>
       </c>
       <c r="Q45" t="inlineStr">
         <is>
@@ -3986,7 +3986,7 @@
         </is>
       </c>
       <c r="S45" t="n">
-        <v>778</v>
+        <v>389</v>
       </c>
       <c r="T45" t="n">
         <v>18</v>
@@ -4007,7 +4007,7 @@
         </is>
       </c>
       <c r="D46" s="2" t="n">
-        <v>44435</v>
+        <v>44376</v>
       </c>
       <c r="E46" t="n">
         <v>7</v>
@@ -4040,24 +4040,24 @@
       </c>
       <c r="L46" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M46" t="n">
-        <v>160</v>
+        <v>260</v>
       </c>
       <c r="N46" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="O46" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="P46" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="Q46" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="R46" t="inlineStr">
@@ -4066,10 +4066,10 @@
         </is>
       </c>
       <c r="S46" t="n">
-        <v>800</v>
+        <v>500</v>
       </c>
       <c r="T46" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
     </row>
     <row r="47">
@@ -4087,7 +4087,7 @@
         </is>
       </c>
       <c r="D47" s="2" t="n">
-        <v>44435</v>
+        <v>44446</v>
       </c>
       <c r="E47" t="n">
         <v>7</v>
@@ -4124,7 +4124,7 @@
         </is>
       </c>
       <c r="M47" t="n">
-        <v>330</v>
+        <v>180</v>
       </c>
       <c r="N47" t="n">
         <v>14000</v>
@@ -4137,7 +4137,7 @@
       </c>
       <c r="Q47" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="R47" t="inlineStr">
@@ -4167,7 +4167,7 @@
         </is>
       </c>
       <c r="D48" s="2" t="n">
-        <v>44435</v>
+        <v>44446</v>
       </c>
       <c r="E48" t="n">
         <v>7</v>
@@ -4204,7 +4204,7 @@
         </is>
       </c>
       <c r="M48" t="n">
-        <v>250</v>
+        <v>230</v>
       </c>
       <c r="N48" t="n">
         <v>12000</v>
@@ -4247,7 +4247,7 @@
         </is>
       </c>
       <c r="D49" s="2" t="n">
-        <v>44435</v>
+        <v>44446</v>
       </c>
       <c r="E49" t="n">
         <v>7</v>
@@ -4280,24 +4280,24 @@
       </c>
       <c r="L49" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M49" t="n">
-        <v>230</v>
+        <v>150</v>
       </c>
       <c r="N49" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="O49" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="P49" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="Q49" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="R49" t="inlineStr">
@@ -4306,10 +4306,10 @@
         </is>
       </c>
       <c r="S49" t="n">
-        <v>700</v>
+        <v>556</v>
       </c>
       <c r="T49" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
     </row>
     <row r="50">
@@ -4327,7 +4327,7 @@
         </is>
       </c>
       <c r="D50" s="2" t="n">
-        <v>44435</v>
+        <v>44379</v>
       </c>
       <c r="E50" t="n">
         <v>7</v>
@@ -4360,11 +4360,11 @@
       </c>
       <c r="L50" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M50" t="n">
-        <v>180</v>
+        <v>200</v>
       </c>
       <c r="N50" t="n">
         <v>12000</v>
@@ -4377,7 +4377,7 @@
       </c>
       <c r="Q50" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="R50" t="inlineStr">
@@ -4407,7 +4407,7 @@
         </is>
       </c>
       <c r="D51" s="2" t="n">
-        <v>44435</v>
+        <v>44379</v>
       </c>
       <c r="E51" t="n">
         <v>7</v>
@@ -4440,11 +4440,11 @@
       </c>
       <c r="L51" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M51" t="n">
-        <v>240</v>
+        <v>160</v>
       </c>
       <c r="N51" t="n">
         <v>10000</v>
@@ -4487,7 +4487,7 @@
         </is>
       </c>
       <c r="D52" s="2" t="n">
-        <v>44313</v>
+        <v>44295</v>
       </c>
       <c r="E52" t="n">
         <v>7</v>
@@ -4524,20 +4524,20 @@
         </is>
       </c>
       <c r="M52" t="n">
-        <v>350</v>
+        <v>160</v>
       </c>
       <c r="N52" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="O52" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="P52" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="Q52" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="R52" t="inlineStr">
@@ -4546,10 +4546,10 @@
         </is>
       </c>
       <c r="S52" t="n">
-        <v>900</v>
+        <v>556</v>
       </c>
       <c r="T52" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
     </row>
     <row r="53">
@@ -4567,7 +4567,7 @@
         </is>
       </c>
       <c r="D53" s="2" t="n">
-        <v>44313</v>
+        <v>44399</v>
       </c>
       <c r="E53" t="n">
         <v>7</v>
@@ -4600,20 +4600,20 @@
       </c>
       <c r="L53" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M53" t="n">
-        <v>250</v>
+        <v>260</v>
       </c>
       <c r="N53" t="n">
-        <v>6000</v>
+        <v>5000</v>
       </c>
       <c r="O53" t="n">
-        <v>6000</v>
+        <v>5000</v>
       </c>
       <c r="P53" t="n">
-        <v>6000</v>
+        <v>5000</v>
       </c>
       <c r="Q53" t="inlineStr">
         <is>
@@ -4626,7 +4626,7 @@
         </is>
       </c>
       <c r="S53" t="n">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="T53" t="n">
         <v>10</v>
@@ -4647,7 +4647,7 @@
         </is>
       </c>
       <c r="D54" s="2" t="n">
-        <v>44445</v>
+        <v>44399</v>
       </c>
       <c r="E54" t="n">
         <v>7</v>
@@ -4684,20 +4684,20 @@
         </is>
       </c>
       <c r="M54" t="n">
-        <v>200</v>
+        <v>260</v>
       </c>
       <c r="N54" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="O54" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="P54" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="Q54" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 18 kilos granel</t>
         </is>
       </c>
       <c r="R54" t="inlineStr">
@@ -4706,7 +4706,7 @@
         </is>
       </c>
       <c r="S54" t="n">
-        <v>667</v>
+        <v>556</v>
       </c>
       <c r="T54" t="n">
         <v>18</v>
@@ -4727,7 +4727,7 @@
         </is>
       </c>
       <c r="D55" s="2" t="n">
-        <v>44263</v>
+        <v>44327</v>
       </c>
       <c r="E55" t="n">
         <v>7</v>
@@ -4764,29 +4764,29 @@
         </is>
       </c>
       <c r="M55" t="n">
-        <v>180</v>
+        <v>300</v>
       </c>
       <c r="N55" t="n">
-        <v>12000</v>
+        <v>9000</v>
       </c>
       <c r="O55" t="n">
-        <v>12000</v>
+        <v>9000</v>
       </c>
       <c r="P55" t="n">
-        <v>12000</v>
+        <v>9000</v>
       </c>
       <c r="Q55" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="R55" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S55" t="n">
-        <v>1200</v>
+        <v>900</v>
       </c>
       <c r="T55" t="n">
         <v>10</v>
@@ -4807,7 +4807,7 @@
         </is>
       </c>
       <c r="D56" s="2" t="n">
-        <v>44449</v>
+        <v>44364</v>
       </c>
       <c r="E56" t="n">
         <v>7</v>
@@ -4840,11 +4840,11 @@
       </c>
       <c r="L56" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M56" t="n">
-        <v>300</v>
+        <v>160</v>
       </c>
       <c r="N56" t="n">
         <v>12000</v>
@@ -4887,7 +4887,7 @@
         </is>
       </c>
       <c r="D57" s="2" t="n">
-        <v>44322</v>
+        <v>44364</v>
       </c>
       <c r="E57" t="n">
         <v>7</v>
@@ -4924,7 +4924,7 @@
         </is>
       </c>
       <c r="M57" t="n">
-        <v>210</v>
+        <v>240</v>
       </c>
       <c r="N57" t="n">
         <v>10000</v>
@@ -4937,7 +4937,7 @@
       </c>
       <c r="Q57" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="R57" t="inlineStr">
@@ -4946,10 +4946,10 @@
         </is>
       </c>
       <c r="S57" t="n">
-        <v>1000</v>
+        <v>556</v>
       </c>
       <c r="T57" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
     </row>
     <row r="58">
@@ -4967,7 +4967,7 @@
         </is>
       </c>
       <c r="D58" s="2" t="n">
-        <v>44333</v>
+        <v>44364</v>
       </c>
       <c r="E58" t="n">
         <v>7</v>
@@ -5000,20 +5000,20 @@
       </c>
       <c r="L58" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M58" t="n">
-        <v>150</v>
+        <v>80</v>
       </c>
       <c r="N58" t="n">
-        <v>12000</v>
+        <v>8000</v>
       </c>
       <c r="O58" t="n">
-        <v>12000</v>
+        <v>8000</v>
       </c>
       <c r="P58" t="n">
-        <v>12000</v>
+        <v>8000</v>
       </c>
       <c r="Q58" t="inlineStr">
         <is>
@@ -5022,11 +5022,11 @@
       </c>
       <c r="R58" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S58" t="n">
-        <v>667</v>
+        <v>444</v>
       </c>
       <c r="T58" t="n">
         <v>18</v>
@@ -5047,7 +5047,7 @@
         </is>
       </c>
       <c r="D59" s="2" t="n">
-        <v>44333</v>
+        <v>44355</v>
       </c>
       <c r="E59" t="n">
         <v>7</v>
@@ -5080,36 +5080,36 @@
       </c>
       <c r="L59" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M59" t="n">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="N59" t="n">
-        <v>10000</v>
+        <v>6000</v>
       </c>
       <c r="O59" t="n">
-        <v>10000</v>
+        <v>6000</v>
       </c>
       <c r="P59" t="n">
-        <v>10000</v>
+        <v>6000</v>
       </c>
       <c r="Q59" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R59" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S59" t="n">
-        <v>556</v>
+        <v>600</v>
       </c>
       <c r="T59" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="60">
@@ -5127,7 +5127,7 @@
         </is>
       </c>
       <c r="D60" s="2" t="n">
-        <v>44355</v>
+        <v>44418</v>
       </c>
       <c r="E60" t="n">
         <v>7</v>
@@ -5160,24 +5160,24 @@
       </c>
       <c r="L60" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M60" t="n">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="N60" t="n">
-        <v>6000</v>
+        <v>14000</v>
       </c>
       <c r="O60" t="n">
-        <v>6000</v>
+        <v>14000</v>
       </c>
       <c r="P60" t="n">
-        <v>6000</v>
+        <v>14000</v>
       </c>
       <c r="Q60" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="R60" t="inlineStr">
@@ -5186,10 +5186,10 @@
         </is>
       </c>
       <c r="S60" t="n">
-        <v>600</v>
+        <v>778</v>
       </c>
       <c r="T60" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
     </row>
     <row r="61">
@@ -5207,7 +5207,7 @@
         </is>
       </c>
       <c r="D61" s="2" t="n">
-        <v>44446</v>
+        <v>44418</v>
       </c>
       <c r="E61" t="n">
         <v>7</v>
@@ -5240,20 +5240,20 @@
       </c>
       <c r="L61" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M61" t="n">
-        <v>180</v>
+        <v>200</v>
       </c>
       <c r="N61" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="O61" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="P61" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="Q61" t="inlineStr">
         <is>
@@ -5266,7 +5266,7 @@
         </is>
       </c>
       <c r="S61" t="n">
-        <v>778</v>
+        <v>667</v>
       </c>
       <c r="T61" t="n">
         <v>18</v>
@@ -5287,7 +5287,7 @@
         </is>
       </c>
       <c r="D62" s="2" t="n">
-        <v>44446</v>
+        <v>44418</v>
       </c>
       <c r="E62" t="n">
         <v>7</v>
@@ -5320,20 +5320,20 @@
       </c>
       <c r="L62" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M62" t="n">
-        <v>230</v>
+        <v>90</v>
       </c>
       <c r="N62" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="O62" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="P62" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="Q62" t="inlineStr">
         <is>
@@ -5346,7 +5346,7 @@
         </is>
       </c>
       <c r="S62" t="n">
-        <v>667</v>
+        <v>556</v>
       </c>
       <c r="T62" t="n">
         <v>18</v>
@@ -5367,7 +5367,7 @@
         </is>
       </c>
       <c r="D63" s="2" t="n">
-        <v>44446</v>
+        <v>44382</v>
       </c>
       <c r="E63" t="n">
         <v>7</v>
@@ -5400,20 +5400,20 @@
       </c>
       <c r="L63" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M63" t="n">
         <v>150</v>
       </c>
       <c r="N63" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="O63" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="P63" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="Q63" t="inlineStr">
         <is>
@@ -5426,7 +5426,7 @@
         </is>
       </c>
       <c r="S63" t="n">
-        <v>556</v>
+        <v>667</v>
       </c>
       <c r="T63" t="n">
         <v>18</v>
@@ -5447,7 +5447,7 @@
         </is>
       </c>
       <c r="D64" s="2" t="n">
-        <v>44469</v>
+        <v>44382</v>
       </c>
       <c r="E64" t="n">
         <v>7</v>
@@ -5480,20 +5480,20 @@
       </c>
       <c r="L64" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M64" t="n">
-        <v>150</v>
+        <v>200</v>
       </c>
       <c r="N64" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="O64" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="P64" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="Q64" t="inlineStr">
         <is>
@@ -5506,7 +5506,7 @@
         </is>
       </c>
       <c r="S64" t="n">
-        <v>667</v>
+        <v>556</v>
       </c>
       <c r="T64" t="n">
         <v>18</v>
@@ -5527,7 +5527,7 @@
         </is>
       </c>
       <c r="D65" s="2" t="n">
-        <v>44469</v>
+        <v>44370</v>
       </c>
       <c r="E65" t="n">
         <v>7</v>
@@ -5560,20 +5560,20 @@
       </c>
       <c r="L65" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M65" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="N65" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="O65" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="P65" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="Q65" t="inlineStr">
         <is>
@@ -5586,7 +5586,7 @@
         </is>
       </c>
       <c r="S65" t="n">
-        <v>556</v>
+        <v>667</v>
       </c>
       <c r="T65" t="n">
         <v>18</v>
@@ -5607,7 +5607,7 @@
         </is>
       </c>
       <c r="D66" s="2" t="n">
-        <v>44299</v>
+        <v>44370</v>
       </c>
       <c r="E66" t="n">
         <v>7</v>
@@ -5644,16 +5644,16 @@
         </is>
       </c>
       <c r="M66" t="n">
-        <v>200</v>
+        <v>120</v>
       </c>
       <c r="N66" t="n">
-        <v>13000</v>
+        <v>10000</v>
       </c>
       <c r="O66" t="n">
-        <v>13000</v>
+        <v>10000</v>
       </c>
       <c r="P66" t="n">
-        <v>13000</v>
+        <v>10000</v>
       </c>
       <c r="Q66" t="inlineStr">
         <is>
@@ -5666,7 +5666,7 @@
         </is>
       </c>
       <c r="S66" t="n">
-        <v>722</v>
+        <v>556</v>
       </c>
       <c r="T66" t="n">
         <v>18</v>
@@ -5687,7 +5687,7 @@
         </is>
       </c>
       <c r="D67" s="2" t="n">
-        <v>44320</v>
+        <v>44370</v>
       </c>
       <c r="E67" t="n">
         <v>7</v>
@@ -5720,20 +5720,20 @@
       </c>
       <c r="L67" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M67" t="n">
-        <v>120</v>
+        <v>60</v>
       </c>
       <c r="N67" t="n">
-        <v>13000</v>
+        <v>8000</v>
       </c>
       <c r="O67" t="n">
-        <v>13000</v>
+        <v>8000</v>
       </c>
       <c r="P67" t="n">
-        <v>13000</v>
+        <v>8000</v>
       </c>
       <c r="Q67" t="inlineStr">
         <is>
@@ -5746,7 +5746,7 @@
         </is>
       </c>
       <c r="S67" t="n">
-        <v>722</v>
+        <v>444</v>
       </c>
       <c r="T67" t="n">
         <v>18</v>
@@ -5767,7 +5767,7 @@
         </is>
       </c>
       <c r="D68" s="2" t="n">
-        <v>44320</v>
+        <v>44284</v>
       </c>
       <c r="E68" t="n">
         <v>7</v>
@@ -5800,24 +5800,24 @@
       </c>
       <c r="L68" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M68" t="n">
-        <v>150</v>
+        <v>200</v>
       </c>
       <c r="N68" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="O68" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="P68" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="Q68" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="R68" t="inlineStr">
@@ -5826,10 +5826,10 @@
         </is>
       </c>
       <c r="S68" t="n">
-        <v>1000</v>
+        <v>389</v>
       </c>
       <c r="T68" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
     </row>
     <row r="69">
@@ -5847,7 +5847,7 @@
         </is>
       </c>
       <c r="D69" s="2" t="n">
-        <v>44320</v>
+        <v>44449</v>
       </c>
       <c r="E69" t="n">
         <v>7</v>
@@ -5887,17 +5887,17 @@
         <v>300</v>
       </c>
       <c r="N69" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="O69" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="P69" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="Q69" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="R69" t="inlineStr">
@@ -5906,10 +5906,10 @@
         </is>
       </c>
       <c r="S69" t="n">
-        <v>1000</v>
+        <v>667</v>
       </c>
       <c r="T69" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
     </row>
     <row r="70">
@@ -5927,7 +5927,7 @@
         </is>
       </c>
       <c r="D70" s="2" t="n">
-        <v>44320</v>
+        <v>44412</v>
       </c>
       <c r="E70" t="n">
         <v>7</v>
@@ -5960,20 +5960,20 @@
       </c>
       <c r="L70" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M70" t="n">
-        <v>100</v>
+        <v>180</v>
       </c>
       <c r="N70" t="n">
-        <v>11000</v>
+        <v>14000</v>
       </c>
       <c r="O70" t="n">
-        <v>11000</v>
+        <v>14000</v>
       </c>
       <c r="P70" t="n">
-        <v>11000</v>
+        <v>14000</v>
       </c>
       <c r="Q70" t="inlineStr">
         <is>
@@ -5986,7 +5986,7 @@
         </is>
       </c>
       <c r="S70" t="n">
-        <v>611</v>
+        <v>778</v>
       </c>
       <c r="T70" t="n">
         <v>18</v>
@@ -6007,7 +6007,7 @@
         </is>
       </c>
       <c r="D71" s="2" t="n">
-        <v>44385</v>
+        <v>44412</v>
       </c>
       <c r="E71" t="n">
         <v>7</v>
@@ -6040,20 +6040,20 @@
       </c>
       <c r="L71" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M71" t="n">
         <v>230</v>
       </c>
       <c r="N71" t="n">
-        <v>11000</v>
+        <v>12000</v>
       </c>
       <c r="O71" t="n">
-        <v>11000</v>
+        <v>12000</v>
       </c>
       <c r="P71" t="n">
-        <v>11000</v>
+        <v>12000</v>
       </c>
       <c r="Q71" t="inlineStr">
         <is>
@@ -6066,7 +6066,7 @@
         </is>
       </c>
       <c r="S71" t="n">
-        <v>611</v>
+        <v>667</v>
       </c>
       <c r="T71" t="n">
         <v>18</v>
@@ -6087,7 +6087,7 @@
         </is>
       </c>
       <c r="D72" s="2" t="n">
-        <v>44385</v>
+        <v>44336</v>
       </c>
       <c r="E72" t="n">
         <v>7</v>
@@ -6124,20 +6124,20 @@
         </is>
       </c>
       <c r="M72" t="n">
-        <v>200</v>
+        <v>250</v>
       </c>
       <c r="N72" t="n">
-        <v>9000</v>
+        <v>8000</v>
       </c>
       <c r="O72" t="n">
-        <v>9000</v>
+        <v>8000</v>
       </c>
       <c r="P72" t="n">
-        <v>9000</v>
+        <v>8000</v>
       </c>
       <c r="Q72" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="R72" t="inlineStr">
@@ -6146,10 +6146,10 @@
         </is>
       </c>
       <c r="S72" t="n">
-        <v>500</v>
+        <v>800</v>
       </c>
       <c r="T72" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="73">
@@ -6167,7 +6167,7 @@
         </is>
       </c>
       <c r="D73" s="2" t="n">
-        <v>44284</v>
+        <v>44308</v>
       </c>
       <c r="E73" t="n">
         <v>7</v>
@@ -6200,20 +6200,20 @@
       </c>
       <c r="L73" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M73" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="N73" t="n">
-        <v>7000</v>
+        <v>14000</v>
       </c>
       <c r="O73" t="n">
-        <v>7000</v>
+        <v>14000</v>
       </c>
       <c r="P73" t="n">
-        <v>7000</v>
+        <v>14000</v>
       </c>
       <c r="Q73" t="inlineStr">
         <is>
@@ -6226,7 +6226,7 @@
         </is>
       </c>
       <c r="S73" t="n">
-        <v>389</v>
+        <v>778</v>
       </c>
       <c r="T73" t="n">
         <v>18</v>
@@ -6247,7 +6247,7 @@
         </is>
       </c>
       <c r="D74" s="2" t="n">
-        <v>44391</v>
+        <v>44330</v>
       </c>
       <c r="E74" t="n">
         <v>7</v>
@@ -6284,16 +6284,16 @@
         </is>
       </c>
       <c r="M74" t="n">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="N74" t="n">
-        <v>11000</v>
+        <v>10000</v>
       </c>
       <c r="O74" t="n">
-        <v>11000</v>
+        <v>10000</v>
       </c>
       <c r="P74" t="n">
-        <v>11000</v>
+        <v>10000</v>
       </c>
       <c r="Q74" t="inlineStr">
         <is>
@@ -6306,7 +6306,7 @@
         </is>
       </c>
       <c r="S74" t="n">
-        <v>611</v>
+        <v>556</v>
       </c>
       <c r="T74" t="n">
         <v>18</v>
@@ -6327,7 +6327,7 @@
         </is>
       </c>
       <c r="D75" s="2" t="n">
-        <v>44391</v>
+        <v>44330</v>
       </c>
       <c r="E75" t="n">
         <v>7</v>
@@ -6364,16 +6364,16 @@
         </is>
       </c>
       <c r="M75" t="n">
-        <v>250</v>
+        <v>180</v>
       </c>
       <c r="N75" t="n">
-        <v>9500</v>
+        <v>8000</v>
       </c>
       <c r="O75" t="n">
-        <v>9500</v>
+        <v>8000</v>
       </c>
       <c r="P75" t="n">
-        <v>9500</v>
+        <v>8000</v>
       </c>
       <c r="Q75" t="inlineStr">
         <is>
@@ -6386,7 +6386,7 @@
         </is>
       </c>
       <c r="S75" t="n">
-        <v>528</v>
+        <v>444</v>
       </c>
       <c r="T75" t="n">
         <v>18</v>
@@ -6407,7 +6407,7 @@
         </is>
       </c>
       <c r="D76" s="2" t="n">
-        <v>44281</v>
+        <v>44322</v>
       </c>
       <c r="E76" t="n">
         <v>7</v>
@@ -6487,7 +6487,7 @@
         </is>
       </c>
       <c r="D77" s="2" t="n">
-        <v>44342</v>
+        <v>44428</v>
       </c>
       <c r="E77" t="n">
         <v>7</v>
@@ -6520,20 +6520,20 @@
       </c>
       <c r="L77" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M77" t="n">
-        <v>250</v>
+        <v>230</v>
       </c>
       <c r="N77" t="n">
-        <v>8000</v>
+        <v>14000</v>
       </c>
       <c r="O77" t="n">
-        <v>9000</v>
+        <v>14000</v>
       </c>
       <c r="P77" t="n">
-        <v>8600</v>
+        <v>14000</v>
       </c>
       <c r="Q77" t="inlineStr">
         <is>
@@ -6546,7 +6546,7 @@
         </is>
       </c>
       <c r="S77" t="n">
-        <v>478</v>
+        <v>778</v>
       </c>
       <c r="T77" t="n">
         <v>18</v>
@@ -6567,7 +6567,7 @@
         </is>
       </c>
       <c r="D78" s="2" t="n">
-        <v>44434</v>
+        <v>44428</v>
       </c>
       <c r="E78" t="n">
         <v>7</v>
@@ -6600,20 +6600,20 @@
       </c>
       <c r="L78" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M78" t="n">
-        <v>230</v>
+        <v>200</v>
       </c>
       <c r="N78" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="O78" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="P78" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="Q78" t="inlineStr">
         <is>
@@ -6626,7 +6626,7 @@
         </is>
       </c>
       <c r="S78" t="n">
-        <v>778</v>
+        <v>667</v>
       </c>
       <c r="T78" t="n">
         <v>18</v>
@@ -6647,7 +6647,7 @@
         </is>
       </c>
       <c r="D79" s="2" t="n">
-        <v>44434</v>
+        <v>44428</v>
       </c>
       <c r="E79" t="n">
         <v>7</v>
@@ -6680,11 +6680,11 @@
       </c>
       <c r="L79" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M79" t="n">
-        <v>160</v>
+        <v>120</v>
       </c>
       <c r="N79" t="n">
         <v>8000</v>
@@ -6697,7 +6697,7 @@
       </c>
       <c r="Q79" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="R79" t="inlineStr">
@@ -6706,10 +6706,10 @@
         </is>
       </c>
       <c r="S79" t="n">
-        <v>800</v>
+        <v>444</v>
       </c>
       <c r="T79" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
     </row>
     <row r="80">
@@ -6727,7 +6727,7 @@
         </is>
       </c>
       <c r="D80" s="2" t="n">
-        <v>44434</v>
+        <v>44315</v>
       </c>
       <c r="E80" t="n">
         <v>7</v>
@@ -6760,11 +6760,11 @@
       </c>
       <c r="L80" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M80" t="n">
-        <v>150</v>
+        <v>140</v>
       </c>
       <c r="N80" t="n">
         <v>12000</v>
@@ -6777,7 +6777,7 @@
       </c>
       <c r="Q80" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="R80" t="inlineStr">
@@ -6786,10 +6786,10 @@
         </is>
       </c>
       <c r="S80" t="n">
-        <v>667</v>
+        <v>1200</v>
       </c>
       <c r="T80" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="81">
@@ -6807,7 +6807,7 @@
         </is>
       </c>
       <c r="D81" s="2" t="n">
-        <v>44434</v>
+        <v>44315</v>
       </c>
       <c r="E81" t="n">
         <v>7</v>
@@ -6844,16 +6844,16 @@
         </is>
       </c>
       <c r="M81" t="n">
-        <v>230</v>
+        <v>120</v>
       </c>
       <c r="N81" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="O81" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="P81" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="Q81" t="inlineStr">
         <is>
@@ -6866,7 +6866,7 @@
         </is>
       </c>
       <c r="S81" t="n">
-        <v>700</v>
+        <v>1000</v>
       </c>
       <c r="T81" t="n">
         <v>10</v>
@@ -6887,7 +6887,7 @@
         </is>
       </c>
       <c r="D82" s="2" t="n">
-        <v>44434</v>
+        <v>44315</v>
       </c>
       <c r="E82" t="n">
         <v>7</v>
@@ -6924,20 +6924,20 @@
         </is>
       </c>
       <c r="M82" t="n">
-        <v>120</v>
+        <v>50</v>
       </c>
       <c r="N82" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="O82" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="P82" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="Q82" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="R82" t="inlineStr">
@@ -6946,10 +6946,10 @@
         </is>
       </c>
       <c r="S82" t="n">
-        <v>556</v>
+        <v>800</v>
       </c>
       <c r="T82" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="83">
@@ -6967,7 +6967,7 @@
         </is>
       </c>
       <c r="D83" s="2" t="n">
-        <v>44327</v>
+        <v>44343</v>
       </c>
       <c r="E83" t="n">
         <v>7</v>
@@ -7000,24 +7000,24 @@
       </c>
       <c r="L83" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M83" t="n">
-        <v>300</v>
+        <v>120</v>
       </c>
       <c r="N83" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="O83" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="P83" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="Q83" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="R83" t="inlineStr">
@@ -7026,10 +7026,10 @@
         </is>
       </c>
       <c r="S83" t="n">
-        <v>900</v>
+        <v>556</v>
       </c>
       <c r="T83" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
     </row>
     <row r="84">
@@ -7047,7 +7047,7 @@
         </is>
       </c>
       <c r="D84" s="2" t="n">
-        <v>44321</v>
+        <v>44343</v>
       </c>
       <c r="E84" t="n">
         <v>7</v>
@@ -7084,16 +7084,16 @@
         </is>
       </c>
       <c r="M84" t="n">
-        <v>200</v>
+        <v>160</v>
       </c>
       <c r="N84" t="n">
-        <v>13000</v>
+        <v>9000</v>
       </c>
       <c r="O84" t="n">
-        <v>13000</v>
+        <v>9000</v>
       </c>
       <c r="P84" t="n">
-        <v>13000</v>
+        <v>9000</v>
       </c>
       <c r="Q84" t="inlineStr">
         <is>
@@ -7106,7 +7106,7 @@
         </is>
       </c>
       <c r="S84" t="n">
-        <v>722</v>
+        <v>500</v>
       </c>
       <c r="T84" t="n">
         <v>18</v>
@@ -7127,7 +7127,7 @@
         </is>
       </c>
       <c r="D85" s="2" t="n">
-        <v>44399</v>
+        <v>44316</v>
       </c>
       <c r="E85" t="n">
         <v>7</v>
@@ -7160,20 +7160,20 @@
       </c>
       <c r="L85" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M85" t="n">
-        <v>260</v>
+        <v>160</v>
       </c>
       <c r="N85" t="n">
-        <v>5000</v>
+        <v>12000</v>
       </c>
       <c r="O85" t="n">
-        <v>5000</v>
+        <v>12000</v>
       </c>
       <c r="P85" t="n">
-        <v>5000</v>
+        <v>12000</v>
       </c>
       <c r="Q85" t="inlineStr">
         <is>
@@ -7186,7 +7186,7 @@
         </is>
       </c>
       <c r="S85" t="n">
-        <v>500</v>
+        <v>1200</v>
       </c>
       <c r="T85" t="n">
         <v>10</v>
@@ -7207,7 +7207,7 @@
         </is>
       </c>
       <c r="D86" s="2" t="n">
-        <v>44399</v>
+        <v>44316</v>
       </c>
       <c r="E86" t="n">
         <v>7</v>
@@ -7244,7 +7244,7 @@
         </is>
       </c>
       <c r="M86" t="n">
-        <v>260</v>
+        <v>200</v>
       </c>
       <c r="N86" t="n">
         <v>10000</v>
@@ -7257,7 +7257,7 @@
       </c>
       <c r="Q86" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos granel</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R86" t="inlineStr">
@@ -7266,10 +7266,10 @@
         </is>
       </c>
       <c r="S86" t="n">
-        <v>556</v>
+        <v>1000</v>
       </c>
       <c r="T86" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="87">
@@ -7287,7 +7287,7 @@
         </is>
       </c>
       <c r="D87" s="2" t="n">
-        <v>44452</v>
+        <v>44316</v>
       </c>
       <c r="E87" t="n">
         <v>7</v>
@@ -7324,20 +7324,20 @@
         </is>
       </c>
       <c r="M87" t="n">
-        <v>300</v>
+        <v>190</v>
       </c>
       <c r="N87" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="O87" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="P87" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="Q87" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="R87" t="inlineStr">
@@ -7346,7 +7346,7 @@
         </is>
       </c>
       <c r="S87" t="n">
-        <v>667</v>
+        <v>722</v>
       </c>
       <c r="T87" t="n">
         <v>18</v>
@@ -7367,7 +7367,7 @@
         </is>
       </c>
       <c r="D88" s="2" t="n">
-        <v>44383</v>
+        <v>44356</v>
       </c>
       <c r="E88" t="n">
         <v>7</v>
@@ -7400,20 +7400,20 @@
       </c>
       <c r="L88" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M88" t="n">
-        <v>210</v>
+        <v>200</v>
       </c>
       <c r="N88" t="n">
-        <v>9000</v>
+        <v>12000</v>
       </c>
       <c r="O88" t="n">
-        <v>9000</v>
+        <v>12000</v>
       </c>
       <c r="P88" t="n">
-        <v>9000</v>
+        <v>12000</v>
       </c>
       <c r="Q88" t="inlineStr">
         <is>
@@ -7426,7 +7426,7 @@
         </is>
       </c>
       <c r="S88" t="n">
-        <v>500</v>
+        <v>667</v>
       </c>
       <c r="T88" t="n">
         <v>18</v>
@@ -7447,7 +7447,7 @@
         </is>
       </c>
       <c r="D89" s="2" t="n">
-        <v>44383</v>
+        <v>44356</v>
       </c>
       <c r="E89" t="n">
         <v>7</v>
@@ -7484,20 +7484,20 @@
         </is>
       </c>
       <c r="M89" t="n">
-        <v>260</v>
+        <v>140</v>
       </c>
       <c r="N89" t="n">
-        <v>6000</v>
+        <v>10000</v>
       </c>
       <c r="O89" t="n">
-        <v>6000</v>
+        <v>10000</v>
       </c>
       <c r="P89" t="n">
-        <v>6000</v>
+        <v>10000</v>
       </c>
       <c r="Q89" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="R89" t="inlineStr">
@@ -7506,10 +7506,10 @@
         </is>
       </c>
       <c r="S89" t="n">
-        <v>600</v>
+        <v>556</v>
       </c>
       <c r="T89" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
     </row>
     <row r="90">
@@ -7527,7 +7527,7 @@
         </is>
       </c>
       <c r="D90" s="2" t="n">
-        <v>44407</v>
+        <v>44356</v>
       </c>
       <c r="E90" t="n">
         <v>7</v>
@@ -7560,20 +7560,20 @@
       </c>
       <c r="L90" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M90" t="n">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="N90" t="n">
-        <v>13000</v>
+        <v>8000</v>
       </c>
       <c r="O90" t="n">
-        <v>13000</v>
+        <v>8000</v>
       </c>
       <c r="P90" t="n">
-        <v>13000</v>
+        <v>8000</v>
       </c>
       <c r="Q90" t="inlineStr">
         <is>
@@ -7586,7 +7586,7 @@
         </is>
       </c>
       <c r="S90" t="n">
-        <v>722</v>
+        <v>444</v>
       </c>
       <c r="T90" t="n">
         <v>18</v>
@@ -7607,7 +7607,7 @@
         </is>
       </c>
       <c r="D91" s="2" t="n">
-        <v>44407</v>
+        <v>44454</v>
       </c>
       <c r="E91" t="n">
         <v>7</v>
@@ -7644,16 +7644,16 @@
         </is>
       </c>
       <c r="M91" t="n">
-        <v>150</v>
+        <v>100</v>
       </c>
       <c r="N91" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="O91" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="P91" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="Q91" t="inlineStr">
         <is>
@@ -7666,7 +7666,7 @@
         </is>
       </c>
       <c r="S91" t="n">
-        <v>556</v>
+        <v>667</v>
       </c>
       <c r="T91" t="n">
         <v>18</v>
@@ -7687,7 +7687,7 @@
         </is>
       </c>
       <c r="D92" s="2" t="n">
-        <v>44407</v>
+        <v>44454</v>
       </c>
       <c r="E92" t="n">
         <v>7</v>
@@ -7724,16 +7724,16 @@
         </is>
       </c>
       <c r="M92" t="n">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="N92" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="O92" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="P92" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="Q92" t="inlineStr">
         <is>
@@ -7746,7 +7746,7 @@
         </is>
       </c>
       <c r="S92" t="n">
-        <v>444</v>
+        <v>556</v>
       </c>
       <c r="T92" t="n">
         <v>18</v>
@@ -7767,7 +7767,7 @@
         </is>
       </c>
       <c r="D93" s="2" t="n">
-        <v>44336</v>
+        <v>44410</v>
       </c>
       <c r="E93" t="n">
         <v>7</v>
@@ -7804,20 +7804,20 @@
         </is>
       </c>
       <c r="M93" t="n">
-        <v>250</v>
+        <v>230</v>
       </c>
       <c r="N93" t="n">
-        <v>8000</v>
+        <v>12000</v>
       </c>
       <c r="O93" t="n">
-        <v>8000</v>
+        <v>12000</v>
       </c>
       <c r="P93" t="n">
-        <v>8000</v>
+        <v>12000</v>
       </c>
       <c r="Q93" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="R93" t="inlineStr">
@@ -7826,10 +7826,10 @@
         </is>
       </c>
       <c r="S93" t="n">
-        <v>800</v>
+        <v>667</v>
       </c>
       <c r="T93" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
     </row>
     <row r="94">
@@ -7847,7 +7847,7 @@
         </is>
       </c>
       <c r="D94" s="2" t="n">
-        <v>44341</v>
+        <v>44410</v>
       </c>
       <c r="E94" t="n">
         <v>7</v>
@@ -7880,24 +7880,24 @@
       </c>
       <c r="L94" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M94" t="n">
-        <v>200</v>
+        <v>230</v>
       </c>
       <c r="N94" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="O94" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="P94" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="Q94" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="R94" t="inlineStr">
@@ -7906,10 +7906,10 @@
         </is>
       </c>
       <c r="S94" t="n">
-        <v>556</v>
+        <v>700</v>
       </c>
       <c r="T94" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="95">
@@ -7927,7 +7927,7 @@
         </is>
       </c>
       <c r="D95" s="2" t="n">
-        <v>44341</v>
+        <v>44403</v>
       </c>
       <c r="E95" t="n">
         <v>7</v>
@@ -7964,16 +7964,16 @@
         </is>
       </c>
       <c r="M95" t="n">
-        <v>210</v>
+        <v>350</v>
       </c>
       <c r="N95" t="n">
         <v>9000</v>
       </c>
       <c r="O95" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="P95" t="n">
-        <v>9000</v>
+        <v>9429</v>
       </c>
       <c r="Q95" t="inlineStr">
         <is>
@@ -7986,7 +7986,7 @@
         </is>
       </c>
       <c r="S95" t="n">
-        <v>500</v>
+        <v>524</v>
       </c>
       <c r="T95" t="n">
         <v>18</v>
@@ -8007,7 +8007,7 @@
         </is>
       </c>
       <c r="D96" s="2" t="n">
-        <v>44426</v>
+        <v>44403</v>
       </c>
       <c r="E96" t="n">
         <v>7</v>
@@ -8040,24 +8040,24 @@
       </c>
       <c r="L96" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M96" t="n">
-        <v>100</v>
+        <v>250</v>
       </c>
       <c r="N96" t="n">
-        <v>12000</v>
+        <v>8000</v>
       </c>
       <c r="O96" t="n">
-        <v>12000</v>
+        <v>8000</v>
       </c>
       <c r="P96" t="n">
-        <v>12000</v>
+        <v>8000</v>
       </c>
       <c r="Q96" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="R96" t="inlineStr">
@@ -8066,7 +8066,7 @@
         </is>
       </c>
       <c r="S96" t="n">
-        <v>667</v>
+        <v>444</v>
       </c>
       <c r="T96" t="n">
         <v>18</v>
@@ -8120,20 +8120,20 @@
       </c>
       <c r="L97" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M97" t="n">
-        <v>120</v>
+        <v>100</v>
       </c>
       <c r="N97" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="O97" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="P97" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="Q97" t="inlineStr">
         <is>
@@ -8146,7 +8146,7 @@
         </is>
       </c>
       <c r="S97" t="n">
-        <v>556</v>
+        <v>667</v>
       </c>
       <c r="T97" t="n">
         <v>18</v>
@@ -8167,7 +8167,7 @@
         </is>
       </c>
       <c r="D98" s="2" t="n">
-        <v>44400</v>
+        <v>44426</v>
       </c>
       <c r="E98" t="n">
         <v>7</v>
@@ -8200,24 +8200,24 @@
       </c>
       <c r="L98" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M98" t="n">
-        <v>100</v>
+        <v>120</v>
       </c>
       <c r="N98" t="n">
-        <v>13000</v>
+        <v>10000</v>
       </c>
       <c r="O98" t="n">
-        <v>13000</v>
+        <v>10000</v>
       </c>
       <c r="P98" t="n">
-        <v>13000</v>
+        <v>10000</v>
       </c>
       <c r="Q98" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="R98" t="inlineStr">
@@ -8226,7 +8226,7 @@
         </is>
       </c>
       <c r="S98" t="n">
-        <v>722</v>
+        <v>556</v>
       </c>
       <c r="T98" t="n">
         <v>18</v>
@@ -8247,7 +8247,7 @@
         </is>
       </c>
       <c r="D99" s="2" t="n">
-        <v>44400</v>
+        <v>44469</v>
       </c>
       <c r="E99" t="n">
         <v>7</v>
@@ -8280,20 +8280,20 @@
       </c>
       <c r="L99" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M99" t="n">
-        <v>180</v>
+        <v>150</v>
       </c>
       <c r="N99" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="O99" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="P99" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="Q99" t="inlineStr">
         <is>
@@ -8306,7 +8306,7 @@
         </is>
       </c>
       <c r="S99" t="n">
-        <v>556</v>
+        <v>667</v>
       </c>
       <c r="T99" t="n">
         <v>18</v>
@@ -8327,7 +8327,7 @@
         </is>
       </c>
       <c r="D100" s="2" t="n">
-        <v>44400</v>
+        <v>44469</v>
       </c>
       <c r="E100" t="n">
         <v>7</v>
@@ -8360,20 +8360,20 @@
       </c>
       <c r="L100" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M100" t="n">
-        <v>150</v>
+        <v>200</v>
       </c>
       <c r="N100" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="O100" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="P100" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="Q100" t="inlineStr">
         <is>
@@ -8386,7 +8386,7 @@
         </is>
       </c>
       <c r="S100" t="n">
-        <v>444</v>
+        <v>556</v>
       </c>
       <c r="T100" t="n">
         <v>18</v>
@@ -8407,7 +8407,7 @@
         </is>
       </c>
       <c r="D101" s="2" t="n">
-        <v>44392</v>
+        <v>44434</v>
       </c>
       <c r="E101" t="n">
         <v>7</v>
@@ -8444,16 +8444,16 @@
         </is>
       </c>
       <c r="M101" t="n">
-        <v>200</v>
+        <v>230</v>
       </c>
       <c r="N101" t="n">
-        <v>11000</v>
+        <v>14000</v>
       </c>
       <c r="O101" t="n">
-        <v>11000</v>
+        <v>14000</v>
       </c>
       <c r="P101" t="n">
-        <v>11000</v>
+        <v>14000</v>
       </c>
       <c r="Q101" t="inlineStr">
         <is>
@@ -8466,7 +8466,7 @@
         </is>
       </c>
       <c r="S101" t="n">
-        <v>611</v>
+        <v>778</v>
       </c>
       <c r="T101" t="n">
         <v>18</v>
@@ -8487,7 +8487,7 @@
         </is>
       </c>
       <c r="D102" s="2" t="n">
-        <v>44392</v>
+        <v>44434</v>
       </c>
       <c r="E102" t="n">
         <v>7</v>
@@ -8520,24 +8520,24 @@
       </c>
       <c r="L102" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M102" t="n">
-        <v>400</v>
+        <v>160</v>
       </c>
       <c r="N102" t="n">
-        <v>9000</v>
+        <v>8000</v>
       </c>
       <c r="O102" t="n">
-        <v>9000</v>
+        <v>8000</v>
       </c>
       <c r="P102" t="n">
-        <v>9000</v>
+        <v>8000</v>
       </c>
       <c r="Q102" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="R102" t="inlineStr">
@@ -8546,10 +8546,10 @@
         </is>
       </c>
       <c r="S102" t="n">
-        <v>500</v>
+        <v>800</v>
       </c>
       <c r="T102" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="103">
@@ -8567,7 +8567,7 @@
         </is>
       </c>
       <c r="D103" s="2" t="n">
-        <v>44442</v>
+        <v>44434</v>
       </c>
       <c r="E103" t="n">
         <v>7</v>
@@ -8600,20 +8600,20 @@
       </c>
       <c r="L103" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M103" t="n">
-        <v>180</v>
+        <v>150</v>
       </c>
       <c r="N103" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="O103" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="P103" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="Q103" t="inlineStr">
         <is>
@@ -8626,7 +8626,7 @@
         </is>
       </c>
       <c r="S103" t="n">
-        <v>778</v>
+        <v>667</v>
       </c>
       <c r="T103" t="n">
         <v>18</v>
@@ -8647,7 +8647,7 @@
         </is>
       </c>
       <c r="D104" s="2" t="n">
-        <v>44442</v>
+        <v>44434</v>
       </c>
       <c r="E104" t="n">
         <v>7</v>
@@ -8687,17 +8687,17 @@
         <v>230</v>
       </c>
       <c r="N104" t="n">
-        <v>12000</v>
+        <v>7000</v>
       </c>
       <c r="O104" t="n">
-        <v>12000</v>
+        <v>7000</v>
       </c>
       <c r="P104" t="n">
-        <v>12000</v>
+        <v>7000</v>
       </c>
       <c r="Q104" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="R104" t="inlineStr">
@@ -8706,10 +8706,10 @@
         </is>
       </c>
       <c r="S104" t="n">
-        <v>667</v>
+        <v>700</v>
       </c>
       <c r="T104" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="105">
@@ -8727,7 +8727,7 @@
         </is>
       </c>
       <c r="D105" s="2" t="n">
-        <v>44442</v>
+        <v>44434</v>
       </c>
       <c r="E105" t="n">
         <v>7</v>
@@ -8760,11 +8760,11 @@
       </c>
       <c r="L105" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M105" t="n">
-        <v>250</v>
+        <v>120</v>
       </c>
       <c r="N105" t="n">
         <v>10000</v>
@@ -8782,7 +8782,7 @@
       </c>
       <c r="R105" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S105" t="n">
@@ -8807,7 +8807,7 @@
         </is>
       </c>
       <c r="D106" s="2" t="n">
-        <v>44442</v>
+        <v>44351</v>
       </c>
       <c r="E106" t="n">
         <v>7</v>
@@ -8840,20 +8840,20 @@
       </c>
       <c r="L106" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M106" t="n">
-        <v>200</v>
+        <v>260</v>
       </c>
       <c r="N106" t="n">
-        <v>10000</v>
+        <v>11000</v>
       </c>
       <c r="O106" t="n">
-        <v>10000</v>
+        <v>11000</v>
       </c>
       <c r="P106" t="n">
-        <v>10000</v>
+        <v>11000</v>
       </c>
       <c r="Q106" t="inlineStr">
         <is>
@@ -8866,7 +8866,7 @@
         </is>
       </c>
       <c r="S106" t="n">
-        <v>556</v>
+        <v>611</v>
       </c>
       <c r="T106" t="n">
         <v>18</v>
@@ -8887,7 +8887,7 @@
         </is>
       </c>
       <c r="D107" s="2" t="n">
-        <v>44442</v>
+        <v>44351</v>
       </c>
       <c r="E107" t="n">
         <v>7</v>
@@ -8920,20 +8920,20 @@
       </c>
       <c r="L107" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M107" t="n">
         <v>200</v>
       </c>
       <c r="N107" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="O107" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="P107" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="Q107" t="inlineStr">
         <is>
@@ -8942,11 +8942,11 @@
       </c>
       <c r="R107" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S107" t="n">
-        <v>444</v>
+        <v>556</v>
       </c>
       <c r="T107" t="n">
         <v>18</v>
@@ -8967,7 +8967,7 @@
         </is>
       </c>
       <c r="D108" s="2" t="n">
-        <v>44453</v>
+        <v>44351</v>
       </c>
       <c r="E108" t="n">
         <v>7</v>
@@ -9004,29 +9004,29 @@
         </is>
       </c>
       <c r="M108" t="n">
-        <v>250</v>
+        <v>230</v>
       </c>
       <c r="N108" t="n">
-        <v>12000</v>
+        <v>8000</v>
       </c>
       <c r="O108" t="n">
-        <v>12000</v>
+        <v>8000</v>
       </c>
       <c r="P108" t="n">
-        <v>12000</v>
+        <v>8000</v>
       </c>
       <c r="Q108" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="R108" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S108" t="n">
-        <v>1200</v>
+        <v>800</v>
       </c>
       <c r="T108" t="n">
         <v>10</v>
@@ -9047,7 +9047,7 @@
         </is>
       </c>
       <c r="D109" s="2" t="n">
-        <v>44309</v>
+        <v>44280</v>
       </c>
       <c r="E109" t="n">
         <v>7</v>
@@ -9080,24 +9080,24 @@
       </c>
       <c r="L109" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M109" t="n">
-        <v>160</v>
+        <v>100</v>
       </c>
       <c r="N109" t="n">
-        <v>14000</v>
+        <v>10000</v>
       </c>
       <c r="O109" t="n">
-        <v>14000</v>
+        <v>10000</v>
       </c>
       <c r="P109" t="n">
-        <v>14000</v>
+        <v>10000</v>
       </c>
       <c r="Q109" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="R109" t="inlineStr">
@@ -9106,10 +9106,10 @@
         </is>
       </c>
       <c r="S109" t="n">
-        <v>778</v>
+        <v>1000</v>
       </c>
       <c r="T109" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="110">
@@ -9127,7 +9127,7 @@
         </is>
       </c>
       <c r="D110" s="2" t="n">
-        <v>44309</v>
+        <v>44280</v>
       </c>
       <c r="E110" t="n">
         <v>7</v>
@@ -9160,24 +9160,24 @@
       </c>
       <c r="L110" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M110" t="n">
-        <v>250</v>
+        <v>60</v>
       </c>
       <c r="N110" t="n">
         <v>8000</v>
       </c>
       <c r="O110" t="n">
-        <v>9000</v>
+        <v>8000</v>
       </c>
       <c r="P110" t="n">
-        <v>8600</v>
+        <v>8000</v>
       </c>
       <c r="Q110" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="R110" t="inlineStr">
@@ -9186,7 +9186,7 @@
         </is>
       </c>
       <c r="S110" t="n">
-        <v>860</v>
+        <v>800</v>
       </c>
       <c r="T110" t="n">
         <v>10</v>
@@ -9207,7 +9207,7 @@
         </is>
       </c>
       <c r="D111" s="2" t="n">
-        <v>44309</v>
+        <v>44445</v>
       </c>
       <c r="E111" t="n">
         <v>7</v>
@@ -9244,7 +9244,7 @@
         </is>
       </c>
       <c r="M111" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="N111" t="n">
         <v>12000</v>
@@ -9287,7 +9287,7 @@
         </is>
       </c>
       <c r="D112" s="2" t="n">
-        <v>44448</v>
+        <v>44407</v>
       </c>
       <c r="E112" t="n">
         <v>7</v>
@@ -9324,7 +9324,7 @@
         </is>
       </c>
       <c r="M112" t="n">
-        <v>180</v>
+        <v>60</v>
       </c>
       <c r="N112" t="n">
         <v>13000</v>
@@ -9337,7 +9337,7 @@
       </c>
       <c r="Q112" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="R112" t="inlineStr">
@@ -9367,7 +9367,7 @@
         </is>
       </c>
       <c r="D113" s="2" t="n">
-        <v>44448</v>
+        <v>44407</v>
       </c>
       <c r="E113" t="n">
         <v>7</v>
@@ -9404,20 +9404,20 @@
         </is>
       </c>
       <c r="M113" t="n">
-        <v>230</v>
+        <v>150</v>
       </c>
       <c r="N113" t="n">
-        <v>11000</v>
+        <v>10000</v>
       </c>
       <c r="O113" t="n">
-        <v>11000</v>
+        <v>10000</v>
       </c>
       <c r="P113" t="n">
-        <v>11000</v>
+        <v>10000</v>
       </c>
       <c r="Q113" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="R113" t="inlineStr">
@@ -9426,7 +9426,7 @@
         </is>
       </c>
       <c r="S113" t="n">
-        <v>611</v>
+        <v>556</v>
       </c>
       <c r="T113" t="n">
         <v>18</v>
@@ -9447,7 +9447,7 @@
         </is>
       </c>
       <c r="D114" s="2" t="n">
-        <v>44354</v>
+        <v>44407</v>
       </c>
       <c r="E114" t="n">
         <v>7</v>
@@ -9480,20 +9480,20 @@
       </c>
       <c r="L114" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M114" t="n">
-        <v>180</v>
+        <v>100</v>
       </c>
       <c r="N114" t="n">
-        <v>12000</v>
+        <v>8000</v>
       </c>
       <c r="O114" t="n">
-        <v>12000</v>
+        <v>8000</v>
       </c>
       <c r="P114" t="n">
-        <v>12000</v>
+        <v>8000</v>
       </c>
       <c r="Q114" t="inlineStr">
         <is>
@@ -9502,11 +9502,11 @@
       </c>
       <c r="R114" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S114" t="n">
-        <v>667</v>
+        <v>444</v>
       </c>
       <c r="T114" t="n">
         <v>18</v>
@@ -9527,7 +9527,7 @@
         </is>
       </c>
       <c r="D115" s="2" t="n">
-        <v>44354</v>
+        <v>44358</v>
       </c>
       <c r="E115" t="n">
         <v>7</v>
@@ -9560,20 +9560,20 @@
       </c>
       <c r="L115" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M115" t="n">
-        <v>100</v>
+        <v>230</v>
       </c>
       <c r="N115" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="O115" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="P115" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="Q115" t="inlineStr">
         <is>
@@ -9582,11 +9582,11 @@
       </c>
       <c r="R115" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S115" t="n">
-        <v>556</v>
+        <v>722</v>
       </c>
       <c r="T115" t="n">
         <v>18</v>
@@ -9607,7 +9607,7 @@
         </is>
       </c>
       <c r="D116" s="2" t="n">
-        <v>44420</v>
+        <v>44358</v>
       </c>
       <c r="E116" t="n">
         <v>7</v>
@@ -9644,20 +9644,20 @@
         </is>
       </c>
       <c r="M116" t="n">
-        <v>120</v>
+        <v>250</v>
       </c>
       <c r="N116" t="n">
-        <v>14000</v>
+        <v>9000</v>
       </c>
       <c r="O116" t="n">
-        <v>14000</v>
+        <v>9000</v>
       </c>
       <c r="P116" t="n">
-        <v>14000</v>
+        <v>9000</v>
       </c>
       <c r="Q116" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="R116" t="inlineStr">
@@ -9666,10 +9666,10 @@
         </is>
       </c>
       <c r="S116" t="n">
-        <v>778</v>
+        <v>900</v>
       </c>
       <c r="T116" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="117">
@@ -9687,7 +9687,7 @@
         </is>
       </c>
       <c r="D117" s="2" t="n">
-        <v>44420</v>
+        <v>44358</v>
       </c>
       <c r="E117" t="n">
         <v>7</v>
@@ -9724,20 +9724,20 @@
         </is>
       </c>
       <c r="M117" t="n">
-        <v>200</v>
+        <v>210</v>
       </c>
       <c r="N117" t="n">
-        <v>12000</v>
+        <v>11000</v>
       </c>
       <c r="O117" t="n">
-        <v>12000</v>
+        <v>11000</v>
       </c>
       <c r="P117" t="n">
-        <v>12000</v>
+        <v>11000</v>
       </c>
       <c r="Q117" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="R117" t="inlineStr">
@@ -9746,7 +9746,7 @@
         </is>
       </c>
       <c r="S117" t="n">
-        <v>667</v>
+        <v>611</v>
       </c>
       <c r="T117" t="n">
         <v>18</v>
@@ -9767,7 +9767,7 @@
         </is>
       </c>
       <c r="D118" s="2" t="n">
-        <v>44370</v>
+        <v>44358</v>
       </c>
       <c r="E118" t="n">
         <v>7</v>
@@ -9800,24 +9800,24 @@
       </c>
       <c r="L118" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M118" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="N118" t="n">
-        <v>12000</v>
+        <v>7000</v>
       </c>
       <c r="O118" t="n">
-        <v>12000</v>
+        <v>7000</v>
       </c>
       <c r="P118" t="n">
-        <v>12000</v>
+        <v>7000</v>
       </c>
       <c r="Q118" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="R118" t="inlineStr">
@@ -9826,10 +9826,10 @@
         </is>
       </c>
       <c r="S118" t="n">
-        <v>667</v>
+        <v>700</v>
       </c>
       <c r="T118" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="119">
@@ -9847,7 +9847,7 @@
         </is>
       </c>
       <c r="D119" s="2" t="n">
-        <v>44370</v>
+        <v>44358</v>
       </c>
       <c r="E119" t="n">
         <v>7</v>
@@ -9880,20 +9880,20 @@
       </c>
       <c r="L119" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M119" t="n">
-        <v>120</v>
+        <v>190</v>
       </c>
       <c r="N119" t="n">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="O119" t="n">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="P119" t="n">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="Q119" t="inlineStr">
         <is>
@@ -9906,7 +9906,7 @@
         </is>
       </c>
       <c r="S119" t="n">
-        <v>556</v>
+        <v>500</v>
       </c>
       <c r="T119" t="n">
         <v>18</v>
@@ -9927,7 +9927,7 @@
         </is>
       </c>
       <c r="D120" s="2" t="n">
-        <v>44370</v>
+        <v>44391</v>
       </c>
       <c r="E120" t="n">
         <v>7</v>
@@ -9960,20 +9960,20 @@
       </c>
       <c r="L120" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M120" t="n">
-        <v>60</v>
+        <v>200</v>
       </c>
       <c r="N120" t="n">
-        <v>8000</v>
+        <v>11000</v>
       </c>
       <c r="O120" t="n">
-        <v>8000</v>
+        <v>11000</v>
       </c>
       <c r="P120" t="n">
-        <v>8000</v>
+        <v>11000</v>
       </c>
       <c r="Q120" t="inlineStr">
         <is>
@@ -9986,7 +9986,7 @@
         </is>
       </c>
       <c r="S120" t="n">
-        <v>444</v>
+        <v>611</v>
       </c>
       <c r="T120" t="n">
         <v>18</v>
@@ -10007,7 +10007,7 @@
         </is>
       </c>
       <c r="D121" s="2" t="n">
-        <v>44285</v>
+        <v>44391</v>
       </c>
       <c r="E121" t="n">
         <v>7</v>
@@ -10044,32 +10044,32 @@
         </is>
       </c>
       <c r="M121" t="n">
-        <v>300</v>
+        <v>250</v>
       </c>
       <c r="N121" t="n">
-        <v>9000</v>
+        <v>9500</v>
       </c>
       <c r="O121" t="n">
-        <v>9000</v>
+        <v>9500</v>
       </c>
       <c r="P121" t="n">
-        <v>9000</v>
+        <v>9500</v>
       </c>
       <c r="Q121" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="R121" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S121" t="n">
-        <v>900</v>
+        <v>528</v>
       </c>
       <c r="T121" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
     </row>
     <row r="122">
@@ -10087,7 +10087,7 @@
         </is>
       </c>
       <c r="D122" s="2" t="n">
-        <v>44285</v>
+        <v>44320</v>
       </c>
       <c r="E122" t="n">
         <v>7</v>
@@ -10120,36 +10120,36 @@
       </c>
       <c r="L122" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M122" t="n">
-        <v>150</v>
+        <v>120</v>
       </c>
       <c r="N122" t="n">
-        <v>7000</v>
+        <v>13000</v>
       </c>
       <c r="O122" t="n">
-        <v>7000</v>
+        <v>13000</v>
       </c>
       <c r="P122" t="n">
-        <v>7000</v>
+        <v>13000</v>
       </c>
       <c r="Q122" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="R122" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S122" t="n">
-        <v>700</v>
+        <v>722</v>
       </c>
       <c r="T122" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
     </row>
     <row r="123">
@@ -10167,7 +10167,7 @@
         </is>
       </c>
       <c r="D123" s="2" t="n">
-        <v>44266</v>
+        <v>44320</v>
       </c>
       <c r="E123" t="n">
         <v>7</v>
@@ -10200,24 +10200,24 @@
       </c>
       <c r="L123" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M123" t="n">
-        <v>210</v>
+        <v>150</v>
       </c>
       <c r="N123" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="O123" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="P123" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="Q123" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="R123" t="inlineStr">
@@ -10226,10 +10226,10 @@
         </is>
       </c>
       <c r="S123" t="n">
-        <v>667</v>
+        <v>1000</v>
       </c>
       <c r="T123" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="124">
@@ -10247,7 +10247,7 @@
         </is>
       </c>
       <c r="D124" s="2" t="n">
-        <v>44350</v>
+        <v>44320</v>
       </c>
       <c r="E124" t="n">
         <v>7</v>
@@ -10280,36 +10280,36 @@
       </c>
       <c r="L124" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M124" t="n">
-        <v>130</v>
+        <v>300</v>
       </c>
       <c r="N124" t="n">
-        <v>11000</v>
+        <v>10000</v>
       </c>
       <c r="O124" t="n">
-        <v>11000</v>
+        <v>10000</v>
       </c>
       <c r="P124" t="n">
-        <v>11000</v>
+        <v>10000</v>
       </c>
       <c r="Q124" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos granel</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R124" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S124" t="n">
-        <v>611</v>
+        <v>1000</v>
       </c>
       <c r="T124" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="125">
@@ -10327,7 +10327,7 @@
         </is>
       </c>
       <c r="D125" s="2" t="n">
-        <v>44350</v>
+        <v>44320</v>
       </c>
       <c r="E125" t="n">
         <v>7</v>
@@ -10364,20 +10364,20 @@
         </is>
       </c>
       <c r="M125" t="n">
-        <v>360</v>
+        <v>100</v>
       </c>
       <c r="N125" t="n">
-        <v>9000</v>
+        <v>11000</v>
       </c>
       <c r="O125" t="n">
-        <v>9000</v>
+        <v>11000</v>
       </c>
       <c r="P125" t="n">
-        <v>9000</v>
+        <v>11000</v>
       </c>
       <c r="Q125" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos granel</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="R125" t="inlineStr">
@@ -10386,7 +10386,7 @@
         </is>
       </c>
       <c r="S125" t="n">
-        <v>500</v>
+        <v>611</v>
       </c>
       <c r="T125" t="n">
         <v>18</v>
@@ -10407,7 +10407,7 @@
         </is>
       </c>
       <c r="D126" s="2" t="n">
-        <v>44350</v>
+        <v>44349</v>
       </c>
       <c r="E126" t="n">
         <v>7</v>
@@ -10440,33 +10440,33 @@
       </c>
       <c r="L126" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M126" t="n">
-        <v>100</v>
+        <v>180</v>
       </c>
       <c r="N126" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="O126" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="P126" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="Q126" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos granel</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="R126" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S126" t="n">
-        <v>500</v>
+        <v>556</v>
       </c>
       <c r="T126" t="n">
         <v>18</v>
@@ -10487,7 +10487,7 @@
         </is>
       </c>
       <c r="D127" s="2" t="n">
-        <v>44350</v>
+        <v>44349</v>
       </c>
       <c r="E127" t="n">
         <v>7</v>
@@ -10520,20 +10520,20 @@
       </c>
       <c r="L127" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M127" t="n">
-        <v>210</v>
+        <v>230</v>
       </c>
       <c r="N127" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="O127" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="P127" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="Q127" t="inlineStr">
         <is>
@@ -10546,7 +10546,7 @@
         </is>
       </c>
       <c r="S127" t="n">
-        <v>389</v>
+        <v>444</v>
       </c>
       <c r="T127" t="n">
         <v>18</v>
@@ -10567,7 +10567,7 @@
         </is>
       </c>
       <c r="D128" s="2" t="n">
-        <v>44350</v>
+        <v>44372</v>
       </c>
       <c r="E128" t="n">
         <v>7</v>
@@ -10600,33 +10600,33 @@
       </c>
       <c r="L128" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M128" t="n">
-        <v>150</v>
+        <v>130</v>
       </c>
       <c r="N128" t="n">
-        <v>7000</v>
+        <v>11000</v>
       </c>
       <c r="O128" t="n">
-        <v>7000</v>
+        <v>11000</v>
       </c>
       <c r="P128" t="n">
-        <v>7000</v>
+        <v>11000</v>
       </c>
       <c r="Q128" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos granel</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="R128" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S128" t="n">
-        <v>389</v>
+        <v>611</v>
       </c>
       <c r="T128" t="n">
         <v>18</v>
@@ -10647,7 +10647,7 @@
         </is>
       </c>
       <c r="D129" s="2" t="n">
-        <v>44455</v>
+        <v>44372</v>
       </c>
       <c r="E129" t="n">
         <v>7</v>
@@ -10684,16 +10684,16 @@
         </is>
       </c>
       <c r="M129" t="n">
-        <v>150</v>
+        <v>120</v>
       </c>
       <c r="N129" t="n">
-        <v>12000</v>
+        <v>9000</v>
       </c>
       <c r="O129" t="n">
-        <v>12000</v>
+        <v>9000</v>
       </c>
       <c r="P129" t="n">
-        <v>12000</v>
+        <v>9000</v>
       </c>
       <c r="Q129" t="inlineStr">
         <is>
@@ -10706,7 +10706,7 @@
         </is>
       </c>
       <c r="S129" t="n">
-        <v>667</v>
+        <v>500</v>
       </c>
       <c r="T129" t="n">
         <v>18</v>
@@ -10727,7 +10727,7 @@
         </is>
       </c>
       <c r="D130" s="2" t="n">
-        <v>44455</v>
+        <v>44372</v>
       </c>
       <c r="E130" t="n">
         <v>7</v>
@@ -10767,13 +10767,13 @@
         <v>100</v>
       </c>
       <c r="N130" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="O130" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="P130" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="Q130" t="inlineStr">
         <is>
@@ -10786,7 +10786,7 @@
         </is>
       </c>
       <c r="S130" t="n">
-        <v>556</v>
+        <v>389</v>
       </c>
       <c r="T130" t="n">
         <v>18</v>
@@ -10807,7 +10807,7 @@
         </is>
       </c>
       <c r="D131" s="2" t="n">
-        <v>44418</v>
+        <v>44350</v>
       </c>
       <c r="E131" t="n">
         <v>7</v>
@@ -10844,29 +10844,29 @@
         </is>
       </c>
       <c r="M131" t="n">
-        <v>100</v>
+        <v>130</v>
       </c>
       <c r="N131" t="n">
-        <v>14000</v>
+        <v>11000</v>
       </c>
       <c r="O131" t="n">
-        <v>14000</v>
+        <v>11000</v>
       </c>
       <c r="P131" t="n">
-        <v>14000</v>
+        <v>11000</v>
       </c>
       <c r="Q131" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 18 kilos granel</t>
         </is>
       </c>
       <c r="R131" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S131" t="n">
-        <v>778</v>
+        <v>611</v>
       </c>
       <c r="T131" t="n">
         <v>18</v>
@@ -10887,7 +10887,7 @@
         </is>
       </c>
       <c r="D132" s="2" t="n">
-        <v>44418</v>
+        <v>44350</v>
       </c>
       <c r="E132" t="n">
         <v>7</v>
@@ -10924,20 +10924,20 @@
         </is>
       </c>
       <c r="M132" t="n">
-        <v>200</v>
+        <v>360</v>
       </c>
       <c r="N132" t="n">
-        <v>12000</v>
+        <v>9000</v>
       </c>
       <c r="O132" t="n">
-        <v>12000</v>
+        <v>9000</v>
       </c>
       <c r="P132" t="n">
-        <v>12000</v>
+        <v>9000</v>
       </c>
       <c r="Q132" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 18 kilos granel</t>
         </is>
       </c>
       <c r="R132" t="inlineStr">
@@ -10946,7 +10946,7 @@
         </is>
       </c>
       <c r="S132" t="n">
-        <v>667</v>
+        <v>500</v>
       </c>
       <c r="T132" t="n">
         <v>18</v>
@@ -10967,7 +10967,7 @@
         </is>
       </c>
       <c r="D133" s="2" t="n">
-        <v>44418</v>
+        <v>44350</v>
       </c>
       <c r="E133" t="n">
         <v>7</v>
@@ -11000,33 +11000,33 @@
       </c>
       <c r="L133" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M133" t="n">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="N133" t="n">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="O133" t="n">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="P133" t="n">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="Q133" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 18 kilos granel</t>
         </is>
       </c>
       <c r="R133" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S133" t="n">
-        <v>556</v>
+        <v>500</v>
       </c>
       <c r="T133" t="n">
         <v>18</v>
@@ -11047,7 +11047,7 @@
         </is>
       </c>
       <c r="D134" s="2" t="n">
-        <v>44414</v>
+        <v>44350</v>
       </c>
       <c r="E134" t="n">
         <v>7</v>
@@ -11080,24 +11080,24 @@
       </c>
       <c r="L134" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M134" t="n">
-        <v>150</v>
+        <v>210</v>
       </c>
       <c r="N134" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="O134" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="P134" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="Q134" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="R134" t="inlineStr">
@@ -11106,10 +11106,10 @@
         </is>
       </c>
       <c r="S134" t="n">
-        <v>800</v>
+        <v>389</v>
       </c>
       <c r="T134" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
     </row>
     <row r="135">
@@ -11127,7 +11127,7 @@
         </is>
       </c>
       <c r="D135" s="2" t="n">
-        <v>44414</v>
+        <v>44350</v>
       </c>
       <c r="E135" t="n">
         <v>7</v>
@@ -11160,33 +11160,33 @@
       </c>
       <c r="L135" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M135" t="n">
-        <v>190</v>
+        <v>150</v>
       </c>
       <c r="N135" t="n">
-        <v>12000</v>
+        <v>7000</v>
       </c>
       <c r="O135" t="n">
-        <v>12000</v>
+        <v>7000</v>
       </c>
       <c r="P135" t="n">
-        <v>12000</v>
+        <v>7000</v>
       </c>
       <c r="Q135" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 18 kilos granel</t>
         </is>
       </c>
       <c r="R135" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S135" t="n">
-        <v>667</v>
+        <v>389</v>
       </c>
       <c r="T135" t="n">
         <v>18</v>
@@ -11207,7 +11207,7 @@
         </is>
       </c>
       <c r="D136" s="2" t="n">
-        <v>44414</v>
+        <v>44448</v>
       </c>
       <c r="E136" t="n">
         <v>7</v>
@@ -11240,24 +11240,24 @@
       </c>
       <c r="L136" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M136" t="n">
-        <v>100</v>
+        <v>180</v>
       </c>
       <c r="N136" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="O136" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="P136" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="Q136" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="R136" t="inlineStr">
@@ -11266,7 +11266,7 @@
         </is>
       </c>
       <c r="S136" t="n">
-        <v>556</v>
+        <v>722</v>
       </c>
       <c r="T136" t="n">
         <v>18</v>
@@ -11287,7 +11287,7 @@
         </is>
       </c>
       <c r="D137" s="2" t="n">
-        <v>44466</v>
+        <v>44448</v>
       </c>
       <c r="E137" t="n">
         <v>7</v>
@@ -11324,20 +11324,20 @@
         </is>
       </c>
       <c r="M137" t="n">
-        <v>200</v>
+        <v>230</v>
       </c>
       <c r="N137" t="n">
-        <v>10000</v>
+        <v>11000</v>
       </c>
       <c r="O137" t="n">
-        <v>10000</v>
+        <v>11000</v>
       </c>
       <c r="P137" t="n">
-        <v>10000</v>
+        <v>11000</v>
       </c>
       <c r="Q137" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="R137" t="inlineStr">
@@ -11346,7 +11346,7 @@
         </is>
       </c>
       <c r="S137" t="n">
-        <v>556</v>
+        <v>611</v>
       </c>
       <c r="T137" t="n">
         <v>18</v>
@@ -11367,7 +11367,7 @@
         </is>
       </c>
       <c r="D138" s="2" t="n">
-        <v>44389</v>
+        <v>44385</v>
       </c>
       <c r="E138" t="n">
         <v>7</v>
@@ -11400,24 +11400,24 @@
       </c>
       <c r="L138" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M138" t="n">
-        <v>300</v>
+        <v>230</v>
       </c>
       <c r="N138" t="n">
-        <v>6000</v>
+        <v>11000</v>
       </c>
       <c r="O138" t="n">
-        <v>6000</v>
+        <v>11000</v>
       </c>
       <c r="P138" t="n">
-        <v>6000</v>
+        <v>11000</v>
       </c>
       <c r="Q138" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="R138" t="inlineStr">
@@ -11426,10 +11426,10 @@
         </is>
       </c>
       <c r="S138" t="n">
-        <v>600</v>
+        <v>611</v>
       </c>
       <c r="T138" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
     </row>
     <row r="139">
@@ -11447,7 +11447,7 @@
         </is>
       </c>
       <c r="D139" s="2" t="n">
-        <v>44343</v>
+        <v>44385</v>
       </c>
       <c r="E139" t="n">
         <v>7</v>
@@ -11480,20 +11480,20 @@
       </c>
       <c r="L139" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M139" t="n">
-        <v>120</v>
+        <v>200</v>
       </c>
       <c r="N139" t="n">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="O139" t="n">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="P139" t="n">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="Q139" t="inlineStr">
         <is>
@@ -11506,7 +11506,7 @@
         </is>
       </c>
       <c r="S139" t="n">
-        <v>556</v>
+        <v>500</v>
       </c>
       <c r="T139" t="n">
         <v>18</v>
@@ -11527,7 +11527,7 @@
         </is>
       </c>
       <c r="D140" s="2" t="n">
-        <v>44343</v>
+        <v>44452</v>
       </c>
       <c r="E140" t="n">
         <v>7</v>
@@ -11564,16 +11564,16 @@
         </is>
       </c>
       <c r="M140" t="n">
-        <v>160</v>
+        <v>300</v>
       </c>
       <c r="N140" t="n">
-        <v>9000</v>
+        <v>12000</v>
       </c>
       <c r="O140" t="n">
-        <v>9000</v>
+        <v>12000</v>
       </c>
       <c r="P140" t="n">
-        <v>9000</v>
+        <v>12000</v>
       </c>
       <c r="Q140" t="inlineStr">
         <is>
@@ -11586,7 +11586,7 @@
         </is>
       </c>
       <c r="S140" t="n">
-        <v>500</v>
+        <v>667</v>
       </c>
       <c r="T140" t="n">
         <v>18</v>
@@ -11607,7 +11607,7 @@
         </is>
       </c>
       <c r="D141" s="2" t="n">
-        <v>44280</v>
+        <v>44453</v>
       </c>
       <c r="E141" t="n">
         <v>7</v>
@@ -11644,20 +11644,20 @@
         </is>
       </c>
       <c r="M141" t="n">
-        <v>100</v>
+        <v>250</v>
       </c>
       <c r="N141" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="O141" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="P141" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="Q141" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R141" t="inlineStr">
@@ -11666,7 +11666,7 @@
         </is>
       </c>
       <c r="S141" t="n">
-        <v>1000</v>
+        <v>1200</v>
       </c>
       <c r="T141" t="n">
         <v>10</v>
@@ -11687,7 +11687,7 @@
         </is>
       </c>
       <c r="D142" s="2" t="n">
-        <v>44280</v>
+        <v>44435</v>
       </c>
       <c r="E142" t="n">
         <v>7</v>
@@ -11720,24 +11720,24 @@
       </c>
       <c r="L142" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M142" t="n">
-        <v>60</v>
+        <v>390</v>
       </c>
       <c r="N142" t="n">
-        <v>8000</v>
+        <v>14000</v>
       </c>
       <c r="O142" t="n">
-        <v>8000</v>
+        <v>14000</v>
       </c>
       <c r="P142" t="n">
-        <v>8000</v>
+        <v>14000</v>
       </c>
       <c r="Q142" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="R142" t="inlineStr">
@@ -11746,10 +11746,10 @@
         </is>
       </c>
       <c r="S142" t="n">
-        <v>800</v>
+        <v>778</v>
       </c>
       <c r="T142" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
     </row>
     <row r="143">
@@ -11767,7 +11767,7 @@
         </is>
       </c>
       <c r="D143" s="2" t="n">
-        <v>44390</v>
+        <v>44435</v>
       </c>
       <c r="E143" t="n">
         <v>7</v>
@@ -11800,24 +11800,24 @@
       </c>
       <c r="L143" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M143" t="n">
-        <v>250</v>
+        <v>160</v>
       </c>
       <c r="N143" t="n">
-        <v>9000</v>
+        <v>8000</v>
       </c>
       <c r="O143" t="n">
-        <v>9000</v>
+        <v>8000</v>
       </c>
       <c r="P143" t="n">
-        <v>9000</v>
+        <v>8000</v>
       </c>
       <c r="Q143" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="R143" t="inlineStr">
@@ -11826,10 +11826,10 @@
         </is>
       </c>
       <c r="S143" t="n">
-        <v>500</v>
+        <v>800</v>
       </c>
       <c r="T143" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="144">
@@ -11847,7 +11847,7 @@
         </is>
       </c>
       <c r="D144" s="2" t="n">
-        <v>44386</v>
+        <v>44435</v>
       </c>
       <c r="E144" t="n">
         <v>7</v>
@@ -11880,24 +11880,24 @@
       </c>
       <c r="L144" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M144" t="n">
-        <v>300</v>
+        <v>330</v>
       </c>
       <c r="N144" t="n">
-        <v>6000</v>
+        <v>14000</v>
       </c>
       <c r="O144" t="n">
-        <v>6000</v>
+        <v>14000</v>
       </c>
       <c r="P144" t="n">
-        <v>6000</v>
+        <v>14000</v>
       </c>
       <c r="Q144" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="R144" t="inlineStr">
@@ -11906,10 +11906,10 @@
         </is>
       </c>
       <c r="S144" t="n">
-        <v>600</v>
+        <v>778</v>
       </c>
       <c r="T144" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
     </row>
     <row r="145">
@@ -11927,7 +11927,7 @@
         </is>
       </c>
       <c r="D145" s="2" t="n">
-        <v>44308</v>
+        <v>44435</v>
       </c>
       <c r="E145" t="n">
         <v>7</v>
@@ -11960,20 +11960,20 @@
       </c>
       <c r="L145" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M145" t="n">
-        <v>100</v>
+        <v>250</v>
       </c>
       <c r="N145" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="O145" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="P145" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="Q145" t="inlineStr">
         <is>
@@ -11986,7 +11986,7 @@
         </is>
       </c>
       <c r="S145" t="n">
-        <v>778</v>
+        <v>667</v>
       </c>
       <c r="T145" t="n">
         <v>18</v>
@@ -12007,7 +12007,7 @@
         </is>
       </c>
       <c r="D146" s="2" t="n">
-        <v>44369</v>
+        <v>44435</v>
       </c>
       <c r="E146" t="n">
         <v>7</v>
@@ -12040,24 +12040,24 @@
       </c>
       <c r="L146" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M146" t="n">
         <v>230</v>
       </c>
       <c r="N146" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="O146" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="P146" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="Q146" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="R146" t="inlineStr">
@@ -12066,7 +12066,7 @@
         </is>
       </c>
       <c r="S146" t="n">
-        <v>800</v>
+        <v>700</v>
       </c>
       <c r="T146" t="n">
         <v>10</v>
@@ -12087,7 +12087,7 @@
         </is>
       </c>
       <c r="D147" s="2" t="n">
-        <v>44369</v>
+        <v>44435</v>
       </c>
       <c r="E147" t="n">
         <v>7</v>
@@ -12120,11 +12120,11 @@
       </c>
       <c r="L147" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M147" t="n">
-        <v>100</v>
+        <v>180</v>
       </c>
       <c r="N147" t="n">
         <v>12000</v>
@@ -12137,7 +12137,7 @@
       </c>
       <c r="Q147" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="R147" t="inlineStr">
@@ -12167,7 +12167,7 @@
         </is>
       </c>
       <c r="D148" s="2" t="n">
-        <v>44369</v>
+        <v>44435</v>
       </c>
       <c r="E148" t="n">
         <v>7</v>
@@ -12200,24 +12200,24 @@
       </c>
       <c r="L148" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M148" t="n">
-        <v>200</v>
+        <v>240</v>
       </c>
       <c r="N148" t="n">
-        <v>6000</v>
+        <v>10000</v>
       </c>
       <c r="O148" t="n">
-        <v>6000</v>
+        <v>10000</v>
       </c>
       <c r="P148" t="n">
-        <v>6000</v>
+        <v>10000</v>
       </c>
       <c r="Q148" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="R148" t="inlineStr">
@@ -12226,10 +12226,10 @@
         </is>
       </c>
       <c r="S148" t="n">
-        <v>600</v>
+        <v>556</v>
       </c>
       <c r="T148" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
     </row>
     <row r="149">
@@ -12247,7 +12247,7 @@
         </is>
       </c>
       <c r="D149" s="2" t="n">
-        <v>44369</v>
+        <v>44377</v>
       </c>
       <c r="E149" t="n">
         <v>7</v>
@@ -12284,7 +12284,7 @@
         </is>
       </c>
       <c r="M149" t="n">
-        <v>180</v>
+        <v>150</v>
       </c>
       <c r="N149" t="n">
         <v>10000</v>
@@ -12327,7 +12327,7 @@
         </is>
       </c>
       <c r="D150" s="2" t="n">
-        <v>44433</v>
+        <v>44377</v>
       </c>
       <c r="E150" t="n">
         <v>7</v>
@@ -12360,24 +12360,24 @@
       </c>
       <c r="L150" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M150" t="n">
-        <v>120</v>
+        <v>210</v>
       </c>
       <c r="N150" t="n">
-        <v>14000</v>
+        <v>6000</v>
       </c>
       <c r="O150" t="n">
-        <v>14000</v>
+        <v>6000</v>
       </c>
       <c r="P150" t="n">
-        <v>14000</v>
+        <v>6000</v>
       </c>
       <c r="Q150" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="R150" t="inlineStr">
@@ -12386,10 +12386,10 @@
         </is>
       </c>
       <c r="S150" t="n">
-        <v>778</v>
+        <v>600</v>
       </c>
       <c r="T150" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="151">
@@ -12407,7 +12407,7 @@
         </is>
       </c>
       <c r="D151" s="2" t="n">
-        <v>44433</v>
+        <v>44377</v>
       </c>
       <c r="E151" t="n">
         <v>7</v>
@@ -12440,24 +12440,24 @@
       </c>
       <c r="L151" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="M151" t="n">
-        <v>180</v>
+        <v>100</v>
       </c>
       <c r="N151" t="n">
-        <v>12000</v>
+        <v>6000</v>
       </c>
       <c r="O151" t="n">
-        <v>12000</v>
+        <v>6000</v>
       </c>
       <c r="P151" t="n">
-        <v>12000</v>
+        <v>6000</v>
       </c>
       <c r="Q151" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="R151" t="inlineStr">
@@ -12466,7 +12466,7 @@
         </is>
       </c>
       <c r="S151" t="n">
-        <v>667</v>
+        <v>333</v>
       </c>
       <c r="T151" t="n">
         <v>18</v>
@@ -12487,7 +12487,7 @@
         </is>
       </c>
       <c r="D152" s="2" t="n">
-        <v>44316</v>
+        <v>44433</v>
       </c>
       <c r="E152" t="n">
         <v>7</v>
@@ -12524,20 +12524,20 @@
         </is>
       </c>
       <c r="M152" t="n">
-        <v>160</v>
+        <v>120</v>
       </c>
       <c r="N152" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="O152" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="P152" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="Q152" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="R152" t="inlineStr">
@@ -12546,10 +12546,10 @@
         </is>
       </c>
       <c r="S152" t="n">
-        <v>1200</v>
+        <v>778</v>
       </c>
       <c r="T152" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
     </row>
     <row r="153">
@@ -12567,7 +12567,7 @@
         </is>
       </c>
       <c r="D153" s="2" t="n">
-        <v>44316</v>
+        <v>44433</v>
       </c>
       <c r="E153" t="n">
         <v>7</v>
@@ -12604,20 +12604,20 @@
         </is>
       </c>
       <c r="M153" t="n">
-        <v>200</v>
+        <v>180</v>
       </c>
       <c r="N153" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="O153" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="P153" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="Q153" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="R153" t="inlineStr">
@@ -12626,10 +12626,10 @@
         </is>
       </c>
       <c r="S153" t="n">
-        <v>1000</v>
+        <v>667</v>
       </c>
       <c r="T153" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
     </row>
     <row r="154">
@@ -12647,7 +12647,7 @@
         </is>
       </c>
       <c r="D154" s="2" t="n">
-        <v>44316</v>
+        <v>44386</v>
       </c>
       <c r="E154" t="n">
         <v>7</v>
@@ -12684,20 +12684,20 @@
         </is>
       </c>
       <c r="M154" t="n">
-        <v>190</v>
+        <v>300</v>
       </c>
       <c r="N154" t="n">
-        <v>13000</v>
+        <v>6000</v>
       </c>
       <c r="O154" t="n">
-        <v>13000</v>
+        <v>6000</v>
       </c>
       <c r="P154" t="n">
-        <v>13000</v>
+        <v>6000</v>
       </c>
       <c r="Q154" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="R154" t="inlineStr">
@@ -12706,10 +12706,10 @@
         </is>
       </c>
       <c r="S154" t="n">
-        <v>722</v>
+        <v>600</v>
       </c>
       <c r="T154" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="155">
@@ -12727,7 +12727,7 @@
         </is>
       </c>
       <c r="D155" s="2" t="n">
-        <v>44397</v>
+        <v>44384</v>
       </c>
       <c r="E155" t="n">
         <v>7</v>
@@ -12760,24 +12760,24 @@
       </c>
       <c r="L155" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M155" t="n">
-        <v>190</v>
+        <v>500</v>
       </c>
       <c r="N155" t="n">
-        <v>14000</v>
+        <v>6000</v>
       </c>
       <c r="O155" t="n">
-        <v>14000</v>
+        <v>6000</v>
       </c>
       <c r="P155" t="n">
-        <v>14000</v>
+        <v>6000</v>
       </c>
       <c r="Q155" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="R155" t="inlineStr">
@@ -12786,10 +12786,10 @@
         </is>
       </c>
       <c r="S155" t="n">
-        <v>778</v>
+        <v>600</v>
       </c>
       <c r="T155" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="156">
@@ -12807,7 +12807,7 @@
         </is>
       </c>
       <c r="D156" s="2" t="n">
-        <v>44397</v>
+        <v>44263</v>
       </c>
       <c r="E156" t="n">
         <v>7</v>
@@ -12840,24 +12840,24 @@
       </c>
       <c r="L156" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M156" t="n">
-        <v>150</v>
+        <v>180</v>
       </c>
       <c r="N156" t="n">
-        <v>13000</v>
+        <v>12000</v>
       </c>
       <c r="O156" t="n">
-        <v>13000</v>
+        <v>12000</v>
       </c>
       <c r="P156" t="n">
-        <v>13000</v>
+        <v>12000</v>
       </c>
       <c r="Q156" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R156" t="inlineStr">
@@ -12866,10 +12866,10 @@
         </is>
       </c>
       <c r="S156" t="n">
-        <v>722</v>
+        <v>1200</v>
       </c>
       <c r="T156" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="157">
@@ -12887,7 +12887,7 @@
         </is>
       </c>
       <c r="D157" s="2" t="n">
-        <v>44397</v>
+        <v>44363</v>
       </c>
       <c r="E157" t="n">
         <v>7</v>
@@ -12924,16 +12924,16 @@
         </is>
       </c>
       <c r="M157" t="n">
-        <v>480</v>
+        <v>280</v>
       </c>
       <c r="N157" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="O157" t="n">
         <v>10000</v>
       </c>
       <c r="P157" t="n">
-        <v>9479</v>
+        <v>10000</v>
       </c>
       <c r="Q157" t="inlineStr">
         <is>
@@ -12942,11 +12942,11 @@
       </c>
       <c r="R157" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S157" t="n">
-        <v>527</v>
+        <v>556</v>
       </c>
       <c r="T157" t="n">
         <v>18</v>
@@ -13000,20 +13000,20 @@
       </c>
       <c r="L158" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M158" t="n">
-        <v>280</v>
+        <v>300</v>
       </c>
       <c r="N158" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="O158" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="P158" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="Q158" t="inlineStr">
         <is>
@@ -13026,7 +13026,7 @@
         </is>
       </c>
       <c r="S158" t="n">
-        <v>556</v>
+        <v>444</v>
       </c>
       <c r="T158" t="n">
         <v>18</v>
@@ -13047,7 +13047,7 @@
         </is>
       </c>
       <c r="D159" s="2" t="n">
-        <v>44363</v>
+        <v>44306</v>
       </c>
       <c r="E159" t="n">
         <v>7</v>
@@ -13080,36 +13080,36 @@
       </c>
       <c r="L159" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M159" t="n">
-        <v>300</v>
+        <v>230</v>
       </c>
       <c r="N159" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="O159" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="P159" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="Q159" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R159" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S159" t="n">
-        <v>444</v>
+        <v>1000</v>
       </c>
       <c r="T159" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="160">
@@ -13127,7 +13127,7 @@
         </is>
       </c>
       <c r="D160" s="2" t="n">
-        <v>44438</v>
+        <v>44306</v>
       </c>
       <c r="E160" t="n">
         <v>7</v>
@@ -13164,7 +13164,7 @@
         </is>
       </c>
       <c r="M160" t="n">
-        <v>230</v>
+        <v>180</v>
       </c>
       <c r="N160" t="n">
         <v>13000</v>
@@ -13207,7 +13207,7 @@
         </is>
       </c>
       <c r="D161" s="2" t="n">
-        <v>44438</v>
+        <v>44306</v>
       </c>
       <c r="E161" t="n">
         <v>7</v>
@@ -13244,20 +13244,20 @@
         </is>
       </c>
       <c r="M161" t="n">
-        <v>300</v>
+        <v>230</v>
       </c>
       <c r="N161" t="n">
-        <v>11000</v>
+        <v>8000</v>
       </c>
       <c r="O161" t="n">
-        <v>11000</v>
+        <v>8000</v>
       </c>
       <c r="P161" t="n">
-        <v>11000</v>
+        <v>8000</v>
       </c>
       <c r="Q161" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R161" t="inlineStr">
@@ -13266,10 +13266,10 @@
         </is>
       </c>
       <c r="S161" t="n">
-        <v>611</v>
+        <v>800</v>
       </c>
       <c r="T161" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="162">
@@ -13287,7 +13287,7 @@
         </is>
       </c>
       <c r="D162" s="2" t="n">
-        <v>44372</v>
+        <v>44369</v>
       </c>
       <c r="E162" t="n">
         <v>7</v>
@@ -13324,20 +13324,20 @@
         </is>
       </c>
       <c r="M162" t="n">
-        <v>130</v>
+        <v>230</v>
       </c>
       <c r="N162" t="n">
-        <v>11000</v>
+        <v>8000</v>
       </c>
       <c r="O162" t="n">
-        <v>11000</v>
+        <v>8000</v>
       </c>
       <c r="P162" t="n">
-        <v>11000</v>
+        <v>8000</v>
       </c>
       <c r="Q162" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R162" t="inlineStr">
@@ -13346,10 +13346,10 @@
         </is>
       </c>
       <c r="S162" t="n">
-        <v>611</v>
+        <v>800</v>
       </c>
       <c r="T162" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="163">
@@ -13367,7 +13367,7 @@
         </is>
       </c>
       <c r="D163" s="2" t="n">
-        <v>44372</v>
+        <v>44369</v>
       </c>
       <c r="E163" t="n">
         <v>7</v>
@@ -13400,20 +13400,20 @@
       </c>
       <c r="L163" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M163" t="n">
-        <v>120</v>
+        <v>100</v>
       </c>
       <c r="N163" t="n">
-        <v>9000</v>
+        <v>12000</v>
       </c>
       <c r="O163" t="n">
-        <v>9000</v>
+        <v>12000</v>
       </c>
       <c r="P163" t="n">
-        <v>9000</v>
+        <v>12000</v>
       </c>
       <c r="Q163" t="inlineStr">
         <is>
@@ -13426,7 +13426,7 @@
         </is>
       </c>
       <c r="S163" t="n">
-        <v>500</v>
+        <v>667</v>
       </c>
       <c r="T163" t="n">
         <v>18</v>
@@ -13447,7 +13447,7 @@
         </is>
       </c>
       <c r="D164" s="2" t="n">
-        <v>44372</v>
+        <v>44369</v>
       </c>
       <c r="E164" t="n">
         <v>7</v>
@@ -13480,24 +13480,24 @@
       </c>
       <c r="L164" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M164" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="N164" t="n">
-        <v>7000</v>
+        <v>6000</v>
       </c>
       <c r="O164" t="n">
-        <v>7000</v>
+        <v>6000</v>
       </c>
       <c r="P164" t="n">
-        <v>7000</v>
+        <v>6000</v>
       </c>
       <c r="Q164" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R164" t="inlineStr">
@@ -13506,10 +13506,10 @@
         </is>
       </c>
       <c r="S164" t="n">
-        <v>389</v>
+        <v>600</v>
       </c>
       <c r="T164" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="165">
@@ -13527,7 +13527,7 @@
         </is>
       </c>
       <c r="D165" s="2" t="n">
-        <v>44356</v>
+        <v>44369</v>
       </c>
       <c r="E165" t="n">
         <v>7</v>
@@ -13560,20 +13560,20 @@
       </c>
       <c r="L165" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M165" t="n">
-        <v>200</v>
+        <v>180</v>
       </c>
       <c r="N165" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="O165" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="P165" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="Q165" t="inlineStr">
         <is>
@@ -13586,7 +13586,7 @@
         </is>
       </c>
       <c r="S165" t="n">
-        <v>667</v>
+        <v>556</v>
       </c>
       <c r="T165" t="n">
         <v>18</v>
@@ -13607,7 +13607,7 @@
         </is>
       </c>
       <c r="D166" s="2" t="n">
-        <v>44356</v>
+        <v>44357</v>
       </c>
       <c r="E166" t="n">
         <v>7</v>
@@ -13640,20 +13640,20 @@
       </c>
       <c r="L166" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M166" t="n">
-        <v>140</v>
+        <v>130</v>
       </c>
       <c r="N166" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="O166" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="P166" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="Q166" t="inlineStr">
         <is>
@@ -13666,7 +13666,7 @@
         </is>
       </c>
       <c r="S166" t="n">
-        <v>556</v>
+        <v>722</v>
       </c>
       <c r="T166" t="n">
         <v>18</v>
@@ -13687,7 +13687,7 @@
         </is>
       </c>
       <c r="D167" s="2" t="n">
-        <v>44356</v>
+        <v>44357</v>
       </c>
       <c r="E167" t="n">
         <v>7</v>
@@ -13720,20 +13720,20 @@
       </c>
       <c r="L167" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M167" t="n">
-        <v>80</v>
+        <v>190</v>
       </c>
       <c r="N167" t="n">
-        <v>8000</v>
+        <v>11000</v>
       </c>
       <c r="O167" t="n">
-        <v>8000</v>
+        <v>11000</v>
       </c>
       <c r="P167" t="n">
-        <v>8000</v>
+        <v>11000</v>
       </c>
       <c r="Q167" t="inlineStr">
         <is>
@@ -13746,7 +13746,7 @@
         </is>
       </c>
       <c r="S167" t="n">
-        <v>444</v>
+        <v>611</v>
       </c>
       <c r="T167" t="n">
         <v>18</v>
@@ -13767,7 +13767,7 @@
         </is>
       </c>
       <c r="D168" s="2" t="n">
-        <v>44351</v>
+        <v>44321</v>
       </c>
       <c r="E168" t="n">
         <v>7</v>
@@ -13800,20 +13800,20 @@
       </c>
       <c r="L168" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M168" t="n">
-        <v>260</v>
+        <v>200</v>
       </c>
       <c r="N168" t="n">
-        <v>11000</v>
+        <v>13000</v>
       </c>
       <c r="O168" t="n">
-        <v>11000</v>
+        <v>13000</v>
       </c>
       <c r="P168" t="n">
-        <v>11000</v>
+        <v>13000</v>
       </c>
       <c r="Q168" t="inlineStr">
         <is>
@@ -13826,7 +13826,7 @@
         </is>
       </c>
       <c r="S168" t="n">
-        <v>611</v>
+        <v>722</v>
       </c>
       <c r="T168" t="n">
         <v>18</v>
@@ -13847,7 +13847,7 @@
         </is>
       </c>
       <c r="D169" s="2" t="n">
-        <v>44351</v>
+        <v>44397</v>
       </c>
       <c r="E169" t="n">
         <v>7</v>
@@ -13880,20 +13880,20 @@
       </c>
       <c r="L169" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M169" t="n">
-        <v>200</v>
+        <v>190</v>
       </c>
       <c r="N169" t="n">
-        <v>10000</v>
+        <v>14000</v>
       </c>
       <c r="O169" t="n">
-        <v>10000</v>
+        <v>14000</v>
       </c>
       <c r="P169" t="n">
-        <v>10000</v>
+        <v>14000</v>
       </c>
       <c r="Q169" t="inlineStr">
         <is>
@@ -13906,7 +13906,7 @@
         </is>
       </c>
       <c r="S169" t="n">
-        <v>556</v>
+        <v>778</v>
       </c>
       <c r="T169" t="n">
         <v>18</v>
@@ -13927,7 +13927,7 @@
         </is>
       </c>
       <c r="D170" s="2" t="n">
-        <v>44351</v>
+        <v>44397</v>
       </c>
       <c r="E170" t="n">
         <v>7</v>
@@ -13960,36 +13960,36 @@
       </c>
       <c r="L170" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M170" t="n">
-        <v>230</v>
+        <v>150</v>
       </c>
       <c r="N170" t="n">
-        <v>8000</v>
+        <v>13000</v>
       </c>
       <c r="O170" t="n">
-        <v>8000</v>
+        <v>13000</v>
       </c>
       <c r="P170" t="n">
-        <v>8000</v>
+        <v>13000</v>
       </c>
       <c r="Q170" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="R170" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S170" t="n">
-        <v>800</v>
+        <v>722</v>
       </c>
       <c r="T170" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
     </row>
     <row r="171">
@@ -14007,7 +14007,7 @@
         </is>
       </c>
       <c r="D171" s="2" t="n">
-        <v>44365</v>
+        <v>44397</v>
       </c>
       <c r="E171" t="n">
         <v>7</v>
@@ -14040,20 +14040,20 @@
       </c>
       <c r="L171" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M171" t="n">
-        <v>90</v>
+        <v>480</v>
       </c>
       <c r="N171" t="n">
-        <v>11000</v>
+        <v>9000</v>
       </c>
       <c r="O171" t="n">
-        <v>11000</v>
+        <v>10000</v>
       </c>
       <c r="P171" t="n">
-        <v>11000</v>
+        <v>9479</v>
       </c>
       <c r="Q171" t="inlineStr">
         <is>
@@ -14066,7 +14066,7 @@
         </is>
       </c>
       <c r="S171" t="n">
-        <v>611</v>
+        <v>527</v>
       </c>
       <c r="T171" t="n">
         <v>18</v>
@@ -14087,7 +14087,7 @@
         </is>
       </c>
       <c r="D172" s="2" t="n">
-        <v>44365</v>
+        <v>44414</v>
       </c>
       <c r="E172" t="n">
         <v>7</v>
@@ -14124,20 +14124,20 @@
         </is>
       </c>
       <c r="M172" t="n">
-        <v>200</v>
+        <v>150</v>
       </c>
       <c r="N172" t="n">
-        <v>9000</v>
+        <v>8000</v>
       </c>
       <c r="O172" t="n">
-        <v>9000</v>
+        <v>8000</v>
       </c>
       <c r="P172" t="n">
-        <v>9000</v>
+        <v>8000</v>
       </c>
       <c r="Q172" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R172" t="inlineStr">
@@ -14146,10 +14146,10 @@
         </is>
       </c>
       <c r="S172" t="n">
-        <v>500</v>
+        <v>800</v>
       </c>
       <c r="T172" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="173">
@@ -14167,7 +14167,7 @@
         </is>
       </c>
       <c r="D173" s="2" t="n">
-        <v>44365</v>
+        <v>44414</v>
       </c>
       <c r="E173" t="n">
         <v>7</v>
@@ -14200,20 +14200,20 @@
       </c>
       <c r="L173" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M173" t="n">
-        <v>150</v>
+        <v>190</v>
       </c>
       <c r="N173" t="n">
-        <v>7000</v>
+        <v>12000</v>
       </c>
       <c r="O173" t="n">
-        <v>7000</v>
+        <v>12000</v>
       </c>
       <c r="P173" t="n">
-        <v>7000</v>
+        <v>12000</v>
       </c>
       <c r="Q173" t="inlineStr">
         <is>
@@ -14226,7 +14226,7 @@
         </is>
       </c>
       <c r="S173" t="n">
-        <v>389</v>
+        <v>667</v>
       </c>
       <c r="T173" t="n">
         <v>18</v>
@@ -14247,7 +14247,7 @@
         </is>
       </c>
       <c r="D174" s="2" t="n">
-        <v>44306</v>
+        <v>44414</v>
       </c>
       <c r="E174" t="n">
         <v>7</v>
@@ -14280,11 +14280,11 @@
       </c>
       <c r="L174" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M174" t="n">
-        <v>230</v>
+        <v>100</v>
       </c>
       <c r="N174" t="n">
         <v>10000</v>
@@ -14297,7 +14297,7 @@
       </c>
       <c r="Q174" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="R174" t="inlineStr">
@@ -14306,10 +14306,10 @@
         </is>
       </c>
       <c r="S174" t="n">
-        <v>1000</v>
+        <v>556</v>
       </c>
       <c r="T174" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
     </row>
     <row r="175">
@@ -14327,7 +14327,7 @@
         </is>
       </c>
       <c r="D175" s="2" t="n">
-        <v>44306</v>
+        <v>44333</v>
       </c>
       <c r="E175" t="n">
         <v>7</v>
@@ -14364,16 +14364,16 @@
         </is>
       </c>
       <c r="M175" t="n">
-        <v>180</v>
+        <v>150</v>
       </c>
       <c r="N175" t="n">
-        <v>13000</v>
+        <v>12000</v>
       </c>
       <c r="O175" t="n">
-        <v>13000</v>
+        <v>12000</v>
       </c>
       <c r="P175" t="n">
-        <v>13000</v>
+        <v>12000</v>
       </c>
       <c r="Q175" t="inlineStr">
         <is>
@@ -14382,11 +14382,11 @@
       </c>
       <c r="R175" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="S175" t="n">
-        <v>722</v>
+        <v>667</v>
       </c>
       <c r="T175" t="n">
         <v>18</v>
@@ -14407,7 +14407,7 @@
         </is>
       </c>
       <c r="D176" s="2" t="n">
-        <v>44306</v>
+        <v>44333</v>
       </c>
       <c r="E176" t="n">
         <v>7</v>
@@ -14444,32 +14444,32 @@
         </is>
       </c>
       <c r="M176" t="n">
-        <v>230</v>
+        <v>100</v>
       </c>
       <c r="N176" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="O176" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="P176" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="Q176" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="R176" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="S176" t="n">
-        <v>800</v>
+        <v>556</v>
       </c>
       <c r="T176" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
     </row>
     <row r="177">
@@ -14487,7 +14487,7 @@
         </is>
       </c>
       <c r="D177" s="2" t="n">
-        <v>44461</v>
+        <v>44314</v>
       </c>
       <c r="E177" t="n">
         <v>7</v>
@@ -14524,20 +14524,20 @@
         </is>
       </c>
       <c r="M177" t="n">
-        <v>200</v>
+        <v>150</v>
       </c>
       <c r="N177" t="n">
-        <v>12000</v>
+        <v>11000</v>
       </c>
       <c r="O177" t="n">
-        <v>12000</v>
+        <v>11000</v>
       </c>
       <c r="P177" t="n">
-        <v>12000</v>
+        <v>11000</v>
       </c>
       <c r="Q177" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R177" t="inlineStr">
@@ -14546,10 +14546,10 @@
         </is>
       </c>
       <c r="S177" t="n">
-        <v>667</v>
+        <v>1100</v>
       </c>
       <c r="T177" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="178">
@@ -14567,7 +14567,7 @@
         </is>
       </c>
       <c r="D178" s="2" t="n">
-        <v>44461</v>
+        <v>44314</v>
       </c>
       <c r="E178" t="n">
         <v>7</v>
@@ -14604,20 +14604,20 @@
         </is>
       </c>
       <c r="M178" t="n">
-        <v>150</v>
+        <v>60</v>
       </c>
       <c r="N178" t="n">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="O178" t="n">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="P178" t="n">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="Q178" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R178" t="inlineStr">
@@ -14626,10 +14626,10 @@
         </is>
       </c>
       <c r="S178" t="n">
-        <v>556</v>
+        <v>900</v>
       </c>
       <c r="T178" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="179">
@@ -14647,7 +14647,7 @@
         </is>
       </c>
       <c r="D179" s="2" t="n">
-        <v>44357</v>
+        <v>44392</v>
       </c>
       <c r="E179" t="n">
         <v>7</v>
@@ -14684,16 +14684,16 @@
         </is>
       </c>
       <c r="M179" t="n">
-        <v>130</v>
+        <v>200</v>
       </c>
       <c r="N179" t="n">
-        <v>13000</v>
+        <v>11000</v>
       </c>
       <c r="O179" t="n">
-        <v>13000</v>
+        <v>11000</v>
       </c>
       <c r="P179" t="n">
-        <v>13000</v>
+        <v>11000</v>
       </c>
       <c r="Q179" t="inlineStr">
         <is>
@@ -14706,7 +14706,7 @@
         </is>
       </c>
       <c r="S179" t="n">
-        <v>722</v>
+        <v>611</v>
       </c>
       <c r="T179" t="n">
         <v>18</v>
@@ -14727,7 +14727,7 @@
         </is>
       </c>
       <c r="D180" s="2" t="n">
-        <v>44357</v>
+        <v>44392</v>
       </c>
       <c r="E180" t="n">
         <v>7</v>
@@ -14764,16 +14764,16 @@
         </is>
       </c>
       <c r="M180" t="n">
-        <v>190</v>
+        <v>400</v>
       </c>
       <c r="N180" t="n">
-        <v>11000</v>
+        <v>9000</v>
       </c>
       <c r="O180" t="n">
-        <v>11000</v>
+        <v>9000</v>
       </c>
       <c r="P180" t="n">
-        <v>11000</v>
+        <v>9000</v>
       </c>
       <c r="Q180" t="inlineStr">
         <is>
@@ -14786,7 +14786,7 @@
         </is>
       </c>
       <c r="S180" t="n">
-        <v>611</v>
+        <v>500</v>
       </c>
       <c r="T180" t="n">
         <v>18</v>
@@ -14807,7 +14807,7 @@
         </is>
       </c>
       <c r="D181" s="2" t="n">
-        <v>44410</v>
+        <v>44425</v>
       </c>
       <c r="E181" t="n">
         <v>7</v>
@@ -14840,20 +14840,20 @@
       </c>
       <c r="L181" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M181" t="n">
-        <v>230</v>
+        <v>300</v>
       </c>
       <c r="N181" t="n">
-        <v>12000</v>
+        <v>8000</v>
       </c>
       <c r="O181" t="n">
-        <v>12000</v>
+        <v>8000</v>
       </c>
       <c r="P181" t="n">
-        <v>12000</v>
+        <v>8000</v>
       </c>
       <c r="Q181" t="inlineStr">
         <is>
@@ -14866,7 +14866,7 @@
         </is>
       </c>
       <c r="S181" t="n">
-        <v>667</v>
+        <v>444</v>
       </c>
       <c r="T181" t="n">
         <v>18</v>
@@ -14887,7 +14887,7 @@
         </is>
       </c>
       <c r="D182" s="2" t="n">
-        <v>44410</v>
+        <v>44390</v>
       </c>
       <c r="E182" t="n">
         <v>7</v>
@@ -14924,20 +14924,20 @@
         </is>
       </c>
       <c r="M182" t="n">
-        <v>230</v>
+        <v>250</v>
       </c>
       <c r="N182" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="O182" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="P182" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="Q182" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="R182" t="inlineStr">
@@ -14946,10 +14946,10 @@
         </is>
       </c>
       <c r="S182" t="n">
-        <v>700</v>
+        <v>500</v>
       </c>
       <c r="T182" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
     </row>
     <row r="183">
@@ -14967,7 +14967,7 @@
         </is>
       </c>
       <c r="D183" s="2" t="n">
-        <v>44376</v>
+        <v>44466</v>
       </c>
       <c r="E183" t="n">
         <v>7</v>
@@ -15004,16 +15004,16 @@
         </is>
       </c>
       <c r="M183" t="n">
-        <v>260</v>
+        <v>200</v>
       </c>
       <c r="N183" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="O183" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="P183" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="Q183" t="inlineStr">
         <is>
@@ -15026,7 +15026,7 @@
         </is>
       </c>
       <c r="S183" t="n">
-        <v>500</v>
+        <v>556</v>
       </c>
       <c r="T183" t="n">
         <v>18</v>
@@ -15047,7 +15047,7 @@
         </is>
       </c>
       <c r="D184" s="2" t="n">
-        <v>44358</v>
+        <v>44438</v>
       </c>
       <c r="E184" t="n">
         <v>7</v>
@@ -15127,7 +15127,7 @@
         </is>
       </c>
       <c r="D185" s="2" t="n">
-        <v>44358</v>
+        <v>44438</v>
       </c>
       <c r="E185" t="n">
         <v>7</v>
@@ -15160,24 +15160,24 @@
       </c>
       <c r="L185" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M185" t="n">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="N185" t="n">
-        <v>9000</v>
+        <v>11000</v>
       </c>
       <c r="O185" t="n">
-        <v>9000</v>
+        <v>11000</v>
       </c>
       <c r="P185" t="n">
-        <v>9000</v>
+        <v>11000</v>
       </c>
       <c r="Q185" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="R185" t="inlineStr">
@@ -15186,10 +15186,10 @@
         </is>
       </c>
       <c r="S185" t="n">
-        <v>900</v>
+        <v>611</v>
       </c>
       <c r="T185" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
     </row>
     <row r="186">
@@ -15207,7 +15207,7 @@
         </is>
       </c>
       <c r="D186" s="2" t="n">
-        <v>44358</v>
+        <v>44461</v>
       </c>
       <c r="E186" t="n">
         <v>7</v>
@@ -15240,20 +15240,20 @@
       </c>
       <c r="L186" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M186" t="n">
-        <v>210</v>
+        <v>200</v>
       </c>
       <c r="N186" t="n">
-        <v>11000</v>
+        <v>12000</v>
       </c>
       <c r="O186" t="n">
-        <v>11000</v>
+        <v>12000</v>
       </c>
       <c r="P186" t="n">
-        <v>11000</v>
+        <v>12000</v>
       </c>
       <c r="Q186" t="inlineStr">
         <is>
@@ -15266,7 +15266,7 @@
         </is>
       </c>
       <c r="S186" t="n">
-        <v>611</v>
+        <v>667</v>
       </c>
       <c r="T186" t="n">
         <v>18</v>
@@ -15287,7 +15287,7 @@
         </is>
       </c>
       <c r="D187" s="2" t="n">
-        <v>44358</v>
+        <v>44461</v>
       </c>
       <c r="E187" t="n">
         <v>7</v>
@@ -15324,20 +15324,20 @@
         </is>
       </c>
       <c r="M187" t="n">
-        <v>200</v>
+        <v>150</v>
       </c>
       <c r="N187" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="O187" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="P187" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="Q187" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="R187" t="inlineStr">
@@ -15346,10 +15346,10 @@
         </is>
       </c>
       <c r="S187" t="n">
-        <v>700</v>
+        <v>556</v>
       </c>
       <c r="T187" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
     </row>
     <row r="188">
@@ -15367,7 +15367,7 @@
         </is>
       </c>
       <c r="D188" s="2" t="n">
-        <v>44358</v>
+        <v>44389</v>
       </c>
       <c r="E188" t="n">
         <v>7</v>
@@ -15400,24 +15400,24 @@
       </c>
       <c r="L188" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M188" t="n">
-        <v>190</v>
+        <v>300</v>
       </c>
       <c r="N188" t="n">
-        <v>9000</v>
+        <v>6000</v>
       </c>
       <c r="O188" t="n">
-        <v>9000</v>
+        <v>6000</v>
       </c>
       <c r="P188" t="n">
-        <v>9000</v>
+        <v>6000</v>
       </c>
       <c r="Q188" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="R188" t="inlineStr">
@@ -15426,10 +15426,10 @@
         </is>
       </c>
       <c r="S188" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="T188" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="189">
@@ -15447,7 +15447,7 @@
         </is>
       </c>
       <c r="D189" s="2" t="n">
-        <v>44425</v>
+        <v>44326</v>
       </c>
       <c r="E189" t="n">
         <v>7</v>
@@ -15480,20 +15480,20 @@
       </c>
       <c r="L189" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M189" t="n">
-        <v>300</v>
+        <v>130</v>
       </c>
       <c r="N189" t="n">
-        <v>8000</v>
+        <v>14000</v>
       </c>
       <c r="O189" t="n">
-        <v>8000</v>
+        <v>14000</v>
       </c>
       <c r="P189" t="n">
-        <v>8000</v>
+        <v>14000</v>
       </c>
       <c r="Q189" t="inlineStr">
         <is>
@@ -15506,7 +15506,7 @@
         </is>
       </c>
       <c r="S189" t="n">
-        <v>444</v>
+        <v>778</v>
       </c>
       <c r="T189" t="n">
         <v>18</v>
@@ -15527,7 +15527,7 @@
         </is>
       </c>
       <c r="D190" s="2" t="n">
-        <v>44323</v>
+        <v>44326</v>
       </c>
       <c r="E190" t="n">
         <v>7</v>
@@ -15560,24 +15560,24 @@
       </c>
       <c r="L190" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M190" t="n">
-        <v>150</v>
+        <v>100</v>
       </c>
       <c r="N190" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="O190" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="P190" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="Q190" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="R190" t="inlineStr">
@@ -15586,10 +15586,10 @@
         </is>
       </c>
       <c r="S190" t="n">
-        <v>1000</v>
+        <v>667</v>
       </c>
       <c r="T190" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
     </row>
     <row r="191">
@@ -15607,7 +15607,7 @@
         </is>
       </c>
       <c r="D191" s="2" t="n">
-        <v>44323</v>
+        <v>44432</v>
       </c>
       <c r="E191" t="n">
         <v>7</v>
@@ -15640,24 +15640,24 @@
       </c>
       <c r="L191" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M191" t="n">
-        <v>100</v>
+        <v>210</v>
       </c>
       <c r="N191" t="n">
-        <v>9000</v>
+        <v>14000</v>
       </c>
       <c r="O191" t="n">
-        <v>9000</v>
+        <v>14000</v>
       </c>
       <c r="P191" t="n">
-        <v>9000</v>
+        <v>14000</v>
       </c>
       <c r="Q191" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="R191" t="inlineStr">
@@ -15666,10 +15666,10 @@
         </is>
       </c>
       <c r="S191" t="n">
-        <v>900</v>
+        <v>778</v>
       </c>
       <c r="T191" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Macroferia Regional de Talca - Kiwi.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Macroferia Regional de Talca - Kiwi.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T191"/>
+  <dimension ref="A1:T192"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5367,7 +5367,7 @@
         </is>
       </c>
       <c r="D63" s="2" t="n">
-        <v>44382</v>
+        <v>44477</v>
       </c>
       <c r="E63" t="n">
         <v>7</v>
@@ -5400,20 +5400,20 @@
       </c>
       <c r="L63" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M63" t="n">
-        <v>150</v>
+        <v>200</v>
       </c>
       <c r="N63" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="O63" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="P63" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="Q63" t="inlineStr">
         <is>
@@ -5426,7 +5426,7 @@
         </is>
       </c>
       <c r="S63" t="n">
-        <v>667</v>
+        <v>556</v>
       </c>
       <c r="T63" t="n">
         <v>18</v>
@@ -5480,20 +5480,20 @@
       </c>
       <c r="L64" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M64" t="n">
-        <v>200</v>
+        <v>150</v>
       </c>
       <c r="N64" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="O64" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="P64" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="Q64" t="inlineStr">
         <is>
@@ -5506,7 +5506,7 @@
         </is>
       </c>
       <c r="S64" t="n">
-        <v>556</v>
+        <v>667</v>
       </c>
       <c r="T64" t="n">
         <v>18</v>
@@ -5527,7 +5527,7 @@
         </is>
       </c>
       <c r="D65" s="2" t="n">
-        <v>44370</v>
+        <v>44382</v>
       </c>
       <c r="E65" t="n">
         <v>7</v>
@@ -5560,20 +5560,20 @@
       </c>
       <c r="L65" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M65" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="N65" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="O65" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="P65" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="Q65" t="inlineStr">
         <is>
@@ -5586,7 +5586,7 @@
         </is>
       </c>
       <c r="S65" t="n">
-        <v>667</v>
+        <v>556</v>
       </c>
       <c r="T65" t="n">
         <v>18</v>
@@ -5640,20 +5640,20 @@
       </c>
       <c r="L66" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M66" t="n">
-        <v>120</v>
+        <v>100</v>
       </c>
       <c r="N66" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="O66" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="P66" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="Q66" t="inlineStr">
         <is>
@@ -5666,7 +5666,7 @@
         </is>
       </c>
       <c r="S66" t="n">
-        <v>556</v>
+        <v>667</v>
       </c>
       <c r="T66" t="n">
         <v>18</v>
@@ -5720,20 +5720,20 @@
       </c>
       <c r="L67" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M67" t="n">
-        <v>60</v>
+        <v>120</v>
       </c>
       <c r="N67" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="O67" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="P67" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="Q67" t="inlineStr">
         <is>
@@ -5746,7 +5746,7 @@
         </is>
       </c>
       <c r="S67" t="n">
-        <v>444</v>
+        <v>556</v>
       </c>
       <c r="T67" t="n">
         <v>18</v>
@@ -5767,7 +5767,7 @@
         </is>
       </c>
       <c r="D68" s="2" t="n">
-        <v>44284</v>
+        <v>44370</v>
       </c>
       <c r="E68" t="n">
         <v>7</v>
@@ -5804,16 +5804,16 @@
         </is>
       </c>
       <c r="M68" t="n">
-        <v>200</v>
+        <v>60</v>
       </c>
       <c r="N68" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="O68" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="P68" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="Q68" t="inlineStr">
         <is>
@@ -5826,7 +5826,7 @@
         </is>
       </c>
       <c r="S68" t="n">
-        <v>389</v>
+        <v>444</v>
       </c>
       <c r="T68" t="n">
         <v>18</v>
@@ -5847,7 +5847,7 @@
         </is>
       </c>
       <c r="D69" s="2" t="n">
-        <v>44449</v>
+        <v>44284</v>
       </c>
       <c r="E69" t="n">
         <v>7</v>
@@ -5880,20 +5880,20 @@
       </c>
       <c r="L69" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M69" t="n">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="N69" t="n">
-        <v>12000</v>
+        <v>7000</v>
       </c>
       <c r="O69" t="n">
-        <v>12000</v>
+        <v>7000</v>
       </c>
       <c r="P69" t="n">
-        <v>12000</v>
+        <v>7000</v>
       </c>
       <c r="Q69" t="inlineStr">
         <is>
@@ -5906,7 +5906,7 @@
         </is>
       </c>
       <c r="S69" t="n">
-        <v>667</v>
+        <v>389</v>
       </c>
       <c r="T69" t="n">
         <v>18</v>
@@ -5927,7 +5927,7 @@
         </is>
       </c>
       <c r="D70" s="2" t="n">
-        <v>44412</v>
+        <v>44449</v>
       </c>
       <c r="E70" t="n">
         <v>7</v>
@@ -5960,20 +5960,20 @@
       </c>
       <c r="L70" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M70" t="n">
-        <v>180</v>
+        <v>300</v>
       </c>
       <c r="N70" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="O70" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="P70" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="Q70" t="inlineStr">
         <is>
@@ -5986,7 +5986,7 @@
         </is>
       </c>
       <c r="S70" t="n">
-        <v>778</v>
+        <v>667</v>
       </c>
       <c r="T70" t="n">
         <v>18</v>
@@ -6040,20 +6040,20 @@
       </c>
       <c r="L71" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M71" t="n">
-        <v>230</v>
+        <v>180</v>
       </c>
       <c r="N71" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="O71" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="P71" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="Q71" t="inlineStr">
         <is>
@@ -6066,7 +6066,7 @@
         </is>
       </c>
       <c r="S71" t="n">
-        <v>667</v>
+        <v>778</v>
       </c>
       <c r="T71" t="n">
         <v>18</v>
@@ -6087,7 +6087,7 @@
         </is>
       </c>
       <c r="D72" s="2" t="n">
-        <v>44336</v>
+        <v>44412</v>
       </c>
       <c r="E72" t="n">
         <v>7</v>
@@ -6124,20 +6124,20 @@
         </is>
       </c>
       <c r="M72" t="n">
-        <v>250</v>
+        <v>230</v>
       </c>
       <c r="N72" t="n">
-        <v>8000</v>
+        <v>12000</v>
       </c>
       <c r="O72" t="n">
-        <v>8000</v>
+        <v>12000</v>
       </c>
       <c r="P72" t="n">
-        <v>8000</v>
+        <v>12000</v>
       </c>
       <c r="Q72" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="R72" t="inlineStr">
@@ -6146,10 +6146,10 @@
         </is>
       </c>
       <c r="S72" t="n">
-        <v>800</v>
+        <v>667</v>
       </c>
       <c r="T72" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
     </row>
     <row r="73">
@@ -6167,7 +6167,7 @@
         </is>
       </c>
       <c r="D73" s="2" t="n">
-        <v>44308</v>
+        <v>44336</v>
       </c>
       <c r="E73" t="n">
         <v>7</v>
@@ -6200,24 +6200,24 @@
       </c>
       <c r="L73" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M73" t="n">
-        <v>100</v>
+        <v>250</v>
       </c>
       <c r="N73" t="n">
-        <v>14000</v>
+        <v>8000</v>
       </c>
       <c r="O73" t="n">
-        <v>14000</v>
+        <v>8000</v>
       </c>
       <c r="P73" t="n">
-        <v>14000</v>
+        <v>8000</v>
       </c>
       <c r="Q73" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="R73" t="inlineStr">
@@ -6226,10 +6226,10 @@
         </is>
       </c>
       <c r="S73" t="n">
-        <v>778</v>
+        <v>800</v>
       </c>
       <c r="T73" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="74">
@@ -6247,7 +6247,7 @@
         </is>
       </c>
       <c r="D74" s="2" t="n">
-        <v>44330</v>
+        <v>44308</v>
       </c>
       <c r="E74" t="n">
         <v>7</v>
@@ -6284,16 +6284,16 @@
         </is>
       </c>
       <c r="M74" t="n">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="N74" t="n">
-        <v>10000</v>
+        <v>14000</v>
       </c>
       <c r="O74" t="n">
-        <v>10000</v>
+        <v>14000</v>
       </c>
       <c r="P74" t="n">
-        <v>10000</v>
+        <v>14000</v>
       </c>
       <c r="Q74" t="inlineStr">
         <is>
@@ -6306,7 +6306,7 @@
         </is>
       </c>
       <c r="S74" t="n">
-        <v>556</v>
+        <v>778</v>
       </c>
       <c r="T74" t="n">
         <v>18</v>
@@ -6360,20 +6360,20 @@
       </c>
       <c r="L75" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M75" t="n">
-        <v>180</v>
+        <v>300</v>
       </c>
       <c r="N75" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="O75" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="P75" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="Q75" t="inlineStr">
         <is>
@@ -6386,7 +6386,7 @@
         </is>
       </c>
       <c r="S75" t="n">
-        <v>444</v>
+        <v>556</v>
       </c>
       <c r="T75" t="n">
         <v>18</v>
@@ -6407,7 +6407,7 @@
         </is>
       </c>
       <c r="D76" s="2" t="n">
-        <v>44322</v>
+        <v>44330</v>
       </c>
       <c r="E76" t="n">
         <v>7</v>
@@ -6444,20 +6444,20 @@
         </is>
       </c>
       <c r="M76" t="n">
-        <v>210</v>
+        <v>180</v>
       </c>
       <c r="N76" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="O76" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="P76" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="Q76" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="R76" t="inlineStr">
@@ -6466,10 +6466,10 @@
         </is>
       </c>
       <c r="S76" t="n">
-        <v>1000</v>
+        <v>444</v>
       </c>
       <c r="T76" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
     </row>
     <row r="77">
@@ -6487,7 +6487,7 @@
         </is>
       </c>
       <c r="D77" s="2" t="n">
-        <v>44428</v>
+        <v>44322</v>
       </c>
       <c r="E77" t="n">
         <v>7</v>
@@ -6520,24 +6520,24 @@
       </c>
       <c r="L77" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M77" t="n">
-        <v>230</v>
+        <v>210</v>
       </c>
       <c r="N77" t="n">
-        <v>14000</v>
+        <v>10000</v>
       </c>
       <c r="O77" t="n">
-        <v>14000</v>
+        <v>10000</v>
       </c>
       <c r="P77" t="n">
-        <v>14000</v>
+        <v>10000</v>
       </c>
       <c r="Q77" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R77" t="inlineStr">
@@ -6546,10 +6546,10 @@
         </is>
       </c>
       <c r="S77" t="n">
-        <v>778</v>
+        <v>1000</v>
       </c>
       <c r="T77" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="78">
@@ -6600,20 +6600,20 @@
       </c>
       <c r="L78" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M78" t="n">
-        <v>200</v>
+        <v>230</v>
       </c>
       <c r="N78" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="O78" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="P78" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="Q78" t="inlineStr">
         <is>
@@ -6626,7 +6626,7 @@
         </is>
       </c>
       <c r="S78" t="n">
-        <v>667</v>
+        <v>778</v>
       </c>
       <c r="T78" t="n">
         <v>18</v>
@@ -6680,24 +6680,24 @@
       </c>
       <c r="L79" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M79" t="n">
-        <v>120</v>
+        <v>200</v>
       </c>
       <c r="N79" t="n">
-        <v>8000</v>
+        <v>12000</v>
       </c>
       <c r="O79" t="n">
-        <v>8000</v>
+        <v>12000</v>
       </c>
       <c r="P79" t="n">
-        <v>8000</v>
+        <v>12000</v>
       </c>
       <c r="Q79" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="R79" t="inlineStr">
@@ -6706,7 +6706,7 @@
         </is>
       </c>
       <c r="S79" t="n">
-        <v>444</v>
+        <v>667</v>
       </c>
       <c r="T79" t="n">
         <v>18</v>
@@ -6727,7 +6727,7 @@
         </is>
       </c>
       <c r="D80" s="2" t="n">
-        <v>44315</v>
+        <v>44428</v>
       </c>
       <c r="E80" t="n">
         <v>7</v>
@@ -6760,24 +6760,24 @@
       </c>
       <c r="L80" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M80" t="n">
-        <v>140</v>
+        <v>120</v>
       </c>
       <c r="N80" t="n">
-        <v>12000</v>
+        <v>8000</v>
       </c>
       <c r="O80" t="n">
-        <v>12000</v>
+        <v>8000</v>
       </c>
       <c r="P80" t="n">
-        <v>12000</v>
+        <v>8000</v>
       </c>
       <c r="Q80" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="R80" t="inlineStr">
@@ -6786,10 +6786,10 @@
         </is>
       </c>
       <c r="S80" t="n">
-        <v>1200</v>
+        <v>444</v>
       </c>
       <c r="T80" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
     </row>
     <row r="81">
@@ -6840,20 +6840,20 @@
       </c>
       <c r="L81" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M81" t="n">
-        <v>120</v>
+        <v>140</v>
       </c>
       <c r="N81" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="O81" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="P81" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="Q81" t="inlineStr">
         <is>
@@ -6866,7 +6866,7 @@
         </is>
       </c>
       <c r="S81" t="n">
-        <v>1000</v>
+        <v>1200</v>
       </c>
       <c r="T81" t="n">
         <v>10</v>
@@ -6920,20 +6920,20 @@
       </c>
       <c r="L82" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M82" t="n">
-        <v>50</v>
+        <v>120</v>
       </c>
       <c r="N82" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="O82" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="P82" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="Q82" t="inlineStr">
         <is>
@@ -6946,7 +6946,7 @@
         </is>
       </c>
       <c r="S82" t="n">
-        <v>800</v>
+        <v>1000</v>
       </c>
       <c r="T82" t="n">
         <v>10</v>
@@ -6967,7 +6967,7 @@
         </is>
       </c>
       <c r="D83" s="2" t="n">
-        <v>44343</v>
+        <v>44315</v>
       </c>
       <c r="E83" t="n">
         <v>7</v>
@@ -7000,24 +7000,24 @@
       </c>
       <c r="L83" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M83" t="n">
-        <v>120</v>
+        <v>50</v>
       </c>
       <c r="N83" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="O83" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="P83" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="Q83" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="R83" t="inlineStr">
@@ -7026,10 +7026,10 @@
         </is>
       </c>
       <c r="S83" t="n">
-        <v>556</v>
+        <v>800</v>
       </c>
       <c r="T83" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="84">
@@ -7080,20 +7080,20 @@
       </c>
       <c r="L84" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M84" t="n">
-        <v>160</v>
+        <v>120</v>
       </c>
       <c r="N84" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="O84" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="P84" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="Q84" t="inlineStr">
         <is>
@@ -7106,7 +7106,7 @@
         </is>
       </c>
       <c r="S84" t="n">
-        <v>500</v>
+        <v>556</v>
       </c>
       <c r="T84" t="n">
         <v>18</v>
@@ -7127,7 +7127,7 @@
         </is>
       </c>
       <c r="D85" s="2" t="n">
-        <v>44316</v>
+        <v>44343</v>
       </c>
       <c r="E85" t="n">
         <v>7</v>
@@ -7160,24 +7160,24 @@
       </c>
       <c r="L85" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M85" t="n">
         <v>160</v>
       </c>
       <c r="N85" t="n">
-        <v>12000</v>
+        <v>9000</v>
       </c>
       <c r="O85" t="n">
-        <v>12000</v>
+        <v>9000</v>
       </c>
       <c r="P85" t="n">
-        <v>12000</v>
+        <v>9000</v>
       </c>
       <c r="Q85" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="R85" t="inlineStr">
@@ -7186,10 +7186,10 @@
         </is>
       </c>
       <c r="S85" t="n">
-        <v>1200</v>
+        <v>500</v>
       </c>
       <c r="T85" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
     </row>
     <row r="86">
@@ -7240,20 +7240,20 @@
       </c>
       <c r="L86" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M86" t="n">
-        <v>200</v>
+        <v>160</v>
       </c>
       <c r="N86" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="O86" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="P86" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="Q86" t="inlineStr">
         <is>
@@ -7266,7 +7266,7 @@
         </is>
       </c>
       <c r="S86" t="n">
-        <v>1000</v>
+        <v>1200</v>
       </c>
       <c r="T86" t="n">
         <v>10</v>
@@ -7324,20 +7324,20 @@
         </is>
       </c>
       <c r="M87" t="n">
-        <v>190</v>
+        <v>200</v>
       </c>
       <c r="N87" t="n">
-        <v>13000</v>
+        <v>10000</v>
       </c>
       <c r="O87" t="n">
-        <v>13000</v>
+        <v>10000</v>
       </c>
       <c r="P87" t="n">
-        <v>13000</v>
+        <v>10000</v>
       </c>
       <c r="Q87" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R87" t="inlineStr">
@@ -7346,10 +7346,10 @@
         </is>
       </c>
       <c r="S87" t="n">
-        <v>722</v>
+        <v>1000</v>
       </c>
       <c r="T87" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="88">
@@ -7367,7 +7367,7 @@
         </is>
       </c>
       <c r="D88" s="2" t="n">
-        <v>44356</v>
+        <v>44316</v>
       </c>
       <c r="E88" t="n">
         <v>7</v>
@@ -7400,24 +7400,24 @@
       </c>
       <c r="L88" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M88" t="n">
-        <v>200</v>
+        <v>190</v>
       </c>
       <c r="N88" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="O88" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="P88" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="Q88" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="R88" t="inlineStr">
@@ -7426,7 +7426,7 @@
         </is>
       </c>
       <c r="S88" t="n">
-        <v>667</v>
+        <v>722</v>
       </c>
       <c r="T88" t="n">
         <v>18</v>
@@ -7480,20 +7480,20 @@
       </c>
       <c r="L89" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M89" t="n">
-        <v>140</v>
+        <v>200</v>
       </c>
       <c r="N89" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="O89" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="P89" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="Q89" t="inlineStr">
         <is>
@@ -7506,7 +7506,7 @@
         </is>
       </c>
       <c r="S89" t="n">
-        <v>556</v>
+        <v>667</v>
       </c>
       <c r="T89" t="n">
         <v>18</v>
@@ -7560,20 +7560,20 @@
       </c>
       <c r="L90" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M90" t="n">
-        <v>80</v>
+        <v>140</v>
       </c>
       <c r="N90" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="O90" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="P90" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="Q90" t="inlineStr">
         <is>
@@ -7586,7 +7586,7 @@
         </is>
       </c>
       <c r="S90" t="n">
-        <v>444</v>
+        <v>556</v>
       </c>
       <c r="T90" t="n">
         <v>18</v>
@@ -7607,7 +7607,7 @@
         </is>
       </c>
       <c r="D91" s="2" t="n">
-        <v>44454</v>
+        <v>44356</v>
       </c>
       <c r="E91" t="n">
         <v>7</v>
@@ -7640,20 +7640,20 @@
       </c>
       <c r="L91" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M91" t="n">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="N91" t="n">
-        <v>12000</v>
+        <v>8000</v>
       </c>
       <c r="O91" t="n">
-        <v>12000</v>
+        <v>8000</v>
       </c>
       <c r="P91" t="n">
-        <v>12000</v>
+        <v>8000</v>
       </c>
       <c r="Q91" t="inlineStr">
         <is>
@@ -7666,7 +7666,7 @@
         </is>
       </c>
       <c r="S91" t="n">
-        <v>667</v>
+        <v>444</v>
       </c>
       <c r="T91" t="n">
         <v>18</v>
@@ -7720,20 +7720,20 @@
       </c>
       <c r="L92" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M92" t="n">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="N92" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="O92" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="P92" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="Q92" t="inlineStr">
         <is>
@@ -7746,7 +7746,7 @@
         </is>
       </c>
       <c r="S92" t="n">
-        <v>556</v>
+        <v>667</v>
       </c>
       <c r="T92" t="n">
         <v>18</v>
@@ -7767,7 +7767,7 @@
         </is>
       </c>
       <c r="D93" s="2" t="n">
-        <v>44410</v>
+        <v>44454</v>
       </c>
       <c r="E93" t="n">
         <v>7</v>
@@ -7800,20 +7800,20 @@
       </c>
       <c r="L93" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M93" t="n">
-        <v>230</v>
+        <v>80</v>
       </c>
       <c r="N93" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="O93" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="P93" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="Q93" t="inlineStr">
         <is>
@@ -7826,7 +7826,7 @@
         </is>
       </c>
       <c r="S93" t="n">
-        <v>667</v>
+        <v>556</v>
       </c>
       <c r="T93" t="n">
         <v>18</v>
@@ -7887,17 +7887,17 @@
         <v>230</v>
       </c>
       <c r="N94" t="n">
-        <v>7000</v>
+        <v>12000</v>
       </c>
       <c r="O94" t="n">
-        <v>7000</v>
+        <v>12000</v>
       </c>
       <c r="P94" t="n">
-        <v>7000</v>
+        <v>12000</v>
       </c>
       <c r="Q94" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="R94" t="inlineStr">
@@ -7906,10 +7906,10 @@
         </is>
       </c>
       <c r="S94" t="n">
-        <v>700</v>
+        <v>667</v>
       </c>
       <c r="T94" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
     </row>
     <row r="95">
@@ -7927,7 +7927,7 @@
         </is>
       </c>
       <c r="D95" s="2" t="n">
-        <v>44403</v>
+        <v>44410</v>
       </c>
       <c r="E95" t="n">
         <v>7</v>
@@ -7964,20 +7964,20 @@
         </is>
       </c>
       <c r="M95" t="n">
-        <v>350</v>
+        <v>230</v>
       </c>
       <c r="N95" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="O95" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="P95" t="n">
-        <v>9429</v>
+        <v>7000</v>
       </c>
       <c r="Q95" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="R95" t="inlineStr">
@@ -7986,10 +7986,10 @@
         </is>
       </c>
       <c r="S95" t="n">
-        <v>524</v>
+        <v>700</v>
       </c>
       <c r="T95" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="96">
@@ -8040,20 +8040,20 @@
       </c>
       <c r="L96" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M96" t="n">
-        <v>250</v>
+        <v>350</v>
       </c>
       <c r="N96" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="O96" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="P96" t="n">
-        <v>8000</v>
+        <v>9429</v>
       </c>
       <c r="Q96" t="inlineStr">
         <is>
@@ -8066,7 +8066,7 @@
         </is>
       </c>
       <c r="S96" t="n">
-        <v>444</v>
+        <v>524</v>
       </c>
       <c r="T96" t="n">
         <v>18</v>
@@ -8087,7 +8087,7 @@
         </is>
       </c>
       <c r="D97" s="2" t="n">
-        <v>44426</v>
+        <v>44403</v>
       </c>
       <c r="E97" t="n">
         <v>7</v>
@@ -8120,24 +8120,24 @@
       </c>
       <c r="L97" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M97" t="n">
-        <v>100</v>
+        <v>250</v>
       </c>
       <c r="N97" t="n">
-        <v>12000</v>
+        <v>8000</v>
       </c>
       <c r="O97" t="n">
-        <v>12000</v>
+        <v>8000</v>
       </c>
       <c r="P97" t="n">
-        <v>12000</v>
+        <v>8000</v>
       </c>
       <c r="Q97" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="R97" t="inlineStr">
@@ -8146,7 +8146,7 @@
         </is>
       </c>
       <c r="S97" t="n">
-        <v>667</v>
+        <v>444</v>
       </c>
       <c r="T97" t="n">
         <v>18</v>
@@ -8200,20 +8200,20 @@
       </c>
       <c r="L98" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M98" t="n">
-        <v>120</v>
+        <v>100</v>
       </c>
       <c r="N98" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="O98" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="P98" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="Q98" t="inlineStr">
         <is>
@@ -8226,7 +8226,7 @@
         </is>
       </c>
       <c r="S98" t="n">
-        <v>556</v>
+        <v>667</v>
       </c>
       <c r="T98" t="n">
         <v>18</v>
@@ -8247,7 +8247,7 @@
         </is>
       </c>
       <c r="D99" s="2" t="n">
-        <v>44469</v>
+        <v>44426</v>
       </c>
       <c r="E99" t="n">
         <v>7</v>
@@ -8280,24 +8280,24 @@
       </c>
       <c r="L99" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M99" t="n">
-        <v>150</v>
+        <v>120</v>
       </c>
       <c r="N99" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="O99" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="P99" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="Q99" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="R99" t="inlineStr">
@@ -8306,7 +8306,7 @@
         </is>
       </c>
       <c r="S99" t="n">
-        <v>667</v>
+        <v>556</v>
       </c>
       <c r="T99" t="n">
         <v>18</v>
@@ -8360,20 +8360,20 @@
       </c>
       <c r="L100" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M100" t="n">
-        <v>200</v>
+        <v>150</v>
       </c>
       <c r="N100" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="O100" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="P100" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="Q100" t="inlineStr">
         <is>
@@ -8386,7 +8386,7 @@
         </is>
       </c>
       <c r="S100" t="n">
-        <v>556</v>
+        <v>667</v>
       </c>
       <c r="T100" t="n">
         <v>18</v>
@@ -8407,7 +8407,7 @@
         </is>
       </c>
       <c r="D101" s="2" t="n">
-        <v>44434</v>
+        <v>44469</v>
       </c>
       <c r="E101" t="n">
         <v>7</v>
@@ -8440,20 +8440,20 @@
       </c>
       <c r="L101" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M101" t="n">
-        <v>230</v>
+        <v>200</v>
       </c>
       <c r="N101" t="n">
-        <v>14000</v>
+        <v>10000</v>
       </c>
       <c r="O101" t="n">
-        <v>14000</v>
+        <v>10000</v>
       </c>
       <c r="P101" t="n">
-        <v>14000</v>
+        <v>10000</v>
       </c>
       <c r="Q101" t="inlineStr">
         <is>
@@ -8466,7 +8466,7 @@
         </is>
       </c>
       <c r="S101" t="n">
-        <v>778</v>
+        <v>556</v>
       </c>
       <c r="T101" t="n">
         <v>18</v>
@@ -8524,20 +8524,20 @@
         </is>
       </c>
       <c r="M102" t="n">
-        <v>160</v>
+        <v>230</v>
       </c>
       <c r="N102" t="n">
-        <v>8000</v>
+        <v>14000</v>
       </c>
       <c r="O102" t="n">
-        <v>8000</v>
+        <v>14000</v>
       </c>
       <c r="P102" t="n">
-        <v>8000</v>
+        <v>14000</v>
       </c>
       <c r="Q102" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="R102" t="inlineStr">
@@ -8546,10 +8546,10 @@
         </is>
       </c>
       <c r="S102" t="n">
-        <v>800</v>
+        <v>778</v>
       </c>
       <c r="T102" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
     </row>
     <row r="103">
@@ -8600,24 +8600,24 @@
       </c>
       <c r="L103" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M103" t="n">
-        <v>150</v>
+        <v>160</v>
       </c>
       <c r="N103" t="n">
-        <v>12000</v>
+        <v>8000</v>
       </c>
       <c r="O103" t="n">
-        <v>12000</v>
+        <v>8000</v>
       </c>
       <c r="P103" t="n">
-        <v>12000</v>
+        <v>8000</v>
       </c>
       <c r="Q103" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="R103" t="inlineStr">
@@ -8626,10 +8626,10 @@
         </is>
       </c>
       <c r="S103" t="n">
-        <v>667</v>
+        <v>800</v>
       </c>
       <c r="T103" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="104">
@@ -8684,20 +8684,20 @@
         </is>
       </c>
       <c r="M104" t="n">
-        <v>230</v>
+        <v>150</v>
       </c>
       <c r="N104" t="n">
-        <v>7000</v>
+        <v>12000</v>
       </c>
       <c r="O104" t="n">
-        <v>7000</v>
+        <v>12000</v>
       </c>
       <c r="P104" t="n">
-        <v>7000</v>
+        <v>12000</v>
       </c>
       <c r="Q104" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="R104" t="inlineStr">
@@ -8706,10 +8706,10 @@
         </is>
       </c>
       <c r="S104" t="n">
-        <v>700</v>
+        <v>667</v>
       </c>
       <c r="T104" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
     </row>
     <row r="105">
@@ -8760,24 +8760,24 @@
       </c>
       <c r="L105" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M105" t="n">
-        <v>120</v>
+        <v>230</v>
       </c>
       <c r="N105" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="O105" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="P105" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="Q105" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="R105" t="inlineStr">
@@ -8786,10 +8786,10 @@
         </is>
       </c>
       <c r="S105" t="n">
-        <v>556</v>
+        <v>700</v>
       </c>
       <c r="T105" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="106">
@@ -8807,7 +8807,7 @@
         </is>
       </c>
       <c r="D106" s="2" t="n">
-        <v>44351</v>
+        <v>44434</v>
       </c>
       <c r="E106" t="n">
         <v>7</v>
@@ -8840,20 +8840,20 @@
       </c>
       <c r="L106" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M106" t="n">
-        <v>260</v>
+        <v>120</v>
       </c>
       <c r="N106" t="n">
-        <v>11000</v>
+        <v>10000</v>
       </c>
       <c r="O106" t="n">
-        <v>11000</v>
+        <v>10000</v>
       </c>
       <c r="P106" t="n">
-        <v>11000</v>
+        <v>10000</v>
       </c>
       <c r="Q106" t="inlineStr">
         <is>
@@ -8866,7 +8866,7 @@
         </is>
       </c>
       <c r="S106" t="n">
-        <v>611</v>
+        <v>556</v>
       </c>
       <c r="T106" t="n">
         <v>18</v>
@@ -8920,20 +8920,20 @@
       </c>
       <c r="L107" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M107" t="n">
-        <v>200</v>
+        <v>260</v>
       </c>
       <c r="N107" t="n">
-        <v>10000</v>
+        <v>11000</v>
       </c>
       <c r="O107" t="n">
-        <v>10000</v>
+        <v>11000</v>
       </c>
       <c r="P107" t="n">
-        <v>10000</v>
+        <v>11000</v>
       </c>
       <c r="Q107" t="inlineStr">
         <is>
@@ -8946,7 +8946,7 @@
         </is>
       </c>
       <c r="S107" t="n">
-        <v>556</v>
+        <v>611</v>
       </c>
       <c r="T107" t="n">
         <v>18</v>
@@ -9004,32 +9004,32 @@
         </is>
       </c>
       <c r="M108" t="n">
-        <v>230</v>
+        <v>200</v>
       </c>
       <c r="N108" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="O108" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="P108" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="Q108" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="R108" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S108" t="n">
-        <v>800</v>
+        <v>556</v>
       </c>
       <c r="T108" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
     </row>
     <row r="109">
@@ -9047,7 +9047,7 @@
         </is>
       </c>
       <c r="D109" s="2" t="n">
-        <v>44280</v>
+        <v>44351</v>
       </c>
       <c r="E109" t="n">
         <v>7</v>
@@ -9084,16 +9084,16 @@
         </is>
       </c>
       <c r="M109" t="n">
-        <v>100</v>
+        <v>230</v>
       </c>
       <c r="N109" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="O109" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="P109" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="Q109" t="inlineStr">
         <is>
@@ -9102,11 +9102,11 @@
       </c>
       <c r="R109" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S109" t="n">
-        <v>1000</v>
+        <v>800</v>
       </c>
       <c r="T109" t="n">
         <v>10</v>
@@ -9160,20 +9160,20 @@
       </c>
       <c r="L110" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M110" t="n">
-        <v>60</v>
+        <v>100</v>
       </c>
       <c r="N110" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="O110" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="P110" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="Q110" t="inlineStr">
         <is>
@@ -9186,7 +9186,7 @@
         </is>
       </c>
       <c r="S110" t="n">
-        <v>800</v>
+        <v>1000</v>
       </c>
       <c r="T110" t="n">
         <v>10</v>
@@ -9207,7 +9207,7 @@
         </is>
       </c>
       <c r="D111" s="2" t="n">
-        <v>44445</v>
+        <v>44280</v>
       </c>
       <c r="E111" t="n">
         <v>7</v>
@@ -9240,24 +9240,24 @@
       </c>
       <c r="L111" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M111" t="n">
-        <v>200</v>
+        <v>60</v>
       </c>
       <c r="N111" t="n">
-        <v>12000</v>
+        <v>8000</v>
       </c>
       <c r="O111" t="n">
-        <v>12000</v>
+        <v>8000</v>
       </c>
       <c r="P111" t="n">
-        <v>12000</v>
+        <v>8000</v>
       </c>
       <c r="Q111" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="R111" t="inlineStr">
@@ -9266,10 +9266,10 @@
         </is>
       </c>
       <c r="S111" t="n">
-        <v>667</v>
+        <v>800</v>
       </c>
       <c r="T111" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="112">
@@ -9287,7 +9287,7 @@
         </is>
       </c>
       <c r="D112" s="2" t="n">
-        <v>44407</v>
+        <v>44445</v>
       </c>
       <c r="E112" t="n">
         <v>7</v>
@@ -9320,20 +9320,20 @@
       </c>
       <c r="L112" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M112" t="n">
-        <v>60</v>
+        <v>200</v>
       </c>
       <c r="N112" t="n">
-        <v>13000</v>
+        <v>12000</v>
       </c>
       <c r="O112" t="n">
-        <v>13000</v>
+        <v>12000</v>
       </c>
       <c r="P112" t="n">
-        <v>13000</v>
+        <v>12000</v>
       </c>
       <c r="Q112" t="inlineStr">
         <is>
@@ -9346,7 +9346,7 @@
         </is>
       </c>
       <c r="S112" t="n">
-        <v>722</v>
+        <v>667</v>
       </c>
       <c r="T112" t="n">
         <v>18</v>
@@ -9400,20 +9400,20 @@
       </c>
       <c r="L113" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M113" t="n">
-        <v>150</v>
+        <v>60</v>
       </c>
       <c r="N113" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="O113" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="P113" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="Q113" t="inlineStr">
         <is>
@@ -9426,7 +9426,7 @@
         </is>
       </c>
       <c r="S113" t="n">
-        <v>556</v>
+        <v>722</v>
       </c>
       <c r="T113" t="n">
         <v>18</v>
@@ -9480,20 +9480,20 @@
       </c>
       <c r="L114" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M114" t="n">
-        <v>100</v>
+        <v>150</v>
       </c>
       <c r="N114" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="O114" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="P114" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="Q114" t="inlineStr">
         <is>
@@ -9506,7 +9506,7 @@
         </is>
       </c>
       <c r="S114" t="n">
-        <v>444</v>
+        <v>556</v>
       </c>
       <c r="T114" t="n">
         <v>18</v>
@@ -9527,7 +9527,7 @@
         </is>
       </c>
       <c r="D115" s="2" t="n">
-        <v>44358</v>
+        <v>44407</v>
       </c>
       <c r="E115" t="n">
         <v>7</v>
@@ -9560,20 +9560,20 @@
       </c>
       <c r="L115" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M115" t="n">
-        <v>230</v>
+        <v>100</v>
       </c>
       <c r="N115" t="n">
-        <v>13000</v>
+        <v>8000</v>
       </c>
       <c r="O115" t="n">
-        <v>13000</v>
+        <v>8000</v>
       </c>
       <c r="P115" t="n">
-        <v>13000</v>
+        <v>8000</v>
       </c>
       <c r="Q115" t="inlineStr">
         <is>
@@ -9586,7 +9586,7 @@
         </is>
       </c>
       <c r="S115" t="n">
-        <v>722</v>
+        <v>444</v>
       </c>
       <c r="T115" t="n">
         <v>18</v>
@@ -9644,20 +9644,20 @@
         </is>
       </c>
       <c r="M116" t="n">
-        <v>250</v>
+        <v>230</v>
       </c>
       <c r="N116" t="n">
-        <v>9000</v>
+        <v>13000</v>
       </c>
       <c r="O116" t="n">
-        <v>9000</v>
+        <v>13000</v>
       </c>
       <c r="P116" t="n">
-        <v>9000</v>
+        <v>13000</v>
       </c>
       <c r="Q116" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="R116" t="inlineStr">
@@ -9666,10 +9666,10 @@
         </is>
       </c>
       <c r="S116" t="n">
-        <v>900</v>
+        <v>722</v>
       </c>
       <c r="T116" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
     </row>
     <row r="117">
@@ -9720,24 +9720,24 @@
       </c>
       <c r="L117" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M117" t="n">
-        <v>210</v>
+        <v>250</v>
       </c>
       <c r="N117" t="n">
-        <v>11000</v>
+        <v>9000</v>
       </c>
       <c r="O117" t="n">
-        <v>11000</v>
+        <v>9000</v>
       </c>
       <c r="P117" t="n">
-        <v>11000</v>
+        <v>9000</v>
       </c>
       <c r="Q117" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="R117" t="inlineStr">
@@ -9746,10 +9746,10 @@
         </is>
       </c>
       <c r="S117" t="n">
-        <v>611</v>
+        <v>900</v>
       </c>
       <c r="T117" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="118">
@@ -9804,20 +9804,20 @@
         </is>
       </c>
       <c r="M118" t="n">
-        <v>200</v>
+        <v>210</v>
       </c>
       <c r="N118" t="n">
-        <v>7000</v>
+        <v>11000</v>
       </c>
       <c r="O118" t="n">
-        <v>7000</v>
+        <v>11000</v>
       </c>
       <c r="P118" t="n">
-        <v>7000</v>
+        <v>11000</v>
       </c>
       <c r="Q118" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="R118" t="inlineStr">
@@ -9826,10 +9826,10 @@
         </is>
       </c>
       <c r="S118" t="n">
-        <v>700</v>
+        <v>611</v>
       </c>
       <c r="T118" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
     </row>
     <row r="119">
@@ -9880,24 +9880,24 @@
       </c>
       <c r="L119" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M119" t="n">
-        <v>190</v>
+        <v>200</v>
       </c>
       <c r="N119" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="O119" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="P119" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="Q119" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="R119" t="inlineStr">
@@ -9906,10 +9906,10 @@
         </is>
       </c>
       <c r="S119" t="n">
-        <v>500</v>
+        <v>700</v>
       </c>
       <c r="T119" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="120">
@@ -9927,7 +9927,7 @@
         </is>
       </c>
       <c r="D120" s="2" t="n">
-        <v>44391</v>
+        <v>44358</v>
       </c>
       <c r="E120" t="n">
         <v>7</v>
@@ -9960,20 +9960,20 @@
       </c>
       <c r="L120" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M120" t="n">
-        <v>200</v>
+        <v>190</v>
       </c>
       <c r="N120" t="n">
-        <v>11000</v>
+        <v>9000</v>
       </c>
       <c r="O120" t="n">
-        <v>11000</v>
+        <v>9000</v>
       </c>
       <c r="P120" t="n">
-        <v>11000</v>
+        <v>9000</v>
       </c>
       <c r="Q120" t="inlineStr">
         <is>
@@ -9986,7 +9986,7 @@
         </is>
       </c>
       <c r="S120" t="n">
-        <v>611</v>
+        <v>500</v>
       </c>
       <c r="T120" t="n">
         <v>18</v>
@@ -10040,20 +10040,20 @@
       </c>
       <c r="L121" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M121" t="n">
-        <v>250</v>
+        <v>200</v>
       </c>
       <c r="N121" t="n">
-        <v>9500</v>
+        <v>11000</v>
       </c>
       <c r="O121" t="n">
-        <v>9500</v>
+        <v>11000</v>
       </c>
       <c r="P121" t="n">
-        <v>9500</v>
+        <v>11000</v>
       </c>
       <c r="Q121" t="inlineStr">
         <is>
@@ -10066,7 +10066,7 @@
         </is>
       </c>
       <c r="S121" t="n">
-        <v>528</v>
+        <v>611</v>
       </c>
       <c r="T121" t="n">
         <v>18</v>
@@ -10087,7 +10087,7 @@
         </is>
       </c>
       <c r="D122" s="2" t="n">
-        <v>44320</v>
+        <v>44391</v>
       </c>
       <c r="E122" t="n">
         <v>7</v>
@@ -10120,20 +10120,20 @@
       </c>
       <c r="L122" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M122" t="n">
-        <v>120</v>
+        <v>250</v>
       </c>
       <c r="N122" t="n">
-        <v>13000</v>
+        <v>9500</v>
       </c>
       <c r="O122" t="n">
-        <v>13000</v>
+        <v>9500</v>
       </c>
       <c r="P122" t="n">
-        <v>13000</v>
+        <v>9500</v>
       </c>
       <c r="Q122" t="inlineStr">
         <is>
@@ -10146,7 +10146,7 @@
         </is>
       </c>
       <c r="S122" t="n">
-        <v>722</v>
+        <v>528</v>
       </c>
       <c r="T122" t="n">
         <v>18</v>
@@ -10204,20 +10204,20 @@
         </is>
       </c>
       <c r="M123" t="n">
-        <v>150</v>
+        <v>120</v>
       </c>
       <c r="N123" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="O123" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="P123" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="Q123" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="R123" t="inlineStr">
@@ -10226,10 +10226,10 @@
         </is>
       </c>
       <c r="S123" t="n">
-        <v>1000</v>
+        <v>722</v>
       </c>
       <c r="T123" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
     </row>
     <row r="124">
@@ -10280,11 +10280,11 @@
       </c>
       <c r="L124" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M124" t="n">
-        <v>300</v>
+        <v>150</v>
       </c>
       <c r="N124" t="n">
         <v>10000</v>
@@ -10297,7 +10297,7 @@
       </c>
       <c r="Q124" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="R124" t="inlineStr">
@@ -10364,20 +10364,20 @@
         </is>
       </c>
       <c r="M125" t="n">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="N125" t="n">
-        <v>11000</v>
+        <v>10000</v>
       </c>
       <c r="O125" t="n">
-        <v>11000</v>
+        <v>10000</v>
       </c>
       <c r="P125" t="n">
-        <v>11000</v>
+        <v>10000</v>
       </c>
       <c r="Q125" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R125" t="inlineStr">
@@ -10386,10 +10386,10 @@
         </is>
       </c>
       <c r="S125" t="n">
-        <v>611</v>
+        <v>1000</v>
       </c>
       <c r="T125" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="126">
@@ -10407,7 +10407,7 @@
         </is>
       </c>
       <c r="D126" s="2" t="n">
-        <v>44349</v>
+        <v>44320</v>
       </c>
       <c r="E126" t="n">
         <v>7</v>
@@ -10440,20 +10440,20 @@
       </c>
       <c r="L126" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M126" t="n">
-        <v>180</v>
+        <v>100</v>
       </c>
       <c r="N126" t="n">
-        <v>10000</v>
+        <v>11000</v>
       </c>
       <c r="O126" t="n">
-        <v>10000</v>
+        <v>11000</v>
       </c>
       <c r="P126" t="n">
-        <v>10000</v>
+        <v>11000</v>
       </c>
       <c r="Q126" t="inlineStr">
         <is>
@@ -10466,7 +10466,7 @@
         </is>
       </c>
       <c r="S126" t="n">
-        <v>556</v>
+        <v>611</v>
       </c>
       <c r="T126" t="n">
         <v>18</v>
@@ -10520,20 +10520,20 @@
       </c>
       <c r="L127" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M127" t="n">
-        <v>230</v>
+        <v>180</v>
       </c>
       <c r="N127" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="O127" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="P127" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="Q127" t="inlineStr">
         <is>
@@ -10546,7 +10546,7 @@
         </is>
       </c>
       <c r="S127" t="n">
-        <v>444</v>
+        <v>556</v>
       </c>
       <c r="T127" t="n">
         <v>18</v>
@@ -10567,7 +10567,7 @@
         </is>
       </c>
       <c r="D128" s="2" t="n">
-        <v>44372</v>
+        <v>44349</v>
       </c>
       <c r="E128" t="n">
         <v>7</v>
@@ -10600,20 +10600,20 @@
       </c>
       <c r="L128" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M128" t="n">
-        <v>130</v>
+        <v>230</v>
       </c>
       <c r="N128" t="n">
-        <v>11000</v>
+        <v>8000</v>
       </c>
       <c r="O128" t="n">
-        <v>11000</v>
+        <v>8000</v>
       </c>
       <c r="P128" t="n">
-        <v>11000</v>
+        <v>8000</v>
       </c>
       <c r="Q128" t="inlineStr">
         <is>
@@ -10626,7 +10626,7 @@
         </is>
       </c>
       <c r="S128" t="n">
-        <v>611</v>
+        <v>444</v>
       </c>
       <c r="T128" t="n">
         <v>18</v>
@@ -10680,20 +10680,20 @@
       </c>
       <c r="L129" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M129" t="n">
-        <v>120</v>
+        <v>130</v>
       </c>
       <c r="N129" t="n">
-        <v>9000</v>
+        <v>11000</v>
       </c>
       <c r="O129" t="n">
-        <v>9000</v>
+        <v>11000</v>
       </c>
       <c r="P129" t="n">
-        <v>9000</v>
+        <v>11000</v>
       </c>
       <c r="Q129" t="inlineStr">
         <is>
@@ -10706,7 +10706,7 @@
         </is>
       </c>
       <c r="S129" t="n">
-        <v>500</v>
+        <v>611</v>
       </c>
       <c r="T129" t="n">
         <v>18</v>
@@ -10760,20 +10760,20 @@
       </c>
       <c r="L130" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M130" t="n">
-        <v>100</v>
+        <v>120</v>
       </c>
       <c r="N130" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="O130" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="P130" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="Q130" t="inlineStr">
         <is>
@@ -10786,7 +10786,7 @@
         </is>
       </c>
       <c r="S130" t="n">
-        <v>389</v>
+        <v>500</v>
       </c>
       <c r="T130" t="n">
         <v>18</v>
@@ -10807,7 +10807,7 @@
         </is>
       </c>
       <c r="D131" s="2" t="n">
-        <v>44350</v>
+        <v>44372</v>
       </c>
       <c r="E131" t="n">
         <v>7</v>
@@ -10840,33 +10840,33 @@
       </c>
       <c r="L131" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M131" t="n">
-        <v>130</v>
+        <v>100</v>
       </c>
       <c r="N131" t="n">
-        <v>11000</v>
+        <v>7000</v>
       </c>
       <c r="O131" t="n">
-        <v>11000</v>
+        <v>7000</v>
       </c>
       <c r="P131" t="n">
-        <v>11000</v>
+        <v>7000</v>
       </c>
       <c r="Q131" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos granel</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="R131" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S131" t="n">
-        <v>611</v>
+        <v>389</v>
       </c>
       <c r="T131" t="n">
         <v>18</v>
@@ -10920,20 +10920,20 @@
       </c>
       <c r="L132" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M132" t="n">
-        <v>360</v>
+        <v>130</v>
       </c>
       <c r="N132" t="n">
-        <v>9000</v>
+        <v>11000</v>
       </c>
       <c r="O132" t="n">
-        <v>9000</v>
+        <v>11000</v>
       </c>
       <c r="P132" t="n">
-        <v>9000</v>
+        <v>11000</v>
       </c>
       <c r="Q132" t="inlineStr">
         <is>
@@ -10942,11 +10942,11 @@
       </c>
       <c r="R132" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S132" t="n">
-        <v>500</v>
+        <v>611</v>
       </c>
       <c r="T132" t="n">
         <v>18</v>
@@ -11004,7 +11004,7 @@
         </is>
       </c>
       <c r="M133" t="n">
-        <v>100</v>
+        <v>360</v>
       </c>
       <c r="N133" t="n">
         <v>9000</v>
@@ -11022,7 +11022,7 @@
       </c>
       <c r="R133" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S133" t="n">
@@ -11080,33 +11080,33 @@
       </c>
       <c r="L134" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M134" t="n">
-        <v>210</v>
+        <v>100</v>
       </c>
       <c r="N134" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="O134" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="P134" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="Q134" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 18 kilos granel</t>
         </is>
       </c>
       <c r="R134" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S134" t="n">
-        <v>389</v>
+        <v>500</v>
       </c>
       <c r="T134" t="n">
         <v>18</v>
@@ -11164,7 +11164,7 @@
         </is>
       </c>
       <c r="M135" t="n">
-        <v>150</v>
+        <v>210</v>
       </c>
       <c r="N135" t="n">
         <v>7000</v>
@@ -11177,12 +11177,12 @@
       </c>
       <c r="Q135" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos granel</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="R135" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S135" t="n">
@@ -11207,7 +11207,7 @@
         </is>
       </c>
       <c r="D136" s="2" t="n">
-        <v>44448</v>
+        <v>44350</v>
       </c>
       <c r="E136" t="n">
         <v>7</v>
@@ -11240,33 +11240,33 @@
       </c>
       <c r="L136" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M136" t="n">
-        <v>180</v>
+        <v>150</v>
       </c>
       <c r="N136" t="n">
-        <v>13000</v>
+        <v>7000</v>
       </c>
       <c r="O136" t="n">
-        <v>13000</v>
+        <v>7000</v>
       </c>
       <c r="P136" t="n">
-        <v>13000</v>
+        <v>7000</v>
       </c>
       <c r="Q136" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/caja 18 kilos granel</t>
         </is>
       </c>
       <c r="R136" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S136" t="n">
-        <v>722</v>
+        <v>389</v>
       </c>
       <c r="T136" t="n">
         <v>18</v>
@@ -11320,20 +11320,20 @@
       </c>
       <c r="L137" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M137" t="n">
-        <v>230</v>
+        <v>180</v>
       </c>
       <c r="N137" t="n">
-        <v>11000</v>
+        <v>13000</v>
       </c>
       <c r="O137" t="n">
-        <v>11000</v>
+        <v>13000</v>
       </c>
       <c r="P137" t="n">
-        <v>11000</v>
+        <v>13000</v>
       </c>
       <c r="Q137" t="inlineStr">
         <is>
@@ -11346,7 +11346,7 @@
         </is>
       </c>
       <c r="S137" t="n">
-        <v>611</v>
+        <v>722</v>
       </c>
       <c r="T137" t="n">
         <v>18</v>
@@ -11367,7 +11367,7 @@
         </is>
       </c>
       <c r="D138" s="2" t="n">
-        <v>44385</v>
+        <v>44448</v>
       </c>
       <c r="E138" t="n">
         <v>7</v>
@@ -11400,7 +11400,7 @@
       </c>
       <c r="L138" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M138" t="n">
@@ -11417,7 +11417,7 @@
       </c>
       <c r="Q138" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="R138" t="inlineStr">
@@ -11480,20 +11480,20 @@
       </c>
       <c r="L139" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M139" t="n">
-        <v>200</v>
+        <v>230</v>
       </c>
       <c r="N139" t="n">
-        <v>9000</v>
+        <v>11000</v>
       </c>
       <c r="O139" t="n">
-        <v>9000</v>
+        <v>11000</v>
       </c>
       <c r="P139" t="n">
-        <v>9000</v>
+        <v>11000</v>
       </c>
       <c r="Q139" t="inlineStr">
         <is>
@@ -11506,7 +11506,7 @@
         </is>
       </c>
       <c r="S139" t="n">
-        <v>500</v>
+        <v>611</v>
       </c>
       <c r="T139" t="n">
         <v>18</v>
@@ -11527,7 +11527,7 @@
         </is>
       </c>
       <c r="D140" s="2" t="n">
-        <v>44452</v>
+        <v>44385</v>
       </c>
       <c r="E140" t="n">
         <v>7</v>
@@ -11564,16 +11564,16 @@
         </is>
       </c>
       <c r="M140" t="n">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="N140" t="n">
-        <v>12000</v>
+        <v>9000</v>
       </c>
       <c r="O140" t="n">
-        <v>12000</v>
+        <v>9000</v>
       </c>
       <c r="P140" t="n">
-        <v>12000</v>
+        <v>9000</v>
       </c>
       <c r="Q140" t="inlineStr">
         <is>
@@ -11586,7 +11586,7 @@
         </is>
       </c>
       <c r="S140" t="n">
-        <v>667</v>
+        <v>500</v>
       </c>
       <c r="T140" t="n">
         <v>18</v>
@@ -11607,7 +11607,7 @@
         </is>
       </c>
       <c r="D141" s="2" t="n">
-        <v>44453</v>
+        <v>44452</v>
       </c>
       <c r="E141" t="n">
         <v>7</v>
@@ -11644,7 +11644,7 @@
         </is>
       </c>
       <c r="M141" t="n">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="N141" t="n">
         <v>12000</v>
@@ -11657,7 +11657,7 @@
       </c>
       <c r="Q141" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="R141" t="inlineStr">
@@ -11666,10 +11666,10 @@
         </is>
       </c>
       <c r="S141" t="n">
-        <v>1200</v>
+        <v>667</v>
       </c>
       <c r="T141" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
     </row>
     <row r="142">
@@ -11687,7 +11687,7 @@
         </is>
       </c>
       <c r="D142" s="2" t="n">
-        <v>44435</v>
+        <v>44453</v>
       </c>
       <c r="E142" t="n">
         <v>7</v>
@@ -11720,24 +11720,24 @@
       </c>
       <c r="L142" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M142" t="n">
-        <v>390</v>
+        <v>250</v>
       </c>
       <c r="N142" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="O142" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="P142" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="Q142" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R142" t="inlineStr">
@@ -11746,10 +11746,10 @@
         </is>
       </c>
       <c r="S142" t="n">
-        <v>778</v>
+        <v>1200</v>
       </c>
       <c r="T142" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="143">
@@ -11804,20 +11804,20 @@
         </is>
       </c>
       <c r="M143" t="n">
-        <v>160</v>
+        <v>390</v>
       </c>
       <c r="N143" t="n">
-        <v>8000</v>
+        <v>14000</v>
       </c>
       <c r="O143" t="n">
-        <v>8000</v>
+        <v>14000</v>
       </c>
       <c r="P143" t="n">
-        <v>8000</v>
+        <v>14000</v>
       </c>
       <c r="Q143" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="R143" t="inlineStr">
@@ -11826,10 +11826,10 @@
         </is>
       </c>
       <c r="S143" t="n">
-        <v>800</v>
+        <v>778</v>
       </c>
       <c r="T143" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
     </row>
     <row r="144">
@@ -11884,20 +11884,20 @@
         </is>
       </c>
       <c r="M144" t="n">
-        <v>330</v>
+        <v>160</v>
       </c>
       <c r="N144" t="n">
-        <v>14000</v>
+        <v>8000</v>
       </c>
       <c r="O144" t="n">
-        <v>14000</v>
+        <v>8000</v>
       </c>
       <c r="P144" t="n">
-        <v>14000</v>
+        <v>8000</v>
       </c>
       <c r="Q144" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="R144" t="inlineStr">
@@ -11906,10 +11906,10 @@
         </is>
       </c>
       <c r="S144" t="n">
-        <v>778</v>
+        <v>800</v>
       </c>
       <c r="T144" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="145">
@@ -11960,24 +11960,24 @@
       </c>
       <c r="L145" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M145" t="n">
-        <v>250</v>
+        <v>330</v>
       </c>
       <c r="N145" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="O145" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="P145" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="Q145" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="R145" t="inlineStr">
@@ -11986,7 +11986,7 @@
         </is>
       </c>
       <c r="S145" t="n">
-        <v>667</v>
+        <v>778</v>
       </c>
       <c r="T145" t="n">
         <v>18</v>
@@ -12044,20 +12044,20 @@
         </is>
       </c>
       <c r="M146" t="n">
-        <v>230</v>
+        <v>250</v>
       </c>
       <c r="N146" t="n">
-        <v>7000</v>
+        <v>12000</v>
       </c>
       <c r="O146" t="n">
-        <v>7000</v>
+        <v>12000</v>
       </c>
       <c r="P146" t="n">
-        <v>7000</v>
+        <v>12000</v>
       </c>
       <c r="Q146" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="R146" t="inlineStr">
@@ -12066,10 +12066,10 @@
         </is>
       </c>
       <c r="S146" t="n">
-        <v>700</v>
+        <v>667</v>
       </c>
       <c r="T146" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
     </row>
     <row r="147">
@@ -12124,20 +12124,20 @@
         </is>
       </c>
       <c r="M147" t="n">
-        <v>180</v>
+        <v>230</v>
       </c>
       <c r="N147" t="n">
-        <v>12000</v>
+        <v>7000</v>
       </c>
       <c r="O147" t="n">
-        <v>12000</v>
+        <v>7000</v>
       </c>
       <c r="P147" t="n">
-        <v>12000</v>
+        <v>7000</v>
       </c>
       <c r="Q147" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="R147" t="inlineStr">
@@ -12146,10 +12146,10 @@
         </is>
       </c>
       <c r="S147" t="n">
-        <v>667</v>
+        <v>700</v>
       </c>
       <c r="T147" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="148">
@@ -12200,24 +12200,24 @@
       </c>
       <c r="L148" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M148" t="n">
-        <v>240</v>
+        <v>180</v>
       </c>
       <c r="N148" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="O148" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="P148" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="Q148" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="R148" t="inlineStr">
@@ -12226,7 +12226,7 @@
         </is>
       </c>
       <c r="S148" t="n">
-        <v>556</v>
+        <v>667</v>
       </c>
       <c r="T148" t="n">
         <v>18</v>
@@ -12247,7 +12247,7 @@
         </is>
       </c>
       <c r="D149" s="2" t="n">
-        <v>44377</v>
+        <v>44435</v>
       </c>
       <c r="E149" t="n">
         <v>7</v>
@@ -12280,11 +12280,11 @@
       </c>
       <c r="L149" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M149" t="n">
-        <v>150</v>
+        <v>240</v>
       </c>
       <c r="N149" t="n">
         <v>10000</v>
@@ -12364,20 +12364,20 @@
         </is>
       </c>
       <c r="M150" t="n">
-        <v>210</v>
+        <v>150</v>
       </c>
       <c r="N150" t="n">
-        <v>6000</v>
+        <v>10000</v>
       </c>
       <c r="O150" t="n">
-        <v>6000</v>
+        <v>10000</v>
       </c>
       <c r="P150" t="n">
-        <v>6000</v>
+        <v>10000</v>
       </c>
       <c r="Q150" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="R150" t="inlineStr">
@@ -12386,10 +12386,10 @@
         </is>
       </c>
       <c r="S150" t="n">
-        <v>600</v>
+        <v>556</v>
       </c>
       <c r="T150" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
     </row>
     <row r="151">
@@ -12440,11 +12440,11 @@
       </c>
       <c r="L151" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M151" t="n">
-        <v>100</v>
+        <v>210</v>
       </c>
       <c r="N151" t="n">
         <v>6000</v>
@@ -12457,7 +12457,7 @@
       </c>
       <c r="Q151" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="R151" t="inlineStr">
@@ -12466,10 +12466,10 @@
         </is>
       </c>
       <c r="S151" t="n">
-        <v>333</v>
+        <v>600</v>
       </c>
       <c r="T151" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="152">
@@ -12487,7 +12487,7 @@
         </is>
       </c>
       <c r="D152" s="2" t="n">
-        <v>44433</v>
+        <v>44377</v>
       </c>
       <c r="E152" t="n">
         <v>7</v>
@@ -12520,24 +12520,24 @@
       </c>
       <c r="L152" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="M152" t="n">
-        <v>120</v>
+        <v>100</v>
       </c>
       <c r="N152" t="n">
-        <v>14000</v>
+        <v>6000</v>
       </c>
       <c r="O152" t="n">
-        <v>14000</v>
+        <v>6000</v>
       </c>
       <c r="P152" t="n">
-        <v>14000</v>
+        <v>6000</v>
       </c>
       <c r="Q152" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="R152" t="inlineStr">
@@ -12546,7 +12546,7 @@
         </is>
       </c>
       <c r="S152" t="n">
-        <v>778</v>
+        <v>333</v>
       </c>
       <c r="T152" t="n">
         <v>18</v>
@@ -12600,20 +12600,20 @@
       </c>
       <c r="L153" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M153" t="n">
-        <v>180</v>
+        <v>120</v>
       </c>
       <c r="N153" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="O153" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="P153" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="Q153" t="inlineStr">
         <is>
@@ -12626,7 +12626,7 @@
         </is>
       </c>
       <c r="S153" t="n">
-        <v>667</v>
+        <v>778</v>
       </c>
       <c r="T153" t="n">
         <v>18</v>
@@ -12647,7 +12647,7 @@
         </is>
       </c>
       <c r="D154" s="2" t="n">
-        <v>44386</v>
+        <v>44433</v>
       </c>
       <c r="E154" t="n">
         <v>7</v>
@@ -12684,20 +12684,20 @@
         </is>
       </c>
       <c r="M154" t="n">
-        <v>300</v>
+        <v>180</v>
       </c>
       <c r="N154" t="n">
-        <v>6000</v>
+        <v>12000</v>
       </c>
       <c r="O154" t="n">
-        <v>6000</v>
+        <v>12000</v>
       </c>
       <c r="P154" t="n">
-        <v>6000</v>
+        <v>12000</v>
       </c>
       <c r="Q154" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="R154" t="inlineStr">
@@ -12706,10 +12706,10 @@
         </is>
       </c>
       <c r="S154" t="n">
-        <v>600</v>
+        <v>667</v>
       </c>
       <c r="T154" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
     </row>
     <row r="155">
@@ -12727,7 +12727,7 @@
         </is>
       </c>
       <c r="D155" s="2" t="n">
-        <v>44384</v>
+        <v>44386</v>
       </c>
       <c r="E155" t="n">
         <v>7</v>
@@ -12764,7 +12764,7 @@
         </is>
       </c>
       <c r="M155" t="n">
-        <v>500</v>
+        <v>300</v>
       </c>
       <c r="N155" t="n">
         <v>6000</v>
@@ -12807,7 +12807,7 @@
         </is>
       </c>
       <c r="D156" s="2" t="n">
-        <v>44263</v>
+        <v>44384</v>
       </c>
       <c r="E156" t="n">
         <v>7</v>
@@ -12844,29 +12844,29 @@
         </is>
       </c>
       <c r="M156" t="n">
-        <v>180</v>
+        <v>500</v>
       </c>
       <c r="N156" t="n">
-        <v>12000</v>
+        <v>6000</v>
       </c>
       <c r="O156" t="n">
-        <v>12000</v>
+        <v>6000</v>
       </c>
       <c r="P156" t="n">
-        <v>12000</v>
+        <v>6000</v>
       </c>
       <c r="Q156" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="R156" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S156" t="n">
-        <v>1200</v>
+        <v>600</v>
       </c>
       <c r="T156" t="n">
         <v>10</v>
@@ -12887,7 +12887,7 @@
         </is>
       </c>
       <c r="D157" s="2" t="n">
-        <v>44363</v>
+        <v>44263</v>
       </c>
       <c r="E157" t="n">
         <v>7</v>
@@ -12924,20 +12924,20 @@
         </is>
       </c>
       <c r="M157" t="n">
-        <v>280</v>
+        <v>180</v>
       </c>
       <c r="N157" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="O157" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="P157" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="Q157" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R157" t="inlineStr">
@@ -12946,10 +12946,10 @@
         </is>
       </c>
       <c r="S157" t="n">
-        <v>556</v>
+        <v>1200</v>
       </c>
       <c r="T157" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="158">
@@ -13000,20 +13000,20 @@
       </c>
       <c r="L158" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M158" t="n">
-        <v>300</v>
+        <v>280</v>
       </c>
       <c r="N158" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="O158" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="P158" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="Q158" t="inlineStr">
         <is>
@@ -13026,7 +13026,7 @@
         </is>
       </c>
       <c r="S158" t="n">
-        <v>444</v>
+        <v>556</v>
       </c>
       <c r="T158" t="n">
         <v>18</v>
@@ -13047,7 +13047,7 @@
         </is>
       </c>
       <c r="D159" s="2" t="n">
-        <v>44306</v>
+        <v>44363</v>
       </c>
       <c r="E159" t="n">
         <v>7</v>
@@ -13080,36 +13080,36 @@
       </c>
       <c r="L159" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M159" t="n">
-        <v>230</v>
+        <v>300</v>
       </c>
       <c r="N159" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="O159" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="P159" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="Q159" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="R159" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S159" t="n">
-        <v>1000</v>
+        <v>444</v>
       </c>
       <c r="T159" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
     </row>
     <row r="160">
@@ -13164,20 +13164,20 @@
         </is>
       </c>
       <c r="M160" t="n">
-        <v>180</v>
+        <v>230</v>
       </c>
       <c r="N160" t="n">
-        <v>13000</v>
+        <v>10000</v>
       </c>
       <c r="O160" t="n">
-        <v>13000</v>
+        <v>10000</v>
       </c>
       <c r="P160" t="n">
-        <v>13000</v>
+        <v>10000</v>
       </c>
       <c r="Q160" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R160" t="inlineStr">
@@ -13186,10 +13186,10 @@
         </is>
       </c>
       <c r="S160" t="n">
-        <v>722</v>
+        <v>1000</v>
       </c>
       <c r="T160" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="161">
@@ -13240,24 +13240,24 @@
       </c>
       <c r="L161" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M161" t="n">
-        <v>230</v>
+        <v>180</v>
       </c>
       <c r="N161" t="n">
-        <v>8000</v>
+        <v>13000</v>
       </c>
       <c r="O161" t="n">
-        <v>8000</v>
+        <v>13000</v>
       </c>
       <c r="P161" t="n">
-        <v>8000</v>
+        <v>13000</v>
       </c>
       <c r="Q161" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="R161" t="inlineStr">
@@ -13266,10 +13266,10 @@
         </is>
       </c>
       <c r="S161" t="n">
-        <v>800</v>
+        <v>722</v>
       </c>
       <c r="T161" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
     </row>
     <row r="162">
@@ -13287,7 +13287,7 @@
         </is>
       </c>
       <c r="D162" s="2" t="n">
-        <v>44369</v>
+        <v>44306</v>
       </c>
       <c r="E162" t="n">
         <v>7</v>
@@ -13320,7 +13320,7 @@
       </c>
       <c r="L162" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M162" t="n">
@@ -13404,20 +13404,20 @@
         </is>
       </c>
       <c r="M163" t="n">
-        <v>100</v>
+        <v>230</v>
       </c>
       <c r="N163" t="n">
-        <v>12000</v>
+        <v>8000</v>
       </c>
       <c r="O163" t="n">
-        <v>12000</v>
+        <v>8000</v>
       </c>
       <c r="P163" t="n">
-        <v>12000</v>
+        <v>8000</v>
       </c>
       <c r="Q163" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R163" t="inlineStr">
@@ -13426,10 +13426,10 @@
         </is>
       </c>
       <c r="S163" t="n">
-        <v>667</v>
+        <v>800</v>
       </c>
       <c r="T163" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="164">
@@ -13480,24 +13480,24 @@
       </c>
       <c r="L164" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M164" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="N164" t="n">
-        <v>6000</v>
+        <v>12000</v>
       </c>
       <c r="O164" t="n">
-        <v>6000</v>
+        <v>12000</v>
       </c>
       <c r="P164" t="n">
-        <v>6000</v>
+        <v>12000</v>
       </c>
       <c r="Q164" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="R164" t="inlineStr">
@@ -13506,10 +13506,10 @@
         </is>
       </c>
       <c r="S164" t="n">
-        <v>600</v>
+        <v>667</v>
       </c>
       <c r="T164" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
     </row>
     <row r="165">
@@ -13564,20 +13564,20 @@
         </is>
       </c>
       <c r="M165" t="n">
-        <v>180</v>
+        <v>200</v>
       </c>
       <c r="N165" t="n">
-        <v>10000</v>
+        <v>6000</v>
       </c>
       <c r="O165" t="n">
-        <v>10000</v>
+        <v>6000</v>
       </c>
       <c r="P165" t="n">
-        <v>10000</v>
+        <v>6000</v>
       </c>
       <c r="Q165" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R165" t="inlineStr">
@@ -13586,10 +13586,10 @@
         </is>
       </c>
       <c r="S165" t="n">
-        <v>556</v>
+        <v>600</v>
       </c>
       <c r="T165" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="166">
@@ -13607,7 +13607,7 @@
         </is>
       </c>
       <c r="D166" s="2" t="n">
-        <v>44357</v>
+        <v>44369</v>
       </c>
       <c r="E166" t="n">
         <v>7</v>
@@ -13640,20 +13640,20 @@
       </c>
       <c r="L166" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M166" t="n">
-        <v>130</v>
+        <v>180</v>
       </c>
       <c r="N166" t="n">
-        <v>13000</v>
+        <v>10000</v>
       </c>
       <c r="O166" t="n">
-        <v>13000</v>
+        <v>10000</v>
       </c>
       <c r="P166" t="n">
-        <v>13000</v>
+        <v>10000</v>
       </c>
       <c r="Q166" t="inlineStr">
         <is>
@@ -13666,7 +13666,7 @@
         </is>
       </c>
       <c r="S166" t="n">
-        <v>722</v>
+        <v>556</v>
       </c>
       <c r="T166" t="n">
         <v>18</v>
@@ -13720,20 +13720,20 @@
       </c>
       <c r="L167" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M167" t="n">
-        <v>190</v>
+        <v>130</v>
       </c>
       <c r="N167" t="n">
-        <v>11000</v>
+        <v>13000</v>
       </c>
       <c r="O167" t="n">
-        <v>11000</v>
+        <v>13000</v>
       </c>
       <c r="P167" t="n">
-        <v>11000</v>
+        <v>13000</v>
       </c>
       <c r="Q167" t="inlineStr">
         <is>
@@ -13746,7 +13746,7 @@
         </is>
       </c>
       <c r="S167" t="n">
-        <v>611</v>
+        <v>722</v>
       </c>
       <c r="T167" t="n">
         <v>18</v>
@@ -13767,7 +13767,7 @@
         </is>
       </c>
       <c r="D168" s="2" t="n">
-        <v>44321</v>
+        <v>44357</v>
       </c>
       <c r="E168" t="n">
         <v>7</v>
@@ -13804,16 +13804,16 @@
         </is>
       </c>
       <c r="M168" t="n">
-        <v>200</v>
+        <v>190</v>
       </c>
       <c r="N168" t="n">
-        <v>13000</v>
+        <v>11000</v>
       </c>
       <c r="O168" t="n">
-        <v>13000</v>
+        <v>11000</v>
       </c>
       <c r="P168" t="n">
-        <v>13000</v>
+        <v>11000</v>
       </c>
       <c r="Q168" t="inlineStr">
         <is>
@@ -13826,7 +13826,7 @@
         </is>
       </c>
       <c r="S168" t="n">
-        <v>722</v>
+        <v>611</v>
       </c>
       <c r="T168" t="n">
         <v>18</v>
@@ -13847,7 +13847,7 @@
         </is>
       </c>
       <c r="D169" s="2" t="n">
-        <v>44397</v>
+        <v>44321</v>
       </c>
       <c r="E169" t="n">
         <v>7</v>
@@ -13880,20 +13880,20 @@
       </c>
       <c r="L169" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M169" t="n">
-        <v>190</v>
+        <v>200</v>
       </c>
       <c r="N169" t="n">
-        <v>14000</v>
+        <v>13000</v>
       </c>
       <c r="O169" t="n">
-        <v>14000</v>
+        <v>13000</v>
       </c>
       <c r="P169" t="n">
-        <v>14000</v>
+        <v>13000</v>
       </c>
       <c r="Q169" t="inlineStr">
         <is>
@@ -13906,7 +13906,7 @@
         </is>
       </c>
       <c r="S169" t="n">
-        <v>778</v>
+        <v>722</v>
       </c>
       <c r="T169" t="n">
         <v>18</v>
@@ -13964,16 +13964,16 @@
         </is>
       </c>
       <c r="M170" t="n">
-        <v>150</v>
+        <v>190</v>
       </c>
       <c r="N170" t="n">
-        <v>13000</v>
+        <v>14000</v>
       </c>
       <c r="O170" t="n">
-        <v>13000</v>
+        <v>14000</v>
       </c>
       <c r="P170" t="n">
-        <v>13000</v>
+        <v>14000</v>
       </c>
       <c r="Q170" t="inlineStr">
         <is>
@@ -13982,11 +13982,11 @@
       </c>
       <c r="R170" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S170" t="n">
-        <v>722</v>
+        <v>778</v>
       </c>
       <c r="T170" t="n">
         <v>18</v>
@@ -14040,20 +14040,20 @@
       </c>
       <c r="L171" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M171" t="n">
-        <v>480</v>
+        <v>150</v>
       </c>
       <c r="N171" t="n">
-        <v>9000</v>
+        <v>13000</v>
       </c>
       <c r="O171" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="P171" t="n">
-        <v>9479</v>
+        <v>13000</v>
       </c>
       <c r="Q171" t="inlineStr">
         <is>
@@ -14062,11 +14062,11 @@
       </c>
       <c r="R171" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S171" t="n">
-        <v>527</v>
+        <v>722</v>
       </c>
       <c r="T171" t="n">
         <v>18</v>
@@ -14087,7 +14087,7 @@
         </is>
       </c>
       <c r="D172" s="2" t="n">
-        <v>44414</v>
+        <v>44397</v>
       </c>
       <c r="E172" t="n">
         <v>7</v>
@@ -14124,20 +14124,20 @@
         </is>
       </c>
       <c r="M172" t="n">
-        <v>150</v>
+        <v>480</v>
       </c>
       <c r="N172" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="O172" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="P172" t="n">
-        <v>8000</v>
+        <v>9479</v>
       </c>
       <c r="Q172" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="R172" t="inlineStr">
@@ -14146,10 +14146,10 @@
         </is>
       </c>
       <c r="S172" t="n">
-        <v>800</v>
+        <v>527</v>
       </c>
       <c r="T172" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
     </row>
     <row r="173">
@@ -14204,20 +14204,20 @@
         </is>
       </c>
       <c r="M173" t="n">
-        <v>190</v>
+        <v>150</v>
       </c>
       <c r="N173" t="n">
-        <v>12000</v>
+        <v>8000</v>
       </c>
       <c r="O173" t="n">
-        <v>12000</v>
+        <v>8000</v>
       </c>
       <c r="P173" t="n">
-        <v>12000</v>
+        <v>8000</v>
       </c>
       <c r="Q173" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R173" t="inlineStr">
@@ -14226,10 +14226,10 @@
         </is>
       </c>
       <c r="S173" t="n">
-        <v>667</v>
+        <v>800</v>
       </c>
       <c r="T173" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="174">
@@ -14280,20 +14280,20 @@
       </c>
       <c r="L174" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M174" t="n">
-        <v>100</v>
+        <v>190</v>
       </c>
       <c r="N174" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="O174" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="P174" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="Q174" t="inlineStr">
         <is>
@@ -14306,7 +14306,7 @@
         </is>
       </c>
       <c r="S174" t="n">
-        <v>556</v>
+        <v>667</v>
       </c>
       <c r="T174" t="n">
         <v>18</v>
@@ -14327,7 +14327,7 @@
         </is>
       </c>
       <c r="D175" s="2" t="n">
-        <v>44333</v>
+        <v>44414</v>
       </c>
       <c r="E175" t="n">
         <v>7</v>
@@ -14360,20 +14360,20 @@
       </c>
       <c r="L175" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M175" t="n">
-        <v>150</v>
+        <v>100</v>
       </c>
       <c r="N175" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="O175" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="P175" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="Q175" t="inlineStr">
         <is>
@@ -14382,11 +14382,11 @@
       </c>
       <c r="R175" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S175" t="n">
-        <v>667</v>
+        <v>556</v>
       </c>
       <c r="T175" t="n">
         <v>18</v>
@@ -14440,20 +14440,20 @@
       </c>
       <c r="L176" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M176" t="n">
-        <v>100</v>
+        <v>150</v>
       </c>
       <c r="N176" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="O176" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="P176" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="Q176" t="inlineStr">
         <is>
@@ -14466,7 +14466,7 @@
         </is>
       </c>
       <c r="S176" t="n">
-        <v>556</v>
+        <v>667</v>
       </c>
       <c r="T176" t="n">
         <v>18</v>
@@ -14487,7 +14487,7 @@
         </is>
       </c>
       <c r="D177" s="2" t="n">
-        <v>44314</v>
+        <v>44333</v>
       </c>
       <c r="E177" t="n">
         <v>7</v>
@@ -14520,36 +14520,36 @@
       </c>
       <c r="L177" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M177" t="n">
-        <v>150</v>
+        <v>100</v>
       </c>
       <c r="N177" t="n">
-        <v>11000</v>
+        <v>10000</v>
       </c>
       <c r="O177" t="n">
-        <v>11000</v>
+        <v>10000</v>
       </c>
       <c r="P177" t="n">
-        <v>11000</v>
+        <v>10000</v>
       </c>
       <c r="Q177" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="R177" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="S177" t="n">
-        <v>1100</v>
+        <v>556</v>
       </c>
       <c r="T177" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
     </row>
     <row r="178">
@@ -14600,20 +14600,20 @@
       </c>
       <c r="L178" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M178" t="n">
-        <v>60</v>
+        <v>150</v>
       </c>
       <c r="N178" t="n">
-        <v>9000</v>
+        <v>11000</v>
       </c>
       <c r="O178" t="n">
-        <v>9000</v>
+        <v>11000</v>
       </c>
       <c r="P178" t="n">
-        <v>9000</v>
+        <v>11000</v>
       </c>
       <c r="Q178" t="inlineStr">
         <is>
@@ -14626,7 +14626,7 @@
         </is>
       </c>
       <c r="S178" t="n">
-        <v>900</v>
+        <v>1100</v>
       </c>
       <c r="T178" t="n">
         <v>10</v>
@@ -14647,7 +14647,7 @@
         </is>
       </c>
       <c r="D179" s="2" t="n">
-        <v>44392</v>
+        <v>44314</v>
       </c>
       <c r="E179" t="n">
         <v>7</v>
@@ -14680,24 +14680,24 @@
       </c>
       <c r="L179" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M179" t="n">
-        <v>200</v>
+        <v>60</v>
       </c>
       <c r="N179" t="n">
-        <v>11000</v>
+        <v>9000</v>
       </c>
       <c r="O179" t="n">
-        <v>11000</v>
+        <v>9000</v>
       </c>
       <c r="P179" t="n">
-        <v>11000</v>
+        <v>9000</v>
       </c>
       <c r="Q179" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R179" t="inlineStr">
@@ -14706,10 +14706,10 @@
         </is>
       </c>
       <c r="S179" t="n">
-        <v>611</v>
+        <v>900</v>
       </c>
       <c r="T179" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="180">
@@ -14760,20 +14760,20 @@
       </c>
       <c r="L180" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M180" t="n">
-        <v>400</v>
+        <v>200</v>
       </c>
       <c r="N180" t="n">
-        <v>9000</v>
+        <v>11000</v>
       </c>
       <c r="O180" t="n">
-        <v>9000</v>
+        <v>11000</v>
       </c>
       <c r="P180" t="n">
-        <v>9000</v>
+        <v>11000</v>
       </c>
       <c r="Q180" t="inlineStr">
         <is>
@@ -14786,7 +14786,7 @@
         </is>
       </c>
       <c r="S180" t="n">
-        <v>500</v>
+        <v>611</v>
       </c>
       <c r="T180" t="n">
         <v>18</v>
@@ -14807,7 +14807,7 @@
         </is>
       </c>
       <c r="D181" s="2" t="n">
-        <v>44425</v>
+        <v>44392</v>
       </c>
       <c r="E181" t="n">
         <v>7</v>
@@ -14840,20 +14840,20 @@
       </c>
       <c r="L181" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M181" t="n">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="N181" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="O181" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="P181" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="Q181" t="inlineStr">
         <is>
@@ -14866,7 +14866,7 @@
         </is>
       </c>
       <c r="S181" t="n">
-        <v>444</v>
+        <v>500</v>
       </c>
       <c r="T181" t="n">
         <v>18</v>
@@ -14887,7 +14887,7 @@
         </is>
       </c>
       <c r="D182" s="2" t="n">
-        <v>44390</v>
+        <v>44425</v>
       </c>
       <c r="E182" t="n">
         <v>7</v>
@@ -14920,20 +14920,20 @@
       </c>
       <c r="L182" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M182" t="n">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="N182" t="n">
-        <v>9000</v>
+        <v>8000</v>
       </c>
       <c r="O182" t="n">
-        <v>9000</v>
+        <v>8000</v>
       </c>
       <c r="P182" t="n">
-        <v>9000</v>
+        <v>8000</v>
       </c>
       <c r="Q182" t="inlineStr">
         <is>
@@ -14946,7 +14946,7 @@
         </is>
       </c>
       <c r="S182" t="n">
-        <v>500</v>
+        <v>444</v>
       </c>
       <c r="T182" t="n">
         <v>18</v>
@@ -14967,7 +14967,7 @@
         </is>
       </c>
       <c r="D183" s="2" t="n">
-        <v>44466</v>
+        <v>44390</v>
       </c>
       <c r="E183" t="n">
         <v>7</v>
@@ -15004,16 +15004,16 @@
         </is>
       </c>
       <c r="M183" t="n">
-        <v>200</v>
+        <v>250</v>
       </c>
       <c r="N183" t="n">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="O183" t="n">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="P183" t="n">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="Q183" t="inlineStr">
         <is>
@@ -15026,7 +15026,7 @@
         </is>
       </c>
       <c r="S183" t="n">
-        <v>556</v>
+        <v>500</v>
       </c>
       <c r="T183" t="n">
         <v>18</v>
@@ -15047,7 +15047,7 @@
         </is>
       </c>
       <c r="D184" s="2" t="n">
-        <v>44438</v>
+        <v>44466</v>
       </c>
       <c r="E184" t="n">
         <v>7</v>
@@ -15080,20 +15080,20 @@
       </c>
       <c r="L184" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M184" t="n">
-        <v>230</v>
+        <v>200</v>
       </c>
       <c r="N184" t="n">
-        <v>13000</v>
+        <v>10000</v>
       </c>
       <c r="O184" t="n">
-        <v>13000</v>
+        <v>10000</v>
       </c>
       <c r="P184" t="n">
-        <v>13000</v>
+        <v>10000</v>
       </c>
       <c r="Q184" t="inlineStr">
         <is>
@@ -15106,7 +15106,7 @@
         </is>
       </c>
       <c r="S184" t="n">
-        <v>722</v>
+        <v>556</v>
       </c>
       <c r="T184" t="n">
         <v>18</v>
@@ -15160,20 +15160,20 @@
       </c>
       <c r="L185" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M185" t="n">
-        <v>300</v>
+        <v>230</v>
       </c>
       <c r="N185" t="n">
-        <v>11000</v>
+        <v>13000</v>
       </c>
       <c r="O185" t="n">
-        <v>11000</v>
+        <v>13000</v>
       </c>
       <c r="P185" t="n">
-        <v>11000</v>
+        <v>13000</v>
       </c>
       <c r="Q185" t="inlineStr">
         <is>
@@ -15186,7 +15186,7 @@
         </is>
       </c>
       <c r="S185" t="n">
-        <v>611</v>
+        <v>722</v>
       </c>
       <c r="T185" t="n">
         <v>18</v>
@@ -15207,7 +15207,7 @@
         </is>
       </c>
       <c r="D186" s="2" t="n">
-        <v>44461</v>
+        <v>44438</v>
       </c>
       <c r="E186" t="n">
         <v>7</v>
@@ -15240,20 +15240,20 @@
       </c>
       <c r="L186" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M186" t="n">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="N186" t="n">
-        <v>12000</v>
+        <v>11000</v>
       </c>
       <c r="O186" t="n">
-        <v>12000</v>
+        <v>11000</v>
       </c>
       <c r="P186" t="n">
-        <v>12000</v>
+        <v>11000</v>
       </c>
       <c r="Q186" t="inlineStr">
         <is>
@@ -15266,7 +15266,7 @@
         </is>
       </c>
       <c r="S186" t="n">
-        <v>667</v>
+        <v>611</v>
       </c>
       <c r="T186" t="n">
         <v>18</v>
@@ -15320,20 +15320,20 @@
       </c>
       <c r="L187" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M187" t="n">
-        <v>150</v>
+        <v>200</v>
       </c>
       <c r="N187" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="O187" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="P187" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="Q187" t="inlineStr">
         <is>
@@ -15346,7 +15346,7 @@
         </is>
       </c>
       <c r="S187" t="n">
-        <v>556</v>
+        <v>667</v>
       </c>
       <c r="T187" t="n">
         <v>18</v>
@@ -15367,7 +15367,7 @@
         </is>
       </c>
       <c r="D188" s="2" t="n">
-        <v>44389</v>
+        <v>44461</v>
       </c>
       <c r="E188" t="n">
         <v>7</v>
@@ -15404,20 +15404,20 @@
         </is>
       </c>
       <c r="M188" t="n">
-        <v>300</v>
+        <v>150</v>
       </c>
       <c r="N188" t="n">
-        <v>6000</v>
+        <v>10000</v>
       </c>
       <c r="O188" t="n">
-        <v>6000</v>
+        <v>10000</v>
       </c>
       <c r="P188" t="n">
-        <v>6000</v>
+        <v>10000</v>
       </c>
       <c r="Q188" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="R188" t="inlineStr">
@@ -15426,10 +15426,10 @@
         </is>
       </c>
       <c r="S188" t="n">
-        <v>600</v>
+        <v>556</v>
       </c>
       <c r="T188" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
     </row>
     <row r="189">
@@ -15447,7 +15447,7 @@
         </is>
       </c>
       <c r="D189" s="2" t="n">
-        <v>44326</v>
+        <v>44389</v>
       </c>
       <c r="E189" t="n">
         <v>7</v>
@@ -15480,24 +15480,24 @@
       </c>
       <c r="L189" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M189" t="n">
-        <v>130</v>
+        <v>300</v>
       </c>
       <c r="N189" t="n">
-        <v>14000</v>
+        <v>6000</v>
       </c>
       <c r="O189" t="n">
-        <v>14000</v>
+        <v>6000</v>
       </c>
       <c r="P189" t="n">
-        <v>14000</v>
+        <v>6000</v>
       </c>
       <c r="Q189" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="R189" t="inlineStr">
@@ -15506,10 +15506,10 @@
         </is>
       </c>
       <c r="S189" t="n">
-        <v>778</v>
+        <v>600</v>
       </c>
       <c r="T189" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="190">
@@ -15560,20 +15560,20 @@
       </c>
       <c r="L190" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M190" t="n">
-        <v>100</v>
+        <v>130</v>
       </c>
       <c r="N190" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="O190" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="P190" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="Q190" t="inlineStr">
         <is>
@@ -15586,7 +15586,7 @@
         </is>
       </c>
       <c r="S190" t="n">
-        <v>667</v>
+        <v>778</v>
       </c>
       <c r="T190" t="n">
         <v>18</v>
@@ -15607,68 +15607,148 @@
         </is>
       </c>
       <c r="D191" s="2" t="n">
+        <v>44326</v>
+      </c>
+      <c r="E191" t="n">
+        <v>7</v>
+      </c>
+      <c r="F191" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G191" t="n">
+        <v>100101</v>
+      </c>
+      <c r="H191" t="inlineStr">
+        <is>
+          <t>Berries</t>
+        </is>
+      </c>
+      <c r="I191" t="n">
+        <v>100101007</v>
+      </c>
+      <c r="J191" t="inlineStr">
+        <is>
+          <t>Kiwi</t>
+        </is>
+      </c>
+      <c r="K191" t="inlineStr">
+        <is>
+          <t>Hayward</t>
+        </is>
+      </c>
+      <c r="L191" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="M191" t="n">
+        <v>100</v>
+      </c>
+      <c r="N191" t="n">
+        <v>12000</v>
+      </c>
+      <c r="O191" t="n">
+        <v>12000</v>
+      </c>
+      <c r="P191" t="n">
+        <v>12000</v>
+      </c>
+      <c r="Q191" t="inlineStr">
+        <is>
+          <t>$/bandeja 18 kilos</t>
+        </is>
+      </c>
+      <c r="R191" t="inlineStr">
+        <is>
+          <t>Provincia de Curicó</t>
+        </is>
+      </c>
+      <c r="S191" t="n">
+        <v>667</v>
+      </c>
+      <c r="T191" t="n">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" t="n">
+        <v>5</v>
+      </c>
+      <c r="B192" t="inlineStr">
+        <is>
+          <t>Macroferia Regional de Talca</t>
+        </is>
+      </c>
+      <c r="C192" t="inlineStr">
+        <is>
+          <t>Maule</t>
+        </is>
+      </c>
+      <c r="D192" s="2" t="n">
         <v>44432</v>
       </c>
-      <c r="E191" t="n">
-        <v>7</v>
-      </c>
-      <c r="F191" t="inlineStr">
-        <is>
-          <t>Fruta</t>
-        </is>
-      </c>
-      <c r="G191" t="n">
-        <v>100101</v>
-      </c>
-      <c r="H191" t="inlineStr">
-        <is>
-          <t>Berries</t>
-        </is>
-      </c>
-      <c r="I191" t="n">
-        <v>100101007</v>
-      </c>
-      <c r="J191" t="inlineStr">
-        <is>
-          <t>Kiwi</t>
-        </is>
-      </c>
-      <c r="K191" t="inlineStr">
-        <is>
-          <t>Hayward</t>
-        </is>
-      </c>
-      <c r="L191" t="inlineStr">
+      <c r="E192" t="n">
+        <v>7</v>
+      </c>
+      <c r="F192" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G192" t="n">
+        <v>100101</v>
+      </c>
+      <c r="H192" t="inlineStr">
+        <is>
+          <t>Berries</t>
+        </is>
+      </c>
+      <c r="I192" t="n">
+        <v>100101007</v>
+      </c>
+      <c r="J192" t="inlineStr">
+        <is>
+          <t>Kiwi</t>
+        </is>
+      </c>
+      <c r="K192" t="inlineStr">
+        <is>
+          <t>Hayward</t>
+        </is>
+      </c>
+      <c r="L192" t="inlineStr">
         <is>
           <t>Especial</t>
         </is>
       </c>
-      <c r="M191" t="n">
+      <c r="M192" t="n">
         <v>210</v>
       </c>
-      <c r="N191" t="n">
+      <c r="N192" t="n">
         <v>14000</v>
       </c>
-      <c r="O191" t="n">
+      <c r="O192" t="n">
         <v>14000</v>
       </c>
-      <c r="P191" t="n">
+      <c r="P192" t="n">
         <v>14000</v>
       </c>
-      <c r="Q191" t="inlineStr">
+      <c r="Q192" t="inlineStr">
         <is>
           <t>$/caja 18 kilos</t>
         </is>
       </c>
-      <c r="R191" t="inlineStr">
-        <is>
-          <t>Provincia de Curicó</t>
-        </is>
-      </c>
-      <c r="S191" t="n">
+      <c r="R192" t="inlineStr">
+        <is>
+          <t>Provincia de Curicó</t>
+        </is>
+      </c>
+      <c r="S192" t="n">
         <v>778</v>
       </c>
-      <c r="T191" t="n">
+      <c r="T192" t="n">
         <v>18</v>
       </c>
     </row>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Macroferia Regional de Talca - Kiwi.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Macroferia Regional de Talca - Kiwi.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T192"/>
+  <dimension ref="A1:T194"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6247,7 +6247,7 @@
         </is>
       </c>
       <c r="D74" s="2" t="n">
-        <v>44308</v>
+        <v>44483</v>
       </c>
       <c r="E74" t="n">
         <v>7</v>
@@ -6280,20 +6280,20 @@
       </c>
       <c r="L74" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M74" t="n">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="N74" t="n">
-        <v>14000</v>
+        <v>18000</v>
       </c>
       <c r="O74" t="n">
-        <v>14000</v>
+        <v>18000</v>
       </c>
       <c r="P74" t="n">
-        <v>14000</v>
+        <v>18000</v>
       </c>
       <c r="Q74" t="inlineStr">
         <is>
@@ -6306,7 +6306,7 @@
         </is>
       </c>
       <c r="S74" t="n">
-        <v>778</v>
+        <v>1000</v>
       </c>
       <c r="T74" t="n">
         <v>18</v>
@@ -6327,7 +6327,7 @@
         </is>
       </c>
       <c r="D75" s="2" t="n">
-        <v>44330</v>
+        <v>44483</v>
       </c>
       <c r="E75" t="n">
         <v>7</v>
@@ -6360,20 +6360,20 @@
       </c>
       <c r="L75" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M75" t="n">
-        <v>300</v>
+        <v>50</v>
       </c>
       <c r="N75" t="n">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="O75" t="n">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="P75" t="n">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="Q75" t="inlineStr">
         <is>
@@ -6386,7 +6386,7 @@
         </is>
       </c>
       <c r="S75" t="n">
-        <v>556</v>
+        <v>833</v>
       </c>
       <c r="T75" t="n">
         <v>18</v>
@@ -6407,7 +6407,7 @@
         </is>
       </c>
       <c r="D76" s="2" t="n">
-        <v>44330</v>
+        <v>44308</v>
       </c>
       <c r="E76" t="n">
         <v>7</v>
@@ -6440,20 +6440,20 @@
       </c>
       <c r="L76" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M76" t="n">
-        <v>180</v>
+        <v>100</v>
       </c>
       <c r="N76" t="n">
-        <v>8000</v>
+        <v>14000</v>
       </c>
       <c r="O76" t="n">
-        <v>8000</v>
+        <v>14000</v>
       </c>
       <c r="P76" t="n">
-        <v>8000</v>
+        <v>14000</v>
       </c>
       <c r="Q76" t="inlineStr">
         <is>
@@ -6466,7 +6466,7 @@
         </is>
       </c>
       <c r="S76" t="n">
-        <v>444</v>
+        <v>778</v>
       </c>
       <c r="T76" t="n">
         <v>18</v>
@@ -6487,7 +6487,7 @@
         </is>
       </c>
       <c r="D77" s="2" t="n">
-        <v>44322</v>
+        <v>44330</v>
       </c>
       <c r="E77" t="n">
         <v>7</v>
@@ -6520,11 +6520,11 @@
       </c>
       <c r="L77" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M77" t="n">
-        <v>210</v>
+        <v>300</v>
       </c>
       <c r="N77" t="n">
         <v>10000</v>
@@ -6537,7 +6537,7 @@
       </c>
       <c r="Q77" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="R77" t="inlineStr">
@@ -6546,10 +6546,10 @@
         </is>
       </c>
       <c r="S77" t="n">
-        <v>1000</v>
+        <v>556</v>
       </c>
       <c r="T77" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
     </row>
     <row r="78">
@@ -6567,7 +6567,7 @@
         </is>
       </c>
       <c r="D78" s="2" t="n">
-        <v>44428</v>
+        <v>44330</v>
       </c>
       <c r="E78" t="n">
         <v>7</v>
@@ -6600,20 +6600,20 @@
       </c>
       <c r="L78" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M78" t="n">
-        <v>230</v>
+        <v>180</v>
       </c>
       <c r="N78" t="n">
-        <v>14000</v>
+        <v>8000</v>
       </c>
       <c r="O78" t="n">
-        <v>14000</v>
+        <v>8000</v>
       </c>
       <c r="P78" t="n">
-        <v>14000</v>
+        <v>8000</v>
       </c>
       <c r="Q78" t="inlineStr">
         <is>
@@ -6626,7 +6626,7 @@
         </is>
       </c>
       <c r="S78" t="n">
-        <v>778</v>
+        <v>444</v>
       </c>
       <c r="T78" t="n">
         <v>18</v>
@@ -6647,7 +6647,7 @@
         </is>
       </c>
       <c r="D79" s="2" t="n">
-        <v>44428</v>
+        <v>44322</v>
       </c>
       <c r="E79" t="n">
         <v>7</v>
@@ -6684,20 +6684,20 @@
         </is>
       </c>
       <c r="M79" t="n">
-        <v>200</v>
+        <v>210</v>
       </c>
       <c r="N79" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="O79" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="P79" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="Q79" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R79" t="inlineStr">
@@ -6706,10 +6706,10 @@
         </is>
       </c>
       <c r="S79" t="n">
-        <v>667</v>
+        <v>1000</v>
       </c>
       <c r="T79" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="80">
@@ -6760,24 +6760,24 @@
       </c>
       <c r="L80" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M80" t="n">
-        <v>120</v>
+        <v>230</v>
       </c>
       <c r="N80" t="n">
-        <v>8000</v>
+        <v>14000</v>
       </c>
       <c r="O80" t="n">
-        <v>8000</v>
+        <v>14000</v>
       </c>
       <c r="P80" t="n">
-        <v>8000</v>
+        <v>14000</v>
       </c>
       <c r="Q80" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="R80" t="inlineStr">
@@ -6786,7 +6786,7 @@
         </is>
       </c>
       <c r="S80" t="n">
-        <v>444</v>
+        <v>778</v>
       </c>
       <c r="T80" t="n">
         <v>18</v>
@@ -6807,7 +6807,7 @@
         </is>
       </c>
       <c r="D81" s="2" t="n">
-        <v>44315</v>
+        <v>44428</v>
       </c>
       <c r="E81" t="n">
         <v>7</v>
@@ -6840,11 +6840,11 @@
       </c>
       <c r="L81" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M81" t="n">
-        <v>140</v>
+        <v>200</v>
       </c>
       <c r="N81" t="n">
         <v>12000</v>
@@ -6857,7 +6857,7 @@
       </c>
       <c r="Q81" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="R81" t="inlineStr">
@@ -6866,10 +6866,10 @@
         </is>
       </c>
       <c r="S81" t="n">
-        <v>1200</v>
+        <v>667</v>
       </c>
       <c r="T81" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
     </row>
     <row r="82">
@@ -6887,7 +6887,7 @@
         </is>
       </c>
       <c r="D82" s="2" t="n">
-        <v>44315</v>
+        <v>44428</v>
       </c>
       <c r="E82" t="n">
         <v>7</v>
@@ -6920,24 +6920,24 @@
       </c>
       <c r="L82" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M82" t="n">
         <v>120</v>
       </c>
       <c r="N82" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="O82" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="P82" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="Q82" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="R82" t="inlineStr">
@@ -6946,10 +6946,10 @@
         </is>
       </c>
       <c r="S82" t="n">
-        <v>1000</v>
+        <v>444</v>
       </c>
       <c r="T82" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
     </row>
     <row r="83">
@@ -7000,20 +7000,20 @@
       </c>
       <c r="L83" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M83" t="n">
-        <v>50</v>
+        <v>140</v>
       </c>
       <c r="N83" t="n">
-        <v>8000</v>
+        <v>12000</v>
       </c>
       <c r="O83" t="n">
-        <v>8000</v>
+        <v>12000</v>
       </c>
       <c r="P83" t="n">
-        <v>8000</v>
+        <v>12000</v>
       </c>
       <c r="Q83" t="inlineStr">
         <is>
@@ -7026,7 +7026,7 @@
         </is>
       </c>
       <c r="S83" t="n">
-        <v>800</v>
+        <v>1200</v>
       </c>
       <c r="T83" t="n">
         <v>10</v>
@@ -7047,7 +7047,7 @@
         </is>
       </c>
       <c r="D84" s="2" t="n">
-        <v>44343</v>
+        <v>44315</v>
       </c>
       <c r="E84" t="n">
         <v>7</v>
@@ -7080,7 +7080,7 @@
       </c>
       <c r="L84" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M84" t="n">
@@ -7097,7 +7097,7 @@
       </c>
       <c r="Q84" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="R84" t="inlineStr">
@@ -7106,10 +7106,10 @@
         </is>
       </c>
       <c r="S84" t="n">
-        <v>556</v>
+        <v>1000</v>
       </c>
       <c r="T84" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="85">
@@ -7127,7 +7127,7 @@
         </is>
       </c>
       <c r="D85" s="2" t="n">
-        <v>44343</v>
+        <v>44315</v>
       </c>
       <c r="E85" t="n">
         <v>7</v>
@@ -7160,24 +7160,24 @@
       </c>
       <c r="L85" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M85" t="n">
-        <v>160</v>
+        <v>50</v>
       </c>
       <c r="N85" t="n">
-        <v>9000</v>
+        <v>8000</v>
       </c>
       <c r="O85" t="n">
-        <v>9000</v>
+        <v>8000</v>
       </c>
       <c r="P85" t="n">
-        <v>9000</v>
+        <v>8000</v>
       </c>
       <c r="Q85" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="R85" t="inlineStr">
@@ -7186,10 +7186,10 @@
         </is>
       </c>
       <c r="S85" t="n">
-        <v>500</v>
+        <v>800</v>
       </c>
       <c r="T85" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="86">
@@ -7207,7 +7207,7 @@
         </is>
       </c>
       <c r="D86" s="2" t="n">
-        <v>44316</v>
+        <v>44343</v>
       </c>
       <c r="E86" t="n">
         <v>7</v>
@@ -7244,20 +7244,20 @@
         </is>
       </c>
       <c r="M86" t="n">
-        <v>160</v>
+        <v>120</v>
       </c>
       <c r="N86" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="O86" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="P86" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="Q86" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="R86" t="inlineStr">
@@ -7266,10 +7266,10 @@
         </is>
       </c>
       <c r="S86" t="n">
-        <v>1200</v>
+        <v>556</v>
       </c>
       <c r="T86" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
     </row>
     <row r="87">
@@ -7287,7 +7287,7 @@
         </is>
       </c>
       <c r="D87" s="2" t="n">
-        <v>44316</v>
+        <v>44343</v>
       </c>
       <c r="E87" t="n">
         <v>7</v>
@@ -7324,20 +7324,20 @@
         </is>
       </c>
       <c r="M87" t="n">
-        <v>200</v>
+        <v>160</v>
       </c>
       <c r="N87" t="n">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="O87" t="n">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="P87" t="n">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="Q87" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="R87" t="inlineStr">
@@ -7346,10 +7346,10 @@
         </is>
       </c>
       <c r="S87" t="n">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="T87" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
     </row>
     <row r="88">
@@ -7400,24 +7400,24 @@
       </c>
       <c r="L88" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M88" t="n">
-        <v>190</v>
+        <v>160</v>
       </c>
       <c r="N88" t="n">
-        <v>13000</v>
+        <v>12000</v>
       </c>
       <c r="O88" t="n">
-        <v>13000</v>
+        <v>12000</v>
       </c>
       <c r="P88" t="n">
-        <v>13000</v>
+        <v>12000</v>
       </c>
       <c r="Q88" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R88" t="inlineStr">
@@ -7426,10 +7426,10 @@
         </is>
       </c>
       <c r="S88" t="n">
-        <v>722</v>
+        <v>1200</v>
       </c>
       <c r="T88" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="89">
@@ -7447,7 +7447,7 @@
         </is>
       </c>
       <c r="D89" s="2" t="n">
-        <v>44356</v>
+        <v>44316</v>
       </c>
       <c r="E89" t="n">
         <v>7</v>
@@ -7480,24 +7480,24 @@
       </c>
       <c r="L89" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M89" t="n">
         <v>200</v>
       </c>
       <c r="N89" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="O89" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="P89" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="Q89" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R89" t="inlineStr">
@@ -7506,10 +7506,10 @@
         </is>
       </c>
       <c r="S89" t="n">
-        <v>667</v>
+        <v>1000</v>
       </c>
       <c r="T89" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="90">
@@ -7527,7 +7527,7 @@
         </is>
       </c>
       <c r="D90" s="2" t="n">
-        <v>44356</v>
+        <v>44316</v>
       </c>
       <c r="E90" t="n">
         <v>7</v>
@@ -7564,20 +7564,20 @@
         </is>
       </c>
       <c r="M90" t="n">
-        <v>140</v>
+        <v>190</v>
       </c>
       <c r="N90" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="O90" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="P90" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="Q90" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="R90" t="inlineStr">
@@ -7586,7 +7586,7 @@
         </is>
       </c>
       <c r="S90" t="n">
-        <v>556</v>
+        <v>722</v>
       </c>
       <c r="T90" t="n">
         <v>18</v>
@@ -7640,20 +7640,20 @@
       </c>
       <c r="L91" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M91" t="n">
-        <v>80</v>
+        <v>200</v>
       </c>
       <c r="N91" t="n">
-        <v>8000</v>
+        <v>12000</v>
       </c>
       <c r="O91" t="n">
-        <v>8000</v>
+        <v>12000</v>
       </c>
       <c r="P91" t="n">
-        <v>8000</v>
+        <v>12000</v>
       </c>
       <c r="Q91" t="inlineStr">
         <is>
@@ -7666,7 +7666,7 @@
         </is>
       </c>
       <c r="S91" t="n">
-        <v>444</v>
+        <v>667</v>
       </c>
       <c r="T91" t="n">
         <v>18</v>
@@ -7687,7 +7687,7 @@
         </is>
       </c>
       <c r="D92" s="2" t="n">
-        <v>44454</v>
+        <v>44356</v>
       </c>
       <c r="E92" t="n">
         <v>7</v>
@@ -7724,16 +7724,16 @@
         </is>
       </c>
       <c r="M92" t="n">
-        <v>100</v>
+        <v>140</v>
       </c>
       <c r="N92" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="O92" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="P92" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="Q92" t="inlineStr">
         <is>
@@ -7746,7 +7746,7 @@
         </is>
       </c>
       <c r="S92" t="n">
-        <v>667</v>
+        <v>556</v>
       </c>
       <c r="T92" t="n">
         <v>18</v>
@@ -7767,7 +7767,7 @@
         </is>
       </c>
       <c r="D93" s="2" t="n">
-        <v>44454</v>
+        <v>44356</v>
       </c>
       <c r="E93" t="n">
         <v>7</v>
@@ -7807,13 +7807,13 @@
         <v>80</v>
       </c>
       <c r="N93" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="O93" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="P93" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="Q93" t="inlineStr">
         <is>
@@ -7826,7 +7826,7 @@
         </is>
       </c>
       <c r="S93" t="n">
-        <v>556</v>
+        <v>444</v>
       </c>
       <c r="T93" t="n">
         <v>18</v>
@@ -7847,7 +7847,7 @@
         </is>
       </c>
       <c r="D94" s="2" t="n">
-        <v>44410</v>
+        <v>44454</v>
       </c>
       <c r="E94" t="n">
         <v>7</v>
@@ -7884,7 +7884,7 @@
         </is>
       </c>
       <c r="M94" t="n">
-        <v>230</v>
+        <v>100</v>
       </c>
       <c r="N94" t="n">
         <v>12000</v>
@@ -7927,7 +7927,7 @@
         </is>
       </c>
       <c r="D95" s="2" t="n">
-        <v>44410</v>
+        <v>44454</v>
       </c>
       <c r="E95" t="n">
         <v>7</v>
@@ -7960,24 +7960,24 @@
       </c>
       <c r="L95" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M95" t="n">
-        <v>230</v>
+        <v>80</v>
       </c>
       <c r="N95" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="O95" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="P95" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="Q95" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="R95" t="inlineStr">
@@ -7986,10 +7986,10 @@
         </is>
       </c>
       <c r="S95" t="n">
-        <v>700</v>
+        <v>556</v>
       </c>
       <c r="T95" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
     </row>
     <row r="96">
@@ -8007,7 +8007,7 @@
         </is>
       </c>
       <c r="D96" s="2" t="n">
-        <v>44403</v>
+        <v>44410</v>
       </c>
       <c r="E96" t="n">
         <v>7</v>
@@ -8044,16 +8044,16 @@
         </is>
       </c>
       <c r="M96" t="n">
-        <v>350</v>
+        <v>230</v>
       </c>
       <c r="N96" t="n">
-        <v>9000</v>
+        <v>12000</v>
       </c>
       <c r="O96" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="P96" t="n">
-        <v>9429</v>
+        <v>12000</v>
       </c>
       <c r="Q96" t="inlineStr">
         <is>
@@ -8066,7 +8066,7 @@
         </is>
       </c>
       <c r="S96" t="n">
-        <v>524</v>
+        <v>667</v>
       </c>
       <c r="T96" t="n">
         <v>18</v>
@@ -8087,7 +8087,7 @@
         </is>
       </c>
       <c r="D97" s="2" t="n">
-        <v>44403</v>
+        <v>44410</v>
       </c>
       <c r="E97" t="n">
         <v>7</v>
@@ -8120,24 +8120,24 @@
       </c>
       <c r="L97" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M97" t="n">
-        <v>250</v>
+        <v>230</v>
       </c>
       <c r="N97" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="O97" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="P97" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="Q97" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="R97" t="inlineStr">
@@ -8146,10 +8146,10 @@
         </is>
       </c>
       <c r="S97" t="n">
-        <v>444</v>
+        <v>700</v>
       </c>
       <c r="T97" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="98">
@@ -8167,7 +8167,7 @@
         </is>
       </c>
       <c r="D98" s="2" t="n">
-        <v>44426</v>
+        <v>44403</v>
       </c>
       <c r="E98" t="n">
         <v>7</v>
@@ -8200,24 +8200,24 @@
       </c>
       <c r="L98" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M98" t="n">
-        <v>100</v>
+        <v>350</v>
       </c>
       <c r="N98" t="n">
-        <v>12000</v>
+        <v>9000</v>
       </c>
       <c r="O98" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="P98" t="n">
-        <v>12000</v>
+        <v>9429</v>
       </c>
       <c r="Q98" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="R98" t="inlineStr">
@@ -8226,7 +8226,7 @@
         </is>
       </c>
       <c r="S98" t="n">
-        <v>667</v>
+        <v>524</v>
       </c>
       <c r="T98" t="n">
         <v>18</v>
@@ -8247,7 +8247,7 @@
         </is>
       </c>
       <c r="D99" s="2" t="n">
-        <v>44426</v>
+        <v>44403</v>
       </c>
       <c r="E99" t="n">
         <v>7</v>
@@ -8280,24 +8280,24 @@
       </c>
       <c r="L99" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M99" t="n">
-        <v>120</v>
+        <v>250</v>
       </c>
       <c r="N99" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="O99" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="P99" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="Q99" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="R99" t="inlineStr">
@@ -8306,7 +8306,7 @@
         </is>
       </c>
       <c r="S99" t="n">
-        <v>556</v>
+        <v>444</v>
       </c>
       <c r="T99" t="n">
         <v>18</v>
@@ -8327,7 +8327,7 @@
         </is>
       </c>
       <c r="D100" s="2" t="n">
-        <v>44469</v>
+        <v>44426</v>
       </c>
       <c r="E100" t="n">
         <v>7</v>
@@ -8364,7 +8364,7 @@
         </is>
       </c>
       <c r="M100" t="n">
-        <v>150</v>
+        <v>100</v>
       </c>
       <c r="N100" t="n">
         <v>12000</v>
@@ -8377,7 +8377,7 @@
       </c>
       <c r="Q100" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="R100" t="inlineStr">
@@ -8407,7 +8407,7 @@
         </is>
       </c>
       <c r="D101" s="2" t="n">
-        <v>44469</v>
+        <v>44426</v>
       </c>
       <c r="E101" t="n">
         <v>7</v>
@@ -8444,7 +8444,7 @@
         </is>
       </c>
       <c r="M101" t="n">
-        <v>200</v>
+        <v>120</v>
       </c>
       <c r="N101" t="n">
         <v>10000</v>
@@ -8457,7 +8457,7 @@
       </c>
       <c r="Q101" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="R101" t="inlineStr">
@@ -8487,7 +8487,7 @@
         </is>
       </c>
       <c r="D102" s="2" t="n">
-        <v>44434</v>
+        <v>44469</v>
       </c>
       <c r="E102" t="n">
         <v>7</v>
@@ -8524,16 +8524,16 @@
         </is>
       </c>
       <c r="M102" t="n">
-        <v>230</v>
+        <v>150</v>
       </c>
       <c r="N102" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="O102" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="P102" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="Q102" t="inlineStr">
         <is>
@@ -8546,7 +8546,7 @@
         </is>
       </c>
       <c r="S102" t="n">
-        <v>778</v>
+        <v>667</v>
       </c>
       <c r="T102" t="n">
         <v>18</v>
@@ -8567,7 +8567,7 @@
         </is>
       </c>
       <c r="D103" s="2" t="n">
-        <v>44434</v>
+        <v>44469</v>
       </c>
       <c r="E103" t="n">
         <v>7</v>
@@ -8600,24 +8600,24 @@
       </c>
       <c r="L103" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M103" t="n">
-        <v>160</v>
+        <v>200</v>
       </c>
       <c r="N103" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="O103" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="P103" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="Q103" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="R103" t="inlineStr">
@@ -8626,10 +8626,10 @@
         </is>
       </c>
       <c r="S103" t="n">
-        <v>800</v>
+        <v>556</v>
       </c>
       <c r="T103" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
     </row>
     <row r="104">
@@ -8680,20 +8680,20 @@
       </c>
       <c r="L104" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M104" t="n">
-        <v>150</v>
+        <v>230</v>
       </c>
       <c r="N104" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="O104" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="P104" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="Q104" t="inlineStr">
         <is>
@@ -8706,7 +8706,7 @@
         </is>
       </c>
       <c r="S104" t="n">
-        <v>667</v>
+        <v>778</v>
       </c>
       <c r="T104" t="n">
         <v>18</v>
@@ -8760,20 +8760,20 @@
       </c>
       <c r="L105" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M105" t="n">
-        <v>230</v>
+        <v>160</v>
       </c>
       <c r="N105" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="O105" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="P105" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="Q105" t="inlineStr">
         <is>
@@ -8786,7 +8786,7 @@
         </is>
       </c>
       <c r="S105" t="n">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="T105" t="n">
         <v>10</v>
@@ -8840,20 +8840,20 @@
       </c>
       <c r="L106" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M106" t="n">
-        <v>120</v>
+        <v>150</v>
       </c>
       <c r="N106" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="O106" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="P106" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="Q106" t="inlineStr">
         <is>
@@ -8866,7 +8866,7 @@
         </is>
       </c>
       <c r="S106" t="n">
-        <v>556</v>
+        <v>667</v>
       </c>
       <c r="T106" t="n">
         <v>18</v>
@@ -8887,7 +8887,7 @@
         </is>
       </c>
       <c r="D107" s="2" t="n">
-        <v>44351</v>
+        <v>44434</v>
       </c>
       <c r="E107" t="n">
         <v>7</v>
@@ -8920,24 +8920,24 @@
       </c>
       <c r="L107" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M107" t="n">
-        <v>260</v>
+        <v>230</v>
       </c>
       <c r="N107" t="n">
-        <v>11000</v>
+        <v>7000</v>
       </c>
       <c r="O107" t="n">
-        <v>11000</v>
+        <v>7000</v>
       </c>
       <c r="P107" t="n">
-        <v>11000</v>
+        <v>7000</v>
       </c>
       <c r="Q107" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="R107" t="inlineStr">
@@ -8946,10 +8946,10 @@
         </is>
       </c>
       <c r="S107" t="n">
-        <v>611</v>
+        <v>700</v>
       </c>
       <c r="T107" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="108">
@@ -8967,7 +8967,7 @@
         </is>
       </c>
       <c r="D108" s="2" t="n">
-        <v>44351</v>
+        <v>44434</v>
       </c>
       <c r="E108" t="n">
         <v>7</v>
@@ -9000,11 +9000,11 @@
       </c>
       <c r="L108" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M108" t="n">
-        <v>200</v>
+        <v>120</v>
       </c>
       <c r="N108" t="n">
         <v>10000</v>
@@ -9080,36 +9080,36 @@
       </c>
       <c r="L109" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M109" t="n">
-        <v>230</v>
+        <v>260</v>
       </c>
       <c r="N109" t="n">
-        <v>8000</v>
+        <v>11000</v>
       </c>
       <c r="O109" t="n">
-        <v>8000</v>
+        <v>11000</v>
       </c>
       <c r="P109" t="n">
-        <v>8000</v>
+        <v>11000</v>
       </c>
       <c r="Q109" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="R109" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S109" t="n">
-        <v>800</v>
+        <v>611</v>
       </c>
       <c r="T109" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
     </row>
     <row r="110">
@@ -9127,7 +9127,7 @@
         </is>
       </c>
       <c r="D110" s="2" t="n">
-        <v>44280</v>
+        <v>44351</v>
       </c>
       <c r="E110" t="n">
         <v>7</v>
@@ -9164,7 +9164,7 @@
         </is>
       </c>
       <c r="M110" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="N110" t="n">
         <v>10000</v>
@@ -9177,7 +9177,7 @@
       </c>
       <c r="Q110" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="R110" t="inlineStr">
@@ -9186,10 +9186,10 @@
         </is>
       </c>
       <c r="S110" t="n">
-        <v>1000</v>
+        <v>556</v>
       </c>
       <c r="T110" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
     </row>
     <row r="111">
@@ -9207,7 +9207,7 @@
         </is>
       </c>
       <c r="D111" s="2" t="n">
-        <v>44280</v>
+        <v>44351</v>
       </c>
       <c r="E111" t="n">
         <v>7</v>
@@ -9240,11 +9240,11 @@
       </c>
       <c r="L111" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M111" t="n">
-        <v>60</v>
+        <v>230</v>
       </c>
       <c r="N111" t="n">
         <v>8000</v>
@@ -9262,7 +9262,7 @@
       </c>
       <c r="R111" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S111" t="n">
@@ -9287,7 +9287,7 @@
         </is>
       </c>
       <c r="D112" s="2" t="n">
-        <v>44445</v>
+        <v>44280</v>
       </c>
       <c r="E112" t="n">
         <v>7</v>
@@ -9324,20 +9324,20 @@
         </is>
       </c>
       <c r="M112" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="N112" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="O112" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="P112" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="Q112" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="R112" t="inlineStr">
@@ -9346,10 +9346,10 @@
         </is>
       </c>
       <c r="S112" t="n">
-        <v>667</v>
+        <v>1000</v>
       </c>
       <c r="T112" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="113">
@@ -9367,7 +9367,7 @@
         </is>
       </c>
       <c r="D113" s="2" t="n">
-        <v>44407</v>
+        <v>44280</v>
       </c>
       <c r="E113" t="n">
         <v>7</v>
@@ -9400,24 +9400,24 @@
       </c>
       <c r="L113" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M113" t="n">
         <v>60</v>
       </c>
       <c r="N113" t="n">
-        <v>13000</v>
+        <v>8000</v>
       </c>
       <c r="O113" t="n">
-        <v>13000</v>
+        <v>8000</v>
       </c>
       <c r="P113" t="n">
-        <v>13000</v>
+        <v>8000</v>
       </c>
       <c r="Q113" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="R113" t="inlineStr">
@@ -9426,10 +9426,10 @@
         </is>
       </c>
       <c r="S113" t="n">
-        <v>722</v>
+        <v>800</v>
       </c>
       <c r="T113" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="114">
@@ -9447,7 +9447,7 @@
         </is>
       </c>
       <c r="D114" s="2" t="n">
-        <v>44407</v>
+        <v>44445</v>
       </c>
       <c r="E114" t="n">
         <v>7</v>
@@ -9484,16 +9484,16 @@
         </is>
       </c>
       <c r="M114" t="n">
-        <v>150</v>
+        <v>200</v>
       </c>
       <c r="N114" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="O114" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="P114" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="Q114" t="inlineStr">
         <is>
@@ -9506,7 +9506,7 @@
         </is>
       </c>
       <c r="S114" t="n">
-        <v>556</v>
+        <v>667</v>
       </c>
       <c r="T114" t="n">
         <v>18</v>
@@ -9560,20 +9560,20 @@
       </c>
       <c r="L115" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M115" t="n">
-        <v>100</v>
+        <v>60</v>
       </c>
       <c r="N115" t="n">
-        <v>8000</v>
+        <v>13000</v>
       </c>
       <c r="O115" t="n">
-        <v>8000</v>
+        <v>13000</v>
       </c>
       <c r="P115" t="n">
-        <v>8000</v>
+        <v>13000</v>
       </c>
       <c r="Q115" t="inlineStr">
         <is>
@@ -9586,7 +9586,7 @@
         </is>
       </c>
       <c r="S115" t="n">
-        <v>444</v>
+        <v>722</v>
       </c>
       <c r="T115" t="n">
         <v>18</v>
@@ -9607,7 +9607,7 @@
         </is>
       </c>
       <c r="D116" s="2" t="n">
-        <v>44358</v>
+        <v>44407</v>
       </c>
       <c r="E116" t="n">
         <v>7</v>
@@ -9640,20 +9640,20 @@
       </c>
       <c r="L116" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M116" t="n">
-        <v>230</v>
+        <v>150</v>
       </c>
       <c r="N116" t="n">
-        <v>13000</v>
+        <v>10000</v>
       </c>
       <c r="O116" t="n">
-        <v>13000</v>
+        <v>10000</v>
       </c>
       <c r="P116" t="n">
-        <v>13000</v>
+        <v>10000</v>
       </c>
       <c r="Q116" t="inlineStr">
         <is>
@@ -9666,7 +9666,7 @@
         </is>
       </c>
       <c r="S116" t="n">
-        <v>722</v>
+        <v>556</v>
       </c>
       <c r="T116" t="n">
         <v>18</v>
@@ -9687,7 +9687,7 @@
         </is>
       </c>
       <c r="D117" s="2" t="n">
-        <v>44358</v>
+        <v>44407</v>
       </c>
       <c r="E117" t="n">
         <v>7</v>
@@ -9720,24 +9720,24 @@
       </c>
       <c r="L117" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M117" t="n">
-        <v>250</v>
+        <v>100</v>
       </c>
       <c r="N117" t="n">
-        <v>9000</v>
+        <v>8000</v>
       </c>
       <c r="O117" t="n">
-        <v>9000</v>
+        <v>8000</v>
       </c>
       <c r="P117" t="n">
-        <v>9000</v>
+        <v>8000</v>
       </c>
       <c r="Q117" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="R117" t="inlineStr">
@@ -9746,10 +9746,10 @@
         </is>
       </c>
       <c r="S117" t="n">
-        <v>900</v>
+        <v>444</v>
       </c>
       <c r="T117" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
     </row>
     <row r="118">
@@ -9800,20 +9800,20 @@
       </c>
       <c r="L118" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M118" t="n">
-        <v>210</v>
+        <v>230</v>
       </c>
       <c r="N118" t="n">
-        <v>11000</v>
+        <v>13000</v>
       </c>
       <c r="O118" t="n">
-        <v>11000</v>
+        <v>13000</v>
       </c>
       <c r="P118" t="n">
-        <v>11000</v>
+        <v>13000</v>
       </c>
       <c r="Q118" t="inlineStr">
         <is>
@@ -9826,7 +9826,7 @@
         </is>
       </c>
       <c r="S118" t="n">
-        <v>611</v>
+        <v>722</v>
       </c>
       <c r="T118" t="n">
         <v>18</v>
@@ -9880,20 +9880,20 @@
       </c>
       <c r="L119" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M119" t="n">
-        <v>200</v>
+        <v>250</v>
       </c>
       <c r="N119" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="O119" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="P119" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="Q119" t="inlineStr">
         <is>
@@ -9906,7 +9906,7 @@
         </is>
       </c>
       <c r="S119" t="n">
-        <v>700</v>
+        <v>900</v>
       </c>
       <c r="T119" t="n">
         <v>10</v>
@@ -9960,20 +9960,20 @@
       </c>
       <c r="L120" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M120" t="n">
-        <v>190</v>
+        <v>210</v>
       </c>
       <c r="N120" t="n">
-        <v>9000</v>
+        <v>11000</v>
       </c>
       <c r="O120" t="n">
-        <v>9000</v>
+        <v>11000</v>
       </c>
       <c r="P120" t="n">
-        <v>9000</v>
+        <v>11000</v>
       </c>
       <c r="Q120" t="inlineStr">
         <is>
@@ -9986,7 +9986,7 @@
         </is>
       </c>
       <c r="S120" t="n">
-        <v>500</v>
+        <v>611</v>
       </c>
       <c r="T120" t="n">
         <v>18</v>
@@ -10007,7 +10007,7 @@
         </is>
       </c>
       <c r="D121" s="2" t="n">
-        <v>44391</v>
+        <v>44358</v>
       </c>
       <c r="E121" t="n">
         <v>7</v>
@@ -10040,24 +10040,24 @@
       </c>
       <c r="L121" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M121" t="n">
         <v>200</v>
       </c>
       <c r="N121" t="n">
-        <v>11000</v>
+        <v>7000</v>
       </c>
       <c r="O121" t="n">
-        <v>11000</v>
+        <v>7000</v>
       </c>
       <c r="P121" t="n">
-        <v>11000</v>
+        <v>7000</v>
       </c>
       <c r="Q121" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="R121" t="inlineStr">
@@ -10066,10 +10066,10 @@
         </is>
       </c>
       <c r="S121" t="n">
-        <v>611</v>
+        <v>700</v>
       </c>
       <c r="T121" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="122">
@@ -10087,7 +10087,7 @@
         </is>
       </c>
       <c r="D122" s="2" t="n">
-        <v>44391</v>
+        <v>44358</v>
       </c>
       <c r="E122" t="n">
         <v>7</v>
@@ -10120,20 +10120,20 @@
       </c>
       <c r="L122" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M122" t="n">
-        <v>250</v>
+        <v>190</v>
       </c>
       <c r="N122" t="n">
-        <v>9500</v>
+        <v>9000</v>
       </c>
       <c r="O122" t="n">
-        <v>9500</v>
+        <v>9000</v>
       </c>
       <c r="P122" t="n">
-        <v>9500</v>
+        <v>9000</v>
       </c>
       <c r="Q122" t="inlineStr">
         <is>
@@ -10146,7 +10146,7 @@
         </is>
       </c>
       <c r="S122" t="n">
-        <v>528</v>
+        <v>500</v>
       </c>
       <c r="T122" t="n">
         <v>18</v>
@@ -10167,7 +10167,7 @@
         </is>
       </c>
       <c r="D123" s="2" t="n">
-        <v>44320</v>
+        <v>44391</v>
       </c>
       <c r="E123" t="n">
         <v>7</v>
@@ -10204,16 +10204,16 @@
         </is>
       </c>
       <c r="M123" t="n">
-        <v>120</v>
+        <v>200</v>
       </c>
       <c r="N123" t="n">
-        <v>13000</v>
+        <v>11000</v>
       </c>
       <c r="O123" t="n">
-        <v>13000</v>
+        <v>11000</v>
       </c>
       <c r="P123" t="n">
-        <v>13000</v>
+        <v>11000</v>
       </c>
       <c r="Q123" t="inlineStr">
         <is>
@@ -10226,7 +10226,7 @@
         </is>
       </c>
       <c r="S123" t="n">
-        <v>722</v>
+        <v>611</v>
       </c>
       <c r="T123" t="n">
         <v>18</v>
@@ -10247,7 +10247,7 @@
         </is>
       </c>
       <c r="D124" s="2" t="n">
-        <v>44320</v>
+        <v>44391</v>
       </c>
       <c r="E124" t="n">
         <v>7</v>
@@ -10280,24 +10280,24 @@
       </c>
       <c r="L124" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M124" t="n">
-        <v>150</v>
+        <v>250</v>
       </c>
       <c r="N124" t="n">
-        <v>10000</v>
+        <v>9500</v>
       </c>
       <c r="O124" t="n">
-        <v>10000</v>
+        <v>9500</v>
       </c>
       <c r="P124" t="n">
-        <v>10000</v>
+        <v>9500</v>
       </c>
       <c r="Q124" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="R124" t="inlineStr">
@@ -10306,10 +10306,10 @@
         </is>
       </c>
       <c r="S124" t="n">
-        <v>1000</v>
+        <v>528</v>
       </c>
       <c r="T124" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
     </row>
     <row r="125">
@@ -10360,24 +10360,24 @@
       </c>
       <c r="L125" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M125" t="n">
-        <v>300</v>
+        <v>120</v>
       </c>
       <c r="N125" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="O125" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="P125" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="Q125" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="R125" t="inlineStr">
@@ -10386,10 +10386,10 @@
         </is>
       </c>
       <c r="S125" t="n">
-        <v>1000</v>
+        <v>722</v>
       </c>
       <c r="T125" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
     </row>
     <row r="126">
@@ -10440,24 +10440,24 @@
       </c>
       <c r="L126" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M126" t="n">
-        <v>100</v>
+        <v>150</v>
       </c>
       <c r="N126" t="n">
-        <v>11000</v>
+        <v>10000</v>
       </c>
       <c r="O126" t="n">
-        <v>11000</v>
+        <v>10000</v>
       </c>
       <c r="P126" t="n">
-        <v>11000</v>
+        <v>10000</v>
       </c>
       <c r="Q126" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="R126" t="inlineStr">
@@ -10466,10 +10466,10 @@
         </is>
       </c>
       <c r="S126" t="n">
-        <v>611</v>
+        <v>1000</v>
       </c>
       <c r="T126" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="127">
@@ -10487,7 +10487,7 @@
         </is>
       </c>
       <c r="D127" s="2" t="n">
-        <v>44349</v>
+        <v>44320</v>
       </c>
       <c r="E127" t="n">
         <v>7</v>
@@ -10520,11 +10520,11 @@
       </c>
       <c r="L127" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M127" t="n">
-        <v>180</v>
+        <v>300</v>
       </c>
       <c r="N127" t="n">
         <v>10000</v>
@@ -10537,7 +10537,7 @@
       </c>
       <c r="Q127" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R127" t="inlineStr">
@@ -10546,10 +10546,10 @@
         </is>
       </c>
       <c r="S127" t="n">
-        <v>556</v>
+        <v>1000</v>
       </c>
       <c r="T127" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="128">
@@ -10567,7 +10567,7 @@
         </is>
       </c>
       <c r="D128" s="2" t="n">
-        <v>44349</v>
+        <v>44320</v>
       </c>
       <c r="E128" t="n">
         <v>7</v>
@@ -10604,16 +10604,16 @@
         </is>
       </c>
       <c r="M128" t="n">
-        <v>230</v>
+        <v>100</v>
       </c>
       <c r="N128" t="n">
-        <v>8000</v>
+        <v>11000</v>
       </c>
       <c r="O128" t="n">
-        <v>8000</v>
+        <v>11000</v>
       </c>
       <c r="P128" t="n">
-        <v>8000</v>
+        <v>11000</v>
       </c>
       <c r="Q128" t="inlineStr">
         <is>
@@ -10626,7 +10626,7 @@
         </is>
       </c>
       <c r="S128" t="n">
-        <v>444</v>
+        <v>611</v>
       </c>
       <c r="T128" t="n">
         <v>18</v>
@@ -10647,7 +10647,7 @@
         </is>
       </c>
       <c r="D129" s="2" t="n">
-        <v>44372</v>
+        <v>44349</v>
       </c>
       <c r="E129" t="n">
         <v>7</v>
@@ -10684,16 +10684,16 @@
         </is>
       </c>
       <c r="M129" t="n">
-        <v>130</v>
+        <v>180</v>
       </c>
       <c r="N129" t="n">
-        <v>11000</v>
+        <v>10000</v>
       </c>
       <c r="O129" t="n">
-        <v>11000</v>
+        <v>10000</v>
       </c>
       <c r="P129" t="n">
-        <v>11000</v>
+        <v>10000</v>
       </c>
       <c r="Q129" t="inlineStr">
         <is>
@@ -10706,7 +10706,7 @@
         </is>
       </c>
       <c r="S129" t="n">
-        <v>611</v>
+        <v>556</v>
       </c>
       <c r="T129" t="n">
         <v>18</v>
@@ -10727,7 +10727,7 @@
         </is>
       </c>
       <c r="D130" s="2" t="n">
-        <v>44372</v>
+        <v>44349</v>
       </c>
       <c r="E130" t="n">
         <v>7</v>
@@ -10764,16 +10764,16 @@
         </is>
       </c>
       <c r="M130" t="n">
-        <v>120</v>
+        <v>230</v>
       </c>
       <c r="N130" t="n">
-        <v>9000</v>
+        <v>8000</v>
       </c>
       <c r="O130" t="n">
-        <v>9000</v>
+        <v>8000</v>
       </c>
       <c r="P130" t="n">
-        <v>9000</v>
+        <v>8000</v>
       </c>
       <c r="Q130" t="inlineStr">
         <is>
@@ -10786,7 +10786,7 @@
         </is>
       </c>
       <c r="S130" t="n">
-        <v>500</v>
+        <v>444</v>
       </c>
       <c r="T130" t="n">
         <v>18</v>
@@ -10840,20 +10840,20 @@
       </c>
       <c r="L131" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M131" t="n">
-        <v>100</v>
+        <v>130</v>
       </c>
       <c r="N131" t="n">
-        <v>7000</v>
+        <v>11000</v>
       </c>
       <c r="O131" t="n">
-        <v>7000</v>
+        <v>11000</v>
       </c>
       <c r="P131" t="n">
-        <v>7000</v>
+        <v>11000</v>
       </c>
       <c r="Q131" t="inlineStr">
         <is>
@@ -10866,7 +10866,7 @@
         </is>
       </c>
       <c r="S131" t="n">
-        <v>389</v>
+        <v>611</v>
       </c>
       <c r="T131" t="n">
         <v>18</v>
@@ -10887,7 +10887,7 @@
         </is>
       </c>
       <c r="D132" s="2" t="n">
-        <v>44350</v>
+        <v>44372</v>
       </c>
       <c r="E132" t="n">
         <v>7</v>
@@ -10920,33 +10920,33 @@
       </c>
       <c r="L132" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M132" t="n">
-        <v>130</v>
+        <v>120</v>
       </c>
       <c r="N132" t="n">
-        <v>11000</v>
+        <v>9000</v>
       </c>
       <c r="O132" t="n">
-        <v>11000</v>
+        <v>9000</v>
       </c>
       <c r="P132" t="n">
-        <v>11000</v>
+        <v>9000</v>
       </c>
       <c r="Q132" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos granel</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="R132" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S132" t="n">
-        <v>611</v>
+        <v>500</v>
       </c>
       <c r="T132" t="n">
         <v>18</v>
@@ -10967,7 +10967,7 @@
         </is>
       </c>
       <c r="D133" s="2" t="n">
-        <v>44350</v>
+        <v>44372</v>
       </c>
       <c r="E133" t="n">
         <v>7</v>
@@ -11000,24 +11000,24 @@
       </c>
       <c r="L133" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M133" t="n">
-        <v>360</v>
+        <v>100</v>
       </c>
       <c r="N133" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="O133" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="P133" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="Q133" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos granel</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="R133" t="inlineStr">
@@ -11026,7 +11026,7 @@
         </is>
       </c>
       <c r="S133" t="n">
-        <v>500</v>
+        <v>389</v>
       </c>
       <c r="T133" t="n">
         <v>18</v>
@@ -11080,20 +11080,20 @@
       </c>
       <c r="L134" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M134" t="n">
-        <v>100</v>
+        <v>130</v>
       </c>
       <c r="N134" t="n">
-        <v>9000</v>
+        <v>11000</v>
       </c>
       <c r="O134" t="n">
-        <v>9000</v>
+        <v>11000</v>
       </c>
       <c r="P134" t="n">
-        <v>9000</v>
+        <v>11000</v>
       </c>
       <c r="Q134" t="inlineStr">
         <is>
@@ -11106,7 +11106,7 @@
         </is>
       </c>
       <c r="S134" t="n">
-        <v>500</v>
+        <v>611</v>
       </c>
       <c r="T134" t="n">
         <v>18</v>
@@ -11160,24 +11160,24 @@
       </c>
       <c r="L135" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M135" t="n">
-        <v>210</v>
+        <v>360</v>
       </c>
       <c r="N135" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="O135" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="P135" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="Q135" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 18 kilos granel</t>
         </is>
       </c>
       <c r="R135" t="inlineStr">
@@ -11186,7 +11186,7 @@
         </is>
       </c>
       <c r="S135" t="n">
-        <v>389</v>
+        <v>500</v>
       </c>
       <c r="T135" t="n">
         <v>18</v>
@@ -11240,20 +11240,20 @@
       </c>
       <c r="L136" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M136" t="n">
-        <v>150</v>
+        <v>100</v>
       </c>
       <c r="N136" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="O136" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="P136" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="Q136" t="inlineStr">
         <is>
@@ -11266,7 +11266,7 @@
         </is>
       </c>
       <c r="S136" t="n">
-        <v>389</v>
+        <v>500</v>
       </c>
       <c r="T136" t="n">
         <v>18</v>
@@ -11287,7 +11287,7 @@
         </is>
       </c>
       <c r="D137" s="2" t="n">
-        <v>44448</v>
+        <v>44350</v>
       </c>
       <c r="E137" t="n">
         <v>7</v>
@@ -11320,24 +11320,24 @@
       </c>
       <c r="L137" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M137" t="n">
-        <v>180</v>
+        <v>210</v>
       </c>
       <c r="N137" t="n">
-        <v>13000</v>
+        <v>7000</v>
       </c>
       <c r="O137" t="n">
-        <v>13000</v>
+        <v>7000</v>
       </c>
       <c r="P137" t="n">
-        <v>13000</v>
+        <v>7000</v>
       </c>
       <c r="Q137" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="R137" t="inlineStr">
@@ -11346,7 +11346,7 @@
         </is>
       </c>
       <c r="S137" t="n">
-        <v>722</v>
+        <v>389</v>
       </c>
       <c r="T137" t="n">
         <v>18</v>
@@ -11367,7 +11367,7 @@
         </is>
       </c>
       <c r="D138" s="2" t="n">
-        <v>44448</v>
+        <v>44350</v>
       </c>
       <c r="E138" t="n">
         <v>7</v>
@@ -11400,33 +11400,33 @@
       </c>
       <c r="L138" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M138" t="n">
-        <v>230</v>
+        <v>150</v>
       </c>
       <c r="N138" t="n">
-        <v>11000</v>
+        <v>7000</v>
       </c>
       <c r="O138" t="n">
-        <v>11000</v>
+        <v>7000</v>
       </c>
       <c r="P138" t="n">
-        <v>11000</v>
+        <v>7000</v>
       </c>
       <c r="Q138" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/caja 18 kilos granel</t>
         </is>
       </c>
       <c r="R138" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S138" t="n">
-        <v>611</v>
+        <v>389</v>
       </c>
       <c r="T138" t="n">
         <v>18</v>
@@ -11447,7 +11447,7 @@
         </is>
       </c>
       <c r="D139" s="2" t="n">
-        <v>44385</v>
+        <v>44448</v>
       </c>
       <c r="E139" t="n">
         <v>7</v>
@@ -11484,20 +11484,20 @@
         </is>
       </c>
       <c r="M139" t="n">
-        <v>230</v>
+        <v>180</v>
       </c>
       <c r="N139" t="n">
-        <v>11000</v>
+        <v>13000</v>
       </c>
       <c r="O139" t="n">
-        <v>11000</v>
+        <v>13000</v>
       </c>
       <c r="P139" t="n">
-        <v>11000</v>
+        <v>13000</v>
       </c>
       <c r="Q139" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="R139" t="inlineStr">
@@ -11506,7 +11506,7 @@
         </is>
       </c>
       <c r="S139" t="n">
-        <v>611</v>
+        <v>722</v>
       </c>
       <c r="T139" t="n">
         <v>18</v>
@@ -11527,7 +11527,7 @@
         </is>
       </c>
       <c r="D140" s="2" t="n">
-        <v>44385</v>
+        <v>44448</v>
       </c>
       <c r="E140" t="n">
         <v>7</v>
@@ -11564,20 +11564,20 @@
         </is>
       </c>
       <c r="M140" t="n">
-        <v>200</v>
+        <v>230</v>
       </c>
       <c r="N140" t="n">
-        <v>9000</v>
+        <v>11000</v>
       </c>
       <c r="O140" t="n">
-        <v>9000</v>
+        <v>11000</v>
       </c>
       <c r="P140" t="n">
-        <v>9000</v>
+        <v>11000</v>
       </c>
       <c r="Q140" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="R140" t="inlineStr">
@@ -11586,7 +11586,7 @@
         </is>
       </c>
       <c r="S140" t="n">
-        <v>500</v>
+        <v>611</v>
       </c>
       <c r="T140" t="n">
         <v>18</v>
@@ -11607,7 +11607,7 @@
         </is>
       </c>
       <c r="D141" s="2" t="n">
-        <v>44452</v>
+        <v>44385</v>
       </c>
       <c r="E141" t="n">
         <v>7</v>
@@ -11640,20 +11640,20 @@
       </c>
       <c r="L141" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M141" t="n">
-        <v>300</v>
+        <v>230</v>
       </c>
       <c r="N141" t="n">
-        <v>12000</v>
+        <v>11000</v>
       </c>
       <c r="O141" t="n">
-        <v>12000</v>
+        <v>11000</v>
       </c>
       <c r="P141" t="n">
-        <v>12000</v>
+        <v>11000</v>
       </c>
       <c r="Q141" t="inlineStr">
         <is>
@@ -11666,7 +11666,7 @@
         </is>
       </c>
       <c r="S141" t="n">
-        <v>667</v>
+        <v>611</v>
       </c>
       <c r="T141" t="n">
         <v>18</v>
@@ -11687,7 +11687,7 @@
         </is>
       </c>
       <c r="D142" s="2" t="n">
-        <v>44453</v>
+        <v>44385</v>
       </c>
       <c r="E142" t="n">
         <v>7</v>
@@ -11724,20 +11724,20 @@
         </is>
       </c>
       <c r="M142" t="n">
-        <v>250</v>
+        <v>200</v>
       </c>
       <c r="N142" t="n">
-        <v>12000</v>
+        <v>9000</v>
       </c>
       <c r="O142" t="n">
-        <v>12000</v>
+        <v>9000</v>
       </c>
       <c r="P142" t="n">
-        <v>12000</v>
+        <v>9000</v>
       </c>
       <c r="Q142" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="R142" t="inlineStr">
@@ -11746,10 +11746,10 @@
         </is>
       </c>
       <c r="S142" t="n">
-        <v>1200</v>
+        <v>500</v>
       </c>
       <c r="T142" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
     </row>
     <row r="143">
@@ -11767,7 +11767,7 @@
         </is>
       </c>
       <c r="D143" s="2" t="n">
-        <v>44435</v>
+        <v>44452</v>
       </c>
       <c r="E143" t="n">
         <v>7</v>
@@ -11800,20 +11800,20 @@
       </c>
       <c r="L143" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M143" t="n">
-        <v>390</v>
+        <v>300</v>
       </c>
       <c r="N143" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="O143" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="P143" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="Q143" t="inlineStr">
         <is>
@@ -11826,7 +11826,7 @@
         </is>
       </c>
       <c r="S143" t="n">
-        <v>778</v>
+        <v>667</v>
       </c>
       <c r="T143" t="n">
         <v>18</v>
@@ -11847,7 +11847,7 @@
         </is>
       </c>
       <c r="D144" s="2" t="n">
-        <v>44435</v>
+        <v>44453</v>
       </c>
       <c r="E144" t="n">
         <v>7</v>
@@ -11880,24 +11880,24 @@
       </c>
       <c r="L144" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M144" t="n">
-        <v>160</v>
+        <v>250</v>
       </c>
       <c r="N144" t="n">
-        <v>8000</v>
+        <v>12000</v>
       </c>
       <c r="O144" t="n">
-        <v>8000</v>
+        <v>12000</v>
       </c>
       <c r="P144" t="n">
-        <v>8000</v>
+        <v>12000</v>
       </c>
       <c r="Q144" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R144" t="inlineStr">
@@ -11906,7 +11906,7 @@
         </is>
       </c>
       <c r="S144" t="n">
-        <v>800</v>
+        <v>1200</v>
       </c>
       <c r="T144" t="n">
         <v>10</v>
@@ -11964,7 +11964,7 @@
         </is>
       </c>
       <c r="M145" t="n">
-        <v>330</v>
+        <v>390</v>
       </c>
       <c r="N145" t="n">
         <v>14000</v>
@@ -11977,7 +11977,7 @@
       </c>
       <c r="Q145" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="R145" t="inlineStr">
@@ -12040,24 +12040,24 @@
       </c>
       <c r="L146" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M146" t="n">
-        <v>250</v>
+        <v>160</v>
       </c>
       <c r="N146" t="n">
-        <v>12000</v>
+        <v>8000</v>
       </c>
       <c r="O146" t="n">
-        <v>12000</v>
+        <v>8000</v>
       </c>
       <c r="P146" t="n">
-        <v>12000</v>
+        <v>8000</v>
       </c>
       <c r="Q146" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="R146" t="inlineStr">
@@ -12066,10 +12066,10 @@
         </is>
       </c>
       <c r="S146" t="n">
-        <v>667</v>
+        <v>800</v>
       </c>
       <c r="T146" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="147">
@@ -12120,24 +12120,24 @@
       </c>
       <c r="L147" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M147" t="n">
-        <v>230</v>
+        <v>330</v>
       </c>
       <c r="N147" t="n">
-        <v>7000</v>
+        <v>14000</v>
       </c>
       <c r="O147" t="n">
-        <v>7000</v>
+        <v>14000</v>
       </c>
       <c r="P147" t="n">
-        <v>7000</v>
+        <v>14000</v>
       </c>
       <c r="Q147" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="R147" t="inlineStr">
@@ -12146,10 +12146,10 @@
         </is>
       </c>
       <c r="S147" t="n">
-        <v>700</v>
+        <v>778</v>
       </c>
       <c r="T147" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
     </row>
     <row r="148">
@@ -12204,7 +12204,7 @@
         </is>
       </c>
       <c r="M148" t="n">
-        <v>180</v>
+        <v>250</v>
       </c>
       <c r="N148" t="n">
         <v>12000</v>
@@ -12217,7 +12217,7 @@
       </c>
       <c r="Q148" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="R148" t="inlineStr">
@@ -12280,24 +12280,24 @@
       </c>
       <c r="L149" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M149" t="n">
-        <v>240</v>
+        <v>230</v>
       </c>
       <c r="N149" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="O149" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="P149" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="Q149" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="R149" t="inlineStr">
@@ -12306,10 +12306,10 @@
         </is>
       </c>
       <c r="S149" t="n">
-        <v>556</v>
+        <v>700</v>
       </c>
       <c r="T149" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="150">
@@ -12327,7 +12327,7 @@
         </is>
       </c>
       <c r="D150" s="2" t="n">
-        <v>44377</v>
+        <v>44435</v>
       </c>
       <c r="E150" t="n">
         <v>7</v>
@@ -12364,20 +12364,20 @@
         </is>
       </c>
       <c r="M150" t="n">
-        <v>150</v>
+        <v>180</v>
       </c>
       <c r="N150" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="O150" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="P150" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="Q150" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="R150" t="inlineStr">
@@ -12386,7 +12386,7 @@
         </is>
       </c>
       <c r="S150" t="n">
-        <v>556</v>
+        <v>667</v>
       </c>
       <c r="T150" t="n">
         <v>18</v>
@@ -12407,7 +12407,7 @@
         </is>
       </c>
       <c r="D151" s="2" t="n">
-        <v>44377</v>
+        <v>44435</v>
       </c>
       <c r="E151" t="n">
         <v>7</v>
@@ -12440,24 +12440,24 @@
       </c>
       <c r="L151" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M151" t="n">
-        <v>210</v>
+        <v>240</v>
       </c>
       <c r="N151" t="n">
-        <v>6000</v>
+        <v>10000</v>
       </c>
       <c r="O151" t="n">
-        <v>6000</v>
+        <v>10000</v>
       </c>
       <c r="P151" t="n">
-        <v>6000</v>
+        <v>10000</v>
       </c>
       <c r="Q151" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="R151" t="inlineStr">
@@ -12466,10 +12466,10 @@
         </is>
       </c>
       <c r="S151" t="n">
-        <v>600</v>
+        <v>556</v>
       </c>
       <c r="T151" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
     </row>
     <row r="152">
@@ -12520,20 +12520,20 @@
       </c>
       <c r="L152" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M152" t="n">
-        <v>100</v>
+        <v>150</v>
       </c>
       <c r="N152" t="n">
-        <v>6000</v>
+        <v>10000</v>
       </c>
       <c r="O152" t="n">
-        <v>6000</v>
+        <v>10000</v>
       </c>
       <c r="P152" t="n">
-        <v>6000</v>
+        <v>10000</v>
       </c>
       <c r="Q152" t="inlineStr">
         <is>
@@ -12546,7 +12546,7 @@
         </is>
       </c>
       <c r="S152" t="n">
-        <v>333</v>
+        <v>556</v>
       </c>
       <c r="T152" t="n">
         <v>18</v>
@@ -12567,7 +12567,7 @@
         </is>
       </c>
       <c r="D153" s="2" t="n">
-        <v>44433</v>
+        <v>44377</v>
       </c>
       <c r="E153" t="n">
         <v>7</v>
@@ -12600,24 +12600,24 @@
       </c>
       <c r="L153" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M153" t="n">
-        <v>120</v>
+        <v>210</v>
       </c>
       <c r="N153" t="n">
-        <v>14000</v>
+        <v>6000</v>
       </c>
       <c r="O153" t="n">
-        <v>14000</v>
+        <v>6000</v>
       </c>
       <c r="P153" t="n">
-        <v>14000</v>
+        <v>6000</v>
       </c>
       <c r="Q153" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="R153" t="inlineStr">
@@ -12626,10 +12626,10 @@
         </is>
       </c>
       <c r="S153" t="n">
-        <v>778</v>
+        <v>600</v>
       </c>
       <c r="T153" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="154">
@@ -12647,7 +12647,7 @@
         </is>
       </c>
       <c r="D154" s="2" t="n">
-        <v>44433</v>
+        <v>44377</v>
       </c>
       <c r="E154" t="n">
         <v>7</v>
@@ -12680,24 +12680,24 @@
       </c>
       <c r="L154" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="M154" t="n">
-        <v>180</v>
+        <v>100</v>
       </c>
       <c r="N154" t="n">
-        <v>12000</v>
+        <v>6000</v>
       </c>
       <c r="O154" t="n">
-        <v>12000</v>
+        <v>6000</v>
       </c>
       <c r="P154" t="n">
-        <v>12000</v>
+        <v>6000</v>
       </c>
       <c r="Q154" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="R154" t="inlineStr">
@@ -12706,7 +12706,7 @@
         </is>
       </c>
       <c r="S154" t="n">
-        <v>667</v>
+        <v>333</v>
       </c>
       <c r="T154" t="n">
         <v>18</v>
@@ -12727,7 +12727,7 @@
         </is>
       </c>
       <c r="D155" s="2" t="n">
-        <v>44386</v>
+        <v>44433</v>
       </c>
       <c r="E155" t="n">
         <v>7</v>
@@ -12760,24 +12760,24 @@
       </c>
       <c r="L155" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M155" t="n">
-        <v>300</v>
+        <v>120</v>
       </c>
       <c r="N155" t="n">
-        <v>6000</v>
+        <v>14000</v>
       </c>
       <c r="O155" t="n">
-        <v>6000</v>
+        <v>14000</v>
       </c>
       <c r="P155" t="n">
-        <v>6000</v>
+        <v>14000</v>
       </c>
       <c r="Q155" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="R155" t="inlineStr">
@@ -12786,10 +12786,10 @@
         </is>
       </c>
       <c r="S155" t="n">
-        <v>600</v>
+        <v>778</v>
       </c>
       <c r="T155" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
     </row>
     <row r="156">
@@ -12807,7 +12807,7 @@
         </is>
       </c>
       <c r="D156" s="2" t="n">
-        <v>44384</v>
+        <v>44433</v>
       </c>
       <c r="E156" t="n">
         <v>7</v>
@@ -12844,20 +12844,20 @@
         </is>
       </c>
       <c r="M156" t="n">
-        <v>500</v>
+        <v>180</v>
       </c>
       <c r="N156" t="n">
-        <v>6000</v>
+        <v>12000</v>
       </c>
       <c r="O156" t="n">
-        <v>6000</v>
+        <v>12000</v>
       </c>
       <c r="P156" t="n">
-        <v>6000</v>
+        <v>12000</v>
       </c>
       <c r="Q156" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="R156" t="inlineStr">
@@ -12866,10 +12866,10 @@
         </is>
       </c>
       <c r="S156" t="n">
-        <v>600</v>
+        <v>667</v>
       </c>
       <c r="T156" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
     </row>
     <row r="157">
@@ -12887,7 +12887,7 @@
         </is>
       </c>
       <c r="D157" s="2" t="n">
-        <v>44263</v>
+        <v>44386</v>
       </c>
       <c r="E157" t="n">
         <v>7</v>
@@ -12924,29 +12924,29 @@
         </is>
       </c>
       <c r="M157" t="n">
-        <v>180</v>
+        <v>300</v>
       </c>
       <c r="N157" t="n">
-        <v>12000</v>
+        <v>6000</v>
       </c>
       <c r="O157" t="n">
-        <v>12000</v>
+        <v>6000</v>
       </c>
       <c r="P157" t="n">
-        <v>12000</v>
+        <v>6000</v>
       </c>
       <c r="Q157" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="R157" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S157" t="n">
-        <v>1200</v>
+        <v>600</v>
       </c>
       <c r="T157" t="n">
         <v>10</v>
@@ -12967,7 +12967,7 @@
         </is>
       </c>
       <c r="D158" s="2" t="n">
-        <v>44363</v>
+        <v>44384</v>
       </c>
       <c r="E158" t="n">
         <v>7</v>
@@ -13004,32 +13004,32 @@
         </is>
       </c>
       <c r="M158" t="n">
-        <v>280</v>
+        <v>500</v>
       </c>
       <c r="N158" t="n">
-        <v>10000</v>
+        <v>6000</v>
       </c>
       <c r="O158" t="n">
-        <v>10000</v>
+        <v>6000</v>
       </c>
       <c r="P158" t="n">
-        <v>10000</v>
+        <v>6000</v>
       </c>
       <c r="Q158" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="R158" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S158" t="n">
-        <v>556</v>
+        <v>600</v>
       </c>
       <c r="T158" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="159">
@@ -13047,7 +13047,7 @@
         </is>
       </c>
       <c r="D159" s="2" t="n">
-        <v>44363</v>
+        <v>44263</v>
       </c>
       <c r="E159" t="n">
         <v>7</v>
@@ -13080,24 +13080,24 @@
       </c>
       <c r="L159" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M159" t="n">
-        <v>300</v>
+        <v>180</v>
       </c>
       <c r="N159" t="n">
-        <v>8000</v>
+        <v>12000</v>
       </c>
       <c r="O159" t="n">
-        <v>8000</v>
+        <v>12000</v>
       </c>
       <c r="P159" t="n">
-        <v>8000</v>
+        <v>12000</v>
       </c>
       <c r="Q159" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R159" t="inlineStr">
@@ -13106,10 +13106,10 @@
         </is>
       </c>
       <c r="S159" t="n">
-        <v>444</v>
+        <v>1200</v>
       </c>
       <c r="T159" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="160">
@@ -13127,7 +13127,7 @@
         </is>
       </c>
       <c r="D160" s="2" t="n">
-        <v>44306</v>
+        <v>44363</v>
       </c>
       <c r="E160" t="n">
         <v>7</v>
@@ -13160,11 +13160,11 @@
       </c>
       <c r="L160" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M160" t="n">
-        <v>230</v>
+        <v>280</v>
       </c>
       <c r="N160" t="n">
         <v>10000</v>
@@ -13177,19 +13177,19 @@
       </c>
       <c r="Q160" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="R160" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S160" t="n">
-        <v>1000</v>
+        <v>556</v>
       </c>
       <c r="T160" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
     </row>
     <row r="161">
@@ -13207,7 +13207,7 @@
         </is>
       </c>
       <c r="D161" s="2" t="n">
-        <v>44306</v>
+        <v>44363</v>
       </c>
       <c r="E161" t="n">
         <v>7</v>
@@ -13240,20 +13240,20 @@
       </c>
       <c r="L161" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M161" t="n">
-        <v>180</v>
+        <v>300</v>
       </c>
       <c r="N161" t="n">
-        <v>13000</v>
+        <v>8000</v>
       </c>
       <c r="O161" t="n">
-        <v>13000</v>
+        <v>8000</v>
       </c>
       <c r="P161" t="n">
-        <v>13000</v>
+        <v>8000</v>
       </c>
       <c r="Q161" t="inlineStr">
         <is>
@@ -13262,11 +13262,11 @@
       </c>
       <c r="R161" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S161" t="n">
-        <v>722</v>
+        <v>444</v>
       </c>
       <c r="T161" t="n">
         <v>18</v>
@@ -13320,20 +13320,20 @@
       </c>
       <c r="L162" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M162" t="n">
         <v>230</v>
       </c>
       <c r="N162" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="O162" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="P162" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="Q162" t="inlineStr">
         <is>
@@ -13346,7 +13346,7 @@
         </is>
       </c>
       <c r="S162" t="n">
-        <v>800</v>
+        <v>1000</v>
       </c>
       <c r="T162" t="n">
         <v>10</v>
@@ -13367,7 +13367,7 @@
         </is>
       </c>
       <c r="D163" s="2" t="n">
-        <v>44369</v>
+        <v>44306</v>
       </c>
       <c r="E163" t="n">
         <v>7</v>
@@ -13404,20 +13404,20 @@
         </is>
       </c>
       <c r="M163" t="n">
-        <v>230</v>
+        <v>180</v>
       </c>
       <c r="N163" t="n">
-        <v>8000</v>
+        <v>13000</v>
       </c>
       <c r="O163" t="n">
-        <v>8000</v>
+        <v>13000</v>
       </c>
       <c r="P163" t="n">
-        <v>8000</v>
+        <v>13000</v>
       </c>
       <c r="Q163" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="R163" t="inlineStr">
@@ -13426,10 +13426,10 @@
         </is>
       </c>
       <c r="S163" t="n">
-        <v>800</v>
+        <v>722</v>
       </c>
       <c r="T163" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
     </row>
     <row r="164">
@@ -13447,7 +13447,7 @@
         </is>
       </c>
       <c r="D164" s="2" t="n">
-        <v>44369</v>
+        <v>44306</v>
       </c>
       <c r="E164" t="n">
         <v>7</v>
@@ -13480,24 +13480,24 @@
       </c>
       <c r="L164" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M164" t="n">
-        <v>100</v>
+        <v>230</v>
       </c>
       <c r="N164" t="n">
-        <v>12000</v>
+        <v>8000</v>
       </c>
       <c r="O164" t="n">
-        <v>12000</v>
+        <v>8000</v>
       </c>
       <c r="P164" t="n">
-        <v>12000</v>
+        <v>8000</v>
       </c>
       <c r="Q164" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R164" t="inlineStr">
@@ -13506,10 +13506,10 @@
         </is>
       </c>
       <c r="S164" t="n">
-        <v>667</v>
+        <v>800</v>
       </c>
       <c r="T164" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="165">
@@ -13560,20 +13560,20 @@
       </c>
       <c r="L165" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M165" t="n">
-        <v>200</v>
+        <v>230</v>
       </c>
       <c r="N165" t="n">
-        <v>6000</v>
+        <v>8000</v>
       </c>
       <c r="O165" t="n">
-        <v>6000</v>
+        <v>8000</v>
       </c>
       <c r="P165" t="n">
-        <v>6000</v>
+        <v>8000</v>
       </c>
       <c r="Q165" t="inlineStr">
         <is>
@@ -13586,7 +13586,7 @@
         </is>
       </c>
       <c r="S165" t="n">
-        <v>600</v>
+        <v>800</v>
       </c>
       <c r="T165" t="n">
         <v>10</v>
@@ -13640,20 +13640,20 @@
       </c>
       <c r="L166" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M166" t="n">
-        <v>180</v>
+        <v>100</v>
       </c>
       <c r="N166" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="O166" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="P166" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="Q166" t="inlineStr">
         <is>
@@ -13666,7 +13666,7 @@
         </is>
       </c>
       <c r="S166" t="n">
-        <v>556</v>
+        <v>667</v>
       </c>
       <c r="T166" t="n">
         <v>18</v>
@@ -13687,7 +13687,7 @@
         </is>
       </c>
       <c r="D167" s="2" t="n">
-        <v>44357</v>
+        <v>44369</v>
       </c>
       <c r="E167" t="n">
         <v>7</v>
@@ -13720,24 +13720,24 @@
       </c>
       <c r="L167" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M167" t="n">
-        <v>130</v>
+        <v>200</v>
       </c>
       <c r="N167" t="n">
-        <v>13000</v>
+        <v>6000</v>
       </c>
       <c r="O167" t="n">
-        <v>13000</v>
+        <v>6000</v>
       </c>
       <c r="P167" t="n">
-        <v>13000</v>
+        <v>6000</v>
       </c>
       <c r="Q167" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R167" t="inlineStr">
@@ -13746,10 +13746,10 @@
         </is>
       </c>
       <c r="S167" t="n">
-        <v>722</v>
+        <v>600</v>
       </c>
       <c r="T167" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="168">
@@ -13767,7 +13767,7 @@
         </is>
       </c>
       <c r="D168" s="2" t="n">
-        <v>44357</v>
+        <v>44369</v>
       </c>
       <c r="E168" t="n">
         <v>7</v>
@@ -13804,16 +13804,16 @@
         </is>
       </c>
       <c r="M168" t="n">
-        <v>190</v>
+        <v>180</v>
       </c>
       <c r="N168" t="n">
-        <v>11000</v>
+        <v>10000</v>
       </c>
       <c r="O168" t="n">
-        <v>11000</v>
+        <v>10000</v>
       </c>
       <c r="P168" t="n">
-        <v>11000</v>
+        <v>10000</v>
       </c>
       <c r="Q168" t="inlineStr">
         <is>
@@ -13826,7 +13826,7 @@
         </is>
       </c>
       <c r="S168" t="n">
-        <v>611</v>
+        <v>556</v>
       </c>
       <c r="T168" t="n">
         <v>18</v>
@@ -13847,7 +13847,7 @@
         </is>
       </c>
       <c r="D169" s="2" t="n">
-        <v>44321</v>
+        <v>44357</v>
       </c>
       <c r="E169" t="n">
         <v>7</v>
@@ -13880,11 +13880,11 @@
       </c>
       <c r="L169" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M169" t="n">
-        <v>200</v>
+        <v>130</v>
       </c>
       <c r="N169" t="n">
         <v>13000</v>
@@ -13927,7 +13927,7 @@
         </is>
       </c>
       <c r="D170" s="2" t="n">
-        <v>44397</v>
+        <v>44357</v>
       </c>
       <c r="E170" t="n">
         <v>7</v>
@@ -13960,20 +13960,20 @@
       </c>
       <c r="L170" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M170" t="n">
         <v>190</v>
       </c>
       <c r="N170" t="n">
-        <v>14000</v>
+        <v>11000</v>
       </c>
       <c r="O170" t="n">
-        <v>14000</v>
+        <v>11000</v>
       </c>
       <c r="P170" t="n">
-        <v>14000</v>
+        <v>11000</v>
       </c>
       <c r="Q170" t="inlineStr">
         <is>
@@ -13986,7 +13986,7 @@
         </is>
       </c>
       <c r="S170" t="n">
-        <v>778</v>
+        <v>611</v>
       </c>
       <c r="T170" t="n">
         <v>18</v>
@@ -14007,7 +14007,7 @@
         </is>
       </c>
       <c r="D171" s="2" t="n">
-        <v>44397</v>
+        <v>44321</v>
       </c>
       <c r="E171" t="n">
         <v>7</v>
@@ -14040,11 +14040,11 @@
       </c>
       <c r="L171" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M171" t="n">
-        <v>150</v>
+        <v>200</v>
       </c>
       <c r="N171" t="n">
         <v>13000</v>
@@ -14062,7 +14062,7 @@
       </c>
       <c r="R171" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S171" t="n">
@@ -14120,20 +14120,20 @@
       </c>
       <c r="L172" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M172" t="n">
-        <v>480</v>
+        <v>190</v>
       </c>
       <c r="N172" t="n">
-        <v>9000</v>
+        <v>14000</v>
       </c>
       <c r="O172" t="n">
-        <v>10000</v>
+        <v>14000</v>
       </c>
       <c r="P172" t="n">
-        <v>9479</v>
+        <v>14000</v>
       </c>
       <c r="Q172" t="inlineStr">
         <is>
@@ -14146,7 +14146,7 @@
         </is>
       </c>
       <c r="S172" t="n">
-        <v>527</v>
+        <v>778</v>
       </c>
       <c r="T172" t="n">
         <v>18</v>
@@ -14167,7 +14167,7 @@
         </is>
       </c>
       <c r="D173" s="2" t="n">
-        <v>44414</v>
+        <v>44397</v>
       </c>
       <c r="E173" t="n">
         <v>7</v>
@@ -14200,36 +14200,36 @@
       </c>
       <c r="L173" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M173" t="n">
         <v>150</v>
       </c>
       <c r="N173" t="n">
-        <v>8000</v>
+        <v>13000</v>
       </c>
       <c r="O173" t="n">
-        <v>8000</v>
+        <v>13000</v>
       </c>
       <c r="P173" t="n">
-        <v>8000</v>
+        <v>13000</v>
       </c>
       <c r="Q173" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="R173" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S173" t="n">
-        <v>800</v>
+        <v>722</v>
       </c>
       <c r="T173" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
     </row>
     <row r="174">
@@ -14247,7 +14247,7 @@
         </is>
       </c>
       <c r="D174" s="2" t="n">
-        <v>44414</v>
+        <v>44397</v>
       </c>
       <c r="E174" t="n">
         <v>7</v>
@@ -14284,16 +14284,16 @@
         </is>
       </c>
       <c r="M174" t="n">
-        <v>190</v>
+        <v>480</v>
       </c>
       <c r="N174" t="n">
-        <v>12000</v>
+        <v>9000</v>
       </c>
       <c r="O174" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="P174" t="n">
-        <v>12000</v>
+        <v>9479</v>
       </c>
       <c r="Q174" t="inlineStr">
         <is>
@@ -14306,7 +14306,7 @@
         </is>
       </c>
       <c r="S174" t="n">
-        <v>667</v>
+        <v>527</v>
       </c>
       <c r="T174" t="n">
         <v>18</v>
@@ -14360,24 +14360,24 @@
       </c>
       <c r="L175" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M175" t="n">
-        <v>100</v>
+        <v>150</v>
       </c>
       <c r="N175" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="O175" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="P175" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="Q175" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R175" t="inlineStr">
@@ -14386,10 +14386,10 @@
         </is>
       </c>
       <c r="S175" t="n">
-        <v>556</v>
+        <v>800</v>
       </c>
       <c r="T175" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="176">
@@ -14407,7 +14407,7 @@
         </is>
       </c>
       <c r="D176" s="2" t="n">
-        <v>44333</v>
+        <v>44414</v>
       </c>
       <c r="E176" t="n">
         <v>7</v>
@@ -14440,11 +14440,11 @@
       </c>
       <c r="L176" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M176" t="n">
-        <v>150</v>
+        <v>190</v>
       </c>
       <c r="N176" t="n">
         <v>12000</v>
@@ -14462,7 +14462,7 @@
       </c>
       <c r="R176" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S176" t="n">
@@ -14487,7 +14487,7 @@
         </is>
       </c>
       <c r="D177" s="2" t="n">
-        <v>44333</v>
+        <v>44414</v>
       </c>
       <c r="E177" t="n">
         <v>7</v>
@@ -14520,7 +14520,7 @@
       </c>
       <c r="L177" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M177" t="n">
@@ -14542,7 +14542,7 @@
       </c>
       <c r="R177" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S177" t="n">
@@ -14567,7 +14567,7 @@
         </is>
       </c>
       <c r="D178" s="2" t="n">
-        <v>44314</v>
+        <v>44333</v>
       </c>
       <c r="E178" t="n">
         <v>7</v>
@@ -14607,29 +14607,29 @@
         <v>150</v>
       </c>
       <c r="N178" t="n">
-        <v>11000</v>
+        <v>12000</v>
       </c>
       <c r="O178" t="n">
-        <v>11000</v>
+        <v>12000</v>
       </c>
       <c r="P178" t="n">
-        <v>11000</v>
+        <v>12000</v>
       </c>
       <c r="Q178" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="R178" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="S178" t="n">
-        <v>1100</v>
+        <v>667</v>
       </c>
       <c r="T178" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
     </row>
     <row r="179">
@@ -14647,7 +14647,7 @@
         </is>
       </c>
       <c r="D179" s="2" t="n">
-        <v>44314</v>
+        <v>44333</v>
       </c>
       <c r="E179" t="n">
         <v>7</v>
@@ -14684,32 +14684,32 @@
         </is>
       </c>
       <c r="M179" t="n">
-        <v>60</v>
+        <v>100</v>
       </c>
       <c r="N179" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="O179" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="P179" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="Q179" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="R179" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="S179" t="n">
-        <v>900</v>
+        <v>556</v>
       </c>
       <c r="T179" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
     </row>
     <row r="180">
@@ -14727,7 +14727,7 @@
         </is>
       </c>
       <c r="D180" s="2" t="n">
-        <v>44392</v>
+        <v>44314</v>
       </c>
       <c r="E180" t="n">
         <v>7</v>
@@ -14764,7 +14764,7 @@
         </is>
       </c>
       <c r="M180" t="n">
-        <v>200</v>
+        <v>150</v>
       </c>
       <c r="N180" t="n">
         <v>11000</v>
@@ -14777,7 +14777,7 @@
       </c>
       <c r="Q180" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R180" t="inlineStr">
@@ -14786,10 +14786,10 @@
         </is>
       </c>
       <c r="S180" t="n">
-        <v>611</v>
+        <v>1100</v>
       </c>
       <c r="T180" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="181">
@@ -14807,7 +14807,7 @@
         </is>
       </c>
       <c r="D181" s="2" t="n">
-        <v>44392</v>
+        <v>44314</v>
       </c>
       <c r="E181" t="n">
         <v>7</v>
@@ -14844,7 +14844,7 @@
         </is>
       </c>
       <c r="M181" t="n">
-        <v>400</v>
+        <v>60</v>
       </c>
       <c r="N181" t="n">
         <v>9000</v>
@@ -14857,7 +14857,7 @@
       </c>
       <c r="Q181" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R181" t="inlineStr">
@@ -14866,10 +14866,10 @@
         </is>
       </c>
       <c r="S181" t="n">
-        <v>500</v>
+        <v>900</v>
       </c>
       <c r="T181" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="182">
@@ -14887,7 +14887,7 @@
         </is>
       </c>
       <c r="D182" s="2" t="n">
-        <v>44425</v>
+        <v>44392</v>
       </c>
       <c r="E182" t="n">
         <v>7</v>
@@ -14920,20 +14920,20 @@
       </c>
       <c r="L182" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M182" t="n">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="N182" t="n">
-        <v>8000</v>
+        <v>11000</v>
       </c>
       <c r="O182" t="n">
-        <v>8000</v>
+        <v>11000</v>
       </c>
       <c r="P182" t="n">
-        <v>8000</v>
+        <v>11000</v>
       </c>
       <c r="Q182" t="inlineStr">
         <is>
@@ -14946,7 +14946,7 @@
         </is>
       </c>
       <c r="S182" t="n">
-        <v>444</v>
+        <v>611</v>
       </c>
       <c r="T182" t="n">
         <v>18</v>
@@ -14967,7 +14967,7 @@
         </is>
       </c>
       <c r="D183" s="2" t="n">
-        <v>44390</v>
+        <v>44392</v>
       </c>
       <c r="E183" t="n">
         <v>7</v>
@@ -15004,7 +15004,7 @@
         </is>
       </c>
       <c r="M183" t="n">
-        <v>250</v>
+        <v>400</v>
       </c>
       <c r="N183" t="n">
         <v>9000</v>
@@ -15047,7 +15047,7 @@
         </is>
       </c>
       <c r="D184" s="2" t="n">
-        <v>44466</v>
+        <v>44425</v>
       </c>
       <c r="E184" t="n">
         <v>7</v>
@@ -15080,20 +15080,20 @@
       </c>
       <c r="L184" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M184" t="n">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="N184" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="O184" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="P184" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="Q184" t="inlineStr">
         <is>
@@ -15106,7 +15106,7 @@
         </is>
       </c>
       <c r="S184" t="n">
-        <v>556</v>
+        <v>444</v>
       </c>
       <c r="T184" t="n">
         <v>18</v>
@@ -15127,7 +15127,7 @@
         </is>
       </c>
       <c r="D185" s="2" t="n">
-        <v>44438</v>
+        <v>44390</v>
       </c>
       <c r="E185" t="n">
         <v>7</v>
@@ -15160,20 +15160,20 @@
       </c>
       <c r="L185" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M185" t="n">
-        <v>230</v>
+        <v>250</v>
       </c>
       <c r="N185" t="n">
-        <v>13000</v>
+        <v>9000</v>
       </c>
       <c r="O185" t="n">
-        <v>13000</v>
+        <v>9000</v>
       </c>
       <c r="P185" t="n">
-        <v>13000</v>
+        <v>9000</v>
       </c>
       <c r="Q185" t="inlineStr">
         <is>
@@ -15186,7 +15186,7 @@
         </is>
       </c>
       <c r="S185" t="n">
-        <v>722</v>
+        <v>500</v>
       </c>
       <c r="T185" t="n">
         <v>18</v>
@@ -15207,7 +15207,7 @@
         </is>
       </c>
       <c r="D186" s="2" t="n">
-        <v>44438</v>
+        <v>44466</v>
       </c>
       <c r="E186" t="n">
         <v>7</v>
@@ -15244,16 +15244,16 @@
         </is>
       </c>
       <c r="M186" t="n">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="N186" t="n">
-        <v>11000</v>
+        <v>10000</v>
       </c>
       <c r="O186" t="n">
-        <v>11000</v>
+        <v>10000</v>
       </c>
       <c r="P186" t="n">
-        <v>11000</v>
+        <v>10000</v>
       </c>
       <c r="Q186" t="inlineStr">
         <is>
@@ -15266,7 +15266,7 @@
         </is>
       </c>
       <c r="S186" t="n">
-        <v>611</v>
+        <v>556</v>
       </c>
       <c r="T186" t="n">
         <v>18</v>
@@ -15287,7 +15287,7 @@
         </is>
       </c>
       <c r="D187" s="2" t="n">
-        <v>44461</v>
+        <v>44438</v>
       </c>
       <c r="E187" t="n">
         <v>7</v>
@@ -15324,16 +15324,16 @@
         </is>
       </c>
       <c r="M187" t="n">
-        <v>200</v>
+        <v>230</v>
       </c>
       <c r="N187" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="O187" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="P187" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="Q187" t="inlineStr">
         <is>
@@ -15346,7 +15346,7 @@
         </is>
       </c>
       <c r="S187" t="n">
-        <v>667</v>
+        <v>722</v>
       </c>
       <c r="T187" t="n">
         <v>18</v>
@@ -15367,7 +15367,7 @@
         </is>
       </c>
       <c r="D188" s="2" t="n">
-        <v>44461</v>
+        <v>44438</v>
       </c>
       <c r="E188" t="n">
         <v>7</v>
@@ -15404,16 +15404,16 @@
         </is>
       </c>
       <c r="M188" t="n">
-        <v>150</v>
+        <v>300</v>
       </c>
       <c r="N188" t="n">
-        <v>10000</v>
+        <v>11000</v>
       </c>
       <c r="O188" t="n">
-        <v>10000</v>
+        <v>11000</v>
       </c>
       <c r="P188" t="n">
-        <v>10000</v>
+        <v>11000</v>
       </c>
       <c r="Q188" t="inlineStr">
         <is>
@@ -15426,7 +15426,7 @@
         </is>
       </c>
       <c r="S188" t="n">
-        <v>556</v>
+        <v>611</v>
       </c>
       <c r="T188" t="n">
         <v>18</v>
@@ -15447,7 +15447,7 @@
         </is>
       </c>
       <c r="D189" s="2" t="n">
-        <v>44389</v>
+        <v>44461</v>
       </c>
       <c r="E189" t="n">
         <v>7</v>
@@ -15480,24 +15480,24 @@
       </c>
       <c r="L189" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M189" t="n">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="N189" t="n">
-        <v>6000</v>
+        <v>12000</v>
       </c>
       <c r="O189" t="n">
-        <v>6000</v>
+        <v>12000</v>
       </c>
       <c r="P189" t="n">
-        <v>6000</v>
+        <v>12000</v>
       </c>
       <c r="Q189" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="R189" t="inlineStr">
@@ -15506,10 +15506,10 @@
         </is>
       </c>
       <c r="S189" t="n">
-        <v>600</v>
+        <v>667</v>
       </c>
       <c r="T189" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
     </row>
     <row r="190">
@@ -15527,7 +15527,7 @@
         </is>
       </c>
       <c r="D190" s="2" t="n">
-        <v>44326</v>
+        <v>44461</v>
       </c>
       <c r="E190" t="n">
         <v>7</v>
@@ -15560,20 +15560,20 @@
       </c>
       <c r="L190" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M190" t="n">
-        <v>130</v>
+        <v>150</v>
       </c>
       <c r="N190" t="n">
-        <v>14000</v>
+        <v>10000</v>
       </c>
       <c r="O190" t="n">
-        <v>14000</v>
+        <v>10000</v>
       </c>
       <c r="P190" t="n">
-        <v>14000</v>
+        <v>10000</v>
       </c>
       <c r="Q190" t="inlineStr">
         <is>
@@ -15586,7 +15586,7 @@
         </is>
       </c>
       <c r="S190" t="n">
-        <v>778</v>
+        <v>556</v>
       </c>
       <c r="T190" t="n">
         <v>18</v>
@@ -15607,7 +15607,7 @@
         </is>
       </c>
       <c r="D191" s="2" t="n">
-        <v>44326</v>
+        <v>44389</v>
       </c>
       <c r="E191" t="n">
         <v>7</v>
@@ -15644,20 +15644,20 @@
         </is>
       </c>
       <c r="M191" t="n">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="N191" t="n">
-        <v>12000</v>
+        <v>6000</v>
       </c>
       <c r="O191" t="n">
-        <v>12000</v>
+        <v>6000</v>
       </c>
       <c r="P191" t="n">
-        <v>12000</v>
+        <v>6000</v>
       </c>
       <c r="Q191" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="R191" t="inlineStr">
@@ -15666,10 +15666,10 @@
         </is>
       </c>
       <c r="S191" t="n">
-        <v>667</v>
+        <v>600</v>
       </c>
       <c r="T191" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="192">
@@ -15687,7 +15687,7 @@
         </is>
       </c>
       <c r="D192" s="2" t="n">
-        <v>44432</v>
+        <v>44326</v>
       </c>
       <c r="E192" t="n">
         <v>7</v>
@@ -15724,7 +15724,7 @@
         </is>
       </c>
       <c r="M192" t="n">
-        <v>210</v>
+        <v>130</v>
       </c>
       <c r="N192" t="n">
         <v>14000</v>
@@ -15737,7 +15737,7 @@
       </c>
       <c r="Q192" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="R192" t="inlineStr">
@@ -15749,6 +15749,166 @@
         <v>778</v>
       </c>
       <c r="T192" t="n">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" t="n">
+        <v>5</v>
+      </c>
+      <c r="B193" t="inlineStr">
+        <is>
+          <t>Macroferia Regional de Talca</t>
+        </is>
+      </c>
+      <c r="C193" t="inlineStr">
+        <is>
+          <t>Maule</t>
+        </is>
+      </c>
+      <c r="D193" s="2" t="n">
+        <v>44326</v>
+      </c>
+      <c r="E193" t="n">
+        <v>7</v>
+      </c>
+      <c r="F193" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G193" t="n">
+        <v>100101</v>
+      </c>
+      <c r="H193" t="inlineStr">
+        <is>
+          <t>Berries</t>
+        </is>
+      </c>
+      <c r="I193" t="n">
+        <v>100101007</v>
+      </c>
+      <c r="J193" t="inlineStr">
+        <is>
+          <t>Kiwi</t>
+        </is>
+      </c>
+      <c r="K193" t="inlineStr">
+        <is>
+          <t>Hayward</t>
+        </is>
+      </c>
+      <c r="L193" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="M193" t="n">
+        <v>100</v>
+      </c>
+      <c r="N193" t="n">
+        <v>12000</v>
+      </c>
+      <c r="O193" t="n">
+        <v>12000</v>
+      </c>
+      <c r="P193" t="n">
+        <v>12000</v>
+      </c>
+      <c r="Q193" t="inlineStr">
+        <is>
+          <t>$/bandeja 18 kilos</t>
+        </is>
+      </c>
+      <c r="R193" t="inlineStr">
+        <is>
+          <t>Provincia de Curicó</t>
+        </is>
+      </c>
+      <c r="S193" t="n">
+        <v>667</v>
+      </c>
+      <c r="T193" t="n">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" t="n">
+        <v>5</v>
+      </c>
+      <c r="B194" t="inlineStr">
+        <is>
+          <t>Macroferia Regional de Talca</t>
+        </is>
+      </c>
+      <c r="C194" t="inlineStr">
+        <is>
+          <t>Maule</t>
+        </is>
+      </c>
+      <c r="D194" s="2" t="n">
+        <v>44432</v>
+      </c>
+      <c r="E194" t="n">
+        <v>7</v>
+      </c>
+      <c r="F194" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G194" t="n">
+        <v>100101</v>
+      </c>
+      <c r="H194" t="inlineStr">
+        <is>
+          <t>Berries</t>
+        </is>
+      </c>
+      <c r="I194" t="n">
+        <v>100101007</v>
+      </c>
+      <c r="J194" t="inlineStr">
+        <is>
+          <t>Kiwi</t>
+        </is>
+      </c>
+      <c r="K194" t="inlineStr">
+        <is>
+          <t>Hayward</t>
+        </is>
+      </c>
+      <c r="L194" t="inlineStr">
+        <is>
+          <t>Especial</t>
+        </is>
+      </c>
+      <c r="M194" t="n">
+        <v>210</v>
+      </c>
+      <c r="N194" t="n">
+        <v>14000</v>
+      </c>
+      <c r="O194" t="n">
+        <v>14000</v>
+      </c>
+      <c r="P194" t="n">
+        <v>14000</v>
+      </c>
+      <c r="Q194" t="inlineStr">
+        <is>
+          <t>$/caja 18 kilos</t>
+        </is>
+      </c>
+      <c r="R194" t="inlineStr">
+        <is>
+          <t>Provincia de Curicó</t>
+        </is>
+      </c>
+      <c r="S194" t="n">
+        <v>778</v>
+      </c>
+      <c r="T194" t="n">
         <v>18</v>
       </c>
     </row>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Macroferia Regional de Talca - Kiwi.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Macroferia Regional de Talca - Kiwi.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T194"/>
+  <dimension ref="A1:T195"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7367,7 +7367,7 @@
         </is>
       </c>
       <c r="D88" s="2" t="n">
-        <v>44316</v>
+        <v>44484</v>
       </c>
       <c r="E88" t="n">
         <v>7</v>
@@ -7400,24 +7400,24 @@
       </c>
       <c r="L88" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M88" t="n">
-        <v>160</v>
+        <v>50</v>
       </c>
       <c r="N88" t="n">
-        <v>12000</v>
+        <v>18000</v>
       </c>
       <c r="O88" t="n">
-        <v>12000</v>
+        <v>18000</v>
       </c>
       <c r="P88" t="n">
-        <v>12000</v>
+        <v>18000</v>
       </c>
       <c r="Q88" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="R88" t="inlineStr">
@@ -7426,10 +7426,10 @@
         </is>
       </c>
       <c r="S88" t="n">
-        <v>1200</v>
+        <v>1000</v>
       </c>
       <c r="T88" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
     </row>
     <row r="89">
@@ -7480,20 +7480,20 @@
       </c>
       <c r="L89" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M89" t="n">
-        <v>200</v>
+        <v>160</v>
       </c>
       <c r="N89" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="O89" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="P89" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="Q89" t="inlineStr">
         <is>
@@ -7506,7 +7506,7 @@
         </is>
       </c>
       <c r="S89" t="n">
-        <v>1000</v>
+        <v>1200</v>
       </c>
       <c r="T89" t="n">
         <v>10</v>
@@ -7564,20 +7564,20 @@
         </is>
       </c>
       <c r="M90" t="n">
-        <v>190</v>
+        <v>200</v>
       </c>
       <c r="N90" t="n">
-        <v>13000</v>
+        <v>10000</v>
       </c>
       <c r="O90" t="n">
-        <v>13000</v>
+        <v>10000</v>
       </c>
       <c r="P90" t="n">
-        <v>13000</v>
+        <v>10000</v>
       </c>
       <c r="Q90" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R90" t="inlineStr">
@@ -7586,10 +7586,10 @@
         </is>
       </c>
       <c r="S90" t="n">
-        <v>722</v>
+        <v>1000</v>
       </c>
       <c r="T90" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="91">
@@ -7607,7 +7607,7 @@
         </is>
       </c>
       <c r="D91" s="2" t="n">
-        <v>44356</v>
+        <v>44316</v>
       </c>
       <c r="E91" t="n">
         <v>7</v>
@@ -7640,24 +7640,24 @@
       </c>
       <c r="L91" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M91" t="n">
-        <v>200</v>
+        <v>190</v>
       </c>
       <c r="N91" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="O91" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="P91" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="Q91" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="R91" t="inlineStr">
@@ -7666,7 +7666,7 @@
         </is>
       </c>
       <c r="S91" t="n">
-        <v>667</v>
+        <v>722</v>
       </c>
       <c r="T91" t="n">
         <v>18</v>
@@ -7720,20 +7720,20 @@
       </c>
       <c r="L92" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M92" t="n">
-        <v>140</v>
+        <v>200</v>
       </c>
       <c r="N92" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="O92" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="P92" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="Q92" t="inlineStr">
         <is>
@@ -7746,7 +7746,7 @@
         </is>
       </c>
       <c r="S92" t="n">
-        <v>556</v>
+        <v>667</v>
       </c>
       <c r="T92" t="n">
         <v>18</v>
@@ -7800,20 +7800,20 @@
       </c>
       <c r="L93" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M93" t="n">
-        <v>80</v>
+        <v>140</v>
       </c>
       <c r="N93" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="O93" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="P93" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="Q93" t="inlineStr">
         <is>
@@ -7826,7 +7826,7 @@
         </is>
       </c>
       <c r="S93" t="n">
-        <v>444</v>
+        <v>556</v>
       </c>
       <c r="T93" t="n">
         <v>18</v>
@@ -7847,7 +7847,7 @@
         </is>
       </c>
       <c r="D94" s="2" t="n">
-        <v>44454</v>
+        <v>44356</v>
       </c>
       <c r="E94" t="n">
         <v>7</v>
@@ -7880,20 +7880,20 @@
       </c>
       <c r="L94" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M94" t="n">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="N94" t="n">
-        <v>12000</v>
+        <v>8000</v>
       </c>
       <c r="O94" t="n">
-        <v>12000</v>
+        <v>8000</v>
       </c>
       <c r="P94" t="n">
-        <v>12000</v>
+        <v>8000</v>
       </c>
       <c r="Q94" t="inlineStr">
         <is>
@@ -7906,7 +7906,7 @@
         </is>
       </c>
       <c r="S94" t="n">
-        <v>667</v>
+        <v>444</v>
       </c>
       <c r="T94" t="n">
         <v>18</v>
@@ -7960,20 +7960,20 @@
       </c>
       <c r="L95" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M95" t="n">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="N95" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="O95" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="P95" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="Q95" t="inlineStr">
         <is>
@@ -7986,7 +7986,7 @@
         </is>
       </c>
       <c r="S95" t="n">
-        <v>556</v>
+        <v>667</v>
       </c>
       <c r="T95" t="n">
         <v>18</v>
@@ -8007,7 +8007,7 @@
         </is>
       </c>
       <c r="D96" s="2" t="n">
-        <v>44410</v>
+        <v>44454</v>
       </c>
       <c r="E96" t="n">
         <v>7</v>
@@ -8040,20 +8040,20 @@
       </c>
       <c r="L96" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M96" t="n">
-        <v>230</v>
+        <v>80</v>
       </c>
       <c r="N96" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="O96" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="P96" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="Q96" t="inlineStr">
         <is>
@@ -8066,7 +8066,7 @@
         </is>
       </c>
       <c r="S96" t="n">
-        <v>667</v>
+        <v>556</v>
       </c>
       <c r="T96" t="n">
         <v>18</v>
@@ -8127,17 +8127,17 @@
         <v>230</v>
       </c>
       <c r="N97" t="n">
-        <v>7000</v>
+        <v>12000</v>
       </c>
       <c r="O97" t="n">
-        <v>7000</v>
+        <v>12000</v>
       </c>
       <c r="P97" t="n">
-        <v>7000</v>
+        <v>12000</v>
       </c>
       <c r="Q97" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="R97" t="inlineStr">
@@ -8146,10 +8146,10 @@
         </is>
       </c>
       <c r="S97" t="n">
-        <v>700</v>
+        <v>667</v>
       </c>
       <c r="T97" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
     </row>
     <row r="98">
@@ -8167,7 +8167,7 @@
         </is>
       </c>
       <c r="D98" s="2" t="n">
-        <v>44403</v>
+        <v>44410</v>
       </c>
       <c r="E98" t="n">
         <v>7</v>
@@ -8204,20 +8204,20 @@
         </is>
       </c>
       <c r="M98" t="n">
-        <v>350</v>
+        <v>230</v>
       </c>
       <c r="N98" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="O98" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="P98" t="n">
-        <v>9429</v>
+        <v>7000</v>
       </c>
       <c r="Q98" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="R98" t="inlineStr">
@@ -8226,10 +8226,10 @@
         </is>
       </c>
       <c r="S98" t="n">
-        <v>524</v>
+        <v>700</v>
       </c>
       <c r="T98" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="99">
@@ -8280,20 +8280,20 @@
       </c>
       <c r="L99" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M99" t="n">
-        <v>250</v>
+        <v>350</v>
       </c>
       <c r="N99" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="O99" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="P99" t="n">
-        <v>8000</v>
+        <v>9429</v>
       </c>
       <c r="Q99" t="inlineStr">
         <is>
@@ -8306,7 +8306,7 @@
         </is>
       </c>
       <c r="S99" t="n">
-        <v>444</v>
+        <v>524</v>
       </c>
       <c r="T99" t="n">
         <v>18</v>
@@ -8327,7 +8327,7 @@
         </is>
       </c>
       <c r="D100" s="2" t="n">
-        <v>44426</v>
+        <v>44403</v>
       </c>
       <c r="E100" t="n">
         <v>7</v>
@@ -8360,24 +8360,24 @@
       </c>
       <c r="L100" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M100" t="n">
-        <v>100</v>
+        <v>250</v>
       </c>
       <c r="N100" t="n">
-        <v>12000</v>
+        <v>8000</v>
       </c>
       <c r="O100" t="n">
-        <v>12000</v>
+        <v>8000</v>
       </c>
       <c r="P100" t="n">
-        <v>12000</v>
+        <v>8000</v>
       </c>
       <c r="Q100" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="R100" t="inlineStr">
@@ -8386,7 +8386,7 @@
         </is>
       </c>
       <c r="S100" t="n">
-        <v>667</v>
+        <v>444</v>
       </c>
       <c r="T100" t="n">
         <v>18</v>
@@ -8440,20 +8440,20 @@
       </c>
       <c r="L101" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M101" t="n">
-        <v>120</v>
+        <v>100</v>
       </c>
       <c r="N101" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="O101" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="P101" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="Q101" t="inlineStr">
         <is>
@@ -8466,7 +8466,7 @@
         </is>
       </c>
       <c r="S101" t="n">
-        <v>556</v>
+        <v>667</v>
       </c>
       <c r="T101" t="n">
         <v>18</v>
@@ -8487,7 +8487,7 @@
         </is>
       </c>
       <c r="D102" s="2" t="n">
-        <v>44469</v>
+        <v>44426</v>
       </c>
       <c r="E102" t="n">
         <v>7</v>
@@ -8520,24 +8520,24 @@
       </c>
       <c r="L102" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M102" t="n">
-        <v>150</v>
+        <v>120</v>
       </c>
       <c r="N102" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="O102" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="P102" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="Q102" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="R102" t="inlineStr">
@@ -8546,7 +8546,7 @@
         </is>
       </c>
       <c r="S102" t="n">
-        <v>667</v>
+        <v>556</v>
       </c>
       <c r="T102" t="n">
         <v>18</v>
@@ -8600,20 +8600,20 @@
       </c>
       <c r="L103" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M103" t="n">
-        <v>200</v>
+        <v>150</v>
       </c>
       <c r="N103" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="O103" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="P103" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="Q103" t="inlineStr">
         <is>
@@ -8626,7 +8626,7 @@
         </is>
       </c>
       <c r="S103" t="n">
-        <v>556</v>
+        <v>667</v>
       </c>
       <c r="T103" t="n">
         <v>18</v>
@@ -8647,7 +8647,7 @@
         </is>
       </c>
       <c r="D104" s="2" t="n">
-        <v>44434</v>
+        <v>44469</v>
       </c>
       <c r="E104" t="n">
         <v>7</v>
@@ -8680,20 +8680,20 @@
       </c>
       <c r="L104" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M104" t="n">
-        <v>230</v>
+        <v>200</v>
       </c>
       <c r="N104" t="n">
-        <v>14000</v>
+        <v>10000</v>
       </c>
       <c r="O104" t="n">
-        <v>14000</v>
+        <v>10000</v>
       </c>
       <c r="P104" t="n">
-        <v>14000</v>
+        <v>10000</v>
       </c>
       <c r="Q104" t="inlineStr">
         <is>
@@ -8706,7 +8706,7 @@
         </is>
       </c>
       <c r="S104" t="n">
-        <v>778</v>
+        <v>556</v>
       </c>
       <c r="T104" t="n">
         <v>18</v>
@@ -8764,20 +8764,20 @@
         </is>
       </c>
       <c r="M105" t="n">
-        <v>160</v>
+        <v>230</v>
       </c>
       <c r="N105" t="n">
-        <v>8000</v>
+        <v>14000</v>
       </c>
       <c r="O105" t="n">
-        <v>8000</v>
+        <v>14000</v>
       </c>
       <c r="P105" t="n">
-        <v>8000</v>
+        <v>14000</v>
       </c>
       <c r="Q105" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="R105" t="inlineStr">
@@ -8786,10 +8786,10 @@
         </is>
       </c>
       <c r="S105" t="n">
-        <v>800</v>
+        <v>778</v>
       </c>
       <c r="T105" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
     </row>
     <row r="106">
@@ -8840,24 +8840,24 @@
       </c>
       <c r="L106" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M106" t="n">
-        <v>150</v>
+        <v>160</v>
       </c>
       <c r="N106" t="n">
-        <v>12000</v>
+        <v>8000</v>
       </c>
       <c r="O106" t="n">
-        <v>12000</v>
+        <v>8000</v>
       </c>
       <c r="P106" t="n">
-        <v>12000</v>
+        <v>8000</v>
       </c>
       <c r="Q106" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="R106" t="inlineStr">
@@ -8866,10 +8866,10 @@
         </is>
       </c>
       <c r="S106" t="n">
-        <v>667</v>
+        <v>800</v>
       </c>
       <c r="T106" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="107">
@@ -8924,20 +8924,20 @@
         </is>
       </c>
       <c r="M107" t="n">
-        <v>230</v>
+        <v>150</v>
       </c>
       <c r="N107" t="n">
-        <v>7000</v>
+        <v>12000</v>
       </c>
       <c r="O107" t="n">
-        <v>7000</v>
+        <v>12000</v>
       </c>
       <c r="P107" t="n">
-        <v>7000</v>
+        <v>12000</v>
       </c>
       <c r="Q107" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="R107" t="inlineStr">
@@ -8946,10 +8946,10 @@
         </is>
       </c>
       <c r="S107" t="n">
-        <v>700</v>
+        <v>667</v>
       </c>
       <c r="T107" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
     </row>
     <row r="108">
@@ -9000,24 +9000,24 @@
       </c>
       <c r="L108" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M108" t="n">
-        <v>120</v>
+        <v>230</v>
       </c>
       <c r="N108" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="O108" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="P108" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="Q108" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="R108" t="inlineStr">
@@ -9026,10 +9026,10 @@
         </is>
       </c>
       <c r="S108" t="n">
-        <v>556</v>
+        <v>700</v>
       </c>
       <c r="T108" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="109">
@@ -9047,7 +9047,7 @@
         </is>
       </c>
       <c r="D109" s="2" t="n">
-        <v>44351</v>
+        <v>44434</v>
       </c>
       <c r="E109" t="n">
         <v>7</v>
@@ -9080,20 +9080,20 @@
       </c>
       <c r="L109" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M109" t="n">
-        <v>260</v>
+        <v>120</v>
       </c>
       <c r="N109" t="n">
-        <v>11000</v>
+        <v>10000</v>
       </c>
       <c r="O109" t="n">
-        <v>11000</v>
+        <v>10000</v>
       </c>
       <c r="P109" t="n">
-        <v>11000</v>
+        <v>10000</v>
       </c>
       <c r="Q109" t="inlineStr">
         <is>
@@ -9106,7 +9106,7 @@
         </is>
       </c>
       <c r="S109" t="n">
-        <v>611</v>
+        <v>556</v>
       </c>
       <c r="T109" t="n">
         <v>18</v>
@@ -9160,20 +9160,20 @@
       </c>
       <c r="L110" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M110" t="n">
-        <v>200</v>
+        <v>260</v>
       </c>
       <c r="N110" t="n">
-        <v>10000</v>
+        <v>11000</v>
       </c>
       <c r="O110" t="n">
-        <v>10000</v>
+        <v>11000</v>
       </c>
       <c r="P110" t="n">
-        <v>10000</v>
+        <v>11000</v>
       </c>
       <c r="Q110" t="inlineStr">
         <is>
@@ -9186,7 +9186,7 @@
         </is>
       </c>
       <c r="S110" t="n">
-        <v>556</v>
+        <v>611</v>
       </c>
       <c r="T110" t="n">
         <v>18</v>
@@ -9244,32 +9244,32 @@
         </is>
       </c>
       <c r="M111" t="n">
-        <v>230</v>
+        <v>200</v>
       </c>
       <c r="N111" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="O111" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="P111" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="Q111" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="R111" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S111" t="n">
-        <v>800</v>
+        <v>556</v>
       </c>
       <c r="T111" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
     </row>
     <row r="112">
@@ -9287,7 +9287,7 @@
         </is>
       </c>
       <c r="D112" s="2" t="n">
-        <v>44280</v>
+        <v>44351</v>
       </c>
       <c r="E112" t="n">
         <v>7</v>
@@ -9324,16 +9324,16 @@
         </is>
       </c>
       <c r="M112" t="n">
-        <v>100</v>
+        <v>230</v>
       </c>
       <c r="N112" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="O112" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="P112" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="Q112" t="inlineStr">
         <is>
@@ -9342,11 +9342,11 @@
       </c>
       <c r="R112" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S112" t="n">
-        <v>1000</v>
+        <v>800</v>
       </c>
       <c r="T112" t="n">
         <v>10</v>
@@ -9400,20 +9400,20 @@
       </c>
       <c r="L113" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M113" t="n">
-        <v>60</v>
+        <v>100</v>
       </c>
       <c r="N113" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="O113" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="P113" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="Q113" t="inlineStr">
         <is>
@@ -9426,7 +9426,7 @@
         </is>
       </c>
       <c r="S113" t="n">
-        <v>800</v>
+        <v>1000</v>
       </c>
       <c r="T113" t="n">
         <v>10</v>
@@ -9447,7 +9447,7 @@
         </is>
       </c>
       <c r="D114" s="2" t="n">
-        <v>44445</v>
+        <v>44280</v>
       </c>
       <c r="E114" t="n">
         <v>7</v>
@@ -9480,24 +9480,24 @@
       </c>
       <c r="L114" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M114" t="n">
-        <v>200</v>
+        <v>60</v>
       </c>
       <c r="N114" t="n">
-        <v>12000</v>
+        <v>8000</v>
       </c>
       <c r="O114" t="n">
-        <v>12000</v>
+        <v>8000</v>
       </c>
       <c r="P114" t="n">
-        <v>12000</v>
+        <v>8000</v>
       </c>
       <c r="Q114" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="R114" t="inlineStr">
@@ -9506,10 +9506,10 @@
         </is>
       </c>
       <c r="S114" t="n">
-        <v>667</v>
+        <v>800</v>
       </c>
       <c r="T114" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="115">
@@ -9527,7 +9527,7 @@
         </is>
       </c>
       <c r="D115" s="2" t="n">
-        <v>44407</v>
+        <v>44445</v>
       </c>
       <c r="E115" t="n">
         <v>7</v>
@@ -9560,20 +9560,20 @@
       </c>
       <c r="L115" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M115" t="n">
-        <v>60</v>
+        <v>200</v>
       </c>
       <c r="N115" t="n">
-        <v>13000</v>
+        <v>12000</v>
       </c>
       <c r="O115" t="n">
-        <v>13000</v>
+        <v>12000</v>
       </c>
       <c r="P115" t="n">
-        <v>13000</v>
+        <v>12000</v>
       </c>
       <c r="Q115" t="inlineStr">
         <is>
@@ -9586,7 +9586,7 @@
         </is>
       </c>
       <c r="S115" t="n">
-        <v>722</v>
+        <v>667</v>
       </c>
       <c r="T115" t="n">
         <v>18</v>
@@ -9640,20 +9640,20 @@
       </c>
       <c r="L116" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M116" t="n">
-        <v>150</v>
+        <v>60</v>
       </c>
       <c r="N116" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="O116" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="P116" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="Q116" t="inlineStr">
         <is>
@@ -9666,7 +9666,7 @@
         </is>
       </c>
       <c r="S116" t="n">
-        <v>556</v>
+        <v>722</v>
       </c>
       <c r="T116" t="n">
         <v>18</v>
@@ -9720,20 +9720,20 @@
       </c>
       <c r="L117" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M117" t="n">
-        <v>100</v>
+        <v>150</v>
       </c>
       <c r="N117" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="O117" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="P117" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="Q117" t="inlineStr">
         <is>
@@ -9746,7 +9746,7 @@
         </is>
       </c>
       <c r="S117" t="n">
-        <v>444</v>
+        <v>556</v>
       </c>
       <c r="T117" t="n">
         <v>18</v>
@@ -9767,7 +9767,7 @@
         </is>
       </c>
       <c r="D118" s="2" t="n">
-        <v>44358</v>
+        <v>44407</v>
       </c>
       <c r="E118" t="n">
         <v>7</v>
@@ -9800,20 +9800,20 @@
       </c>
       <c r="L118" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M118" t="n">
-        <v>230</v>
+        <v>100</v>
       </c>
       <c r="N118" t="n">
-        <v>13000</v>
+        <v>8000</v>
       </c>
       <c r="O118" t="n">
-        <v>13000</v>
+        <v>8000</v>
       </c>
       <c r="P118" t="n">
-        <v>13000</v>
+        <v>8000</v>
       </c>
       <c r="Q118" t="inlineStr">
         <is>
@@ -9826,7 +9826,7 @@
         </is>
       </c>
       <c r="S118" t="n">
-        <v>722</v>
+        <v>444</v>
       </c>
       <c r="T118" t="n">
         <v>18</v>
@@ -9884,20 +9884,20 @@
         </is>
       </c>
       <c r="M119" t="n">
-        <v>250</v>
+        <v>230</v>
       </c>
       <c r="N119" t="n">
-        <v>9000</v>
+        <v>13000</v>
       </c>
       <c r="O119" t="n">
-        <v>9000</v>
+        <v>13000</v>
       </c>
       <c r="P119" t="n">
-        <v>9000</v>
+        <v>13000</v>
       </c>
       <c r="Q119" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="R119" t="inlineStr">
@@ -9906,10 +9906,10 @@
         </is>
       </c>
       <c r="S119" t="n">
-        <v>900</v>
+        <v>722</v>
       </c>
       <c r="T119" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
     </row>
     <row r="120">
@@ -9960,24 +9960,24 @@
       </c>
       <c r="L120" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M120" t="n">
-        <v>210</v>
+        <v>250</v>
       </c>
       <c r="N120" t="n">
-        <v>11000</v>
+        <v>9000</v>
       </c>
       <c r="O120" t="n">
-        <v>11000</v>
+        <v>9000</v>
       </c>
       <c r="P120" t="n">
-        <v>11000</v>
+        <v>9000</v>
       </c>
       <c r="Q120" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="R120" t="inlineStr">
@@ -9986,10 +9986,10 @@
         </is>
       </c>
       <c r="S120" t="n">
-        <v>611</v>
+        <v>900</v>
       </c>
       <c r="T120" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="121">
@@ -10044,20 +10044,20 @@
         </is>
       </c>
       <c r="M121" t="n">
-        <v>200</v>
+        <v>210</v>
       </c>
       <c r="N121" t="n">
-        <v>7000</v>
+        <v>11000</v>
       </c>
       <c r="O121" t="n">
-        <v>7000</v>
+        <v>11000</v>
       </c>
       <c r="P121" t="n">
-        <v>7000</v>
+        <v>11000</v>
       </c>
       <c r="Q121" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="R121" t="inlineStr">
@@ -10066,10 +10066,10 @@
         </is>
       </c>
       <c r="S121" t="n">
-        <v>700</v>
+        <v>611</v>
       </c>
       <c r="T121" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
     </row>
     <row r="122">
@@ -10120,24 +10120,24 @@
       </c>
       <c r="L122" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M122" t="n">
-        <v>190</v>
+        <v>200</v>
       </c>
       <c r="N122" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="O122" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="P122" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="Q122" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="R122" t="inlineStr">
@@ -10146,10 +10146,10 @@
         </is>
       </c>
       <c r="S122" t="n">
-        <v>500</v>
+        <v>700</v>
       </c>
       <c r="T122" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="123">
@@ -10167,7 +10167,7 @@
         </is>
       </c>
       <c r="D123" s="2" t="n">
-        <v>44391</v>
+        <v>44358</v>
       </c>
       <c r="E123" t="n">
         <v>7</v>
@@ -10200,20 +10200,20 @@
       </c>
       <c r="L123" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M123" t="n">
-        <v>200</v>
+        <v>190</v>
       </c>
       <c r="N123" t="n">
-        <v>11000</v>
+        <v>9000</v>
       </c>
       <c r="O123" t="n">
-        <v>11000</v>
+        <v>9000</v>
       </c>
       <c r="P123" t="n">
-        <v>11000</v>
+        <v>9000</v>
       </c>
       <c r="Q123" t="inlineStr">
         <is>
@@ -10226,7 +10226,7 @@
         </is>
       </c>
       <c r="S123" t="n">
-        <v>611</v>
+        <v>500</v>
       </c>
       <c r="T123" t="n">
         <v>18</v>
@@ -10280,20 +10280,20 @@
       </c>
       <c r="L124" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M124" t="n">
-        <v>250</v>
+        <v>200</v>
       </c>
       <c r="N124" t="n">
-        <v>9500</v>
+        <v>11000</v>
       </c>
       <c r="O124" t="n">
-        <v>9500</v>
+        <v>11000</v>
       </c>
       <c r="P124" t="n">
-        <v>9500</v>
+        <v>11000</v>
       </c>
       <c r="Q124" t="inlineStr">
         <is>
@@ -10306,7 +10306,7 @@
         </is>
       </c>
       <c r="S124" t="n">
-        <v>528</v>
+        <v>611</v>
       </c>
       <c r="T124" t="n">
         <v>18</v>
@@ -10327,7 +10327,7 @@
         </is>
       </c>
       <c r="D125" s="2" t="n">
-        <v>44320</v>
+        <v>44391</v>
       </c>
       <c r="E125" t="n">
         <v>7</v>
@@ -10360,20 +10360,20 @@
       </c>
       <c r="L125" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M125" t="n">
-        <v>120</v>
+        <v>250</v>
       </c>
       <c r="N125" t="n">
-        <v>13000</v>
+        <v>9500</v>
       </c>
       <c r="O125" t="n">
-        <v>13000</v>
+        <v>9500</v>
       </c>
       <c r="P125" t="n">
-        <v>13000</v>
+        <v>9500</v>
       </c>
       <c r="Q125" t="inlineStr">
         <is>
@@ -10386,7 +10386,7 @@
         </is>
       </c>
       <c r="S125" t="n">
-        <v>722</v>
+        <v>528</v>
       </c>
       <c r="T125" t="n">
         <v>18</v>
@@ -10444,20 +10444,20 @@
         </is>
       </c>
       <c r="M126" t="n">
-        <v>150</v>
+        <v>120</v>
       </c>
       <c r="N126" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="O126" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="P126" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="Q126" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="R126" t="inlineStr">
@@ -10466,10 +10466,10 @@
         </is>
       </c>
       <c r="S126" t="n">
-        <v>1000</v>
+        <v>722</v>
       </c>
       <c r="T126" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
     </row>
     <row r="127">
@@ -10520,11 +10520,11 @@
       </c>
       <c r="L127" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M127" t="n">
-        <v>300</v>
+        <v>150</v>
       </c>
       <c r="N127" t="n">
         <v>10000</v>
@@ -10537,7 +10537,7 @@
       </c>
       <c r="Q127" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="R127" t="inlineStr">
@@ -10604,20 +10604,20 @@
         </is>
       </c>
       <c r="M128" t="n">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="N128" t="n">
-        <v>11000</v>
+        <v>10000</v>
       </c>
       <c r="O128" t="n">
-        <v>11000</v>
+        <v>10000</v>
       </c>
       <c r="P128" t="n">
-        <v>11000</v>
+        <v>10000</v>
       </c>
       <c r="Q128" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R128" t="inlineStr">
@@ -10626,10 +10626,10 @@
         </is>
       </c>
       <c r="S128" t="n">
-        <v>611</v>
+        <v>1000</v>
       </c>
       <c r="T128" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="129">
@@ -10647,7 +10647,7 @@
         </is>
       </c>
       <c r="D129" s="2" t="n">
-        <v>44349</v>
+        <v>44320</v>
       </c>
       <c r="E129" t="n">
         <v>7</v>
@@ -10680,20 +10680,20 @@
       </c>
       <c r="L129" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M129" t="n">
-        <v>180</v>
+        <v>100</v>
       </c>
       <c r="N129" t="n">
-        <v>10000</v>
+        <v>11000</v>
       </c>
       <c r="O129" t="n">
-        <v>10000</v>
+        <v>11000</v>
       </c>
       <c r="P129" t="n">
-        <v>10000</v>
+        <v>11000</v>
       </c>
       <c r="Q129" t="inlineStr">
         <is>
@@ -10706,7 +10706,7 @@
         </is>
       </c>
       <c r="S129" t="n">
-        <v>556</v>
+        <v>611</v>
       </c>
       <c r="T129" t="n">
         <v>18</v>
@@ -10760,20 +10760,20 @@
       </c>
       <c r="L130" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M130" t="n">
-        <v>230</v>
+        <v>180</v>
       </c>
       <c r="N130" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="O130" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="P130" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="Q130" t="inlineStr">
         <is>
@@ -10786,7 +10786,7 @@
         </is>
       </c>
       <c r="S130" t="n">
-        <v>444</v>
+        <v>556</v>
       </c>
       <c r="T130" t="n">
         <v>18</v>
@@ -10807,7 +10807,7 @@
         </is>
       </c>
       <c r="D131" s="2" t="n">
-        <v>44372</v>
+        <v>44349</v>
       </c>
       <c r="E131" t="n">
         <v>7</v>
@@ -10840,20 +10840,20 @@
       </c>
       <c r="L131" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M131" t="n">
-        <v>130</v>
+        <v>230</v>
       </c>
       <c r="N131" t="n">
-        <v>11000</v>
+        <v>8000</v>
       </c>
       <c r="O131" t="n">
-        <v>11000</v>
+        <v>8000</v>
       </c>
       <c r="P131" t="n">
-        <v>11000</v>
+        <v>8000</v>
       </c>
       <c r="Q131" t="inlineStr">
         <is>
@@ -10866,7 +10866,7 @@
         </is>
       </c>
       <c r="S131" t="n">
-        <v>611</v>
+        <v>444</v>
       </c>
       <c r="T131" t="n">
         <v>18</v>
@@ -10920,20 +10920,20 @@
       </c>
       <c r="L132" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M132" t="n">
-        <v>120</v>
+        <v>130</v>
       </c>
       <c r="N132" t="n">
-        <v>9000</v>
+        <v>11000</v>
       </c>
       <c r="O132" t="n">
-        <v>9000</v>
+        <v>11000</v>
       </c>
       <c r="P132" t="n">
-        <v>9000</v>
+        <v>11000</v>
       </c>
       <c r="Q132" t="inlineStr">
         <is>
@@ -10946,7 +10946,7 @@
         </is>
       </c>
       <c r="S132" t="n">
-        <v>500</v>
+        <v>611</v>
       </c>
       <c r="T132" t="n">
         <v>18</v>
@@ -11000,20 +11000,20 @@
       </c>
       <c r="L133" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M133" t="n">
-        <v>100</v>
+        <v>120</v>
       </c>
       <c r="N133" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="O133" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="P133" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="Q133" t="inlineStr">
         <is>
@@ -11026,7 +11026,7 @@
         </is>
       </c>
       <c r="S133" t="n">
-        <v>389</v>
+        <v>500</v>
       </c>
       <c r="T133" t="n">
         <v>18</v>
@@ -11047,7 +11047,7 @@
         </is>
       </c>
       <c r="D134" s="2" t="n">
-        <v>44350</v>
+        <v>44372</v>
       </c>
       <c r="E134" t="n">
         <v>7</v>
@@ -11080,33 +11080,33 @@
       </c>
       <c r="L134" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M134" t="n">
-        <v>130</v>
+        <v>100</v>
       </c>
       <c r="N134" t="n">
-        <v>11000</v>
+        <v>7000</v>
       </c>
       <c r="O134" t="n">
-        <v>11000</v>
+        <v>7000</v>
       </c>
       <c r="P134" t="n">
-        <v>11000</v>
+        <v>7000</v>
       </c>
       <c r="Q134" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos granel</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="R134" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S134" t="n">
-        <v>611</v>
+        <v>389</v>
       </c>
       <c r="T134" t="n">
         <v>18</v>
@@ -11160,20 +11160,20 @@
       </c>
       <c r="L135" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M135" t="n">
-        <v>360</v>
+        <v>130</v>
       </c>
       <c r="N135" t="n">
-        <v>9000</v>
+        <v>11000</v>
       </c>
       <c r="O135" t="n">
-        <v>9000</v>
+        <v>11000</v>
       </c>
       <c r="P135" t="n">
-        <v>9000</v>
+        <v>11000</v>
       </c>
       <c r="Q135" t="inlineStr">
         <is>
@@ -11182,11 +11182,11 @@
       </c>
       <c r="R135" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S135" t="n">
-        <v>500</v>
+        <v>611</v>
       </c>
       <c r="T135" t="n">
         <v>18</v>
@@ -11244,7 +11244,7 @@
         </is>
       </c>
       <c r="M136" t="n">
-        <v>100</v>
+        <v>360</v>
       </c>
       <c r="N136" t="n">
         <v>9000</v>
@@ -11262,7 +11262,7 @@
       </c>
       <c r="R136" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S136" t="n">
@@ -11320,33 +11320,33 @@
       </c>
       <c r="L137" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M137" t="n">
-        <v>210</v>
+        <v>100</v>
       </c>
       <c r="N137" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="O137" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="P137" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="Q137" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 18 kilos granel</t>
         </is>
       </c>
       <c r="R137" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S137" t="n">
-        <v>389</v>
+        <v>500</v>
       </c>
       <c r="T137" t="n">
         <v>18</v>
@@ -11404,7 +11404,7 @@
         </is>
       </c>
       <c r="M138" t="n">
-        <v>150</v>
+        <v>210</v>
       </c>
       <c r="N138" t="n">
         <v>7000</v>
@@ -11417,12 +11417,12 @@
       </c>
       <c r="Q138" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos granel</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="R138" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S138" t="n">
@@ -11447,7 +11447,7 @@
         </is>
       </c>
       <c r="D139" s="2" t="n">
-        <v>44448</v>
+        <v>44350</v>
       </c>
       <c r="E139" t="n">
         <v>7</v>
@@ -11480,33 +11480,33 @@
       </c>
       <c r="L139" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M139" t="n">
-        <v>180</v>
+        <v>150</v>
       </c>
       <c r="N139" t="n">
-        <v>13000</v>
+        <v>7000</v>
       </c>
       <c r="O139" t="n">
-        <v>13000</v>
+        <v>7000</v>
       </c>
       <c r="P139" t="n">
-        <v>13000</v>
+        <v>7000</v>
       </c>
       <c r="Q139" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/caja 18 kilos granel</t>
         </is>
       </c>
       <c r="R139" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S139" t="n">
-        <v>722</v>
+        <v>389</v>
       </c>
       <c r="T139" t="n">
         <v>18</v>
@@ -11560,20 +11560,20 @@
       </c>
       <c r="L140" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M140" t="n">
-        <v>230</v>
+        <v>180</v>
       </c>
       <c r="N140" t="n">
-        <v>11000</v>
+        <v>13000</v>
       </c>
       <c r="O140" t="n">
-        <v>11000</v>
+        <v>13000</v>
       </c>
       <c r="P140" t="n">
-        <v>11000</v>
+        <v>13000</v>
       </c>
       <c r="Q140" t="inlineStr">
         <is>
@@ -11586,7 +11586,7 @@
         </is>
       </c>
       <c r="S140" t="n">
-        <v>611</v>
+        <v>722</v>
       </c>
       <c r="T140" t="n">
         <v>18</v>
@@ -11607,7 +11607,7 @@
         </is>
       </c>
       <c r="D141" s="2" t="n">
-        <v>44385</v>
+        <v>44448</v>
       </c>
       <c r="E141" t="n">
         <v>7</v>
@@ -11640,7 +11640,7 @@
       </c>
       <c r="L141" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M141" t="n">
@@ -11657,7 +11657,7 @@
       </c>
       <c r="Q141" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="R141" t="inlineStr">
@@ -11720,20 +11720,20 @@
       </c>
       <c r="L142" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M142" t="n">
-        <v>200</v>
+        <v>230</v>
       </c>
       <c r="N142" t="n">
-        <v>9000</v>
+        <v>11000</v>
       </c>
       <c r="O142" t="n">
-        <v>9000</v>
+        <v>11000</v>
       </c>
       <c r="P142" t="n">
-        <v>9000</v>
+        <v>11000</v>
       </c>
       <c r="Q142" t="inlineStr">
         <is>
@@ -11746,7 +11746,7 @@
         </is>
       </c>
       <c r="S142" t="n">
-        <v>500</v>
+        <v>611</v>
       </c>
       <c r="T142" t="n">
         <v>18</v>
@@ -11767,7 +11767,7 @@
         </is>
       </c>
       <c r="D143" s="2" t="n">
-        <v>44452</v>
+        <v>44385</v>
       </c>
       <c r="E143" t="n">
         <v>7</v>
@@ -11804,16 +11804,16 @@
         </is>
       </c>
       <c r="M143" t="n">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="N143" t="n">
-        <v>12000</v>
+        <v>9000</v>
       </c>
       <c r="O143" t="n">
-        <v>12000</v>
+        <v>9000</v>
       </c>
       <c r="P143" t="n">
-        <v>12000</v>
+        <v>9000</v>
       </c>
       <c r="Q143" t="inlineStr">
         <is>
@@ -11826,7 +11826,7 @@
         </is>
       </c>
       <c r="S143" t="n">
-        <v>667</v>
+        <v>500</v>
       </c>
       <c r="T143" t="n">
         <v>18</v>
@@ -11847,7 +11847,7 @@
         </is>
       </c>
       <c r="D144" s="2" t="n">
-        <v>44453</v>
+        <v>44452</v>
       </c>
       <c r="E144" t="n">
         <v>7</v>
@@ -11884,7 +11884,7 @@
         </is>
       </c>
       <c r="M144" t="n">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="N144" t="n">
         <v>12000</v>
@@ -11897,7 +11897,7 @@
       </c>
       <c r="Q144" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="R144" t="inlineStr">
@@ -11906,10 +11906,10 @@
         </is>
       </c>
       <c r="S144" t="n">
-        <v>1200</v>
+        <v>667</v>
       </c>
       <c r="T144" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
     </row>
     <row r="145">
@@ -11927,7 +11927,7 @@
         </is>
       </c>
       <c r="D145" s="2" t="n">
-        <v>44435</v>
+        <v>44453</v>
       </c>
       <c r="E145" t="n">
         <v>7</v>
@@ -11960,24 +11960,24 @@
       </c>
       <c r="L145" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M145" t="n">
-        <v>390</v>
+        <v>250</v>
       </c>
       <c r="N145" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="O145" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="P145" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="Q145" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R145" t="inlineStr">
@@ -11986,10 +11986,10 @@
         </is>
       </c>
       <c r="S145" t="n">
-        <v>778</v>
+        <v>1200</v>
       </c>
       <c r="T145" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="146">
@@ -12044,20 +12044,20 @@
         </is>
       </c>
       <c r="M146" t="n">
-        <v>160</v>
+        <v>390</v>
       </c>
       <c r="N146" t="n">
-        <v>8000</v>
+        <v>14000</v>
       </c>
       <c r="O146" t="n">
-        <v>8000</v>
+        <v>14000</v>
       </c>
       <c r="P146" t="n">
-        <v>8000</v>
+        <v>14000</v>
       </c>
       <c r="Q146" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="R146" t="inlineStr">
@@ -12066,10 +12066,10 @@
         </is>
       </c>
       <c r="S146" t="n">
-        <v>800</v>
+        <v>778</v>
       </c>
       <c r="T146" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
     </row>
     <row r="147">
@@ -12124,20 +12124,20 @@
         </is>
       </c>
       <c r="M147" t="n">
-        <v>330</v>
+        <v>160</v>
       </c>
       <c r="N147" t="n">
-        <v>14000</v>
+        <v>8000</v>
       </c>
       <c r="O147" t="n">
-        <v>14000</v>
+        <v>8000</v>
       </c>
       <c r="P147" t="n">
-        <v>14000</v>
+        <v>8000</v>
       </c>
       <c r="Q147" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="R147" t="inlineStr">
@@ -12146,10 +12146,10 @@
         </is>
       </c>
       <c r="S147" t="n">
-        <v>778</v>
+        <v>800</v>
       </c>
       <c r="T147" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="148">
@@ -12200,24 +12200,24 @@
       </c>
       <c r="L148" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M148" t="n">
-        <v>250</v>
+        <v>330</v>
       </c>
       <c r="N148" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="O148" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="P148" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="Q148" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="R148" t="inlineStr">
@@ -12226,7 +12226,7 @@
         </is>
       </c>
       <c r="S148" t="n">
-        <v>667</v>
+        <v>778</v>
       </c>
       <c r="T148" t="n">
         <v>18</v>
@@ -12284,20 +12284,20 @@
         </is>
       </c>
       <c r="M149" t="n">
-        <v>230</v>
+        <v>250</v>
       </c>
       <c r="N149" t="n">
-        <v>7000</v>
+        <v>12000</v>
       </c>
       <c r="O149" t="n">
-        <v>7000</v>
+        <v>12000</v>
       </c>
       <c r="P149" t="n">
-        <v>7000</v>
+        <v>12000</v>
       </c>
       <c r="Q149" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="R149" t="inlineStr">
@@ -12306,10 +12306,10 @@
         </is>
       </c>
       <c r="S149" t="n">
-        <v>700</v>
+        <v>667</v>
       </c>
       <c r="T149" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
     </row>
     <row r="150">
@@ -12364,20 +12364,20 @@
         </is>
       </c>
       <c r="M150" t="n">
-        <v>180</v>
+        <v>230</v>
       </c>
       <c r="N150" t="n">
-        <v>12000</v>
+        <v>7000</v>
       </c>
       <c r="O150" t="n">
-        <v>12000</v>
+        <v>7000</v>
       </c>
       <c r="P150" t="n">
-        <v>12000</v>
+        <v>7000</v>
       </c>
       <c r="Q150" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="R150" t="inlineStr">
@@ -12386,10 +12386,10 @@
         </is>
       </c>
       <c r="S150" t="n">
-        <v>667</v>
+        <v>700</v>
       </c>
       <c r="T150" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="151">
@@ -12440,24 +12440,24 @@
       </c>
       <c r="L151" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M151" t="n">
-        <v>240</v>
+        <v>180</v>
       </c>
       <c r="N151" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="O151" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="P151" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="Q151" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="R151" t="inlineStr">
@@ -12466,7 +12466,7 @@
         </is>
       </c>
       <c r="S151" t="n">
-        <v>556</v>
+        <v>667</v>
       </c>
       <c r="T151" t="n">
         <v>18</v>
@@ -12487,7 +12487,7 @@
         </is>
       </c>
       <c r="D152" s="2" t="n">
-        <v>44377</v>
+        <v>44435</v>
       </c>
       <c r="E152" t="n">
         <v>7</v>
@@ -12520,11 +12520,11 @@
       </c>
       <c r="L152" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M152" t="n">
-        <v>150</v>
+        <v>240</v>
       </c>
       <c r="N152" t="n">
         <v>10000</v>
@@ -12604,20 +12604,20 @@
         </is>
       </c>
       <c r="M153" t="n">
-        <v>210</v>
+        <v>150</v>
       </c>
       <c r="N153" t="n">
-        <v>6000</v>
+        <v>10000</v>
       </c>
       <c r="O153" t="n">
-        <v>6000</v>
+        <v>10000</v>
       </c>
       <c r="P153" t="n">
-        <v>6000</v>
+        <v>10000</v>
       </c>
       <c r="Q153" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="R153" t="inlineStr">
@@ -12626,10 +12626,10 @@
         </is>
       </c>
       <c r="S153" t="n">
-        <v>600</v>
+        <v>556</v>
       </c>
       <c r="T153" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
     </row>
     <row r="154">
@@ -12680,11 +12680,11 @@
       </c>
       <c r="L154" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M154" t="n">
-        <v>100</v>
+        <v>210</v>
       </c>
       <c r="N154" t="n">
         <v>6000</v>
@@ -12697,7 +12697,7 @@
       </c>
       <c r="Q154" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="R154" t="inlineStr">
@@ -12706,10 +12706,10 @@
         </is>
       </c>
       <c r="S154" t="n">
-        <v>333</v>
+        <v>600</v>
       </c>
       <c r="T154" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="155">
@@ -12727,7 +12727,7 @@
         </is>
       </c>
       <c r="D155" s="2" t="n">
-        <v>44433</v>
+        <v>44377</v>
       </c>
       <c r="E155" t="n">
         <v>7</v>
@@ -12760,24 +12760,24 @@
       </c>
       <c r="L155" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="M155" t="n">
-        <v>120</v>
+        <v>100</v>
       </c>
       <c r="N155" t="n">
-        <v>14000</v>
+        <v>6000</v>
       </c>
       <c r="O155" t="n">
-        <v>14000</v>
+        <v>6000</v>
       </c>
       <c r="P155" t="n">
-        <v>14000</v>
+        <v>6000</v>
       </c>
       <c r="Q155" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="R155" t="inlineStr">
@@ -12786,7 +12786,7 @@
         </is>
       </c>
       <c r="S155" t="n">
-        <v>778</v>
+        <v>333</v>
       </c>
       <c r="T155" t="n">
         <v>18</v>
@@ -12840,20 +12840,20 @@
       </c>
       <c r="L156" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M156" t="n">
-        <v>180</v>
+        <v>120</v>
       </c>
       <c r="N156" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="O156" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="P156" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="Q156" t="inlineStr">
         <is>
@@ -12866,7 +12866,7 @@
         </is>
       </c>
       <c r="S156" t="n">
-        <v>667</v>
+        <v>778</v>
       </c>
       <c r="T156" t="n">
         <v>18</v>
@@ -12887,7 +12887,7 @@
         </is>
       </c>
       <c r="D157" s="2" t="n">
-        <v>44386</v>
+        <v>44433</v>
       </c>
       <c r="E157" t="n">
         <v>7</v>
@@ -12924,20 +12924,20 @@
         </is>
       </c>
       <c r="M157" t="n">
-        <v>300</v>
+        <v>180</v>
       </c>
       <c r="N157" t="n">
-        <v>6000</v>
+        <v>12000</v>
       </c>
       <c r="O157" t="n">
-        <v>6000</v>
+        <v>12000</v>
       </c>
       <c r="P157" t="n">
-        <v>6000</v>
+        <v>12000</v>
       </c>
       <c r="Q157" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="R157" t="inlineStr">
@@ -12946,10 +12946,10 @@
         </is>
       </c>
       <c r="S157" t="n">
-        <v>600</v>
+        <v>667</v>
       </c>
       <c r="T157" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
     </row>
     <row r="158">
@@ -12967,7 +12967,7 @@
         </is>
       </c>
       <c r="D158" s="2" t="n">
-        <v>44384</v>
+        <v>44386</v>
       </c>
       <c r="E158" t="n">
         <v>7</v>
@@ -13004,7 +13004,7 @@
         </is>
       </c>
       <c r="M158" t="n">
-        <v>500</v>
+        <v>300</v>
       </c>
       <c r="N158" t="n">
         <v>6000</v>
@@ -13047,7 +13047,7 @@
         </is>
       </c>
       <c r="D159" s="2" t="n">
-        <v>44263</v>
+        <v>44384</v>
       </c>
       <c r="E159" t="n">
         <v>7</v>
@@ -13084,29 +13084,29 @@
         </is>
       </c>
       <c r="M159" t="n">
-        <v>180</v>
+        <v>500</v>
       </c>
       <c r="N159" t="n">
-        <v>12000</v>
+        <v>6000</v>
       </c>
       <c r="O159" t="n">
-        <v>12000</v>
+        <v>6000</v>
       </c>
       <c r="P159" t="n">
-        <v>12000</v>
+        <v>6000</v>
       </c>
       <c r="Q159" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="R159" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S159" t="n">
-        <v>1200</v>
+        <v>600</v>
       </c>
       <c r="T159" t="n">
         <v>10</v>
@@ -13127,7 +13127,7 @@
         </is>
       </c>
       <c r="D160" s="2" t="n">
-        <v>44363</v>
+        <v>44263</v>
       </c>
       <c r="E160" t="n">
         <v>7</v>
@@ -13164,20 +13164,20 @@
         </is>
       </c>
       <c r="M160" t="n">
-        <v>280</v>
+        <v>180</v>
       </c>
       <c r="N160" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="O160" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="P160" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="Q160" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R160" t="inlineStr">
@@ -13186,10 +13186,10 @@
         </is>
       </c>
       <c r="S160" t="n">
-        <v>556</v>
+        <v>1200</v>
       </c>
       <c r="T160" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="161">
@@ -13240,20 +13240,20 @@
       </c>
       <c r="L161" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M161" t="n">
-        <v>300</v>
+        <v>280</v>
       </c>
       <c r="N161" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="O161" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="P161" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="Q161" t="inlineStr">
         <is>
@@ -13266,7 +13266,7 @@
         </is>
       </c>
       <c r="S161" t="n">
-        <v>444</v>
+        <v>556</v>
       </c>
       <c r="T161" t="n">
         <v>18</v>
@@ -13287,7 +13287,7 @@
         </is>
       </c>
       <c r="D162" s="2" t="n">
-        <v>44306</v>
+        <v>44363</v>
       </c>
       <c r="E162" t="n">
         <v>7</v>
@@ -13320,36 +13320,36 @@
       </c>
       <c r="L162" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M162" t="n">
-        <v>230</v>
+        <v>300</v>
       </c>
       <c r="N162" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="O162" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="P162" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="Q162" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="R162" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S162" t="n">
-        <v>1000</v>
+        <v>444</v>
       </c>
       <c r="T162" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
     </row>
     <row r="163">
@@ -13404,20 +13404,20 @@
         </is>
       </c>
       <c r="M163" t="n">
-        <v>180</v>
+        <v>230</v>
       </c>
       <c r="N163" t="n">
-        <v>13000</v>
+        <v>10000</v>
       </c>
       <c r="O163" t="n">
-        <v>13000</v>
+        <v>10000</v>
       </c>
       <c r="P163" t="n">
-        <v>13000</v>
+        <v>10000</v>
       </c>
       <c r="Q163" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R163" t="inlineStr">
@@ -13426,10 +13426,10 @@
         </is>
       </c>
       <c r="S163" t="n">
-        <v>722</v>
+        <v>1000</v>
       </c>
       <c r="T163" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="164">
@@ -13480,24 +13480,24 @@
       </c>
       <c r="L164" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M164" t="n">
-        <v>230</v>
+        <v>180</v>
       </c>
       <c r="N164" t="n">
-        <v>8000</v>
+        <v>13000</v>
       </c>
       <c r="O164" t="n">
-        <v>8000</v>
+        <v>13000</v>
       </c>
       <c r="P164" t="n">
-        <v>8000</v>
+        <v>13000</v>
       </c>
       <c r="Q164" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="R164" t="inlineStr">
@@ -13506,10 +13506,10 @@
         </is>
       </c>
       <c r="S164" t="n">
-        <v>800</v>
+        <v>722</v>
       </c>
       <c r="T164" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
     </row>
     <row r="165">
@@ -13527,7 +13527,7 @@
         </is>
       </c>
       <c r="D165" s="2" t="n">
-        <v>44369</v>
+        <v>44306</v>
       </c>
       <c r="E165" t="n">
         <v>7</v>
@@ -13560,7 +13560,7 @@
       </c>
       <c r="L165" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M165" t="n">
@@ -13644,20 +13644,20 @@
         </is>
       </c>
       <c r="M166" t="n">
-        <v>100</v>
+        <v>230</v>
       </c>
       <c r="N166" t="n">
-        <v>12000</v>
+        <v>8000</v>
       </c>
       <c r="O166" t="n">
-        <v>12000</v>
+        <v>8000</v>
       </c>
       <c r="P166" t="n">
-        <v>12000</v>
+        <v>8000</v>
       </c>
       <c r="Q166" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R166" t="inlineStr">
@@ -13666,10 +13666,10 @@
         </is>
       </c>
       <c r="S166" t="n">
-        <v>667</v>
+        <v>800</v>
       </c>
       <c r="T166" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="167">
@@ -13720,24 +13720,24 @@
       </c>
       <c r="L167" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M167" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="N167" t="n">
-        <v>6000</v>
+        <v>12000</v>
       </c>
       <c r="O167" t="n">
-        <v>6000</v>
+        <v>12000</v>
       </c>
       <c r="P167" t="n">
-        <v>6000</v>
+        <v>12000</v>
       </c>
       <c r="Q167" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="R167" t="inlineStr">
@@ -13746,10 +13746,10 @@
         </is>
       </c>
       <c r="S167" t="n">
-        <v>600</v>
+        <v>667</v>
       </c>
       <c r="T167" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
     </row>
     <row r="168">
@@ -13804,20 +13804,20 @@
         </is>
       </c>
       <c r="M168" t="n">
-        <v>180</v>
+        <v>200</v>
       </c>
       <c r="N168" t="n">
-        <v>10000</v>
+        <v>6000</v>
       </c>
       <c r="O168" t="n">
-        <v>10000</v>
+        <v>6000</v>
       </c>
       <c r="P168" t="n">
-        <v>10000</v>
+        <v>6000</v>
       </c>
       <c r="Q168" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R168" t="inlineStr">
@@ -13826,10 +13826,10 @@
         </is>
       </c>
       <c r="S168" t="n">
-        <v>556</v>
+        <v>600</v>
       </c>
       <c r="T168" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="169">
@@ -13847,7 +13847,7 @@
         </is>
       </c>
       <c r="D169" s="2" t="n">
-        <v>44357</v>
+        <v>44369</v>
       </c>
       <c r="E169" t="n">
         <v>7</v>
@@ -13880,20 +13880,20 @@
       </c>
       <c r="L169" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M169" t="n">
-        <v>130</v>
+        <v>180</v>
       </c>
       <c r="N169" t="n">
-        <v>13000</v>
+        <v>10000</v>
       </c>
       <c r="O169" t="n">
-        <v>13000</v>
+        <v>10000</v>
       </c>
       <c r="P169" t="n">
-        <v>13000</v>
+        <v>10000</v>
       </c>
       <c r="Q169" t="inlineStr">
         <is>
@@ -13906,7 +13906,7 @@
         </is>
       </c>
       <c r="S169" t="n">
-        <v>722</v>
+        <v>556</v>
       </c>
       <c r="T169" t="n">
         <v>18</v>
@@ -13960,20 +13960,20 @@
       </c>
       <c r="L170" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M170" t="n">
-        <v>190</v>
+        <v>130</v>
       </c>
       <c r="N170" t="n">
-        <v>11000</v>
+        <v>13000</v>
       </c>
       <c r="O170" t="n">
-        <v>11000</v>
+        <v>13000</v>
       </c>
       <c r="P170" t="n">
-        <v>11000</v>
+        <v>13000</v>
       </c>
       <c r="Q170" t="inlineStr">
         <is>
@@ -13986,7 +13986,7 @@
         </is>
       </c>
       <c r="S170" t="n">
-        <v>611</v>
+        <v>722</v>
       </c>
       <c r="T170" t="n">
         <v>18</v>
@@ -14007,7 +14007,7 @@
         </is>
       </c>
       <c r="D171" s="2" t="n">
-        <v>44321</v>
+        <v>44357</v>
       </c>
       <c r="E171" t="n">
         <v>7</v>
@@ -14044,16 +14044,16 @@
         </is>
       </c>
       <c r="M171" t="n">
-        <v>200</v>
+        <v>190</v>
       </c>
       <c r="N171" t="n">
-        <v>13000</v>
+        <v>11000</v>
       </c>
       <c r="O171" t="n">
-        <v>13000</v>
+        <v>11000</v>
       </c>
       <c r="P171" t="n">
-        <v>13000</v>
+        <v>11000</v>
       </c>
       <c r="Q171" t="inlineStr">
         <is>
@@ -14066,7 +14066,7 @@
         </is>
       </c>
       <c r="S171" t="n">
-        <v>722</v>
+        <v>611</v>
       </c>
       <c r="T171" t="n">
         <v>18</v>
@@ -14087,7 +14087,7 @@
         </is>
       </c>
       <c r="D172" s="2" t="n">
-        <v>44397</v>
+        <v>44321</v>
       </c>
       <c r="E172" t="n">
         <v>7</v>
@@ -14120,20 +14120,20 @@
       </c>
       <c r="L172" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M172" t="n">
-        <v>190</v>
+        <v>200</v>
       </c>
       <c r="N172" t="n">
-        <v>14000</v>
+        <v>13000</v>
       </c>
       <c r="O172" t="n">
-        <v>14000</v>
+        <v>13000</v>
       </c>
       <c r="P172" t="n">
-        <v>14000</v>
+        <v>13000</v>
       </c>
       <c r="Q172" t="inlineStr">
         <is>
@@ -14146,7 +14146,7 @@
         </is>
       </c>
       <c r="S172" t="n">
-        <v>778</v>
+        <v>722</v>
       </c>
       <c r="T172" t="n">
         <v>18</v>
@@ -14204,16 +14204,16 @@
         </is>
       </c>
       <c r="M173" t="n">
-        <v>150</v>
+        <v>190</v>
       </c>
       <c r="N173" t="n">
-        <v>13000</v>
+        <v>14000</v>
       </c>
       <c r="O173" t="n">
-        <v>13000</v>
+        <v>14000</v>
       </c>
       <c r="P173" t="n">
-        <v>13000</v>
+        <v>14000</v>
       </c>
       <c r="Q173" t="inlineStr">
         <is>
@@ -14222,11 +14222,11 @@
       </c>
       <c r="R173" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S173" t="n">
-        <v>722</v>
+        <v>778</v>
       </c>
       <c r="T173" t="n">
         <v>18</v>
@@ -14280,20 +14280,20 @@
       </c>
       <c r="L174" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M174" t="n">
-        <v>480</v>
+        <v>150</v>
       </c>
       <c r="N174" t="n">
-        <v>9000</v>
+        <v>13000</v>
       </c>
       <c r="O174" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="P174" t="n">
-        <v>9479</v>
+        <v>13000</v>
       </c>
       <c r="Q174" t="inlineStr">
         <is>
@@ -14302,11 +14302,11 @@
       </c>
       <c r="R174" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S174" t="n">
-        <v>527</v>
+        <v>722</v>
       </c>
       <c r="T174" t="n">
         <v>18</v>
@@ -14327,7 +14327,7 @@
         </is>
       </c>
       <c r="D175" s="2" t="n">
-        <v>44414</v>
+        <v>44397</v>
       </c>
       <c r="E175" t="n">
         <v>7</v>
@@ -14364,20 +14364,20 @@
         </is>
       </c>
       <c r="M175" t="n">
-        <v>150</v>
+        <v>480</v>
       </c>
       <c r="N175" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="O175" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="P175" t="n">
-        <v>8000</v>
+        <v>9479</v>
       </c>
       <c r="Q175" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="R175" t="inlineStr">
@@ -14386,10 +14386,10 @@
         </is>
       </c>
       <c r="S175" t="n">
-        <v>800</v>
+        <v>527</v>
       </c>
       <c r="T175" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
     </row>
     <row r="176">
@@ -14444,20 +14444,20 @@
         </is>
       </c>
       <c r="M176" t="n">
-        <v>190</v>
+        <v>150</v>
       </c>
       <c r="N176" t="n">
-        <v>12000</v>
+        <v>8000</v>
       </c>
       <c r="O176" t="n">
-        <v>12000</v>
+        <v>8000</v>
       </c>
       <c r="P176" t="n">
-        <v>12000</v>
+        <v>8000</v>
       </c>
       <c r="Q176" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R176" t="inlineStr">
@@ -14466,10 +14466,10 @@
         </is>
       </c>
       <c r="S176" t="n">
-        <v>667</v>
+        <v>800</v>
       </c>
       <c r="T176" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="177">
@@ -14520,20 +14520,20 @@
       </c>
       <c r="L177" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M177" t="n">
-        <v>100</v>
+        <v>190</v>
       </c>
       <c r="N177" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="O177" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="P177" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="Q177" t="inlineStr">
         <is>
@@ -14546,7 +14546,7 @@
         </is>
       </c>
       <c r="S177" t="n">
-        <v>556</v>
+        <v>667</v>
       </c>
       <c r="T177" t="n">
         <v>18</v>
@@ -14567,7 +14567,7 @@
         </is>
       </c>
       <c r="D178" s="2" t="n">
-        <v>44333</v>
+        <v>44414</v>
       </c>
       <c r="E178" t="n">
         <v>7</v>
@@ -14600,20 +14600,20 @@
       </c>
       <c r="L178" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M178" t="n">
-        <v>150</v>
+        <v>100</v>
       </c>
       <c r="N178" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="O178" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="P178" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="Q178" t="inlineStr">
         <is>
@@ -14622,11 +14622,11 @@
       </c>
       <c r="R178" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S178" t="n">
-        <v>667</v>
+        <v>556</v>
       </c>
       <c r="T178" t="n">
         <v>18</v>
@@ -14680,20 +14680,20 @@
       </c>
       <c r="L179" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M179" t="n">
-        <v>100</v>
+        <v>150</v>
       </c>
       <c r="N179" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="O179" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="P179" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="Q179" t="inlineStr">
         <is>
@@ -14706,7 +14706,7 @@
         </is>
       </c>
       <c r="S179" t="n">
-        <v>556</v>
+        <v>667</v>
       </c>
       <c r="T179" t="n">
         <v>18</v>
@@ -14727,7 +14727,7 @@
         </is>
       </c>
       <c r="D180" s="2" t="n">
-        <v>44314</v>
+        <v>44333</v>
       </c>
       <c r="E180" t="n">
         <v>7</v>
@@ -14760,36 +14760,36 @@
       </c>
       <c r="L180" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M180" t="n">
-        <v>150</v>
+        <v>100</v>
       </c>
       <c r="N180" t="n">
-        <v>11000</v>
+        <v>10000</v>
       </c>
       <c r="O180" t="n">
-        <v>11000</v>
+        <v>10000</v>
       </c>
       <c r="P180" t="n">
-        <v>11000</v>
+        <v>10000</v>
       </c>
       <c r="Q180" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="R180" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="S180" t="n">
-        <v>1100</v>
+        <v>556</v>
       </c>
       <c r="T180" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
     </row>
     <row r="181">
@@ -14840,20 +14840,20 @@
       </c>
       <c r="L181" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M181" t="n">
-        <v>60</v>
+        <v>150</v>
       </c>
       <c r="N181" t="n">
-        <v>9000</v>
+        <v>11000</v>
       </c>
       <c r="O181" t="n">
-        <v>9000</v>
+        <v>11000</v>
       </c>
       <c r="P181" t="n">
-        <v>9000</v>
+        <v>11000</v>
       </c>
       <c r="Q181" t="inlineStr">
         <is>
@@ -14866,7 +14866,7 @@
         </is>
       </c>
       <c r="S181" t="n">
-        <v>900</v>
+        <v>1100</v>
       </c>
       <c r="T181" t="n">
         <v>10</v>
@@ -14887,7 +14887,7 @@
         </is>
       </c>
       <c r="D182" s="2" t="n">
-        <v>44392</v>
+        <v>44314</v>
       </c>
       <c r="E182" t="n">
         <v>7</v>
@@ -14920,24 +14920,24 @@
       </c>
       <c r="L182" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M182" t="n">
-        <v>200</v>
+        <v>60</v>
       </c>
       <c r="N182" t="n">
-        <v>11000</v>
+        <v>9000</v>
       </c>
       <c r="O182" t="n">
-        <v>11000</v>
+        <v>9000</v>
       </c>
       <c r="P182" t="n">
-        <v>11000</v>
+        <v>9000</v>
       </c>
       <c r="Q182" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R182" t="inlineStr">
@@ -14946,10 +14946,10 @@
         </is>
       </c>
       <c r="S182" t="n">
-        <v>611</v>
+        <v>900</v>
       </c>
       <c r="T182" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="183">
@@ -15000,20 +15000,20 @@
       </c>
       <c r="L183" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M183" t="n">
-        <v>400</v>
+        <v>200</v>
       </c>
       <c r="N183" t="n">
-        <v>9000</v>
+        <v>11000</v>
       </c>
       <c r="O183" t="n">
-        <v>9000</v>
+        <v>11000</v>
       </c>
       <c r="P183" t="n">
-        <v>9000</v>
+        <v>11000</v>
       </c>
       <c r="Q183" t="inlineStr">
         <is>
@@ -15026,7 +15026,7 @@
         </is>
       </c>
       <c r="S183" t="n">
-        <v>500</v>
+        <v>611</v>
       </c>
       <c r="T183" t="n">
         <v>18</v>
@@ -15047,7 +15047,7 @@
         </is>
       </c>
       <c r="D184" s="2" t="n">
-        <v>44425</v>
+        <v>44392</v>
       </c>
       <c r="E184" t="n">
         <v>7</v>
@@ -15080,20 +15080,20 @@
       </c>
       <c r="L184" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M184" t="n">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="N184" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="O184" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="P184" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="Q184" t="inlineStr">
         <is>
@@ -15106,7 +15106,7 @@
         </is>
       </c>
       <c r="S184" t="n">
-        <v>444</v>
+        <v>500</v>
       </c>
       <c r="T184" t="n">
         <v>18</v>
@@ -15127,7 +15127,7 @@
         </is>
       </c>
       <c r="D185" s="2" t="n">
-        <v>44390</v>
+        <v>44425</v>
       </c>
       <c r="E185" t="n">
         <v>7</v>
@@ -15160,20 +15160,20 @@
       </c>
       <c r="L185" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M185" t="n">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="N185" t="n">
-        <v>9000</v>
+        <v>8000</v>
       </c>
       <c r="O185" t="n">
-        <v>9000</v>
+        <v>8000</v>
       </c>
       <c r="P185" t="n">
-        <v>9000</v>
+        <v>8000</v>
       </c>
       <c r="Q185" t="inlineStr">
         <is>
@@ -15186,7 +15186,7 @@
         </is>
       </c>
       <c r="S185" t="n">
-        <v>500</v>
+        <v>444</v>
       </c>
       <c r="T185" t="n">
         <v>18</v>
@@ -15207,7 +15207,7 @@
         </is>
       </c>
       <c r="D186" s="2" t="n">
-        <v>44466</v>
+        <v>44390</v>
       </c>
       <c r="E186" t="n">
         <v>7</v>
@@ -15244,16 +15244,16 @@
         </is>
       </c>
       <c r="M186" t="n">
-        <v>200</v>
+        <v>250</v>
       </c>
       <c r="N186" t="n">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="O186" t="n">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="P186" t="n">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="Q186" t="inlineStr">
         <is>
@@ -15266,7 +15266,7 @@
         </is>
       </c>
       <c r="S186" t="n">
-        <v>556</v>
+        <v>500</v>
       </c>
       <c r="T186" t="n">
         <v>18</v>
@@ -15287,7 +15287,7 @@
         </is>
       </c>
       <c r="D187" s="2" t="n">
-        <v>44438</v>
+        <v>44466</v>
       </c>
       <c r="E187" t="n">
         <v>7</v>
@@ -15320,20 +15320,20 @@
       </c>
       <c r="L187" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M187" t="n">
-        <v>230</v>
+        <v>200</v>
       </c>
       <c r="N187" t="n">
-        <v>13000</v>
+        <v>10000</v>
       </c>
       <c r="O187" t="n">
-        <v>13000</v>
+        <v>10000</v>
       </c>
       <c r="P187" t="n">
-        <v>13000</v>
+        <v>10000</v>
       </c>
       <c r="Q187" t="inlineStr">
         <is>
@@ -15346,7 +15346,7 @@
         </is>
       </c>
       <c r="S187" t="n">
-        <v>722</v>
+        <v>556</v>
       </c>
       <c r="T187" t="n">
         <v>18</v>
@@ -15400,20 +15400,20 @@
       </c>
       <c r="L188" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M188" t="n">
-        <v>300</v>
+        <v>230</v>
       </c>
       <c r="N188" t="n">
-        <v>11000</v>
+        <v>13000</v>
       </c>
       <c r="O188" t="n">
-        <v>11000</v>
+        <v>13000</v>
       </c>
       <c r="P188" t="n">
-        <v>11000</v>
+        <v>13000</v>
       </c>
       <c r="Q188" t="inlineStr">
         <is>
@@ -15426,7 +15426,7 @@
         </is>
       </c>
       <c r="S188" t="n">
-        <v>611</v>
+        <v>722</v>
       </c>
       <c r="T188" t="n">
         <v>18</v>
@@ -15447,7 +15447,7 @@
         </is>
       </c>
       <c r="D189" s="2" t="n">
-        <v>44461</v>
+        <v>44438</v>
       </c>
       <c r="E189" t="n">
         <v>7</v>
@@ -15480,20 +15480,20 @@
       </c>
       <c r="L189" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M189" t="n">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="N189" t="n">
-        <v>12000</v>
+        <v>11000</v>
       </c>
       <c r="O189" t="n">
-        <v>12000</v>
+        <v>11000</v>
       </c>
       <c r="P189" t="n">
-        <v>12000</v>
+        <v>11000</v>
       </c>
       <c r="Q189" t="inlineStr">
         <is>
@@ -15506,7 +15506,7 @@
         </is>
       </c>
       <c r="S189" t="n">
-        <v>667</v>
+        <v>611</v>
       </c>
       <c r="T189" t="n">
         <v>18</v>
@@ -15560,20 +15560,20 @@
       </c>
       <c r="L190" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M190" t="n">
-        <v>150</v>
+        <v>200</v>
       </c>
       <c r="N190" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="O190" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="P190" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="Q190" t="inlineStr">
         <is>
@@ -15586,7 +15586,7 @@
         </is>
       </c>
       <c r="S190" t="n">
-        <v>556</v>
+        <v>667</v>
       </c>
       <c r="T190" t="n">
         <v>18</v>
@@ -15607,7 +15607,7 @@
         </is>
       </c>
       <c r="D191" s="2" t="n">
-        <v>44389</v>
+        <v>44461</v>
       </c>
       <c r="E191" t="n">
         <v>7</v>
@@ -15644,20 +15644,20 @@
         </is>
       </c>
       <c r="M191" t="n">
-        <v>300</v>
+        <v>150</v>
       </c>
       <c r="N191" t="n">
-        <v>6000</v>
+        <v>10000</v>
       </c>
       <c r="O191" t="n">
-        <v>6000</v>
+        <v>10000</v>
       </c>
       <c r="P191" t="n">
-        <v>6000</v>
+        <v>10000</v>
       </c>
       <c r="Q191" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="R191" t="inlineStr">
@@ -15666,10 +15666,10 @@
         </is>
       </c>
       <c r="S191" t="n">
-        <v>600</v>
+        <v>556</v>
       </c>
       <c r="T191" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
     </row>
     <row r="192">
@@ -15687,7 +15687,7 @@
         </is>
       </c>
       <c r="D192" s="2" t="n">
-        <v>44326</v>
+        <v>44389</v>
       </c>
       <c r="E192" t="n">
         <v>7</v>
@@ -15720,24 +15720,24 @@
       </c>
       <c r="L192" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M192" t="n">
-        <v>130</v>
+        <v>300</v>
       </c>
       <c r="N192" t="n">
-        <v>14000</v>
+        <v>6000</v>
       </c>
       <c r="O192" t="n">
-        <v>14000</v>
+        <v>6000</v>
       </c>
       <c r="P192" t="n">
-        <v>14000</v>
+        <v>6000</v>
       </c>
       <c r="Q192" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="R192" t="inlineStr">
@@ -15746,10 +15746,10 @@
         </is>
       </c>
       <c r="S192" t="n">
-        <v>778</v>
+        <v>600</v>
       </c>
       <c r="T192" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="193">
@@ -15800,20 +15800,20 @@
       </c>
       <c r="L193" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M193" t="n">
-        <v>100</v>
+        <v>130</v>
       </c>
       <c r="N193" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="O193" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="P193" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="Q193" t="inlineStr">
         <is>
@@ -15826,7 +15826,7 @@
         </is>
       </c>
       <c r="S193" t="n">
-        <v>667</v>
+        <v>778</v>
       </c>
       <c r="T193" t="n">
         <v>18</v>
@@ -15847,68 +15847,148 @@
         </is>
       </c>
       <c r="D194" s="2" t="n">
+        <v>44326</v>
+      </c>
+      <c r="E194" t="n">
+        <v>7</v>
+      </c>
+      <c r="F194" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G194" t="n">
+        <v>100101</v>
+      </c>
+      <c r="H194" t="inlineStr">
+        <is>
+          <t>Berries</t>
+        </is>
+      </c>
+      <c r="I194" t="n">
+        <v>100101007</v>
+      </c>
+      <c r="J194" t="inlineStr">
+        <is>
+          <t>Kiwi</t>
+        </is>
+      </c>
+      <c r="K194" t="inlineStr">
+        <is>
+          <t>Hayward</t>
+        </is>
+      </c>
+      <c r="L194" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="M194" t="n">
+        <v>100</v>
+      </c>
+      <c r="N194" t="n">
+        <v>12000</v>
+      </c>
+      <c r="O194" t="n">
+        <v>12000</v>
+      </c>
+      <c r="P194" t="n">
+        <v>12000</v>
+      </c>
+      <c r="Q194" t="inlineStr">
+        <is>
+          <t>$/bandeja 18 kilos</t>
+        </is>
+      </c>
+      <c r="R194" t="inlineStr">
+        <is>
+          <t>Provincia de Curicó</t>
+        </is>
+      </c>
+      <c r="S194" t="n">
+        <v>667</v>
+      </c>
+      <c r="T194" t="n">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" t="n">
+        <v>5</v>
+      </c>
+      <c r="B195" t="inlineStr">
+        <is>
+          <t>Macroferia Regional de Talca</t>
+        </is>
+      </c>
+      <c r="C195" t="inlineStr">
+        <is>
+          <t>Maule</t>
+        </is>
+      </c>
+      <c r="D195" s="2" t="n">
         <v>44432</v>
       </c>
-      <c r="E194" t="n">
-        <v>7</v>
-      </c>
-      <c r="F194" t="inlineStr">
-        <is>
-          <t>Fruta</t>
-        </is>
-      </c>
-      <c r="G194" t="n">
-        <v>100101</v>
-      </c>
-      <c r="H194" t="inlineStr">
-        <is>
-          <t>Berries</t>
-        </is>
-      </c>
-      <c r="I194" t="n">
-        <v>100101007</v>
-      </c>
-      <c r="J194" t="inlineStr">
-        <is>
-          <t>Kiwi</t>
-        </is>
-      </c>
-      <c r="K194" t="inlineStr">
-        <is>
-          <t>Hayward</t>
-        </is>
-      </c>
-      <c r="L194" t="inlineStr">
+      <c r="E195" t="n">
+        <v>7</v>
+      </c>
+      <c r="F195" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G195" t="n">
+        <v>100101</v>
+      </c>
+      <c r="H195" t="inlineStr">
+        <is>
+          <t>Berries</t>
+        </is>
+      </c>
+      <c r="I195" t="n">
+        <v>100101007</v>
+      </c>
+      <c r="J195" t="inlineStr">
+        <is>
+          <t>Kiwi</t>
+        </is>
+      </c>
+      <c r="K195" t="inlineStr">
+        <is>
+          <t>Hayward</t>
+        </is>
+      </c>
+      <c r="L195" t="inlineStr">
         <is>
           <t>Especial</t>
         </is>
       </c>
-      <c r="M194" t="n">
+      <c r="M195" t="n">
         <v>210</v>
       </c>
-      <c r="N194" t="n">
+      <c r="N195" t="n">
         <v>14000</v>
       </c>
-      <c r="O194" t="n">
+      <c r="O195" t="n">
         <v>14000</v>
       </c>
-      <c r="P194" t="n">
+      <c r="P195" t="n">
         <v>14000</v>
       </c>
-      <c r="Q194" t="inlineStr">
+      <c r="Q195" t="inlineStr">
         <is>
           <t>$/caja 18 kilos</t>
         </is>
       </c>
-      <c r="R194" t="inlineStr">
-        <is>
-          <t>Provincia de Curicó</t>
-        </is>
-      </c>
-      <c r="S194" t="n">
+      <c r="R195" t="inlineStr">
+        <is>
+          <t>Provincia de Curicó</t>
+        </is>
+      </c>
+      <c r="S195" t="n">
         <v>778</v>
       </c>
-      <c r="T194" t="n">
+      <c r="T195" t="n">
         <v>18</v>
       </c>
     </row>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Macroferia Regional de Talca - Kiwi.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Macroferia Regional de Talca - Kiwi.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T195"/>
+  <dimension ref="A1:T198"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -8727,7 +8727,7 @@
         </is>
       </c>
       <c r="D105" s="2" t="n">
-        <v>44434</v>
+        <v>44488</v>
       </c>
       <c r="E105" t="n">
         <v>7</v>
@@ -8760,20 +8760,20 @@
       </c>
       <c r="L105" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M105" t="n">
-        <v>230</v>
+        <v>100</v>
       </c>
       <c r="N105" t="n">
-        <v>14000</v>
+        <v>17000</v>
       </c>
       <c r="O105" t="n">
-        <v>14000</v>
+        <v>17000</v>
       </c>
       <c r="P105" t="n">
-        <v>14000</v>
+        <v>17000</v>
       </c>
       <c r="Q105" t="inlineStr">
         <is>
@@ -8786,7 +8786,7 @@
         </is>
       </c>
       <c r="S105" t="n">
-        <v>778</v>
+        <v>944</v>
       </c>
       <c r="T105" t="n">
         <v>18</v>
@@ -8807,7 +8807,7 @@
         </is>
       </c>
       <c r="D106" s="2" t="n">
-        <v>44434</v>
+        <v>44488</v>
       </c>
       <c r="E106" t="n">
         <v>7</v>
@@ -8840,24 +8840,24 @@
       </c>
       <c r="L106" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M106" t="n">
-        <v>160</v>
+        <v>30</v>
       </c>
       <c r="N106" t="n">
-        <v>8000</v>
+        <v>15000</v>
       </c>
       <c r="O106" t="n">
-        <v>8000</v>
+        <v>15000</v>
       </c>
       <c r="P106" t="n">
-        <v>8000</v>
+        <v>15000</v>
       </c>
       <c r="Q106" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="R106" t="inlineStr">
@@ -8866,10 +8866,10 @@
         </is>
       </c>
       <c r="S106" t="n">
-        <v>800</v>
+        <v>833</v>
       </c>
       <c r="T106" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
     </row>
     <row r="107">
@@ -8887,7 +8887,7 @@
         </is>
       </c>
       <c r="D107" s="2" t="n">
-        <v>44434</v>
+        <v>44488</v>
       </c>
       <c r="E107" t="n">
         <v>7</v>
@@ -8920,11 +8920,11 @@
       </c>
       <c r="L107" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="M107" t="n">
-        <v>150</v>
+        <v>50</v>
       </c>
       <c r="N107" t="n">
         <v>12000</v>
@@ -9000,24 +9000,24 @@
       </c>
       <c r="L108" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M108" t="n">
         <v>230</v>
       </c>
       <c r="N108" t="n">
-        <v>7000</v>
+        <v>14000</v>
       </c>
       <c r="O108" t="n">
-        <v>7000</v>
+        <v>14000</v>
       </c>
       <c r="P108" t="n">
-        <v>7000</v>
+        <v>14000</v>
       </c>
       <c r="Q108" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="R108" t="inlineStr">
@@ -9026,10 +9026,10 @@
         </is>
       </c>
       <c r="S108" t="n">
-        <v>700</v>
+        <v>778</v>
       </c>
       <c r="T108" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
     </row>
     <row r="109">
@@ -9080,24 +9080,24 @@
       </c>
       <c r="L109" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M109" t="n">
-        <v>120</v>
+        <v>160</v>
       </c>
       <c r="N109" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="O109" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="P109" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="Q109" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="R109" t="inlineStr">
@@ -9106,10 +9106,10 @@
         </is>
       </c>
       <c r="S109" t="n">
-        <v>556</v>
+        <v>800</v>
       </c>
       <c r="T109" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="110">
@@ -9127,7 +9127,7 @@
         </is>
       </c>
       <c r="D110" s="2" t="n">
-        <v>44351</v>
+        <v>44434</v>
       </c>
       <c r="E110" t="n">
         <v>7</v>
@@ -9160,20 +9160,20 @@
       </c>
       <c r="L110" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M110" t="n">
-        <v>260</v>
+        <v>150</v>
       </c>
       <c r="N110" t="n">
-        <v>11000</v>
+        <v>12000</v>
       </c>
       <c r="O110" t="n">
-        <v>11000</v>
+        <v>12000</v>
       </c>
       <c r="P110" t="n">
-        <v>11000</v>
+        <v>12000</v>
       </c>
       <c r="Q110" t="inlineStr">
         <is>
@@ -9186,7 +9186,7 @@
         </is>
       </c>
       <c r="S110" t="n">
-        <v>611</v>
+        <v>667</v>
       </c>
       <c r="T110" t="n">
         <v>18</v>
@@ -9207,7 +9207,7 @@
         </is>
       </c>
       <c r="D111" s="2" t="n">
-        <v>44351</v>
+        <v>44434</v>
       </c>
       <c r="E111" t="n">
         <v>7</v>
@@ -9244,20 +9244,20 @@
         </is>
       </c>
       <c r="M111" t="n">
-        <v>200</v>
+        <v>230</v>
       </c>
       <c r="N111" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="O111" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="P111" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="Q111" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="R111" t="inlineStr">
@@ -9266,10 +9266,10 @@
         </is>
       </c>
       <c r="S111" t="n">
-        <v>556</v>
+        <v>700</v>
       </c>
       <c r="T111" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="112">
@@ -9287,7 +9287,7 @@
         </is>
       </c>
       <c r="D112" s="2" t="n">
-        <v>44351</v>
+        <v>44434</v>
       </c>
       <c r="E112" t="n">
         <v>7</v>
@@ -9320,36 +9320,36 @@
       </c>
       <c r="L112" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M112" t="n">
-        <v>230</v>
+        <v>120</v>
       </c>
       <c r="N112" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="O112" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="P112" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="Q112" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="R112" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S112" t="n">
-        <v>800</v>
+        <v>556</v>
       </c>
       <c r="T112" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
     </row>
     <row r="113">
@@ -9367,7 +9367,7 @@
         </is>
       </c>
       <c r="D113" s="2" t="n">
-        <v>44280</v>
+        <v>44351</v>
       </c>
       <c r="E113" t="n">
         <v>7</v>
@@ -9400,24 +9400,24 @@
       </c>
       <c r="L113" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M113" t="n">
-        <v>100</v>
+        <v>260</v>
       </c>
       <c r="N113" t="n">
-        <v>10000</v>
+        <v>11000</v>
       </c>
       <c r="O113" t="n">
-        <v>10000</v>
+        <v>11000</v>
       </c>
       <c r="P113" t="n">
-        <v>10000</v>
+        <v>11000</v>
       </c>
       <c r="Q113" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="R113" t="inlineStr">
@@ -9426,10 +9426,10 @@
         </is>
       </c>
       <c r="S113" t="n">
-        <v>1000</v>
+        <v>611</v>
       </c>
       <c r="T113" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
     </row>
     <row r="114">
@@ -9447,7 +9447,7 @@
         </is>
       </c>
       <c r="D114" s="2" t="n">
-        <v>44280</v>
+        <v>44351</v>
       </c>
       <c r="E114" t="n">
         <v>7</v>
@@ -9480,24 +9480,24 @@
       </c>
       <c r="L114" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M114" t="n">
-        <v>60</v>
+        <v>200</v>
       </c>
       <c r="N114" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="O114" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="P114" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="Q114" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="R114" t="inlineStr">
@@ -9506,10 +9506,10 @@
         </is>
       </c>
       <c r="S114" t="n">
-        <v>800</v>
+        <v>556</v>
       </c>
       <c r="T114" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
     </row>
     <row r="115">
@@ -9527,7 +9527,7 @@
         </is>
       </c>
       <c r="D115" s="2" t="n">
-        <v>44445</v>
+        <v>44351</v>
       </c>
       <c r="E115" t="n">
         <v>7</v>
@@ -9564,32 +9564,32 @@
         </is>
       </c>
       <c r="M115" t="n">
-        <v>200</v>
+        <v>230</v>
       </c>
       <c r="N115" t="n">
-        <v>12000</v>
+        <v>8000</v>
       </c>
       <c r="O115" t="n">
-        <v>12000</v>
+        <v>8000</v>
       </c>
       <c r="P115" t="n">
-        <v>12000</v>
+        <v>8000</v>
       </c>
       <c r="Q115" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="R115" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S115" t="n">
-        <v>667</v>
+        <v>800</v>
       </c>
       <c r="T115" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="116">
@@ -9607,7 +9607,7 @@
         </is>
       </c>
       <c r="D116" s="2" t="n">
-        <v>44407</v>
+        <v>44280</v>
       </c>
       <c r="E116" t="n">
         <v>7</v>
@@ -9640,24 +9640,24 @@
       </c>
       <c r="L116" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M116" t="n">
-        <v>60</v>
+        <v>100</v>
       </c>
       <c r="N116" t="n">
-        <v>13000</v>
+        <v>10000</v>
       </c>
       <c r="O116" t="n">
-        <v>13000</v>
+        <v>10000</v>
       </c>
       <c r="P116" t="n">
-        <v>13000</v>
+        <v>10000</v>
       </c>
       <c r="Q116" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="R116" t="inlineStr">
@@ -9666,10 +9666,10 @@
         </is>
       </c>
       <c r="S116" t="n">
-        <v>722</v>
+        <v>1000</v>
       </c>
       <c r="T116" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="117">
@@ -9687,7 +9687,7 @@
         </is>
       </c>
       <c r="D117" s="2" t="n">
-        <v>44407</v>
+        <v>44280</v>
       </c>
       <c r="E117" t="n">
         <v>7</v>
@@ -9720,24 +9720,24 @@
       </c>
       <c r="L117" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M117" t="n">
-        <v>150</v>
+        <v>60</v>
       </c>
       <c r="N117" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="O117" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="P117" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="Q117" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="R117" t="inlineStr">
@@ -9746,10 +9746,10 @@
         </is>
       </c>
       <c r="S117" t="n">
-        <v>556</v>
+        <v>800</v>
       </c>
       <c r="T117" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="118">
@@ -9767,7 +9767,7 @@
         </is>
       </c>
       <c r="D118" s="2" t="n">
-        <v>44407</v>
+        <v>44445</v>
       </c>
       <c r="E118" t="n">
         <v>7</v>
@@ -9800,20 +9800,20 @@
       </c>
       <c r="L118" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M118" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="N118" t="n">
-        <v>8000</v>
+        <v>12000</v>
       </c>
       <c r="O118" t="n">
-        <v>8000</v>
+        <v>12000</v>
       </c>
       <c r="P118" t="n">
-        <v>8000</v>
+        <v>12000</v>
       </c>
       <c r="Q118" t="inlineStr">
         <is>
@@ -9826,7 +9826,7 @@
         </is>
       </c>
       <c r="S118" t="n">
-        <v>444</v>
+        <v>667</v>
       </c>
       <c r="T118" t="n">
         <v>18</v>
@@ -9847,7 +9847,7 @@
         </is>
       </c>
       <c r="D119" s="2" t="n">
-        <v>44358</v>
+        <v>44407</v>
       </c>
       <c r="E119" t="n">
         <v>7</v>
@@ -9884,7 +9884,7 @@
         </is>
       </c>
       <c r="M119" t="n">
-        <v>230</v>
+        <v>60</v>
       </c>
       <c r="N119" t="n">
         <v>13000</v>
@@ -9927,7 +9927,7 @@
         </is>
       </c>
       <c r="D120" s="2" t="n">
-        <v>44358</v>
+        <v>44407</v>
       </c>
       <c r="E120" t="n">
         <v>7</v>
@@ -9960,24 +9960,24 @@
       </c>
       <c r="L120" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M120" t="n">
-        <v>250</v>
+        <v>150</v>
       </c>
       <c r="N120" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="O120" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="P120" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="Q120" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="R120" t="inlineStr">
@@ -9986,10 +9986,10 @@
         </is>
       </c>
       <c r="S120" t="n">
-        <v>900</v>
+        <v>556</v>
       </c>
       <c r="T120" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
     </row>
     <row r="121">
@@ -10007,7 +10007,7 @@
         </is>
       </c>
       <c r="D121" s="2" t="n">
-        <v>44358</v>
+        <v>44407</v>
       </c>
       <c r="E121" t="n">
         <v>7</v>
@@ -10040,20 +10040,20 @@
       </c>
       <c r="L121" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M121" t="n">
-        <v>210</v>
+        <v>100</v>
       </c>
       <c r="N121" t="n">
-        <v>11000</v>
+        <v>8000</v>
       </c>
       <c r="O121" t="n">
-        <v>11000</v>
+        <v>8000</v>
       </c>
       <c r="P121" t="n">
-        <v>11000</v>
+        <v>8000</v>
       </c>
       <c r="Q121" t="inlineStr">
         <is>
@@ -10066,7 +10066,7 @@
         </is>
       </c>
       <c r="S121" t="n">
-        <v>611</v>
+        <v>444</v>
       </c>
       <c r="T121" t="n">
         <v>18</v>
@@ -10120,24 +10120,24 @@
       </c>
       <c r="L122" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M122" t="n">
-        <v>200</v>
+        <v>230</v>
       </c>
       <c r="N122" t="n">
-        <v>7000</v>
+        <v>13000</v>
       </c>
       <c r="O122" t="n">
-        <v>7000</v>
+        <v>13000</v>
       </c>
       <c r="P122" t="n">
-        <v>7000</v>
+        <v>13000</v>
       </c>
       <c r="Q122" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="R122" t="inlineStr">
@@ -10146,10 +10146,10 @@
         </is>
       </c>
       <c r="S122" t="n">
-        <v>700</v>
+        <v>722</v>
       </c>
       <c r="T122" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
     </row>
     <row r="123">
@@ -10200,11 +10200,11 @@
       </c>
       <c r="L123" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M123" t="n">
-        <v>190</v>
+        <v>250</v>
       </c>
       <c r="N123" t="n">
         <v>9000</v>
@@ -10217,7 +10217,7 @@
       </c>
       <c r="Q123" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="R123" t="inlineStr">
@@ -10226,10 +10226,10 @@
         </is>
       </c>
       <c r="S123" t="n">
-        <v>500</v>
+        <v>900</v>
       </c>
       <c r="T123" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="124">
@@ -10247,7 +10247,7 @@
         </is>
       </c>
       <c r="D124" s="2" t="n">
-        <v>44391</v>
+        <v>44358</v>
       </c>
       <c r="E124" t="n">
         <v>7</v>
@@ -10280,11 +10280,11 @@
       </c>
       <c r="L124" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M124" t="n">
-        <v>200</v>
+        <v>210</v>
       </c>
       <c r="N124" t="n">
         <v>11000</v>
@@ -10327,7 +10327,7 @@
         </is>
       </c>
       <c r="D125" s="2" t="n">
-        <v>44391</v>
+        <v>44358</v>
       </c>
       <c r="E125" t="n">
         <v>7</v>
@@ -10364,20 +10364,20 @@
         </is>
       </c>
       <c r="M125" t="n">
-        <v>250</v>
+        <v>200</v>
       </c>
       <c r="N125" t="n">
-        <v>9500</v>
+        <v>7000</v>
       </c>
       <c r="O125" t="n">
-        <v>9500</v>
+        <v>7000</v>
       </c>
       <c r="P125" t="n">
-        <v>9500</v>
+        <v>7000</v>
       </c>
       <c r="Q125" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="R125" t="inlineStr">
@@ -10386,10 +10386,10 @@
         </is>
       </c>
       <c r="S125" t="n">
-        <v>528</v>
+        <v>700</v>
       </c>
       <c r="T125" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="126">
@@ -10407,7 +10407,7 @@
         </is>
       </c>
       <c r="D126" s="2" t="n">
-        <v>44320</v>
+        <v>44358</v>
       </c>
       <c r="E126" t="n">
         <v>7</v>
@@ -10440,20 +10440,20 @@
       </c>
       <c r="L126" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M126" t="n">
-        <v>120</v>
+        <v>190</v>
       </c>
       <c r="N126" t="n">
-        <v>13000</v>
+        <v>9000</v>
       </c>
       <c r="O126" t="n">
-        <v>13000</v>
+        <v>9000</v>
       </c>
       <c r="P126" t="n">
-        <v>13000</v>
+        <v>9000</v>
       </c>
       <c r="Q126" t="inlineStr">
         <is>
@@ -10466,7 +10466,7 @@
         </is>
       </c>
       <c r="S126" t="n">
-        <v>722</v>
+        <v>500</v>
       </c>
       <c r="T126" t="n">
         <v>18</v>
@@ -10487,7 +10487,7 @@
         </is>
       </c>
       <c r="D127" s="2" t="n">
-        <v>44320</v>
+        <v>44391</v>
       </c>
       <c r="E127" t="n">
         <v>7</v>
@@ -10524,20 +10524,20 @@
         </is>
       </c>
       <c r="M127" t="n">
-        <v>150</v>
+        <v>200</v>
       </c>
       <c r="N127" t="n">
-        <v>10000</v>
+        <v>11000</v>
       </c>
       <c r="O127" t="n">
-        <v>10000</v>
+        <v>11000</v>
       </c>
       <c r="P127" t="n">
-        <v>10000</v>
+        <v>11000</v>
       </c>
       <c r="Q127" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="R127" t="inlineStr">
@@ -10546,10 +10546,10 @@
         </is>
       </c>
       <c r="S127" t="n">
-        <v>1000</v>
+        <v>611</v>
       </c>
       <c r="T127" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
     </row>
     <row r="128">
@@ -10567,7 +10567,7 @@
         </is>
       </c>
       <c r="D128" s="2" t="n">
-        <v>44320</v>
+        <v>44391</v>
       </c>
       <c r="E128" t="n">
         <v>7</v>
@@ -10604,20 +10604,20 @@
         </is>
       </c>
       <c r="M128" t="n">
-        <v>300</v>
+        <v>250</v>
       </c>
       <c r="N128" t="n">
-        <v>10000</v>
+        <v>9500</v>
       </c>
       <c r="O128" t="n">
-        <v>10000</v>
+        <v>9500</v>
       </c>
       <c r="P128" t="n">
-        <v>10000</v>
+        <v>9500</v>
       </c>
       <c r="Q128" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="R128" t="inlineStr">
@@ -10626,10 +10626,10 @@
         </is>
       </c>
       <c r="S128" t="n">
-        <v>1000</v>
+        <v>528</v>
       </c>
       <c r="T128" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
     </row>
     <row r="129">
@@ -10680,20 +10680,20 @@
       </c>
       <c r="L129" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M129" t="n">
-        <v>100</v>
+        <v>120</v>
       </c>
       <c r="N129" t="n">
-        <v>11000</v>
+        <v>13000</v>
       </c>
       <c r="O129" t="n">
-        <v>11000</v>
+        <v>13000</v>
       </c>
       <c r="P129" t="n">
-        <v>11000</v>
+        <v>13000</v>
       </c>
       <c r="Q129" t="inlineStr">
         <is>
@@ -10706,7 +10706,7 @@
         </is>
       </c>
       <c r="S129" t="n">
-        <v>611</v>
+        <v>722</v>
       </c>
       <c r="T129" t="n">
         <v>18</v>
@@ -10727,7 +10727,7 @@
         </is>
       </c>
       <c r="D130" s="2" t="n">
-        <v>44349</v>
+        <v>44320</v>
       </c>
       <c r="E130" t="n">
         <v>7</v>
@@ -10764,7 +10764,7 @@
         </is>
       </c>
       <c r="M130" t="n">
-        <v>180</v>
+        <v>150</v>
       </c>
       <c r="N130" t="n">
         <v>10000</v>
@@ -10777,7 +10777,7 @@
       </c>
       <c r="Q130" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="R130" t="inlineStr">
@@ -10786,10 +10786,10 @@
         </is>
       </c>
       <c r="S130" t="n">
-        <v>556</v>
+        <v>1000</v>
       </c>
       <c r="T130" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="131">
@@ -10807,7 +10807,7 @@
         </is>
       </c>
       <c r="D131" s="2" t="n">
-        <v>44349</v>
+        <v>44320</v>
       </c>
       <c r="E131" t="n">
         <v>7</v>
@@ -10844,20 +10844,20 @@
         </is>
       </c>
       <c r="M131" t="n">
-        <v>230</v>
+        <v>300</v>
       </c>
       <c r="N131" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="O131" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="P131" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="Q131" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R131" t="inlineStr">
@@ -10866,10 +10866,10 @@
         </is>
       </c>
       <c r="S131" t="n">
-        <v>444</v>
+        <v>1000</v>
       </c>
       <c r="T131" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="132">
@@ -10887,7 +10887,7 @@
         </is>
       </c>
       <c r="D132" s="2" t="n">
-        <v>44372</v>
+        <v>44320</v>
       </c>
       <c r="E132" t="n">
         <v>7</v>
@@ -10920,11 +10920,11 @@
       </c>
       <c r="L132" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M132" t="n">
-        <v>130</v>
+        <v>100</v>
       </c>
       <c r="N132" t="n">
         <v>11000</v>
@@ -10967,7 +10967,7 @@
         </is>
       </c>
       <c r="D133" s="2" t="n">
-        <v>44372</v>
+        <v>44349</v>
       </c>
       <c r="E133" t="n">
         <v>7</v>
@@ -11000,20 +11000,20 @@
       </c>
       <c r="L133" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M133" t="n">
-        <v>120</v>
+        <v>180</v>
       </c>
       <c r="N133" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="O133" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="P133" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="Q133" t="inlineStr">
         <is>
@@ -11026,7 +11026,7 @@
         </is>
       </c>
       <c r="S133" t="n">
-        <v>500</v>
+        <v>556</v>
       </c>
       <c r="T133" t="n">
         <v>18</v>
@@ -11047,7 +11047,7 @@
         </is>
       </c>
       <c r="D134" s="2" t="n">
-        <v>44372</v>
+        <v>44349</v>
       </c>
       <c r="E134" t="n">
         <v>7</v>
@@ -11080,20 +11080,20 @@
       </c>
       <c r="L134" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M134" t="n">
-        <v>100</v>
+        <v>230</v>
       </c>
       <c r="N134" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="O134" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="P134" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="Q134" t="inlineStr">
         <is>
@@ -11106,7 +11106,7 @@
         </is>
       </c>
       <c r="S134" t="n">
-        <v>389</v>
+        <v>444</v>
       </c>
       <c r="T134" t="n">
         <v>18</v>
@@ -11127,7 +11127,7 @@
         </is>
       </c>
       <c r="D135" s="2" t="n">
-        <v>44350</v>
+        <v>44372</v>
       </c>
       <c r="E135" t="n">
         <v>7</v>
@@ -11177,12 +11177,12 @@
       </c>
       <c r="Q135" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos granel</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="R135" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S135" t="n">
@@ -11207,7 +11207,7 @@
         </is>
       </c>
       <c r="D136" s="2" t="n">
-        <v>44350</v>
+        <v>44372</v>
       </c>
       <c r="E136" t="n">
         <v>7</v>
@@ -11244,7 +11244,7 @@
         </is>
       </c>
       <c r="M136" t="n">
-        <v>360</v>
+        <v>120</v>
       </c>
       <c r="N136" t="n">
         <v>9000</v>
@@ -11257,7 +11257,7 @@
       </c>
       <c r="Q136" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos granel</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="R136" t="inlineStr">
@@ -11287,7 +11287,7 @@
         </is>
       </c>
       <c r="D137" s="2" t="n">
-        <v>44350</v>
+        <v>44372</v>
       </c>
       <c r="E137" t="n">
         <v>7</v>
@@ -11320,33 +11320,33 @@
       </c>
       <c r="L137" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M137" t="n">
         <v>100</v>
       </c>
       <c r="N137" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="O137" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="P137" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="Q137" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos granel</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="R137" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S137" t="n">
-        <v>500</v>
+        <v>389</v>
       </c>
       <c r="T137" t="n">
         <v>18</v>
@@ -11400,33 +11400,33 @@
       </c>
       <c r="L138" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M138" t="n">
-        <v>210</v>
+        <v>130</v>
       </c>
       <c r="N138" t="n">
-        <v>7000</v>
+        <v>11000</v>
       </c>
       <c r="O138" t="n">
-        <v>7000</v>
+        <v>11000</v>
       </c>
       <c r="P138" t="n">
-        <v>7000</v>
+        <v>11000</v>
       </c>
       <c r="Q138" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 18 kilos granel</t>
         </is>
       </c>
       <c r="R138" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S138" t="n">
-        <v>389</v>
+        <v>611</v>
       </c>
       <c r="T138" t="n">
         <v>18</v>
@@ -11480,20 +11480,20 @@
       </c>
       <c r="L139" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M139" t="n">
-        <v>150</v>
+        <v>360</v>
       </c>
       <c r="N139" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="O139" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="P139" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="Q139" t="inlineStr">
         <is>
@@ -11502,11 +11502,11 @@
       </c>
       <c r="R139" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S139" t="n">
-        <v>389</v>
+        <v>500</v>
       </c>
       <c r="T139" t="n">
         <v>18</v>
@@ -11527,7 +11527,7 @@
         </is>
       </c>
       <c r="D140" s="2" t="n">
-        <v>44448</v>
+        <v>44350</v>
       </c>
       <c r="E140" t="n">
         <v>7</v>
@@ -11560,33 +11560,33 @@
       </c>
       <c r="L140" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M140" t="n">
-        <v>180</v>
+        <v>100</v>
       </c>
       <c r="N140" t="n">
-        <v>13000</v>
+        <v>9000</v>
       </c>
       <c r="O140" t="n">
-        <v>13000</v>
+        <v>9000</v>
       </c>
       <c r="P140" t="n">
-        <v>13000</v>
+        <v>9000</v>
       </c>
       <c r="Q140" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/caja 18 kilos granel</t>
         </is>
       </c>
       <c r="R140" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S140" t="n">
-        <v>722</v>
+        <v>500</v>
       </c>
       <c r="T140" t="n">
         <v>18</v>
@@ -11607,7 +11607,7 @@
         </is>
       </c>
       <c r="D141" s="2" t="n">
-        <v>44448</v>
+        <v>44350</v>
       </c>
       <c r="E141" t="n">
         <v>7</v>
@@ -11640,24 +11640,24 @@
       </c>
       <c r="L141" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M141" t="n">
-        <v>230</v>
+        <v>210</v>
       </c>
       <c r="N141" t="n">
-        <v>11000</v>
+        <v>7000</v>
       </c>
       <c r="O141" t="n">
-        <v>11000</v>
+        <v>7000</v>
       </c>
       <c r="P141" t="n">
-        <v>11000</v>
+        <v>7000</v>
       </c>
       <c r="Q141" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="R141" t="inlineStr">
@@ -11666,7 +11666,7 @@
         </is>
       </c>
       <c r="S141" t="n">
-        <v>611</v>
+        <v>389</v>
       </c>
       <c r="T141" t="n">
         <v>18</v>
@@ -11687,7 +11687,7 @@
         </is>
       </c>
       <c r="D142" s="2" t="n">
-        <v>44385</v>
+        <v>44350</v>
       </c>
       <c r="E142" t="n">
         <v>7</v>
@@ -11720,33 +11720,33 @@
       </c>
       <c r="L142" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M142" t="n">
-        <v>230</v>
+        <v>150</v>
       </c>
       <c r="N142" t="n">
-        <v>11000</v>
+        <v>7000</v>
       </c>
       <c r="O142" t="n">
-        <v>11000</v>
+        <v>7000</v>
       </c>
       <c r="P142" t="n">
-        <v>11000</v>
+        <v>7000</v>
       </c>
       <c r="Q142" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 18 kilos granel</t>
         </is>
       </c>
       <c r="R142" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S142" t="n">
-        <v>611</v>
+        <v>389</v>
       </c>
       <c r="T142" t="n">
         <v>18</v>
@@ -11767,7 +11767,7 @@
         </is>
       </c>
       <c r="D143" s="2" t="n">
-        <v>44385</v>
+        <v>44448</v>
       </c>
       <c r="E143" t="n">
         <v>7</v>
@@ -11800,24 +11800,24 @@
       </c>
       <c r="L143" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M143" t="n">
-        <v>200</v>
+        <v>180</v>
       </c>
       <c r="N143" t="n">
-        <v>9000</v>
+        <v>13000</v>
       </c>
       <c r="O143" t="n">
-        <v>9000</v>
+        <v>13000</v>
       </c>
       <c r="P143" t="n">
-        <v>9000</v>
+        <v>13000</v>
       </c>
       <c r="Q143" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="R143" t="inlineStr">
@@ -11826,7 +11826,7 @@
         </is>
       </c>
       <c r="S143" t="n">
-        <v>500</v>
+        <v>722</v>
       </c>
       <c r="T143" t="n">
         <v>18</v>
@@ -11847,7 +11847,7 @@
         </is>
       </c>
       <c r="D144" s="2" t="n">
-        <v>44452</v>
+        <v>44448</v>
       </c>
       <c r="E144" t="n">
         <v>7</v>
@@ -11884,20 +11884,20 @@
         </is>
       </c>
       <c r="M144" t="n">
-        <v>300</v>
+        <v>230</v>
       </c>
       <c r="N144" t="n">
-        <v>12000</v>
+        <v>11000</v>
       </c>
       <c r="O144" t="n">
-        <v>12000</v>
+        <v>11000</v>
       </c>
       <c r="P144" t="n">
-        <v>12000</v>
+        <v>11000</v>
       </c>
       <c r="Q144" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="R144" t="inlineStr">
@@ -11906,7 +11906,7 @@
         </is>
       </c>
       <c r="S144" t="n">
-        <v>667</v>
+        <v>611</v>
       </c>
       <c r="T144" t="n">
         <v>18</v>
@@ -11927,7 +11927,7 @@
         </is>
       </c>
       <c r="D145" s="2" t="n">
-        <v>44453</v>
+        <v>44385</v>
       </c>
       <c r="E145" t="n">
         <v>7</v>
@@ -11960,24 +11960,24 @@
       </c>
       <c r="L145" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M145" t="n">
-        <v>250</v>
+        <v>230</v>
       </c>
       <c r="N145" t="n">
-        <v>12000</v>
+        <v>11000</v>
       </c>
       <c r="O145" t="n">
-        <v>12000</v>
+        <v>11000</v>
       </c>
       <c r="P145" t="n">
-        <v>12000</v>
+        <v>11000</v>
       </c>
       <c r="Q145" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="R145" t="inlineStr">
@@ -11986,10 +11986,10 @@
         </is>
       </c>
       <c r="S145" t="n">
-        <v>1200</v>
+        <v>611</v>
       </c>
       <c r="T145" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
     </row>
     <row r="146">
@@ -12007,7 +12007,7 @@
         </is>
       </c>
       <c r="D146" s="2" t="n">
-        <v>44435</v>
+        <v>44385</v>
       </c>
       <c r="E146" t="n">
         <v>7</v>
@@ -12040,20 +12040,20 @@
       </c>
       <c r="L146" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M146" t="n">
-        <v>390</v>
+        <v>200</v>
       </c>
       <c r="N146" t="n">
-        <v>14000</v>
+        <v>9000</v>
       </c>
       <c r="O146" t="n">
-        <v>14000</v>
+        <v>9000</v>
       </c>
       <c r="P146" t="n">
-        <v>14000</v>
+        <v>9000</v>
       </c>
       <c r="Q146" t="inlineStr">
         <is>
@@ -12066,7 +12066,7 @@
         </is>
       </c>
       <c r="S146" t="n">
-        <v>778</v>
+        <v>500</v>
       </c>
       <c r="T146" t="n">
         <v>18</v>
@@ -12087,7 +12087,7 @@
         </is>
       </c>
       <c r="D147" s="2" t="n">
-        <v>44435</v>
+        <v>44452</v>
       </c>
       <c r="E147" t="n">
         <v>7</v>
@@ -12120,24 +12120,24 @@
       </c>
       <c r="L147" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M147" t="n">
-        <v>160</v>
+        <v>300</v>
       </c>
       <c r="N147" t="n">
-        <v>8000</v>
+        <v>12000</v>
       </c>
       <c r="O147" t="n">
-        <v>8000</v>
+        <v>12000</v>
       </c>
       <c r="P147" t="n">
-        <v>8000</v>
+        <v>12000</v>
       </c>
       <c r="Q147" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="R147" t="inlineStr">
@@ -12146,10 +12146,10 @@
         </is>
       </c>
       <c r="S147" t="n">
-        <v>800</v>
+        <v>667</v>
       </c>
       <c r="T147" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
     </row>
     <row r="148">
@@ -12167,7 +12167,7 @@
         </is>
       </c>
       <c r="D148" s="2" t="n">
-        <v>44435</v>
+        <v>44453</v>
       </c>
       <c r="E148" t="n">
         <v>7</v>
@@ -12200,24 +12200,24 @@
       </c>
       <c r="L148" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M148" t="n">
-        <v>330</v>
+        <v>250</v>
       </c>
       <c r="N148" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="O148" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="P148" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="Q148" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R148" t="inlineStr">
@@ -12226,10 +12226,10 @@
         </is>
       </c>
       <c r="S148" t="n">
-        <v>778</v>
+        <v>1200</v>
       </c>
       <c r="T148" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="149">
@@ -12280,20 +12280,20 @@
       </c>
       <c r="L149" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M149" t="n">
-        <v>250</v>
+        <v>390</v>
       </c>
       <c r="N149" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="O149" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="P149" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="Q149" t="inlineStr">
         <is>
@@ -12306,7 +12306,7 @@
         </is>
       </c>
       <c r="S149" t="n">
-        <v>667</v>
+        <v>778</v>
       </c>
       <c r="T149" t="n">
         <v>18</v>
@@ -12360,20 +12360,20 @@
       </c>
       <c r="L150" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M150" t="n">
-        <v>230</v>
+        <v>160</v>
       </c>
       <c r="N150" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="O150" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="P150" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="Q150" t="inlineStr">
         <is>
@@ -12386,7 +12386,7 @@
         </is>
       </c>
       <c r="S150" t="n">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="T150" t="n">
         <v>10</v>
@@ -12440,20 +12440,20 @@
       </c>
       <c r="L151" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M151" t="n">
-        <v>180</v>
+        <v>330</v>
       </c>
       <c r="N151" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="O151" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="P151" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="Q151" t="inlineStr">
         <is>
@@ -12466,7 +12466,7 @@
         </is>
       </c>
       <c r="S151" t="n">
-        <v>667</v>
+        <v>778</v>
       </c>
       <c r="T151" t="n">
         <v>18</v>
@@ -12520,20 +12520,20 @@
       </c>
       <c r="L152" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M152" t="n">
-        <v>240</v>
+        <v>250</v>
       </c>
       <c r="N152" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="O152" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="P152" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="Q152" t="inlineStr">
         <is>
@@ -12546,7 +12546,7 @@
         </is>
       </c>
       <c r="S152" t="n">
-        <v>556</v>
+        <v>667</v>
       </c>
       <c r="T152" t="n">
         <v>18</v>
@@ -12567,7 +12567,7 @@
         </is>
       </c>
       <c r="D153" s="2" t="n">
-        <v>44377</v>
+        <v>44435</v>
       </c>
       <c r="E153" t="n">
         <v>7</v>
@@ -12604,20 +12604,20 @@
         </is>
       </c>
       <c r="M153" t="n">
-        <v>150</v>
+        <v>230</v>
       </c>
       <c r="N153" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="O153" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="P153" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="Q153" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="R153" t="inlineStr">
@@ -12626,10 +12626,10 @@
         </is>
       </c>
       <c r="S153" t="n">
-        <v>556</v>
+        <v>700</v>
       </c>
       <c r="T153" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="154">
@@ -12647,7 +12647,7 @@
         </is>
       </c>
       <c r="D154" s="2" t="n">
-        <v>44377</v>
+        <v>44435</v>
       </c>
       <c r="E154" t="n">
         <v>7</v>
@@ -12684,20 +12684,20 @@
         </is>
       </c>
       <c r="M154" t="n">
-        <v>210</v>
+        <v>180</v>
       </c>
       <c r="N154" t="n">
-        <v>6000</v>
+        <v>12000</v>
       </c>
       <c r="O154" t="n">
-        <v>6000</v>
+        <v>12000</v>
       </c>
       <c r="P154" t="n">
-        <v>6000</v>
+        <v>12000</v>
       </c>
       <c r="Q154" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="R154" t="inlineStr">
@@ -12706,10 +12706,10 @@
         </is>
       </c>
       <c r="S154" t="n">
-        <v>600</v>
+        <v>667</v>
       </c>
       <c r="T154" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
     </row>
     <row r="155">
@@ -12727,7 +12727,7 @@
         </is>
       </c>
       <c r="D155" s="2" t="n">
-        <v>44377</v>
+        <v>44435</v>
       </c>
       <c r="E155" t="n">
         <v>7</v>
@@ -12760,20 +12760,20 @@
       </c>
       <c r="L155" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M155" t="n">
-        <v>100</v>
+        <v>240</v>
       </c>
       <c r="N155" t="n">
-        <v>6000</v>
+        <v>10000</v>
       </c>
       <c r="O155" t="n">
-        <v>6000</v>
+        <v>10000</v>
       </c>
       <c r="P155" t="n">
-        <v>6000</v>
+        <v>10000</v>
       </c>
       <c r="Q155" t="inlineStr">
         <is>
@@ -12786,7 +12786,7 @@
         </is>
       </c>
       <c r="S155" t="n">
-        <v>333</v>
+        <v>556</v>
       </c>
       <c r="T155" t="n">
         <v>18</v>
@@ -12807,7 +12807,7 @@
         </is>
       </c>
       <c r="D156" s="2" t="n">
-        <v>44433</v>
+        <v>44377</v>
       </c>
       <c r="E156" t="n">
         <v>7</v>
@@ -12840,24 +12840,24 @@
       </c>
       <c r="L156" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M156" t="n">
-        <v>120</v>
+        <v>150</v>
       </c>
       <c r="N156" t="n">
-        <v>14000</v>
+        <v>10000</v>
       </c>
       <c r="O156" t="n">
-        <v>14000</v>
+        <v>10000</v>
       </c>
       <c r="P156" t="n">
-        <v>14000</v>
+        <v>10000</v>
       </c>
       <c r="Q156" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="R156" t="inlineStr">
@@ -12866,7 +12866,7 @@
         </is>
       </c>
       <c r="S156" t="n">
-        <v>778</v>
+        <v>556</v>
       </c>
       <c r="T156" t="n">
         <v>18</v>
@@ -12887,7 +12887,7 @@
         </is>
       </c>
       <c r="D157" s="2" t="n">
-        <v>44433</v>
+        <v>44377</v>
       </c>
       <c r="E157" t="n">
         <v>7</v>
@@ -12924,20 +12924,20 @@
         </is>
       </c>
       <c r="M157" t="n">
-        <v>180</v>
+        <v>210</v>
       </c>
       <c r="N157" t="n">
-        <v>12000</v>
+        <v>6000</v>
       </c>
       <c r="O157" t="n">
-        <v>12000</v>
+        <v>6000</v>
       </c>
       <c r="P157" t="n">
-        <v>12000</v>
+        <v>6000</v>
       </c>
       <c r="Q157" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="R157" t="inlineStr">
@@ -12946,10 +12946,10 @@
         </is>
       </c>
       <c r="S157" t="n">
-        <v>667</v>
+        <v>600</v>
       </c>
       <c r="T157" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="158">
@@ -12967,7 +12967,7 @@
         </is>
       </c>
       <c r="D158" s="2" t="n">
-        <v>44386</v>
+        <v>44377</v>
       </c>
       <c r="E158" t="n">
         <v>7</v>
@@ -13000,11 +13000,11 @@
       </c>
       <c r="L158" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="M158" t="n">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="N158" t="n">
         <v>6000</v>
@@ -13017,7 +13017,7 @@
       </c>
       <c r="Q158" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="R158" t="inlineStr">
@@ -13026,10 +13026,10 @@
         </is>
       </c>
       <c r="S158" t="n">
-        <v>600</v>
+        <v>333</v>
       </c>
       <c r="T158" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
     </row>
     <row r="159">
@@ -13047,7 +13047,7 @@
         </is>
       </c>
       <c r="D159" s="2" t="n">
-        <v>44384</v>
+        <v>44433</v>
       </c>
       <c r="E159" t="n">
         <v>7</v>
@@ -13080,24 +13080,24 @@
       </c>
       <c r="L159" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M159" t="n">
-        <v>500</v>
+        <v>120</v>
       </c>
       <c r="N159" t="n">
-        <v>6000</v>
+        <v>14000</v>
       </c>
       <c r="O159" t="n">
-        <v>6000</v>
+        <v>14000</v>
       </c>
       <c r="P159" t="n">
-        <v>6000</v>
+        <v>14000</v>
       </c>
       <c r="Q159" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="R159" t="inlineStr">
@@ -13106,10 +13106,10 @@
         </is>
       </c>
       <c r="S159" t="n">
-        <v>600</v>
+        <v>778</v>
       </c>
       <c r="T159" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
     </row>
     <row r="160">
@@ -13127,7 +13127,7 @@
         </is>
       </c>
       <c r="D160" s="2" t="n">
-        <v>44263</v>
+        <v>44433</v>
       </c>
       <c r="E160" t="n">
         <v>7</v>
@@ -13177,19 +13177,19 @@
       </c>
       <c r="Q160" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="R160" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S160" t="n">
-        <v>1200</v>
+        <v>667</v>
       </c>
       <c r="T160" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
     </row>
     <row r="161">
@@ -13207,7 +13207,7 @@
         </is>
       </c>
       <c r="D161" s="2" t="n">
-        <v>44363</v>
+        <v>44386</v>
       </c>
       <c r="E161" t="n">
         <v>7</v>
@@ -13244,32 +13244,32 @@
         </is>
       </c>
       <c r="M161" t="n">
-        <v>280</v>
+        <v>300</v>
       </c>
       <c r="N161" t="n">
-        <v>10000</v>
+        <v>6000</v>
       </c>
       <c r="O161" t="n">
-        <v>10000</v>
+        <v>6000</v>
       </c>
       <c r="P161" t="n">
-        <v>10000</v>
+        <v>6000</v>
       </c>
       <c r="Q161" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="R161" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S161" t="n">
-        <v>556</v>
+        <v>600</v>
       </c>
       <c r="T161" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="162">
@@ -13287,7 +13287,7 @@
         </is>
       </c>
       <c r="D162" s="2" t="n">
-        <v>44363</v>
+        <v>44384</v>
       </c>
       <c r="E162" t="n">
         <v>7</v>
@@ -13320,36 +13320,36 @@
       </c>
       <c r="L162" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M162" t="n">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="N162" t="n">
-        <v>8000</v>
+        <v>6000</v>
       </c>
       <c r="O162" t="n">
-        <v>8000</v>
+        <v>6000</v>
       </c>
       <c r="P162" t="n">
-        <v>8000</v>
+        <v>6000</v>
       </c>
       <c r="Q162" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="R162" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S162" t="n">
-        <v>444</v>
+        <v>600</v>
       </c>
       <c r="T162" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="163">
@@ -13367,7 +13367,7 @@
         </is>
       </c>
       <c r="D163" s="2" t="n">
-        <v>44306</v>
+        <v>44263</v>
       </c>
       <c r="E163" t="n">
         <v>7</v>
@@ -13400,20 +13400,20 @@
       </c>
       <c r="L163" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M163" t="n">
-        <v>230</v>
+        <v>180</v>
       </c>
       <c r="N163" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="O163" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="P163" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="Q163" t="inlineStr">
         <is>
@@ -13422,11 +13422,11 @@
       </c>
       <c r="R163" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S163" t="n">
-        <v>1000</v>
+        <v>1200</v>
       </c>
       <c r="T163" t="n">
         <v>10</v>
@@ -13447,7 +13447,7 @@
         </is>
       </c>
       <c r="D164" s="2" t="n">
-        <v>44306</v>
+        <v>44363</v>
       </c>
       <c r="E164" t="n">
         <v>7</v>
@@ -13480,20 +13480,20 @@
       </c>
       <c r="L164" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M164" t="n">
-        <v>180</v>
+        <v>280</v>
       </c>
       <c r="N164" t="n">
-        <v>13000</v>
+        <v>10000</v>
       </c>
       <c r="O164" t="n">
-        <v>13000</v>
+        <v>10000</v>
       </c>
       <c r="P164" t="n">
-        <v>13000</v>
+        <v>10000</v>
       </c>
       <c r="Q164" t="inlineStr">
         <is>
@@ -13502,11 +13502,11 @@
       </c>
       <c r="R164" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S164" t="n">
-        <v>722</v>
+        <v>556</v>
       </c>
       <c r="T164" t="n">
         <v>18</v>
@@ -13527,7 +13527,7 @@
         </is>
       </c>
       <c r="D165" s="2" t="n">
-        <v>44306</v>
+        <v>44363</v>
       </c>
       <c r="E165" t="n">
         <v>7</v>
@@ -13560,11 +13560,11 @@
       </c>
       <c r="L165" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M165" t="n">
-        <v>230</v>
+        <v>300</v>
       </c>
       <c r="N165" t="n">
         <v>8000</v>
@@ -13577,19 +13577,19 @@
       </c>
       <c r="Q165" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="R165" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S165" t="n">
-        <v>800</v>
+        <v>444</v>
       </c>
       <c r="T165" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
     </row>
     <row r="166">
@@ -13607,7 +13607,7 @@
         </is>
       </c>
       <c r="D166" s="2" t="n">
-        <v>44369</v>
+        <v>44306</v>
       </c>
       <c r="E166" t="n">
         <v>7</v>
@@ -13647,13 +13647,13 @@
         <v>230</v>
       </c>
       <c r="N166" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="O166" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="P166" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="Q166" t="inlineStr">
         <is>
@@ -13666,7 +13666,7 @@
         </is>
       </c>
       <c r="S166" t="n">
-        <v>800</v>
+        <v>1000</v>
       </c>
       <c r="T166" t="n">
         <v>10</v>
@@ -13687,7 +13687,7 @@
         </is>
       </c>
       <c r="D167" s="2" t="n">
-        <v>44369</v>
+        <v>44306</v>
       </c>
       <c r="E167" t="n">
         <v>7</v>
@@ -13724,16 +13724,16 @@
         </is>
       </c>
       <c r="M167" t="n">
-        <v>100</v>
+        <v>180</v>
       </c>
       <c r="N167" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="O167" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="P167" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="Q167" t="inlineStr">
         <is>
@@ -13746,7 +13746,7 @@
         </is>
       </c>
       <c r="S167" t="n">
-        <v>667</v>
+        <v>722</v>
       </c>
       <c r="T167" t="n">
         <v>18</v>
@@ -13767,7 +13767,7 @@
         </is>
       </c>
       <c r="D168" s="2" t="n">
-        <v>44369</v>
+        <v>44306</v>
       </c>
       <c r="E168" t="n">
         <v>7</v>
@@ -13804,16 +13804,16 @@
         </is>
       </c>
       <c r="M168" t="n">
-        <v>200</v>
+        <v>230</v>
       </c>
       <c r="N168" t="n">
-        <v>6000</v>
+        <v>8000</v>
       </c>
       <c r="O168" t="n">
-        <v>6000</v>
+        <v>8000</v>
       </c>
       <c r="P168" t="n">
-        <v>6000</v>
+        <v>8000</v>
       </c>
       <c r="Q168" t="inlineStr">
         <is>
@@ -13826,7 +13826,7 @@
         </is>
       </c>
       <c r="S168" t="n">
-        <v>600</v>
+        <v>800</v>
       </c>
       <c r="T168" t="n">
         <v>10</v>
@@ -13880,24 +13880,24 @@
       </c>
       <c r="L169" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M169" t="n">
-        <v>180</v>
+        <v>230</v>
       </c>
       <c r="N169" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="O169" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="P169" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="Q169" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R169" t="inlineStr">
@@ -13906,10 +13906,10 @@
         </is>
       </c>
       <c r="S169" t="n">
-        <v>556</v>
+        <v>800</v>
       </c>
       <c r="T169" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="170">
@@ -13927,7 +13927,7 @@
         </is>
       </c>
       <c r="D170" s="2" t="n">
-        <v>44357</v>
+        <v>44369</v>
       </c>
       <c r="E170" t="n">
         <v>7</v>
@@ -13964,16 +13964,16 @@
         </is>
       </c>
       <c r="M170" t="n">
-        <v>130</v>
+        <v>100</v>
       </c>
       <c r="N170" t="n">
-        <v>13000</v>
+        <v>12000</v>
       </c>
       <c r="O170" t="n">
-        <v>13000</v>
+        <v>12000</v>
       </c>
       <c r="P170" t="n">
-        <v>13000</v>
+        <v>12000</v>
       </c>
       <c r="Q170" t="inlineStr">
         <is>
@@ -13986,7 +13986,7 @@
         </is>
       </c>
       <c r="S170" t="n">
-        <v>722</v>
+        <v>667</v>
       </c>
       <c r="T170" t="n">
         <v>18</v>
@@ -14007,7 +14007,7 @@
         </is>
       </c>
       <c r="D171" s="2" t="n">
-        <v>44357</v>
+        <v>44369</v>
       </c>
       <c r="E171" t="n">
         <v>7</v>
@@ -14044,20 +14044,20 @@
         </is>
       </c>
       <c r="M171" t="n">
-        <v>190</v>
+        <v>200</v>
       </c>
       <c r="N171" t="n">
-        <v>11000</v>
+        <v>6000</v>
       </c>
       <c r="O171" t="n">
-        <v>11000</v>
+        <v>6000</v>
       </c>
       <c r="P171" t="n">
-        <v>11000</v>
+        <v>6000</v>
       </c>
       <c r="Q171" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R171" t="inlineStr">
@@ -14066,10 +14066,10 @@
         </is>
       </c>
       <c r="S171" t="n">
-        <v>611</v>
+        <v>600</v>
       </c>
       <c r="T171" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="172">
@@ -14087,7 +14087,7 @@
         </is>
       </c>
       <c r="D172" s="2" t="n">
-        <v>44321</v>
+        <v>44369</v>
       </c>
       <c r="E172" t="n">
         <v>7</v>
@@ -14124,16 +14124,16 @@
         </is>
       </c>
       <c r="M172" t="n">
-        <v>200</v>
+        <v>180</v>
       </c>
       <c r="N172" t="n">
-        <v>13000</v>
+        <v>10000</v>
       </c>
       <c r="O172" t="n">
-        <v>13000</v>
+        <v>10000</v>
       </c>
       <c r="P172" t="n">
-        <v>13000</v>
+        <v>10000</v>
       </c>
       <c r="Q172" t="inlineStr">
         <is>
@@ -14146,7 +14146,7 @@
         </is>
       </c>
       <c r="S172" t="n">
-        <v>722</v>
+        <v>556</v>
       </c>
       <c r="T172" t="n">
         <v>18</v>
@@ -14167,7 +14167,7 @@
         </is>
       </c>
       <c r="D173" s="2" t="n">
-        <v>44397</v>
+        <v>44357</v>
       </c>
       <c r="E173" t="n">
         <v>7</v>
@@ -14204,16 +14204,16 @@
         </is>
       </c>
       <c r="M173" t="n">
-        <v>190</v>
+        <v>130</v>
       </c>
       <c r="N173" t="n">
-        <v>14000</v>
+        <v>13000</v>
       </c>
       <c r="O173" t="n">
-        <v>14000</v>
+        <v>13000</v>
       </c>
       <c r="P173" t="n">
-        <v>14000</v>
+        <v>13000</v>
       </c>
       <c r="Q173" t="inlineStr">
         <is>
@@ -14226,7 +14226,7 @@
         </is>
       </c>
       <c r="S173" t="n">
-        <v>778</v>
+        <v>722</v>
       </c>
       <c r="T173" t="n">
         <v>18</v>
@@ -14247,7 +14247,7 @@
         </is>
       </c>
       <c r="D174" s="2" t="n">
-        <v>44397</v>
+        <v>44357</v>
       </c>
       <c r="E174" t="n">
         <v>7</v>
